--- a/data/02_intermediate/cleaned_Seth_Gueko_songs.xlsx
+++ b/data/02_intermediate/cleaned_Seth_Gueko_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris La banlieue, c'est des pâquerettes sur un tas d'fumier Bleh Les voix du ghetto sont auto-tunées Wouh Le pied au plancher dans tous les tunnels Micro neuf millimètres, on va t'parfumer Rah Mon freestyle, c'est le gang des Bloods On t'fait chier toute la night comme les gars d'Nuit Debout Ressens le vent qui tourne arriver dans ton hood On fait des selfies avec vos radars d'autoroute Waow Donne un gun à un homme et il braquera une banque Donne une banque à un homme et il braquera le monde J'fais crier la gomme sur les murs d'Matignon en attendant de hacker leurs comptes Wouh Dès que le cur d'un grand homme s'arrête, Paris donne son nom à une artère Moi, j'suis pour qu'le Boulevard de la Villette soit rebaptisé Bouna et Zyed Bordel, yeah, yeah, yeah, yeah, yeah, yeah, yeah, ah J'suis du Grand Paris sans être trop Parisien C'est l'grand remplacement des académiciens Yeah, yeah, yeah, yeah, yeah, check J'fais du son pour les cochons végétariens Ah, ah, ah On fête les émeutes comme tu fêtes la Toussaint J'ai fait le tour d'la France comme un Bohémien De Lille à Marseille en passant par Le Havre Si tu respectes l'Histoire, ce drapeau est mien Respecte-moi, j'ai la couleur des braves Papy t'a défendu, est-c'que tu t'en souviens ? Quatre ans dans un Stalag Mon frère t'a agressé, y a qu'ça tu retiens Tu retiens Accepte ta jeunesse, elle a du caractère Ouais Tu vois pas qu'ils veulent voir Paris par terre Wouh Pas tant qu'on traînera dans ses artères Nan Pas tant qu'on traînera dans ses artères J'arrive en burkini dans une soirée nudiste J'suis l'maillot de Paris sur le dos d'un sudiste Ils aiment casser du sucre sur le dos des sunnites Ouh Mais on a le fuego, on le caramélise Ah Big up à Bruxelles, big up à Nice Ceux qui remontent la A13, ceux qui remontent la A6 C'est ma vie, j'fais mon biff, j'calcule pas les racistes Tellement fier de poser sur l'album de Médine De Médine You might also like La banlieue influence Paname, Paname influence le monde Influence le monde Le 9.3 influence Paname, Paname influence le monde Influence le monde Le Maghreb influence Paname, Paname influence le monde Influence le monde Oui, l'Afrique influence Paname, Paname influence le monde C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris Tch, tch, eh Eh Qu'elle brûle, qu'elle repose en paix la justice, j'ai pas fait qu'allumer le cierge Le cierge Ton territoire, c'est où tu pisses, ils m'ont plastiqué le siège Bombe humaine sur la A3, A6, trop de trafic, coincé dans les bouchons Tch, tch Je rappe, le box est vitré comme aux assises, la rage dans les yeux, la drogue dans les pochons Y a les flammes qu'on éteint, y a les feux qu'on attise Les vraies femmes, les putains, le Diable dans les potions Y a les hommes, les fragiles, les rappeurs, les artistes Sur l'macadam, j'déteins ma vie sur un gros son Tch, tch La rue sur un gros son, j'esquive la partouze, j'ris pas avec les hyènes J'suis partout, je m'évade, j'attends pas leur caution Leurs flows s'attrapent comme des maladies vénériennes Maladies vénériennes En province, je suis Parisien Hein, j'suis du 9.5 à Paris À Paris On stoppera pas lhémorragie banlieusarde, même avec l'oseille des Qataris Yah, check Ouais, l'ancien, fais d'la place, j'éteins l'Famas Tahia Hamas, caille-ra baffeuse de bouche Personne pour faire la passe déter', Damas, p'tit frère khalass pour qu'la masseuse se couche Eh Dans ma rue, c'est la guerre, ça grouille de schmitts, les frères s'embrouillent pour des crasseuses de souche Bang Suffit d'un geste, d'un mot pour qu'la gazeuse te douche 9.3, pour qu'la rafleuse te touche ba-ba-baw Ba-ba-ba-ba-ba-ba-ba-bam, le public me crie Achille refait l'Histoire de Troie J'vais mettre tous leurs blazes sur ma liste noire, je crois Entre un tigre et un chat, c'est pas qu'une histoire de poids, bang Ba-ba-ba-ba-ba-ba-ba-bam, j'me suis fait tout seul dans ça, j'ai tout froissé sans thème Avant que celui qui t'a crossé t'emmène, même si t'es pas Mayweather, tu peux boxer quand même, bang Bakhaw, bakhaw, ça détaille la choco', grande patate, j'ai les gants coqués J'envoie les revers a Djoko', t'veux parler ? T'as cinq balles, ok Tu passes la commande à Porka, j'ai pris l'magot, ramène-nous à Chicago, on va les choquer, bang Les cailles-ra influencent Paname, Paname influence le monde Influence le monde Le 9.3 influence Paname, Paname influence ta mère C'est nous, on braque Paris C'est nous, on braque Paris, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, ouais, ouais, ouais, Fianso, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, Médine, Médine, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, ouais, ouais, ouais, ish, ish, ba-ba-ba-ba-baw J'viens pisser sur l'Élysée, j'prends l'rrain-té, v'nu marquer le territoire Tu parles chinois moi pas comprendre, quand l'oseille parle, ils ont tous la même langue Khey, canon scié, ça va chier, j'm'amuse à braquer l'miroir, khey Avant d'asseoir Marianne sur la corne d'Afrique pour plus qu'elle arrache les ivoires, khey Langage du Glock, on a plus d'une balle Paris est propre, on y fait du sale Elle est bonne mais qu'est-ce qu'elle est conne La coke dans son zen vient du port du Havre Jusqu'à la mort, foutu banlieusard Rempli mes poches et vidé mon sac On sait où tous les chemins mènent Rome à l'envers donne mort, V.O.R alive En bas du bloc, j'fous la hchouma au daron à la Malia Obama Quand y a les keufs, un de nous peut ber-tom à la Aaliyah aux Bahamas Yo, grosse boule à Z comme Lex Luthor On fait la maille pendant qu'tu dors J'cours pas après les pépètes du chôme-du Accro aux flingues comme Phil Spector Devant les inspecteurs qui nous respectent as-p Joue les Winspector, gros, j'expectore Bleh J'vends d'la neige en été, c'est un fait divers Une étrange histoire pour ton transistor J'roule en Francis Ford Coppola, la nature se venge, Canicula Ramène ta femme, j'vais t'montrer comment on fait, Caligula Avant, y avait 36.15 ULLA, aujourd'hui, les femmes sont pires qu'Dracula Elles vont t'sucer le sang, même recouvert d'ail De Phuket à Paname, je tiens le gouvernail C'est pas d'la punchline, c'est des joutes verbales J'suis venu vous faire mal bleh, bleh, bleh J'crois qu'j'ai besoin d'une couverture sociale J'crois qu't'as besoin d'une ouverture faciale Oh C'est nous l'Grand Paris C'est nous l'Grand Paris Wouh, wouh C'est nous l'Grand Paris C'est nous l'Grand Paris Paw, paw La banlieue influence Paname, Paname influence le monde Influence le monde La banlieue influence Paname, Paname influence le monde Influence le monde Le 9.1 influence Paname, Paname influence le monde Influence le monde Siete Siete, la BAC fait la ronde Tout ça sous les yeux d'la Joconde Tiens, tiens, retiens Ça fume la beuh dAjax Ouais, ouais, ouais sur l'bitume en Asics Paris, c'est tragique, on contrôle pas la trajectoire des balles si tu dois du khaliss Du khaliss Le 9.1 influence Paris, Paris influence Hilton 7.7, ça remonte la demi-tonne, au tribunal, y a comme un air d'Automne, han Na3al sheitan, les frères tombent comme des châtaignes Wouh Cristal, Champs-Élysées, champagne Wouh, roue moteur pour narguer les chickens Wouh J'ai rêvé d'être connu comme Goya Chantal, nique la chienneté, il m'faut des grosses tales Fils d'immigrés, on vient ,on s'installe et on s'v'-esqui quand ça sent la taule han Le choc est frontal Tiens, tiens, tiens, la guerre est mondiale, et comme Eto'o, je suis indomptable La b dure comme un tronc d'arbre Tiens, ça pue la merde dans les çons-cale Tiens La street life laisse des séquelles Tiens, c'est dans l'hall que les kils s'écoulent Bang Les balles sortent et le sang coule J'ai tout donné pour mon art, j'attends les résultats Han Entre les blédards et les Paname Ultra Yeah Qui peut prétendre faire du rap sans prendre les positions du Kamasutra ? Ah, ah Pas besoin de grigri en 2017 Nan Pas de bling bling mon équipe est discrète Pas me faire en par la vie d'tess' Moi, je calcule la durée, pas la vitesse Reprenez-moi le micro, je n'suis pas sympa Je suis déjà haut mais je passe un cap J'ai tellement d'avance sur les rappeurs de France j'écrivais déjà ce couplet dans le placenta Viens dans mes concerts, on n'a pas la même fosse, monte un peu sur scène, on n'est pas les mêmes fauves Pas le même génie, pas le même flow, on n'a pas le même Zénith, pas le même show J'en ai rien à battre, je viens casser l'coffre Han J'gagne au tribunal, c'est un cas d'école Ton avocat est peace, ton avocat est vif Mais mon avocat est juif Mazel Tov C'est nous l'Grand Paris, c'est nous l'Grand tarif Et tous les ghettos youth font les fous quand t'arrives Je bouge et je cours et la troupe se retrouve à mes trousses Dans la foule, c'est un mouvement d'panique Blablabla, j'suis pas venu pour jacter, d'ailleurs, j'ai pas capté vos bla-bla-blagues J'vais pas vous mentir si je reprends mon empire, je vais jamais ralentir et ça pourrait même empirer C'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris34</t>
+          <t>C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris La banlieue, c'est des pâquerettes sur un tas d'fumier Bleh Les voix du ghetto sont auto-tunées Wouh Le pied au plancher dans tous les tunnels Micro neuf millimètres, on va t'parfumer Rah Mon freestyle, c'est le gang des Bloods On t'fait chier toute la night comme les gars d'Nuit Debout Ressens le vent qui tourne arriver dans ton hood On fait des selfies avec vos radars d'autoroute Waow Donne un gun à un homme et il braquera une banque Donne une banque à un homme et il braquera le monde J'fais crier la gomme sur les murs d'Matignon en attendant de hacker leurs comptes Wouh Dès que le cur d'un grand homme s'arrête, Paris donne son nom à une artère Moi, j'suis pour qu'le Boulevard de la Villette soit rebaptisé Bouna et Zyed Bordel, yeah, yeah, yeah, yeah, yeah, yeah, yeah, ah J'suis du Grand Paris sans être trop Parisien C'est l'grand remplacement des académiciens Yeah, yeah, yeah, yeah, yeah, check J'fais du son pour les cochons végétariens Ah, ah, ah On fête les émeutes comme tu fêtes la Toussaint J'ai fait le tour d'la France comme un Bohémien De Lille à Marseille en passant par Le Havre Si tu respectes l'Histoire, ce drapeau est mien Respecte-moi, j'ai la couleur des braves Papy t'a défendu, est-c'que tu t'en souviens ? Quatre ans dans un Stalag Mon frère t'a agressé, y a qu'ça tu retiens Tu retiens Accepte ta jeunesse, elle a du caractère Ouais Tu vois pas qu'ils veulent voir Paris par terre Wouh Pas tant qu'on traînera dans ses artères Nan Pas tant qu'on traînera dans ses artères J'arrive en burkini dans une soirée nudiste J'suis l'maillot de Paris sur le dos d'un sudiste Ils aiment casser du sucre sur le dos des sunnites Ouh Mais on a le fuego, on le caramélise Ah Big up à Bruxelles, big up à Nice Ceux qui remontent la A13, ceux qui remontent la A6 C'est ma vie, j'fais mon biff, j'calcule pas les racistes Tellement fier de poser sur l'album de Médine De Médine La banlieue influence Paname, Paname influence le monde Influence le monde Le 9.3 influence Paname, Paname influence le monde Influence le monde Le Maghreb influence Paname, Paname influence le monde Influence le monde Oui, l'Afrique influence Paname, Paname influence le monde C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris Tch, tch, eh Eh Qu'elle brûle, qu'elle repose en paix la justice, j'ai pas fait qu'allumer le cierge Le cierge Ton territoire, c'est où tu pisses, ils m'ont plastiqué le siège Bombe humaine sur la A3, A6, trop de trafic, coincé dans les bouchons Tch, tch Je rappe, le box est vitré comme aux assises, la rage dans les yeux, la drogue dans les pochons Y a les flammes qu'on éteint, y a les feux qu'on attise Les vraies femmes, les putains, le Diable dans les potions Y a les hommes, les fragiles, les rappeurs, les artistes Sur l'macadam, j'déteins ma vie sur un gros son Tch, tch La rue sur un gros son, j'esquive la partouze, j'ris pas avec les hyènes J'suis partout, je m'évade, j'attends pas leur caution Leurs flows s'attrapent comme des maladies vénériennes Maladies vénériennes En province, je suis Parisien Hein, j'suis du 9.5 à Paris À Paris On stoppera pas lhémorragie banlieusarde, même avec l'oseille des Qataris Yah, check Ouais, l'ancien, fais d'la place, j'éteins l'Famas Tahia Hamas, caille-ra baffeuse de bouche Personne pour faire la passe déter', Damas, p'tit frère khalass pour qu'la masseuse se couche Eh Dans ma rue, c'est la guerre, ça grouille de schmitts, les frères s'embrouillent pour des crasseuses de souche Bang Suffit d'un geste, d'un mot pour qu'la gazeuse te douche 9.3, pour qu'la rafleuse te touche ba-ba-baw Ba-ba-ba-ba-ba-ba-ba-bam, le public me crie Achille refait l'Histoire de Troie J'vais mettre tous leurs blazes sur ma liste noire, je crois Entre un tigre et un chat, c'est pas qu'une histoire de poids, bang Ba-ba-ba-ba-ba-ba-ba-bam, j'me suis fait tout seul dans ça, j'ai tout froissé sans thème Avant que celui qui t'a crossé t'emmène, même si t'es pas Mayweather, tu peux boxer quand même, bang Bakhaw, bakhaw, ça détaille la choco', grande patate, j'ai les gants coqués J'envoie les revers a Djoko', t'veux parler ? T'as cinq balles, ok Tu passes la commande à Porka, j'ai pris l'magot, ramène-nous à Chicago, on va les choquer, bang Les cailles-ra influencent Paname, Paname influence le monde Influence le monde Le 9.3 influence Paname, Paname influence ta mère C'est nous, on braque Paris C'est nous, on braque Paris, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, ouais, ouais, ouais, Fianso, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, Médine, Médine, ba-ba-ba-ba-baw C'est nous, on braque Paris C'est nous, on braque Paris, ouais, ouais, ouais, ish, ish, ba-ba-ba-ba-baw J'viens pisser sur l'Élysée, j'prends l'rrain-té, v'nu marquer le territoire Tu parles chinois moi pas comprendre, quand l'oseille parle, ils ont tous la même langue Khey, canon scié, ça va chier, j'm'amuse à braquer l'miroir, khey Avant d'asseoir Marianne sur la corne d'Afrique pour plus qu'elle arrache les ivoires, khey Langage du Glock, on a plus d'une balle Paris est propre, on y fait du sale Elle est bonne mais qu'est-ce qu'elle est conne La coke dans son zen vient du port du Havre Jusqu'à la mort, foutu banlieusard Rempli mes poches et vidé mon sac On sait où tous les chemins mènent Rome à l'envers donne mort, V.O.R alive En bas du bloc, j'fous la hchouma au daron à la Malia Obama Quand y a les keufs, un de nous peut ber-tom à la Aaliyah aux Bahamas Yo, grosse boule à Z comme Lex Luthor On fait la maille pendant qu'tu dors J'cours pas après les pépètes du chôme-du Accro aux flingues comme Phil Spector Devant les inspecteurs qui nous respectent as-p Joue les Winspector, gros, j'expectore Bleh J'vends d'la neige en été, c'est un fait divers Une étrange histoire pour ton transistor J'roule en Francis Ford Coppola, la nature se venge, Canicula Ramène ta femme, j'vais t'montrer comment on fait, Caligula Avant, y avait 36.15 ULLA, aujourd'hui, les femmes sont pires qu'Dracula Elles vont t'sucer le sang, même recouvert d'ail De Phuket à Paname, je tiens le gouvernail C'est pas d'la punchline, c'est des joutes verbales J'suis venu vous faire mal bleh, bleh, bleh J'crois qu'j'ai besoin d'une couverture sociale J'crois qu't'as besoin d'une ouverture faciale Oh C'est nous l'Grand Paris C'est nous l'Grand Paris Wouh, wouh C'est nous l'Grand Paris C'est nous l'Grand Paris Paw, paw La banlieue influence Paname, Paname influence le monde Influence le monde La banlieue influence Paname, Paname influence le monde Influence le monde Le 9.1 influence Paname, Paname influence le monde Influence le monde Siete Siete, la BAC fait la ronde Tout ça sous les yeux d'la Joconde Tiens, tiens, retiens Ça fume la beuh dAjax Ouais, ouais, ouais sur l'bitume en Asics Paris, c'est tragique, on contrôle pas la trajectoire des balles si tu dois du khaliss Du khaliss Le 9.1 influence Paris, Paris influence Hilton 7.7, ça remonte la demi-tonne, au tribunal, y a comme un air d'Automne, han Na3al sheitan, les frères tombent comme des châtaignes Wouh Cristal, Champs-Élysées, champagne Wouh, roue moteur pour narguer les chickens Wouh J'ai rêvé d'être connu comme Goya Chantal, nique la chienneté, il m'faut des grosses tales Fils d'immigrés, on vient ,on s'installe et on s'v'-esqui quand ça sent la taule han Le choc est frontal Tiens, tiens, tiens, la guerre est mondiale, et comme Eto'o, je suis indomptable La b dure comme un tronc d'arbre Tiens, ça pue la merde dans les çons-cale Tiens La street life laisse des séquelles Tiens, c'est dans l'hall que les kils s'écoulent Bang Les balles sortent et le sang coule J'ai tout donné pour mon art, j'attends les résultats Han Entre les blédards et les Paname Ultra Yeah Qui peut prétendre faire du rap sans prendre les positions du Kamasutra ? Ah, ah Pas besoin de grigri en 2017 Nan Pas de bling bling mon équipe est discrète Pas me faire en par la vie d'tess' Moi, je calcule la durée, pas la vitesse Reprenez-moi le micro, je n'suis pas sympa Je suis déjà haut mais je passe un cap J'ai tellement d'avance sur les rappeurs de France j'écrivais déjà ce couplet dans le placenta Viens dans mes concerts, on n'a pas la même fosse, monte un peu sur scène, on n'est pas les mêmes fauves Pas le même génie, pas le même flow, on n'a pas le même Zénith, pas le même show J'en ai rien à battre, je viens casser l'coffre Han J'gagne au tribunal, c'est un cas d'école Ton avocat est peace, ton avocat est vif Mais mon avocat est juif Mazel Tov C'est nous l'Grand Paris, c'est nous l'Grand tarif Et tous les ghettos youth font les fous quand t'arrives Je bouge et je cours et la troupe se retrouve à mes trousses Dans la foule, c'est un mouvement d'panique Blablabla, j'suis pas venu pour jacter, d'ailleurs, j'ai pas capté vos bla-bla-blagues J'vais pas vous mentir si je reprends mon empire, je vais jamais ralentir et ça pourrait même empirer C'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris C'est nous l'Grand Paris C'est nous l'Grand Paris, c'est nous l'Grand Paris34</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ça c'est du rap de titi parisien Et niveau texte on est les best sans fausse modestie Regarde moi bien dans les yeux quand j'te serre la main Avant qu'mon schlass se mette en mode escrime Ça c'est du rap de titi parisien À l'écriture trop riche pour ces pauvres d'esprit Ouais trop de cuites, de bitures J'mène la vie dÉpicure Sans garrot ni piqure Titi parisien pas Grosminet Robinet qui verse direct du whisky pur Gros bonnets, grosses pointures Avec un shlass à la ceinture comme un Tunisien Gominé à l'huile de friture J'aime Paris, ses tristes figures Les braquages en nombre, les fuites en voiture Les démarrages en trombe C'est pour les frères à l'ombre qui tournent à la Santé Gringo les meufs en terrasse qui tournent à la San Pellegrino C'est pour les ninos élevés aux ssettes-ca de la Scred Co' Rette-ba sous la squette-ca, nnaie-mo dans la cket-po Personne m'impressionne j'suis le maitre du no stress J'suis venu redonner au rap ses lettres de Mokless You might also like Ça cest du rap de titi parisien Avec un shlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko Parisien titi, Paris, parisien titi Tu parles qu'en kilos t'es dans l'arrivage timide Bon appétit le king est de retour c'est le jour J Avant de rapper tu critiques Bâtir une pyramide n'est qu'un aperçu de tracé dans la vie Sans faire mal à personne Donne moi un pistolet à fleurs j'vais tuer le temps Ils ont gardé le corps ils ont plus de méthodes Ce son c'est pour les clients et les chauffeurs de VTC Ça roule mal ferme les yeux si t'es pressé À vos marques, Nek-feu Rue de la Roquette le soir les saoulards refont la prise de la Bastille Les filles sans culotte se soulagent sous l'emprise de la pastille J'suis pas né dans l'16, moi j'étais jeune et con comme Saez Gros j'suis né à midi j'avais déjà les crocs Pour un inconnu j'fais pas de chrome J'réfléchis avant de bouger Mais j'hésite jamais à lâcher un croc Même si c'est la dernière bouchée Être un artiste de renom n'étouffe pas le blues en moi Épousant l'art j'me sens comme Renaud mentalité blouson noir Le rap de Paris intra-muros claque, tu peux pas t'lasser Loin d'être un bureaucrate dans mon crâne des affaires mal classées Trop de doutes et tout tourne mate la C Beaucoup de schlags perdent, les coups de schlass percent toutes les doudounes matelassées J'ai besoin d'air j'ai jamais vu la chair battre l'acier Et si j'pose un genoux à terre c'est pour refaire les fat lacets De mes Cortez, ils veulent qu'on descende, donc fuck tes sentences condescendantes C'est le bordel faut qu'on s'étende ou compter s'entendre Mais ça risque de déborder, rien n'peut diviser mes potes Et j'marche avec descendants d'esclaves, petits-fils de déportés, ex-colonisés Entre temps j'manoeuvre mon label Est ce que l'odyssée que j'entreprends en vaut vraiment la peine ? Seine Zoo Ça cest du rap de titi parisien Avec un shlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko11</t>
+          <t>Ça c'est du rap de titi parisien Et niveau texte on est les best sans fausse modestie Regarde moi bien dans les yeux quand j'te serre la main Avant qu'mon schlass se mette en mode escrime Ça c'est du rap de titi parisien À l'écriture trop riche pour ces pauvres d'esprit Ouais trop de cuites, de bitures J'mène la vie dÉpicure Sans garrot ni piqure Titi parisien pas Grosminet Robinet qui verse direct du whisky pur Gros bonnets, grosses pointures Avec un shlass à la ceinture comme un Tunisien Gominé à l'huile de friture J'aime Paris, ses tristes figures Les braquages en nombre, les fuites en voiture Les démarrages en trombe C'est pour les frères à l'ombre qui tournent à la Santé Gringo les meufs en terrasse qui tournent à la San Pellegrino C'est pour les ninos élevés aux ssettes-ca de la Scred Co' Rette-ba sous la squette-ca, nnaie-mo dans la cket-po Personne m'impressionne j'suis le maitre du no stress J'suis venu redonner au rap ses lettres de Mokless Ça cest du rap de titi parisien Avec un shlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko Parisien titi, Paris, parisien titi Tu parles qu'en kilos t'es dans l'arrivage timide Bon appétit le king est de retour c'est le jour J Avant de rapper tu critiques Bâtir une pyramide n'est qu'un aperçu de tracé dans la vie Sans faire mal à personne Donne moi un pistolet à fleurs j'vais tuer le temps Ils ont gardé le corps ils ont plus de méthodes Ce son c'est pour les clients et les chauffeurs de VTC Ça roule mal ferme les yeux si t'es pressé À vos marques, Nek-feu Rue de la Roquette le soir les saoulards refont la prise de la Bastille Les filles sans culotte se soulagent sous l'emprise de la pastille J'suis pas né dans l'16, moi j'étais jeune et con comme Saez Gros j'suis né à midi j'avais déjà les crocs Pour un inconnu j'fais pas de chrome J'réfléchis avant de bouger Mais j'hésite jamais à lâcher un croc Même si c'est la dernière bouchée Être un artiste de renom n'étouffe pas le blues en moi Épousant l'art j'me sens comme Renaud mentalité blouson noir Le rap de Paris intra-muros claque, tu peux pas t'lasser Loin d'être un bureaucrate dans mon crâne des affaires mal classées Trop de doutes et tout tourne mate la C Beaucoup de schlags perdent, les coups de schlass percent toutes les doudounes matelassées J'ai besoin d'air j'ai jamais vu la chair battre l'acier Et si j'pose un genoux à terre c'est pour refaire les fat lacets De mes Cortez, ils veulent qu'on descende, donc fuck tes sentences condescendantes C'est le bordel faut qu'on s'étende ou compter s'entendre Mais ça risque de déborder, rien n'peut diviser mes potes Et j'marche avec descendants d'esclaves, petits-fils de déportés, ex-colonisés Entre temps j'manoeuvre mon label Est ce que l'odyssée que j'entreprends en vaut vraiment la peine ? Seine Zoo Ça cest du rap de titi parisien Avec un shlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko11</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'sors du hood, ta chatte pue l'gouda Chaque rime c'est du lourd comme le cul d'Bouddha Appelle-moi Dodo la Saumure J'vais t'casser la bouche sans la toucher juste en dessinant une bite là sur l'mur J'suis la violence à l'état pur, en chair et en saucisse J'vais pas t'briser l'cur t'en as qu'un chérie j'vais t'briser un os, t'en as 206 Nique le swag, nique le buzz, nique la Police Laisse pas Charles Trénet ton fils T'as des rimes de grossiste, des clips de RMIste Tu sais même plus dans quelle chiotte pisser comme un transformiste Les keufs me veulent dans leurs putain d'filet à fiches de recherche T'es pas muslim en mangeant un Filet-O-Fish Wesh, tous les dimanches, j'vais à la Jacques Mess' J'te mets la bite dans l'il comme dans Serbian Movie, tasse-pèch Trop d'punchline dans l'texte pour faire un flow accélération Y a un MC sur l'piéton ? Vroum, jaccélère à fond Encore une ramification d'bagnard Cicatrices, scarifications d'bagarres Fausse be-bar, falsification d'papelards Nique la RATP, leur tarification d'bâtard C'est pas un mur Facebook qu'il t'faut, c'est un trottoir On roule comme des chauffards, carbonisation d'radar Bâtard, c'est l'Parc des Princes ou l'Stade Vélodrome Des têtes vont tomber, Néochrome c'est Game of Thrones On est là mister, t'es pas d'accord ? Nique ta sur comme un Lannister, 'llah yster Nique l'institut Pasteur, ma rage n'a pas d'vaccin J'suis tellement loin qu'bientôt j'vais rapper en martien Les MC's tournent en rond Si ils allaient à la vitesse de la lumière ils pourraient s'auto-enculer, les bouffons Envoie l'son, les rimes sont pachydermiques J'écoute le rap français, c'est archi-merdique Les flics arrêtent mes types pour leurs graphiques, c'est d'l'arithmétique J'allais jamais en cours, j'ai pas pu baffer l'instit' Prépare ton speech si tu vas chez la SPIP T-MAX, Air Max, c'est la street, grosses liasses avec élastique Et ça baraude même sur Walking Street Pas d'sentiments que des centilitres Liasse de baths dans l'slip, on fait la tournée des bars Une fois qu'j'ai pris une cuite, j'raconte tout mes déboires Viens pas nous faire croire qu't'es venu en Thaï pour Chok Muay Joue pas l'Chuck Norris, plus rien m'choque Morray Capitale du vice, Los Patayos J'ai l'ventre à Carlos, les jambes de Damien Alamos Salam alaykoum si tu vas à la quée-mos Pendant qu'les boloss fument le Ice à la Kate Moss Ouais c'est atroce si t'as un trans' comme parent Dis pas l'mot sperme d'vant une Thaï c'est un mot transparent Le porno c'est ma porte d'échappement Tu baises pas un gamos en mettant ta bite dans un pot d'échappement Trop hardcore pour être charmant ou pour être aimé Le Husky c'est un chien d'traîneau, l'Chihuahua c'est un chien d'trainée J'rappe pour les têtes grainées et les têtes rasées ma gueule Un trou c'est un trou, une bastos elle a pas d'il Bang ! Vos clash me chatouillent comme une mouche du bled Allez, j'vous embrasse tous avec la p'tite bouche du zguègue Arrête de bander avec les couilles des autres Ton rap m'en touche une sans faire bouger l'autre En crachant sur l'un, forcément tu suces l'autre La salope de l'un est souvent la femme d'un autre P'tit j'voulais être voleur pas astronaute C'que j'avais pas, j'allais l'péta chez les autres J'suis ni dans un camp, ni dans l'autre Le rap c'est pas qu'le vôtre Ça vient du Parc LenôtreYou might also like2</t>
+          <t>J'sors du hood, ta chatte pue l'gouda Chaque rime c'est du lourd comme le cul d'Bouddha Appelle-moi Dodo la Saumure J'vais t'casser la bouche sans la toucher juste en dessinant une bite là sur l'mur J'suis la violence à l'état pur, en chair et en saucisse J'vais pas t'briser l'cur t'en as qu'un chérie j'vais t'briser un os, t'en as 206 Nique le swag, nique le buzz, nique la Police Laisse pas Charles Trénet ton fils T'as des rimes de grossiste, des clips de RMIste Tu sais même plus dans quelle chiotte pisser comme un transformiste Les keufs me veulent dans leurs putain d'filet à fiches de recherche T'es pas muslim en mangeant un Filet-O-Fish Wesh, tous les dimanches, j'vais à la Jacques Mess' J'te mets la bite dans l'il comme dans Serbian Movie, tasse-pèch Trop d'punchline dans l'texte pour faire un flow accélération Y a un MC sur l'piéton ? Vroum, jaccélère à fond Encore une ramification d'bagnard Cicatrices, scarifications d'bagarres Fausse be-bar, falsification d'papelards Nique la RATP, leur tarification d'bâtard C'est pas un mur Facebook qu'il t'faut, c'est un trottoir On roule comme des chauffards, carbonisation d'radar Bâtard, c'est l'Parc des Princes ou l'Stade Vélodrome Des têtes vont tomber, Néochrome c'est Game of Thrones On est là mister, t'es pas d'accord ? Nique ta sur comme un Lannister, 'llah yster Nique l'institut Pasteur, ma rage n'a pas d'vaccin J'suis tellement loin qu'bientôt j'vais rapper en martien Les MC's tournent en rond Si ils allaient à la vitesse de la lumière ils pourraient s'auto-enculer, les bouffons Envoie l'son, les rimes sont pachydermiques J'écoute le rap français, c'est archi-merdique Les flics arrêtent mes types pour leurs graphiques, c'est d'l'arithmétique J'allais jamais en cours, j'ai pas pu baffer l'instit' Prépare ton speech si tu vas chez la SPIP T-MAX, Air Max, c'est la street, grosses liasses avec élastique Et ça baraude même sur Walking Street Pas d'sentiments que des centilitres Liasse de baths dans l'slip, on fait la tournée des bars Une fois qu'j'ai pris une cuite, j'raconte tout mes déboires Viens pas nous faire croire qu't'es venu en Thaï pour Chok Muay Joue pas l'Chuck Norris, plus rien m'choque Morray Capitale du vice, Los Patayos J'ai l'ventre à Carlos, les jambes de Damien Alamos Salam alaykoum si tu vas à la quée-mos Pendant qu'les boloss fument le Ice à la Kate Moss Ouais c'est atroce si t'as un trans' comme parent Dis pas l'mot sperme d'vant une Thaï c'est un mot transparent Le porno c'est ma porte d'échappement Tu baises pas un gamos en mettant ta bite dans un pot d'échappement Trop hardcore pour être charmant ou pour être aimé Le Husky c'est un chien d'traîneau, l'Chihuahua c'est un chien d'trainée J'rappe pour les têtes grainées et les têtes rasées ma gueule Un trou c'est un trou, une bastos elle a pas d'il Bang ! Vos clash me chatouillent comme une mouche du bled Allez, j'vous embrasse tous avec la p'tite bouche du zguègue Arrête de bander avec les couilles des autres Ton rap m'en touche une sans faire bouger l'autre En crachant sur l'un, forcément tu suces l'autre La salope de l'un est souvent la femme d'un autre P'tit j'voulais être voleur pas astronaute C'que j'avais pas, j'allais l'péta chez les autres J'suis ni dans un camp, ni dans l'autre Le rap c'est pas qu'le vôtre Ça vient du Parc Lenôtre2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>J'doute qu'il y ait un droit chemin vu qu'la Terre est ronde J'ai rencontré l'Diable elle était belle et blonde Mes potes passeront toujours avant mes frénégondes Repeins le monde en noir et trouves-tu pas qu'ça ressemble à une bombe ? J'recherche sur eBay un fusil d'occase J'viens faire éclater la vérité comme un kamikaze Ici pour s'faire entendre faut faire une prise dotage J'préfère mourir qu'finir en cage comme Christophe Caze Nous on tourne pas la page on arrache le livre Si on perd un pote faut surtout pas qu'les autres vivent On a des ogives grosses comme des olives, des curs d'artichaut On méprise la mort sans gloire comme au bushid J'ai appris archi-tôt qu'la roue n'tournait qu'pour les hamsters La mort s'appelle Lucie, et j'veux plus voir Lucie faire Il est temps de s'refaire, y'a plus d'temps à perdre Si ma télé avait un trou du cul le salon serait plein d'merde J'claque de l'oseille, cla-cla-claque de l'oseille Ouais j'claque de l'oseille avant qu'la flicaille me braque J'traque le soleil, tra-tra-traque le soleil Ouais j'traque le soleil avant qu'la grisaille me traque Quand j'trouve pas l'sommeil, trou-trou-trouve pas l'sommeil Ouais quand j'trouve pas l'sommeil, j'vais criave à L'Aubrac J'dors que d'une oreille, do-do-dors que d'une oreille Ouais j'dors que d'une oreille je suis paranoïaque You might also like On prend l'taureau par les couilles RedBull La seule mer dans laquelle j'ai nagé c'est l'amertume Hommage aux pauvres j'veux pas être l'otage de mes thunes J'suis simple j'aime quand ma p'tite mère prépare un potage de légumes Bats les burnes de leur caviar et de leurs huîtres pas fraîches Parait que j'manque de délicatesse Même mon fils dit à l'école qu'c'est le p'tit fils d'Jack Mess J'suis blanc mais j'subis le délit d'faciès Ils ont détruit ma tess', mon enfance sous les gravats J'suis saoulé grave mais faut pas qu'on baisse les bras, va Ils pensent qu'a faire la java, s'pavaner, r'garde les Ici l'client est roi surtout quand il est armé J'ai jamais loupé un seul Faites entrer l'accusé Mais j'veux pas m'faire expertiser par Dominique Rizet Dieu a créé l'Homme, Smith Wesson nous a égalés Casse les pattes de tes brebis pour pas les voir s'égarer J'claque de l'oseille, cla-cla-claque de l'oseille Ouais j'claque de l'oseille avant qu'la flicaille me braque J'traque le soleil, tra-tra-traque le soleil Ouais j'traque le soleil avant qu'la grisaille me traque Quand j'trouve pas l'sommeil, trou-trou-trouve pas l'sommeil Ouais quand j'trouve pas l'sommeil, j'vais criave à L'Aubrac J'dors que d'une oreille, do-do-dors que d'une oreille Ouais j'dors que d'une oreille je suis paranoïaque2</t>
+          <t>J'doute qu'il y ait un droit chemin vu qu'la Terre est ronde J'ai rencontré l'Diable elle était belle et blonde Mes potes passeront toujours avant mes frénégondes Repeins le monde en noir et trouves-tu pas qu'ça ressemble à une bombe ? J'recherche sur eBay un fusil d'occase J'viens faire éclater la vérité comme un kamikaze Ici pour s'faire entendre faut faire une prise dotage J'préfère mourir qu'finir en cage comme Christophe Caze Nous on tourne pas la page on arrache le livre Si on perd un pote faut surtout pas qu'les autres vivent On a des ogives grosses comme des olives, des curs d'artichaut On méprise la mort sans gloire comme au bushid J'ai appris archi-tôt qu'la roue n'tournait qu'pour les hamsters La mort s'appelle Lucie, et j'veux plus voir Lucie faire Il est temps de s'refaire, y'a plus d'temps à perdre Si ma télé avait un trou du cul le salon serait plein d'merde J'claque de l'oseille, cla-cla-claque de l'oseille Ouais j'claque de l'oseille avant qu'la flicaille me braque J'traque le soleil, tra-tra-traque le soleil Ouais j'traque le soleil avant qu'la grisaille me traque Quand j'trouve pas l'sommeil, trou-trou-trouve pas l'sommeil Ouais quand j'trouve pas l'sommeil, j'vais criave à L'Aubrac J'dors que d'une oreille, do-do-dors que d'une oreille Ouais j'dors que d'une oreille je suis paranoïaque On prend l'taureau par les couilles RedBull La seule mer dans laquelle j'ai nagé c'est l'amertume Hommage aux pauvres j'veux pas être l'otage de mes thunes J'suis simple j'aime quand ma p'tite mère prépare un potage de légumes Bats les burnes de leur caviar et de leurs huîtres pas fraîches Parait que j'manque de délicatesse Même mon fils dit à l'école qu'c'est le p'tit fils d'Jack Mess J'suis blanc mais j'subis le délit d'faciès Ils ont détruit ma tess', mon enfance sous les gravats J'suis saoulé grave mais faut pas qu'on baisse les bras, va Ils pensent qu'a faire la java, s'pavaner, r'garde les Ici l'client est roi surtout quand il est armé J'ai jamais loupé un seul Faites entrer l'accusé Mais j'veux pas m'faire expertiser par Dominique Rizet Dieu a créé l'Homme, Smith Wesson nous a égalés Casse les pattes de tes brebis pour pas les voir s'égarer J'claque de l'oseille, cla-cla-claque de l'oseille Ouais j'claque de l'oseille avant qu'la flicaille me braque J'traque le soleil, tra-tra-traque le soleil Ouais j'traque le soleil avant qu'la grisaille me traque Quand j'trouve pas l'sommeil, trou-trou-trouve pas l'sommeil Ouais quand j'trouve pas l'sommeil, j'vais criave à L'Aubrac J'dors que d'une oreille, do-do-dors que d'une oreille Ouais j'dors que d'une oreille je suis paranoïaque2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté You might also like Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
+          <t>Les keufs frappent on n'ouvre pas, Banlieue Sale t'approuves pas Ton équipe c'est personne ma gueule, même Google te trouve pas On regarde le rap d'en haut, c'est pas des paroles en l'air Enfin si, on est des stars tu veux nous shooter tire en l'air ! Fouiny Fouiny Babe Babe, Banlieue Sale c'est le label Allo tu disais quoi ? Bouge pas j'ai l'argent en double appel 7.8 depuis le début, on a fait des déçus Veni, Vidi, Vici, t'es venu t'as vu t'as cé-su Tu veux gagner change d'équipe, tu vas te prendre un coup de cric Toutes les feu-meu dans tes clips, ont déjà sucé toute ma clique Sur la lune j'y étais, sur la lune j'y étais Ils ont fait du bruit en s'posant, j'ai du reposer mon couplet Peut-être que l'année prochaine ils seront là où hier j'étais Frère j'ai trop d'avance, j'arrive en gros Cayenne GT J'étais en gros Cayenne GT Fréro ça puait le bédo dans ma Super 5 PC Monsieur le Corbeau, Monsieur le Corbeau Monsieur le Corbeau, Kamarades ! Devinez qui vient de Mars Sopra M'Baba Leonidas Un caïd immature comme Ribéry, Anelka ou Gallas Mes favelas, que des piranhas sortis des marécages Je suis détesté car vu du ciel, je brille plus que Las Vegas Faites de la place au Kamarade, Sopra M'Baba flow d'une Kalash' Appelle moi Weezy F car t'es ma Nicki Lewinsky Minaj Oh my God, Oh my God, les MC's sont dans ma paume Ils veulent te voir de près, dis-leur qu'il leur faut un télescope J'suis trop loin pour eux mon style ne fait que les scandaliser Ramène-moi les sur ma planète que j'puisse les halaliser Plus de plomb qu'un pare balle quand je me met à débiter Ne m'appelle pas Toby, mon nom à moi c'est Sopra Kinté Fouiny j'ai trop d'appétit, laisse-moi le son que jengloutis Pendant que les autres MC's habillent leurs flows en Hello Kitty Qu'ils aillent tous vite s'abriter, je n'ferai pas de charité Je t'ai dit mon nom à moi c'est pas Toby mais Sopra Kinté Un négro dans la ville Guerlain s'arrache les cheveux, les envieux s'épilent J'arrive comme Hugo comme Katrina... Choper la vie sans morphine, j'suis Poids lourd toi t'es Taillefine Demande à La Fouine, c'est qui le dancehall King ? Ghetto Gwada raggamuffin' T'es armé, armé comme le Hezbollah, ennemis ? J'mange ça comme du chocolat Banlieue Sale animal, quand on arrive tout le monde fait la Ola On est dans le futur, toi ton flow sent le moisi On n'a pas choisi la musique, c'est elle qui nous a choisi Flow assassin meurtrier, Riner pas David Douillet 78 Banlieue Sale, Banlieue Ouest, Banlieue Ok J'ai trop de punchlines ma couillasse, j'laisse les MC's en dallo J'suis en concert au Dallas et au Skandalo On t'allume au kalash, puis roue arrière en char d'assaut Ptit narvalo du robinet, narvalo du caniveau Dans le rap j'ai aucun rivaux avec leurs phases toutes en carton Les MC pillent dans mes rimes comme si j'étais Toutankhamon On a des gueules de stre-mon et des grosses tre-mon Ma bite dans lilleton, ça fait tsss dans lil du maton On parle l'argo d'Treuil-Mon, criave les os d'tes morts Exécute quand on donne nos ordres, baise les putes comme un dinosaure J'suis avec Belzébuth, j'siffle un Nabuchodonosor J'rappe les doigts dans la gorge pour t'gerber mes meilleures ceau-mor Tu veux de l'écaille de poisson, pas besoin d'aller au port J'serre que des avions, appelle-moi l'aéroport Au pieds une paire de Dan-Jor, au bras un paquet bulgare Fais porter le voile à ta femme nous on la viole du regard Ecoute cette grosse prod sonninké, l'alcool est martiniquais Kho j'crois je vais tout niquer, toujours al comme Manu Key Flow milé millénium, le tien est sans unité J'ai la dégaine d'un cricket qui t'fout à poil brolické Canardo dans la cour des grands Banlieue Sale mec on entreprend Ta petite tête est dans mon rétro, re-fré la notre est dans ton écran Si tu rappes après moi c'est que t'as du cran, un petit conseil recule d'un cran Brolick nan j'connais pas de cran d'arrêt de Trappes à Abidjan J'ai les pieds dans le bizz' et la tête dans la tise, la tise dans la main et de l'autre je te vise Ban-Banlieue Sale Music, physique, technique, t'inquiète pas on maîtrise Déterminés comme Aboudou, mec tu piges pas le style est vaudou eh ! Même sur une chaise tu m'arrives à peine aux genoux ouais ! Haschish draham Dar el Baida 04000, Ca Bouge Pas Hautes Noues Peace, Brolik Verbal Banlieue Sale on s'enjaille ! Hautes Noues Peace Brolik Verbal, 11'43 dans le trou de balle Aujourd'hui j'suis extrait, j'vais me sauver du tribunal Haschish draham, ma tribu kiffe la pénétration anale Glenn Smith, Maysio, banlieusard qui fait danser le XXX Videur j'suis ton pire cauchemar, obligé que ça parte en bagarre Enervé j'ai pas coffré aujourd'hui, y'avait les gendarmes au parloir Regard infrarouge khoya, les lions ils chassent dans le noir Panthère perruquée j'vais te piquer, j'suis ton prédateur en Audemar J'suis avec Omar dans une impasse en X-Max Special Delivery ma grosse Bériz c'est Mad Max J'suis tellement violent pour toi espèce de petite connasse Tu vas porter un tampax toute l'année, en taule j'suis number one comme Komax Khoya, mon flow un numéro d'écrou, j'rigole quand je m'écroule J'suis complètement mahboul, y'a la départementale qui patrouille On s'envole comme les aigles royal, les eunuques n'ont plus d'couilles Bafana, Dar el Baida, un hors la loi qui passe à la fouille Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez Char-char-char-char-char-chargez Banlieue Sale, Banlieue-Banlieue Sale Banlieue Sale, Banlieue-Banlieue Sale Chargez, Chargez1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yeah Du son d'thugs pour ta gova Sénégalo Ruskov Molotov Seth Gueko Néochrome, Sefyu Rec check check check Du son de you-voi pour tes boomers Du rap pour les connaisseurs pas pour les gros lécheurs On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante Ici c'est Blakos vatos lokos gringos Pas de Smirnoff, que du jus, j'tourne avec les gosses Sénégal Ruskov, les gosses, appelle-moi niggas Boloss, Aulnay Sous, 9.3 c'est pas la West Coast J'cause, coup de crosse, grouille tu te flé-gon J'mets des bosses, rap de boss, vide tes poches, j'veux ta Porsche Vas-y touche du bois, j'touche, ta teuch mouille Fais couler la sauce, rappeur X, Sefyu Moloteuch crouille Arnaque Academy comme Aliagas Nikos Donne juste un pascal pour fumer Jean-Pascal crr Tu sais c'est crr, tu veux des crr C'est Molo qui ? Molo crr Oh!! crr crr crr Décharge son manuscrcrr Mon flow tourne sur Paname, au milieu de coups de Trafalgar, de bananes Au milieu de Grecs, pitbulls des Halles Mon feu crame comme la troisième guerre en 45 2045, j'vaux 3493 piges crouille You might also like Fallait pas me laisser sortir le Barillet Plein Le rap américain va s'faire défoncer l'arrière train Un faux chéquier dans le seroual, tous les jours c'est Noël J'veux plus de maille que l'OM ou que Michael Owen Alléluia ! La maille j'suis toujours allé où y'a On s'fait comprendre par les douillas Fais pas ta Tabatha ou on t'abat tard-ba Yeah ! Mes gars sentre-tuent, nous sommes d'agaçants têtus Hachek viens pas m'tchek si tes doigts sentent le cul Fais pas ton grincheux, moi aussi j'viens d'un site de vard-cre Un babtou avec une bite de val-che On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante Soit tu raques, ou j'décapite comme en Irak Coté en bourse, c'est pas un CAC40, mais 93CAC On kicke, avant de m'appeler nettoie ta coke, coco Le rap c'est du bowling on sait faire que des strikes, ta gueule T'as la pêche y'a pas de coque dans ma noix de coco choquée Eh hafrit, j'viens dAfrique, batala fuck NCC c'est mon bloc, G8 baisse ton froc Charmant Glock, Waligen, wali wali fuck Gamine j'viens t'écarter les parties, éclater les platines On aime squatter les parkings et tarter les catines On est bien loin de faire le deuil du crime On a l'il du tigre, un tard-pé au-dessus des couilles pas une feuille de vigne Prie pour que les armes s'enraillent Te branche pas sur 6.35 FM ou j'te flingue les oreilles Dans ma zone l'argent règne, on fait l'oseille quand tu sommeilles Avant qu'le soleil se lève, avant que les darme-gen viennent L'amour c'est comme la guerre car je tire des coups avec des canons Avec une bécane on écrase pas un camion J'trinque pas à ta santé, y'a du poison dans ta boisson Voyons, essaye pas de noyer un poisson ! T'auras jamais assez de cash money Pour être épargné si tu casses mon nez Arrête tes singeries, t'es en lingerie fine sous ton baggy Fais pas ton fou sur ma messagerie On vient des tess bouillantes, ça défouraille hein? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante</t>
+          <t>Yeah Du son d'thugs pour ta gova Sénégalo Ruskov Molotov Seth Gueko Néochrome, Sefyu Rec check check check Du son de you-voi pour tes boomers Du rap pour les connaisseurs pas pour les gros lécheurs On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante Ici c'est Blakos vatos lokos gringos Pas de Smirnoff, que du jus, j'tourne avec les gosses Sénégal Ruskov, les gosses, appelle-moi niggas Boloss, Aulnay Sous, 9.3 c'est pas la West Coast J'cause, coup de crosse, grouille tu te flé-gon J'mets des bosses, rap de boss, vide tes poches, j'veux ta Porsche Vas-y touche du bois, j'touche, ta teuch mouille Fais couler la sauce, rappeur X, Sefyu Moloteuch crouille Arnaque Academy comme Aliagas Nikos Donne juste un pascal pour fumer Jean-Pascal crr Tu sais c'est crr, tu veux des crr C'est Molo qui ? Molo crr Oh!! crr crr crr Décharge son manuscrcrr Mon flow tourne sur Paname, au milieu de coups de Trafalgar, de bananes Au milieu de Grecs, pitbulls des Halles Mon feu crame comme la troisième guerre en 45 2045, j'vaux 3493 piges crouille Fallait pas me laisser sortir le Barillet Plein Le rap américain va s'faire défoncer l'arrière train Un faux chéquier dans le seroual, tous les jours c'est Noël J'veux plus de maille que l'OM ou que Michael Owen Alléluia ! La maille j'suis toujours allé où y'a On s'fait comprendre par les douillas Fais pas ta Tabatha ou on t'abat tard-ba Yeah ! Mes gars sentre-tuent, nous sommes d'agaçants têtus Hachek viens pas m'tchek si tes doigts sentent le cul Fais pas ton grincheux, moi aussi j'viens d'un site de vard-cre Un babtou avec une bite de val-che On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein ? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante Soit tu raques, ou j'décapite comme en Irak Coté en bourse, c'est pas un CAC40, mais 93CAC On kicke, avant de m'appeler nettoie ta coke, coco Le rap c'est du bowling on sait faire que des strikes, ta gueule T'as la pêche y'a pas de coque dans ma noix de coco choquée Eh hafrit, j'viens dAfrique, batala fuck NCC c'est mon bloc, G8 baisse ton froc Charmant Glock, Waligen, wali wali fuck Gamine j'viens t'écarter les parties, éclater les platines On aime squatter les parkings et tarter les catines On est bien loin de faire le deuil du crime On a l'il du tigre, un tard-pé au-dessus des couilles pas une feuille de vigne Prie pour que les armes s'enraillent Te branche pas sur 6.35 FM ou j'te flingue les oreilles Dans ma zone l'argent règne, on fait l'oseille quand tu sommeilles Avant qu'le soleil se lève, avant que les darme-gen viennent L'amour c'est comme la guerre car je tire des coups avec des canons Avec une bécane on écrase pas un camion J'trinque pas à ta santé, y'a du poison dans ta boisson Voyons, essaye pas de noyer un poisson ! T'auras jamais assez de cash money Pour être épargné si tu casses mon nez Arrête tes singeries, t'es en lingerie fine sous ton baggy Fais pas ton fou sur ma messagerie On vient des tess bouillantes, ça défouraille hein? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante On vient des tess bouillantes, ça défouraille hein? Mais c'est deux fois rien Tu voulais une F1, t'auras une chaise roulante Patate de forain, tu vas repartir avec deux faux reins J't'échange ta montre contre une pêche brûlante</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Geah, Seth Guex Saint-Ouen-L'Aumône tièks Je suis pas ton copain, alors calme ta oie-j On est plein comme les Chintawaz Dieu est grand, j'en fais le témoignage Le rap a transformé les mecs de tess en bourgeoises On fait espèce et on plonge dans des plages couleur turquoise Qui paye ses ardoises, s'enrichit Fais du nettoyage, y'a des traîtres ici Versace, Versace, la méduse te pétrifie Elle s'asphyxie, parce que j'appuie sa tête Elle a eu les yeux plus gros qu'la schneck Comme qui ? Comme Anissa Kate On attend qu'une chose qu'à Paris ça pète Flics contre cailleras, cailleras qui tirent aux roquettes blaw S'il était légal de tuer, beaucoup n'seraient plus sur la planète Le string du rap est tendu comme une arbalète J'suis venu jouer de la harpe avec Je te plante avec le pic de la fourchette Et j'insulte ta mère comme Gilles de la Tourette J'mets des baffes d'Obélix, qu'les pétasse m'obéissent Au doigt et à l'oeil, comme fusil à lunette Lamborghini, taille réelle, pas Majorette Demande majorée, l'Etat nous rackette Pendant qu'le net a fait pousser des couilles aux tapettes J'suis carnassier, les couilles en or, j'ai l'coeur en acier Mes punchlines tombent du ciel, j'ai plus qu'à ramasser Si tu veux pécho, tu sais où aller Mes bécanes sont pas musulmanes, pourtant elle ont les roues voilées You might also like J'suis pas ton pote, alors calme ta oie-j Dieu est grand, j'en fais le témoignage On charbonne comme les Chintawaz On charbonne comme les Chintawaz On charbonne comme les Chintawaz J'suis pas ton pote, alors calme ta oie-j On charbonne comme les Chintawaz Dieu est grand, j'en fais le témoignage Dieu est grand, j'en fais le témoignage J'suis pas ton pote, alors calme ta oie-j J'suis pas ton pote, alors calme ta oie-j La beuh est bonne, dépanne-moi un oin-j J'accélère et gué-lar les feukeus sur l'asphalte Ils m'attraperont pas ces fils de lâches J'roule joint au bec, sur le rrain-té comme Bahebeck Aucun de ces bâtards ne peut me la mettre Et l'AK-47 traverse même les pecs... traverse même les pecs Le Glock dans la bouche et la bite dans la schneck Si mon arme te check, la mort te guette Sheguey Squaad charbonne dans ta brecham pire que les Chintawaz Laisse-moi rentrer dans ta teush, que j'y fasse du nettoyage Et j'frappe comme Tyson dans son fion, Tina Turner, Bobby Brown J'l'attrape par le chignon, comme un poisson dans l'eau, faut que j'y aille au fond ! On charbonne matin, midi, soir pour la maille Voir mes darons s'tuer comme des esclaves Pour des salaires de merde, ça fait mal Papa veut s'barrer au bled Maman veut voir l'bébé sortir d'la schneck Le buzz et les soucis, le pouvoir, le succès Les salopes veulent sucer le buzz qu'il me reste Le sheguey est trop haut pour calculer tout ces négros J'suis sur l'sommet d'l'Everest Et l'index fait des guillis guillis sur mon Famas milli', ça fait zdedededex J'suis pas ton pote, alors calme ta oie-j Dieu est grand, j'en fais le témoignage On charbonne comme les Chintawaz On charbonne comme les Chintawaz On charbonne comme les Chintawaz J'suis pas ton pote, alors calme ta oie-j On charbonne comme les Chintawaz Dieu est grand, j'en fais le témoignage Dieu est grand, j'en fais le témoignage J'suis pas ton pote, alors calme ta oie-j6</t>
+          <t>Geah, Seth Guex Saint-Ouen-L'Aumône tièks Je suis pas ton copain, alors calme ta oie-j On est plein comme les Chintawaz Dieu est grand, j'en fais le témoignage Le rap a transformé les mecs de tess en bourgeoises On fait espèce et on plonge dans des plages couleur turquoise Qui paye ses ardoises, s'enrichit Fais du nettoyage, y'a des traîtres ici Versace, Versace, la méduse te pétrifie Elle s'asphyxie, parce que j'appuie sa tête Elle a eu les yeux plus gros qu'la schneck Comme qui ? Comme Anissa Kate On attend qu'une chose qu'à Paris ça pète Flics contre cailleras, cailleras qui tirent aux roquettes blaw S'il était légal de tuer, beaucoup n'seraient plus sur la planète Le string du rap est tendu comme une arbalète J'suis venu jouer de la harpe avec Je te plante avec le pic de la fourchette Et j'insulte ta mère comme Gilles de la Tourette J'mets des baffes d'Obélix, qu'les pétasse m'obéissent Au doigt et à l'oeil, comme fusil à lunette Lamborghini, taille réelle, pas Majorette Demande majorée, l'Etat nous rackette Pendant qu'le net a fait pousser des couilles aux tapettes J'suis carnassier, les couilles en or, j'ai l'coeur en acier Mes punchlines tombent du ciel, j'ai plus qu'à ramasser Si tu veux pécho, tu sais où aller Mes bécanes sont pas musulmanes, pourtant elle ont les roues voilées J'suis pas ton pote, alors calme ta oie-j Dieu est grand, j'en fais le témoignage On charbonne comme les Chintawaz On charbonne comme les Chintawaz On charbonne comme les Chintawaz J'suis pas ton pote, alors calme ta oie-j On charbonne comme les Chintawaz Dieu est grand, j'en fais le témoignage Dieu est grand, j'en fais le témoignage J'suis pas ton pote, alors calme ta oie-j J'suis pas ton pote, alors calme ta oie-j La beuh est bonne, dépanne-moi un oin-j J'accélère et gué-lar les feukeus sur l'asphalte Ils m'attraperont pas ces fils de lâches J'roule joint au bec, sur le rrain-té comme Bahebeck Aucun de ces bâtards ne peut me la mettre Et l'AK-47 traverse même les pecs... traverse même les pecs Le Glock dans la bouche et la bite dans la schneck Si mon arme te check, la mort te guette Sheguey Squaad charbonne dans ta brecham pire que les Chintawaz Laisse-moi rentrer dans ta teush, que j'y fasse du nettoyage Et j'frappe comme Tyson dans son fion, Tina Turner, Bobby Brown J'l'attrape par le chignon, comme un poisson dans l'eau, faut que j'y aille au fond ! On charbonne matin, midi, soir pour la maille Voir mes darons s'tuer comme des esclaves Pour des salaires de merde, ça fait mal Papa veut s'barrer au bled Maman veut voir l'bébé sortir d'la schneck Le buzz et les soucis, le pouvoir, le succès Les salopes veulent sucer le buzz qu'il me reste Le sheguey est trop haut pour calculer tout ces négros J'suis sur l'sommet d'l'Everest Et l'index fait des guillis guillis sur mon Famas milli', ça fait zdedededex J'suis pas ton pote, alors calme ta oie-j Dieu est grand, j'en fais le témoignage On charbonne comme les Chintawaz On charbonne comme les Chintawaz On charbonne comme les Chintawaz J'suis pas ton pote, alors calme ta oie-j On charbonne comme les Chintawaz Dieu est grand, j'en fais le témoignage Dieu est grand, j'en fais le témoignage J'suis pas ton pote, alors calme ta oie-j6</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>J'rote, j'pète j'suis un tueur à gaz Nique Jean Dujardin, moi je représente les gens du voyage Toutes mes phases et mes punchlines sont reputées Une Thaïlandaise en France, ça devient une députée affûtés, foraine est la patate On reconnaît un flic pédé, car y'a d'la merde sur sa matraque J'envoie du lourd comme le cul à Kubiak Viens à Phuket si tu veux m'régler à coups d'batte Ça fait zblerx ! comme un but de l'ASSOA Mes cheveux tombent les uns après les autres comme des dealeurs Ma calvitie, c'est le cartel d'Ochoa Bicrave ou chourave on m'laisse pas d'autres choix Toi et moi, c'est pas la même taille Nan, Kate Moss, José Bové c'est pas la même paille C'est l'Professeur Punchline, caravane drive-by J'vous laisse fuck les States, ouais, faut qu'j'y aille Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche You might also like J'ai deux personnalités mongoles j'suis trisophrène Ibuprofène et filles obscènes remplacent mes nuits d'sommeil Complètement saoul comme Ben l'Oncle, j'm'endors dans une chatte quelconque Des lendemains d'soirée différents, toujours la même honte Trois-quarts des gens n'ont pas vraiment d'amour ils calculent Les grandes salopes traînent toujours avec les p'tites crapules Quand j'vois les commentaires sur le net, j'rêve de dictature Vous serez tous foutus dès qu'j'aurais mes cinq cents signatures C'est pour mes adultes immatures, mes types qui mènent une vie d'raclure Mes smicards qui taffent dur, mes jeunes dépressifs qui saturent Cinq heures du mat', plus d'mélange, on finit l'sky pur J'déboîte j'aurais dû sampler des bruits d'fractures T'as une voix d'chiotte, va sampler des bruits d'chasse d'eau Même quand tu jouis, ça sonne faux arrête les vibratos Orelsan et Seth Gueko, faites place au Bébête Show Sortez les blousons en cuir c'est perfecto ! Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche Après une cuite, j'tourne à la San-Pé' J'suis en concert à la Santé j'rappe à guichets enfermés J'fais pas du rap français, j'fais du rap de français Prochaine pochette j'serai habillé en fermier Sur mon père, j'écoute le game j'suis mort de lol J'vais m'tailler la queue en triangle, ils vont chier du Toblerone Les p'tits d'mon hall, ils ont les crocs comme des Australopithex Ils ont tagué Zdedededex sur leur cahier d'textes au Tipp-Ex J'ai du Clan Campbell pour combler mes cases vides Paris m'fatigue, j'crois qu'j'vais m'remettre à fumer d'la weed Adolescent, j'pensais m'branler jusqu'à c'que j'aie d'l'arthrite Dans mon répertoire, ta meuf s'appelle Baise Rapide Dès la première phrase de tes couplets, j'connais la suite Faudrait qu'on m'paye pour écouter ta mixtape gratuite Deux aventuriers sans espoir, desesperados Oreille Sale, Shrek Gueko c'est l'remake des Crados Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche Zdedededex ! J'ai toujours rêvé d'le faire !4</t>
+          <t>J'rote, j'pète j'suis un tueur à gaz Nique Jean Dujardin, moi je représente les gens du voyage Toutes mes phases et mes punchlines sont reputées Une Thaïlandaise en France, ça devient une députée affûtés, foraine est la patate On reconnaît un flic pédé, car y'a d'la merde sur sa matraque J'envoie du lourd comme le cul à Kubiak Viens à Phuket si tu veux m'régler à coups d'batte Ça fait zblerx ! comme un but de l'ASSOA Mes cheveux tombent les uns après les autres comme des dealeurs Ma calvitie, c'est le cartel d'Ochoa Bicrave ou chourave on m'laisse pas d'autres choix Toi et moi, c'est pas la même taille Nan, Kate Moss, José Bové c'est pas la même paille C'est l'Professeur Punchline, caravane drive-by J'vous laisse fuck les States, ouais, faut qu'j'y aille Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche J'ai deux personnalités mongoles j'suis trisophrène Ibuprofène et filles obscènes remplacent mes nuits d'sommeil Complètement saoul comme Ben l'Oncle, j'm'endors dans une chatte quelconque Des lendemains d'soirée différents, toujours la même honte Trois-quarts des gens n'ont pas vraiment d'amour ils calculent Les grandes salopes traînent toujours avec les p'tites crapules Quand j'vois les commentaires sur le net, j'rêve de dictature Vous serez tous foutus dès qu'j'aurais mes cinq cents signatures C'est pour mes adultes immatures, mes types qui mènent une vie d'raclure Mes smicards qui taffent dur, mes jeunes dépressifs qui saturent Cinq heures du mat', plus d'mélange, on finit l'sky pur J'déboîte j'aurais dû sampler des bruits d'fractures T'as une voix d'chiotte, va sampler des bruits d'chasse d'eau Même quand tu jouis, ça sonne faux arrête les vibratos Orelsan et Seth Gueko, faites place au Bébête Show Sortez les blousons en cuir c'est perfecto ! Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche Après une cuite, j'tourne à la San-Pé' J'suis en concert à la Santé j'rappe à guichets enfermés J'fais pas du rap français, j'fais du rap de français Prochaine pochette j'serai habillé en fermier Sur mon père, j'écoute le game j'suis mort de lol J'vais m'tailler la queue en triangle, ils vont chier du Toblerone Les p'tits d'mon hall, ils ont les crocs comme des Australopithex Ils ont tagué Zdedededex sur leur cahier d'textes au Tipp-Ex J'ai du Clan Campbell pour combler mes cases vides Paris m'fatigue, j'crois qu'j'vais m'remettre à fumer d'la weed Adolescent, j'pensais m'branler jusqu'à c'que j'aie d'l'arthrite Dans mon répertoire, ta meuf s'appelle Baise Rapide Dès la première phrase de tes couplets, j'connais la suite Faudrait qu'on m'paye pour écouter ta mixtape gratuite Deux aventuriers sans espoir, desesperados Oreille Sale, Shrek Gueko c'est l'remake des Crados Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Lève les bras que j'te fasse les poches Toi t'es belle gosse lève les draps, que j'te fasse des mioches Que toutes les meufs dans la place lèvent les mains C'est bon les mecs vous pouvez leur toucher les seins Mes capotes et mes liasses s'ennuient dans mes poches On débarque grosse caravane au cul du Porsche Zdedededex ! J'ai toujours rêvé d'le faire !4</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Et maintenant, vous allez écouter de la musique meurtrière Seth Guex, N.I.R.O Ok ! Zoulou ! C'est l'histoire d'un mec avec un canon scié, assis dans ses WC Qui veut surtout pas qu'on l'fasse chier Ouais, j'ai l'humour noir de Gaspard Proust Et sur la queue un putain d'essuie-gloss tah Carglouche Aller en vacances avec sa fouf C'est comme aller aux chiottes une fois qu't'as chié dans ta couche Kzzz J'te mets pas au courant j'te court-circuite On s'fait des cendards avec des coquilles d'huître On craque nos slips sur les courses hippiques Bsahtek garçon si tu fais l'million grâce à Soumillon Sois mignon souris au radar, c'est notre Photomaton Au placard, mieux vaut avoir un poto maton On t'connaît ap', on t'sourit ap' J'ai la queue qui s'dresse comme un suricate Quand mes pussycats me parlent à reille-l'o Ne t'avise surtout pas d'me parler haut Elle s'prend une tarte si à la plage elle porte pas d'paréo Aujourd'hui les schmits courent vite, avant c'étaient des porcs tout ramollos Si j'en fume un, une rue portera mon nom Malheur ! Ô grand malheur ! J'ai mis un schmit dans la cheminée appelle un poto ramoneur You might also like J'veux un peu plus d'oseille, sur la chatte à Mireille Ouais un peu plus de fric, sur la chatte à Brigitte Ça vient du Val-dOise la chatte à Françoise Rafale de Uzi la chatte à Laurent Voulzy Bigoss bigoss, Seth Guex, N.I.R.O Coup d'zguègue dans la chatte à Mireille Faut les euros, couilles pleines, cerveau vissé Tu t'demandes même plus qui c'est Tu veux marquer ton territoire ? C'est sur toi qu'on va pisser Si si, dis-moi pourquoi la vie ça va si vite ? D'ici les vils-ci signalent mon portrait sur la CiBi Hbiba habibi jibi wahed dix barres, j'investis mes billes Clique pas sur mon son si t'aimes pas, raconte pas ta vie Pas assez patient pour avoir un coloc' Pour mon cas, j'irai fouiller la chatte à leur mère, tah les gynécologues Pour l'instant j'prends mon mal en patience J'vous prends d'tous les côtés, aller-retour, gros ça n'a pas d'sens Complètement pété, shité, cuité Jamais acquitté comme tous les mecs de cité Ma daronne croit qu'j'suis habité Punchline tweetée, aussitôt retweetée Dans la rue, la sère-mi, on est condamnés à perpétuité Sur l'tapis, sur la moquette t'as fait caca partout Incline-toi devant Leroy Merlin et prie le Saint-Maclou Chie dur, chie mou l'important c'est qu'tu chies dans l'trou J'm'en fous, l'important c'est qu't'appelles Maître Bouzrou si j'suis au trou Mais qu'est-ce tu fous ? Dans l'peu-slaï, un bouleau Des punchlines j'en à la louche, crillave les os d'tes moulos Sache qu'on dit pas my man aux 'nouches On traque les demoiselles au culot, tise le Damoiseau au goulot J'ai oublié mon phone-tel au Sofitel, narvalo Quand j'appelle c'est pas Nafissatou mais Strauss-Kahn qui dit Allô ? Fratello, j'me sens boycotté c'est réel Faut-il sauver l'Soldat Ryan ou tuer l'Colonel Reyel ? 1</t>
+          <t>Et maintenant, vous allez écouter de la musique meurtrière Seth Guex, N.I.R.O Ok ! Zoulou ! C'est l'histoire d'un mec avec un canon scié, assis dans ses WC Qui veut surtout pas qu'on l'fasse chier Ouais, j'ai l'humour noir de Gaspard Proust Et sur la queue un putain d'essuie-gloss tah Carglouche Aller en vacances avec sa fouf C'est comme aller aux chiottes une fois qu't'as chié dans ta couche Kzzz J'te mets pas au courant j'te court-circuite On s'fait des cendards avec des coquilles d'huître On craque nos slips sur les courses hippiques Bsahtek garçon si tu fais l'million grâce à Soumillon Sois mignon souris au radar, c'est notre Photomaton Au placard, mieux vaut avoir un poto maton On t'connaît ap', on t'sourit ap' J'ai la queue qui s'dresse comme un suricate Quand mes pussycats me parlent à reille-l'o Ne t'avise surtout pas d'me parler haut Elle s'prend une tarte si à la plage elle porte pas d'paréo Aujourd'hui les schmits courent vite, avant c'étaient des porcs tout ramollos Si j'en fume un, une rue portera mon nom Malheur ! Ô grand malheur ! J'ai mis un schmit dans la cheminée appelle un poto ramoneur J'veux un peu plus d'oseille, sur la chatte à Mireille Ouais un peu plus de fric, sur la chatte à Brigitte Ça vient du Val-dOise la chatte à Françoise Rafale de Uzi la chatte à Laurent Voulzy Bigoss bigoss, Seth Guex, N.I.R.O Coup d'zguègue dans la chatte à Mireille Faut les euros, couilles pleines, cerveau vissé Tu t'demandes même plus qui c'est Tu veux marquer ton territoire ? C'est sur toi qu'on va pisser Si si, dis-moi pourquoi la vie ça va si vite ? D'ici les vils-ci signalent mon portrait sur la CiBi Hbiba habibi jibi wahed dix barres, j'investis mes billes Clique pas sur mon son si t'aimes pas, raconte pas ta vie Pas assez patient pour avoir un coloc' Pour mon cas, j'irai fouiller la chatte à leur mère, tah les gynécologues Pour l'instant j'prends mon mal en patience J'vous prends d'tous les côtés, aller-retour, gros ça n'a pas d'sens Complètement pété, shité, cuité Jamais acquitté comme tous les mecs de cité Ma daronne croit qu'j'suis habité Punchline tweetée, aussitôt retweetée Dans la rue, la sère-mi, on est condamnés à perpétuité Sur l'tapis, sur la moquette t'as fait caca partout Incline-toi devant Leroy Merlin et prie le Saint-Maclou Chie dur, chie mou l'important c'est qu'tu chies dans l'trou J'm'en fous, l'important c'est qu't'appelles Maître Bouzrou si j'suis au trou Mais qu'est-ce tu fous ? Dans l'peu-slaï, un bouleau Des punchlines j'en à la louche, crillave les os d'tes moulos Sache qu'on dit pas my man aux 'nouches On traque les demoiselles au culot, tise le Damoiseau au goulot J'ai oublié mon phone-tel au Sofitel, narvalo Quand j'appelle c'est pas Nafissatou mais Strauss-Kahn qui dit Allô ? Fratello, j'me sens boycotté c'est réel Faut-il sauver l'Soldat Ryan ou tuer l'Colonel Reyel ? 1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ça cest du rap de titi parisien Jferais disparaître la misère si jétais magicien Jvais traconter le comble du plasticien Cest dvoir sa femme partir avec le prof de gym Alors quil vient dlui refaire les seins Jregrette encore lépoque de Gilles X-Men, Wu-Tang Killa Bees et son essaim On est stigmatisés car on nest pas des saints Msieur lAgent, on sait qui la tise la Pastis 51 Tu tprends une bastos pour un terrain Les flics, pour eux, tes rien Si tu liquides un Homme vise bien Car un Homme blessé en vaut plein Faut qujarrête la bière, jbedonne comme le bibendum Michelin Cest ldéclin, on mfait des clins dil francs-maçonniques Jentends encore le DAS qui tue, où est linstitut pharmaceutique ? Nique, nique leurs logos ésotériques Si jpouvais, jdonnerais à tous les clodos une couverture thermique Outré par le nombre de vieilles aimant Derrick Alors que Horst Tappert était un putain dSS La France fait peur, hommage à Clément Meric Chaque chasseur de skin mérite un butin despèce Jrappe sans vergogne, dressé comme un volcan dAuvergne Contre les ivrognes qui nous gouvernent Jaime les hommes qui ont dla poigne, les poignées dmain fermes On devrait ligoter les balances sur les voies des chemins dfer Une amitié sincère cest beau comme une prison qui brûle Mets des boules Quies en Enfer, ya des gens qui hurlent Jrappe la ue-r, personne joue du mambo Tes en danger dmort comme les adeptes de Jo Di Mambro dans lVercors You might also like Ça cest du rap de titi parisien Avec un schlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko Ça cest du rap de titi parisien Qui sort tout droit dun bouquin de Franck Margerin Du rap de martien comme Grishka et son frère Igor Un son dParis gore, pas du Périgord Qui sexprime à laide dargot et doxymore Qui, fut un temps, vendait dla drogue sous lcorridor Ça cest du rap de titi parisien Jaurais refusé quon mdise Pédale même si jmappelais Poulidor Méfie toi de leau qui dort SI jmarche la tête baissée cest quma chaîne pèse au moins deux los-ki d'or Toujours fidèle à ma joncaille Tas pas dlovés ma caille, va chiner Sonakaï Aïe, on met gants sur la Winchester chromé Pour pas aller sfaire goler On a baigné dans lcrime, on nage en dos crawlé Allah y ster, que Dieu mpréserve des rites mystiques dAleister Crowley Jmets dlargent dcôté, cest dla congélation dpognon Dans tes amis, ya ton pire ennemi déguisé Jreste droit comme la constellation dOrion Aligné avec les pyramides de Gizeh Ça sent lkissdé, cest chaud pour ton matricule Files, j'circule entre les parties fines et les particules fines Jlève mon verre de tise à la menthe Pour les darons partis dlusine qu'ont refusé la mise à l'amiante Ça cest du rap de titi parisien Avec un schlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko1</t>
+          <t>Ça cest du rap de titi parisien Jferais disparaître la misère si jétais magicien Jvais traconter le comble du plasticien Cest dvoir sa femme partir avec le prof de gym Alors quil vient dlui refaire les seins Jregrette encore lépoque de Gilles X-Men, Wu-Tang Killa Bees et son essaim On est stigmatisés car on nest pas des saints Msieur lAgent, on sait qui la tise la Pastis 51 Tu tprends une bastos pour un terrain Les flics, pour eux, tes rien Si tu liquides un Homme vise bien Car un Homme blessé en vaut plein Faut qujarrête la bière, jbedonne comme le bibendum Michelin Cest ldéclin, on mfait des clins dil francs-maçonniques Jentends encore le DAS qui tue, où est linstitut pharmaceutique ? Nique, nique leurs logos ésotériques Si jpouvais, jdonnerais à tous les clodos une couverture thermique Outré par le nombre de vieilles aimant Derrick Alors que Horst Tappert était un putain dSS La France fait peur, hommage à Clément Meric Chaque chasseur de skin mérite un butin despèce Jrappe sans vergogne, dressé comme un volcan dAuvergne Contre les ivrognes qui nous gouvernent Jaime les hommes qui ont dla poigne, les poignées dmain fermes On devrait ligoter les balances sur les voies des chemins dfer Une amitié sincère cest beau comme une prison qui brûle Mets des boules Quies en Enfer, ya des gens qui hurlent Jrappe la ue-r, personne joue du mambo Tes en danger dmort comme les adeptes de Jo Di Mambro dans lVercors Ça cest du rap de titi parisien Avec un schlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko Ça cest du rap de titi parisien Qui sort tout droit dun bouquin de Franck Margerin Du rap de martien comme Grishka et son frère Igor Un son dParis gore, pas du Périgord Qui sexprime à laide dargot et doxymore Qui, fut un temps, vendait dla drogue sous lcorridor Ça cest du rap de titi parisien Jaurais refusé quon mdise Pédale même si jmappelais Poulidor Méfie toi de leau qui dort SI jmarche la tête baissée cest quma chaîne pèse au moins deux los-ki d'or Toujours fidèle à ma joncaille Tas pas dlovés ma caille, va chiner Sonakaï Aïe, on met gants sur la Winchester chromé Pour pas aller sfaire goler On a baigné dans lcrime, on nage en dos crawlé Allah y ster, que Dieu mpréserve des rites mystiques dAleister Crowley Jmets dlargent dcôté, cest dla congélation dpognon Dans tes amis, ya ton pire ennemi déguisé Jreste droit comme la constellation dOrion Aligné avec les pyramides de Gizeh Ça sent lkissdé, cest chaud pour ton matricule Files, j'circule entre les parties fines et les particules fines Jlève mon verre de tise à la menthe Pour les darons partis dlusine qu'ont refusé la mise à l'amiante Ça cest du rap de titi parisien Avec un schlass dans la poche comme un Tunisien La vie cest dangereux, on en meurt tous à la fin Cousin, rapper vite ça veut pas dire rapper bien Parisien à tête de chien Ouais mais Parigo, bête de flow PSG sur lmaillot comme Paris-Seth-Gueko1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yeah ! Chevalière narvalo On arrive en équipe dans ton kwaah Seth Gueko, Niro, Dosseh, Lino Zdedededex On aime celles qui font la cuisine ma cousine, pas celles qui traînent des casseroles J'me fous qu'tu sois bonne tant qu'j'ai ta carte gold et l'password Narvalo, j'm'arrache au Brésil avec mes roubignoles Faut qu'j'apprenne à dire Suce-moi ! en Portugnol Les MC's rappent comme des cagoles Sapés en falche d'la tête aux pieds, Plaqué DG comme Débile, Gogole Wesh, débride Popol c'est r'parti comme en quarante Comme Lampard sur l'terrain on a des balles perforantes Règle numéro 1 Pas ramener une pétasse aux renps Les p'tits sont étourdis, les procs lâchent des peines assommantes, han ! C'est toujours l'heure du crime sur ma tocante Sur l'autoroute du soleil plane l'ombrageuse douane volante La rime est arrogante, voire infâme Un homme avec une chatte c'est un femme C'est l'histoire d'un briquet qui dit à un bout d'bédo J'veux te déclarer ma flamme Il était temps que Professeur Punchline sorte de sa caravane J'te conseille de bien t'resserrer l'string avant d'monter sur l'ring C'est Gueko, Niro, Bors et Dosseh dans le fucking building C'est l'récital des pules-cra, champ lexical qui pue l'crime En rap sale, le nec plus ultra, les punchlineurs ultimes La street comme chère épouse, j'me grefferais un fusil à lunettes aux couilles Pour toujours avoir une arme et un il près de mes bourses Arrêtons d'nous leurrer c'est trop laid Car aucune de ces putes n'aura d'orgasme tant qu'on éjaculera pas d'billets violets Les types s'demandent en parlant d'nous Mais merde, qui sont-ils vraiment ? T'as autant d'chance d'nous tester que de tomber sur un jury clément Bon qu'à naître, vivre et biffer pour rouler en coupé Fouffer des poufs maquillées comme des poupées, kicker des couplets S'introduire dans vos raques-ba et se reproduire comme des fard-ca S'unir pour le plus beau des quages-bra, puis sentre-tuer lors du partage Allez tiens, coup d'Karcher génital dans ton kwaah cheh J'me fous de qui t'es, d'où tu viens c'que j'sais c'est qu'tu vas prendre cher You might also like Allez tiens ! Dans ton kwaah tiens ! Le respect c'est pas en étant une kah' qu'on l'obtient À deux doigts d'faire une dinguerie on sait pas c'qui nous r'tient S'ils veulent m'éteindre j'hésiterais pas à allumer ces sales chiens On t'la met dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Le rap, la chatte à sa mère même si on fait ça bien Putain d'flow d'martien, Ghetto youth on s'maintient On t'la met dans ton kwaah tiens ! Avant d'rapper, j'lève les bras en signe de victoire, j'anticipe les réactions de la foule Je sais où elle va frapper, dis-toi que j'entends d'ici le son de la foudre Faudra appeler le 18, on va le foutre le feu Mes soldats disent Oui !, j'brûle cette musique fast-food et l'industrie pendant qu'j'y suis C'est à se foutre une balle, j'crache à la face du monde pour qu'il s'hydrate Si la plus courte distance entre deux points c'est la ligne droite J'reste vrai sur l'bon rail, appelé pour modifier le score On m'dit L'rap est mort, j'suis en vie donc j'ai refusé d'identifier l'corps Or noir comme à Abou Dabhi, la richesse vient des sous-sols L'argent c'est tabou ici, pas l'agression du dabiste À bout de nerfs nous sommes, j'attends la piste de la mort, y'a une bombe sur la piste de danse La zik je la mords, ma rage je la glisse dedans L'ambiance je la brise et le son pisse, pour croquer leur biz' faudra plus de dents Du vice faudra plus de temps, pour ceux qui sont dans leur monde factice on mettra plus de trempe En trois minutes trente, j'le baise le game, d'la musique j'prends l'pouls J'danse sur les braises comme un uzi, j'rappe quand tu prends dans le boule Nique le game, nique les tho-mi, j'amène la crème du crime au cro-mi C'est la folie comme mon shit j'ai que d'la frappe atomique Tu l'as kiffé, j'te l'ai remis, que du sah comme promis Lino, Doss, Niro, Gueks, Dans ton kwaah c'est l'remix Salam aleykoum à tous les ghetto youth, à tous les gars au trou, à tous ceux qui défouraillent Rabza, négro qui jouent pas les fous kheye prennent les euros avec honneur et courage Eeeeeuh ! Suce mon coude, t'as raison d'avoir des doutes Flow maro'cainri nigga, I'm so mothefuckin hood C'est pas pour rien qu'on s'mélange ap, 90 d'zoulous dans l'rap On t'arrache la moitié du corps si tu tends l'bras, on dira qu't'es un bâtard si tu tends pas Mais qu'est-c'tu peux faire quand le sort s'acharne, elle veut pas de toi ? Remballe ta tchatche Faut la vie d'pacha, la vie d'cha-chat, le pouvoir d'achat pour voir sa chatte Ils se demandent pourquoi on s'canarde, le but c'est d'finir riche et libre J'ai vu des Tony Montana devenir des Tony Micelli Gros la musique c'est devenu fast-food, en une semaine on t'efface tous Tu r'tounes pointer au Assédic à la moindre erreur de parcours Qu'est-c'tu racontes ici y a personne qui t'écoute de près T'as des armes dans la bouche re-frè, chez nous les drames c'est pour de vrai Néglige pas mes gars on pourrait venir t'enlever la santé Allez s'plomber, faire du mal on sait l'faire faut pas nous tenter Allez tiens ! Dans ton kwaah tiens ! Le respect c'est pas en étant une kah' qu'on l'obtient À deux doigts d'faire une dinguerie on sait pas c'qui nous r'tient S'ils veulent m'éteindre j'hésiterais pas à allumer ces sales chiens On t'la met dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Le rap, la chatte à sa mère même si on fait ça bien Putain d'flow d'martien, Ghetto youth on s'maintient On t'la met dans ton kwaah tiens !1</t>
+          <t>Yeah ! Chevalière narvalo On arrive en équipe dans ton kwaah Seth Gueko, Niro, Dosseh, Lino Zdedededex On aime celles qui font la cuisine ma cousine, pas celles qui traînent des casseroles J'me fous qu'tu sois bonne tant qu'j'ai ta carte gold et l'password Narvalo, j'm'arrache au Brésil avec mes roubignoles Faut qu'j'apprenne à dire Suce-moi ! en Portugnol Les MC's rappent comme des cagoles Sapés en falche d'la tête aux pieds, Plaqué DG comme Débile, Gogole Wesh, débride Popol c'est r'parti comme en quarante Comme Lampard sur l'terrain on a des balles perforantes Règle numéro 1 Pas ramener une pétasse aux renps Les p'tits sont étourdis, les procs lâchent des peines assommantes, han ! C'est toujours l'heure du crime sur ma tocante Sur l'autoroute du soleil plane l'ombrageuse douane volante La rime est arrogante, voire infâme Un homme avec une chatte c'est un femme C'est l'histoire d'un briquet qui dit à un bout d'bédo J'veux te déclarer ma flamme Il était temps que Professeur Punchline sorte de sa caravane J'te conseille de bien t'resserrer l'string avant d'monter sur l'ring C'est Gueko, Niro, Bors et Dosseh dans le fucking building C'est l'récital des pules-cra, champ lexical qui pue l'crime En rap sale, le nec plus ultra, les punchlineurs ultimes La street comme chère épouse, j'me grefferais un fusil à lunettes aux couilles Pour toujours avoir une arme et un il près de mes bourses Arrêtons d'nous leurrer c'est trop laid Car aucune de ces putes n'aura d'orgasme tant qu'on éjaculera pas d'billets violets Les types s'demandent en parlant d'nous Mais merde, qui sont-ils vraiment ? T'as autant d'chance d'nous tester que de tomber sur un jury clément Bon qu'à naître, vivre et biffer pour rouler en coupé Fouffer des poufs maquillées comme des poupées, kicker des couplets S'introduire dans vos raques-ba et se reproduire comme des fard-ca S'unir pour le plus beau des quages-bra, puis sentre-tuer lors du partage Allez tiens, coup d'Karcher génital dans ton kwaah cheh J'me fous de qui t'es, d'où tu viens c'que j'sais c'est qu'tu vas prendre cher Allez tiens ! Dans ton kwaah tiens ! Le respect c'est pas en étant une kah' qu'on l'obtient À deux doigts d'faire une dinguerie on sait pas c'qui nous r'tient S'ils veulent m'éteindre j'hésiterais pas à allumer ces sales chiens On t'la met dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Le rap, la chatte à sa mère même si on fait ça bien Putain d'flow d'martien, Ghetto youth on s'maintient On t'la met dans ton kwaah tiens ! Avant d'rapper, j'lève les bras en signe de victoire, j'anticipe les réactions de la foule Je sais où elle va frapper, dis-toi que j'entends d'ici le son de la foudre Faudra appeler le 18, on va le foutre le feu Mes soldats disent Oui !, j'brûle cette musique fast-food et l'industrie pendant qu'j'y suis C'est à se foutre une balle, j'crache à la face du monde pour qu'il s'hydrate Si la plus courte distance entre deux points c'est la ligne droite J'reste vrai sur l'bon rail, appelé pour modifier le score On m'dit L'rap est mort, j'suis en vie donc j'ai refusé d'identifier l'corps Or noir comme à Abou Dabhi, la richesse vient des sous-sols L'argent c'est tabou ici, pas l'agression du dabiste À bout de nerfs nous sommes, j'attends la piste de la mort, y'a une bombe sur la piste de danse La zik je la mords, ma rage je la glisse dedans L'ambiance je la brise et le son pisse, pour croquer leur biz' faudra plus de dents Du vice faudra plus de temps, pour ceux qui sont dans leur monde factice on mettra plus de trempe En trois minutes trente, j'le baise le game, d'la musique j'prends l'pouls J'danse sur les braises comme un uzi, j'rappe quand tu prends dans le boule Nique le game, nique les tho-mi, j'amène la crème du crime au cro-mi C'est la folie comme mon shit j'ai que d'la frappe atomique Tu l'as kiffé, j'te l'ai remis, que du sah comme promis Lino, Doss, Niro, Gueks, Dans ton kwaah c'est l'remix Salam aleykoum à tous les ghetto youth, à tous les gars au trou, à tous ceux qui défouraillent Rabza, négro qui jouent pas les fous kheye prennent les euros avec honneur et courage Eeeeeuh ! Suce mon coude, t'as raison d'avoir des doutes Flow maro'cainri nigga, I'm so mothefuckin hood C'est pas pour rien qu'on s'mélange ap, 90 d'zoulous dans l'rap On t'arrache la moitié du corps si tu tends l'bras, on dira qu't'es un bâtard si tu tends pas Mais qu'est-c'tu peux faire quand le sort s'acharne, elle veut pas de toi ? Remballe ta tchatche Faut la vie d'pacha, la vie d'cha-chat, le pouvoir d'achat pour voir sa chatte Ils se demandent pourquoi on s'canarde, le but c'est d'finir riche et libre J'ai vu des Tony Montana devenir des Tony Micelli Gros la musique c'est devenu fast-food, en une semaine on t'efface tous Tu r'tounes pointer au Assédic à la moindre erreur de parcours Qu'est-c'tu racontes ici y a personne qui t'écoute de près T'as des armes dans la bouche re-frè, chez nous les drames c'est pour de vrai Néglige pas mes gars on pourrait venir t'enlever la santé Allez s'plomber, faire du mal on sait l'faire faut pas nous tenter Allez tiens ! Dans ton kwaah tiens ! Le respect c'est pas en étant une kah' qu'on l'obtient À deux doigts d'faire une dinguerie on sait pas c'qui nous r'tient S'ils veulent m'éteindre j'hésiterais pas à allumer ces sales chiens On t'la met dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Dans ton kwaah tiens ! Le rap, la chatte à sa mère même si on fait ça bien Putain d'flow d'martien, Ghetto youth on s'maintient On t'la met dans ton kwaah tiens !1</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Daj se muzici Vladimira Komara Sku J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Corleone, Gueko, négro, j'ai la vision comme Deco Là pour les minions comme Ekko cash, Tesla noire mode éco' yah Grosse frappe comme Eto'o, j'suis Ter Stegen, t'es comme Neto Tu sens la loud dans le plastique, Cali' weed, pas de CBD Deux cartes en métal, une en plastique, Chen Zen, CEO, pas de CDD Queens à fond comme IM3, cons' plus d'essence que 10 M3 Co-codéine, sirop, j'crois qu'j'ai cons' au moins 110m sku, sku Concurrence, vous rappez comme des enfants eh, eh Peine de mort pour les prêtres catholiques qui prient Satan et qui violent des enfants sku Noir sur noir comme les MIB, fuck un vaccin, fuck une puce RFID ekip 2030, négro, dans mon compte, il m'faut plus de chiffres qu'une adresse IP Seth Gueks, Chen Zen han, sur la prod', c'est les professeurs ekip Dans les iPhone comme les processeurs, c'est pour les connaisseurs, pas pour les gros lécheurs ekip You might also like J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Si l'rap paie plus, mehlich, j'irais au braco ya foye Parle de pédophilie dans l'Église et tous les catho' s'affolent J'suis dans la sine-cui et j'suis pas v'nu laver les casseroles Les haters veulent nous faire du s7ol façon Drago Malefoy sku Tu, tu vas prendre cher comme Luna Corazon, oui Tatoué de tout-par, j'me sens comme 2Pac, all eyez on me Te mange pas d'disquette, crois pas qu'tout part d'la fashion week Le style vient de la street, arrêtons d'leur faire d'la pub gratuite J'viens d'voir ton clip armes factices et putes à Botox Être mannequin sur Insta', c'est comme être militaire sur Call Of Sokolov parle à mère, Vador m'a dit J'suis ton père J'ai regardé dans mon caleçon, mes bolox m'ont dit Je suis ta paire J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Pétasse, pétasse Corleone, Gueko, pétasse Daj se muzici Vladimira Komara5</t>
+          <t>Daj se muzici Vladimira Komara Sku J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Corleone, Gueko, négro, j'ai la vision comme Deco Là pour les minions comme Ekko cash, Tesla noire mode éco' yah Grosse frappe comme Eto'o, j'suis Ter Stegen, t'es comme Neto Tu sens la loud dans le plastique, Cali' weed, pas de CBD Deux cartes en métal, une en plastique, Chen Zen, CEO, pas de CDD Queens à fond comme IM3, cons' plus d'essence que 10 M3 Co-codéine, sirop, j'crois qu'j'ai cons' au moins 110m sku, sku Concurrence, vous rappez comme des enfants eh, eh Peine de mort pour les prêtres catholiques qui prient Satan et qui violent des enfants sku Noir sur noir comme les MIB, fuck un vaccin, fuck une puce RFID ekip 2030, négro, dans mon compte, il m'faut plus de chiffres qu'une adresse IP Seth Gueks, Chen Zen han, sur la prod', c'est les professeurs ekip Dans les iPhone comme les processeurs, c'est pour les connaisseurs, pas pour les gros lécheurs ekip J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Si l'rap paie plus, mehlich, j'irais au braco ya foye Parle de pédophilie dans l'Église et tous les catho' s'affolent J'suis dans la sine-cui et j'suis pas v'nu laver les casseroles Les haters veulent nous faire du s7ol façon Drago Malefoy sku Tu, tu vas prendre cher comme Luna Corazon, oui Tatoué de tout-par, j'me sens comme 2Pac, all eyez on me Te mange pas d'disquette, crois pas qu'tout part d'la fashion week Le style vient de la street, arrêtons d'leur faire d'la pub gratuite J'viens d'voir ton clip armes factices et putes à Botox Être mannequin sur Insta', c'est comme être militaire sur Call Of Sokolov parle à mère, Vador m'a dit J'suis ton père J'ai regardé dans mon caleçon, mes bolox m'ont dit Je suis ta paire J'ouvre la fenêtre, ça crie Oh la, oh la pute Fuck la stup', oh la pute, pu-pu-pu-pute à l'affût Elle passe dans l'tieks, tout l'monde crie Oh la, oh la pute Il a pas réussi à t'ken, il t'a collé une réput' Pétasse, pétasse Corleone, Gueko, pétasse Daj se muzici Vladimira Komara5</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mac Fly Les flics j'les aime pas, c'est triste car il en faut J'en ai plus rien à branler comme un manchot Chez nous la vengeance n'est pas un plat qui se mange froid Mais plutôt un brah qui se mange chaud Un homme avec du ventre, cest ingrat Donc j'fais des abdos, prouve-moi ta virginité avec un drap Technique ancestrale, caravane, flamenco J'porte de l'or comme un Inca, tatoué comme à Sacramento J'te fume et j'te fais jouir avec un doigt, si tu la ramènes trop Ta chatte a une gâchette, mon flingue a un clito Hachek j'veux tirer un coup, achètes du frameto La rime est casse-tête, j'vais briser un cou Jai les crocs FaimDeLoup Kenavo FinDeVous À bon entendeur J'suis pas une p'tite baltringue du Rap Contenders J'me déchire le casque comme Bender de Futurama Jattendrai pas l'prophète sur Twitter pour suivre la sunna Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok J'soulève des meufs, j'soulève des haltères J'sors de boîte complètement capoute J'me barre en Thaï avec Egypt Air Rester en France, jai pas quça quà foutre Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Tas la bouche pleine de me-sper Normal qutu rappes tes textes en yaourt On arrive comme des bulldozers On tient l'ter-ter, l'pavé et la route Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Polo Ralph Lau', patate de rain-Fo Zahia est en cloque c'est une intox, ou c'est une info ? Cash flow, or thaï, sale conne J'passe pas les portails comme Jonah Falcon Pour info les Katoys, nous on mange pas d'ce pain-là T'sais quoi ? J'préfère encore m'chekwow, poto passe-moi l'Sopalin J'marche avec une poignée d'potes cest mes hommes de mains Tas fait la pute aujourdhui, sois un homme demain Ouais j'suis mort de faim, Baby Brown Sugar J'vais faire d'la boucherie comme le Docteur Maure chez les cougars Jai plus rien d'choucard, j'suis dans l'fichier Canonge Mi-Tanj' mi-démon, alors qu'enfant jétais qu'un ange Phalanges tatouées, cicatrices designées Instrus cisaillées, j'punchline, ça fait dix années Alcool pour le p'tit déjeuner comme en Ille-et-Vilaine Jaime pas Vincent Mc Doom il est vilaine Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok J'soulève des meufs, j'soulève des haltères J'sors de boîte complètement capoute J'me barre en Thaï avec Egypt Air Rester en France, jai pas quça quà foutre Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Tas la bouche pleine de me-sper' Normal qutu rappes tes textes en yaourt On arrive comme des bulldozers On tient l'ter-ter, l'pavé et la route Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Nique ta mère tauras des Nike Air Nikoumouk tauras des ReebokYou might also like1</t>
+          <t>Mac Fly Les flics j'les aime pas, c'est triste car il en faut J'en ai plus rien à branler comme un manchot Chez nous la vengeance n'est pas un plat qui se mange froid Mais plutôt un brah qui se mange chaud Un homme avec du ventre, cest ingrat Donc j'fais des abdos, prouve-moi ta virginité avec un drap Technique ancestrale, caravane, flamenco J'porte de l'or comme un Inca, tatoué comme à Sacramento J'te fume et j'te fais jouir avec un doigt, si tu la ramènes trop Ta chatte a une gâchette, mon flingue a un clito Hachek j'veux tirer un coup, achètes du frameto La rime est casse-tête, j'vais briser un cou Jai les crocs FaimDeLoup Kenavo FinDeVous À bon entendeur J'suis pas une p'tite baltringue du Rap Contenders J'me déchire le casque comme Bender de Futurama Jattendrai pas l'prophète sur Twitter pour suivre la sunna Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok J'soulève des meufs, j'soulève des haltères J'sors de boîte complètement capoute J'me barre en Thaï avec Egypt Air Rester en France, jai pas quça quà foutre Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Tas la bouche pleine de me-sper Normal qutu rappes tes textes en yaourt On arrive comme des bulldozers On tient l'ter-ter, l'pavé et la route Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Polo Ralph Lau', patate de rain-Fo Zahia est en cloque c'est une intox, ou c'est une info ? Cash flow, or thaï, sale conne J'passe pas les portails comme Jonah Falcon Pour info les Katoys, nous on mange pas d'ce pain-là T'sais quoi ? J'préfère encore m'chekwow, poto passe-moi l'Sopalin J'marche avec une poignée d'potes cest mes hommes de mains Tas fait la pute aujourdhui, sois un homme demain Ouais j'suis mort de faim, Baby Brown Sugar J'vais faire d'la boucherie comme le Docteur Maure chez les cougars Jai plus rien d'choucard, j'suis dans l'fichier Canonge Mi-Tanj' mi-démon, alors qu'enfant jétais qu'un ange Phalanges tatouées, cicatrices designées Instrus cisaillées, j'punchline, ça fait dix années Alcool pour le p'tit déjeuner comme en Ille-et-Vilaine Jaime pas Vincent Mc Doom il est vilaine Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok J'soulève des meufs, j'soulève des haltères J'sors de boîte complètement capoute J'me barre en Thaï avec Egypt Air Rester en France, jai pas quça quà foutre Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Tas la bouche pleine de me-sper' Normal qutu rappes tes textes en yaourt On arrive comme des bulldozers On tient l'ter-ter, l'pavé et la route Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok Nique ta mère tauras des Nike Air Nikoumouk tauras des Reebok1</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane Hé zinc', mon calibre est neuf, reuf, la plupart c'est du bluff, meuf 2.0.13, deux doigts d'la retraite, sinon je tire sur les keufs Neuf-Quatre, on charbonne jusqu'à ton village, ouais, j'ai vu la peur sur ton visage Mirá j'veux la vie à David Villa, trois meufs dans ma villa 28 ans, ouais, j'm'en bats les couilles, rebeu, j'suis un vrai rat d'égoût Salam Aleikoum, même si t'es balaise, si y'a malaise, la mitraillette rendra les coups Frontière espagnole, couture italienne,voiture allemande, alcool russe Shit du Maroc, herbe hollandaise, Lacrim polyvalence et j'te baise à l'anglaise Ferme ta gueule qu'est-ce que tu connais d'ma vie, hein ? Tu m'prends pour un p'tit bouffon parce qu'une fois tu m'as vu humble ? Oui, mais l'ami j'te baise, fidèle à ma place, fidèle à ma paye, j'suis toujours le même Ves-qui la gardàv', fidèle à mon peuple, fidèle à ma 'teille, ok ! Juste un coup d'bigo, ça ravitaille le bédo Coup, coup d'Zippo, on brûle les barricades du dépôt Coup, coup d'rideaux, j'les prends des amygdales au clito' Coup, coup d'ciseaux, comme dans la Capitale Soweto Coup d'chicot, cannibale au resto Conchita, fais-nous des fajitas Sodebo Coup, coup, coup, coup d'gyro', car la flicaille nous nnaît-co Bourricot, l'hebs c'est la patinoire du ghetto Écoute Nico et non pas la partie noire de Gueko Coup, coup d'nitro, et Paris crame de tous les tés-cô J'découpe la concurrence ZdededeDexter À cause du mariage gay, bientôt on dira plus Nique ta mère ! You might also like Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban J'ai des visions du futur PacoRayban Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim' Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane Los muchachos, las muchachas Y'a trop de merde sur les ondes, négro laisse-moi tirer la chasse Depuis tout petit, l'esprit assassin comme Mathias J'compte plus sur l'avenir, j'vais donc te braquer ta liasse Pour te menacer frérot, pas besoin d'une kalash J'oublie pas que c'est d'une simple rafale que peut naître un cadavre J'te la découpe, la prod' chirurgicale incision Paco Rayban sur le zen', Steevie Wonder dans la salle d'intervention Dans la merde, j'ai passé mon diplôme de natation J'connais une belle Marseillaise, mais pas l'hymne de la Nation Au hebs à cause de ces lois que nous outrepassons Si les keufs se mettent sur nous, c'est pour pêcher le gros poisson Allah y rahmou 2Pac Shakur, j'écris à la salle de tir Cagoule, Compèt', chicha, beurette, capote, al-Fakhir La cité j'en porte les contusions, tête de mort sur le blouson J'ai une nouvelle arme, j'attends la livraison, ma weed elle est en floraison Les petits frères tous en prison, j'ai un pare-balle en peau d'bison La guerre c'est du business, pour la faire j'ai un putain d'million d'raisons J'suis à Paname, j'ai d'la reprise comme une bécane, paire de Ray-Ban J'ai sorti l'BM aux phares jaunes pour tracter la caravane Ah j'viens détèr' akhi, émirati, terroriste Nettoyeur comme Verratti, j'suis un pilote d'Ferrari Rim'k est invité c'est déséquilibré, ça sent l'match truqué J'suis à Vitry ce que Seth Gueko est à Phuket Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban J'ai des visions du futur PacoRayban Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim' Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane</t>
+          <t>Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane Hé zinc', mon calibre est neuf, reuf, la plupart c'est du bluff, meuf 2.0.13, deux doigts d'la retraite, sinon je tire sur les keufs Neuf-Quatre, on charbonne jusqu'à ton village, ouais, j'ai vu la peur sur ton visage Mirá j'veux la vie à David Villa, trois meufs dans ma villa 28 ans, ouais, j'm'en bats les couilles, rebeu, j'suis un vrai rat d'égoût Salam Aleikoum, même si t'es balaise, si y'a malaise, la mitraillette rendra les coups Frontière espagnole, couture italienne,voiture allemande, alcool russe Shit du Maroc, herbe hollandaise, Lacrim polyvalence et j'te baise à l'anglaise Ferme ta gueule qu'est-ce que tu connais d'ma vie, hein ? Tu m'prends pour un p'tit bouffon parce qu'une fois tu m'as vu humble ? Oui, mais l'ami j'te baise, fidèle à ma place, fidèle à ma paye, j'suis toujours le même Ves-qui la gardàv', fidèle à mon peuple, fidèle à ma 'teille, ok ! Juste un coup d'bigo, ça ravitaille le bédo Coup, coup d'Zippo, on brûle les barricades du dépôt Coup, coup d'rideaux, j'les prends des amygdales au clito' Coup, coup d'ciseaux, comme dans la Capitale Soweto Coup d'chicot, cannibale au resto Conchita, fais-nous des fajitas Sodebo Coup, coup, coup, coup d'gyro', car la flicaille nous nnaît-co Bourricot, l'hebs c'est la patinoire du ghetto Écoute Nico et non pas la partie noire de Gueko Coup, coup d'nitro, et Paris crame de tous les tés-cô J'découpe la concurrence ZdededeDexter À cause du mariage gay, bientôt on dira plus Nique ta mère ! Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban J'ai des visions du futur PacoRayban Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim' Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane Los muchachos, las muchachas Y'a trop de merde sur les ondes, négro laisse-moi tirer la chasse Depuis tout petit, l'esprit assassin comme Mathias J'compte plus sur l'avenir, j'vais donc te braquer ta liasse Pour te menacer frérot, pas besoin d'une kalash J'oublie pas que c'est d'une simple rafale que peut naître un cadavre J'te la découpe, la prod' chirurgicale incision Paco Rayban sur le zen', Steevie Wonder dans la salle d'intervention Dans la merde, j'ai passé mon diplôme de natation J'connais une belle Marseillaise, mais pas l'hymne de la Nation Au hebs à cause de ces lois que nous outrepassons Si les keufs se mettent sur nous, c'est pour pêcher le gros poisson Allah y rahmou 2Pac Shakur, j'écris à la salle de tir Cagoule, Compèt', chicha, beurette, capote, al-Fakhir La cité j'en porte les contusions, tête de mort sur le blouson J'ai une nouvelle arme, j'attends la livraison, ma weed elle est en floraison Les petits frères tous en prison, j'ai un pare-balle en peau d'bison La guerre c'est du business, pour la faire j'ai un putain d'million d'raisons J'suis à Paname, j'ai d'la reprise comme une bécane, paire de Ray-Ban J'ai sorti l'BM aux phares jaunes pour tracter la caravane Ah j'viens détèr' akhi, émirati, terroriste Nettoyeur comme Verratti, j'suis un pilote d'Ferrari Rim'k est invité c'est déséquilibré, ça sent l'match truqué J'suis à Vitry ce que Seth Gueko est à Phuket Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban J'ai des visions du futur PacoRayban Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim' Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Paco Rayban...Pa-Pa-Pa-Pa-Paco Rayban Y'a des keufs partout, Nhar Sheitan en Mégane</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hey, t'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh Geah Elle taffe dans un bar à tapins, pas un bar à tapas C'soir elle a mit sa jupe d'écolière et sa barrette à pinces Ne sois pas en colère, t'occupe pas des commères, laisse-moi tâter tes eins et palper des liasses Elle veut un barlou en gamos, pas une tapette à pince barlou, barlou Relève la tête, faudrait pas qu'tes cheveux dans ma braguette se coincent Je suis un crapaud bitch, j'suis loin d'être un prince très loin, très loin Pot Akrapovi, elle me pince sur la bécane vroom, vroom, vroom J'ai d'l'amour propre mais j'aime l'amour sale T'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh You might also like On a de l'or sur les dents Rolex pour compter le temps Dis-moi ce que tu ressens Dis-moi ce que tu ressens Pull up en Porsche sur les Champs Regarde pas derrière, j'suis devant Dis-moi ce que tu ressens Dis-moi ce que tu ressens Baby j'peux lire dans tes pensées comme si j'étais l'oracle Oh, yeah Baby j'peux lire dans tes pensées comme si j'étais l'oracle Oh Barlou, barlou, barlou, geah Ta chatte, ta chatte, ta chatte a trop de kilometers Tu twerk, tu twerk mais ton boulot mécure Prends pas ma messagerie pour le bureau des pleurs Fallait pas s'frotter au bourreau des curs Elle est belle mais que la nuit comme la Tour Eiffel Pour monter sur ses talons, sa pote lui fait la courte échelle Les mecs la payent en coke, ses narines c'est Courchevel Elle a un bête de corps mais lui reste-t-il encore un bout d'cervelle ? T'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh4</t>
+          <t>Hey, t'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh Geah Elle taffe dans un bar à tapins, pas un bar à tapas C'soir elle a mit sa jupe d'écolière et sa barrette à pinces Ne sois pas en colère, t'occupe pas des commères, laisse-moi tâter tes eins et palper des liasses Elle veut un barlou en gamos, pas une tapette à pince barlou, barlou Relève la tête, faudrait pas qu'tes cheveux dans ma braguette se coincent Je suis un crapaud bitch, j'suis loin d'être un prince très loin, très loin Pot Akrapovi, elle me pince sur la bécane vroom, vroom, vroom J'ai d'l'amour propre mais j'aime l'amour sale T'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh On a de l'or sur les dents Rolex pour compter le temps Dis-moi ce que tu ressens Dis-moi ce que tu ressens Pull up en Porsche sur les Champs Regarde pas derrière, j'suis devant Dis-moi ce que tu ressens Dis-moi ce que tu ressens Baby j'peux lire dans tes pensées comme si j'étais l'oracle Oh, yeah Baby j'peux lire dans tes pensées comme si j'étais l'oracle Oh Barlou, barlou, barlou, geah Ta chatte, ta chatte, ta chatte a trop de kilometers Tu twerk, tu twerk mais ton boulot mécure Prends pas ma messagerie pour le bureau des pleurs Fallait pas s'frotter au bourreau des curs Elle est belle mais que la nuit comme la Tour Eiffel Pour monter sur ses talons, sa pote lui fait la courte échelle Les mecs la payent en coke, ses narines c'est Courchevel Elle a un bête de corps mais lui reste-t-il encore un bout d'cervelle ? T'attends ce que j'attends, c'est quand qu'tu t'lances ? Rapproche-moi vers l'avant pendant qu'tu danses Comme des sauvages Baby, ce soir on l'fait comme des sauvages Bouge ton gros cul sur moi, fuck l'entourage, yeah Fais jumper les dollars, yeah Holla, mamma mia Holla On rentre à la maison quand j'te donne le signal Baby, ne fais pas la timide et viens danser à ma table Oh, oh4</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jarrive et toutes les masseuses crient OYYYYY Cest lretour du Bad Cowboy Teerak, fais-toi belle au beauty salon ! Cest pas du rap de Katoï du cabaret Simon Si tu tattaques à moi, tu tattaques à Rome Tu peux mvoir bronzer sur les plages de Kata, Karon Mon Guigui, jvais tmontrer à quoi il sert À tfaire un drive-by sur Nanaï en KSR si tu tiens pas ta parole Croise-moi sur Soi Cowboy, ou Soi Nana Si tes tombé sur un ladyboy, Somnamna Jconnais les Thaï sur lbout des doigts Si jbaise une muette, jsuis sûr quelle va lcrier sur tous les toits Han ! Celle-là jla place pour Paola Jbaraude sur Bangla Road en mode Ray Liotta Bouteille sur la ble-ta Tu veux embrasser lmonde hein Tas quà lécher la raie dune ïe-tha Jsuis à lhôtel Arita, pas loin du Honda Elles mappellent toutes Anaconda en stouchant lavant-bras On sgare sur la Bangla avec nos bolides Jai la queue dressée comme le scorpion sur l'einss à Bowling Jreviens dSurin, sans casque sur ma choupette Lavenir dlhumanité flotte dans les égouts dPhuket Pote-ca dans la pocket, achetée au FamilyMart Taille 56, mec, jkiffe que les femmes et les marques Jai envie dboum-boum, jai envie dtac-tac Mais jai plus dsouffle, jsuis devnu Poum Pouille Mak Mak Mate, elles se sont toutes refait les nibards Jvais tout baiser comme Polo dans Lady Bar Jsuis avec mes Chocolate Men, mes Arabic Men Et on traîne nos semelles Elles mappellent handsome men Alors qujai pris dla brioche Si jmets ltee-shirt Kate Moss, ça lui fait un boule de malienne Tes bête comme ce mec qui mdit Cette tainp', cest la mienne ! Alors qujlai vue laprem avec un gros sur Sai Nam Yen My friend, jsuis au cur dune prison sexuelle Il mfaut un mandat toutes les 2 semaines Il mfaut un Western lew lew, il mfaut un virement Avant dêtre en chien comme un birman Quelle question ! Évidemment on veut tous rester ! Mais va falloir quon paye les overstay Jsuis avec ma sale équipe, dans lfond du carré VIP Attiré par lHollywood comme par une force magnétique Une force maléfique Jai dquoi leur faire Songkran avec du champagne, mais pas dquoi payer un Lady Drink Sky, soda, water, jsors dboîte il est 5h Jvais chez Mama Burger, en bas du Tiger On mdit qujai pas dcur, jréponds Ya pas qu'oim' ! Ici les femmes sont les number one des Pak Waan Toujours un cutter, comme une Mama San Jvais mettre du cocoa butter pour rentrer dam-dam J'arrive sur Paname on mdemande cque jai ramené dlà-bas Jréponds Jespère seulement qujai pas ramené lSIDA ! Eh ouais ya quun pas entre lSéduction et lSidaction Mon pote veut la baiser, donc jfais la traduction Han ! Jai commencé alors finissons ! Deux ! Jveux un massage avec finition 12h davion mon Dieu qucest long Jai bien mérité mon spa fish au Jungceylon Mec, cest lretour du Farang Seth Beleck si la masseuse veut trentrer une phalangette ! Il mfaut une lingette, jai chaud Il faut qujgraille un Kao Pad Kai, un Pad Thaï Gai Si jcroise Frédéric Mitterrand, jlui dis Pai Kai Kai Yet Mei, Yet Po, Oupak, Top Solope Salay Jreprends ma bécane, sur Soi Sansabai Et jtombe sur une ptite meuf Souay Souay Où tu veux jaille ? Direction my room Jsuis un Butterfly, alors, me casse-pas les couilles ! You might also like Yeah ! Kiniao et fier de lêtre ! Cest lretour du Farang Seth !</t>
+          <t>Jarrive et toutes les masseuses crient OYYYYY Cest lretour du Bad Cowboy Teerak, fais-toi belle au beauty salon ! Cest pas du rap de Katoï du cabaret Simon Si tu tattaques à moi, tu tattaques à Rome Tu peux mvoir bronzer sur les plages de Kata, Karon Mon Guigui, jvais tmontrer à quoi il sert À tfaire un drive-by sur Nanaï en KSR si tu tiens pas ta parole Croise-moi sur Soi Cowboy, ou Soi Nana Si tes tombé sur un ladyboy, Somnamna Jconnais les Thaï sur lbout des doigts Si jbaise une muette, jsuis sûr quelle va lcrier sur tous les toits Han ! Celle-là jla place pour Paola Jbaraude sur Bangla Road en mode Ray Liotta Bouteille sur la ble-ta Tu veux embrasser lmonde hein Tas quà lécher la raie dune ïe-tha Jsuis à lhôtel Arita, pas loin du Honda Elles mappellent toutes Anaconda en stouchant lavant-bras On sgare sur la Bangla avec nos bolides Jai la queue dressée comme le scorpion sur l'einss à Bowling Jreviens dSurin, sans casque sur ma choupette Lavenir dlhumanité flotte dans les égouts dPhuket Pote-ca dans la pocket, achetée au FamilyMart Taille 56, mec, jkiffe que les femmes et les marques Jai envie dboum-boum, jai envie dtac-tac Mais jai plus dsouffle, jsuis devnu Poum Pouille Mak Mak Mate, elles se sont toutes refait les nibards Jvais tout baiser comme Polo dans Lady Bar Jsuis avec mes Chocolate Men, mes Arabic Men Et on traîne nos semelles Elles mappellent handsome men Alors qujai pris dla brioche Si jmets ltee-shirt Kate Moss, ça lui fait un boule de malienne Tes bête comme ce mec qui mdit Cette tainp', cest la mienne ! Alors qujlai vue laprem avec un gros sur Sai Nam Yen My friend, jsuis au cur dune prison sexuelle Il mfaut un mandat toutes les 2 semaines Il mfaut un Western lew lew, il mfaut un virement Avant dêtre en chien comme un birman Quelle question ! Évidemment on veut tous rester ! Mais va falloir quon paye les overstay Jsuis avec ma sale équipe, dans lfond du carré VIP Attiré par lHollywood comme par une force magnétique Une force maléfique Jai dquoi leur faire Songkran avec du champagne, mais pas dquoi payer un Lady Drink Sky, soda, water, jsors dboîte il est 5h Jvais chez Mama Burger, en bas du Tiger On mdit qujai pas dcur, jréponds Ya pas qu'oim' ! Ici les femmes sont les number one des Pak Waan Toujours un cutter, comme une Mama San Jvais mettre du cocoa butter pour rentrer dam-dam J'arrive sur Paname on mdemande cque jai ramené dlà-bas Jréponds Jespère seulement qujai pas ramené lSIDA ! Eh ouais ya quun pas entre lSéduction et lSidaction Mon pote veut la baiser, donc jfais la traduction Han ! Jai commencé alors finissons ! Deux ! Jveux un massage avec finition 12h davion mon Dieu qucest long Jai bien mérité mon spa fish au Jungceylon Mec, cest lretour du Farang Seth Beleck si la masseuse veut trentrer une phalangette ! Il mfaut une lingette, jai chaud Il faut qujgraille un Kao Pad Kai, un Pad Thaï Gai Si jcroise Frédéric Mitterrand, jlui dis Pai Kai Kai Yet Mei, Yet Po, Oupak, Top Solope Salay Jreprends ma bécane, sur Soi Sansabai Et jtombe sur une ptite meuf Souay Souay Où tu veux jaille ? Direction my room Jsuis un Butterfly, alors, me casse-pas les couilles ! Yeah ! Kiniao et fier de lêtre ! Cest lretour du Farang Seth !</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Geah, Bar, Bar, you Bar, I Bar Morrey Davidson, barlou, barlou Moi, original barlou, toi tu n'es qu'une imitation Leurs couplets me donnent des irritations J'aime trop la vitesse, nique leurs limitations Je comprends mieux les noirs et les rebeus depuis qu'en Thaïlande j'ai des problèmes d'immigration Je donne du sucre au chien comme elles font des fellations en guise de félicitations Elle est pas poissonnière, non, mais sa chatte pue le poisson Si t'es au pied du mur, relève la tête et suce le maçon Si l'argent tombe du ciel, pose pas de questions c'est que je suis dans l'avion Autrement dit rien ne tombe du ciel à part les crottes de pigeons Rien ne tombe, à part mes potes en prison, le hebs c'est pas le Jacky Show Jugé par des faux, sucé par des folles, bercé par Death Row La concurrence est déjà quée-cho, mes barlous c'est des conquérants, des vaquessos Donne un micro à la reine des baltringues ça devient le roi des chauds On veut braquer la banque, va te laver la fente, laisse passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente You might also like J'aime les rafaler de se-pha et m'affaler sur le sofa Cette lope-sa m'a l'air affamée Elle aura tout sur les seufs ou la ce-fa Il me suffit d'une main pour t'arracher les chicots Ramasser le she-ca Comme le Picol-Crew, je veux beaucoup de Jack mais très peu de soda Barbe mal rasée de forçat De l'amour à la haine, il n'y a qu'un pas Même N est à côté de M dans l'alphabet du laud-sa Laisse pas tes mains sur le chauffage Pour les chos-fa j'ai un kalash dans lsophage Et comme l'alphabet des ténèbres, je m'arrache en YZ Personne n'est innocent, cousine, il n'y a jamais rien d'anodin Comme la cocaïne, coco coco, Christophe Naudin Je te souhaite pas la mort mais entre nous on aurait pu se passer de ta naissance Au rap hardcore, barlou, j'ai prêté allégeance On veut braquer la banque, va te laver la fente, laisses passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente Je suis venu décapiter la prod, barbu comme capitaine Haddock Et on va te couper les couilles si c'est toi le tre-traî qui a piqué la coca Ton père aurait du mettre la pote-ca Regardes nos yeux ça sent le vécu Fais pas ta pute, branle-moi comme on dépanne un copain que j'envoie la panna cotta Toi tes yeux sentent juste le cul alors dis-moi pourquoi tu te la contes-ra Je sors du sonacotra avec un mafieux de chez Versace avec un contrat medusa, medusa À la récré, je volais tes calots avec un compas Ils savent pas se battre alors ils crient Mais ça, ça compte pas Je pe-ra qu'avec des gros moire-ar Grain d'caf sur le thorax comme dans Gomorra T'as combattu comme une reine Pourquoi veux-tu festoyer comme un roi ? T'es une pute, tu veux un mari roi Tu suces pour de la marijuana Ce soir le chat n'est pas là Alors mes souris vendent la mort aux rats On veut braquer la banque, va te laver la fente, laisses passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente Seth Guex, Saint-Ouen-l'Aumône tieks Néochrome gangz, barlou, barlou Morray Davidson2</t>
+          <t>Geah, Bar, Bar, you Bar, I Bar Morrey Davidson, barlou, barlou Moi, original barlou, toi tu n'es qu'une imitation Leurs couplets me donnent des irritations J'aime trop la vitesse, nique leurs limitations Je comprends mieux les noirs et les rebeus depuis qu'en Thaïlande j'ai des problèmes d'immigration Je donne du sucre au chien comme elles font des fellations en guise de félicitations Elle est pas poissonnière, non, mais sa chatte pue le poisson Si t'es au pied du mur, relève la tête et suce le maçon Si l'argent tombe du ciel, pose pas de questions c'est que je suis dans l'avion Autrement dit rien ne tombe du ciel à part les crottes de pigeons Rien ne tombe, à part mes potes en prison, le hebs c'est pas le Jacky Show Jugé par des faux, sucé par des folles, bercé par Death Row La concurrence est déjà quée-cho, mes barlous c'est des conquérants, des vaquessos Donne un micro à la reine des baltringues ça devient le roi des chauds On veut braquer la banque, va te laver la fente, laisse passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente J'aime les rafaler de se-pha et m'affaler sur le sofa Cette lope-sa m'a l'air affamée Elle aura tout sur les seufs ou la ce-fa Il me suffit d'une main pour t'arracher les chicots Ramasser le she-ca Comme le Picol-Crew, je veux beaucoup de Jack mais très peu de soda Barbe mal rasée de forçat De l'amour à la haine, il n'y a qu'un pas Même N est à côté de M dans l'alphabet du laud-sa Laisse pas tes mains sur le chauffage Pour les chos-fa j'ai un kalash dans lsophage Et comme l'alphabet des ténèbres, je m'arrache en YZ Personne n'est innocent, cousine, il n'y a jamais rien d'anodin Comme la cocaïne, coco coco, Christophe Naudin Je te souhaite pas la mort mais entre nous on aurait pu se passer de ta naissance Au rap hardcore, barlou, j'ai prêté allégeance On veut braquer la banque, va te laver la fente, laisses passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente Je suis venu décapiter la prod, barbu comme capitaine Haddock Et on va te couper les couilles si c'est toi le tre-traî qui a piqué la coca Ton père aurait du mettre la pote-ca Regardes nos yeux ça sent le vécu Fais pas ta pute, branle-moi comme on dépanne un copain que j'envoie la panna cotta Toi tes yeux sentent juste le cul alors dis-moi pourquoi tu te la contes-ra Je sors du sonacotra avec un mafieux de chez Versace avec un contrat medusa, medusa À la récré, je volais tes calots avec un compas Ils savent pas se battre alors ils crient Mais ça, ça compte pas Je pe-ra qu'avec des gros moire-ar Grain d'caf sur le thorax comme dans Gomorra T'as combattu comme une reine Pourquoi veux-tu festoyer comme un roi ? T'es une pute, tu veux un mari roi Tu suces pour de la marijuana Ce soir le chat n'est pas là Alors mes souris vendent la mort aux rats On veut braquer la banque, va te laver la fente, laisses passer le tank Barlou, barlou Jordan montantes, savonneuse est la pente Barlou, barlou On veut braquer la banque et raser la fente à Azealia Banks Gun sur la tempe, ouais j'ai la gaule, on dirait une tente Seth Guex, Saint-Ouen-l'Aumône tieks Néochrome gangz, barlou, barlou Morray Davidson2</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>La grosse chatte à ta mère en pièce jointe Tu roules en Féfé sur les Champs, moi j'préfère marcher pieds nus sur la Terre Sainte Faire disque d'or avec du rap hardcore, c'est dur comme déboucher des chiottes avec un cintre Faut crier pour que ces porcs t'écoutent, soit tu portes tes couilles, soit tu portes plainte Les gars du crew attendent l'heure de gloire, Marc Dutroux attend l'heure de pointe J'rappe pour mes fumeurs de zat' et mes buveurs d'absinthe T'es maquillée comme une voiture volée, ta mère la tainp', hein C'est pas un chirurgien qu'il te faut, c'est un peintre Ouais la rapta m'esquinte, je suis la version blanche de Despo Cherche pas à savoir si on a de la blanche de dispo Plus j'aime les femmes, plus j'aime les chiennes, qu'en pense le véto ? Qu'la RATP me suce avec sa bouche de métro Sale est le propos, schlag est le loss-bo Mon disque d'or fondu sur ton crâne à la Khal Drogo Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille You might also like Un flingue avec long canon dans mon pantalon bang bang Tu ressembles plus à une 'tasse qu'à Pocahon' Les schlags veulent la galette mais pas les santons, je suis pas venu là pour parler 100 ans J'fais des provisions sans chèque, des chèques sans provisions Les matons c'est des bâtards, téma la tête qu'ils ont Il pleut des cordes, il fait un temps à s'évader d'prison Ouais, j'suis un papillon, mais j'veux pas de ta chatte en fleur J'fais le poirier quand j'pleure pour qu'les larmes coulent vers l'intérieur Les MC's viennent chez moi passer l'aspirateur J'suis sûr qu'ils étaient pédés dans une vie antérieure Reste à ta place de gentil rappeur ou ton clash va t'péter à la gueule Comme après avoir chié sur un ventilateur Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille J'te baise pas j'me branle avec ton corps, c'est pas pareil On porte pas d'American Apparel, j'ai l'même vice que les Ritals à Palerme T'es une chienne mais t'en as pas l'air, suce mon génital appareil Fais-moi une pipe au miel sur la bite, j'ai une abeille Ma question préférée qu'est-ce que je vais faire de toutes ces bouteilles ? On sort le pastis comme à Marseille, trous de bastos dans le marcel Hommage aux daronnes qui balayent On sort des couplets tah les bootlegs de Harlem Le poto sort du shtar alors on paie les té-teilles Demain c'est le ramdam on sort le bered atay Aujourd'hui t'as du buzz, demain t'en as plus, c'est comme l'oseille Pète pas plus haut que ton cul ou t'auras d'la merde derrière les oreilles Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille10</t>
+          <t>La grosse chatte à ta mère en pièce jointe Tu roules en Féfé sur les Champs, moi j'préfère marcher pieds nus sur la Terre Sainte Faire disque d'or avec du rap hardcore, c'est dur comme déboucher des chiottes avec un cintre Faut crier pour que ces porcs t'écoutent, soit tu portes tes couilles, soit tu portes plainte Les gars du crew attendent l'heure de gloire, Marc Dutroux attend l'heure de pointe J'rappe pour mes fumeurs de zat' et mes buveurs d'absinthe T'es maquillée comme une voiture volée, ta mère la tainp', hein C'est pas un chirurgien qu'il te faut, c'est un peintre Ouais la rapta m'esquinte, je suis la version blanche de Despo Cherche pas à savoir si on a de la blanche de dispo Plus j'aime les femmes, plus j'aime les chiennes, qu'en pense le véto ? Qu'la RATP me suce avec sa bouche de métro Sale est le propos, schlag est le loss-bo Mon disque d'or fondu sur ton crâne à la Khal Drogo Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Un flingue avec long canon dans mon pantalon bang bang Tu ressembles plus à une 'tasse qu'à Pocahon' Les schlags veulent la galette mais pas les santons, je suis pas venu là pour parler 100 ans J'fais des provisions sans chèque, des chèques sans provisions Les matons c'est des bâtards, téma la tête qu'ils ont Il pleut des cordes, il fait un temps à s'évader d'prison Ouais, j'suis un papillon, mais j'veux pas de ta chatte en fleur J'fais le poirier quand j'pleure pour qu'les larmes coulent vers l'intérieur Les MC's viennent chez moi passer l'aspirateur J'suis sûr qu'ils étaient pédés dans une vie antérieure Reste à ta place de gentil rappeur ou ton clash va t'péter à la gueule Comme après avoir chié sur un ventilateur Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille J'te baise pas j'me branle avec ton corps, c'est pas pareil On porte pas d'American Apparel, j'ai l'même vice que les Ritals à Palerme T'es une chienne mais t'en as pas l'air, suce mon génital appareil Fais-moi une pipe au miel sur la bite, j'ai une abeille Ma question préférée qu'est-ce que je vais faire de toutes ces bouteilles ? On sort le pastis comme à Marseille, trous de bastos dans le marcel Hommage aux daronnes qui balayent On sort des couplets tah les bootlegs de Harlem Le poto sort du shtar alors on paie les té-teilles Demain c'est le ramdam on sort le bered atay Aujourd'hui t'as du buzz, demain t'en as plus, c'est comme l'oseille Pète pas plus haut que ton cul ou t'auras d'la merde derrière les oreilles Faites du bruit pour mon Val d'Oseille Le roro j'le porte à merveille Ramène tes MC's j'prends n'importe lequel Les punchlines j'en ai à la pelle Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille Faites du bruit pour mon Val d'Oseille10</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah You might also like Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
+          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lomé... Pharaon Dans la pyramide Motherfucker Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga You might also like La femme idéale, c'est une poupée gonflable, passe-moi une fé-fé, j'ten fais une épave All in, recave, j'ai des trésors de guerre comme un Yougoslave G13 Haze, c'est pas de la prot' power flower j'fume des monstres-plante Sortez les Glocks, j'ai des punchlines sous cellophane c'est comme de la drogue Sors le boitier ou fais les coss on cause pute on cause thune en costume J'fais un casse et je disparais dans les réseaux obscurs La brigade mondaine, la dope, les milices, faites pas les pros, les puristes Pour financer ma putain de jeunesse, j'ai dû braquer 2-3 touristes J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli Professeur Punchline Yeah, refré je suis frais comme un bébé congelé Quand je sors de ma tranchée faut que le rap francais prenne des congés Madame météo est une femme fontaine sort les lunettes de plongée Met des sous de côté avant que l'Etat vienne t'éponger La prison c'est l'impôt du dealer 2 balles dans la tête de ce Rap Game de tapettes, blah blah Dis moi qui veut la peau du Killer ? MC égorgeur, je suis venu taper du poing Cherche pas Mehdi à 14H, il est au Café du coin On est venu casser du groin car y a du facho dans l'atmosphère Je fais trop de punchlines, je donne de la viande casher à des phacochères Traqué par le commissaire car j'ai la médusa posée sur les branches Pas facile tous les jours pour les babtous qui dealent en France Gadjo Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Au-dessus des lois comme Manuel Valls La gravité t'éloigne de l'espace Réserve une place pour ma plus belle balle Je prie pour les miens touchez-vous et faites vos messes basses Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Je prie pour les miens touchez-vous et faites vos messes basses21</t>
+          <t>Lomé... Pharaon Dans la pyramide Motherfucker Modofoka wanna act loco, je les frappe je dois les shot vite, je sors le fo'-fo' Le flow est doux comme des Alokos, parle pas de moi si il ny a pas de Togo Jai, un torrent de mouille sur la verge, jvois les négros sur la berge Ils sentent comment les mots se marient, on dirait quils ont vu la Vierge merde Dis-moi pourquoi thésites, met du temps, tu peux rien contre des mutants Jai la chance de lexpert, jai la chance du débutant Si ta Bitch se laisse faire, cest pas entièrement de ma faute Je te jure que mon pote est cap de sauter cette sale sotte sans capote Cest, pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga Pas facile, tous les jours pour les négros qui vivent en France Cest pour ça, que si je croise Marianne dans une ruelle, jlui enfonce Jattends que lEtat mattrape, que le juge me prononce la sentence 400 ans de sale sur les noirs, nique sa mère la repentance, nigga La femme idéale, c'est une poupée gonflable, passe-moi une fé-fé, j'ten fais une épave All in, recave, j'ai des trésors de guerre comme un Yougoslave G13 Haze, c'est pas de la prot' power flower j'fume des monstres-plante Sortez les Glocks, j'ai des punchlines sous cellophane c'est comme de la drogue Sors le boitier ou fais les coss on cause pute on cause thune en costume J'fais un casse et je disparais dans les réseaux obscurs La brigade mondaine, la dope, les milices, faites pas les pros, les puristes Pour financer ma putain de jeunesse, j'ai dû braquer 2-3 touristes J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli J'suis avec mes boulahyas comme au Liberia on est armés On a trop déboursé, remboursez ! Les coffres on est v'nus pour les forcer Les huissiers, les factures, les impôts sur le dos, la police, les soucis La routine, les potos en son-pri, les longues peines tombées dans l'oubli Professeur Punchline Yeah, refré je suis frais comme un bébé congelé Quand je sors de ma tranchée faut que le rap francais prenne des congés Madame météo est une femme fontaine sort les lunettes de plongée Met des sous de côté avant que l'Etat vienne t'éponger La prison c'est l'impôt du dealer 2 balles dans la tête de ce Rap Game de tapettes, blah blah Dis moi qui veut la peau du Killer ? MC égorgeur, je suis venu taper du poing Cherche pas Mehdi à 14H, il est au Café du coin On est venu casser du groin car y a du facho dans l'atmosphère Je fais trop de punchlines, je donne de la viande casher à des phacochères Traqué par le commissaire car j'ai la médusa posée sur les branches Pas facile tous les jours pour les babtous qui dealent en France Gadjo Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Allo-Pinel, ici-Catrice, on boit l'eau Vittel que dans le Pastis Le Rap Game cest Walking Dead, que des HeadShots sur MC's factices J'suis timbré la chatte à la factrice Yoplaboum, on est les rois du pain de C4 pas du pain dépices Au-dessus des lois comme Manuel Valls La gravité t'éloigne de l'espace Réserve une place pour ma plus belle balle Je prie pour les miens touchez-vous et faites vos messes basses Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Si je suis ici c'est pour les fumer nigga Je prie pour les miens touchez-vous et faites vos messes basses21</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Baw ! Tu t'prends en photo Avec des poucaves, selfils de pute Quand tu m'parles Retire ta main d'ma nuque, petit fils d'eunuque MC, arrête tes pipeaux Arrête tes vices de flûte La mort, c'est l'arrêt du cur L'amour, c'est la raie du uc Aucune rime en réduc' Tu veux du lourd, faut rémunérer paye, paye, paye La claque va être si forte Que même si tu l'esquives, elle va t'enrhumer J'vais leur faire du mal Au sens propre puis au sens défiguré J'ai b'soin d'un flingue pour te flinguer Mais pas d'un tank pour t'enculer bâtard J'envoie du sale Comme le cul d'mémé, va falloir récurer J'balance rien, le comble du barman C'est d'se faire tirer les verres du nez J'découpe l'instru Comme un cruel charcutier J'découpe l'instru Comme un cruel charcutier Que des gros poissons On s'déplace qu'en chalutier J'ai passé ma jeunesse à arpenter les ruelles capuché Viens ici, petite pucelle Je vais te décaputer You might also like Charpenté comme un charpentier J'suis une tête à couperIls s'demandent tous Comment j'ai fait pour perdurer J'suis dans l'mercato Quand vont-ils percuter ? J'ai pas une mère catho Encore moins un père curé Crois pas qu'j'te baratine Les clés du paradis, ils les ont avalées On ira, jusqu'à les éventrer pour les récupérer Pour les cocaïnos, édentés L'bonheur est dans l'trait Tu vas r'sortir du game Aussi vite que t'es rentré Tu t'l'as racontes Mais ton fusil à pompe, il pue des pieds Au hebs j'me sens seul Comme un gladiateur qui a plus d'épée Allumez les spliffs Sortez les 'teilles de Goose Grey J'te souris par devant Gros coup d'schlass en loucedé J'sais d'où j'viens, j'sais où j'vais Les suceurs d'bites restent bouche bée T'as du flow mais pas d'rimes dans tes couplets Les vétérinaires n'ont jamais fais de bons bouchers J'découpe l'instru Comme un cruel charcutier J'découpe l'instru Comme un cruel charcutier Que des gros poissons On s'déplace qu'en chalutier Viens ici petite pucelle Je vais te décaputer Ça va saigner D'mande à Negan et Lucile C'est nos crimes Qu'les keufs en Mégane élucident nique la BAC On va tous mourir J'en suis mégalucide Breaking Bad Cowboy Cousine j'te baise dans la capucine Quand j'bande On dirait une tente de camping Bang, bang, bang ! J'suis la partie visible de l'Heinsenberg Prépare le missile Roule un gros joint d'herbe J'tiens un bar à filles comme Slim Iceberg Bang ! Le game j'lui fais une Gomorrhe et Sodome Si j'te baise, c'est qu't'es une meuf bien Une meuf bien s'doit d'honorer son homme J'te viole par les oreilles Et j'te refile une gonorrhée sonore La chatte à Rebecca La grosse paire de couilles à Proctor Le temps, c'est d'l'argent J'ai une grosse Rolex en or J'bois d'la vodka, et alors ? Combien d'Polonais sont morts ? J'dévore les livres Comme Hannibal, j'suis un gros lecteur La SNCF commence à m'zehef C'est des gros voleurs Pas besoin d'pare-balles Seul Dieu est protecteur T'es qu'un p'tit novice J'suis un gros father Scratch sur l'clitoris Comme un crossfader Suis-je métrosexuel ? Si j'encule un contrôleur Si tu sais pas faire de punchline Viens voir le professeur !4</t>
+          <t>Baw ! Tu t'prends en photo Avec des poucaves, selfils de pute Quand tu m'parles Retire ta main d'ma nuque, petit fils d'eunuque MC, arrête tes pipeaux Arrête tes vices de flûte La mort, c'est l'arrêt du cur L'amour, c'est la raie du uc Aucune rime en réduc' Tu veux du lourd, faut rémunérer paye, paye, paye La claque va être si forte Que même si tu l'esquives, elle va t'enrhumer J'vais leur faire du mal Au sens propre puis au sens défiguré J'ai b'soin d'un flingue pour te flinguer Mais pas d'un tank pour t'enculer bâtard J'envoie du sale Comme le cul d'mémé, va falloir récurer J'balance rien, le comble du barman C'est d'se faire tirer les verres du nez J'découpe l'instru Comme un cruel charcutier J'découpe l'instru Comme un cruel charcutier Que des gros poissons On s'déplace qu'en chalutier J'ai passé ma jeunesse à arpenter les ruelles capuché Viens ici, petite pucelle Je vais te décaputer Charpenté comme un charpentier J'suis une tête à couperIls s'demandent tous Comment j'ai fait pour perdurer J'suis dans l'mercato Quand vont-ils percuter ? J'ai pas une mère catho Encore moins un père curé Crois pas qu'j'te baratine Les clés du paradis, ils les ont avalées On ira, jusqu'à les éventrer pour les récupérer Pour les cocaïnos, édentés L'bonheur est dans l'trait Tu vas r'sortir du game Aussi vite que t'es rentré Tu t'l'as racontes Mais ton fusil à pompe, il pue des pieds Au hebs j'me sens seul Comme un gladiateur qui a plus d'épée Allumez les spliffs Sortez les 'teilles de Goose Grey J'te souris par devant Gros coup d'schlass en loucedé J'sais d'où j'viens, j'sais où j'vais Les suceurs d'bites restent bouche bée T'as du flow mais pas d'rimes dans tes couplets Les vétérinaires n'ont jamais fais de bons bouchers J'découpe l'instru Comme un cruel charcutier J'découpe l'instru Comme un cruel charcutier Que des gros poissons On s'déplace qu'en chalutier Viens ici petite pucelle Je vais te décaputer Ça va saigner D'mande à Negan et Lucile C'est nos crimes Qu'les keufs en Mégane élucident nique la BAC On va tous mourir J'en suis mégalucide Breaking Bad Cowboy Cousine j'te baise dans la capucine Quand j'bande On dirait une tente de camping Bang, bang, bang ! J'suis la partie visible de l'Heinsenberg Prépare le missile Roule un gros joint d'herbe J'tiens un bar à filles comme Slim Iceberg Bang ! Le game j'lui fais une Gomorrhe et Sodome Si j'te baise, c'est qu't'es une meuf bien Une meuf bien s'doit d'honorer son homme J'te viole par les oreilles Et j'te refile une gonorrhée sonore La chatte à Rebecca La grosse paire de couilles à Proctor Le temps, c'est d'l'argent J'ai une grosse Rolex en or J'bois d'la vodka, et alors ? Combien d'Polonais sont morts ? J'dévore les livres Comme Hannibal, j'suis un gros lecteur La SNCF commence à m'zehef C'est des gros voleurs Pas besoin d'pare-balles Seul Dieu est protecteur T'es qu'un p'tit novice J'suis un gros father Scratch sur l'clitoris Comme un crossfader Suis-je métrosexuel ? Si j'encule un contrôleur Si tu sais pas faire de punchline Viens voir le professeur !4</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ya dla fumée qui plane sur l'tiexon Lodeur dla viande grillée allèche les piétons Chaque gars dla tess a sorti un billet dson jean Direction, la boucherie muslim, bah ouais ma cousine On a fait lplein dde-vian, ya des brochettes, des merguez Cest pas tous les jours quTitouille fête ses 22 ans Mais pas dcarré VIP, champagne et dseau dglaçons, nan Cest carré dzip, barbeuk au feu dcharbon Lsoleil nous tappe sur lchiro et sur la cafetière On a sorti nos plus belles squettes-ca Ya dla flotte, et un pack de bières dans la glacière Ma frère, téma la classe, la mayo, cest dla Benedicta Ya même du Mirinda, et comme la pub Knacki On a fait lbarbecue avec une grille de caddie Il manque juste d'la gavali, puis on scroirait à Ibiza Eh, souhaite bon appétit à toute ma cavalerie Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété ! Mes baguettes sortent de la boulang, on est aux anges En plus, devant nous, passent 2-3 boulets dcanons Des ff-ff séchappent de nos bouches en losanges La hchouma, jviens dfaire tomber mon assiette dcarton On a sorti la benne, car on chie pas où on mange Fais un crochet par lMacdo, ramène des glaçons Personne pense à monter sur un bureau dchange, nan On pense quà boire de la vodka-orange, et à tâter lballon La grande classe, on a même sorti les gambas Sur la pelouse, ya des démonstrations dpancrace Les ptits veulent faire du T-Max, mets leur un casque Ils ont la poisse, faudrait pas quun keuf les prenne en chasse You might also like Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété ! Hein mon garène On va rentrer parfumés à la fumée du barbeuk quon a crillave laprem On a fait preuve de générosité On a offert des casse-dalle, même à ceux quont pas cotisé Rendez-vous la semaine chaine-pro Manger les restes des merguez et des chettes-bro On jouera au ker-po, ambiance bataille deau Le tier-quar touvre les portes de son restau Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété !</t>
+          <t>Ya dla fumée qui plane sur l'tiexon Lodeur dla viande grillée allèche les piétons Chaque gars dla tess a sorti un billet dson jean Direction, la boucherie muslim, bah ouais ma cousine On a fait lplein dde-vian, ya des brochettes, des merguez Cest pas tous les jours quTitouille fête ses 22 ans Mais pas dcarré VIP, champagne et dseau dglaçons, nan Cest carré dzip, barbeuk au feu dcharbon Lsoleil nous tappe sur lchiro et sur la cafetière On a sorti nos plus belles squettes-ca Ya dla flotte, et un pack de bières dans la glacière Ma frère, téma la classe, la mayo, cest dla Benedicta Ya même du Mirinda, et comme la pub Knacki On a fait lbarbecue avec une grille de caddie Il manque juste d'la gavali, puis on scroirait à Ibiza Eh, souhaite bon appétit à toute ma cavalerie Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété ! Mes baguettes sortent de la boulang, on est aux anges En plus, devant nous, passent 2-3 boulets dcanons Des ff-ff séchappent de nos bouches en losanges La hchouma, jviens dfaire tomber mon assiette dcarton On a sorti la benne, car on chie pas où on mange Fais un crochet par lMacdo, ramène des glaçons Personne pense à monter sur un bureau dchange, nan On pense quà boire de la vodka-orange, et à tâter lballon La grande classe, on a même sorti les gambas Sur la pelouse, ya des démonstrations dpancrace Les ptits veulent faire du T-Max, mets leur un casque Ils ont la poisse, faudrait pas quun keuf les prenne en chasse Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété ! Hein mon garène On va rentrer parfumés à la fumée du barbeuk quon a crillave laprem On a fait preuve de générosité On a offert des casse-dalle, même à ceux quont pas cotisé Rendez-vous la semaine chaine-pro Manger les restes des merguez et des chettes-bro On jouera au ker-po, ambiance bataille deau Le tier-quar touvre les portes de son restau Enfin lété, enfin lété, enfin lété, enfin lété ! Enfin lété, enfin lété, enfin lété, héééhéhé ! Ohohooohohohooo, enfin lété ! Ohohooohohohooo, enfin lété !</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Seth Guex, you know me Sers-moi un verre de Clan Campbell Naomi J'aime les femmes grandes belles et encore plus si t'as omis De mettre une culotte comme Mallaury Mets de la dentelle et toute la panoplie Viens sous la couette perdre des calories J'ai la tchatche d'un macaroni Veux-tu t'appeler Madame Salvadori ? Viens on se casse, on s'barre au ski Je vais te voler tes yeux chez Swarovski Signe de croix JésusChrist J'vais te braquer ton cur comme une bijouterie Chérie, t'es bonne, t'es fraîche Montre-nous tes compétences de sexe Cherche pas à savoir, tout ce qu'on dépense de fraîche Si on couche ensemble, fais pas une conférence de presse L'ambiance est thug et sexe, fais-moi sortir de mon tieks Chérie, t'es bonne, t'es fraîche Montre-nous tes compétences de sexe Cherche pas à savoir, tout ce qu'on dépense de fraîche Si on couche ensemble, fais pas une conférence de presse L'ambiance est thug et sexe, fais-moi sortir de mon tieks You might also like Rappelle moi ton prénom et celui de ta pine-co Je l'ai sur l'bout de langue comme un clito' Sexto, resto de surcroît Demande à la femme à Rocco, quand on aime on ne mesure pas J'en fais jouir deux sur trois, FontaineAvalanche Je sais déjà à quoi tu penses, j'ai un arrière-train d'avance J'vis là où tu passes tes vacances, demande à mes exs L'anagramme de Seth Guex, c'est Thug Sexe Je vais et je viens entre tes reins comme une vague Gucci, Versace, j'ai l'embarras du swag Pro eins' comme des air bags dans le hashtag Laisse mon Instagram et ton boule dans mon iPad Viagra Kamagra cheval de Camargue J'recherche une surfeuse pour qu'elle reste avec moi quand j'suis dans le creux de la vague Et même si j'aime les blagues de Bigard, le rap de pillard Range ta queue et tes boules les femmes c'est pas des tables de billard</t>
+          <t>Seth Guex, you know me Sers-moi un verre de Clan Campbell Naomi J'aime les femmes grandes belles et encore plus si t'as omis De mettre une culotte comme Mallaury Mets de la dentelle et toute la panoplie Viens sous la couette perdre des calories J'ai la tchatche d'un macaroni Veux-tu t'appeler Madame Salvadori ? Viens on se casse, on s'barre au ski Je vais te voler tes yeux chez Swarovski Signe de croix JésusChrist J'vais te braquer ton cur comme une bijouterie Chérie, t'es bonne, t'es fraîche Montre-nous tes compétences de sexe Cherche pas à savoir, tout ce qu'on dépense de fraîche Si on couche ensemble, fais pas une conférence de presse L'ambiance est thug et sexe, fais-moi sortir de mon tieks Chérie, t'es bonne, t'es fraîche Montre-nous tes compétences de sexe Cherche pas à savoir, tout ce qu'on dépense de fraîche Si on couche ensemble, fais pas une conférence de presse L'ambiance est thug et sexe, fais-moi sortir de mon tieks Rappelle moi ton prénom et celui de ta pine-co Je l'ai sur l'bout de langue comme un clito' Sexto, resto de surcroît Demande à la femme à Rocco, quand on aime on ne mesure pas J'en fais jouir deux sur trois, FontaineAvalanche Je sais déjà à quoi tu penses, j'ai un arrière-train d'avance J'vis là où tu passes tes vacances, demande à mes exs L'anagramme de Seth Guex, c'est Thug Sexe Je vais et je viens entre tes reins comme une vague Gucci, Versace, j'ai l'embarras du swag Pro eins' comme des air bags dans le hashtag Laisse mon Instagram et ton boule dans mon iPad Viagra Kamagra cheval de Camargue J'recherche une surfeuse pour qu'elle reste avec moi quand j'suis dans le creux de la vague Et même si j'aime les blagues de Bigard, le rap de pillard Range ta queue et tes boules les femmes c'est pas des tables de billard</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Zongo Zongo le Dozo J'lui ai craché une punchline Cette pute me l'a pompée pute Si ma bite pouvait parler Elle aurait plein de trucs à raconter j'ai dit pute On s'bute à la Dom Pé' et au Bombay Sapphire On veut de la bombasse à fourrer, d'la chienasse assumée, du charass à fumer Fais pas le lion face à ta mère si t'es un chaton face à ta pute T'as des gros seins, sa mère, ton soutif c'est un parachute Seth Gueko est au rhum ce que le rhum est à la canne à sucre Fais pas la belle dans ma ZUP, les chiens vont t'arracher la jupe et lâcher la jute Kalasher la juge, brrr, pour un pote, oui j'suis c'genre d'ami Jordan 6 rétro, j'prends l'micro, c'est la Cisjordanie La peau noircie par la Rotary, ils veulent me fuck, j'suis pas leur otarie On roule sur Paris en Rari', nique Inspecteur Harry, le Club Rotary Le cuni' c'est l'amuse-gueule de la nique Elles préfèrent que tu leur masses la muqueuse de l'anus que le muscle de la nuque Ingé, balance l'instru et branche le micro, qu'je la bute J'ai tout l'temps envie d'baiser, faut que j'aille voir un psychothéra-pute Sur l'instru, les rimes sont catapultées, les flics, ces fils de tainp' pensent qu'à t'inculper Ne te l'a pas t-on inculqué ? Fais pas la meuf occupée, t'as l'cul plein d'impuretés Gueko, Kaaris, c'est ancestral, j'fais mon khaliss en France et j'taille Nique les moralistes, on t'laisse que des cicatrices, la chatte à Frankenstein Toi et moi c'est pas pareil, j'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraye c'est pas pareil 2.7, 2.7 J'trompe pas ma femme, j'me trompe de femme, c'est pas pareil Kaaris J'pleure pas, j'pisse des yeux, non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital appareil Zongo le Dozo C'est pas pareil Zongo le Dozo Non, c'est pas pareil Si t'es pas content, suce mon génital appareil Je chauffe le cul de la Khaleesi, ceci n'est pas une découverte Dans ce putain d'game, je chie et je laisse la porte ouverte J'vais pour enculer le taureau en l'attrapant par les cornes J'te pose ma eue-qu sur le front, voilà qu'tu t'prends pour une licorne Jeune Riche XXX, le négro a percé J'me fais même mes omelettes avec des ufs de Fabergé L'industrie ne le sait pas qu'ils sont de moi tout ces enfants Tu sais pourquoi ? C'est parce que j'les baise dans la machine à remonter le temps J'prends ton Hip-Hop par la chatte, j'suis dans l'game depuis l'début pute T'as l'impression que je scratche quand je gratte mes deux grosses couilles crépues J'me dirige vers le cosmodrome, tu sors de la locodrome J'suis mauvais même pour la couche d'ozone, rafale sur tes chromosomes J'suis dans l'périmètre, ça vous la coupe, pas de manuel que du séquentiel J'fais du cash et du hula hoop avec ta rondelle Si t'es commissaire divisionnaire, j'vais te prendre en missionnaire J'crache sur les seufs de ta mère, elle va l'étaler comme de la crème solaire pute Toi et moi c'est pas pareil, j'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraye c'est pas pareil 2.7, 2.7 J'trompe pas ma femme, j'me trompe de femme, c'est pas pareil Kaaris J'pleure pas, j'pisse des yeux, non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital appareil Zongo le Dozo C'est pas pareil Zongo le Dozo Non, c'est pas pareil Si t'es pas content, suce mon génital appareil 2.7.0 poto Seth Guex Saint-Ouen-l'Aumône tieks Ris-kaa, barlou Barlou barlou Remix barlouYou might also like2</t>
+          <t>Zongo Zongo le Dozo J'lui ai craché une punchline Cette pute me l'a pompée pute Si ma bite pouvait parler Elle aurait plein de trucs à raconter j'ai dit pute On s'bute à la Dom Pé' et au Bombay Sapphire On veut de la bombasse à fourrer, d'la chienasse assumée, du charass à fumer Fais pas le lion face à ta mère si t'es un chaton face à ta pute T'as des gros seins, sa mère, ton soutif c'est un parachute Seth Gueko est au rhum ce que le rhum est à la canne à sucre Fais pas la belle dans ma ZUP, les chiens vont t'arracher la jupe et lâcher la jute Kalasher la juge, brrr, pour un pote, oui j'suis c'genre d'ami Jordan 6 rétro, j'prends l'micro, c'est la Cisjordanie La peau noircie par la Rotary, ils veulent me fuck, j'suis pas leur otarie On roule sur Paris en Rari', nique Inspecteur Harry, le Club Rotary Le cuni' c'est l'amuse-gueule de la nique Elles préfèrent que tu leur masses la muqueuse de l'anus que le muscle de la nuque Ingé, balance l'instru et branche le micro, qu'je la bute J'ai tout l'temps envie d'baiser, faut que j'aille voir un psychothéra-pute Sur l'instru, les rimes sont catapultées, les flics, ces fils de tainp' pensent qu'à t'inculper Ne te l'a pas t-on inculqué ? Fais pas la meuf occupée, t'as l'cul plein d'impuretés Gueko, Kaaris, c'est ancestral, j'fais mon khaliss en France et j'taille Nique les moralistes, on t'laisse que des cicatrices, la chatte à Frankenstein Toi et moi c'est pas pareil, j'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraye c'est pas pareil 2.7, 2.7 J'trompe pas ma femme, j'me trompe de femme, c'est pas pareil Kaaris J'pleure pas, j'pisse des yeux, non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital appareil Zongo le Dozo C'est pas pareil Zongo le Dozo Non, c'est pas pareil Si t'es pas content, suce mon génital appareil Je chauffe le cul de la Khaleesi, ceci n'est pas une découverte Dans ce putain d'game, je chie et je laisse la porte ouverte J'vais pour enculer le taureau en l'attrapant par les cornes J'te pose ma eue-qu sur le front, voilà qu'tu t'prends pour une licorne Jeune Riche XXX, le négro a percé J'me fais même mes omelettes avec des ufs de Fabergé L'industrie ne le sait pas qu'ils sont de moi tout ces enfants Tu sais pourquoi ? C'est parce que j'les baise dans la machine à remonter le temps J'prends ton Hip-Hop par la chatte, j'suis dans l'game depuis l'début pute T'as l'impression que je scratche quand je gratte mes deux grosses couilles crépues J'me dirige vers le cosmodrome, tu sors de la locodrome J'suis mauvais même pour la couche d'ozone, rafale sur tes chromosomes J'suis dans l'périmètre, ça vous la coupe, pas de manuel que du séquentiel J'fais du cash et du hula hoop avec ta rondelle Si t'es commissaire divisionnaire, j'vais te prendre en missionnaire J'crache sur les seufs de ta mère, elle va l'étaler comme de la crème solaire pute Toi et moi c'est pas pareil, j'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraye c'est pas pareil 2.7, 2.7 J'trompe pas ma femme, j'me trompe de femme, c'est pas pareil Kaaris J'pleure pas, j'pisse des yeux, non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital appareil Zongo le Dozo C'est pas pareil Zongo le Dozo Non, c'est pas pareil Si t'es pas content, suce mon génital appareil 2.7.0 poto Seth Guex Saint-Ouen-l'Aumône tieks Ris-kaa, barlou Barlou barlou Remix barlou2</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'lui ai craché une punchline, cette pute me l'a pompé Si ma bite pouvait parler, elle aurait plein d'trucs à raconter On s'bute à la Dom Pé' et au Bombay Sapphire, et On veut de la bombasse à fourrer D'la chienasse assumée, du charass à fumer Fais pas le lion face à ta mère, si t'es un chaton face à ta pute T'as des gros seins, sa mère, ton soutif c'est un parachute Seth Gueko est au rhum, ce que le rhum est à la canne à sucre Fais pas la belle dans ma ZUP, les chiens vont t'arracher la jupe et lâcher la jute Kalasher la juge, brrr, pour un pote, oui, j'suis c'genre d'ami Jordan 6 rétro, j'prends l'micro, c'est la Cisjordanie La peau noircie par la Rotary Ils veulent me fuck, j'suis pas leur otarie On roule sur Paris en 'Rari Nique Inspecteur Harry, le Club Rotary Le cunni', c'est l'amuse-gueule de la nique Elles préfèrent que tu leur masses la muqueuse de l'anus que le muscle de la nuque Ingé, balance l'instru et branche le micro, qu'je la bute J'ai tout l'temps envie d'baiser, faut qu'j'aille voir un psychothéra-pute Sur l'instru, les rimes sont catapultées Les flics, ces fils de tain-pu pensent qu'à t'inculper Ne te l'a pas t-on inculqué ? Fais pas la meuf occupée, t'as l'cul plein d'impuretés C'est en freestyle, c'est ancestral J'fais mon khaliss en France et j'taille Nique les moralistes, on t'laisse que des cicatrices La chatte à Frankenstein You might also like Toi et moi c'est pas pareil J'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraille c'est pas pareil J'trompe pas ma femme J'me trompe de femme, c'est pas pareil J'pleure pas, j'pisse des yeux Non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil J'rappe mieux qu'eux, mais ils veulent pas s'l'admettre J'vais m'tatouer élève sur la queue, car l'élève dépasse le mètre J'suis ce putain d'buf à deux pattes J'rêve d'une putain d'meuf à deux chattes Et si je fume un keuf, le soir même je porte un nud pap' Si je baise une keuf, ouais c'est l'apothéose J'fais du rap de barbare, j'suis un éléphant comme Babar Non, sauf que moi, ma trompe est rose Elle a des étoiles plein les yeux La pauvre, et du me-sper plein les cheveux J'suis un Barlou, elle est coquette Mets-toi à genoux, c'est d'la moquette Petite devinette après le A y a C après l'autre A y a B Les keufs faut les caillasser, les taillader Laissez-moi rêvasser aux plages de Maya Bay Laissez-nous brasser des liasses violacées Néocodion dans l'Sprite, molécules opiacées En garde-à-v' ils coupent nos cordons et nos lacets Des Gaumont écolos qu'ils ont haut placé On est pas des gols-mon, on est élevé à la Grandmaster Flash C'est pas du cinéma Gaumont, mais quand ma grand-mère passe, les grands cachent leur flash Nique sa race le dictionnaire Le vocabulaire j'lui nique son mère Cavalier d'l'Apoca', j'fais du cheval à l'endroit Les MCs font du cheval à l'envers Toi et moi c'est pas pareil J'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraille c'est pas pareil J'trompe pas ma femme J'me trompe de femme, c'est pas pareil J'pleure pas, j'pisse des yeux Non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil Seth Gueko, Chrome-Néo Saint-Ouen L'au-l'au, Barlou, Barlou Barlou, Barlou1</t>
+          <t>J'lui ai craché une punchline, cette pute me l'a pompé Si ma bite pouvait parler, elle aurait plein d'trucs à raconter On s'bute à la Dom Pé' et au Bombay Sapphire, et On veut de la bombasse à fourrer D'la chienasse assumée, du charass à fumer Fais pas le lion face à ta mère, si t'es un chaton face à ta pute T'as des gros seins, sa mère, ton soutif c'est un parachute Seth Gueko est au rhum, ce que le rhum est à la canne à sucre Fais pas la belle dans ma ZUP, les chiens vont t'arracher la jupe et lâcher la jute Kalasher la juge, brrr, pour un pote, oui, j'suis c'genre d'ami Jordan 6 rétro, j'prends l'micro, c'est la Cisjordanie La peau noircie par la Rotary Ils veulent me fuck, j'suis pas leur otarie On roule sur Paris en 'Rari Nique Inspecteur Harry, le Club Rotary Le cunni', c'est l'amuse-gueule de la nique Elles préfèrent que tu leur masses la muqueuse de l'anus que le muscle de la nuque Ingé, balance l'instru et branche le micro, qu'je la bute J'ai tout l'temps envie d'baiser, faut qu'j'aille voir un psychothéra-pute Sur l'instru, les rimes sont catapultées Les flics, ces fils de tain-pu pensent qu'à t'inculper Ne te l'a pas t-on inculqué ? Fais pas la meuf occupée, t'as l'cul plein d'impuretés C'est en freestyle, c'est ancestral J'fais mon khaliss en France et j'taille Nique les moralistes, on t'laisse que des cicatrices La chatte à Frankenstein Toi et moi c'est pas pareil J'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraille c'est pas pareil J'trompe pas ma femme J'me trompe de femme, c'est pas pareil J'pleure pas, j'pisse des yeux Non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil J'rappe mieux qu'eux, mais ils veulent pas s'l'admettre J'vais m'tatouer élève sur la queue, car l'élève dépasse le mètre J'suis ce putain d'buf à deux pattes J'rêve d'une putain d'meuf à deux chattes Et si je fume un keuf, le soir même je porte un nud pap' Si je baise une keuf, ouais c'est l'apothéose J'fais du rap de barbare, j'suis un éléphant comme Babar Non, sauf que moi, ma trompe est rose Elle a des étoiles plein les yeux La pauvre, et du me-sper plein les cheveux J'suis un Barlou, elle est coquette Mets-toi à genoux, c'est d'la moquette Petite devinette après le A y a C après l'autre A y a B Les keufs faut les caillasser, les taillader Laissez-moi rêvasser aux plages de Maya Bay Laissez-nous brasser des liasses violacées Néocodion dans l'Sprite, molécules opiacées En garde-à-v' ils coupent nos cordons et nos lacets Des Gaumont écolos qu'ils ont haut placé On est pas des gols-mon, on est élevé à la Grandmaster Flash C'est pas du cinéma Gaumont, mais quand ma grand-mère passe, les grands cachent leur flash Nique sa race le dictionnaire Le vocabulaire j'lui nique son mère Cavalier d'l'Apoca', j'fais du cheval à l'endroit Les MCs font du cheval à l'envers Toi et moi c'est pas pareil J'vole pas, j'oublie d'payer, c'est pas pareil J'bégaye pas, j'm'enraille c'est pas pareil J'trompe pas ma femme J'me trompe de femme, c'est pas pareil J'pleure pas, j'pisse des yeux Non ma couillasse, c'est pas pareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil C'est pas pareil, non, c'est pas pareil Si t'es pas content, suce mon génital l'appareil Seth Gueko, Chrome-Néo Saint-Ouen L'au-l'au, Barlou, Barlou Barlou, Barlou1</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'ai commencé sous la douche avec du savon de Marseille Mais t'inquiète, j'm'arrêtais toujours avant que ça saigne Et à l'époque , j'mettais des slips j'avais pas de caleçon Pour t'dire j'avais pas encore d'sperme juste la sensation J'tirais dessus comme un fou espérant la voir s'rallonger Galère la seule téloche était dans la salle à manger Donc, j'devais attendre qu'ils aillent tous se coucher Moi j'm'essuyais dans tout c'que je pouvais trouver J'usais tout le papier toilette mais pas pour me moucher J'allais dans la salle d'eau ils entendaient pas l'eau couler J'étais grillé, mais il m'en fallait encore une J'étais suspect d'regarder les clips à minuit sans volume Sur la 13 y'avait des clips sur la 19 des films de secousse J'ai dû en écouler des litres de shploutch Pour en faire une de val-che J'ai dû l'astiquer ma de Schtroumpf Dis pas le contraire même les filles se touchent Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête You might also like Ça t'rappelle des souvenirs hein p'tit cachottier Moi j'ai 15 ans de métier alors fais pas le gars choqué Mes DVD, j'les ai jamais fait néné J'ai cru dur comme fer au coup d'la passoire d'vant la télé Avoue un p'tit coup d'pougnette ça fait du bien aux coucougnettes Sur mes survêt c'était des taches blanches pas des trous de boulettes Une p'tite avant les cours, c'est meilleur quand c'est court C'est pas les meufs c'est les pages Playboy qu'on s'faisait né-tour Partout en séjour en vacances fallait qu'j'laisse ma trace Que j'suicide mes orphelins sans jamais me faire cramax Jamais sauf quand c'est ma mère qui ramasse mes chaussettes Et qu'en les déroulant ça fasse le bruit du scotch mec J'aurais dû mettre une clochette au dessus d'la te-por Pour avoir l'temps d'mettre eject et de cacher ma cassette de faire croire que j'dors Alors que sous ma couette c'est une salle de sport 7 d'affilée essaie de battre le record Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête 27 ans que j'me lève avec cette barre de fer Une p'tite branlette ça sert quand ta femme veut rien faire Quand elle sort j'mets ma vidéo d'Alison Ray Un Post-it sur la porte au cas où un de mes amis sonnerait Si elle m'engueule, elle est ingrate J'la trompe avec ma main gauche ma main gauche avec ma main droite J'crois qu'j'vais lui reprendre les clefs de l'appart Elle m'a trop surpris, la tête écarlate, en train d'me graisser la patte J'trompais Julia avec Tabatha Katsumi avec Draghixa J'trompe mes cassettes vidéo entre elles J'adore quand mon p'tit écran m'écarte ses jambes de sauterelle J'trompe Dolly Golden avec Yasmine Carla Nova et Katja Kassin La branlette j'sais pas si tu t'imagines petit frère C'est des millions de spermatozoïdes qu'on assassine Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête2</t>
+          <t>J'ai commencé sous la douche avec du savon de Marseille Mais t'inquiète, j'm'arrêtais toujours avant que ça saigne Et à l'époque , j'mettais des slips j'avais pas de caleçon Pour t'dire j'avais pas encore d'sperme juste la sensation J'tirais dessus comme un fou espérant la voir s'rallonger Galère la seule téloche était dans la salle à manger Donc, j'devais attendre qu'ils aillent tous se coucher Moi j'm'essuyais dans tout c'que je pouvais trouver J'usais tout le papier toilette mais pas pour me moucher J'allais dans la salle d'eau ils entendaient pas l'eau couler J'étais grillé, mais il m'en fallait encore une J'étais suspect d'regarder les clips à minuit sans volume Sur la 13 y'avait des clips sur la 19 des films de secousse J'ai dû en écouler des litres de shploutch Pour en faire une de val-che J'ai dû l'astiquer ma de Schtroumpf Dis pas le contraire même les filles se touchent Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Ça t'rappelle des souvenirs hein p'tit cachottier Moi j'ai 15 ans de métier alors fais pas le gars choqué Mes DVD, j'les ai jamais fait néné J'ai cru dur comme fer au coup d'la passoire d'vant la télé Avoue un p'tit coup d'pougnette ça fait du bien aux coucougnettes Sur mes survêt c'était des taches blanches pas des trous de boulettes Une p'tite avant les cours, c'est meilleur quand c'est court C'est pas les meufs c'est les pages Playboy qu'on s'faisait né-tour Partout en séjour en vacances fallait qu'j'laisse ma trace Que j'suicide mes orphelins sans jamais me faire cramax Jamais sauf quand c'est ma mère qui ramasse mes chaussettes Et qu'en les déroulant ça fasse le bruit du scotch mec J'aurais dû mettre une clochette au dessus d'la te-por Pour avoir l'temps d'mettre eject et de cacher ma cassette de faire croire que j'dors Alors que sous ma couette c'est une salle de sport 7 d'affilée essaie de battre le record Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête 27 ans que j'me lève avec cette barre de fer Une p'tite branlette ça sert quand ta femme veut rien faire Quand elle sort j'mets ma vidéo d'Alison Ray Un Post-it sur la porte au cas où un de mes amis sonnerait Si elle m'engueule, elle est ingrate J'la trompe avec ma main gauche ma main gauche avec ma main droite J'crois qu'j'vais lui reprendre les clefs de l'appart Elle m'a trop surpris, la tête écarlate, en train d'me graisser la patte J'trompais Julia avec Tabatha Katsumi avec Draghixa J'trompe mes cassettes vidéo entre elles J'adore quand mon p'tit écran m'écarte ses jambes de sauterelle J'trompe Dolly Golden avec Yasmine Carla Nova et Katja Kassin La branlette j'sais pas si tu t'imagines petit frère C'est des millions de spermatozoïdes qu'on assassine Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête Sors les lingettes, Bistouflex Le gant de toilette, Bistouflex La meilleure cachette, Bistouflex C'est les toilettes Te casse pas la tête2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Seth Guex, Lacrim Ma couillasse, j'regrette rien comme Édith Piaf Je deviens tellement lourd qu'on me dédiclash T-Max, Green Ice Han, c'est pas un vieux vagin qu'on apprend à faire la grimace Ma couillasse, j'regrette rien comme Édith Piaf J'deviens tellement lourd qu'on me dédiclash T-Max, Green Ice, han grognasse, grosse liasses J'suis connu pour mon style de cogneur Comme Bardiss j'ai un pif de boxeur On a les mains pleines d'huile de moteur Arrache d'ici tes vices de bonne sur Je vais te mettre un coup de braguette magique HarryLePeloteur L'instru mérite que j'la découpe en p'tits morceaux comme une bite de violeur J'ramasse tout c'qui traine sur les tables, sur les chaises Ouais c'est génétique, j'ai des tics de voleurs 2000 le 16, nique ton SMIC de chômeur On bois Louis Roederer dans des gobelets en plastique Et le whisky dans des coupes de cristal Jaime les histoires de billets, de casse-pipe L'utérus était Russe mais j'viens d'une paire de couilles de Rital J'découpe le freestyle avec sourire comme Issei Sagawa Or 24 carats Sun Sea Pattaya J'suis en Thaïlande les gars surveillez qu'on me raye pas ma Van Cara You might also likeRefrain J'aime pas les putes y'a qu'les vrais qui s'invitent en voyage Y'a du Jack, du seum de qualité royale Dans l'enfer des braquos, des morts et des grossistes Des drogués, des nymphos, des maquereaux dépressifs Wallah gros j'vais t'baiser, ma patience se limite J'vais faire sucer ta soeur, j'me crois dans Push It To the Limits Y'en a très peu qui m'aident mais Y'en a beaucoup qui m'aident pas 2000 l'16, envoit les moi tu l'verras même pas Que d'la haute couture c'est la coutume demande à Seth Le chef de poste nous suce la bite Abaisse toi fais mes lacets J'vends de la cess, j'fume de la zeb Je prends l'instru j'l'encule à sec ouais Je mange dans tous les plats, Lacrim n'a aucune assiette donc Ouais j'ai pas d'repères puis c'est vrai qu'on s'y retrouve mal J'suis un SDF qui passe tout l'hiver au Pullman Et c'est pour Bejour, Fedah, Tipach Si tu pars en Guadeloupe ben t'as l'litron à 10 balles Liasse de verts, champagne, gros calibre, GP Dans l'tel, mortel, l'hôtel, pépé Cocaïne, Paris XVI, gueule cramée, grand appart 100e l'gramme, ça débite, t'es très content quand ça part J'tire sur un 3 feuilles, le stress s'évacue Dans le jargon, on dit qu't'es cuit si ton avocat n'est pas cru 2.0.12 faut pas jouer, y'a que des chauds au sang froid Regard glacial, drive by en 103, blah Refrain</t>
+          <t>Seth Guex, Lacrim Ma couillasse, j'regrette rien comme Édith Piaf Je deviens tellement lourd qu'on me dédiclash T-Max, Green Ice Han, c'est pas un vieux vagin qu'on apprend à faire la grimace Ma couillasse, j'regrette rien comme Édith Piaf J'deviens tellement lourd qu'on me dédiclash T-Max, Green Ice, han grognasse, grosse liasses J'suis connu pour mon style de cogneur Comme Bardiss j'ai un pif de boxeur On a les mains pleines d'huile de moteur Arrache d'ici tes vices de bonne sur Je vais te mettre un coup de braguette magique HarryLePeloteur L'instru mérite que j'la découpe en p'tits morceaux comme une bite de violeur J'ramasse tout c'qui traine sur les tables, sur les chaises Ouais c'est génétique, j'ai des tics de voleurs 2000 le 16, nique ton SMIC de chômeur On bois Louis Roederer dans des gobelets en plastique Et le whisky dans des coupes de cristal Jaime les histoires de billets, de casse-pipe L'utérus était Russe mais j'viens d'une paire de couilles de Rital J'découpe le freestyle avec sourire comme Issei Sagawa Or 24 carats Sun Sea Pattaya J'suis en Thaïlande les gars surveillez qu'on me raye pas ma Van Cara Refrain J'aime pas les putes y'a qu'les vrais qui s'invitent en voyage Y'a du Jack, du seum de qualité royale Dans l'enfer des braquos, des morts et des grossistes Des drogués, des nymphos, des maquereaux dépressifs Wallah gros j'vais t'baiser, ma patience se limite J'vais faire sucer ta soeur, j'me crois dans Push It To the Limits Y'en a très peu qui m'aident mais Y'en a beaucoup qui m'aident pas 2000 l'16, envoit les moi tu l'verras même pas Que d'la haute couture c'est la coutume demande à Seth Le chef de poste nous suce la bite Abaisse toi fais mes lacets J'vends de la cess, j'fume de la zeb Je prends l'instru j'l'encule à sec ouais Je mange dans tous les plats, Lacrim n'a aucune assiette donc Ouais j'ai pas d'repères puis c'est vrai qu'on s'y retrouve mal J'suis un SDF qui passe tout l'hiver au Pullman Et c'est pour Bejour, Fedah, Tipach Si tu pars en Guadeloupe ben t'as l'litron à 10 balles Liasse de verts, champagne, gros calibre, GP Dans l'tel, mortel, l'hôtel, pépé Cocaïne, Paris XVI, gueule cramée, grand appart 100e l'gramme, ça débite, t'es très content quand ça part J'tire sur un 3 feuilles, le stress s'évacue Dans le jargon, on dit qu't'es cuit si ton avocat n'est pas cru 2.0.12 faut pas jouer, y'a que des chauds au sang froid Regard glacial, drive by en 103, blah Refrain</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hey, St Ouen lAumône - Boulbi, t'vois ce que j'veux dire ou pas ? IZI Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Ma couillasse t'as fait le ramdam bsahtek J'te souhaite l'Aïd mabrouk Si j'ai pas d'flingue marlich, j'enlève ma ceinture Gucci Et j'te fouette avec la boucle C'est le retour du gipsy king kong, ta mère la pioute Si tu baises pas j't'enlève de mon Facebook C'est comme les pizzas, j'enlève la croute Ouh karaï j'ai les yeux couleurs bleus d'travail J'cantine New Look Même au shtar les meufs volent ta maille, ouais Du biff faut qu'j'en gagne, qu'j'marrache à Dubaï J'pisse du champagne viens boire à la bouteille Et même si je t'arrache une a une les molaires Tu suceras jamais aussi bien que ta mère You might also like Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Rien d'amical, schlass sur les amygdales J'cours vite j'frappe fort comme Abidal Toute ta clique à l'hôpital, Nhar Sheitan Duc de Boulbi, King de la capital Auprès des demoiselles j'ai une sale image Peu d'sentiment j'préfère baiser comme un animal Le monde m'appartient j'suis matinal Gros boulard à coté de oi-m, grosse barre de bamboula Kilo d'coke dans l'double fond de la poussette J'pars en Q7 tu pars en sucette Tu kill la musique des bals musette, bois la vie cul-sec Négro j'te connais a-p mais rien qu'tu checkes Gâchette Index Kopp Seth Guex J'fais froid dans l'dos comme mon pote Sergueï La coke a pris la place au shit Champion de barres pas halal crois-tu que j'ai ma place au cirque ? Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx Non d'une pipe en Bois de Boulogne Ratatatax, j'ai la kalash à Al Pacc' J'ai la ganache à Poelvoorde Tu m'fous en rogne jtétripe le ventre D'abord un coup d'casserole, puis un coup de pic de tente Boom j'crache mes rimes, j'ai les couilles dJacques Mesrine Prochain coup marketing j'sors ma bite et j'triple mes ventes Tu laisses ta caisse on t'pique tes jantes ou l'autoradio Mon gadjo on débarque caravane au cul du Lambo En gardave j'fais des pompes, j'lis les tags j'suis claustro J'me replis sur moi-même comme le bras du Scorpio J'représente tout le monde, des roulottes au roloto On met des pneus d'tracteur sur nos roues de moto Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex</t>
+          <t>Hey, St Ouen lAumône - Boulbi, t'vois ce que j'veux dire ou pas ? IZI Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Ma couillasse t'as fait le ramdam bsahtek J'te souhaite l'Aïd mabrouk Si j'ai pas d'flingue marlich, j'enlève ma ceinture Gucci Et j'te fouette avec la boucle C'est le retour du gipsy king kong, ta mère la pioute Si tu baises pas j't'enlève de mon Facebook C'est comme les pizzas, j'enlève la croute Ouh karaï j'ai les yeux couleurs bleus d'travail J'cantine New Look Même au shtar les meufs volent ta maille, ouais Du biff faut qu'j'en gagne, qu'j'marrache à Dubaï J'pisse du champagne viens boire à la bouteille Et même si je t'arrache une a une les molaires Tu suceras jamais aussi bien que ta mère Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex Rien d'amical, schlass sur les amygdales J'cours vite j'frappe fort comme Abidal Toute ta clique à l'hôpital, Nhar Sheitan Duc de Boulbi, King de la capital Auprès des demoiselles j'ai une sale image Peu d'sentiment j'préfère baiser comme un animal Le monde m'appartient j'suis matinal Gros boulard à coté de oi-m, grosse barre de bamboula Kilo d'coke dans l'double fond de la poussette J'pars en Q7 tu pars en sucette Tu kill la musique des bals musette, bois la vie cul-sec Négro j'te connais a-p mais rien qu'tu checkes Gâchette Index Kopp Seth Guex J'fais froid dans l'dos comme mon pote Sergueï La coke a pris la place au shit Champion de barres pas halal crois-tu que j'ai ma place au cirque ? Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx Non d'une pipe en Bois de Boulogne Ratatatax, j'ai la kalash à Al Pacc' J'ai la ganache à Poelvoorde Tu m'fous en rogne jtétripe le ventre D'abord un coup d'casserole, puis un coup de pic de tente Boom j'crache mes rimes, j'ai les couilles dJacques Mesrine Prochain coup marketing j'sors ma bite et j'triple mes ventes Tu laisses ta caisse on t'pique tes jantes ou l'autoradio Mon gadjo on débarque caravane au cul du Lambo En gardave j'fais des pompes, j'lis les tags j'suis claustro J'me replis sur moi-même comme le bras du Scorpio J'représente tout le monde, des roulottes au roloto On met des pneus d'tracteur sur nos roues de moto Lève ton majeur en l'ai-l'ai-l'air Je suis un magnum comme Seléléck Drive by en s-s-l-l-l-r Tvois j'veux dire ou pas frère, fais belelelek On t'renverra ton string par Fed-de-de-dex Lève ta bécane en I fais bé-bé-bé-béx Les MCs puent d'la schneneneck Saddam Haut d'Seine, Seth Guexxx ça fait zdededex</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Je suis ce putain de cowboy qui a toujours une teille à se torcher Tu peux me tirer dans la tête, dans les seufs, sur le pec' Tu peux ap, j'ai la plaque, j'ai des parts chez Dolce, approchez, approchez Au coeur du fric-tra, plus le temps d'être gentil mec Y a plus de Dolce Vita, la vie est une pute sans cur avec un gode ceinture de 30 centimètres Où on t'arroses, normagal à la illette-mitra J'ai pas su éviter la poisse, j'espère que tu l'éviteras J'ai la bite qui touche le menton sous Levitra Y a pas de honte à aller en Thaï mec Qui voudrait pas de la shnek de Nuch Lek ou de Pavitra ? Je croise une tête qui me dit Wesh mec, ça dit quoi ? Qu'est-ce tu fou ? Qu'est-ce tu ponds ? Je réponds je fais attention Car des MC's volent mes rimes, ils se reconnaîtront Les vrais amis, les compagnons ça se compte sur un moignon Je suis ce putain de bad cowboy, qui traine de bar en bar Un bad cowboy, un salopard Un bad cowboy, un tasspar Les liasses de bats dans le calbar Arpente les trottoirs comme un Gaspard Serre des tchoins de gare en gare Bad cowboy, ba-ba-ba-bad cowboy You might also like Je suis du genre à relever les manches, gueuler quand est-ce qu'on mange ! J'suis comme je suis, je kiffe la vodka avec un zeste d'orange Coller une gum-chewing sous la table du restaurant Et en ressortir salement, péter de la tronche Je suis bien au tiek's quand y a de la plaquette sur la planche Question sexe, je te fais minette si tu me fais une blanche La poisse me colle au dersh comme un pet foireux Tête de buse, si tu touches mon guigui, nettoie le Ouais mon flingue j'fais mumuse avec devant la glace Ok, je fais la bouche vers le bas comme celle d'Al Pac' D'ailleurs j'ai la même grain de caf', la même chemise à fleurs Sauf que moi j'ai pas mon pote qui sodomise ma sur Nique le poste de Cergy, la pute de l'accueil Mets des chaussettes à la menthe si tes shoes puent de la gueule Car en garde à v', fini l'orgueil Les Air Max servent d'oreiller pendant qu'on rêve au Sultan de Bruneï Ça baraude, ça baraude sur Bangla Road Et une putain de question me taraude Pourquoi elles m'appellent toutes Tirak Aller casse oit, prends le ton billet de 1000 Baths Bad cowboy, bad pirate Mes putes tu peux les compter sur les doigts d'un 1000 pattes Même les culs de jattes, ils baisent à Phuket Demande à Larry Flynt, ça marche comme sur des roulettes Je porte mes couilles avec une brouette Je chie la porte ouverte Je descends pour acheter une baguette Je reviens en remontant ma braguette Je crois que je vais mourir au volant de ma canette Gremlins sur le pec, sur mes phalanges Seth Je me crois tout permis comme un Farang-set Y me manque juste un one to call pour appeler la daronne Je suis marqué par la vie comme Nui Dragon 1</t>
+          <t>Je suis ce putain de cowboy qui a toujours une teille à se torcher Tu peux me tirer dans la tête, dans les seufs, sur le pec' Tu peux ap, j'ai la plaque, j'ai des parts chez Dolce, approchez, approchez Au coeur du fric-tra, plus le temps d'être gentil mec Y a plus de Dolce Vita, la vie est une pute sans cur avec un gode ceinture de 30 centimètres Où on t'arroses, normagal à la illette-mitra J'ai pas su éviter la poisse, j'espère que tu l'éviteras J'ai la bite qui touche le menton sous Levitra Y a pas de honte à aller en Thaï mec Qui voudrait pas de la shnek de Nuch Lek ou de Pavitra ? Je croise une tête qui me dit Wesh mec, ça dit quoi ? Qu'est-ce tu fou ? Qu'est-ce tu ponds ? Je réponds je fais attention Car des MC's volent mes rimes, ils se reconnaîtront Les vrais amis, les compagnons ça se compte sur un moignon Je suis ce putain de bad cowboy, qui traine de bar en bar Un bad cowboy, un salopard Un bad cowboy, un tasspar Les liasses de bats dans le calbar Arpente les trottoirs comme un Gaspard Serre des tchoins de gare en gare Bad cowboy, ba-ba-ba-bad cowboy Je suis du genre à relever les manches, gueuler quand est-ce qu'on mange ! J'suis comme je suis, je kiffe la vodka avec un zeste d'orange Coller une gum-chewing sous la table du restaurant Et en ressortir salement, péter de la tronche Je suis bien au tiek's quand y a de la plaquette sur la planche Question sexe, je te fais minette si tu me fais une blanche La poisse me colle au dersh comme un pet foireux Tête de buse, si tu touches mon guigui, nettoie le Ouais mon flingue j'fais mumuse avec devant la glace Ok, je fais la bouche vers le bas comme celle d'Al Pac' D'ailleurs j'ai la même grain de caf', la même chemise à fleurs Sauf que moi j'ai pas mon pote qui sodomise ma sur Nique le poste de Cergy, la pute de l'accueil Mets des chaussettes à la menthe si tes shoes puent de la gueule Car en garde à v', fini l'orgueil Les Air Max servent d'oreiller pendant qu'on rêve au Sultan de Bruneï Ça baraude, ça baraude sur Bangla Road Et une putain de question me taraude Pourquoi elles m'appellent toutes Tirak Aller casse oit, prends le ton billet de 1000 Baths Bad cowboy, bad pirate Mes putes tu peux les compter sur les doigts d'un 1000 pattes Même les culs de jattes, ils baisent à Phuket Demande à Larry Flynt, ça marche comme sur des roulettes Je porte mes couilles avec une brouette Je chie la porte ouverte Je descends pour acheter une baguette Je reviens en remontant ma braguette Je crois que je vais mourir au volant de ma canette Gremlins sur le pec, sur mes phalanges Seth Je me crois tout permis comme un Farang-set Y me manque juste un one to call pour appeler la daronne Je suis marqué par la vie comme Nui Dragon 1</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et cest pas l'hiver Monte Le Pen sur le toit et c'est moi qui le pousse Deux yeux qui regardent un beau cul ne valent pas un doigt qui le touche Mundélé, mundélé, mundélé, mundélé, mundélé ma-de-us Nique Mozart Amadeus, allez donnez moi des ous Moi je suis bipède car je marche debout Toi t'es un bipède car tu suces par les deux bouts Ils se firent niquer, tabasser car ils eussent parlé de nous On rendra les coups par les coudes, par les genoux J'préfère un Pakatou qu'a rien plutôt qu'un Qatarien qu'a tout À part mon slip, personne ne me tient par les illes-cou Attention la bagarre, une cagoule sur un Babtou et il devient noir Fini l'château d'ma mère et la gloire de mon père Aujourd'hui c'est un glaire sur la chatte à Magloire Allez sers-moi à boire, un bon cru qui décrasse Joue pas la star, grosse te-pu, t'as la raie du cul qui dépasse Wesh, m'arrête plus, j'vais t'faire mal au cul, tu pourras plus t'asseoir Malotru avec grosse graine de cafard Mieux vaut être pilier de mosquée que pilier d'comptoir You might also like On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à DubaÏ et c'est pas l'hiver Un Noir qui saigne c'est le Milan AC Un Blanc qui saigne un mic, c'est Seth Gueko J'suis dans l'bando, bando ka bando Dans la surface comme Andreï Chevtchenko J'ai RDV avec une chienne, dorénavant j'suis l'véto La bite en i, mes couilles frottent la bavette Ils ont violé mes ancêtres, j'suis marron comme le mafé Quand on part à la chasse, on tire sur le lièvre Un tatouage sur la chatte, je veux lire sur tes lèvres Nous on sort du zoo, des 80 mètres carré Ils ont même pas un rond et ils ragent de nous car on est carré J'ai vu la rage de tous ces haineux, à travers leurs vices et leurs prunelles Mon opticien avait tout compris, m'a prescrit un fusil à lunette Zdedededex C'est nous les bagarreurs, sponsorisés pour baiser des mères La vie m'mène en bateau, dorénavant j'ai le mal de mer Pardon, bébé, j't'ai pas trompé, je suis pas comme ça J't'assure, j'ai pas touché, quand on l'a fait, j'ai fait sans les mains On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et c'est pas l'hiver On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et c'est pas l'hiver</t>
+          <t>On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et cest pas l'hiver Monte Le Pen sur le toit et c'est moi qui le pousse Deux yeux qui regardent un beau cul ne valent pas un doigt qui le touche Mundélé, mundélé, mundélé, mundélé, mundélé ma-de-us Nique Mozart Amadeus, allez donnez moi des ous Moi je suis bipède car je marche debout Toi t'es un bipède car tu suces par les deux bouts Ils se firent niquer, tabasser car ils eussent parlé de nous On rendra les coups par les coudes, par les genoux J'préfère un Pakatou qu'a rien plutôt qu'un Qatarien qu'a tout À part mon slip, personne ne me tient par les illes-cou Attention la bagarre, une cagoule sur un Babtou et il devient noir Fini l'château d'ma mère et la gloire de mon père Aujourd'hui c'est un glaire sur la chatte à Magloire Allez sers-moi à boire, un bon cru qui décrasse Joue pas la star, grosse te-pu, t'as la raie du cul qui dépasse Wesh, m'arrête plus, j'vais t'faire mal au cul, tu pourras plus t'asseoir Malotru avec grosse graine de cafard Mieux vaut être pilier de mosquée que pilier d'comptoir On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à DubaÏ et c'est pas l'hiver Un Noir qui saigne c'est le Milan AC Un Blanc qui saigne un mic, c'est Seth Gueko J'suis dans l'bando, bando ka bando Dans la surface comme Andreï Chevtchenko J'ai RDV avec une chienne, dorénavant j'suis l'véto La bite en i, mes couilles frottent la bavette Ils ont violé mes ancêtres, j'suis marron comme le mafé Quand on part à la chasse, on tire sur le lièvre Un tatouage sur la chatte, je veux lire sur tes lèvres Nous on sort du zoo, des 80 mètres carré Ils ont même pas un rond et ils ragent de nous car on est carré J'ai vu la rage de tous ces haineux, à travers leurs vices et leurs prunelles Mon opticien avait tout compris, m'a prescrit un fusil à lunette Zdedededex C'est nous les bagarreurs, sponsorisés pour baiser des mères La vie m'mène en bateau, dorénavant j'ai le mal de mer Pardon, bébé, j't'ai pas trompé, je suis pas comme ça J't'assure, j'ai pas touché, quand on l'a fait, j'ai fait sans les mains On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et c'est pas l'hiver On vend d'la neige mais c'est pas l'hiver Bando On met des gants mais c'est pas l'hiver Non Liasse colorée, colorée, colorée Colorée, colorée, colorée Bando Gros bonnets mais c'est pas l'hiver Oui On vend d'la neige mais c'est pas l'hiver Non On met des gants mais c'est pas l'hiver On fait du ski à Dubaï et c'est pas l'hiver</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ok Tch Tch Ça fait deux, trois... Hé Un lion un jour, un agneau toute une vie Pour moi le choix est simple, tu parles ou tu me vises Argent, pouvoir et seins siliconés j'ai compris tout ce vice Vaut mieux avoir affaire à Dieu qu'à ses saints J'ai encore brisé la glace, déjà 400 ans de malheur J'en rajoute sept c'est le projet Chaos, je suis dans le club comme Tyler tch tch Danger depuis la poussette, crime auditif j'ai déposé le brevet Négro je suis trop honnête c'est pour ça qu'je risque d'en crever Je tire des plans sur la comète, sur ma voix je mise Dis leur qu'faut s'estimer heureux et que cette fois c'était que la chemise Trop de pleureuses, de faux puristes, petit c'est quoi le thème ? Ils veulent les J'aime avant les Je t'aime Oublie l'fleuriste et l'oraison, de la firme ils veulent menrôler Je suis pas dans le film, coupes-moi mes deux majeurs, mon zguèg' prend l'relais 2016 c'est mise-à-jour, p't-être mettre de l'autotune dans mon vin pour draguer la fanbase à Jul Les clefs du succès ouvrent le coffre, j'te touche même si t'es pas la cible Imagine Gilbert Montagné avec une Kalachnikov J'suis passible d'une lourde peine, j'me sens pas doux et festif J'préviens tous ceux qui nous croyaient en sous-effectif Pas d'blasphème et comme les voies du ciel, j'reste impénétrable On descend, mec, à cent ou plus comme pour un Planète Rap You might also like Yeah Seth Guex L'Afrique se fait voler son fric et l'Occident l'partage S'prendre un coup d'feu c'est un accident d'braquage J'me vide les couilles avant d'prendre l'avion, pourquoi ? Pour éviter lexcédant d'bagage J'aime voir la jeunesse cédant l'passage à la vieillesse Le mec pas sage, on lui pète ses dents d'sagesse Bandit d'honneur c'est la Jack Mes' éducation On pousse la fonte et la presse avec K-Way de sudation J'ai pas encore fini ma mutation génétique, leur blaze n'apparaîtrait pas dans l'générique Elles m'appellent l'homme éléphant mais pas en référence à John Merrick J'aime pas l'cochon, préférence pour l'porc-épic Me tire pas d'révérence, mais quand j'vois un clodo j'lui donne mes frites Quoi qu't'en penses, n'est pas satanique qui fait des signes géométriques L'élégance de Geronimo sur la rythmique, yeah, ma violence est artistique Mets des illères, critique si ça t'amuse de le faire La sentence des suppôts de Satan c'est l'anus de l'Enfer Frère, la femme idéale est sourde et muette J'veux pas d'leur soirée schnouff et Moët, ça va m'foutre en miettes Seth Guek' Val d'Oiseur, on a l'mauvais profil Enculé d'tes morts t'es qu'un zombie nécrophile Mange tes morts espèce de nécrophage J'mets pas d'C dans mon nez comme un Bloods ne met pas d'C dans ses phrases Microphonephile, Val-d'Oise, t'es qu'un zombie nécrophile Mange tes morts espèce de nécrophage3</t>
+          <t>Ok Tch Tch Ça fait deux, trois... Hé Un lion un jour, un agneau toute une vie Pour moi le choix est simple, tu parles ou tu me vises Argent, pouvoir et seins siliconés j'ai compris tout ce vice Vaut mieux avoir affaire à Dieu qu'à ses saints J'ai encore brisé la glace, déjà 400 ans de malheur J'en rajoute sept c'est le projet Chaos, je suis dans le club comme Tyler tch tch Danger depuis la poussette, crime auditif j'ai déposé le brevet Négro je suis trop honnête c'est pour ça qu'je risque d'en crever Je tire des plans sur la comète, sur ma voix je mise Dis leur qu'faut s'estimer heureux et que cette fois c'était que la chemise Trop de pleureuses, de faux puristes, petit c'est quoi le thème ? Ils veulent les J'aime avant les Je t'aime Oublie l'fleuriste et l'oraison, de la firme ils veulent menrôler Je suis pas dans le film, coupes-moi mes deux majeurs, mon zguèg' prend l'relais 2016 c'est mise-à-jour, p't-être mettre de l'autotune dans mon vin pour draguer la fanbase à Jul Les clefs du succès ouvrent le coffre, j'te touche même si t'es pas la cible Imagine Gilbert Montagné avec une Kalachnikov J'suis passible d'une lourde peine, j'me sens pas doux et festif J'préviens tous ceux qui nous croyaient en sous-effectif Pas d'blasphème et comme les voies du ciel, j'reste impénétrable On descend, mec, à cent ou plus comme pour un Planète Rap Yeah Seth Guex L'Afrique se fait voler son fric et l'Occident l'partage S'prendre un coup d'feu c'est un accident d'braquage J'me vide les couilles avant d'prendre l'avion, pourquoi ? Pour éviter lexcédant d'bagage J'aime voir la jeunesse cédant l'passage à la vieillesse Le mec pas sage, on lui pète ses dents d'sagesse Bandit d'honneur c'est la Jack Mes' éducation On pousse la fonte et la presse avec K-Way de sudation J'ai pas encore fini ma mutation génétique, leur blaze n'apparaîtrait pas dans l'générique Elles m'appellent l'homme éléphant mais pas en référence à John Merrick J'aime pas l'cochon, préférence pour l'porc-épic Me tire pas d'révérence, mais quand j'vois un clodo j'lui donne mes frites Quoi qu't'en penses, n'est pas satanique qui fait des signes géométriques L'élégance de Geronimo sur la rythmique, yeah, ma violence est artistique Mets des illères, critique si ça t'amuse de le faire La sentence des suppôts de Satan c'est l'anus de l'Enfer Frère, la femme idéale est sourde et muette J'veux pas d'leur soirée schnouff et Moët, ça va m'foutre en miettes Seth Guek' Val d'Oiseur, on a l'mauvais profil Enculé d'tes morts t'es qu'un zombie nécrophile Mange tes morts espèce de nécrophage J'mets pas d'C dans mon nez comme un Bloods ne met pas d'C dans ses phrases Microphonephile, Val-d'Oise, t'es qu'un zombie nécrophile Mange tes morts espèce de nécrophage3</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Seth Gueko Bar 29 rue Bangla Si t'es un loubard, venga J'aime trop les femmes, j'aime trop la sape Tu veux du taff, passe moi ton number de tolasap Pour faire du twerk pas besoin de work permit 34 degrés en hiver choc thermique Viens en couple ou en grosse équipe Le son est thug mais c'est pas bordélique Nouveau bar avec ventilo et la clim J'suis tranquillou avec Lacrim Jason Voriz aux platines Ici les filles travaillent on dit surtout pas qu'elles tapinent Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne DJ mets du gros son tu nous régales Y a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne You might also like L'ouverture c'est 20 heures La fermeture c'est 4 heures Y'a d'la fumée et d'la vapeur Et de la verdure coupée au sécateur Mille bahts la tournée de shooter Il y a d'la pupute, les dalleux jouent les zoukeurs Tout le monde rentre ici y'a pas d'code couleur Qui mixera demain ? Snake ou Cut Killer Y'a pas d'videur le portier c'est Vovo Kiniaow, paye le bar fine la gogo I'm in love with my noix de coco À douze-mille kilomètres de Saint-Ouen l'Au l'Au T'achètes doudoune, j'achète short de bain Si tu pars en cou-couilles boom pomme de pin C'était le zbeul avec l'Homme au bob, sheguey Sois pas homophobe, quand tu chies t'es un peu pd DJ mets du gros son tu nous régales Y'a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne Seth Gueko Bar en dessous du Gossip C'soir on pillave comme des alcooliques T'es même pas bonne avec ton gros slip Un fois que je suis mao, ciao I go sleep Au bout de deux bouteilles on te place au VIP, sucrette T'es venu en Thaïlande grâce à BooskaPhuket J'rappe pour les 'cailles dans la salle Tatoué comme Ty Dolla ign Comme un latinos les yeux rouges comme un Albinos J'ai soif, amigos paye ta Salitos J'mettais Versace avant les Migos C'est la haute-saison Avant de demander une photo apprend à dire bonjour La moitié de mon tiekson est en prison Et l'autre moitié attend son tour DJ mets du gros son tu nous régales Y'a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne1</t>
+          <t>Seth Gueko Bar 29 rue Bangla Si t'es un loubard, venga J'aime trop les femmes, j'aime trop la sape Tu veux du taff, passe moi ton number de tolasap Pour faire du twerk pas besoin de work permit 34 degrés en hiver choc thermique Viens en couple ou en grosse équipe Le son est thug mais c'est pas bordélique Nouveau bar avec ventilo et la clim J'suis tranquillou avec Lacrim Jason Voriz aux platines Ici les filles travaillent on dit surtout pas qu'elles tapinent Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne DJ mets du gros son tu nous régales Y a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne L'ouverture c'est 20 heures La fermeture c'est 4 heures Y'a d'la fumée et d'la vapeur Et de la verdure coupée au sécateur Mille bahts la tournée de shooter Il y a d'la pupute, les dalleux jouent les zoukeurs Tout le monde rentre ici y'a pas d'code couleur Qui mixera demain ? Snake ou Cut Killer Y'a pas d'videur le portier c'est Vovo Kiniaow, paye le bar fine la gogo I'm in love with my noix de coco À douze-mille kilomètres de Saint-Ouen l'Au l'Au T'achètes doudoune, j'achète short de bain Si tu pars en cou-couilles boom pomme de pin C'était le zbeul avec l'Homme au bob, sheguey Sois pas homophobe, quand tu chies t'es un peu pd DJ mets du gros son tu nous régales Y'a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne Seth Gueko Bar en dessous du Gossip C'soir on pillave comme des alcooliques T'es même pas bonne avec ton gros slip Un fois que je suis mao, ciao I go sleep Au bout de deux bouteilles on te place au VIP, sucrette T'es venu en Thaïlande grâce à BooskaPhuket J'rappe pour les 'cailles dans la salle Tatoué comme Ty Dolla ign Comme un latinos les yeux rouges comme un Albinos J'ai soif, amigos paye ta Salitos J'mettais Versace avant les Migos C'est la haute-saison Avant de demander une photo apprend à dire bonjour La moitié de mon tiekson est en prison Et l'autre moitié attend son tour DJ mets du gros son tu nous régales Y'a les gros bonnets de l'illégal Pose ta bouteille de Chivas Regal DJ mets du gros son tu nous régales Appelle-moi Batman Liasse de Baht dans la calbar Bahtman BahtMan, je règle mes problèmes à coup de batte Batteman Fais péter la cloche Fais péter la cloche J'aime entendre quand la grosse cloche sonne Y'a de la bitch et de la grosse cochonne1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hits Alive J'suis comme le caviar, j'suis pas dans mon assiette Si j'croise le père Ducros, j'lui braque la recette J'aimerais avoir un frère jumeau pour tout lui mettre sur l'dos Mec, j'ai les crocs comme les cartels guatémaltèques J'rap avec le swag et la tech' J'refuse jamais une soirée raclette Ton peura vole ras les pâquerettes Tapis momo, tapis quéquette, gros t'es tapis moquette Parle de poux tout le monde se gratte la tête Parle de sous les blondes se grattent la schneck Pour ça qu'on prend tous le vol Paris-Phuket Ouais samerlipopopo, samerlipopette Un pétard sous la liquette T'as les chocottes, t'as les miquettes On veut les plus petites schnecks de République Tchèque Ils s'font des rails avec des pailles de milkshake Nous on prend des douches au champagne demi-sec C'est pas une devinette, mais Jack Mess' c'est comme mon pater' On les appelle la relève car ils sont par terre HS, cigare à moustache, gros comme un barreau de chaise Un monde sans femmes ? Ah, j't'aurais fait mal aux fesses... Non, c'est pas le signe des illuminatis Ni le logo Renault, ni la chatte à Julie Zenatti J'arrive en jetski à ta squirt party Gentil n'a qu'un il, pfff Le Pen aussi 10.000 balles pour me voir me suicider au Bataclan Et j'me barre avec la caisse car c'était des balles à blanc J'vais me tatouer une guêpe sur l'gland tu pourras m'pomper le dard Zdededegirl ouvre ma braguette, ouais c'est open-barYou might also like1</t>
+          <t>Hits Alive J'suis comme le caviar, j'suis pas dans mon assiette Si j'croise le père Ducros, j'lui braque la recette J'aimerais avoir un frère jumeau pour tout lui mettre sur l'dos Mec, j'ai les crocs comme les cartels guatémaltèques J'rap avec le swag et la tech' J'refuse jamais une soirée raclette Ton peura vole ras les pâquerettes Tapis momo, tapis quéquette, gros t'es tapis moquette Parle de poux tout le monde se gratte la tête Parle de sous les blondes se grattent la schneck Pour ça qu'on prend tous le vol Paris-Phuket Ouais samerlipopopo, samerlipopette Un pétard sous la liquette T'as les chocottes, t'as les miquettes On veut les plus petites schnecks de République Tchèque Ils s'font des rails avec des pailles de milkshake Nous on prend des douches au champagne demi-sec C'est pas une devinette, mais Jack Mess' c'est comme mon pater' On les appelle la relève car ils sont par terre HS, cigare à moustache, gros comme un barreau de chaise Un monde sans femmes ? Ah, j't'aurais fait mal aux fesses... Non, c'est pas le signe des illuminatis Ni le logo Renault, ni la chatte à Julie Zenatti J'arrive en jetski à ta squirt party Gentil n'a qu'un il, pfff Le Pen aussi 10.000 balles pour me voir me suicider au Bataclan Et j'me barre avec la caisse car c'était des balles à blanc J'vais me tatouer une guêpe sur l'gland tu pourras m'pomper le dard Zdededegirl ouvre ma braguette, ouais c'est open-bar1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yo, yo Pompes, érection Invoque-moi sur une planche ouija Fumée blanche et j'arrive comme un ninja Moi et mes potes on squatte pas les chichas On veut s'faire branler par une meuf à six bras comme Shiva On a de l'absinthe et du shit gras Fais pas la sainte, t'aimes les chibras J'rappe pour les rim-Ka, les Chid-Ra L'heure de ma mort, seul Dieu la décidera T'es le A de apprenti, j'suis le A de anarchie J'casse tout sur mon passage, comme le Diable de Tasmanie T'es le M de maladie, j'suis le M de Babidi Scène 2, crime, Acte 2, barbarie Ça c'est l'chapitre de ma vie, juge pas à la couverture Demain j'commence une nouvelle cure prend garde à l'uppercut Si j'sens qu'il y a une ouverture, j'lui fait sauter l'opercule Son super cul terminera au tel-hô Mercure Ma bite est joyeuse quand la chatte est soyeuse Confond pas l'amante parfaite et l'amante religieuse La montre est prestigieuse, le meug' sort de la presse J'ai le buzz de la tess, toi ton buzz sort de la presse La gâchette du gun on la presse, pour un peu d'espèce J'suis dans mon état d'grasse, j'te laisse avec ton tas d'graisse Faites pas les gueuz, écarte les beuj' Et regarde mes yeuz, tigresse Regarde les flammes dans nos iris Nique le six-six-six et la femme d'Osiris En naissant aussi pauvre, comme puis-je être aussi riche ? Quand j'vois les schmitts, les poils sur ma peau s'hérissent Seth Guex, éjaculation J'baise le monde comme si j'faisais des pompes avec une érection Les présidents nous trompent avec leur élections C'est pas une fois dans la tombe qu'tu feras preuve de réflexion J'me fait pé-om par la meuf de la réception J'baise le monde comme si j'faisais des pompes avec une érection J'baise le monde comme si j'faisais des pompes avec une érection Alors attention, Seth Guex, j'suis une usine de mes-ri d'barbare J'vais entourer ma te-bi de barbelés et l'appeler Lucille 2 Appelle-moi Negan Hits AliveYou might also like1</t>
+          <t>Yo, yo Pompes, érection Invoque-moi sur une planche ouija Fumée blanche et j'arrive comme un ninja Moi et mes potes on squatte pas les chichas On veut s'faire branler par une meuf à six bras comme Shiva On a de l'absinthe et du shit gras Fais pas la sainte, t'aimes les chibras J'rappe pour les rim-Ka, les Chid-Ra L'heure de ma mort, seul Dieu la décidera T'es le A de apprenti, j'suis le A de anarchie J'casse tout sur mon passage, comme le Diable de Tasmanie T'es le M de maladie, j'suis le M de Babidi Scène 2, crime, Acte 2, barbarie Ça c'est l'chapitre de ma vie, juge pas à la couverture Demain j'commence une nouvelle cure prend garde à l'uppercut Si j'sens qu'il y a une ouverture, j'lui fait sauter l'opercule Son super cul terminera au tel-hô Mercure Ma bite est joyeuse quand la chatte est soyeuse Confond pas l'amante parfaite et l'amante religieuse La montre est prestigieuse, le meug' sort de la presse J'ai le buzz de la tess, toi ton buzz sort de la presse La gâchette du gun on la presse, pour un peu d'espèce J'suis dans mon état d'grasse, j'te laisse avec ton tas d'graisse Faites pas les gueuz, écarte les beuj' Et regarde mes yeuz, tigresse Regarde les flammes dans nos iris Nique le six-six-six et la femme d'Osiris En naissant aussi pauvre, comme puis-je être aussi riche ? Quand j'vois les schmitts, les poils sur ma peau s'hérissent Seth Guex, éjaculation J'baise le monde comme si j'faisais des pompes avec une érection Les présidents nous trompent avec leur élections C'est pas une fois dans la tombe qu'tu feras preuve de réflexion J'me fait pé-om par la meuf de la réception J'baise le monde comme si j'faisais des pompes avec une érection J'baise le monde comme si j'faisais des pompes avec une érection Alors attention, Seth Guex, j'suis une usine de mes-ri d'barbare J'vais entourer ma te-bi de barbelés et l'appeler Lucille 2 Appelle-moi Negan Hits Alive1</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Si un soir tu vois une étoile ller-bri dans l'ciel C'est qu'j'suis mort et qu'je joue avec ma Rolex Présidentielle Chuuuut, taisez vous j'excelle Ouvre tes cuisses comme une gare J'suis pas un métro d'gare, j'suis TGV sexuel Rail de végé textuel J'enchaine disque warrel sur disque warrel, paire de Jordan, jean Disquared Bien sûr que j'aime les femmes j'les baise sur du Mobb Deep One-Twelve, pas d'trêve Fiston dessine moi un flic mort avec des aquarelles M'fais pas l'coup d'la migraine J'ai mis d'l'Aspegic dans ton sac Chanel J'arrive en tracteur déposer la p'tite graine Et même si j'ai commencé en bas d'l'échelle On m'voit partout car tous les ch'mins mènent aux romanichels Ga-ga-ga-garde, be-be-be-belle en Massey Ferguson J't'allume, j't' j't'éteins comme une luciole si tu veux faire du sohr Fais des sous, fais des sommes, arrête de kiffer les soldes J'fais la photo du mois d'Août dans l'calendar Smith et Wesson Arrête de t'croire aux States, Arrête de t'croire aux States T'as pas d'sous, t'as pas d'schneck, t'es tapis-moquette Y'a qu'mon sexe qu'a la grosse tête Y'a qu'mon sexe qu'a la grosse tête Paris c'est pas les States, on s'en on s'en bat les steaks Arrête de t'croire aux States, Arrête de t'croire aux States T'as pas d'sous, t'as pas d'schneck, t'es tapis-moquette Y'a qu'mon sexe qu'a la grosse tête Y'a qu'mon sexe qu'a la grosse tête Paris c'est pas les States pas les States You might also like J'vais m'tatouer Love sur les phalanges pour t'frapper avec amour J'porte le marcel comme un chauffeur d'poids-lourd On fait des Yo-Yo en string de geoise-bour Pollo, on veut pas d'Terre'Blanche sur la terre noire de Johannesburg Chez nous l'amour, c'est un trou avec des poils autour La mort, un putain d'trou avec de l'herbe autour Depuis toujours ici c'est alcool, shit, cannabis Et comme les gitanes m'adorent, j'fume pas d'Gitanes Maïs Ils ont une punchline par artiste, j'en ai mille par album J'maîtrise la technique des rimes comme Ferrara maîtrise la technique parabole Badaboum, quésako, j'dors que d'un il comme Sylvia Jeanjacquot Narvaline, t'es belle comme une fleur, j'te paierais un pot Narvalo, j'te fumerais pas tout seul, j'paierais un pro J'mène la vie d'artiste, j'ai r'vendu une couille, j'ai acheté un bateau Tu vois la facture ou la cicatrice Ma vengeance sort du micro-ondes Si j'ai l'dass, j'vais chez les keufs, j'me tire une balle et Blerm!, j'éclabousse tout l'monde Appelle moi Human Bomb ou l'fusil à pompe funèbre Riche ou pauvre on finira tous dans une tombe sous l'herbe Tu m'as vu en Rolls Phantom, appelle les Ghostbusters J'peux pas m'arrêter, j'viens d'tamponner un auto-stoppeur Laisse moi Julie d'Secret Story juste une p'tite heure Elle va ffé-ki comme Dutroux au concert d'Justin Bieber Ouais file moi l'number d'ton berry-Black Mais si tu m'suce dans les toilettes j'veux pas sentir tes dents comme dans Twilight Même plus confiance en mon miroir car même le reflet m'braque Même ton string il s'bouche le nez tellement tu pues d'la chatte 2</t>
+          <t>Si un soir tu vois une étoile ller-bri dans l'ciel C'est qu'j'suis mort et qu'je joue avec ma Rolex Présidentielle Chuuuut, taisez vous j'excelle Ouvre tes cuisses comme une gare J'suis pas un métro d'gare, j'suis TGV sexuel Rail de végé textuel J'enchaine disque warrel sur disque warrel, paire de Jordan, jean Disquared Bien sûr que j'aime les femmes j'les baise sur du Mobb Deep One-Twelve, pas d'trêve Fiston dessine moi un flic mort avec des aquarelles M'fais pas l'coup d'la migraine J'ai mis d'l'Aspegic dans ton sac Chanel J'arrive en tracteur déposer la p'tite graine Et même si j'ai commencé en bas d'l'échelle On m'voit partout car tous les ch'mins mènent aux romanichels Ga-ga-ga-garde, be-be-be-belle en Massey Ferguson J't'allume, j't' j't'éteins comme une luciole si tu veux faire du sohr Fais des sous, fais des sommes, arrête de kiffer les soldes J'fais la photo du mois d'Août dans l'calendar Smith et Wesson Arrête de t'croire aux States, Arrête de t'croire aux States T'as pas d'sous, t'as pas d'schneck, t'es tapis-moquette Y'a qu'mon sexe qu'a la grosse tête Y'a qu'mon sexe qu'a la grosse tête Paris c'est pas les States, on s'en on s'en bat les steaks Arrête de t'croire aux States, Arrête de t'croire aux States T'as pas d'sous, t'as pas d'schneck, t'es tapis-moquette Y'a qu'mon sexe qu'a la grosse tête Y'a qu'mon sexe qu'a la grosse tête Paris c'est pas les States pas les States J'vais m'tatouer Love sur les phalanges pour t'frapper avec amour J'porte le marcel comme un chauffeur d'poids-lourd On fait des Yo-Yo en string de geoise-bour Pollo, on veut pas d'Terre'Blanche sur la terre noire de Johannesburg Chez nous l'amour, c'est un trou avec des poils autour La mort, un putain d'trou avec de l'herbe autour Depuis toujours ici c'est alcool, shit, cannabis Et comme les gitanes m'adorent, j'fume pas d'Gitanes Maïs Ils ont une punchline par artiste, j'en ai mille par album J'maîtrise la technique des rimes comme Ferrara maîtrise la technique parabole Badaboum, quésako, j'dors que d'un il comme Sylvia Jeanjacquot Narvaline, t'es belle comme une fleur, j'te paierais un pot Narvalo, j'te fumerais pas tout seul, j'paierais un pro J'mène la vie d'artiste, j'ai r'vendu une couille, j'ai acheté un bateau Tu vois la facture ou la cicatrice Ma vengeance sort du micro-ondes Si j'ai l'dass, j'vais chez les keufs, j'me tire une balle et Blerm!, j'éclabousse tout l'monde Appelle moi Human Bomb ou l'fusil à pompe funèbre Riche ou pauvre on finira tous dans une tombe sous l'herbe Tu m'as vu en Rolls Phantom, appelle les Ghostbusters J'peux pas m'arrêter, j'viens d'tamponner un auto-stoppeur Laisse moi Julie d'Secret Story juste une p'tite heure Elle va ffé-ki comme Dutroux au concert d'Justin Bieber Ouais file moi l'number d'ton berry-Black Mais si tu m'suce dans les toilettes j'veux pas sentir tes dents comme dans Twilight Même plus confiance en mon miroir car même le reflet m'braque Même ton string il s'bouche le nez tellement tu pues d'la chatte 2</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tire-moi une balle si je vote FN Jte ldis en langue de feu Jefe t'aifeme ! Je veux ta vie, je veux tes veines Jte ldis même en javanais Jave tavaime ! Ouais I love you !, Ya tibya lyoubryou Monte dans ma Bohème double-U Mwen enmen'w, on mdit qulamour est la mais où? Fais-moi des miaou miaou Me casse pas les valseuses comme Miou-Miou Me casse pas les joyeuses, jsuis mi-homme mi-loup Phom rak khun, je me la coule dur, je me la colle pur Jaime lalcool, sers-moi un sky, ne sois pas conne Bonnie and Clyde, jte jure quon sera comme Réserve une suite au Sheraton Chérie, jarrive, je viens, je mets la gomme Girl, jaime quand tes mains meffleurent Girl, jaime les flingues et les fleurs Girl, je me sens seul, jai bsoin dune âme sur Jai bsoin dune zdedede- - Girl Jaime quand tes mains meffleurent Girl, jaime les flingues et les fleurs Girl, je me sens seul, jai bsoin dune âme sur Viens réchauffer le hustler ! You might also like Sexy Lady, na lingi yo mingi, on sera comme Lil Kim et Biggie Jte frai voir mon GuiGui Et sa gâchette En cachette, lors dun 5 à 7 Que Dieu tprotège des prothèses PIP Jte ldis même en bambara et en soninké Na Moula bissé Jpréfère une bière qui fait pisser quune femme qui fait chier Jvais tfaire vivre un véritable conte de fée Fais la vaisselle, fais les courses, fais à manger Fais-moi lamour avec volupté El brik, volimté Si tu mets des Louboukata, moi ça mbotte Minha querida amo-te, seni seviyorum Les mecs, le loup est dans la cour, surveillez vos louves Chérie stas un cur, donne-moi-le Jte ldis même en wolof Nob na la Ti amo, te quiero, kamotout Jespère seulement qutu nes pas comme toutes Aucun doute, lamour paralyse mon cur Donne-moi ton cou qujen analyse lodeur Qui a vu ici un latin lover Jveux pas quon mtienne par les couilles comme Carradine, lhorreur ! Bi-bich, ça sonne mal Ich liebe dich On sra léquivalent des Beckham chez les British Tas les yeux qui splissent Laisse-moi célébrer tes cuisses Jai pas fait ltour du monde pour un french kiss Mais pour quon sessaye Que jtessaye, qutu messayes Quon fasse du shopping sexuel Pour que tu ruisselles Jtrompe pas ma femme rhey Jme trompe de femme, cest pas pareil</t>
+          <t>Tire-moi une balle si je vote FN Jte ldis en langue de feu Jefe t'aifeme ! Je veux ta vie, je veux tes veines Jte ldis même en javanais Jave tavaime ! Ouais I love you !, Ya tibya lyoubryou Monte dans ma Bohème double-U Mwen enmen'w, on mdit qulamour est la mais où? Fais-moi des miaou miaou Me casse pas les valseuses comme Miou-Miou Me casse pas les joyeuses, jsuis mi-homme mi-loup Phom rak khun, je me la coule dur, je me la colle pur Jaime lalcool, sers-moi un sky, ne sois pas conne Bonnie and Clyde, jte jure quon sera comme Réserve une suite au Sheraton Chérie, jarrive, je viens, je mets la gomme Girl, jaime quand tes mains meffleurent Girl, jaime les flingues et les fleurs Girl, je me sens seul, jai bsoin dune âme sur Jai bsoin dune zdedede- - Girl Jaime quand tes mains meffleurent Girl, jaime les flingues et les fleurs Girl, je me sens seul, jai bsoin dune âme sur Viens réchauffer le hustler ! Sexy Lady, na lingi yo mingi, on sera comme Lil Kim et Biggie Jte frai voir mon GuiGui Et sa gâchette En cachette, lors dun 5 à 7 Que Dieu tprotège des prothèses PIP Jte ldis même en bambara et en soninké Na Moula bissé Jpréfère une bière qui fait pisser quune femme qui fait chier Jvais tfaire vivre un véritable conte de fée Fais la vaisselle, fais les courses, fais à manger Fais-moi lamour avec volupté El brik, volimté Si tu mets des Louboukata, moi ça mbotte Minha querida amo-te, seni seviyorum Les mecs, le loup est dans la cour, surveillez vos louves Chérie stas un cur, donne-moi-le Jte ldis même en wolof Nob na la Ti amo, te quiero, kamotout Jespère seulement qutu nes pas comme toutes Aucun doute, lamour paralyse mon cur Donne-moi ton cou qujen analyse lodeur Qui a vu ici un latin lover Jveux pas quon mtienne par les couilles comme Carradine, lhorreur ! Bi-bich, ça sonne mal Ich liebe dich On sra léquivalent des Beckham chez les British Tas les yeux qui splissent Laisse-moi célébrer tes cuisses Jai pas fait ltour du monde pour un french kiss Mais pour quon sessaye Que jtessaye, qutu messayes Quon fasse du shopping sexuel Pour que tu ruisselles Jtrompe pas ma femme rhey Jme trompe de femme, cest pas pareil</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hits Alive Yeah Seth Gueks Han Jsuis dsortie jme prends un schlass, à lépicerie jme prends un flash Pieds au plancher, sur lpériph jreprends un flash Faut qutu saches, jai lmonde au bout de mes doigts comme Atlas Et qujarrive dans ta face, comme un crachat Jai lsang chaud, le regard froid, les pupilles congelées Jvis la nuit, jreviens dThaïlande, jsuis même pas bronzé Jai vlà les ne-chie, qui veulent sallonger Si tes en chien, qutas pas dos à ronger, on peut sarranger Va chier dans ton bol de lait, ça tfera un Milky Way On est des cafards, ten tues 1, yen a 1000 qui rviennent Ouais, la chatte à Mireille LEtat vole aux pauvres pour donner aux riches Jboie dlà vodkatana, jsuis Alkaholiks Jai la Farage de vaincre, jtouche ton point G comme 25 Et jécris Nique la police ! avec ma pisse Fils, jcrame le micro, comme une tête de skunk Va tacheter une paire de couilles, plutôt quune paire de pump Jsuis à lhôtel, allongé dans ma room La chatte à Sailor Moon, leur gagne pain, cest leur moule Jsuis en peignoir, jattends larrivée dma loume Jme sers un Jacko, jme crois dans un saloon Ya pas d'glaçons ?! Jvais mettre une grande baffe dans la gueule du groom Dans lRap Game, ya qudes sucettes, comme dirait Loune D'vant la patrouille, pas un mot sort de ma glotte Jsors de ma grotte un Glock sous la redingote Ca traficote avec les Thaï, sous une paillotte Ma pouffe dort comme une marmotte, à lhôtel Mariott Direction lîle Mayotte Jcrache ni dans la soupe ni dans ton Yop Jtenvoie tout dans les cheveux, comme du Vivelle Dop Big up aux p'tits roufs, mes ptits reufs qui trendent ouf Jsuis bien dans mon tieks, dans une chatte, ou dans mes pantoufles Le vent souffle, pour moi les MCs sont morts de trouille Jconnais un bled où tu baises contre un bol de nouilles Défilé de punchlines, cest dla haute couture Mange pas la gamelle, dedans, ils mettent du bromure Étincelant, comme un sourire avec deux dents en or pur Jrappe le dos au mur, ouais, petit joueur Jvise le top of the world On fait des fausses fiches de paye, avec Windows Word On met pas dbaggy, on nique Eisenhower Tes belle comme une fleur, jte fais une Golden Shower You might also like On roule sur toi comme sur un ralentisseur Jveux baiser maintenant, pas dans 10 heures Achète lalbum, lécoute pas sur Deezer Ou on roule sur toi comme sur un ralentisseur Tu suces mal comme un téléchargeur A mon signal, videz les chargeurs ! On roule sur toi comme sur un ralentisseur Jveux baiser maintenant, pas dans 10 heures Yeah Seth Gueks Patong CityParoles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Hits Alive Yeah Seth Gueks Han Jsuis dsortie jme prends un schlass, à lépicerie jme prends un flash Pieds au plancher, sur lpériph jreprends un flash Faut qutu saches, jai lmonde au bout de mes doigts comme Atlas Et qujarrive dans ta face, comme un crachat Jai lsang chaud, le regard froid, les pupilles congelées Jvis la nuit, jreviens dThaïlande, jsuis même pas bronzé Jai vlà les ne-chie, qui veulent sallonger Si tes en chien, qutas pas dos à ronger, on peut sarranger Va chier dans ton bol de lait, ça tfera un Milky Way On est des cafards, ten tues 1, yen a 1000 qui rviennent Ouais, la chatte à Mireille LEtat vole aux pauvres pour donner aux riches Jboie dlà vodkatana, jsuis Alkaholiks Jai la Farage de vaincre, jtouche ton point G comme 25 Et jécris Nique la police ! avec ma pisse Fils, jcrame le micro, comme une tête de skunk Va tacheter une paire de couilles, plutôt quune paire de pump Jsuis à lhôtel, allongé dans ma room La chatte à Sailor Moon, leur gagne pain, cest leur moule Jsuis en peignoir, jattends larrivée dma loume Jme sers un Jacko, jme crois dans un saloon Ya pas d'glaçons ?! Jvais mettre une grande baffe dans la gueule du groom Dans lRap Game, ya qudes sucettes, comme dirait Loune D'vant la patrouille, pas un mot sort de ma glotte Jsors de ma grotte un Glock sous la redingote Ca traficote avec les Thaï, sous une paillotte Ma pouffe dort comme une marmotte, à lhôtel Mariott Direction lîle Mayotte Jcrache ni dans la soupe ni dans ton Yop Jtenvoie tout dans les cheveux, comme du Vivelle Dop Big up aux p'tits roufs, mes ptits reufs qui trendent ouf Jsuis bien dans mon tieks, dans une chatte, ou dans mes pantoufles Le vent souffle, pour moi les MCs sont morts de trouille Jconnais un bled où tu baises contre un bol de nouilles Défilé de punchlines, cest dla haute couture Mange pas la gamelle, dedans, ils mettent du bromure Étincelant, comme un sourire avec deux dents en or pur Jrappe le dos au mur, ouais, petit joueur Jvise le top of the world On fait des fausses fiches de paye, avec Windows Word On met pas dbaggy, on nique Eisenhower Tes belle comme une fleur, jte fais une Golden Shower On roule sur toi comme sur un ralentisseur Jveux baiser maintenant, pas dans 10 heures Achète lalbum, lécoute pas sur Deezer Ou on roule sur toi comme sur un ralentisseur Tu suces mal comme un téléchargeur A mon signal, videz les chargeurs ! On roule sur toi comme sur un ralentisseur Jveux baiser maintenant, pas dans 10 heures Yeah Seth Gueks Patong CityParoles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Moi c'que j'dis, je le fais franco Laisse passer la trompe d'éléphanteau, les p'tits clasheurs, c'est des trompettes, c'est des fantômes Mais c'est trop tard une fois que l'erreur est faite Pour une claque c'est la guerre, c'est c'qu'on appelle Butterfly Effect Tu prends une pomme si tu fais les frandjos J'ai inventé le rap gonzo, on t'enfonce la teube de cheval à sec Mes frangins bottaient le cul des Skins avec leurs ranjos Sers leur un verre de Beaujo ou va voir ta mère au zoo Sur la tape à B2o, voila voila Seth J'fais de l'anglouche, c'est de l'Anglais Manouche, I wanna wanna schneck Mater fuck, j'veux des ouss Du fric plein la housse à matelas, on est les Oussama d'la street Comme la chiasse j'veux me la couler douce Cache bien ton flingue dans la trousse à maquillage de ta ptite pouff piniouf Ma haine, ma rage frôle le débordement Drive-by de caca avec le canon d'un camion de dégorgement Que les MC's marchent droit ou ça sera pire qu'en maison de redressement On fait le ramdam américain, c'est toujours mieux que le sabbat allemand, dans mon équipe ça rappe salement Chut Stop, les clappements Mais pas le taxi et les restos sur mes abattements Sans danger apparent comme un poseur d'bombes Si on pisse ensemble on sera pas sur la même longueur d'ondes On m'sent dans toute la pièce comme une odeur d'blondes ou d'pâté pour chats, joue pas tes bourgeois, on va te taper pour ça J'suis pas d'humeur à faire la nouba Si j'sors enfouraillé de mon escalier, me suis pas J'me prends pas pour c'que j'suis pas J'ai pas d'problème de personnalité Recule de huit pas ou j'vais t'faire un truc de baisé, dont personne n'a idée Moi j'ai jamais sucé quiconque J'préfère encore gé-man les excréments d'King Kong J'suis pas un descendant d'vicomtes, mes pères-grands furent agriculteurs Leurs montures, cétaient des tracteurs Mon rêve d'enfant, c'était dêtre acteur Ceux qui parlent, c'est des putes, c'est des détracteurs J'crève l'écran, j'fais des trucs pas très cathodiques J'suis pas un de ces p'tits fromages, qui fait du rap comique J'fais des ragouettes crues comme un steak saignant Pour les idées noires un rail de Calgonit c'est excellent Le prochain fanatique qui me mord la bite, j'lui pète ses dents Vlah! You might also like Mords-lui les tétons, fais la démarrer Fait du pied au cric, fais la démarrer Met les clés dans l'Féfé, fais la démarrer Regarde moi d'travers, fais moi démarrer Du Jack-Da, une instru, pour m'faire démarrer J'attendrai pas que t'insulte ma mère, pour démarrer Ça vient de Saint-Ouen L'Aumône, ça vient pas du Marais Ton rap est tout rhéné Vlah! Seth Gueko Autopsie 3, Medi Med Néochrome, Saint-Ouen L'Aumône 9-5 Zdedededexxx!! Tête de Cromagnon, zguègue de dragon</t>
+          <t>Moi c'que j'dis, je le fais franco Laisse passer la trompe d'éléphanteau, les p'tits clasheurs, c'est des trompettes, c'est des fantômes Mais c'est trop tard une fois que l'erreur est faite Pour une claque c'est la guerre, c'est c'qu'on appelle Butterfly Effect Tu prends une pomme si tu fais les frandjos J'ai inventé le rap gonzo, on t'enfonce la teube de cheval à sec Mes frangins bottaient le cul des Skins avec leurs ranjos Sers leur un verre de Beaujo ou va voir ta mère au zoo Sur la tape à B2o, voila voila Seth J'fais de l'anglouche, c'est de l'Anglais Manouche, I wanna wanna schneck Mater fuck, j'veux des ouss Du fric plein la housse à matelas, on est les Oussama d'la street Comme la chiasse j'veux me la couler douce Cache bien ton flingue dans la trousse à maquillage de ta ptite pouff piniouf Ma haine, ma rage frôle le débordement Drive-by de caca avec le canon d'un camion de dégorgement Que les MC's marchent droit ou ça sera pire qu'en maison de redressement On fait le ramdam américain, c'est toujours mieux que le sabbat allemand, dans mon équipe ça rappe salement Chut Stop, les clappements Mais pas le taxi et les restos sur mes abattements Sans danger apparent comme un poseur d'bombes Si on pisse ensemble on sera pas sur la même longueur d'ondes On m'sent dans toute la pièce comme une odeur d'blondes ou d'pâté pour chats, joue pas tes bourgeois, on va te taper pour ça J'suis pas d'humeur à faire la nouba Si j'sors enfouraillé de mon escalier, me suis pas J'me prends pas pour c'que j'suis pas J'ai pas d'problème de personnalité Recule de huit pas ou j'vais t'faire un truc de baisé, dont personne n'a idée Moi j'ai jamais sucé quiconque J'préfère encore gé-man les excréments d'King Kong J'suis pas un descendant d'vicomtes, mes pères-grands furent agriculteurs Leurs montures, cétaient des tracteurs Mon rêve d'enfant, c'était dêtre acteur Ceux qui parlent, c'est des putes, c'est des détracteurs J'crève l'écran, j'fais des trucs pas très cathodiques J'suis pas un de ces p'tits fromages, qui fait du rap comique J'fais des ragouettes crues comme un steak saignant Pour les idées noires un rail de Calgonit c'est excellent Le prochain fanatique qui me mord la bite, j'lui pète ses dents Vlah! Mords-lui les tétons, fais la démarrer Fait du pied au cric, fais la démarrer Met les clés dans l'Féfé, fais la démarrer Regarde moi d'travers, fais moi démarrer Du Jack-Da, une instru, pour m'faire démarrer J'attendrai pas que t'insulte ma mère, pour démarrer Ça vient de Saint-Ouen L'Aumône, ça vient pas du Marais Ton rap est tout rhéné Vlah! Seth Gueko Autopsie 3, Medi Med Néochrome, Saint-Ouen L'Aumône 9-5 Zdedededexxx!! Tête de Cromagnon, zguègue de dragon</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yeah ! Patong City Gang ! Dans c'game, j'suis comme un taureau face à six mille ânes Rien dassimilable aux plages de Similan La chatte à Christina Milian J'suis avec mes Patong City Gangsters crimina-minal Ma mère est malade j'suis triste dès qu'elle m'en parle Quand j'reste à Paname j'suis tellement pâle Qu'il faut qu'j'me taille en Thaï'-Thaï' Rigoler, picoler ou siroter un Ten Mo Pan J'crache des mollards à cause de l'air con' Quand j'lui donne pas ses 1000 Baths c'est qu'elle a l'air conne Tu rêves d'aller en Thaï, on va faire comme Ici elles connaissent que Seth Guex, Booba et Akon On plonge dans des plages couleur vert pomme Hommage à ceux qui cartonnent, meurent comme Senna Ayrton Tu veux d'la beuh ? Va voir les Thaï genre Buju Banton J'pourrais manger des tonnes et des tonnes de Khung Shup Paeng Thawt J'suis avec mes potes dans un condominium Ce soir on baise on veut des condoms énormes Ce soir grosse khabta rhum pomme ou lemon On reçoit les déesses du Pandémonium J'vais pas m'faire tuer par un fan comme John Lennon Si t'es mon pote, sers-moi la paume Paye-moi ta chicha-pomme à l'Aquarium J'aime les plages calmes à la Kammala, Kata Noï Toutes les putes me connaissent donc je paranoïe J'suis pas un butterfly j'suis l'Airport Sawanapoom Khruntep, Udontani KSR, Kawasaki Hiroshima, Nagasaki Mon fils veut déjà braquer Toys'R'Us avec son kalash à piles Reviens pas d'Karon après 16h y'a un barrage à flics Si elle aime les grosses motos GarageÀBites Grosso modo gare où j'habite J'suis un buffet à volonté pour moustiques Dans mon sac y'a pas d'sape, seulement cent capotes On dilapide l'argent sokapok Niveau punchline j'ai mis la barre haute Ça baraude, ça baraude sur Bangla' Road Sers-moi un verre de vodka saparot Ça joue les bonhommes mais quand y'a dra ça galope J'envoie ma pute se refaire les ongles Au micro c'est la dictature de Mao Tse-Tong Si j'vois un MC à Patong j'lui mets une grande baffe dans la gueule Ou au pire Lamine lui claque le cul avec ses tongs T'imagines ? Il fait du 46 ! J'pousse toutes mes punchlines à leur paroxysme Martinezz m'enregistre, t'façon dehors il pleut May pe lay, may pleu You might also like Oh Thaïlande... Thaïlande... Ami voyageur tu as choisi la Thaïlande, et tu as bien fait. Oui c'est un choix judicieux. Oh Thaïlande ! Je ne sais pas, je ne sais pas ici point de réponse, ici tout est questionnement, tout est exaltation des sens. Oh Thaïlande, je t'aime, je bouillonne, et je t'aime.1</t>
+          <t>Yeah ! Patong City Gang ! Dans c'game, j'suis comme un taureau face à six mille ânes Rien dassimilable aux plages de Similan La chatte à Christina Milian J'suis avec mes Patong City Gangsters crimina-minal Ma mère est malade j'suis triste dès qu'elle m'en parle Quand j'reste à Paname j'suis tellement pâle Qu'il faut qu'j'me taille en Thaï'-Thaï' Rigoler, picoler ou siroter un Ten Mo Pan J'crache des mollards à cause de l'air con' Quand j'lui donne pas ses 1000 Baths c'est qu'elle a l'air conne Tu rêves d'aller en Thaï, on va faire comme Ici elles connaissent que Seth Guex, Booba et Akon On plonge dans des plages couleur vert pomme Hommage à ceux qui cartonnent, meurent comme Senna Ayrton Tu veux d'la beuh ? Va voir les Thaï genre Buju Banton J'pourrais manger des tonnes et des tonnes de Khung Shup Paeng Thawt J'suis avec mes potes dans un condominium Ce soir on baise on veut des condoms énormes Ce soir grosse khabta rhum pomme ou lemon On reçoit les déesses du Pandémonium J'vais pas m'faire tuer par un fan comme John Lennon Si t'es mon pote, sers-moi la paume Paye-moi ta chicha-pomme à l'Aquarium J'aime les plages calmes à la Kammala, Kata Noï Toutes les putes me connaissent donc je paranoïe J'suis pas un butterfly j'suis l'Airport Sawanapoom Khruntep, Udontani KSR, Kawasaki Hiroshima, Nagasaki Mon fils veut déjà braquer Toys'R'Us avec son kalash à piles Reviens pas d'Karon après 16h y'a un barrage à flics Si elle aime les grosses motos GarageÀBites Grosso modo gare où j'habite J'suis un buffet à volonté pour moustiques Dans mon sac y'a pas d'sape, seulement cent capotes On dilapide l'argent sokapok Niveau punchline j'ai mis la barre haute Ça baraude, ça baraude sur Bangla' Road Sers-moi un verre de vodka saparot Ça joue les bonhommes mais quand y'a dra ça galope J'envoie ma pute se refaire les ongles Au micro c'est la dictature de Mao Tse-Tong Si j'vois un MC à Patong j'lui mets une grande baffe dans la gueule Ou au pire Lamine lui claque le cul avec ses tongs T'imagines ? Il fait du 46 ! J'pousse toutes mes punchlines à leur paroxysme Martinezz m'enregistre, t'façon dehors il pleut May pe lay, may pleu Oh Thaïlande... Thaïlande... Ami voyageur tu as choisi la Thaïlande, et tu as bien fait. Oui c'est un choix judicieux. Oh Thaïlande ! Je ne sais pas, je ne sais pas ici point de réponse, ici tout est questionnement, tout est exaltation des sens. Oh Thaïlande, je t'aime, je bouillonne, et je t'aime.1</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>On roule les R, on roule le Machin... J'arrose les douaniers comme un hydravion C'est l'retour de l'iguanon J'roule des mécaniques comme Aldo Maccion' Comme dirait mon père j'suis beau comme un camion Au micro, j'ai la frite, j'ai la pêche, j'suis frais comme un gardon Le Machin dans l'ffre-co ou dans l'faux plafond T'as l'caca collé au caleçon, t'es un gros blard-fon Bratèh, mon vrai blaze c'est Nikolaï Sokolov J'ai l'Machin sous l'polo d'golf comme dans Duty Call Of J'défouraille d'entrée Bande de hataï mangez Ça s'met des rails dans l'nez J'boxe comme un thaïlandais J'entame une descente aux Enfers J'vais aller gambader Avec des p'tits gros, des grands dadets J'consomme ce Machin depuis tant d'années Officiel, remballez vos Opinel, vos crans d'arrêt J'débarque en ville sur l'avenue Mec, j'ralentis puis capture Des charmantes filles, des femmes mûres C'est garanti sur facture You might also like On choisit ses amis, on choisit pas ses voisins On choisit pas non plus la taille de son Machin Tu veux du Machin ? Combien ? Un dix ou un vingt ? Joue pas les malins ou on t'sort le Machin On choisit pas d'être blanc, noir ou sarrasin L'important dans c'Machin c'est d'porter ses Machins On choisit ses habits, sa femme ou son parfum Mais on choisit pas d'finir ses jours au Machin Y'a l'Machin, les matériaux Mais Dieu merci Évry c'est pas les favelas de Rio Ça fait Goal ! quand le Machin abat l'hélico' J'suis sexuellement éduqué par Olivia del Rio Donc Chupa avec brio C'est pas roulette russe, c'est roulette brésilienne Attaque les tasses-pé d'luxe, masseuses, esthéticiennes Mes plates excuses J'retiens ni l'blaze des rappeurs, ni l'blaze des putes Que les plaques des Stups Y'a qu'pour le Machin que j'me lève aussi tôt Petit toxico viens chercher bonheur comme Chico Dans l'répertoire des bolosses Au nom d'Roberto Carlos Parce que l'Machin c'est d'la frappe Zekwévinho Ramos Pense calmement, place aux types des plus déter' On parle de sang, la police est sur les nerfs Mon rap de franc-maçonnique est funéraire Bombardement atomique et nucléaire Montagne de blanche, narcotique c'est plus mes rêves Machin est grave toxique L'ambiance est chaotique J'finis ça, et frappe fort comme Trinita Mes p'tits ninjas veulent faire la fête à Ibiza On choisit ses amis, on choisit pas ses voisins On choisit pas non plus la taille de son Machin Tu veux du Machin ? Combien ? Un dix ou un vingt ? Joue pas les malins ou on t'sort le Machin On choisit pas d'être blanc, noir ou sarrasin L'important dans c'Machin c'est d'porter ses Machins On choisit ses habits, sa femme ou son parfum Mais on choisit pas d'finir ses jours au Machin</t>
+          <t>On roule les R, on roule le Machin... J'arrose les douaniers comme un hydravion C'est l'retour de l'iguanon J'roule des mécaniques comme Aldo Maccion' Comme dirait mon père j'suis beau comme un camion Au micro, j'ai la frite, j'ai la pêche, j'suis frais comme un gardon Le Machin dans l'ffre-co ou dans l'faux plafond T'as l'caca collé au caleçon, t'es un gros blard-fon Bratèh, mon vrai blaze c'est Nikolaï Sokolov J'ai l'Machin sous l'polo d'golf comme dans Duty Call Of J'défouraille d'entrée Bande de hataï mangez Ça s'met des rails dans l'nez J'boxe comme un thaïlandais J'entame une descente aux Enfers J'vais aller gambader Avec des p'tits gros, des grands dadets J'consomme ce Machin depuis tant d'années Officiel, remballez vos Opinel, vos crans d'arrêt J'débarque en ville sur l'avenue Mec, j'ralentis puis capture Des charmantes filles, des femmes mûres C'est garanti sur facture On choisit ses amis, on choisit pas ses voisins On choisit pas non plus la taille de son Machin Tu veux du Machin ? Combien ? Un dix ou un vingt ? Joue pas les malins ou on t'sort le Machin On choisit pas d'être blanc, noir ou sarrasin L'important dans c'Machin c'est d'porter ses Machins On choisit ses habits, sa femme ou son parfum Mais on choisit pas d'finir ses jours au Machin Y'a l'Machin, les matériaux Mais Dieu merci Évry c'est pas les favelas de Rio Ça fait Goal ! quand le Machin abat l'hélico' J'suis sexuellement éduqué par Olivia del Rio Donc Chupa avec brio C'est pas roulette russe, c'est roulette brésilienne Attaque les tasses-pé d'luxe, masseuses, esthéticiennes Mes plates excuses J'retiens ni l'blaze des rappeurs, ni l'blaze des putes Que les plaques des Stups Y'a qu'pour le Machin que j'me lève aussi tôt Petit toxico viens chercher bonheur comme Chico Dans l'répertoire des bolosses Au nom d'Roberto Carlos Parce que l'Machin c'est d'la frappe Zekwévinho Ramos Pense calmement, place aux types des plus déter' On parle de sang, la police est sur les nerfs Mon rap de franc-maçonnique est funéraire Bombardement atomique et nucléaire Montagne de blanche, narcotique c'est plus mes rêves Machin est grave toxique L'ambiance est chaotique J'finis ça, et frappe fort comme Trinita Mes p'tits ninjas veulent faire la fête à Ibiza On choisit ses amis, on choisit pas ses voisins On choisit pas non plus la taille de son Machin Tu veux du Machin ? Combien ? Un dix ou un vingt ? Joue pas les malins ou on t'sort le Machin On choisit pas d'être blanc, noir ou sarrasin L'important dans c'Machin c'est d'porter ses Machins On choisit ses habits, sa femme ou son parfum Mais on choisit pas d'finir ses jours au Machin</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Seth Guex Faites place Place aux purs MC comme Curreny On aime les grognasses cuirassées, le cognac Hennessy Ces connards d'MCs carencés arrivent même à se faire gner-si Et vendre des disques, on attend la venue du Messie Et vraiment pas celle de l'antechrist, alcool dans la vessie Car en té-ci tu te réfugies dans la tise quand t'es triste Mes gars font du ness-bi, aiment prendre des risques J'te dirai pas c'qu'ils vendent, mais tous les boloss tremblent Et s'collent aux jambes comme des scolopandres Vous écoutez que d'la merde, bande de Skytophiles J'rappe pas pour plaire aux gamines, vole pas dans mes rimes Non, vole pas dans les plumes d'un ptérodactyle Ton rap à deux francs six, Heaulme, t'as un rap de pédophile Mon rap c'est de la drogue dure, il suffit d'une ligne Je ridiculise les MCs, j'fais des Laurent Baffieturing Je viens d'en bas mais aujourd'hui c'est moi qui culmine J'prends le micro, j'ai le coeur qui bat comme sous Ventipulmin On fait de l'argent donc il y a des gens qui ruminent Salam aux frères muslimins, minuit les halls s'illuminent À la lumière des culs de joint mon cousin Et on repense au butin de Toni Musulin Ils veulent me museler en QHS, m'isoler Enterrez-moi et ma famille dans un mausolée You might also like C'est l'retour du Titi Parisien La tête dans les nuages comme un drone aérien C'est pour ceux qui cherchent des ous' et les gros galériens J'suis pas d'ceux qui ont les couilles qui poussent Après un trait de chnouf J'prend l'micro, les faux MC perdent le souffle J'marche qu'avec des bêtes de fouf' Les dents en or, j'lâche que des textes de ouf Avec l'accent de Trae the Truth Les haineux finiront par saigner Titi Parisien pas kéké Marseillais Plus de 15 ans de métier, mais ça y'en a qui oublient On donne ça à la New-Yorkaise, à la QB À la Harlem, j'roule en Harley On veut juste savoir l'alarme où elle est Allahou Harlem, my man, qui a raison, qui a tort ? Mais à six heures du mat' ces porcs m'ont niqué la porte Au poste j'reconnais personne, fuck Akinator J'suis d'la génération coup d'schlass Balafre Albator, Polo Ralph' ou avec aligator La langue française est riche, j'ai la bouche en or C'est mort, on est trop vrai pour faire semblant Casse la bouche d'un flic, ça te fera un condé sans dents C'est sanglant car les balles qui tirent on n'peut les amortir Un taulard c'est comme un piment, à peine rentré il veut déjà sortir Mes baskets et mes ceintures, j'essaie toujours de les assortir Suffit d'un moustique pour empêcher un homme de dormir À trop vouloir t'engraisser tu finiras par vomir Les lois on les a transgressées, on a repeint vos murs Avec des graffitis y'a que la street qui me gratifie Ma peau je scarifie, la vérité je clarifie J'ai écrit ce texte en cours de promenade avec Younes Latifi C'est l'retour du Titi Parisien La tête dans les nuages comme un drone aérien C'est pour ceux qui cherchent des ous' et les gros galériens J'suis pas d'ceux qui ont les couilles qui poussent Après un trait de chnouf J'prend l'micro, les faux MC perdent le souffle J'marche qu'avec des bêtes de fouf' Les dents en or, j'lâche que des textes de ouf Avec l'accent de Trae the Truth Seth Gueko, Néochrome 9.5, Saint-Ouen L'Aumône Université Néochrome, élevé à la Time Bomb Rap sale sous la Rotonde, Ball-trap sur la colombe C'est mes punchlines qui ont fait sourire la Joconde3</t>
+          <t>Seth Guex Faites place Place aux purs MC comme Curreny On aime les grognasses cuirassées, le cognac Hennessy Ces connards d'MCs carencés arrivent même à se faire gner-si Et vendre des disques, on attend la venue du Messie Et vraiment pas celle de l'antechrist, alcool dans la vessie Car en té-ci tu te réfugies dans la tise quand t'es triste Mes gars font du ness-bi, aiment prendre des risques J'te dirai pas c'qu'ils vendent, mais tous les boloss tremblent Et s'collent aux jambes comme des scolopandres Vous écoutez que d'la merde, bande de Skytophiles J'rappe pas pour plaire aux gamines, vole pas dans mes rimes Non, vole pas dans les plumes d'un ptérodactyle Ton rap à deux francs six, Heaulme, t'as un rap de pédophile Mon rap c'est de la drogue dure, il suffit d'une ligne Je ridiculise les MCs, j'fais des Laurent Baffieturing Je viens d'en bas mais aujourd'hui c'est moi qui culmine J'prends le micro, j'ai le coeur qui bat comme sous Ventipulmin On fait de l'argent donc il y a des gens qui ruminent Salam aux frères muslimins, minuit les halls s'illuminent À la lumière des culs de joint mon cousin Et on repense au butin de Toni Musulin Ils veulent me museler en QHS, m'isoler Enterrez-moi et ma famille dans un mausolée C'est l'retour du Titi Parisien La tête dans les nuages comme un drone aérien C'est pour ceux qui cherchent des ous' et les gros galériens J'suis pas d'ceux qui ont les couilles qui poussent Après un trait de chnouf J'prend l'micro, les faux MC perdent le souffle J'marche qu'avec des bêtes de fouf' Les dents en or, j'lâche que des textes de ouf Avec l'accent de Trae the Truth Les haineux finiront par saigner Titi Parisien pas kéké Marseillais Plus de 15 ans de métier, mais ça y'en a qui oublient On donne ça à la New-Yorkaise, à la QB À la Harlem, j'roule en Harley On veut juste savoir l'alarme où elle est Allahou Harlem, my man, qui a raison, qui a tort ? Mais à six heures du mat' ces porcs m'ont niqué la porte Au poste j'reconnais personne, fuck Akinator J'suis d'la génération coup d'schlass Balafre Albator, Polo Ralph' ou avec aligator La langue française est riche, j'ai la bouche en or C'est mort, on est trop vrai pour faire semblant Casse la bouche d'un flic, ça te fera un condé sans dents C'est sanglant car les balles qui tirent on n'peut les amortir Un taulard c'est comme un piment, à peine rentré il veut déjà sortir Mes baskets et mes ceintures, j'essaie toujours de les assortir Suffit d'un moustique pour empêcher un homme de dormir À trop vouloir t'engraisser tu finiras par vomir Les lois on les a transgressées, on a repeint vos murs Avec des graffitis y'a que la street qui me gratifie Ma peau je scarifie, la vérité je clarifie J'ai écrit ce texte en cours de promenade avec Younes Latifi C'est l'retour du Titi Parisien La tête dans les nuages comme un drone aérien C'est pour ceux qui cherchent des ous' et les gros galériens J'suis pas d'ceux qui ont les couilles qui poussent Après un trait de chnouf J'prend l'micro, les faux MC perdent le souffle J'marche qu'avec des bêtes de fouf' Les dents en or, j'lâche que des textes de ouf Avec l'accent de Trae the Truth Seth Gueko, Néochrome 9.5, Saint-Ouen L'Aumône Université Néochrome, élevé à la Time Bomb Rap sale sous la Rotonde, Ball-trap sur la colombe C'est mes punchlines qui ont fait sourire la Joconde3</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aboudouflish, Aboudouflash Aboudouflish, Aboudouflish, Aboudousplash J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass J'suis pas sorti d'une paire de couilles de PD Si j'étais né à Tchernobyl j'aurais pu t'double péné' Tutto a posto, tutto bene Nous fait pas chier ou on t'lâche aux couilles le pitbull de mémé Ouais, ouais, c'est à mon propre sang que j'rends hommage Mon père sent pas l'camembert mais j'viens d'une vraie famille de fromages J'ai la rage et j'croque la vie à pleine dents cariées En boite j'pense Jay-Z, au poste j'pense qu'à nier P'tit narvalé d'la croix d'Chavé Le sperme c'est comme le mensonge, le plus dur c'est d'le faire avaler Alors on rappe vrai, j'ouvre mon cur comme une montre à gousset Ils savent où est l'Paradis, ils veulent pas nous montrer où c'est You might also like J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass Pour tous mes gavalés Hé Pour toi mon gavalo Oh Pour tous mes gavalés Hé Pour toi mon gavalo Oh La vie n'est pas rose comme une bite de chien J'ai tatoué courage sur ma queue car j'prends mon courage à deux mains On s'dit pas à demain, non vous êtes tous morts J'attends la vague de violence comme Igor de Hossegor Ils savent pas tirer mais ils veulent savoir où j'dors À la chasse aux MC t'es chevreuil de bronze, j'suis ours d'or Aller, mange tes morts, j'veux d'la jouvelle comme Rihanna J'rendrais mes comptes aux Yom al Qiyamah Si je t'ai mis la main aux fesses, c'est que j'ai bu Les keufs les keufs nous traquent comme des zébus, c'est a-sé-bu Si t'as menti aux schmits, j'espère qu'ils t'ont cru Le shit ouvre les portes de l'esprit, la coke ouvre les portes de ton cul J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass Paroles rédigées et expliquées par la communauté Rap Genius France !2</t>
+          <t>Aboudouflish, Aboudouflash Aboudouflish, Aboudouflish, Aboudousplash J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass J'suis pas sorti d'une paire de couilles de PD Si j'étais né à Tchernobyl j'aurais pu t'double péné' Tutto a posto, tutto bene Nous fait pas chier ou on t'lâche aux couilles le pitbull de mémé Ouais, ouais, c'est à mon propre sang que j'rends hommage Mon père sent pas l'camembert mais j'viens d'une vraie famille de fromages J'ai la rage et j'croque la vie à pleine dents cariées En boite j'pense Jay-Z, au poste j'pense qu'à nier P'tit narvalé d'la croix d'Chavé Le sperme c'est comme le mensonge, le plus dur c'est d'le faire avaler Alors on rappe vrai, j'ouvre mon cur comme une montre à gousset Ils savent où est l'Paradis, ils veulent pas nous montrer où c'est J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass Pour tous mes gavalés Hé Pour toi mon gavalo Oh Pour tous mes gavalés Hé Pour toi mon gavalo Oh La vie n'est pas rose comme une bite de chien J'ai tatoué courage sur ma queue car j'prends mon courage à deux mains On s'dit pas à demain, non vous êtes tous morts J'attends la vague de violence comme Igor de Hossegor Ils savent pas tirer mais ils veulent savoir où j'dors À la chasse aux MC t'es chevreuil de bronze, j'suis ours d'or Aller, mange tes morts, j'veux d'la jouvelle comme Rihanna J'rendrais mes comptes aux Yom al Qiyamah Si je t'ai mis la main aux fesses, c'est que j'ai bu Les keufs les keufs nous traquent comme des zébus, c'est a-sé-bu Si t'as menti aux schmits, j'espère qu'ils t'ont cru Le shit ouvre les portes de l'esprit, la coke ouvre les portes de ton cul J'débarque Aboudouflish, Aboudouflash J'veux ni l'cul du spliff, ni l'cul du Flash J'ai l'goût du risque, le goût du cash Tape pas ton vice, t'as que du falche J'débarque Aboudouflish, Aboudouflash Comme un anglais j'ai la classe même quand j'marche avec une 'tasse T'as pas ton vice, t'as que du falche J'dégrafe tous les soutifs à coups de schlass Paroles rédigées et expliquées par la communauté Rap Genius France !2</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eazy Dew, pétasse Comme d'hab', jallume un joint de weed, la coupe est pleine, j'fais le vide ouais Y a plus personne qui me guide, j'grandis mais j'prends pas de rides J'nique Internet, j'fais pas de bides, non, j'fais que du biff J'rentre chez Gucci et j'dilapide, elle m'voit, j'la fais mouiller rapide ouais J'arrive en bas en dérapage, au milieu des requins et des rapaces Salope, si j'te ken, on s'reverra pas, y a qu'à mes res-frè que j'refais la passe Nan, pour c'monde, j'ai plus aucune attache J'connais pas son blase, j'ai d'jà vu sa tte-ch' J'ai fumé sa teu-ch' et j'ai fumé ma kush, j'suis défoncé comme si j'étais un gue-sh' Cala boca, j'peux même parler en guèsh, j'te connaissais pas quand c'était la dèche J'voulais d'jà tout niquer depuis la crèche, puis j'ai tout niqué, même niqué ton crush Ouais, dès qu'j'en ai un, j'vais droit au but, déterminé comme un attaquant Quelques grammes dans la boîte à gants, j'en ai des gratuites, j'vais pas aux putes, nan Chez moi, on parle pas aux flics, au micro, j'les mets tous K.O, j'kick J'bédave autant car j'suis paro, la situation est chaotique Gros stick au bec, c'est mon énième, j'suis en feu comme Salamèche Salamèche J'suis dans le 93, où y a v'la la neige, celle qui finit dans l'nez du seizième Jack miel au goulot, jai v'la la pêche, j'regarde ma bitch, elle a v'la la pêche Bob Prada comme si j'vais à la pêche, j'peux plus trembler quand j'suis à la caisse yeah J'roule une fusée dans mon vaisseau vaisseau, j'vois plus la lumière, que des faisceaux faisceaux Appels manqués, jai plus d'réseau, y a que des OG dans mon réseau La vie, cest dur, mais on résiste ouais, jfume que le fruit, pas la résine ouais Elle me rejoint où je réside ouais, puis elle enlève ses bas résille yeah J'la caresse, elle prend la tétine ouh, jai un lion dans la rétine Dans mon cur, j'ai quelques épines, il faut que je les enlève de là You might also like Ahh, j'ai que ma bite, mon couteau, cest moi qui met l'tablier Une fois retourné, j'peux pas stopper le sablier sablier Tout pour la mif, les reufs, avant le biff, les meufs J'mets pas la charrue avant l'buf yeah J'suis dans lescalier, j'franchis les paliers J'ai besoin dempiler les briques, j'ai besoin de papier Doigt en l'air, nique les keufs, tout pour la mif, les reufs hmm, yeah Même les mouches t'aiment pas, t'es quune grosse tapette Toujours à quatre pattes, c'que j'dis passe au-d'ssus d'sa tête Elle fait gole-ri, la fillette, j'l'ai même pas ken, elle veut d'ja aller aux Galeries Lafayette, elle m'prend pour Dodi Al-Fayed Sors l'appareil, tout l'cannabis, il faut qu'j'en roule un Y a quà Nice quon peut être à la fois au four et au moulin Mange tes moulos, pas l'temps d'faire la mala, cest l'code d'honneur Demande à Jos', jai pas une gueule de porte-bonheur Rock 'n' Roll attitude, j'suis v'nu casser vos codes yeah J'aime quand le shit fait des bulles, comme un gastéropode J'm'enraye, grogne comme un Pit Bull, sur les Champs Élysées yeah Je n'suis quun ange, avec les ailes brisées J'ai que ma bite, mon couteau, cest moi qui met l'tablier Une fois retourné, j'peux pas stopper le sablier sablier Tout pour la mif, les reufs, avant le biff, les meufs J'mets pas la charrue avant l'buf yeah J'suis dans lescalier, j'franchis les paliers J'ai besoin dempiler les briques, j'ai besoin de papier Doigt en l'air, nique les keufs, tout pour la mif, les reufs yeah</t>
+          <t>Eazy Dew, pétasse Comme d'hab', jallume un joint de weed, la coupe est pleine, j'fais le vide ouais Y a plus personne qui me guide, j'grandis mais j'prends pas de rides J'nique Internet, j'fais pas de bides, non, j'fais que du biff J'rentre chez Gucci et j'dilapide, elle m'voit, j'la fais mouiller rapide ouais J'arrive en bas en dérapage, au milieu des requins et des rapaces Salope, si j'te ken, on s'reverra pas, y a qu'à mes res-frè que j'refais la passe Nan, pour c'monde, j'ai plus aucune attache J'connais pas son blase, j'ai d'jà vu sa tte-ch' J'ai fumé sa teu-ch' et j'ai fumé ma kush, j'suis défoncé comme si j'étais un gue-sh' Cala boca, j'peux même parler en guèsh, j'te connaissais pas quand c'était la dèche J'voulais d'jà tout niquer depuis la crèche, puis j'ai tout niqué, même niqué ton crush Ouais, dès qu'j'en ai un, j'vais droit au but, déterminé comme un attaquant Quelques grammes dans la boîte à gants, j'en ai des gratuites, j'vais pas aux putes, nan Chez moi, on parle pas aux flics, au micro, j'les mets tous K.O, j'kick J'bédave autant car j'suis paro, la situation est chaotique Gros stick au bec, c'est mon énième, j'suis en feu comme Salamèche Salamèche J'suis dans le 93, où y a v'la la neige, celle qui finit dans l'nez du seizième Jack miel au goulot, jai v'la la pêche, j'regarde ma bitch, elle a v'la la pêche Bob Prada comme si j'vais à la pêche, j'peux plus trembler quand j'suis à la caisse yeah J'roule une fusée dans mon vaisseau vaisseau, j'vois plus la lumière, que des faisceaux faisceaux Appels manqués, jai plus d'réseau, y a que des OG dans mon réseau La vie, cest dur, mais on résiste ouais, jfume que le fruit, pas la résine ouais Elle me rejoint où je réside ouais, puis elle enlève ses bas résille yeah J'la caresse, elle prend la tétine ouh, jai un lion dans la rétine Dans mon cur, j'ai quelques épines, il faut que je les enlève de là Ahh, j'ai que ma bite, mon couteau, cest moi qui met l'tablier Une fois retourné, j'peux pas stopper le sablier sablier Tout pour la mif, les reufs, avant le biff, les meufs J'mets pas la charrue avant l'buf yeah J'suis dans lescalier, j'franchis les paliers J'ai besoin dempiler les briques, j'ai besoin de papier Doigt en l'air, nique les keufs, tout pour la mif, les reufs hmm, yeah Même les mouches t'aiment pas, t'es quune grosse tapette Toujours à quatre pattes, c'que j'dis passe au-d'ssus d'sa tête Elle fait gole-ri, la fillette, j'l'ai même pas ken, elle veut d'ja aller aux Galeries Lafayette, elle m'prend pour Dodi Al-Fayed Sors l'appareil, tout l'cannabis, il faut qu'j'en roule un Y a quà Nice quon peut être à la fois au four et au moulin Mange tes moulos, pas l'temps d'faire la mala, cest l'code d'honneur Demande à Jos', jai pas une gueule de porte-bonheur Rock 'n' Roll attitude, j'suis v'nu casser vos codes yeah J'aime quand le shit fait des bulles, comme un gastéropode J'm'enraye, grogne comme un Pit Bull, sur les Champs Élysées yeah Je n'suis quun ange, avec les ailes brisées J'ai que ma bite, mon couteau, cest moi qui met l'tablier Une fois retourné, j'peux pas stopper le sablier sablier Tout pour la mif, les reufs, avant le biff, les meufs J'mets pas la charrue avant l'buf yeah J'suis dans lescalier, j'franchis les paliers J'ai besoin dempiler les briques, j'ai besoin de papier Doigt en l'air, nique les keufs, tout pour la mif, les reufs yeah</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>You-voi, toi? Tu brailles, t'aboies Tu vois, moi, je maille et toi tu bois! Tu parles de moi, après tu jactes Fini au bois avec une chatte Tes 10, tes 20, j'm'en bats les reins J'exige en vain, prends ton surin À 10 sur 1 ça s'croit sur-homme Mais j'sais j'reste serein Té-doi, ta reum! On fait raf en cane-bé Dans la came et l'do-bé Trop d'gars calmes sont tombés Sous l'emprise de la drogue, sous l'emprise de l'alcool Prends pas prise t'as pas d'bol Cicatrice d'un bad boy J'veux l'actrice d'un PlayBoy Le 5.20 n'est pas lège Les zinks savent faut pas ouèj Label 5 ou la neige C'est plus simple faut la tèj Pour les timpes faut l'latex Feux éteints fout l'index Ma gue-dro faut l'acheter Qualité full HD 25G plus relou qu'une chic Plus massif qu'une Jeep Une fle-gi tu gicles Fais belek y a djé là-bas Cache ton pompe sous ta djellaba Crame ta skunk et ta bédafa Ça bi-bi ça cra-crave Le nessbi ça m'rend grave Hystérique en garde av' L'alcoolique a le port d'arme Cache la drogue dans la couche du nourrisson Babtous, kerlouches, on t'nourrit d'son Criaveurs d'hérisson Pousse à fond, pousse la fonte ! You might also like X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! V'la les chiennes, v'la les loumes, v'la les hyènes, v'la les loups À Eden ça magouille Envie d'ken, vide ma gourde Les roumaines qui s'débrouillent Les dékiz qui déboulent Prends des risques, prends tes couilles Nique le fisc et c'est cool Au casse-pipe en cagoule Le bénèf' qui s'écoule Nique l'Opac et la CAF de Paname Les gros blarfs on les farfes! Les bananes! Ça disquette! ça disquette! ton Windows La fixette dans ton bras, mais oui j'dose Receleurs, bicraveurs! Gros c'est l'heure! Les braqueurs, kidnappeurs Si t'as peur crie ailleurs! Raide dékere à léther Tu décolles à la colle Tu racolles à Boulogne Ton alcool, l'eau d'Cologne La zermi, RMI, pas d'amis Hé Rémy! on t'as mis au tar-mi Accélère plus d'permis! Faut calter t'es qu'une brêle Ta cane-bé elle débraye Le tar-pé tu dégaines J'vais t'tarter oualeguene X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! Paye ton grec à la sauce samouraï Les foulek, les cas soss' te té-je sur les rails On t'chourave fils à cuivre, la férail On t'écarte les sse-cui ça fait mal Dans l'94 on est cuit c'est sous sky On t'éclate l'essui-glace dans les skailles dents Ça moutrave dans les bats! dans l'escale! À coup d'batte les poucaves, les pédales Les pe-pom en croco' Louis Vuitton Les narco ont l'pe-pom dans l'vito! X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! Aaaah ! Seth Gueko, 25G Pour tous les krawé Pour les tous les toxibars Les uni-jambistes, les déglingos, cas soss' !</t>
+          <t>You-voi, toi? Tu brailles, t'aboies Tu vois, moi, je maille et toi tu bois! Tu parles de moi, après tu jactes Fini au bois avec une chatte Tes 10, tes 20, j'm'en bats les reins J'exige en vain, prends ton surin À 10 sur 1 ça s'croit sur-homme Mais j'sais j'reste serein Té-doi, ta reum! On fait raf en cane-bé Dans la came et l'do-bé Trop d'gars calmes sont tombés Sous l'emprise de la drogue, sous l'emprise de l'alcool Prends pas prise t'as pas d'bol Cicatrice d'un bad boy J'veux l'actrice d'un PlayBoy Le 5.20 n'est pas lège Les zinks savent faut pas ouèj Label 5 ou la neige C'est plus simple faut la tèj Pour les timpes faut l'latex Feux éteints fout l'index Ma gue-dro faut l'acheter Qualité full HD 25G plus relou qu'une chic Plus massif qu'une Jeep Une fle-gi tu gicles Fais belek y a djé là-bas Cache ton pompe sous ta djellaba Crame ta skunk et ta bédafa Ça bi-bi ça cra-crave Le nessbi ça m'rend grave Hystérique en garde av' L'alcoolique a le port d'arme Cache la drogue dans la couche du nourrisson Babtous, kerlouches, on t'nourrit d'son Criaveurs d'hérisson Pousse à fond, pousse la fonte ! X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! V'la les chiennes, v'la les loumes, v'la les hyènes, v'la les loups À Eden ça magouille Envie d'ken, vide ma gourde Les roumaines qui s'débrouillent Les dékiz qui déboulent Prends des risques, prends tes couilles Nique le fisc et c'est cool Au casse-pipe en cagoule Le bénèf' qui s'écoule Nique l'Opac et la CAF de Paname Les gros blarfs on les farfes! Les bananes! Ça disquette! ça disquette! ton Windows La fixette dans ton bras, mais oui j'dose Receleurs, bicraveurs! Gros c'est l'heure! Les braqueurs, kidnappeurs Si t'as peur crie ailleurs! Raide dékere à léther Tu décolles à la colle Tu racolles à Boulogne Ton alcool, l'eau d'Cologne La zermi, RMI, pas d'amis Hé Rémy! on t'as mis au tar-mi Accélère plus d'permis! Faut calter t'es qu'une brêle Ta cane-bé elle débraye Le tar-pé tu dégaines J'vais t'tarter oualeguene X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! Paye ton grec à la sauce samouraï Les foulek, les cas soss' te té-je sur les rails On t'chourave fils à cuivre, la férail On t'écarte les sse-cui ça fait mal Dans l'94 on est cuit c'est sous sky On t'éclate l'essui-glace dans les skailles dents Ça moutrave dans les bats! dans l'escale! À coup d'batte les poucaves, les pédales Les pe-pom en croco' Louis Vuitton Les narco ont l'pe-pom dans l'vito! X2 C'est pour les têtes cabossées et tous les cabochards Le son des gamosses noirs désossés par les charognards Le son des cas sociaux, des carrossiers, des kosovars Si on a les yeux bleus c'est à cause des gyrophares! Aaaah ! Seth Gueko, 25G Pour tous les krawé Pour les tous les toxibars Les uni-jambistes, les déglingos, cas soss' !</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>J'suis Ricky Rosette de Gif-sur-Yvette Si tu touches à ma Ginette tu vas t'manger une gifle direct N'essaie pas d'imiter, on est sous copyright C'est pour les gros pirates sponsorisés Fly Emirates X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur J'représente les fooleks et les houppettes Les lopettes font gonfler leurs roupettes au Sport-Elec Où est Seth ? À Phuket sur une choupette Eh poulette fait couler le Moët sur mes coucougnettes Coup d'fourchette tu te prends une gifle direct ! Hadouken si tu touches à mes rillettes Tout l'week-end, tout l'week-end, j'suis pompette à la buvette Tape galette sur la cuvette Monte mon son dans ton Q7 choper ! Les faux cul on les déteste Du cambouis sur l'débardeur Les bardeurs, les démerdeurs, bagarreurs, déménageurs Les roublards et les chacals Les BUbares à la Chabal Défonce tout à coup d'tatane ! Comme un fou qui sort de Saint-Anne ! 25G, 25G j'ai le swag à Hulk Hogan 25G, 25G ouais j'écoute Jean-Jacques Goldman T'as des shtars fait un gommage Roule un sdar fait un collage Y'a les shtars et c'est dommage Kubiak You might also like X2 On a des gueules de camionneurs Des bras d'déménageur Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur Claquettes, p'tit short j'suis à Phuket dans mon resort J'attends pépère qu'l'album il sorte Je suis avec 25 aka Sinok Envie de faire pleurer le cyclope Même les tchoins on les tripote On sirote la vodka cyrok, même nos capotes on les tricote Tout le monde se baise dans le hip-hop, on dirait la famille Peacock J'arrive en balle comme un speedboat, j'ai les crocs comme un p'tit rot' Y'a des keufs partout rien qu'on psychote Le whisky pur rien qu'ça picote Les clasheurs rien qu'ils pipotent, j'suis barbu comme un ZZ Top Punchlines de wisigoth, ramène pas ta gariguette T'entends j'arrive sur scène avec une galipette J'défouraille sur tous les MC's, Pan ! Pan ! C'est direct ! J'défouraille comme Bernard Campan défouraille sur les galinettes J'arrive comme un coup de machette, tout se vend, non tout s'achète Dans mon slip c'est soirée disco, qui veut lécher mes boules à facettes ? Kalash caché dans la poussette, carnage fâché à la fourchette Pas l'temps pour leur clash, j'suis dans un massage sucrette La chatte à Lucette ! X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur X2 J'suis Ricky Rosette de Gif-sur-Yvette Si tu touches à ma Ginette tu vas t'manger une gifle direct N'essaie pas d'imiter, on est sous copyright C'est pour les gros pirates sponsorisés Fly Emirates X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur</t>
+          <t>J'suis Ricky Rosette de Gif-sur-Yvette Si tu touches à ma Ginette tu vas t'manger une gifle direct N'essaie pas d'imiter, on est sous copyright C'est pour les gros pirates sponsorisés Fly Emirates X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur J'représente les fooleks et les houppettes Les lopettes font gonfler leurs roupettes au Sport-Elec Où est Seth ? À Phuket sur une choupette Eh poulette fait couler le Moët sur mes coucougnettes Coup d'fourchette tu te prends une gifle direct ! Hadouken si tu touches à mes rillettes Tout l'week-end, tout l'week-end, j'suis pompette à la buvette Tape galette sur la cuvette Monte mon son dans ton Q7 choper ! Les faux cul on les déteste Du cambouis sur l'débardeur Les bardeurs, les démerdeurs, bagarreurs, déménageurs Les roublards et les chacals Les BUbares à la Chabal Défonce tout à coup d'tatane ! Comme un fou qui sort de Saint-Anne ! 25G, 25G j'ai le swag à Hulk Hogan 25G, 25G ouais j'écoute Jean-Jacques Goldman T'as des shtars fait un gommage Roule un sdar fait un collage Y'a les shtars et c'est dommage Kubiak X2 On a des gueules de camionneurs Des bras d'déménageur Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur Claquettes, p'tit short j'suis à Phuket dans mon resort J'attends pépère qu'l'album il sorte Je suis avec 25 aka Sinok Envie de faire pleurer le cyclope Même les tchoins on les tripote On sirote la vodka cyrok, même nos capotes on les tricote Tout le monde se baise dans le hip-hop, on dirait la famille Peacock J'arrive en balle comme un speedboat, j'ai les crocs comme un p'tit rot' Y'a des keufs partout rien qu'on psychote Le whisky pur rien qu'ça picote Les clasheurs rien qu'ils pipotent, j'suis barbu comme un ZZ Top Punchlines de wisigoth, ramène pas ta gariguette T'entends j'arrive sur scène avec une galipette J'défouraille sur tous les MC's, Pan ! Pan ! C'est direct ! J'défouraille comme Bernard Campan défouraille sur les galinettes J'arrive comme un coup de machette, tout se vend, non tout s'achète Dans mon slip c'est soirée disco, qui veut lécher mes boules à facettes ? Kalash caché dans la poussette, carnage fâché à la fourchette Pas l'temps pour leur clash, j'suis dans un massage sucrette La chatte à Lucette ! X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur X2 J'suis Ricky Rosette de Gif-sur-Yvette Si tu touches à ma Ginette tu vas t'manger une gifle direct N'essaie pas d'imiter, on est sous copyright C'est pour les gros pirates sponsorisés Fly Emirates X2 On a des gueules de camionneurs Des bras d'déménageurs Qu'un seul swag c'est débardeur Le jean et l'débardeur Baskets blanches et débardeur C'est l'swag des camionneurs Toute l'année en débardeur Casse-bélier en tracteur</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'donne ça lourd comme de la fonk Intordable comme de la fonte J'veux pas d'ton trône, Balafon Ton trône c'est un Jacob Delafon Chibré, comme un canasson Laisse passer les siphonnés du carafon C'est avec ton son qu'on part à fond Gucci, Vuitton, paillasson J'ai l'bras long si on m'enterre il dépasse Les familles nombreuses font pas gol-ri la CAF, han Enfin du son qui décrasse T'as pas d'slip t'as pas d'taf comme Mallaury Nataf, han Tire une taffe sur l'narguilé, tout c'qui est à moué 't à toué Pare-balles sur la Audemars Piguet, car j'ai des minutes à tuer Mon corps est tatoué, ouais J'suis l'oeuvre d'art de ma daronne Ils peuvent m'enfermer à clé J'ferai des yoyo en string de matonne C'est l'nouvel album Les punch's sortent pas d'un temple tibétain C'soir on dîne aux Chandelles J'parle pas des bougies mais du club libertin Ça c'est d'la punchline, ça c'est d'la punchline ma couillasse Ça c'est d'la punchline, ça, ça, ça, ça c'est d'la punchline, ouais Ça c'est d'la punchline, ça c'est d'la punchline Tu veux d'la punchline? ça c'est d'la punchline Ça, ça, ça, ça c'est d'la punchline You might also like C'est du lourd, comme le cul d'Chairman On t'enverra l'album par la Sernam Donne moi du cash et j'suis farhan Comme une roumaine au salon d'la caravane J'ai la le-da, c'est l'heure de mer-da Ma bite c'est le shlass de Rambo elle a la forme de mes doigts Tous en mier-da, comme des moutons L'argent ça vient ça part c'est comme les boutons Je m'barre de Thaï que quand y a la mousson Ils s'sentent corriaces d'vant leurs 'tasses comme des bouffons Ils ont pas la classe Rocco m'a dit Plus c'est gros plus ça passe, han J'suis pour ???? Des bo-bo-bo-bolosses nous suivent à la trace Plus de faces qu'y a d'lesbiennes à la MAF On tue les gens avant d'les connaître sinon on s'attache BLOUERG ! J'envoie du lourd, comme le cul d'Maïté Oh qui peut m'arrêter? J'ai, Le ke-tur Fenerbahçe J'veux une femme en or pour pas m'faire plaquer J'aime pas les schmits et sachez Que c'est vice et Versace Guevara, le pe-ra, ça paie pas nan c'est comme la hagra J'ai la tête dure j'ai sniffé du viagra Gros sel sur mon fusil et sur mon foie gras, han On s'tire dessus car on s'aime L'Etat veut qu'on tourne comme un carrousel Moi, j'veux une pipe au Nutella J'ai les crocs comme Russel, j'achète c'qu'on m'recèle J'fous l'halla, depuis qu'j'ai trois poils comme Cadet Rousselle Nique le strass et les iettes-pa J'pose pas si on m'yaip pas Que des rimes de porc dans le hier-ca Sponsorisé par Alain Yet-Pa Dès qu'j'me les yeu-ca, han J'me yeu-ta en yeu-Tha J'veux une statue d'moi sur un ch'val surélevé Comme ça aucun chien m'piss'ra sur les pieds</t>
+          <t>J'donne ça lourd comme de la fonk Intordable comme de la fonte J'veux pas d'ton trône, Balafon Ton trône c'est un Jacob Delafon Chibré, comme un canasson Laisse passer les siphonnés du carafon C'est avec ton son qu'on part à fond Gucci, Vuitton, paillasson J'ai l'bras long si on m'enterre il dépasse Les familles nombreuses font pas gol-ri la CAF, han Enfin du son qui décrasse T'as pas d'slip t'as pas d'taf comme Mallaury Nataf, han Tire une taffe sur l'narguilé, tout c'qui est à moué 't à toué Pare-balles sur la Audemars Piguet, car j'ai des minutes à tuer Mon corps est tatoué, ouais J'suis l'oeuvre d'art de ma daronne Ils peuvent m'enfermer à clé J'ferai des yoyo en string de matonne C'est l'nouvel album Les punch's sortent pas d'un temple tibétain C'soir on dîne aux Chandelles J'parle pas des bougies mais du club libertin Ça c'est d'la punchline, ça c'est d'la punchline ma couillasse Ça c'est d'la punchline, ça, ça, ça, ça c'est d'la punchline, ouais Ça c'est d'la punchline, ça c'est d'la punchline Tu veux d'la punchline? ça c'est d'la punchline Ça, ça, ça, ça c'est d'la punchline C'est du lourd, comme le cul d'Chairman On t'enverra l'album par la Sernam Donne moi du cash et j'suis farhan Comme une roumaine au salon d'la caravane J'ai la le-da, c'est l'heure de mer-da Ma bite c'est le shlass de Rambo elle a la forme de mes doigts Tous en mier-da, comme des moutons L'argent ça vient ça part c'est comme les boutons Je m'barre de Thaï que quand y a la mousson Ils s'sentent corriaces d'vant leurs 'tasses comme des bouffons Ils ont pas la classe Rocco m'a dit Plus c'est gros plus ça passe, han J'suis pour ???? Des bo-bo-bo-bolosses nous suivent à la trace Plus de faces qu'y a d'lesbiennes à la MAF On tue les gens avant d'les connaître sinon on s'attache BLOUERG ! J'envoie du lourd, comme le cul d'Maïté Oh qui peut m'arrêter? J'ai, Le ke-tur Fenerbahçe J'veux une femme en or pour pas m'faire plaquer J'aime pas les schmits et sachez Que c'est vice et Versace Guevara, le pe-ra, ça paie pas nan c'est comme la hagra J'ai la tête dure j'ai sniffé du viagra Gros sel sur mon fusil et sur mon foie gras, han On s'tire dessus car on s'aime L'Etat veut qu'on tourne comme un carrousel Moi, j'veux une pipe au Nutella J'ai les crocs comme Russel, j'achète c'qu'on m'recèle J'fous l'halla, depuis qu'j'ai trois poils comme Cadet Rousselle Nique le strass et les iettes-pa J'pose pas si on m'yaip pas Que des rimes de porc dans le hier-ca Sponsorisé par Alain Yet-Pa Dès qu'j'me les yeu-ca, han J'me yeu-ta en yeu-Tha J'veux une statue d'moi sur un ch'val surélevé Comme ça aucun chien m'piss'ra sur les pieds</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Zde-zde-zdedededex Zde-zde-zdedededex Le blaze c'est Seth Guex Le blaze c'est Seth Guex Zde-zde-zdedededex Zde-zde-zdedededex Zdedededex ! J'ai des capotes goût Whiskas pour les chattes difficiles Le gent-ar on sait où il s'cache donc on sera richissime Le gent-ar ça se gagne, ça se multiplie Halal ou pas, les mains ça se lavent, ça se purifie ! Tu veux du biff? Come, come with me! J'ai les crocs, j'ai le ventre qui grogne comme un grizzly Je fais rapper la rue comme si j'étais ventriloque Les keufs nous cuisinent pour savoir c'qu'on mijote Mais pas d'anti-pop devant le micro uzi On est passé fissa-fissa du Fabio Lucci au Gucci Au poste, chut, silence abyssal Discret comme un milliardaire qui porte que des habits sales Et même si chaque matin ma couette me tient en otage Timal, j'ai été élevé a gagner Prend une cuillère avec toi, y'a une couille dans le potage Je te laisse sur le carreau comme mon L.V. à damier You might also like T'es une femme fontaine? Je suis un homme grenouille! Moi et la rue, on est soudé comme 2 couilles Liasse arc-en-ciel dans le portefeuille Je débande direct dès que les porcs me fouillent Ton corps se mouille dès que chante la caillera La vie n'est pas rose comme la chatte d'Anksa Kara Une rose pour ma femme, un flingue pour son amant A 20 ans, elles ont déjà un Sex Toy dans le sac à main Les boules bien accrochées comme sur un sapin Je vais tout déchirer comme Freddy qui baise dans des draps de satin La petite catin, elle veut déjà la vie de rêve Alors que mon sexe la connait ni des dents, ni des lèvres Laisse moi te dire ma mignonne, t'es belle comme euhhh La chambre forte du Crédit Agricole Je t'envoie tout dans les cheveux même si ça colle Belleck les keufs taffent avec le Taxiphone Dit rien sur ton iPhone ou ton BlackBerry Je suis sous pression comme un match Maroc-Algérie Tu t'affoles, hein? Tu sais que t'auras mal chérie Tu sais que j'ai pris mon p'tit Kamagra Oral Jelly Rap, délits, j'ai le cul entre 2 chaises électriques Je rappe la main dans le slip pour mieux jouir de ma réussite Je fais pas de feats, je fais des dîners de cons comme Thierry Lhermitte Si y'a un MC qu'est pas content je le déshérite</t>
+          <t>Zde-zde-zdedededex Zde-zde-zdedededex Le blaze c'est Seth Guex Le blaze c'est Seth Guex Zde-zde-zdedededex Zde-zde-zdedededex Zdedededex ! J'ai des capotes goût Whiskas pour les chattes difficiles Le gent-ar on sait où il s'cache donc on sera richissime Le gent-ar ça se gagne, ça se multiplie Halal ou pas, les mains ça se lavent, ça se purifie ! Tu veux du biff? Come, come with me! J'ai les crocs, j'ai le ventre qui grogne comme un grizzly Je fais rapper la rue comme si j'étais ventriloque Les keufs nous cuisinent pour savoir c'qu'on mijote Mais pas d'anti-pop devant le micro uzi On est passé fissa-fissa du Fabio Lucci au Gucci Au poste, chut, silence abyssal Discret comme un milliardaire qui porte que des habits sales Et même si chaque matin ma couette me tient en otage Timal, j'ai été élevé a gagner Prend une cuillère avec toi, y'a une couille dans le potage Je te laisse sur le carreau comme mon L.V. à damier T'es une femme fontaine? Je suis un homme grenouille! Moi et la rue, on est soudé comme 2 couilles Liasse arc-en-ciel dans le portefeuille Je débande direct dès que les porcs me fouillent Ton corps se mouille dès que chante la caillera La vie n'est pas rose comme la chatte d'Anksa Kara Une rose pour ma femme, un flingue pour son amant A 20 ans, elles ont déjà un Sex Toy dans le sac à main Les boules bien accrochées comme sur un sapin Je vais tout déchirer comme Freddy qui baise dans des draps de satin La petite catin, elle veut déjà la vie de rêve Alors que mon sexe la connait ni des dents, ni des lèvres Laisse moi te dire ma mignonne, t'es belle comme euhhh La chambre forte du Crédit Agricole Je t'envoie tout dans les cheveux même si ça colle Belleck les keufs taffent avec le Taxiphone Dit rien sur ton iPhone ou ton BlackBerry Je suis sous pression comme un match Maroc-Algérie Tu t'affoles, hein? Tu sais que t'auras mal chérie Tu sais que j'ai pris mon p'tit Kamagra Oral Jelly Rap, délits, j'ai le cul entre 2 chaises électriques Je rappe la main dans le slip pour mieux jouir de ma réussite Je fais pas de feats, je fais des dîners de cons comme Thierry Lhermitte Si y'a un MC qu'est pas content je le déshérite</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Seth Gueko, re-noi tu me nais-co 100 kilos à la naissance, je suis né gros J'suis du 9.5 mais j'ai le mental 94 Dis pas à un zoophile que t'as un chat dans la gorge On se forge car la rue, c'est la Bérézina Si un frère tend une perche, saisis-la Ils nous appellent les wesh-wesh, les sy-va, ces zinda Nique les skins et les zi-na, l'été en taule, c'est si-moi J'suis passé du cristal à la Cristalline Au placard t'es comme un papillon qui redevient chrysalide On s'évade avec des livres à défaut d'une dynamite Mais depuis que j'ai joué au foot au shtar j'crois plus au libre-arbitre Mon ghetto saigne, rouges sont les briques, mon bloc est hémophile Comment ça les braqueurs prennent plus que les pédophiles ? Seigneur, quelle misère ! Nos mères croient qu'on deale Elles ont pas de mouchoirs Lacoste mais elles pleurent des larmes de crocodile You might also like Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Faut-il en tuer un d'eux avant qu'ils en tuent un de nous ? Bientôt les keufs auront des grenades de saindoux Des matraques en Justin Bridou, mais on tient le coup L'amour est dans le pré mais la baise est dans le prix sin-cou Je décharge mes nerfs dans les FPS Mettez nous perpét' on fera des gosses à l'UVF Ils pensent que j'ai niqué le bénéf', que j'ai touché de l'oseille Les narvalos ils n'pensent qu'à m'épier comme dans Truman Show Ce soir c'est peut-être mon dernier coucher d'soleil Si on te refait le portrait, y'aura pas de joli coup de pinceau Je compte mes potes au chtar pour trouver le sommeil À part les fachos, tout le monde mérite un bout de pain chaud T'es pas prêt pour ton jugement, faut le repousser En France, on voit l'arabe tomber mais pas la forêt pousser On n'a jamais vu nos rêves s'exaucer Qui veut des frites, les gars, y'a les poulets au rez-de-chaussée Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Zdedededex, Seth Gueko, Kery James C'est pour mes babtous2</t>
+          <t>Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Seth Gueko, re-noi tu me nais-co 100 kilos à la naissance, je suis né gros J'suis du 9.5 mais j'ai le mental 94 Dis pas à un zoophile que t'as un chat dans la gorge On se forge car la rue, c'est la Bérézina Si un frère tend une perche, saisis-la Ils nous appellent les wesh-wesh, les sy-va, ces zinda Nique les skins et les zi-na, l'été en taule, c'est si-moi J'suis passé du cristal à la Cristalline Au placard t'es comme un papillon qui redevient chrysalide On s'évade avec des livres à défaut d'une dynamite Mais depuis que j'ai joué au foot au shtar j'crois plus au libre-arbitre Mon ghetto saigne, rouges sont les briques, mon bloc est hémophile Comment ça les braqueurs prennent plus que les pédophiles ? Seigneur, quelle misère ! Nos mères croient qu'on deale Elles ont pas de mouchoirs Lacoste mais elles pleurent des larmes de crocodile Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Faut-il en tuer un d'eux avant qu'ils en tuent un de nous ? Bientôt les keufs auront des grenades de saindoux Des matraques en Justin Bridou, mais on tient le coup L'amour est dans le pré mais la baise est dans le prix sin-cou Je décharge mes nerfs dans les FPS Mettez nous perpét' on fera des gosses à l'UVF Ils pensent que j'ai niqué le bénéf', que j'ai touché de l'oseille Les narvalos ils n'pensent qu'à m'épier comme dans Truman Show Ce soir c'est peut-être mon dernier coucher d'soleil Si on te refait le portrait, y'aura pas de joli coup de pinceau Je compte mes potes au chtar pour trouver le sommeil À part les fachos, tout le monde mérite un bout de pain chaud T'es pas prêt pour ton jugement, faut le repousser En France, on voit l'arabe tomber mais pas la forêt pousser On n'a jamais vu nos rêves s'exaucer Qui veut des frites, les gars, y'a les poulets au rez-de-chaussée Babtou, rabza ou négro Qui que tu sois, si t'as pas de sous, t'es sur le té-cô Au pouvoir y a que des voyous qui font pas quer-cro Pour eux t'es noir même si t'es blanc comme Seth Gueko Kho, entre enfants de la misère, on se re-nnaît-co Parce que quand t'ouvres le frigidaire, t'entends l'même écho Que faire entre le métro et le Merco, le taf ou les narcos, le cigare ou le mégot ? Zdedededex, Seth Gueko, Kery James C'est pour mes babtous2</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Seth Gueko Ma Dalton, Ma Dalton À ses yeux j'suis un ange, elle s'demande d'où peut émaner ma haine Hommage à toutes les M.A.M.A.N 100 vraies, 100 naturelles J'traite les femmes comme des princesses, car j'fus élevé par une reine J'me fous d'faire pleurer la leur tant qu'j'fais pas pleurer la mienne Dès qu'j'trouve pas un t-shirt, direct elle me le ramène C'est pire qu'une magicienne, j'fais un trou elle le raccommode Dis-le à personne, j'cache même des trucs dans sa commode J'irai pas jusqu'à braquer l'podologue Même si les clés du Paradis s'cachent sous les pieds d'ma daronne Elle squatte la fenêtre, pire qu'une parabole, Zdededelove à celle qu'on surnomme... Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Y'a de la place dans son cur, comme dans une Porsche Panamera Les gars, éteignez vos joints quand Madame est là Ses yeux c'est des caméras, elle sait tout d'moi comme une cartomancienne Les go' sont jalouses d'voir comme on s'aime Pas d'sacoche Lancel, ni de sac L.V C'est tout pour ses enfants, ouais, c'est comme ça qu'elle vit Elle t'aurait mis une lime dans l'gâteau pour qu'tu scies tes barreaux Pour elle la bande à Sarko, c'est la race après l'crapaud Ouais c'est comme ça qu'elle dit Pour elle, tu l'insultes si tu lui offres un sac Fendi Elle préférerait l'revendre pour remplir le frigo-gidaire Cherche pas chérie, c'est elle la prioritaire You might also like Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Je sais que je n'pourrai jamais rembourser les larmes que jt'ai fait couler Comment pourrais-je me faire pardonner ? Ma Dalton Tu es ma plus belle fierté, mon plus belle exemple de dignité Comment me faire pardonner ? Ma mère c'est ta mère, si tu lui portes les ses-cour Elle t'ouvrira la porte de secours si les porcs te ser-cour Ma mère c'est ta mère, c'est la tantine à tout l'monde C'est comme la mer c'est la piscine à tout l'monde Ma mère c'est ta mère, si tu lui pousses le caddie Elle t'ouvre la porte du cagibi si l'KGB te poursuit Que Dieu m'pardonne d'avoir parlé mal à la daronne J'recommencerai pas, elle a ma parole Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Seth Gueko, Soprano Ma Dalton Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Seth Gueko Ma Dalton, Ma Dalton À ses yeux j'suis un ange, elle s'demande d'où peut émaner ma haine Hommage à toutes les M.A.M.A.N 100 vraies, 100 naturelles J'traite les femmes comme des princesses, car j'fus élevé par une reine J'me fous d'faire pleurer la leur tant qu'j'fais pas pleurer la mienne Dès qu'j'trouve pas un t-shirt, direct elle me le ramène C'est pire qu'une magicienne, j'fais un trou elle le raccommode Dis-le à personne, j'cache même des trucs dans sa commode J'irai pas jusqu'à braquer l'podologue Même si les clés du Paradis s'cachent sous les pieds d'ma daronne Elle squatte la fenêtre, pire qu'une parabole, Zdededelove à celle qu'on surnomme... Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Y'a de la place dans son cur, comme dans une Porsche Panamera Les gars, éteignez vos joints quand Madame est là Ses yeux c'est des caméras, elle sait tout d'moi comme une cartomancienne Les go' sont jalouses d'voir comme on s'aime Pas d'sacoche Lancel, ni de sac L.V C'est tout pour ses enfants, ouais, c'est comme ça qu'elle vit Elle t'aurait mis une lime dans l'gâteau pour qu'tu scies tes barreaux Pour elle la bande à Sarko, c'est la race après l'crapaud Ouais c'est comme ça qu'elle dit Pour elle, tu l'insultes si tu lui offres un sac Fendi Elle préférerait l'revendre pour remplir le frigo-gidaire Cherche pas chérie, c'est elle la prioritaire Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Je sais que je n'pourrai jamais rembourser les larmes que jt'ai fait couler Comment pourrais-je me faire pardonner ? Ma Dalton Tu es ma plus belle fierté, mon plus belle exemple de dignité Comment me faire pardonner ? Ma mère c'est ta mère, si tu lui portes les ses-cour Elle t'ouvrira la porte de secours si les porcs te ser-cour Ma mère c'est ta mère, c'est la tantine à tout l'monde C'est comme la mer c'est la piscine à tout l'monde Ma mère c'est ta mère, si tu lui pousses le caddie Elle t'ouvre la porte du cagibi si l'KGB te poursuit Que Dieu m'pardonne d'avoir parlé mal à la daronne J'recommencerai pas, elle a ma parole Ma Dalton, elle est ma seule et mon unique loi Combien de treillis elle a porté pour moi ? Pour elle, je mourrai comme un soldat Ma Dalton, mon paradis est entre ses bras Combien de barreaux elle a scié pour moi ? Ma Dalton Seth Gueko, Soprano Ma Dalton Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alk' putain dpote Yah, Seth Gueko Fais péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier Pute, y a aucune ambiguïté pute, jai toujours envie d'niquer pute J'viens tous vous vampiriser, toi, tes qu'une antiquité pute Jessaie d'tout anticiper pute, évite la mendicité pute Sucez mon gland irrité suce, sur vous, jai envie d'pisser pu-pu-pute Tous tes putains de rappeurs sont atteints de névrose toutes ces putes Ils savent pourtant très bien que mes rimes sont merveilleuses toutes mes rimes Sale pute, ta chatte et ton visage ont les lèvres roses gueule de chienne Lépreuse, quand tu me suces la bite, je ferme les yeuz suce J'fume les produits pharmaceutique dAmérique du Nord, tu sais cest qui l'plus fort wow Jai la calvitie, j'suis obligé d'me raser le crâne comme Éric Judor wow Pédé, tu dors pendant c'temps là, j'prends les clefs du coffre Salope, obligé d'me repentir alors pardonne-moi si jt'ai fait du tort pute pute pute pute Fait péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier You might also like Je nai pas faim, je nai pas soif mais je vais les boire je vais les boire Viens pas me ler-par, jsuis à la salle que pour lever les barres lever les barres Quand je rentre tard elle me sent les doigts, elle me sent le dar Moi, je te baise dans la piscine et la baignoire comme Jean-Édouard Vous en faites pas toute une histoire, ni même une secret story La vérité r'monte toujours à la surface comme le p'tit Gregory pu-pu-pu-pute Il me faut du pèze, du cash, du fric illico fric illico Je suis Luke Cage avec du vitiligo Vintage et very rare sont mes sunglasses Je te baise, j'prends mon p'tit déj' et je me casse ciao bella La coke arrive par le réseau, lEmpereur d'la Crasserie, cest pas Lorenzo Découpe comme la machette à Danny Trejo, ma barbe sur ta chatte, ça fait velcro Fait péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier</t>
+          <t>Alk' putain dpote Yah, Seth Gueko Fais péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier Pute, y a aucune ambiguïté pute, jai toujours envie d'niquer pute J'viens tous vous vampiriser, toi, tes qu'une antiquité pute Jessaie d'tout anticiper pute, évite la mendicité pute Sucez mon gland irrité suce, sur vous, jai envie d'pisser pu-pu-pute Tous tes putains de rappeurs sont atteints de névrose toutes ces putes Ils savent pourtant très bien que mes rimes sont merveilleuses toutes mes rimes Sale pute, ta chatte et ton visage ont les lèvres roses gueule de chienne Lépreuse, quand tu me suces la bite, je ferme les yeuz suce J'fume les produits pharmaceutique dAmérique du Nord, tu sais cest qui l'plus fort wow Jai la calvitie, j'suis obligé d'me raser le crâne comme Éric Judor wow Pédé, tu dors pendant c'temps là, j'prends les clefs du coffre Salope, obligé d'me repentir alors pardonne-moi si jt'ai fait du tort pute pute pute pute Fait péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier Je nai pas faim, je nai pas soif mais je vais les boire je vais les boire Viens pas me ler-par, jsuis à la salle que pour lever les barres lever les barres Quand je rentre tard elle me sent les doigts, elle me sent le dar Moi, je te baise dans la piscine et la baignoire comme Jean-Édouard Vous en faites pas toute une histoire, ni même une secret story La vérité r'monte toujours à la surface comme le p'tit Gregory pu-pu-pu-pute Il me faut du pèze, du cash, du fric illico fric illico Je suis Luke Cage avec du vitiligo Vintage et very rare sont mes sunglasses Je te baise, j'prends mon p'tit déj' et je me casse ciao bella La coke arrive par le réseau, lEmpereur d'la Crasserie, cest pas Lorenzo Découpe comme la machette à Danny Trejo, ma barbe sur ta chatte, ça fait velcro Fait péter l'son dans ta caisse, ça, cest obligé obligatoire Envoyer des mandats aux potes au habs, cest obligé obligatoire Faire un détour chez la daronne pour manger, cest obligé obligatoire Qui tuera Philipp Plein ? Philipp Plein a tué Audigier</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>On met que du 18k gourmet, pépites et colliers Fils, j'suis Professeur punchlines, tu nes qu'un petit écolier J'squatte les cages descaliers et j'ai fait le tour d'la planète Ces fils de putes de poulets, j'les aime que dans les boîtes de nuggets Des broliques, des MAC-10, à chaque thème, c'est ça que t'aime Toujours en garde comme un takaten, Cartier bagatelle J'bois la Ghost, j'prends la Ghost avec du jus Jafaden Jtenfile comme un bas Lacoste et j'te graille comme un falafel Jsuis un loup affamé comme Logan, j'ai écouté tes sons, ils sont bas de gamme Puissant comme Naruto, j'ai le rasengan, dans tous les domaines, y a que moi qui gagne La police départementale voudrait nous trouer comme de l'emmental Y a rien dmagique, gars, tout est dans le mental, 95310, c'est le code postal Comme des mmes-gra, bah, ton corps, on l'pèse, j'suis cabochard comme 25 èj Y a des mouchards donc mes potes se taisent, au quartier, ça vend d'la drogue de synthèse T'es une salope, y a pas d'hypothèse, elle est dure et nan, c'est pas une prothèse On veut toucher l'sommet comme des hôtesses J'veux trois mille euros dans la che-po, la patate et la beuh cachées sous le che-por J'donnerai aucun blase de mes gars dans ces porcs, j'veux rouler sur tous mes ennemis en sche-Por, hey J'ai la casquette pas la couronne, application jusqu'à Évry-Courcouronnes Tu veux m'sucer ? C'est mort si t'as des couronnes Tu veux m'sucer ? C'est mort si t'as des couronnes Y a des gars, c'est de mythos, se font gonfler une fois au mitard J'ai pas que les yeux à Obito mais aussi la mentale d'un motard J'te-ma son boule quand elle marche, y a des vagues, j'lui mets des fessées, elle sent aussi mes bagues Ça détaille des cents g' avec des dagues, c'est quand je tise un peu qu'après, je divague Ça secoue les locs à la mort comme si on tenait pas à la vie J'connais les vrais ,c'est la famille d'abord, fusillade dehors te mets pas à la vitre Totalement impliqué dans les bails, j'ai grandi donc maintenant, j'veux d'la maille Ne t'étonne pas nos vies sont pas les même mais quand y a la BAC, c'est tout le monde qui taille On est sur le corner et ça va, dans le hall, ça pue mais y a des savons T'as le cochi cabossé, t'es pas savant, j'partage mes plavons à mes gavons J'partage mes plavons à mes gavons La tos, la tos, la tos, Seth Gueks You might also like On met que du 18k gourmet, pépites et colliers Fils, j'suis Professeur punchlines, tu n'es qu'un petit écolier J'squatte les cages d'escaliers et j'ai fait le tour d'la planète Ces fils de putes de poulets, j'les aime que dans les boîtes de nuggets Des broliques, des MAC-10, à chaque thème, c'est ça que t'aime Toujours en garde comme un takaten, Cartier bagatelle J'bois la Ghost, j'prend la Ghost avec du jus Jafaden J't'enfile comme un bas Lacoste et j'te graille comme un falafel Ça fera l'affaire La tos, Seth Gueks Le père, le fils, ça fera l'affaire Saint-Ouen l'Aumône tieks 95310, sbleks</t>
+          <t>On met que du 18k gourmet, pépites et colliers Fils, j'suis Professeur punchlines, tu nes qu'un petit écolier J'squatte les cages descaliers et j'ai fait le tour d'la planète Ces fils de putes de poulets, j'les aime que dans les boîtes de nuggets Des broliques, des MAC-10, à chaque thème, c'est ça que t'aime Toujours en garde comme un takaten, Cartier bagatelle J'bois la Ghost, j'prends la Ghost avec du jus Jafaden Jtenfile comme un bas Lacoste et j'te graille comme un falafel Jsuis un loup affamé comme Logan, j'ai écouté tes sons, ils sont bas de gamme Puissant comme Naruto, j'ai le rasengan, dans tous les domaines, y a que moi qui gagne La police départementale voudrait nous trouer comme de l'emmental Y a rien dmagique, gars, tout est dans le mental, 95310, c'est le code postal Comme des mmes-gra, bah, ton corps, on l'pèse, j'suis cabochard comme 25 èj Y a des mouchards donc mes potes se taisent, au quartier, ça vend d'la drogue de synthèse T'es une salope, y a pas d'hypothèse, elle est dure et nan, c'est pas une prothèse On veut toucher l'sommet comme des hôtesses J'veux trois mille euros dans la che-po, la patate et la beuh cachées sous le che-por J'donnerai aucun blase de mes gars dans ces porcs, j'veux rouler sur tous mes ennemis en sche-Por, hey J'ai la casquette pas la couronne, application jusqu'à Évry-Courcouronnes Tu veux m'sucer ? C'est mort si t'as des couronnes Tu veux m'sucer ? C'est mort si t'as des couronnes Y a des gars, c'est de mythos, se font gonfler une fois au mitard J'ai pas que les yeux à Obito mais aussi la mentale d'un motard J'te-ma son boule quand elle marche, y a des vagues, j'lui mets des fessées, elle sent aussi mes bagues Ça détaille des cents g' avec des dagues, c'est quand je tise un peu qu'après, je divague Ça secoue les locs à la mort comme si on tenait pas à la vie J'connais les vrais ,c'est la famille d'abord, fusillade dehors te mets pas à la vitre Totalement impliqué dans les bails, j'ai grandi donc maintenant, j'veux d'la maille Ne t'étonne pas nos vies sont pas les même mais quand y a la BAC, c'est tout le monde qui taille On est sur le corner et ça va, dans le hall, ça pue mais y a des savons T'as le cochi cabossé, t'es pas savant, j'partage mes plavons à mes gavons J'partage mes plavons à mes gavons La tos, la tos, la tos, Seth Gueks On met que du 18k gourmet, pépites et colliers Fils, j'suis Professeur punchlines, tu n'es qu'un petit écolier J'squatte les cages d'escaliers et j'ai fait le tour d'la planète Ces fils de putes de poulets, j'les aime que dans les boîtes de nuggets Des broliques, des MAC-10, à chaque thème, c'est ça que t'aime Toujours en garde comme un takaten, Cartier bagatelle J'bois la Ghost, j'prend la Ghost avec du jus Jafaden J't'enfile comme un bas Lacoste et j'te graille comme un falafel Ça fera l'affaire La tos, Seth Gueks Le père, le fils, ça fera l'affaire Saint-Ouen l'Aumône tieks 95310, sbleks</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yeah Seth Gueks Han Jsuis blanc mais jai les idées noires Si ya trop dmorts sur les routes, alors jvais aller rouler sur ltrottoir Mes diamants deviennent saphirs quand ya les gyrophares Ya pas dmitraillettes à gauche, encore moins dmitraillettes à droite Les condés tirent dans la poire comme dans Gears of War Ya pas pire quêtre tué et partir sans dire au revoir La rue cest lFar West, même si des fois on casse des barres Face aux longues peines, seules les vraies femmes restent, les tasses-pés partent Tfaçon lhebs cest lretour à la case départ Lévasion cest comme le mafé, ça sprépare Wesh XXX, cest un cercueil avec des hublots Mieux vaut avoir une main baladeuse sur lboul quune main courante sur ldos Jmontre jamais qujai mal comme un cabot Ça fait 10 ans qujai pas vu mon cur, ni mes abdos Jmontre jamais qujai mal comme un cabot Jmontre jamais qujai mal comme un cabot Il pleut des cordes, il fait un temps à spendre Jai jamais fumé jpourrai jamais mfaire descendre Jsuis un cabot, jai toujours un os à ronger Avant dfinir sur lboulevard des allongés You might also like Jai eu des doubles vies mais jaurai quune seule mort 18 carats tatoués sur le pec, car jsuis un mec en or Elles ont des sacs grâce à leur chatte, cest hardcore Moi jveux une baraque grâce à ma queue, comme les castors La mort envoie pas dcartons dinvitation Faut un cimetière entier pour enterrer ma vie de garçon Passe à mes côtés si tu veux frôler la perfection Jai rêvé qujtuais ma femme, en mréveillant jai crié pardon ! Jdeviens fou, jpète un lon-bou Jai un fusil, ya pas dpétale au bout Chérie, en zombies déguisés, on va smarier Comme ça, même la mort npourra nous séparer Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
+          <t>Yeah Seth Gueks Han Jsuis blanc mais jai les idées noires Si ya trop dmorts sur les routes, alors jvais aller rouler sur ltrottoir Mes diamants deviennent saphirs quand ya les gyrophares Ya pas dmitraillettes à gauche, encore moins dmitraillettes à droite Les condés tirent dans la poire comme dans Gears of War Ya pas pire quêtre tué et partir sans dire au revoir La rue cest lFar West, même si des fois on casse des barres Face aux longues peines, seules les vraies femmes restent, les tasses-pés partent Tfaçon lhebs cest lretour à la case départ Lévasion cest comme le mafé, ça sprépare Wesh XXX, cest un cercueil avec des hublots Mieux vaut avoir une main baladeuse sur lboul quune main courante sur ldos Jmontre jamais qujai mal comme un cabot Ça fait 10 ans qujai pas vu mon cur, ni mes abdos Jmontre jamais qujai mal comme un cabot Jmontre jamais qujai mal comme un cabot Il pleut des cordes, il fait un temps à spendre Jai jamais fumé jpourrai jamais mfaire descendre Jsuis un cabot, jai toujours un os à ronger Avant dfinir sur lboulevard des allongés Jai eu des doubles vies mais jaurai quune seule mort 18 carats tatoués sur le pec, car jsuis un mec en or Elles ont des sacs grâce à leur chatte, cest hardcore Moi jveux une baraque grâce à ma queue, comme les castors La mort envoie pas dcartons dinvitation Faut un cimetière entier pour enterrer ma vie de garçon Passe à mes côtés si tu veux frôler la perfection Jai rêvé qujtuais ma femme, en mréveillant jai crié pardon ! Jdeviens fou, jpète un lon-bou Jai un fusil, ya pas dpétale au bout Chérie, en zombies déguisés, on va smarier Comme ça, même la mort npourra nous séparer Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chicots en or, comme JoeyStarr Jsuis recouvert de tatouages de loubard, comme JoeyStarr Jserais nominé aux Césars, comme JoeyStarr Jsuis dans les faits divers, jte nique ta mère comme JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, jsuis comme JoeyStarr Yeah, buenos días, on mappelle le démonte pneus, pas bsoin daller au Midas Cest lflow du glaive à Léonidas MC, poucave, keuf, tout lmonde y passe Jfais cque jveux, jai lpermis dchasse Protégez les oreilles chastes Si les femmes ont des jambes cest pour pas laisser des traces comme les limaces Cache les noiches, voilà lURSSAF Lenfer remonte à la surface Chaque matin jai la tête dans lcul, heureusement qujai pas la chiasse Tu connais ldicton, ma couillasse Une de perdue, dix de retrouées On va tla mettre si profonde qu'même Christophe Colomb pourra pas la retrouver Non, non, ce nest pas la quenelle à Dieudo Cest la taille du chibre long comme la trompe à Dumbo Tas mal aux chicots, soigne-toi par la weed, gros Tas pas de zetla, jette-toi par la window MC, crache pas sur la Twingo Tu nrouleras pas en Féfé Ma bite est un chèque que ta schneck ne pourra pas encaisser You might also like Hipster, tu frôles la mort si je teffleure Jpaie pas les putes, disons que jleur donne dlargent pour acheter des fleurs Mes punchlines déflorent tes oreilles chastes de petite sur Personne ne croit tes histoires de mytho, de remixeur Cette bimbo a un corps qui casse le crâne, PaulLoupSulitzer Je me questionne, jaimerais vraiment savoir la somme du fric quelle te michtonne Comme jaimerais vraiment pas sentir lhaleine dun rôdeur Ni lodeur des chaussettes à Daryl, encore moins celle du string de Michonne Cest Smith qui fait une passe à Wesson, qui centre et qui tire Jack Dada comme elixir, bande de moutons, cest lAïd el-Kébir Linstru jlui casse la tirelire Nique le triple K et le Massachusetts Jenvoie mes tweets et messages en live and direct dun massage-sucette 1</t>
+          <t>Chicots en or, comme JoeyStarr Jsuis recouvert de tatouages de loubard, comme JoeyStarr Jserais nominé aux Césars, comme JoeyStarr Jsuis dans les faits divers, jte nique ta mère comme JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, Joey Joey JoeyStarr JoeyStarr, jsuis comme JoeyStarr Yeah, buenos días, on mappelle le démonte pneus, pas bsoin daller au Midas Cest lflow du glaive à Léonidas MC, poucave, keuf, tout lmonde y passe Jfais cque jveux, jai lpermis dchasse Protégez les oreilles chastes Si les femmes ont des jambes cest pour pas laisser des traces comme les limaces Cache les noiches, voilà lURSSAF Lenfer remonte à la surface Chaque matin jai la tête dans lcul, heureusement qujai pas la chiasse Tu connais ldicton, ma couillasse Une de perdue, dix de retrouées On va tla mettre si profonde qu'même Christophe Colomb pourra pas la retrouver Non, non, ce nest pas la quenelle à Dieudo Cest la taille du chibre long comme la trompe à Dumbo Tas mal aux chicots, soigne-toi par la weed, gros Tas pas de zetla, jette-toi par la window MC, crache pas sur la Twingo Tu nrouleras pas en Féfé Ma bite est un chèque que ta schneck ne pourra pas encaisser Hipster, tu frôles la mort si je teffleure Jpaie pas les putes, disons que jleur donne dlargent pour acheter des fleurs Mes punchlines déflorent tes oreilles chastes de petite sur Personne ne croit tes histoires de mytho, de remixeur Cette bimbo a un corps qui casse le crâne, PaulLoupSulitzer Je me questionne, jaimerais vraiment savoir la somme du fric quelle te michtonne Comme jaimerais vraiment pas sentir lhaleine dun rôdeur Ni lodeur des chaussettes à Daryl, encore moins celle du string de Michonne Cest Smith qui fait une passe à Wesson, qui centre et qui tire Jack Dada comme elixir, bande de moutons, cest lAïd el-Kébir Linstru jlui casse la tirelire Nique le triple K et le Massachusetts Jenvoie mes tweets et messages en live and direct dun massage-sucette 1</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ok, c'est pas le remix, c'est le RueMix Guek's dis leur... Ok ! Ma couillasse, dis rien sur ton capital comme Omar Harfouch Si t'as une bécane ou si t'es fermier tords pas ta fourche Goûte pas la chnouf, tu pourrais aimer Nom de Diou, au risque de t'faire enfermer ouvre pas ta bouche Reste motus, bouche cousue, marche qu'avec des bougs couillus Mets pas la langue si elle a la choune touffue Ou t'auras un bouc à la mouille Mon rap c'est une grande cuillère de soupe à la couille Joue pas les rioules, ou l'sheriff t'allumera J'prend du poids mais j'le vois pas comme Sheryfa Luna Laisse le bif et khouya, nous on bouffe pas d'la rouille Tant qu'le hebs nous pendra au nez comme de la khnouna Le code de ma rue c'est l'honneur, tous pour un, un pour tous Tu sors ton surin, c'est mort y'a des armes qui toussent Fais la maille, évite les filets Dans les halls les sas ou les rapaces aiment se faufiler La taule faut assumer, esquiver la volaille, fuck ses ennemis N'encule pas tes amis même si tous les coups sont permis Le ghetto crapuleux là ou le crime paie Quand il y a manque de respect vois les morts sans suspect gros Ne pas laisser des frères dans la merde gros Fais tes affaires dans l'bizz, ait du flair gros Traîne qu'avec des hommes de confiance Bannit les salopes et ceux qui balancent, ils méritent que nos phalanges You might also like J'crache l'harmonie des temps modernes Qui interprète le nouveau Western ? Les coups de pompes ne viennent pas de CNN Marly-Gomont c'est pas nos HLM La guillotine c'est pour nos moutons hallal Je suis le quartier, je te dicte ma modeste grammaire Le monde est stone en programme scolaire Dis machallah guiniard, fort possible que tu m'croise dans ta rue en train d'aider ta mère Ayla Hallam si tu parles derrière J'm'en bats les claouis ah oui, mon fils en piwi ah oui Torse nue, grain d'café jusqu'au nombril ah oui Plus charmant qu'son père Fais lui le bisou mignonne, j'suis dans le bloc j'mise mon poker Si tu veux qu'on t'respecte gros Applique le code de la rue papé Applique le code de la rue Respecte le code de la rue the code of the street Si tu veux qu'on t'respecte gros Applique le code de la rue Applique le code de la rue Respecte le code de la rue Quand une meuf crie, on met son cul et son sac dehors Quand la daronne crie, on baisse la tête Quand la dalle crie, on fait d'l'oseille Quand un chtar s'excite, on surveille son gun, quand le daron crie, on ferme sa gueule Tu carotte un grossiste mon pote T'auras pas autant de renforts s'il s'agit de grosse drogue Trouve un pompe, mais pose pas de main-courante Trahis pas le code, la loi du silence t'interdit de déposer plainte Fuck les potes, fais les pépètes, qu'est-ce qui me prennent la tête avec leur fête Pour un p'tit cul, sa finit en Breteteteh On est plus proches de Piranha que du Saumon Du braquo que de l'Aumône, du terroriste que de l'homo Eh cousine regarde droit devant toi quand une bande de scarlas te mate Si elle a bavé sur oi-t quand tu la revois mets lui une droite Ton cur est trop fragile, enferme le dans l'bitume Ton nom ils le salissent si ton cul circule La tise, les spliffs, jamais devant la mater Prends soin des p'tites soeurs et respecte les grands frères Te laisse pas faire ouvre ta gueule si on t'prend pour une crasseuse Quand les flics te questionnent, mets la en mode silencieuse Joue pas les allumeuses d'vant l'keum de ta pine-co Dans ma clique, que des ghetto entrepreneuses, pas de michtos Tu connais le code de la street soeurette Applique le a la lettre si tu veux qu'on t'respecte Ok que mes bougzer de la streetzer lèvent la main en l'air Chargent le clic-clic et shoot dans les airs Gars la rue c'est pas ta daronne Et les putes neg' aimeraient t'humilier, jubiler si y'a les condés qui te talonnent Y'a des mines, et je slalome Entre les faux freres, les ex freres, les putes freres, Materazzi et les salopes Beaucoup de zoulouterie, très peu de bonhommes Vous n'respectez pas la street, rangez vous en colonne Qu'on vous gifle, vous n'méritez pas qu'on ferme nos poings 91 CNL on est trop fiers du coin C'est le code, soldat fait tes guizgui Négro j'fais mes bails, mon coeur est glacé si j'dois te caner ben ça m'est égal Ok j'suis un vrai gars Ca m'est égal d'avoir le buzz dans les médias j'ai l'buzz dans les tures-voi J'traine dans la rue en toute tranquillité Suis mes traces, t'es sur le chemin de la crédibilité Faire de l'oseille, être frais, jusquà la mort être vrai Tu peux peux acheter un Cayenne, mais t'achète pas le respect Petit, trouve une arme si un mec veut ta peau Trouve un taff si t'as peur de la taule Quand tu regardais Dragon Ball, moi je dealais dans l'hall De-de-dealais dans le hall, dealais dans le hall Dans la rue j'ai pris des thunes, et j'y ai laissé des plumes Belek, à la cité y'a les potes et les putes Si tu veux qu'on t'respecte gros Applique le code de la rue Prends soin des p'tites soeurs et respecte les grands frères Respecte le code de la rue the code of the street Si tu veux qu'on t'respecte gros Applique le code de la rue Cette vie, c'est la tienne c'est aussi la mienne C'est le code de la rue, i faut que tu lapprenne</t>
+          <t>Ok, c'est pas le remix, c'est le RueMix Guek's dis leur... Ok ! Ma couillasse, dis rien sur ton capital comme Omar Harfouch Si t'as une bécane ou si t'es fermier tords pas ta fourche Goûte pas la chnouf, tu pourrais aimer Nom de Diou, au risque de t'faire enfermer ouvre pas ta bouche Reste motus, bouche cousue, marche qu'avec des bougs couillus Mets pas la langue si elle a la choune touffue Ou t'auras un bouc à la mouille Mon rap c'est une grande cuillère de soupe à la couille Joue pas les rioules, ou l'sheriff t'allumera J'prend du poids mais j'le vois pas comme Sheryfa Luna Laisse le bif et khouya, nous on bouffe pas d'la rouille Tant qu'le hebs nous pendra au nez comme de la khnouna Le code de ma rue c'est l'honneur, tous pour un, un pour tous Tu sors ton surin, c'est mort y'a des armes qui toussent Fais la maille, évite les filets Dans les halls les sas ou les rapaces aiment se faufiler La taule faut assumer, esquiver la volaille, fuck ses ennemis N'encule pas tes amis même si tous les coups sont permis Le ghetto crapuleux là ou le crime paie Quand il y a manque de respect vois les morts sans suspect gros Ne pas laisser des frères dans la merde gros Fais tes affaires dans l'bizz, ait du flair gros Traîne qu'avec des hommes de confiance Bannit les salopes et ceux qui balancent, ils méritent que nos phalanges J'crache l'harmonie des temps modernes Qui interprète le nouveau Western ? Les coups de pompes ne viennent pas de CNN Marly-Gomont c'est pas nos HLM La guillotine c'est pour nos moutons hallal Je suis le quartier, je te dicte ma modeste grammaire Le monde est stone en programme scolaire Dis machallah guiniard, fort possible que tu m'croise dans ta rue en train d'aider ta mère Ayla Hallam si tu parles derrière J'm'en bats les claouis ah oui, mon fils en piwi ah oui Torse nue, grain d'café jusqu'au nombril ah oui Plus charmant qu'son père Fais lui le bisou mignonne, j'suis dans le bloc j'mise mon poker Si tu veux qu'on t'respecte gros Applique le code de la rue papé Applique le code de la rue Respecte le code de la rue the code of the street Si tu veux qu'on t'respecte gros Applique le code de la rue Applique le code de la rue Respecte le code de la rue Quand une meuf crie, on met son cul et son sac dehors Quand la daronne crie, on baisse la tête Quand la dalle crie, on fait d'l'oseille Quand un chtar s'excite, on surveille son gun, quand le daron crie, on ferme sa gueule Tu carotte un grossiste mon pote T'auras pas autant de renforts s'il s'agit de grosse drogue Trouve un pompe, mais pose pas de main-courante Trahis pas le code, la loi du silence t'interdit de déposer plainte Fuck les potes, fais les pépètes, qu'est-ce qui me prennent la tête avec leur fête Pour un p'tit cul, sa finit en Breteteteh On est plus proches de Piranha que du Saumon Du braquo que de l'Aumône, du terroriste que de l'homo Eh cousine regarde droit devant toi quand une bande de scarlas te mate Si elle a bavé sur oi-t quand tu la revois mets lui une droite Ton cur est trop fragile, enferme le dans l'bitume Ton nom ils le salissent si ton cul circule La tise, les spliffs, jamais devant la mater Prends soin des p'tites soeurs et respecte les grands frères Te laisse pas faire ouvre ta gueule si on t'prend pour une crasseuse Quand les flics te questionnent, mets la en mode silencieuse Joue pas les allumeuses d'vant l'keum de ta pine-co Dans ma clique, que des ghetto entrepreneuses, pas de michtos Tu connais le code de la street soeurette Applique le a la lettre si tu veux qu'on t'respecte Ok que mes bougzer de la streetzer lèvent la main en l'air Chargent le clic-clic et shoot dans les airs Gars la rue c'est pas ta daronne Et les putes neg' aimeraient t'humilier, jubiler si y'a les condés qui te talonnent Y'a des mines, et je slalome Entre les faux freres, les ex freres, les putes freres, Materazzi et les salopes Beaucoup de zoulouterie, très peu de bonhommes Vous n'respectez pas la street, rangez vous en colonne Qu'on vous gifle, vous n'méritez pas qu'on ferme nos poings 91 CNL on est trop fiers du coin C'est le code, soldat fait tes guizgui Négro j'fais mes bails, mon coeur est glacé si j'dois te caner ben ça m'est égal Ok j'suis un vrai gars Ca m'est égal d'avoir le buzz dans les médias j'ai l'buzz dans les tures-voi J'traine dans la rue en toute tranquillité Suis mes traces, t'es sur le chemin de la crédibilité Faire de l'oseille, être frais, jusquà la mort être vrai Tu peux peux acheter un Cayenne, mais t'achète pas le respect Petit, trouve une arme si un mec veut ta peau Trouve un taff si t'as peur de la taule Quand tu regardais Dragon Ball, moi je dealais dans l'hall De-de-dealais dans le hall, dealais dans le hall Dans la rue j'ai pris des thunes, et j'y ai laissé des plumes Belek, à la cité y'a les potes et les putes Si tu veux qu'on t'respecte gros Applique le code de la rue Prends soin des p'tites soeurs et respecte les grands frères Respecte le code de la rue the code of the street Si tu veux qu'on t'respecte gros Applique le code de la rue Cette vie, c'est la tienne c'est aussi la mienne C'est le code de la rue, i faut que tu lapprenne</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Yo yo Seth Guex Barlou, barlou, barlou La batte de baseball est mon nouveau glaive Mesdemoiselles, j'exauce tous vos rêves Que les haters et les loux-ja crèvent Les mecs d'aujourd'hui ont les cheveux long, bientôt mettront-ils du rouge à lèvres ? Comme les hermaphrodites Tu fais tiep' ,dans ton clip personne n'a mis sa tête T'es comme Anissa Kate t'aimes l'afro-bite J'préfère de loin transettre au petit frère le rap de Mobb Deep T'es pas disque d'or, non t'es disque de cochon vu que tu te l'es offert dans une ferme a faux-clics On bicrave des pochons et je squatte la salle de cross-fit Bientôt quarante piges, j'suis toujours à la page et j'expose à la plage mes orteils de Hobbit J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it Bande dimbéciles, on a les missiles de la Navy Seal, j'aime les bas résilles, et y'a Barry Seal dans le cockpit T'as des lunettes noires mais tu peux plus les voir, t'es comme Gilbert Montagné, t'es hyper contrarié car tu verras jamais l'soleil des tropiques J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it Collé sur le frigo, sur les buffets, dans la cuisine J'oublierai pas de te niquer ta mère ainsi qu'ta cousine You might also like Parle pas pour rien pour rien ou les keufs te braquent Chaque couille est grosse comme un uf de Pâques Crache les lovés ou ta meuf te plaque Mais fais-le avec modération, elle fait plus d'opérations que la prof de maths Ouais de mathématiques J'sors de boite, je me commande un do-Mc et je comate jusqu'à seize heures, c'est la thématique Régalez-vous les moustiques, mon sang c'est du Château Lafite Que du narco-trafique La mort d'un jeune de cité est la seule chose qui chatouille un flic Elle me regarde, j'attends la suite Elle fait le grand écart, c'est une chatte olympique J'vais tout niquer et tu en seras témoin Pou-pou-poum j'tape des poings sur ma cage thoracique J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it Assume les critiques, pourquoi t'effaces les commentaires ? Si j'avais couru plus vite que le chien, je serais officiellement ton père La rime est fat, la rime est stock J'achète toutes mes baskets chez Larry Deadstock T'es qu'une grosse poucave T'as demandé des feats, mais on t'a mis des stops Zdelelelex Moi j'ai mis une coque sur mon portable, elle est protectrice Toi t'as mis de la coke sur ton portable et elle est destructrice J'oublierai pas de te niquer ta mère l'institutrice Et comme tous les soirs J'suis coincé au bar J'attends qu'on me sert à boire Nique le conservatoire, toi t'as le cancer de la voix Et on va savoir tôt ou tard si tu triches On va niquer le game en famille J'vais devoir envoyer mon fils zblax J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it Collé sur le frigo, sur les buffets, dans la cuisine J'oublierai pas de te niquer ta mère ainsi que ta cousine1</t>
+          <t>Yo yo Seth Guex Barlou, barlou, barlou La batte de baseball est mon nouveau glaive Mesdemoiselles, j'exauce tous vos rêves Que les haters et les loux-ja crèvent Les mecs d'aujourd'hui ont les cheveux long, bientôt mettront-ils du rouge à lèvres ? Comme les hermaphrodites Tu fais tiep' ,dans ton clip personne n'a mis sa tête T'es comme Anissa Kate t'aimes l'afro-bite J'préfère de loin transettre au petit frère le rap de Mobb Deep T'es pas disque d'or, non t'es disque de cochon vu que tu te l'es offert dans une ferme a faux-clics On bicrave des pochons et je squatte la salle de cross-fit Bientôt quarante piges, j'suis toujours à la page et j'expose à la plage mes orteils de Hobbit J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it Bande dimbéciles, on a les missiles de la Navy Seal, j'aime les bas résilles, et y'a Barry Seal dans le cockpit T'as des lunettes noires mais tu peux plus les voir, t'es comme Gilbert Montagné, t'es hyper contrarié car tu verras jamais l'soleil des tropiques J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it Collé sur le frigo, sur les buffets, dans la cuisine J'oublierai pas de te niquer ta mère ainsi qu'ta cousine Parle pas pour rien pour rien ou les keufs te braquent Chaque couille est grosse comme un uf de Pâques Crache les lovés ou ta meuf te plaque Mais fais-le avec modération, elle fait plus d'opérations que la prof de maths Ouais de mathématiques J'sors de boite, je me commande un do-Mc et je comate jusqu'à seize heures, c'est la thématique Régalez-vous les moustiques, mon sang c'est du Château Lafite Que du narco-trafique La mort d'un jeune de cité est la seule chose qui chatouille un flic Elle me regarde, j'attends la suite Elle fait le grand écart, c'est une chatte olympique J'vais tout niquer et tu en seras témoin Pou-pou-poum j'tape des poings sur ma cage thoracique J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas d'te niquer ta mère, non je l'ai mis sur un post-it Assume les critiques, pourquoi t'effaces les commentaires ? Si j'avais couru plus vite que le chien, je serais officiellement ton père La rime est fat, la rime est stock J'achète toutes mes baskets chez Larry Deadstock T'es qu'une grosse poucave T'as demandé des feats, mais on t'a mis des stops Zdelelelex Moi j'ai mis une coque sur mon portable, elle est protectrice Toi t'as mis de la coke sur ton portable et elle est destructrice J'oublierai pas de te niquer ta mère l'institutrice Et comme tous les soirs J'suis coincé au bar J'attends qu'on me sert à boire Nique le conservatoire, toi t'as le cancer de la voix Et on va savoir tôt ou tard si tu triches On va niquer le game en famille J'vais devoir envoyer mon fils zblax J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it J'oublierai pas de te niquer ta mère, non je l'ai mis sur un post-it Collé sur le frigo, sur les buffets, dans la cuisine J'oublierai pas de te niquer ta mère ainsi que ta cousine1</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Salam à toi jeune de tess, Salam aux désosseurs de caisses Salam à toi le camp de jouatanes, qui tuning même la caravane Salam à toi petit malinois, Salam aux faussaires Zaïrois Salam à toi , Salam à toi Evan Tanner Salam à toi tueur Tchécoslovaque, qui refait la déco couleur sauce tomate Salam à toi si tu biglouches, aux saintes-nitouches qu'ont les seins qui poussent Salam à toi le pock-picket, Salam à toi le roi de la disquette Salam à celles qui cachent leurs fesses, qui cuisinent comme dans Master Chef Salam à Rim-K du 113, Salam aux salles de boxe Anglaise Salam aussi aux frères mu-mu qui musclent leur foi au lieu de faire de la muscu Salam aux sorciers Béninois, Salam à tous les Jacques Mesrinois Salam à tous mes Kaiser saucisse, Salam aux braqueurs de bijouteries Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Salam au piloteurs de KX, Salam aux filocheurs dabistes Salam aux MILFS, cougars ou lionnes, aux victimes du boulevard Auriol Salam à la jet-set ivoirienne, nique sa race la jeunesse Hitlérienne Salam à tous les camionneurs et aux pichtaveurs de Johnny Walker Salam à tous les romanichels, Salam à ma mère elle s'appelle Michelle Salam à tous les free-fighters, Salam à mes potes ferrailleurs Salam aux pauvres, salam aux geoib', aux couples qui se passent la bague au oid' Salam à celles qui mettent le voile, pas a celles qui mettent les voiles Salam aux Nadia Winter, la version Arabe d'Ophélie Salam aux voleurs de marteau piqueur, qui sonnent au détecteur de ferraille Salam au actrice d'hard amat' qui passeront jamais sur la quatre Salam aussi à tous les pakat' ouvert h24 qui font pas de grasse mat' You might also like Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Salam à toi le SDF, qui dort dans le coffre d'une Mercedes.. Salam à tous les provinciaux qui trempent leurs spliffs dans du vin chaud Salam aux mécanos du dimanche, pistés par la brigade des finances Salam à toi qui pue de la gueule, qui sort de pub et qui dégueule Salam à tous les voyageurs et aux mamies qui sourient quand elles voient un jeune Salam aussi aux petits Kosovars, aux mères qui voient leurs fils au parloir Salam aux Robert denireufs, aux meufs de tess' car vous êtes mes petites reuss Salam aux mangeurs de bacalao et aux potes morts qui nous attendent là haut Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam House de kaïra</t>
+          <t>Salam à toi jeune de tess, Salam aux désosseurs de caisses Salam à toi le camp de jouatanes, qui tuning même la caravane Salam à toi petit malinois, Salam aux faussaires Zaïrois Salam à toi , Salam à toi Evan Tanner Salam à toi tueur Tchécoslovaque, qui refait la déco couleur sauce tomate Salam à toi si tu biglouches, aux saintes-nitouches qu'ont les seins qui poussent Salam à toi le pock-picket, Salam à toi le roi de la disquette Salam à celles qui cachent leurs fesses, qui cuisinent comme dans Master Chef Salam à Rim-K du 113, Salam aux salles de boxe Anglaise Salam aussi aux frères mu-mu qui musclent leur foi au lieu de faire de la muscu Salam aux sorciers Béninois, Salam à tous les Jacques Mesrinois Salam à tous mes Kaiser saucisse, Salam aux braqueurs de bijouteries Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Salam au piloteurs de KX, Salam aux filocheurs dabistes Salam aux MILFS, cougars ou lionnes, aux victimes du boulevard Auriol Salam à la jet-set ivoirienne, nique sa race la jeunesse Hitlérienne Salam à tous les camionneurs et aux pichtaveurs de Johnny Walker Salam à tous les romanichels, Salam à ma mère elle s'appelle Michelle Salam à tous les free-fighters, Salam à mes potes ferrailleurs Salam aux pauvres, salam aux geoib', aux couples qui se passent la bague au oid' Salam à celles qui mettent le voile, pas a celles qui mettent les voiles Salam aux Nadia Winter, la version Arabe d'Ophélie Salam aux voleurs de marteau piqueur, qui sonnent au détecteur de ferraille Salam au actrice d'hard amat' qui passeront jamais sur la quatre Salam aussi à tous les pakat' ouvert h24 qui font pas de grasse mat' Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Salam à toi le SDF, qui dort dans le coffre d'une Mercedes.. Salam à tous les provinciaux qui trempent leurs spliffs dans du vin chaud Salam aux mécanos du dimanche, pistés par la brigade des finances Salam à toi qui pue de la gueule, qui sort de pub et qui dégueule Salam à tous les voyageurs et aux mamies qui sourient quand elles voient un jeune Salam aussi aux petits Kosovars, aux mères qui voient leurs fils au parloir Salam aux Robert denireufs, aux meufs de tess' car vous êtes mes petites reuss Salam aux mangeurs de bacalao et aux potes morts qui nous attendent là haut Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam Shalom salam salut, je vous passe le salam House de kaïra</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>E... Beatz Barlou, barlou Yeah Pow, pow, pow J'découpe la rime au scalpel et elles me connaissent tous, j'ai la gueule et les bras à Popeye Si l'alcool c'est de l'eau, l'argent, c'est du papier, r'garde la Casa de Papel Gueko, barillet plein, c'est pas Philipp, non, c'est l'bar, il est plein, ba-ba-baw Un mec est mort, encore un gars qu'a pas payé, s'habiller cher veut pas dire s'habiller bien Elle vient de loin, j'lui payerai son billet d'train, avant d'me checker, va t'laver les mains C'est pas les renois qui s'ressemblent tous, non, c'est les nains T'es un m'as-tu-vu, un canard comme Saturnin, un brolique à la ceinture de marque Manurhin J'arrive à maturité comme Alix Mathurin, tu m'as poucave, t'es pas un homme, t'es une pute au masculin Han, han Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison Et oui j'vais rentrer, promis j'rentre bientôt Et oui j'vais rentrer, dans quelques euros Et j'aime pas les pièces, ça tombe toujours entre les sièges des autos J'aime bien finir dans les suites des hôtels, entre les cuisses des hôtesses qu'ont des gros masoko J'suis à Phuket à l'écart des impôts, j'écris comme Edgar Allan Poe Même si j'suis un barbare à la nan-Co, un viking à la Ragnar, j'suis pas une victime, Allahu akbar J'suis au bord d'la scine-pi avec un ssile-mi du level de Queen B, tout l'monde la r'garde, yeah J'préfère une pucelle qu'une qu'avale, une double-vie coûte plus cher qu'une cavale Cavalli, Zilli, Valentino, tu peux être une grosse pute et n'peser que cinquante kilos You might also like Han, han Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison Et oui j'vais rentrer, promis j'rentre bientôt Et oui j'vais rentrer, dans quelques euros Han Est-ce dans quelques euros, nan nan, laissés dans mon dos Que j'les vois pas mailler, j'les entends parler alors qu'ils m'appellent fréro Et j'cache pas la mitraillette, j'gratte pas l'amitié mais les allumettes T'es enfumé par la Californie, la mort, j'l'attends debout, pas assis, han han han Plus rien n'm'attire, ma belle, mettre les voiles, il en est p't-être temps Et y a pas de clarinette, parce que j'déteste le vent, han han Et j'suis navré, je sais pas c'qu'il se passe après, est-ce que j'suis navré ? nan nan nan Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison</t>
+          <t>E... Beatz Barlou, barlou Yeah Pow, pow, pow J'découpe la rime au scalpel et elles me connaissent tous, j'ai la gueule et les bras à Popeye Si l'alcool c'est de l'eau, l'argent, c'est du papier, r'garde la Casa de Papel Gueko, barillet plein, c'est pas Philipp, non, c'est l'bar, il est plein, ba-ba-baw Un mec est mort, encore un gars qu'a pas payé, s'habiller cher veut pas dire s'habiller bien Elle vient de loin, j'lui payerai son billet d'train, avant d'me checker, va t'laver les mains C'est pas les renois qui s'ressemblent tous, non, c'est les nains T'es un m'as-tu-vu, un canard comme Saturnin, un brolique à la ceinture de marque Manurhin J'arrive à maturité comme Alix Mathurin, tu m'as poucave, t'es pas un homme, t'es une pute au masculin Han, han Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison Et oui j'vais rentrer, promis j'rentre bientôt Et oui j'vais rentrer, dans quelques euros Et j'aime pas les pièces, ça tombe toujours entre les sièges des autos J'aime bien finir dans les suites des hôtels, entre les cuisses des hôtesses qu'ont des gros masoko J'suis à Phuket à l'écart des impôts, j'écris comme Edgar Allan Poe Même si j'suis un barbare à la nan-Co, un viking à la Ragnar, j'suis pas une victime, Allahu akbar J'suis au bord d'la scine-pi avec un ssile-mi du level de Queen B, tout l'monde la r'garde, yeah J'préfère une pucelle qu'une qu'avale, une double-vie coûte plus cher qu'une cavale Cavalli, Zilli, Valentino, tu peux être une grosse pute et n'peser que cinquante kilos Han, han Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison Et oui j'vais rentrer, promis j'rentre bientôt Et oui j'vais rentrer, dans quelques euros Han Est-ce dans quelques euros, nan nan, laissés dans mon dos Que j'les vois pas mailler, j'les entends parler alors qu'ils m'appellent fréro Et j'cache pas la mitraillette, j'gratte pas l'amitié mais les allumettes T'es enfumé par la Californie, la mort, j'l'attends debout, pas assis, han han han Plus rien n'm'attire, ma belle, mettre les voiles, il en est p't-être temps Et y a pas de clarinette, parce que j'déteste le vent, han han Et j'suis navré, je sais pas c'qu'il se passe après, est-ce que j'suis navré ? nan nan nan Tout le monde s'est fait péter, plus personne vient per-cho, p'tit reste à la maison Même au milieu d'l'été, chez nous il fait pas beau, y a qu'la poisse qui répond La rue, c'est un métier où les métaux ont toujours raison J'suis à la tête du réseau, à tes pieds mon bébé, pas d'guerre à la maison</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Elle a des flingues dans les prunelles mademoiselle a l'regard qui tue Elle va chez son leur-dea', ça sent l'rencard qui pue À qui l'dis-tu, elle aime voir défiler les bouteilles Mets qu'la haute couture de chez Moët Elle va finir sous une couette, s'faire tirer celle qu'elle a sur la tête Elle prend d'la métha', en fait-fait-fait elle aime faire la fête Elle est noctambule, pour elle le champagne c'est d'l'or en bulles D'la bijouterie pour vessie, d'la joaillerie pour urètre Elle dessine sur la cuvette, elle s'fait des traits sans crayon Du genre Petit Prince, s'te-plaît, dessine-moi un cacheton Du MD dans un pochon, ses yeux c'est deux feux xénons Le sang pisse de sa cloison, elle a sniffé son prénom Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine You might also like Laisse pas traîner ta fillette-ette, c'est toujours elle qui yèp-yèp À la poudre d'Elvira, elle ne dira jamais niet-niet Strass et balayettes-yettes, le trash et les paillettes-illettes Les bicraveurs de crasse ont mis du crack dans la layette-yette Guette-guette, les contes de fées sont pas toujours magiques Et même le marchand de sable te rebicrave la Blue Magic Est-ce magique ? Réagis, c'est bien pour ça que je te cause Ce n'est pas un train d'vie de vivre sur un rail de coke Et la cause ? Ambiance tendue, la rotte-ca, les drames Sous alcool, elle est défendue par la vodka du diable Les potes-ca, les larmes, leur vice, je le vois bien Fais gaffe à ta fille j'ai vu la vie de celle du voisin Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Princesse n'aime pas les surprises elle veut savoir quelle drogue elle pourra test Laisse pas traîner ta fille, ou son fils aura ma tête Da-darling, sang remplis d'strass, elle a sniffé les paillettes Nino Brown vend de tout, bienvenue aux Drogueries Lafayettes Sans MDMA, c'est Koh Lanta chacun son addiction Vodka-RedBull, coke, pilons qui va payer l'addition? La poudre d'ange donne un rythme maléfique, un peu comme Skrillex Elle dansera devant mes phares, parce que Princesse n'a pas d'complexes La voix du Diable chante Il m'en faut plus ! C'est pas assez ! L'héroïne du film n'est pas celle que l'on croit, dans l'bras, seringue USB Elle craque-craque-craque, donc elle en prend Les Doliprane c'est pas fiable, Papa ta fille t'raconte des fables,Amy Winehouse c'est No rehab Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Du mauvais côté du Paradis, où le Diable fait des emplettes Elle sait pas lire entre les lignes et prend la poudre d'escampette Jamais sans Caroline, en fait elle vit sans virgule, maudite tache de naissance Elle fête et fait son baptême du feu dans un bain d'essence Les anges circulent à Zombieland, cellules décapotables L'orgasme en pilule, elle danse avant qu'le Ciel fasse son bilan Comptable, vivre tue, j'sais plus où j'l'ai lu Elle perd contact avec le réel, elle perd contact avec le réel... Et braille en silence, chut... Elle lutte contre son reflet, vit en freelance, la mort c'est pas pour cette fois-ci Le sexe c'est une arme de poing, elle a la gâchette facile J'dépeins l'envers du décor, et derrière l'écran, sa vie une pâle copie C'est dare ce soir elle dort chez une copine-pine Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
+          <t>Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Elle a des flingues dans les prunelles mademoiselle a l'regard qui tue Elle va chez son leur-dea', ça sent l'rencard qui pue À qui l'dis-tu, elle aime voir défiler les bouteilles Mets qu'la haute couture de chez Moët Elle va finir sous une couette, s'faire tirer celle qu'elle a sur la tête Elle prend d'la métha', en fait-fait-fait elle aime faire la fête Elle est noctambule, pour elle le champagne c'est d'l'or en bulles D'la bijouterie pour vessie, d'la joaillerie pour urètre Elle dessine sur la cuvette, elle s'fait des traits sans crayon Du genre Petit Prince, s'te-plaît, dessine-moi un cacheton Du MD dans un pochon, ses yeux c'est deux feux xénons Le sang pisse de sa cloison, elle a sniffé son prénom Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Laisse pas traîner ta fillette-ette, c'est toujours elle qui yèp-yèp À la poudre d'Elvira, elle ne dira jamais niet-niet Strass et balayettes-yettes, le trash et les paillettes-illettes Les bicraveurs de crasse ont mis du crack dans la layette-yette Guette-guette, les contes de fées sont pas toujours magiques Et même le marchand de sable te rebicrave la Blue Magic Est-ce magique ? Réagis, c'est bien pour ça que je te cause Ce n'est pas un train d'vie de vivre sur un rail de coke Et la cause ? Ambiance tendue, la rotte-ca, les drames Sous alcool, elle est défendue par la vodka du diable Les potes-ca, les larmes, leur vice, je le vois bien Fais gaffe à ta fille j'ai vu la vie de celle du voisin Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Princesse n'aime pas les surprises elle veut savoir quelle drogue elle pourra test Laisse pas traîner ta fille, ou son fils aura ma tête Da-darling, sang remplis d'strass, elle a sniffé les paillettes Nino Brown vend de tout, bienvenue aux Drogueries Lafayettes Sans MDMA, c'est Koh Lanta chacun son addiction Vodka-RedBull, coke, pilons qui va payer l'addition? La poudre d'ange donne un rythme maléfique, un peu comme Skrillex Elle dansera devant mes phares, parce que Princesse n'a pas d'complexes La voix du Diable chante Il m'en faut plus ! C'est pas assez ! L'héroïne du film n'est pas celle que l'on croit, dans l'bras, seringue USB Elle craque-craque-craque, donc elle en prend Les Doliprane c'est pas fiable, Papa ta fille t'raconte des fables,Amy Winehouse c'est No rehab Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Du mauvais côté du Paradis, où le Diable fait des emplettes Elle sait pas lire entre les lignes et prend la poudre d'escampette Jamais sans Caroline, en fait elle vit sans virgule, maudite tache de naissance Elle fête et fait son baptême du feu dans un bain d'essence Les anges circulent à Zombieland, cellules décapotables L'orgasme en pilule, elle danse avant qu'le Ciel fasse son bilan Comptable, vivre tue, j'sais plus où j'l'ai lu Elle perd contact avec le réel, elle perd contact avec le réel... Et braille en silence, chut... Elle lutte contre son reflet, vit en freelance, la mort c'est pas pour cette fois-ci Le sexe c'est une arme de poing, elle a la gâchette facile J'dépeins l'envers du décor, et derrière l'écran, sa vie une pâle copie C'est dare ce soir elle dort chez une copine-pine Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Papa, ce soir, je dors... Chez une copine-pine-pine Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>À c't'heure-ci, faut un p'tit téléphone Un Smith Wesson Une go qu'aime griffer les hommes On fait du chiffre car on kiffe les belles sommes Tu veux snif mais as-tu l'bif this is the question En somme, on pense qu'à vider nos teubs Taffer dans un vidéo-club Tels sont nos idéaux d'thug, ouais Nos buts, nos putains d'objectifs Et comme y'a d'trop dékiz, on s'est mis en mode Gremlins Dégaine de grossistes, on s'laisse la barbe Viens dans ma tess' d'arabe ils t'baisent ta race si tu baisses la garde Beleck, tu laisses ta caisse, ils t'piquent tes jantes Bébé, si tu veux qu'l'un d'eux lèche ta schneck, épile tes jambes C'est l'son des têtes-à-têtes On a lADN à Ben Laden, mais on veut la BM à Ben Affleck J'ai sorti les baskets, pour shooter les tapettes Achète, achète, dans deux semaines on m'radie des Assdècs Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex ! You might also like Wesh tarlouze, on veut du rap tah les oufs Bouillants, nervous, qui règlent leurs dettes au fer rouge Sors le V12, chauffe la gomme, brûle la pelouse La stup' nique, nique sa grosse daronne, ouais Sous vodka pomme, mal rasé comme Joe Dalton J'suis sorti d'une chatte, j'peux bien rentrer dans l'top album J'incite à l'émeute fuck, fuck la bonne parole C'est la hass, sors l'magnum, faut l'pactole, zblex Cabrón, j'ai l'sourire dès qu'j'sens qu'tu perds J'paye tout en liquide, j'ai des parts à la banque du sperme Paie les 'lo-lopes en crème Danone Paie les poucaves au gomme-cogne Transforme leur tête en calzone Devant la Brinks, on discute de coups d'vice On s'dispute les pourliches, le mot d'ordre c'est Nique la Police ! 2006, c'est la hass 2007 on sera tous riches À s'faire sucer l'sexe dans les coulisses par les pouliches Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex ! Nique les States, le rap crèche à Saint-Ouen-l'Aumône Check, ça fait popo zblerx !, faut même pas qu'tes potos m'testent Les 'tasses de tess', c'est pas ma tasse de thé À c't'heure-ci, faut une princesse avec un string de chasteté Si t'as une sale te-tê, on t'prend en levrette Par contre si t'as une belle tête, t'as droit au menu bucket Beleck, c'est pas une raison pour faire la vedette Ton mec c'est un squelette, dans ton string ça sent la crevette J'arrive tête de Roumain, zguègue de poulain Tu peux pas faire plus masculin La mort c'est un coup d'feu, la vie c'est un coup d'reins Si tu poucaves, on t'retrouve dans la fosse à purin J'arrive tête de Roumain, zguègue de poulain Tu peux pas faire plus masculin La mort c'est un coup d'feu, la vie c'est un coup d'reins Si tu poucaves, on t'retrouve dans la fosse à purin Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex !1</t>
+          <t>À c't'heure-ci, faut un p'tit téléphone Un Smith Wesson Une go qu'aime griffer les hommes On fait du chiffre car on kiffe les belles sommes Tu veux snif mais as-tu l'bif this is the question En somme, on pense qu'à vider nos teubs Taffer dans un vidéo-club Tels sont nos idéaux d'thug, ouais Nos buts, nos putains d'objectifs Et comme y'a d'trop dékiz, on s'est mis en mode Gremlins Dégaine de grossistes, on s'laisse la barbe Viens dans ma tess' d'arabe ils t'baisent ta race si tu baisses la garde Beleck, tu laisses ta caisse, ils t'piquent tes jantes Bébé, si tu veux qu'l'un d'eux lèche ta schneck, épile tes jambes C'est l'son des têtes-à-têtes On a lADN à Ben Laden, mais on veut la BM à Ben Affleck J'ai sorti les baskets, pour shooter les tapettes Achète, achète, dans deux semaines on m'radie des Assdècs Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex ! Wesh tarlouze, on veut du rap tah les oufs Bouillants, nervous, qui règlent leurs dettes au fer rouge Sors le V12, chauffe la gomme, brûle la pelouse La stup' nique, nique sa grosse daronne, ouais Sous vodka pomme, mal rasé comme Joe Dalton J'suis sorti d'une chatte, j'peux bien rentrer dans l'top album J'incite à l'émeute fuck, fuck la bonne parole C'est la hass, sors l'magnum, faut l'pactole, zblex Cabrón, j'ai l'sourire dès qu'j'sens qu'tu perds J'paye tout en liquide, j'ai des parts à la banque du sperme Paie les 'lo-lopes en crème Danone Paie les poucaves au gomme-cogne Transforme leur tête en calzone Devant la Brinks, on discute de coups d'vice On s'dispute les pourliches, le mot d'ordre c'est Nique la Police ! 2006, c'est la hass 2007 on sera tous riches À s'faire sucer l'sexe dans les coulisses par les pouliches Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex ! Nique les States, le rap crèche à Saint-Ouen-l'Aumône Check, ça fait popo zblerx !, faut même pas qu'tes potos m'testent Les 'tasses de tess', c'est pas ma tasse de thé À c't'heure-ci, faut une princesse avec un string de chasteté Si t'as une sale te-tê, on t'prend en levrette Par contre si t'as une belle tête, t'as droit au menu bucket Beleck, c'est pas une raison pour faire la vedette Ton mec c'est un squelette, dans ton string ça sent la crevette J'arrive tête de Roumain, zguègue de poulain Tu peux pas faire plus masculin La mort c'est un coup d'feu, la vie c'est un coup d'reins Si tu poucaves, on t'retrouve dans la fosse à purin J'arrive tête de Roumain, zguègue de poulain Tu peux pas faire plus masculin La mort c'est un coup d'feu, la vie c'est un coup d'reins Si tu poucaves, on t'retrouve dans la fosse à purin Dans chaque tiex, c'est la hass Mais c'est plus fort que nous on peut pas quitter la tess' On est les fils de Jacques Mess' Empresse-toi d'vider la caisse Évite le hebs, comme t'aurais évité la peste Zblex, zblex !1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jsuis trop chaud négro, je crois que Dieu maime Jsuis trop chaud négro, je crois que Dieu maime Japprécie les chattes brésiliennes, Jacques Mesrine Les crânes des skinheads écrasés par des Docks dantifas, ten dis quoi ? Japprécie les bas résille et la résine, fais pas drégime On aime ton gros boule comme ça, non mais la sista, insista Elle touche sa chatte voir si son cur il bat Taureau dans la corrida, burro dans le cohiba Si tu veux pas mourir dans lanonymat, meurt pas le même jour que Johnny gars Toutes mes pensées pour les Rohingya, Nzambe ya bolingo Rien de délicat, broliqué pour toucher mon reliquat Ta chatte éclatée, ressemble à pétale de coquelicot Laisse-moi tout embraser quand se rassemblent les pédales du comico On a choqué la France cocorico, traumatisé les belges, épaté les suisses Gueko, Despo, le poto Lino, protégez les vierges on va écarter des cuisses Jarrive sur le beats comme un Murciélago vroom, vroom, vroom Chico en roro si je te lèche ça te fait un cunilingot On a puni la go, elle a eu la bouche plus grosse que son fion Aller en Thaï pendant la mousson cest être au bon endroit au mauvais moment comme un tampon I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher You might also like On arrêtait de mettre des capotes pourtant son chat s'appelait chaussette Je pose un couplet la feumeu sourit le félin fait bruit de félin, je dis je sais, je sais Jai payé mes blasphèmes en faisant de la HP, jai prié pour me racheter Jai des gosses dans le game ici là-bas, pousse pas mon brolique à tapprendre à dire papa Mams me dit daller remercier Dieu à la mosquée, tu crains personne c'est cile-fa Le s'hour et le mauvais oeil se cassent le tibia sur tes genoux comme Anderson Silva Ils mettent les gyro, me demandent de me garer, et cetera, et cetera - Tas quelque chose de dangereux sur toi ? - Oui, le numéro dune femme mariée et mes textes de rap Mon biff et mes lyrics dans la même poche comme des jumeaux parce que mon talent cest mon cash Dieu ma donné des groupies Maradona a marqué un but de la main, pour un génie, cest une bêtise Sil a marqué un deuxième but de ouf cest que Dieu la pardonné de lavoir fait petit Ton cul tient pas 5 minutes aux enchères, mes bourses sont cotées à Wall Street Baqueu m'tient l'crâne pour m'rentrer dans le fer, j'suis comme baptisé par la street Ton rap tient pas 5 minutes aux enchères, mes bourses sont cotées à Wall Street Baqueu m'tient l'crâne pour m'rentrer dans le fer, j'suis comme baptisé par la street I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher Entre le yin et le yang, le bien le mal en position 69 Dominant est le mâle, le rap a changé le sexe je vous laisse entre meufs Comme dans une soirée à Kingston ça sent la poudre et la chatte La faucheuse pistonne, jexécute un rappeur jexhibe son cadavre sur Snapchat Pas de respect qui se donne, on le prend cest comme la boxe y aura pas dex aequo À lécole des coups durs jai le même cursus scolaire que Despo Rutti et Seth Gueko Balafrer les instru cest ma routine, on shoot on sarrache et les pneus crissent Tu ressens ma rage, les démons me font payer ma ressemblance avec le Christ Reste loin des putes qui sinventent un vécu, vrai depuis lépoque où je comptais en francs Avis parental la haine je véhicule, moi je roule sans la sécurité enfant Qui veut savoir à qui profite le crime, devient un complot théoricien la vérité est pas dure à trouver ici comme un passeport de terroriste Flow décalé, couleur Chicago, à en déstabiliser le gros de ma fanbase Je leurs fais la misère, un petit cadeau, l'industrie va rimer avec flamme et braise I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée</t>
+          <t>Jsuis trop chaud négro, je crois que Dieu maime Jsuis trop chaud négro, je crois que Dieu maime Japprécie les chattes brésiliennes, Jacques Mesrine Les crânes des skinheads écrasés par des Docks dantifas, ten dis quoi ? Japprécie les bas résille et la résine, fais pas drégime On aime ton gros boule comme ça, non mais la sista, insista Elle touche sa chatte voir si son cur il bat Taureau dans la corrida, burro dans le cohiba Si tu veux pas mourir dans lanonymat, meurt pas le même jour que Johnny gars Toutes mes pensées pour les Rohingya, Nzambe ya bolingo Rien de délicat, broliqué pour toucher mon reliquat Ta chatte éclatée, ressemble à pétale de coquelicot Laisse-moi tout embraser quand se rassemblent les pédales du comico On a choqué la France cocorico, traumatisé les belges, épaté les suisses Gueko, Despo, le poto Lino, protégez les vierges on va écarter des cuisses Jarrive sur le beats comme un Murciélago vroom, vroom, vroom Chico en roro si je te lèche ça te fait un cunilingot On a puni la go, elle a eu la bouche plus grosse que son fion Aller en Thaï pendant la mousson cest être au bon endroit au mauvais moment comme un tampon I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher On arrêtait de mettre des capotes pourtant son chat s'appelait chaussette Je pose un couplet la feumeu sourit le félin fait bruit de félin, je dis je sais, je sais Jai payé mes blasphèmes en faisant de la HP, jai prié pour me racheter Jai des gosses dans le game ici là-bas, pousse pas mon brolique à tapprendre à dire papa Mams me dit daller remercier Dieu à la mosquée, tu crains personne c'est cile-fa Le s'hour et le mauvais oeil se cassent le tibia sur tes genoux comme Anderson Silva Ils mettent les gyro, me demandent de me garer, et cetera, et cetera - Tas quelque chose de dangereux sur toi ? - Oui, le numéro dune femme mariée et mes textes de rap Mon biff et mes lyrics dans la même poche comme des jumeaux parce que mon talent cest mon cash Dieu ma donné des groupies Maradona a marqué un but de la main, pour un génie, cest une bêtise Sil a marqué un deuxième but de ouf cest que Dieu la pardonné de lavoir fait petit Ton cul tient pas 5 minutes aux enchères, mes bourses sont cotées à Wall Street Baqueu m'tient l'crâne pour m'rentrer dans le fer, j'suis comme baptisé par la street Ton rap tient pas 5 minutes aux enchères, mes bourses sont cotées à Wall Street Baqueu m'tient l'crâne pour m'rentrer dans le fer, j'suis comme baptisé par la street I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher Entre le yin et le yang, le bien le mal en position 69 Dominant est le mâle, le rap a changé le sexe je vous laisse entre meufs Comme dans une soirée à Kingston ça sent la poudre et la chatte La faucheuse pistonne, jexécute un rappeur jexhibe son cadavre sur Snapchat Pas de respect qui se donne, on le prend cest comme la boxe y aura pas dex aequo À lécole des coups durs jai le même cursus scolaire que Despo Rutti et Seth Gueko Balafrer les instru cest ma routine, on shoot on sarrache et les pneus crissent Tu ressens ma rage, les démons me font payer ma ressemblance avec le Christ Reste loin des putes qui sinventent un vécu, vrai depuis lépoque où je comptais en francs Avis parental la haine je véhicule, moi je roule sans la sécurité enfant Qui veut savoir à qui profite le crime, devient un complot théoricien la vérité est pas dure à trouver ici comme un passeport de terroriste Flow décalé, couleur Chicago, à en déstabiliser le gros de ma fanbase Je leurs fais la misère, un petit cadeau, l'industrie va rimer avec flamme et braise I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché I Have A Dream Dieu ma touché négro, Dieu ma touché Vlà les génies Jécris mes rap sur une feuille de boucher Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée Dieu ma touché négro, Dieu ma touché Toute la concurrence est cartouchée</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Avec la chiasse que jai, jsuis pas prêt dleur céder ltrône Même riche, jcontinuerai à frauder ltrom Jsuis pas du genre à faire des chromes Jpaie cash quand jveux quelque chose Ya qudes biatches dans mes rêves roses Comme les plus grands génies, jai des névroses Parano comme les cartels du Carthagène Suicidaire comme ce brave homme qui était Patrick Dewaere Qui malheureusement na pas pu boire ltroisième Heureusement qula Thaïlande ma rendu zen Jrappe pour les expats de Patong à Patt-Patt Jprends mon touk touk pour aller tac-tac Avec une main dfer comme dans Evil Dead 3 Paré contre toute attaque Jrappe pour mes bagnards qui rayent les journées passées au chtar avec une petite croix À cause dune pouc pouc qui sest mis à quatre pattes Csoir mes charognards sont à laffût de ptites proies Non, mais ste plaît, ta teinture, elle veut dire quoi ? Jarrive sur toi comme le putain dcoupe-coupe dun pakpak Qui sort tout droit dPorte de la pelle-Cha Tu fais que dla merde, comment veux-tu quon appelle ça ? Effet immédiat quand on fume la beuh de Jah Jparle comme dans un dialogue de Audiard Ces MCs factices ont vendu leur âme au ble-dia Dans cgame jsuis comme Flactif face à David Hotyat Jsuis face à des gros loux-ja Jarrive comme un V12 ah Versace, Versace, Medusa Faut quvous sachiez quon bicrave des sachets aux bourgeois Tatoué comme un mara salvatrucha Ma bite de val-che dans ton trou dchatte Tatoué comme un Yakuza Jporte le roro comme un Zaza Tes une nympho, jsuis un goujat Grosse bosse dans le pe-slaï Jsuis lboss de la punchline Grosse Rolex, grosse graine de coffee On est la crème du crime, envoie la crème des keuflis On aime la guerre, pas la trêve des conflits Envoie lgrec, les tes-fri Nique les dècs, les teushmi Jamais trahir quand un re-frè se confie On nest pas des canards, mais on aime le confit Largent est sale mais le style est propre comme un circoncis On est des vampires, la chatte à Buffy Faut qutu fasses gaffe, dans lair ya du rififi Tatoué comme au bat' d'Af' et au Biribi Les MCs me terrifient, la bouche en cur sur leurs selfies Cest o-ciel-ffi, le rap français porte un string celle-fi Alors laissez-moi maffaler sur mon chesterfield Garçon, jallais au charbon quand tallais smurfer Les keufs jouent trop les Alex Murphy Allons rafaler les fous qui baisent leurs filles Les pédophiles faut faire morfler Yeah, grosse caisse, gros dérapage Grosse rafale sur videur, car gros recalage Entre toi et moi, trop de décalage Les têtes vont tomber, orh, élagage Zgeg méga-long, méga-large Méga-flow, méga-phases Jbaise mes ex en guise de dépannage Gros pied dbiche pour les portes du paradiseYou might also like2</t>
+          <t>Avec la chiasse que jai, jsuis pas prêt dleur céder ltrône Même riche, jcontinuerai à frauder ltrom Jsuis pas du genre à faire des chromes Jpaie cash quand jveux quelque chose Ya qudes biatches dans mes rêves roses Comme les plus grands génies, jai des névroses Parano comme les cartels du Carthagène Suicidaire comme ce brave homme qui était Patrick Dewaere Qui malheureusement na pas pu boire ltroisième Heureusement qula Thaïlande ma rendu zen Jrappe pour les expats de Patong à Patt-Patt Jprends mon touk touk pour aller tac-tac Avec une main dfer comme dans Evil Dead 3 Paré contre toute attaque Jrappe pour mes bagnards qui rayent les journées passées au chtar avec une petite croix À cause dune pouc pouc qui sest mis à quatre pattes Csoir mes charognards sont à laffût de ptites proies Non, mais ste plaît, ta teinture, elle veut dire quoi ? Jarrive sur toi comme le putain dcoupe-coupe dun pakpak Qui sort tout droit dPorte de la pelle-Cha Tu fais que dla merde, comment veux-tu quon appelle ça ? Effet immédiat quand on fume la beuh de Jah Jparle comme dans un dialogue de Audiard Ces MCs factices ont vendu leur âme au ble-dia Dans cgame jsuis comme Flactif face à David Hotyat Jsuis face à des gros loux-ja Jarrive comme un V12 ah Versace, Versace, Medusa Faut quvous sachiez quon bicrave des sachets aux bourgeois Tatoué comme un mara salvatrucha Ma bite de val-che dans ton trou dchatte Tatoué comme un Yakuza Jporte le roro comme un Zaza Tes une nympho, jsuis un goujat Grosse bosse dans le pe-slaï Jsuis lboss de la punchline Grosse Rolex, grosse graine de coffee On est la crème du crime, envoie la crème des keuflis On aime la guerre, pas la trêve des conflits Envoie lgrec, les tes-fri Nique les dècs, les teushmi Jamais trahir quand un re-frè se confie On nest pas des canards, mais on aime le confit Largent est sale mais le style est propre comme un circoncis On est des vampires, la chatte à Buffy Faut qutu fasses gaffe, dans lair ya du rififi Tatoué comme au bat' d'Af' et au Biribi Les MCs me terrifient, la bouche en cur sur leurs selfies Cest o-ciel-ffi, le rap français porte un string celle-fi Alors laissez-moi maffaler sur mon chesterfield Garçon, jallais au charbon quand tallais smurfer Les keufs jouent trop les Alex Murphy Allons rafaler les fous qui baisent leurs filles Les pédophiles faut faire morfler Yeah, grosse caisse, gros dérapage Grosse rafale sur videur, car gros recalage Entre toi et moi, trop de décalage Les têtes vont tomber, orh, élagage Zgeg méga-long, méga-large Méga-flow, méga-phases Jbaise mes ex en guise de dépannage Gros pied dbiche pour les portes du paradise2</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Hein Seth Guex Pharaon MTP Boulette, boulette, boulette Foolek, foolek, foolek Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Tu trappelles que sur nous ils voulaient pas miser On mène 5-0 à la mi-temps sifflée Ils ont rien à proposer et ils veulent négocier Ils msucent tellement la bite que jtrouve plus ltemps dpisser Jai plus d'rétro, gros, personne va me freiner 6 litres de vodka et jcommence lapéro Ta daronne ma dit que mon daron lui plaisait Il peut la baiser, jserai jamais ton frérot Troupeaux dchiens errants postés sur le terrain Pas dréclamation, baisse dun ton Alors mon mignon, on est plutôt poisson ? Rien qutu lèches des moules, rien qutu sers des thons Et jai perdu du poids Des dizaines, des dizaines, des dizaines de kilos Jles ai repris en roro, en punchlines, en MD, en bédo, en coco Partitions funèbres, cest mon récital, jmarche sûr de moi Si jai décidé de te mettre une balle, même Thibault Courtois pourra rien pour toi Pleine tête, la moitié du chargeur dans lcerveau Perpèt ou passer sa vie dans lmétro Que des grosses têtes, évidemment jvends pas lmême bédo Jpasse à lassaut avec Seth Gueko Notre commando libère Don Pietro You might also like Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Mauvais est le penchant, Moët est le pagne-cham Si madame a des maux dtête, jai des capotes Efferalgan Monsieur lAgent, comment allez-vous en ? Jai mes liasses dans lslip, cest cquon appelle des sous-vêtements Criminel de la rime, jtéclate la gueule, frère Jsus pas une fashion victime, la chatte à Karl Lagerfeld Au placard cest horrible dès qutas la grosse fièvre Dès qutas mal aux ratiches car les vampires vont pas chez le dentiste Grosses couilles, gros pénis, comme si javais léléphantiasis Jack Dada cest ma potion magique, la chatte à Panoramix Armand Brignac, gamos allemand, Maybach, paire de sunglasses Tu rappes comme un fils de pute, tes punchlines sont nées sous X Liqueur de cassis, sirote avec des femmes mûres Impossible que jparle, dans la poche capsule de cyanure Jai belle allure, jlui dis quelle la suce Et cetera puisque jvais tfaire péter larme russe Rien qujfais quppe-ra pour mpayer le dernier Brabus Cest moi lfutur, sur la chatte à Nostradamus Le meilleur par A B Punchlines Cassius Clay Plein les paluches, évidemment qucest moi lsuspect Mamamia, on va tenvoyer brouter la chatte à Aaliyah Mamamia, à part un miracle LÎle-de-France deviendra jamais une île paradisiaque Jvais pas mrépéter, tous ces rappeurs perroquets-quets Voilà lsang neuf avec Gueko Seth-Seth Lâche ton 07, jai lmojo d007-7 Elles aiment les ptites attentions, elles aiment les grosses kèkettes Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm'1</t>
+          <t>Hein Seth Guex Pharaon MTP Boulette, boulette, boulette Foolek, foolek, foolek Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Tu trappelles que sur nous ils voulaient pas miser On mène 5-0 à la mi-temps sifflée Ils ont rien à proposer et ils veulent négocier Ils msucent tellement la bite que jtrouve plus ltemps dpisser Jai plus d'rétro, gros, personne va me freiner 6 litres de vodka et jcommence lapéro Ta daronne ma dit que mon daron lui plaisait Il peut la baiser, jserai jamais ton frérot Troupeaux dchiens errants postés sur le terrain Pas dréclamation, baisse dun ton Alors mon mignon, on est plutôt poisson ? Rien qutu lèches des moules, rien qutu sers des thons Et jai perdu du poids Des dizaines, des dizaines, des dizaines de kilos Jles ai repris en roro, en punchlines, en MD, en bédo, en coco Partitions funèbres, cest mon récital, jmarche sûr de moi Si jai décidé de te mettre une balle, même Thibault Courtois pourra rien pour toi Pleine tête, la moitié du chargeur dans lcerveau Perpèt ou passer sa vie dans lmétro Que des grosses têtes, évidemment jvends pas lmême bédo Jpasse à lassaut avec Seth Gueko Notre commando libère Don Pietro Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm' Mauvais est le penchant, Moët est le pagne-cham Si madame a des maux dtête, jai des capotes Efferalgan Monsieur lAgent, comment allez-vous en ? Jai mes liasses dans lslip, cest cquon appelle des sous-vêtements Criminel de la rime, jtéclate la gueule, frère Jsus pas une fashion victime, la chatte à Karl Lagerfeld Au placard cest horrible dès qutas la grosse fièvre Dès qutas mal aux ratiches car les vampires vont pas chez le dentiste Grosses couilles, gros pénis, comme si javais léléphantiasis Jack Dada cest ma potion magique, la chatte à Panoramix Armand Brignac, gamos allemand, Maybach, paire de sunglasses Tu rappes comme un fils de pute, tes punchlines sont nées sous X Liqueur de cassis, sirote avec des femmes mûres Impossible que jparle, dans la poche capsule de cyanure Jai belle allure, jlui dis quelle la suce Et cetera puisque jvais tfaire péter larme russe Rien qujfais quppe-ra pour mpayer le dernier Brabus Cest moi lfutur, sur la chatte à Nostradamus Le meilleur par A B Punchlines Cassius Clay Plein les paluches, évidemment qucest moi lsuspect Mamamia, on va tenvoyer brouter la chatte à Aaliyah Mamamia, à part un miracle LÎle-de-France deviendra jamais une île paradisiaque Jvais pas mrépéter, tous ces rappeurs perroquets-quets Voilà lsang neuf avec Gueko Seth-Seth Lâche ton 07, jai lmojo d007-7 Elles aiment les ptites attentions, elles aiment les grosses kèkettes Et ça fait burrret, burrret, burrret Comme une boulette en métal Foolek, foolek, foolek, comme une levée en bécane Posé dans ltièks, posé dans lVIP, posé au me-cal On aime les soubrettes, soubrettes, soubrettes Soubrettes en Etam On va tfourrer, tfourrer Tfourrer ton gros tarm' Ça fait bour et bour et bour et ratatam On va tfourrer, tfourrer Tfourrer ton gros tarm'1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bénévole ne sert à rien, mon but est lucratif Niquer ne sert à rien si tes pas fort dans la pratique Nous barrer la route ? Ok mais tu feras pas long terme Quest ce que tu crois vers chez nous les tits-pe deviennent tous comme à Nanterre Mais à long terme un neuf une pute qui msuce sur un bateau Ouais cest ça ma vie tu prendras pas dimpôt sur le bâton Écoute bien, tes mort si tu treposes sur tes acquis Pensée à toi si de ta grotte tu rêves du boule dAlicia Keys À fond sur mes ennemis comme quand jaimais trop lherbe Ma foi il ny a que les vivants qui te font des problèmes Alors faut régler ça, dis pas que tu sais pas comment faire Au pire je sais pas emprunte les couilles à ton grand frère Rien ne sert de ler-par on a ce quil faut pour remballer tes types Dis leur You' pour quon ait peur faudrait nous envoyer des tigres Jai un doctorat sur les recettes et les diamants Une question comment faire pour vivre on est tous déjà morts ? On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups Tête de hafrite, jai pas retourné ma veste Jai mis du shit dans le Nesquik et de la vodka dans les Cornflakes Woo Gata Zblèx Si y'a un rappeur qui fait le cro-ma on va le faire passer à travers le pareflex Je veux rester seul avec mon zdeh merde Je suis un égoïste qui réfléchit et qui se dit que la mort viendra le faire taire certes Donc ne men voulez pas de penser à ma gueule zèh Neuf mois avant de naître pour men sortir jy ai déjà laissé des millions de frères Je marche à lenvers, comme les tits-pe dans le clip de Kriss Kross Nique la mère aux hessess donc nique même la mère à Rick Ross Salam ahlikoum ahlikoum salam Faut pas acheter son CD il était de lautre côté de la gamelle You might also like On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups On nous reconnait de loin, à nos silhouettes disproportionnées On mâchouille des siwak on roule dans des caisses toutes optionnées Lalbum sécoute fonce-dé, alors tise et mets play Je mets pas de Bandana juste pour cautériser mes plaies Tout ce que tas en falche je lai en vrai Javais un bout de peau en trop mash'Allah je lai enlevé Cest tout le monde qui veut des lovés Même les manchots sont prêts à faire la manche avec leurs pieds Le passé, balafré comme un corps de trav' Jaime le fromage qui coince comme une porte de cave Je ressors de GAV beaucoup plus léger Ma femme est lourde elle porte du Hervé Leger Je suis un client privilégié Belzébuth mieux vaut être le roi de la benne que la reine des putes Je veux du Black Label, de lAbsinthe, ou de lAbsolut Je crois que je suis au bout du rouleau de P.ul-c On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups1</t>
+          <t>Bénévole ne sert à rien, mon but est lucratif Niquer ne sert à rien si tes pas fort dans la pratique Nous barrer la route ? Ok mais tu feras pas long terme Quest ce que tu crois vers chez nous les tits-pe deviennent tous comme à Nanterre Mais à long terme un neuf une pute qui msuce sur un bateau Ouais cest ça ma vie tu prendras pas dimpôt sur le bâton Écoute bien, tes mort si tu treposes sur tes acquis Pensée à toi si de ta grotte tu rêves du boule dAlicia Keys À fond sur mes ennemis comme quand jaimais trop lherbe Ma foi il ny a que les vivants qui te font des problèmes Alors faut régler ça, dis pas que tu sais pas comment faire Au pire je sais pas emprunte les couilles à ton grand frère Rien ne sert de ler-par on a ce quil faut pour remballer tes types Dis leur You' pour quon ait peur faudrait nous envoyer des tigres Jai un doctorat sur les recettes et les diamants Une question comment faire pour vivre on est tous déjà morts ? On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups Tête de hafrite, jai pas retourné ma veste Jai mis du shit dans le Nesquik et de la vodka dans les Cornflakes Woo Gata Zblèx Si y'a un rappeur qui fait le cro-ma on va le faire passer à travers le pareflex Je veux rester seul avec mon zdeh merde Je suis un égoïste qui réfléchit et qui se dit que la mort viendra le faire taire certes Donc ne men voulez pas de penser à ma gueule zèh Neuf mois avant de naître pour men sortir jy ai déjà laissé des millions de frères Je marche à lenvers, comme les tits-pe dans le clip de Kriss Kross Nique la mère aux hessess donc nique même la mère à Rick Ross Salam ahlikoum ahlikoum salam Faut pas acheter son CD il était de lautre côté de la gamelle On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups On nous reconnait de loin, à nos silhouettes disproportionnées On mâchouille des siwak on roule dans des caisses toutes optionnées Lalbum sécoute fonce-dé, alors tise et mets play Je mets pas de Bandana juste pour cautériser mes plaies Tout ce que tas en falche je lai en vrai Javais un bout de peau en trop mash'Allah je lai enlevé Cest tout le monde qui veut des lovés Même les manchots sont prêts à faire la manche avec leurs pieds Le passé, balafré comme un corps de trav' Jaime le fromage qui coince comme une porte de cave Je ressors de GAV beaucoup plus léger Ma femme est lourde elle porte du Hervé Leger Je suis un client privilégié Belzébuth mieux vaut être le roi de la benne que la reine des putes Je veux du Black Label, de lAbsinthe, ou de lAbsolut Je crois que je suis au bout du rouleau de P.ul-c On se checke à la Santé et on se rattrape en ieu-ta On est là pour représenter trois mathus sur la ble-ta Mec on se check à la santé et on se rattrape au dio-stu On veut se refaire une santé et dire adieu aux stups1</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Loin du game et pourtant proche des fans À chaque pêché commis je mapproche des flammes Jsuis pas un de ces rappeurs profanes dont largent finit toujours dans la poche des femmes Rase-toi les poils mais pas la poêle Tefal, jsuis pas une marionnette biologique À mon âge on veut plus de jouets, on veut juste que des gens ressuscitent Largent a fait de toi un vrai suce-bite Tu fais le fou mais ton cur à lair mou Jrap pour mes frères partis dune mort subite, Allah yarhamu Je me bouche les oreilles quand ils parlent doffense Mieux vaut être dur de la feuille que mou de la branche La Justice une mygale déguisée en oie blanche T'es médisant, mais dix ans nous distance Tu veux de la pure on te lavance La langue pendue entre quatre murs ou entre quatre planches Jfais ce que je dis, je dis ce que je pense Vrai dit pas ce qu'il fait, le faux fait pas ce quil dit Éternel insatisfait, si tu ressemble pas à Khaleesi, décale dici La calvitie chez nous personne lévite Fiston, ramène-moi des poux plutôt que les flics Aujourdhui encore des gens meurent de faim alors finis les frites, ouais finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 Fais pas le riche, finis les frites, finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 You might also like Combien de bonnes actions ai-je totalisées ? La foi cest poser son pied sur la marche dun escalier dont on ne voit pas la totalité, à méditer Toujours un schlass au fond du manteau Tinquiète si on me clash je laisse parler Je me couche tellement tard et je me lève tellement tôt que jarrive à me croiser dans lescalier À la dernière Copa del Mondo, jaurais aimé voir lAlgérie gagner Touche pas la coke à Belmondo, mets pas de rottes-ca dans mon dos Sont les principes fondamentaux Dans la street pour pas se faire chicaner Elle ma demandé si je connaissais Zalando, comment jai ricané Ton pote sest fait taper, pourquoi tas taillé ? Je vais tous leur ré-apprendre à rapper avec mon poing bien enfoncé comme Tatayet Chez nous avec quatre chaises on fait un canapé Avec des miettes on fait une boulangerie Les vrais innovent, les bollosses copient Avec tout ce que tu te coffres dans le boule cest le parloir qui se fout de la coloscopie Aujourdhui encore des gens meurent de faim alors finis les frites, ouais finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 Fais pas le riche, finis les frites, finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K73</t>
+          <t>Loin du game et pourtant proche des fans À chaque pêché commis je mapproche des flammes Jsuis pas un de ces rappeurs profanes dont largent finit toujours dans la poche des femmes Rase-toi les poils mais pas la poêle Tefal, jsuis pas une marionnette biologique À mon âge on veut plus de jouets, on veut juste que des gens ressuscitent Largent a fait de toi un vrai suce-bite Tu fais le fou mais ton cur à lair mou Jrap pour mes frères partis dune mort subite, Allah yarhamu Je me bouche les oreilles quand ils parlent doffense Mieux vaut être dur de la feuille que mou de la branche La Justice une mygale déguisée en oie blanche T'es médisant, mais dix ans nous distance Tu veux de la pure on te lavance La langue pendue entre quatre murs ou entre quatre planches Jfais ce que je dis, je dis ce que je pense Vrai dit pas ce qu'il fait, le faux fait pas ce quil dit Éternel insatisfait, si tu ressemble pas à Khaleesi, décale dici La calvitie chez nous personne lévite Fiston, ramène-moi des poux plutôt que les flics Aujourdhui encore des gens meurent de faim alors finis les frites, ouais finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 Fais pas le riche, finis les frites, finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 Combien de bonnes actions ai-je totalisées ? La foi cest poser son pied sur la marche dun escalier dont on ne voit pas la totalité, à méditer Toujours un schlass au fond du manteau Tinquiète si on me clash je laisse parler Je me couche tellement tard et je me lève tellement tôt que jarrive à me croiser dans lescalier À la dernière Copa del Mondo, jaurais aimé voir lAlgérie gagner Touche pas la coke à Belmondo, mets pas de rottes-ca dans mon dos Sont les principes fondamentaux Dans la street pour pas se faire chicaner Elle ma demandé si je connaissais Zalando, comment jai ricané Ton pote sest fait taper, pourquoi tas taillé ? Je vais tous leur ré-apprendre à rapper avec mon poing bien enfoncé comme Tatayet Chez nous avec quatre chaises on fait un canapé Avec des miettes on fait une boulangerie Les vrais innovent, les bollosses copient Avec tout ce que tu te coffres dans le boule cest le parloir qui se fout de la coloscopie Aujourdhui encore des gens meurent de faim alors finis les frites, ouais finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K7 Fais pas le riche, finis les frites, finis lassiette Le rap game un milieu de putains, fini les feats, fini la fête Tu connais le refrain y a ceux qui la bibi et y a ceux qui lachète Me parle pas de rap gamin, tas pas connu lépoque vinyl et K73</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J'ai des couplets à la fois impitoyables et loyaux J'fais c'que j'veux d'la langue française j'écris des trucs incroyaux Nombre de fans et ventes d'album, j'ai un des meilleurs ratios J'allume la radio quand j'doute, j'coupe quand j'ai mes mômes dans l'auto Ma go se demande où j'étais hier soir, j'étais sur mon perchoir J'écoutais cette instru pour la énième fois Il suffit pas d'attendre son tour, le rap, c'est pas une tontine Des rappeurs sur C8, j'me demande si c'est bon signe Sale temps pour les lyrics mais j'suis pas né du dernier orage Le public veut des personnages, des gueguerres et des gimmick On a nos Macron, nos Drucker, nos Patrick Sebastien On a des Mbappé, des Totti, des Diaby, des Eder Un des rares job que tu peux faire même quand t'as pas eu l'bac On a nos Estrosi, on a nos Jérôme Cahuzac Les émissions rap français, faut écouter les bonnes Sinon jespère que taimes le reggaeton Master en MCing, j'peux marcher la tête haute dans la street Je vois des supporters me faire signe, ils me disent merci J'encourage les jeunes loups mais pour être honnête Je suis celui qu'il faut connaître si tu prétends t'y connaître Amigo, j'crois que les flics m'ont repéré Véritable parigot, mon Beretta, mon béret Enragé car un bonhomme dit les choses comme il le pense Naufragés sans océan, tous échoués en Île-de-France Tous les jours, être le best des best Tatoués parce que nos vies on en fait presque des fresques Continuez, vous aurez peut-être les restes Paris ça pue la street, té-ma la tête des guests You might also like Boom bap de loubard, de la be-bom de la be-bom C'est Paris sous les bombes, Paris sous les bombes Ça ne s'efface pas, c'est sûr, ouais Wack MC, ne viens pas m'indiquer le règlement A ceux qui m'ont appris à rapper même indirectement C'est un requiem, dis-leur qu'ils ninterviennent pas Ils n'connaissent ni ABN ni mon 75.0 19ème J'suis un spécimen rare, en passe d'intégrer lorchestre philharmonique de Vienne J'bouge qu'avec d'inamovibles frères La rue forme au ballon comme Chevtchenko au Dynamo d'Kiev À ceux qui rappaient avant qu'je naisse, sachez qu'ça s'tape toujours contre les jeunesses hitlériennes Ça part en couille une énième fois Et mes amis tout comme mes ennemis aiment ça Une horde est derrière moi Sans leur faire grande morale, j'leur donne l'envie d'entreprendre J'ai Paris dans l'thorax, les Pouilles et l'Europe de l'Est dans le sang L'impression qu'j'manque de temps Une pression quotidienne comme un étranglement Et je n'joue pas les caïds Combien sont die en pilotant ? Combien de traces sanguinolentes ? Combien de cas demprisonnement à cause d'un calibre ? Des inepties dans mon esprit Épileptique, y'a toujours quelque chose qui me captive Respecte les re-frè qui t'adulent, tous ceux qui pour toi ont d'l'estime Faire croire que tu deales ne fera pas de toi un bon MC Y'a écrit 9-5 sur la balance mais y'a pas d'balance dans l'9-5 Y'a qu'sur les plages de sable blanc qu'on laisse nos empreintes J'vais t'raconter l'comble de la bonne sur c'est de vivre vierge et d'mourir en sainte C'est simple, même une vierge peut t'faire un coup d'pute D'mon temps pour une doudoune, tu t'prenais un coup d'cutter Quatuor de découpeurs dans tes écouteurs Quel tête aura ton fils ? Ça dépend de plein d'facteurs C'est moi qui donne l'heure et la température C'est au pied du mur qu'on voit les bombes de peintures Pour mes brigands, le sky est pur Pour les migrants, l'escale est dure J'grattais des rimes quand toi tu t'grattais l'cul Mieux vaut une main pleine d'écus que deux mains pleines de merde Veni, vidi, whisky, j'suis venu, j'ai bu, j'me rappelle plus Comprends ma préférence pour le Perrier Plus de punchlines qu'en conférence Berryer J'ai des cicatrices, conséquences pour un guerrier Le bail est noir, très noir comme les Béruriers J'crois que les flics m'ont repéré Véritable parigot, mon Beretta, mon béret Enragé car un bonhomme dit les choses comme il le pense Naufragés sans océan, tous échoués en Île-de-France Tous les jours, être le best des best Tatoués parce que nos vies, on en fait presque des fresques Continuez, vous aurez peut-être les restes Sinik, Flynt, Jazzy Bazz et Seth Gueks</t>
+          <t>J'ai des couplets à la fois impitoyables et loyaux J'fais c'que j'veux d'la langue française j'écris des trucs incroyaux Nombre de fans et ventes d'album, j'ai un des meilleurs ratios J'allume la radio quand j'doute, j'coupe quand j'ai mes mômes dans l'auto Ma go se demande où j'étais hier soir, j'étais sur mon perchoir J'écoutais cette instru pour la énième fois Il suffit pas d'attendre son tour, le rap, c'est pas une tontine Des rappeurs sur C8, j'me demande si c'est bon signe Sale temps pour les lyrics mais j'suis pas né du dernier orage Le public veut des personnages, des gueguerres et des gimmick On a nos Macron, nos Drucker, nos Patrick Sebastien On a des Mbappé, des Totti, des Diaby, des Eder Un des rares job que tu peux faire même quand t'as pas eu l'bac On a nos Estrosi, on a nos Jérôme Cahuzac Les émissions rap français, faut écouter les bonnes Sinon jespère que taimes le reggaeton Master en MCing, j'peux marcher la tête haute dans la street Je vois des supporters me faire signe, ils me disent merci J'encourage les jeunes loups mais pour être honnête Je suis celui qu'il faut connaître si tu prétends t'y connaître Amigo, j'crois que les flics m'ont repéré Véritable parigot, mon Beretta, mon béret Enragé car un bonhomme dit les choses comme il le pense Naufragés sans océan, tous échoués en Île-de-France Tous les jours, être le best des best Tatoués parce que nos vies on en fait presque des fresques Continuez, vous aurez peut-être les restes Paris ça pue la street, té-ma la tête des guests Boom bap de loubard, de la be-bom de la be-bom C'est Paris sous les bombes, Paris sous les bombes Ça ne s'efface pas, c'est sûr, ouais Wack MC, ne viens pas m'indiquer le règlement A ceux qui m'ont appris à rapper même indirectement C'est un requiem, dis-leur qu'ils ninterviennent pas Ils n'connaissent ni ABN ni mon 75.0 19ème J'suis un spécimen rare, en passe d'intégrer lorchestre philharmonique de Vienne J'bouge qu'avec d'inamovibles frères La rue forme au ballon comme Chevtchenko au Dynamo d'Kiev À ceux qui rappaient avant qu'je naisse, sachez qu'ça s'tape toujours contre les jeunesses hitlériennes Ça part en couille une énième fois Et mes amis tout comme mes ennemis aiment ça Une horde est derrière moi Sans leur faire grande morale, j'leur donne l'envie d'entreprendre J'ai Paris dans l'thorax, les Pouilles et l'Europe de l'Est dans le sang L'impression qu'j'manque de temps Une pression quotidienne comme un étranglement Et je n'joue pas les caïds Combien sont die en pilotant ? Combien de traces sanguinolentes ? Combien de cas demprisonnement à cause d'un calibre ? Des inepties dans mon esprit Épileptique, y'a toujours quelque chose qui me captive Respecte les re-frè qui t'adulent, tous ceux qui pour toi ont d'l'estime Faire croire que tu deales ne fera pas de toi un bon MC Y'a écrit 9-5 sur la balance mais y'a pas d'balance dans l'9-5 Y'a qu'sur les plages de sable blanc qu'on laisse nos empreintes J'vais t'raconter l'comble de la bonne sur c'est de vivre vierge et d'mourir en sainte C'est simple, même une vierge peut t'faire un coup d'pute D'mon temps pour une doudoune, tu t'prenais un coup d'cutter Quatuor de découpeurs dans tes écouteurs Quel tête aura ton fils ? Ça dépend de plein d'facteurs C'est moi qui donne l'heure et la température C'est au pied du mur qu'on voit les bombes de peintures Pour mes brigands, le sky est pur Pour les migrants, l'escale est dure J'grattais des rimes quand toi tu t'grattais l'cul Mieux vaut une main pleine d'écus que deux mains pleines de merde Veni, vidi, whisky, j'suis venu, j'ai bu, j'me rappelle plus Comprends ma préférence pour le Perrier Plus de punchlines qu'en conférence Berryer J'ai des cicatrices, conséquences pour un guerrier Le bail est noir, très noir comme les Béruriers J'crois que les flics m'ont repéré Véritable parigot, mon Beretta, mon béret Enragé car un bonhomme dit les choses comme il le pense Naufragés sans océan, tous échoués en Île-de-France Tous les jours, être le best des best Tatoués parce que nos vies, on en fait presque des fresques Continuez, vous aurez peut-être les restes Sinik, Flynt, Jazzy Bazz et Seth Gueks</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Elles veulent du sexationnel, du sexationnel Du sexe exceptionnel, un mec exceptionnel Du sexationnel, du sexationnel Elle est sur moi, je suis en elle, un jet pour le septième ciel Du sexationnel, du sexationnel Du sexe exceptionnel, un mec exceptionnel Du sexationnel, du sexationnel De l'oseille, du Soleil, de l'extra sensoriel Je les aime chocolat, couleur nougat ou caramel Dans quel monde vit-on ? Gucci ,Chanel J'ai mieux que le khaliss pour les femelles matérialistes N'aie pas honte de gagner ta vie à la sueur de tes cuisses N'aie pas honte si tu kiffes le sexe, la luxure Si je te laisse, ne soit pas triste, on te plaît, faut que ça suture Mouah, je veux être ton plus-que-parfait, presque futur Je veux que tu griffes mon dos avec ta french manucure Une belle fleur ça s'arrose, je veux entrer dans ton rose Je te veux à mon poignet comme une montre Bell Ross Zdededegirl, elle scelle mon cur avec son armature T'inquiète elle est belle et grosse,...ma voiture You might also like Je les aime classe, épilées, des aisselles au maillot C'est pas vrai, j'ai pas la Benz Sl de Romario Mon sang se diffuse, se déplace, je durci Elle m'appuie sur la tête ni vu ni cuni' Zdededegirl n'est pas une biatch, zdededegirl est une fille mature Zdededegirl aime les liasses, les rée-ois, les voitures Zdededegirl aime la chantilly, le Nutella, la confiture Zdededegirl est une coquine, c'est marqué sur sa figure Zdededegirl n'est pas une biatch, zdededegirl est une fille mature Zdededegirl aime les liasses, les rée-ois, les voitures Zdededegirl aime la chantilly, le Nutella, la confiture Zdededegirl est un missile, elle est gâtée par Dame Nature Elle me drague sur Facebook donc je change de pseudo Elle le veut son magnum, son matu', son géro' Mouah, pour ça faut que je valide ton ticket de métro Faut jamais dire femme fontaine, je ne boirai pas de ton eau! Je les aime de Thaïlande, métisses et cambrées Elles fondent sous ma langue comme les bêtises de Cambrai Ta bouche est sucrée, ton sexe est salé On se laisse aller, ne partage pas, on ne fait que s'essayer Ça y est, je viens, j'arrive, plus un geste J'ai envie de baiser... la main d'une princesse Mes lèvres dans un kalash, zdedededex rafale de bisous File moi ton M.S.N qu'on se fasse une sex-game, mon p'tit lapinou</t>
+          <t>Elles veulent du sexationnel, du sexationnel Du sexe exceptionnel, un mec exceptionnel Du sexationnel, du sexationnel Elle est sur moi, je suis en elle, un jet pour le septième ciel Du sexationnel, du sexationnel Du sexe exceptionnel, un mec exceptionnel Du sexationnel, du sexationnel De l'oseille, du Soleil, de l'extra sensoriel Je les aime chocolat, couleur nougat ou caramel Dans quel monde vit-on ? Gucci ,Chanel J'ai mieux que le khaliss pour les femelles matérialistes N'aie pas honte de gagner ta vie à la sueur de tes cuisses N'aie pas honte si tu kiffes le sexe, la luxure Si je te laisse, ne soit pas triste, on te plaît, faut que ça suture Mouah, je veux être ton plus-que-parfait, presque futur Je veux que tu griffes mon dos avec ta french manucure Une belle fleur ça s'arrose, je veux entrer dans ton rose Je te veux à mon poignet comme une montre Bell Ross Zdededegirl, elle scelle mon cur avec son armature T'inquiète elle est belle et grosse,...ma voiture Je les aime classe, épilées, des aisselles au maillot C'est pas vrai, j'ai pas la Benz Sl de Romario Mon sang se diffuse, se déplace, je durci Elle m'appuie sur la tête ni vu ni cuni' Zdededegirl n'est pas une biatch, zdededegirl est une fille mature Zdededegirl aime les liasses, les rée-ois, les voitures Zdededegirl aime la chantilly, le Nutella, la confiture Zdededegirl est une coquine, c'est marqué sur sa figure Zdededegirl n'est pas une biatch, zdededegirl est une fille mature Zdededegirl aime les liasses, les rée-ois, les voitures Zdededegirl aime la chantilly, le Nutella, la confiture Zdededegirl est un missile, elle est gâtée par Dame Nature Elle me drague sur Facebook donc je change de pseudo Elle le veut son magnum, son matu', son géro' Mouah, pour ça faut que je valide ton ticket de métro Faut jamais dire femme fontaine, je ne boirai pas de ton eau! Je les aime de Thaïlande, métisses et cambrées Elles fondent sous ma langue comme les bêtises de Cambrai Ta bouche est sucrée, ton sexe est salé On se laisse aller, ne partage pas, on ne fait que s'essayer Ça y est, je viens, j'arrive, plus un geste J'ai envie de baiser... la main d'une princesse Mes lèvres dans un kalash, zdedededex rafale de bisous File moi ton M.S.N qu'on se fasse une sex-game, mon p'tit lapinou</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jme suis fait respecter en mettant quelques droites Ma vie finira emballée dans quelques boîtes Alors jkicke ce rap comme possédé par un démon La prison est une michtonneuse, gare à tes ronds Que personne vienne minterrompre, on pense quà rapper on Sait tous que le Diable a une tête dange Joff Baratheon MC, tu voles mes rimes, tas même pas la té-hon Donne une arme aux gue-din et cest lArmageddon Et il sera trop tard quand ces abrutis verront Qucest mieux de marcher en silence avec les Hommes de Dieu Que drouler avec Satan en Bugatti Veyron Mais en Enfer, ces messieurs y verront qudu feu Ouais, jai la bouche en feu, tu crois qujenvoie une rime, mais jenvoie une flamme Quand Satan est absent, il envoie une femme Le feu va pas en prison mais fait peur aux gendarmes Ptit écolier de rue, jsuis devenu prof de la punchline On me lavait dit étant ptit La vérité est dans ldîn Toute la jeunesse est dans ldeal Le bloc de shit est dans ljean On me lavait dit étant ptit La vérité est dans ldîn Mais toute la jeunesse est dans ldeal You might also like Ressens ma mélancolie Pas croire en Dieu est un pêché que même le Diable na pas commis Appelle-moi Seth Guex, Nico ou las-co-Ni Mon stylo crie à lagonie comme Tiken Jah Fakoly On veut lParadis mais ya ni panneau, ni indication Je nattends deux, ni cadeau, ni invitation Les ptits bacheliers font de mes punchlines des citations Jpéra la haine que jai en moi, pas son incitation Mais néanmoins quand jvois un ptit, jtente de laiguiller Jai pas dfans, jai que des écuyers Pleurer jai jamais réussi pourtant jai essayé Ne verse pas dlarmes pour quelquun qui nsera pas là pour les essuyer Ne verse pas dsueur pour devenir louvrier du mois Être lesclave de son patron cest être le bouclier du roi Obéir à leurs lois, personne peut my forcer Jsuis marié à la rue, pas prêt de divorcer On me lavait dit étant ptit La vérité est dans ldîn Toute la jeunesse est dans ldeal Le bloc de shit est dans ljean On me lavait dit étant ptit La vérité est dans ldîn Mais toute la jeunesse est dans ldeal2</t>
+          <t>Jme suis fait respecter en mettant quelques droites Ma vie finira emballée dans quelques boîtes Alors jkicke ce rap comme possédé par un démon La prison est une michtonneuse, gare à tes ronds Que personne vienne minterrompre, on pense quà rapper on Sait tous que le Diable a une tête dange Joff Baratheon MC, tu voles mes rimes, tas même pas la té-hon Donne une arme aux gue-din et cest lArmageddon Et il sera trop tard quand ces abrutis verront Qucest mieux de marcher en silence avec les Hommes de Dieu Que drouler avec Satan en Bugatti Veyron Mais en Enfer, ces messieurs y verront qudu feu Ouais, jai la bouche en feu, tu crois qujenvoie une rime, mais jenvoie une flamme Quand Satan est absent, il envoie une femme Le feu va pas en prison mais fait peur aux gendarmes Ptit écolier de rue, jsuis devenu prof de la punchline On me lavait dit étant ptit La vérité est dans ldîn Toute la jeunesse est dans ldeal Le bloc de shit est dans ljean On me lavait dit étant ptit La vérité est dans ldîn Mais toute la jeunesse est dans ldeal Ressens ma mélancolie Pas croire en Dieu est un pêché que même le Diable na pas commis Appelle-moi Seth Guex, Nico ou las-co-Ni Mon stylo crie à lagonie comme Tiken Jah Fakoly On veut lParadis mais ya ni panneau, ni indication Je nattends deux, ni cadeau, ni invitation Les ptits bacheliers font de mes punchlines des citations Jpéra la haine que jai en moi, pas son incitation Mais néanmoins quand jvois un ptit, jtente de laiguiller Jai pas dfans, jai que des écuyers Pleurer jai jamais réussi pourtant jai essayé Ne verse pas dlarmes pour quelquun qui nsera pas là pour les essuyer Ne verse pas dsueur pour devenir louvrier du mois Être lesclave de son patron cest être le bouclier du roi Obéir à leurs lois, personne peut my forcer Jsuis marié à la rue, pas prêt de divorcer On me lavait dit étant ptit La vérité est dans ldîn Toute la jeunesse est dans ldeal Le bloc de shit est dans ljean On me lavait dit étant ptit La vérité est dans ldîn Mais toute la jeunesse est dans ldeal2</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Cherche pas à savoir si j'mange ou pas du re-po À l'heure du repas, on garde toujours la re-pa du vre-pau J'regarde Eurosport, il est temps qu'j'reprenne le re-spo Toi ton p'tit cul m'donne faim invite ma bite au resto J'fais mon visa thaï, j'suis au Trocadéro Dis-moi quelle chienne de garde veut la bite de Roger Rapeau Zdédédicace à mon grand-père et ses râteaux Bardiss, Mcfly, DJ Weedim et son Serato Re-pu est la ke-co, re-du est la gue-dro J'te mets des tapes sur l'cul, j'te prends en levrette comme le Khal Drogo Sors-moi un verre de Damoiseau, glace pilée Le Père Noël est une ordure on l'a fait cuir dans la cheminée La chatte à Oprah Winfrey, la chatte à Rika Zaraï P'tit hatay, on bande dur comme au Galatasaray Règlement de compte sur l'Boulevard Raspail Tirer au grenaille c'est mal vu comme le tire à la raspaille Aïe, ça c'est pour mes joueurs de pétanque J'suis un gros poisson et j'suis monté comme un hippocampe Ouais un requin avec une bite de cheval de mer Si on a sorti la même punchline, c'est qu'c'était de la grosse de-mer Faut pas vendre la peau d'l'ours mal léché L'euro c'est une carotte à faire bander un maraîcher ou mouiller la maraîchère J'me fais discret car que tout c'qui est rare est cher J'ai des Bad Cowboys jusque dans l'Loir-et-Cher J'suis aussi blanc qu'Kery est Noir et fier Parle pas de punchlines si tu sais pas les faire Le clash, c'est la dernière lueur d'espoir d'un mec dans l'gouffre Prends moi pour une tête d'ampoule, j'te fais une bête d'embrouille de ouf You might also like Seth Guex, ça c'est pour mes Gueko Youth Zdedededex ! T'auras toujours des ennemis même si tu suces comme un pro J'monte mes propres ness-bi, l'industrie est sourde comme un pot J'ai un tas de progéniture de tapins dans l'collimateur Gros coup d'défibrillateur sur l'instru d'Holy Water L'index droit dans le cul du game, l'autre posé sur une chette-gâ Vos groupies font les hlels mais qui est-ce qui les baise en chette-ca ? Vous kiffez sur des fakes, j'rafale pour qu'ces pédés clamsent J'ai le bre-chi qu'est grave re-du, assez pour couper des diam's Comment ça elles écoutent du rap et elles m'connaissent ap' toutes ces p'tites victimes ? D'où ils diffusent du rap et ils m'passent ap' ces médias d'bitches ? Vos carrières seront dead, vos affaires ne trouveront pas de repreneurs Yuri sort de son bed et annonce une nouvelle vague de tre-meur Jeune coupable, libre, nègre et entrepreneur 45 mon bastion, mon QG, mon humble demeure C'était juste un petit puzzle de mots et de pensées Que le hip-hop français s'immole avec du censé MC arrête ton char, j'trouve que tu dépasses les bornes Imbécile t'as rien de brillant, t'as juste un excès de sebum Saoule pas avec tes histoires de cur, ma sur Ou au pire accepte le sexe anal ça te fera toujours moins mal que d'être seul Bref, Karma dans les bacs Depuis le 24 juin, Film BO Seth Guek's, N.I.R.O Escobar Macson, fiane-So Bassirou Dosseh la Famine</t>
+          <t>Cherche pas à savoir si j'mange ou pas du re-po À l'heure du repas, on garde toujours la re-pa du vre-pau J'regarde Eurosport, il est temps qu'j'reprenne le re-spo Toi ton p'tit cul m'donne faim invite ma bite au resto J'fais mon visa thaï, j'suis au Trocadéro Dis-moi quelle chienne de garde veut la bite de Roger Rapeau Zdédédicace à mon grand-père et ses râteaux Bardiss, Mcfly, DJ Weedim et son Serato Re-pu est la ke-co, re-du est la gue-dro J'te mets des tapes sur l'cul, j'te prends en levrette comme le Khal Drogo Sors-moi un verre de Damoiseau, glace pilée Le Père Noël est une ordure on l'a fait cuir dans la cheminée La chatte à Oprah Winfrey, la chatte à Rika Zaraï P'tit hatay, on bande dur comme au Galatasaray Règlement de compte sur l'Boulevard Raspail Tirer au grenaille c'est mal vu comme le tire à la raspaille Aïe, ça c'est pour mes joueurs de pétanque J'suis un gros poisson et j'suis monté comme un hippocampe Ouais un requin avec une bite de cheval de mer Si on a sorti la même punchline, c'est qu'c'était de la grosse de-mer Faut pas vendre la peau d'l'ours mal léché L'euro c'est une carotte à faire bander un maraîcher ou mouiller la maraîchère J'me fais discret car que tout c'qui est rare est cher J'ai des Bad Cowboys jusque dans l'Loir-et-Cher J'suis aussi blanc qu'Kery est Noir et fier Parle pas de punchlines si tu sais pas les faire Le clash, c'est la dernière lueur d'espoir d'un mec dans l'gouffre Prends moi pour une tête d'ampoule, j'te fais une bête d'embrouille de ouf Seth Guex, ça c'est pour mes Gueko Youth Zdedededex ! T'auras toujours des ennemis même si tu suces comme un pro J'monte mes propres ness-bi, l'industrie est sourde comme un pot J'ai un tas de progéniture de tapins dans l'collimateur Gros coup d'défibrillateur sur l'instru d'Holy Water L'index droit dans le cul du game, l'autre posé sur une chette-gâ Vos groupies font les hlels mais qui est-ce qui les baise en chette-ca ? Vous kiffez sur des fakes, j'rafale pour qu'ces pédés clamsent J'ai le bre-chi qu'est grave re-du, assez pour couper des diam's Comment ça elles écoutent du rap et elles m'connaissent ap' toutes ces p'tites victimes ? D'où ils diffusent du rap et ils m'passent ap' ces médias d'bitches ? Vos carrières seront dead, vos affaires ne trouveront pas de repreneurs Yuri sort de son bed et annonce une nouvelle vague de tre-meur Jeune coupable, libre, nègre et entrepreneur 45 mon bastion, mon QG, mon humble demeure C'était juste un petit puzzle de mots et de pensées Que le hip-hop français s'immole avec du censé MC arrête ton char, j'trouve que tu dépasses les bornes Imbécile t'as rien de brillant, t'as juste un excès de sebum Saoule pas avec tes histoires de cur, ma sur Ou au pire accepte le sexe anal ça te fera toujours moins mal que d'être seul Bref, Karma dans les bacs Depuis le 24 juin, Film BO Seth Guek's, N.I.R.O Escobar Macson, fiane-So Bassirou Dosseh la Famine</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'prends dix piges direct si l'juge fait témoigner les paumes de mes mains Welcome au gomme-cogne, ouais come again, come J'veux laisser des traces comme des pneus en gomme de R1 Tu peux pas nous louper H24, j'colle le terrain Fais pas d'bruit sous la fenêtre, ma mère c'est pas une bonne sur Elle t'jette un pot d'fleurs ou une pomme de terre, hein J'arrive du haut d'mon toit comme une pavasse de roche, beu-bwah J'rappe pour meubler l'appart' de ma mère chez Roche Bobois Qu'est-ce que j'm'en bats les cacahuètes macadamia De devenir bourgeois, bats les couilles moi Pas d'diplômes pour faire 36-15-Académia Ils vont bientôt apprendre à sucer en secrétariat Tu veux un secret, c'est par là Ils nous ont menottés à la misère, ils ont avalé l'jeu d'clés, les parias La rage d'un charbougnat auvergnat Dix ans d'avance comme si j'étais atteint d'la progéria J'me suis sapé tout seul en Ermenegildo Zegna P'tit bâtard, va Tu m'dois des loves, on t'enterre dans l'jardin d'grand-père entre deux batavias Raconte pas ta vie, arrête ton charabia Arrête ton cinéma, arrête d'ouvrir ton cul là J'ai trop d'potes au gnouf à cause de boloss qui savent pas s'taire Si t'ouvres ta bouche comme Heather Brooke Tu mérites qu'une bastos introduise ta chair Aucun schmit mérite ce monde comme Beetlejuice et Casper J'veux dix scalps de nazis comme dans Inglourious Basterds Autant d'punchlines qu'il y a d'dealeurs d'chnouf au Cap-Vert Va t'faire avec tes peanuts pour hamster Moi j'ai la dalle de dix taureaux, espèce de tass Signe-moi mes droits éditoriaux que j'me casse Déterre Hitler que je le schlasse, ramène ta mère que j'te refasse M'reproche pas d'faire des trucs dégueulasses Même une sage-femme a du sang sur les mains, que j'sache J'suis le plus beau des moches et j'te pousse du haut des roches Comme ça y aura pas d'arme du crime comme dans l'Cluedo des mioches J'marche avec des keuss, des morches, c'est ça les re-frè d'une tess Pour voir si j'suis frais, j'me regarde toujours dans les reflets d'une caisse Mais j'y vois qu'du stress, mes vieux péchés ont de l'ombre sombre J'rappe pour mes gars, mes potos Mes frères qu'on fait mécanique-auto, qu'ont encore des copeaux d'fer sous les ongles Faire du biff nous monte au veau-cer toutes les secondes Mais j'y peux rien, c'est maladif J'crois qu'j'ai besoin d'une sieste réparatrice T'es fou, j'dormirai quand j'serai mort, ici on a pas le temps d'nehess J'compte pas les moutons bouffon, j'compte les bastos qui m'restent You might also like C'est l'retour de Seth Guex Zdededex J'suis venu mettre les couilles du rap game dans un putain d'mixeur Moulinex Que tout le monde lève le majeur J'arrive, jambes de cyclistes, avant-bras d'déménageurs Torse de maître-nageur Swagg de footballeurs On combat pas l'raciste avec un stylo quatre couleurs J'arrive comme une giclée de cyprine Gamine devine aux platines, c'est DJ Squirt Killer J'arrive, ventre de catcheur, tête de braqueur Avec un zgèg de hardeur C'est l'retour de Seth Guex C'est l'retour du forain Hein mon cousin1</t>
+          <t>J'prends dix piges direct si l'juge fait témoigner les paumes de mes mains Welcome au gomme-cogne, ouais come again, come J'veux laisser des traces comme des pneus en gomme de R1 Tu peux pas nous louper H24, j'colle le terrain Fais pas d'bruit sous la fenêtre, ma mère c'est pas une bonne sur Elle t'jette un pot d'fleurs ou une pomme de terre, hein J'arrive du haut d'mon toit comme une pavasse de roche, beu-bwah J'rappe pour meubler l'appart' de ma mère chez Roche Bobois Qu'est-ce que j'm'en bats les cacahuètes macadamia De devenir bourgeois, bats les couilles moi Pas d'diplômes pour faire 36-15-Académia Ils vont bientôt apprendre à sucer en secrétariat Tu veux un secret, c'est par là Ils nous ont menottés à la misère, ils ont avalé l'jeu d'clés, les parias La rage d'un charbougnat auvergnat Dix ans d'avance comme si j'étais atteint d'la progéria J'me suis sapé tout seul en Ermenegildo Zegna P'tit bâtard, va Tu m'dois des loves, on t'enterre dans l'jardin d'grand-père entre deux batavias Raconte pas ta vie, arrête ton charabia Arrête ton cinéma, arrête d'ouvrir ton cul là J'ai trop d'potes au gnouf à cause de boloss qui savent pas s'taire Si t'ouvres ta bouche comme Heather Brooke Tu mérites qu'une bastos introduise ta chair Aucun schmit mérite ce monde comme Beetlejuice et Casper J'veux dix scalps de nazis comme dans Inglourious Basterds Autant d'punchlines qu'il y a d'dealeurs d'chnouf au Cap-Vert Va t'faire avec tes peanuts pour hamster Moi j'ai la dalle de dix taureaux, espèce de tass Signe-moi mes droits éditoriaux que j'me casse Déterre Hitler que je le schlasse, ramène ta mère que j'te refasse M'reproche pas d'faire des trucs dégueulasses Même une sage-femme a du sang sur les mains, que j'sache J'suis le plus beau des moches et j'te pousse du haut des roches Comme ça y aura pas d'arme du crime comme dans l'Cluedo des mioches J'marche avec des keuss, des morches, c'est ça les re-frè d'une tess Pour voir si j'suis frais, j'me regarde toujours dans les reflets d'une caisse Mais j'y vois qu'du stress, mes vieux péchés ont de l'ombre sombre J'rappe pour mes gars, mes potos Mes frères qu'on fait mécanique-auto, qu'ont encore des copeaux d'fer sous les ongles Faire du biff nous monte au veau-cer toutes les secondes Mais j'y peux rien, c'est maladif J'crois qu'j'ai besoin d'une sieste réparatrice T'es fou, j'dormirai quand j'serai mort, ici on a pas le temps d'nehess J'compte pas les moutons bouffon, j'compte les bastos qui m'restent C'est l'retour de Seth Guex Zdededex J'suis venu mettre les couilles du rap game dans un putain d'mixeur Moulinex Que tout le monde lève le majeur J'arrive, jambes de cyclistes, avant-bras d'déménageurs Torse de maître-nageur Swagg de footballeurs On combat pas l'raciste avec un stylo quatre couleurs J'arrive comme une giclée de cyprine Gamine devine aux platines, c'est DJ Squirt Killer J'arrive, ventre de catcheur, tête de braqueur Avec un zgèg de hardeur C'est l'retour de Seth Guex C'est l'retour du forain Hein mon cousin1</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>I-I-I-I.N.C.H Hun Ok Considère c'couplet comme le texte de l'année J'rappe sans tabous comme James Delaney Dans les rues de London London, j'me méfie toujours de ce que l'Homme donne donc cesse de râler J'n'ai confiance en personne, mon Smith Wesson s'appelle Personne Et j'ai confiance en Personne, han C'est l'retour du mac comme Mark Morrison Vos rappeurs vendent leur âme au diable pour de maudites sommes Positionne-toi à quat' pattes, tu m'serviras de table basse, tu m'renvoies l'ascenseur dans l'espoir que le câble casse Pousse le son dans l'caisson d'basses, passe à la maison mais crois pas qu'l'appart', c'est une maison d'passes J'arrive comme coup d'schlass dans l'pancréas Schlass, yarr, schlass Armé comme dans San Andreas Hey yo Chaque été, j'squatte en terrasse, on aime les grosses pouf' et la bonne bouffe comme André Kaas Caillasser les keufs, ça évacue la peur des gosses, faut bien lui fracasser les seuf', ouh Elle t'insultera d'éjaculateur précoce, j'fais du biff, ça fait jacasser les meufs J'me bats pour ramasser des yeufs, mais tes proches sont calculateurs, c'est moche J'suis d'venu un putain d'animal féroce J'bouffe le micro, c'est Cannibal Ferox, on t'baise à deux, les couilles s'entrechoquent, ça fait l'bruit des cloches Whisky d'Écosse sur mes céréales Corn Flakes Corn Flakes, la police fédérale m'oppresse J'me suis perdu dans ton vaginal vortex, une case en moins dans mon putain d'cérébral cortex Cortex Ils veulent que j'fasse d'la trap grotesque mais j'préfère le rap côte Est à la Tribe Called Quest Seth Gueks, Saint-Ouen l'Aumône tieks Gyeah, mate le biceps, aux poings j'peux fracasser la vitre Mate les biceps, si j'me branle, j'peux m'arracher la bite Ils parlent tous de strass et d'paillettes, je n'vois que stress et faillite J'ai les crocs et t'ôter la vie j'ai failli Le shit est cellophané, t'as pas la grosse tête, MC, t'as une hydrocéphalie Y a qu'pour toi qu'un micro c'est phallique et s'faire braquer à la fin d'leurs showcases, c'est tout c'que vos rappeurs méritent Le coup d'bite, le bout d'shit, j'facture les deux Lil n'a pas d'os mais le swag te fracture les yeux You might also like Destroy Hun</t>
+          <t>I-I-I-I.N.C.H Hun Ok Considère c'couplet comme le texte de l'année J'rappe sans tabous comme James Delaney Dans les rues de London London, j'me méfie toujours de ce que l'Homme donne donc cesse de râler J'n'ai confiance en personne, mon Smith Wesson s'appelle Personne Et j'ai confiance en Personne, han C'est l'retour du mac comme Mark Morrison Vos rappeurs vendent leur âme au diable pour de maudites sommes Positionne-toi à quat' pattes, tu m'serviras de table basse, tu m'renvoies l'ascenseur dans l'espoir que le câble casse Pousse le son dans l'caisson d'basses, passe à la maison mais crois pas qu'l'appart', c'est une maison d'passes J'arrive comme coup d'schlass dans l'pancréas Schlass, yarr, schlass Armé comme dans San Andreas Hey yo Chaque été, j'squatte en terrasse, on aime les grosses pouf' et la bonne bouffe comme André Kaas Caillasser les keufs, ça évacue la peur des gosses, faut bien lui fracasser les seuf', ouh Elle t'insultera d'éjaculateur précoce, j'fais du biff, ça fait jacasser les meufs J'me bats pour ramasser des yeufs, mais tes proches sont calculateurs, c'est moche J'suis d'venu un putain d'animal féroce J'bouffe le micro, c'est Cannibal Ferox, on t'baise à deux, les couilles s'entrechoquent, ça fait l'bruit des cloches Whisky d'Écosse sur mes céréales Corn Flakes Corn Flakes, la police fédérale m'oppresse J'me suis perdu dans ton vaginal vortex, une case en moins dans mon putain d'cérébral cortex Cortex Ils veulent que j'fasse d'la trap grotesque mais j'préfère le rap côte Est à la Tribe Called Quest Seth Gueks, Saint-Ouen l'Aumône tieks Gyeah, mate le biceps, aux poings j'peux fracasser la vitre Mate les biceps, si j'me branle, j'peux m'arracher la bite Ils parlent tous de strass et d'paillettes, je n'vois que stress et faillite J'ai les crocs et t'ôter la vie j'ai failli Le shit est cellophané, t'as pas la grosse tête, MC, t'as une hydrocéphalie Y a qu'pour toi qu'un micro c'est phallique et s'faire braquer à la fin d'leurs showcases, c'est tout c'que vos rappeurs méritent Le coup d'bite, le bout d'shit, j'facture les deux Lil n'a pas d'os mais le swag te fracture les yeux Destroy Hun</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'aime me balader sur la capitale avec une arme J'suis pas un homme, j'suis un animal avec une âme Ma rage est incurable, ils m'ont rej'té l'ordonnance Ma patience s'arrête là où mon mange tes morts ! commence J'étais nul en dictée, mon orthographe me crame Si tu baises pas, improvise-toi photographe de charme J'suis pas MC, j'suis un prof' d'histoire Les rues et les cités d'ma ville sont les universités d'ma vie À l'école de la rue, t'es ton propre teacher La musique de nos grands frères est d'venue celle de vos p'tites surs Le rap s'écoute avec les oreilles pas avec la bouche Jhon Rachid vous l'a dit sur Twitter Que les couilles, il ne suffit pas d'se les arroser pour qu'elles poussent Qu'il faut pas avoir peur de tâcher son t-shirt tee-shirt Parce que la rue ça éclabousse bwrah Car la rue, ça rime avec la brousse Et c'est les flics aux trousses que j'vous livre mon nouveau cru J'préfère habiter le trou du cul du monde qu'un monde de trous du cul Le rap va mal, personne s'en préoccupe Crois-tu qu'le rêve d'un jaguar, c'est un blouson en peau d'pute ? Jantes Cragar sur Ford Mustang J'suis un cerveau comme Krang, rien n'm'amuse, tangue Entre bien et mal, scarifié, j'suis pas l'gendre idéal Ils veulent me calcifier la glande pinéale Rien n'est falsifié, tu cherches le gang ? Il est àl Abracadabra, on t'braque un dabiste Au Canada, le cannabis n'est plus substance illégale Toi, me fais pas la bise, tu m'dois des thunes alors recompte bien Tous les week-end t'as un rhume colombien Arrête de t'taper, t'as plus de cernes que de seins Tout est là cous', de la Chivas Regal à la Clicquot Ponsardin J'recherche deux-trois vegans pour brouter la p'louse de mon jardin Je serai jamais un esclave du matin Nique Balmain, nique Cardin, j'mets du Polo Sport Et j'maîtrise l'horrorcore comme Gravediggaz J'fais rire comme Pennywise, on combattra l'racisme qu'avec le métissage La rime est grivoise, personne ne mapprivoise Mes barlous viennent me voir à Phuket pour leur pèlerinage Je suis un gros rapia, mais jamais bu de Villageoise Pour apprécier l'Olympia, faut avoir fait la Bellevilloise Calme ta oie-j, j'ai jamais bu d'Romanée-Conti T'as percé dans l'rap quand t'as le public du Marais conquis Les p'tits en ont marre des comptines du Père Castor Ils veulent des twerks hardcores avec Anne-Laure et Galmore - également On est dans l'égarement, j'ai un cerveau et une queue mais pas assez d'sang Pour alimenter les deux en même temps J'me nutrifie avec leur sang, j'me bonifie avec le temps Comme l'édifice d'Alex le Grand Face au lion de Bazaria J'les terrifie avec mon clan depuis l'époque d'la Bavaria You might also like Alors respecte la rime Seth Guex ma gueule Tes super-héros, c'est les pompiers, nan c'est pas les Marvel C'est le next level Saint-Ouen l'Aumône tieks G'yeah The realness, the realness The realness, the realness The realness, the realness</t>
+          <t>J'aime me balader sur la capitale avec une arme J'suis pas un homme, j'suis un animal avec une âme Ma rage est incurable, ils m'ont rej'té l'ordonnance Ma patience s'arrête là où mon mange tes morts ! commence J'étais nul en dictée, mon orthographe me crame Si tu baises pas, improvise-toi photographe de charme J'suis pas MC, j'suis un prof' d'histoire Les rues et les cités d'ma ville sont les universités d'ma vie À l'école de la rue, t'es ton propre teacher La musique de nos grands frères est d'venue celle de vos p'tites surs Le rap s'écoute avec les oreilles pas avec la bouche Jhon Rachid vous l'a dit sur Twitter Que les couilles, il ne suffit pas d'se les arroser pour qu'elles poussent Qu'il faut pas avoir peur de tâcher son t-shirt tee-shirt Parce que la rue ça éclabousse bwrah Car la rue, ça rime avec la brousse Et c'est les flics aux trousses que j'vous livre mon nouveau cru J'préfère habiter le trou du cul du monde qu'un monde de trous du cul Le rap va mal, personne s'en préoccupe Crois-tu qu'le rêve d'un jaguar, c'est un blouson en peau d'pute ? Jantes Cragar sur Ford Mustang J'suis un cerveau comme Krang, rien n'm'amuse, tangue Entre bien et mal, scarifié, j'suis pas l'gendre idéal Ils veulent me calcifier la glande pinéale Rien n'est falsifié, tu cherches le gang ? Il est àl Abracadabra, on t'braque un dabiste Au Canada, le cannabis n'est plus substance illégale Toi, me fais pas la bise, tu m'dois des thunes alors recompte bien Tous les week-end t'as un rhume colombien Arrête de t'taper, t'as plus de cernes que de seins Tout est là cous', de la Chivas Regal à la Clicquot Ponsardin J'recherche deux-trois vegans pour brouter la p'louse de mon jardin Je serai jamais un esclave du matin Nique Balmain, nique Cardin, j'mets du Polo Sport Et j'maîtrise l'horrorcore comme Gravediggaz J'fais rire comme Pennywise, on combattra l'racisme qu'avec le métissage La rime est grivoise, personne ne mapprivoise Mes barlous viennent me voir à Phuket pour leur pèlerinage Je suis un gros rapia, mais jamais bu de Villageoise Pour apprécier l'Olympia, faut avoir fait la Bellevilloise Calme ta oie-j, j'ai jamais bu d'Romanée-Conti T'as percé dans l'rap quand t'as le public du Marais conquis Les p'tits en ont marre des comptines du Père Castor Ils veulent des twerks hardcores avec Anne-Laure et Galmore - également On est dans l'égarement, j'ai un cerveau et une queue mais pas assez d'sang Pour alimenter les deux en même temps J'me nutrifie avec leur sang, j'me bonifie avec le temps Comme l'édifice d'Alex le Grand Face au lion de Bazaria J'les terrifie avec mon clan depuis l'époque d'la Bavaria Alors respecte la rime Seth Guex ma gueule Tes super-héros, c'est les pompiers, nan c'est pas les Marvel C'est le next level Saint-Ouen l'Aumône tieks G'yeah The realness, the realness The realness, the realness The realness, the realness</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah ah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait J'sais quta mère fait que des passes On fait dlespèces, on le déplace Jsuis avec Seth en direct de Phuket, les croquettes on les efface Putain, jsors du chtar, jprends ma villa Tu rackettes pour des Fila Écoute le rap daujourdhui, ils font pas mieux que Nabilla Pour commencer, jsuis défoncé Quand jvends des litres, toi tu sais pas sur quel pied danser Jamais davance, sale fils de pute, plus de 6 chiffres pour financer Tas dénoncé, le mitard, tu sais pas comment cest Ils ont plein de piques, on na que des grenades à lancer Tu grattes des sous, ferme ta gueule Jsuis à létage, tes à laccueil Tes vivant, au placard On sévade pas de son cercueil La vérité, tu la connais, tu nes personne, tas déconné On fait du rap, demande à Belek Et toute la rue ta détrôné You might also like Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah ah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait Ta joue mérite même pas une claque, ton clip même pas un clic On nouvre pas la bouche dune pute avec une clé à pipes Les femmes cest comme le cristal cest beau, mais ça scasse vite Moi, personne marrive à la cheville, à part ma bite Ou pt-être Giant Coucou, lÉtat, les lois, les flics, jmen bats les gnettes-coucou On met que dla haute coucou Touche à mon fric, ça part en balayette, coup dcoude Ça ira jusquau clic, ça ira jusquau boom Les soucis cest comme les bijoux jen ai jusquau cou Jvais mettre dla glue sur mon sexe pour que ça colle entre nous Nan, jte lécherai pas lminou si tas des poils Entre nous, jaurais limpression drouler une pelle à Chabal Jaime parler maille autour dun grand cru J-Lo, Beyoncé ? La question avec un gros Q Fais pas lchaud, au cachot tes pas chaud dy aller Flic facho à grosse diarrhée, jvais vous nachovidaler Yeah Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah rah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait</t>
+          <t>Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah ah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait J'sais quta mère fait que des passes On fait dlespèces, on le déplace Jsuis avec Seth en direct de Phuket, les croquettes on les efface Putain, jsors du chtar, jprends ma villa Tu rackettes pour des Fila Écoute le rap daujourdhui, ils font pas mieux que Nabilla Pour commencer, jsuis défoncé Quand jvends des litres, toi tu sais pas sur quel pied danser Jamais davance, sale fils de pute, plus de 6 chiffres pour financer Tas dénoncé, le mitard, tu sais pas comment cest Ils ont plein de piques, on na que des grenades à lancer Tu grattes des sous, ferme ta gueule Jsuis à létage, tes à laccueil Tes vivant, au placard On sévade pas de son cercueil La vérité, tu la connais, tu nes personne, tas déconné On fait du rap, demande à Belek Et toute la rue ta détrôné Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah ah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait Ta joue mérite même pas une claque, ton clip même pas un clic On nouvre pas la bouche dune pute avec une clé à pipes Les femmes cest comme le cristal cest beau, mais ça scasse vite Moi, personne marrive à la cheville, à part ma bite Ou pt-être Giant Coucou, lÉtat, les lois, les flics, jmen bats les gnettes-coucou On met que dla haute coucou Touche à mon fric, ça part en balayette, coup dcoude Ça ira jusquau clic, ça ira jusquau boom Les soucis cest comme les bijoux jen ai jusquau cou Jvais mettre dla glue sur mon sexe pour que ça colle entre nous Nan, jte lécherai pas lminou si tas des poils Entre nous, jaurais limpression drouler une pelle à Chabal Jaime parler maille autour dun grand cru J-Lo, Beyoncé ? La question avec un gros Q Fais pas lchaud, au cachot tes pas chaud dy aller Flic facho à grosse diarrhée, jvais vous nachovidaler Yeah Ta meilleure punchline cest quten as jamais fait Passe-moi lmicro, jvais tmontrer comment on fait Passe la kalash, jvais tmontrer comment on fait Rah rah, comme ça quon fait Rah rah, comme ça quon fait Et ça barode, ça barode dans la ville en Féfé Passe-moi le volant, jvais tmontrer comment on fait Passe-moi les clés, jvais tmontrer comment on fait Skuuur, comme ça quon fait Skuuur, comme ça quon fait</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Grosse beu-bar et tennis propres Grosse boule à Z comme Alfred Hitchcock J'ouvre la bouche et les rimes sortent T'ouvres la bouche pour les cumshots petite sôte Fais pas la belle T'es éclatée contre le sol comme Travis Scott Au rendez-vous dans 10 minutes J'sors ma bite en direct sur péniscope Pas le temps de faire philosophe comme Aristote C'est dans l'Eristoff que j'trempe mes biscottes Snap-moi ta chatte j'ferais pas d'screenshot J'sors de la salle de muscu, very stock Ils m'disent T'as trop pris! Pourquoi quand j'te chuchotte une punchline tu t'les appropris? Elle touche ma queue elle fait de la poterie Elle vend son corps c'est de la puterie PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA You might also like En gardav, jpète un cable jai les fils qui s'touchent J'suis dans l'carré VIP ya 2 filles qui se touchent BAAAAOH Meme les flics ils s'couchent Laisse-moi t'lécher la fleur d'ibiscus Grosse beu-bar d'homo erectus Jack Danus Coca-colus dans l'whiskus Fais péter l'sond d'barlou dans l'mercus La prod est signée par Cody On est des barlous barraqués pas barlou baraki J'suis sur mon balcony j'sirote mon Jack Honey Kalash sous l'canapé dis-moi tu parles à qui ? T'es pas un barlou t'es balourd arraches-toi d'ici Ya-t-il un crime qu'on a pas déjà commit ? Comme Balkany à Levallois-Clichy Coup de pression à ton mec le voilà qui chie Ya qu'face à Dieu que j'me rapetissis PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA On est des barlous barraqués pas barlou baraki T'es pas un barlou t'es balourd arraches-toi d'ici Pas de répit, j'dors que d'un il comme Wap Fetty J'suis dans l'jacuzzi cousine j'ai les oids flétrits Lunettes Versace comme Biggy POPA Jai plus de place pour m'piquer comme Iggy Pop PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA</t>
+          <t>Grosse beu-bar et tennis propres Grosse boule à Z comme Alfred Hitchcock J'ouvre la bouche et les rimes sortent T'ouvres la bouche pour les cumshots petite sôte Fais pas la belle T'es éclatée contre le sol comme Travis Scott Au rendez-vous dans 10 minutes J'sors ma bite en direct sur péniscope Pas le temps de faire philosophe comme Aristote C'est dans l'Eristoff que j'trempe mes biscottes Snap-moi ta chatte j'ferais pas d'screenshot J'sors de la salle de muscu, very stock Ils m'disent T'as trop pris! Pourquoi quand j'te chuchotte une punchline tu t'les appropris? Elle touche ma queue elle fait de la poterie Elle vend son corps c'est de la puterie PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA En gardav, jpète un cable jai les fils qui s'touchent J'suis dans l'carré VIP ya 2 filles qui se touchent BAAAAOH Meme les flics ils s'couchent Laisse-moi t'lécher la fleur d'ibiscus Grosse beu-bar d'homo erectus Jack Danus Coca-colus dans l'whiskus Fais péter l'sond d'barlou dans l'mercus La prod est signée par Cody On est des barlous barraqués pas barlou baraki J'suis sur mon balcony j'sirote mon Jack Honey Kalash sous l'canapé dis-moi tu parles à qui ? T'es pas un barlou t'es balourd arraches-toi d'ici Ya-t-il un crime qu'on a pas déjà commit ? Comme Balkany à Levallois-Clichy Coup de pression à ton mec le voilà qui chie Ya qu'face à Dieu que j'me rapetissis PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA On est des barlous barraqués pas barlou baraki T'es pas un barlou t'es balourd arraches-toi d'ici Pas de répit, j'dors que d'un il comme Wap Fetty J'suis dans l'jacuzzi cousine j'ai les oids flétrits Lunettes Versace comme Biggy POPA Jai plus de place pour m'piquer comme Iggy Pop PADAPAPA On joue de la mitraillette comme on joue du saxo PADAPAPA Ce soir on sort en club Faut pas qu'ten parle à papa PADAPAPA Vodka fraise Tagada Potte-ca et kamagra PADAPAPA HO PADAPAPA PADAPAPA PADAPAPA</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Au-dessus d'la cité planent que des corbeaux T'as la chatte vite irritée, t'as la virilité de Mathieu Delormeau T'es pas balèze, tu fais juste d'la rétention d'eau Ta meuf n'a pas d'seuf, n'ai pas peur, j'regardais juste la raie dans son dos J'ai les crocs, j'ouvres les bières rien qu'en souriant Un kalash dans lsophage, j'aime les raffaler de ses-pha et maffaler sur le sofa en soupirant Dans lautomobile, on écoute pas les forban Putain, t'es cheum, putain, t'es vraiment cheum archi cheum, mega cheum Tellement cheum qu'on dirait qu't'as fait ta photo de profil d'vant un miroir déformant Fini les balles à blanc, c'est l'risque quand t'es jeune et toi pour x raisons Tu clashais les gens sur les réseaux et snappais ta maison Puis, t'es rentré seul et ils t'ont eu Blarh comme triple X TENTACION Y'a d'la belle russe, fais péter les billets mauves billets mauves, billets mauves La plus belle ruse du riche, c'est d'faire croire qu'il est pauvre qu'il est pauvre, qu'il est pauvre On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte You might also like J'rentre sur l'beat comme dans une banque, tous à plat ventre J'évite les survêts coton car j'ai la poutre apparente J'ai les barlou en Poitou-Charente et Charleville-Mézières Et ton sac de rimes légères m'fait rien à part l'envie d'be-ger J'rap pour les cités d'France et les villages de gwer Mais j'ai honte de l'homme blanc quand j'pense à son pillage de terres Mon sport préféré, c'est le vidage de bière Car j'ai trop d'potes déférés et si la porte est fermée, monte le grillage de fer Méchanceté pure pour un kickage de snare T'es un inventeur de vie, tu fais des inventaires la nuit en mode étiquetage Leclerc T'es né d'un niquage de mère, quel héritage de merde Y'a d'la belle russe, fait péter les billets mauves billets mauves, billets mauves La plus belle ruse du riche, c'est d'faire croire qu'il est pauvre qu'il est pauvre, qu'il est pauvre On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On arrose toute la boîte Ta mère t'mettait des suppos, tu voulais toute la boîte J'ai ramené des kamagra, j'ai vendu toute la boîte</t>
+          <t>Au-dessus d'la cité planent que des corbeaux T'as la chatte vite irritée, t'as la virilité de Mathieu Delormeau T'es pas balèze, tu fais juste d'la rétention d'eau Ta meuf n'a pas d'seuf, n'ai pas peur, j'regardais juste la raie dans son dos J'ai les crocs, j'ouvres les bières rien qu'en souriant Un kalash dans lsophage, j'aime les raffaler de ses-pha et maffaler sur le sofa en soupirant Dans lautomobile, on écoute pas les forban Putain, t'es cheum, putain, t'es vraiment cheum archi cheum, mega cheum Tellement cheum qu'on dirait qu't'as fait ta photo de profil d'vant un miroir déformant Fini les balles à blanc, c'est l'risque quand t'es jeune et toi pour x raisons Tu clashais les gens sur les réseaux et snappais ta maison Puis, t'es rentré seul et ils t'ont eu Blarh comme triple X TENTACION Y'a d'la belle russe, fais péter les billets mauves billets mauves, billets mauves La plus belle ruse du riche, c'est d'faire croire qu'il est pauvre qu'il est pauvre, qu'il est pauvre On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte J'rentre sur l'beat comme dans une banque, tous à plat ventre J'évite les survêts coton car j'ai la poutre apparente J'ai les barlou en Poitou-Charente et Charleville-Mézières Et ton sac de rimes légères m'fait rien à part l'envie d'be-ger J'rap pour les cités d'France et les villages de gwer Mais j'ai honte de l'homme blanc quand j'pense à son pillage de terres Mon sport préféré, c'est le vidage de bière Car j'ai trop d'potes déférés et si la porte est fermée, monte le grillage de fer Méchanceté pure pour un kickage de snare T'es un inventeur de vie, tu fais des inventaires la nuit en mode étiquetage Leclerc T'es né d'un niquage de mère, quel héritage de merde Y'a d'la belle russe, fait péter les billets mauves billets mauves, billets mauves La plus belle ruse du riche, c'est d'faire croire qu'il est pauvre qu'il est pauvre, qu'il est pauvre On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On rentre pas, on nous r'cale, on arrose toute la boîte À la kala', au champagne on arrose toute la boîte Toute la boîte, toute la boîte, on arrose toute la boîte Le videur, le tron-pa, on arrose toute la boîte On arrose toute la boîte Ta mère t'mettait des suppos, tu voulais toute la boîte J'ai ramené des kamagra, j'ai vendu toute la boîte</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yeah Yo, yo, yo Y avait plus d'place en enfer donc je suis revenu Être riche en taffant à l'usine, personne l'est devenu Pas b'soin d'être vieux pour avoir du vécu Pas b'soin d'avoir des lovés pour lever les vrais culs J'ai jamais eu besoin d'sécu', j'roule pas en Ferrari, c'est voulu J'ai du mal à m'faire à l'idée qu'les MC's prennent des fers-à-lisser pour leur chevelure Il est pas né le keuf qui m'fera glisser Super star des caravanes, on est les tanges de la télé-réalité Les poètes sont morts, j'm'en vais les réanimer J'ai les crocs d'un canidé et le flow à Cardi B À la cité, mes sarrasins jouent les thugs La chambre de mes filles, c'est un magasin JouéClub Et ouais, quand on aime, on compte pas Vous allez m'trouvez zarb', mais j'connais l'équation Quand vous aurez coupé tous les arbres, pêché tous les poissons Vous verrez que l'argent ne se mange pas On est venu transgresser les lois On casse la porte pour rentrer chez les goieb' Mes deux grands-pères, j'les déçois L'alcool m'a transpercé le foie Ils nous laissent bicrave pour mieux nous péter plus tard C'est c'qu'ils appellent engraisser les oies You might also like Street Life Six million ways to die Street Life Nothin' but the real shit Only the strong survive Street Life Six million ways to die Street Life, until you play your life away J'vends du cannabis avec mes copains, tous ces rappeurs veulent me copier Moi, j'ai connu les coups d'botins, j'ai rien dit quand j'étais coffré J'ai écrasé des cafards avant l'pera et les trophées Dans la cave avec un bâtard qui m'dit Viens, on fait associés Et j'connais la route par cur, une odeur de pute par terre J'ai vu mon daron partir, il s'est bouché les artères Un professeur et un renard, bienvenue dans l'expérience Que de l'excellence et bientôt, j'habite à Exelmans Le Diakité, c'est moi, j'suis calibré des fois J'suis agité, j'ai pas d'pitié, on va t'niquer chez toi Bats les couilles d'vos rappeurs, d'vos showcases et de vos vues Le pe-ra, il est à nous, il est sorti de nos rues Et j'vais finir dans un tombeau, p't-être sous les décombres Avant qu'on creuse ma tombe, faut que j'bataille pour le Congo Sa mère la pute à c'lui qui m'teste, j'ai un Glock, un p'tit 17 J'te tire dessus si tu t'la pètes comme 50 Cent Dans mes rêves, j'rappais avec Seth, j'le pliais sur un beat Il m'a donné l'occasion et j'ai pas refusé l'invit' Et ils sont trop choux, pour me battre, il faut tricher Si tu bois avec moi, tu finis mort saoul Franchement Nico, le rap français, il a bien changé J'suis invité aux dîners d'cons, c'est toujours mieux qu'rien manger J'ferais toujours mieux mais j'ferais tout pour l'blé Depuis quatorze ans et bah, j'suis toujours vieux Street Life Life as a shorty shouldn't be so rough Street Life, nothin' but the real shit Only the strong survive Yo yo, Gueko Guizmo yogayo Giguiriguiz, giguirigueks woop woop ! YW ssblaaouuchh Néochrome zdedededex Until you play your life away Yogayo, yogayo Han Until you play your life away Until you play your life away1</t>
+          <t>Yeah Yo, yo, yo Y avait plus d'place en enfer donc je suis revenu Être riche en taffant à l'usine, personne l'est devenu Pas b'soin d'être vieux pour avoir du vécu Pas b'soin d'avoir des lovés pour lever les vrais culs J'ai jamais eu besoin d'sécu', j'roule pas en Ferrari, c'est voulu J'ai du mal à m'faire à l'idée qu'les MC's prennent des fers-à-lisser pour leur chevelure Il est pas né le keuf qui m'fera glisser Super star des caravanes, on est les tanges de la télé-réalité Les poètes sont morts, j'm'en vais les réanimer J'ai les crocs d'un canidé et le flow à Cardi B À la cité, mes sarrasins jouent les thugs La chambre de mes filles, c'est un magasin JouéClub Et ouais, quand on aime, on compte pas Vous allez m'trouvez zarb', mais j'connais l'équation Quand vous aurez coupé tous les arbres, pêché tous les poissons Vous verrez que l'argent ne se mange pas On est venu transgresser les lois On casse la porte pour rentrer chez les goieb' Mes deux grands-pères, j'les déçois L'alcool m'a transpercé le foie Ils nous laissent bicrave pour mieux nous péter plus tard C'est c'qu'ils appellent engraisser les oies Street Life Six million ways to die Street Life Nothin' but the real shit Only the strong survive Street Life Six million ways to die Street Life, until you play your life away J'vends du cannabis avec mes copains, tous ces rappeurs veulent me copier Moi, j'ai connu les coups d'botins, j'ai rien dit quand j'étais coffré J'ai écrasé des cafards avant l'pera et les trophées Dans la cave avec un bâtard qui m'dit Viens, on fait associés Et j'connais la route par cur, une odeur de pute par terre J'ai vu mon daron partir, il s'est bouché les artères Un professeur et un renard, bienvenue dans l'expérience Que de l'excellence et bientôt, j'habite à Exelmans Le Diakité, c'est moi, j'suis calibré des fois J'suis agité, j'ai pas d'pitié, on va t'niquer chez toi Bats les couilles d'vos rappeurs, d'vos showcases et de vos vues Le pe-ra, il est à nous, il est sorti de nos rues Et j'vais finir dans un tombeau, p't-être sous les décombres Avant qu'on creuse ma tombe, faut que j'bataille pour le Congo Sa mère la pute à c'lui qui m'teste, j'ai un Glock, un p'tit 17 J'te tire dessus si tu t'la pètes comme 50 Cent Dans mes rêves, j'rappais avec Seth, j'le pliais sur un beat Il m'a donné l'occasion et j'ai pas refusé l'invit' Et ils sont trop choux, pour me battre, il faut tricher Si tu bois avec moi, tu finis mort saoul Franchement Nico, le rap français, il a bien changé J'suis invité aux dîners d'cons, c'est toujours mieux qu'rien manger J'ferais toujours mieux mais j'ferais tout pour l'blé Depuis quatorze ans et bah, j'suis toujours vieux Street Life Life as a shorty shouldn't be so rough Street Life, nothin' but the real shit Only the strong survive Yo yo, Gueko Guizmo yogayo Giguiriguiz, giguirigueks woop woop ! YW ssblaaouuchh Néochrome zdedededex Until you play your life away Yogayo, yogayo Han Until you play your life away Until you play your life away1</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'ai lécriture d'humeur instable, incroyable ! Un non-voyant qui fait un Snap, Jamel Debbouze qui fait un DAB Le public est désemparé Sarko en maison darrêt, Seth Gueko chez les Enfoirés Pierre Menés avec des abdos Valbuena retrouvé noyé dans une flaque d'eau Une barbe à notre époque n'est plus un fardeau Y'a plus de fachos, tuer le mouton chez Brigitte Bardot Un film de boules sur Teletoon après les pubs La Reine des Neiges était en fait la reine des putes 2017 les jeunes ne touchent pas la came Marine Le Pen à la CAN Joint dans le veau-cer, les J.O en Algérie Lionel Messi à l'AJ Auxerre Y'a plus de bavures que des ripoux défenestrés L'Enfer est proche on peut te violer sans faire exprès Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale You might also like Incroyable comme les infos du Gorafi Un Cohen qui circoncit Tonton Dolfi Un feat Lara Fabian Mafia K'1 Fry Ma fille qui se marie à un que-fli Aucun conflit, Booba en D.T Rohff en U.N.K.U.T, un gynéco avec un diplôme de charcutier Une boutique Cartier dans mon quartier Une bonne sur les jambes écartées Adam et Ève avec un nombril Sean Connery marié avec Aretha Franklin J'te l'dis tranquille mais la Joconde n'a jamais souri Elle avait juste un paralysie faciale de Frigore Rocco Siffredi avec les gants d'Freddy Les films no-por transformés en films gores Des billets de 500 pour faire des confettis Seth Gueko disque d'Or Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale Maintenant le rap instruit les cons, tout l'monde est bon Y'a que d'l'amour, parait que Trump construit des ponts Le rap français est plein de vrais gangsters, de Tony Montana L'arbitre suçait des bites, fuck la remontada David Beckham en Laguna Penser comme tous les autres, me voir danser chez Hanouna Offrir à ceux qu'on aime Porsche Cayenne et grand pavillon Niquer des millions à la France comme François Fillon Ils font d'une peur un classico Un trafiquant qui cherche du taff, un taliban au casino Ça fume en scred à la fenêtre quand le daron dort Olivier Giroud ballon d'or Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le rap game incroyable la voie est royale Tout seul dans le rap game incroyable la voie est royale Tout seul dans le rap game incroyable la voie est royale1</t>
+          <t>J'ai lécriture d'humeur instable, incroyable ! Un non-voyant qui fait un Snap, Jamel Debbouze qui fait un DAB Le public est désemparé Sarko en maison darrêt, Seth Gueko chez les Enfoirés Pierre Menés avec des abdos Valbuena retrouvé noyé dans une flaque d'eau Une barbe à notre époque n'est plus un fardeau Y'a plus de fachos, tuer le mouton chez Brigitte Bardot Un film de boules sur Teletoon après les pubs La Reine des Neiges était en fait la reine des putes 2017 les jeunes ne touchent pas la came Marine Le Pen à la CAN Joint dans le veau-cer, les J.O en Algérie Lionel Messi à l'AJ Auxerre Y'a plus de bavures que des ripoux défenestrés L'Enfer est proche on peut te violer sans faire exprès Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale Incroyable comme les infos du Gorafi Un Cohen qui circoncit Tonton Dolfi Un feat Lara Fabian Mafia K'1 Fry Ma fille qui se marie à un que-fli Aucun conflit, Booba en D.T Rohff en U.N.K.U.T, un gynéco avec un diplôme de charcutier Une boutique Cartier dans mon quartier Une bonne sur les jambes écartées Adam et Ève avec un nombril Sean Connery marié avec Aretha Franklin J'te l'dis tranquille mais la Joconde n'a jamais souri Elle avait juste un paralysie faciale de Frigore Rocco Siffredi avec les gants d'Freddy Les films no-por transformés en films gores Des billets de 500 pour faire des confettis Seth Gueko disque d'Or Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale Maintenant le rap instruit les cons, tout l'monde est bon Y'a que d'l'amour, parait que Trump construit des ponts Le rap français est plein de vrais gangsters, de Tony Montana L'arbitre suçait des bites, fuck la remontada David Beckham en Laguna Penser comme tous les autres, me voir danser chez Hanouna Offrir à ceux qu'on aime Porsche Cayenne et grand pavillon Niquer des millions à la France comme François Fillon Ils font d'une peur un classico Un trafiquant qui cherche du taff, un taliban au casino Ça fume en scred à la fenêtre quand le daron dort Olivier Giroud ballon d'or Petit ne cherche pas, le thème cétait incroyable En vrai tout ça c'est rare comme avoir un ami loyal Les autres font mal au crâne sont morts dans la noyade Tout seul dans le Rap Game incroyable la voie est royale En haut de la Tour Eiffel le monde a l'air effroyable Toujours le même effet, moi je fume je pars en voyage Les autres font mal au crâne sont morts dans la noyade Tout seul dans le rap game incroyable la voie est royale Tout seul dans le rap game incroyable la voie est royale Tout seul dans le rap game incroyable la voie est royale1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine C'est essentiellement de zat et d'azote que mon corps se compose J'ai envie d'te baiser tout de suite, pétasse dis-moi où est-ce qu'on s'pose ? Grâce à la weed, avec la nature je suis en pleine osmose ah À cause de la codéine, je trip, je suis en plein cosmos Prométhazine dans la potion, j'dépasse les proportions, j'm'en ressert une portion Puis une autre portion, cérébrale commotion, j'suis en slow motion Soudainement j'ai une petite pointe au cur, j'veux pas mourir d'une O.D codéine comme DJ Screw, Pimp C ou Speaker Knockerz Ma pétasse sous ya-baa scrute d'un petit air moqueur, tellement déçu par l'espèce humaine Sin si la vie est une pute trop courte dès fois j'ai limpression que je baise une naine Jason Voriz est un pur spécimen, Full Moon Party et milk-shake aux champi' Doudoune, parking, je freestyle comme 80 E de la pure qu'est-ce qu't'en dis ? Ma mère prie à chaque pour qu'je reste en vie Manstrr ! X2 J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine You might also like Barlou Je ne crains que Dieu, je ne crains pas ton feu comme la mère des dragons Paris, gare du Nord, train de fou, Gueko toujours dans l'dernier wagon toujours C'est pas mon cur, non c'est mon élastique qui prend les décisions Nos armes sont métalliques, ont les meilleurs mécaniques de précision Ta Cendrillon tue ses embryons et Viens par ici, descends, viens faire une plongeon dans ma piscine de Champ' La weed asphyxie les gens, dans l'cendrier du ghetto s'quantifie les cendres Rien de fascinant, les accidents de bécane nous scarifient les jambes Ne viens surtout pas me chercher des poux sur ma calvitie naissante calvitie naissante Les MC's tout rris-pou tarifient leur fiente, la punchline est terrifiante Je sais qu't'as un époux mais ta petite fente me semble intéressante J'appuie pas sur l'champ', j'roule au ralenti, si tu es méchante j'éclate ton colo' au ralenti J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine Barlou1</t>
+          <t>J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine C'est essentiellement de zat et d'azote que mon corps se compose J'ai envie d'te baiser tout de suite, pétasse dis-moi où est-ce qu'on s'pose ? Grâce à la weed, avec la nature je suis en pleine osmose ah À cause de la codéine, je trip, je suis en plein cosmos Prométhazine dans la potion, j'dépasse les proportions, j'm'en ressert une portion Puis une autre portion, cérébrale commotion, j'suis en slow motion Soudainement j'ai une petite pointe au cur, j'veux pas mourir d'une O.D codéine comme DJ Screw, Pimp C ou Speaker Knockerz Ma pétasse sous ya-baa scrute d'un petit air moqueur, tellement déçu par l'espèce humaine Sin si la vie est une pute trop courte dès fois j'ai limpression que je baise une naine Jason Voriz est un pur spécimen, Full Moon Party et milk-shake aux champi' Doudoune, parking, je freestyle comme 80 E de la pure qu'est-ce qu't'en dis ? Ma mère prie à chaque pour qu'je reste en vie Manstrr ! X2 J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine Barlou Je ne crains que Dieu, je ne crains pas ton feu comme la mère des dragons Paris, gare du Nord, train de fou, Gueko toujours dans l'dernier wagon toujours C'est pas mon cur, non c'est mon élastique qui prend les décisions Nos armes sont métalliques, ont les meilleurs mécaniques de précision Ta Cendrillon tue ses embryons et Viens par ici, descends, viens faire une plongeon dans ma piscine de Champ' La weed asphyxie les gens, dans l'cendrier du ghetto s'quantifie les cendres Rien de fascinant, les accidents de bécane nous scarifient les jambes Ne viens surtout pas me chercher des poux sur ma calvitie naissante calvitie naissante Les MC's tout rris-pou tarifient leur fiente, la punchline est terrifiante Je sais qu't'as un époux mais ta petite fente me semble intéressante J'appuie pas sur l'champ', j'roule au ralenti, si tu es méchante j'éclate ton colo' au ralenti J'suis dans l'centre-ville sous molly en Audi, je promène ma zine J'ai ma weed, mon zat, ma bouteille de Sprite et ma prométhazine Je roule au ralenti Je roule au ralenti Je roule au ralenti Ma bouteille de Sprite et ma prométhazine Barlou1</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Materfuck Materfuck Woh, on te nique ta mère avec les Viagra de ton grand-père Si tu mets le zen dans mes ffaires-a Je regarde ma mère comme si c'était Mareva Galanter, mouah Avec le cur de mère Térésa Je t'offres un bijou si tu l'avales entière Si t'es ge-vier, je pose ma résa, d'ores et déjà Les potos, mi figues mi raisins, je m'en méfie, j'ai mes raisons Un vrai poto rapplique à 3 heures du mat' avec sa pelle sans poser de questions L'ambiance est coup de pioche, Jardiland C'est pas ici que tu te feras sucer par 10 langues Je rappe avec l'insolence à Bart Je préfère être en équipe, au tier-quar dans un froid polaire qu'elle seule à Saint Barth Tu vois le sommaire, j'ai fait des tonneaux sur la voie scolaire en Fiat 500 Abarth Je suis en marge comme la femme d'Homer J'ouvre ma gueule comme une poissonnière, au poste je suis muet comme une carpe Silencieux sous 47 Ak Pff, tu prends une rafale qui fait le bruit d'une harpe C'est le come-back des gueules de Néandertal Grillé comme une grenade sous un col roulé en tergal Violences verbales sans intervalle Nostalgique d'Intervilles et des trains gris, fini d'être serviable Le prochain qui parle de tire-pale, je lui fait une dinguerie Chez moi on partagerait même un grain de riz You might also like Si t'as tapé dans le stock gros, materfuck Montre nous ce que t'as dans le froc ou materfuck Materfuck ça veut pas dire que ta mère c'est un phoque Mais qu'on baise ta mère si t'es une poucave ou un proc' Donc materfuck, si t'as serrait la sur d'un pote, materfuck Tu me dois des sous, t'ouvres pas la porte, je te materfuck Materfuck, ma-ma-materfuck Tous putes materfuck Même ta tête a un prix et tu feras moins le rigolo Quand tu sauras que le contrat n'a coûter que 2000 euros La cervelle bouffée par les crustacés dans un ruisseau Ou dé-dé-découpée en petits morceaux derrière un buisson Mon cuissot, mieux vaut rater la recette que la cuisson Monte un terrain, prends une mule, une presse et un cuistot Efface tout les textos, bellek les keufs ils lisent tout Une fois au hebs, fini les pâtes au pistou T'attendras que ton co' s'endorme pour taper ta bistou' Tu verras qu'un pote sur 2 est un Gripsou C'est tout, j'suis pas venu jouer du piniou ou du youkoulélé C'est le retour du Moundélé likata mounéné La voix lourd décrasse comme un sac de plombier Je suis dans le rap comme un pyromane au bal des pompiers Sur les 10 yeux de mes frères et surs T'es pris en chasse, bombarde comme un coursier qui transporte une greffe de cur Quand je rentre pas, ma mère crève de peur Je lui demande pardon avec une gerbe de fleurs Ou une rafale de bisous Comme ça je peux coffrer des truc chez elle, trankilou bilou Comme on sait pertinemment qu'on léchera jamais le minou de Rihanna, mon petit loup Si on la croise, on lui arrache son sac Jimmy Choo J'suis ni ton petit chou à la crème, ni ton soce A toutes les sauces Si y a ton A.D.N à la crime, c'est aud-ch Aud-ch quand t'as perdu ton tél' Avec tes numéros de meuf, tes numéros de boloss Imagine oi-m mettre des coups de pelle comme Albert Dupontel Sur une plage nudiste de Mykonos</t>
+          <t>Materfuck Materfuck Woh, on te nique ta mère avec les Viagra de ton grand-père Si tu mets le zen dans mes ffaires-a Je regarde ma mère comme si c'était Mareva Galanter, mouah Avec le cur de mère Térésa Je t'offres un bijou si tu l'avales entière Si t'es ge-vier, je pose ma résa, d'ores et déjà Les potos, mi figues mi raisins, je m'en méfie, j'ai mes raisons Un vrai poto rapplique à 3 heures du mat' avec sa pelle sans poser de questions L'ambiance est coup de pioche, Jardiland C'est pas ici que tu te feras sucer par 10 langues Je rappe avec l'insolence à Bart Je préfère être en équipe, au tier-quar dans un froid polaire qu'elle seule à Saint Barth Tu vois le sommaire, j'ai fait des tonneaux sur la voie scolaire en Fiat 500 Abarth Je suis en marge comme la femme d'Homer J'ouvre ma gueule comme une poissonnière, au poste je suis muet comme une carpe Silencieux sous 47 Ak Pff, tu prends une rafale qui fait le bruit d'une harpe C'est le come-back des gueules de Néandertal Grillé comme une grenade sous un col roulé en tergal Violences verbales sans intervalle Nostalgique d'Intervilles et des trains gris, fini d'être serviable Le prochain qui parle de tire-pale, je lui fait une dinguerie Chez moi on partagerait même un grain de riz Si t'as tapé dans le stock gros, materfuck Montre nous ce que t'as dans le froc ou materfuck Materfuck ça veut pas dire que ta mère c'est un phoque Mais qu'on baise ta mère si t'es une poucave ou un proc' Donc materfuck, si t'as serrait la sur d'un pote, materfuck Tu me dois des sous, t'ouvres pas la porte, je te materfuck Materfuck, ma-ma-materfuck Tous putes materfuck Même ta tête a un prix et tu feras moins le rigolo Quand tu sauras que le contrat n'a coûter que 2000 euros La cervelle bouffée par les crustacés dans un ruisseau Ou dé-dé-découpée en petits morceaux derrière un buisson Mon cuissot, mieux vaut rater la recette que la cuisson Monte un terrain, prends une mule, une presse et un cuistot Efface tout les textos, bellek les keufs ils lisent tout Une fois au hebs, fini les pâtes au pistou T'attendras que ton co' s'endorme pour taper ta bistou' Tu verras qu'un pote sur 2 est un Gripsou C'est tout, j'suis pas venu jouer du piniou ou du youkoulélé C'est le retour du Moundélé likata mounéné La voix lourd décrasse comme un sac de plombier Je suis dans le rap comme un pyromane au bal des pompiers Sur les 10 yeux de mes frères et surs T'es pris en chasse, bombarde comme un coursier qui transporte une greffe de cur Quand je rentre pas, ma mère crève de peur Je lui demande pardon avec une gerbe de fleurs Ou une rafale de bisous Comme ça je peux coffrer des truc chez elle, trankilou bilou Comme on sait pertinemment qu'on léchera jamais le minou de Rihanna, mon petit loup Si on la croise, on lui arrache son sac Jimmy Choo J'suis ni ton petit chou à la crème, ni ton soce A toutes les sauces Si y a ton A.D.N à la crime, c'est aud-ch Aud-ch quand t'as perdu ton tél' Avec tes numéros de meuf, tes numéros de boloss Imagine oi-m mettre des coups de pelle comme Albert Dupontel Sur une plage nudiste de Mykonos</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Elles ont toujours préférées quoi ?, prendre ma bite que ma tête en photo Le dos est dur, tellement dur qu'on dirait que j'dors sur un futon affûtés, que des gars futés, j'marche en gang comme le Ghetto Fab' Tes MC's sont tous gués-ti-fa, qu'est-ce que j'attends pour m'faire tatouer en Antifa' ? Nique les porcs j'vais pas t'le dire cent dix fois Qu'on m'aime ou qu'on m'aime pas Ouvre la bouche que j'envoie la polenta Nique la conseillère de Pôle Emploi, nique l'État J'suis né à Pontoise comme Nicoletta Ça fait zdededededex comme la grosse Berta Logo Medusa, logo Cazal sur nos C'est pas une cloison nasale que t'as, nan c'est un aspirateur Rowenta C'est là l'omertà, on parle le langage des signes Devant les keufs, j'ai la même attitude que Charlie Chaplin Ça fait zblah, dans ta face comme un happy slapping Dans ton string c'est l'aquaplaning Tes deux fesses m'ont dit qu'ça puait dans l'couloir Si t'es un narvalo, alors attaque-moi pour voir Si l'alcool c'est de l'eau, on verra si l'enfer c'est Aquaboulevard Quand l'alcool c'est de l'eau, le lendemain la gueule c'est de bois L'Enfer c'est de feu, tourne ta langue sept fois avant d'parler de ceux qui ont des auréoles sous les bras Après avoir étranglé un ange, j'sors d'un camp d'nouches-ma Et j'peux t'jurer qu'il est pas beau d'ébranler un tange' J't'éclate mes phalanges sur le visage, nique les putes à franges, à tissages J'suis entouré d'étranges amis nazes qui veulent tout savoir sur mon taux de transaminases On attend les grands arrivages de go faster dans l'habitacle de la drogue Au ste-po j'suis muet comme une tombe, j'm'arrache les amygdales de la gorge Me fais sucer par ta grand-mère, comme ça elle risque pas de la mordre J'sors comme un cannibale de ma grotte, c'est pas amical, c'est familial dans ma horde Capitale de la mode, t'es plus victime que fashion Drive-By en Harley cousin, appelle-moi Morrey Davidson Les keufs tournent en Ford comme Harrison, Stan Smith Wesson Ouvre la porte Jack Nicholson, boule à Z comme Branson, on s'déplace en Harley qu'pour les grosses sommes Appelle-moi Morrey Davidson, Morrey Davidson, appelle-moi Morrey DavidsonYou might also like2</t>
+          <t>Elles ont toujours préférées quoi ?, prendre ma bite que ma tête en photo Le dos est dur, tellement dur qu'on dirait que j'dors sur un futon affûtés, que des gars futés, j'marche en gang comme le Ghetto Fab' Tes MC's sont tous gués-ti-fa, qu'est-ce que j'attends pour m'faire tatouer en Antifa' ? Nique les porcs j'vais pas t'le dire cent dix fois Qu'on m'aime ou qu'on m'aime pas Ouvre la bouche que j'envoie la polenta Nique la conseillère de Pôle Emploi, nique l'État J'suis né à Pontoise comme Nicoletta Ça fait zdededededex comme la grosse Berta Logo Medusa, logo Cazal sur nos C'est pas une cloison nasale que t'as, nan c'est un aspirateur Rowenta C'est là l'omertà, on parle le langage des signes Devant les keufs, j'ai la même attitude que Charlie Chaplin Ça fait zblah, dans ta face comme un happy slapping Dans ton string c'est l'aquaplaning Tes deux fesses m'ont dit qu'ça puait dans l'couloir Si t'es un narvalo, alors attaque-moi pour voir Si l'alcool c'est de l'eau, on verra si l'enfer c'est Aquaboulevard Quand l'alcool c'est de l'eau, le lendemain la gueule c'est de bois L'Enfer c'est de feu, tourne ta langue sept fois avant d'parler de ceux qui ont des auréoles sous les bras Après avoir étranglé un ange, j'sors d'un camp d'nouches-ma Et j'peux t'jurer qu'il est pas beau d'ébranler un tange' J't'éclate mes phalanges sur le visage, nique les putes à franges, à tissages J'suis entouré d'étranges amis nazes qui veulent tout savoir sur mon taux de transaminases On attend les grands arrivages de go faster dans l'habitacle de la drogue Au ste-po j'suis muet comme une tombe, j'm'arrache les amygdales de la gorge Me fais sucer par ta grand-mère, comme ça elle risque pas de la mordre J'sors comme un cannibale de ma grotte, c'est pas amical, c'est familial dans ma horde Capitale de la mode, t'es plus victime que fashion Drive-By en Harley cousin, appelle-moi Morrey Davidson Les keufs tournent en Ford comme Harrison, Stan Smith Wesson Ouvre la porte Jack Nicholson, boule à Z comme Branson, on s'déplace en Harley qu'pour les grosses sommes Appelle-moi Morrey Davidson, Morrey Davidson, appelle-moi Morrey Davidson2</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>On fait d'la maille pendant qu'toi tu parles J'ai les couilles vides mais pour mes ennemis j'ai gardé quelques balles Et ces pédés sont jaloux d'mon succès et ne veulent pas me voir avancer Et j'viens à peine d'arriver, ils disent que j'suis fini, j'ai même pas commencé J'aime me faire sucer quand j'éclate un gare-ci On aime les bécanes, les machines, la chatte à Rebecca de Banshee Beckham de la punchline, j'ai la rime assassine Toi tes MC's pissent assis, si si, ce sont des masisis J'm'entraîne au tir en Malaisie Blah blah, terima kasih brrrrrrrrrr Qu'aux vrais hommes je m'associe, marche qu'avec des makassi Makassi makassi Pas d'gâchis, l'instru j'en fais du hachis parmentier Crois pas qu'tu repars entier si t'as des rents-pa rentiers Sans vouloir vous offusquer, le rap c'est plein d'mythos frustrés C'est pas une bite que t'as dans l'slip, nan, c'est un clito musclé waahaa Je marche qu'avec mon équipe, que des types trop rusés Le shit t'envoie sur la lune, le joint est roulé comme une fusée fusée fusée On dit plus nique la police mais j'veux 'touzer Corinne Touzet Ma bite se lève avant moi l'matin, prépare-lui un café café Armé comme un Viet-Cong, j'suis posé à la terrasse du B-Lay Tong La vie est courte pétasse mais ma bite est longue Faut pas qu't'oublie les tongs à la douche du 'ttaya y'a trop d'mycoses qui grattent On a coupé la C au lactose de monohydrate Sers-nous une 'teille de Sky avant que mes potos s'déshydratent Si t'es rentré entier dans sa bouche, t'es à moitié dans sa chatte Sheguey You might also like On fait d'la maille pendant qu'toi tu parles J'ai les couilles vides mais pour mes ennemis j'ai gardé quelques balles Et ces pédés sont jaloux d'mon succès et ne veulent pas me voir avancer Et j'viens à peine d'arriver, ils disent que j'suis fini, j'ai même pas commencé Sheguey Vara, Sheguey Vara Restez pas là, restez pas là Pour leur dire je t'aime, j'ai des capotes goût Sheba Shabba, Shabba, Oh, Shabba, Shabba T'es qu'un bouffeur de bites, t'as la bouche pleine de smegma Restez pas là, restez pas là Toi et ta clique on vous aime pas, bande de Mamadou Segpa Shabba, Shabba, Oh, Shabba, Shabba2</t>
+          <t>On fait d'la maille pendant qu'toi tu parles J'ai les couilles vides mais pour mes ennemis j'ai gardé quelques balles Et ces pédés sont jaloux d'mon succès et ne veulent pas me voir avancer Et j'viens à peine d'arriver, ils disent que j'suis fini, j'ai même pas commencé J'aime me faire sucer quand j'éclate un gare-ci On aime les bécanes, les machines, la chatte à Rebecca de Banshee Beckham de la punchline, j'ai la rime assassine Toi tes MC's pissent assis, si si, ce sont des masisis J'm'entraîne au tir en Malaisie Blah blah, terima kasih brrrrrrrrrr Qu'aux vrais hommes je m'associe, marche qu'avec des makassi Makassi makassi Pas d'gâchis, l'instru j'en fais du hachis parmentier Crois pas qu'tu repars entier si t'as des rents-pa rentiers Sans vouloir vous offusquer, le rap c'est plein d'mythos frustrés C'est pas une bite que t'as dans l'slip, nan, c'est un clito musclé waahaa Je marche qu'avec mon équipe, que des types trop rusés Le shit t'envoie sur la lune, le joint est roulé comme une fusée fusée fusée On dit plus nique la police mais j'veux 'touzer Corinne Touzet Ma bite se lève avant moi l'matin, prépare-lui un café café Armé comme un Viet-Cong, j'suis posé à la terrasse du B-Lay Tong La vie est courte pétasse mais ma bite est longue Faut pas qu't'oublie les tongs à la douche du 'ttaya y'a trop d'mycoses qui grattent On a coupé la C au lactose de monohydrate Sers-nous une 'teille de Sky avant que mes potos s'déshydratent Si t'es rentré entier dans sa bouche, t'es à moitié dans sa chatte Sheguey On fait d'la maille pendant qu'toi tu parles J'ai les couilles vides mais pour mes ennemis j'ai gardé quelques balles Et ces pédés sont jaloux d'mon succès et ne veulent pas me voir avancer Et j'viens à peine d'arriver, ils disent que j'suis fini, j'ai même pas commencé Sheguey Vara, Sheguey Vara Restez pas là, restez pas là Pour leur dire je t'aime, j'ai des capotes goût Sheba Shabba, Shabba, Oh, Shabba, Shabba T'es qu'un bouffeur de bites, t'as la bouche pleine de smegma Restez pas là, restez pas là Toi et ta clique on vous aime pas, bande de Mamadou Segpa Shabba, Shabba, Oh, Shabba, Shabba2</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ok 10 ans de punchline ça se fête Ca commence par un gros mothafuck à la laille-vo Puis par un big up à tous mes bougs et la marvo Tu veux ma peau ? Trop tard, on ma déjà égorgé lphallus Jvais pas te décrocher la lune mais técorcher lanus BAC Arnaque, un startac pour 3-4 puces Les couilles à Spartacus, la gouache du Spartak gruss Mon style blesse Dis à la police que jme suis fait séduire par le Sheitan et ses Diablesses Jfais très difficilement des rires-sou Mais quand jen fais un cest que jai les mains dans la poche dun riste-tou Petite chienne, ya pas damitiés qui tiennent Ça va carabiné sec à la Calamity Jane Tu sais ce qui se dit ? J'veux le grisby J'suis dur à trise-mai, j'donne grise mine au kisdé, j'descend du grizzly J'descends pas du singe comme Darwin, enlèves tes ballerines J'suis venu t'faire le remake d'Halloween J'ai le cul entre deux chaises Et si chez toi y'a une coupure EDF C'est que j'ai mis un keuf sur la chaise Piment dans le pti-dej, éjacule de la braise Rentre en vitesse c'est vendredi 13 Ta vus ce qu'on fait pour du cash ney-mo On viens masquer nos têtes on oubli la sque-mo On fait des liasses d'euros sans faire des passes d'héro On fait des coups d'bécanne au petit qui nont pas de vélo Et qui arrête pas de lé-vo J'suis pas né du dernier uterus Si t'as des couilles, tires comme à la roulette russe Malhonnête, on baisse pas l'taro mec T'as une dent contre moi j't'l'enlève à la clé à molette On t'traîne par les veuchs, tapette La queue d'cheval tu l'as dernière la tête, moi j'l'ai entre les beujs Compte pas sur Amnesty, j'te fais la guerre Rue de la Paix Au poste j'suis étrangement frappé d'amnésie crue Comme un vagin sur écran géant Venez, allez-y, j'ai la main sur l'6.35 même quand j'gé-man D'vant la barre on fait des bulles avec nos Malabars Tant qu'il y a d'la graye à la raque-ab, Allahu akbar J'aime trop les armes et les filles à la pillave J'la tromperai pas si elle fait l'riz et elle refait l'lit Il m'faut du bif du bif et encore des bif Si tu m'touches ton cercueil sera une boîte de corned beef Zblex, ya pas djolie tess Et seule moto divresse Pas dpolitesse quand la police test Car pour quun flic tépargne faut ressembler à son fils Un ptit dép hargneux, sans blé, sans vice Tas un vagin au lieu dla bouche man Alors viens pas mparler mal ! Chez nous, les carottes ne rendent pas aimable Bientôt, tu msupplieras pour foutre ta fille enceinte Zinc, fais pas du bouche-à-bouche à un 6.35 Fais pas du hula-hoop avec un barbelé Si tu croises des touristes en ville, barbe-les ! Jai, un pouchka dans lsophage Me touche pas, laisse pas tes mains sur le chauffage ! Yo thugs ! Papa, Pah Pah ! furent les premiers mots de mon fils et mon guns Mec ! Ya plus dtête-à-tête tchek, dès quça part en Ready tchek tchek You might also like J'suis v'nu mettre le rap français knockout Pendant qu'Sakio cache son phone dans un pot d'yaourt No doubt, rap de sans emploi A mes yeux le moindre milliardaire se change en proie A mes yeux j'ai des tiers-quar, branche en bois A leurs yeux les tiers-quar sont d'méchants endroits Au bois, rap d'ETA mili, minuit T'es d'vant un 9 mili, j'suis d'vant une meuf mimi Moi grand génie, trop de-spee pour un flagrant délit Sur mes baskets y'a des fragments d'ennemis Écarte les lèvres et matte l'élève dépasser l'maître Nhar Sheitan, il m'a racketté mes hassanate Putain d'destin comprometteur ! J'aime pas les keufs, leurs complots mécurent Et puis t'façon on peut pas contrôler l'cur C'est sur le biz que l'on mise tout On cache bijoux et cristaux derrière la photo d'Jesus Christu C'est Paris-Nord, les maillons d'or sur maillot Dior On fait dla maille, on dort et on taille à Andorre Mais on ne peut rien faire contre le sort Ou tes ressorts arpentent le sol ou tu roules en compressor C'est Paris-Nord, t'es quasi mort Jte laisse dans lcaniveau avec les carnivores, moi jvais au casino Envoies des bolosses discrets Il me faut des euros, ltier-quar c'est pas Eurodisney Personne n'aura ma dame Yo masta, tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Si y'a dra' n'hésite pas et vra it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Essaies pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskine on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues Rap de dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Seth gueks le roi de la punchline Couronne dépine sur la tête Néochrome légendaire 95 zekwe ramos à la prod Seth gueks néochrome yonea Saint-Ouen l'Aumône tieks, Seth gueks 95</t>
+          <t>Ok 10 ans de punchline ça se fête Ca commence par un gros mothafuck à la laille-vo Puis par un big up à tous mes bougs et la marvo Tu veux ma peau ? Trop tard, on ma déjà égorgé lphallus Jvais pas te décrocher la lune mais técorcher lanus BAC Arnaque, un startac pour 3-4 puces Les couilles à Spartacus, la gouache du Spartak gruss Mon style blesse Dis à la police que jme suis fait séduire par le Sheitan et ses Diablesses Jfais très difficilement des rires-sou Mais quand jen fais un cest que jai les mains dans la poche dun riste-tou Petite chienne, ya pas damitiés qui tiennent Ça va carabiné sec à la Calamity Jane Tu sais ce qui se dit ? J'veux le grisby J'suis dur à trise-mai, j'donne grise mine au kisdé, j'descend du grizzly J'descends pas du singe comme Darwin, enlèves tes ballerines J'suis venu t'faire le remake d'Halloween J'ai le cul entre deux chaises Et si chez toi y'a une coupure EDF C'est que j'ai mis un keuf sur la chaise Piment dans le pti-dej, éjacule de la braise Rentre en vitesse c'est vendredi 13 Ta vus ce qu'on fait pour du cash ney-mo On viens masquer nos têtes on oubli la sque-mo On fait des liasses d'euros sans faire des passes d'héro On fait des coups d'bécanne au petit qui nont pas de vélo Et qui arrête pas de lé-vo J'suis pas né du dernier uterus Si t'as des couilles, tires comme à la roulette russe Malhonnête, on baisse pas l'taro mec T'as une dent contre moi j't'l'enlève à la clé à molette On t'traîne par les veuchs, tapette La queue d'cheval tu l'as dernière la tête, moi j'l'ai entre les beujs Compte pas sur Amnesty, j'te fais la guerre Rue de la Paix Au poste j'suis étrangement frappé d'amnésie crue Comme un vagin sur écran géant Venez, allez-y, j'ai la main sur l'6.35 même quand j'gé-man D'vant la barre on fait des bulles avec nos Malabars Tant qu'il y a d'la graye à la raque-ab, Allahu akbar J'aime trop les armes et les filles à la pillave J'la tromperai pas si elle fait l'riz et elle refait l'lit Il m'faut du bif du bif et encore des bif Si tu m'touches ton cercueil sera une boîte de corned beef Zblex, ya pas djolie tess Et seule moto divresse Pas dpolitesse quand la police test Car pour quun flic tépargne faut ressembler à son fils Un ptit dép hargneux, sans blé, sans vice Tas un vagin au lieu dla bouche man Alors viens pas mparler mal ! Chez nous, les carottes ne rendent pas aimable Bientôt, tu msupplieras pour foutre ta fille enceinte Zinc, fais pas du bouche-à-bouche à un 6.35 Fais pas du hula-hoop avec un barbelé Si tu croises des touristes en ville, barbe-les ! Jai, un pouchka dans lsophage Me touche pas, laisse pas tes mains sur le chauffage ! Yo thugs ! Papa, Pah Pah ! furent les premiers mots de mon fils et mon guns Mec ! Ya plus dtête-à-tête tchek, dès quça part en Ready tchek tchek J'suis v'nu mettre le rap français knockout Pendant qu'Sakio cache son phone dans un pot d'yaourt No doubt, rap de sans emploi A mes yeux le moindre milliardaire se change en proie A mes yeux j'ai des tiers-quar, branche en bois A leurs yeux les tiers-quar sont d'méchants endroits Au bois, rap d'ETA mili, minuit T'es d'vant un 9 mili, j'suis d'vant une meuf mimi Moi grand génie, trop de-spee pour un flagrant délit Sur mes baskets y'a des fragments d'ennemis Écarte les lèvres et matte l'élève dépasser l'maître Nhar Sheitan, il m'a racketté mes hassanate Putain d'destin comprometteur ! J'aime pas les keufs, leurs complots mécurent Et puis t'façon on peut pas contrôler l'cur C'est sur le biz que l'on mise tout On cache bijoux et cristaux derrière la photo d'Jesus Christu C'est Paris-Nord, les maillons d'or sur maillot Dior On fait dla maille, on dort et on taille à Andorre Mais on ne peut rien faire contre le sort Ou tes ressorts arpentent le sol ou tu roules en compressor C'est Paris-Nord, t'es quasi mort Jte laisse dans lcaniveau avec les carnivores, moi jvais au casino Envoies des bolosses discrets Il me faut des euros, ltier-quar c'est pas Eurodisney Personne n'aura ma dame Yo masta, tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Si y'a dra' n'hésite pas et vra it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Essaies pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskine on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues Rap de dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Seth gueks le roi de la punchline Couronne dépine sur la tête Néochrome légendaire 95 zekwe ramos à la prod Seth gueks néochrome yonea Saint-Ouen l'Aumône tieks, Seth gueks 95</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C'est encore eux ? Hi-hi-hi The Punisher Yah J'marche seul car pote égal trahison La trahison Tatoué sur la gueule comme Mike Tyson Iron Mike C'est souvent celui qui a l'plus de maille qui a raison Car l'argent est devenu religion Le Diable rentre chez toi par la télévision Nhar Sheitan Il rentre dans le crâne, c'est le control mind Control mind Entre eux, ils appellent ça le projet MK Projt monarque J'ai jamais bandé d'vant ce contrôle maill Respecte-moi Oui, j'kiffe les caisses du gros GMK Vroum T'es qu'une pute à buzz, choupa la pisse à Dubaï Choupa, choupa T'as l'air d'une crasseuse car on t'a fait boire la pisse à Dubaï Suka, suka Fais-moi d'bruit, demain, y en a qui travaillent Les footeux, c'est la racaille des bourgeois, les rappeurs, c'est les bourgeois des racailles, hey Trouver l'sommeil est une chance, le réveil est une grâce La France révèle être une garce, dans les sanitaires, elle fait des passes Qu'est-ce qui est bleu et qui tourne ? Ouh L'équipe à Castaner Ouais Qu'est-ce qui est rouge et qui tourne ? C'est l'sac-à-main à ta mère Bew, bew You might also like J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw Un-un kilogramme, bratan, je sais le couper Cent, cent-quatre-vingt à la barre, je peux les soulever Et si j't'envoie un jab, je peux te coucher Moi, même sans boire d'alcool, tu peux vite me saouler Pah, pah, pah On est nerveux comme la dernière Chiron, si tu m'aimes, sois prête à t'crêper le chignon Paw Savastano, immortel comme Ciro, ils sont inoffensifs comme des chiots Ne confonds pas les loups avec les chiens, tu vas pas commencer à me faire chier Nan Tu sais que moi, ton corps, je peux le scier, je saurai à qui appeler, à qui me fier, eh Comment ça tu veux me faire ? Quoi ? Comment ça tu veux ma place ? Pah Demande à Igor, même à trois contre un, je vais te niquer ta race Ra-ta-ta-ta J'préfère une putain qui s'respecte, ouais, plutôt qu'une meuf bien qui t'ment dans les yeux C'est pas parce que j'parle pas qu'j'fais rien, demande au silencieux Suka, suce-moi, après j'te laisse tirer une taffe Taffe J'te l'dis une fois, pas deux tu vas te prendre une baffe Baffe Rollie au poignet, c'est pas l'argent du rap Du rap L'arme à feu est sur moi, j't'allume si jamais ça dérape Bew J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw</t>
+          <t>C'est encore eux ? Hi-hi-hi The Punisher Yah J'marche seul car pote égal trahison La trahison Tatoué sur la gueule comme Mike Tyson Iron Mike C'est souvent celui qui a l'plus de maille qui a raison Car l'argent est devenu religion Le Diable rentre chez toi par la télévision Nhar Sheitan Il rentre dans le crâne, c'est le control mind Control mind Entre eux, ils appellent ça le projet MK Projt monarque J'ai jamais bandé d'vant ce contrôle maill Respecte-moi Oui, j'kiffe les caisses du gros GMK Vroum T'es qu'une pute à buzz, choupa la pisse à Dubaï Choupa, choupa T'as l'air d'une crasseuse car on t'a fait boire la pisse à Dubaï Suka, suka Fais-moi d'bruit, demain, y en a qui travaillent Les footeux, c'est la racaille des bourgeois, les rappeurs, c'est les bourgeois des racailles, hey Trouver l'sommeil est une chance, le réveil est une grâce La France révèle être une garce, dans les sanitaires, elle fait des passes Qu'est-ce qui est bleu et qui tourne ? Ouh L'équipe à Castaner Ouais Qu'est-ce qui est rouge et qui tourne ? C'est l'sac-à-main à ta mère Bew, bew J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw Un-un kilogramme, bratan, je sais le couper Cent, cent-quatre-vingt à la barre, je peux les soulever Et si j't'envoie un jab, je peux te coucher Moi, même sans boire d'alcool, tu peux vite me saouler Pah, pah, pah On est nerveux comme la dernière Chiron, si tu m'aimes, sois prête à t'crêper le chignon Paw Savastano, immortel comme Ciro, ils sont inoffensifs comme des chiots Ne confonds pas les loups avec les chiens, tu vas pas commencer à me faire chier Nan Tu sais que moi, ton corps, je peux le scier, je saurai à qui appeler, à qui me fier, eh Comment ça tu veux me faire ? Quoi ? Comment ça tu veux ma place ? Pah Demande à Igor, même à trois contre un, je vais te niquer ta race Ra-ta-ta-ta J'préfère une putain qui s'respecte, ouais, plutôt qu'une meuf bien qui t'ment dans les yeux C'est pas parce que j'parle pas qu'j'fais rien, demande au silencieux Suka, suce-moi, après j'te laisse tirer une taffe Taffe J'te l'dis une fois, pas deux tu vas te prendre une baffe Baffe Rollie au poignet, c'est pas l'argent du rap Du rap L'arme à feu est sur moi, j't'allume si jamais ça dérape Bew J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw J'arrive sur toi comme le missile Satan 2 Satan 2 Au 7.62, on va t'ouvrir la chatte en deux Chatte en deux Pas la peine de dire un mot d'plus quand le silence parle Pouh Si tu veux pas nous payer, tu entendras que des click, paw Paw, paw</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Seth Gueko Zblex ! ! J'suis à deux oublis d'capote d'attraper l'SIDA A deux injures de keuf de m'faire matraquer l'cigare A deux guarres-ba de m'fracasser l'tibia A deux gastro d'plus jamais avaler d'pizza Parle pas d'belles villas, j'suis à deux euros d'braquer l'LIDL A deux recalages de charcler l'videur A deux barrettes de seum de plus être dealeur A deux euros d'voir le solde de mon compte débiteur A deux procès d'percer ton coffre fort A deux coups d'faire un putain d'hors forfait A deux embrouilles d'sortir le Eleven-Four-Four Car y a trop d'faux frères A deux factures SFR d'casser mon table-por A deux garde à v' d'acheter un faux passeport Sans mentir j'suis à deux centimètres de Rocco Siffredi A deux cent kil' net d'finir au trou, chibani ! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! You might also like J'suis à deux verres d'bourbon d'faire une cirrhose A deux visionnages de Heat de faire un fourgon T'es à deux doigts d'changer d'bord avec ton pull rose J'suis à deux missions intérims d'finir comme un mouton A deux enterrements d'avoir les jambes en guimauve Couillon t'es à deux mots d'travers d'avoir des ecchymoses Que tu l'veuilles ou non T'es à deux doigts d'être un virtuose si tu oses t'attaquer à vitrine d'Boucheron J'suis à 200 000 ventes de Christophe Willem T'es à deux punchlines de faire une crise d'oxygène uuuh! J'dors toujours deux doigts sur l'opinnelle J'suis à deux clés d'serrer une meuf qui a une p'tite Coccinelle J'suis à deux coups d'sirène de mettre les gaz A deux morceaux House de bicrave des tazs A deux grattages de clope de faire le poing d'Pégase Chérie accélère, j'suis à deux coups d'rein d'l'extase aaaAAh! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! Nardin Waldik, j'étais à 2-3 poils de bite d'pas faire partie d'One Beat 2-3 Db d'plus et tout l'parking s'agite T'approche pas d'la vitre, j'rappe pas moi, j'dynamite ! Zdedededex! Nardin Waldik, j'étais à 2-3 poils de bite d'pas faire partie d'One Beat 2-3 Db d'plus et tout l'parking s'agite T'approche pas d'la vitre, j'rappe pas moi, j'dynamite ! Zdedededex! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! Seth GuekoOne Beat, Spike Miller, Blastar J'suis à deux millions d'années lumières d'jouer la star Seth Gueko Neochrome, zededededex ! Zblex !</t>
+          <t>Seth Gueko Zblex ! ! J'suis à deux oublis d'capote d'attraper l'SIDA A deux injures de keuf de m'faire matraquer l'cigare A deux guarres-ba de m'fracasser l'tibia A deux gastro d'plus jamais avaler d'pizza Parle pas d'belles villas, j'suis à deux euros d'braquer l'LIDL A deux recalages de charcler l'videur A deux barrettes de seum de plus être dealeur A deux euros d'voir le solde de mon compte débiteur A deux procès d'percer ton coffre fort A deux coups d'faire un putain d'hors forfait A deux embrouilles d'sortir le Eleven-Four-Four Car y a trop d'faux frères A deux factures SFR d'casser mon table-por A deux garde à v' d'acheter un faux passeport Sans mentir j'suis à deux centimètres de Rocco Siffredi A deux cent kil' net d'finir au trou, chibani ! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! J'suis à deux verres d'bourbon d'faire une cirrhose A deux visionnages de Heat de faire un fourgon T'es à deux doigts d'changer d'bord avec ton pull rose J'suis à deux missions intérims d'finir comme un mouton A deux enterrements d'avoir les jambes en guimauve Couillon t'es à deux mots d'travers d'avoir des ecchymoses Que tu l'veuilles ou non T'es à deux doigts d'être un virtuose si tu oses t'attaquer à vitrine d'Boucheron J'suis à 200 000 ventes de Christophe Willem T'es à deux punchlines de faire une crise d'oxygène uuuh! J'dors toujours deux doigts sur l'opinnelle J'suis à deux clés d'serrer une meuf qui a une p'tite Coccinelle J'suis à deux coups d'sirène de mettre les gaz A deux morceaux House de bicrave des tazs A deux grattages de clope de faire le poing d'Pégase Chérie accélère, j'suis à deux coups d'rein d'l'extase aaaAAh! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! Nardin Waldik, j'étais à 2-3 poils de bite d'pas faire partie d'One Beat 2-3 Db d'plus et tout l'parking s'agite T'approche pas d'la vitre, j'rappe pas moi, j'dynamite ! Zdedededex! Nardin Waldik, j'étais à 2-3 poils de bite d'pas faire partie d'One Beat 2-3 Db d'plus et tout l'parking s'agite T'approche pas d'la vitre, j'rappe pas moi, j'dynamite ! Zdedededex! C'est pour mes gars durs comme des clous d'cercueil Qui font face à la son-pri, face aux deuils Toujours deux trois yébis dans l'porte feuille A deux doigts d'les mettre dans tes yeux s'tu leur portes l'il C'est pour mes gars dur comme des clous d'cercueil Ouvre l'il viens pas chez nous si t'as un cou d'chevreuil Toujours deux trois yébi dans l'porte feuille A deux doigts d'foutre le zbeul, foutre le zbeul ! Seth GuekoOne Beat, Spike Miller, Blastar J'suis à deux millions d'années lumières d'jouer la star Seth Gueko Neochrome, zededededex ! Zblex !</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Elle se prennent toutes pour Nicki Minaj Elles font plus le ménage, elles ont le balai dans la schneck J'vais sniffer les cendres de ma mère pour qu'elles restent dans ma tête Pour pas que je puisse oublier, drive by en transpalette car j'suis un fils d'ouvrier Coup de machette dans la télé si j'tombe sur Pink TV J'préfère avoir deux filles tasse-pé qu'un fils pd J'lol poto j'ai pas envie de me faire prendre au mot J'me pose plus précis qu'un lard-mo, j'ai les crocs d'un cane corso, croisé précis canarnio Au placard on appelle tous de la douche, pour ça quand on décroche on dit allô On s'fait les biceps sur les chantiers narvalo Si l'travail c'est la santé, les bracos c'est la Santé, Fleury, Fresnes la Mavo Tu fais du cash flow montre nous comment À trop baigner dans halam on nage contre Coran T'es au courant si on a un pote en cavale on l'héberge On s'en fout de l'âge, au-dessus de 50 kilos on les baise You might also like On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Les niggas misent sur ma tête, j'dois tout niquer mais le Game m'en empêche My name is Mister Rutti, textes best, bitch of test bitch J'rappe pas pour les connasses mais les connaisseurs J'veux rentrer chez les che-ri en scred comme la C pour ramasser Ils s'demandent pourquoi j'suis enragé mais on demande pas à Dracula de se contenter de sucer des tampax usagers Laisse-les parler on est haïs, peuvent enfin exister Les faux-amis sont condamnés à simuler comme des nymphos excisées Demande pas pourquoi on s'entretue, on défouraille encore avec plus de précision Play Call of Rutti J'suis pro métissage, moi et le prince Albert on est pareils À chaque fois que je jouis, un arc en ciel apparait Soldat sans grade, mieux vaut avoir une pute qui s'améliore qu'une meuf bien qui se dégrade Y'a du sohl dans l'air, le Sheitan m'invite, j'crois que les putes de la rue d'Aerschot ont des chattes à neuf vies On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Tu peux me croiser à la Grande Motte Aux bras d'une go qui a des grandes bottes en peau de python Qu'elle vient de faire cracher à son michton Comme tu peux me voir au guidon d'une caisse qu'a les vitres teintées à cause des crottes de pigeons Mes potes tombent sur des procs aimables comme des portes de prison On t'a coupé la bite, c'est la circoncision, On t'a coupé les couilles, c'est la Sarkocision J'ai besoin d'une purification Mes potes peuvent compter sur moi comme si j'm'étais tatouer une table de multiplication Ils veulent nous critiquer, ils veulent nous uer-t Ici le sang du Christ c'est le Moët, bordel de merde La discrétion c'est pas la vertu frère J'connais des femmes mariées si chaudes qu'elles choperaient un rhume en Enfer J'parle à mes capotes pleines Fils tu peux pas naitre, ta mère t'aimeras moins que ma Sacem Repose en paix... Je t'aime ! Avec Seth, y'a que pour pisser qu'on baisse nos slips D'ailleurs nique ta mère si t'as le complexe ddipe On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music</t>
+          <t>On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Elle se prennent toutes pour Nicki Minaj Elles font plus le ménage, elles ont le balai dans la schneck J'vais sniffer les cendres de ma mère pour qu'elles restent dans ma tête Pour pas que je puisse oublier, drive by en transpalette car j'suis un fils d'ouvrier Coup de machette dans la télé si j'tombe sur Pink TV J'préfère avoir deux filles tasse-pé qu'un fils pd J'lol poto j'ai pas envie de me faire prendre au mot J'me pose plus précis qu'un lard-mo, j'ai les crocs d'un cane corso, croisé précis canarnio Au placard on appelle tous de la douche, pour ça quand on décroche on dit allô On s'fait les biceps sur les chantiers narvalo Si l'travail c'est la santé, les bracos c'est la Santé, Fleury, Fresnes la Mavo Tu fais du cash flow montre nous comment À trop baigner dans halam on nage contre Coran T'es au courant si on a un pote en cavale on l'héberge On s'en fout de l'âge, au-dessus de 50 kilos on les baise On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Les niggas misent sur ma tête, j'dois tout niquer mais le Game m'en empêche My name is Mister Rutti, textes best, bitch of test bitch J'rappe pas pour les connasses mais les connaisseurs J'veux rentrer chez les che-ri en scred comme la C pour ramasser Ils s'demandent pourquoi j'suis enragé mais on demande pas à Dracula de se contenter de sucer des tampax usagers Laisse-les parler on est haïs, peuvent enfin exister Les faux-amis sont condamnés à simuler comme des nymphos excisées Demande pas pourquoi on s'entretue, on défouraille encore avec plus de précision Play Call of Rutti J'suis pro métissage, moi et le prince Albert on est pareils À chaque fois que je jouis, un arc en ciel apparait Soldat sans grade, mieux vaut avoir une pute qui s'améliore qu'une meuf bien qui se dégrade Y'a du sohl dans l'air, le Sheitan m'invite, j'crois que les putes de la rue d'Aerschot ont des chattes à neuf vies On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music Tu peux me croiser à la Grande Motte Aux bras d'une go qui a des grandes bottes en peau de python Qu'elle vient de faire cracher à son michton Comme tu peux me voir au guidon d'une caisse qu'a les vitres teintées à cause des crottes de pigeons Mes potes tombent sur des procs aimables comme des portes de prison On t'a coupé la bite, c'est la circoncision, On t'a coupé les couilles, c'est la Sarkocision J'ai besoin d'une purification Mes potes peuvent compter sur moi comme si j'm'étais tatouer une table de multiplication Ils veulent nous critiquer, ils veulent nous uer-t Ici le sang du Christ c'est le Moët, bordel de merde La discrétion c'est pas la vertu frère J'connais des femmes mariées si chaudes qu'elles choperaient un rhume en Enfer J'parle à mes capotes pleines Fils tu peux pas naitre, ta mère t'aimeras moins que ma Sacem Repose en paix... Je t'aime ! Avec Seth, y'a que pour pisser qu'on baisse nos slips D'ailleurs nique ta mère si t'as le complexe ddipe On fait de la youv music McLaren music Fusil de chasse music Husqvarna music Caravane music Adria music Val d'Oise music Scorpion music Zblex music Gremlins music Despo rutt's music Gueko youth music</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Si toi et moi on s'connait pas x2 Cries pas mon blaze en bas d'chez moi x2 On m'appelle L'ongle incarné du rap français Ou l'P.Diddy des caravanes Le guigui caché dans le sac Lancel De la m'zelle Ceux que j'ai gonflé Au bac à sable m'appelle Pico la castagne Tu peux m'appeler Pierre Richard Gere Le larfeuille et les poils qui dépassent du slip J'me suis greffé des peaux d'couilles en cachemire J'arrive comme un brolic caché dans un bouquet de tulipe Il faut que tu sache que ma vie colle à mes rimes Appelles moi Nicolas Mesrine, nique l'Amérique Vive Saint-Ouen-l'Aumône c'est chez moi là-bas Mongollo j'suis l'capitaine de Neochrome J'suis l'dernier des Mohicans pas Mimisicu Mon guigui c mon flingue c'est ma mini sécu Appelles moi Louis de Fufu avec un big sil-fu J'suis la doublure de Rocco quand il assure plus You might also like Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Allez sers moi à la louche J'suis le roi du Dirty Manouche LÉtat la rnouch j'leur dis zebi la mouche Allez passe sous la douche J'suis Nicolas le jardinier d'la touffe J'ai l'gland poinçonné par une pattes d'ours Une tête d'aigle poinçonne ma chevalière J'arrive comme une volée de bois vert J'suis Patrick '.... ert' À boire ou j'tue l'chien J'suis pas gitan , j'suis snatchien Si j'te connais pas j't'appelle machin Moi et mes frangins, on est les Los Couillos J'bronze intégralement pour pas avoir l'cul rose J'graille le micross' comme un spéculos Ma couillasse tu vas en avoir du spectaculoss Enculoss , appelle moi p'tit corps marave Si j'vais en Enfer mahlich , on bronze au bord d'la lave Appelle moi Zblaxman , j'crève les ballons j'suis l'Zinedine tzigane, j'ai un zizizizi d'âne Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Appelles moi Stringer Bell Le jour d'Noël on gueule Elle est où la dinde ? On chante pas Jingle Bell J'suis wanted par la brigade mondaine En club aish on m'appelle l'écarte-rondelles J'suis un punk des temps moderne, ouais Guy Georges Clooney J'mange au KFC pour ronger des os d'poulets Quand j'vends des armes j'suis Dragan Fulekovic Du rap roulé sous les aisselles comme M. Preskovic J'vole aux riches, j'suis l'rabouin des bois Mauvaise graine, j'suis l'chiendent dans l'jardin des rois J'suis radin des fois, appelle-moi Pince-de-Crabe C'est rare qu'j'invite mes courtisanes au Prince de Galles Le rap m'est destiné, j'suis guigui marchand Au grand prix Rocco, j'suis bite d'argent J'passe du hardcore au hilarant Yougo, lingala, gitan, yé pourvi l'accent Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat J'suis l'dico du monde, le Pavarotti des parkings Wolf Mesrine, Salvadori la praline La Chevropine, Victor Yougo Shrek Gueko, Jeannot l'roi du tuyau T'as eu la bande à Bono , t'auras la bande à Pierrot Une gueule de proxo yougo, est vienne de yobo yoko Ce soir j'veux une chinoiserie comme Yokohono Et si y'a quoi qu'ce soit j'sors le glock François Zblex !</t>
+          <t>Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Si toi et moi on s'connait pas x2 Cries pas mon blaze en bas d'chez moi x2 On m'appelle L'ongle incarné du rap français Ou l'P.Diddy des caravanes Le guigui caché dans le sac Lancel De la m'zelle Ceux que j'ai gonflé Au bac à sable m'appelle Pico la castagne Tu peux m'appeler Pierre Richard Gere Le larfeuille et les poils qui dépassent du slip J'me suis greffé des peaux d'couilles en cachemire J'arrive comme un brolic caché dans un bouquet de tulipe Il faut que tu sache que ma vie colle à mes rimes Appelles moi Nicolas Mesrine, nique l'Amérique Vive Saint-Ouen-l'Aumône c'est chez moi là-bas Mongollo j'suis l'capitaine de Neochrome J'suis l'dernier des Mohicans pas Mimisicu Mon guigui c mon flingue c'est ma mini sécu Appelles moi Louis de Fufu avec un big sil-fu J'suis la doublure de Rocco quand il assure plus Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Allez sers moi à la louche J'suis le roi du Dirty Manouche LÉtat la rnouch j'leur dis zebi la mouche Allez passe sous la douche J'suis Nicolas le jardinier d'la touffe J'ai l'gland poinçonné par une pattes d'ours Une tête d'aigle poinçonne ma chevalière J'arrive comme une volée de bois vert J'suis Patrick '.... ert' À boire ou j'tue l'chien J'suis pas gitan , j'suis snatchien Si j'te connais pas j't'appelle machin Moi et mes frangins, on est les Los Couillos J'bronze intégralement pour pas avoir l'cul rose J'graille le micross' comme un spéculos Ma couillasse tu vas en avoir du spectaculoss Enculoss , appelle moi p'tit corps marave Si j'vais en Enfer mahlich , on bronze au bord d'la lave Appelle moi Zblaxman , j'crève les ballons j'suis l'Zinedine tzigane, j'ai un zizizizi d'âne Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Appelles moi Stringer Bell Le jour d'Noël on gueule Elle est où la dinde ? On chante pas Jingle Bell J'suis wanted par la brigade mondaine En club aish on m'appelle l'écarte-rondelles J'suis un punk des temps moderne, ouais Guy Georges Clooney J'mange au KFC pour ronger des os d'poulets Quand j'vends des armes j'suis Dragan Fulekovic Du rap roulé sous les aisselles comme M. Preskovic J'vole aux riches, j'suis l'rabouin des bois Mauvaise graine, j'suis l'chiendent dans l'jardin des rois J'suis radin des fois, appelle-moi Pince-de-Crabe C'est rare qu'j'invite mes courtisanes au Prince de Galles Le rap m'est destiné, j'suis guigui marchand Au grand prix Rocco, j'suis bite d'argent J'passe du hardcore au hilarant Yougo, lingala, gitan, yé pourvi l'accent Pour la rue c'est Gueko Pour ma mère c'est Pico Contentes toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat Pour la rue c'est Gueko Pour ma mère c'est Pico Contente toi d'un check Si tu me connais pas Pour les keufs c'est Pablo Pour mes potes c'est Nico Vas pas cramer mon blaze au commissariat J'suis l'dico du monde, le Pavarotti des parkings Wolf Mesrine, Salvadori la praline La Chevropine, Victor Yougo Shrek Gueko, Jeannot l'roi du tuyau T'as eu la bande à Bono , t'auras la bande à Pierrot Une gueule de proxo yougo, est vienne de yobo yoko Ce soir j'veux une chinoiserie comme Yokohono Et si y'a quoi qu'ce soit j'sors le glock François Zblex !</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Accroche-toi, mon loubard Ça va décoiffer Tatoué comme un bagnard, pas comme l'autre ringard Une be-bar de viking à la Lodbrok Ragnar On t'met lil au beurre noir, l'autre, on l'crève avec un pébroque J'suis Mad Max, t'es qu'un Fraggle Rock, mon p'tit pote, j'fais pas d'rap, j'fais du rock Arrête de chier dans ton froc, de fienter dans ton calbar J'viens d'comprendre que c'est tous des nazbroke mais mieux vaut tard que bâtard Vieux motard que jamais, on roule, on rode en Harley Et on tire sur le spliff et sur le shérif comme ce bon vieux Bob Marley On peut violer la loi sans lui enlever son slip On va voler le roi, Morray, ouais, et lui soulever tout son fric Après une cuite, j'casse tout comme le Diable de Tasmanie J'ai les gros neuro', j'ai faim d'violence, ogre de barbarie Armé comme dans Call Of, on est les Son of Anarchy Sers-moi un cocktail molotov, c'est la revolución comme Guevara Che Frime pas 'vec ton bling-bling ou on va t'l'arracher Problèmes de société, la France doit cravacher pour pouvoir, satiété Si tu cherches la bagarre, cloporte, tu frappes à la bonne porte Attitude désinvolte, j'fais la conv' des Inrocks Les pédophiles méritent pas d'vivre, faut qu'leurs mères les avortent J'ai des envies d'meurtres quand j'pense au CD-ROM de Zandvoort C'est Dieu seul que j'invoque la justice, une salope, loin d'être pudique J'vais leur baisser mon froc et on verra qui est l'Président d'la RépubliqueYou might also like</t>
+          <t>Accroche-toi, mon loubard Ça va décoiffer Tatoué comme un bagnard, pas comme l'autre ringard Une be-bar de viking à la Lodbrok Ragnar On t'met lil au beurre noir, l'autre, on l'crève avec un pébroque J'suis Mad Max, t'es qu'un Fraggle Rock, mon p'tit pote, j'fais pas d'rap, j'fais du rock Arrête de chier dans ton froc, de fienter dans ton calbar J'viens d'comprendre que c'est tous des nazbroke mais mieux vaut tard que bâtard Vieux motard que jamais, on roule, on rode en Harley Et on tire sur le spliff et sur le shérif comme ce bon vieux Bob Marley On peut violer la loi sans lui enlever son slip On va voler le roi, Morray, ouais, et lui soulever tout son fric Après une cuite, j'casse tout comme le Diable de Tasmanie J'ai les gros neuro', j'ai faim d'violence, ogre de barbarie Armé comme dans Call Of, on est les Son of Anarchy Sers-moi un cocktail molotov, c'est la revolución comme Guevara Che Frime pas 'vec ton bling-bling ou on va t'l'arracher Problèmes de société, la France doit cravacher pour pouvoir, satiété Si tu cherches la bagarre, cloporte, tu frappes à la bonne porte Attitude désinvolte, j'fais la conv' des Inrocks Les pédophiles méritent pas d'vivre, faut qu'leurs mères les avortent J'ai des envies d'meurtres quand j'pense au CD-ROM de Zandvoort C'est Dieu seul que j'invoque la justice, une salope, loin d'être pudique J'vais leur baisser mon froc et on verra qui est l'Président d'la République</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DJ Hamdi à la composition Escobar Macson Seth Gueko Toujours en pole position Blah C'est pas en enfer q'j'ai cherché l'verre d'eau Blah, blah Si c'est pas moi qui rappe, c'est qui? Tu vas porter l'deuil Jusqu'à c'que t'aies mal au dos Alors c'est qui l'roi d'la phase furieuse, hein? Qu'ouvre sa boite a camembert comme une sulfateuse Qui a l'buzz, qui laisse le pit' sexciter sur ta beuj Qu'a un hall qui sent la pisse comme le slip d'une fugueuse Qui est l'clip n1 d'Booska-P, qu'a ves-qui l'arnouch toute l'année pour pas rapper la bouche cassée Qui veut faire du surf sur la lame d'un coupe-jarrêt Qui veut s'faire du rouge a lèvres avec ma goutte salée Qui est l'premier d'la classe a l'école du crime Qui d'nous deux va s'prendre les pieds dans les cordes du ring Mon inspi' sort des bords du Nil, la tienne d'un bol d'urine Tu m'véner comme le port du string véner mes potes muslim Qui à l'heure du crime sinvente une entorse Qui veut v'nir faire la bise à mon gland d'boxe Qui fréquente la maffia russe et les gangs corses Qui d'nous deux bé-bé-bégurille devant les lampes torche Esco, Seth Gueko Plus d'50 cm de viande sans os Ramène le Viandox Y a d'quoi monter sur un brix avec c'qu'on coffre dans l'box You might also likeBlah, blah, blah x2 Dis moi c'est qui qui rappe le son Advisory Parental Sans violence, technique, métaphores, c'est pas rentable Parental, comme un drive, XXX balles à blanc Cherche pas à savoir si Satan fait l'rammadan Mes 3 d'tension, queba Jusqu'au bar Macson, négro, j'te l'répète, fais attention Bordel, mon rap de Téhéran Comme ma bite, ma ville d'XXX c'est ceux restés XXX J'représente Ghetto Guêt-Apens Ecole des Beaux-Arts Criminels Street et Texte XXX Tu connais l'blaze, combien j'pèse Mets l'pied dans ma base et c'est la baise de baisemasta Makila musique, drive-by, calibre Je chante la haine pour ceux au placard et mes gars libres Ici, c'est qui qui rappe? Seth Gue T'as la réponse sans faire couler la sueur C'est aussi simple qu'écarter les ah...! à ta soeur Un Zaïrois cocasse J'aime pas les sales blacks à la Roucasse J'brise la rime comme XXX XXX A bas la courtoisie et Sarkozy Délinquant d'puis 17 piges mes quartiers XXX On voit l'arbre tomber mais pas la forêt pousser J'te l'répète encore c'est Esco Au bar t'as pas fini d'tousser, voyons Vaut mieux un gros coucou, et un p'tit adieu Qu'un p'tit coucou et un grand adieu Parc'que j'm'impose sur les lieux x2 Cherche pas à savoir si Satan fait l'rammadan Dis moi c'est qui qui rappe... Blah, blah, blah</t>
+          <t>DJ Hamdi à la composition Escobar Macson Seth Gueko Toujours en pole position Blah C'est pas en enfer q'j'ai cherché l'verre d'eau Blah, blah Si c'est pas moi qui rappe, c'est qui? Tu vas porter l'deuil Jusqu'à c'que t'aies mal au dos Alors c'est qui l'roi d'la phase furieuse, hein? Qu'ouvre sa boite a camembert comme une sulfateuse Qui a l'buzz, qui laisse le pit' sexciter sur ta beuj Qu'a un hall qui sent la pisse comme le slip d'une fugueuse Qui est l'clip n1 d'Booska-P, qu'a ves-qui l'arnouch toute l'année pour pas rapper la bouche cassée Qui veut faire du surf sur la lame d'un coupe-jarrêt Qui veut s'faire du rouge a lèvres avec ma goutte salée Qui est l'premier d'la classe a l'école du crime Qui d'nous deux va s'prendre les pieds dans les cordes du ring Mon inspi' sort des bords du Nil, la tienne d'un bol d'urine Tu m'véner comme le port du string véner mes potes muslim Qui à l'heure du crime sinvente une entorse Qui veut v'nir faire la bise à mon gland d'boxe Qui fréquente la maffia russe et les gangs corses Qui d'nous deux bé-bé-bégurille devant les lampes torche Esco, Seth Gueko Plus d'50 cm de viande sans os Ramène le Viandox Y a d'quoi monter sur un brix avec c'qu'on coffre dans l'box Blah, blah, blah x2 Dis moi c'est qui qui rappe le son Advisory Parental Sans violence, technique, métaphores, c'est pas rentable Parental, comme un drive, XXX balles à blanc Cherche pas à savoir si Satan fait l'rammadan Mes 3 d'tension, queba Jusqu'au bar Macson, négro, j'te l'répète, fais attention Bordel, mon rap de Téhéran Comme ma bite, ma ville d'XXX c'est ceux restés XXX J'représente Ghetto Guêt-Apens Ecole des Beaux-Arts Criminels Street et Texte XXX Tu connais l'blaze, combien j'pèse Mets l'pied dans ma base et c'est la baise de baisemasta Makila musique, drive-by, calibre Je chante la haine pour ceux au placard et mes gars libres Ici, c'est qui qui rappe? Seth Gue T'as la réponse sans faire couler la sueur C'est aussi simple qu'écarter les ah...! à ta soeur Un Zaïrois cocasse J'aime pas les sales blacks à la Roucasse J'brise la rime comme XXX XXX A bas la courtoisie et Sarkozy Délinquant d'puis 17 piges mes quartiers XXX On voit l'arbre tomber mais pas la forêt pousser J'te l'répète encore c'est Esco Au bar t'as pas fini d'tousser, voyons Vaut mieux un gros coucou, et un p'tit adieu Qu'un p'tit coucou et un grand adieu Parc'que j'm'impose sur les lieux x2 Cherche pas à savoir si Satan fait l'rammadan Dis moi c'est qui qui rappe... Blah, blah, blah</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Le blaze c'est Seth Gueko, HLM, terrain vague, sac de sport v'la le décor J'préfère manger la balle d'un petit qui joue au foot que la balle des porcs Del-bor, del-bor, del-bor, del-bor, del-bor Le blaze c'est Seth Gueko, la ville c'est Saint Ouen l'aumône 95 3.1.O Alias Al Poelvoordino, Al Poelvoordino, Al Poervoordino, Al poelvoordino Si je pouvais pour chaque CD acheté y'aurait une barette offerte On est fichés comme tricheurs au cercle Jeter son 3.5.7 dans l'Oise après un coup c'est crucial Avec un peu de polish a bras au main de la brigade fluvial Tu peux te pignoler T'entendras pas mes pitts miauler On veut les llet-bi violet du Crédit Lyonnais Un képi me rit au nez...Marlish A la fenêtre y'a ma mère Au tieks tout le monde l'appelle Mermish Inch' Allah le merish Petit mariolot Tu cacheras pas l'odeur de la trouille chez Marionnaud Il est conseillé de rire aux blague d'un mafioso Et de le payer ou tu te feras gréner comme un faisan Par un éventuel pizaïolo Cas sociaux, casse cofiot Marche pas de traviole j'ai les crocs Quand je souris on dirai un rateau Mon raclo, moi mon pater m'a pas offert un gammos J'me suis sappé tout seul en Salvatore Ferragamo! On pretexte des resto pour s'échanger des enveloppe On te la colle entre les deux yeux même avec la tremblotte Une pauvre mère sanglote pour son fils mauvais payeur Qui a fait l'erreur de se mettre en terrasse pendant l'happy hour Et le v'la face d'un casque intégral et d'un Sig Sauer Bla bla bla, film d'horreur Pas de p'tit joueur ici on marche droit Dans les caves l'entrainement c'est simulation d'quage-bra Alors tous a terre, que personne ne bouge L'argent qui vous sera pris vous sera rendu par l'Etat Et que j'en vois pas un jouer le héros ou on lui colle un pruneau T'entends ? y en a pas un qui joue le héros, ou on va l'crendo' La tension monte crescendo On est pas les sopranos nous on est les altos On s'est laisser pousser le p'tit ongle pour tricher au ker-po Aide ma mère a remonter les packs d'eau Elle a des bleme-pro vertebraux You might also like Le blaze c'est Seth Gueko H.L.M, terrains vagues, sac de sport v'là l'decor J'préfère manger la balle d'un p'tit qui joue au foot que la balle des porcs Del-bor, del-bor, del-bor, del-bor, del-bor Le blaze c'est Seth Gueko La ville c'est Saint-Ouen l'Aumone, 9.5.3.1.0 Alias Al poelvoordino Al poelvoordino Al poelvoordino Al poelvoordino Tour à tour fino tour à tour polisson tour à tour gangster mais tour à tour genereux</t>
+          <t>Le blaze c'est Seth Gueko, HLM, terrain vague, sac de sport v'la le décor J'préfère manger la balle d'un petit qui joue au foot que la balle des porcs Del-bor, del-bor, del-bor, del-bor, del-bor Le blaze c'est Seth Gueko, la ville c'est Saint Ouen l'aumône 95 3.1.O Alias Al Poelvoordino, Al Poelvoordino, Al Poervoordino, Al poelvoordino Si je pouvais pour chaque CD acheté y'aurait une barette offerte On est fichés comme tricheurs au cercle Jeter son 3.5.7 dans l'Oise après un coup c'est crucial Avec un peu de polish a bras au main de la brigade fluvial Tu peux te pignoler T'entendras pas mes pitts miauler On veut les llet-bi violet du Crédit Lyonnais Un képi me rit au nez...Marlish A la fenêtre y'a ma mère Au tieks tout le monde l'appelle Mermish Inch' Allah le merish Petit mariolot Tu cacheras pas l'odeur de la trouille chez Marionnaud Il est conseillé de rire aux blague d'un mafioso Et de le payer ou tu te feras gréner comme un faisan Par un éventuel pizaïolo Cas sociaux, casse cofiot Marche pas de traviole j'ai les crocs Quand je souris on dirai un rateau Mon raclo, moi mon pater m'a pas offert un gammos J'me suis sappé tout seul en Salvatore Ferragamo! On pretexte des resto pour s'échanger des enveloppe On te la colle entre les deux yeux même avec la tremblotte Une pauvre mère sanglote pour son fils mauvais payeur Qui a fait l'erreur de se mettre en terrasse pendant l'happy hour Et le v'la face d'un casque intégral et d'un Sig Sauer Bla bla bla, film d'horreur Pas de p'tit joueur ici on marche droit Dans les caves l'entrainement c'est simulation d'quage-bra Alors tous a terre, que personne ne bouge L'argent qui vous sera pris vous sera rendu par l'Etat Et que j'en vois pas un jouer le héros ou on lui colle un pruneau T'entends ? y en a pas un qui joue le héros, ou on va l'crendo' La tension monte crescendo On est pas les sopranos nous on est les altos On s'est laisser pousser le p'tit ongle pour tricher au ker-po Aide ma mère a remonter les packs d'eau Elle a des bleme-pro vertebraux Le blaze c'est Seth Gueko H.L.M, terrains vagues, sac de sport v'là l'decor J'préfère manger la balle d'un p'tit qui joue au foot que la balle des porcs Del-bor, del-bor, del-bor, del-bor, del-bor Le blaze c'est Seth Gueko La ville c'est Saint-Ouen l'Aumone, 9.5.3.1.0 Alias Al poelvoordino Al poelvoordino Al poelvoordino Al poelvoordino Tour à tour fino tour à tour polisson tour à tour gangster mais tour à tour genereux</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ambiance thug et ghetto, le plus gros des succès Bi-bi-bicrave le bédo mais pas la CC Bi-bi-biatch après ce morceau, viens pas nous sucer Je mélange mes factures avec mes billets J'suis déter, déterminé à briller Briser, brasser le rap français, j'vais le ressusciter J'marche toujours avec 2 ou 3 immigrés Dis à Mégret que je m'en bats les couilles de m'intégrer C'est pour mes refrés qui baisent les poults Qui font des boule-dés, qui vont te dépouillr Dans les cités aulnaysiennes y'a un flow à la Lil Wayne De la cocaïne et de la résine marocaine ... Augmente le taux de crime de la métropole Moi le rap je m'en branle moi je gère le succès Tellement de tasspés j'arrive plus à compter Ghetto Fab Vendetta sans remords ni pitié On a des tass qui bicravent, des clandos qui font le guet Mate les rues de ma zone Clicli bicrave T'es pas à l'abri d'un schlass qui sort de nulle part Les braves qui n'hésitent pas à tirer sur le videur C'est la peine capitale 9.3 le secteur West side négro ... renoi ... Ouvre le coffre frérot c'est la banque populaire ... rap pour cacher la misère You might also like Ça sent la cojones à plein nez ... Ah frère l'enfer et ses flammes m'effleurent ... Pendant qu'on m'enregistre ma reum a peur Car la police fait l'amalgame entre dealer et rappeur ... ... 93 c'est le chiffre Platinum Grillz c'est la mif Un pour les mans qui sont tombés ... ... ...</t>
+          <t>Ambiance thug et ghetto, le plus gros des succès Bi-bi-bicrave le bédo mais pas la CC Bi-bi-biatch après ce morceau, viens pas nous sucer Je mélange mes factures avec mes billets J'suis déter, déterminé à briller Briser, brasser le rap français, j'vais le ressusciter J'marche toujours avec 2 ou 3 immigrés Dis à Mégret que je m'en bats les couilles de m'intégrer C'est pour mes refrés qui baisent les poults Qui font des boule-dés, qui vont te dépouillr Dans les cités aulnaysiennes y'a un flow à la Lil Wayne De la cocaïne et de la résine marocaine ... Augmente le taux de crime de la métropole Moi le rap je m'en branle moi je gère le succès Tellement de tasspés j'arrive plus à compter Ghetto Fab Vendetta sans remords ni pitié On a des tass qui bicravent, des clandos qui font le guet Mate les rues de ma zone Clicli bicrave T'es pas à l'abri d'un schlass qui sort de nulle part Les braves qui n'hésitent pas à tirer sur le videur C'est la peine capitale 9.3 le secteur West side négro ... renoi ... Ouvre le coffre frérot c'est la banque populaire ... rap pour cacher la misère Ça sent la cojones à plein nez ... Ah frère l'enfer et ses flammes m'effleurent ... Pendant qu'on m'enregistre ma reum a peur Car la police fait l'amalgame entre dealer et rappeur ... ... 93 c'est le chiffre Platinum Grillz c'est la mif Un pour les mans qui sont tombés ... ... ...</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>J'rentre dans la salle de bain J'tombe nez à nez avec un barlou, ça fait peur Il faut qu'j'retire le miroir demain Ouais je pars de rien comme tout mec de cité Mais j'ai 2020 à la dictée de Mérimée Et j't'entends kicker t'es périmé périmé Hommage au femmes qu'ont accouché En s'étant faite déchiqueter le périnée Il t'faut deux vies pour décrypter toutes mes rimes et mes txtes Tu prends une ball dans les fesses va chez le vétérinaire J'vais les Jacques Mesriner Fuck Pythagore et messire Thalès Ici les Pits hardcore déchirent ta laisse Fuck les miradors, ça respire la tess Fuck ces blanches qui a pas d'fesses Qui fait des blackfaces Tête rasée, barbe épaisse J'donne ça, New Yorkais comme Das EFX Les haters sont des suceurs de sang comme Vlad Tepes Personne m'encule j'ai barbelé à la place des poils des fesses Allez crache l'espèce Tu veux un feat 'faut payer le prix Y'a qu'dans les pièges à rat que l'fromage est gratuit Seth Gueks Tu peux sortir petit, l'orage est parti You might also like Que la concu m'lèche le pét' Et n'fasse pas de geste bête J'te parle mal comme Etchebest et j'te baise cabron Tu cherches le pez Mais mon bout du cake, tu vas pas l'manger Bien rapper c'est pas porter du Balmain ou du Palm Angels Ah si vous saviez saviez brrr Diplômé de Poudlard et de l'institut Xavier J'suis le mec qu'ils craignent j'fais du NY Baby make it rain J'vais au taf même s'il grêle 'Faut bien qu'ces MCs crèvent On veut m'destituer comme le shah d'iran shah d'iran Inspiré par chaque tyran J'vois l'monde comme une chatte immense J'te l'ai d'ja dit m'man Rien ne sert de prier pour moi chaque Dimanche J'suis qu'un pêcheur qui attend son châtiment Tout s'passe comme prévu j'me frotte les mains comme une mouche Ils arrivent remplis d'courage ils repartent avec le cul rouge Vamos vamos vamos, vamos Zushiboyz, zushiboyz Yeah, yeah, yeah yeah Fuck un like besoin d'un coup d'pouce like Ma bitch revient d'la clinique avec ses new boobs wow Pas d'quoi lui payer des fesses mais je fais tout pour pas encore Du sang sous mes semelles c'est pas des loubou' tou tou tou Chaque instant j'pense à la moumou la moumou Pas d'sentiments comme ton père qui baise la nounou la nounou Imagine moi tout bronzé sur une plage de Tulum ah ouais Toi ça se voit tu d'mandes les frites dans le Durum ça s'voit American Pie dans sa chambre on joue à Touche Touche Toi t'es juste un bouche trou un bouche trou Elle te trouve cute trop cute Ramène les meilleurs on les couche tous J'suis avec Miguel je smoke la Blue Zush' dans la soucoupe ouais Vous faites trop les foufous On sort les joujous tou tou La vie c'est triste comme ces p'tits bout d'chou dans le caoutchouc le latex M'entendre rapper ça vous époustoufle double wow T'as une tête à aller à Poufsouffle Si t'as pas encore fait tes prières C'est vraiment qu't'es suicidaire Ou bien t'as pas choisi ton camp Tout-puissant ou Lucifer C'est pas la même hécatombe meurtrière Pas le même univers Chez moi on vise au même endroit que le diamant d'Lil Uzi Vert Zin, J'voyais mon nom en r'brique faits divers J'étais tout l'temps fier Mes poumons ont cramé une pépinière toute entière J'te parle pas monnaie d'hier Mais bien celle d'aujourd'hui Fais vite avant qu'j'sectionne ta moelle épinière Zin, Ça s'voit depuis qu'tes putes m'aiment Séquelles irréversibles Comme Monica dans l'cul d'Mel' Tu voles d'travers comme une mouche à merde À qui il manque une aile Elbeb en survet' Hummel Les zins s'expriment avec trois doigts Comme Sonny à Fordham Flingue à la ceinture sereins comme s'ils avaient le port d'arme En chaussettes claquettes j'mets à l'amende tes Jordans Je m'en vais normal Comme le Lelandais Nordahl Ahhhh</t>
+          <t>J'rentre dans la salle de bain J'tombe nez à nez avec un barlou, ça fait peur Il faut qu'j'retire le miroir demain Ouais je pars de rien comme tout mec de cité Mais j'ai 2020 à la dictée de Mérimée Et j't'entends kicker t'es périmé périmé Hommage au femmes qu'ont accouché En s'étant faite déchiqueter le périnée Il t'faut deux vies pour décrypter toutes mes rimes et mes txtes Tu prends une ball dans les fesses va chez le vétérinaire J'vais les Jacques Mesriner Fuck Pythagore et messire Thalès Ici les Pits hardcore déchirent ta laisse Fuck les miradors, ça respire la tess Fuck ces blanches qui a pas d'fesses Qui fait des blackfaces Tête rasée, barbe épaisse J'donne ça, New Yorkais comme Das EFX Les haters sont des suceurs de sang comme Vlad Tepes Personne m'encule j'ai barbelé à la place des poils des fesses Allez crache l'espèce Tu veux un feat 'faut payer le prix Y'a qu'dans les pièges à rat que l'fromage est gratuit Seth Gueks Tu peux sortir petit, l'orage est parti Que la concu m'lèche le pét' Et n'fasse pas de geste bête J'te parle mal comme Etchebest et j'te baise cabron Tu cherches le pez Mais mon bout du cake, tu vas pas l'manger Bien rapper c'est pas porter du Balmain ou du Palm Angels Ah si vous saviez saviez brrr Diplômé de Poudlard et de l'institut Xavier J'suis le mec qu'ils craignent j'fais du NY Baby make it rain J'vais au taf même s'il grêle 'Faut bien qu'ces MCs crèvent On veut m'destituer comme le shah d'iran shah d'iran Inspiré par chaque tyran J'vois l'monde comme une chatte immense J'te l'ai d'ja dit m'man Rien ne sert de prier pour moi chaque Dimanche J'suis qu'un pêcheur qui attend son châtiment Tout s'passe comme prévu j'me frotte les mains comme une mouche Ils arrivent remplis d'courage ils repartent avec le cul rouge Vamos vamos vamos, vamos Zushiboyz, zushiboyz Yeah, yeah, yeah yeah Fuck un like besoin d'un coup d'pouce like Ma bitch revient d'la clinique avec ses new boobs wow Pas d'quoi lui payer des fesses mais je fais tout pour pas encore Du sang sous mes semelles c'est pas des loubou' tou tou tou Chaque instant j'pense à la moumou la moumou Pas d'sentiments comme ton père qui baise la nounou la nounou Imagine moi tout bronzé sur une plage de Tulum ah ouais Toi ça se voit tu d'mandes les frites dans le Durum ça s'voit American Pie dans sa chambre on joue à Touche Touche Toi t'es juste un bouche trou un bouche trou Elle te trouve cute trop cute Ramène les meilleurs on les couche tous J'suis avec Miguel je smoke la Blue Zush' dans la soucoupe ouais Vous faites trop les foufous On sort les joujous tou tou La vie c'est triste comme ces p'tits bout d'chou dans le caoutchouc le latex M'entendre rapper ça vous époustoufle double wow T'as une tête à aller à Poufsouffle Si t'as pas encore fait tes prières C'est vraiment qu't'es suicidaire Ou bien t'as pas choisi ton camp Tout-puissant ou Lucifer C'est pas la même hécatombe meurtrière Pas le même univers Chez moi on vise au même endroit que le diamant d'Lil Uzi Vert Zin, J'voyais mon nom en r'brique faits divers J'étais tout l'temps fier Mes poumons ont cramé une pépinière toute entière J'te parle pas monnaie d'hier Mais bien celle d'aujourd'hui Fais vite avant qu'j'sectionne ta moelle épinière Zin, Ça s'voit depuis qu'tes putes m'aiment Séquelles irréversibles Comme Monica dans l'cul d'Mel' Tu voles d'travers comme une mouche à merde À qui il manque une aile Elbeb en survet' Hummel Les zins s'expriment avec trois doigts Comme Sonny à Fordham Flingue à la ceinture sereins comme s'ils avaient le port d'arme En chaussettes claquettes j'mets à l'amende tes Jordans Je m'en vais normal Comme le Lelandais Nordahl Ahhhh</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Seth Gueko ! Neochrome ! Chek, chek, chek rec chek, chek Aux yeux du rap, j'suis la figure montante À tes yeux, t'as des vraies Nike mais y'a une virgule manquante À tes yeux, c'est ta nouvelle rencontre Moi à mes yeux, c'est qu'une petite pute rampante qui plume ton compte Ils ont nourri nos yeux avec du sexe et des armes à feu Ils ont tiré l'Rocco par la queue Aux yeux d'la radio c'est trop racailleux Mais si y'a un touriste sous tes yeux, arnaques-le ! Aux yeux d'l'ANPE, j'suis un paresseux Aux yeux d'Jean Paul II, j'atteindrai pas les cieux À mes yeux, on doit pas dire aux darmes-gen, monsieur Tes yeux voient du chocolat mais c'est des kilogrammes de me-seu Mes yeux détectent le michetonnage de feu-meu Tes yeux voient une brune mais c'est du mythonnage de Aux yeux d'ma mère, j'mène une vie d'ange À tes yeux, j'te fais l'amour, à mes yeux, j'fais ma vidange Aux yeux des chiennes de garde, j'suis super vulgaire Mais quand j'compare ailleurs alors juste j'commets l'adultère J'détiens la vision À mes yeux mieux vaut être un coupable libre qu'un innocent en prison You might also like Wesh la délinquance À leurs yeux, on est tous fou fou fou foutus Car on bosse et motus bouche-cousue À nos yeux y'a que nous, yo ! Ici c'est Paris, on s'en bat les couilles de k-New-Yor Aux yeux des vieux, j'suis qu'un jeune sans emploi À mes yeux, le moindre milliardaire se change en proie À mes yeux, j'ai des tier-Car, branche en bois À leurs yeux, les tier-quar sont d'méchants endroit, on boit À leurs yeux, les tess, sont des demi-zoo Sarko joue les De Niro mais y r'ssemble à Denisot Aux yeux des physio, j'suis mal-accompagné Mais aux yeux d'Bugs, on devrait casser leurs poignets À tes yeux, t'es un big ssiste-gravo Mais ta Elvira r'ssemble à Christine Bravo À mes yeux, c'fou d'Le Pen mérite une lourde peine Y'a plus d'espoir dans mes yeux qu'dans une goutte de sperme À leurs yeux, les halls méritent un zeste d'Airwick Mais il confonde bavure et geste héroïque À mes yeux, j't'explique si tu nous testes, quick Si tu prends un croc d'sess, tu vas ier-ch du Nesquick Quand d'vant mes yeux, y a un film érotique, je reste Sauf que j'remplace l'actrice par Véronique Genest L'important c'est qu'tes yeux terrorisent leurs chefs Gangstas, gangstas, pour bien suivre les logique de tess Wesh la délinquance À leurs yeux, on est tous fou fou fou foutus Car on bosse et motus bouche-cousue À nos yeux y'a que nous, yo ! Ici c'est Paris, on s'en bat les couilles de k-New-Yor</t>
+          <t>Seth Gueko ! Neochrome ! Chek, chek, chek rec chek, chek Aux yeux du rap, j'suis la figure montante À tes yeux, t'as des vraies Nike mais y'a une virgule manquante À tes yeux, c'est ta nouvelle rencontre Moi à mes yeux, c'est qu'une petite pute rampante qui plume ton compte Ils ont nourri nos yeux avec du sexe et des armes à feu Ils ont tiré l'Rocco par la queue Aux yeux d'la radio c'est trop racailleux Mais si y'a un touriste sous tes yeux, arnaques-le ! Aux yeux d'l'ANPE, j'suis un paresseux Aux yeux d'Jean Paul II, j'atteindrai pas les cieux À mes yeux, on doit pas dire aux darmes-gen, monsieur Tes yeux voient du chocolat mais c'est des kilogrammes de me-seu Mes yeux détectent le michetonnage de feu-meu Tes yeux voient une brune mais c'est du mythonnage de Aux yeux d'ma mère, j'mène une vie d'ange À tes yeux, j'te fais l'amour, à mes yeux, j'fais ma vidange Aux yeux des chiennes de garde, j'suis super vulgaire Mais quand j'compare ailleurs alors juste j'commets l'adultère J'détiens la vision À mes yeux mieux vaut être un coupable libre qu'un innocent en prison Wesh la délinquance À leurs yeux, on est tous fou fou fou foutus Car on bosse et motus bouche-cousue À nos yeux y'a que nous, yo ! Ici c'est Paris, on s'en bat les couilles de k-New-Yor Aux yeux des vieux, j'suis qu'un jeune sans emploi À mes yeux, le moindre milliardaire se change en proie À mes yeux, j'ai des tier-Car, branche en bois À leurs yeux, les tier-quar sont d'méchants endroit, on boit À leurs yeux, les tess, sont des demi-zoo Sarko joue les De Niro mais y r'ssemble à Denisot Aux yeux des physio, j'suis mal-accompagné Mais aux yeux d'Bugs, on devrait casser leurs poignets À tes yeux, t'es un big ssiste-gravo Mais ta Elvira r'ssemble à Christine Bravo À mes yeux, c'fou d'Le Pen mérite une lourde peine Y'a plus d'espoir dans mes yeux qu'dans une goutte de sperme À leurs yeux, les halls méritent un zeste d'Airwick Mais il confonde bavure et geste héroïque À mes yeux, j't'explique si tu nous testes, quick Si tu prends un croc d'sess, tu vas ier-ch du Nesquick Quand d'vant mes yeux, y a un film érotique, je reste Sauf que j'remplace l'actrice par Véronique Genest L'important c'est qu'tes yeux terrorisent leurs chefs Gangstas, gangstas, pour bien suivre les logique de tess Wesh la délinquance À leurs yeux, on est tous fou fou fou foutus Car on bosse et motus bouche-cousue À nos yeux y'a que nous, yo ! Ici c'est Paris, on s'en bat les couilles de k-New-Yor</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>On m'a dit Petit, prends leur le titre ! , c'est l'heure du style Inutile de dire que j'ai l'style qui tue, et lil du tigre Plein d'chien élevé à la Despe, j'suis resté àl Donc mes respects à la S.P.A Vous testez le lion nan nan les mecs, restez mignon ! Moi les crocs j'sais comment les mettre J'fais du bien à mon prochain, salam aleikoum Mais les serpents ont des bras, et ils t'serrent la main les cons Ils disent que c'est pas la taille qui compte, car la leur est p'tite Si t'es un reptile, n'attaque pas King Kong, p'tit ! Enfoiré ! Pourquoi t'as l'fou rire ? A la base ces tards-bâ, t'abattent leurs femmes portent ta fourrure Papy y a des hyènes, des chiennes Et si Godzilla fait des siennes, traquez le, quoi qu'il advienne ! Confonds pas un Black Panther, et la Panthère Rose ! Confonds pas les pampers, et là où on plante les roses ! On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort You might also like J'mendors avec le chant des sirènes Essaie pas d'rattraper un jaguar avec une coccinelle Inch'Allah c't'année, on fête mon million Et surtout, ne fais pas ton mignon au milieu d'mes lions ! Les pigeons, j'suis né pour les card-na Connard, tu vas t'faire clouer l'bec si tu joues les canards La volaille, y a pas plus casse-couilles Des poulets qui chassent des renards, t'as vu ça dans quelle basse-cour ? Entouré d'capucins en sweet à capuche hein Au poste, j'sais même pas combien font 4 plus 1 Pourtant j'ai une mémoire d'éléphant, la police, on la trompe énormément Qu'ils lèchent la chatte à leurs mamans ! Une queue d'cheval, depuis l'couffin J'aime les gos qu'ont un gros cul et un dos fin Priez l'Christ ! J'suis né avec un pied-d'-biche pour piller l'riche et m'taper la directrice On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort C'est rien qu'un monde de chiens, et moi une espèce de mammifère C'est dégueulasse de graill' les autres, mais faudra m'y faire Y a trop de haine, c'est la saison des amours Trop de hyènes qui veulent ma peau, car lassés sont les jaloux Si y a pas d'bave, c'est qu'la rage est ruminée Méfie toi des gros minous, j'me méfie des gros minets Car ils croient tous être le mâle dominant Mais l'illusion est chronique, c'est comme l'album 2001 On est tous au même niveau, omnivores Et si y a rien à manger, bah devine c'que l'homme dévore ! Si tu m'attaques et que j'te saigne cannibale Ce s'ra juste une autre étape de la survie de mon règne animal Car toi et moi, on est que des vivipares Et d'la grande échelle du temps, on a que des minis pas Tu connais l' ça commence , mais pas le finit pas On est tous des dinosaures a.k.a les vivipares On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort</t>
+          <t>On m'a dit Petit, prends leur le titre ! , c'est l'heure du style Inutile de dire que j'ai l'style qui tue, et lil du tigre Plein d'chien élevé à la Despe, j'suis resté àl Donc mes respects à la S.P.A Vous testez le lion nan nan les mecs, restez mignon ! Moi les crocs j'sais comment les mettre J'fais du bien à mon prochain, salam aleikoum Mais les serpents ont des bras, et ils t'serrent la main les cons Ils disent que c'est pas la taille qui compte, car la leur est p'tite Si t'es un reptile, n'attaque pas King Kong, p'tit ! Enfoiré ! Pourquoi t'as l'fou rire ? A la base ces tards-bâ, t'abattent leurs femmes portent ta fourrure Papy y a des hyènes, des chiennes Et si Godzilla fait des siennes, traquez le, quoi qu'il advienne ! Confonds pas un Black Panther, et la Panthère Rose ! Confonds pas les pampers, et là où on plante les roses ! On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort J'mendors avec le chant des sirènes Essaie pas d'rattraper un jaguar avec une coccinelle Inch'Allah c't'année, on fête mon million Et surtout, ne fais pas ton mignon au milieu d'mes lions ! Les pigeons, j'suis né pour les card-na Connard, tu vas t'faire clouer l'bec si tu joues les canards La volaille, y a pas plus casse-couilles Des poulets qui chassent des renards, t'as vu ça dans quelle basse-cour ? Entouré d'capucins en sweet à capuche hein Au poste, j'sais même pas combien font 4 plus 1 Pourtant j'ai une mémoire d'éléphant, la police, on la trompe énormément Qu'ils lèchent la chatte à leurs mamans ! Une queue d'cheval, depuis l'couffin J'aime les gos qu'ont un gros cul et un dos fin Priez l'Christ ! J'suis né avec un pied-d'-biche pour piller l'riche et m'taper la directrice On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort C'est rien qu'un monde de chiens, et moi une espèce de mammifère C'est dégueulasse de graill' les autres, mais faudra m'y faire Y a trop de haine, c'est la saison des amours Trop de hyènes qui veulent ma peau, car lassés sont les jaloux Si y a pas d'bave, c'est qu'la rage est ruminée Méfie toi des gros minous, j'me méfie des gros minets Car ils croient tous être le mâle dominant Mais l'illusion est chronique, c'est comme l'album 2001 On est tous au même niveau, omnivores Et si y a rien à manger, bah devine c'que l'homme dévore ! Si tu m'attaques et que j'te saigne cannibale Ce s'ra juste une autre étape de la survie de mon règne animal Car toi et moi, on est que des vivipares Et d'la grande échelle du temps, on a que des minis pas Tu connais l' ça commence , mais pas le finit pas On est tous des dinosaures a.k.a les vivipares On a tous un côté bestial Dans nos tess, c'est la jungle et on s'agrippe comme des aigles On a tous un côté bestial Tous les keufs font du zèle, ils veulent nous couper les ailes On a tous un côté bestial Les barreaux d'la prison nous font bronzer comme des zèbres On a tous un côté bestial, l'animalie s'installe Des carnivores qu'on empêche de parler fort</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Seth Gueko 2Pac attend que je meurs pour pouvoir faire un duo Ma femme m'a offert un flingue, je lui offert un plumeau Mon rap réchauffe les clodos et glace le sang des bobos Tu rappes la street avec les doigts croisés dans le dos mytho Nous on tire des traineaux de blèmes-pro Cette année je veux pas de cadeaux Je veux juste une échelle assez grande pour tchek mes proches qui sont partis là-haut Ouais décroche quand je t'appelle Pti't narvalo de javel Si t'es en enfer avant moi, prépare le Nespresso J'ai de l'or entre les jambes et du plomb dans la cervelle Écoute pas les petites putes qui veulent rapper comme Gueko En léchant Julia Channel, t'as un peu sucer Rocco blaireau Je suis la goutte d'eau qui fait déborder le string Le couteau qui égorge les porcs, les skins Maragwé, je me suis tatoué Seth Guex sur les mains Je te rentre mon blaze dans le crâne à coups de poings, mon copain Refrain Seth Gueko Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Sakio Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Seth Gueko Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Sakio Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4 You might also likeSakio Y a que les perles rares qui nous rendent visite au parloir C'est pour ça que je préfère les huîtres au caviar Sorti du placard en limousine, désosse le corbillard Et sabre le millésime Les jeunes veulent rejoindre le crime organisé Pas de piste pour l'ennemi juste un coup de chaussure ferré En sape ou en rimes, le niveau est élevé Le plan a carrément échouer Avocat libre,on garde notre part d'ombre tout comme Karim Achoui Frère, j'ai un plan en or Je sors avec une bijoutière Les flics froids, on les accueille avec un frigidaire Si t'es mon frère, prouve le moi comme Cyril Khider Mettez moi au quartier disciplinaire C'est mort, je reste muet comme un cimetière Refrain Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4 Seth Gueko Trop jaloux pour qu'elle voie un gynécologue homme Pti't narvalo de Cologne Si je veux t'effacer de ma vie, mon gun est ma gomme Je fais mon trou lentement mais surement comme les Gog et Magog Sakio Comme dit Axiom, mon argent a été blanchi La coke et les amphét' circule dans les amphi' On s'enfuit de-spee comme Valentino Rossi Ligoter ce monsieur qu'ont violenté nos reu-soeu Seth Gueko On se ref'ra pas à 40 ans donc faut pas se louper Si je fais des doigts sur les photos, y aura Fifou pour flouter T'as un pipo entre les amygdales, tu penses qu'à flûter Moi j'ai le cigare d'Hannibal et la tchatche a Futé Sakio En tant que surveillant, les flics ratés postulent Pas besoin de tank, on fait la guerre en costume Les filles traquent les thunes et un joli mec Mercedes, c'est notre bébé comme une migeli? mec Refrain Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4</t>
+          <t>Seth Gueko 2Pac attend que je meurs pour pouvoir faire un duo Ma femme m'a offert un flingue, je lui offert un plumeau Mon rap réchauffe les clodos et glace le sang des bobos Tu rappes la street avec les doigts croisés dans le dos mytho Nous on tire des traineaux de blèmes-pro Cette année je veux pas de cadeaux Je veux juste une échelle assez grande pour tchek mes proches qui sont partis là-haut Ouais décroche quand je t'appelle Pti't narvalo de javel Si t'es en enfer avant moi, prépare le Nespresso J'ai de l'or entre les jambes et du plomb dans la cervelle Écoute pas les petites putes qui veulent rapper comme Gueko En léchant Julia Channel, t'as un peu sucer Rocco blaireau Je suis la goutte d'eau qui fait déborder le string Le couteau qui égorge les porcs, les skins Maragwé, je me suis tatoué Seth Guex sur les mains Je te rentre mon blaze dans le crâne à coups de poings, mon copain Refrain Seth Gueko Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Sakio Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Seth Gueko Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Sakio Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4 Sakio Y a que les perles rares qui nous rendent visite au parloir C'est pour ça que je préfère les huîtres au caviar Sorti du placard en limousine, désosse le corbillard Et sabre le millésime Les jeunes veulent rejoindre le crime organisé Pas de piste pour l'ennemi juste un coup de chaussure ferré En sape ou en rimes, le niveau est élevé Le plan a carrément échouer Avocat libre,on garde notre part d'ombre tout comme Karim Achoui Frère, j'ai un plan en or Je sors avec une bijoutière Les flics froids, on les accueille avec un frigidaire Si t'es mon frère, prouve le moi comme Cyril Khider Mettez moi au quartier disciplinaire C'est mort, je reste muet comme un cimetière Refrain Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4 Seth Gueko Trop jaloux pour qu'elle voie un gynécologue homme Pti't narvalo de Cologne Si je veux t'effacer de ma vie, mon gun est ma gomme Je fais mon trou lentement mais surement comme les Gog et Magog Sakio Comme dit Axiom, mon argent a été blanchi La coke et les amphét' circule dans les amphi' On s'enfuit de-spee comme Valentino Rossi Ligoter ce monsieur qu'ont violenté nos reu-soeu Seth Gueko On se ref'ra pas à 40 ans donc faut pas se louper Si je fais des doigts sur les photos, y aura Fifou pour flouter T'as un pipo entre les amygdales, tu penses qu'à flûter Moi j'ai le cigare d'Hannibal et la tchatche a Futé Sakio En tant que surveillant, les flics ratés postulent Pas besoin de tank, on fait la guerre en costume Les filles traquent les thunes et un joli mec Mercedes, c'est notre bébé comme une migeli? mec Refrain Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Tu te fais des lignes de blanche avec ta carte black T'as la main sur le cur seulement pendant les crises cardiaques Je rappe comme si je revenais de l'au-delà, mec Je veux mourir en paix comme ceux qu'on bu l'eau de la Mecque Ils ont tous le barreau sur mon avocate Tu te sens moins seul en cellule avec le Iphone 4</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Serious, serious Alibi Montana, Alkpote, Seth Gueko, Grödash Appelle-moi A.K.A.L.I, te remplace dans ton lit Rends service à ta femme, elle m'appelle quand t'es parti J'aime le danger comme le cancer dans tes poumons Marginal, nous niquons l'État dès que nous l'pouvons Tu le vois, la musique que l'on fait est caille-ra, caille-ra Tu vas au fond de la province, de la banlieue jusqu'à ris-Pa C'est bouteille cassée, coup d'tête, lèvres explosées Personne n'est un surhomme, donc tout l'monde est exposé Pas de panique, on n'a pas fini d'ouvrir la crédibilité On fait peur aux grosses pédales qui font dans la débilité Parc'que c'est thug, c'est froid, c'est la France des sagouins Toute la délinquance de France qui danse sur le flow de ma voix Mec, mets-toi à l'heure, mets-toi à-l', qu'on s'installe On est parti, c'est la partie des dingues, c'est spécial Eh, insulte à la , béton à la boue, une bouteille dans la bouche Aucune sympathie pour Sarkozy, aucune pour George Bush C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh You might also like Nouvelle cuvée d'rimes, c'est l'dernier millésime C'est inédit, plein d'gens pensent que notre CD, il est chime J'ai, la beauté d'Ribéry, le coup d'tête de Zinédine Ma fine équipe nique les flics, ils auront ce qu'ils méritent salope Les cinéphiles font faire des crises d'épilepsie Y a pas d'lézard, fils, faut braquer la r'mise, ouais, j'mate les artistes J'reste actif, sans coke et sans extasy Lèche ma... ou bien tu sauteras comme à Tel Aviv si si J'ai du mal à joindre les deux bouts, à tenir debout Faut qu'j'ramène le flouse comme Jamel Debbouze Même avec une main en moins comme Paul On te nique l'épaule, les quitter hommes, faut qu'tu cries Vive l'Essonne Blaireau c'est ça, écris mon nom en pro-lettrage en pro-lettrage Tu m'connais pas, ça sert à rien de trop ler-par trop ler-par Les gos m'ter-ma, les faux dégagent, c'est John H, phénoménal Le pro des phases, intestable tel Gogeta C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh Cousin, range les armes même si l'ambiance est banlieusarde J'suis v'nu en paix mais direct les pédés montent dans les arbres Anti-shtar, j'viens cracher ma haine en seize barres Me dis pas que j'ai changer d'style, moi, j'ai le mic ancestral poto À nos adieux, j'veux qu'mon rap soit bénéfique Vu qu'dans l'game, autant de pédophile qu'à Porte Dauphine Oh, j'te rappelle qu'j'suis v'nu en paix, mets c'milieu en paix Celui qui l'ouvre, direct on le baise bleh Y a que des zombis, tant pis, les mecs qui ont sorti des taudis En tête, on t'nique la gauche, t'envoies chez l'toubib Pour 100 G pour 100 G, le sang gicle Rien n'a changé, ah si, j'veux de l'or sur mes gencives Crois plus au Père Noël, la vie la mit super à l'ouest On perd nos rêves, on prend du ferme, c'est pour mes frères du L.O.S Chaque rap, un truc de barge comme Hotboy Défouraille à la Hotdog, j'ai mes golgoths pour le hold-up, biatch C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh Seth Gueko, l'poto Al.K, Grödash, Alibi Montana Fais pas les grands yeux, c'est la banlieue, zblex Rec tcheck tchecks 2007, coup d'shlass, zblex Bala Bambino, Tony Denza, ... Tout Néochrome, Yonea'yod, zbleh</t>
+          <t>Serious, serious Alibi Montana, Alkpote, Seth Gueko, Grödash Appelle-moi A.K.A.L.I, te remplace dans ton lit Rends service à ta femme, elle m'appelle quand t'es parti J'aime le danger comme le cancer dans tes poumons Marginal, nous niquons l'État dès que nous l'pouvons Tu le vois, la musique que l'on fait est caille-ra, caille-ra Tu vas au fond de la province, de la banlieue jusqu'à ris-Pa C'est bouteille cassée, coup d'tête, lèvres explosées Personne n'est un surhomme, donc tout l'monde est exposé Pas de panique, on n'a pas fini d'ouvrir la crédibilité On fait peur aux grosses pédales qui font dans la débilité Parc'que c'est thug, c'est froid, c'est la France des sagouins Toute la délinquance de France qui danse sur le flow de ma voix Mec, mets-toi à l'heure, mets-toi à-l', qu'on s'installe On est parti, c'est la partie des dingues, c'est spécial Eh, insulte à la , béton à la boue, une bouteille dans la bouche Aucune sympathie pour Sarkozy, aucune pour George Bush C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh Nouvelle cuvée d'rimes, c'est l'dernier millésime C'est inédit, plein d'gens pensent que notre CD, il est chime J'ai, la beauté d'Ribéry, le coup d'tête de Zinédine Ma fine équipe nique les flics, ils auront ce qu'ils méritent salope Les cinéphiles font faire des crises d'épilepsie Y a pas d'lézard, fils, faut braquer la r'mise, ouais, j'mate les artistes J'reste actif, sans coke et sans extasy Lèche ma... ou bien tu sauteras comme à Tel Aviv si si J'ai du mal à joindre les deux bouts, à tenir debout Faut qu'j'ramène le flouse comme Jamel Debbouze Même avec une main en moins comme Paul On te nique l'épaule, les quitter hommes, faut qu'tu cries Vive l'Essonne Blaireau c'est ça, écris mon nom en pro-lettrage en pro-lettrage Tu m'connais pas, ça sert à rien de trop ler-par trop ler-par Les gos m'ter-ma, les faux dégagent, c'est John H, phénoménal Le pro des phases, intestable tel Gogeta C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh Cousin, range les armes même si l'ambiance est banlieusarde J'suis v'nu en paix mais direct les pédés montent dans les arbres Anti-shtar, j'viens cracher ma haine en seize barres Me dis pas que j'ai changer d'style, moi, j'ai le mic ancestral poto À nos adieux, j'veux qu'mon rap soit bénéfique Vu qu'dans l'game, autant de pédophile qu'à Porte Dauphine Oh, j'te rappelle qu'j'suis v'nu en paix, mets c'milieu en paix Celui qui l'ouvre, direct on le baise bleh Y a que des zombis, tant pis, les mecs qui ont sorti des taudis En tête, on t'nique la gauche, t'envoies chez l'toubib Pour 100 G pour 100 G, le sang gicle Rien n'a changé, ah si, j'veux de l'or sur mes gencives Crois plus au Père Noël, la vie la mit super à l'ouest On perd nos rêves, on prend du ferme, c'est pour mes frères du L.O.S Chaque rap, un truc de barge comme Hotboy Défouraille à la Hotdog, j'ai mes golgoths pour le hold-up, biatch C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh Seth Gueko, l'poto Al.K, Grödash, Alibi Montana Fais pas les grands yeux, c'est la banlieue, zblex Rec tcheck tchecks 2007, coup d'shlass, zblex Bala Bambino, Tony Denza, ... Tout Néochrome, Yonea'yod, zbleh</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Nouvelle cuvée d'rimes, c'est l'dernier millésime C'est inédit, plein d'gens pensent que notre CD, il est chime J'ai, la beauté d'Ribéry, le coup d'tête de Zinédine Ma fine équipe nique les flics, ils auront ce qu'ils méritent salope Les cinéphiles font faire des crises d'épilepsie Y a pas d'lézard, fils, faut braquer la r'mise, ouais, j'mate les artistes J'reste actif, sans coke et sans extasy Lèche ma bite ou bien tu sauteras comme à Tel Aviv si si J'ai du mal à joindre les deux bouts, à tenir debout Faut qu'j'ramène le flouse comme Jamel Debbouze Même avec une main en moins comme Paul On te nique l'épaule, les quitter hommes, faut qu'tu cries Vive l'Essonne Blaireau c'est ça, écris mon nom en pro-lettrage en pro-lettrage Tu m'connais pas, ça sert à rien de trop ler-par trop ler-par Les gos m'ter-ma, les faux dégagent, c'est John H, phénoménal Le pro des phases, intestable tel Gogeta C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh You might also like 2007, coup d'shlass, zblex Bala Bambino, Tony Denza, Grato Néochrome, Yonea'yod, zbleh si si si</t>
+          <t>Nouvelle cuvée d'rimes, c'est l'dernier millésime C'est inédit, plein d'gens pensent que notre CD, il est chime J'ai, la beauté d'Ribéry, le coup d'tête de Zinédine Ma fine équipe nique les flics, ils auront ce qu'ils méritent salope Les cinéphiles font faire des crises d'épilepsie Y a pas d'lézard, fils, faut braquer la r'mise, ouais, j'mate les artistes J'reste actif, sans coke et sans extasy Lèche ma bite ou bien tu sauteras comme à Tel Aviv si si J'ai du mal à joindre les deux bouts, à tenir debout Faut qu'j'ramène le flouse comme Jamel Debbouze Même avec une main en moins comme Paul On te nique l'épaule, les quitter hommes, faut qu'tu cries Vive l'Essonne Blaireau c'est ça, écris mon nom en pro-lettrage en pro-lettrage Tu m'connais pas, ça sert à rien de trop ler-par trop ler-par Les gos m'ter-ma, les faux dégagent, c'est John H, phénoménal Le pro des phases, intestable tel Gogeta C'est pour mes cailles et tous mes banlieusards Tu peux pas nous ter-plan, on a des peaux d'lézard On tise, on fume, on vend des trucs bizarres C'est pour nos blocs, nos halls et nos vieusarts, bleh 2007, coup d'shlass, zblex Bala Bambino, Tony Denza, Grato Néochrome, Yonea'yod, zbleh si si si</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Le fils caché d'Jack Mess', Seth Guex J'ai pas l'temps d'acheter au magasin, la rage habite tous mes Sarrasins J'ai pas l'temps d'lécher ton garage à bites Ouais, nique sa race hein, j'ai pas l'temps d'aimer les gens Seth il est méchant et ne crois pas qu'il ait gé-chan J'ai pas l'temps d'squatter là, t'es malade ! C'est l'Guatemala Seth est malin, té-ma la s'maine dernière il s'est fait la malle à Des bornes de sa banlieue natale un lieu fatal Soupçonné, y'a eu qu'des non-lieux bâtard ! J'ai pas l'temps d'oublier ce bon vieux Fatah Qui m'a prêché l'Islam, préconisé d'tiser d'la tisane Lui et Sakio j'les suivrais où qu'ils aillent, bilay Même si on doit donner recevoir des coups d'cisailles J'ai pas l'temps d'jouer les malades J'essaye d'être pieux, vieux comme le Prophète Mohamed Alias salat wa salam, moi-même j'slalome Entre le panier à salade et l'scarla qui sort sa lame durant l'da-Ram Pas l'temps d'tomber au ballon ou d'prendre une balle Au pire c'est une pierre tombale et une photo d'plus au salon J'ai pas l'temps d'être un mari salaud qui envoie sa miss à l'hospice, ça non Faut qu'ma vie s'annonce peace Et pas entendre la police à l'autre bout du fil S'allonger d'rire avant d'me dire qu'il y a mon fils à l'ombre Ou un d'mes potes à l'hosto' On est tous claustro' You might also like Welcome to the hood ! Bad boy ! Là où les balles entaillent, pas le time on s'réchauffe l'corps avec du Ballantine's P'tits gabarits ou grandes tailles Mentalité racaille, pas l'time, pas l'time Ouais pas l'temps d'rester là mec, 22 ! v'là la Laguna break ! T'es pas cool avec 3 jours après t'as la gueule à Shrek J'ai pas l'temps d'sourire Pour plaire aux filles, j'mâche un chewing-gum chlorophylle, j'la tchatche et j'embobine le père aussi Pas l'temps d'faire l'lover, j'suis en mode bourrin Une tête de roumain, une haleine de poulain J'ai pas l'temps d'jouer l'numéro 1 Mais t'es tombé sous ma Patate de Forain troué par mon Barillet Plein Seth Gueko, le cauchemar parisien Le tos-ma part et vient On laisse rien à la baraque Aucune empreintes, on laisse aucun indice C'est pour mes fumeurs de cannabis Pas l'temps d'rester au tieks, il faut qu'on s'casse à Nice C'est avec des grenades à plâtre qu'on fait des passes à dix Achète une bouteille de Casanis Et tu pourras emprunter le jeu d'frappe du garagiste On a des mentalités d'anarchistes J'ai enneigé Paris via des sacs plastix Pas l'temps d'faire la queue d'vant les boîtes Pas l'temps de te check si t'as les mains moites Parole de jouate, on a pas l'temps, on joue ap' J'ai un kalash croate à l'intérieur du XXXX La rue nous observe Pas l'temps d'faire la fausse caillera, toi fais pas ta fausse vierge ! Ta mama n'aura pas b'soin d'acheter d'cierges Tu mérites même pas une balle réelle, tu mérites que du gros sel Grosse merde ! El Gueko Néochrome Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Le fils caché d'Jack Mess', Seth Guex J'ai pas l'temps d'acheter au magasin, la rage habite tous mes Sarrasins J'ai pas l'temps d'lécher ton garage à bites Ouais, nique sa race hein, j'ai pas l'temps d'aimer les gens Seth il est méchant et ne crois pas qu'il ait gé-chan J'ai pas l'temps d'squatter là, t'es malade ! C'est l'Guatemala Seth est malin, té-ma la s'maine dernière il s'est fait la malle à Des bornes de sa banlieue natale un lieu fatal Soupçonné, y'a eu qu'des non-lieux bâtard ! J'ai pas l'temps d'oublier ce bon vieux Fatah Qui m'a prêché l'Islam, préconisé d'tiser d'la tisane Lui et Sakio j'les suivrais où qu'ils aillent, bilay Même si on doit donner recevoir des coups d'cisailles J'ai pas l'temps d'jouer les malades J'essaye d'être pieux, vieux comme le Prophète Mohamed Alias salat wa salam, moi-même j'slalome Entre le panier à salade et l'scarla qui sort sa lame durant l'da-Ram Pas l'temps d'tomber au ballon ou d'prendre une balle Au pire c'est une pierre tombale et une photo d'plus au salon J'ai pas l'temps d'être un mari salaud qui envoie sa miss à l'hospice, ça non Faut qu'ma vie s'annonce peace Et pas entendre la police à l'autre bout du fil S'allonger d'rire avant d'me dire qu'il y a mon fils à l'ombre Ou un d'mes potes à l'hosto' On est tous claustro' Welcome to the hood ! Bad boy ! Là où les balles entaillent, pas le time on s'réchauffe l'corps avec du Ballantine's P'tits gabarits ou grandes tailles Mentalité racaille, pas l'time, pas l'time Ouais pas l'temps d'rester là mec, 22 ! v'là la Laguna break ! T'es pas cool avec 3 jours après t'as la gueule à Shrek J'ai pas l'temps d'sourire Pour plaire aux filles, j'mâche un chewing-gum chlorophylle, j'la tchatche et j'embobine le père aussi Pas l'temps d'faire l'lover, j'suis en mode bourrin Une tête de roumain, une haleine de poulain J'ai pas l'temps d'jouer l'numéro 1 Mais t'es tombé sous ma Patate de Forain troué par mon Barillet Plein Seth Gueko, le cauchemar parisien Le tos-ma part et vient On laisse rien à la baraque Aucune empreintes, on laisse aucun indice C'est pour mes fumeurs de cannabis Pas l'temps d'rester au tieks, il faut qu'on s'casse à Nice C'est avec des grenades à plâtre qu'on fait des passes à dix Achète une bouteille de Casanis Et tu pourras emprunter le jeu d'frappe du garagiste On a des mentalités d'anarchistes J'ai enneigé Paris via des sacs plastix Pas l'temps d'faire la queue d'vant les boîtes Pas l'temps de te check si t'as les mains moites Parole de jouate, on a pas l'temps, on joue ap' J'ai un kalash croate à l'intérieur du XXXX La rue nous observe Pas l'temps d'faire la fausse caillera, toi fais pas ta fausse vierge ! Ta mama n'aura pas b'soin d'acheter d'cierges Tu mérites même pas une balle réelle, tu mérites que du gros sel Grosse merde ! El Gueko Néochrome Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pelo, pelo Eh Barlou, barlou Bullet Ah ouais, ah ouais, yo Les pelavavos avec barlavavous On est maléfiques, on est magnifiques Toi, t'as pas d'équipe, gros, n'envoie pas des piques Ta pute, elle est enceinte, on sait pas de qui À part ça, t'es en chien, t'écoules pas de kil' Fais des paquets de fric quand y a pas les flics T'es pas mon pote, on te connaît pas, on t' tarifie J'ai zoné, dézoné quand Même sous amné', on est meilleurs, on se qualifie Bullt On transforme ton bloc en Bullet Va tout niqur comme à Chicago Chicago J'sortais du parloir avec quarante barrettes de H cachés dans mon afro Afro Maintenant Maintenant, j'ai d'l'argent J'ai d'l'argent C'est marrant, on peut tuer des gens sans monter dans la caisse, sans mettre les gants Skurt Rangez vos subli', les frères, c'est du vent Brr You might also like Yo, les vaillants aiment aller de l'avant Les suceurs aiment avaler de la viande Yah Je l'achète, je la vends et si y a la douane, je la jette de l'avion Ouh La barrette, c'est promis, faut qu'j'arrête de la vendre Mes ancêtres poussaient des charrettes de lavande De lavande Y a des you-v' à l'arrière de la bombe Mais cave-pou a cassé les barrières de la langue Commencer tout en bas, finir aristocrate J'fais mes sous dans la 'sique, y a mon re-frè qui scam Y a des barlous à gauche, des barlous à droite Et plein d'femmes infidèles dans mon carré en boîte Barlou Prêt, feu, partez, on déboule à ta fête Elle a refait ses dents, c'est un boule à facettes Poto, restons courtois, évite les maladresses Ou ça finit en fauteuil comme opps à La F Pah, pah, pah, pah Gauche, droite comme Dembélé Ousmane, j'élimine Gros score minimum, black card, no limit Gros zdeh, pas d'sport mais t'inquiète, on les nique Y a pas d'tiki-taka, y a que des high kick Rah , j'viens pour soulever la coupe Pah, pah J'ai fumé sur d'la frappe, j'ai mon cerveau qui brûle Pah, pah, pah Y a du sang sur mes sapes tellement qu'j'leur mets des coups Oui J'ai croisé plus de- que de potes sur ma route Salope Yo, Stos refait surface J'ai la carrure d'un joueur d'hockey sur glace Les diamants d'Afrique posés sur le torse Si on m'offre une Kalash', j'vais l'appeler Makarov C'qu'on fume, c'est pas des joints, non, c'est des lampes torches Il t'faut une BBL pour rentrer dans l'Porsche Porsche Monsieur l'a fait au bled, j'ai gagné en force Mais j'allume tes négros comme un padre en Corse Pah, pah, pah C'est le Z, zen, fils, toi zehma t'es plein d'miss T'es trikar au tier-quar et y a personne qui va t'suivre Fais gaffe quand tu m'parles, y a des poucaves, tout plein d'putes Quitte à tailler, il nous faut du bail, un bénéfice plus Avec nous, y a pas d'nanani, y a pas d'nanana Grosse fumée, pompette, défoncé à Punta Cana Tu veux la douce ou tu veux la mach ? Bah c'est par là-bas La vérité, moi j'suis humble et repêché par la BAC C.A.S.U.S pas dans le SUV L'argent n'est pas sale, pas b'soin d'le lessiver Tape comme un appel d'barlavou, j'y vais Nous, c'est bonne gamelle, bonne graillance en civet Homard, Lyon c'est pas l'p'tit mort d'The Wire La mentalité, tu la trouves nulle part ailleurs Tout à la Z.O.B, fuck les bonbonnes J'ai penave l'auto mais jamais n'abandonne Jamais n'abandonne, ouh Le gang des Lyonnais Successeur du milieu traditionnel, beaucoup leur attribuent le hold-up de la porte de Strasbourg Opération Commando Le gang des Lyonnais, c'n'est pas un baba</t>
+          <t>Pelo, pelo Eh Barlou, barlou Bullet Ah ouais, ah ouais, yo Les pelavavos avec barlavavous On est maléfiques, on est magnifiques Toi, t'as pas d'équipe, gros, n'envoie pas des piques Ta pute, elle est enceinte, on sait pas de qui À part ça, t'es en chien, t'écoules pas de kil' Fais des paquets de fric quand y a pas les flics T'es pas mon pote, on te connaît pas, on t' tarifie J'ai zoné, dézoné quand Même sous amné', on est meilleurs, on se qualifie Bullt On transforme ton bloc en Bullet Va tout niqur comme à Chicago Chicago J'sortais du parloir avec quarante barrettes de H cachés dans mon afro Afro Maintenant Maintenant, j'ai d'l'argent J'ai d'l'argent C'est marrant, on peut tuer des gens sans monter dans la caisse, sans mettre les gants Skurt Rangez vos subli', les frères, c'est du vent Brr Yo, les vaillants aiment aller de l'avant Les suceurs aiment avaler de la viande Yah Je l'achète, je la vends et si y a la douane, je la jette de l'avion Ouh La barrette, c'est promis, faut qu'j'arrête de la vendre Mes ancêtres poussaient des charrettes de lavande De lavande Y a des you-v' à l'arrière de la bombe Mais cave-pou a cassé les barrières de la langue Commencer tout en bas, finir aristocrate J'fais mes sous dans la 'sique, y a mon re-frè qui scam Y a des barlous à gauche, des barlous à droite Et plein d'femmes infidèles dans mon carré en boîte Barlou Prêt, feu, partez, on déboule à ta fête Elle a refait ses dents, c'est un boule à facettes Poto, restons courtois, évite les maladresses Ou ça finit en fauteuil comme opps à La F Pah, pah, pah, pah Gauche, droite comme Dembélé Ousmane, j'élimine Gros score minimum, black card, no limit Gros zdeh, pas d'sport mais t'inquiète, on les nique Y a pas d'tiki-taka, y a que des high kick Rah , j'viens pour soulever la coupe Pah, pah J'ai fumé sur d'la frappe, j'ai mon cerveau qui brûle Pah, pah, pah Y a du sang sur mes sapes tellement qu'j'leur mets des coups Oui J'ai croisé plus de- que de potes sur ma route Salope Yo, Stos refait surface J'ai la carrure d'un joueur d'hockey sur glace Les diamants d'Afrique posés sur le torse Si on m'offre une Kalash', j'vais l'appeler Makarov C'qu'on fume, c'est pas des joints, non, c'est des lampes torches Il t'faut une BBL pour rentrer dans l'Porsche Porsche Monsieur l'a fait au bled, j'ai gagné en force Mais j'allume tes négros comme un padre en Corse Pah, pah, pah C'est le Z, zen, fils, toi zehma t'es plein d'miss T'es trikar au tier-quar et y a personne qui va t'suivre Fais gaffe quand tu m'parles, y a des poucaves, tout plein d'putes Quitte à tailler, il nous faut du bail, un bénéfice plus Avec nous, y a pas d'nanani, y a pas d'nanana Grosse fumée, pompette, défoncé à Punta Cana Tu veux la douce ou tu veux la mach ? Bah c'est par là-bas La vérité, moi j'suis humble et repêché par la BAC C.A.S.U.S pas dans le SUV L'argent n'est pas sale, pas b'soin d'le lessiver Tape comme un appel d'barlavou, j'y vais Nous, c'est bonne gamelle, bonne graillance en civet Homard, Lyon c'est pas l'p'tit mort d'The Wire La mentalité, tu la trouves nulle part ailleurs Tout à la Z.O.B, fuck les bonbonnes J'ai penave l'auto mais jamais n'abandonne Jamais n'abandonne, ouh Le gang des Lyonnais Successeur du milieu traditionnel, beaucoup leur attribuent le hold-up de la porte de Strasbourg Opération Commando Le gang des Lyonnais, c'n'est pas un baba</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop C'est pour mes Barlou-garous Qui s'bagarrent ou démarrent au quart de tours pour un garou, pour un skalou Descendants de famille babtous Avec pour héritage France Galle ou Michel Sardou Les quartiers viennent de chez Calou Les te-schmi eux, c'est des consanguins du Bayou Le te-shi il est grave mou New-Yorkaise est la caisse claire Fonky est le Barlou J'découpe MC comme Dexter Oui je les dévore, sache, j'ai pas été à l'university J'me suis fait tout seul dans rue comme Tommy Vercetti Et Trevor Des tattoos sur le corps Comme une carte au trésor Pour ken les meufs pas besoins de les faire ser-ti J'me pose dans la pyramide, j'me fonds dans l'décor Car j'ai des hiéroglyphes sur l'épiderme Ce son c'est Anubis feat Eminem Fils, ma renommée est indiscutable Aussi vrai que la bière c'est la pisse du diable Les haters veulent me tendre une embuscade Mais ils poseront pas leur anus crade dans le Brabus 4 Fuck You might also like Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop Rien ne me dérange, ni burka, ni kippa Mais quoi que tu dises, quoique tu fasses, on te critiquera Han, lève ton bras mon Barlou si toi aussi t'as appelé ta femelle pitbull Nikita Nous c'est recuit bichicra Y'a que les meufs tatouées qui m'font ché-cra Y'a que mes res-frè que je fais tter-gra J'vois mon logo partout sur les murs de la ville en ffiti-gra J'les ai fait poser ils m'ont clasher ces feat ingrats Mais quand on vous a connu Les grosses de-mer s'échappèrent de vos culs J'vous ai donné la main, vous m'avez pris tout le bras Vous ne serez jamais des B.A.R.L.O.U Toi, rejoins nos troupes Rejoins donc les cartels de nos rues Viens faire t'piquer par Lulu et Alex Flex Troisième doigt en l'air juste par réflexe Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop</t>
+          <t>Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop C'est pour mes Barlou-garous Qui s'bagarrent ou démarrent au quart de tours pour un garou, pour un skalou Descendants de famille babtous Avec pour héritage France Galle ou Michel Sardou Les quartiers viennent de chez Calou Les te-schmi eux, c'est des consanguins du Bayou Le te-shi il est grave mou New-Yorkaise est la caisse claire Fonky est le Barlou J'découpe MC comme Dexter Oui je les dévore, sache, j'ai pas été à l'university J'me suis fait tout seul dans rue comme Tommy Vercetti Et Trevor Des tattoos sur le corps Comme une carte au trésor Pour ken les meufs pas besoins de les faire ser-ti J'me pose dans la pyramide, j'me fonds dans l'décor Car j'ai des hiéroglyphes sur l'épiderme Ce son c'est Anubis feat Eminem Fils, ma renommée est indiscutable Aussi vrai que la bière c'est la pisse du diable Les haters veulent me tendre une embuscade Mais ils poseront pas leur anus crade dans le Brabus 4 Fuck Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop Rien ne me dérange, ni burka, ni kippa Mais quoi que tu dises, quoique tu fasses, on te critiquera Han, lève ton bras mon Barlou si toi aussi t'as appelé ta femelle pitbull Nikita Nous c'est recuit bichicra Y'a que les meufs tatouées qui m'font ché-cra Y'a que mes res-frè que je fais tter-gra J'vois mon logo partout sur les murs de la ville en ffiti-gra J'les ai fait poser ils m'ont clasher ces feat ingrats Mais quand on vous a connu Les grosses de-mer s'échappèrent de vos culs J'vous ai donné la main, vous m'avez pris tout le bras Vous ne serez jamais des B.A.R.L.O.U Toi, rejoins nos troupes Rejoins donc les cartels de nos rues Viens faire t'piquer par Lulu et Alex Flex Troisième doigt en l'air juste par réflexe Fuck, on représente le Val d'Oise On est les kings du tatouage à Pontoise Barlou tattoo shop Trop de classe, trop de charme, une adresse 26, Place Notre Dame c'est le Barlou tattoo shop Les cols blancs, la France, ça m'fout la rage, un mec à tatouage Pourquoi ça vous choque Du sang de tatouage sur le pare-choc, on baise pas nos clientes dans les chiottes au Barlou tattoo shop</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Salam à tous les défonceurs d'horodateurs Mon zguegue fait de l'ombre au rappeur, arrache d'ici ta chatte chou-fleur On veut de la chair fraiche, grosse soufflette de zeb sèche À tous baroudeur, qui veut teste ma bagouz neuve ? J'irai pas croiser ma cramouille à Gare du rd-No J'ai été bercé par du Biggy et du Renaud Mon guigui c'est mon garde du rps-co Ça rend les lardus penauds, cest pour mes potes barbus et mes potes rts-mo On se gèle les grelots à rester sur le tertus On monte se faire cer-u-s par les putes luxe à Bru-Brux' Pendant qu'une beauté russe fait la mule dans un Airbus Recrachera la fe-chnou son utérus La chevalière ! Marche avant marche arrière ! On roule sur toi comme un dos dâne J'irai chercher la maille même sur un dos dâne Sur un dos d'chameau, c'est le rap tah la Croix de Chaveau Mange tes morts mon salaud À ma gadji, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco Pas faire le cloclo Ici c'est mauvais, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco C'est mich-michto You might also like Je marche qu'avec des gars loyaux Wesh kardesh garde la pêche et avale pas le noyau Une pensée à ceux qui communiquent par yoyo À la mavo quand j'mange une bavette daloyau Y a qu'des warriors dans le royaume et des Romario Des zaïrois qui cachent des joyaux dans leurs boyaux Le MC de l'année c'est moi yo Un gros 9.5 sur le maillot Sarko la chatte à Mama Nayo Pas de place pour les moineaux On pense qu'à se vider le poireau Et à tiser comme des poivrots Brûler l'A15 en Gallardo, en Modena Le coffre rempli de coke de Benalmadena Ouais pas les lois du Papagayo Sale travelo marche sur les traces de Clyde Barrow Mais pas bé-tom à cause d'un p'tit con d'bolos Le chtar c'est pas pour moi comme Lincoln Burrows À ma gadji, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco Pas faire le cloclo Ici c'est mauvais, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco C'est mich-michto</t>
+          <t>Salam à tous les défonceurs d'horodateurs Mon zguegue fait de l'ombre au rappeur, arrache d'ici ta chatte chou-fleur On veut de la chair fraiche, grosse soufflette de zeb sèche À tous baroudeur, qui veut teste ma bagouz neuve ? J'irai pas croiser ma cramouille à Gare du rd-No J'ai été bercé par du Biggy et du Renaud Mon guigui c'est mon garde du rps-co Ça rend les lardus penauds, cest pour mes potes barbus et mes potes rts-mo On se gèle les grelots à rester sur le tertus On monte se faire cer-u-s par les putes luxe à Bru-Brux' Pendant qu'une beauté russe fait la mule dans un Airbus Recrachera la fe-chnou son utérus La chevalière ! Marche avant marche arrière ! On roule sur toi comme un dos dâne J'irai chercher la maille même sur un dos dâne Sur un dos d'chameau, c'est le rap tah la Croix de Chaveau Mange tes morts mon salaud À ma gadji, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco Pas faire le cloclo Ici c'est mauvais, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco C'est mich-michto Je marche qu'avec des gars loyaux Wesh kardesh garde la pêche et avale pas le noyau Une pensée à ceux qui communiquent par yoyo À la mavo quand j'mange une bavette daloyau Y a qu'des warriors dans le royaume et des Romario Des zaïrois qui cachent des joyaux dans leurs boyaux Le MC de l'année c'est moi yo Un gros 9.5 sur le maillot Sarko la chatte à Mama Nayo Pas de place pour les moineaux On pense qu'à se vider le poireau Et à tiser comme des poivrots Brûler l'A15 en Gallardo, en Modena Le coffre rempli de coke de Benalmadena Ouais pas les lois du Papagayo Sale travelo marche sur les traces de Clyde Barrow Mais pas bé-tom à cause d'un p'tit con d'bolos Le chtar c'est pas pour moi comme Lincoln Burrows À ma gadji, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco Pas faire le cloclo Ici c'est mauvais, à mon gadjo Pour chouraver faut bouger ses miches Pour per-cho des lovés à coups de chaine de lo-vé À coups d'pare-choc de Merco C'est mich-michto</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda On t'encule ta mère avec un bout d'fer J'suis au septième ciel, t'es six pieds sous terre Mon glaive est tranchant, il plante et coupe l'air Comme Barracuda, tu peux rien nous faire J'fais toujours du joli travail et j'me taille à Okinawa Rejoindre Seth et Cody Macfly admirer des coquines à poil J'suis avec des cailleras sous came et des barracudas Les kahbas m'soulagent avec le kamasutra Avale tout l'gras, ce soir on fera la nouba Venez rejoindre Alk' sous l'drap J'vous mets une grosse hasba, j'veux pas finir comme Loana J'ai un putain d'flow d'rabza, je vous tue comme Youssouf Fofana Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda You might also like Barracuda, Barracuda J'suis tatoué d'partout, comme un Yakuza Baraque ou pas, on t'encule ta mère Au bazooka, t'es barge ou quoi ? Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville J'suis sexuel, comme DSK, on t'kiffe aujourd'hui demain on t'délaissera Vos vies n'm'intéressent pas, vous pouvez regarder Neochrome qui s'promène tranquillement dans l'espace Écarte les pattes, t'es dans les vapes, j'dilate ta chatte à l'hôtel Étape Comme Chow Yun Fat je t'épate, je t'éclate la face,achète mon putain d'projet dans le bacs L'orgasmixtape, c'est l'volume 2, trop d'gars qui m'guettent, t'inquiète pas j'm'occupe d'eux Flow voluptueux comme tu veux, j'en n'ai plus rien à foutre, je sais que c'est lourd et robuste Neochrome Clique, c'est corrosif Économistes et viles, les kids kiffent les gros mots qu'j'dis Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda Barracuda, Barracuda J'suis tatoué d'partout, comme un Yakuza Baraque ou pas, on t'encule ta mère Au bazooka, t'es barge ou quoi ?</t>
+          <t>Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda On t'encule ta mère avec un bout d'fer J'suis au septième ciel, t'es six pieds sous terre Mon glaive est tranchant, il plante et coupe l'air Comme Barracuda, tu peux rien nous faire J'fais toujours du joli travail et j'me taille à Okinawa Rejoindre Seth et Cody Macfly admirer des coquines à poil J'suis avec des cailleras sous came et des barracudas Les kahbas m'soulagent avec le kamasutra Avale tout l'gras, ce soir on fera la nouba Venez rejoindre Alk' sous l'drap J'vous mets une grosse hasba, j'veux pas finir comme Loana J'ai un putain d'flow d'rabza, je vous tue comme Youssouf Fofana Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda Barracuda, Barracuda J'suis tatoué d'partout, comme un Yakuza Baraque ou pas, on t'encule ta mère Au bazooka, t'es barge ou quoi ? Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville Astique nos bijoux d'famille et avertis toute la ville J'suis sexuel, comme DSK, on t'kiffe aujourd'hui demain on t'délaissera Vos vies n'm'intéressent pas, vous pouvez regarder Neochrome qui s'promène tranquillement dans l'espace Écarte les pattes, t'es dans les vapes, j'dilate ta chatte à l'hôtel Étape Comme Chow Yun Fat je t'épate, je t'éclate la face,achète mon putain d'projet dans le bacs L'orgasmixtape, c'est l'volume 2, trop d'gars qui m'guettent, t'inquiète pas j'm'occupe d'eux Flow voluptueux comme tu veux, j'en n'ai plus rien à foutre, je sais que c'est lourd et robuste Neochrome Clique, c'est corrosif Économistes et viles, les kids kiffent les gros mots qu'j'dis Barracuda, Barracuda Du roro partout, dix-huit carats Baraque ou pas, on t'encule ta mère Avec un bout d'bois, comme Barracuda Barracuda, Barracuda J'suis tatoué d'partout, comme un Yakuza Baraque ou pas, on t'encule ta mère Au bazooka, t'es barge ou quoi ?</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>La tête dure La tête dure La tête dure La tête dure comme si j'avais sniffé du plâtre Car on était 8 dans un F4, cité du Parc Quand tu fais la terreur C'est qu'tu connais pas l'efficacité d'une claque Avec les bagues vers l'intérieur D'une mère qui vient de tomber sur du shit et du talc Et ouais pour elle c'est du talc Elle a pas vu Scarface garçon Sa série a elle c'était Châteauvallon 89 mes reufs partent au charbon J'veux déjà la Winchester canon long, Silvester Stallon' J'assiste a leurs arrestations au milieu du salon Du coup j'crève mes ballons, j'me console avec ma Super Nintendo J'avance a tâtons, d'la joue les cabrioles Les cambriolages m'ont surtout niqué l'dos Ela ne wa zout, j'me sens pris au piège Comme un goéland mazouté Ma mère cumules les chromes au hanout Et j'vais t'rajouter Que le seul souvenir que j'ai d'mon père c'est sa caisse a out' You might also like La tête, dure comme une barre de fer D'abord mes frères, puis mes potes Enfermés derrière des barres de fer Droit, froid comme une barre de fer L'envie d'régler mes ennemis avec une barre de fer La solidité, d'une barre de fer A l'époque de l'age de pierre C'était des haches de guerre Aujourd'hui c'est des barres de fer Une caisse a outils, quel short dick men Il aurait pu m'laisser une bague ou un opinel Du coup a mon pseudo beau-père j'fais pas mal de crasses J'ment qu'c'est Mesrine mon père a mes camarades de classe J'suis l'plus petit des frères guitare, ouais leur favori J'suis l'fils de Michel Sokoloff, j'serais le père de Djibril Salvadori Le genre de la mifa, ma boubou j'ferais chahed, ma mère même portait des boubous C'est au 544 ouais chez ma mère que t'apprends Qu'mieux vaut être esclave chez Dieu que roi chez Satan De toujours partager notre pain Et qu'si les keufs veulent t'défoncer au bottin Jamais dénoncer nos copains, jamais balance les partenaires J'la revois dans son fauteuil en rotin M'dire avoir le mal de mer quand j'lui fait ce p'tit air hautain Car elle m'as sorti d'son ventre avec une barre de fer On s'immunise contre la prison de mère en fils Car leurs décisions de justice nous anéantissent Dieu est l'seul juge dans ma circonscription La seule balafre dont j'suis fier c'est ma circoncision Rocco Montana, la tête dure comme un tronc d'arbre J'en fais voir de toutes les couleurs a ma mifa comme un plan comptable Ma propre sur m'condamne Même pour les profs j'serais un gosse irrécupérable Tu verras les gens qui m'aiment a mes funérailles J'mangerais du caviar avec l'argent du peu-ra Si tu m'crois pas tu dérailles En gros j't'explique, qu'on avais pas de Nutella Dans l'casse dalle c'était du beurre et du Nesquik Système Mac Gyve' Et ouais ma caille, on était rongés par la dalle Digne d'un kargal de fourrière Moi et mes frères on s'est fait les dents sur des barres de fer Paroles rédigées et annotées par la communauté Rap Genius France</t>
+          <t>La tête dure La tête dure La tête dure La tête dure comme si j'avais sniffé du plâtre Car on était 8 dans un F4, cité du Parc Quand tu fais la terreur C'est qu'tu connais pas l'efficacité d'une claque Avec les bagues vers l'intérieur D'une mère qui vient de tomber sur du shit et du talc Et ouais pour elle c'est du talc Elle a pas vu Scarface garçon Sa série a elle c'était Châteauvallon 89 mes reufs partent au charbon J'veux déjà la Winchester canon long, Silvester Stallon' J'assiste a leurs arrestations au milieu du salon Du coup j'crève mes ballons, j'me console avec ma Super Nintendo J'avance a tâtons, d'la joue les cabrioles Les cambriolages m'ont surtout niqué l'dos Ela ne wa zout, j'me sens pris au piège Comme un goéland mazouté Ma mère cumules les chromes au hanout Et j'vais t'rajouter Que le seul souvenir que j'ai d'mon père c'est sa caisse a out' La tête, dure comme une barre de fer D'abord mes frères, puis mes potes Enfermés derrière des barres de fer Droit, froid comme une barre de fer L'envie d'régler mes ennemis avec une barre de fer La solidité, d'une barre de fer A l'époque de l'age de pierre C'était des haches de guerre Aujourd'hui c'est des barres de fer Une caisse a outils, quel short dick men Il aurait pu m'laisser une bague ou un opinel Du coup a mon pseudo beau-père j'fais pas mal de crasses J'ment qu'c'est Mesrine mon père a mes camarades de classe J'suis l'plus petit des frères guitare, ouais leur favori J'suis l'fils de Michel Sokoloff, j'serais le père de Djibril Salvadori Le genre de la mifa, ma boubou j'ferais chahed, ma mère même portait des boubous C'est au 544 ouais chez ma mère que t'apprends Qu'mieux vaut être esclave chez Dieu que roi chez Satan De toujours partager notre pain Et qu'si les keufs veulent t'défoncer au bottin Jamais dénoncer nos copains, jamais balance les partenaires J'la revois dans son fauteuil en rotin M'dire avoir le mal de mer quand j'lui fait ce p'tit air hautain Car elle m'as sorti d'son ventre avec une barre de fer On s'immunise contre la prison de mère en fils Car leurs décisions de justice nous anéantissent Dieu est l'seul juge dans ma circonscription La seule balafre dont j'suis fier c'est ma circoncision Rocco Montana, la tête dure comme un tronc d'arbre J'en fais voir de toutes les couleurs a ma mifa comme un plan comptable Ma propre sur m'condamne Même pour les profs j'serais un gosse irrécupérable Tu verras les gens qui m'aiment a mes funérailles J'mangerais du caviar avec l'argent du peu-ra Si tu m'crois pas tu dérailles En gros j't'explique, qu'on avais pas de Nutella Dans l'casse dalle c'était du beurre et du Nesquik Système Mac Gyve' Et ouais ma caille, on était rongés par la dalle Digne d'un kargal de fourrière Moi et mes frères on s'est fait les dents sur des barres de fer Paroles rédigées et annotées par la communauté Rap Genius France</t>
         </is>
       </c>
     </row>
@@ -2178,11 +2178,7 @@
           <t>Barrio</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2197,7 +2193,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Barlou, barlou, barlou Attends j't'explique le film J'vais commettre un terrible crime Ils m'ont volé toutes mes techniques de rimes En plus, ces rappeurs mettent des textiles de filles J'suis pas le king mais c'est tout comme J'suis pas le Keen'V d'ces bouffonnes Les guiz-dé sépoumonent Et sur ma couronne y'a qu'des épines Rock star comme Led Zeppelin Chez nous les skins, c'est des sous-hommes J'ai pas craché, j'reboutonne mon jean J't'ai pas clashé mais j'soupçonne mon djinn Ils ont aucune gêne, encore moins d'angine Mais ils prennent ma queue pour un Strepsil J'suis dans mon tatoo shop, y'a une keuf sans culotte qui s'appelle Cécile Elle veut s'faire un piercing, en dessous d'la touffe de persil C'est comme ça qu'j'encule le stème-sy Logo barlou sur le stencil Sors les aiguilles et les ustensiles J'ai trop de lust MC Mes putes font le festival de Cannes Toute la team Barlou en Timberland pour ton piétinage de crâne You might also like Yeah, c'est par ici qu'ça s'passe Dis bonjour à ma team d'rapace On est sur chaque trafic, chaque casse Parfois dans le mur, s'termine la chasse On turbine, on turbine, on turbine pour se mettre à l'abri d'la crasse On a l'style, la tchatche Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash J'ai la voix grasse Appelle moi Barry White Trash Encore un putain d'contrôle au faciès mais faut bien qu'la flicaille taffe On a du marron et d'la blanche, comme Patricia Kaas Si t'en veux, on te ravitaille aç On est les king d'la Paris Night Life Bresom comme animal Staff J'suis khabat, seule la fajitas passe Toi, t'es qu'un aigri d'la vie J'rappe pour les rebeus et les négros d'ma ville On passe les douanes facile Le calibre dans la parka Ils ont crû faire des lois infaillibles Mais c'est pas le cas, demande à Rédoine Faïd Et je te baise, te rebaise comme si j'avais huit pines comme si j'avais huit pines Et je fouette dans la cuisine, ma cousine I'm whippin' I'm whippin', I'm whippin' Quand ma vessie se remplit de vodka, de Pampryl je t'en prie laisse moi dormir Le meilleur des oreillers c'est d'avoir la conscience tranquille Yeah, c'est par ici qu'ça s'passe Dis bonjour à ma team d'rapace On est sur chaque trafic, chaque casse Parfois dans le mur, s'termine la chasse On turbine, on turbine, on turbine pour se mettre à l'abri d'la crasse On a l'style, la tchatche Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash J'dois faire les choses bien avant qu'il soit trop tard Crois moi qu'trop tard arrive souvent trop vite Si tu veux on le fait, poto ça s'négo pas J'suis à deux doigts dérailler, d'faire les gros titres Toujours au bonch' car toujours dans l'urgence C'est bien au rythme des douilles que la ur-e danse Pas des crapules nan, on est pire que tu l'penses Tu sors la tête de l'eau, ils attendent que tu flanches On aime les res-cui, kiffons l'bruit des tures-voi Et les tures-voi qui font l'prix d'un appart' C'est plus que d'la 'sique, gros c'est plus que tu ne crois Faut que j'me harbat avant qu'ces chiens m'abattent</t>
+          <t>Barlou, barlou, barlou Attends j't'explique le film J'vais commettre un terrible crime Ils m'ont volé toutes mes techniques de rimes En plus, ces rappeurs mettent des textiles de filles J'suis pas le king mais c'est tout comme J'suis pas le Keen'V d'ces bouffonnes Les guiz-dé sépoumonent Et sur ma couronne y'a qu'des épines Rock star comme Led Zeppelin Chez nous les skins, c'est des sous-hommes J'ai pas craché, j'reboutonne mon jean J't'ai pas clashé mais j'soupçonne mon djinn Ils ont aucune gêne, encore moins d'angine Mais ils prennent ma queue pour un Strepsil J'suis dans mon tatoo shop, y'a une keuf sans culotte qui s'appelle Cécile Elle veut s'faire un piercing, en dessous d'la touffe de persil C'est comme ça qu'j'encule le stème-sy Logo barlou sur le stencil Sors les aiguilles et les ustensiles J'ai trop de lust MC Mes putes font le festival de Cannes Toute la team Barlou en Timberland pour ton piétinage de crâne Yeah, c'est par ici qu'ça s'passe Dis bonjour à ma team d'rapace On est sur chaque trafic, chaque casse Parfois dans le mur, s'termine la chasse On turbine, on turbine, on turbine pour se mettre à l'abri d'la crasse On a l'style, la tchatche Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash J'ai la voix grasse Appelle moi Barry White Trash Encore un putain d'contrôle au faciès mais faut bien qu'la flicaille taffe On a du marron et d'la blanche, comme Patricia Kaas Si t'en veux, on te ravitaille aç On est les king d'la Paris Night Life Bresom comme animal Staff J'suis khabat, seule la fajitas passe Toi, t'es qu'un aigri d'la vie J'rappe pour les rebeus et les négros d'ma ville On passe les douanes facile Le calibre dans la parka Ils ont crû faire des lois infaillibles Mais c'est pas le cas, demande à Rédoine Faïd Et je te baise, te rebaise comme si j'avais huit pines comme si j'avais huit pines Et je fouette dans la cuisine, ma cousine I'm whippin' I'm whippin', I'm whippin' Quand ma vessie se remplit de vodka, de Pampryl je t'en prie laisse moi dormir Le meilleur des oreillers c'est d'avoir la conscience tranquille Yeah, c'est par ici qu'ça s'passe Dis bonjour à ma team d'rapace On est sur chaque trafic, chaque casse Parfois dans le mur, s'termine la chasse On turbine, on turbine, on turbine pour se mettre à l'abri d'la crasse On a l'style, la tchatche Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash Faites honneur au Barry White Trash J'dois faire les choses bien avant qu'il soit trop tard Crois moi qu'trop tard arrive souvent trop vite Si tu veux on le fait, poto ça s'négo pas J'suis à deux doigts dérailler, d'faire les gros titres Toujours au bonch' car toujours dans l'urgence C'est bien au rythme des douilles que la ur-e danse Pas des crapules nan, on est pire que tu l'penses Tu sors la tête de l'eau, ils attendent que tu flanches On aime les res-cui, kiffons l'bruit des tures-voi Et les tures-voi qui font l'prix d'un appart' C'est plus que d'la 'sique, gros c'est plus que tu ne crois Faut que j'me harbat avant qu'ces chiens m'abattent</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2210,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>70 kilogrammes de C4, que les démineurs s'écartent Moi j'éclate les étapes sur cette sauvagerie de ... De la pefra sur track, ça vient de Ris-pa mon gars Parait que je pose avec classe, que les rappeurs fassent place Faut qu'on m'entende à chaque kilomètre Que tous ces fils de pute de haineux voient c'est qui le maître Still Fresh ils se disent tous Mais c'est qui ce mec ? Appelle moi l'ovni tout droit débarqué de Star Trek Pour l'instant j'ai rien à part la dalle d'un algérien Mais j'accepte pas qu'une bande de putains me mate d'un air hautain Mon son fouette la rue, fait pisser le zen des salopes Avec Seth Gueko et Fianso comme des antilopes elles galopent J'vais m'empresser de sser-pi sur ces enfoirés de képis Sser-ca des bouteilles sur ton crâne à la Slim Shady Eh si tu veux venir nous chercher prépare l'artillerie lourde N'oublie pas que c'est pas avec des brebis qu'on chasse un loup Fais pas le fantôme comme dans Castlevania Sur la tête je te casse une caisse de bouteille encaisse maniaque Ze-Zesmanique alors on se frite de mille manières Oublie pas j'ai qu'une bannière Bad Game Pas né de la dernière pluie acide ... Je veux pas crever comme Escobar You might also like Ah y'a rien de battle khoya On s'entretue comme dans Battle Royal On te casse la bottle sur le crâne ... ... dépouille la dépouille du vieux cardpla ... Ça sent les histoires, forcing par la petite brêche L'équipe veut la victoire, j'suis sur le ring à la Still Fresh C'est Wira pour le remix, fuck la polémique ... Et pour percer y'a pas de formule secrète ... ... J'ai les nerfs 22 piges déjà claqué ... Des esprits noirs man liés à l'asphalte Tellement bitume que nos meufs ont du goudron dans la chatte Fuck leur code pénal leur sénat Toute chose a une fin comme Ayrton Senna Ici c'est Paname c'est pas Everton ou Tottenham ... Rap de sauvage, donne pas mon cul tah les tchécoslovaques Traumat à chaque syllabe mon rap c'est du ... J'arrive bim balayette droite gifle ton oreille siffle Doux avec les belles miss hardcore pour que les kheys kiffent ... Y'a personne qui sépare ici trop tard pour me faire la morale ... On a pas 2 fois l'occasion de mettre une debza en traître ... J'ai du love ne m'oblige pas à te haïr Fais le na3r sheytan dans ma tête mon ex ... ... On a commencé la porte nous la finissons Demande à Still il ne faut pas sortir car ma ville est sombre De mon rap y'aura peut être 2 phases qui ne seront pas reprises J'suis bourré j'vais rentrer ma caisse dans ton parebrise C'est loin derrière Xav l'epoque d'Olive et Tom ... Toujours capuché ils s'en foutent qu'il fasse beau Avec une mitraillette en photo sur leur Facebook J'aime quand le rap français a cette gueule là ...</t>
+          <t>70 kilogrammes de C4, que les démineurs s'écartent Moi j'éclate les étapes sur cette sauvagerie de ... De la pefra sur track, ça vient de Ris-pa mon gars Parait que je pose avec classe, que les rappeurs fassent place Faut qu'on m'entende à chaque kilomètre Que tous ces fils de pute de haineux voient c'est qui le maître Still Fresh ils se disent tous Mais c'est qui ce mec ? Appelle moi l'ovni tout droit débarqué de Star Trek Pour l'instant j'ai rien à part la dalle d'un algérien Mais j'accepte pas qu'une bande de putains me mate d'un air hautain Mon son fouette la rue, fait pisser le zen des salopes Avec Seth Gueko et Fianso comme des antilopes elles galopent J'vais m'empresser de sser-pi sur ces enfoirés de képis Sser-ca des bouteilles sur ton crâne à la Slim Shady Eh si tu veux venir nous chercher prépare l'artillerie lourde N'oublie pas que c'est pas avec des brebis qu'on chasse un loup Fais pas le fantôme comme dans Castlevania Sur la tête je te casse une caisse de bouteille encaisse maniaque Ze-Zesmanique alors on se frite de mille manières Oublie pas j'ai qu'une bannière Bad Game Pas né de la dernière pluie acide ... Je veux pas crever comme Escobar Ah y'a rien de battle khoya On s'entretue comme dans Battle Royal On te casse la bottle sur le crâne ... ... dépouille la dépouille du vieux cardpla ... Ça sent les histoires, forcing par la petite brêche L'équipe veut la victoire, j'suis sur le ring à la Still Fresh C'est Wira pour le remix, fuck la polémique ... Et pour percer y'a pas de formule secrète ... ... J'ai les nerfs 22 piges déjà claqué ... Des esprits noirs man liés à l'asphalte Tellement bitume que nos meufs ont du goudron dans la chatte Fuck leur code pénal leur sénat Toute chose a une fin comme Ayrton Senna Ici c'est Paname c'est pas Everton ou Tottenham ... Rap de sauvage, donne pas mon cul tah les tchécoslovaques Traumat à chaque syllabe mon rap c'est du ... J'arrive bim balayette droite gifle ton oreille siffle Doux avec les belles miss hardcore pour que les kheys kiffent ... Y'a personne qui sépare ici trop tard pour me faire la morale ... On a pas 2 fois l'occasion de mettre une debza en traître ... J'ai du love ne m'oblige pas à te haïr Fais le na3r sheytan dans ma tête mon ex ... ... On a commencé la porte nous la finissons Demande à Still il ne faut pas sortir car ma ville est sombre De mon rap y'aura peut être 2 phases qui ne seront pas reprises J'suis bourré j'vais rentrer ma caisse dans ton parebrise C'est loin derrière Xav l'epoque d'Olive et Tom ... Toujours capuché ils s'en foutent qu'il fasse beau Avec une mitraillette en photo sur leur Facebook J'aime quand le rap français a cette gueule là ...</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2227,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MacFly Dans la capitale je vis, dans la capitale je meurs J'irai taffer pour quatre mille balles de l'heure pas moins Tu chantes comme une chienne, t'as les amygdales d'Usher Les frères s'explosent pour ma cause, c'est les kamikazes brother T'as pas vendu d'album, t'es parti voir l'docteur J'te bouffe la chatte, j'te bouffe le coeur, Cannibal Lover Au fond de moi, un marginal demeure Mesrines J'créé mon buzz sans montrer de vaginal flower J'suis pas Afida Turner miskine Laisse pas l'état te prendre pour un carte vitale number La tête dure comme un habitacle d'Hummer C'est par les backs qu'arrivera le murder bleh bleh bleh Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco You might also like Fais pas ton criminel Dans mon Patong city gang Pantalon militaire Rap remplit pas mon frigidaire Tu rapes pour ken des meufs J'rappe pour niquer des mères Sur le mic je vide mes glaires Vis de mes batailles, je vis de mes guerres Rape la vie de mes gwers Le rap un nid de vipères Un putain de panier de crabes C'est l'argent de la drogue qui est entrain d'habiller le Diable T'as l'feu au cul, j'ai des capotes capitaine flamme On manie la rime comme on peut manier le sabre Un tas de billets sales dans l'arrière salle, mes alliés le savent Hommage à Manu Melsan, frappe comme Daniel Sam Les keufs ont quadrillés le square Le rap c'est ma quatrième femme Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Trop de testostérone Dans les testicules On laisse pas de traces sur l'arme du crime, non On est méticuleux Elle s'fait prendre le cul pour un réticul c'est ridicule Y'a trop d'fumée c'est l'aquarium dans le véhicule Les clés du paradis sont sous les pieds d'la daronne C'est la parole de Dieu, pas celle de la pédicure J'suis écoeuré d'voir dans les églises y'a trop de pédé-curés On veut braquer la Caisse d'Epargne et son p'tit écureuil Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco1</t>
+          <t>MacFly Dans la capitale je vis, dans la capitale je meurs J'irai taffer pour quatre mille balles de l'heure pas moins Tu chantes comme une chienne, t'as les amygdales d'Usher Les frères s'explosent pour ma cause, c'est les kamikazes brother T'as pas vendu d'album, t'es parti voir l'docteur J'te bouffe la chatte, j'te bouffe le coeur, Cannibal Lover Au fond de moi, un marginal demeure Mesrines J'créé mon buzz sans montrer de vaginal flower J'suis pas Afida Turner miskine Laisse pas l'état te prendre pour un carte vitale number La tête dure comme un habitacle d'Hummer C'est par les backs qu'arrivera le murder bleh bleh bleh Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Fais pas ton criminel Dans mon Patong city gang Pantalon militaire Rap remplit pas mon frigidaire Tu rapes pour ken des meufs J'rappe pour niquer des mères Sur le mic je vide mes glaires Vis de mes batailles, je vis de mes guerres Rape la vie de mes gwers Le rap un nid de vipères Un putain de panier de crabes C'est l'argent de la drogue qui est entrain d'habiller le Diable T'as l'feu au cul, j'ai des capotes capitaine flamme On manie la rime comme on peut manier le sabre Un tas de billets sales dans l'arrière salle, mes alliés le savent Hommage à Manu Melsan, frappe comme Daniel Sam Les keufs ont quadrillés le square Le rap c'est ma quatrième femme Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Trop de testostérone Dans les testicules On laisse pas de traces sur l'arme du crime, non On est méticuleux Elle s'fait prendre le cul pour un réticul c'est ridicule Y'a trop d'fumée c'est l'aquarium dans le véhicule Les clés du paradis sont sous les pieds d'la daronne C'est la parole de Dieu, pas celle de la pédicure J'suis écoeuré d'voir dans les églises y'a trop de pédé-curés On veut braquer la Caisse d'Epargne et son p'tit écureuil Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco Gueko, le bar c'est Gueko, Gueko Gueko, Gueko J'suis dans mon tieq's avec un pack d'heinco Si tu prends trop d'cess, tu vas ier-ch du benco, benco1</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L'argent c'est comme les seins moins t'en as, plus tu les montres Malheureusement, on peut pas siliconer son compte C'est nous les best, tu te trompes Si j'monte sur un putain d'éléphant, il aura deux trompes Elle est grosse comme celle de Gulliver Si j'vends d'la neige en été, frère, est-ce un fait divers ? Slow life, les billets sont tout verts Les paris sont ouverts J'recherche une femme avec talents culinaires Surveille où tu mets ta langue, eh ça grouille d'infections urinaires J'suis pas sorti d'la cuisse de Jupiter J'sors du trou du cul d'l'enfer après une cuite au Jupiler Slow life, tatoué comme un mur de sanitaire Écrase un pharaon pour rouler sur l'or, slow life La seule bonne action humanitaire que j'ferai c'est donner mes bijoux d'famille quand j'serai mort Seth guex x2 Slow life Quelle guêpe nous pique ? Abîmez l'Quick On s'touche en un clic, pour eux ça s'complique Les corps s'emboîtent, s'enchaînent sans s'être connus L'un dit On s'découvre tard au dépourvu Alors qu'il y a des nuits sans porn Plutôt relax films weed et popcorn 2 heures au téléphone avec Kim Chapiron Les idées fusent, préparez mille tapis rouges Adopte la slow life, tu vivras bien Quelques fois, gagner du temps ne vibre à rien Slow life, sabre ce champagne Rentre dans la bulle, on baille Slow life, bienvenu dans la slow lifeYou might also like</t>
+          <t>L'argent c'est comme les seins moins t'en as, plus tu les montres Malheureusement, on peut pas siliconer son compte C'est nous les best, tu te trompes Si j'monte sur un putain d'éléphant, il aura deux trompes Elle est grosse comme celle de Gulliver Si j'vends d'la neige en été, frère, est-ce un fait divers ? Slow life, les billets sont tout verts Les paris sont ouverts J'recherche une femme avec talents culinaires Surveille où tu mets ta langue, eh ça grouille d'infections urinaires J'suis pas sorti d'la cuisse de Jupiter J'sors du trou du cul d'l'enfer après une cuite au Jupiler Slow life, tatoué comme un mur de sanitaire Écrase un pharaon pour rouler sur l'or, slow life La seule bonne action humanitaire que j'ferai c'est donner mes bijoux d'famille quand j'serai mort Seth guex x2 Slow life Quelle guêpe nous pique ? Abîmez l'Quick On s'touche en un clic, pour eux ça s'complique Les corps s'emboîtent, s'enchaînent sans s'être connus L'un dit On s'découvre tard au dépourvu Alors qu'il y a des nuits sans porn Plutôt relax films weed et popcorn 2 heures au téléphone avec Kim Chapiron Les idées fusent, préparez mille tapis rouges Adopte la slow life, tu vivras bien Quelques fois, gagner du temps ne vibre à rien Slow life, sabre ce champagne Rentre dans la bulle, on baille Slow life, bienvenu dans la slow life</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2261,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Y a comme une odeur de drame On fait l'malheur des keufs mais l'bonheur des dames C'est l'son des violeurs de loi porteurs de barbes On crache sur les donneurs de blaze, pas sur les Döner Kebab On veut des barres, on alerte les pav' sur l'avenue Kléber Têtard, c'est Dieu qu'arrête les balles, c'est pas l'kevlar J'ai fait un rêve noir où Sarko et Le Pen crevèrent Mais j'me suis réveillé, l'marchand d'sable a fait l'crevard Ça tire partout, bleh! Ça commence sur les cannettes, ça finit sur les chats d'gouttière On passe du shit sous l'nez d'la garde routière On sait pas s'contenter d'avoir une seule go comme dans Bal Poussière Yeah, on joue les macs tous fiers Et les porcs nous portent l'il Vu l'épaisseur d'nos portefeuilles Wesh wesh yo, à voir la tête à Sarko Ses parents devaient être frère et sur Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises You might also like Miroir, miroir, qui a l'plus de balafres Qui est plus enfoiré que J.R. Ewing dans Dallas Criminel salace qui rappe avec le kalash et le Famas J'ai l'bail qui t'ramasse et te tabasse Mon gun est dans les airs, tes potos se sont arrachés Z'ont tracé, me test, autant te bourrer au panaché On s'arme, on taffe les pecs et les trapèzes Les frères du quartier plongent pour rien comme Barthez Et pas d'trêve, c'est la merde quand on m'sé-croi Ensuite en mode pause, à manger la gamelle au D3 Bref, ça m'rend violent dans les freestyles Canées seront les victimes, j'suis trop opé, trop sique-phy Grille-moi dans mon secteur avec un gros bolide J'te fais caner dans tes rêves comme mon homonyme T'as l'seum, t'as la ge-ra, t'as les hémorroïdes J'arrive toujours en premier, ça depuis l'spermatozoïde Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises Hijo de puta, cesse tes mythos de loux-ja On va sortir les ciseaux et les bouts d'bois Mes gars ramènent des kilos de Cuba Postichés comme Linda de Suza On espère s'en sortir avant de rendre l'âme Avant qu'on devienne tous tarés comme Van Damme On braque l'épicerie du coin avec un masque de Zorro Tu t'en sors, on t'porte l'il de Sauron Les keufs, les poucaves, c'est une race de putes J'fais percer mon rap de rue sans aucune page de pub On casse des culs et on brasse des tunes Si tu kiffes pas ma plume, lèche ma lune et embrasse mon cul Même en club, j'arrive plus à m'ambiancer Les mecs font style, sont tous faux comme les cheveux de Beyoncé Entre les zoulous, les haineux et les acteurs Le game est chelou comme les couplets de Tony Parker Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises Yeah Le diez est sérieusement sérieux Mon bougzère Seth Gueko Mister O.L. Kainry Patate de forain Yeah, CNL 91 down On roule À la régulière</t>
+          <t>Y a comme une odeur de drame On fait l'malheur des keufs mais l'bonheur des dames C'est l'son des violeurs de loi porteurs de barbes On crache sur les donneurs de blaze, pas sur les Döner Kebab On veut des barres, on alerte les pav' sur l'avenue Kléber Têtard, c'est Dieu qu'arrête les balles, c'est pas l'kevlar J'ai fait un rêve noir où Sarko et Le Pen crevèrent Mais j'me suis réveillé, l'marchand d'sable a fait l'crevard Ça tire partout, bleh! Ça commence sur les cannettes, ça finit sur les chats d'gouttière On passe du shit sous l'nez d'la garde routière On sait pas s'contenter d'avoir une seule go comme dans Bal Poussière Yeah, on joue les macs tous fiers Et les porcs nous portent l'il Vu l'épaisseur d'nos portefeuilles Wesh wesh yo, à voir la tête à Sarko Ses parents devaient être frère et sur Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises Miroir, miroir, qui a l'plus de balafres Qui est plus enfoiré que J.R. Ewing dans Dallas Criminel salace qui rappe avec le kalash et le Famas J'ai l'bail qui t'ramasse et te tabasse Mon gun est dans les airs, tes potos se sont arrachés Z'ont tracé, me test, autant te bourrer au panaché On s'arme, on taffe les pecs et les trapèzes Les frères du quartier plongent pour rien comme Barthez Et pas d'trêve, c'est la merde quand on m'sé-croi Ensuite en mode pause, à manger la gamelle au D3 Bref, ça m'rend violent dans les freestyles Canées seront les victimes, j'suis trop opé, trop sique-phy Grille-moi dans mon secteur avec un gros bolide J'te fais caner dans tes rêves comme mon homonyme T'as l'seum, t'as la ge-ra, t'as les hémorroïdes J'arrive toujours en premier, ça depuis l'spermatozoïde Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises Hijo de puta, cesse tes mythos de loux-ja On va sortir les ciseaux et les bouts d'bois Mes gars ramènent des kilos de Cuba Postichés comme Linda de Suza On espère s'en sortir avant de rendre l'âme Avant qu'on devienne tous tarés comme Van Damme On braque l'épicerie du coin avec un masque de Zorro Tu t'en sors, on t'porte l'il de Sauron Les keufs, les poucaves, c'est une race de putes J'fais percer mon rap de rue sans aucune page de pub On casse des culs et on brasse des tunes Si tu kiffes pas ma plume, lèche ma lune et embrasse mon cul Même en club, j'arrive plus à m'ambiancer Les mecs font style, sont tous faux comme les cheveux de Beyoncé Entre les zoulous, les haineux et les acteurs Le game est chelou comme les couplets de Tony Parker Tu sais c'est quoi les diez, tu sais c'est quoi les bails On est bizy dans les diez, on est opé dans les bails Tu veux qu'on parle, on parle en dièse Après les paris, m'taille à l'anglaise S'faire pep's par des Thaïlandaises Yeah Le diez est sérieusement sérieux Mon bougzère Seth Gueko Mister O.L. Kainry Patate de forain Yeah, CNL 91 down On roule À la régulière</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2278,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>White trasher, flammes cracheur Juste deux gars Gueko, Swift Degua Yeah, okay J'suis dans l'ombre et la pleine lune m'a passionné, j'tourne en rond dans ma cellule capitonné Le manège et le camion vont carillonnés, appelle Catwoman, on la f'ra miauler La bombe dans ma tête, elle est lacrymo', baisons tous les jours comme des animaux Le roi du sous-sol sort des canivaux, sortez les p'tits fours, les ufs d'cabillaud Tu erres dans le silence, les pieds dans le ciment, le fruit de la semence devient hallucinant Tu crèves en l'occurrence du lundi au dimanche, les lois de la survie, t'en connais les rudiments J'te descends, on n'en parle plus, y'a du sang sur le pare buffle On les aura par la plume, on montera les marches jusqu'au point culminant Fini dans un cimetière entier ou décimal, la mort vous va si bien, la vie vous fait si mal La rue nous fait du pied, la mort nous fait un signal, ainsi va la vie quand tu vis loin du chant des cigales Du jus de bagarre et de cafard pressé, je fume de la frappe et du kamas braisé Tous ces bâtards ont le calbar baissé, tu crèveras dans les chiottes près du Canard WC J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb You might also like Okay, j'suis c'putain d'clown triste qui a des goûts d'riche Tu parles de prendre une villa pour la mama mais t'as mis mémé à l'hospice Le rêve de Seth Guex, c'est d'braquer un Loomis Y'a des keufs dans le tieks pour épingler la nourrice Ils veulent enfermer la bête, mettre mes potes sous médocs Pour en faire des lavettes, imagine la tête d'un skin sous mes Docs Et mes baskets, j'suis antifa, j'suis gué-ti-fa car Samerliphuket, j'sors du A387, et J'ressens le jetlag, t'as pas d'swag comme un mur sans tag Barlou des temps modernes, Jordan en guise de santiags Gueko - Swift Guad, le jean, c'est un Dsquared Les haters, on les dissuade, j'ai assez d'bagues pour mes dix oidgts Et dis-oit c'que nous voulons, nous allons l'avoir On blanchit ap son argent sale au salon lavoir Plus tu t'fais rare, plus tu vaux cher, j'rappe pour les baiser Du veau-cer pour l'PSG comme Nicolas Duvauchelle On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb Yeah Narvalow et cabochard Yeah, juste deux gars Gueko et Swift Degua2</t>
+          <t>White trasher, flammes cracheur Juste deux gars Gueko, Swift Degua Yeah, okay J'suis dans l'ombre et la pleine lune m'a passionné, j'tourne en rond dans ma cellule capitonné Le manège et le camion vont carillonnés, appelle Catwoman, on la f'ra miauler La bombe dans ma tête, elle est lacrymo', baisons tous les jours comme des animaux Le roi du sous-sol sort des canivaux, sortez les p'tits fours, les ufs d'cabillaud Tu erres dans le silence, les pieds dans le ciment, le fruit de la semence devient hallucinant Tu crèves en l'occurrence du lundi au dimanche, les lois de la survie, t'en connais les rudiments J'te descends, on n'en parle plus, y'a du sang sur le pare buffle On les aura par la plume, on montera les marches jusqu'au point culminant Fini dans un cimetière entier ou décimal, la mort vous va si bien, la vie vous fait si mal La rue nous fait du pied, la mort nous fait un signal, ainsi va la vie quand tu vis loin du chant des cigales Du jus de bagarre et de cafard pressé, je fume de la frappe et du kamas braisé Tous ces bâtards ont le calbar baissé, tu crèveras dans les chiottes près du Canard WC J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb Okay, j'suis c'putain d'clown triste qui a des goûts d'riche Tu parles de prendre une villa pour la mama mais t'as mis mémé à l'hospice Le rêve de Seth Guex, c'est d'braquer un Loomis Y'a des keufs dans le tieks pour épingler la nourrice Ils veulent enfermer la bête, mettre mes potes sous médocs Pour en faire des lavettes, imagine la tête d'un skin sous mes Docs Et mes baskets, j'suis antifa, j'suis gué-ti-fa car Samerliphuket, j'sors du A387, et J'ressens le jetlag, t'as pas d'swag comme un mur sans tag Barlou des temps modernes, Jordan en guise de santiags Gueko - Swift Guad, le jean, c'est un Dsquared Les haters, on les dissuade, j'ai assez d'bagues pour mes dix oidgts Et dis-oit c'que nous voulons, nous allons l'avoir On blanchit ap son argent sale au salon lavoir Plus tu t'fais rare, plus tu vaux cher, j'rappe pour les baiser Du veau-cer pour l'PSG comme Nicolas Duvauchelle On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus J'suis dans mon circus, j'suis dans mon circus Bienvenue dans mon circus, le Black Circus On a déversé l'Super sans plomb, dans le tunnel, moi, j'suis du-per Y'a une lumière dans l'fond La vie est dure mais j'ai du nerf dans mes vulgaires chansons Collé à la rue comme si j'avais des bulles d'air en plomb Yeah Narvalow et cabochard Yeah, juste deux gars Gueko et Swift Degua2</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2295,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Jsuis cputain dcowboy qua toujours une teille à storcher Tu peux mtirer dans la tête, sur les seufs, sur le pec Tu peux ap, jai la plaque, jai des parts chez dolce Approchez approchez ! Dans lcur du fic-tra, plus ltemps dêtre gentil mec Ya plus ddolce vita, la vie est une pute sans cur avec un god ceinture de 30 cm Nous on tarrose, normagal, à la illette-mitra Jai pas su éviter la poisse jespère qutu léviteras Jai la bite qui touche le menton, sous Levitera Ya pas dhonte à aller en Thaï mec Qui nvoudrait pas dla shnek de XXX ou de Pavitra !? Jcroise une tête qui dit Wesh mec, ça dit quoi ? Quest-ce tu fous, quest-ce tu ponds ? Jréponds Jfais attention. Car des MCs volent mes rimes, ils sreconnaîtront Les vrais potos, les compagnons, ça scompte sur un moignon Jsuis pas sorti dune paire de couilles de PD Si jétais né à Tchernobyl, jaurais pu tdouble péné Tutto a posto, tutto bene Nous fais pas chier où on tlâche aux couilles le pitbull de mémé ! Ouais ouais ! Cest à mon propre sang que jrends hommage Mon père sent pas lcamembert, mais jviens dune vraie famille de fromages Jai la rage et jcroque la vie à pleines dents carriées En boîte jpense Jay-Z, au poste jpense quà nier Ptit narvalet dla croix dChavé Le sperme cest comme le mensonge, le plus dur cest dle faire avaler Alors on rappe vrai, jouvre mon cur comme une montre à gousset Ils savent où est lparadis ils veulent pas nous montrer où cest La vie nest pas rose comme une bite de chien Jai tatoué courage sur ma queue parce que jprends mon courage à 2 mains On sdit pas à demain ! - Non - Vous srez tous morts Jattends la vague de violence comme Igor de Hossegor Ils savent pas tirer, mais ils veulent savoir où jdors A la chasse aux MCs tes chevreuil de bronze, jsuis ours dor Allez mange tes morts ! Jveux dla jouvelle comme Rihanna Jrendrai mes comptes aux Yom al Qiyamah Si jtai mis la main au tarma, cest qujai bu Les keufs nous traquent comme des zébus, cest a-sé-bu ! Si tas menti aux flics, jespère quils tont cru Le shit ouvre les portes de lesprit, la coke ouvre les portes de ton cul You might also like Han ! Seth Gueko ! Bad Cowboy ! Cody Macfly à la prod ! Booska-p ! Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Jsuis cputain dcowboy qua toujours une teille à storcher Tu peux mtirer dans la tête, sur les seufs, sur le pec Tu peux ap, jai la plaque, jai des parts chez dolce Approchez approchez ! Dans lcur du fic-tra, plus ltemps dêtre gentil mec Ya plus ddolce vita, la vie est une pute sans cur avec un god ceinture de 30 cm Nous on tarrose, normagal, à la illette-mitra Jai pas su éviter la poisse jespère qutu léviteras Jai la bite qui touche le menton, sous Levitera Ya pas dhonte à aller en Thaï mec Qui nvoudrait pas dla shnek de XXX ou de Pavitra !? Jcroise une tête qui dit Wesh mec, ça dit quoi ? Quest-ce tu fous, quest-ce tu ponds ? Jréponds Jfais attention. Car des MCs volent mes rimes, ils sreconnaîtront Les vrais potos, les compagnons, ça scompte sur un moignon Jsuis pas sorti dune paire de couilles de PD Si jétais né à Tchernobyl, jaurais pu tdouble péné Tutto a posto, tutto bene Nous fais pas chier où on tlâche aux couilles le pitbull de mémé ! Ouais ouais ! Cest à mon propre sang que jrends hommage Mon père sent pas lcamembert, mais jviens dune vraie famille de fromages Jai la rage et jcroque la vie à pleines dents carriées En boîte jpense Jay-Z, au poste jpense quà nier Ptit narvalet dla croix dChavé Le sperme cest comme le mensonge, le plus dur cest dle faire avaler Alors on rappe vrai, jouvre mon cur comme une montre à gousset Ils savent où est lparadis ils veulent pas nous montrer où cest La vie nest pas rose comme une bite de chien Jai tatoué courage sur ma queue parce que jprends mon courage à 2 mains On sdit pas à demain ! - Non - Vous srez tous morts Jattends la vague de violence comme Igor de Hossegor Ils savent pas tirer, mais ils veulent savoir où jdors A la chasse aux MCs tes chevreuil de bronze, jsuis ours dor Allez mange tes morts ! Jveux dla jouvelle comme Rihanna Jrendrai mes comptes aux Yom al Qiyamah Si jtai mis la main au tarma, cest qujai bu Les keufs nous traquent comme des zébus, cest a-sé-bu ! Si tas menti aux flics, jespère quils tont cru Le shit ouvre les portes de lesprit, la coke ouvre les portes de ton cul Han ! Seth Gueko ! Bad Cowboy ! Cody Macfly à la prod ! Booska-p ! Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2312,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ok, les blagues racistes ça amuse que les porcs De la testo dans les muscles du corps La mosquée c'est la muscu du coeur Ils disent que la musique adoucie les murs La mienne endurcit les meurtres Médusa face sur le t shirt Boug de la tèce dans le pickup Bouge ta fesse comme une pin-up Ou ça va chier comme dans la vidéo 2 girls 1 cup Ouai sois belle et tais-toi Tes trous aiment avaler mes doigts Enterrez-moi dans la vallée des rois Plus d'une flèche à mon carquois Faut pas rester là barre-toi Je bois du champagne et re-pisse de la Stella Artois Si tu veux rouler sur l'or écrase moi Les keufs ont des passe droit Les reufs font des cage-bras Les meufs veulent leur riage-ma Mais une cagole c'est deux neurones La vie n'est pas trop chère Une cagoule c'est deux euros Ca me désole que les femmes se rassurent Les plus grosses salopes que j'ai vu c'est des hommes La rumeur résonne Je suis venu décapiter leur projet Les fister avec le même avant-bras que le capitaine crochet Je vais te planter tu vas plainter Je pourrais pas éviter le procès Oh puté Les violeurs doivent être amputés Dépité, en France les voleurs sont députés Tu fais le fou derrière ton pc Mais tes couilles sont pas plus grosses que des raisins secs Tu faisais quoi avant d'avoir internet? T'arrachais les ailes des insectes! Je picole pas je me désinfecte Je me bats pour que l'teur-inspec me l'astique Et que la street me respecte Check, mieux vaut être respecté qu'être craint Petit on lâchait des gros glaires et pétait des joints Alors la ferroviaire bah nous éjectait des trains Je sors du coiffeur tu peux checker la netteté des coins J'ai toujours su détecter les tchoins Alors ne joue pas l'harmonieuse pucelle Ta vie n'est pas glorieuse tu sais Tu n'es qu'une charbonneuse du sexe La larme aux yeus il n'y a qu'au hebs que je ne souris plus Je pourrais avoir confiance aux keufs mais ces enfoirés tuent Demain j'ai une soirée putes dans une soirée étudiante Une soirée débutante mais elles veulent que La cock soit repue C'est une fois que le chat est repu Qu'il trouve que cul de la souris pue Mais vue que ton cul se dilate assez, a l'air Facile à casser demain toi et tes potes parlerons de mes punchlines autour de la machine à café Je vais baiser ta mère lui offrir une machine à laverYou might also like</t>
+          <t>Ok, les blagues racistes ça amuse que les porcs De la testo dans les muscles du corps La mosquée c'est la muscu du coeur Ils disent que la musique adoucie les murs La mienne endurcit les meurtres Médusa face sur le t shirt Boug de la tèce dans le pickup Bouge ta fesse comme une pin-up Ou ça va chier comme dans la vidéo 2 girls 1 cup Ouai sois belle et tais-toi Tes trous aiment avaler mes doigts Enterrez-moi dans la vallée des rois Plus d'une flèche à mon carquois Faut pas rester là barre-toi Je bois du champagne et re-pisse de la Stella Artois Si tu veux rouler sur l'or écrase moi Les keufs ont des passe droit Les reufs font des cage-bras Les meufs veulent leur riage-ma Mais une cagole c'est deux neurones La vie n'est pas trop chère Une cagoule c'est deux euros Ca me désole que les femmes se rassurent Les plus grosses salopes que j'ai vu c'est des hommes La rumeur résonne Je suis venu décapiter leur projet Les fister avec le même avant-bras que le capitaine crochet Je vais te planter tu vas plainter Je pourrais pas éviter le procès Oh puté Les violeurs doivent être amputés Dépité, en France les voleurs sont députés Tu fais le fou derrière ton pc Mais tes couilles sont pas plus grosses que des raisins secs Tu faisais quoi avant d'avoir internet? T'arrachais les ailes des insectes! Je picole pas je me désinfecte Je me bats pour que l'teur-inspec me l'astique Et que la street me respecte Check, mieux vaut être respecté qu'être craint Petit on lâchait des gros glaires et pétait des joints Alors la ferroviaire bah nous éjectait des trains Je sors du coiffeur tu peux checker la netteté des coins J'ai toujours su détecter les tchoins Alors ne joue pas l'harmonieuse pucelle Ta vie n'est pas glorieuse tu sais Tu n'es qu'une charbonneuse du sexe La larme aux yeus il n'y a qu'au hebs que je ne souris plus Je pourrais avoir confiance aux keufs mais ces enfoirés tuent Demain j'ai une soirée putes dans une soirée étudiante Une soirée débutante mais elles veulent que La cock soit repue C'est une fois que le chat est repu Qu'il trouve que cul de la souris pue Mais vue que ton cul se dilate assez, a l'air Facile à casser demain toi et tes potes parlerons de mes punchlines autour de la machine à café Je vais baiser ta mère lui offrir une machine à laver</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2329,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C'est Bjorn et Ragnar Anh c'est Bjorn et Ragnar Ouais c'est Bjorn et Ragnar Le père, le fils, c'est pas, Lilo Stitch T'es qu'une trompette, tu fais la bise au shérif J'préfère mourir en prison comme Miloevi Que d'faire bronzette tout luisant sur l'îlot des snitchs J'suis pas un mino chétif Lunette Cartier sur le pif J'te met une gifle tes deux oreilles sifflent J'aime les petites meufs t les MILFs Tu passes du rire au larms pour des kilogrammes, t'es à ry-Fleu Vas dire aux fans que je suis pas pyromane mais j'ai mis le feu Fuck les mythomanes, la liasse est grosse comme une part de mille feuilles Ils peuvent nous sortir ce qu'ils veulent c'est de la merde les claquettes Lidl J'ai un Desert Eagle, il peut te faire des trous partout Fils remplace moi au Barlou Tatoo J'me casse au Cavo Tagu Gros drive-by en Kangoo Chez nous les balles pleuvent et les grenades poussent Les frères sont tous tombés dans la douce Helvetica et pas bullet proof Grrrrrra Force au 9.5, Sarcelles et Gouss' Mon père a les mains faites pour l'or mais il a quand même changer ma couche Ahah Ferme ta bouche il y a pas que les bonbons qui font tomber les dents Le fusil à canon scié à des allures de trompe d'éléphant Bellek à qui tu envoies des dick-pics elles font toutes des captures d'écran J'baiserais la République jusqu'à ce que je me fracture le gland Salvadori c'est la signature du clan On fait monter la température d'un cran Je suis venu rapper la ue-r avec mes deux gants Assis au tieks y a plus de peinture sur le banc Après mon avance j'irais m'acheter des sapes J'aurais plus besoin de la serrer pour qu'elle se désape Ni lui acheter un sac, on est plus sur place quand débarque le Passat You might also like Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn On arrive au placard tout en Dior Le père est blanc, le fils est noir C'est une leçon pour l'histoire Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn On arrive au placard tout en Dior Le père est blanc, le fils est noir C'est une leçon pour l'histoire</t>
+          <t>C'est Bjorn et Ragnar Anh c'est Bjorn et Ragnar Ouais c'est Bjorn et Ragnar Le père, le fils, c'est pas, Lilo Stitch T'es qu'une trompette, tu fais la bise au shérif J'préfère mourir en prison comme Miloevi Que d'faire bronzette tout luisant sur l'îlot des snitchs J'suis pas un mino chétif Lunette Cartier sur le pif J'te met une gifle tes deux oreilles sifflent J'aime les petites meufs t les MILFs Tu passes du rire au larms pour des kilogrammes, t'es à ry-Fleu Vas dire aux fans que je suis pas pyromane mais j'ai mis le feu Fuck les mythomanes, la liasse est grosse comme une part de mille feuilles Ils peuvent nous sortir ce qu'ils veulent c'est de la merde les claquettes Lidl J'ai un Desert Eagle, il peut te faire des trous partout Fils remplace moi au Barlou Tatoo J'me casse au Cavo Tagu Gros drive-by en Kangoo Chez nous les balles pleuvent et les grenades poussent Les frères sont tous tombés dans la douce Helvetica et pas bullet proof Grrrrrra Force au 9.5, Sarcelles et Gouss' Mon père a les mains faites pour l'or mais il a quand même changer ma couche Ahah Ferme ta bouche il y a pas que les bonbons qui font tomber les dents Le fusil à canon scié à des allures de trompe d'éléphant Bellek à qui tu envoies des dick-pics elles font toutes des captures d'écran J'baiserais la République jusqu'à ce que je me fracture le gland Salvadori c'est la signature du clan On fait monter la température d'un cran Je suis venu rapper la ue-r avec mes deux gants Assis au tieks y a plus de peinture sur le banc Après mon avance j'irais m'acheter des sapes J'aurais plus besoin de la serrer pour qu'elle se désape Ni lui acheter un sac, on est plus sur place quand débarque le Passat Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn On arrive au placard tout en Dior Le père est blanc, le fils est noir C'est une leçon pour l'histoire Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn Lui c'est Ragnar moi c'est Bjorn On arrive au placard tout en Dior Le père est blanc, le fils est noir C'est une leçon pour l'histoire</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2346,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Masta Masta. Seth Gueko Néochrome. Le Barillet plein. Sinik, Alibi Montana, Alpha 5.20 Yo yo, 2005, Tu m'appelles pour les keufs mec, tu t'es pas trompé Buena id au micro, mais dis-moi qui peut stopper J'aime pas les keufs, faut du rouge sur leurs gueules Alibi, Gueko, pour ça pas besoin de single Numéro de portable, numéro d'écrou Sale flic ripou, tu veux mon fusil à 12 coups Tu peux pas test mes amis, ma racaillerie Inspecteur de mes couilles, va te faire hara-kiri Crois-moi, ma voix recrache tout cquelle voit Mes gars sont derrière moi, me suivent comme un convoi A la Courneuve on a brulé le comico Demande à certains agents où sont passés leurs chicots Jsuis illicite, dans ma vie et dans mes textes Commissaire Moulin, vas-y viens bouffer mon sexe ! Pas la peine de rapper en mentant J'aime pas ces putains dflics, tant mieux si tu m'entends Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer You might also like Ma vie srésume à faire des pesetas, laisser lEtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel, si ya des ke-fli au Paradis Sur ma vie quyaura du conflit dans lciel Gloire à Dieu ! Mon père nest pas une tapette de flic Jpeux trefuser un feat, mais pas une barquette de frites Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu Tu connais la répute, ma colère narrête plus Si un flic de touche, le choléra débute Ma bite fait fantasmer les flikettes cochonnes Pour ça quses collègues me matraquent au sol Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Tous mes amis m'appellent le tsunami Les flics me fouillent, le shit est planqué sous ma bite tant de choses à dire sur ma vie Quand les fumées nocives développent mon odorat Evite de clash car je ne suis pas ce gros connard de Matt Pokora Je voudrais juste rester debout Le trafic rapporte plus de soucis que de sous Le mitard et la geôle, le juge à mis la dose Dans mes aventures, j'ai beaucoup moins de chance qu'Indiana Jones Droit dans les yeux, que tu comprennes de quoi jparle Dans tier-quar un jour tu prends deux baffes, un jour tu prends deux balles Mes vieux démons me hantent, la délinquance me tente He yo ! La rue me plante, les amis disparus me manquent A regarder, je fais dla peine Tu peux crever dans ta cellule, le surveillant ne répond plus quand tu l'appelles La liberté ne sera jamais cantinable, aux élections du meilleur fils de pute le juge est candidat Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Yo yo ! Seth Gueko Néochrome. Masta Masta. 2005, jremets tout le monde d'accord. BLaaaah2</t>
+          <t>Masta Masta. Seth Gueko Néochrome. Le Barillet plein. Sinik, Alibi Montana, Alpha 5.20 Yo yo, 2005, Tu m'appelles pour les keufs mec, tu t'es pas trompé Buena id au micro, mais dis-moi qui peut stopper J'aime pas les keufs, faut du rouge sur leurs gueules Alibi, Gueko, pour ça pas besoin de single Numéro de portable, numéro d'écrou Sale flic ripou, tu veux mon fusil à 12 coups Tu peux pas test mes amis, ma racaillerie Inspecteur de mes couilles, va te faire hara-kiri Crois-moi, ma voix recrache tout cquelle voit Mes gars sont derrière moi, me suivent comme un convoi A la Courneuve on a brulé le comico Demande à certains agents où sont passés leurs chicots Jsuis illicite, dans ma vie et dans mes textes Commissaire Moulin, vas-y viens bouffer mon sexe ! Pas la peine de rapper en mentant J'aime pas ces putains dflics, tant mieux si tu m'entends Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ma vie srésume à faire des pesetas, laisser lEtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel, si ya des ke-fli au Paradis Sur ma vie quyaura du conflit dans lciel Gloire à Dieu ! Mon père nest pas une tapette de flic Jpeux trefuser un feat, mais pas une barquette de frites Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu Tu connais la répute, ma colère narrête plus Si un flic de touche, le choléra débute Ma bite fait fantasmer les flikettes cochonnes Pour ça quses collègues me matraquent au sol Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Tous mes amis m'appellent le tsunami Les flics me fouillent, le shit est planqué sous ma bite tant de choses à dire sur ma vie Quand les fumées nocives développent mon odorat Evite de clash car je ne suis pas ce gros connard de Matt Pokora Je voudrais juste rester debout Le trafic rapporte plus de soucis que de sous Le mitard et la geôle, le juge à mis la dose Dans mes aventures, j'ai beaucoup moins de chance qu'Indiana Jones Droit dans les yeux, que tu comprennes de quoi jparle Dans tier-quar un jour tu prends deux baffes, un jour tu prends deux balles Mes vieux démons me hantent, la délinquance me tente He yo ! La rue me plante, les amis disparus me manquent A regarder, je fais dla peine Tu peux crever dans ta cellule, le surveillant ne répond plus quand tu l'appelles La liberté ne sera jamais cantinable, aux élections du meilleur fils de pute le juge est candidat Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Ile de France banlieue, Chez nous c'est Boys in the Hood Juste moi et mes potes, on ssert les coudes Si y'a embrouille y'a embrouille on va pas fayoter J'ai pas peur de la police, jsais comment les niquer Yo yo ! Seth Gueko Néochrome. Masta Masta. 2005, jremets tout le monde d'accord. BLaaaah2</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ouais, Seth Gueko, Sidi Omar, N'Dal, Wadel Homa Le Barillet Plein J'suis v'nu mettre le rap français knockout Pendant qu'Adès planque son phone dans un pot d'yaourt, yo ! No doubt, rap de sans emploi À mes yeux le moindre milliardaire se change en proie À mes yeux j'ai des tiers-quar, branche en bois À leurs yeux les tiers-quar sont d'méchants endroits Au bois, rap d'ETA mili, minuit T'es d'vant un 9 mili, j'suis d'vant une meuf mimi Moi grand génie, trop de-spee pour un flagrant délit Sur mes baskets y'a des fragments d'ennemis Écarte les lèvres et matte l'élève dépasser l'maître Nhar Sheitan, il m'a racketté mes hassanats Putain d'destin comprometteur ! J'aime pas les flics, leurs complots mécurent Et puis t'façon on peut pas contrôler l'cur C'est sur le biz que l'on mise tout On cache bijoux et cristaux derrière la photo d'Jesus Christu Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages À l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage You might also like J'arrive en coup de pute, kill, kill bien le cou Ça va saigner comme à Dien Bien Phu Le pas-de-bol colle comme une main trop suante pour être honnête Ou trop fuyante pour être impéc' P't-être qu'un feu d'joie peut rassasier les curs Ou d'savoir qu'on nous aime juste pour assassiner nos peurs Au carrefour des parcours, les coups d'putes pleuvent Pas finir schizo comme Norton dans Fight Club Un cheveu dans ma soupe, traître dans ma troupe , je le shoote, et la tâche est dans la soute Un monde où les haines se crispent et se cristallisent Où on idolâtre l'argent et son paradis fiscal, biz ! Ça grouille de flics, ça grouille de blacks Mais y'a toujours des éclats d'rires jusqu'à 3h du mat', capte ! Le frère convoite le frère c'est pas nouveau Mais j'dis qu'faut battre le fer tant qu'il est chaud Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages À l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage XXX J'crache cash, XXX Les troupes de Ben Laden sont cachées dans les quartiers XXX Ça sent l'crack XXX Les XXX J'veux être blindé d'floss XXX mais y'a pas d'bolosses Et c'est trop, quand je vois les escrocs Faut trop de sang pour le pétrole XXX c'est pas la peine XXX Moi j'veux la merde, d'la guerre à la télé Beaucoup d'salauds comme Mendosa Viens chercher d'la dose ! Y'a beaucoup d'choses comme Lampadusa et tout ça Pour notre XXX Chauffe les stups qui sont pires que le Mossad On kiffe le stud', et le style c'est du rap avec des mots sales Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages A l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage Que tout le 75, lève les bras en l'air Que tout le 77, lève les bras en l'air Que tout le 78, lève les bras en l'air Que tout le 92, lève les bras en l'air Que tout le 93, lève les bras en l'air Que tout le 94, lève les bras en l'air Que mon 95, lève les bras en l'air Que les lers-dea, lèvent les bras en l'air Que tous les queurs-bra, lèvent les bras en l'air Que tous les escrocs, lèvent les bras en l'air Que tous les lascars lèvent les bras en l'air , Seth Gueko Néochrome Le souverain du sous-terrain Le souverain du coup de rein , Néochrome 2005</t>
+          <t>Ouais, Seth Gueko, Sidi Omar, N'Dal, Wadel Homa Le Barillet Plein J'suis v'nu mettre le rap français knockout Pendant qu'Adès planque son phone dans un pot d'yaourt, yo ! No doubt, rap de sans emploi À mes yeux le moindre milliardaire se change en proie À mes yeux j'ai des tiers-quar, branche en bois À leurs yeux les tiers-quar sont d'méchants endroits Au bois, rap d'ETA mili, minuit T'es d'vant un 9 mili, j'suis d'vant une meuf mimi Moi grand génie, trop de-spee pour un flagrant délit Sur mes baskets y'a des fragments d'ennemis Écarte les lèvres et matte l'élève dépasser l'maître Nhar Sheitan, il m'a racketté mes hassanats Putain d'destin comprometteur ! J'aime pas les flics, leurs complots mécurent Et puis t'façon on peut pas contrôler l'cur C'est sur le biz que l'on mise tout On cache bijoux et cristaux derrière la photo d'Jesus Christu Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages À l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage J'arrive en coup de pute, kill, kill bien le cou Ça va saigner comme à Dien Bien Phu Le pas-de-bol colle comme une main trop suante pour être honnête Ou trop fuyante pour être impéc' P't-être qu'un feu d'joie peut rassasier les curs Ou d'savoir qu'on nous aime juste pour assassiner nos peurs Au carrefour des parcours, les coups d'putes pleuvent Pas finir schizo comme Norton dans Fight Club Un cheveu dans ma soupe, traître dans ma troupe , je le shoote, et la tâche est dans la soute Un monde où les haines se crispent et se cristallisent Où on idolâtre l'argent et son paradis fiscal, biz ! Ça grouille de flics, ça grouille de blacks Mais y'a toujours des éclats d'rires jusqu'à 3h du mat', capte ! Le frère convoite le frère c'est pas nouveau Mais j'dis qu'faut battre le fer tant qu'il est chaud Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages À l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage XXX J'crache cash, XXX Les troupes de Ben Laden sont cachées dans les quartiers XXX Ça sent l'crack XXX Les XXX J'veux être blindé d'floss XXX mais y'a pas d'bolosses Et c'est trop, quand je vois les escrocs Faut trop de sang pour le pétrole XXX c'est pas la peine XXX Moi j'veux la merde, d'la guerre à la télé Beaucoup d'salauds comme Mendosa Viens chercher d'la dose ! Y'a beaucoup d'choses comme Lampadusa et tout ça Pour notre XXX Chauffe les stups qui sont pires que le Mossad On kiffe le stud', et le style c'est du rap avec des mots sales Que toutes les cailles-ra lèvent les bras en l'air Mais surveillez vos verres, y'a Rachida dans les parages A l'endroit, à l'envers, elle te l'arrache Des stories d'chiens d'la casse qui cachent leur kalashs dans leur garage Que tout le 75, lève les bras en l'air Que tout le 77, lève les bras en l'air Que tout le 78, lève les bras en l'air Que tout le 92, lève les bras en l'air Que tout le 93, lève les bras en l'air Que tout le 94, lève les bras en l'air Que mon 95, lève les bras en l'air Que les lers-dea, lèvent les bras en l'air Que tous les queurs-bra, lèvent les bras en l'air Que tous les escrocs, lèvent les bras en l'air Que tous les lascars lèvent les bras en l'air , Seth Gueko Néochrome Le souverain du sous-terrain Le souverain du coup de rein , Néochrome 2005</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2380,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>This is Freaky Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance Jme lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut quon s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'st Byzance Byzance J'me lèv, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey, hey Té-ma la brillance té-ma la brillance Yah Tous mes bijoux me servent de guirlande Jmontre mes plaies à la France, elle mtend du sel de Guérande D'ailleurs, jengueule ma femme quand elle a mis trop d'sel Fuck le sodium, faut qu'je sodom' leur singles de pucelles À la Ilona Mitrecey Jpasse pas par quatre chemins, contrairement à la ligne du métro sept À chaque rime, le micro saigne J'soulève les altères comme une pierre d'Atlas et quoi ? Et j'me désaltère avec une bière d'Alsace You might also like T'es grave tu-ba, de quoi tu parles ? Tu dis que t'assures, pas sûr, pas sûr, moi c'est bars sur bars Encore un striker, j'devrais m'mettre au bowling C'est pas du Metro Boomin ni du rap rétro pourri Ça t'écrases, tu va être comme pudding, tu va r'ssembler à une flaque d'eau Dans ma paume, y a deux têtes, on dirait des nuggets de chez Mc Do' wouh ! Me tester faut pas que t'oses non, non Que d'la pureté, zéro lactose, j'mets une O.D dans chaque dose Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut qu'on s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey, hey Té-ma la brillance té-ma la brillance En cabine, j'crie, j'pleure, j'me donne Transpirant, torse nu yeah Crois-moi, ton idole mérite pas le disque d'or, ce nul J'peux poser sur tout, piano, violon, cornemuse Avant qu'mon corps ne s'use, j'mérite encore le sucre Le fromage, donc si il t'reste du Comté ou du Brie, passe donne ça La bonne vie ne s'achète pas à prix bas han Elle est à genoux mais elle prie pas, Cab Dyson mmh Il manque plus qu'le face tatt tribale, Bruxelles bien mieux que ris-Pa Ici l'soleil ne brille pas, il pleut comme vache qui pisse On verse directement l'whiskey sur les Rice Krispies Vrais MC's n'écoutent pas tout c'qui sort Faux MC fait des selfies avec la bouche de Boustiflor d'vant l'Gucci store Alors, viens pas jouer le Robin Hood des forets Ou tu finira comme cette copie double perforé Paw, paw J'vois d'ici les vielles stars d'Hollywood déformés Elle était déjà, bien avant sa honeymoon, déflorée Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut qu'on s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey Té-ma la brillance té-ma la brillance Maigre était la pitance, maintenant regarde nous, c'est Byzance J'me lève, je m'allume, j'ouvre Binance Té-ma la brillance, des munitions en suffisance Elle veut qu'on s'fiance, son cul est immense, vraiment immense yeah Maigre était la pitance, maintenant regarde nous, c'est Byzance J'me lève, je m'allume, j'ouvre Binance Té-ma la brillance Té-ma la brillance</t>
+          <t>This is Freaky Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance Jme lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut quon s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'st Byzance Byzance J'me lèv, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey, hey Té-ma la brillance té-ma la brillance Yah Tous mes bijoux me servent de guirlande Jmontre mes plaies à la France, elle mtend du sel de Guérande D'ailleurs, jengueule ma femme quand elle a mis trop d'sel Fuck le sodium, faut qu'je sodom' leur singles de pucelles À la Ilona Mitrecey Jpasse pas par quatre chemins, contrairement à la ligne du métro sept À chaque rime, le micro saigne J'soulève les altères comme une pierre d'Atlas et quoi ? Et j'me désaltère avec une bière d'Alsace T'es grave tu-ba, de quoi tu parles ? Tu dis que t'assures, pas sûr, pas sûr, moi c'est bars sur bars Encore un striker, j'devrais m'mettre au bowling C'est pas du Metro Boomin ni du rap rétro pourri Ça t'écrases, tu va être comme pudding, tu va r'ssembler à une flaque d'eau Dans ma paume, y a deux têtes, on dirait des nuggets de chez Mc Do' wouh ! Me tester faut pas que t'oses non, non Que d'la pureté, zéro lactose, j'mets une O.D dans chaque dose Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut qu'on s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey, hey Té-ma la brillance té-ma la brillance En cabine, j'crie, j'pleure, j'me donne Transpirant, torse nu yeah Crois-moi, ton idole mérite pas le disque d'or, ce nul J'peux poser sur tout, piano, violon, cornemuse Avant qu'mon corps ne s'use, j'mérite encore le sucre Le fromage, donc si il t'reste du Comté ou du Brie, passe donne ça La bonne vie ne s'achète pas à prix bas han Elle est à genoux mais elle prie pas, Cab Dyson mmh Il manque plus qu'le face tatt tribale, Bruxelles bien mieux que ris-Pa Ici l'soleil ne brille pas, il pleut comme vache qui pisse On verse directement l'whiskey sur les Rice Krispies Vrais MC's n'écoutent pas tout c'qui sort Faux MC fait des selfies avec la bouche de Boustiflor d'vant l'Gucci store Alors, viens pas jouer le Robin Hood des forets Ou tu finira comme cette copie double perforé Paw, paw J'vois d'ici les vielles stars d'Hollywood déformés Elle était déjà, bien avant sa honeymoon, déflorée Maigre était la pitance hey, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume hey, j'ouvre Binance hey Té-ma la brillance brillance, des munitions en suffisance Elle veut qu'on s'fiance j'hésite, son cul est immense immense, vraiment immense yeah Maigre était la pitance yeah, maintenant regarde nous, c'est Byzance Byzance J'me lève, je m'allume je m'allume, j'ouvre Binance hey Té-ma la brillance hey Té-ma la brillance té-ma la brillance Maigre était la pitance, maintenant regarde nous, c'est Byzance J'me lève, je m'allume, j'ouvre Binance Té-ma la brillance, des munitions en suffisance Elle veut qu'on s'fiance, son cul est immense, vraiment immense yeah Maigre était la pitance, maintenant regarde nous, c'est Byzance J'me lève, je m'allume, j'ouvre Binance Té-ma la brillance Té-ma la brillance</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2397,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Seth Gueko, Balastik le dogg Seth gueko Seth Gueko, Balastik le dogg Seth gueko Seth Gueko, Balastik le dogg Seth gueko Voici l'blanc gwère gwère camembert dans l'cappuccino En capuche Tooshiro quand t'entends l'coup d'gyro' Toi aussi jeune guizmo tu deviendras un Gremlins Aiguises les griffes et fais voler les bouts de chicots Si la poucave te charge comme un bourricot Coup d'marteau de chez qui ? De chez Moulinot ! On grouille de tout-par comme des souriceaux pour mon insoumission au sol les mama à saut les sols On lèche pas les vitrines on les casse J'ai pas d'bécane mais j'ai un pèt' au casque. Khoyax J'ai plus aucune chkay qu'est dans le bon axe Sourire maxi édenté , tête de crapulax , tête accidentée On a une tête assis dans l'tièks, furax Mais on laisse les médecins , les pompiers , les taxis rentrer à la coolax ma couillasse Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails, mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! You might also like Si l'chien d'la stup' vient chez moi , y f'ra des saltos J'ai pas eu l'éducation d'une mère catho C'que j'dis ça sort pas d'la bouche à Bernardo Au ste-po Motus comme Thierry Beccaro Les mécanos, les carrossiers, c'est des mecs à nous J'fais mon trou comme un chouraveur de plaques d'égouts On s'est fait la bite sur les pages redoute Même le micro du studio est sur table d'écoute Allez tape des roux ! Y'a qu'des loups comme Kat Deluna Avec des canettes vides on tape des foots Roule ton zdar qu'on t'joue avec les g'noux On s'tape des cuites au point d'parler avec les jnounes J'suis co-tar comme les Yukumkum Montes pas sur un bra-co si t'as la Chkoumoun Larchouma si tu bandes à Aqua boul'-boul' Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails , mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! On veut des thunes et rien nous guérira , tête de chine On veut des thunes Felindra tête de tigre , big shootiz J'ai la force devant bouseux en période de crise on prend des bains moussants au vin mousseux J'reprends l'beat avec un style de mafieux T'as d'jà vu un cheval avec une bite de babtou Moi j'ai mieux, Un babtou avec une bite de val-che Le grigri servira à rien quand le flic fera feu J'reprends l'beat avec un style de mafieux J'suis fier de représenter ma ville de daleux La juge de Pierrafeu , poucave au chardeux Poukave personne, tu vivras vieux Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails , mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko , ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! Aight Seth gueko, par ici boy 95-93 Seth Gueko Balastik Dogg Néochrome Saint-Ouen l'Aumône Barkos</t>
+          <t>Seth Gueko, Balastik le dogg Seth gueko Seth Gueko, Balastik le dogg Seth gueko Seth Gueko, Balastik le dogg Seth gueko Voici l'blanc gwère gwère camembert dans l'cappuccino En capuche Tooshiro quand t'entends l'coup d'gyro' Toi aussi jeune guizmo tu deviendras un Gremlins Aiguises les griffes et fais voler les bouts de chicots Si la poucave te charge comme un bourricot Coup d'marteau de chez qui ? De chez Moulinot ! On grouille de tout-par comme des souriceaux pour mon insoumission au sol les mama à saut les sols On lèche pas les vitrines on les casse J'ai pas d'bécane mais j'ai un pèt' au casque. Khoyax J'ai plus aucune chkay qu'est dans le bon axe Sourire maxi édenté , tête de crapulax , tête accidentée On a une tête assis dans l'tièks, furax Mais on laisse les médecins , les pompiers , les taxis rentrer à la coolax ma couillasse Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails, mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! Si l'chien d'la stup' vient chez moi , y f'ra des saltos J'ai pas eu l'éducation d'une mère catho C'que j'dis ça sort pas d'la bouche à Bernardo Au ste-po Motus comme Thierry Beccaro Les mécanos, les carrossiers, c'est des mecs à nous J'fais mon trou comme un chouraveur de plaques d'égouts On s'est fait la bite sur les pages redoute Même le micro du studio est sur table d'écoute Allez tape des roux ! Y'a qu'des loups comme Kat Deluna Avec des canettes vides on tape des foots Roule ton zdar qu'on t'joue avec les g'noux On s'tape des cuites au point d'parler avec les jnounes J'suis co-tar comme les Yukumkum Montes pas sur un bra-co si t'as la Chkoumoun Larchouma si tu bandes à Aqua boul'-boul' Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails , mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! On veut des thunes et rien nous guérira , tête de chine On veut des thunes Felindra tête de tigre , big shootiz J'ai la force devant bouseux en période de crise on prend des bains moussants au vin mousseux J'reprends l'beat avec un style de mafieux T'as d'jà vu un cheval avec une bite de babtou Moi j'ai mieux, Un babtou avec une bite de val-che Le grigri servira à rien quand le flic fera feu J'reprends l'beat avec un style de mafieux J'suis fier de représenter ma ville de daleux La juge de Pierrafeu , poucave au chardeux Poukave personne, tu vivras vieux Patate de Balastik le Dogg, Seth Gueko, ici c'est la dalle le cas de baiser le rap français on te fait du... Proprement c'est comme ça qu'on gérait les bails , mon rap mitraille pendant que la caravane drive-by Patate de Balastik le Dogg, Seth Gueko , ici c'est la dalle le cas de baiser le rap français on te fait du... Palais dégueule, tu sais que ça trafic au fond de la tess Me dit, Balastik le Dogg, c'est quand est avec Seth Gueko Ça défouraille ! Aight Seth gueko, par ici boy 95-93 Seth Gueko Balastik Dogg Néochrome Saint-Ouen l'Aumône Barkos</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cest la drogue douce que je consomme Cest la drogue douce que je consomme Jmarrêterai pas même si lgong sonne Jmarrêterai pas même si lgong sonne Je vois les jaloux qui complotent Je vois les jaloux qui complotent Alkpote les réduit en compote Je les réduis en compote Cest pour de vrai, cest réel Cest pour de vrai, cest réel Jsuis venu séduire ta tourterelle Jsuis venu séduire ta tourterelle Jvous détruis comme les Tours Jumelles Jvous détruis comme les Tours Jumelles Jéjacule deux trois gouttes de miel Jéjacule deux trois gouttes de miel Des empereurs des impératrices Des empereurs des impératrices Tous égarés dans la matrice Tous égarés dans la matrice Jte braque avec une arme factice Jte braque avec une arme factice Je vole le vélo dla factrice Je vole le vélo dla factrice Tu rappes mais ton projet nsort pas Tu rappes mais ton projet nsort pas Cest la guerre où sont mes soldats ? Cest la guerre où sont mes soldats ? Jai toujours fonctionné comme ça Jai toujours fonctionné comme ça Cest comme ça quça fonctionnera Comme ça quça fonctionnera You might also like x16 Mec, cest comme ça que je fonctionne Yeah, jaime trop le soleil, jaime trop la life Cest dla perte de sommeil que daller au taff Ma femme de ménage est bonne, cest pas un pléonasme Mon rap plait aux bonhommes, ton rap plaît aux tasses Punchlines au plutonium, jprends le rap en otage Pas dbague en zirconium, pas dbague en topaz Fini les cages descalier et les plaquettes de hasch détaillées On veut des plages, des palmiers Croquer la vie à pleine dents cariées Jblanchis mon argent, jnoircis mes pages de cahier Ouvre le pagne-champ, jarrive avec tout lquartier sur les cale-pieds Les rappeurs jouent les princesses, le game sembourgeoise Tes réduit en charpie stu tombes sur Charpie au tribunal de Pontoise x16 Mec, cest comme ça que je fonctionne Jbaise que des poupées Sois pas dégoûté Elles veulent me marabouter Elles veulent me grigribouter Ma rage est décuplée Jpense quà cracher des couplets Jaime voir mes billets saccoupler Faire de petits billets, faire de petits bébés Ya pas dprostituée, ya qudes femmes qui travaillent Jai du shit dans le slip, donc les couilles on semballe Les couilles on semballe, et ouais ma caille, on sen bat les couilles Vodka-RedBull, on boit pas dlait dpoule Je plane comme à EuroDisney Je plane comme à EuroDisney Jvais dvoir couper le robinet Jvais dvoir couper le robinet Allez, les mecs rembobinez Allez, les mecs rembobinez LÉtat vous a endoctriné LÉtat vous a endoctriné x16 Mec, cest comme ça que je fonctionne</t>
+          <t>Cest la drogue douce que je consomme Cest la drogue douce que je consomme Jmarrêterai pas même si lgong sonne Jmarrêterai pas même si lgong sonne Je vois les jaloux qui complotent Je vois les jaloux qui complotent Alkpote les réduit en compote Je les réduis en compote Cest pour de vrai, cest réel Cest pour de vrai, cest réel Jsuis venu séduire ta tourterelle Jsuis venu séduire ta tourterelle Jvous détruis comme les Tours Jumelles Jvous détruis comme les Tours Jumelles Jéjacule deux trois gouttes de miel Jéjacule deux trois gouttes de miel Des empereurs des impératrices Des empereurs des impératrices Tous égarés dans la matrice Tous égarés dans la matrice Jte braque avec une arme factice Jte braque avec une arme factice Je vole le vélo dla factrice Je vole le vélo dla factrice Tu rappes mais ton projet nsort pas Tu rappes mais ton projet nsort pas Cest la guerre où sont mes soldats ? Cest la guerre où sont mes soldats ? Jai toujours fonctionné comme ça Jai toujours fonctionné comme ça Cest comme ça quça fonctionnera Comme ça quça fonctionnera x16 Mec, cest comme ça que je fonctionne Yeah, jaime trop le soleil, jaime trop la life Cest dla perte de sommeil que daller au taff Ma femme de ménage est bonne, cest pas un pléonasme Mon rap plait aux bonhommes, ton rap plaît aux tasses Punchlines au plutonium, jprends le rap en otage Pas dbague en zirconium, pas dbague en topaz Fini les cages descalier et les plaquettes de hasch détaillées On veut des plages, des palmiers Croquer la vie à pleine dents cariées Jblanchis mon argent, jnoircis mes pages de cahier Ouvre le pagne-champ, jarrive avec tout lquartier sur les cale-pieds Les rappeurs jouent les princesses, le game sembourgeoise Tes réduit en charpie stu tombes sur Charpie au tribunal de Pontoise x16 Mec, cest comme ça que je fonctionne Jbaise que des poupées Sois pas dégoûté Elles veulent me marabouter Elles veulent me grigribouter Ma rage est décuplée Jpense quà cracher des couplets Jaime voir mes billets saccoupler Faire de petits billets, faire de petits bébés Ya pas dprostituée, ya qudes femmes qui travaillent Jai du shit dans le slip, donc les couilles on semballe Les couilles on semballe, et ouais ma caille, on sen bat les couilles Vodka-RedBull, on boit pas dlait dpoule Je plane comme à EuroDisney Je plane comme à EuroDisney Jvais dvoir couper le robinet Jvais dvoir couper le robinet Allez, les mecs rembobinez Allez, les mecs rembobinez LÉtat vous a endoctriné LÉtat vous a endoctriné x16 Mec, cest comme ça que je fonctionne</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2431,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>À COMPLÉTERYou might also like</t>
+          <t>À COMPLÉTER</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2448,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Si si, bande de putains Seth, ALK-Atef, bouges la tête Les putains nous allaitent et personne nous arrête Bleh bleh Néochrome J'suis à deux doigts d'percer comme un comédon Les commandants d'Cergy Pontoise veulent que mes cafards s'parfument au Baygon Ça fait longtemps qu'j'ai pas vu ma peau zée-bron La coke c'est comme les baggys j'ai essayé mais ça n'me correspond Absolument pas Ah non non, le fond d'nos vestons cachent souvent un spliff ou un flash d'Absolute Vodka En boîte, on a l'look à Tony, on a pas l'jeu d'jambes de la tecktonik tête de bite, on a celui d'Luca Toni Ça fait ZBLEX et ca t'cogne l'arcade direct, 2020 au vol à la tirette Ma mère habite Porte de la Souffrance, mon frère à Porte de la Villette Allez allez, sors de là flipette, si t'es mou du genou on t'apporte de la zipette J'fais des crottes de bique, toi des crottes de biquette Le dis à personne j'incite au viol de la fliquette Chut On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité You might also like OK ça prend mauvaise tournure On veut finir obèse avec des grosses caisses, des cuirs et des fourrures Salope tu devrais plus squatter la salle de gym, on va t'enculer à sec sans Vaseline T'auras pas d'bouquets d'marguerites, ou d'parfum Burberry, juste un Hamburger ou un McFlurry Mates le film de ma vie, j'suis l'as de pique, la cerise sur le gâteau, l'Unité d'flammes te nique Salope J'garde le rythme, j'éclate le beat avec un max de rimes en attendant l'mix et l'mastering Putain Tu vas saigner des yeux comme Daredevil, ta garce me pipe, on kidnappe tes gosses à la garderie J'veux pas finir à Fleury avec le mal de vivre, plutôt à Venise à taper des barres de rire Faut pas qu'tu graves ce disque Salope, il sent la merde et les flaques de pisse, le zet' et les pack de 6 On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Sur l'bitume on fait des roues arrières d'warrior Tous les tables-por sont sur écoute comme dans The Wire J'fais mes concerts chez l'ferrailleur Dans ta gueule coup d'chaîne de vélo avec le dérailleur Puissance optimale, joues pas les gros ritals Belek à cause d'une lolita tu vas à lhôpital Bleh Pétasse t'as qu'à bouffer des p'tits zizis Suces Vu qu'tu suceras jamais la bite de P.Diddy J'ai une poche vide comme Theodore Bagwell, Le baisodrome m'appelle, c'est Néochrome ma belle , Ma belle Appelles-moi la mauvaise nouvelle, j'suis cru comme un sexe de vierge sur un 169 J'rappe la misère des halls avec l'ami Seth Gueko, inch'Allah crever vieux comme Michel Serrault Avant j'ferai un tas d'mixtapes frérot, les MC's perdent les eaux et Lucifer m'épaule On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Banlieue Sud, Banlieue Nord, Évry Courcouronnes, St-Ouen-lAumône bande de putains Dans ta cité Alkpote, Seth Gueko, sucez-nous bande de chiennasses, on est al Dans ta cité Néochrome, si si si gros Dans ta cité Yonea, , salop'rie d'salope</t>
+          <t>Si si, bande de putains Seth, ALK-Atef, bouges la tête Les putains nous allaitent et personne nous arrête Bleh bleh Néochrome J'suis à deux doigts d'percer comme un comédon Les commandants d'Cergy Pontoise veulent que mes cafards s'parfument au Baygon Ça fait longtemps qu'j'ai pas vu ma peau zée-bron La coke c'est comme les baggys j'ai essayé mais ça n'me correspond Absolument pas Ah non non, le fond d'nos vestons cachent souvent un spliff ou un flash d'Absolute Vodka En boîte, on a l'look à Tony, on a pas l'jeu d'jambes de la tecktonik tête de bite, on a celui d'Luca Toni Ça fait ZBLEX et ca t'cogne l'arcade direct, 2020 au vol à la tirette Ma mère habite Porte de la Souffrance, mon frère à Porte de la Villette Allez allez, sors de là flipette, si t'es mou du genou on t'apporte de la zipette J'fais des crottes de bique, toi des crottes de biquette Le dis à personne j'incite au viol de la fliquette Chut On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité OK ça prend mauvaise tournure On veut finir obèse avec des grosses caisses, des cuirs et des fourrures Salope tu devrais plus squatter la salle de gym, on va t'enculer à sec sans Vaseline T'auras pas d'bouquets d'marguerites, ou d'parfum Burberry, juste un Hamburger ou un McFlurry Mates le film de ma vie, j'suis l'as de pique, la cerise sur le gâteau, l'Unité d'flammes te nique Salope J'garde le rythme, j'éclate le beat avec un max de rimes en attendant l'mix et l'mastering Putain Tu vas saigner des yeux comme Daredevil, ta garce me pipe, on kidnappe tes gosses à la garderie J'veux pas finir à Fleury avec le mal de vivre, plutôt à Venise à taper des barres de rire Faut pas qu'tu graves ce disque Salope, il sent la merde et les flaques de pisse, le zet' et les pack de 6 On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Sur l'bitume on fait des roues arrières d'warrior Tous les tables-por sont sur écoute comme dans The Wire J'fais mes concerts chez l'ferrailleur Dans ta gueule coup d'chaîne de vélo avec le dérailleur Puissance optimale, joues pas les gros ritals Belek à cause d'une lolita tu vas à lhôpital Bleh Pétasse t'as qu'à bouffer des p'tits zizis Suces Vu qu'tu suceras jamais la bite de P.Diddy J'ai une poche vide comme Theodore Bagwell, Le baisodrome m'appelle, c'est Néochrome ma belle , Ma belle Appelles-moi la mauvaise nouvelle, j'suis cru comme un sexe de vierge sur un 169 J'rappe la misère des halls avec l'ami Seth Gueko, inch'Allah crever vieux comme Michel Serrault Avant j'ferai un tas d'mixtapes frérot, les MC's perdent les eaux et Lucifer m'épaule On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Du fric au noir, faut fuir, on doit pas finir le nez enfariné On nique Pasqua et l'p'tit hongrois, c'est la caillera mentalité On biz, on boit, on vise le foie, on dit c'qu'on voit dans ta cité Banlieue Sud, Banlieue Nord, Évry Courcouronnes, St-Ouen-lAumône bande de putains Dans ta cité Alkpote, Seth Gueko, sucez-nous bande de chiennasses, on est al Dans ta cité Néochrome, si si si gros Dans ta cité Yonea, , salop'rie d'salope</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2465,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ha ha ha Chaussée aux moines J'ai l'crâne tout doux comme un cul d'bébé Les cheveux, ça r'pousse que dans les pubs télé Quand j'me rase de trop près, j'ai la tête en sang Moi et mes descendants, on s'transmettra un peigne sans dents J'ai le crâne luisant comme Jean-Pierre Coffe J'ai pas d'cheveux mais j'suis tous les jours chez l'coiffeur J'veux pas vendre la mèche, nan, comme au Bengladesh Mais les uns après les autres, mes cheveux tombent comme les grands d'ma tess Un pou sur un crâne chauve, c'est un SDF On dirait qu'sur mon crâne, on m'a fait une greffe de fesses J'vais rester bref, nique sa mère à Jean-Louis David T'as des ch'veux, psahtek mais crois pas qu'j'envie ta vie Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot You might also like Yo, la tête lisse à la Bruce Willis Wesh Nico, dans l'hélico', t'étais trop près de l'hélice ? On nous appelle boule de billard et boule de suif J'marche qu'avec des têtes rasées c'est du chauvinisme Quand tu vois tes tifs dans l'lavabo, c'est l'épouvante Calvitie naissante égale chevelure mourante Stop aux comparaisons soulantes avec Kad Merad La queue d'cheval, j'l'ai dans l'slip, n'est-ce pas admirable V'là pourquoi mes camarades veulent la camoufler avec des bobs et des casquettes toute l'année Toute l'année Faut juste voir la vie du bon côté, c'est plus de visage à laver, moins d'cheveux à coiffer Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse.. Ratatatax, ils chantent tous la kalash d'Al Pacino J'suis v'nu chanter la calvasse à Obispo Obispo Tête rasée mais pas ne-ski, au soleil j'ai l'caillou qui brille comme du Swarovski Hey Trump, ta moumoute, on la voit d'ici J'attaque en douceur et par derrière comme la calvitie Tu veux faire un film de boules, on est al C'est à cause d'elle que Zidane a quitté L'Oréal Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot</t>
+          <t>Ha ha ha Chaussée aux moines J'ai l'crâne tout doux comme un cul d'bébé Les cheveux, ça r'pousse que dans les pubs télé Quand j'me rase de trop près, j'ai la tête en sang Moi et mes descendants, on s'transmettra un peigne sans dents J'ai le crâne luisant comme Jean-Pierre Coffe J'ai pas d'cheveux mais j'suis tous les jours chez l'coiffeur J'veux pas vendre la mèche, nan, comme au Bengladesh Mais les uns après les autres, mes cheveux tombent comme les grands d'ma tess Un pou sur un crâne chauve, c'est un SDF On dirait qu'sur mon crâne, on m'a fait une greffe de fesses J'vais rester bref, nique sa mère à Jean-Louis David T'as des ch'veux, psahtek mais crois pas qu'j'envie ta vie Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Yo, la tête lisse à la Bruce Willis Wesh Nico, dans l'hélico', t'étais trop près de l'hélice ? On nous appelle boule de billard et boule de suif J'marche qu'avec des têtes rasées c'est du chauvinisme Quand tu vois tes tifs dans l'lavabo, c'est l'épouvante Calvitie naissante égale chevelure mourante Stop aux comparaisons soulantes avec Kad Merad La queue d'cheval, j'l'ai dans l'slip, n'est-ce pas admirable V'là pourquoi mes camarades veulent la camoufler avec des bobs et des casquettes toute l'année Toute l'année Faut juste voir la vie du bon côté, c'est plus de visage à laver, moins d'cheveux à coiffer Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse.. Ratatatax, ils chantent tous la kalash d'Al Pacino J'suis v'nu chanter la calvasse à Obispo Obispo Tête rasée mais pas ne-ski, au soleil j'ai l'caillou qui brille comme du Swarovski Hey Trump, ta moumoute, on la voit d'ici J'attaque en douceur et par derrière comme la calvitie Tu veux faire un film de boules, on est al C'est à cause d'elle que Zidane a quitté L'Oréal Shimmy shimmy hey, shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot Shimmy shimmy hey shimmy yo Une pensée aux frères en chimio Si j'reste 6 mois dans l'coma, j'ai quoi ? J'ai la calvasse à Gérard Jugnot</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2482,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ça sent le keuf vil-ci cramé J'préfère palper un 9 milli chromé qu'une meuf siliconée Ouais c'est des connes vanne-les Je conçois ma vie à vendre des CD avant décéder comme Marley Les boulettes du pilon transperce le coste-La en nylon L'estomac en dit long sur le rhum Dillon Sur le filon du crime afin de palper des gros billets Comme les croupiers pendant que les keufs font que de roupiller Légendaire on fait gent-ar pendant que les gendarmes et les gens dorment On a tous les genres d'armes et tous les genres d'or Cartier, Fred, Boucheron On part à la chasse aux moucherons avec la hache du bucheron Coup front avec insolence J'fais jongler les allitérations et les assonances Fais pas le saut de l'ange dans une piscine vide J'ne suis pas de ceux qu'on intimide alors con qu'est-ce qu'on mange ?You might also like</t>
+          <t>Ça sent le keuf vil-ci cramé J'préfère palper un 9 milli chromé qu'une meuf siliconée Ouais c'est des connes vanne-les Je conçois ma vie à vendre des CD avant décéder comme Marley Les boulettes du pilon transperce le coste-La en nylon L'estomac en dit long sur le rhum Dillon Sur le filon du crime afin de palper des gros billets Comme les croupiers pendant que les keufs font que de roupiller Légendaire on fait gent-ar pendant que les gendarmes et les gens dorment On a tous les genres d'armes et tous les genres d'or Cartier, Fred, Boucheron On part à la chasse aux moucherons avec la hache du bucheron Coup front avec insolence J'fais jongler les allitérations et les assonances Fais pas le saut de l'ange dans une piscine vide J'ne suis pas de ceux qu'on intimide alors con qu'est-ce qu'on mange ?</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2499,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>J'ai l'âge et j'ai mal à l'âme Que des mélages à la lame WAllah y'a plus d'one-one à la loyale Eh khouya, les royals-cônes sont saveur haïya J'en savais rien, maintenant les vauriens boivent la Bavaria Casta-marianne, Jean-Marie-FN, cache ta marie-jeanne Avant qu'tes mains et les menottes soient mari et femme De Paris émane du gaz, et les mans s'la pètent quand ils l'inhalent au final. Les plantes sont médicinales ! Panam' c'est plein d'vaginales qui font des signals D'odeur de gas-oil, de squales et d'lames de rasoir Mais on va s'voir sans même le savoir Entre les ghettos, des braguettes ouvertes et les barrettes offertes aux gays Hash' illégal, homos homologués Mégalomane sonne des caramels chez Ronald, pour 10 balles Magouilles, normal que t'as la trouille Tantôt patrouille-ventouses, tantôt tantouzes Et tout s'bicrave en douce, sous l'manteau Quant aux couz' qui vivent, sont sur le qui-vive Donc Yonea, Loko, one love, heureuse et longue vie Heureuse et longue vie à vous Ça sent pas bon à Paris Poulet grillé sous les aisselles Au Manapany Viande avariée, Bavaria, ça varie Saveur hayïa, ouh Colle-les, ça va rire Ça sent pas bon à Paris Poulet grillé sous les aisselles Au Manapany Viande avariée, Bavaria, ça varie Saveur hayïa, ouh Colle-les, ça va rireYou might also like</t>
+          <t>J'ai l'âge et j'ai mal à l'âme Que des mélages à la lame WAllah y'a plus d'one-one à la loyale Eh khouya, les royals-cônes sont saveur haïya J'en savais rien, maintenant les vauriens boivent la Bavaria Casta-marianne, Jean-Marie-FN, cache ta marie-jeanne Avant qu'tes mains et les menottes soient mari et femme De Paris émane du gaz, et les mans s'la pètent quand ils l'inhalent au final. Les plantes sont médicinales ! Panam' c'est plein d'vaginales qui font des signals D'odeur de gas-oil, de squales et d'lames de rasoir Mais on va s'voir sans même le savoir Entre les ghettos, des braguettes ouvertes et les barrettes offertes aux gays Hash' illégal, homos homologués Mégalomane sonne des caramels chez Ronald, pour 10 balles Magouilles, normal que t'as la trouille Tantôt patrouille-ventouses, tantôt tantouzes Et tout s'bicrave en douce, sous l'manteau Quant aux couz' qui vivent, sont sur le qui-vive Donc Yonea, Loko, one love, heureuse et longue vie Heureuse et longue vie à vous Ça sent pas bon à Paris Poulet grillé sous les aisselles Au Manapany Viande avariée, Bavaria, ça varie Saveur hayïa, ouh Colle-les, ça va rire Ça sent pas bon à Paris Poulet grillé sous les aisselles Au Manapany Viande avariée, Bavaria, ça varie Saveur hayïa, ouh Colle-les, ça va rire</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2516,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Va faire remplir Bercy, qu'je joue à Fulham J'suis à Marrakech, à Coutonou, ou a Poudlard J'les fais danser, ils savent même plus ils sont sur quel pôle Ecrase un Pharaon ça fait d'l'or, écrase un noir ça fait du pétrole J'suis dans un cercle fermé, t'es dans un trou du cul Ils m'demandent de les paterner, j'les connais pas du tout J'suis à deux doigts de les interner, j'les retiens par les couilles Et qui est Jefe Lima P, j'les connais pas du tout Arrête de t'inventer des vies, ta soeur fait plus de sous que toi Elle suce des sexagénaires, c'est même cent balles les préliminaires Ah, j'ai jamais chialé quand il y avait rien à bouffer J'ai sorti le ruger quand j'avais rien à prouver Rien à foutre, c'est pas eux qui ont pas dit qu'ils pouvaient Dix balles de perdues, un seul corps de retrouvé Ils sont bons qu'à trainer en bas, c'est pas des shlags, c'est des 'kaves Ils veulent la part du gateau, tout ce qu'ils méritent c'est des tartes J'les vois sucer des bites puis avaler, c'est des pah Laisse moi éjaculer, jvais faire des ricochets sur tes larmes On s'assoit pas au Père Lachaise, si t'es là on demande pas ton âge Tu sais qu'c'est quand on perd qu'on gagne Et à la fin du match, j'fais de la maille sur des pierres tombale Holobear On peut te fournir de la bonne blanche comme Arielle Dombale Pour construire un empire il faut bien quelques pierres tombales C'est quand on perd qu'on gagne C'est les pédophiles que mes compères condamnent Et ils méritent la pendaison au bout d'un vulgaire tronc d'arbre On bombarde, on prend le large, regrettes l'époque de mes trente berges On a des gamberges qui te rendent barge, baw Et j'vais tout baiser comme si j'avais dix verges Tout l'équipage est sous..., suis-je le plus fort ? Les avis divergent Toujours en mode galérage dans l'garage On est tombé dans l'pillage pas dans l'piège J'suis dans la vente de guedro, j'ai pas d'problème d'ego J'matte des vidéos avec des go qui s'rentrent des des-go Pas d'négo, que du cash, des liasses dans une valise classe Et on savait c'que cachait le sac des tass' avant Walid Sax Tatoué comme Stanislas ou Vladimir P'tit frère, t'arrives pas à t'refaire tiens un vlà dix milles Tatra-paw c'est Amityville, Seth GuexAlp, fais pas la meuf t'as jamais allaité Et une ceinture noire c'est juste une ceinture blanche qu'à jamais arrêtéYou might also like</t>
+          <t>Va faire remplir Bercy, qu'je joue à Fulham J'suis à Marrakech, à Coutonou, ou a Poudlard J'les fais danser, ils savent même plus ils sont sur quel pôle Ecrase un Pharaon ça fait d'l'or, écrase un noir ça fait du pétrole J'suis dans un cercle fermé, t'es dans un trou du cul Ils m'demandent de les paterner, j'les connais pas du tout J'suis à deux doigts de les interner, j'les retiens par les couilles Et qui est Jefe Lima P, j'les connais pas du tout Arrête de t'inventer des vies, ta soeur fait plus de sous que toi Elle suce des sexagénaires, c'est même cent balles les préliminaires Ah, j'ai jamais chialé quand il y avait rien à bouffer J'ai sorti le ruger quand j'avais rien à prouver Rien à foutre, c'est pas eux qui ont pas dit qu'ils pouvaient Dix balles de perdues, un seul corps de retrouvé Ils sont bons qu'à trainer en bas, c'est pas des shlags, c'est des 'kaves Ils veulent la part du gateau, tout ce qu'ils méritent c'est des tartes J'les vois sucer des bites puis avaler, c'est des pah Laisse moi éjaculer, jvais faire des ricochets sur tes larmes On s'assoit pas au Père Lachaise, si t'es là on demande pas ton âge Tu sais qu'c'est quand on perd qu'on gagne Et à la fin du match, j'fais de la maille sur des pierres tombale Holobear On peut te fournir de la bonne blanche comme Arielle Dombale Pour construire un empire il faut bien quelques pierres tombales C'est quand on perd qu'on gagne C'est les pédophiles que mes compères condamnent Et ils méritent la pendaison au bout d'un vulgaire tronc d'arbre On bombarde, on prend le large, regrettes l'époque de mes trente berges On a des gamberges qui te rendent barge, baw Et j'vais tout baiser comme si j'avais dix verges Tout l'équipage est sous..., suis-je le plus fort ? Les avis divergent Toujours en mode galérage dans l'garage On est tombé dans l'pillage pas dans l'piège J'suis dans la vente de guedro, j'ai pas d'problème d'ego J'matte des vidéos avec des go qui s'rentrent des des-go Pas d'négo, que du cash, des liasses dans une valise classe Et on savait c'que cachait le sac des tass' avant Walid Sax Tatoué comme Stanislas ou Vladimir P'tit frère, t'arrives pas à t'refaire tiens un vlà dix milles Tatra-paw c'est Amityville, Seth GuexAlp, fais pas la meuf t'as jamais allaité Et une ceinture noire c'est juste une ceinture blanche qu'à jamais arrêté</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2533,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>On charbonne toute l'année la came, la coka Pour finir les pieds dans l'eau à Cannes-la-Bocca Sur un yacht, un pédalo, j'm'en bats les yeu-cou Tant qu'j'vois Ris-Mo rire soûl quand il éclate la Vodka C'est la paranoïa, on voit des keufs partout Sa mère la chatte à Mireille, la chatte à Carla Nova On est des Choukels, la maille j'suis fou d'elle, va t'fouder Passe un coup d'tel à Niamodel Via l'hôtel On vis à 300 à l'heure dans Doumia On s'faufile partout comme des zermou mia Libérez Sakio, libérez Mourmia Faut les libérer ! Ouvrez la cage à mes drôles d'oiseaux comme Pierre Perret Avec un Beretta et un béret Mater Fuck ! On fais des roues arrières avec la bouée du banana boat Avant qu'les keufs frappent à la porte WéWéWé ! C'est la merde ! Et on est tous dedans La mer c'est dégueulasse, les kaïra s'mouchent dedans C'est la guerre ! Et on est tous devant WéWéWé ! C'est la merde ! Et on étouffe dedans La mer c'est dégueulasse, les kaira pissent dedans C'est la guerre ! Et on est tous devant You might also like Ok On charbonne toute l'année comme dans les streets de Baltimore On est plus des hommes mais des ombres Vivant mais quasi mort Toutes nos valeurs de droiture Aucun n'est sec J'crois que le mal est la seul chose qui soit resté intact durant ces deux derniers siècles Nan ne m'parle pas de Rap Game C'est pas mon buzz de rue qui m'fait remplir l'go-fri J'te l'dis d'office Que papa était underground, c'est sa qu'tu veux qu'j'dise à mon fils ? Nous on s'en tape de quoi ou qu'est ce Tout ce qui nous importe c'est combien Donc parlons peu parlons bien, parlons ça m'convient Me reproche pas d'avoir trop faim On comprendra plus tard que l'crime ne paie que jusqu'à un certain point On fait la ière-pri à mi-temps mais ça turbine à temps plein Notre mois de Ramdam s'apparente plus à une vulgaire grève de la faim qu'à un réel acte de foi J'pense aux frères en taule qui s'branlent jusqu'à en saigner A qui l'état réclame des sommes d'amendes douanières qu'il faudrait deux vies pour payer Bien sûr qu'la vie est hardcore Si la violence ne résout rien c'est qu't'as pas frappé assez fort WéWéWé ! On charbonne toute l'année de Janvier à Janvier J'suis Val-de-Marnais capital des vols à main armée Bizarre est ma façon de parler pour pas qu'ils puissent capter Si tu veux planer? viens pécho au quartier Fatigué d'me taper, d'être armé, d'éclater des tass-pé J'veux gratter, prendre mes tunes, me barrer Au quartier j'suis trop cramé Quand la Bac cherche un négro c'est chez moi ou chez Samba qu'ils viennent frapper Dans nos caves, des brolics des los-ki d'frappe atomique On écrit Nique la Police dans les locaux d'la police J'monte sur scène avec un bracelet électronique La justice a deux vitesses, ma banlieue roule en bolide Tu r'gardais DragonBall, moi je dealais dans la tec' Dealait dans la tec', dea-dealait dans la tec' Hey yo t'inquiètes la rue on la gère On a des plaquettes et des barrettes coupées au laser WéWéWé ! 3</t>
+          <t>On charbonne toute l'année la came, la coka Pour finir les pieds dans l'eau à Cannes-la-Bocca Sur un yacht, un pédalo, j'm'en bats les yeu-cou Tant qu'j'vois Ris-Mo rire soûl quand il éclate la Vodka C'est la paranoïa, on voit des keufs partout Sa mère la chatte à Mireille, la chatte à Carla Nova On est des Choukels, la maille j'suis fou d'elle, va t'fouder Passe un coup d'tel à Niamodel Via l'hôtel On vis à 300 à l'heure dans Doumia On s'faufile partout comme des zermou mia Libérez Sakio, libérez Mourmia Faut les libérer ! Ouvrez la cage à mes drôles d'oiseaux comme Pierre Perret Avec un Beretta et un béret Mater Fuck ! On fais des roues arrières avec la bouée du banana boat Avant qu'les keufs frappent à la porte WéWéWé ! C'est la merde ! Et on est tous dedans La mer c'est dégueulasse, les kaïra s'mouchent dedans C'est la guerre ! Et on est tous devant WéWéWé ! C'est la merde ! Et on étouffe dedans La mer c'est dégueulasse, les kaira pissent dedans C'est la guerre ! Et on est tous devant Ok On charbonne toute l'année comme dans les streets de Baltimore On est plus des hommes mais des ombres Vivant mais quasi mort Toutes nos valeurs de droiture Aucun n'est sec J'crois que le mal est la seul chose qui soit resté intact durant ces deux derniers siècles Nan ne m'parle pas de Rap Game C'est pas mon buzz de rue qui m'fait remplir l'go-fri J'te l'dis d'office Que papa était underground, c'est sa qu'tu veux qu'j'dise à mon fils ? Nous on s'en tape de quoi ou qu'est ce Tout ce qui nous importe c'est combien Donc parlons peu parlons bien, parlons ça m'convient Me reproche pas d'avoir trop faim On comprendra plus tard que l'crime ne paie que jusqu'à un certain point On fait la ière-pri à mi-temps mais ça turbine à temps plein Notre mois de Ramdam s'apparente plus à une vulgaire grève de la faim qu'à un réel acte de foi J'pense aux frères en taule qui s'branlent jusqu'à en saigner A qui l'état réclame des sommes d'amendes douanières qu'il faudrait deux vies pour payer Bien sûr qu'la vie est hardcore Si la violence ne résout rien c'est qu't'as pas frappé assez fort WéWéWé ! On charbonne toute l'année de Janvier à Janvier J'suis Val-de-Marnais capital des vols à main armée Bizarre est ma façon de parler pour pas qu'ils puissent capter Si tu veux planer? viens pécho au quartier Fatigué d'me taper, d'être armé, d'éclater des tass-pé J'veux gratter, prendre mes tunes, me barrer Au quartier j'suis trop cramé Quand la Bac cherche un négro c'est chez moi ou chez Samba qu'ils viennent frapper Dans nos caves, des brolics des los-ki d'frappe atomique On écrit Nique la Police dans les locaux d'la police J'monte sur scène avec un bracelet électronique La justice a deux vitesses, ma banlieue roule en bolide Tu r'gardais DragonBall, moi je dealais dans la tec' Dealait dans la tec', dea-dealait dans la tec' Hey yo t'inquiètes la rue on la gère On a des plaquettes et des barrettes coupées au laser WéWéWé ! 3</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2550,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Si si si ma salope, ça s'asphyxie à l'azote V'là l'zizi d'Alkpote, j'veux finir comme Jack Abbott C'est l'Retour d'l'U2F, des soldats Néochrome T'es face à un mur de braises, retourne-toi j'vais te sodo' Je tire les penalties, mec j'suis un vrai sadique J'me fous de c'que le code pénal dit, au micro je t'éradique T'inquiètes j'suis impressionnant, je rappe en rigolant Dans le 9.1 c'est violent et sanguinolent Est-ce que tu reconnais qui tranche ? C'est l'emcee beau mais flippant Qui sort du hall s'effritant, comme les bédos de dix ans J'suis seul en levant ce verre, à chaque meufs un mauvais bilan Bien qu'je fasse le tremblement de terre avec un gros épicentre En tête des projets si grands, grâce à Dieu mon flow est immense Comme l'aura un prophète vivant, m'repentir faudrait qu'j'y pense Tout comme les colériques gens, causant de morderne free-lance Disant des choses séduisantes, faut pas affoler l'client C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes You might also like Je vous prends d'affiler, je fais qu'assassiner Essayes pas de m'analyser, on va vous paralyser J'veux que la banquière m'aiment trop, rouler en ancienne Merco La femme de Jean-Pierre Pernaut, avant que la Terre entière n'explose J'ai de la vitalité, j'suis comme David Hallyday J'suis un gagnant toi t'as qu'à sniffer la ligne d'arrivée salope J'vous laisse aucune chance bande de putains, déchire vos documents et pisse sur vos monuments Y a trop de poètes gitans, j'étouffe leurs faux airs d'brigands J'relève mon col et Big-Bang, je frappe comme Eric Cant' Rappe pas au coefficient, aurais-je la monnaie qui m'manque ? J'veux t'mettre à l'aise au pays, m'man, faciliter nos pénitences Pour tester faut les finances, pour contester faut l'équipement des et titans, mais faut rester obéissant Craignez le haut débit d'sang, j'coupe la gorge au pélican J'ouvre la porte aux ennemis quand j'veux les voir cogner l'ciment C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' des chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes Viens me voir sous la pleine lune, fais la queue prend un ticket Pour un pochon d'amertume qui te feras renifler J'porte jamais de baggy, j'suis le plus pervers de Paris J'suis un métèque comme Nagui, j'représente les arbis Wahad w tes3in géographie On encule les ptérodactyles, de ta caisse on explose la vitre salope Allez vous faire voir, bande de merdeuses, faites-vous belles, séchez vos chattes avec un séchoir mes femmes qui lutent, écoute l'U2F quatre minutes Ils sont mon extasie pure, lame de mon Excalibur J'rappe avec exactitude, retranscris les habitudes Toujours en quête d'altitude, comment changer les habitudes ? T'as vu les emcee's à mes pieds, j'ai plus de maître à défier Tu souris, sais qu'm'a rime tue, et qu'je peux m'permettre à Marre de la RATP, y a que d'la merde à becqueter, la vie aime m'faire galérer Que des grosses tasses-pé à baiser C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' des chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes Yeah, Seth Guek's, le fils caché d'Jack Mess Néochrome, Yonea Yod'z Katana Alkpote a.k.a Serge Gainzbeur French double-Kick, zblex C'est Néochrome, c'est Néochrome, zbleublex C'est Néochrome, c'est Néochrome1</t>
+          <t>Si si si ma salope, ça s'asphyxie à l'azote V'là l'zizi d'Alkpote, j'veux finir comme Jack Abbott C'est l'Retour d'l'U2F, des soldats Néochrome T'es face à un mur de braises, retourne-toi j'vais te sodo' Je tire les penalties, mec j'suis un vrai sadique J'me fous de c'que le code pénal dit, au micro je t'éradique T'inquiètes j'suis impressionnant, je rappe en rigolant Dans le 9.1 c'est violent et sanguinolent Est-ce que tu reconnais qui tranche ? C'est l'emcee beau mais flippant Qui sort du hall s'effritant, comme les bédos de dix ans J'suis seul en levant ce verre, à chaque meufs un mauvais bilan Bien qu'je fasse le tremblement de terre avec un gros épicentre En tête des projets si grands, grâce à Dieu mon flow est immense Comme l'aura un prophète vivant, m'repentir faudrait qu'j'y pense Tout comme les colériques gens, causant de morderne free-lance Disant des choses séduisantes, faut pas affoler l'client C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes Je vous prends d'affiler, je fais qu'assassiner Essayes pas de m'analyser, on va vous paralyser J'veux que la banquière m'aiment trop, rouler en ancienne Merco La femme de Jean-Pierre Pernaut, avant que la Terre entière n'explose J'ai de la vitalité, j'suis comme David Hallyday J'suis un gagnant toi t'as qu'à sniffer la ligne d'arrivée salope J'vous laisse aucune chance bande de putains, déchire vos documents et pisse sur vos monuments Y a trop de poètes gitans, j'étouffe leurs faux airs d'brigands J'relève mon col et Big-Bang, je frappe comme Eric Cant' Rappe pas au coefficient, aurais-je la monnaie qui m'manque ? J'veux t'mettre à l'aise au pays, m'man, faciliter nos pénitences Pour tester faut les finances, pour contester faut l'équipement des et titans, mais faut rester obéissant Craignez le haut débit d'sang, j'coupe la gorge au pélican J'ouvre la porte aux ennemis quand j'veux les voir cogner l'ciment C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' des chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes Viens me voir sous la pleine lune, fais la queue prend un ticket Pour un pochon d'amertume qui te feras renifler J'porte jamais de baggy, j'suis le plus pervers de Paris J'suis un métèque comme Nagui, j'représente les arbis Wahad w tes3in géographie On encule les ptérodactyles, de ta caisse on explose la vitre salope Allez vous faire voir, bande de merdeuses, faites-vous belles, séchez vos chattes avec un séchoir mes femmes qui lutent, écoute l'U2F quatre minutes Ils sont mon extasie pure, lame de mon Excalibur J'rappe avec exactitude, retranscris les habitudes Toujours en quête d'altitude, comment changer les habitudes ? T'as vu les emcee's à mes pieds, j'ai plus de maître à défier Tu souris, sais qu'm'a rime tue, et qu'je peux m'permettre à Marre de la RATP, y a que d'la merde à becqueter, la vie aime m'faire galérer Que des grosses tasses-pé à baiser C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' de chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes C'est le retour d'U2F, ramène tes putes de l'Est On a des réput' des chefs, zdedededex On est des crapules de tess', ça pu les capsules de cesse' Ramène la vodka que j'décapsule le Schweppes Yeah, Seth Guek's, le fils caché d'Jack Mess Néochrome, Yonea Yod'z Katana Alkpote a.k.a Serge Gainzbeur French double-Kick, zblex C'est Néochrome, c'est Néochrome, zbleublex C'est Néochrome, c'est Néochrome1</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2567,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>- Rex Tu planques au moins une tonne de CD géniaux qui passent jamais dans tes émissions mais pourquoi on les entend pas, ces mecs-là ? - Ian C'est Milo qui décide. Pourquoi on les passe pas, Milo ? - Milo S'ils sont vraiment géniaux, pourquoi ils ne sont pas numéro un au hit parade, bonhomme ? - Rex À cause que tu les passes pas, bonhomme. Enfoiré ! DJ Hamdi à la composition Escobar Macson, Seth Gueko, toujours en pole position blah C'est pas en enfer qu'il faut chercher l'verre d'eau blah, blah Hein, si c'est pas moi qui rappe, c'est qui ? geah Tu vas porter l'deuil Seth Gueko Jusqu'à ce que t'aies mal au dos Escobar Macson Alors c'est qui l'roi d'la phase furieuse, hein ? Qui ouvre sa boîte à camembert comme une sulfateuse ? Qui a l'buzz, qui laisse le pit s'exciter sur ta beuj ? Qui a un hall qui sent la pisse comme le slip d'une fugueuse ? Qui est l'clip numéro un d'Booska-P ? Qui a vesqui la hnouch Toute l'année pour pas rapper la bouche cassée ? Qui veut faire du surf sur la lame d'un coupe-jarret ? Qui veut s'faire du rouge à lèvres avec ma goutte salée ? Qui est l'premier d'la classe à l'école du crime ? Qui d'nous deux va s'prendre les pieds dans les cordes du ring ? Mon inspi' sort des bords du Nil, la tienne d'un bol d'urine Tu m'véner comme le port du string véner mes potes muslims Qui, à l'heure du crime, s'invente une entorse ? Qui veut venir faire la bise à mon gland d'boxe ? Qui fréquente la mafia russe et les gangs corses ? Qui d'nous deux bé-bé-bégaye devant les lampes torches ? Esco, Seth Gueko Plus d'cinquante centimètres de viande sans os Ramène le Viandox Y a d'quoi monter sur un brinks avec ce qu'on coffre dans l'box You might also like Blah, blah, blah Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Négro, attention keba C'est Escobar Macson, négro, j'te l'répète, fais attention Bordel, mon rap du Téhéran comme ma vie, ma Villetaneuse C'est pour ceux restés STT errant au ghetto 100-7 J'représente Ghetto Guet-Apens, École des beaux-arts Criminels et street, des textes dérapants dérapants Tu connais l'blase, combien j'pèse Mets l'pied dans ma base et c'est la baise, j'te baise, masta Makila Mizik ouais, Drive By, Calibre Je chante la haine pour ceux au placard et mes gars libres Ici, c'est qui qui rappe ? c'est qui ? T'as la réponse sans faire couler la sueur C'est aussi simple qu'écarter les deux seufs à ta sur Un Zaïrois cocasse, j'aime pas les sales blagues à la Roucas Brise la rime comme les nez, man, qu'on casse À bas la courtoisie et Sarkozy fils de pute Délinquant depuis 17 piges, mes Cartier louches à la Yves Mourousi On voit l'arbre tomber mais pas la forêt pousser J'te l'répète encore, c'est Escobar, t'as pas fini d'tousser, voyons Vaut mieux un grand coucou et un p'tit adieu Qu'un p'tit coucou et un grand adieu Parce que je m'impose sur les lieux ciao Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Cherche, cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe, qui qui rappe, qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe, qui qui rappe, qui qui rappe ? Blah, blah, blah</t>
+          <t>- Rex Tu planques au moins une tonne de CD géniaux qui passent jamais dans tes émissions mais pourquoi on les entend pas, ces mecs-là ? - Ian C'est Milo qui décide. Pourquoi on les passe pas, Milo ? - Milo S'ils sont vraiment géniaux, pourquoi ils ne sont pas numéro un au hit parade, bonhomme ? - Rex À cause que tu les passes pas, bonhomme. Enfoiré ! DJ Hamdi à la composition Escobar Macson, Seth Gueko, toujours en pole position blah C'est pas en enfer qu'il faut chercher l'verre d'eau blah, blah Hein, si c'est pas moi qui rappe, c'est qui ? geah Tu vas porter l'deuil Seth Gueko Jusqu'à ce que t'aies mal au dos Escobar Macson Alors c'est qui l'roi d'la phase furieuse, hein ? Qui ouvre sa boîte à camembert comme une sulfateuse ? Qui a l'buzz, qui laisse le pit s'exciter sur ta beuj ? Qui a un hall qui sent la pisse comme le slip d'une fugueuse ? Qui est l'clip numéro un d'Booska-P ? Qui a vesqui la hnouch Toute l'année pour pas rapper la bouche cassée ? Qui veut faire du surf sur la lame d'un coupe-jarret ? Qui veut s'faire du rouge à lèvres avec ma goutte salée ? Qui est l'premier d'la classe à l'école du crime ? Qui d'nous deux va s'prendre les pieds dans les cordes du ring ? Mon inspi' sort des bords du Nil, la tienne d'un bol d'urine Tu m'véner comme le port du string véner mes potes muslims Qui, à l'heure du crime, s'invente une entorse ? Qui veut venir faire la bise à mon gland d'boxe ? Qui fréquente la mafia russe et les gangs corses ? Qui d'nous deux bé-bé-bégaye devant les lampes torches ? Esco, Seth Gueko Plus d'cinquante centimètres de viande sans os Ramène le Viandox Y a d'quoi monter sur un brinks avec ce qu'on coffre dans l'box Blah, blah, blah Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Négro, attention keba C'est Escobar Macson, négro, j'te l'répète, fais attention Bordel, mon rap du Téhéran comme ma vie, ma Villetaneuse C'est pour ceux restés STT errant au ghetto 100-7 J'représente Ghetto Guet-Apens, École des beaux-arts Criminels et street, des textes dérapants dérapants Tu connais l'blase, combien j'pèse Mets l'pied dans ma base et c'est la baise, j'te baise, masta Makila Mizik ouais, Drive By, Calibre Je chante la haine pour ceux au placard et mes gars libres Ici, c'est qui qui rappe ? c'est qui ? T'as la réponse sans faire couler la sueur C'est aussi simple qu'écarter les deux seufs à ta sur Un Zaïrois cocasse, j'aime pas les sales blagues à la Roucas Brise la rime comme les nez, man, qu'on casse À bas la courtoisie et Sarkozy fils de pute Délinquant depuis 17 piges, mes Cartier louches à la Yves Mourousi On voit l'arbre tomber mais pas la forêt pousser J'te l'répète encore, c'est Escobar, t'as pas fini d'tousser, voyons Vaut mieux un grand coucou et un p'tit adieu Qu'un p'tit coucou et un grand adieu Parce que je m'impose sur les lieux ciao Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe le son advisory parental ? Sans violence, technique, métaphores, c'est pas rentable Pas rentable comme un drive-by à balles à blanc Cherche pas à savoir si Satan fait l'ramadan Cherche, cherche pas à savoir si Satan fait l'ramadan Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe, qui qui rappe, qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe ? Dis-moi c'est qui qui rappe, qui qui rappe, qui qui rappe ? Blah, blah, blah</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2584,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Je veux devenir riche, c'est trop, c'est trop, c'est trop C'est trop, c'est trop, c'est trop, c'est trop À ce qu'il parait je suis né riche, c'est faux, c'est faux, c'est faux C'est faux, c'est faux, c'est faux, c'est faux J'suis en Tacchini pas en Fila J'ai le gabarie à Godzilla On n'a pas choisi cette vie là Et on fuck les propos de Mila Mon daron j'lui per-ta ses fringues et faut pas que me fasse griller en flag' et Faut aussi pensr à acheter un flingue car ls plus dangereux sont les baltringues Encore un tatou maman à le seum mais je fais ça pour moi J'ai quitté la maison maman à le seum mais je fais ça pour toi Je suis dans le vaisseau, dans la soucoupe Dans la chambre d'hôtel je m'accouple Souvent j'appelle le succès mais ça coupe Donc y a que du Jack qui est dans ma coupe Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, je disparais Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared You might also like Kratos de God of War, mon fils c'est Atreus L'unique sokolov noir ouais il est à moitié russe Chacun sa miff, chacun son Smith et Wesson J'utilise les mots de tout le monde mais j'écris comme personne T'façon like father like son, Papa, j'me tatoue comme toi Et dans le studio je suis jamais seul, je suis avec Vincent pour toi Je suis dans le vaisseau, dans la soucoupe Dans la chambre d'hôtel je m'accouple Jeune renoi à la gueule de bois comme Groot Comment tu t'appelles combien tu coûtes Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, on disparait Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, on disparait Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared Je veux devenir riche, c'est trop, c'est trop, c'est trop C'est trop, c'est trop, c'est trop, c'est trop À ce qu'il parait je suis né riche, c'est faux, c'est faux, c'est faux C'est faux, c'est faux, c'est faux, c'est faux</t>
+          <t>Je veux devenir riche, c'est trop, c'est trop, c'est trop C'est trop, c'est trop, c'est trop, c'est trop À ce qu'il parait je suis né riche, c'est faux, c'est faux, c'est faux C'est faux, c'est faux, c'est faux, c'est faux J'suis en Tacchini pas en Fila J'ai le gabarie à Godzilla On n'a pas choisi cette vie là Et on fuck les propos de Mila Mon daron j'lui per-ta ses fringues et faut pas que me fasse griller en flag' et Faut aussi pensr à acheter un flingue car ls plus dangereux sont les baltringues Encore un tatou maman à le seum mais je fais ça pour moi J'ai quitté la maison maman à le seum mais je fais ça pour toi Je suis dans le vaisseau, dans la soucoupe Dans la chambre d'hôtel je m'accouple Souvent j'appelle le succès mais ça coupe Donc y a que du Jack qui est dans ma coupe Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, je disparais Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared Kratos de God of War, mon fils c'est Atreus L'unique sokolov noir ouais il est à moitié russe Chacun sa miff, chacun son Smith et Wesson J'utilise les mots de tout le monde mais j'écris comme personne T'façon like father like son, Papa, j'me tatoue comme toi Et dans le studio je suis jamais seul, je suis avec Vincent pour toi Je suis dans le vaisseau, dans la soucoupe Dans la chambre d'hôtel je m'accouple Jeune renoi à la gueule de bois comme Groot Comment tu t'appelles combien tu coûtes Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, on disparait Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared Je suis la ville avec , au tieks on a fait les cent pas Si le plavon je le sens pas, c'est mort, on disparait Mentalité d'enfant soldat, j'ai laissé mon cur dans le cendar Du rap FR, on vient on s'empare, je veux du Dior, du Disquared Je veux devenir riche, c'est trop, c'est trop, c'est trop C'est trop, c'est trop, c'est trop, c'est trop À ce qu'il parait je suis né riche, c'est faux, c'est faux, c'est faux C'est faux, c'est faux, c'est faux, c'est faux</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2601,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Kahba touche pas à la chnouf Rase ta fouf' Chakaboum, Al-K t'goume J'ai les pouvoirs d'un marabout Viens dans le 9-1, j'touche pas les gos en cloque Mais comme Tintin, on a d'la coke en stock J'arrive bombe nucléaire dans l'RER Tu peux pas faire plus suicidaire T'es pas mort dans l'film, t'es mort dans l'spot publicitaire MC t'es pas mon second couteau, t'es ma quatrième cuillère 2012 plus le droit d'dire nique ta mère ! On dit ta maman, c'est ma P.Q.R On dit ta maman, c'est ma régulière J'ai rendez-vous chez la banquière, toi au S.M.P.R Boum Chakaboum, j'quitte ma saloperie d'labo Pour bicrave dans la Boum à Sophie Marceau Gants en cuir, matraque, panoplie d'maso J'suis content d'm'appeler Kévin face aux flics fachos You might also like Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak Prêt pour la guérilla, j'tire avec le bras d'Cobra J'te fais un méga-pillage à la Cappadonna Je n'jure que par le Coran et d'autres par la Torah Suis-moi sur Twitter ou bien à l'Agora Recherche les exploratrices à la Dora J'pourrais renifler les sous-vêtements à Madonna Jécris mes textes avec la main à Maradona J'me défends tout seul à la barre, j'ai pas d'avocat Han ! Nous on pose pas tos-gra Crocodile Dandys, coste-La nostra La beuh mérite un Oscar elle vient du jardin À chaque jour suffit sa peine comme un juge radin Ma mine est anti-personnelle, elle travaille d'arrache-pied Refuse les feats comme Sarko refuse le mariage gay J'ai d'la rime mortelle, je l'jure ! Appelle-moi Martin Scorsese-mesures ! Han ! Avec ton crane on joue des percussions Han ! Un hérisson, c'est mon écusson Gadjo, cherche pas à payer l'addition Zekwé l'a déjà fait dans la discrétion Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak J'suis official depuis Cocoricocococoboy Tu trouves tout au comico du comique au gros cow-boy Cétait pas gagné d'avance comme Susan Boyle Au tieks c'est la sécheresse comme sous Roaccutane, boy C'est Néochrome et Alkpote, le nouveau Doc Gynéco Complètement défoncé, mec j'ai sorti les crocs Pas l'temps d'pioncer, j'ai trop dormi, frérot J't'étrangle et j'te pends avec des orties, des roses Ballon d'or dans l'caleçon comme Léo Messi J'aime pas les rapporteurs j'suis nul en géométrie C'est pas cher c'est haut débit Néochrome c'est comme chez Free J'vais t'apprendre à apprécier ma plume tel Joe Pesci Zekwé ! Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak CHAKABOUMGENIUS !!</t>
+          <t>Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Kahba touche pas à la chnouf Rase ta fouf' Chakaboum, Al-K t'goume J'ai les pouvoirs d'un marabout Viens dans le 9-1, j'touche pas les gos en cloque Mais comme Tintin, on a d'la coke en stock J'arrive bombe nucléaire dans l'RER Tu peux pas faire plus suicidaire T'es pas mort dans l'film, t'es mort dans l'spot publicitaire MC t'es pas mon second couteau, t'es ma quatrième cuillère 2012 plus le droit d'dire nique ta mère ! On dit ta maman, c'est ma P.Q.R On dit ta maman, c'est ma régulière J'ai rendez-vous chez la banquière, toi au S.M.P.R Boum Chakaboum, j'quitte ma saloperie d'labo Pour bicrave dans la Boum à Sophie Marceau Gants en cuir, matraque, panoplie d'maso J'suis content d'm'appeler Kévin face aux flics fachos Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak Prêt pour la guérilla, j'tire avec le bras d'Cobra J'te fais un méga-pillage à la Cappadonna Je n'jure que par le Coran et d'autres par la Torah Suis-moi sur Twitter ou bien à l'Agora Recherche les exploratrices à la Dora J'pourrais renifler les sous-vêtements à Madonna Jécris mes textes avec la main à Maradona J'me défends tout seul à la barre, j'ai pas d'avocat Han ! Nous on pose pas tos-gra Crocodile Dandys, coste-La nostra La beuh mérite un Oscar elle vient du jardin À chaque jour suffit sa peine comme un juge radin Ma mine est anti-personnelle, elle travaille d'arrache-pied Refuse les feats comme Sarko refuse le mariage gay J'ai d'la rime mortelle, je l'jure ! Appelle-moi Martin Scorsese-mesures ! Han ! Avec ton crane on joue des percussions Han ! Un hérisson, c'est mon écusson Gadjo, cherche pas à payer l'addition Zekwé l'a déjà fait dans la discrétion Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak J'suis official depuis Cocoricocococoboy Tu trouves tout au comico du comique au gros cow-boy Cétait pas gagné d'avance comme Susan Boyle Au tieks c'est la sécheresse comme sous Roaccutane, boy C'est Néochrome et Alkpote, le nouveau Doc Gynéco Complètement défoncé, mec j'ai sorti les crocs Pas l'temps d'pioncer, j'ai trop dormi, frérot J't'étrangle et j'te pends avec des orties, des roses Ballon d'or dans l'caleçon comme Léo Messi J'aime pas les rapporteurs j'suis nul en géométrie C'est pas cher c'est haut débit Néochrome c'est comme chez Free J'vais t'apprendre à apprécier ma plume tel Joe Pesci Zekwé ! Chakaboum ! Chakaboum ! Chak-chak-chakaboum ! Chakaboum ! Chakaboum ! Chak-chak... Ça fait, ça fait, ça fait Boum Chakaboum Chakaboum Chakaboum Chak Boum Chakaboum Chakaboum Chakaboum Chak CHAKABOUMGENIUS !!</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2618,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Jaime quand tu mfais ça avec du Nutella Versace, Versace, Gianni, Donatella Ma femme ne balancera rien, cuisinez-la Lamitié est un shlass, mon dos ? Un tiroir Cuisinella Les barrettes cest des tronçons dbois, hache de bucheron Si tabuses trop dla sson-boi, les couilles te pousseront Mais au réveil tu nassumeras plus ton clash de puceron MC, cache tes suçons, rien quon lâche des purs sons Attentat sonore, rien quon lâche des gros ceaux-mor Trois hommes peuvent garder un secret que si deux dentre eux sont morts Mes punchlines cest dlor, lalbum cest une bijouterie Masterisé, placevendômixé dans mines de Djibouti Drive by en Rolls Phantom pour les faire mourir de peur Lui jouis pas dans lanus, tu risques de faire naître un rappeur 700 Raptor, quad neuf ? Que du huit Les keufs font disparaître mes potes, DavidCopperflic Bébé, tes trop fraîche, bébé, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Bébé, tes trop clean, bébé, tes trop fraîche Jaime quand ton legging explose tes grosses fesses Tes trop tes trop fraîche Tes trop tes trop tes trop fraîche You might also like Jaime aussi quand tu mfais ça avec dla chantilly Jaime quand ils font ça à la kalash comme à Gentilly BM, Merco, Audi, remplis dlos-ki Mesrine rappe à travers moi, ventriloquie Cest en buvant nimporte quoi, quon baise nimporte qui Punchline tah la Jean-Pierre Mocky Ter-ter, talkie, barrette, cellophane Cest pas les keufs qui tuent les voyous, non, cest les femmes Et quand par chance un flic tue un voyou, on en fait un héros Mais jlaisserai pas les fédéraux m'fourrer la boîte à Ferrero Hé ouais, frérot, souviens-toi Les meufs vierges ça coûte un drap, une michto ça coûte un bras Cest pas gratuit lchampagne et lécaille de sson-poi Jai la bite à E.T, tas déjà vu la taille de son doigt ? Triste est la reality, rigide est le tonfa Comme à Little Haïti, on a tous une me-ar sous son toit Nom dune pipe en bois bandé jprends lgame par les chevilles Ça cest une punchline tah les Antilles, alors reste gentil Les poucaves on les encule, les bouteilles on les enquille Csoir ya qule T-Max qui dormira sur la béquille x2 Bébé, tes trop fraîche, bébé, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Bébé, tes trop clean, bébé, tes trop fraîche Jaime quand ton legging explose tes grosses fesses Tes trop tes trop fraîche Tes trop tes trop tes trop fraîche</t>
+          <t>Jaime quand tu mfais ça avec du Nutella Versace, Versace, Gianni, Donatella Ma femme ne balancera rien, cuisinez-la Lamitié est un shlass, mon dos ? Un tiroir Cuisinella Les barrettes cest des tronçons dbois, hache de bucheron Si tabuses trop dla sson-boi, les couilles te pousseront Mais au réveil tu nassumeras plus ton clash de puceron MC, cache tes suçons, rien quon lâche des purs sons Attentat sonore, rien quon lâche des gros ceaux-mor Trois hommes peuvent garder un secret que si deux dentre eux sont morts Mes punchlines cest dlor, lalbum cest une bijouterie Masterisé, placevendômixé dans mines de Djibouti Drive by en Rolls Phantom pour les faire mourir de peur Lui jouis pas dans lanus, tu risques de faire naître un rappeur 700 Raptor, quad neuf ? Que du huit Les keufs font disparaître mes potes, DavidCopperflic Bébé, tes trop fraîche, bébé, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Bébé, tes trop clean, bébé, tes trop fraîche Jaime quand ton legging explose tes grosses fesses Tes trop tes trop fraîche Tes trop tes trop tes trop fraîche Jaime aussi quand tu mfais ça avec dla chantilly Jaime quand ils font ça à la kalash comme à Gentilly BM, Merco, Audi, remplis dlos-ki Mesrine rappe à travers moi, ventriloquie Cest en buvant nimporte quoi, quon baise nimporte qui Punchline tah la Jean-Pierre Mocky Ter-ter, talkie, barrette, cellophane Cest pas les keufs qui tuent les voyous, non, cest les femmes Et quand par chance un flic tue un voyou, on en fait un héros Mais jlaisserai pas les fédéraux m'fourrer la boîte à Ferrero Hé ouais, frérot, souviens-toi Les meufs vierges ça coûte un drap, une michto ça coûte un bras Cest pas gratuit lchampagne et lécaille de sson-poi Jai la bite à E.T, tas déjà vu la taille de son doigt ? Triste est la reality, rigide est le tonfa Comme à Little Haïti, on a tous une me-ar sous son toit Nom dune pipe en bois bandé jprends lgame par les chevilles Ça cest une punchline tah les Antilles, alors reste gentil Les poucaves on les encule, les bouteilles on les enquille Csoir ya qule T-Max qui dormira sur la béquille x2 Bébé, tes trop fraîche, bébé, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Bébé, tes trop clean, bébé, tes trop fraîche Jaime quand ton legging explose tes grosses fesses Tes trop tes trop fraîche Tes trop tes trop tes trop fraîche</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2635,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Barlou, barlou, barlou Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate On va pas s'mentir fils, tu peux sortir l'extincteur Décontrasté comme Garcimore on détend les sphincters Ta tête dans la soupière, tes couilles dans le broyeur Pendant que j'vide le Jack Daniel's fire Comme la canicule à Paris, chaud comme Marseille Dans le spliff c'est la tate-pa, gros bide dans le marcel Au mic c'est le magma, j'crois qu'j'suis pas né dans le bon pays J'vais les réduire en cendres, j'ai sorti le fusil à Pompéi On débarque dans ta boom, on est tous dans le ranch, chaud oh,oh D'humeur gypsy, paré à faire le bamba On t'retourne la boite tranquillement avec Gueko oh,oh C'est plus un dancefloor c'est une plancha Essaie pas d'nous suivre tu vas bouffer d'la nitro 40 c'est l'été, 14 c'est le Côtes-du-Rhône Et la température semballe dès qu'on blesse le micro T'as compris ? On fait monter le mercure-ochrome You might also like Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate On arrive chaud patate, chauds les marrons, chauds J'vois les MCs tapiner sur les maréchaux Tu veux des photos mais t'achètes pas l'album Gros racho, j'fais du rap de moustachu bouracho Le crâne chauve, balafré comme Yamcha Prends ta coke et nachave, j'suis pas v'nu danser la Cucaracha rriba! On est v'nu t'chourave c'qu'est là J'aime les poulets qu'sur une grille de churrasqueira On compte plus les godemich que ton uc aspira J'suis écorché vif comme ??? Prends un aspirine, une seule patate de forain et tu t'tiens l'menton à vie comme Le Penseur de Rodin J'collectionne les blagues pourries comme Pascal Tourain Une paire de Timberland, j'suis l'ponceur de rondins Mon cousin, j'tiens la route comme un monster truck J'fais que du sale mais j'ai l'swag à Monsieur Propre Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate</t>
+          <t>Barlou, barlou, barlou Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate On va pas s'mentir fils, tu peux sortir l'extincteur Décontrasté comme Garcimore on détend les sphincters Ta tête dans la soupière, tes couilles dans le broyeur Pendant que j'vide le Jack Daniel's fire Comme la canicule à Paris, chaud comme Marseille Dans le spliff c'est la tate-pa, gros bide dans le marcel Au mic c'est le magma, j'crois qu'j'suis pas né dans le bon pays J'vais les réduire en cendres, j'ai sorti le fusil à Pompéi On débarque dans ta boom, on est tous dans le ranch, chaud oh,oh D'humeur gypsy, paré à faire le bamba On t'retourne la boite tranquillement avec Gueko oh,oh C'est plus un dancefloor c'est une plancha Essaie pas d'nous suivre tu vas bouffer d'la nitro 40 c'est l'été, 14 c'est le Côtes-du-Rhône Et la température semballe dès qu'on blesse le micro T'as compris ? On fait monter le mercure-ochrome Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate On arrive chaud patate, chauds les marrons, chauds J'vois les MCs tapiner sur les maréchaux Tu veux des photos mais t'achètes pas l'album Gros racho, j'fais du rap de moustachu bouracho Le crâne chauve, balafré comme Yamcha Prends ta coke et nachave, j'suis pas v'nu danser la Cucaracha rriba! On est v'nu t'chourave c'qu'est là J'aime les poulets qu'sur une grille de churrasqueira On compte plus les godemich que ton uc aspira J'suis écorché vif comme ??? Prends un aspirine, une seule patate de forain et tu t'tiens l'menton à vie comme Le Penseur de Rodin J'collectionne les blagues pourries comme Pascal Tourain Une paire de Timberland, j'suis l'ponceur de rondins Mon cousin, j'tiens la route comme un monster truck J'fais que du sale mais j'ai l'swag à Monsieur Propre Chaud patate ! Laisse tomber, on est trop khabat Seth Gueko, Gérard Baste, on est chaud patate ! Trop baraque, grosse savate si tu votes trop à droite Pose les bonnes questions ou j't'arrache ton micro-cravate Chaud patate ! Seth Gueko, Gérard Baste, on est chaud patate ! Pose les bonnes questions ou j't'arrache ton micro-cravate</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2652,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>J'suis entré dans l'pe-ra comme dans une chambre de fille, pour tout baiser Tes puceaux d'MC's me sentent le chibre Dans mes veines coulent du sang de tigre J'ai poukave personne, j'marche la tête haute dans mon centre ville Me faire tatouer mort aux flics à l'encre de Chine Me hante l'esprit, comme un vieux sample de film Rentre vite, on a l'ventre vide Le cul entre le stand de tir et la vente de shit J'mange le beat Pour une histoire de cash, ton meilleur shab t'éventre le bide Et j'te chante ce titre Comme si demain matin y'allait avoir une descente de flics L'envie pressante de fric Nous pousse au diggyly Diez, ouais au diggyly ness-bi, mais au diggyly tieks On veut le mille-millions de Bill-Lil Gates Avec ou sans le 9 milli diggyly zblex J'démarre au quart de tour Et j'tape des barres de fou Ahahahah Quand j'prends ta tête pour une balle de foot J'veux niquer l'quart de hnouch Prendre des barres de fioul Niquer l'bénef dans des rails de chnouf Élevé au rap de Snoop Bébé j'me gratte le zboub Sorti des ténèbres pour les rats du d'ssous Enlève tes sales dessous Chez nous ton sac de sous, s'apprécie comme un bon plat d'pe-sou On aime les tracks de Soul ma gueule Quelques gramme de seum Et on s'arrache pendant que Chirac se saoule la gueule J'arrive du block, fini les beaux jours d'ta femme C'est les vautours d'Saddam En direct des faubourgs d'Paname You might also like Sucez-nous bande de putains Après Seth Gueko, ce s'ra Alk le prochain J'clash tes bâtards de copains J'arrache le kalach de vos mains Patate de Forain Wesh l'iguane on dit quoi ? Un p'tit doigt pour toute les kehba aux gros seins Petit mon super héros était X-Or, y'a trop d'pétasses maintenant j'arrive à comprendre Guy Georges J'fignole des rimes gores Ignoble les disques sortent On mythone pas nous on picole comme des ivrognes Vous c'est du vin, nous c'est du Crown Royal Dans des corps humains la coke voyage C'est le son des sous-sols, des rois sans couronnes, délaissés pour morts Sous drogue comme Snoop Dogg Hey, putain laisse moi m'battre, chevalier de l'asphalte La seule chose qui s'en rapproche mec un coup d'cendrier dans l'arcade J'ai des pulsions qui passe par le bic L'Homme ne kiffe donc la vie que quand il frôle d'être paraplégique Dans la spirale d'un putain de rodéo La rage et la pupille nourrie par les scandales familiaux Rêver d'avoir la cote, crever par les Robocops Navré de voir la folie et l'absence dans les yeuz d'un pote J'ouvre ma gueule car le silence tue Avec la peur de finir amaigri comme un an-iein-c foutu Ouais j'suis méfiant, peu importe quoi ou qu'est-ce ? Mais à c't'heure-ci, même tape dans la caisse Il arrive, il roule direct son spliff Kick pour le tieckson afin qu'il check son biff Tier-quar, des zombies Ves-qui la son-pri Meskin à 16 piges, déjà ça geonne-pi Ça fourre à tout-va avant l'âge pubère Stalingrad c'est la jungle urbaine pas une plage cubaine On sort du studio pour faire du hebs T'inquiète Yonea, j's'rais toujours àl, toi-même tu ait-s Le ghetto s'exprime Le ghetto m'estime Le ghetto a vu mourir les kho meskin Le ghetto se reconnait en moi, et je l'aime car il a trouvé</t>
+          <t>J'suis entré dans l'pe-ra comme dans une chambre de fille, pour tout baiser Tes puceaux d'MC's me sentent le chibre Dans mes veines coulent du sang de tigre J'ai poukave personne, j'marche la tête haute dans mon centre ville Me faire tatouer mort aux flics à l'encre de Chine Me hante l'esprit, comme un vieux sample de film Rentre vite, on a l'ventre vide Le cul entre le stand de tir et la vente de shit J'mange le beat Pour une histoire de cash, ton meilleur shab t'éventre le bide Et j'te chante ce titre Comme si demain matin y'allait avoir une descente de flics L'envie pressante de fric Nous pousse au diggyly Diez, ouais au diggyly ness-bi, mais au diggyly tieks On veut le mille-millions de Bill-Lil Gates Avec ou sans le 9 milli diggyly zblex J'démarre au quart de tour Et j'tape des barres de fou Ahahahah Quand j'prends ta tête pour une balle de foot J'veux niquer l'quart de hnouch Prendre des barres de fioul Niquer l'bénef dans des rails de chnouf Élevé au rap de Snoop Bébé j'me gratte le zboub Sorti des ténèbres pour les rats du d'ssous Enlève tes sales dessous Chez nous ton sac de sous, s'apprécie comme un bon plat d'pe-sou On aime les tracks de Soul ma gueule Quelques gramme de seum Et on s'arrache pendant que Chirac se saoule la gueule J'arrive du block, fini les beaux jours d'ta femme C'est les vautours d'Saddam En direct des faubourgs d'Paname Sucez-nous bande de putains Après Seth Gueko, ce s'ra Alk le prochain J'clash tes bâtards de copains J'arrache le kalach de vos mains Patate de Forain Wesh l'iguane on dit quoi ? Un p'tit doigt pour toute les kehba aux gros seins Petit mon super héros était X-Or, y'a trop d'pétasses maintenant j'arrive à comprendre Guy Georges J'fignole des rimes gores Ignoble les disques sortent On mythone pas nous on picole comme des ivrognes Vous c'est du vin, nous c'est du Crown Royal Dans des corps humains la coke voyage C'est le son des sous-sols, des rois sans couronnes, délaissés pour morts Sous drogue comme Snoop Dogg Hey, putain laisse moi m'battre, chevalier de l'asphalte La seule chose qui s'en rapproche mec un coup d'cendrier dans l'arcade J'ai des pulsions qui passe par le bic L'Homme ne kiffe donc la vie que quand il frôle d'être paraplégique Dans la spirale d'un putain de rodéo La rage et la pupille nourrie par les scandales familiaux Rêver d'avoir la cote, crever par les Robocops Navré de voir la folie et l'absence dans les yeuz d'un pote J'ouvre ma gueule car le silence tue Avec la peur de finir amaigri comme un an-iein-c foutu Ouais j'suis méfiant, peu importe quoi ou qu'est-ce ? Mais à c't'heure-ci, même tape dans la caisse Il arrive, il roule direct son spliff Kick pour le tieckson afin qu'il check son biff Tier-quar, des zombies Ves-qui la son-pri Meskin à 16 piges, déjà ça geonne-pi Ça fourre à tout-va avant l'âge pubère Stalingrad c'est la jungle urbaine pas une plage cubaine On sort du studio pour faire du hebs T'inquiète Yonea, j's'rais toujours àl, toi-même tu ait-s Le ghetto s'exprime Le ghetto m'estime Le ghetto a vu mourir les kho meskin Le ghetto se reconnait en moi, et je l'aime car il a trouvé</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2669,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Seth Gueko,.. Faut pas chialer ! Ça sert à dalle-que ! Hein malheureux, jassois l'rap cain-ri sur une bite de val-che ! Ta sur c'est ma sur, j'lui dis c'que je veux Elle a pas la chatte ge-vier, j'lui tire les cheveux Ici c'est pack de bière et spliff de me-seu Comment ça la Bac de merde veut les biffs de monsieur Les gyro' d'fe-keu allume nos bijoux fe-neu, les p'tits foutent le feu Ils manquent certainement de bizz ou d'fe-me Les keufs on pisse sous leurs yeux 60 euros l'me-ge les ne-jeu pigent tous le jeu Écarte tes be-je j'baise les ptites et les grandes Élégante ou pas, elle a ses règles qu'elle me branle Tu t'mets l'doigt dans l'cul s'tu crois q'les flics c'est des tendres Si y t'mettent la pression faut pas q't'hésites de t'défendre Ma mère c'est ta mère si tu lui portes les se-cour Elle t'ouvrira la porte de secours si les porc te sé-cour Tes frères c'est mes frères j'les mettrais au beurre Paradis est mé-fer au tier-quar c'est q'des voleurs J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! You might also like Ta sur est sérieuse, j'lui passe l'anneau Ceci dit j'suis qu'un salaud, j'veux l'cash à l'autre Sur la tête des MC, que j'casse l'arceau Quand tu rappes oublie pas d'tirer la chasse-d'eau Parle pas l'langage des signes devant un pa-ra-no Ou tu f'ras d'l'apnée dans un la-va-bo Un keuss c'est un keuss sauf sous anabo' Donc même si tu fais des arts-martiaux, gazes pas trop Mets pas d'contre-danse à un char d'assaut J'te conseille pas d'mettre un baggy à Ajaccio J'marche qu'avec des cas sociaux, des cas faciaux C'est pas vrai y'a pas d'keufs comme Navarro Sale Charlot t'es dans la cours des grands Faut pas q'tu mouilles devant la rouille des crans d'arrêt d'un d'mes crouilles dé-clan Trop lourdes est la pesée des couilles d'mon gland Et crois-moi qu'pour longtemps l'rap aura l'goût d'mon gland J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! Tes gosses c'est les miens j'suis leur parrain C'est mes filleuls paye ton whisky ma p'tite gueule Ici c'est la jungle, on boit pas d'thé au tilleul Les p'tits sont à 2 euros d'braquer l'Lidl À 2 doigts d'les mettre dans ta chatte mouillée Monte pas au charbon avec un Kalash' rouillé Si y'a drra on a c'qui faut juste à côté Colt 45, fusil canon juxtaposé ! J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! Tu ragotes sur MSN, t'es un fils de pute ! Tu suces dans les caves, t'es une fille de stup' ! Si t'as pas d'meufs, branle-toi sur les livres de uc ! J'vous envois en réeduc' j'suis v'nu la mettre dans la raies des uc ! Si tu m'balances au dec, t'es un fils de pute ! Si tu m'joues pas à ta radio, t'es un fils de pute ! Si tu payes pas tes dettes, t'es un fils de pute ! J'vous envois en réeduc' j'suis v'nu la mettre dans la raie des uc !</t>
+          <t>Seth Gueko,.. Faut pas chialer ! Ça sert à dalle-que ! Hein malheureux, jassois l'rap cain-ri sur une bite de val-che ! Ta sur c'est ma sur, j'lui dis c'que je veux Elle a pas la chatte ge-vier, j'lui tire les cheveux Ici c'est pack de bière et spliff de me-seu Comment ça la Bac de merde veut les biffs de monsieur Les gyro' d'fe-keu allume nos bijoux fe-neu, les p'tits foutent le feu Ils manquent certainement de bizz ou d'fe-me Les keufs on pisse sous leurs yeux 60 euros l'me-ge les ne-jeu pigent tous le jeu Écarte tes be-je j'baise les ptites et les grandes Élégante ou pas, elle a ses règles qu'elle me branle Tu t'mets l'doigt dans l'cul s'tu crois q'les flics c'est des tendres Si y t'mettent la pression faut pas q't'hésites de t'défendre Ma mère c'est ta mère si tu lui portes les se-cour Elle t'ouvrira la porte de secours si les porc te sé-cour Tes frères c'est mes frères j'les mettrais au beurre Paradis est mé-fer au tier-quar c'est q'des voleurs J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! Ta sur est sérieuse, j'lui passe l'anneau Ceci dit j'suis qu'un salaud, j'veux l'cash à l'autre Sur la tête des MC, que j'casse l'arceau Quand tu rappes oublie pas d'tirer la chasse-d'eau Parle pas l'langage des signes devant un pa-ra-no Ou tu f'ras d'l'apnée dans un la-va-bo Un keuss c'est un keuss sauf sous anabo' Donc même si tu fais des arts-martiaux, gazes pas trop Mets pas d'contre-danse à un char d'assaut J'te conseille pas d'mettre un baggy à Ajaccio J'marche qu'avec des cas sociaux, des cas faciaux C'est pas vrai y'a pas d'keufs comme Navarro Sale Charlot t'es dans la cours des grands Faut pas q'tu mouilles devant la rouille des crans d'arrêt d'un d'mes crouilles dé-clan Trop lourdes est la pesée des couilles d'mon gland Et crois-moi qu'pour longtemps l'rap aura l'goût d'mon gland J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! Tes gosses c'est les miens j'suis leur parrain C'est mes filleuls paye ton whisky ma p'tite gueule Ici c'est la jungle, on boit pas d'thé au tilleul Les p'tits sont à 2 euros d'braquer l'Lidl À 2 doigts d'les mettre dans ta chatte mouillée Monte pas au charbon avec un Kalash' rouillé Si y'a drra on a c'qui faut juste à côté Colt 45, fusil canon juxtaposé ! J'ai que des textes qui tuent, des couplés revolvers J'en ai plus rien à foutre, allez niquer vos mères De toutes manière on fonce tout droit l'enfer Si j'nique ta carrière, faut pas t'en faire ! Tu ragotes sur MSN, t'es un fils de pute ! Tu suces dans les caves, t'es une fille de stup' ! Si t'as pas d'meufs, branle-toi sur les livres de uc ! J'vous envois en réeduc' j'suis v'nu la mettre dans la raies des uc ! Si tu m'balances au dec, t'es un fils de pute ! Si tu m'joues pas à ta radio, t'es un fils de pute ! Si tu payes pas tes dettes, t'es un fils de pute ! J'vous envois en réeduc' j'suis v'nu la mettre dans la raie des uc !</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2686,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J'suis un vrai chien d'la rue sans laisse J'sors jamais sans liasse J'ai pas d'maître que des maitresses Et personne qui peut dresser Nas Souleveur de connasses Le savent tout ceux qui m'connaissent J'suis aux prises avec les vices qui m'oppressent Y'a très peu d'tristesse quand c'est pour acte de traîtrise Et c'est a 6h du mat' que ca tape pour la perquiz Faut juste bien shooter les balances pour que les autres se taisent C'est la violence qui traumatise L'ambiance c'est trop la tess' Et les narcos cherchent des narcotiques embauchés par Sarko Mauvaise politique, connaissent pas la politesse Une justice à deux vitesses, que des sales cons qui nous contrôlent au faciès Pour la police j'ai qu'une seule promesse impossible que j'me rabaisse Business dans les abysses du coté d'Abess rien n'est gratis, trop dans les dièzes Ratisse le pèze avant qu'ma cote soit en baisse Vard-cre, mon truc c'est pas l'vail-tra c'est la paresse Tu m'as pris pour une pute ? Essaie d'me la mettre et j'te rendrais la pareille Ma parole, c'est quand on m'dit de m'taire que j'commence à mal parler You might also like x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le Yo j'suis pas né du dernier uterus Si t'as les couilles, tire comme à la roulette russe Malhonnête, on baisse pas l'taro mec T'as une dent contre moi on t'l'enlève à la clef a molette On traine pas les veuchs, tapette Ta queue d'cheval tu l'as dernière la tête moi j'l'ai entre les beujs Compte pas sur Amnesty, j'te fais la guerre Rue de la Paix Au poste j'suis étrangement frappé d'amnésie crue Comme un vagin sur écran géant Venez, allez-y, j'ai la main sur l'6.35 même quand j'gé-man D'vant la barre on fait des bulles avec nos Malabar Tant qu'il y a d'la graye à la raque-ab, Allahu akbar J'aime trop les armes et les filles à la pillave XXX J'la tromperai pas si elle fait XXX Il m'faut des XXX et encore des XXX Si tu m'touches ton cercueil sera un boite de corned beef x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le Tu mets un N, après un A, après un S, après un M, après un E J'suis un vrai chien d'la rue sans laisse J'sors jamais sans liasse J'fais rien que d'la chiennasse et j'profite a mort d'ma jeunesse La malchance et la poisse c'est pour les autres j'les laisse J'veux pas d'reste d'assiette alors j'fais jamais la sieste J'ai pas besoin qu'on m'assiste Y'a si peu d'places en plus j'en veux une assise De quoi m'en mettre sous la gencive Nouvel arrivant pour une arrivée massive Tape pas dans l'cartillage Traine pas dans notre tier-car p'tit naze T'y lâche le cash pour l'patinage J'viens apporter du lourd J'viens apporter d'la rime Alors, alors, viens pas m'porter l'3in Sale gosse t'es pas gentille et bonne, dégage On met du Cartier parce que les lentilles ca donne des gazes Trop virulent pour la Star Academy Masta, avec un chéquier j't'arnaque un tas d'ennemis x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le</t>
+          <t>J'suis un vrai chien d'la rue sans laisse J'sors jamais sans liasse J'ai pas d'maître que des maitresses Et personne qui peut dresser Nas Souleveur de connasses Le savent tout ceux qui m'connaissent J'suis aux prises avec les vices qui m'oppressent Y'a très peu d'tristesse quand c'est pour acte de traîtrise Et c'est a 6h du mat' que ca tape pour la perquiz Faut juste bien shooter les balances pour que les autres se taisent C'est la violence qui traumatise L'ambiance c'est trop la tess' Et les narcos cherchent des narcotiques embauchés par Sarko Mauvaise politique, connaissent pas la politesse Une justice à deux vitesses, que des sales cons qui nous contrôlent au faciès Pour la police j'ai qu'une seule promesse impossible que j'me rabaisse Business dans les abysses du coté d'Abess rien n'est gratis, trop dans les dièzes Ratisse le pèze avant qu'ma cote soit en baisse Vard-cre, mon truc c'est pas l'vail-tra c'est la paresse Tu m'as pris pour une pute ? Essaie d'me la mettre et j'te rendrais la pareille Ma parole, c'est quand on m'dit de m'taire que j'commence à mal parler x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le Yo j'suis pas né du dernier uterus Si t'as les couilles, tire comme à la roulette russe Malhonnête, on baisse pas l'taro mec T'as une dent contre moi on t'l'enlève à la clef a molette On traine pas les veuchs, tapette Ta queue d'cheval tu l'as dernière la tête moi j'l'ai entre les beujs Compte pas sur Amnesty, j'te fais la guerre Rue de la Paix Au poste j'suis étrangement frappé d'amnésie crue Comme un vagin sur écran géant Venez, allez-y, j'ai la main sur l'6.35 même quand j'gé-man D'vant la barre on fait des bulles avec nos Malabar Tant qu'il y a d'la graye à la raque-ab, Allahu akbar J'aime trop les armes et les filles à la pillave XXX J'la tromperai pas si elle fait XXX Il m'faut des XXX et encore des XXX Si tu m'touches ton cercueil sera un boite de corned beef x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le Tu mets un N, après un A, après un S, après un M, après un E J'suis un vrai chien d'la rue sans laisse J'sors jamais sans liasse J'fais rien que d'la chiennasse et j'profite a mort d'ma jeunesse La malchance et la poisse c'est pour les autres j'les laisse J'veux pas d'reste d'assiette alors j'fais jamais la sieste J'ai pas besoin qu'on m'assiste Y'a si peu d'places en plus j'en veux une assise De quoi m'en mettre sous la gencive Nouvel arrivant pour une arrivée massive Tape pas dans l'cartillage Traine pas dans notre tier-car p'tit naze T'y lâche le cash pour l'patinage J'viens apporter du lourd J'viens apporter d'la rime Alors, alors, viens pas m'porter l'3in Sale gosse t'es pas gentille et bonne, dégage On met du Cartier parce que les lentilles ca donne des gazes Trop virulent pour la Star Academy Masta, avec un chéquier j't'arnaque un tas d'ennemis x2 Aïe aïe aïe C'est Seth Gueko et Nasme Les chiens d'la casse du fond d'la classe vieux Si un che-ri fait tomber son cash ramasse-le Si y'a un sale bleu devant ta porte chasse-le</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2703,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>J'suis bien plus haut que tu ne l'imagines très haut Répondre aux haters, mon gars flemme méga flemme Je préfère cracher mon feu sur l'instru comme Dhalsim Yoga fire, yoga flame C'est tout pour la fame mais n'ont pas le bon sorcier Toutes les femmes sont des fontaines il leur faut juste le bon sourcier Pour me ressourcer je retourne dans mon block J'ai fais des thunes mais tu portes lil t'es un vrai cyclope Si tu m'aims pas je t'aime pas, c'est réciproqu Qu'est ce que ça peut te foutre si j'apprécie Kopp Ici on exporte de la coke c'est Gomorra sans les décors de Napoli Et les porcs de la police me sortent par les pores de la peau J'me fou du baiser de la princesse, je me sens bien dans la peau du crapeau J'fais du bruit comme un pot Akrapovic, sous la fenêtre j'ai pas pris la grosse tête J'ai tout pris dans les pecs Quoi de neuf, tout est neuf comme le millimètre 9 milli Peine de mort pour les pédocriminels J'aime quand t'es vilaine comme Nicki Minaj comme Nicki Je fais des pompes comme au chtiliben Ya, Kratos à la dalle comme Béatrice Béatrice Les bastos font la taille de balles de tennis tou, tou, tou Le gamos vient d'Allemagne c'est un VR6 vroum Les cassos sur la dalle sont très créatifs baw Joue avec ton clitoris comme un guitariste Armé comme un survivaliste j'ai vu ta femme sur Viva Street Belle comme une sirène mais avec le QI d'une huitre Mais belek j'parle pas des sirènes de la 2008 Putain le temps passe vite Hier encore je vendais mes mix tapes vers le marché Malik Clicli Et aujourd'hui j'arpente la street en Air Max chez Marik Je me fou des ventes de la midweek, moi j'éventre la rythmique J'veux le compte en banque de Larry flint Nique le taf à la chaine à l'usine Peugeot Citroën Et pour les suceurs de bites que j'appelle les moustiques de slip J'ai de la citronnelle C'est pas moi qui promène mon pit', c'est mon pit' qui me promène Quoi de neuf You might also like Quoi de neuf, tout est neuf comme le millimètre 9 milli Peine de mort pour les pédocriminels J'aime quand t'es vilaine comme Nicki Minaj comme Nicki Je fais des pompes comme au Chtiliben Seth Guex Peine de mort pour les pédocriminels guillotine pour les pédophiles Je fais des pompes comme au chtiliben</t>
+          <t>J'suis bien plus haut que tu ne l'imagines très haut Répondre aux haters, mon gars flemme méga flemme Je préfère cracher mon feu sur l'instru comme Dhalsim Yoga fire, yoga flame C'est tout pour la fame mais n'ont pas le bon sorcier Toutes les femmes sont des fontaines il leur faut juste le bon sourcier Pour me ressourcer je retourne dans mon block J'ai fais des thunes mais tu portes lil t'es un vrai cyclope Si tu m'aims pas je t'aime pas, c'est réciproqu Qu'est ce que ça peut te foutre si j'apprécie Kopp Ici on exporte de la coke c'est Gomorra sans les décors de Napoli Et les porcs de la police me sortent par les pores de la peau J'me fou du baiser de la princesse, je me sens bien dans la peau du crapeau J'fais du bruit comme un pot Akrapovic, sous la fenêtre j'ai pas pris la grosse tête J'ai tout pris dans les pecs Quoi de neuf, tout est neuf comme le millimètre 9 milli Peine de mort pour les pédocriminels J'aime quand t'es vilaine comme Nicki Minaj comme Nicki Je fais des pompes comme au chtiliben Ya, Kratos à la dalle comme Béatrice Béatrice Les bastos font la taille de balles de tennis tou, tou, tou Le gamos vient d'Allemagne c'est un VR6 vroum Les cassos sur la dalle sont très créatifs baw Joue avec ton clitoris comme un guitariste Armé comme un survivaliste j'ai vu ta femme sur Viva Street Belle comme une sirène mais avec le QI d'une huitre Mais belek j'parle pas des sirènes de la 2008 Putain le temps passe vite Hier encore je vendais mes mix tapes vers le marché Malik Clicli Et aujourd'hui j'arpente la street en Air Max chez Marik Je me fou des ventes de la midweek, moi j'éventre la rythmique J'veux le compte en banque de Larry flint Nique le taf à la chaine à l'usine Peugeot Citroën Et pour les suceurs de bites que j'appelle les moustiques de slip J'ai de la citronnelle C'est pas moi qui promène mon pit', c'est mon pit' qui me promène Quoi de neuf Quoi de neuf, tout est neuf comme le millimètre 9 milli Peine de mort pour les pédocriminels J'aime quand t'es vilaine comme Nicki Minaj comme Nicki Je fais des pompes comme au Chtiliben Seth Guex Peine de mort pour les pédocriminels guillotine pour les pédophiles Je fais des pompes comme au chtiliben</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2720,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Il me suffit d'un phone Alcatel pour m'évader d'Alcatraz On pense au braquage 24 H Laisse-moi le temps de m'organiser Prendre une chambre dhôtel et je t'envoie à la morgue Alizée Un bazooka, un sachet de plante, un parapente Et on compte le pactole de la banque à la planque Sois pas branque ou on envoie ton cadavre aux porcs Bientôt je me reconvertis dans les films no-por Bientôt je dévalise la Samaritaine En 2 semaines j'écoule 2 valises de jamaïcaine Kidnapper Le Pen et découper ce porc À la bombe je remaquille les coupés-sport Je te laisse 2 heures pour parler mon dialecte Pour que tu dis arrête car j'ai un trop gros diamètre Blah ! 27 ans dans le diguilitieks à boire, roter Car ça fait 27 ans que le bonheur nous fait poireauter Classe laborieuse, classe dangereuse Ous et Seth, on refuse notre destinée Classe laborieuse, classe dangereuse Une grosse bagarre pour pas être sous-estimé Classe laborieuse, classe dangereuse On fout le bazar chez nous ça reste inné Classe laborieuse, classe dangereuse On prend les armes comme moyen de s'exprimer You might also like On est la classe sous terter, classe réfractaire Voyou car c'est la misère, nous ppé-fra à terre Et on veut tous prendre le Deug d'économie Mais l'bug y'a rien de tendre pour les ex-membres des colonies On garde la foi même dans le rudimentaire Dernier rang communautaire l'école c'est rude depuis l'élémentaire Y a pas ma tête, HEC ou Hypocagne Et j'sais que c'est la fête quand ils mettent un de mes types au calme Le rap ou le crime un choix cornélien On a choisi de taffer la rime aucune façon qu'on accorde des liens Bandit et anti-Guantanamo Parce qu'en un mot, on a pas grandi sous les chants d'Adamo Y a rien de bon dans le pacemaker Ça part en couilles, ça parle en douilles et les embrouilles de tèce mécurent Des mères pleurent à la Pitié-Salpêtrière Et on espère trouver la piété dans les salles de prière Classe laborieuse, classe dangereuse Ous et Seth, on refuse notre destinée Classe laborieuse, classe dangereuse Une grosse bagarre pour pas être sous-estimé Classe laborieuse, classe dangereuse On fout le bazar chez nous ça reste inné Classe laborieuse, classe dangereuse On prend les armes comme moyen de s'exprimer</t>
+          <t>Il me suffit d'un phone Alcatel pour m'évader d'Alcatraz On pense au braquage 24 H Laisse-moi le temps de m'organiser Prendre une chambre dhôtel et je t'envoie à la morgue Alizée Un bazooka, un sachet de plante, un parapente Et on compte le pactole de la banque à la planque Sois pas branque ou on envoie ton cadavre aux porcs Bientôt je me reconvertis dans les films no-por Bientôt je dévalise la Samaritaine En 2 semaines j'écoule 2 valises de jamaïcaine Kidnapper Le Pen et découper ce porc À la bombe je remaquille les coupés-sport Je te laisse 2 heures pour parler mon dialecte Pour que tu dis arrête car j'ai un trop gros diamètre Blah ! 27 ans dans le diguilitieks à boire, roter Car ça fait 27 ans que le bonheur nous fait poireauter Classe laborieuse, classe dangereuse Ous et Seth, on refuse notre destinée Classe laborieuse, classe dangereuse Une grosse bagarre pour pas être sous-estimé Classe laborieuse, classe dangereuse On fout le bazar chez nous ça reste inné Classe laborieuse, classe dangereuse On prend les armes comme moyen de s'exprimer On est la classe sous terter, classe réfractaire Voyou car c'est la misère, nous ppé-fra à terre Et on veut tous prendre le Deug d'économie Mais l'bug y'a rien de tendre pour les ex-membres des colonies On garde la foi même dans le rudimentaire Dernier rang communautaire l'école c'est rude depuis l'élémentaire Y a pas ma tête, HEC ou Hypocagne Et j'sais que c'est la fête quand ils mettent un de mes types au calme Le rap ou le crime un choix cornélien On a choisi de taffer la rime aucune façon qu'on accorde des liens Bandit et anti-Guantanamo Parce qu'en un mot, on a pas grandi sous les chants d'Adamo Y a rien de bon dans le pacemaker Ça part en couilles, ça parle en douilles et les embrouilles de tèce mécurent Des mères pleurent à la Pitié-Salpêtrière Et on espère trouver la piété dans les salles de prière Classe laborieuse, classe dangereuse Ous et Seth, on refuse notre destinée Classe laborieuse, classe dangereuse Une grosse bagarre pour pas être sous-estimé Classe laborieuse, classe dangereuse On fout le bazar chez nous ça reste inné Classe laborieuse, classe dangereuse On prend les armes comme moyen de s'exprimer</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2737,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>En boite, j'm'amuse plus, je ne pense qu'à niquer l'État Nique l'État J'sors d'la muscu, j'arrive plus à plier les bras Elle suce tellement fort que mon cul a aspiré les draps Chaîne en diamant, admirez l'éclat Ils connaissant rien Tous mes tatouages animent les débats J'ai fais tomber mon portefeuille pour attirer les proies Bleh On m'a appris à prier Dieu, pas à prier les croix La police n'arrive même plus à appliquer les lois -pliquer les lois Gosse de partouze, tu n'es bonne qu'à m'vider les noix Grosses bagouzes pour habiller mes doigts Dix-huit carats Tu veux des photos mais tu donne pas d'ce-for Pas d'ce-for J'ai tous les chicos en or, j'dors la tête dans le coffre-fort Coffre-fort J'ai bu d'l'alcool fort D'l'alcool fort, ouais, j'ai bu trop d'eau J'm'en fous d'ta beauté intérieure, mon gland, c'est pas une GoPro Donc Donc, joue pas l'narvalo, les keufs vont rappliquer chez toi J'ai l'seum la veine sur le front comme l'ami Vegeta J'ai l'seum, j'ai l'seum Sur plus d'quinze années, ma carrière s'étale Respecte Bon app', la vie est une tartine de matière fécale Blaow Pow, powYou might also like</t>
+          <t>En boite, j'm'amuse plus, je ne pense qu'à niquer l'État Nique l'État J'sors d'la muscu, j'arrive plus à plier les bras Elle suce tellement fort que mon cul a aspiré les draps Chaîne en diamant, admirez l'éclat Ils connaissant rien Tous mes tatouages animent les débats J'ai fais tomber mon portefeuille pour attirer les proies Bleh On m'a appris à prier Dieu, pas à prier les croix La police n'arrive même plus à appliquer les lois -pliquer les lois Gosse de partouze, tu n'es bonne qu'à m'vider les noix Grosses bagouzes pour habiller mes doigts Dix-huit carats Tu veux des photos mais tu donne pas d'ce-for Pas d'ce-for J'ai tous les chicos en or, j'dors la tête dans le coffre-fort Coffre-fort J'ai bu d'l'alcool fort D'l'alcool fort, ouais, j'ai bu trop d'eau J'm'en fous d'ta beauté intérieure, mon gland, c'est pas une GoPro Donc Donc, joue pas l'narvalo, les keufs vont rappliquer chez toi J'ai l'seum la veine sur le front comme l'ami Vegeta J'ai l'seum, j'ai l'seum Sur plus d'quinze années, ma carrière s'étale Respecte Bon app', la vie est une tartine de matière fécale Blaow Pow, pow</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2754,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>En boite, j'mamuse plus, je ne pense qu'à niquer l'Etat Jsors d'la muscu j'arrive plus à plier les bras Elle suce tellement fort que mon cul a aspiré les draps Chaîne en diamant, admirez l'éclat Tous mes tatouages animent les débats J'ai fais tomber mon portefeuille pour attirer les proies On m'a appris à prier Dieu pas à prier les croix La police n'arrive même plus à appliquer les lois Gosse de partouze, tu n'es bonne qua mvider les noix Grosses bagouzes pour habiller mes doigts Tu veux des photos mais tu donne pas d'ce-for Jai tous les chicos en or, j'dors la tête dans le coffre fort J'ai bu d'lalcool fort, ouais, j'ai bu trop d'eau J'm'en fous d'ta beauté intérieur, mon gland, c'est pas une GoPro Donc joue pas l'narvalo, les keufs vont rappliquer chez toi J'ai l'seum la veine sur le front comme l'ami Vegeta Sur plus d'quinze années ma carrière s'étale Bon app', la vie est une tartine de matière fécale Habitué aux produits nocifs Aux chiennes de garde dans mes notifs Du côté de fautifs L'argent ne fait pas le bonheur c'est mignon Pour l'bonheur des millions combien en faut-il ? Elle a sucé toute la cité, toi t'es fou d'elle Si je veux j't'interdis du 7-8 comme Faudel Ici la BR c'est ??? et Axel Pour accéder au succès y'a plusieurs accès J'arpente les chemins d'la perdition L'évasion est permis en permission Pour 24 on passera chez Ardisson Le flow t'as les mauvais garçons Liquide marron sans glaçon gang Tout est pire que carré les sapes sont repassée Ça vi-ser de tout-par dès lors où nous passons Nos daronnes c'est des perles rares Si j'te confie, hé j'en perds le ??? En équipe de pirates au fond d'la boite Bourrés en GAV on parle pas Les braqueurs de biches cassent les vitres Au moment où tu pines ta bitche J'viens d'là où faut faire ça vite Rien n'est garanti, obligé d'être riche avant les 40 piges 2, 3 arrachés d'la santé Dans mes anecdotes y'a prescription c'est les années folles ??? pour vol Tu nous verras jamais ber-tom pour viol J'ai dû faire deux fois plus y'a très peu d'équité Au tribunal de Versailles très peu d'aquités J'en ai rien à péter d'savoir qui t'as kické Même chez toi on sait pas qui t'es You might also like</t>
+          <t>En boite, j'mamuse plus, je ne pense qu'à niquer l'Etat Jsors d'la muscu j'arrive plus à plier les bras Elle suce tellement fort que mon cul a aspiré les draps Chaîne en diamant, admirez l'éclat Tous mes tatouages animent les débats J'ai fais tomber mon portefeuille pour attirer les proies On m'a appris à prier Dieu pas à prier les croix La police n'arrive même plus à appliquer les lois Gosse de partouze, tu n'es bonne qua mvider les noix Grosses bagouzes pour habiller mes doigts Tu veux des photos mais tu donne pas d'ce-for Jai tous les chicos en or, j'dors la tête dans le coffre fort J'ai bu d'lalcool fort, ouais, j'ai bu trop d'eau J'm'en fous d'ta beauté intérieur, mon gland, c'est pas une GoPro Donc joue pas l'narvalo, les keufs vont rappliquer chez toi J'ai l'seum la veine sur le front comme l'ami Vegeta Sur plus d'quinze années ma carrière s'étale Bon app', la vie est une tartine de matière fécale Habitué aux produits nocifs Aux chiennes de garde dans mes notifs Du côté de fautifs L'argent ne fait pas le bonheur c'est mignon Pour l'bonheur des millions combien en faut-il ? Elle a sucé toute la cité, toi t'es fou d'elle Si je veux j't'interdis du 7-8 comme Faudel Ici la BR c'est ??? et Axel Pour accéder au succès y'a plusieurs accès J'arpente les chemins d'la perdition L'évasion est permis en permission Pour 24 on passera chez Ardisson Le flow t'as les mauvais garçons Liquide marron sans glaçon gang Tout est pire que carré les sapes sont repassée Ça vi-ser de tout-par dès lors où nous passons Nos daronnes c'est des perles rares Si j'te confie, hé j'en perds le ??? En équipe de pirates au fond d'la boite Bourrés en GAV on parle pas Les braqueurs de biches cassent les vitres Au moment où tu pines ta bitche J'viens d'là où faut faire ça vite Rien n'est garanti, obligé d'être riche avant les 40 piges 2, 3 arrachés d'la santé Dans mes anecdotes y'a prescription c'est les années folles ??? pour vol Tu nous verras jamais ber-tom pour viol J'ai dû faire deux fois plus y'a très peu d'équité Au tribunal de Versailles très peu d'aquités J'en ai rien à péter d'savoir qui t'as kické Même chez toi on sait pas qui t'es</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2771,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Seth Gueko, Néochrome Ready check check Diamond MC, Ades Prod, Force2Frappe Je rentre en stud comme on rentre dans une arène On est venu noyer dans la Seine Mitch Buchannon Bitch rappe pas mes textes si tu pues de l'haleine On pille le roi on encule la reine Place à Iré Césario Et je vide mes tripes comme une femme sous césarienne Imagine le scénario Des malinois et des renardinho Mama Na Lingi Yo Mais au tieks c'est la guigne, Yo! On escroque, on pe-ta, on bi-bi Pendant que le petit fait dodo Je marche sur les traces de MOB-B Ca sent le popo Sortez l'artillerie on est pas venu vous faire bobo Mais des guillotinages Pas de copinages si t'es pas du village Ma femme porte des diamans La tienne des coquillages Je veux plus jamais voir un de mes potes derriere leurs grillages Yeah Demande a Nouredine Tes MC on besoin d'un re-looking Pour tout vous dire ca va faire boom boom bim C'est pour les couz et les cousines du diguili-tieks Joue le king et ta caisse fera des loopings Belek a la perquise à l'heure du footing Tes MC ne tiennent pas sur leurs quilles Je suis venu jouer au bowling Sale guine mets la en sourdine T'as le trou de balle qui dégouline You might also like Blah Sur cette terre tout se paye Et je vais te donner un conseil ma couillasse Si tu veux pas que ca vire au drame Fais pas le vendeur de kilogrammes Si t'as un passé de mythomane Fais pas le misérable Si t'as mené une vie normale Tu vas te faire cramer comme un pompier pyromane Essaies pas d'effacer ton passé de poucave Ca t'a valu quelques coups de crane Et trois jours dans un bout de cave Fais pas la pucelle T'as des gosses de pères différents C'est ce qui arrive à celles Qui kiffent les grands, qui kiffent le biff, qui bouffent les glands Ouais dis donc qui t'es ? Ca se serait si on pouvait changer d'identité Joue pas le boxer T'as dix dents pétées T'as fait un emprunt au banquier Pour t'acheter un dentier Yeah Demande à Zone et Kheymer Si t'as un passé de de canard Ca sert à rien de jouer les kaisers Imposteur, t'écris tes textes au eyeliner Si t'as du leust murder Fais comme moi impose leur Seth Gueko La Sntach Mixtape Drive By En Caravane Sortez les gilets bullet proof J'ai pas froid aux yeux comme si j'avais des lunettes moufles</t>
+          <t>Seth Gueko, Néochrome Ready check check Diamond MC, Ades Prod, Force2Frappe Je rentre en stud comme on rentre dans une arène On est venu noyer dans la Seine Mitch Buchannon Bitch rappe pas mes textes si tu pues de l'haleine On pille le roi on encule la reine Place à Iré Césario Et je vide mes tripes comme une femme sous césarienne Imagine le scénario Des malinois et des renardinho Mama Na Lingi Yo Mais au tieks c'est la guigne, Yo! On escroque, on pe-ta, on bi-bi Pendant que le petit fait dodo Je marche sur les traces de MOB-B Ca sent le popo Sortez l'artillerie on est pas venu vous faire bobo Mais des guillotinages Pas de copinages si t'es pas du village Ma femme porte des diamans La tienne des coquillages Je veux plus jamais voir un de mes potes derriere leurs grillages Yeah Demande a Nouredine Tes MC on besoin d'un re-looking Pour tout vous dire ca va faire boom boom bim C'est pour les couz et les cousines du diguili-tieks Joue le king et ta caisse fera des loopings Belek a la perquise à l'heure du footing Tes MC ne tiennent pas sur leurs quilles Je suis venu jouer au bowling Sale guine mets la en sourdine T'as le trou de balle qui dégouline Blah Sur cette terre tout se paye Et je vais te donner un conseil ma couillasse Si tu veux pas que ca vire au drame Fais pas le vendeur de kilogrammes Si t'as un passé de mythomane Fais pas le misérable Si t'as mené une vie normale Tu vas te faire cramer comme un pompier pyromane Essaies pas d'effacer ton passé de poucave Ca t'a valu quelques coups de crane Et trois jours dans un bout de cave Fais pas la pucelle T'as des gosses de pères différents C'est ce qui arrive à celles Qui kiffent les grands, qui kiffent le biff, qui bouffent les glands Ouais dis donc qui t'es ? Ca se serait si on pouvait changer d'identité Joue pas le boxer T'as dix dents pétées T'as fait un emprunt au banquier Pour t'acheter un dentier Yeah Demande à Zone et Kheymer Si t'as un passé de de canard Ca sert à rien de jouer les kaisers Imposteur, t'écris tes textes au eyeliner Si t'as du leust murder Fais comme moi impose leur Seth Gueko La Sntach Mixtape Drive By En Caravane Sortez les gilets bullet proof J'ai pas froid aux yeux comme si j'avais des lunettes moufles</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2788,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yeah, des p'tits d'ici prient l'Dieu Caillasse Et dans leur Évangile on y trouve Satan en Air Max et Eve en jean Dans l'Jardin d'Eden y'a des 'téteilles dans les sapins Et des gardiens d'la Paix qu'les gamins dédaignent On veut pas d'refrain chanté par Amel Bent Mon seille-o n'est pas halal mec On emprunte les réseaux parallèles, bleh Dans ton string y'a des traces de caramel, berk Ouvre grand tes reilles-o, c'est l'son des khézos Des mecs qu'inspirent le respect comme Jean Reno Des transac' dans des grands restos parisiens Le tos-ma part et vient, Crave-bi intello Braquage philosophe Le shtar c'est tout c'qu'ils nous offrent Passe prendre une balle comme Dino Zoff Mais évitez les shtars, on veut des frics et des barres Tu connais l'histoire, bleh niquer les skins et les stars X2 J'suis comme toi chaque été j'reste posé au tieks J'marche seul car j'ai pas peur d'm'exposer aux test On est venu exploser vos fesses C'est du rap de mec de tess Pas d'textes posé ou qu'est-ce! You might also like J'continue salement, salam aleykoum-koum Si Adès te sors sa lame, allez cours, cours Ça va faire mal, ça va faire boum boum Tu viens d'gagner un ticket gratis pour l'musée du coup d'boule J'te mets la pression comme une date de concert Ou comme quand ton médecin te parle de cancer J'suis venu faire la guerre Sortez les boîtes de conserves T'écoutes que d'la merde, fais un lavage de veau-cer Bleh, Bleh soutenez l'carnage de votre frère Qu'a un pass v.i.p. pour les portes de l'Enfer Bleh, Bleh les patates sont offertes Avec un sac Leclerc j'fais 20 pochons d'coca de Buenos Aires On lâche rien à l'audition, gros batard T'as un képi sur la tête, moi une commission rogatoire Ma femme le sait, il se peut que je rentre pas c'soir Une rafale et on m'enterre dans l'cimetière à passoire X2 Chaque semaine y'a un arrivage d'armes mystiques Le rap personne ne s'aime Tout l'monde se tcheck, c'est du tapinage artistique J'suis comme un kamikaze à Tikrit J'casserais bien l'cartilage d'un p'tit flic Si tu nous regardes image par image dans nos clips on a des sales visages atypiques Ouais, Demande à Chirac Depuis qu'on s'est baigné, ils veulent laver Paris plage au white spirit! X2 Seth Gueko! Drive-by en caravane!</t>
+          <t>Yeah, des p'tits d'ici prient l'Dieu Caillasse Et dans leur Évangile on y trouve Satan en Air Max et Eve en jean Dans l'Jardin d'Eden y'a des 'téteilles dans les sapins Et des gardiens d'la Paix qu'les gamins dédaignent On veut pas d'refrain chanté par Amel Bent Mon seille-o n'est pas halal mec On emprunte les réseaux parallèles, bleh Dans ton string y'a des traces de caramel, berk Ouvre grand tes reilles-o, c'est l'son des khézos Des mecs qu'inspirent le respect comme Jean Reno Des transac' dans des grands restos parisiens Le tos-ma part et vient, Crave-bi intello Braquage philosophe Le shtar c'est tout c'qu'ils nous offrent Passe prendre une balle comme Dino Zoff Mais évitez les shtars, on veut des frics et des barres Tu connais l'histoire, bleh niquer les skins et les stars X2 J'suis comme toi chaque été j'reste posé au tieks J'marche seul car j'ai pas peur d'm'exposer aux test On est venu exploser vos fesses C'est du rap de mec de tess Pas d'textes posé ou qu'est-ce! J'continue salement, salam aleykoum-koum Si Adès te sors sa lame, allez cours, cours Ça va faire mal, ça va faire boum boum Tu viens d'gagner un ticket gratis pour l'musée du coup d'boule J'te mets la pression comme une date de concert Ou comme quand ton médecin te parle de cancer J'suis venu faire la guerre Sortez les boîtes de conserves T'écoutes que d'la merde, fais un lavage de veau-cer Bleh, Bleh soutenez l'carnage de votre frère Qu'a un pass v.i.p. pour les portes de l'Enfer Bleh, Bleh les patates sont offertes Avec un sac Leclerc j'fais 20 pochons d'coca de Buenos Aires On lâche rien à l'audition, gros batard T'as un képi sur la tête, moi une commission rogatoire Ma femme le sait, il se peut que je rentre pas c'soir Une rafale et on m'enterre dans l'cimetière à passoire X2 Chaque semaine y'a un arrivage d'armes mystiques Le rap personne ne s'aime Tout l'monde se tcheck, c'est du tapinage artistique J'suis comme un kamikaze à Tikrit J'casserais bien l'cartilage d'un p'tit flic Si tu nous regardes image par image dans nos clips on a des sales visages atypiques Ouais, Demande à Chirac Depuis qu'on s'est baigné, ils veulent laver Paris plage au white spirit! X2 Seth Gueko! Drive-by en caravane!</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2805,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>La fusée, la fusée Big 6.9.1 mon pote Ayy, ayy, ayy, Tefoma made this one Yes, yes, yes Euros, bitcoin, ETH Cali', Dragon et même du hasch' Ma bitch en string recompte mon cash Et ma drogue passe au péage J'vais rester bref et efficace, monnaie, drogue et quelques 'tasses Si j'vois un ennemi dans la place, ça va l'pop-pop comme un taze Le pétou est chargé, pas la peine de ler-par Les hyènes, dans la street, se font courser par l'guépard Quatre litres au pot, rien que j'té-ma son pétard La kalash' est chargée, la kalash' est gée-char Son cul est trop bon faut qu'j'la sexe Client donne paye, vas-y shoote la cess J'la fais mouiller avec l'index-dex-dex, zdededex Qui veut faire le chaud ? Qui veut rock'n'roll ? Que des packs livrés par Coreoz, envoie pas d'Mars ni d'Oreoz Les p'tits dans la street ont tous envie de tirer On envoie la Cali', on envoie le filtré Birkin, Kelly pour ma go, c'est plié À c'qu'il paraît, j'suis une machine à billets Bullet, bullet Ce sont les animaux, les dommages collatéraux Tching, tchang Les sacoches remplies d'euros, la fusée, Seth Gueko Si on monte sur la bécane, on fera pas de wheeling So mes timals, so mes guirris J'crache qu'à l'intérieur de ma chérie Nos dollars en comme Walo et Kili Ah You might also like Zdededex La fusée, la fusée La F, Seth Guex La fumée, la fumée Yes, yes, yes La chevalière mon pelo Grr, bullet, bullet, bullet Comme un schlass Comme un schlass, j'rentre dans l'vif du sujet Comme un schlass Comme un schlass, j'ai du pain sur la planche Comme un schlass Comme un schlass, et je glow dans le dark Comme un schlass Comme un schlass comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un barlou Mange mes burgers ou mange tes morts On tue dans l'uf les rumeurs qu'ces pécores veulent faire éclore J'arrive en Skeletor, full polo sport Personne nous colle au score, j'baise Musclor, est-ce que j'ai tort ? Le schlass rentre et sort comme un ressort Comme un schlass Tu finis en quatre planches comme à Hossegor Scam Scam à l'Apple Store, squatte la salle de sport La ue-r vend de la mort en armure Under Armour Hardcore jusqu'à la mort, dans l'ambulance, je t'achève Tu mens, c'est toi la balance, t'as l'apparence de la chèvre On est des arbres centenaires, appelle-moi l'sang de la sève J'ai fait d'l'argent dans la cess bien avant de rapper Enfant, j'ai vachement dérapé, d'ailleurs j'ai l'accent de la pègre Fuck les agents de la paix si l'compte-argent veut m'appeler Elle s'est fait méchamment démonter à Dubaï Ressort de l'hôtel en recrachant la béchamel Tu suces du chameau pour du Chanel Comme un schlass Comme un schlass, j'rentre dans l'vif du sujet Comme un schlass Comme un schlass, j'ai du pain sur la planche Comme un schlass Comme un schlass, et je glow dans le dark Comme un schlass Comme un schlass comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un, qui veut rock'n'roll ? Comme un schlass, comme un schlass, comme un schlass Bullet, bullet, bullet Zdededex La fusée, la fusée Qui veut rock'n'roll ? La F, Seth Guex La fumée, la fumée</t>
+          <t>La fusée, la fusée Big 6.9.1 mon pote Ayy, ayy, ayy, Tefoma made this one Yes, yes, yes Euros, bitcoin, ETH Cali', Dragon et même du hasch' Ma bitch en string recompte mon cash Et ma drogue passe au péage J'vais rester bref et efficace, monnaie, drogue et quelques 'tasses Si j'vois un ennemi dans la place, ça va l'pop-pop comme un taze Le pétou est chargé, pas la peine de ler-par Les hyènes, dans la street, se font courser par l'guépard Quatre litres au pot, rien que j'té-ma son pétard La kalash' est chargée, la kalash' est gée-char Son cul est trop bon faut qu'j'la sexe Client donne paye, vas-y shoote la cess J'la fais mouiller avec l'index-dex-dex, zdededex Qui veut faire le chaud ? Qui veut rock'n'roll ? Que des packs livrés par Coreoz, envoie pas d'Mars ni d'Oreoz Les p'tits dans la street ont tous envie de tirer On envoie la Cali', on envoie le filtré Birkin, Kelly pour ma go, c'est plié À c'qu'il paraît, j'suis une machine à billets Bullet, bullet Ce sont les animaux, les dommages collatéraux Tching, tchang Les sacoches remplies d'euros, la fusée, Seth Gueko Si on monte sur la bécane, on fera pas de wheeling So mes timals, so mes guirris J'crache qu'à l'intérieur de ma chérie Nos dollars en comme Walo et Kili Ah Zdededex La fusée, la fusée La F, Seth Guex La fumée, la fumée Yes, yes, yes La chevalière mon pelo Grr, bullet, bullet, bullet Comme un schlass Comme un schlass, j'rentre dans l'vif du sujet Comme un schlass Comme un schlass, j'ai du pain sur la planche Comme un schlass Comme un schlass, et je glow dans le dark Comme un schlass Comme un schlass comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un barlou Mange mes burgers ou mange tes morts On tue dans l'uf les rumeurs qu'ces pécores veulent faire éclore J'arrive en Skeletor, full polo sport Personne nous colle au score, j'baise Musclor, est-ce que j'ai tort ? Le schlass rentre et sort comme un ressort Comme un schlass Tu finis en quatre planches comme à Hossegor Scam Scam à l'Apple Store, squatte la salle de sport La ue-r vend de la mort en armure Under Armour Hardcore jusqu'à la mort, dans l'ambulance, je t'achève Tu mens, c'est toi la balance, t'as l'apparence de la chèvre On est des arbres centenaires, appelle-moi l'sang de la sève J'ai fait d'l'argent dans la cess bien avant de rapper Enfant, j'ai vachement dérapé, d'ailleurs j'ai l'accent de la pègre Fuck les agents de la paix si l'compte-argent veut m'appeler Elle s'est fait méchamment démonter à Dubaï Ressort de l'hôtel en recrachant la béchamel Tu suces du chameau pour du Chanel Comme un schlass Comme un schlass, j'rentre dans l'vif du sujet Comme un schlass Comme un schlass, j'ai du pain sur la planche Comme un schlass Comme un schlass, et je glow dans le dark Comme un schlass Comme un schlass comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un schlass, comme un schlass Comme un schlass, comme un, qui veut rock'n'roll ? Comme un schlass, comme un schlass, comme un schlass Bullet, bullet, bullet Zdededex La fusée, la fusée Qui veut rock'n'roll ? La F, Seth Guex La fumée, la fumée</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2822,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ma coke est bonne, ma coke est bonne et dans la cuisine Ma coke est bonne, ma coke est bonne et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette-moi ces grosses cuisses Nuit blanche vraiment noire Même le corps demande cest quand qu'on dort On remet les gants de temps en temps Faut pas que la bicrave rende fainéant Sur le terrain, souliers d'or Pacté sans la pesette Feux de positions, jsuis devant sa ruelle Lingots d'or, coffiot J'suis un forceur dans l'effort Blacks, blancs, beurs mélangés Association d'malfaiteurs Triple S la sueur, la soif et les sous Triple F fuck ?, faut qu'ils s'flinguent Pleins de bleus, pleins de verts, plus d'gris, beaucoup dor Pas dplaquettes, moins d'plaques, plus dplaquettes, beaucoup de blanche Armoire nique arme blanche Armoire tombe à coup de glock Le savoir est un bon pote, fallait l'savoir depuis la coupole Essaie de briller boy, essaie de briller Essaie d'investir même dans l'immobilier Je sais que tu kiffes aussi plier les billets, fumer, tiser, baiser, dealer de villes en villes Tas mon identité sur la joue J'ai pas besoin de te dire d'où je viens, ke-cra dans les abajours Triple binks homie You might also like J'éclate le score et l'alcool fort Tétanise mes lèvres J'bande comme un dur J'attends qu'un truc Que l'Etat légalise les herbes J'te fais du tort, pendant qu'tu dors J'réalise mes rêves Je verbalise les traîtres et pénalise les faibles J'répète, je baise les traîtres donc baisse la tête dès qu'arrive les aigles J'mélange voyelles et consonnes J'équalise les verbes J'ai morale à Z Mais j'souris pour cacher l'stress wesh Liasses épaisses où ça Dans l'attaché-case Le dealer repasse, le boloss s'trépasse à l'heure de chasse et pêche On veut du cash express Et des tasse-pé fraiches Allez cache tes fesses cache tes ein-s Au lieu d'ouvrir tes beujs Elle préfère être une escorteuse plutôt Qu'une mère porteuse Ma coke est bonne, ma coke est bonne et dans la cuisine Ma coke est bonne, ma coke est bonne et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses Whippin et whippin et whippin Fouette en direct de la cuisine Le couloir empeste la résine Sens le cannabis de la ville Celui qu'on revend dans la city Qualité avant quantité Moins d'bénef, chose sure, plus de ients-cli Ils savent pas faire du bif on le sait On les connait bien, chaque C.V. à la chaine Un ptit llet-bi et ça dépose pour une chienne Les me-ars sont pas factices dans nos scènes Si t'es un double tend la main qu'on essaye T'es prévenu ? le saura jamais Demande à Seth Guek's, fidèle au gang C'est reparti pour un tour C'est reparti pour un tour B.M. dans la soute Bombarde comme un ouf Tes conseils j'm'en fous Ok j'ride, j'fais des miles J'prends la route, pour la maille Putain de maille au cou Putain de chien de la casse A la recherche du mauvais coup Lâche tes affaires si elles sont pas en place Essaye de briller trimer, toujours bien plier les billets Fuck le 17 Mort aux porcs et leur lignée fuck le 17 Rafale alignée Ma coke est bonne, ma coke est bonne, et dans la cuisine Ma coke est bonne, ma coke est bonne, et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses Ma coke est bonne, ma coke est bonne, et dans la cuisine Ma coke est bonne, ma coke est bonne, et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses 13 Blo</t>
+          <t>Ma coke est bonne, ma coke est bonne et dans la cuisine Ma coke est bonne, ma coke est bonne et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette-moi ces grosses cuisses Nuit blanche vraiment noire Même le corps demande cest quand qu'on dort On remet les gants de temps en temps Faut pas que la bicrave rende fainéant Sur le terrain, souliers d'or Pacté sans la pesette Feux de positions, jsuis devant sa ruelle Lingots d'or, coffiot J'suis un forceur dans l'effort Blacks, blancs, beurs mélangés Association d'malfaiteurs Triple S la sueur, la soif et les sous Triple F fuck ?, faut qu'ils s'flinguent Pleins de bleus, pleins de verts, plus d'gris, beaucoup dor Pas dplaquettes, moins d'plaques, plus dplaquettes, beaucoup de blanche Armoire nique arme blanche Armoire tombe à coup de glock Le savoir est un bon pote, fallait l'savoir depuis la coupole Essaie de briller boy, essaie de briller Essaie d'investir même dans l'immobilier Je sais que tu kiffes aussi plier les billets, fumer, tiser, baiser, dealer de villes en villes Tas mon identité sur la joue J'ai pas besoin de te dire d'où je viens, ke-cra dans les abajours Triple binks homie J'éclate le score et l'alcool fort Tétanise mes lèvres J'bande comme un dur J'attends qu'un truc Que l'Etat légalise les herbes J'te fais du tort, pendant qu'tu dors J'réalise mes rêves Je verbalise les traîtres et pénalise les faibles J'répète, je baise les traîtres donc baisse la tête dès qu'arrive les aigles J'mélange voyelles et consonnes J'équalise les verbes J'ai morale à Z Mais j'souris pour cacher l'stress wesh Liasses épaisses où ça Dans l'attaché-case Le dealer repasse, le boloss s'trépasse à l'heure de chasse et pêche On veut du cash express Et des tasse-pé fraiches Allez cache tes fesses cache tes ein-s Au lieu d'ouvrir tes beujs Elle préfère être une escorteuse plutôt Qu'une mère porteuse Ma coke est bonne, ma coke est bonne et dans la cuisine Ma coke est bonne, ma coke est bonne et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses Whippin et whippin et whippin Fouette en direct de la cuisine Le couloir empeste la résine Sens le cannabis de la ville Celui qu'on revend dans la city Qualité avant quantité Moins d'bénef, chose sure, plus de ients-cli Ils savent pas faire du bif on le sait On les connait bien, chaque C.V. à la chaine Un ptit llet-bi et ça dépose pour une chienne Les me-ars sont pas factices dans nos scènes Si t'es un double tend la main qu'on essaye T'es prévenu ? le saura jamais Demande à Seth Guek's, fidèle au gang C'est reparti pour un tour C'est reparti pour un tour B.M. dans la soute Bombarde comme un ouf Tes conseils j'm'en fous Ok j'ride, j'fais des miles J'prends la route, pour la maille Putain de maille au cou Putain de chien de la casse A la recherche du mauvais coup Lâche tes affaires si elles sont pas en place Essaye de briller trimer, toujours bien plier les billets Fuck le 17 Mort aux porcs et leur lignée fuck le 17 Rafale alignée Ma coke est bonne, ma coke est bonne, et dans la cuisine Ma coke est bonne, ma coke est bonne, et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses Ma coke est bonne, ma coke est bonne, et dans la cuisine Ma coke est bonne, ma coke est bonne, et dans la cuisine Et ça mélange, et ça mélange, ça fait des cookies Et ça mélange, ça fait l'ménage, guette moi ces grosses cuisses 13 Blo</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2839,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Prend des potes-ca Chez l'apothicaire Vaut mieux un verre à deux, qu'un ver solitaire Rase ton ticket d'métro, on dirait que j'galoche Hitler Tu cries comme Anna Polina J'rimes comme Apollinaire J'suis malpoli gars J'fais du pe-ra grossier J'suis un mâle polygame J'ai un crâne d'hooligan Des sociétés secrètes veulent m'approcher Mais nique le Sheïtan et tout son organigramme J'ai du mal à aimer, j'ai l'coeur atrophié J'suis une bombe humaine que seul une femme peut désamorcer J'peux pas aller en enfer, sur Terre j'ai déjà morflé Les p'tits préfèrent dormir dans les draps d'Dorcel que dans les bras d'Morphée Torché, armé, comme au Texas Tête de MC comme trophée de chasse, le game à trop fait d'chiasse Punchlines bombardées, béret bombardier Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder Invoque-moi sur une planche ouija Fumée blanche et j'arrive comme un ninja Moi et mes potes on squatte pas les chichas On veut s'faire branler par une meuf à six bras comme Shiva On a de l'absinthe et du shit gras Fais pas la sainte, t'aimes les chibras J'rappe pour les rim-Ka, les Chid-Ra L'heure de ma mort, seul Dieu la décidera T'es le A de apprenti, j'suis le A de anarchie J'casse tout sur mon passage, comme le Diable de Tasmanie T'es le M de maladie, j'suis le M de Babidi Scène 2, crime, Acte 2, barbarie Ça c'est l'chapitre de ma vie, juge pas à la couverture Demain j'commence une nouvelle cure prend garde à l'uppercut Si j'sens qu'il y a une ouverture, j'lui fait sauter l'opercule Son super cul terminera au tel-hô Mercure La bite est joyeuse quand la chatte est soyeuse Confond pas l'amante parfaite et l'amante religieuse La montre est prestigieuse, le meug' sort de la presse J'ai le buzz de la tess, toi ton buzz sort de la presse Baw, la gâchette du gun on la presse, pour un peu d'espèce J'suis dans mon état d'grasse, j'te laisse avec ton tas d'graisse Faites pas les gueuz, écarte les beuj' Et regarde mes yeuz, tigresse Regarde les flammes dans nos iris Nique le 666 et la femme d'Osiris En naissant aussi pauvre, comme puis-je être aussi riche ? Quand j'vois les keufs, les poils sur ma peau s'hérissent Seth Guex, éjaculation J'baise le monde comme si j'faisais des pompes avec une érection Les présidents nous trompent avec leur élections C'est pas une fois dans la tombe qu'tu feras preuve de réflexion J'me fait pé-om par la meuf de la réception J'baise le monde comme si j'faisais des pompes avec une érection Avec une érection J'baise le monde comme si j'faisais des pompes avec une érection Alors attention, Seth Guex You might also like Elle taffe dans un bar à tapins, pas un bar à tapas C'soir elle a mit sa jupe d'écolière et sa barrette à pinces Ne sois pas en colère, t'occupe pas des commères, laisse-moi tâter tes eins et palper des liasses Elle veut un barlou en gamos, pas une tapette à pince barlou, barlou Relève la tête, faudrait pas qu'tes cheveux dans ma braguette se coincent Je suis un crapaud bitch, j'suis loin d'être un prince très loin, très loin Pot Akrapovi, elle me pince sur la bécane J'ai d'l'amour propre mais j'aime l'amour sale Elle est belle mais que la nuit comme la Tour Eiffel Pour monter sur ses talons, sa pote lui fait la courte échelle Les mecs la payent en coke, ses narines c'est Courchevel Elle a un bête de corps mais lui reste-t-il encore un bout d'cervelle ? Ta chatte, ta chatte, ta chatte a trop de kilometers Tu twerk, tu twerk mais ton boulot mécure Prends pas ma messagerie pour le bureau des pleurs Fallait pas s'frotter au bourreau des curs Seth Guex</t>
+          <t>Prend des potes-ca Chez l'apothicaire Vaut mieux un verre à deux, qu'un ver solitaire Rase ton ticket d'métro, on dirait que j'galoche Hitler Tu cries comme Anna Polina J'rimes comme Apollinaire J'suis malpoli gars J'fais du pe-ra grossier J'suis un mâle polygame J'ai un crâne d'hooligan Des sociétés secrètes veulent m'approcher Mais nique le Sheïtan et tout son organigramme J'ai du mal à aimer, j'ai l'coeur atrophié J'suis une bombe humaine que seul une femme peut désamorcer J'peux pas aller en enfer, sur Terre j'ai déjà morflé Les p'tits préfèrent dormir dans les draps d'Dorcel que dans les bras d'Morphée Torché, armé, comme au Texas Tête de MC comme trophée de chasse, le game à trop fait d'chiasse Punchlines bombardées, béret bombardier Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder Invoque-moi sur une planche ouija Fumée blanche et j'arrive comme un ninja Moi et mes potes on squatte pas les chichas On veut s'faire branler par une meuf à six bras comme Shiva On a de l'absinthe et du shit gras Fais pas la sainte, t'aimes les chibras J'rappe pour les rim-Ka, les Chid-Ra L'heure de ma mort, seul Dieu la décidera T'es le A de apprenti, j'suis le A de anarchie J'casse tout sur mon passage, comme le Diable de Tasmanie T'es le M de maladie, j'suis le M de Babidi Scène 2, crime, Acte 2, barbarie Ça c'est l'chapitre de ma vie, juge pas à la couverture Demain j'commence une nouvelle cure prend garde à l'uppercut Si j'sens qu'il y a une ouverture, j'lui fait sauter l'opercule Son super cul terminera au tel-hô Mercure La bite est joyeuse quand la chatte est soyeuse Confond pas l'amante parfaite et l'amante religieuse La montre est prestigieuse, le meug' sort de la presse J'ai le buzz de la tess, toi ton buzz sort de la presse Baw, la gâchette du gun on la presse, pour un peu d'espèce J'suis dans mon état d'grasse, j'te laisse avec ton tas d'graisse Faites pas les gueuz, écarte les beuj' Et regarde mes yeuz, tigresse Regarde les flammes dans nos iris Nique le 666 et la femme d'Osiris En naissant aussi pauvre, comme puis-je être aussi riche ? Quand j'vois les keufs, les poils sur ma peau s'hérissent Seth Guex, éjaculation J'baise le monde comme si j'faisais des pompes avec une érection Les présidents nous trompent avec leur élections C'est pas une fois dans la tombe qu'tu feras preuve de réflexion J'me fait pé-om par la meuf de la réception J'baise le monde comme si j'faisais des pompes avec une érection Avec une érection J'baise le monde comme si j'faisais des pompes avec une érection Alors attention, Seth Guex Elle taffe dans un bar à tapins, pas un bar à tapas C'soir elle a mit sa jupe d'écolière et sa barrette à pinces Ne sois pas en colère, t'occupe pas des commères, laisse-moi tâter tes eins et palper des liasses Elle veut un barlou en gamos, pas une tapette à pince barlou, barlou Relève la tête, faudrait pas qu'tes cheveux dans ma braguette se coincent Je suis un crapaud bitch, j'suis loin d'être un prince très loin, très loin Pot Akrapovi, elle me pince sur la bécane J'ai d'l'amour propre mais j'aime l'amour sale Elle est belle mais que la nuit comme la Tour Eiffel Pour monter sur ses talons, sa pote lui fait la courte échelle Les mecs la payent en coke, ses narines c'est Courchevel Elle a un bête de corps mais lui reste-t-il encore un bout d'cervelle ? Ta chatte, ta chatte, ta chatte a trop de kilometers Tu twerk, tu twerk mais ton boulot mécure Prends pas ma messagerie pour le bureau des pleurs Fallait pas s'frotter au bourreau des curs Seth Guex</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Seth Gueko, Gentlemen Crimino, Prédestiné à un futur sale Preuve vivante, ça que-mar quà la centrale et reste esclave dans les succursales Plus dur sera drester gentleman Ceux quont les points dsuture savent Masta ! pourquoi jchante le mal Cantique de scar-la, les halls squattés quand il caille On nique la flicaille anti-caille Toutes les conseillères, qui nous orientent vers des voies de garage J'ai réussi qu'en rendant hommage à ma pince-monseigneur Super défonce au local, hologramme Polo cramé, mal au crâne, ya plus dun gramme De drogue à terre, les quets-bri sfont rotte-ca Der-Ka ragote, et lbruit gêne les locataires Aller-retour entre lfé-ca et la ve-ca Armé car un mec avec un brolik en vaut 4 On a des bijoux mais pas dargent Parles-en aux darmes-gen Dis-leur que si la rue cest la jungle, je suis Tarzan Sakio, Crimino ! Wahia, Crimino ! Trésor, Crimino ! Mourad, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Bombino, Crimino ! Karl, Crimino ! Djelali, Crimino ! Marc, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden You might also like Reprends ton biographe, ma vie cest pas un film Trop peu raffiné dêtre habillé en Ralph, grâce à la paraffine Et hall 10, cest la Jamaïque Jai la jamaï vite Seth featuring la street Wesh ! La rage au mic Quartier laïc, en survêt du 1er janvier au 31 décembre En stard-co quand y a l'Aïd bsahtek ! Haï des voisins Ami de lail et des vagins Trouver du job, tiens mon zeub ouais ! Crimino, crimino ! Chouara dans lsubway pour seule bouée On sait où est la haine devine ! Elle est dans nos veines comme le ce-vi et lCOOLAL Nous, cquon fait pas pour les Marie-Curie, barbiturique Ecrasé, pour dla CC, plein dtrucs zarres-bi, tu ris Tribu damnée, jvis du mal Et ça changera quand ltribunal connaîtra le prix dune larme Johan, Crimino ! Nesly, Crimino ! Azo, Crimino ! Yazid, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Insolent, Crimino ! Insensé, Crimino ! Mirage, Crimino ! Exhaussé, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden On ssert la pince entre rapaces On sourit par derrière, coup dtass, à 50 francs la passe Jai pas dtaf, normal que mvienne à lidée La CRIMINALITÉ Pépé jprends tes quartiers à la maison, elles sront aux ptits soins Jirai mettre des carreaux, 4 saisons chez lopticien On mvoyait déjà avocat, docteur ou instit Résultat jme procure des tier-Car avec un cutter ou un sprint Un stick dans la guette-bra, un bras droit list back Jtéchange ta gourmette contre une clé-de-bras Jdois plus avoir de hassanats au compteur Jpourrai pas Lui conte-ra d'salades Dieu sait mieux qutoi cquy a dans ton cur Cest la merde, cest la meeerde ! Mes mediums mavaient dit Homme tu feras plus de biff chez Vedior Poli et honnête, promis qujme force à lêtre Jfais encore 2 ou 3 llets-bi, après obligé faut qujarrête , Crimino ! Prince, Crimino ! Abdoul, Crimino ! Charly, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Saint-Ouen-l'Aumône, Crimino ! Paris Nord, Crimino ! Stalingrad, Crimino ! , Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Casse-bélier en ML par l'hymen Néochrome 3, Yonea, Loko, Masta</t>
+          <t>Seth Gueko, Gentlemen Crimino, Prédestiné à un futur sale Preuve vivante, ça que-mar quà la centrale et reste esclave dans les succursales Plus dur sera drester gentleman Ceux quont les points dsuture savent Masta ! pourquoi jchante le mal Cantique de scar-la, les halls squattés quand il caille On nique la flicaille anti-caille Toutes les conseillères, qui nous orientent vers des voies de garage J'ai réussi qu'en rendant hommage à ma pince-monseigneur Super défonce au local, hologramme Polo cramé, mal au crâne, ya plus dun gramme De drogue à terre, les quets-bri sfont rotte-ca Der-Ka ragote, et lbruit gêne les locataires Aller-retour entre lfé-ca et la ve-ca Armé car un mec avec un brolik en vaut 4 On a des bijoux mais pas dargent Parles-en aux darmes-gen Dis-leur que si la rue cest la jungle, je suis Tarzan Sakio, Crimino ! Wahia, Crimino ! Trésor, Crimino ! Mourad, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Bombino, Crimino ! Karl, Crimino ! Djelali, Crimino ! Marc, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Reprends ton biographe, ma vie cest pas un film Trop peu raffiné dêtre habillé en Ralph, grâce à la paraffine Et hall 10, cest la Jamaïque Jai la jamaï vite Seth featuring la street Wesh ! La rage au mic Quartier laïc, en survêt du 1er janvier au 31 décembre En stard-co quand y a l'Aïd bsahtek ! Haï des voisins Ami de lail et des vagins Trouver du job, tiens mon zeub ouais ! Crimino, crimino ! Chouara dans lsubway pour seule bouée On sait où est la haine devine ! Elle est dans nos veines comme le ce-vi et lCOOLAL Nous, cquon fait pas pour les Marie-Curie, barbiturique Ecrasé, pour dla CC, plein dtrucs zarres-bi, tu ris Tribu damnée, jvis du mal Et ça changera quand ltribunal connaîtra le prix dune larme Johan, Crimino ! Nesly, Crimino ! Azo, Crimino ! Yazid, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Insolent, Crimino ! Insensé, Crimino ! Mirage, Crimino ! Exhaussé, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden On ssert la pince entre rapaces On sourit par derrière, coup dtass, à 50 francs la passe Jai pas dtaf, normal que mvienne à lidée La CRIMINALITÉ Pépé jprends tes quartiers à la maison, elles sront aux ptits soins Jirai mettre des carreaux, 4 saisons chez lopticien On mvoyait déjà avocat, docteur ou instit Résultat jme procure des tier-Car avec un cutter ou un sprint Un stick dans la guette-bra, un bras droit list back Jtéchange ta gourmette contre une clé-de-bras Jdois plus avoir de hassanats au compteur Jpourrai pas Lui conte-ra d'salades Dieu sait mieux qutoi cquy a dans ton cur Cest la merde, cest la meeerde ! Mes mediums mavaient dit Homme tu feras plus de biff chez Vedior Poli et honnête, promis qujme force à lêtre Jfais encore 2 ou 3 llets-bi, après obligé faut qujarrête , Crimino ! Prince, Crimino ! Abdoul, Crimino ! Charly, Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Saint-Ouen-l'Aumône, Crimino ! Paris Nord, Crimino ! Stalingrad, Crimino ! , Crimino ! Gentlemen, j'ai deux fois plus de haine comme Karim Et l'ADN à Ben Laden Casse-bélier en ML par l'hymen Néochrome 3, Yonea, Loko, Masta</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Moi j'ai pas besoin du temps d'la J'arrive juste pour prendre la fraîche Faut qu'j'rallume la brèche car on a vu qu't'as plus la pêche Faut qu'tu abrèges, faut qu'tu la tè-je si elle baise pas Mais si elle baise, faut qu'tu l'assèches Wesh mec, faudra t'lâcher, faut qu'tu l'achèves Faut pas lâcher, non fréro faut t'attacher Faut t'arracher pour pas avec un vrai flow d'enragé Y'a qu'l'arrache, au démarrage c'est dur, c'est comme les vieilles voitures Tu passes au garage si tu portes pas la ceinture, la vie est dure Yeah L'avenir est sur de mauvais rails, faut qu'j'y aille Tu m'oublieras en tant qu'VIP, j'irai pour tuer tous vos GI Yeah C'est obligé, affiché sur vos fichiers C'est obligé qu'j'reste au QG, j'suis trop figé Fils, un peu d'haschich, de poisson, et d'la bitch Poison qui nous aguiche, mais bon marlich Ici c'est marche ou crève garçon Y'a pas d'souci, j'connais l'histoire J'dédicace celle-ci aux milliers d'banlieusards qui vivent le soir You might also like Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah J'sors de nulle part, comme Mazarine J'arrive comme une pile alcaline dans ton crâne Gamine, sors la margarine J'marche armé car t'auras trop d'buzz si tu m'tues Pourquoi t'acharner d'monter sur l'ring avec un tutu Le diable m'a charmé, viens pas m'tester cousin Ou tu seras sur les bouteilles de lait, comme Estelle Mouzin J'fais du pied au rap français avec des crampons Pov' con, tu saignes des tympans, achète des tampons ! Colle pas ta bouche sur ma Smirnoff Ice J'tafferai pas à Leader Price J'te l'jure d'vant Jésus Christ Jouez pas avec ma go en boîte, y'a trop d'antécédents Si un mec vient l'inviter ser-dan, j'vais lui ôter ses dents Toujours en tête pour le ready tchek tchek WAllah la tape, elle fait mal à la tête Espèce de bouffon, on veut du rap qu'éclate les roustons Pas du Matt Houston ! Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Allume ton computer, c'est du son d'tueur Et check mon site, c'est www.nubisaignetonbeat Crève ton pit' comme les frelots des Yvelines En fait on peut admettre que j'me la pète Et j'peux t'la mettre sans vaseline fils Extrême arrogance, insolence sans limite Chien d'la casse, vient d'la DASS, garanti sans gimmick Et ouais, c'est vrai je l'sais, approche toi si tu veux voir un vrai de près J'suis plus réel que les plus vrais de vrais Un effronté rêve de dompter l'indomptable T'as sucé pour le succès, maintenant tu veux pomper l'impompable Et tester l'intestable, faut rester stable On baise les chtars et blesse les stars go, je sais qu'c'est sale Les bouts d'bois, et faut beaucoup d'bails Te règlent à coup de batte et puis te disent Goodbye ! On vient du plus profond des fin fonds des bas-fonds Scar-la du bob au caleçon, faut qu'ça crame du sol au plafond Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Ça fait Blah Barillet Plein dans ta tête pédale Encaisse ça dans tes dents pédale Seth Gueko, Nubi, Ex's Sisi, ça fait mal frelot Ah ! Sale, dalleux, cailleux Yeah, prends ça dans tes dents pédale Nubi Sale pour Néochrome fils Grandi dans l'rap, j'suis Néochrome</t>
+          <t>Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Moi j'ai pas besoin du temps d'la J'arrive juste pour prendre la fraîche Faut qu'j'rallume la brèche car on a vu qu't'as plus la pêche Faut qu'tu abrèges, faut qu'tu la tè-je si elle baise pas Mais si elle baise, faut qu'tu l'assèches Wesh mec, faudra t'lâcher, faut qu'tu l'achèves Faut pas lâcher, non fréro faut t'attacher Faut t'arracher pour pas avec un vrai flow d'enragé Y'a qu'l'arrache, au démarrage c'est dur, c'est comme les vieilles voitures Tu passes au garage si tu portes pas la ceinture, la vie est dure Yeah L'avenir est sur de mauvais rails, faut qu'j'y aille Tu m'oublieras en tant qu'VIP, j'irai pour tuer tous vos GI Yeah C'est obligé, affiché sur vos fichiers C'est obligé qu'j'reste au QG, j'suis trop figé Fils, un peu d'haschich, de poisson, et d'la bitch Poison qui nous aguiche, mais bon marlich Ici c'est marche ou crève garçon Y'a pas d'souci, j'connais l'histoire J'dédicace celle-ci aux milliers d'banlieusards qui vivent le soir Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah J'sors de nulle part, comme Mazarine J'arrive comme une pile alcaline dans ton crâne Gamine, sors la margarine J'marche armé car t'auras trop d'buzz si tu m'tues Pourquoi t'acharner d'monter sur l'ring avec un tutu Le diable m'a charmé, viens pas m'tester cousin Ou tu seras sur les bouteilles de lait, comme Estelle Mouzin J'fais du pied au rap français avec des crampons Pov' con, tu saignes des tympans, achète des tampons ! Colle pas ta bouche sur ma Smirnoff Ice J'tafferai pas à Leader Price J'te l'jure d'vant Jésus Christ Jouez pas avec ma go en boîte, y'a trop d'antécédents Si un mec vient l'inviter ser-dan, j'vais lui ôter ses dents Toujours en tête pour le ready tchek tchek WAllah la tape, elle fait mal à la tête Espèce de bouffon, on veut du rap qu'éclate les roustons Pas du Matt Houston ! Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Allume ton computer, c'est du son d'tueur Et check mon site, c'est www.nubisaignetonbeat Crève ton pit' comme les frelots des Yvelines En fait on peut admettre que j'me la pète Et j'peux t'la mettre sans vaseline fils Extrême arrogance, insolence sans limite Chien d'la casse, vient d'la DASS, garanti sans gimmick Et ouais, c'est vrai je l'sais, approche toi si tu veux voir un vrai de près J'suis plus réel que les plus vrais de vrais Un effronté rêve de dompter l'indomptable T'as sucé pour le succès, maintenant tu veux pomper l'impompable Et tester l'intestable, faut rester stable On baise les chtars et blesse les stars go, je sais qu'c'est sale Les bouts d'bois, et faut beaucoup d'bails Te règlent à coup de batte et puis te disent Goodbye ! On vient du plus profond des fin fonds des bas-fonds Scar-la du bob au caleçon, faut qu'ça crame du sol au plafond Ici c'est Paris pas le QB, yo niggaz Aux gars dead qu'on oublie, god damn Les broliks, les joux-bi, yo niggaz Fais pas les yeux doux à un uzi Blah, blah, blah Ça fait Blah Barillet Plein dans ta tête pédale Encaisse ça dans tes dents pédale Seth Gueko, Nubi, Ex's Sisi, ça fait mal frelot Ah ! Sale, dalleux, cailleux Yeah, prends ça dans tes dents pédale Nubi Sale pour Néochrome fils Grandi dans l'rap, j'suis Néochrome</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'ai un rap qui souffre, qui est rare qui s'ouvre vers le monde, mais rare qui souffle, ma vie de ouf, marginal comme Bébel, imagine que tu te la fais belle t'es sous clan campbell ou 5 Label V'la du nouveau sur les ondes, par nos lésions, plus d'une raison pour qu'on les plombe Pas assez de place sous l'ombre d'une colombe, y a un nombre de vautours qui passent sont tracé du colon C'est pour vos codes que nous violons, j'ai mis la violence dans mes violons La vie c'est comme un solo beaucoup trop long x x x Trop de fumée à hauteur de ma bouche Des kabouss des caves-pou viendront péter ta porte pour que t'avoue C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot Une moustache, un magnum, je ressemble à Charles Bronson Salope prétexte pas l'alcool, t'es qu'une sale cochonne On découpe les caisses pées-ta chez les ferrailleurs Et oublie pas Michelle Pfeiffer se faisait des rails Touche pas ma sur, fais pas ton Manu Rivera Te tuer ? Non, ça serait dommage d'en arriver là Si si tu choisis la mort ou tchitchi On est les king comme les Gipsy Il me reste que très peu de coke dans mon sablier L'humour noir de Bernard Blier du sang rouge sur le tablier La dégaine froide de Jean Réno On ramène des tchoins qui sucent pour 30 euros dans les grands tel-hô Et nique sa mère si y a des keufs en planque Demande à Zes', on prend les agglomérations à plus de 230 C'est l'anarchie on attend après le jacuzzi Comme Abruzzi attend après Fibanacci You might also like C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot Les charbonneurs se lève de bonne heure Pour la monnaie tu connais on peut en faire une affaire d'honneur, ce qu'on trouvera plus chez Ies donneuses, j'ai pas changé les données Le danger j'ai ma dose comme un toxo qui vient d'toucher sa dope À mon avis il joue avec sa vie, on t' l'avais dit la rue c'est traître comme un ex ami, faut que t' examine, le stress nous mine, nous contamine, ont mis les daronnes sous lexomil Les risques et les soucis dominent dans nos domiciles, Dicidanger même ce son s'appelle homicide Dans ma tête comme dans ma tess ouais on atteste, par la fenêtre on va pas ce tej car cette vie est un test Demande à Seth Gueko, nos , ta vu du hardcore dans cette déco C'est danger pour les fnac et les virgin J'suis venu pour braquer les bacs, bloqué les vigiles C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot</t>
+          <t>J'ai un rap qui souffre, qui est rare qui s'ouvre vers le monde, mais rare qui souffle, ma vie de ouf, marginal comme Bébel, imagine que tu te la fais belle t'es sous clan campbell ou 5 Label V'la du nouveau sur les ondes, par nos lésions, plus d'une raison pour qu'on les plombe Pas assez de place sous l'ombre d'une colombe, y a un nombre de vautours qui passent sont tracé du colon C'est pour vos codes que nous violons, j'ai mis la violence dans mes violons La vie c'est comme un solo beaucoup trop long x x x Trop de fumée à hauteur de ma bouche Des kabouss des caves-pou viendront péter ta porte pour que t'avoue C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot Une moustache, un magnum, je ressemble à Charles Bronson Salope prétexte pas l'alcool, t'es qu'une sale cochonne On découpe les caisses pées-ta chez les ferrailleurs Et oublie pas Michelle Pfeiffer se faisait des rails Touche pas ma sur, fais pas ton Manu Rivera Te tuer ? Non, ça serait dommage d'en arriver là Si si tu choisis la mort ou tchitchi On est les king comme les Gipsy Il me reste que très peu de coke dans mon sablier L'humour noir de Bernard Blier du sang rouge sur le tablier La dégaine froide de Jean Réno On ramène des tchoins qui sucent pour 30 euros dans les grands tel-hô Et nique sa mère si y a des keufs en planque Demande à Zes', on prend les agglomérations à plus de 230 C'est l'anarchie on attend après le jacuzzi Comme Abruzzi attend après Fibanacci C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot Les charbonneurs se lève de bonne heure Pour la monnaie tu connais on peut en faire une affaire d'honneur, ce qu'on trouvera plus chez Ies donneuses, j'ai pas changé les données Le danger j'ai ma dose comme un toxo qui vient d'toucher sa dope À mon avis il joue avec sa vie, on t' l'avais dit la rue c'est traître comme un ex ami, faut que t' examine, le stress nous mine, nous contamine, ont mis les daronnes sous lexomil Les risques et les soucis dominent dans nos domiciles, Dicidanger même ce son s'appelle homicide Dans ma tête comme dans ma tess ouais on atteste, par la fenêtre on va pas ce tej car cette vie est un test Demande à Seth Gueko, nos , ta vu du hardcore dans cette déco C'est danger pour les fnac et les virgin J'suis venu pour braquer les bacs, bloqué les vigiles C'est le danger Extorsions, arnaques, dans le jean ou la baraque C'est le danger Dans nos tèces, dans nos tieks, ça fait sblex ! C'est le danger Dans ma tête comme dans ma tèce, mec pas le droit à l'échec C'est le danger Crimino, st-ouenais, vitryot</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2907,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks You might also like Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
+          <t>Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Plus de flow que tous vos rappeurs, précurseur et innovateur J'mets tous mes billets dans son string et toutes mes pièces dans l'horodateur Mon chauffeur s'appelle Oliver car il a une gueule d'enjoliveur Pas besoin de topliner, encore moins de ghostwriter J'rappe avec mon fils c'est mieux que tous ces rappeurs Car dans mon cur oui c'est le seul Aime ton géniteur mais adore ton créateur Les meilleurs partent en premier regarde Nipsey Hussle J'ai toujours représenté le 9.5 et ses banlieues limitrophes Fiston ramène neufs gos qu'on joue au mini-golf 18 troues Les keufs ces chiens nous éblouissent avec leur lampe-torche MC ta musique est bof comme un pianiste avec des gants de boxe Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Préviens les gars du crew, ça sent le keuf J'ai les yeux en face des trous comme dans un 69 On a d'la peuf et d'la neige, d'la calotte glaciaire Fais l'effort de mettre string et brassière on veut pas de ta culotte grossière Jai gy-Cer dans les viscères oui j'y vis, j'y visser Comme N.O.S et Ademo On crame d'ici tous tes vices d'épicière Je suis sanguin en un mot t'es sans gain en deux mot Gueks Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde Dans mon tiex, j'barode dans mon tiex dans mon tiex Dans le binks, la Stos et Seth Gueks la Stos et Seth Gueks Ouais j'suis flex, dans la gova j'suis flex yah Ça vient de Saint-Ouen-l'Aumône, c'est grave un autre monde 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0 9.5.3.1.0</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Avant le cuni j'reprends ma respiration Passe ta chatte à la station d'épuration Enfer ou paradis qu'elle sera ma destination? J'suis leur principale source d'inspiration Ton cerveau a dépassé la date d'expiration Avec ta tête j'fais du cheval d'arçon Barlou depuis que je suis petit garçon Oui c'est moi qu'ils appellent Gueko T'as mes poils sur la langue comme Isabelle Mergault Skurt, c'est l'dérapage du Merco J't'éjacule dans l'oreille, lavage de cerveau Ou dans l'meilleur des cas t'attrape une otite La vie a un goût amer, demande à Oedipe Ta carrière dans l'rap est anecdotique Faut-il mourir pour finir en top tweet? R.I.P Prodigy, Mobb Deep R.I.P la tecktonik , j'exige de suite une augmentation J'vais tout baiser passe l'information Est-ce que c'est ta tête ou c'est une malformation? Pute c'est pas l'heure de me déranger Je n'ai que de respect pour son déhanché Les mains pleines, donc toute suite homme ne peux pas décrocher 7h du mat debout, on se défonce à l'alcool, au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit You might also like KIKESA nouveau Hippie Gang J'arrive, j'viens de sep par terre J'ai pas touché mes baskets putain c'est parfait J'baise ta mère, j'suis qu'un prestataire Je n'ai jamais arrêté de soulever des ménagères J'ai trop de flow, t'as jamais vraiment aimer nager J'ai pas quitté Nancy mais j'ai déménagé Quand je m'attaque à des rageux, je les blesse par paires Fais pas la belle à part tes fesse y'a tout à refaire J'écris des textes de 7 à 7 heures Efface tes pleurs, faut pas que t'aies peur Faut pas que t'effleures les fleurs du mal Lait après les céréales, 7h du mat Recule un peu t'es trop près Les gens sont choqués, ils payent pour mes showcases J'suis avec mon clan dans un bar à Saint Tropez On se fait trop plaiz, tu te fais tromper On se fait pomper, donne ta meuf et ton pèze En vrai j'suis comblé, mes concerts sont complets J'suis brillant, j'écris dans des halls noirs Tu cherches du travail sur des trottoirs Des dizaines de flows dans l'arrosoir Il faut croire qu'ils aiment trop boire mon sperme J'vais tout droit faudrait pas qu'on se perde J'ai ma cons pleine, j'veux pas de conseils On dépense toute notre oseille dans les plats qu'on se paye On a connu la de-mer, tu veux pas qu'on se plaigne Bitch, KIKESA, nouveau Hippie Gang Pute c'est pas l'heure de me déranger Je n'ai que de respect pour son déhanché Les mains pleines, donc toute suite homme ne peux pas décrocher 7h du mat debout, on se défonce à l'alcool, au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit</t>
+          <t>Avant le cuni j'reprends ma respiration Passe ta chatte à la station d'épuration Enfer ou paradis qu'elle sera ma destination? J'suis leur principale source d'inspiration Ton cerveau a dépassé la date d'expiration Avec ta tête j'fais du cheval d'arçon Barlou depuis que je suis petit garçon Oui c'est moi qu'ils appellent Gueko T'as mes poils sur la langue comme Isabelle Mergault Skurt, c'est l'dérapage du Merco J't'éjacule dans l'oreille, lavage de cerveau Ou dans l'meilleur des cas t'attrape une otite La vie a un goût amer, demande à Oedipe Ta carrière dans l'rap est anecdotique Faut-il mourir pour finir en top tweet? R.I.P Prodigy, Mobb Deep R.I.P la tecktonik , j'exige de suite une augmentation J'vais tout baiser passe l'information Est-ce que c'est ta tête ou c'est une malformation? Pute c'est pas l'heure de me déranger Je n'ai que de respect pour son déhanché Les mains pleines, donc toute suite homme ne peux pas décrocher 7h du mat debout, on se défonce à l'alcool, au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit KIKESA nouveau Hippie Gang J'arrive, j'viens de sep par terre J'ai pas touché mes baskets putain c'est parfait J'baise ta mère, j'suis qu'un prestataire Je n'ai jamais arrêté de soulever des ménagères J'ai trop de flow, t'as jamais vraiment aimer nager J'ai pas quitté Nancy mais j'ai déménagé Quand je m'attaque à des rageux, je les blesse par paires Fais pas la belle à part tes fesse y'a tout à refaire J'écris des textes de 7 à 7 heures Efface tes pleurs, faut pas que t'aies peur Faut pas que t'effleures les fleurs du mal Lait après les céréales, 7h du mat Recule un peu t'es trop près Les gens sont choqués, ils payent pour mes showcases J'suis avec mon clan dans un bar à Saint Tropez On se fait trop plaiz, tu te fais tromper On se fait pomper, donne ta meuf et ton pèze En vrai j'suis comblé, mes concerts sont complets J'suis brillant, j'écris dans des halls noirs Tu cherches du travail sur des trottoirs Des dizaines de flows dans l'arrosoir Il faut croire qu'ils aiment trop boire mon sperme J'vais tout droit faudrait pas qu'on se perde J'ai ma cons pleine, j'veux pas de conseils On dépense toute notre oseille dans les plats qu'on se paye On a connu la de-mer, tu veux pas qu'on se plaigne Bitch, KIKESA, nouveau Hippie Gang Pute c'est pas l'heure de me déranger Je n'ai que de respect pour son déhanché Les mains pleines, donc toute suite homme ne peux pas décrocher 7h du mat debout, on se défonce à l'alcool, au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit 7h du mat debout, on se défonce à l'alcool, au shit au shit</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'suis le Hitman du rap, Gotham Sidi C'est super easy ça roule comme un road movie Pourtant le monde est stone comme Oliver ou Mick Jagger Au mic' j'écure, j'brise des coeurs Coup de foudre à Manhattan, puis coup de foutre dans ta madame Méga spliff, super grave, mécanique, orangeade J'suis pire qu'une pornstar, who's bad J'suis Rocco Siffredi et les griffes de la nuit Les rappeurs sucent des bites de plusieurs centimètres Toujours la tête dans l'cul comme Human Centipede Souviens toi l'été dernier T'étais misérable, comme les Thénardier, mais j't'ai épargné J'vois tout en grand comme Roberto Malone J'ai l'oeil du tigre de Sylvester Stallone Ton arrière train, sifflera trois fois Cowabunga, j'suis un mélange entre Akira et Abel Ferrara Ma couillasse J'fais mon visa Thaï', j'suis au Trocadéro Qui veut la bite de Roger Rappeau'z ? Dé-dédicaces à mon grand-père, et ses râteaux Bardiss, fléchettes, DJ Kemar et son Serato Sers moi un Whisky Selecto, glâce pilée Le Père Noel est une ordure on l'a fait cuir dans la cheminée T'as fais un tas de billets ? Mazel Tov à Rika Zaraï J'bande dur comme à Galatasaray Tuk tuk, drive-by, vaut mieux Phuket que poucave Même ton string il s'bouche le nez, tellement tu croundav Ils font des vieux jeux de mots, ils prétendent faire de la punchline Avoir des Jordan ça suffit pas pour avoir du swag Je baise et je viens entre tes reins comme une vague La tête dur comme si j'avais snif' le viag' J'ai l'flow du marquis de Sade, j't'attache au mur Et j'envoie la soudure comme Dodo la Saumure You might also like Ma team c'est les Goonies en Gucci sous blunt Phillies Retire ton blue jean sale petite biatch qu'on en finisse J'suis irréversible, imprévisible Coup d'extincteur dans les gencives Nique ta mère arrête ton cinéma On vous met la fièvre comme JoeyStarr ou bien John Travolta C'est la traviata, je ne rappe pas j'fais de l'opéra Farinelli, c'est Ghostbusters contre Patrick Swayze Tu veux boire des coups, tu vas finir par en manger Froid sera le plat quand on voudra s'venger C'est la grande bouffe, bande de grosses pouffes Rafale de couscous, on vous éclabousse tous C'est la dernière séance mais pas celle d'Eddy Mitchell J'fais des étincelles, j'tire les ficelles J'veux juste une pipe, pas juste un bisou J'arrive tête de Justin Bieber, sexe de Justin Bridou</t>
+          <t>J'suis le Hitman du rap, Gotham Sidi C'est super easy ça roule comme un road movie Pourtant le monde est stone comme Oliver ou Mick Jagger Au mic' j'écure, j'brise des coeurs Coup de foudre à Manhattan, puis coup de foutre dans ta madame Méga spliff, super grave, mécanique, orangeade J'suis pire qu'une pornstar, who's bad J'suis Rocco Siffredi et les griffes de la nuit Les rappeurs sucent des bites de plusieurs centimètres Toujours la tête dans l'cul comme Human Centipede Souviens toi l'été dernier T'étais misérable, comme les Thénardier, mais j't'ai épargné J'vois tout en grand comme Roberto Malone J'ai l'oeil du tigre de Sylvester Stallone Ton arrière train, sifflera trois fois Cowabunga, j'suis un mélange entre Akira et Abel Ferrara Ma couillasse J'fais mon visa Thaï', j'suis au Trocadéro Qui veut la bite de Roger Rappeau'z ? Dé-dédicaces à mon grand-père, et ses râteaux Bardiss, fléchettes, DJ Kemar et son Serato Sers moi un Whisky Selecto, glâce pilée Le Père Noel est une ordure on l'a fait cuir dans la cheminée T'as fais un tas de billets ? Mazel Tov à Rika Zaraï J'bande dur comme à Galatasaray Tuk tuk, drive-by, vaut mieux Phuket que poucave Même ton string il s'bouche le nez, tellement tu croundav Ils font des vieux jeux de mots, ils prétendent faire de la punchline Avoir des Jordan ça suffit pas pour avoir du swag Je baise et je viens entre tes reins comme une vague La tête dur comme si j'avais snif' le viag' J'ai l'flow du marquis de Sade, j't'attache au mur Et j'envoie la soudure comme Dodo la Saumure Ma team c'est les Goonies en Gucci sous blunt Phillies Retire ton blue jean sale petite biatch qu'on en finisse J'suis irréversible, imprévisible Coup d'extincteur dans les gencives Nique ta mère arrête ton cinéma On vous met la fièvre comme JoeyStarr ou bien John Travolta C'est la traviata, je ne rappe pas j'fais de l'opéra Farinelli, c'est Ghostbusters contre Patrick Swayze Tu veux boire des coups, tu vas finir par en manger Froid sera le plat quand on voudra s'venger C'est la grande bouffe, bande de grosses pouffes Rafale de couscous, on vous éclabousse tous C'est la dernière séance mais pas celle d'Eddy Mitchell J'fais des étincelles, j'tire les ficelles J'veux juste une pipe, pas juste un bisou J'arrive tête de Justin Bieber, sexe de Justin Bridou</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2958,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>J'roule comme si la ville était mienne dans le Merco Benz J'aime trop la vie pour m'en mettre une comme Kurt Cobain Pure cocaïne pour leur coquine Non j'sens plus personne donne-moi d'la chloroquine Fidèle mais pas valet Ça va aller, c'est pas ma faute si elle aime avaler Je mets l'feu à la vallée, ça va aller Et si j'la sors c'est pas pour cavaler 1.3 LRL 9 signes co Gueko J'entends des échos coup de fils ça redéco J'kick comme si c'était le dernier mojito Ici ça descend comme à Mexico Bien sapé, cur happé moi je suis bon qu'à rapper J'remue la lame dans la plaie Si j'veux la paix je me la paye Pas content, paie contant Vas-y nique le après Pas ton temps, pas le temps Vas y nique la ? Belle vie en visuel Gros salaire mensuel Soit tu baises soit on te baise Non plus rien d'sensuel Ouais j'ai qu'une balle à blanc Tu fais que m'balader Moi je viens d'en bas le grand j'aurais pu être Koba La D You might also like J'pèse le poids de mon département Elle est tellement bonne qu'il me reste encore des poils entre les dents Tu veux de l'argent, faut monter sur un plan Même un écureuil aveugle peut tomber sur un gland Nique les commandants Et leurs lois nous pénalisant Ici à peine à 10 ans on nous apprend à démonter les roues ah mon cousin Et aux barlous comme dans les campements à Montaubérou J'rap avec Luch' le Prodigy du sud J'préfère le goût du piment que l'hypocrisie du sucre J'baisserai pas mon fut pour une submariner Alors je vous demande dapprécier mes rimes de vengeur Je m'empresse à répandre avec le bon ton la vérité d'Alexandre Lebreton et du libre penseur Des opprimés je suis le digne défenseur Leurs bavures en furent le signe déclencheur C'est l'bordel comme dans un sac de meuf Et dit au traître qu'une balle de 9 peut vite occuper sa chaire Je laisse la concurrence en sueur Frère les francs maçons ne sont pas des portugais sincères L'équipe j'ai pris le flow de mon pote Seth Gueko Je débarque avec des noirs des blancs et 7 bicos J'ai pas de réseaux ma gueule mais bon j'ai 7 bigos Sur 8 bonhommes tu trouvera surement 7 mythos Dans l'rap j'ai plein de gosse mon Dieu j'ai 7 minots Le prix d'ma Mercedes fréro c'est 7 Clios Pour me faire un t-shirt gro il me faut 7 tricots Patate de forain tu va perdre 7 chicos Un deux check micro Tu veux d'la frappe gros j'te sers Tu fais le voyou gros j'te couche 3.5.7 moi j'te saigne Tu décèdes sans qu'j'te touche J'nique tout partout sur scène Festival Gilles Lellouche Bastos c'est l'fils de Seth Moi je suis le fils de Luch'</t>
+          <t>J'roule comme si la ville était mienne dans le Merco Benz J'aime trop la vie pour m'en mettre une comme Kurt Cobain Pure cocaïne pour leur coquine Non j'sens plus personne donne-moi d'la chloroquine Fidèle mais pas valet Ça va aller, c'est pas ma faute si elle aime avaler Je mets l'feu à la vallée, ça va aller Et si j'la sors c'est pas pour cavaler 1.3 LRL 9 signes co Gueko J'entends des échos coup de fils ça redéco J'kick comme si c'était le dernier mojito Ici ça descend comme à Mexico Bien sapé, cur happé moi je suis bon qu'à rapper J'remue la lame dans la plaie Si j'veux la paix je me la paye Pas content, paie contant Vas-y nique le après Pas ton temps, pas le temps Vas y nique la ? Belle vie en visuel Gros salaire mensuel Soit tu baises soit on te baise Non plus rien d'sensuel Ouais j'ai qu'une balle à blanc Tu fais que m'balader Moi je viens d'en bas le grand j'aurais pu être Koba La D J'pèse le poids de mon département Elle est tellement bonne qu'il me reste encore des poils entre les dents Tu veux de l'argent, faut monter sur un plan Même un écureuil aveugle peut tomber sur un gland Nique les commandants Et leurs lois nous pénalisant Ici à peine à 10 ans on nous apprend à démonter les roues ah mon cousin Et aux barlous comme dans les campements à Montaubérou J'rap avec Luch' le Prodigy du sud J'préfère le goût du piment que l'hypocrisie du sucre J'baisserai pas mon fut pour une submariner Alors je vous demande dapprécier mes rimes de vengeur Je m'empresse à répandre avec le bon ton la vérité d'Alexandre Lebreton et du libre penseur Des opprimés je suis le digne défenseur Leurs bavures en furent le signe déclencheur C'est l'bordel comme dans un sac de meuf Et dit au traître qu'une balle de 9 peut vite occuper sa chaire Je laisse la concurrence en sueur Frère les francs maçons ne sont pas des portugais sincères L'équipe j'ai pris le flow de mon pote Seth Gueko Je débarque avec des noirs des blancs et 7 bicos J'ai pas de réseaux ma gueule mais bon j'ai 7 bigos Sur 8 bonhommes tu trouvera surement 7 mythos Dans l'rap j'ai plein de gosse mon Dieu j'ai 7 minots Le prix d'ma Mercedes fréro c'est 7 Clios Pour me faire un t-shirt gro il me faut 7 tricots Patate de forain tu va perdre 7 chicos Un deux check micro Tu veux d'la frappe gros j'te sers Tu fais le voyou gros j'te couche 3.5.7 moi j'te saigne Tu décèdes sans qu'j'te touche J'nique tout partout sur scène Festival Gilles Lellouche Bastos c'est l'fils de Seth Moi je suis le fils de Luch'</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2975,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Dès que dès que je fais ce morceau ça part en ille-c's J'invite les mecs de tess à faire cavaler les keufs Fous la merde si il le faut sors les ciseaux Que les keufs et les physios arrêtent de jouer les schizo Je répète dès que je fais ce morceau ça part en Pride C'est le retour du nine-five dans un putain de drive-by Fous la merde et sors le pushka qu'ça coule que ça touche Car tout part comme sur Tupac Shakur Dès que dès que je fais ce morceau ça part en steak Si tu veux qu'on parle on parle en chèque que j'me barre en jet Check dès que j'ai vidé mes noix nettoie Me force pas à te gter-doi si y'a tes rents-pa chez toi Dès que dès que j'fais ce morceau ça part en boom bang Fallait pas me laisser sortir les couilles pleines Autour du micro les douilles traînent Mon bootleg c'est un coup d'pelle Dès que je fais ce morceau il s'tape des queues On s'est juré d'insulter les bleus et de leur crever les pneus Joues le nerveux si il le faut tte-je leur des ufs Ré-pleu ça fait pas gagner à la Francaise des Jeux ! Dès que dès que j'fais ce morceau ça part en patate de forain C'est le remake du braquage de Ronin On débride les R1 avec les nouches-ma mon cousin Tu crois que j'la sors d'où la montre Mauboussin ! Dès que dès que j'fais ce morceau ils se couchent à terre Ma frère te touche pas le nez quand tu sors des waters Fous la merde si il le faut sors ton Walter On pousse dans les haltères, Durabolin dans les artères Dès que j'fais ce morceau ça fait pou pou pou Pour les gars au chtar à cause d'un sale coup Fais pas le fou surtout si t'as des dossiers de cave-pou 100 pour cent voyou que Sarko bouffe du coup de coude Dès que dès que j'fais ce morceau tu penses hardcore T'as raison Yonea et Ikbal vendent plus que les majors Joues le warrior si il le faut donnes-leur un mort Puisqu'il faut un truc violent pour passer à Poivre d'Arvor You might also like Yea, Seth Gueko Néochrome Masta Masta ! J'ai avalé mon gun Ça fait blaw blaw, blaw blaw, blaw blaw Seth Gueko Néochrome G-g-g-g-gentleman gangsta Une rose pour ma femme, un flingue pour son amant ! Yeah yeah</t>
+          <t>Dès que dès que je fais ce morceau ça part en ille-c's J'invite les mecs de tess à faire cavaler les keufs Fous la merde si il le faut sors les ciseaux Que les keufs et les physios arrêtent de jouer les schizo Je répète dès que je fais ce morceau ça part en Pride C'est le retour du nine-five dans un putain de drive-by Fous la merde et sors le pushka qu'ça coule que ça touche Car tout part comme sur Tupac Shakur Dès que dès que je fais ce morceau ça part en steak Si tu veux qu'on parle on parle en chèque que j'me barre en jet Check dès que j'ai vidé mes noix nettoie Me force pas à te gter-doi si y'a tes rents-pa chez toi Dès que dès que j'fais ce morceau ça part en boom bang Fallait pas me laisser sortir les couilles pleines Autour du micro les douilles traînent Mon bootleg c'est un coup d'pelle Dès que je fais ce morceau il s'tape des queues On s'est juré d'insulter les bleus et de leur crever les pneus Joues le nerveux si il le faut tte-je leur des ufs Ré-pleu ça fait pas gagner à la Francaise des Jeux ! Dès que dès que j'fais ce morceau ça part en patate de forain C'est le remake du braquage de Ronin On débride les R1 avec les nouches-ma mon cousin Tu crois que j'la sors d'où la montre Mauboussin ! Dès que dès que j'fais ce morceau ils se couchent à terre Ma frère te touche pas le nez quand tu sors des waters Fous la merde si il le faut sors ton Walter On pousse dans les haltères, Durabolin dans les artères Dès que j'fais ce morceau ça fait pou pou pou Pour les gars au chtar à cause d'un sale coup Fais pas le fou surtout si t'as des dossiers de cave-pou 100 pour cent voyou que Sarko bouffe du coup de coude Dès que dès que j'fais ce morceau tu penses hardcore T'as raison Yonea et Ikbal vendent plus que les majors Joues le warrior si il le faut donnes-leur un mort Puisqu'il faut un truc violent pour passer à Poivre d'Arvor Yea, Seth Gueko Néochrome Masta Masta ! J'ai avalé mon gun Ça fait blaw blaw, blaw blaw, blaw blaw Seth Gueko Néochrome G-g-g-g-gentleman gangsta Une rose pour ma femme, un flingue pour son amant ! Yeah yeah</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pour commencer j'suis né la peau violacée Au même moment un xe-to se fait un fix avec une seringue et un vieux lacet Mais soyons sûr de rien Crois-tu qu'enfant il souhaitait s'injecter du sucre brun Mais c'est les années 80 Paris est sous héroïne, la Stup' maquillera sa mort par une chute de train Le cur de sa mère est en ruines ainsi que celui de sa pute de tchoin J'dis pute car on va la croiser 10 ans plus tard Plus de chicots, plus de regard Une dégaine de cigare au bras d'un mac bulgare Prêt à t'offrir une nuit d'amour dans ton plumard pour son brown sugar J'ai 10 piges chaudard j'suis passionné de jeux gores Mais en fait fasciné par le mac et sa montre Chopard, sa grosse che-por Mais ce soir-là il roulera comme un chauffard Handicapera à jamais le petit Jaffar Voilà comment le prince des mafieux deviendra le roi des clochards Mais mieux vaut être un clochard qu'un kouffar J'découvre Dieu à 16 ans il est jamais trop tard J'arpente les trottoirs silencieux Avec des futurs braqueurs d'établissement financier Échappe de peu au pénitencier Laisse 5 ans de mon dos à un patron qui finira par me licencier Qui s'abreuve de Zubrowka Qui rentre chez lui, tape son fils comme un judoka Dans sa tête y a plus que le quota Ça fait déjà 5 Noël qu'il lui fait plus de deau-ca Quelle fils de chienne Connaissais même pas mon nom, mon prénom, pour lui je n'étais qu'une fiche de paie À leur table y a que deux couverts La mère à remédier à son cancer des ovaires avec un revolver C'est son fils qui l'a découvert Qu'a fait le tri entre le dégueulis, les bouts de cervelle et les bouts de verre Le comble pour une esthéticienne Addict du superficielle, elle qu'empester l'hygiène Pièces à conviction, mon cul oui, le 6 coups Finira sur le bureau dégueulasse d'un flic ripoux Le lieutenant Jean-Louis Klein alias Gillou Pour te le décrire il a le physique de Guy Roux Il a pas de famille à part son poster de Zizou Son gyro, sa plaque, son Zippo, son sandwich au chorizo C't'ordure maquille tous ses crimes Mais il est torturé par le fantôme de Malik Oussekine Il décale éperdument sa psychothérapie Mais la prochaine fois c'est dans ton crane qu'il tire au penalty La prochaine fois c'est ton crane qu'il réduit en charpie C'est dans ta tête qu'il fera le remake de 13 Tzemati C'est tout le contraire de sa fille, à cet instant-même elle rigole Des injures et des microbes que postillonne un ivrogne Elle mâchouille un chewing-gum, lit la presse people Qui aurait cru qu'il y avait Patate De Forain dans son IpodYou might also like</t>
+          <t>Pour commencer j'suis né la peau violacée Au même moment un xe-to se fait un fix avec une seringue et un vieux lacet Mais soyons sûr de rien Crois-tu qu'enfant il souhaitait s'injecter du sucre brun Mais c'est les années 80 Paris est sous héroïne, la Stup' maquillera sa mort par une chute de train Le cur de sa mère est en ruines ainsi que celui de sa pute de tchoin J'dis pute car on va la croiser 10 ans plus tard Plus de chicots, plus de regard Une dégaine de cigare au bras d'un mac bulgare Prêt à t'offrir une nuit d'amour dans ton plumard pour son brown sugar J'ai 10 piges chaudard j'suis passionné de jeux gores Mais en fait fasciné par le mac et sa montre Chopard, sa grosse che-por Mais ce soir-là il roulera comme un chauffard Handicapera à jamais le petit Jaffar Voilà comment le prince des mafieux deviendra le roi des clochards Mais mieux vaut être un clochard qu'un kouffar J'découvre Dieu à 16 ans il est jamais trop tard J'arpente les trottoirs silencieux Avec des futurs braqueurs d'établissement financier Échappe de peu au pénitencier Laisse 5 ans de mon dos à un patron qui finira par me licencier Qui s'abreuve de Zubrowka Qui rentre chez lui, tape son fils comme un judoka Dans sa tête y a plus que le quota Ça fait déjà 5 Noël qu'il lui fait plus de deau-ca Quelle fils de chienne Connaissais même pas mon nom, mon prénom, pour lui je n'étais qu'une fiche de paie À leur table y a que deux couverts La mère à remédier à son cancer des ovaires avec un revolver C'est son fils qui l'a découvert Qu'a fait le tri entre le dégueulis, les bouts de cervelle et les bouts de verre Le comble pour une esthéticienne Addict du superficielle, elle qu'empester l'hygiène Pièces à conviction, mon cul oui, le 6 coups Finira sur le bureau dégueulasse d'un flic ripoux Le lieutenant Jean-Louis Klein alias Gillou Pour te le décrire il a le physique de Guy Roux Il a pas de famille à part son poster de Zizou Son gyro, sa plaque, son Zippo, son sandwich au chorizo C't'ordure maquille tous ses crimes Mais il est torturé par le fantôme de Malik Oussekine Il décale éperdument sa psychothérapie Mais la prochaine fois c'est dans ton crane qu'il tire au penalty La prochaine fois c'est ton crane qu'il réduit en charpie C'est dans ta tête qu'il fera le remake de 13 Tzemati C'est tout le contraire de sa fille, à cet instant-même elle rigole Des injures et des microbes que postillonne un ivrogne Elle mâchouille un chewing-gum, lit la presse people Qui aurait cru qu'il y avait Patate De Forain dans son Ipod</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Mets des gants p'tit frère T'fais pas remonter aux empreintes digi' Sur un casse de vitrine laisse pas ta carte de visite Nique le rap d'Xzibit, la chatte de Brigitte Les poseurs de bombes n'ont pas fait de bac de physique Plus on est d'fous sur un coup, plus la part se divise J'comprends Jean-Claude Van Damme quand il parle de spirit Hormis les cas de délit de fuite, j'fais pas d'sport Jean-Marie Le Pen j'aime pas ce porc J'ressemble à Benoît Poelvoorde sur mon passeport J'aime Alkpote comme Pollux Troy aime Castor Hardcore, à la Fnac tu fais pas de score Moi je pose façon chacal Ici chacun garde sa balle comme ce gros maillon d'Chabal Je suis blanc comme neige ouais blanc comme la boisson natale Comme le poison fatal qui ronge ta cloison nasal Tue un flic tu passeras aux informations de Chazal C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavali, ouais tout les gavalo You might also like C'est l'affreux Jojo, puante est ma dentition Anti... depuis qu'j'suis embryon Après nos couplets vous serez déboussolés Et vos chemisiers déboutonnés Ici les jeunes filles reniflent les poils pubiens Inch'Allah qu'un jour je n'boive plus rien Économise tes billes, car comme Rocco Sifredi, Alk sodomise les filles Faut qu'on s'régale enfin et qu'les chiens mangent nos restes Toi et les tiens vous n'verrez jamais d'lance-roquette A part dans vos rêves où c'est sans problème Te sentir... depuis Andromède T'as vu ça gangbang dans les chambres d'hôtel Entre gens modestes et sans rang d'noblesse En manque d'oseille, on est en colère On fera affaire avec toi que si tu sembles correct C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavalis, ouais tous les gavalos Cas soc' on a des oreilles de Spock et des moustaches de que-tur On a écoulé tout le stock pour une poutrasse de levure Prend les pouffiasses sur le mur Mange un coup de schlass pur et dur Pour mes couillasses du bitume Faut qu'on se fasse plus de tune c'est sûr Mets toi un god zinclar je crois que c'est clair Ici c'est plus Bob Marley que Bob Sinclar Astique mon gigomar, les jaloux me cartonnent le corbillard Je m'en tamponne le coquillard J'marche torse nu, sur la tête j'ai mis l't-shirt Nan ne me prends pas pour un débile p'tite sur J'me fais pas serrer pour des délits mineurs J'm'en vais tout baiser comme Kevin Fisher J'me rafraichis avec du Sky fort Survivor qui s'en branle de passer sur Skyrock C'est Drive By en caravane Son pour... et cafards sales qui font le détail dans la cabane C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavalis, ouais tous les gavalos</t>
+          <t>Mets des gants p'tit frère T'fais pas remonter aux empreintes digi' Sur un casse de vitrine laisse pas ta carte de visite Nique le rap d'Xzibit, la chatte de Brigitte Les poseurs de bombes n'ont pas fait de bac de physique Plus on est d'fous sur un coup, plus la part se divise J'comprends Jean-Claude Van Damme quand il parle de spirit Hormis les cas de délit de fuite, j'fais pas d'sport Jean-Marie Le Pen j'aime pas ce porc J'ressemble à Benoît Poelvoorde sur mon passeport J'aime Alkpote comme Pollux Troy aime Castor Hardcore, à la Fnac tu fais pas de score Moi je pose façon chacal Ici chacun garde sa balle comme ce gros maillon d'Chabal Je suis blanc comme neige ouais blanc comme la boisson natale Comme le poison fatal qui ronge ta cloison nasal Tue un flic tu passeras aux informations de Chazal C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavali, ouais tout les gavalo C'est l'affreux Jojo, puante est ma dentition Anti... depuis qu'j'suis embryon Après nos couplets vous serez déboussolés Et vos chemisiers déboutonnés Ici les jeunes filles reniflent les poils pubiens Inch'Allah qu'un jour je n'boive plus rien Économise tes billes, car comme Rocco Sifredi, Alk sodomise les filles Faut qu'on s'régale enfin et qu'les chiens mangent nos restes Toi et les tiens vous n'verrez jamais d'lance-roquette A part dans vos rêves où c'est sans problème Te sentir... depuis Andromède T'as vu ça gangbang dans les chambres d'hôtel Entre gens modestes et sans rang d'noblesse En manque d'oseille, on est en colère On fera affaire avec toi que si tu sembles correct C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavalis, ouais tous les gavalos Cas soc' on a des oreilles de Spock et des moustaches de que-tur On a écoulé tout le stock pour une poutrasse de levure Prend les pouffiasses sur le mur Mange un coup de schlass pur et dur Pour mes couillasses du bitume Faut qu'on se fasse plus de tune c'est sûr Mets toi un god zinclar je crois que c'est clair Ici c'est plus Bob Marley que Bob Sinclar Astique mon gigomar, les jaloux me cartonnent le corbillard Je m'en tamponne le coquillard J'marche torse nu, sur la tête j'ai mis l't-shirt Nan ne me prends pas pour un débile p'tite sur J'me fais pas serrer pour des délits mineurs J'm'en vais tout baiser comme Kevin Fisher J'me rafraichis avec du Sky fort Survivor qui s'en branle de passer sur Skyrock C'est Drive By en caravane Son pour... et cafards sales qui font le détail dans la cabane C'est pour les sahbi et les clandos La famille et les cabots Toutes les raclis, tous les raclots Toutes les gadjis, tous les gadjos Les têtes zarres-bi et les pas beaux La famille et les cabots De la gare dÉvry à Saint-Ouen LAumône Toutes les gavalis, ouais tous les gavalos</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3026,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Dirty manouche, Dirty manouche Dirt' dirt' dirt' dirty manouche Dirty manouche, Dirty manouche Morray ! Morray ! Dirty manouche, Dirty manouche Dirt' dirt' dirt' dirty manouche Dirty manouche, Dirty manouche J'dégouline sur l' pe-ra comme du coulommiers T'as des dents d'loup mais tu bandes mou hein mon zincou Un rap sans couille c'est comme une caravane sans roues! Balèze! Les yeux fermés j'te démonte et remonte un manège L' tier-quar c'est Avoriaz, hiver comme été on vend d'la neige Coriace comme Mickey jte fait la voix d'joat pas b'soin d'sampler Snatch Touche pas nos liasses si ta les oid' moite zagafoitnak zapzapzapzagapfouatnak Tu parle de oik oit si jte tuyaute sur un brak-brak on fais moit' moit' Drive-by pak pak papapak devan vos yeuzzz en auto-tamponeuse Chargeur auto-tomatique pose le biff et prend ton meuj Pour rendre ma mater heureuse il lui faut une caravane rose Pour aller sur le parapluie par-balles avant qu'une rafale t'arrose Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Ca va faire vlan! dans tes dents comme une baffe avec l'élan Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Sur la tete des mioches que jai laissé dormir au campement Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Vodka poil de bison gourmette poil d'éléphant Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Si on fait la crête c'est pour ressembler au gremlins méchant You might also like J'averie sur scène avec le scratch de Didier l'embrouille Pour te dire ma cramouille il a encore les paluche pleine de cambouis Malhonnêtes sont mes collègues, en béton sont mes cojones Pour les mangeuses de grec j'ai des capotes goût mayonnaise On fait du lèche vitrine de-devan l'dabiste Si tu vas à Strasbourg-Saint-Denis, de-de-demande Caliche On est des gremlins c'est la clé si tu touche ma racli On a l'pouce aplati à cause de PES 6 On veut juste des clés d'banque Tient la route comme des tanks On met des coups d'chaussettes avec des boule de pétanque Mon meilleur pote c'est mon canapé donc sa-saha scarla Lèche ma pomme d'amour j'me suis fait un bouc a ma barbe a papa J'ai la colonne tordue comme une crosse de hockey Ma bite de baseball posée sur l'épaule, j'la caresse comme un p'tit perroquet On est au taquet mon caquet on roule replaqué On est au taquet mon caquet on va te parchoquer Kotar chez les queutards, j'arrive la queue dure comme les ketur On met d'la haute couture recousue avec des point d'suture On improvise des armes même avec des antennes de voiture A la revoyure l'enflure j'vais voir la diseuse de bonne aventure Kotar chez les queutards, j'arrive la queue dur comme les ketur On met d'la haute couture recousue avec des point d'suture On improvise des arme mêmes avec des antennes de voiture A la revoyure l'enflure jvais voir la diseuse de bonne aventure x2</t>
+          <t>Dirty manouche, Dirty manouche Dirt' dirt' dirt' dirty manouche Dirty manouche, Dirty manouche Morray ! Morray ! Dirty manouche, Dirty manouche Dirt' dirt' dirt' dirty manouche Dirty manouche, Dirty manouche J'dégouline sur l' pe-ra comme du coulommiers T'as des dents d'loup mais tu bandes mou hein mon zincou Un rap sans couille c'est comme une caravane sans roues! Balèze! Les yeux fermés j'te démonte et remonte un manège L' tier-quar c'est Avoriaz, hiver comme été on vend d'la neige Coriace comme Mickey jte fait la voix d'joat pas b'soin d'sampler Snatch Touche pas nos liasses si ta les oid' moite zagafoitnak zapzapzapzagapfouatnak Tu parle de oik oit si jte tuyaute sur un brak-brak on fais moit' moit' Drive-by pak pak papapak devan vos yeuzzz en auto-tamponeuse Chargeur auto-tomatique pose le biff et prend ton meuj Pour rendre ma mater heureuse il lui faut une caravane rose Pour aller sur le parapluie par-balles avant qu'une rafale t'arrose Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Ca va faire vlan! dans tes dents comme une baffe avec l'élan Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Sur la tete des mioches que jai laissé dormir au campement Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Vodka poil de bison gourmette poil d'éléphant Dirt' dirt' dirt' dirty manouche dirt' dirt' dirt' dirt' dirty manouche Si on fait la crête c'est pour ressembler au gremlins méchant J'averie sur scène avec le scratch de Didier l'embrouille Pour te dire ma cramouille il a encore les paluche pleine de cambouis Malhonnêtes sont mes collègues, en béton sont mes cojones Pour les mangeuses de grec j'ai des capotes goût mayonnaise On fait du lèche vitrine de-devan l'dabiste Si tu vas à Strasbourg-Saint-Denis, de-de-demande Caliche On est des gremlins c'est la clé si tu touche ma racli On a l'pouce aplati à cause de PES 6 On veut juste des clés d'banque Tient la route comme des tanks On met des coups d'chaussettes avec des boule de pétanque Mon meilleur pote c'est mon canapé donc sa-saha scarla Lèche ma pomme d'amour j'me suis fait un bouc a ma barbe a papa J'ai la colonne tordue comme une crosse de hockey Ma bite de baseball posée sur l'épaule, j'la caresse comme un p'tit perroquet On est au taquet mon caquet on roule replaqué On est au taquet mon caquet on va te parchoquer Kotar chez les queutards, j'arrive la queue dure comme les ketur On met d'la haute couture recousue avec des point d'suture On improvise des armes même avec des antennes de voiture A la revoyure l'enflure j'vais voir la diseuse de bonne aventure Kotar chez les queutards, j'arrive la queue dur comme les ketur On met d'la haute couture recousue avec des point d'suture On improvise des arme mêmes avec des antennes de voiture A la revoyure l'enflure jvais voir la diseuse de bonne aventure x2</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Seth Gueko le fils caché de Jack Mess J'arrive j'arrive toc-toc, badaboum me voilà On va foutre le halla, j'défouraille à la une, à la dou, à la 3 Zblax zblex zblex zblex zblex, ça chicane, ça chicotte J'suis au trophée d'la plaquette d'or pas aux trophées du hip-hop Gé-char, char comme le coffre des Courtilléres Tate-pa, paw qui t'éclate l'arcade sourcilière Déjà bébé j'mettais des coups de cuillères La chevalière, ma cramoulette si ton string a un gout de gruyère Mets du Roger Cavaillès Pour pas me faire poucave gros j'aime travailler seul Y'a ptêtre un micro dans la télé, la Playstation J'ai pas envie d'finir au habs, à rester seul Ma gueule ce morceau est dédicacé aux Maokou J'rappe pas pour avoir des diamants au cou Avec un Aspirine, j'te fais sniffé 10 lignes C'est pas nos bijoux, c'est les porte-clés d'maton qui font bling-bling Ça pue la gard'av C'est la merde et la dalle m'appelle Le biff m'appelle, le deal m'appelle Parait-il que ces fils de pute de keufs Essayent d'interpeller le dealeur Dis-leur que Seth Gueko et le Neoklash c'est la tess faut les lovés pour le reste You might also like , j'm'en bats lé roubi' d'passer pour un Du moment qu'j'prends mon illet-bi, kiki J'crois pas au Yéti mais j'crois au quage-bra L'amour du risque, c'est ramener une kahba à la casba Envie d'participer quand un d'mes gars se bat ou quand un d'mes gars nique Comme dans Orange Mécanique On traine au centre co', on rêve de piller les bandit-manchots On a pas fait Sciences Po', on a le sang chaud Personne nous fait fiance-co, c'est pour mes dealeurs de chocolat Mes potogos enfermés à Socona Ça va te faire tout drôle comme une te-tar en pleine poire On m'aime pour c'que j'suis, pas pour mon répertoire J'essaie pas de faire croire C'est nos beau-pères qui sont alcooliques pas nos caisses et leur réservoir Alou aloua fais-moi un chèque de dollar Contre un grand coup de chaine de motard bla blaw Ça pue la gard'av C'est la merde et la dalle m'appelle Le biff m'appelle, le deal m'appelle Parait-il que ces fils de pute de keufs Essayent d'interpeller le dealeur Dis-leur que Seth Gueko et le Neoklash c'est la tess faut les lovés pour le reste Seth Guex Le fils caché de Jack Mess L'enfant légitime de Néochrome Zblexx zblexx Ok</t>
+          <t>Seth Gueko le fils caché de Jack Mess J'arrive j'arrive toc-toc, badaboum me voilà On va foutre le halla, j'défouraille à la une, à la dou, à la 3 Zblax zblex zblex zblex zblex, ça chicane, ça chicotte J'suis au trophée d'la plaquette d'or pas aux trophées du hip-hop Gé-char, char comme le coffre des Courtilléres Tate-pa, paw qui t'éclate l'arcade sourcilière Déjà bébé j'mettais des coups de cuillères La chevalière, ma cramoulette si ton string a un gout de gruyère Mets du Roger Cavaillès Pour pas me faire poucave gros j'aime travailler seul Y'a ptêtre un micro dans la télé, la Playstation J'ai pas envie d'finir au habs, à rester seul Ma gueule ce morceau est dédicacé aux Maokou J'rappe pas pour avoir des diamants au cou Avec un Aspirine, j'te fais sniffé 10 lignes C'est pas nos bijoux, c'est les porte-clés d'maton qui font bling-bling Ça pue la gard'av C'est la merde et la dalle m'appelle Le biff m'appelle, le deal m'appelle Parait-il que ces fils de pute de keufs Essayent d'interpeller le dealeur Dis-leur que Seth Gueko et le Neoklash c'est la tess faut les lovés pour le reste , j'm'en bats lé roubi' d'passer pour un Du moment qu'j'prends mon illet-bi, kiki J'crois pas au Yéti mais j'crois au quage-bra L'amour du risque, c'est ramener une kahba à la casba Envie d'participer quand un d'mes gars se bat ou quand un d'mes gars nique Comme dans Orange Mécanique On traine au centre co', on rêve de piller les bandit-manchots On a pas fait Sciences Po', on a le sang chaud Personne nous fait fiance-co, c'est pour mes dealeurs de chocolat Mes potogos enfermés à Socona Ça va te faire tout drôle comme une te-tar en pleine poire On m'aime pour c'que j'suis, pas pour mon répertoire J'essaie pas de faire croire C'est nos beau-pères qui sont alcooliques pas nos caisses et leur réservoir Alou aloua fais-moi un chèque de dollar Contre un grand coup de chaine de motard bla blaw Ça pue la gard'av C'est la merde et la dalle m'appelle Le biff m'appelle, le deal m'appelle Parait-il que ces fils de pute de keufs Essayent d'interpeller le dealeur Dis-leur que Seth Gueko et le Neoklash c'est la tess faut les lovés pour le reste Seth Guex Le fils caché de Jack Mess L'enfant légitime de Néochrome Zblexx zblexx Ok</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3060,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Yah yah Le père le fils, enfoiré Gueko, La Stos Et si j'meurs Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que lheure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes texts Jsuis déçu quand j'entends les autrs rimer Yah, trouvez leur crew, tordez leur cou et prenez leur pouls 9-5 Rappelle-toi je viens d'où, j'connais la leur-dou, on veut des sses-lia de toutes les leurs-cou des jaunes, des violets Salam Wa Barakatouh aux frères à Phuket qu'ont une baraque à J'survole ce game comme le Toruk Makto On t'allume pour de l'oseille chez nous, on sort la nuit car la lune est le soleil des loups Va mprendre une teille-bou de Jack chez Apu, les ptits mixent le Montain Dew et l'sirop pour la toux La prison est un trou, personne veut y mettre le doigt, après dix piges, on en a eu marre dêtre au ye-ta J'y ai trop rodé, j'ai plus la sagesse de maître Yoda et sur la ble-ta, j'veux des huîtres iodées , tes l'roi des coups bas donc j'me suis recousu au fil de fer J't'ai donné la main, t'as voulu tout l'bras, prends pas mon amitié pour la fistinière You might also like Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que l'heure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes textes J'suis déçu quand j'entends les autres rimer Trouvez leur bloc, cassez leur nuque et prenez leur glock 9-5 Après l'sport, j'veux mon shaker de prot', j'ai la couleur de Gynéco Doc Jamais sans ma bouteille comme Capitaine Haddock, fuck le juge, on fait tapiner la proc' Le nez d'cette tchoin aime aspirer la drogue, l'odeur de cash fait qu'attirer ma horde La prison, c'est un trou personne veut y mettre la requin, le Uber, il a plus d'ce-for, j'lui bouffe tous ces arlequins Au quartier, on a de la cesse et du shit marocain, nous, impossible de nous piéger, demande à Greg Guillotin Les bavures policières sont les nouvelles guillotines, bientôt on va ouvrir des rrains-te d'chloroquine J'vais t'passer à tabac et j'te parle pas de nicotine, sur la route du succès j'trottine, dans le four les poulets gratinent Mon cur est noir mais j'suis un fils de gwer, seul mundele madesu dans c'putain d'rap jeu J'aime les films de cul et les films de guerre, parle pas derrière tes lunettes, parlons entre quatre yeux Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que l'heure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes textes J'suis déçu quand j'entends les autres rimer</t>
+          <t>Yah yah Le père le fils, enfoiré Gueko, La Stos Et si j'meurs Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que lheure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes texts Jsuis déçu quand j'entends les autrs rimer Yah, trouvez leur crew, tordez leur cou et prenez leur pouls 9-5 Rappelle-toi je viens d'où, j'connais la leur-dou, on veut des sses-lia de toutes les leurs-cou des jaunes, des violets Salam Wa Barakatouh aux frères à Phuket qu'ont une baraque à J'survole ce game comme le Toruk Makto On t'allume pour de l'oseille chez nous, on sort la nuit car la lune est le soleil des loups Va mprendre une teille-bou de Jack chez Apu, les ptits mixent le Montain Dew et l'sirop pour la toux La prison est un trou, personne veut y mettre le doigt, après dix piges, on en a eu marre dêtre au ye-ta J'y ai trop rodé, j'ai plus la sagesse de maître Yoda et sur la ble-ta, j'veux des huîtres iodées , tes l'roi des coups bas donc j'me suis recousu au fil de fer J't'ai donné la main, t'as voulu tout l'bras, prends pas mon amitié pour la fistinière Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que l'heure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes textes J'suis déçu quand j'entends les autres rimer Trouvez leur bloc, cassez leur nuque et prenez leur glock 9-5 Après l'sport, j'veux mon shaker de prot', j'ai la couleur de Gynéco Doc Jamais sans ma bouteille comme Capitaine Haddock, fuck le juge, on fait tapiner la proc' Le nez d'cette tchoin aime aspirer la drogue, l'odeur de cash fait qu'attirer ma horde La prison, c'est un trou personne veut y mettre la requin, le Uber, il a plus d'ce-for, j'lui bouffe tous ces arlequins Au quartier, on a de la cesse et du shit marocain, nous, impossible de nous piéger, demande à Greg Guillotin Les bavures policières sont les nouvelles guillotines, bientôt on va ouvrir des rrains-te d'chloroquine J'vais t'passer à tabac et j'te parle pas de nicotine, sur la route du succès j'trottine, dans le four les poulets gratinent Mon cur est noir mais j'suis un fils de gwer, seul mundele madesu dans c'putain d'rap jeu J'aime les films de cul et les films de guerre, parle pas derrière tes lunettes, parlons entre quatre yeux Donnez-leur tout Donnez-leur tout, donnez-leur tout avant que l'heure tourne Donnez mon sang aux leucémiques, mon self-control aux hystériques Donnez-leur, donnez-leur tout Donnez-leur, donnez-leur, j'suis trop en avance pour leur donner l'heure Donnez mes armes aux opprimés, donnez-leur mes textes J'suis déçu quand j'entends les autres rimer</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Si j'suis à sec, arroses-moi comme Jala Faya J'suis bien dans mon tieks comme Dracula À la banque du sang ou entre tes cuisses Si t'as tes ragnagna, ça fait ratatatax Comme un arroseur d'brinks qu'envoie une rafale sur un mirador Demandes à Charlie Bauer le cul à chaise c'est Fear Factor Les odeurs de pisse ont fini par faire fuir le facteur J'préfère un voleur de disque qu'un téléchargeur J'refuse jamais une bière fraiche comme les déménageurs Viens à la piscine si tu veux voir mon torse de maître nageur J'ai pas de voiture, j'ai baisé les rageurs Ils peuvent rayer qu'mes cd Belek les keufs roulent avec le siège bébé Et un A sur le cul dès que j'les vois j'éternue Y'a pas de faux ???? les rues, j'me suis posé sur l'nez du rap game comme une verrue J'prends tous les mc à la Queuleuleu comme Bézu Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2 Tu vois des armes se pavaner dans mes textes Je suis plus violent que le boug le plus mauvais de ton tieks Vous m'saoulez comme les experts avec vos p'tits projets, tous vos p'tits sons j'vais tous les découper comme dans Dexter J'ai fait mes bails comme d'autres ont fait dans la guinam J'aime quand c'est lourd comme le tard-pé de Séréna Williams Toujours au max, j'ai la maxi les vrais bougs savent Anti-poucave, anti-schtar ou anti-françois-xavier Si j'ai la balle, considéré que j'ai déjà qué-mar le but Vous connaissez ma réput', toujours fêlé dans mes trucs Anaconda dans le fut, y'a les potos, y'a les putes J'ai pris vos diezs et vos projets pour me nettoyer le uc Tu kiffes pas c'est qu't'as pas le goût Sale comme dans les égouts fuck Alerte à Malibu Moi j'veux grailler Laure Manaudou Je suis posé je suis dosé ça zé-ti Gun dans le zère plus on est de fous plus ça ré-ti You might also like Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2 Seth Gueko J'veux le buzz et l'argent du buzz J'braque le business achète des lunettes Ça fait une heure qu'tu suces la boite de vitesse Achètes pas la Mercedes en billets de cinq Ou un milkshake avec la carte American Express Wesh j'ai pas attendu que les an-iences me foutent en selle Même quand ça va pas hamdoullah qu'en même tant qu'j'suis pas en ien-ch de jouvencelle C'est pas une fable de Jean de la Fontaine Homme grenouille recherche une femme fontaine Ol Kainry A se-l'ai dans la street avec mes pec' pelo Où les coups d'feu s'mélangent à la caisse claire Des bougs prennent à P.E.S des 7-0 Ça fait des lovés poser, doser sur le ter-ter C'est la crise quand on graille man, on finit tout Ou si la fille est chaudasse, on s'fout à poil comme Kirikou Moi je drague pas, je laisse faire J'ai tellement fourré ce mois-ci Merde j'crois qu'j'ai plus de me-sper Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2</t>
+          <t>Si j'suis à sec, arroses-moi comme Jala Faya J'suis bien dans mon tieks comme Dracula À la banque du sang ou entre tes cuisses Si t'as tes ragnagna, ça fait ratatatax Comme un arroseur d'brinks qu'envoie une rafale sur un mirador Demandes à Charlie Bauer le cul à chaise c'est Fear Factor Les odeurs de pisse ont fini par faire fuir le facteur J'préfère un voleur de disque qu'un téléchargeur J'refuse jamais une bière fraiche comme les déménageurs Viens à la piscine si tu veux voir mon torse de maître nageur J'ai pas de voiture, j'ai baisé les rageurs Ils peuvent rayer qu'mes cd Belek les keufs roulent avec le siège bébé Et un A sur le cul dès que j'les vois j'éternue Y'a pas de faux ???? les rues, j'me suis posé sur l'nez du rap game comme une verrue J'prends tous les mc à la Queuleuleu comme Bézu Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2 Tu vois des armes se pavaner dans mes textes Je suis plus violent que le boug le plus mauvais de ton tieks Vous m'saoulez comme les experts avec vos p'tits projets, tous vos p'tits sons j'vais tous les découper comme dans Dexter J'ai fait mes bails comme d'autres ont fait dans la guinam J'aime quand c'est lourd comme le tard-pé de Séréna Williams Toujours au max, j'ai la maxi les vrais bougs savent Anti-poucave, anti-schtar ou anti-françois-xavier Si j'ai la balle, considéré que j'ai déjà qué-mar le but Vous connaissez ma réput', toujours fêlé dans mes trucs Anaconda dans le fut, y'a les potos, y'a les putes J'ai pris vos diezs et vos projets pour me nettoyer le uc Tu kiffes pas c'est qu't'as pas le goût Sale comme dans les égouts fuck Alerte à Malibu Moi j'veux grailler Laure Manaudou Je suis posé je suis dosé ça zé-ti Gun dans le zère plus on est de fous plus ça ré-ti Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2 Seth Gueko J'veux le buzz et l'argent du buzz J'braque le business achète des lunettes Ça fait une heure qu'tu suces la boite de vitesse Achètes pas la Mercedes en billets de cinq Ou un milkshake avec la carte American Express Wesh j'ai pas attendu que les an-iences me foutent en selle Même quand ça va pas hamdoullah qu'en même tant qu'j'suis pas en ien-ch de jouvencelle C'est pas une fable de Jean de la Fontaine Homme grenouille recherche une femme fontaine Ol Kainry A se-l'ai dans la street avec mes pec' pelo Où les coups d'feu s'mélangent à la caisse claire Des bougs prennent à P.E.S des 7-0 Ça fait des lovés poser, doser sur le ter-ter C'est la crise quand on graille man, on finit tout Ou si la fille est chaudasse, on s'fout à poil comme Kirikou Moi je drague pas, je laisse faire J'ai tellement fourré ce mois-ci Merde j'crois qu'j'ai plus de me-sper Ça vient du ter-ter X4 Mais dosé X2, on est dosés Ça vient du ter-ter X4 Et on est moovés X2</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>9.5 Saint-Ouen l'Aumône tieks C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane Faut surtout pas qu'on rate l'occase De faire du sabotage à Sarko-plage Car y a des cris des pleurs à chaque sautages Nourou, Farage c'est le naufrage dès que s'échappe nos phrases Trêve de papotage on a pas votre âge Mon cercueil sera un sarcophage Envoies la rançon ou on charcle l'otage Quand tu vois que ça sent la bite, le rap a la chatte trop large Appelle ça des textes de barges On dégorge de rage un peu comme Alex Delage Check ! Paye ton milkshake aux milles On va dérober vos recettes, allez laver vos shnek Ça pète comme Hiroshima, j'ai fait grossir mon bras Pour ceux qui rechigne à m'croire Il faut qu'le chiffre accroit, il faut qu'on chine la proie On veut un Vitara et pour nos yeux fonce-dé du vide à trois C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane You might also like On rappe parce qu'on veut le gent-ar Parce y a de moins en moins de bolos sur le terter d'Saint-Ouen l'Aumône à teuil-gen-Ar J'rappe pendant qu'ma weed part en sachets Car c'est mon talent caché pour qu't'aies les Pour voir des barres entassées, pour voir tes parents cracher J'fais des blah blah car j'ai la voix encrassée Gringo, j'veux plus d'la Twingo initiale J'veux l'bingo et palper des p'tites go physical J'rappe pour des shoes neuves, pour plus qu'les douilles pleuvent Blah car la maille efface toutes preuves On trouve pas un d'yabuza dans l'annuaire Comme on teste un Yakuza sans annulaire Cousin, j'rappe pour honorer le 95 Car quand j'rappe les MC s'écartent le va-in-g Cousin, j'rappe pour honorer le 95 Pour les déglingués du cerveau complétement zinzin C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane</t>
+          <t>9.5 Saint-Ouen l'Aumône tieks C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane Faut surtout pas qu'on rate l'occase De faire du sabotage à Sarko-plage Car y a des cris des pleurs à chaque sautages Nourou, Farage c'est le naufrage dès que s'échappe nos phrases Trêve de papotage on a pas votre âge Mon cercueil sera un sarcophage Envoies la rançon ou on charcle l'otage Quand tu vois que ça sent la bite, le rap a la chatte trop large Appelle ça des textes de barges On dégorge de rage un peu comme Alex Delage Check ! Paye ton milkshake aux milles On va dérober vos recettes, allez laver vos shnek Ça pète comme Hiroshima, j'ai fait grossir mon bras Pour ceux qui rechigne à m'croire Il faut qu'le chiffre accroit, il faut qu'on chine la proie On veut un Vitara et pour nos yeux fonce-dé du vide à trois C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane On rappe parce qu'on veut le gent-ar Parce y a de moins en moins de bolos sur le terter d'Saint-Ouen l'Aumône à teuil-gen-Ar J'rappe pendant qu'ma weed part en sachets Car c'est mon talent caché pour qu't'aies les Pour voir des barres entassées, pour voir tes parents cracher J'fais des blah blah car j'ai la voix encrassée Gringo, j'veux plus d'la Twingo initiale J'veux l'bingo et palper des p'tites go physical J'rappe pour des shoes neuves, pour plus qu'les douilles pleuvent Blah car la maille efface toutes preuves On trouve pas un d'yabuza dans l'annuaire Comme on teste un Yakuza sans annulaire Cousin, j'rappe pour honorer le 95 Car quand j'rappe les MC s'écartent le va-in-g Cousin, j'rappe pour honorer le 95 Pour les déglingués du cerveau complétement zinzin C'est un drive by en cara-caravane Ma couillasse C'est un drive by en cara-caravane</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3111,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ahhh, peste noire Escobar Ndoki Seth Gueko Rap attentat Rap attentat Masta, duo démoniaque, on t'verse de lammoniaque Dans l'duodénum, du haut des halls, j'dévore lmic Rap attentat Rap attentat, attends-toi à ce que J'pose une bombe à Paris, qu'tu retrouves ta jambe à Atlanta On n'sépare pas deux pits qui s'embrassent ahhh Ou c'est la mort sure, j'ai la Coupe Davis comme Pete Sampras Cur de glace atchoum !, j'éternue dla grêle sur ta tête Parle pas du Paradis, jai perdu l'adresse On commet les délits avec délicatesse Y a plus de trous dballe dans ta tess que sur 50 Cent Coup d'Laguiole dans la guibole, j'milite Pour qu'on remplace leau d'Vitrolles par du vitriol On m'pince par la vitre arrière de la bagnole fais pas l'malin Guignol, arrête de jurer sur la vie d'ta mère la bite à l'air T'es pas heureux, tant pis je m'en bats les couilles Si tu crois que j'vais m'repentir, va t'rouler dans les orties à la Sanchez Dirty Rap attentat, 93 kilos d'plastic Mastic dans une bagnole classique, négro, attends-toi Au feu d'artifice, canal historique, soldat Drive By Calibre, y a trop d'cadavres, une foule hystérique Escobar, encore du sang dans l'registre D'la haine quand j'enregistre, j'donne du taf au médecin légiste T'as rien saisi, mange une bastos et pionce Dans la mort, toutes les questions d'la vie trouvent une réponse Masta, n'accuse pas la canicule, j'aime le chauffage Macson, retiens l'blase, maintenant, ta peur a un visage Allende-Kaboul, Grandcoing-Mazar-e-Charif Négros venus faire la misère au shérif Appuie Eject et ton mur est retapissé Texte dynamite, ça m'a pris comme une envie d'pisser On s'est trompé rarement, mixtape Mauvais Tempérament Ici, je t'explose même si j'perds la manche You might also like Rap attentat, si tu vas en Enfer avant moi, m'attends pas M'attends pas, négro Y a qu'les tours HLM qui n'se croisent pas, masta Croise les bras et suce la bite au Sheitan Esprit mabé, soko diongo Chat noir Escobar Macson, whisky Seth Gueko Nicky Santoro Abbas, Brasco Hall Stars Néocriminel, Allende, Central Park, ghetto d'aliénés K.Lybr, mon bras gauche, E.Dash plus ultra Sakio Bandinelli, Ghetto Guet-Apens explosif Les Poliakov, royal makasi, Djeski, l'équipe de sang Rap attentat volume 2 volume 2</t>
+          <t>Ahhh, peste noire Escobar Ndoki Seth Gueko Rap attentat Rap attentat Masta, duo démoniaque, on t'verse de lammoniaque Dans l'duodénum, du haut des halls, j'dévore lmic Rap attentat Rap attentat, attends-toi à ce que J'pose une bombe à Paris, qu'tu retrouves ta jambe à Atlanta On n'sépare pas deux pits qui s'embrassent ahhh Ou c'est la mort sure, j'ai la Coupe Davis comme Pete Sampras Cur de glace atchoum !, j'éternue dla grêle sur ta tête Parle pas du Paradis, jai perdu l'adresse On commet les délits avec délicatesse Y a plus de trous dballe dans ta tess que sur 50 Cent Coup d'Laguiole dans la guibole, j'milite Pour qu'on remplace leau d'Vitrolles par du vitriol On m'pince par la vitre arrière de la bagnole fais pas l'malin Guignol, arrête de jurer sur la vie d'ta mère la bite à l'air T'es pas heureux, tant pis je m'en bats les couilles Si tu crois que j'vais m'repentir, va t'rouler dans les orties à la Sanchez Dirty Rap attentat, 93 kilos d'plastic Mastic dans une bagnole classique, négro, attends-toi Au feu d'artifice, canal historique, soldat Drive By Calibre, y a trop d'cadavres, une foule hystérique Escobar, encore du sang dans l'registre D'la haine quand j'enregistre, j'donne du taf au médecin légiste T'as rien saisi, mange une bastos et pionce Dans la mort, toutes les questions d'la vie trouvent une réponse Masta, n'accuse pas la canicule, j'aime le chauffage Macson, retiens l'blase, maintenant, ta peur a un visage Allende-Kaboul, Grandcoing-Mazar-e-Charif Négros venus faire la misère au shérif Appuie Eject et ton mur est retapissé Texte dynamite, ça m'a pris comme une envie d'pisser On s'est trompé rarement, mixtape Mauvais Tempérament Ici, je t'explose même si j'perds la manche Rap attentat, si tu vas en Enfer avant moi, m'attends pas M'attends pas, négro Y a qu'les tours HLM qui n'se croisent pas, masta Croise les bras et suce la bite au Sheitan Esprit mabé, soko diongo Chat noir Escobar Macson, whisky Seth Gueko Nicky Santoro Abbas, Brasco Hall Stars Néocriminel, Allende, Central Park, ghetto d'aliénés K.Lybr, mon bras gauche, E.Dash plus ultra Sakio Bandinelli, Ghetto Guet-Apens explosif Les Poliakov, royal makasi, Djeski, l'équipe de sang Rap attentat volume 2 volume 2</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3128,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sblex ! On veut la BM à Ben Affleck maintenant On a l'ADN à Ben Laden depuis 20ans Pendant un tête-à-tête tu peux perdre 5 dents, sblex Mes potes taulards veulent s'faire la belle en grimpant Avant on pouvait faire la fête avec 20 francs Pour m'avoir en feat faut faire appel à mon pote Vincent Comme Bernadette on veut rouler en SL500 Y a pas qu'mon sexe, mes textes à thème aussi sont convaincants Baisse ta tête, mets les gants on monte sur un plan Ce soir j'lèche ta shneck et tes implants J'ai la tête à Shrek quand j'bois du vin blanc Si j'veux tu t'fais racket' en un instant Mes potes antillais ramènent des mallettes de gingembre Wesh ma frère si j'compte mes bras j'ai 5 jambes Seth Guex ? Zut ! On laisse plein d'sang Arrête de geindre baise ta mère on peut rien m'prendre Reste à terre c'est un bain de sang J'ai fait tout c'texte en E-A -E-IN-AN, ouais E-A-E-IN-AN Baise ta mère maintenant Ah ! Seth Guex Seth GuexYou might also like</t>
+          <t>Sblex ! On veut la BM à Ben Affleck maintenant On a l'ADN à Ben Laden depuis 20ans Pendant un tête-à-tête tu peux perdre 5 dents, sblex Mes potes taulards veulent s'faire la belle en grimpant Avant on pouvait faire la fête avec 20 francs Pour m'avoir en feat faut faire appel à mon pote Vincent Comme Bernadette on veut rouler en SL500 Y a pas qu'mon sexe, mes textes à thème aussi sont convaincants Baisse ta tête, mets les gants on monte sur un plan Ce soir j'lèche ta shneck et tes implants J'ai la tête à Shrek quand j'bois du vin blanc Si j'veux tu t'fais racket' en un instant Mes potes antillais ramènent des mallettes de gingembre Wesh ma frère si j'compte mes bras j'ai 5 jambes Seth Guex ? Zut ! On laisse plein d'sang Arrête de geindre baise ta mère on peut rien m'prendre Reste à terre c'est un bain de sang J'ai fait tout c'texte en E-A -E-IN-AN, ouais E-A-E-IN-AN Baise ta mère maintenant Ah ! Seth Guex Seth Guex</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Le fils caché d'Jack Mess', Seth Guex J'ai pas l'temps d'acheter au magasin, la rage habite tous mes Sarrasins J'ai pas l'temps d'lécher ton garage à bites Ouais, nique sa race hein, j'ai pas l'temps d'aimer les gens Seth il est méchant et ne crois pas qu'il ait gé-chan J'ai pas l'temps d'squatter là, t'es malade ! C'est l'Guatemala Seth est malin, té-ma la s'maine dernière il s'est fait la malle à Des bornes de sa banlieue natale un lieu fatal Soupçonné, y'a eu qu'des non-lieux bâtard ! J'ai pas l'temps d'oublier ce bon vieux Fatah Qui m'a prêché l'Islam, préconisé d'tiser d'la tisane Lui et Sakio j'les suivrais où qu'ils aillent, bilay Même si on doit donner recevoir des coups d'cisailles J'ai pas l'temps d'jouer les malades J'essaye d'être pieux, vieux comme le Prophète Mohamed Alias salat wa salam, moi-même j'slalome Entre le panier à salade et l'scarla qui sort sa lame durant l'da-Ram Pas l'temps d'tomber au ballon ou d'prendre une balle Au pire c'est une pierre tombale et une photo d'plus au salon J'ai pas l'temps d'être un mari salaud qui envoie sa miss à l'hospice, ça non Faut qu'ma vie s'annonce peace Et pas entendre la police à l'autre bout du fil S'allonger d'rire avant d'me dire qu'il y a mon fils à l'ombre Ou un d'mes potes à l'hosto' On est tous claustro' You might also like Welcome to the hood ! Bad boy ! Là où les balles entaillent, pas le time on s'réchauffe l'corps avec du Ballantine's P'tits gabarits ou grandes tailles Mentalité racaille, pas l'time, pas l'time Ouais pas l'temps d'rester là mec, 22 ! v'là la Laguna break ! T'es pas cool avec 3 jours après t'as la gueule à Shrek J'ai pas l'temps d'sourire Pour plaire aux filles, j'mâche un chewing-gum chlorophylle, j'la tchatche et j'embobine le père aussi Pas l'temps d'faire l'lover, j'suis en mode bourrin Une tête de roumain, une haleine de poulain J'ai pas l'temps d'jouer l'numéro 1 Mais t'es tombé sous ma Patate de Forain troué par mon Barillet Plein Seth Gueko, le cauchemar parisien Le tos-ma part et vient On laisse rien à la baraque Aucune empreintes, on laisse aucun indice C'est pour mes fumeurs de cannabis Pas l'temps d'rester au tieks, il faut qu'on s'casse à Nice C'est avec des grenades à plâtre qu'on fait des passes à dix Achète une bouteille de Casanis Et tu pourras emprunter le jeu d'frappe du garagiste On a des mentalités d'anarchistes J'ai enneigé Paris via des sacs plastix Pas l'temps d'faire la queue d'vant les boîtes Pas l'temps de te check si t'as les mains moites Parole de jouate, on a pas l'temps, on joue ap' J'ai un kalash croate à l'intérieur du XXXX La rue nous observe Pas l'temps d'faire la fausse caillera, toi fais pas ta fausse vierge ! Ta mama n'aura pas b'soin d'acheter d'cierges Tu mérites même pas une balle réelle, tu mérites que du gros sel Grosse merde ! El Gueko Néochrome Paroles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Le fils caché d'Jack Mess', Seth Guex J'ai pas l'temps d'acheter au magasin, la rage habite tous mes Sarrasins J'ai pas l'temps d'lécher ton garage à bites Ouais, nique sa race hein, j'ai pas l'temps d'aimer les gens Seth il est méchant et ne crois pas qu'il ait gé-chan J'ai pas l'temps d'squatter là, t'es malade ! C'est l'Guatemala Seth est malin, té-ma la s'maine dernière il s'est fait la malle à Des bornes de sa banlieue natale un lieu fatal Soupçonné, y'a eu qu'des non-lieux bâtard ! J'ai pas l'temps d'oublier ce bon vieux Fatah Qui m'a prêché l'Islam, préconisé d'tiser d'la tisane Lui et Sakio j'les suivrais où qu'ils aillent, bilay Même si on doit donner recevoir des coups d'cisailles J'ai pas l'temps d'jouer les malades J'essaye d'être pieux, vieux comme le Prophète Mohamed Alias salat wa salam, moi-même j'slalome Entre le panier à salade et l'scarla qui sort sa lame durant l'da-Ram Pas l'temps d'tomber au ballon ou d'prendre une balle Au pire c'est une pierre tombale et une photo d'plus au salon J'ai pas l'temps d'être un mari salaud qui envoie sa miss à l'hospice, ça non Faut qu'ma vie s'annonce peace Et pas entendre la police à l'autre bout du fil S'allonger d'rire avant d'me dire qu'il y a mon fils à l'ombre Ou un d'mes potes à l'hosto' On est tous claustro' Welcome to the hood ! Bad boy ! Là où les balles entaillent, pas le time on s'réchauffe l'corps avec du Ballantine's P'tits gabarits ou grandes tailles Mentalité racaille, pas l'time, pas l'time Ouais pas l'temps d'rester là mec, 22 ! v'là la Laguna break ! T'es pas cool avec 3 jours après t'as la gueule à Shrek J'ai pas l'temps d'sourire Pour plaire aux filles, j'mâche un chewing-gum chlorophylle, j'la tchatche et j'embobine le père aussi Pas l'temps d'faire l'lover, j'suis en mode bourrin Une tête de roumain, une haleine de poulain J'ai pas l'temps d'jouer l'numéro 1 Mais t'es tombé sous ma Patate de Forain troué par mon Barillet Plein Seth Gueko, le cauchemar parisien Le tos-ma part et vient On laisse rien à la baraque Aucune empreintes, on laisse aucun indice C'est pour mes fumeurs de cannabis Pas l'temps d'rester au tieks, il faut qu'on s'casse à Nice C'est avec des grenades à plâtre qu'on fait des passes à dix Achète une bouteille de Casanis Et tu pourras emprunter le jeu d'frappe du garagiste On a des mentalités d'anarchistes J'ai enneigé Paris via des sacs plastix Pas l'temps d'faire la queue d'vant les boîtes Pas l'temps de te check si t'as les mains moites Parole de jouate, on a pas l'temps, on joue ap' J'ai un kalash croate à l'intérieur du XXXX La rue nous observe Pas l'temps d'faire la fausse caillera, toi fais pas ta fausse vierge ! Ta mama n'aura pas b'soin d'acheter d'cierges Tu mérites même pas une balle réelle, tu mérites que du gros sel Grosse merde ! El Gueko Néochrome Paroles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3162,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Elles veulent son Brad Pitt, elles veulent son George Clooney Elles veulent qu'son coeur palpite, sentir sa gorge nouée Elle veut, perdre sa peau d'orange, faire des abdos Elle veut du Coca mais elle commande de l'eau Elle craquerait bien pour du Coca Zéro Allez meuf ! Elle craquerait pour de la coke à 0.9 ! Elle veut, aller aux chiottes avec sa copine Elle me chuchote qu'elle veut mon code PIN You might also likeElle veut une p'tite bosseuse pas une grosse paresseuse Elle veut qu'on la touche mais seulement avec les yeuz Elle veut, dorer sa peau chez Élever des mais elle veut pas finir sa vie seule Elle a des goûts doux, elle veut sa paire de Loubous Elle veut aussi une première expérience goudou Même si, je sais ce que veulent les femmes Je resterais un butterfly Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Elle veut, dîner chez les plus grands chefs cuistot Mais pas s'baigner dans n'importe quel ruisseau Elle veut passer du bon temps avec le champion En fait, elle veut un enfant pour avoir la pension Elle veut passer de l'arnica pour avoir ma carte Visa Elle s'fait appeler Shauna mais son vrai nom c'est Garima Elle veut son passeport, son sac Dior et s'marier pourquoi ? Pour v'nir en France et avoir ses papiers Elle veut être la seule et l'unique dame Et qu'j'arrête mes voyages à Amsterdam Elle veut que je change et que j'arrête de fumer Mais j'resterais à jamais un bédaveur invétéré Elle veut pas aller bosser, elle me traîne jusqu'au lit Elle veut être ma secrétaire, que j'sois son Berlusconi Elle veut qu'j'arrête le rap, elle commence à devenir folle Elle veut que j'lui ouvre mon coeur mais elle a pas la clé de sol Elles veulent, elles veulent toutes Mais ? elles veulent toutes des Elles veulent toutes du Mais ? elles veulent toutes des Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver</t>
+          <t>Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Elles veulent son Brad Pitt, elles veulent son George Clooney Elles veulent qu'son coeur palpite, sentir sa gorge nouée Elle veut, perdre sa peau d'orange, faire des abdos Elle veut du Coca mais elle commande de l'eau Elle craquerait bien pour du Coca Zéro Allez meuf ! Elle craquerait pour de la coke à 0.9 ! Elle veut, aller aux chiottes avec sa copine Elle me chuchote qu'elle veut mon code PIN Elle veut une p'tite bosseuse pas une grosse paresseuse Elle veut qu'on la touche mais seulement avec les yeuz Elle veut, dorer sa peau chez Élever des mais elle veut pas finir sa vie seule Elle a des goûts doux, elle veut sa paire de Loubous Elle veut aussi une première expérience goudou Même si, je sais ce que veulent les femmes Je resterais un butterfly Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Elle veut, dîner chez les plus grands chefs cuistot Mais pas s'baigner dans n'importe quel ruisseau Elle veut passer du bon temps avec le champion En fait, elle veut un enfant pour avoir la pension Elle veut passer de l'arnica pour avoir ma carte Visa Elle s'fait appeler Shauna mais son vrai nom c'est Garima Elle veut son passeport, son sac Dior et s'marier pourquoi ? Pour v'nir en France et avoir ses papiers Elle veut être la seule et l'unique dame Et qu'j'arrête mes voyages à Amsterdam Elle veut que je change et que j'arrête de fumer Mais j'resterais à jamais un bédaveur invétéré Elle veut pas aller bosser, elle me traîne jusqu'au lit Elle veut être ma secrétaire, que j'sois son Berlusconi Elle veut qu'j'arrête le rap, elle commence à devenir folle Elle veut que j'lui ouvre mon coeur mais elle a pas la clé de sol Elles veulent, elles veulent toutes Mais ? elles veulent toutes des Elles veulent toutes du Mais ? elles veulent toutes des Même si on sait ce que veulent les femmes Un type simple ou bien un X5 On sait très bien pourquoi elles nous charment Elles passent leur vie à essayer d'nous changer Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver Tout ce qu'elles veulent c'est rêver</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3179,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Geah, Seth Gueko So' ! Geah J'ai pas l'temps de répondre à leurs clash Saches que mon Jnoun les insultes à ma place J'ai des gros doutes sur leurs histoire d'kalash J'doute aussi qu'on soit plus beau devant un miroir d'palace Ma pauvre mère a fait une demande d'appart Ça fait 5 ans que son dossier est dans un tiroir d'paperasse La France peut crier victoire, j'marrache Même si partir c'est mourir un peu, hélas Par contre mourir, c'est partir beaucoup ma couillasse C'est même disparaître de la surface T-Max, Air Max, Huarache Dis-moi qui a la couronne que j'lui arrache J'ai ma soucoupe caché dans les collines de Bugarach Y'a eu un arrivage, passe moi les clés du garage So', plus j'fais des punchlines plus j'agace Faux, pas croire tout c'que dit David Pujadas Chaud, on est victimes de diffamations J'suis beau garçon j'suis pas en Thaï pour les putes à DAS' Mate mes mains on dirait qu'j'ai été dix fois maçons L'argent n'as pas d'odeur mais l'placard ça pue sa race Si j'avais déjà la classe avec mes Cortez J'envoie du lourd t'es pas sorti de l'obèse J'fais du rap d'cours de promenades, pas d'cours de collège Hun.. la chatte à Selena Gomez You might also like Mes rimes valent plus que de l'or et personne s'en rend compte Ils courent après l'veau d'or en poussant d'la fonte Se croient au top, car ils ont trois punchlines Mais il y'a jamais personne sur la fucking frontline Sur la fucking frontline Sur la fucking frontline EMC2 fucking Albert Einstein Fucking Albert Einstein Le mauvais sort vient de la mauvaise voie Le mauvais cur vient de la mauvaise foi Souvenir brûlé par tant de tristesse Amnésie partiel, de c't'argent partit comme ma jeunesse Ils n'auront qu'à sucer ma queue ceux qui n'aiment pas voir plus heureux qu'eux Le fond de mon cur plus loin qu'le bout du monde Que vais-je devenir si j'me relève pas ? On me demande 100 kills, j'dis qu'j'arrête on ne me croit pas Mes gosses je ne les voit pas, dur de garder ça pour moi Le ghetto c'est Lucas Brasi Lucas Moura Surtout m'fais pas la moral, j'ai une envie de tuer Une envie d'bouillave, une envie d'chourave chez les blindés Rentrer chez eux, tout prendre qu'ils rentrent de vacances outrés Comme ces chevaux placés gagnant qui nous ont ruinés Seth cherche la lumière depuis l'époque de la cassette Adolescent j'me rappelle de Don Choa et ses mixtapes Aujourd'hui c'est sextape, clash et tout l'tralala Les p'tites prennent exemple sur Nabilla, ralala Heureusement qu'on est là, sinon le pe-ra c'est quoi ? Comme Achille je tue Hector devant son père et sa femme Mes rimes valent plus que de l'or et personne s'en rend compte Ils courent après l'veau d'or en poussant d'la fonte Se croient au top, car ils ont trois punchlines Mais il y'a jamais personne sur la fucking frontline Sur la fucking frontline Sur la fucking frontline EMC2 fucking Albert Einstein Fucking Albert Einstein</t>
+          <t>Geah, Seth Gueko So' ! Geah J'ai pas l'temps de répondre à leurs clash Saches que mon Jnoun les insultes à ma place J'ai des gros doutes sur leurs histoire d'kalash J'doute aussi qu'on soit plus beau devant un miroir d'palace Ma pauvre mère a fait une demande d'appart Ça fait 5 ans que son dossier est dans un tiroir d'paperasse La France peut crier victoire, j'marrache Même si partir c'est mourir un peu, hélas Par contre mourir, c'est partir beaucoup ma couillasse C'est même disparaître de la surface T-Max, Air Max, Huarache Dis-moi qui a la couronne que j'lui arrache J'ai ma soucoupe caché dans les collines de Bugarach Y'a eu un arrivage, passe moi les clés du garage So', plus j'fais des punchlines plus j'agace Faux, pas croire tout c'que dit David Pujadas Chaud, on est victimes de diffamations J'suis beau garçon j'suis pas en Thaï pour les putes à DAS' Mate mes mains on dirait qu'j'ai été dix fois maçons L'argent n'as pas d'odeur mais l'placard ça pue sa race Si j'avais déjà la classe avec mes Cortez J'envoie du lourd t'es pas sorti de l'obèse J'fais du rap d'cours de promenades, pas d'cours de collège Hun.. la chatte à Selena Gomez Mes rimes valent plus que de l'or et personne s'en rend compte Ils courent après l'veau d'or en poussant d'la fonte Se croient au top, car ils ont trois punchlines Mais il y'a jamais personne sur la fucking frontline Sur la fucking frontline Sur la fucking frontline EMC2 fucking Albert Einstein Fucking Albert Einstein Le mauvais sort vient de la mauvaise voie Le mauvais cur vient de la mauvaise foi Souvenir brûlé par tant de tristesse Amnésie partiel, de c't'argent partit comme ma jeunesse Ils n'auront qu'à sucer ma queue ceux qui n'aiment pas voir plus heureux qu'eux Le fond de mon cur plus loin qu'le bout du monde Que vais-je devenir si j'me relève pas ? On me demande 100 kills, j'dis qu'j'arrête on ne me croit pas Mes gosses je ne les voit pas, dur de garder ça pour moi Le ghetto c'est Lucas Brasi Lucas Moura Surtout m'fais pas la moral, j'ai une envie de tuer Une envie d'bouillave, une envie d'chourave chez les blindés Rentrer chez eux, tout prendre qu'ils rentrent de vacances outrés Comme ces chevaux placés gagnant qui nous ont ruinés Seth cherche la lumière depuis l'époque de la cassette Adolescent j'me rappelle de Don Choa et ses mixtapes Aujourd'hui c'est sextape, clash et tout l'tralala Les p'tites prennent exemple sur Nabilla, ralala Heureusement qu'on est là, sinon le pe-ra c'est quoi ? Comme Achille je tue Hector devant son père et sa femme Mes rimes valent plus que de l'or et personne s'en rend compte Ils courent après l'veau d'or en poussant d'la fonte Se croient au top, car ils ont trois punchlines Mais il y'a jamais personne sur la fucking frontline Sur la fucking frontline Sur la fucking frontline EMC2 fucking Albert Einstein Fucking Albert Einstein</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3196,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>On te fume avec le sourire, on drague avec le sourire On sort du placard avec le sourire Je suis la violence sous toutes ses coutures Dans le sac Emile Louis Vuitton, les petites coupures On t'escroque avec le sourire Toujours et seulement avec le sourire On sourira même à la morgue On est pas des fashion victimes mais des criminels de la mode Va chez la couturière si tu prends un coup de shlass Je vais me tatouer une bite sur le front comme ça je te baise direct Si je te met un coup de plaff trop de testo' ma couillasse Si je serai une meuf j'aurai pas de eins-s et j'aurai de la moustache Harchoumax, c'est même pas tes meufs dans ton clip Pff, même tes couilles veulent pas rester dans ton slip Donne du viagra à ton pitt, pucelle Si tu veux qu'on te baise comme une chienne, si tu veux des étincelles Ou que le feu crépite dans ta chaine Bang Olufsen Mets moi un bon beat et sert moi un verre de sky qui baigne dans le fut de chêne Je préfère une pute qu'une salope, que la pute au moins elle ramène du zeille Je vais dire pourquoi je suis baiser de la cervelle Car j'ai la bite assez longue pour me la foutre dans l'oreille Tu veux de l'oseille, une bête de meuf dans ta Porsche Demande à Walter Amego, avoir un portable c'est avoir un keuf dans sa poche Et comme Armaggedon approche J'ai toujours mon Walter et mes gants dans ma sacoche T'auras beau être morche, t'auras beau être grand On fera pas tout le cinoche des all-blacks avant te rentrer dedans Je suis tellement pas un suceur Que les Mister Freeze je les croque au risque de me péter l'emaille des dents La coke, met pas le nez dedans Les youves on les connait, on les côtoie Je la représente des caves jusqu'au toit, comme toi la rue je suis né dedans Entre la merde et la pisse Sur les plafonds on se fait les ratiches La rime est fédératrice, c'est pour les petits baveux et les gravots La police veut des aveux mais moi je veux baiser gratis Kim Kardashian Des préservatifs, du cialis, du caviar caspien J'ai de quoi te rendre végétatif dans ma boîte à gants J'ai rien d'un M.C attachant, la rage m'asphyxie J'ai les shtay qui rayent le parquet comme des patins à glace, si si Y a plus de faces qui à tapins à Place Clichy La France arrache de son calpin la page Vichy Y a peut être des micros derrière la tapisserie Faut pas que je squatte ici J'ai une gueule sortie d'un Emir Kusturica ou d'un Guy Ritchie You might also like</t>
+          <t>On te fume avec le sourire, on drague avec le sourire On sort du placard avec le sourire Je suis la violence sous toutes ses coutures Dans le sac Emile Louis Vuitton, les petites coupures On t'escroque avec le sourire Toujours et seulement avec le sourire On sourira même à la morgue On est pas des fashion victimes mais des criminels de la mode Va chez la couturière si tu prends un coup de shlass Je vais me tatouer une bite sur le front comme ça je te baise direct Si je te met un coup de plaff trop de testo' ma couillasse Si je serai une meuf j'aurai pas de eins-s et j'aurai de la moustache Harchoumax, c'est même pas tes meufs dans ton clip Pff, même tes couilles veulent pas rester dans ton slip Donne du viagra à ton pitt, pucelle Si tu veux qu'on te baise comme une chienne, si tu veux des étincelles Ou que le feu crépite dans ta chaine Bang Olufsen Mets moi un bon beat et sert moi un verre de sky qui baigne dans le fut de chêne Je préfère une pute qu'une salope, que la pute au moins elle ramène du zeille Je vais dire pourquoi je suis baiser de la cervelle Car j'ai la bite assez longue pour me la foutre dans l'oreille Tu veux de l'oseille, une bête de meuf dans ta Porsche Demande à Walter Amego, avoir un portable c'est avoir un keuf dans sa poche Et comme Armaggedon approche J'ai toujours mon Walter et mes gants dans ma sacoche T'auras beau être morche, t'auras beau être grand On fera pas tout le cinoche des all-blacks avant te rentrer dedans Je suis tellement pas un suceur Que les Mister Freeze je les croque au risque de me péter l'emaille des dents La coke, met pas le nez dedans Les youves on les connait, on les côtoie Je la représente des caves jusqu'au toit, comme toi la rue je suis né dedans Entre la merde et la pisse Sur les plafonds on se fait les ratiches La rime est fédératrice, c'est pour les petits baveux et les gravots La police veut des aveux mais moi je veux baiser gratis Kim Kardashian Des préservatifs, du cialis, du caviar caspien J'ai de quoi te rendre végétatif dans ma boîte à gants J'ai rien d'un M.C attachant, la rage m'asphyxie J'ai les shtay qui rayent le parquet comme des patins à glace, si si Y a plus de faces qui à tapins à Place Clichy La France arrache de son calpin la page Vichy Y a peut être des micros derrière la tapisserie Faut pas que je squatte ici J'ai une gueule sortie d'un Emir Kusturica ou d'un Guy Ritchie</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3213,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Comme le Père Noël, j'escalade les toitures Casse bell' à Foot Locker Lendemain y a plus aucune pointure Vu la conjoncture, le sky zin je le bois pur Si le marche plus, je vais me mettre à l'acupuncture J'crois que c'est bon pour mettre la viande pfff téma la braise Merde j'enfonce ta tête par accident, par maladresse En Italie ils te diront qu' la pire de toute c'est la Calabraise Fais pas comme Bassem ou Pop Smoke Snap pas l'adresse Quotidiennement en France il se passe des choses flippantes Hier soir un uber est mort, il a oublié la sauce piquante J'nettoie l'viseur, un bon sniper n'a pas le cur palpitant Equalizer j'te tue avec une masse de chez Balitran T'es le premier des bourricots, moi le dernier des Mohicans Bien sûr je crois au Tout Puissant mais je suis pas pratiquant Dis moi où et quand J'ramène cette merde Je suis un trafiquant comme l'évêque du Vatican Zin, Jason Voriz, J'suis dans le bâtiment comme un gueshtou Tranquillement j'recompte ma kichta Prenez Maëva Ghenam et rendez Igor Grichka Je suis aux Barlous ce qu'est Hare Krishna est pour les gindoux C'est la guerre dans le bendo J'ai de la gaine-dé depuis les jeans Marithé François Girbault Et les jeunes ont hérité d'une France à gerber Donc dit à Hidalgo que je lui mets dans l'amygdale gauche R.I.P. Virgile Abloh rien à foutre d'Annie Girardot On veut des huitres Gilardo ou des Utah Beach Et poser le cul de ta bitch dans un R8 Greenardo J'arrive, arigatô J'me casse, arrivederci J'ai chié dans le jacuzzi, arrivée d'air chaud Apparemment les meilleurs sont les artistes à tête chauves Est-ce une coïncidence si j'ai le crâne de Krilin ? Gueko, Voriz, c'est pas un feat, c'est un match de Ligue 1 Appelle moi Didier, barbe de Lybien Patong City Gang 9.5, 0.6You might also like</t>
+          <t>Comme le Père Noël, j'escalade les toitures Casse bell' à Foot Locker Lendemain y a plus aucune pointure Vu la conjoncture, le sky zin je le bois pur Si le marche plus, je vais me mettre à l'acupuncture J'crois que c'est bon pour mettre la viande pfff téma la braise Merde j'enfonce ta tête par accident, par maladresse En Italie ils te diront qu' la pire de toute c'est la Calabraise Fais pas comme Bassem ou Pop Smoke Snap pas l'adresse Quotidiennement en France il se passe des choses flippantes Hier soir un uber est mort, il a oublié la sauce piquante J'nettoie l'viseur, un bon sniper n'a pas le cur palpitant Equalizer j'te tue avec une masse de chez Balitran T'es le premier des bourricots, moi le dernier des Mohicans Bien sûr je crois au Tout Puissant mais je suis pas pratiquant Dis moi où et quand J'ramène cette merde Je suis un trafiquant comme l'évêque du Vatican Zin, Jason Voriz, J'suis dans le bâtiment comme un gueshtou Tranquillement j'recompte ma kichta Prenez Maëva Ghenam et rendez Igor Grichka Je suis aux Barlous ce qu'est Hare Krishna est pour les gindoux C'est la guerre dans le bendo J'ai de la gaine-dé depuis les jeans Marithé François Girbault Et les jeunes ont hérité d'une France à gerber Donc dit à Hidalgo que je lui mets dans l'amygdale gauche R.I.P. Virgile Abloh rien à foutre d'Annie Girardot On veut des huitres Gilardo ou des Utah Beach Et poser le cul de ta bitch dans un R8 Greenardo J'arrive, arigatô J'me casse, arrivederci J'ai chié dans le jacuzzi, arrivée d'air chaud Apparemment les meilleurs sont les artistes à tête chauves Est-ce une coïncidence si j'ai le crâne de Krilin ? Gueko, Voriz, c'est pas un feat, c'est un match de Ligue 1 Appelle moi Didier, barbe de Lybien Patong City Gang 9.5, 0.6</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3230,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ahhh, tess, mec de tess tess Néochrome 3, Seth Gueko Seth Guex Masta, nouvelle ère Qui vivra voudra m'check et m'voira Moi, révolutionnaire comme Che Guevara M'voilà donc faut qu'les ous-s s'amassent Ouf à la Oussama, ouf à la Oussama Ouf à la Oussama, ça schlasse ou ça marche Passe un Kalash et la-ferme Dis à mes ennemis que j'vais pas lâcher l'affaire Hé yo, Saint-Ouen-l'Aumône, porte de la Chapelle Ta go n'a plus l'étoffe d'une star lorsqu'elle lâche une perle Moi, un spécimen de l'espèce humaine Moi, un té-ci man, moi, un perce-hymen Des substances hallucinogènes endurcient nos gènes La rue, c'est mon chez-moi, j'viens d'la Russie, mon cher J'viens d'un pénis italien L'odeur de l'oseille adoucit mon zen, t'as qu'à pleurer si t'as rien Ce que je suis, moi, un Iroquois, un Indien Et même pire ou quoi, Damien Mon fils, c'est mon mini-moi, sa mère, c'est mon territoire Moi, un futur vieillard, moi, un simili roi Viens voir exploser la bombe humaine Imagine-moi un pompe en l'air à la Banque Populaire Tranche sa jugulaire si elle commet l'adultère, hein Veille sur tes reins si tu veilles sur l'terrain Les chiens d'la horde sont hors d'eux Les futurs morts n'ont plus d'remords On a la culture de horde La culture des parkings, à part moi, y a pas d'king Va t'faire palper les parties intimes par Kimi Ou viens dans l'Coliseum, esprit mabé Faut des gorilles énormes pour corriger l'homme J'ai deux fois trop d'haine, qu'on m'en pardonne J'suis un Henhen, un membre d'Marone, le Mandarom Demande à Rome, les aliénés, c'est ceux Qui n'veulent pas voir César régner avec ces araignées La fatalité, c'est Croiser Émile Louis quand il est minuit ou Fatah l'été On peut pas arrêter les descendants d'Zapata Bâtard, pas d'échappatoires à part l'abattoir C'est la table chirurgicale si tu ricanes Cartel Hurricane, sors la webcam, ce soir, y a du Ricard Connais-tu le bruit d'une lame ? couac, couac, couac Tout l'monde mérite une arme au pays du mal Ce rap n'est que l'péril d'une âme Hantée par le cri d'ma femme qui accouche sans péridurale J'milite pour l'braquage des racistes Défonce sa cage thoracique car il saccage tes racines Masta, c'est la suprématie Un chien doit mourir comme un chien, j'aime insulter ma cible Le loup suit d'près ta moissy L'anarchie, c'est depuis qu'mon âme a noirci Je suis venu récupérer ce qu'on m'doit Néochrome 3, moi, j'suis pas comme toi Masta, Néochrome 3 You might also like On parle de lion mais j'vois pas d'crinière non, non On demande pas à Satan de s'mettre à genoux et d'faire la prière Tu perds une jambe si tu m'pourchasses, c'est Escobar Escobar T'as beau tirer la chasse, y a d'la chiasse, masta Calibre Records crk-crk, tous prêts pour la chaise À cette heure-ci, ça passe du tigre à la chèvre Dream team fada DB, Drive By Firme J'ai toujours la même rage depuis l'intifada, j'affirme Que l'animal est encore plus dangereux blessé J'donne pas la patte, j'la lève juste pour pisser Macson issu des ruelles 100-7, 93, braquage C'est l'bal masqué d'la compagnie cruelle Trop d'rap bricolage bidon, mystique car plastique collage Écoute, les MC font du racolage niquez vos mères Le Zaïrois, négro corrompu, j'ai l'il gauche dans l'anus Donc baisse les yeux car j'ai l'regard qui pue baisse, baisse Coup d'Gillette, t'as plus d'angine, j'veux l'oseille et les frangines Si tu m'accuses, j'nie même si y a preuve tangible allez J'suis dans la tangente, ni à gauche ni à droite Parle mal, j'deviens ton dentiste à coup d'tête plongeante po Il faut que j'me barre, j'suis indécis, une baraque et la piscine Imbécile, le 100-7 devient la Sicile ouais Dans mes veines kérosène tu sais Néochrome 3, trop d'patates, tu saignes du zen Esprit mabé, esprit mabé Calibre Records, Drive By, Hamdinamite Hamdinamite, Lamzo, Abdoulaye Malor Animal Flex, Scoop Botiano, dingue Masta, masta, Jox, Cartel Armes, Titoy et Merco Et Ker, Crimino, si si, Yonea Yons Grandcoing-Mazâr-e Charîf, ADES Allende-Kaboul, esprit mahboul 100-7, Ghetto Guet-Apens Escobar Macson, Seth Gueko</t>
+          <t>Ahhh, tess, mec de tess tess Néochrome 3, Seth Gueko Seth Guex Masta, nouvelle ère Qui vivra voudra m'check et m'voira Moi, révolutionnaire comme Che Guevara M'voilà donc faut qu'les ous-s s'amassent Ouf à la Oussama, ouf à la Oussama Ouf à la Oussama, ça schlasse ou ça marche Passe un Kalash et la-ferme Dis à mes ennemis que j'vais pas lâcher l'affaire Hé yo, Saint-Ouen-l'Aumône, porte de la Chapelle Ta go n'a plus l'étoffe d'une star lorsqu'elle lâche une perle Moi, un spécimen de l'espèce humaine Moi, un té-ci man, moi, un perce-hymen Des substances hallucinogènes endurcient nos gènes La rue, c'est mon chez-moi, j'viens d'la Russie, mon cher J'viens d'un pénis italien L'odeur de l'oseille adoucit mon zen, t'as qu'à pleurer si t'as rien Ce que je suis, moi, un Iroquois, un Indien Et même pire ou quoi, Damien Mon fils, c'est mon mini-moi, sa mère, c'est mon territoire Moi, un futur vieillard, moi, un simili roi Viens voir exploser la bombe humaine Imagine-moi un pompe en l'air à la Banque Populaire Tranche sa jugulaire si elle commet l'adultère, hein Veille sur tes reins si tu veilles sur l'terrain Les chiens d'la horde sont hors d'eux Les futurs morts n'ont plus d'remords On a la culture de horde La culture des parkings, à part moi, y a pas d'king Va t'faire palper les parties intimes par Kimi Ou viens dans l'Coliseum, esprit mabé Faut des gorilles énormes pour corriger l'homme J'ai deux fois trop d'haine, qu'on m'en pardonne J'suis un Henhen, un membre d'Marone, le Mandarom Demande à Rome, les aliénés, c'est ceux Qui n'veulent pas voir César régner avec ces araignées La fatalité, c'est Croiser Émile Louis quand il est minuit ou Fatah l'été On peut pas arrêter les descendants d'Zapata Bâtard, pas d'échappatoires à part l'abattoir C'est la table chirurgicale si tu ricanes Cartel Hurricane, sors la webcam, ce soir, y a du Ricard Connais-tu le bruit d'une lame ? couac, couac, couac Tout l'monde mérite une arme au pays du mal Ce rap n'est que l'péril d'une âme Hantée par le cri d'ma femme qui accouche sans péridurale J'milite pour l'braquage des racistes Défonce sa cage thoracique car il saccage tes racines Masta, c'est la suprématie Un chien doit mourir comme un chien, j'aime insulter ma cible Le loup suit d'près ta moissy L'anarchie, c'est depuis qu'mon âme a noirci Je suis venu récupérer ce qu'on m'doit Néochrome 3, moi, j'suis pas comme toi Masta, Néochrome 3 On parle de lion mais j'vois pas d'crinière non, non On demande pas à Satan de s'mettre à genoux et d'faire la prière Tu perds une jambe si tu m'pourchasses, c'est Escobar Escobar T'as beau tirer la chasse, y a d'la chiasse, masta Calibre Records crk-crk, tous prêts pour la chaise À cette heure-ci, ça passe du tigre à la chèvre Dream team fada DB, Drive By Firme J'ai toujours la même rage depuis l'intifada, j'affirme Que l'animal est encore plus dangereux blessé J'donne pas la patte, j'la lève juste pour pisser Macson issu des ruelles 100-7, 93, braquage C'est l'bal masqué d'la compagnie cruelle Trop d'rap bricolage bidon, mystique car plastique collage Écoute, les MC font du racolage niquez vos mères Le Zaïrois, négro corrompu, j'ai l'il gauche dans l'anus Donc baisse les yeux car j'ai l'regard qui pue baisse, baisse Coup d'Gillette, t'as plus d'angine, j'veux l'oseille et les frangines Si tu m'accuses, j'nie même si y a preuve tangible allez J'suis dans la tangente, ni à gauche ni à droite Parle mal, j'deviens ton dentiste à coup d'tête plongeante po Il faut que j'me barre, j'suis indécis, une baraque et la piscine Imbécile, le 100-7 devient la Sicile ouais Dans mes veines kérosène tu sais Néochrome 3, trop d'patates, tu saignes du zen Esprit mabé, esprit mabé Calibre Records, Drive By, Hamdinamite Hamdinamite, Lamzo, Abdoulaye Malor Animal Flex, Scoop Botiano, dingue Masta, masta, Jox, Cartel Armes, Titoy et Merco Et Ker, Crimino, si si, Yonea Yons Grandcoing-Mazâr-e Charîf, ADES Allende-Kaboul, esprit mahboul 100-7, Ghetto Guet-Apens Escobar Macson, Seth Gueko</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3247,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'envoie du lourd, t'es pas sorti de l'obèse Envouté par les gros bzez, nique shour et sortilèges J'rentre dans ton cul comme dans une auberge J'suis avec mon nègre Esco' Si t'es en chien, te plains pas, on vous a promis le Negresco Si tu vas au habs avant moi, prépare le Nespresso What Else ? J'viens d'Italie mais je bannis ce qu'il font à telli-Balo J'bandais déjà comme un taureau dans mon berceau comme Bali Balo Motema, ouvre les cuisses, fungula libolo Ouvre ta bouche, fungula monoko Fous-moi la coke dans la couche du poupounet XXX Cache ton pepom, Esco, le condé dans le fourgon nous nnait-co Le rap c'est plein de petits rageurs qui font du bluff Heureux comme un requin dans l'eau entouré de teenagers qui font du surf J'aime les grosses seufs, profondément Y'a que les gros boules qui me font der-ban Chérie, t'auras du mordant quand les moules auront des dents Sur le zgueg, de la place, oui, j'en ai tellement Que je peux m'y faire tatouer anticonstitutionnellement J'rappe salement, c'est ta meuf, mais c'est moi qui dors chez elle J'aime l'argent et les turlutes baveuses comme les omelettes norvégiennes J'ai l'XXX, j'ai le mort et je traîne dehors Nique la gélatine et la graisse de porc J'aime l'adrénaline et les têtes de morts Mets du gel intime, elle a un bête de corps Demande à Escobar Pas de grenadine dans mon bar le soir quand on baisse le store J'reviendrai hanter tes nuits comme Belphegor Mets l'argent sale dans la machine à laver Fagor You might also like x8 L'amour me rend faible La haine me rend invincible Couplet Passe me voir si tu veux te foutre un joint J'fais une pause juste de mai à juin Fuck l'inspecteur et le maire adjoint J'nique le rap game, sa mère la tchoin C'est de la surcharge pondérale, ma colère est textuelle Lave-toi la bouche avant de dire mon blaze, gosse issu de violences sexuelles Rester obèse, tel est l'enjeu Des jeunes gens en jeans, haine dans les gènes Coke jaune et marie-jeanne Ici, se combattent les djins et les anges Si t'es un chien de la casse, laisse-moi te chanter l'hymne à la hyène Force de frappe est himalayenne Compare pas ta rime à la mienne Négro, j'suis pas venu pour rigoler C'est l'histoire d'un rat des villes qui fait se enculer par un chat de gouttière congolais Tout seul, maitriser leur terrain, comme Hugo Chavez du Venezuela Bah ouais, j'savais que ça partirait en couilles Putain si vous veniez jouer là Vuvuzela et boules de pétanque dans le calcif De la falaise, le rap je lui mets un front-kick dans le dos pour qu'il fasse un plat sur les récifs Pendant que je me fais tirer le lait du tuyau par la voisine J'observe une bande de pédés du hip-hop français qui se chamaillent dans les magazines, ouais, ouais Encore un Zaïrois en street-wear J'te fais sauter comme un Impala Ecoute bien ma musique de gwer mais je peux te la faire même en lingala Makasi eleki mingi, merde Lascar, y'a drah, fin de paragraphe C'est E.S.C.Obar Macson, sortez les sparadraps x8</t>
+          <t>J'envoie du lourd, t'es pas sorti de l'obèse Envouté par les gros bzez, nique shour et sortilèges J'rentre dans ton cul comme dans une auberge J'suis avec mon nègre Esco' Si t'es en chien, te plains pas, on vous a promis le Negresco Si tu vas au habs avant moi, prépare le Nespresso What Else ? J'viens d'Italie mais je bannis ce qu'il font à telli-Balo J'bandais déjà comme un taureau dans mon berceau comme Bali Balo Motema, ouvre les cuisses, fungula libolo Ouvre ta bouche, fungula monoko Fous-moi la coke dans la couche du poupounet XXX Cache ton pepom, Esco, le condé dans le fourgon nous nnait-co Le rap c'est plein de petits rageurs qui font du bluff Heureux comme un requin dans l'eau entouré de teenagers qui font du surf J'aime les grosses seufs, profondément Y'a que les gros boules qui me font der-ban Chérie, t'auras du mordant quand les moules auront des dents Sur le zgueg, de la place, oui, j'en ai tellement Que je peux m'y faire tatouer anticonstitutionnellement J'rappe salement, c'est ta meuf, mais c'est moi qui dors chez elle J'aime l'argent et les turlutes baveuses comme les omelettes norvégiennes J'ai l'XXX, j'ai le mort et je traîne dehors Nique la gélatine et la graisse de porc J'aime l'adrénaline et les têtes de morts Mets du gel intime, elle a un bête de corps Demande à Escobar Pas de grenadine dans mon bar le soir quand on baisse le store J'reviendrai hanter tes nuits comme Belphegor Mets l'argent sale dans la machine à laver Fagor x8 L'amour me rend faible La haine me rend invincible Couplet Passe me voir si tu veux te foutre un joint J'fais une pause juste de mai à juin Fuck l'inspecteur et le maire adjoint J'nique le rap game, sa mère la tchoin C'est de la surcharge pondérale, ma colère est textuelle Lave-toi la bouche avant de dire mon blaze, gosse issu de violences sexuelles Rester obèse, tel est l'enjeu Des jeunes gens en jeans, haine dans les gènes Coke jaune et marie-jeanne Ici, se combattent les djins et les anges Si t'es un chien de la casse, laisse-moi te chanter l'hymne à la hyène Force de frappe est himalayenne Compare pas ta rime à la mienne Négro, j'suis pas venu pour rigoler C'est l'histoire d'un rat des villes qui fait se enculer par un chat de gouttière congolais Tout seul, maitriser leur terrain, comme Hugo Chavez du Venezuela Bah ouais, j'savais que ça partirait en couilles Putain si vous veniez jouer là Vuvuzela et boules de pétanque dans le calcif De la falaise, le rap je lui mets un front-kick dans le dos pour qu'il fasse un plat sur les récifs Pendant que je me fais tirer le lait du tuyau par la voisine J'observe une bande de pédés du hip-hop français qui se chamaillent dans les magazines, ouais, ouais Encore un Zaïrois en street-wear J'te fais sauter comme un Impala Ecoute bien ma musique de gwer mais je peux te la faire même en lingala Makasi eleki mingi, merde Lascar, y'a drah, fin de paragraphe C'est E.S.C.Obar Macson, sortez les sparadraps x8</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3264,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Frelot, encore un barillet plein sorti dchez Néochrome. Seth Gueko. Kennedy. Ok ! Mets pas dcontredanse à un char de guerre Génération pas drepère, qui nique la France avec un sac Leclerc On met des hasba avec le smile Et surtout dis pas bonjour à Smaïn si tes dangerous mind On évite de faire de grands rêves Car si un papa donne la vie, sache qu'un te l'enlève Ouais ! Telle est la loi dla mitrailleuse Ya les loups, les ptites brailleuses, les nhommes-bo, les brebis galeuses Défonce le rap au marteau piqueur Le mien est tellement vrai qutu peux entendre mon marmot qui pleure Escroc dealer, comme Benicio del Toro Jsuis venu prendre la couronne avec un pénis de taureau Des grosses corones, dla vodka polonaise Cours avant quton polo beige ait des taches bolognaises Si tu serres des ges-vier, défonce-les ! Les laisse pas devenir des Geneviève de Fontenay Mon rap, cest rien qudes feuilles et rien qudes stylos Pour les détenus qui campent, dans leurs canaux intestinaux Qui peut test Nino - Brown et sa droite de 76 kilos Ou lcoup-franc à Del Piero You might also like Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu Dans ma street on sorganise pour prendre la prime Grandes études ou grands trafics, couilles en or massif Jette un il sur les statistiques des nouveaux métiers à risque Buraliste ou employé dla Brinks On passe du franc à leuro facile Des carambars à lecstasy Du shit à la cocaïne De la gazeuse à lautomatique Comment ça les rappeurs parlent de calibres ? Dis leur que dans l94 ça tire ! On sfrotte les mains quand la dope arrive Jamais le même tampon sur les plaquettes Mais toujours le même tarif Toujours les nerfs à vif, toujours en mode actif Mes frères en cage reçoivent tous mes putains dmandats XXX Ex-délinquant, jdeviens une star de la rime Les majors veulent me signer, ok ! Faudra dabord quelles msucent la bite Kennedy et Seth Gueko, faudra qutu remballes vite Avant dservir de paillasson à mes nouvelles Stan Smith Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu Frelot, tas vu cquon fait pour lcash ney-mo On vient masquer nos têtes, on oublie lsquée-mo On fait des liasses deuros, sans faire des passes dhéro On fait des tours dbécanes aux ptits quont pas dvélo Et quarrêtent pas dler-vo Si je meurs tu meurs Si tu veux être un nhomme-bo en moins dune heure Prends mon number 06.ma taille de bite.68.40.90 Ta go mappelle dès quelle trouve lindice Trop dpression sur les épaules Je mets la street de té-co Car jy ai perdu des soces Trop dflics sur les côtes Quand les sous font défaut Ca sent la morsure négro Parce quon a tous les crocs et on veut tout ter-sau Pieds au plancher sur la file de gauche Pour senrichir, obligés dracketter les autres Grand noir, grosses lèvres avec des sales chicots Jpourrais dire qujai vu plus de chattes quun gynéco Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu</t>
+          <t>Frelot, encore un barillet plein sorti dchez Néochrome. Seth Gueko. Kennedy. Ok ! Mets pas dcontredanse à un char de guerre Génération pas drepère, qui nique la France avec un sac Leclerc On met des hasba avec le smile Et surtout dis pas bonjour à Smaïn si tes dangerous mind On évite de faire de grands rêves Car si un papa donne la vie, sache qu'un te l'enlève Ouais ! Telle est la loi dla mitrailleuse Ya les loups, les ptites brailleuses, les nhommes-bo, les brebis galeuses Défonce le rap au marteau piqueur Le mien est tellement vrai qutu peux entendre mon marmot qui pleure Escroc dealer, comme Benicio del Toro Jsuis venu prendre la couronne avec un pénis de taureau Des grosses corones, dla vodka polonaise Cours avant quton polo beige ait des taches bolognaises Si tu serres des ges-vier, défonce-les ! Les laisse pas devenir des Geneviève de Fontenay Mon rap, cest rien qudes feuilles et rien qudes stylos Pour les détenus qui campent, dans leurs canaux intestinaux Qui peut test Nino - Brown et sa droite de 76 kilos Ou lcoup-franc à Del Piero Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu Dans ma street on sorganise pour prendre la prime Grandes études ou grands trafics, couilles en or massif Jette un il sur les statistiques des nouveaux métiers à risque Buraliste ou employé dla Brinks On passe du franc à leuro facile Des carambars à lecstasy Du shit à la cocaïne De la gazeuse à lautomatique Comment ça les rappeurs parlent de calibres ? Dis leur que dans l94 ça tire ! On sfrotte les mains quand la dope arrive Jamais le même tampon sur les plaquettes Mais toujours le même tarif Toujours les nerfs à vif, toujours en mode actif Mes frères en cage reçoivent tous mes putains dmandats XXX Ex-délinquant, jdeviens une star de la rime Les majors veulent me signer, ok ! Faudra dabord quelles msucent la bite Kennedy et Seth Gueko, faudra qutu remballes vite Avant dservir de paillasson à mes nouvelles Stan Smith Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu Frelot, tas vu cquon fait pour lcash ney-mo On vient masquer nos têtes, on oublie lsquée-mo On fait des liasses deuros, sans faire des passes dhéro On fait des tours dbécanes aux ptits quont pas dvélo Et quarrêtent pas dler-vo Si je meurs tu meurs Si tu veux être un nhomme-bo en moins dune heure Prends mon number 06.ma taille de bite.68.40.90 Ta go mappelle dès quelle trouve lindice Trop dpression sur les épaules Je mets la street de té-co Car jy ai perdu des soces Trop dflics sur les côtes Quand les sous font défaut Ca sent la morsure négro Parce quon a tous les crocs et on veut tout ter-sau Pieds au plancher sur la file de gauche Pour senrichir, obligés dracketter les autres Grand noir, grosses lèvres avec des sales chicots Jpourrais dire qujai vu plus de chattes quun gynéco Fallait pas, fallait pas, laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Ca sent la rafale de missile Le braquage de victimes Le cassage de vitrines Et la patate de Viking Fallait pas laisser sortir les bêtes de la cage Vlà lrap des marécages démarrer cash Un rap de rapaces Un rap de haineux Quand on fait un dérapage Cest dans ton caleçon quil y a une trace de pneu</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3281,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Yeah yeah, hein hein Intouchable Click, 9-4 Seth Gueko, 9-5 Mister Yougataga, 7-5 Ter-ma les démons d'minuit Gros tre-ven, barbe en collier Robert Hux Gros kalash sous l'trois-quarts, oh Morpheus Allez natchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'ux Tes prospectus remplissent ma corbeille de chiottes J'ai les orteils de Shrek et les oreilles de Spock, han C'est pour mieux t'entendre jouir, mon enfant Viens dans ma caravane tu verras mon tigre dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versace, le tampon c'est la méduse Cachées dans les panneaux d'portes du V12 Marlich si t'es pas notre pote, y'aura qu'Dieu pour m'gé-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'vase Effacez de nos paysages les tours d'Alcatraz C'est l'Professeur Punchline pour un cours d'rattrapage Han You might also like Clic blah Quand arrivent les pirates le roi devient primate Même si l'avion est sans pilote nos vies tiennent du miracle De la rage on n'a pas l'antidote et soigne à la kalach' Aaah Faut pas rigoler avec moi Clic blah Intouchables Clique on plaisante pas Blah C'est S.E.T.H. Yougataga, ça fait mal Fais pas l'fou, c'est l'bitume en personne, j't'ai dit Aaah Faut pas rigoler avec moi J'me suis évadé d'un asile, j'suis un danger pour la société Comme le chinois de Bois-l'Abbé, moi j'défie l'autorité Ici Démon j'reviens de l'enfer c'est pour les XXX qui nous côtoient Intouchables, Yougataga, Seth Gueko on plaisante pas Bouteille de Jack, ma pochette d'herbe Seul dans mon coin et j'suis refait Viens pas m'parler j'suis démoniaque, dans mes paroles et dans mes faits J'crache sur vos lois, nique ta mère ton droit, ton Journal Officiel J'mets mon grain d'sel partout où j'passe, gros les RG se renseignent Pour ton enseigne j'me nourris de rage comme les hommes y'a 4.000 ans Ma devise palpée sur l'sang, c'est la guerre du feu pour moi tout l'temps En attendant, j'veux faire d'l'oseille Toucher le salaire de Pastore Dans cette vie j'ai trop morflé Ouais même mon cur est enflé Un conseil faut pas réveiller les démons qui sont en moi J'donnerai ton corps à des piranhas qui ont pas mangé depuis deux mois Et j'abrite un laboratoire J'ai grandi dans les cités-dortoirs Les bidonvilles, les dépotoirs Sous commission rogatoire J'suis avec Demon One et Seth J't'avouerai un truc pour être honnête J'sais bien qu'l'argent il fait pas l'bonheur, mais moi j'm'en bats les coucougnettes J'ai déjà vendu des drogues bizarres, j'ai envoyé plein d'gueuches sur d'autres planètes J'me lève pour l'sexe ou pour la maille, en tout cas pas pour Danette Ma machine elle remonte pas l'temps mais elle sait compter les billets Elle fait un drôle de bruit, elle fait fffffffffffff ding, ça y est Yeah, frère, bsah' Que dois-je faire ? Détruire ou construire M'laver ou m'salir Manger ou vomir Lâcher ou tenir M'lever ou dormir Ah Woogataga, clic brah J'habite au coin d'l'avenue des XXX et d'la rue des hachich J'roule un sbah les yeux gonflés, un clin d'oeil à Bart J'recherche une meuf qu'a un bel appart' Une Smart ou une Fiat à part Il m'faut du shit, du sky, d'la maille ainsi qu'un 'dwich pour éponger D'la bonne beuh et un bon baveux, histoire d'pas replonger J'ai trop la dalle, mec moi j'pourrais manger l'mic' et l'ingé Eux et nous c'est d'l'huile et d'l'eau pour ça qu'on peut pas s'mélanger Aaah 1</t>
+          <t>Yeah yeah, hein hein Intouchable Click, 9-4 Seth Gueko, 9-5 Mister Yougataga, 7-5 Ter-ma les démons d'minuit Gros tre-ven, barbe en collier Robert Hux Gros kalash sous l'trois-quarts, oh Morpheus Allez natchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'ux Tes prospectus remplissent ma corbeille de chiottes J'ai les orteils de Shrek et les oreilles de Spock, han C'est pour mieux t'entendre jouir, mon enfant Viens dans ma caravane tu verras mon tigre dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versace, le tampon c'est la méduse Cachées dans les panneaux d'portes du V12 Marlich si t'es pas notre pote, y'aura qu'Dieu pour m'gé-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'vase Effacez de nos paysages les tours d'Alcatraz C'est l'Professeur Punchline pour un cours d'rattrapage Han Clic blah Quand arrivent les pirates le roi devient primate Même si l'avion est sans pilote nos vies tiennent du miracle De la rage on n'a pas l'antidote et soigne à la kalach' Aaah Faut pas rigoler avec moi Clic blah Intouchables Clique on plaisante pas Blah C'est S.E.T.H. Yougataga, ça fait mal Fais pas l'fou, c'est l'bitume en personne, j't'ai dit Aaah Faut pas rigoler avec moi J'me suis évadé d'un asile, j'suis un danger pour la société Comme le chinois de Bois-l'Abbé, moi j'défie l'autorité Ici Démon j'reviens de l'enfer c'est pour les XXX qui nous côtoient Intouchables, Yougataga, Seth Gueko on plaisante pas Bouteille de Jack, ma pochette d'herbe Seul dans mon coin et j'suis refait Viens pas m'parler j'suis démoniaque, dans mes paroles et dans mes faits J'crache sur vos lois, nique ta mère ton droit, ton Journal Officiel J'mets mon grain d'sel partout où j'passe, gros les RG se renseignent Pour ton enseigne j'me nourris de rage comme les hommes y'a 4.000 ans Ma devise palpée sur l'sang, c'est la guerre du feu pour moi tout l'temps En attendant, j'veux faire d'l'oseille Toucher le salaire de Pastore Dans cette vie j'ai trop morflé Ouais même mon cur est enflé Un conseil faut pas réveiller les démons qui sont en moi J'donnerai ton corps à des piranhas qui ont pas mangé depuis deux mois Et j'abrite un laboratoire J'ai grandi dans les cités-dortoirs Les bidonvilles, les dépotoirs Sous commission rogatoire J'suis avec Demon One et Seth J't'avouerai un truc pour être honnête J'sais bien qu'l'argent il fait pas l'bonheur, mais moi j'm'en bats les coucougnettes J'ai déjà vendu des drogues bizarres, j'ai envoyé plein d'gueuches sur d'autres planètes J'me lève pour l'sexe ou pour la maille, en tout cas pas pour Danette Ma machine elle remonte pas l'temps mais elle sait compter les billets Elle fait un drôle de bruit, elle fait fffffffffffff ding, ça y est Yeah, frère, bsah' Que dois-je faire ? Détruire ou construire M'laver ou m'salir Manger ou vomir Lâcher ou tenir M'lever ou dormir Ah Woogataga, clic brah J'habite au coin d'l'avenue des XXX et d'la rue des hachich J'roule un sbah les yeux gonflés, un clin d'oeil à Bart J'recherche une meuf qu'a un bel appart' Une Smart ou une Fiat à part Il m'faut du shit, du sky, d'la maille ainsi qu'un 'dwich pour éponger D'la bonne beuh et un bon baveux, histoire d'pas replonger J'ai trop la dalle, mec moi j'pourrais manger l'mic' et l'ingé Eux et nous c'est d'l'huile et d'l'eau pour ça qu'on peut pas s'mélanger Aaah 1</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3298,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Lefa, Gueko Des ses-pha et du flow Sexion, Barlou Pouh, pouh, pouh, pouh Tu viens des baftards, viens pas nous rapper la street La liasse est trop grosse, il lui faut quatre élastiques Ça t'rappelle Brooklyn zoo, ça t'rappelle Ice scream J'vais t'mettre un coup d'ciseau, j'vais t'tailler un string Ici, la lice-po n'est pas très câline Sparadrap, Betadine, mes scars-la t'égratignent Gros Mais j'signerai jamais dans vos labels has been Vos rappeurs bidons qui clippent dans des favelas vides Tu changes de comportemnt dès qu'la caméra filme De livreur Dliveroo à dealeur derrière les verrous Met pas l'nez dedans, la drogue rend les camés infirmes J'ai peur du diable, seigneur du mal, délivrez-nous Ah Sur l'rrain-té d'november à november Ton cur est noir, mais ta chatte est rose comme Amber C'est pas moi qui t'aies ken, c'est mon doppelgänger Lefa au refrain, y a comme une odeur de banger You might also like On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Monter en l'air Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac J'ai fais du chemin depuis l'époque où j'écrivais dans l'bus J'approche d'la ligne d'arrivée, ces putes veulent me tirer dans l'buste Bitch J'attire les embûches, forcément, j'fais du hors piste Mais la dernière fois qu'j'ai regardé les stats', ça tirait dans l'plus Et j'surveille le compte comme un daron veille sur son môme J'anticipe la retraite, j'achète des hectares à la Somone Négro, faut qu'le fiston possède des entreprises à son nom Ouais, j'ai matrixé l'petit avant qui devienne insolent Champ d'bataille j'laisse des têtes scalpées Shee et très peu d'rescapés Shee J'passe en coup d'vent dans ta soirée, tu demandes si j'reste après Nan Négro elle pue ta soirée et puis j'ai ma réputation Ma réput' J'me barre avant la fermeture, avant qu'y est plus d'action ouh J'suis dans la kitchen, bitch, j'guette le temps d'cuisson La cam est pure, j'vais les faire exploser la dentition Plah-plah Et j'bégaye jamais devant la mission ou l'addition Tu dors au ras du sol, j'dors au Radisson, c'est la tradition On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Monter en l'air Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac</t>
+          <t>Lefa, Gueko Des ses-pha et du flow Sexion, Barlou Pouh, pouh, pouh, pouh Tu viens des baftards, viens pas nous rapper la street La liasse est trop grosse, il lui faut quatre élastiques Ça t'rappelle Brooklyn zoo, ça t'rappelle Ice scream J'vais t'mettre un coup d'ciseau, j'vais t'tailler un string Ici, la lice-po n'est pas très câline Sparadrap, Betadine, mes scars-la t'égratignent Gros Mais j'signerai jamais dans vos labels has been Vos rappeurs bidons qui clippent dans des favelas vides Tu changes de comportemnt dès qu'la caméra filme De livreur Dliveroo à dealeur derrière les verrous Met pas l'nez dedans, la drogue rend les camés infirmes J'ai peur du diable, seigneur du mal, délivrez-nous Ah Sur l'rrain-té d'november à november Ton cur est noir, mais ta chatte est rose comme Amber C'est pas moi qui t'aies ken, c'est mon doppelgänger Lefa au refrain, y a comme une odeur de banger On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Monter en l'air Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac J'ai fais du chemin depuis l'époque où j'écrivais dans l'bus J'approche d'la ligne d'arrivée, ces putes veulent me tirer dans l'buste Bitch J'attire les embûches, forcément, j'fais du hors piste Mais la dernière fois qu'j'ai regardé les stats', ça tirait dans l'plus Et j'surveille le compte comme un daron veille sur son môme J'anticipe la retraite, j'achète des hectares à la Somone Négro, faut qu'le fiston possède des entreprises à son nom Ouais, j'ai matrixé l'petit avant qui devienne insolent Champ d'bataille j'laisse des têtes scalpées Shee et très peu d'rescapés Shee J'passe en coup d'vent dans ta soirée, tu demandes si j'reste après Nan Négro elle pue ta soirée et puis j'ai ma réputation Ma réput' J'me barre avant la fermeture, avant qu'y est plus d'action ouh J'suis dans la kitchen, bitch, j'guette le temps d'cuisson La cam est pure, j'vais les faire exploser la dentition Plah-plah Et j'bégaye jamais devant la mission ou l'addition Tu dors au ras du sol, j'dors au Radisson, c'est la tradition On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Ouais, en l'air Ouais, en l'air Ouais, en l'air On va les monter en l'air Monter en l'air Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac Feu en l'air, rafale dans le ciel ra-ta-ta-tac, ra-ta-ta-tac</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3315,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Focus Fuck ta audi, je roule en coccinelle Fuck tes Louis et j'mets des crocs Les traditions c'est pas mon doss Ne me dis pas quoi faire j'ai ma dose Fuck le mariage et les gosses Fuck ceux qui se guettent en Facetime Ceux qui percent freestyle Celles qui se vengent en Espagne Bébé see you next time On verra demain si j'vux bosser Fuck les salariés et ls boss Eh on va rester focus Fuck les violeurs J'aime quand les filles les accusent Les filles de Jack Mess vont pas au défilé de Jacquemus Fuck les peaux blanches J'suis tatoué comme un papyrus Fuck le masque, fuck le coronavirus Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus You might also likeFuck Seth Gueko, fuck 47Ter Et fuck tous les colons qui ont carotte cette terre Fuck les paroles sectaires Fuck ta quête et ta cagnotte Leetchi Fuck les viandars, les carottes vichy Elle vend son corps pour un Iphone qui filme à ? Faut surtout pas fuck cette fille en capote gifi Fuck j'me casse de ta soirée si j'ai pas le code wifi Fuck le redbull une grande baffe dans la gueule ça tonifie Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus Si demain j'suis triste je ne ferais pas semblant de pas l'être Si tu viens pas de la street faut pas que t'essaies de le paraître J'regardais pas les prix quand j'bossais le transpalette Faut mieux la vrai montre Monoprix que la fausse Patek C'est pas la peine Fuck le fake Il faut prendre la suite comme elle est Si t'aimes pas ce que t'as tu voudras la lune quand t'habiteras L.A C'est pas la peine c'est pas la peine Mais y a toujours du bon à noter toujours Ne serait ce que pour les rêves On les attrape en bas de la montée Fuck la fame Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus Fuck les vegans, on s'casse à l'Hippopotamus Fuck le rap si mon épopée t'amuse Focus Seth Guek' sur l'nouvel opus Faut être en chien pour faire ses courses au marché aux puces Bouche cousue motus</t>
+          <t>Focus Fuck ta audi, je roule en coccinelle Fuck tes Louis et j'mets des crocs Les traditions c'est pas mon doss Ne me dis pas quoi faire j'ai ma dose Fuck le mariage et les gosses Fuck ceux qui se guettent en Facetime Ceux qui percent freestyle Celles qui se vengent en Espagne Bébé see you next time On verra demain si j'vux bosser Fuck les salariés et ls boss Eh on va rester focus Fuck les violeurs J'aime quand les filles les accusent Les filles de Jack Mess vont pas au défilé de Jacquemus Fuck les peaux blanches J'suis tatoué comme un papyrus Fuck le masque, fuck le coronavirus Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus Fuck Seth Gueko, fuck 47Ter Et fuck tous les colons qui ont carotte cette terre Fuck les paroles sectaires Fuck ta quête et ta cagnotte Leetchi Fuck les viandars, les carottes vichy Elle vend son corps pour un Iphone qui filme à ? Faut surtout pas fuck cette fille en capote gifi Fuck j'me casse de ta soirée si j'ai pas le code wifi Fuck le redbull une grande baffe dans la gueule ça tonifie Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus Si demain j'suis triste je ne ferais pas semblant de pas l'être Si tu viens pas de la street faut pas que t'essaies de le paraître J'regardais pas les prix quand j'bossais le transpalette Faut mieux la vrai montre Monoprix que la fausse Patek C'est pas la peine Fuck le fake Il faut prendre la suite comme elle est Si t'aimes pas ce que t'as tu voudras la lune quand t'habiteras L.A C'est pas la peine c'est pas la peine Mais y a toujours du bon à noter toujours Ne serait ce que pour les rêves On les attrape en bas de la montée Fuck la fame Eh on va rester focus Fuck les vegans, on s'casse à l'Hippopotamus Fuck la pop si le hiphop est ta muse Focus Fuck la nouvelle géné', v'là Hibernatus Si y a les keufs en modus Bouche cousue motus Fuck les vegans, on s'casse à l'Hippopotamus Fuck le rap si mon épopée t'amuse Focus Seth Guek' sur l'nouvel opus Faut être en chien pour faire ses courses au marché aux puces Bouche cousue motus</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3332,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Hen, hen La citada, la citada les cités d'or Le père le fils, enfoiré 95310 enfoiré Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Et ton gros cul nous servira d'oreiller Entreprise père et fils, ensemble on claque tout le bénéfice Salvadori in tenebris, crache le feu comme dragon Daeneris On pousse sur du DMX, on est en T-max pas en BMX ouh Ici c'est le 95310 Arrêtes de nous sourire alors que ta bouch est très sale T'as pas à ta place dans c game, t'es comme un boucher vegan Il est pas né le cancérologue qui m'f'ra un toucher rectal C'est tous des satanistes, Obama, Bush et Reagan J'arrive, comme un pénalty, avec des après-ski, où ça, dans ton crâne de sale neuski Aller viens ici, qu'on parle de-spi T'es qu'une cyka mais est-ce que tu parles russkiy ? Crois pas qu'j'te parle de ski, quand j'parle de neige Si un gars m'trahit puis m'vesqui lui pardonnerais-je ? On m'apprécie, dans chaque té-ci J'suis à l'ancienne, j'aime les paires de Tim' et les sappes Redskins J'écoute du Pop Smoke, comme du Cypress Hill J'traverse les époques on trinque avec le shake de prot' Ils m'demandent tous l'autorisation pour fumer une clope J'lâche des caisses pendant la fellation t'as l'impression de sucer une crotte J'viens des blocks y avait pas de chauffage dans l'escalier Prise de masse, sans dopage, paris gagné T'as l'trou d'balle aussi large que l'sophage à Gui Carlier J'regarde pas tes clips j'préfère les reportages animaliers You might also like Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Et ton gros cul nous servira d'oreiller Entreprise père et fils, ensemble on claque tout le bénéfice Salvadori in tenebris, crache le feu comme dragon Daeneris On pousse sur du DMX, on est en T-max pas en BMX ouh Ici c'est le 95310 Ici c'est 95310</t>
+          <t>Hen, hen La citada, la citada les cités d'or Le père le fils, enfoiré 95310 enfoiré Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Et ton gros cul nous servira d'oreiller Entreprise père et fils, ensemble on claque tout le bénéfice Salvadori in tenebris, crache le feu comme dragon Daeneris On pousse sur du DMX, on est en T-max pas en BMX ouh Ici c'est le 95310 Arrêtes de nous sourire alors que ta bouch est très sale T'as pas à ta place dans c game, t'es comme un boucher vegan Il est pas né le cancérologue qui m'f'ra un toucher rectal C'est tous des satanistes, Obama, Bush et Reagan J'arrive, comme un pénalty, avec des après-ski, où ça, dans ton crâne de sale neuski Aller viens ici, qu'on parle de-spi T'es qu'une cyka mais est-ce que tu parles russkiy ? Crois pas qu'j'te parle de ski, quand j'parle de neige Si un gars m'trahit puis m'vesqui lui pardonnerais-je ? On m'apprécie, dans chaque té-ci J'suis à l'ancienne, j'aime les paires de Tim' et les sappes Redskins J'écoute du Pop Smoke, comme du Cypress Hill J'traverse les époques on trinque avec le shake de prot' Ils m'demandent tous l'autorisation pour fumer une clope J'lâche des caisses pendant la fellation t'as l'impression de sucer une crotte J'viens des blocks y avait pas de chauffage dans l'escalier Prise de masse, sans dopage, paris gagné T'as l'trou d'balle aussi large que l'sophage à Gui Carlier J'regarde pas tes clips j'préfère les reportages animaliers Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Forza Salvadori, Salvadori, yeah Et ton gros cul nous servira d'oreiller Entreprise père et fils, ensemble on claque tout le bénéfice Salvadori in tenebris, crache le feu comme dragon Daeneris On pousse sur du DMX, on est en T-max pas en BMX ouh Ici c'est le 95310 Ici c'est 95310</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3349,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MC cruciforme, j'ai trop de coups de vice Préfère qu'on crucifie que de porter l'uniforme Blah blah banlieue Paris posséder par Iblis Moi in-extremis j'étais extrémiste 6.35 dans une chaussette, coups de chaussure dans l'ossature Avec des fossettes, des faux chèques à la ceinture Plus rien ne choque Seth Si tu croises Guy Georges prie car c'est chose sure Ceux qui m'naisse-co crie Seth ! Reste au crime mec, baisse ton prix T'es né pour l'escroquerie, plus on est fou et moins y a de riz J'vais faire de la boucherie On sera tous riche avant que Bush rit Nah sheitan y a plus de pucelle Et c'est pour ça qu'on a du mal à trouver Saddam Hussein Mets un Tampax si tu saignes J'envoie mes tracks au major avec de l'anthrax Malédiction c'est la salsa du démon Les instincts d'assassin qui té-mon Piment dans le petit-déj', éjacule de la braise Rentre en vitesse c'est vendredi 13You might also like</t>
+          <t>MC cruciforme, j'ai trop de coups de vice Préfère qu'on crucifie que de porter l'uniforme Blah blah banlieue Paris posséder par Iblis Moi in-extremis j'étais extrémiste 6.35 dans une chaussette, coups de chaussure dans l'ossature Avec des fossettes, des faux chèques à la ceinture Plus rien ne choque Seth Si tu croises Guy Georges prie car c'est chose sure Ceux qui m'naisse-co crie Seth ! Reste au crime mec, baisse ton prix T'es né pour l'escroquerie, plus on est fou et moins y a de riz J'vais faire de la boucherie On sera tous riche avant que Bush rit Nah sheitan y a plus de pucelle Et c'est pour ça qu'on a du mal à trouver Saddam Hussein Mets un Tampax si tu saignes J'envoie mes tracks au major avec de l'anthrax Malédiction c'est la salsa du démon Les instincts d'assassin qui té-mon Piment dans le petit-déj', éjacule de la braise Rentre en vitesse c'est vendredi 13</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3366,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>J'propose à Skyrock de s'mettre en mode freestyle... Eh bah allons-y puisque y'a du monde en freestyle donc... Dj Weedim Weedim aux platines Es-tu prêt ma couillasse ? Yeah Passons aux choses sérieuses Phuket Finest Han ! Me tire pas d'sus ça va me faire des tchakati J'aime les thaïlandaises car c'est les africaines de l'asie T'sais c'que m'disent les femmes ? - T'est qu'un butterfly J'réponds Dorothée va mourir en sucant le Capitaine Flam Generation X-OR, Sankukai, Salam Aleykoum, Aleykoum ça baille Ouais, c'est au Crazy Horse qui y'a les plus beaux culs en tout cas Oh My Bouddha ! On s'emboucane sur Sambuca Tu veux un tatoo qui défonce, fonce à Patong et fait-toi piquer par Alphonse Ouais, enfonce l'aiguille, ressuscite Mesrine sur mon avant-bras que les magistrats se suicident meskine J'aime ni les stups, les skins, le bonheur des uns fait le malheur des autres Fucked up, il s'met à fon tok Patong City Gang tatoué sur l'épiderme Il faut que j'rentre j'suis maoléw j'ai les yeux sideng Un khao pad kong avec un oeuf dessus c'est le kiffe En gastronomie, Voriz il reste très sélectif J'aime quand les métisses thai se tressent les tifs Même khabat, tu m'parles en bath, je reste très réceptif Clippé en mai en Thai, j'sais que c'est ta passion T'en as plus l'occasion. Pourquoi ? Parce que le terrain est sous occupation Les fellations, Marianne c'est sa vocation J'gratte les allocations, fais des tours de Phuket en T-Max location J'roule une pelle à cette demoiselle de Mae Hong Son C'comme ça que j'apprends la langue, 37 voyelles et 42 consonnes Tu sais comment ça fonctionne, tu fais la pute dans tout le pays Et dans l'Isan tes parents te ponctionnent Patong City Gang le train de vie hors-norme Et quand je pastèque un australien c'est pour me maintenir en forme La vie est pas chère, mais faut que vous sachiez le price Tu peux te faire sucer gratis avec un p'tit sachet de Ice J'ai le galbe et la taille de David Douillet J'ai la mentale , je suis une racaille douée L'hiver je mets jamais d'K-Way, je prends la Thai Airways Tout ce qui pompent nos styles en thai, c'est des haitais eh ouais ! Ma bite me démange quand je vais en Thailande, j'ai des trips différents de Frédéric Mittérand et j'crée des rimes qui dérangent J'bois, fume, nique et mange et si j'crève bah j'baiserai les putes que dessine Michel-Ange You might also like Les flics j'les aime pas, c'est triste car il en faut J'en ai plus rien à branler comme un manchot Chez nous la vengeance n'est pas un plat qui se mange froid Mais plutôt un brraaaah qui se mange chaud Un homme avec du ventre, cest ingrat Donc j'fais des abdos, prouve-moi ta virginité avec un drap Technique ancestrale, caravane, flamenco J'porte de l'or comme un Inca, tatoué comme à Sacramento J'te fume et j'te fais jouir avec un doigt, si tu la ramènes trop Ta chatte a une gâchette, mon flingue a un clito Hachek j'veux tirer un coup, achètes du frameto La rime est casse-tête, j'vais briser un cou Jai les crocs FaimDeLoup Kenavo FinDeVous À bon entendeur J'suis pas une p'tite casserole de chez Cash Converters J'me déchire le casque comme Bender de Futurama Jattendrai pas l'prophète sur Twitter pour suivre la sunna Bad Cowboy dans les bacs le 6 mai Weedim change de prod' pour Jason Voriz Yeah Ah ah ah ah ah Manstrr 0.6, zin Tout le D'en Bas Fondation comment ça va frère ? Néochrome Mr Agaz, Jehnia Millionnaire, zin Négus... Manstrr D'en Bas Fondation, prends-toi cette drogue par intraveineuse Rabat sur la prom' j'me fais insulter par un trav' haineux Mon blase tu l'sais, tu l'as mémoriser Voriz pour vous terroriser Bol de lait pasteurisé Un son d'Macfly masterisé Voilà comment j'démarre ma journée Plaquette de , j'pars en tournée Avec mon hood on a de quoi Si y'a l'arnouch, va pas t'retourner Qu'est-ce qu'on fait ? On plante le videur On s'en branle de votre plan de rigueur Devant le store liquor plein d'arabes de culs de blanc et de niggah Ça vient d'Antibes, Vallauris, la vallée des salauds Nice ouest, Cagnes-sur-Mer ou les à l'eau 0.6, zin, c'est quoi ? C'est pas le Limousin Grosses villas et vieilles usines, mafieux en limousine 0.6, zin, c'est quoi ? C'est pas le Cotentin À mes frères au hèbs, ceux qui cantinent, ma grand-mère Constantine Si un jour ma femme se fait charmer par un bel homme Je flingue les deux au .45 ACP, parabellum Weedim, on termine en 1</t>
+          <t>J'propose à Skyrock de s'mettre en mode freestyle... Eh bah allons-y puisque y'a du monde en freestyle donc... Dj Weedim Weedim aux platines Es-tu prêt ma couillasse ? Yeah Passons aux choses sérieuses Phuket Finest Han ! Me tire pas d'sus ça va me faire des tchakati J'aime les thaïlandaises car c'est les africaines de l'asie T'sais c'que m'disent les femmes ? - T'est qu'un butterfly J'réponds Dorothée va mourir en sucant le Capitaine Flam Generation X-OR, Sankukai, Salam Aleykoum, Aleykoum ça baille Ouais, c'est au Crazy Horse qui y'a les plus beaux culs en tout cas Oh My Bouddha ! On s'emboucane sur Sambuca Tu veux un tatoo qui défonce, fonce à Patong et fait-toi piquer par Alphonse Ouais, enfonce l'aiguille, ressuscite Mesrine sur mon avant-bras que les magistrats se suicident meskine J'aime ni les stups, les skins, le bonheur des uns fait le malheur des autres Fucked up, il s'met à fon tok Patong City Gang tatoué sur l'épiderme Il faut que j'rentre j'suis maoléw j'ai les yeux sideng Un khao pad kong avec un oeuf dessus c'est le kiffe En gastronomie, Voriz il reste très sélectif J'aime quand les métisses thai se tressent les tifs Même khabat, tu m'parles en bath, je reste très réceptif Clippé en mai en Thai, j'sais que c'est ta passion T'en as plus l'occasion. Pourquoi ? Parce que le terrain est sous occupation Les fellations, Marianne c'est sa vocation J'gratte les allocations, fais des tours de Phuket en T-Max location J'roule une pelle à cette demoiselle de Mae Hong Son C'comme ça que j'apprends la langue, 37 voyelles et 42 consonnes Tu sais comment ça fonctionne, tu fais la pute dans tout le pays Et dans l'Isan tes parents te ponctionnent Patong City Gang le train de vie hors-norme Et quand je pastèque un australien c'est pour me maintenir en forme La vie est pas chère, mais faut que vous sachiez le price Tu peux te faire sucer gratis avec un p'tit sachet de Ice J'ai le galbe et la taille de David Douillet J'ai la mentale , je suis une racaille douée L'hiver je mets jamais d'K-Way, je prends la Thai Airways Tout ce qui pompent nos styles en thai, c'est des haitais eh ouais ! Ma bite me démange quand je vais en Thailande, j'ai des trips différents de Frédéric Mittérand et j'crée des rimes qui dérangent J'bois, fume, nique et mange et si j'crève bah j'baiserai les putes que dessine Michel-Ange Les flics j'les aime pas, c'est triste car il en faut J'en ai plus rien à branler comme un manchot Chez nous la vengeance n'est pas un plat qui se mange froid Mais plutôt un brraaaah qui se mange chaud Un homme avec du ventre, cest ingrat Donc j'fais des abdos, prouve-moi ta virginité avec un drap Technique ancestrale, caravane, flamenco J'porte de l'or comme un Inca, tatoué comme à Sacramento J'te fume et j'te fais jouir avec un doigt, si tu la ramènes trop Ta chatte a une gâchette, mon flingue a un clito Hachek j'veux tirer un coup, achètes du frameto La rime est casse-tête, j'vais briser un cou Jai les crocs FaimDeLoup Kenavo FinDeVous À bon entendeur J'suis pas une p'tite casserole de chez Cash Converters J'me déchire le casque comme Bender de Futurama Jattendrai pas l'prophète sur Twitter pour suivre la sunna Bad Cowboy dans les bacs le 6 mai Weedim change de prod' pour Jason Voriz Yeah Ah ah ah ah ah Manstrr 0.6, zin Tout le D'en Bas Fondation comment ça va frère ? Néochrome Mr Agaz, Jehnia Millionnaire, zin Négus... Manstrr D'en Bas Fondation, prends-toi cette drogue par intraveineuse Rabat sur la prom' j'me fais insulter par un trav' haineux Mon blase tu l'sais, tu l'as mémoriser Voriz pour vous terroriser Bol de lait pasteurisé Un son d'Macfly masterisé Voilà comment j'démarre ma journée Plaquette de , j'pars en tournée Avec mon hood on a de quoi Si y'a l'arnouch, va pas t'retourner Qu'est-ce qu'on fait ? On plante le videur On s'en branle de votre plan de rigueur Devant le store liquor plein d'arabes de culs de blanc et de niggah Ça vient d'Antibes, Vallauris, la vallée des salauds Nice ouest, Cagnes-sur-Mer ou les à l'eau 0.6, zin, c'est quoi ? C'est pas le Limousin Grosses villas et vieilles usines, mafieux en limousine 0.6, zin, c'est quoi ? C'est pas le Cotentin À mes frères au hèbs, ceux qui cantinent, ma grand-mère Constantine Si un jour ma femme se fait charmer par un bel homme Je flingue les deux au .45 ACP, parabellum Weedim, on termine en 1</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3383,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Yes ! Masta, Seth Gueko, Neochrome ! Non Sens, Jack S., Rap 2 Tess, Saint-Ouen-l'Aumône tieks, Passe ta masta. Yes ! Yo yo ! Entre moi et les ke-fli ya un conflit dchoc Dans mon bloc cest pas un hall, mais un coffee shop, cours avant qules keufs, ils tchopent ! Pour faire dla maille on na pas dâge nous Chaque schmit mérite quon labatte à genoux Dis à la patrouille qujleur porte un il gros comme une citrouille Quand un flic seul voit 6 crouilles, son slip rouille Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Leur flingue est tellement lourd, quand ils tvisent la tête ils ttirent aux pieds Gloire à Dieu ! Jsuis pas un fils dîlotier Ça fait trop longtemps qules conflits durent Ccon dflic mérite que jtransforme leurs boîtes crâniennes en confiture Que Pasa !? Les keufs font la loi dans les tieks seulement quand ya pas un chat Sinon cest crachat Jets dufs sur lJ9, cest lG9, sous les ordres des Pachas On fait les achats avec les faux chéquiers Avec un fou, jprends 2 tours sur ton échiquier Faut buter lroi, pour qula reine te lèche les pieds Jsuis plus proche des Groseille que des Du Quesnoy La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare You might also like Ma vie srésume à faire des pesetas, laisser lÉtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel Si ya des ke-fli au Paradis, sur ma vie quyaura du conflit dans lciel Pour faire plaisir à Le Pen, jme suis marié à une Africaine J'peux mourir de rire si jvois un flic ken Cest sur les bites de scars-la que fantasment les fliquettes cochonnes Pour ça qules chtars nous matraquent au sol Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu De-spee comme Keanu Au poste ils mettent des doigts dans lcul, marlich le ness-bi continue Continuera, demain et après-demain On peut pas être à la fois flic et être humain Que lon opprime ceux qui ont pris mon pain Je décerne le prix Nobel du crime à Audry Maupin La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare Miséricorde ! Jaime que les biz et records Tes pas content, va jouer à saute-mouton avec une licorne Jaime pas les képis, les physios, et les tho-my Si jrentre pas dans lshowbiz, jlui fais une épisiotomie Jmens, en jurant sur la tête de Jean-Marie On fait dlargent malignement avant qules darmes-gen narrivent Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Ty vas avec le dos dla cuillère, moi avec le piquant du teau-cou Sin-cou tu peux mtuer qupendant ma prière La vie est une tartine de merde Et tous les jours, on en mange un bout Maudit soit Sarko et sa catine de merde LÉtat pense quà tmythoner et te ment tout ltemps Ils mveulent dans un compartiment tout blanc capitonné Décapitons-les ! Ils jugent mon comportement troublant Parce que jreste calme même avec 4 pit au nez La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare</t>
+          <t>Yes ! Masta, Seth Gueko, Neochrome ! Non Sens, Jack S., Rap 2 Tess, Saint-Ouen-l'Aumône tieks, Passe ta masta. Yes ! Yo yo ! Entre moi et les ke-fli ya un conflit dchoc Dans mon bloc cest pas un hall, mais un coffee shop, cours avant qules keufs, ils tchopent ! Pour faire dla maille on na pas dâge nous Chaque schmit mérite quon labatte à genoux Dis à la patrouille qujleur porte un il gros comme une citrouille Quand un flic seul voit 6 crouilles, son slip rouille Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Leur flingue est tellement lourd, quand ils tvisent la tête ils ttirent aux pieds Gloire à Dieu ! Jsuis pas un fils dîlotier Ça fait trop longtemps qules conflits durent Ccon dflic mérite que jtransforme leurs boîtes crâniennes en confiture Que Pasa !? Les keufs font la loi dans les tieks seulement quand ya pas un chat Sinon cest crachat Jets dufs sur lJ9, cest lG9, sous les ordres des Pachas On fait les achats avec les faux chéquiers Avec un fou, jprends 2 tours sur ton échiquier Faut buter lroi, pour qula reine te lèche les pieds Jsuis plus proche des Groseille que des Du Quesnoy La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare Ma vie srésume à faire des pesetas, laisser lÉtat dans un piteux état Les tass, les baiser trash, et qules PDG clamsent Rien dconfidentiel Si ya des ke-fli au Paradis, sur ma vie quyaura du conflit dans lciel Pour faire plaisir à Le Pen, jme suis marié à une Africaine J'peux mourir de rire si jvois un flic ken Cest sur les bites de scars-la que fantasment les fliquettes cochonnes Pour ça qules chtars nous matraquent au sol Jarpente les rues, à laffut des gros culs Reconnu comme Rocco nu De-spee comme Keanu Au poste ils mettent des doigts dans lcul, marlich le ness-bi continue Continuera, demain et après-demain On peut pas être à la fois flic et être humain Que lon opprime ceux qui ont pris mon pain Je décerne le prix Nobel du crime à Audry Maupin La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare Miséricorde ! Jaime que les biz et records Tes pas content, va jouer à saute-mouton avec une licorne Jaime pas les képis, les physios, et les tho-my Si jrentre pas dans lshowbiz, jlui fais une épisiotomie Jmens, en jurant sur la tête de Jean-Marie On fait dlargent malignement avant qules darmes-gen narrivent Aucune émotion face à un flic mourant Ces pédés mettent du coton pour avoir un slip moulant Ty vas avec le dos dla cuillère, moi avec le piquant du teau-cou Sin-cou tu peux mtuer qupendant ma prière La vie est une tartine de merde Et tous les jours, on en mange un bout Maudit soit Sarko et sa catine de merde LÉtat pense quà tmythoner et te ment tout ltemps Ils mveulent dans un compartiment tout blanc capitonné Décapitons-les ! Ils jugent mon comportement troublant Parce que jreste calme même avec 4 pit au nez La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3400,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Seth Gueks, Oh J'ai pas le temps de répondre à leur clash Sache que mon Jnoun les insulte à ma place J'ai de gros doutes sur leurs histoires de kalash J'doute aussi qu'on soit plus beau devant un miroir d'palace Ma pauvre mère a fait une demande d'appart', ça fait 5 ans que son dossier est dans un tiroir d'paperasse La France peut crier victoire, j'm'arrache Même si partir c'est mourir un peu, hélas Par contre mourir c'est partir beaucoup ma couillasse C'est même disparaître de la surface TMAX, Air Max, Huarache Dis moi qui a la couronne que j'lui arrache J'ai garé ma soucoupe dans les collines de Bugarach Y'a eu un arrivage passe moi les clefs du garage So, plus j'fais de punchlines plus j'agace Faux, pas croire tout ce que dit David Pujadas Chaud, on est victime de diffamation J'suis beau garçon j'suis pas en Thaï pour les putes à dass Matte mes mains on dirait que j'ai été dix fois maçon L'argent n'a pas d'odeur mais le placard ça pu sa race Petit j'avais déjà la classe avec mes Cortez J'envoie du lourd t'es pas sorti de l'obèse J'fais du rap de cour de promenade pas de cours de collège Hein, la chatte à Selena Gomez T'as mal mais tu jouis comme une Japonaise Demande pas si j'la connais ça fait deux mois qu'j'la baise A la prod' c'est Martinez 2016 florilège de rap trop lège J'baise les lavettes qui vont chez les flics tailler une bavette De mon époque tu loupais le dernier train y'avait pas de navette J'ai pas tablettes de choco mes abdos c'est du flan Mais psahtek si tu portes ton cuir à la Fonzy Une main sur l'uzi, l'autre sur la zapette J'laisserai aucun keuf m'cueillir comme une paquerette J'esquive le hebs avec une galipette Tellement proche de mon équipe qu'ils reconnaissent quand c'est moi qui pète J'suis pas venu pour faire risette La vie c'est pas la Super Nes, on recommence pas en appuyant sur reset J'suis la cerise sur l'space cake J'demande pas d'être craint, j'demande qu'on m'respecte J'ai rangé la chevalière dans son écrin Pour en sortir le poing des states Les youvs faut pas les aduler, faut en être un J'compte plus les trains qu'on a brûlé et les mixtapes Rage ch-check Barlou, barlou, barlou, Seth GuekYou might also like1</t>
+          <t>Seth Gueks, Oh J'ai pas le temps de répondre à leur clash Sache que mon Jnoun les insulte à ma place J'ai de gros doutes sur leurs histoires de kalash J'doute aussi qu'on soit plus beau devant un miroir d'palace Ma pauvre mère a fait une demande d'appart', ça fait 5 ans que son dossier est dans un tiroir d'paperasse La France peut crier victoire, j'm'arrache Même si partir c'est mourir un peu, hélas Par contre mourir c'est partir beaucoup ma couillasse C'est même disparaître de la surface TMAX, Air Max, Huarache Dis moi qui a la couronne que j'lui arrache J'ai garé ma soucoupe dans les collines de Bugarach Y'a eu un arrivage passe moi les clefs du garage So, plus j'fais de punchlines plus j'agace Faux, pas croire tout ce que dit David Pujadas Chaud, on est victime de diffamation J'suis beau garçon j'suis pas en Thaï pour les putes à dass Matte mes mains on dirait que j'ai été dix fois maçon L'argent n'a pas d'odeur mais le placard ça pu sa race Petit j'avais déjà la classe avec mes Cortez J'envoie du lourd t'es pas sorti de l'obèse J'fais du rap de cour de promenade pas de cours de collège Hein, la chatte à Selena Gomez T'as mal mais tu jouis comme une Japonaise Demande pas si j'la connais ça fait deux mois qu'j'la baise A la prod' c'est Martinez 2016 florilège de rap trop lège J'baise les lavettes qui vont chez les flics tailler une bavette De mon époque tu loupais le dernier train y'avait pas de navette J'ai pas tablettes de choco mes abdos c'est du flan Mais psahtek si tu portes ton cuir à la Fonzy Une main sur l'uzi, l'autre sur la zapette J'laisserai aucun keuf m'cueillir comme une paquerette J'esquive le hebs avec une galipette Tellement proche de mon équipe qu'ils reconnaissent quand c'est moi qui pète J'suis pas venu pour faire risette La vie c'est pas la Super Nes, on recommence pas en appuyant sur reset J'suis la cerise sur l'space cake J'demande pas d'être craint, j'demande qu'on m'respecte J'ai rangé la chevalière dans son écrin Pour en sortir le poing des states Les youvs faut pas les aduler, faut en être un J'compte plus les trains qu'on a brûlé et les mixtapes Rage ch-check Barlou, barlou, barlou, Seth Guek1</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3417,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>L'argent c'est comme les seins, moins t'en as plus tu les montres Malheureusement on peut pas siliconer son compte C'est nous les bests, tu te trompes Si je monte sur un putain d'éléphant il aura deux trompes Elle est grosse comme celle de Gulliver Si je vends d'la neige en été, frère, est-ce un fait divers ? Les billets sont tout verts, les paris sont ouverts Je recherche une femme avec talent culinaire Surveille où tu mets ta langue ça grouille d'infections urinaires J'suis pas sorti de la cuisse de Jupiter J'sors du trou du cul d'l'enfer après une cuite de Jupiler Tatoué comme un mur de sanitaire Écrase un pharaon pour rouler sur l'or La seule bonne action humanitaire que j'ferai c'est d'vendre mes bijoux de famille quand j'serai mort Vénère j'ai saigné tous les porcs A l'image de Vernet qui peignait tous les ports Fort comme l'équipe du Cameroun Elle a des frites dans l'string, elle a une schneck ghetto Monte un flic sur l'ring face à Seth Gueko, il tiendra pas deux rounds Tu peux crever de soif dans le désert aucun d'ces rappeurs de merde ne te passe leur gourde Hey yoyo, on commence à pichtave dès l'afternoon Jack Honey au Jack Da' Fire J'laisse les chattes horny comme Jada Fire Le vrai rap ça passe pas sur Sky' non ça passe ailleurs J'recherche ma Bonnie Parker pour un putain de braquage en couple Kalach' dans le bagage en soute pour vitrine jaeger le coultre Y'a des keufs partout, des barrages, déployage de troupes On parle de Guadeloupe, de voyages, on squatte pas la plage qu'en Août Sortez les Karsher c'est l'heure du nettoyage de croupes Tu vas payer ta zik à base de zouk, mets toi à genou pour ton nappage de foutre Le radio me fout la rage de fou avec leur matraquage de ? On tombe en bécane on s'relève c'est pas grave, la semaine d'après arrachage de croute Combien de frères derrière les barreaux à cause d'un témoignage de pouc' Si le mariage c'est la corde au cou alors la prison c'est le broyage de couilles On est pas né le cul bordé de nouilles, des rimes j'en ai encore beaucoup On a dressé nos pits pour qu'ils te mordent les couilles On veut de la liasseka ma illass-cou Mes scare-la caillassent tout, le regard froid comme la CSKA Moscou Tu mérites pas mon bébé, c'est par là la fausse couche Tu n'es qu'une pouffe, un avorte ftus Tu suces pour un iPhone 7 Le luxe elle en raffole cette cruche Les femmes, c'est des vrais embuches Transforme la graisse en muscle Geah Le bling-bling c'est un chronomètre Des tatouages sur les toraux-pec J'casse les ufs pour mes omelettes J'te casse les yeux, t'es une femmelette Seth Guek, Néochrome Seth Saint-Ouen l'Aumône Tiek', GeahYou might also like</t>
+          <t>L'argent c'est comme les seins, moins t'en as plus tu les montres Malheureusement on peut pas siliconer son compte C'est nous les bests, tu te trompes Si je monte sur un putain d'éléphant il aura deux trompes Elle est grosse comme celle de Gulliver Si je vends d'la neige en été, frère, est-ce un fait divers ? Les billets sont tout verts, les paris sont ouverts Je recherche une femme avec talent culinaire Surveille où tu mets ta langue ça grouille d'infections urinaires J'suis pas sorti de la cuisse de Jupiter J'sors du trou du cul d'l'enfer après une cuite de Jupiler Tatoué comme un mur de sanitaire Écrase un pharaon pour rouler sur l'or La seule bonne action humanitaire que j'ferai c'est d'vendre mes bijoux de famille quand j'serai mort Vénère j'ai saigné tous les porcs A l'image de Vernet qui peignait tous les ports Fort comme l'équipe du Cameroun Elle a des frites dans l'string, elle a une schneck ghetto Monte un flic sur l'ring face à Seth Gueko, il tiendra pas deux rounds Tu peux crever de soif dans le désert aucun d'ces rappeurs de merde ne te passe leur gourde Hey yoyo, on commence à pichtave dès l'afternoon Jack Honey au Jack Da' Fire J'laisse les chattes horny comme Jada Fire Le vrai rap ça passe pas sur Sky' non ça passe ailleurs J'recherche ma Bonnie Parker pour un putain de braquage en couple Kalach' dans le bagage en soute pour vitrine jaeger le coultre Y'a des keufs partout, des barrages, déployage de troupes On parle de Guadeloupe, de voyages, on squatte pas la plage qu'en Août Sortez les Karsher c'est l'heure du nettoyage de croupes Tu vas payer ta zik à base de zouk, mets toi à genou pour ton nappage de foutre Le radio me fout la rage de fou avec leur matraquage de ? On tombe en bécane on s'relève c'est pas grave, la semaine d'après arrachage de croute Combien de frères derrière les barreaux à cause d'un témoignage de pouc' Si le mariage c'est la corde au cou alors la prison c'est le broyage de couilles On est pas né le cul bordé de nouilles, des rimes j'en ai encore beaucoup On a dressé nos pits pour qu'ils te mordent les couilles On veut de la liasseka ma illass-cou Mes scare-la caillassent tout, le regard froid comme la CSKA Moscou Tu mérites pas mon bébé, c'est par là la fausse couche Tu n'es qu'une pouffe, un avorte ftus Tu suces pour un iPhone 7 Le luxe elle en raffole cette cruche Les femmes, c'est des vrais embuches Transforme la graisse en muscle Geah Le bling-bling c'est un chronomètre Des tatouages sur les toraux-pec J'casse les ufs pour mes omelettes J'te casse les yeux, t'es une femmelette Seth Guek, Néochrome Seth Saint-Ouen l'Aumône Tiek', Geah</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3434,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Yah Barlou T'as beau être un mec droit, ils t'attendent au tournant, mieux vaut être cagoulé On peut asseoir quatre keufs Ah bon ? sur un tabouret Comment ? juste en le retournant Bah ouais On s'relève qu'en tombant Grr et j'arrive dans tes dents Baw comme un glaive contendant La Belle au bois d'Bou'-Bou', la Belle au bois dormant, laquelle a les doigts collants ? Ah-ah J'veux du buf de kobé, pas d'leur bouffe de cabot donc faut l'biff de Koba Ou le biff de Kobe J'mets des baffes de cow-boy, j'serais pas l'cobaye de Big Pharma' Astrazeneca Oui, j'ai fait l'vaccin mais juste après, j'ai fait Harijama J'ai croisé les doigts Tes sapes de villageois, même pas j'les porte en pyjama Jamais Et on visa la tête Click, bang, même à trente mètres Headshot J'suis certifié par la street, j'm'en bats les c' d'être certifié par la SNEP Bats les c' Sa jupe est trop courte Brr, elle risque de chopper un rhume à la schnek Une angine de pépète Atchoum ou une grippe de vagin Viens là Elle habite au moins un, pour ça qu'on jette les thunes par les f'nêtres C'est la fille du voisin et wAllah elle fait mal à la tête Il a kiffé la gaine-dé Yah, t'as kiffé la gaine-dé En dégaine, en dégaine Barbu et tatoué En dégaine, en dégaine, barlou est la gaine-dé Racks Toi, t'as poucave tout l'quartier Grr, paw, ta mère, c'est la reine des Chut, c'est la reine des Reine des, reine des, reine des Paw, paw, paw, ta mère, c'est la reine des Grr, paw You might also like Ouh, 7.5.0.19, 9.5 Grr Grr, paw Brr, tout l'temps la dégaine En dégaine, en dégaine Tout l'temps la dégaine En dégaine, en dégaine Brr, brr Paw, paw, paw, paw Tout l'temps la dégaine, j'arrive apprêté à ton enterrement, c'est pas une fatalité Tout dans la tête depuis trop longtemps donc tu comprends que c'est dur de se canaliser J'fais d'la boom bap, de la drill et d'la trap Tou-touah, j'les mange un par un même si on chante pas à table J'fais d'la musique qui représente ma zone, le soir, avec un billet, j'achète le Diable Demande à Bar', tatoué jusqu'au p'tit doigt, demande à personne, fais ton biff en silence Baw J'ai tellement tapé fort, j'ai les yeux bleus à cause des gyros de l'ambulance J'arrive en jet lag, j'reviens de Londres Paw, j'attends pas qu'on m'donne, j'prends gentiment J'fume d'la ganja d'puis qu'j'ai dix ans, j'ai commencé sans rien comme un indigent J'reviens dans l'game comme un indigène, j'leur fais une boucherie, c'est pas digeste Paw Tes rappeurs, je les graille par dizaine, représente Paris et la banlieue parisienne Barlou Depuis tout p'tit, j'suis méfiant d'vant une promesse, j'rappe ma vie et c'que j'ai vu dans mon tieks Té-ma la dégaine, té-ma la dégaine, Stos vous a menti, c'est moi l'fils de Seth Guekx Zdedededex Il a kiffé la gaine-dé Yah, t'as kiffé la gaine-dé En dégaine, en dégaine Barbu et tatoué En dégaine, en dégaine, barlou est la gaine-dé Racks Toi, t'as poucave tout l'quartier Grr, paw, ta mère, c'est la reine des Chut, c'est la reine des Reine des, reine des, reine des Paw, paw, paw, ta mère, c'est la reine des Grr, paw Ouh, trop de dégaine dans les dégaines que je dégaine Trop de dégaine dans les dégaines que je dégaine Trop de dégaine dans les dégaines que je dégaine Tu connais la rengaine, je fus dans le game, je suis dans le game, restera dans le game for ever For ever, for ever</t>
+          <t>Yah Barlou T'as beau être un mec droit, ils t'attendent au tournant, mieux vaut être cagoulé On peut asseoir quatre keufs Ah bon ? sur un tabouret Comment ? juste en le retournant Bah ouais On s'relève qu'en tombant Grr et j'arrive dans tes dents Baw comme un glaive contendant La Belle au bois d'Bou'-Bou', la Belle au bois dormant, laquelle a les doigts collants ? Ah-ah J'veux du buf de kobé, pas d'leur bouffe de cabot donc faut l'biff de Koba Ou le biff de Kobe J'mets des baffes de cow-boy, j'serais pas l'cobaye de Big Pharma' Astrazeneca Oui, j'ai fait l'vaccin mais juste après, j'ai fait Harijama J'ai croisé les doigts Tes sapes de villageois, même pas j'les porte en pyjama Jamais Et on visa la tête Click, bang, même à trente mètres Headshot J'suis certifié par la street, j'm'en bats les c' d'être certifié par la SNEP Bats les c' Sa jupe est trop courte Brr, elle risque de chopper un rhume à la schnek Une angine de pépète Atchoum ou une grippe de vagin Viens là Elle habite au moins un, pour ça qu'on jette les thunes par les f'nêtres C'est la fille du voisin et wAllah elle fait mal à la tête Il a kiffé la gaine-dé Yah, t'as kiffé la gaine-dé En dégaine, en dégaine Barbu et tatoué En dégaine, en dégaine, barlou est la gaine-dé Racks Toi, t'as poucave tout l'quartier Grr, paw, ta mère, c'est la reine des Chut, c'est la reine des Reine des, reine des, reine des Paw, paw, paw, ta mère, c'est la reine des Grr, paw Ouh, 7.5.0.19, 9.5 Grr Grr, paw Brr, tout l'temps la dégaine En dégaine, en dégaine Tout l'temps la dégaine En dégaine, en dégaine Brr, brr Paw, paw, paw, paw Tout l'temps la dégaine, j'arrive apprêté à ton enterrement, c'est pas une fatalité Tout dans la tête depuis trop longtemps donc tu comprends que c'est dur de se canaliser J'fais d'la boom bap, de la drill et d'la trap Tou-touah, j'les mange un par un même si on chante pas à table J'fais d'la musique qui représente ma zone, le soir, avec un billet, j'achète le Diable Demande à Bar', tatoué jusqu'au p'tit doigt, demande à personne, fais ton biff en silence Baw J'ai tellement tapé fort, j'ai les yeux bleus à cause des gyros de l'ambulance J'arrive en jet lag, j'reviens de Londres Paw, j'attends pas qu'on m'donne, j'prends gentiment J'fume d'la ganja d'puis qu'j'ai dix ans, j'ai commencé sans rien comme un indigent J'reviens dans l'game comme un indigène, j'leur fais une boucherie, c'est pas digeste Paw Tes rappeurs, je les graille par dizaine, représente Paris et la banlieue parisienne Barlou Depuis tout p'tit, j'suis méfiant d'vant une promesse, j'rappe ma vie et c'que j'ai vu dans mon tieks Té-ma la dégaine, té-ma la dégaine, Stos vous a menti, c'est moi l'fils de Seth Guekx Zdedededex Il a kiffé la gaine-dé Yah, t'as kiffé la gaine-dé En dégaine, en dégaine Barbu et tatoué En dégaine, en dégaine, barlou est la gaine-dé Racks Toi, t'as poucave tout l'quartier Grr, paw, ta mère, c'est la reine des Chut, c'est la reine des Reine des, reine des, reine des Paw, paw, paw, ta mère, c'est la reine des Grr, paw Ouh, trop de dégaine dans les dégaines que je dégaine Trop de dégaine dans les dégaines que je dégaine Trop de dégaine dans les dégaines que je dégaine Tu connais la rengaine, je fus dans le game, je suis dans le game, restera dans le game for ever For ever, for ever</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3451,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>You wanna be thug ? Ok Alors cache ta p'tite teub Et sors une carabine neuve Ici c'est cannabis, seum Sucez-moi la bite Mon répertoire c'est un paradis d'girl, ouais Ferme la ta p'tite gueule Tu m'as vu sur le sticker braquer l'rap avec, voilà le big gun C'est pas grave qu'il pleuve H24 sur l'ter-ter Et si j'meurs c'est qu'les anges d'Allah m'veulent You wanna be thug ? Non oim I wanna be the one Et wAllah j'ai la haine quand j'vois un flic renoi Impossible que j't'invite chez moi sans qu'j'te doigte Mais j'respecte ceux qui vont au taf quand j'rentre de boîte Calcule pas c'que j'pense de oi-t Au lieu de trembler quand tu braques ton arme Une goutte de sang c'est une flaque de larme J'ai bien l'droit à ma pipe T'as eu ton ciné et ton McDonald's Fais pas ta folle sur ma boîte vocale Faites tousser les guns Roulez les blunts Faites hurler les girls Entrez dans le gangsta world Fous l'zbeul ou ferme ta gueule N'aie pas peur d'entrer dans l'gangsta world You might also like Est-ce que t'as déjà vu un pit' qui prête son os ? Non Alors laisse-moi le mic et make some noise J'suis un don du ciel J'fais pointer les tétons d'pucelles J'bouffe que les moules de Léon d'Bruxelles T'écoutes mes ons tu saignes Ce ne sont que des coups d'tessons d'bouteille J'veux voir toutes les coupes pleines Et mange dans ta bouche mes couplets coups d'pelle Faites tousser les guns Roulez les blunts Faites hurler les girls Entrez dans le gangsta world Fous l'zbeul ou ferme ta gueule N'aie pas peur d'entrer dans l'gangsta world N'aie pas peur d'entrer dans le 95 world Dans le Yonea world Néochrome's world</t>
+          <t>You wanna be thug ? Ok Alors cache ta p'tite teub Et sors une carabine neuve Ici c'est cannabis, seum Sucez-moi la bite Mon répertoire c'est un paradis d'girl, ouais Ferme la ta p'tite gueule Tu m'as vu sur le sticker braquer l'rap avec, voilà le big gun C'est pas grave qu'il pleuve H24 sur l'ter-ter Et si j'meurs c'est qu'les anges d'Allah m'veulent You wanna be thug ? Non oim I wanna be the one Et wAllah j'ai la haine quand j'vois un flic renoi Impossible que j't'invite chez moi sans qu'j'te doigte Mais j'respecte ceux qui vont au taf quand j'rentre de boîte Calcule pas c'que j'pense de oi-t Au lieu de trembler quand tu braques ton arme Une goutte de sang c'est une flaque de larme J'ai bien l'droit à ma pipe T'as eu ton ciné et ton McDonald's Fais pas ta folle sur ma boîte vocale Faites tousser les guns Roulez les blunts Faites hurler les girls Entrez dans le gangsta world Fous l'zbeul ou ferme ta gueule N'aie pas peur d'entrer dans l'gangsta world Est-ce que t'as déjà vu un pit' qui prête son os ? Non Alors laisse-moi le mic et make some noise J'suis un don du ciel J'fais pointer les tétons d'pucelles J'bouffe que les moules de Léon d'Bruxelles T'écoutes mes ons tu saignes Ce ne sont que des coups d'tessons d'bouteille J'veux voir toutes les coupes pleines Et mange dans ta bouche mes couplets coups d'pelle Faites tousser les guns Roulez les blunts Faites hurler les girls Entrez dans le gangsta world Fous l'zbeul ou ferme ta gueule N'aie pas peur d'entrer dans l'gangsta world N'aie pas peur d'entrer dans le 95 world Dans le Yonea world Néochrome's world</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3468,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Sers nous du Jack'da on a le palais fin L'État, j'm'en bas les roubignoles Ma mère elle, elle s'en bat les seins J'ai bientôt 30 balais, chien Tu comprends pas qu'j'ai faim ? J'vais pas t'faire un défunt J'chie dans l'képi du Maréchal Pétain J'préfère la goutte d'or que la médaille d'étain J'suis venu avec tous mes fantassins et on t'encule avec du Plantafin On les a détruit, déporté de Gorée Pendant que des truies font des portés de gorets et de marcassins J'suis ni un fils de pute, ni l'fils de Broussard ni l'fils de Rafarin J'ai la patate de forain, t'as la patate de coiffeur Va surveiller ce que fait la chatte de ta sur Y a les balafrés et les balafreurs Mais pas de quartier dans celui des arracheurs V'la du son de bagarreur, pour ton baladeur Néochrome , Néochrome c'est nous les track masters On veut une baraque neuve achetée à la sueur Fréquente pas des prédateurs si après t'as peur Biffin, file ton bifton, j'veux ma raclette Richemont Si t'es une bitch hein, eh ben j'tire ton chignon Comme un tik-tik ça sent la prison, les litrons de chichons C'est bim bim ça bi-bi dans les boites de luxes À plus de 200 en sens inverse dans les voies de bus Quoi de plus ? Derrière ça parle mais devant ça suce Mieux vaut s'asseoir dans une Brabus que sur un cactus Quoi que le taraude à Merco ça fait mal au cul Ha c'est nous les malotrus You might also like Y a pas le 77 dans le morceau wesh alors Alors j'les casse-dédi 'wesh le 77' J'arrive comme un coup de fer à repasser Calor Que des textes hard core Ca défouraille comme a Pearl Harbor T'es pas d'accord on t'envoie dans le décor J'ai le même sourire que Guy Ges-geor Allez mange t'es mort On boit l'sky a grand gé-gor Ca c'est pour mes Saint-Ouenais Qui lèvent leurs bécanes avec la roue voilée Qui savent pas où aller, ouais ouais Des fous à lier qui aiment défourailler Ma caravane est passée aucun chiens n'a aboyé Ca sert a rien de vous larmoyer Ils expulsent que de Mars à Novembre Si j'veux j'paye pas le loyer Ne jamais faire les choses à moitié Si il neigeait de la Coke , Vandamme ferait le poirier Moi je fais le grand écart , entre la caravane et le Fouquet's Foolek, Dis moi tout ma choupette Il est tout ton cu-cu ? Elle est ou ta té-téte ? Foolek Que j'm'égoutte la quéquette C'est du rap jacking En gros j'ai kidnappé le rap français J'vous le rends pas Wallah Adhim Seth la praline, pas de tapine Monte pas au casse pipe si t'as la peau des roubignoles qui se ratatine Va foutres ton cul au Camping Paradis comme une carabine Winchester Joue pas la maligne Je marierais celle qui sait préparer le poulet sauce akadi Hé oui p'tit frère, j'aime pas les femmes faciles qui se laissent faire J'fais éternuer le chien de la brigade canine Me fait sucer ma pile alcaline par des biatch câlines J'désanusse toutes les boîtes à rythmes Une nuit au poste, c'est comme une pluie de barre à mine J'sors de nulle part comme Mazarine Pingeot Ne me passe pas d'la margarine plein le dos J'fais payer les sales racistes plein pot Les perquises rendent ma voisine barjo J'viens du Nord side comme Morsay C'est pour la p'tite bourgeoisie qui sniffe des gros rails Gros comme des barrières de corail C'est du Gavroche Style Gavroche Style C'est du Gavroche Style, paf Yonea, Néochrome, Seth Guex Saint-Ouen-L'Aumône tieks Tony Danza, Grimy Kid, Parkos 9-5, bleublah, gratavox Jacques Mitouche, Kiki, Ke-mar, Choki Le chat, Sidia, Sou, Moha Gremlins et tout l'Saint-Ouen Et tout l'Saint-Ouen Nourou, Ous-D-Ous, on veut tous des ous-s Un 69 au rebeu ça s'dit t'as touffe m'étouffe Seth Guex, ah Paf, j'arriverai jamais à m'arrêter, bande de merdeux, paf J'suis pas prêt d'm'arrêter, j'm'arrêtai jamais</t>
+          <t>Sers nous du Jack'da on a le palais fin L'État, j'm'en bas les roubignoles Ma mère elle, elle s'en bat les seins J'ai bientôt 30 balais, chien Tu comprends pas qu'j'ai faim ? J'vais pas t'faire un défunt J'chie dans l'képi du Maréchal Pétain J'préfère la goutte d'or que la médaille d'étain J'suis venu avec tous mes fantassins et on t'encule avec du Plantafin On les a détruit, déporté de Gorée Pendant que des truies font des portés de gorets et de marcassins J'suis ni un fils de pute, ni l'fils de Broussard ni l'fils de Rafarin J'ai la patate de forain, t'as la patate de coiffeur Va surveiller ce que fait la chatte de ta sur Y a les balafrés et les balafreurs Mais pas de quartier dans celui des arracheurs V'la du son de bagarreur, pour ton baladeur Néochrome , Néochrome c'est nous les track masters On veut une baraque neuve achetée à la sueur Fréquente pas des prédateurs si après t'as peur Biffin, file ton bifton, j'veux ma raclette Richemont Si t'es une bitch hein, eh ben j'tire ton chignon Comme un tik-tik ça sent la prison, les litrons de chichons C'est bim bim ça bi-bi dans les boites de luxes À plus de 200 en sens inverse dans les voies de bus Quoi de plus ? Derrière ça parle mais devant ça suce Mieux vaut s'asseoir dans une Brabus que sur un cactus Quoi que le taraude à Merco ça fait mal au cul Ha c'est nous les malotrus Y a pas le 77 dans le morceau wesh alors Alors j'les casse-dédi 'wesh le 77' J'arrive comme un coup de fer à repasser Calor Que des textes hard core Ca défouraille comme a Pearl Harbor T'es pas d'accord on t'envoie dans le décor J'ai le même sourire que Guy Ges-geor Allez mange t'es mort On boit l'sky a grand gé-gor Ca c'est pour mes Saint-Ouenais Qui lèvent leurs bécanes avec la roue voilée Qui savent pas où aller, ouais ouais Des fous à lier qui aiment défourailler Ma caravane est passée aucun chiens n'a aboyé Ca sert a rien de vous larmoyer Ils expulsent que de Mars à Novembre Si j'veux j'paye pas le loyer Ne jamais faire les choses à moitié Si il neigeait de la Coke , Vandamme ferait le poirier Moi je fais le grand écart , entre la caravane et le Fouquet's Foolek, Dis moi tout ma choupette Il est tout ton cu-cu ? Elle est ou ta té-téte ? Foolek Que j'm'égoutte la quéquette C'est du rap jacking En gros j'ai kidnappé le rap français J'vous le rends pas Wallah Adhim Seth la praline, pas de tapine Monte pas au casse pipe si t'as la peau des roubignoles qui se ratatine Va foutres ton cul au Camping Paradis comme une carabine Winchester Joue pas la maligne Je marierais celle qui sait préparer le poulet sauce akadi Hé oui p'tit frère, j'aime pas les femmes faciles qui se laissent faire J'fais éternuer le chien de la brigade canine Me fait sucer ma pile alcaline par des biatch câlines J'désanusse toutes les boîtes à rythmes Une nuit au poste, c'est comme une pluie de barre à mine J'sors de nulle part comme Mazarine Pingeot Ne me passe pas d'la margarine plein le dos J'fais payer les sales racistes plein pot Les perquises rendent ma voisine barjo J'viens du Nord side comme Morsay C'est pour la p'tite bourgeoisie qui sniffe des gros rails Gros comme des barrières de corail C'est du Gavroche Style Gavroche Style C'est du Gavroche Style, paf Yonea, Néochrome, Seth Guex Saint-Ouen-L'Aumône tieks Tony Danza, Grimy Kid, Parkos 9-5, bleublah, gratavox Jacques Mitouche, Kiki, Ke-mar, Choki Le chat, Sidia, Sou, Moha Gremlins et tout l'Saint-Ouen Et tout l'Saint-Ouen Nourou, Ous-D-Ous, on veut tous des ous-s Un 69 au rebeu ça s'dit t'as touffe m'étouffe Seth Guex, ah Paf, j'arriverai jamais à m'arrêter, bande de merdeux, paf J'suis pas prêt d'm'arrêter, j'm'arrêtai jamais</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3485,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Intro Seth Gueks, Kore, GSX C'est la gewatane fever ma couillasse Sblaxx Couplet 1 Allez grimpe dans l'auto, galipettes sur le capot 2,3 Cali sur la banquette arrière du Lambo, la carabine dans l'dos Seigneur !! Pourquoi t'allumes une garette fume pas dans la vago ! Tapette !! Tu va t'prendre un coup de serpette, qui sort du stra-co Emanuel Ungaro Coup de clef à lelette, coup de clef à momo Si tu me croises à Phuket je suis dans un bar à Gogo T'as mal à la tête, t'as mal au chiro, C'est rien c'est l'métier qui rentre Janot On a de la neige elle vient pas du Kilimandjaro, T'as mis les Westons pied nu mais du Azzaro narvalo Refrain Couplet 2 You might also likeKore montes le son, les rageux qu'ils crèves Où j'crèche y a la Jet Set lyonnaise Vaux-en-Velin ville de gue-din Pas de différence entre shmitt et parain Les rats sont de sortie, un mélange dans la bouteille On est accueilli comme les cols blancs au Fouquet's Foutaises on veux un paquet, un gros biff soit attentif c'est GSX Ou sohli Gouhli akhlash ya habebi ya Gouhli Ghouli wesh sehla haliya akhlash ya habebi ya Refrain Couplet 3 Lyon ma ville, bicots et chicha Argent facile crasseuses officials Gère les homejacking, demandes aux suisses Dans les faits divers une bavure classée sans suite Lourde est la déguène, style frenchie Jette un il sur ton bizz et ta fraiche oui Sur l'parking diabolique des mec qui Alimentent le buzz du dernier Raï'N B J'ai du mal à dormir ce soir Viens j't'emmène en balade Lyon-Marrakech ah ouais Marre de la dèche ah ouais x2 Refrain Wahad skoumyou sou bladi Fif e roum sa hay sah haibi rani sheh youbah heh habiya Pour les calos et les jgat Wahad skoumyou sou bladi Fif e roum sa hay sah haibi rani sheh youbah heh habiya Raï'N B Fever 4 Refrain Ending On est en mode seduction Le mélange de Marrakech et de la Guacha On est en mode seduction Si tu veux pas aller au Hebs vas-y nachave On est en mode seduction A toi le monde Gexxx Vaux-en-Velin On est en mode seduction C'est le retour de Cheb Calo et du gipsy crouille</t>
+          <t>Intro Seth Gueks, Kore, GSX C'est la gewatane fever ma couillasse Sblaxx Couplet 1 Allez grimpe dans l'auto, galipettes sur le capot 2,3 Cali sur la banquette arrière du Lambo, la carabine dans l'dos Seigneur !! Pourquoi t'allumes une garette fume pas dans la vago ! Tapette !! Tu va t'prendre un coup de serpette, qui sort du stra-co Emanuel Ungaro Coup de clef à lelette, coup de clef à momo Si tu me croises à Phuket je suis dans un bar à Gogo T'as mal à la tête, t'as mal au chiro, C'est rien c'est l'métier qui rentre Janot On a de la neige elle vient pas du Kilimandjaro, T'as mis les Westons pied nu mais du Azzaro narvalo Refrain Couplet 2 Kore montes le son, les rageux qu'ils crèves Où j'crèche y a la Jet Set lyonnaise Vaux-en-Velin ville de gue-din Pas de différence entre shmitt et parain Les rats sont de sortie, un mélange dans la bouteille On est accueilli comme les cols blancs au Fouquet's Foutaises on veux un paquet, un gros biff soit attentif c'est GSX Ou sohli Gouhli akhlash ya habebi ya Gouhli Ghouli wesh sehla haliya akhlash ya habebi ya Refrain Couplet 3 Lyon ma ville, bicots et chicha Argent facile crasseuses officials Gère les homejacking, demandes aux suisses Dans les faits divers une bavure classée sans suite Lourde est la déguène, style frenchie Jette un il sur ton bizz et ta fraiche oui Sur l'parking diabolique des mec qui Alimentent le buzz du dernier Raï'N B J'ai du mal à dormir ce soir Viens j't'emmène en balade Lyon-Marrakech ah ouais Marre de la dèche ah ouais x2 Refrain Wahad skoumyou sou bladi Fif e roum sa hay sah haibi rani sheh youbah heh habiya Pour les calos et les jgat Wahad skoumyou sou bladi Fif e roum sa hay sah haibi rani sheh youbah heh habiya Raï'N B Fever 4 Refrain Ending On est en mode seduction Le mélange de Marrakech et de la Guacha On est en mode seduction Si tu veux pas aller au Hebs vas-y nachave On est en mode seduction A toi le monde Gexxx Vaux-en-Velin On est en mode seduction C'est le retour de Cheb Calo et du gipsy crouille</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3502,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Seth Gueko a.k.a la chevalière! Dans la Twingo on n'écoute pas les Pink Floyd On écoute Twin Gambino et Big Noyd Fais l'taf proprement, et ouais boy Confonds pas ton micro et ton sex toy Mets les gants en re-cui Si tu sors le Sig Sauer de l'étui, on détruit les porcs et les truies On séduit les fe-meu même avec un masque de Scream Masta reste qui-quil, arrache ton ras de skin On a faim d'chattes, rapace L'rap américain j'lui mets fin d'cartes avec 4 as On mange chez Maxim's avec l'argent d'la Brinks On dédicasse le sol avec les pneus du KX Ma couillasse, on fait plus que bien l'boulot You know, on rappe les mains sur les couilles comme Julio Above the law, on t'fait les poches pendant qu't'applaudis Rares sont mes proches qui boivent de l'eau Seth Gueko a.k.a la chevalière! X2 C'est pour mes gremlins fiers de leur 95 Même avec les ongles noirs ils doigtent le va-ing Des gremlins dépressifs, qu'éclatent pleins d'oinj Au poste ne parlent pas d'eux Tais oi-te, fais pas l'singe! You might also like J'ai qu'des number d'jolies filles Y'a qu'des vendeurs de drogue ici D'Evander Holyfield donc aucun d'tes planteurs m'horrifie Il m'en faut plus pour être en peur Y'a qu'les grands coeurs qu'on glorifie Glandeur, j'fous la concurrence sous tranxene J'ai un tout p'tit téléphone mais v'la les numéros de grandes chiennes J'rentre en scène avec une kalash tchétchène Mes potes me font rêver quand ils me parlent des plages de Jijel Y'aura pas d'calumet d'la paix On a des mitraillettes Diesel, des fusils à lunettes Cartier J'suis venu tout allumer, partez, c'est du rap de rue On a d'la came re-pu et des armes sses-ru Toutes les fans se ruent J'ai grandi avec des p'tits beurs de rue, pas des p'tits beurre de Lu J'sais qu't'as reconnu Seth Gueko a.k.a Rocco nu Enlèves ton tutu, j'vais t'faire pan-pan cu-cu X2 C'est pour mes gremlins fiers de leur 95 Même avec les ongles noirs ils doigtent le va-ing Des gremlins dépressifs, qu'éclatent pleins d'oinj Au poste ne parlent pas d'eux Tais oi-te, fais pas l'singe! Aïe! Pour tous mes gremlins!</t>
+          <t>Seth Gueko a.k.a la chevalière! Dans la Twingo on n'écoute pas les Pink Floyd On écoute Twin Gambino et Big Noyd Fais l'taf proprement, et ouais boy Confonds pas ton micro et ton sex toy Mets les gants en re-cui Si tu sors le Sig Sauer de l'étui, on détruit les porcs et les truies On séduit les fe-meu même avec un masque de Scream Masta reste qui-quil, arrache ton ras de skin On a faim d'chattes, rapace L'rap américain j'lui mets fin d'cartes avec 4 as On mange chez Maxim's avec l'argent d'la Brinks On dédicasse le sol avec les pneus du KX Ma couillasse, on fait plus que bien l'boulot You know, on rappe les mains sur les couilles comme Julio Above the law, on t'fait les poches pendant qu't'applaudis Rares sont mes proches qui boivent de l'eau Seth Gueko a.k.a la chevalière! X2 C'est pour mes gremlins fiers de leur 95 Même avec les ongles noirs ils doigtent le va-ing Des gremlins dépressifs, qu'éclatent pleins d'oinj Au poste ne parlent pas d'eux Tais oi-te, fais pas l'singe! J'ai qu'des number d'jolies filles Y'a qu'des vendeurs de drogue ici D'Evander Holyfield donc aucun d'tes planteurs m'horrifie Il m'en faut plus pour être en peur Y'a qu'les grands coeurs qu'on glorifie Glandeur, j'fous la concurrence sous tranxene J'ai un tout p'tit téléphone mais v'la les numéros de grandes chiennes J'rentre en scène avec une kalash tchétchène Mes potes me font rêver quand ils me parlent des plages de Jijel Y'aura pas d'calumet d'la paix On a des mitraillettes Diesel, des fusils à lunettes Cartier J'suis venu tout allumer, partez, c'est du rap de rue On a d'la came re-pu et des armes sses-ru Toutes les fans se ruent J'ai grandi avec des p'tits beurs de rue, pas des p'tits beurre de Lu J'sais qu't'as reconnu Seth Gueko a.k.a Rocco nu Enlèves ton tutu, j'vais t'faire pan-pan cu-cu X2 C'est pour mes gremlins fiers de leur 95 Même avec les ongles noirs ils doigtent le va-ing Des gremlins dépressifs, qu'éclatent pleins d'oinj Au poste ne parlent pas d'eux Tais oi-te, fais pas l'singe! Aïe! Pour tous mes gremlins!</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3519,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Les vrais hommes aiment les formes Y'a qules chiens qui aiment les os Spatiale est le vaisseau, spacieux est le réseau Demande pardon petit clasheur ou jte sodomise par les reilles-o Si tes une femme fontaine, jette pas léponge, appelle les dégâts des eaux Te prends pas pour un aigle, tu viens dtomber du nid, petit oiseau Tu veux un feat, faut parler seille-o Jsuis schizo comme un Gémeaux Jmélange les mots comme un génie Les yeux bleus à cause des gyros Serre-moi glazo, cest lheure du digo Yaura pas dfumée sans oinj Plonge largent sale dans le lavabo, puis dans lsèche-linge Un lion qui imite un autre lion devient forcément un singe Ça vient du 95, jte baise comme une chienne Jsuis ton pitbull de geisha Va tlaver la tte-cha, tas lswag à Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin You might also like Jpéra pour tous les Blancs Tous les Renois et tous les Rebeus Ils veulent tous être le numéro 1, mais lnuméro 1 cest Dieu Jme contenterai que dêtre le numéro 2, on sait faire que des sons monstrueux La chatte à ta grand-mère la sorcière qui fait du shour au sang menstrueux Faire dloseille cest dur donc respect à ceux qui font des eu Si les murs ont des oreilles, belek car même les serrures ont des yeux Yo masta ndenge nini, on a des yeux dans ldos Pas besoin ddoubles rétros pour tracter une Tabert Paganini Hommage à toi, en cour martiale, pour qui ça sent lroussi Si lamour rend aveugle, chérie, un coup dgazeuse aussi Seth tes lmeilleur des MCs cest pas la première fois quon mdit ça Toi, va tlaver la tte-cha, tas lswag à Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Ya qupour quer-bra quon ssert dun collant Frelon, lcomble du ciste-ra cest dmourir dun cancer du colon Tu tfais poignarder par ton khey khey pour un gramme de shnouf Sache quune poignet dabeille-beille vaut mieux quun sac de mouches Jvalide pas son côté raciste mais Jack Mess cest un peu comme mon papa Jme tape que des Nerfertiti Là où tu rêves de faire pipi, refrè, jai déjà fait caca Ton gynéco a démissioné dlhopital Bichat Tu puais dla tte-cha comme Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin1</t>
+          <t>Les vrais hommes aiment les formes Y'a qules chiens qui aiment les os Spatiale est le vaisseau, spacieux est le réseau Demande pardon petit clasheur ou jte sodomise par les reilles-o Si tes une femme fontaine, jette pas léponge, appelle les dégâts des eaux Te prends pas pour un aigle, tu viens dtomber du nid, petit oiseau Tu veux un feat, faut parler seille-o Jsuis schizo comme un Gémeaux Jmélange les mots comme un génie Les yeux bleus à cause des gyros Serre-moi glazo, cest lheure du digo Yaura pas dfumée sans oinj Plonge largent sale dans le lavabo, puis dans lsèche-linge Un lion qui imite un autre lion devient forcément un singe Ça vient du 95, jte baise comme une chienne Jsuis ton pitbull de geisha Va tlaver la tte-cha, tas lswag à Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Jpéra pour tous les Blancs Tous les Renois et tous les Rebeus Ils veulent tous être le numéro 1, mais lnuméro 1 cest Dieu Jme contenterai que dêtre le numéro 2, on sait faire que des sons monstrueux La chatte à ta grand-mère la sorcière qui fait du shour au sang menstrueux Faire dloseille cest dur donc respect à ceux qui font des eu Si les murs ont des oreilles, belek car même les serrures ont des yeux Yo masta ndenge nini, on a des yeux dans ldos Pas besoin ddoubles rétros pour tracter une Tabert Paganini Hommage à toi, en cour martiale, pour qui ça sent lroussi Si lamour rend aveugle, chérie, un coup dgazeuse aussi Seth tes lmeilleur des MCs cest pas la première fois quon mdit ça Toi, va tlaver la tte-cha, tas lswag à Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Ya qupour quer-bra quon ssert dun collant Frelon, lcomble du ciste-ra cest dmourir dun cancer du colon Tu tfais poignarder par ton khey khey pour un gramme de shnouf Sache quune poignet dabeille-beille vaut mieux quun sac de mouches Jvalide pas son côté raciste mais Jack Mess cest un peu comme mon papa Jme tape que des Nerfertiti Là où tu rêves de faire pipi, refrè, jai déjà fait caca Ton gynéco a démissioné dlhopital Bichat Tu puais dla tte-cha comme Aïsha Kandicha Jai djà sorti toute les punchlines comme un gros gamin Jhabite sous lsunshine comme un gros gamin Jpéra la main dans lpeuslaï comme un gros gamin Jricane quand tu téclates en bécane, comme un gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin Gamin gamin, comme une gros gamin1</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3536,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ça c'est pour les vrais gros youv', les ghetto youth Entre la mosquée et la muscu ou à Moscou via la vodka Absolut Nan personne leur a-ver-ri aux couilles Et si oui, ils voudront t'accueillir aux douilles, ce sont des Tiger in the Wood Ici c'est Halloween pas Hollywood Tu peux dead pour un nikoumouk, c'est quitte ou double Sors le brolic, boum ! Pas les jeunes non mais les keufs, belek le da-S' se cache dans les plus jolies chounes Je suis venu au monde un 27 octobre Sans gilet pare-Da-S', sans même faire toc toc Je repartirais des balles de Colt dans la carcasse Lors du fucked up, pop pop, d'un hold-up, motherfuck ! L'humour provoque de Al Bundy Une belle go au bras, un Guigui dans le sac Fendi Guigui, il me couvre, il me suit Je le touche, je l'essuie, c'est cuit quand Guigui sort de l'étui Blah ! On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste You might also like Ça c'est pour mes HLM locataires Et crois-moi, ils n'achètent pas FHM, ils ne portent pas de Rocca Wear Mais gars je-jettent leur drogue à terre Quand ils voient ta mère, ils sont beurs, black ou gwere, ouais ! Prenons une photo d'classe, dessus, une est devenue porno star Deux, trois autres dorment au shtar Je m'revois beau gosse grave, bob, coste-La, polo Ralph Le Guigui qui dépasse, les cordes vocales Défoncées à représenter notre code postal Quand y'a drah on fait déplacer deux, trois potos slaves Serruriers, démonteurs de pneus Défonceurs d'cofio verrouillés, revendeurs de beuh Qui jouent avec Guigui depuis l'air de jeux Qui manient le pied de biche et le nerf de buf N'en veux pas à Guigui d'être nerveux Mais si tu l'regardes dans les yeux, Guigui voudra faire feu ! On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste Ça c'est pour mes dollars et mes goumeurs Qui récoltent des dollars dans la douleur Avec des vrais Colt, des 44, des Glock, des Guigui Des Walter, des Beretta, des Magnum, des 9 milli Bing, bing, bing, bing ! Guigui a eu Biggie Opé' pour la bibi, Guigui a loupé Fifty Ça sert à quoi d'avoir un Guigui s'il n'parle pas Le tout c'est de le faire parler, Guigui ne sait dire que papa J'ai sorti Guigui d'une chaussette pour mettre sur la pochette C'est un coup sur la prochaine, je mets Fifi le lance-roquettes J'rigole ! J'suis pas un tueur, moi j'donne la life Mais si tu me questionnes trop, Guigui répond à ma place ! Tu crois qu't'es qui toi pour me questionner, chard-clo ? Si Guigui c'est un vrai ou un pistolet à eau Tu sais j'suis qui, moi Gueko ! J'pisse au nez de Sarko Tu m'niques en bagarre ? Et ben j'pilonnerai ta go ! Fuck les radios il n'y a que des pistonnés là-haut ! Quand y'a un brako, c'est Gratto qui pilote les vago ! Joue l'macro, Guigui troue comme un terrain de golf Si si, Guigui fait crik crik comme Sefyu Molotov On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste Yeah, Néochrome, Yonea Génération Scarface Word Up ! Ready check check Blex Trop parler peut tuer ! Gentleman gangstaz !</t>
+          <t>Ça c'est pour les vrais gros youv', les ghetto youth Entre la mosquée et la muscu ou à Moscou via la vodka Absolut Nan personne leur a-ver-ri aux couilles Et si oui, ils voudront t'accueillir aux douilles, ce sont des Tiger in the Wood Ici c'est Halloween pas Hollywood Tu peux dead pour un nikoumouk, c'est quitte ou double Sors le brolic, boum ! Pas les jeunes non mais les keufs, belek le da-S' se cache dans les plus jolies chounes Je suis venu au monde un 27 octobre Sans gilet pare-Da-S', sans même faire toc toc Je repartirais des balles de Colt dans la carcasse Lors du fucked up, pop pop, d'un hold-up, motherfuck ! L'humour provoque de Al Bundy Une belle go au bras, un Guigui dans le sac Fendi Guigui, il me couvre, il me suit Je le touche, je l'essuie, c'est cuit quand Guigui sort de l'étui Blah ! On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste Ça c'est pour mes HLM locataires Et crois-moi, ils n'achètent pas FHM, ils ne portent pas de Rocca Wear Mais gars je-jettent leur drogue à terre Quand ils voient ta mère, ils sont beurs, black ou gwere, ouais ! Prenons une photo d'classe, dessus, une est devenue porno star Deux, trois autres dorment au shtar Je m'revois beau gosse grave, bob, coste-La, polo Ralph Le Guigui qui dépasse, les cordes vocales Défoncées à représenter notre code postal Quand y'a drah on fait déplacer deux, trois potos slaves Serruriers, démonteurs de pneus Défonceurs d'cofio verrouillés, revendeurs de beuh Qui jouent avec Guigui depuis l'air de jeux Qui manient le pied de biche et le nerf de buf N'en veux pas à Guigui d'être nerveux Mais si tu l'regardes dans les yeux, Guigui voudra faire feu ! On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste Ça c'est pour mes dollars et mes goumeurs Qui récoltent des dollars dans la douleur Avec des vrais Colt, des 44, des Glock, des Guigui Des Walter, des Beretta, des Magnum, des 9 milli Bing, bing, bing, bing ! Guigui a eu Biggie Opé' pour la bibi, Guigui a loupé Fifty Ça sert à quoi d'avoir un Guigui s'il n'parle pas Le tout c'est de le faire parler, Guigui ne sait dire que papa J'ai sorti Guigui d'une chaussette pour mettre sur la pochette C'est un coup sur la prochaine, je mets Fifi le lance-roquettes J'rigole ! J'suis pas un tueur, moi j'donne la life Mais si tu me questionnes trop, Guigui répond à ma place ! Tu crois qu't'es qui toi pour me questionner, chard-clo ? Si Guigui c'est un vrai ou un pistolet à eau Tu sais j'suis qui, moi Gueko ! J'pisse au nez de Sarko Tu m'niques en bagarre ? Et ben j'pilonnerai ta go ! Fuck les radios il n'y a que des pistonnés là-haut ! Quand y'a un brako, c'est Gratto qui pilote les vago ! Joue l'macro, Guigui troue comme un terrain de golf Si si, Guigui fait crik crik comme Sefyu Molotov On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste On veut vivre Scarface, mourir Scarface On mange Scarface, la classe Scarface La course à la fraîche avec ou sans cess Refaire Scarface, un Guigui dans la veste Yeah, Néochrome, Yonea Génération Scarface Word Up ! Ready check check Blex Trop parler peut tuer ! Gentleman gangstaz !</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3553,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Qui vivra voudra m'checke et m'voir Moi, révolutionnaire comme Che Guevara M'voilà, donc faut que les ouss s'amassent Ouf à la Oussama Ça shlass ou ça marche, passe un kalash et la ferme Dis à mes ennemis que j'vais pas lâcher l'affaire Et yo ! Saint-Ouen l'Aumône, Porte de la Chapelle Ta go n'a plus l'étoffe d'une star lorsqu'elle lâche une perle Moi, un spécimen, de l'espèce humaine Moi, un téci-man, moi, un perce hymen Substance hallucinogène endurcit nos gènes La rue c'est mon chez moi, j'viens de la Russie mon cher ! J'viens, d'un pénis Italien L'odeur de l'oseille adoucit mon zen, t'as qu'à pleurer si t'as rien Ce que je suis moi un iroquois, un indien Et même pire ou quoi, Damien Mon fils c'est mon mini-moi, sa mère c'est mon territoire Moi un futur vieillard, moi un simili roi Viens voir exploser la bombe humaine Imagine-moi un pompe en l'air à la Banque Populaire ! Tranche sa jugulaire si elle commet l'adultère hein ! Veille sur tes reins si tu veilles sur le terrain Les chiens de ma horde sont hors d'eux Les futurs morts n'ont plus de remords, on a la culture de horde La culture des parkings à part moi y'a pas d'king Va te faire palper les parties intimes par Kimi Ou viens dans le coliséum Esprit mabé, faut des gorilles énormes pour corriger l'homme J'ai deux fois trop de haine, comment on pardonne J'suis un Henhen, un membre Marone, le Mandarom Demande à Rome, les aliénés c'est ceux qui ne veulent pas voir César régner avec ses araignées La fatalité c'est Croiser Émile Louis quand il est minuit ou Fatah l'été On ne peut pas arrêter les descendants de Zapata en Marithé Y'a pas d'échappatoire à part l'abattoir C'est la table chirurgicale si tu ricanes Cartel Hurricane, sors la webcam, ce soir il y a du Ricard Connais-tu le bruit d'une lame ? Tout le monde mérite une arme au pays du mal Ce rap n'est que le péril d'une âme Hanté par le cri d'ma femme qu'accouche sans péridurale J'milite pour le braquage des racistes Défonce sa cage thoracique car ils saccagent tes racines Masta ! C'est la suprématie Un chien doit mourir comme un chien, j'aime insulter ma cible Le loup suit de près ta moissy L'anarchie c'est fumer un gare-ci à Bois d'Arcy Ne confie pas ton arme à Narcisse Mon âme a noirci comme celle d'un marxiste Et méfie toi des mecs trop peace De-spee à l'instant propice, qu'ont perdu la notice You might also like Cri-mi-no-lo-gie Yoka, Yoka, Yoka folie Masta, Seth Gueko, Néochrome Sakio, crimino ! Yonea, crimino ! Loko, crimino ! Sonar, crimino ! Tous les scars-la le naissent-co, Seth Gueko Le charlatan, l'escroc, Seth Gueko, crimino ! Omar, crimino ! Kossa, crimino ! Fiston, crimino ! Tous les scars-la le naissent-co, Seth Gueko Du Hall 10 à l'escalator Lescot Omar, crimino ! Krimo, crimino ! Marc, crimino ! Sob, crimino ! Tous les scars-la le naissent-co Lévis-Strauss, Presto, escroc en lex-Ro1</t>
+          <t>Qui vivra voudra m'checke et m'voir Moi, révolutionnaire comme Che Guevara M'voilà, donc faut que les ouss s'amassent Ouf à la Oussama Ça shlass ou ça marche, passe un kalash et la ferme Dis à mes ennemis que j'vais pas lâcher l'affaire Et yo ! Saint-Ouen l'Aumône, Porte de la Chapelle Ta go n'a plus l'étoffe d'une star lorsqu'elle lâche une perle Moi, un spécimen, de l'espèce humaine Moi, un téci-man, moi, un perce hymen Substance hallucinogène endurcit nos gènes La rue c'est mon chez moi, j'viens de la Russie mon cher ! J'viens, d'un pénis Italien L'odeur de l'oseille adoucit mon zen, t'as qu'à pleurer si t'as rien Ce que je suis moi un iroquois, un indien Et même pire ou quoi, Damien Mon fils c'est mon mini-moi, sa mère c'est mon territoire Moi un futur vieillard, moi un simili roi Viens voir exploser la bombe humaine Imagine-moi un pompe en l'air à la Banque Populaire ! Tranche sa jugulaire si elle commet l'adultère hein ! Veille sur tes reins si tu veilles sur le terrain Les chiens de ma horde sont hors d'eux Les futurs morts n'ont plus de remords, on a la culture de horde La culture des parkings à part moi y'a pas d'king Va te faire palper les parties intimes par Kimi Ou viens dans le coliséum Esprit mabé, faut des gorilles énormes pour corriger l'homme J'ai deux fois trop de haine, comment on pardonne J'suis un Henhen, un membre Marone, le Mandarom Demande à Rome, les aliénés c'est ceux qui ne veulent pas voir César régner avec ses araignées La fatalité c'est Croiser Émile Louis quand il est minuit ou Fatah l'été On ne peut pas arrêter les descendants de Zapata en Marithé Y'a pas d'échappatoire à part l'abattoir C'est la table chirurgicale si tu ricanes Cartel Hurricane, sors la webcam, ce soir il y a du Ricard Connais-tu le bruit d'une lame ? Tout le monde mérite une arme au pays du mal Ce rap n'est que le péril d'une âme Hanté par le cri d'ma femme qu'accouche sans péridurale J'milite pour le braquage des racistes Défonce sa cage thoracique car ils saccagent tes racines Masta ! C'est la suprématie Un chien doit mourir comme un chien, j'aime insulter ma cible Le loup suit de près ta moissy L'anarchie c'est fumer un gare-ci à Bois d'Arcy Ne confie pas ton arme à Narcisse Mon âme a noirci comme celle d'un marxiste Et méfie toi des mecs trop peace De-spee à l'instant propice, qu'ont perdu la notice Cri-mi-no-lo-gie Yoka, Yoka, Yoka folie Masta, Seth Gueko, Néochrome Sakio, crimino ! Yonea, crimino ! Loko, crimino ! Sonar, crimino ! Tous les scars-la le naissent-co, Seth Gueko Le charlatan, l'escroc, Seth Gueko, crimino ! Omar, crimino ! Kossa, crimino ! Fiston, crimino ! Tous les scars-la le naissent-co, Seth Gueko Du Hall 10 à l'escalator Lescot Omar, crimino ! Krimo, crimino ! Marc, crimino ! Sob, crimino ! Tous les scars-la le naissent-co Lévis-Strauss, Presto, escroc en lex-Ro1</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Sur la tête de mon p'tit frère qui pleure, ça fait un mois que j'ai pas touché un abricot. J'ai les patates au fond du sac. La dernière fois que j'ai été essayé de chourave la sono pour le quartz là, par ici les keufs ils n'arrivant obligé d'partant, hein ? Sur la tête de ma jonkaille en or, hein, les keufs ils arrivant la prochaine fois on leur tirant dessus on sort le guigui moi, hein mon cousin ? On rappe que la partie visible de l'iceberg On dit pas tout ou on risque de faire couler l'navire du cartel Ça parle d'monter sur un casse-bel' autour d'une Carlsberg On est d'mauvais poil dans l'équipe, y'aura pas d'imberbes L'hiver on va au ski ou on met pas le nez dehors Dis pas qu'l'argent n'a pas d'odeur à un éboueur On est d'toutes les couleurs comme des Jacob Co Bédos, pack d'Heinko', on n'déjeune pas qu'au Benco On fournit l'skeud avec une boîte de Lexo J'suis harponné au monde charbonner ou à l'usine Peugeot Perce des coffres au lieu d'percer tes reilles-o L'matin quand on s'lève on a des gueules de mégots Vleeehh sur l'dos du rap comme un glaviot Y'a des armes et des clandos dans les cales des rafiots Les mauvais payeurs paieront les agios On pousse le sol, mais l'État veut qu'on pousse des chariots X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou ! You might also like Si tu m'fumes, fumes moi rue d'la Truanderie On laisse toujours un échant' comme à la parfumerie Plus on est d'fous et moins y'a d'riz Deux trois stard-co de mafiosis dans la buanderie Dans ma le-vi y'a un p'tit poste mais une grande morgue C'est pas tomber dans l'oreille de Van Gogh On mélange Vodka et Dark Dog Sur l'shirt-tee c'est pas écrit Von Dutch mais vend drogue X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou ! Checke-moi du coude, j'ai les mains pleines de poudre de Beretta Pleine de poudre blanche qu'à l'odeur du Velleda Pull up selecta! C'est pour mes scélérats Quand on ressort d'chez ta fille, faut laver les draps, liberta ! On pète la porte, on ressort à la Spaggiari Fais deux trois sifflotements dès qu'y'à les shtars qui arrivent Les mains pleines de cambouis, on bidouille sur l'parking Achètes une R5 pour vesqui le car-jacking Une tête de Sergueï N'demande pas à un dealer d'écailles de s'remettre sur les rails, rhey C'est l'heure de la paie D'rallumer la Play' J'raccroche avant qu'les keufs localisent l'appel ! X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou !1</t>
+          <t>Sur la tête de mon p'tit frère qui pleure, ça fait un mois que j'ai pas touché un abricot. J'ai les patates au fond du sac. La dernière fois que j'ai été essayé de chourave la sono pour le quartz là, par ici les keufs ils n'arrivant obligé d'partant, hein ? Sur la tête de ma jonkaille en or, hein, les keufs ils arrivant la prochaine fois on leur tirant dessus on sort le guigui moi, hein mon cousin ? On rappe que la partie visible de l'iceberg On dit pas tout ou on risque de faire couler l'navire du cartel Ça parle d'monter sur un casse-bel' autour d'une Carlsberg On est d'mauvais poil dans l'équipe, y'aura pas d'imberbes L'hiver on va au ski ou on met pas le nez dehors Dis pas qu'l'argent n'a pas d'odeur à un éboueur On est d'toutes les couleurs comme des Jacob Co Bédos, pack d'Heinko', on n'déjeune pas qu'au Benco On fournit l'skeud avec une boîte de Lexo J'suis harponné au monde charbonner ou à l'usine Peugeot Perce des coffres au lieu d'percer tes reilles-o L'matin quand on s'lève on a des gueules de mégots Vleeehh sur l'dos du rap comme un glaviot Y'a des armes et des clandos dans les cales des rafiots Les mauvais payeurs paieront les agios On pousse le sol, mais l'État veut qu'on pousse des chariots X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou ! Si tu m'fumes, fumes moi rue d'la Truanderie On laisse toujours un échant' comme à la parfumerie Plus on est d'fous et moins y'a d'riz Deux trois stard-co de mafiosis dans la buanderie Dans ma le-vi y'a un p'tit poste mais une grande morgue C'est pas tomber dans l'oreille de Van Gogh On mélange Vodka et Dark Dog Sur l'shirt-tee c'est pas écrit Von Dutch mais vend drogue X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou ! Checke-moi du coude, j'ai les mains pleines de poudre de Beretta Pleine de poudre blanche qu'à l'odeur du Velleda Pull up selecta! C'est pour mes scélérats Quand on ressort d'chez ta fille, faut laver les draps, liberta ! On pète la porte, on ressort à la Spaggiari Fais deux trois sifflotements dès qu'y'à les shtars qui arrivent Les mains pleines de cambouis, on bidouille sur l'parking Achètes une R5 pour vesqui le car-jacking Une tête de Sergueï N'demande pas à un dealer d'écailles de s'remettre sur les rails, rhey C'est l'heure de la paie D'rallumer la Play' J'raccroche avant qu'les keufs localisent l'appel ! X2 Sur ma joncaille en or, sur la tête du p'tit qui pleure Retenez nous d'monter sur un coup D'prendre 10 ans ferme de trou pour un délit mineur Hein mon zincou, hein mon zincou !1</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3587,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Zekwe, Zekwe Mes meilleurs potes s'appellent Jacques, Daniel, Philippe, Maurice Ils me contrôlent, ils m'hypnotisent Ma belle, t'as l'air d'une fille charmante allons fumer la verdure J'parle pas d'une chicha menthe Fuma, fuma, fume suffisamment T'es belle comme un TDI qui sort d'une usine allemande J'veux des papiers peints en billets d'500, des salons ultraviolets Quand on arrive en ville, les chattes n'ont plus qu'à miauler Envoyé du futur par John Connor M'insultez plus d'rappeur j'vends ma drogue sonore Rien qu'ça charbonne, mon p'tit cabron De la pleine lune aux aurores D'Evry jusqu'au Pôle Nord Elles nous aiment car on les hypnotise On a c'produit, on a cette Kryptonite Surveillez vos p'tites copines On les rend accros ! accros ! Totalement accros! accros ! Ils nous aiment car on les hypnotise Laisse parler ces putain d'hypocrites S'ils parlent sur nous c'est parce qu'on les rend paros ! paros ! Complètement paros ! paros ! You might also like J'commence mes classiques comme Orange Mécanique Sur l'Coran j't'éradique, c'n'est qu'un moment très tragique Une imposante métallique Arme de guerre, sur la tête j'ai mis un putain d'collant élastique A-L-K-P-O-T-E tu m'as vu, tu me veux, prends les transports en commun RER D, le merdier le rrain-te, la réalité prend forme dans nos mains 9-1 en chiffres romains, enfouis dans l'abdomen C'est tous tes p'tits copains qu'j'éclaire comme une lampe halogène J'laisse aucune chance à vos chiennes Salope mon zizi pleure, j'suis l'visiteur, le liquideur Pour m'rattraper il faut 10 000 heures N'apprends pas la grimace au vieux singe 9-1 la banlieue t'flingue Des grands yeux d'lynx salope T'es sur ma liste, tu vas recevoir des Corses Tu peux déjà appeler ton répertoire de proches J'vais pas trahir ma femme ni décevoir les gosses Mais une michto ça suce comme un réservoir de Porsche J'viens du 9-5 comme Bors', du genre jean cartonné, Air Max Shox Dis à Megan Fox qu'on veut lui faire l'amour au pluriel J'sors de mon trou comme une murène Si j'te fume, que Dieu me pardonne, l'erreur est humaine J'veux une femme complice de mes crimes comme Dexter et Lumen Tu veux des sensations fortes? viens j't'emmène J'ai pas les dents en or mais elles sont jaunes quand même</t>
+          <t>Zekwe, Zekwe Mes meilleurs potes s'appellent Jacques, Daniel, Philippe, Maurice Ils me contrôlent, ils m'hypnotisent Ma belle, t'as l'air d'une fille charmante allons fumer la verdure J'parle pas d'une chicha menthe Fuma, fuma, fume suffisamment T'es belle comme un TDI qui sort d'une usine allemande J'veux des papiers peints en billets d'500, des salons ultraviolets Quand on arrive en ville, les chattes n'ont plus qu'à miauler Envoyé du futur par John Connor M'insultez plus d'rappeur j'vends ma drogue sonore Rien qu'ça charbonne, mon p'tit cabron De la pleine lune aux aurores D'Evry jusqu'au Pôle Nord Elles nous aiment car on les hypnotise On a c'produit, on a cette Kryptonite Surveillez vos p'tites copines On les rend accros ! accros ! Totalement accros! accros ! Ils nous aiment car on les hypnotise Laisse parler ces putain d'hypocrites S'ils parlent sur nous c'est parce qu'on les rend paros ! paros ! Complètement paros ! paros ! J'commence mes classiques comme Orange Mécanique Sur l'Coran j't'éradique, c'n'est qu'un moment très tragique Une imposante métallique Arme de guerre, sur la tête j'ai mis un putain d'collant élastique A-L-K-P-O-T-E tu m'as vu, tu me veux, prends les transports en commun RER D, le merdier le rrain-te, la réalité prend forme dans nos mains 9-1 en chiffres romains, enfouis dans l'abdomen C'est tous tes p'tits copains qu'j'éclaire comme une lampe halogène J'laisse aucune chance à vos chiennes Salope mon zizi pleure, j'suis l'visiteur, le liquideur Pour m'rattraper il faut 10 000 heures N'apprends pas la grimace au vieux singe 9-1 la banlieue t'flingue Des grands yeux d'lynx salope T'es sur ma liste, tu vas recevoir des Corses Tu peux déjà appeler ton répertoire de proches J'vais pas trahir ma femme ni décevoir les gosses Mais une michto ça suce comme un réservoir de Porsche J'viens du 9-5 comme Bors', du genre jean cartonné, Air Max Shox Dis à Megan Fox qu'on veut lui faire l'amour au pluriel J'sors de mon trou comme une murène Si j'te fume, que Dieu me pardonne, l'erreur est humaine J'veux une femme complice de mes crimes comme Dexter et Lumen Tu veux des sensations fortes? viens j't'emmène J'ai pas les dents en or mais elles sont jaunes quand même</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3604,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Bâtard Yo! On vient des tés-ci dit sensibles Si si, des tess anciennes Ici l'essentiel, c'est d'laisser la police en chienne Ouais, faut qu'la police en chie Ici y'a pas d'dessous d'lit sans shit Si tu fais pas assez d'ients-cli, on t'licencie Ici, c'est la Sicile, si tu t'la joues On t'redessine au surin, un vagin sur la joue, gars ! Ici, c'est pas l'cirque Arlette Gruss T'es barge ou quoi ! Ici on joue à la roulette russe avec un bazooka Ici, Le shit est excellent, frère On vend du paradis, ici mec c'est l'enfer Des démons avec des tieks en défense d'éléphants Ici, on tape des défonces terrifiantes Ici, c'est tout plein d'ges-sin Chasse à l'homme avec les tshoins et XXX seins J't'assure, c'est pas un jeu saint Ici, on est prêts à ver-cre Ici, les avocats s'avèrent véreux Et fais aucun pas vers eux ! Ici, on part à la piscine avec Jack et Daniel Ici, si t'es my men, ta chatte est la mienne Ici, y'a pas d'jolie vie On fait du ski sur d'la poudreuse en provenance de Bolivie You might also like Ici, c'est Despé, Kronenbourg On respecte Rocancourt Espèce d'grosse tantouze Mes gangsters et mes khos t'entourent Ici, on t'plante les crocs dans le cou Comme un pitt qu'a la rage V'là l'p'tit sale arabe qui r'nifle le string à ta femme ! En jean et Air Max baby Scientifique comme Mac Lesggy On a l'art d'l'esquive Nargue les skid, marque l'esprit Une culture maléfique à faire une rupture d'anévrisme Ici on souffre d'un putain d'manque affectif On rêve de palaces et de Benz de bâtard Mec je canarde, c'est l'aigle de Carthage Trêve de blagues nazes, je pète le barrage Cède le passage ou lèche le carrelage Ici, c'est toujours les mêmes gens qu'on enferme Le barillet plein, c'est la descente aux enfers Ici, on s'plie en quatre si t'as pris 8 plombs Ici, on r'part en brancard sur un tapis Vuitton Ici, les petits trompent, on les retrouve étripés Aucune pitié, même si on a des jumeaux ou des triplés Ici, on bicrave le shit et la sik Tu peux appeler notre cité l'asile Car, ici, le schmitt est la cible Ici, les bitchs attachent nos cous Les pitt t'attaquent aux couilles Ici, on t'barbouze en dix s'condes et on taille à Cancun Ici, personne ne veut finir comme Marvin Gaye Envier ma vie d'clebs C'est foutre sa bite dans un nid d'guêpes</t>
+          <t>Bâtard Yo! On vient des tés-ci dit sensibles Si si, des tess anciennes Ici l'essentiel, c'est d'laisser la police en chienne Ouais, faut qu'la police en chie Ici y'a pas d'dessous d'lit sans shit Si tu fais pas assez d'ients-cli, on t'licencie Ici, c'est la Sicile, si tu t'la joues On t'redessine au surin, un vagin sur la joue, gars ! Ici, c'est pas l'cirque Arlette Gruss T'es barge ou quoi ! Ici on joue à la roulette russe avec un bazooka Ici, Le shit est excellent, frère On vend du paradis, ici mec c'est l'enfer Des démons avec des tieks en défense d'éléphants Ici, on tape des défonces terrifiantes Ici, c'est tout plein d'ges-sin Chasse à l'homme avec les tshoins et XXX seins J't'assure, c'est pas un jeu saint Ici, on est prêts à ver-cre Ici, les avocats s'avèrent véreux Et fais aucun pas vers eux ! Ici, on part à la piscine avec Jack et Daniel Ici, si t'es my men, ta chatte est la mienne Ici, y'a pas d'jolie vie On fait du ski sur d'la poudreuse en provenance de Bolivie Ici, c'est Despé, Kronenbourg On respecte Rocancourt Espèce d'grosse tantouze Mes gangsters et mes khos t'entourent Ici, on t'plante les crocs dans le cou Comme un pitt qu'a la rage V'là l'p'tit sale arabe qui r'nifle le string à ta femme ! En jean et Air Max baby Scientifique comme Mac Lesggy On a l'art d'l'esquive Nargue les skid, marque l'esprit Une culture maléfique à faire une rupture d'anévrisme Ici on souffre d'un putain d'manque affectif On rêve de palaces et de Benz de bâtard Mec je canarde, c'est l'aigle de Carthage Trêve de blagues nazes, je pète le barrage Cède le passage ou lèche le carrelage Ici, c'est toujours les mêmes gens qu'on enferme Le barillet plein, c'est la descente aux enfers Ici, on s'plie en quatre si t'as pris 8 plombs Ici, on r'part en brancard sur un tapis Vuitton Ici, les petits trompent, on les retrouve étripés Aucune pitié, même si on a des jumeaux ou des triplés Ici, on bicrave le shit et la sik Tu peux appeler notre cité l'asile Car, ici, le schmitt est la cible Ici, les bitchs attachent nos cous Les pitt t'attaquent aux couilles Ici, on t'barbouze en dix s'condes et on taille à Cancun Ici, personne ne veut finir comme Marvin Gaye Envier ma vie d'clebs C'est foutre sa bite dans un nid d'guêpes</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3621,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Wesh Rim'K, bien ou quoi ? Wesh tête de poulpe Y'a pas moyen de sé-po sur Maghreb United ? Mais qu'est-ce tu veux fromage, vas y t'es né place Clichy la Eh je sais je suis pas reubeu t'inquiète poto T'inquiète de quoi ? On représente c'est pareil frère Mais regarde toi On est de la cité de rebeu nous mon frère Mais t'est transparent on voit ton coeur là, qu'est ce tu veux Vas-y laisse moi poser dans le projet euh Rim'K, la y'a pas une petite ce-pla là Putain t'es re-lou toi, grave Abdel bachir is back khoya WéWéWé Je mets les gaz Comme après un plat de loubia Abdel Bachir is back khoya Peau en cuir de reubeu Pas besoin d'auto-bronzant Poto je mange pas de porc depuis que j'ai mes 11 ans Je me suis fait laver chez le taleb J'ai l'ADN à Ben Laden mais je veux la BM de Cheb Khaled Je me torche avec de l'eau tiéde Je me suis fait circoncir pour Maghreb United Fréquentation mi-cainfr, mi-reubeu, mi-foraine Si j'ai les yeux bleus C'est à cause de la mer Kabylifornienne En boite surveille ton verre khoya Regarde comment a fini Faudel Comme les vieilles Fatma Je suis remplis de bijoux Un nid d'Ali a dodo Un delekel bezo 2 roues sur la corniche on bombarde d'ici d'ou Je jacte dans toute les langues Ne me demande pas je suis d'ou Marlich si j'ai pas de fric pour faire le bord de l'Afrique Je suis à 30 kilomètres du marché Malik Si t'as des photos de la plage faut me les bluetoofer Ou fait de la muscu, du ciment dans le couscoussier Y'a pas de figuier dans mon paysage Moi bien parler la France Comme ces clandoss qui sortent tout droit d'un train d'atterissage Il était une fois dans l'oise Rimkus Prends le tesson de la teille de whiskuss Fait leur un sourire Bylkus, bylkus, bylkus You might also likeLa prochaine fois je met le keffieh ou la chechia Abdel Bachir is back khoya Qu'est ce qu'il y a, j'arrive Bounia coup de tibia Abdel Bachir is back khoya La prochaine fois je met le keffieh ou la chechia Abdel Bachir is back roya Qu'est ce qu'il y a, j'arrive Bounia coup de tibia Abdel Bachir is back khoya 100 arabica 100 arabico Laisse moi poser une petit truc Je vais tout niquer Rim'K, t'inquiète Ancien reubeu Abdel Bachir is back khoya</t>
+          <t>Wesh Rim'K, bien ou quoi ? Wesh tête de poulpe Y'a pas moyen de sé-po sur Maghreb United ? Mais qu'est-ce tu veux fromage, vas y t'es né place Clichy la Eh je sais je suis pas reubeu t'inquiète poto T'inquiète de quoi ? On représente c'est pareil frère Mais regarde toi On est de la cité de rebeu nous mon frère Mais t'est transparent on voit ton coeur là, qu'est ce tu veux Vas-y laisse moi poser dans le projet euh Rim'K, la y'a pas une petite ce-pla là Putain t'es re-lou toi, grave Abdel bachir is back khoya WéWéWé Je mets les gaz Comme après un plat de loubia Abdel Bachir is back khoya Peau en cuir de reubeu Pas besoin d'auto-bronzant Poto je mange pas de porc depuis que j'ai mes 11 ans Je me suis fait laver chez le taleb J'ai l'ADN à Ben Laden mais je veux la BM de Cheb Khaled Je me torche avec de l'eau tiéde Je me suis fait circoncir pour Maghreb United Fréquentation mi-cainfr, mi-reubeu, mi-foraine Si j'ai les yeux bleus C'est à cause de la mer Kabylifornienne En boite surveille ton verre khoya Regarde comment a fini Faudel Comme les vieilles Fatma Je suis remplis de bijoux Un nid d'Ali a dodo Un delekel bezo 2 roues sur la corniche on bombarde d'ici d'ou Je jacte dans toute les langues Ne me demande pas je suis d'ou Marlich si j'ai pas de fric pour faire le bord de l'Afrique Je suis à 30 kilomètres du marché Malik Si t'as des photos de la plage faut me les bluetoofer Ou fait de la muscu, du ciment dans le couscoussier Y'a pas de figuier dans mon paysage Moi bien parler la France Comme ces clandoss qui sortent tout droit d'un train d'atterissage Il était une fois dans l'oise Rimkus Prends le tesson de la teille de whiskuss Fait leur un sourire Bylkus, bylkus, bylkus La prochaine fois je met le keffieh ou la chechia Abdel Bachir is back khoya Qu'est ce qu'il y a, j'arrive Bounia coup de tibia Abdel Bachir is back khoya La prochaine fois je met le keffieh ou la chechia Abdel Bachir is back roya Qu'est ce qu'il y a, j'arrive Bounia coup de tibia Abdel Bachir is back khoya 100 arabica 100 arabico Laisse moi poser une petit truc Je vais tout niquer Rim'K, t'inquiète Ancien reubeu Abdel Bachir is back khoya</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3638,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Sourire d'escroc avec de l'or sur les quenottes Kaboul 15 coups comme sur le terrain de Sevran Beaudottes On fait l'tour de l'Europe, sous la calandre d'la loc y'a deux loques Sur la tête d'la nouvelle portée d'Rott Les douaniers j'les fuck, belote, rebelote J'veux des diamants sur mes menottes On te vend même quand il grelotte, pendant les tempêtes de vent Le glock c'est comme le ciné mieux vaut être derrière qu'être devant Mon pote, ça braque des semi-remorques pour des palettes de Play Ça arrache en T-max des mallettes de 'seille Sous l'nez d'ta sale tête de vieille Bienvenue dans la planète de Sheïtan Qu'est-ce tu m'parles de star ? Même Beckham Peut pas amortir de la poitrine une balle de chtar Quand les keufs me contrôlent j'ai le stress des exams J'suis venu tout becter, j'te laisse les graines de sésame ! Malgré leurs keufs vils-ci, leurs keufs caille-ras une chose est sure Ils nous baiseront pas ! Malgré leurs keufs gays, malgré leurs keufs rasta, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas ! You might also like Tu vas t'en prendre plein l'cul, pédale ! On arrive au stud' à trois sur une bécane À 4 sur un vélo, à 8 dans une belle gova La poucave finira comme Bérégovoy V'la des années qu'on galère comme des oufs oufs C'est Saint-Ouen-l'Aumône Aulnay ous-s ous-s Ma couillasse, il nous aut-f des ous-s ou-s Et un couscous préparé par Herzigova La fumée a baisé nos voix On a des poumons de Ganjaman Les maisons d'disques me regardent comme la viande Charal J'rentre sur le beat salement, comme ton ennemi qui te rentre sa lame La cess, l'héro faut pas vendre ça mal Ou si la stup passe tu vas suer des glandes anales Pour nos familles nombreuses c'est dans nos gangs natale On a nos p'tites reuss, bats-la pas dans ta chambre à poil ! Malgré leurs keufs vils-ci,leurs keufs caille-ra une chose est sure Ils nous baiseront pas ! Malgré leurs keufs facteurs, leurs keufs éboueurs, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas ! On honore nos morts ués-t à tout âge Par des graffs, des ceaux-mor et des tatouages Textes de barges trop virulents M'invite pas en feat si t'as l'cro-mi puant, rap tonitruant On est trop dans la caisse, elle penche aux virages Quand mes Pancho Villa bicravent ils pensent au village Ouais, mais ils pensent aussi à la plage, aux bandits-manchots Un vrai bandit peut t'vendre des moufles à un manchot Je défraie la chronique comme Sarko et Carla On vous rend le drapeau écarlate, le braco, c'est par là ! Les comparses c'est Seth et Al'Tarba On est venus mettre des tartes comme Plata On est pas venus faire Blata Le diable s'habille en Prada PakaPaka ! Saint-Ouen-l'Aumône tieks, Neochrome Gangz ! Zdedededex Malgré leurs keufs vils-ci,leurs keufs caille-ra une chose est sure Ils nous baiseront pas ! Malgré leurs keufs gays, malgré leurs keufs rasta, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas !</t>
+          <t>Sourire d'escroc avec de l'or sur les quenottes Kaboul 15 coups comme sur le terrain de Sevran Beaudottes On fait l'tour de l'Europe, sous la calandre d'la loc y'a deux loques Sur la tête d'la nouvelle portée d'Rott Les douaniers j'les fuck, belote, rebelote J'veux des diamants sur mes menottes On te vend même quand il grelotte, pendant les tempêtes de vent Le glock c'est comme le ciné mieux vaut être derrière qu'être devant Mon pote, ça braque des semi-remorques pour des palettes de Play Ça arrache en T-max des mallettes de 'seille Sous l'nez d'ta sale tête de vieille Bienvenue dans la planète de Sheïtan Qu'est-ce tu m'parles de star ? Même Beckham Peut pas amortir de la poitrine une balle de chtar Quand les keufs me contrôlent j'ai le stress des exams J'suis venu tout becter, j'te laisse les graines de sésame ! Malgré leurs keufs vils-ci, leurs keufs caille-ras une chose est sure Ils nous baiseront pas ! Malgré leurs keufs gays, malgré leurs keufs rasta, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas ! Tu vas t'en prendre plein l'cul, pédale ! On arrive au stud' à trois sur une bécane À 4 sur un vélo, à 8 dans une belle gova La poucave finira comme Bérégovoy V'la des années qu'on galère comme des oufs oufs C'est Saint-Ouen-l'Aumône Aulnay ous-s ous-s Ma couillasse, il nous aut-f des ous-s ou-s Et un couscous préparé par Herzigova La fumée a baisé nos voix On a des poumons de Ganjaman Les maisons d'disques me regardent comme la viande Charal J'rentre sur le beat salement, comme ton ennemi qui te rentre sa lame La cess, l'héro faut pas vendre ça mal Ou si la stup passe tu vas suer des glandes anales Pour nos familles nombreuses c'est dans nos gangs natale On a nos p'tites reuss, bats-la pas dans ta chambre à poil ! Malgré leurs keufs vils-ci,leurs keufs caille-ra une chose est sure Ils nous baiseront pas ! Malgré leurs keufs facteurs, leurs keufs éboueurs, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas ! On honore nos morts ués-t à tout âge Par des graffs, des ceaux-mor et des tatouages Textes de barges trop virulents M'invite pas en feat si t'as l'cro-mi puant, rap tonitruant On est trop dans la caisse, elle penche aux virages Quand mes Pancho Villa bicravent ils pensent au village Ouais, mais ils pensent aussi à la plage, aux bandits-manchots Un vrai bandit peut t'vendre des moufles à un manchot Je défraie la chronique comme Sarko et Carla On vous rend le drapeau écarlate, le braco, c'est par là ! Les comparses c'est Seth et Al'Tarba On est venus mettre des tartes comme Plata On est pas venus faire Blata Le diable s'habille en Prada PakaPaka ! Saint-Ouen-l'Aumône tieks, Neochrome Gangz ! Zdedededex Malgré leurs keufs vils-ci,leurs keufs caille-ra une chose est sure Ils nous baiseront pas ! Malgré leurs keufs gays, malgré leurs keufs rasta, une chose est sure Ils m'la mettront pas ! Baise lÉtat ! C'est l'son du Beretta ! Papapa ! Papapa ! Malgré leurs keufs fashion, leurs keufs clandos, une chose est sure Ils me baiseront pas !</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3655,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Si, si Seth Gueko, Néochrome Imagine un monde où les matons seraient les détenus Un monde où les pauvres auraient des belles tenues Un monde où les premiers de la classe seraient en heures de retenues Un monde où on serait heureux tout nu Un monde qui jugerait pas sur lapparence Qui tapprendrait pas qucétait ton pote la balance Un monde où yaurait du te-shi au Super-Market Une planète où les DA cracheraient pas sur tes maquettes Un monde sans trafic, sans drame, où des cadavres de flics sentasses, qu'on en verrait en Afrique centrale Un monde où même les Pit's sembrassent Un monde où les flics ne laissent jamais leur slip sans trace Un monde où Police et milice seraient dissociables Un vie où jaurai pas proposé mes services au diable Un monde paradisiaque, sans paraplégique Un endroit où yen a pas un qui jacte Quitter ce monde car il est trop sale Pour un monde où les pères sont irréprochables Un monde avec beaucoup plus de mères heureuses Et beaucoup plus de secrétaire rebeuses Un monde sans bombe atomique Une planète ou Sadam Ussen serait catholique Alcoolique, car ce monde memballe pas Même si on y retrouve Bush dans un sac Mobalpa You might also like Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Imagine un monde sans S.I.D.A, sans pédé Où les gens ont idées à sentraider Un monde où ceux quont voulu canner Yonea Ont finit dans une boîte de cannelloni Là où les boîtes sont tuit-gra le vendredi soir Un monde où les poulets sont sur un grand rôtissoire Un monde où les juges ont mal et flippent Ce monde est maléfique, té-ma les flics Là où P.D veut dire pédale, et pas Police Départementale Là où les grecs ont deux parts demmental Là où t'es malade mental dêtre un Le Peniste Un monde où les riches naiment pas les raquettes de tennis Un monde où Jacques Mesrine a eu la coupe Davis Un monde où même les sourds écoutent mes disques Un monde où Ben Laden est le Père-Noël Un monde où le public a voté pour Oussin Et à fait perdre Nolwen Un monde paranormal, plein de Clara Morgane Où Dieu aura ton âme si taimes les ratonnades Où chimères, un monde imaginaire Dans lequel Sarkozy a lvisage inerte Un monde sans parapluie, avec preuves à lappuis Que Le Pen fut mit au monde par une truie Un monde à labris dla maladie Un pseudo-paradis traversé dun parapluie Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai</t>
+          <t>Si, si Seth Gueko, Néochrome Imagine un monde où les matons seraient les détenus Un monde où les pauvres auraient des belles tenues Un monde où les premiers de la classe seraient en heures de retenues Un monde où on serait heureux tout nu Un monde qui jugerait pas sur lapparence Qui tapprendrait pas qucétait ton pote la balance Un monde où yaurait du te-shi au Super-Market Une planète où les DA cracheraient pas sur tes maquettes Un monde sans trafic, sans drame, où des cadavres de flics sentasses, qu'on en verrait en Afrique centrale Un monde où même les Pit's sembrassent Un monde où les flics ne laissent jamais leur slip sans trace Un monde où Police et milice seraient dissociables Un vie où jaurai pas proposé mes services au diable Un monde paradisiaque, sans paraplégique Un endroit où yen a pas un qui jacte Quitter ce monde car il est trop sale Pour un monde où les pères sont irréprochables Un monde avec beaucoup plus de mères heureuses Et beaucoup plus de secrétaire rebeuses Un monde sans bombe atomique Une planète ou Sadam Ussen serait catholique Alcoolique, car ce monde memballe pas Même si on y retrouve Bush dans un sac Mobalpa Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Imagine un monde sans S.I.D.A, sans pédé Où les gens ont idées à sentraider Un monde où ceux quont voulu canner Yonea Ont finit dans une boîte de cannelloni Là où les boîtes sont tuit-gra le vendredi soir Un monde où les poulets sont sur un grand rôtissoire Un monde où les juges ont mal et flippent Ce monde est maléfique, té-ma les flics Là où P.D veut dire pédale, et pas Police Départementale Là où les grecs ont deux parts demmental Là où t'es malade mental dêtre un Le Peniste Un monde où les riches naiment pas les raquettes de tennis Un monde où Jacques Mesrine a eu la coupe Davis Un monde où même les sourds écoutent mes disques Un monde où Ben Laden est le Père-Noël Un monde où le public a voté pour Oussin Et à fait perdre Nolwen Un monde paranormal, plein de Clara Morgane Où Dieu aura ton âme si taimes les ratonnades Où chimères, un monde imaginaire Dans lequel Sarkozy a lvisage inerte Un monde sans parapluie, avec preuves à lappuis Que Le Pen fut mit au monde par une truie Un monde à labris dla maladie Un pseudo-paradis traversé dun parapluie Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai Juste un peu plus de fric, un peu moins dregrets Un peu plus de frites dans mon que-gré Un peu moins de flics, un peu plus de blé Un peu moins de fils de te-trai</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3672,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Ici c'est moi l'chef, et quand j'lâche des textes On dirait que parle un Glock Moi et mon flingue on est ventriloques, comme qui ? Comme Jean-Marc et Jeff Panacloc J'sors du club il est nine o'clock D'vant la rafale tu cavales comme une antilope Et ouais d'vant la kalash y a pas d'anti-pop Ma rage n'a pas d'antidote aucun J'suis pour l'mariage, mais j'suis anti-dot Nos armes sont biseautées comme dans l'Empire byzantin ou Constantinople Jack Daniel's c'est mon co-pilote Une deuxième Jack Da-miel et j'suis pumped up Tu vas aller chez l'un et tu vas pomper l'autre T'es qu'une grosse cochonne tu fais la tournée des chiottes La grosse cloche sonne, c'est l'heure d'la tournée des shots Ton album sort ouais c'est la journée des fiottes You might also like Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Fais-moi une dance table, et ferme ta gueule, baby girl Amène-moi mon red label, au lieu d'faire la belle J'suis dans mon gangsta world, j'recherche ap une amourette avec une amour, elle Serait d'mon 3-5-7 a oublié d'se brosser les dents Toi ton string a oublié d'descendre la poubelle Mauvaise nouvelle pour l'mariage, les pucelles nous arrangent Au poker mec après le tunnel sous la Manche Marche moi sur l'pied, et ma s'melle tu la manges La Harley tu la sors une fois par semaine, tu la ranges Malchance, tu fais pas d'ventes mais t'as du buzz Les apparences sont trompeuses Les sales balances sont pompeuses S'ils rappent tous comme moi, c'est d'la faute aux copieuses Ça saute aux yeuz, j'découpe la prod à la tronçonneuse comme Leatherface J'aime certains rappeurs mais jamais je n'lèche leurs fesses Découpe ton MC préféré en feat au lieu d'caresser sa dick J'écoute que Kaaris et Sadek J'ai deux défauts j'suis un paresseux sadique J'ai deux flingues sur moi, viens par ici sale dec' Terrifié d'voir, que pour ramasser son fric Elle est prête à tarifer sa schnek dans des hôtels mystiques Seth Guex écrit sur la glace du miroir au red lipstick, j't'explique Me cassez pas les burnes J'suis à douze mille bornes Rien d'autre me répugne, que la fille à Jean-Marie Le Borgne Me fous pas en rogne Espèce de tête à claques Ou j'vais t'éclater la trogne Avec mes métacarpes J'envoie des mega-tartes Pour menotter, ils se mettent à quatre Franchement ça m'fait rigoler Les tatouages ça m'fait des guillis Le rhum ça m'fait dégueuler Les embrouilles ça m'fait dégainer Mes enfants, m'assoit d'vant Gulli Ou j'me fais engueuler J'suis pas un papillon j'suis là pour Suvarnabhumi J'fais du rap sévèrement burné Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Favelas 27 J'ai pas de cash hélas, trace et passe la r'cette J'marque mon territoire, alors m'empêche pas d'sep J'pose mes couilles sur la table comme un carré d'as Moi c'est Seth Guek Moult povre1</t>
+          <t>Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Ici c'est moi l'chef, et quand j'lâche des textes On dirait que parle un Glock Moi et mon flingue on est ventriloques, comme qui ? Comme Jean-Marc et Jeff Panacloc J'sors du club il est nine o'clock D'vant la rafale tu cavales comme une antilope Et ouais d'vant la kalash y a pas d'anti-pop Ma rage n'a pas d'antidote aucun J'suis pour l'mariage, mais j'suis anti-dot Nos armes sont biseautées comme dans l'Empire byzantin ou Constantinople Jack Daniel's c'est mon co-pilote Une deuxième Jack Da-miel et j'suis pumped up Tu vas aller chez l'un et tu vas pomper l'autre T'es qu'une grosse cochonne tu fais la tournée des chiottes La grosse cloche sonne, c'est l'heure d'la tournée des shots Ton album sort ouais c'est la journée des fiottes Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Fais-moi une dance table, et ferme ta gueule, baby girl Amène-moi mon red label, au lieu d'faire la belle J'suis dans mon gangsta world, j'recherche ap une amourette avec une amour, elle Serait d'mon 3-5-7 a oublié d'se brosser les dents Toi ton string a oublié d'descendre la poubelle Mauvaise nouvelle pour l'mariage, les pucelles nous arrangent Au poker mec après le tunnel sous la Manche Marche moi sur l'pied, et ma s'melle tu la manges La Harley tu la sors une fois par semaine, tu la ranges Malchance, tu fais pas d'ventes mais t'as du buzz Les apparences sont trompeuses Les sales balances sont pompeuses S'ils rappent tous comme moi, c'est d'la faute aux copieuses Ça saute aux yeuz, j'découpe la prod à la tronçonneuse comme Leatherface J'aime certains rappeurs mais jamais je n'lèche leurs fesses Découpe ton MC préféré en feat au lieu d'caresser sa dick J'écoute que Kaaris et Sadek J'ai deux défauts j'suis un paresseux sadique J'ai deux flingues sur moi, viens par ici sale dec' Terrifié d'voir, que pour ramasser son fric Elle est prête à tarifer sa schnek dans des hôtels mystiques Seth Guex écrit sur la glace du miroir au red lipstick, j't'explique Me cassez pas les burnes J'suis à douze mille bornes Rien d'autre me répugne, que la fille à Jean-Marie Le Borgne Me fous pas en rogne Espèce de tête à claques Ou j'vais t'éclater la trogne Avec mes métacarpes J'envoie des mega-tartes Pour menotter, ils se mettent à quatre Franchement ça m'fait rigoler Les tatouages ça m'fait des guillis Le rhum ça m'fait dégueuler Les embrouilles ça m'fait dégainer Mes enfants, m'assoit d'vant Gulli Ou j'me fais engueuler J'suis pas un papillon j'suis là pour Suvarnabhumi J'fais du rap sévèrement burné Flingue en l'air dans le comico Joint en l'air, gros comme un cône Miko Doigt en l'air mais c'est pas le Cornetto Trop cramé pour être incognito Incognito, trop tatoué pour passer incognito Incognito, j'aime quand elle m'susurre à l'oreille j'en veux encore Nico Favelas 27 J'ai pas de cash hélas, trace et passe la r'cette J'marque mon territoire, alors m'empêche pas d'sep J'pose mes couilles sur la table comme un carré d'as Moi c'est Seth Guek Moult povre1</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3689,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>C'est Jean-Marie Bigard, ma couillasse Et là, t'es en train d'écouter lalbum de Seth Gueko Si t'es choqué par des mots comme zguègue de poulain Schneck, blaaaarks, salope, chatte, bouillave, zdedededex Alors va jouer avec ta bite dans l'herbe, connard !You might also like</t>
+          <t>C'est Jean-Marie Bigard, ma couillasse Et là, t'es en train d'écouter lalbum de Seth Gueko Si t'es choqué par des mots comme zguègue de poulain Schneck, blaaaarks, salope, chatte, bouillave, zdedededex Alors va jouer avec ta bite dans l'herbe, connard !</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3706,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>9.5, 9.3, Jaguarr Gorgone, Joey Starr Hé, Seth Gueko aussi Hey Barlou, au garde à vous !You might also like</t>
+          <t>9.5, 9.3, Jaguarr Gorgone, Joey Starr Hé, Seth Gueko aussi Hey Barlou, au garde à vous !</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3723,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>J'crache mes as, Seth Gueko et Al.K aight Karakt'R Xplicit, Dok Bundi si si Néochrome Records bande de chiennasse J'ai l'ventre qui gargouille dès qu'ça sent la semoule Y'a mon son dans tous les dessins sans Samsung C'est pour les délinquants rhassoul Être méchant ça m'soûle mais faut que j'laisse en sang ta shnoun On rappe, pourtant on fait pas d'aviron, bâtard Quand est-ce qu'un avion s'abat sur l'pavillon Baldart ? Nique Magloire, j'ai sorti ma crinière Toi, t'as plus qu'à dégainer les civières d'l'armoire J'rappe avec un bavoir, j'ai la poisse On a construire mon tier-qu's sur un cim'tière d'chats noirs Néochrome, c'est une filière d'barbares Mes armes sont griffés, j'ai une moelle épinière d'jaguar Blaw blaw, on t'retrouve mort dans une rivière d'la Loire Fumé, trou par trou On aime les gros culs comme 2 Live Crew Y a du sang et du sperme, tout partout flaw J'suis de l'U.N.I.T.É 2 F.E.U en 16 mesures Les mecs de rue te pètent le cul, ne teste plus ne teste plus On cherche le luxe, on vend du choco mais pas du Jeff de Bruge Ne fais pas de geste brusque, putain J'force le passage sur une prod de Kara' Ça sort de Paname, on t'offre le taga J'assassine, j'crache des flammes comme Dhalsim Je calcine aight, j'ai c'qu'il faut dans l'calcif pah pah pah Y a rien d'paranormal, Al.K dort pas J'profite de la vie comme Clara Morgane J'pars à l'abordage, j'suis cuit sous les tours Fonce-dé toutes les nuits, et puis tous les jours Bien énervé comme les supporters du PSG Si tu fais l'amour avec le Diable, il faut te préserver C'est l'son des barzouz des barzouz Ceux qui nous aiment pas sont des jaloux, le monde est à nous You might also like C'est Al.K-Pote blaw, Seth Gueko bat Karakt'R zblak Xplicit blaw Dok Bundi blah, Néochrome blow On se suit rec tcheck, salope zblex C'est A.L.K-P.O.T.E, Seth Gueko Néochrome, bande de putain, zbleh Sucez</t>
+          <t>J'crache mes as, Seth Gueko et Al.K aight Karakt'R Xplicit, Dok Bundi si si Néochrome Records bande de chiennasse J'ai l'ventre qui gargouille dès qu'ça sent la semoule Y'a mon son dans tous les dessins sans Samsung C'est pour les délinquants rhassoul Être méchant ça m'soûle mais faut que j'laisse en sang ta shnoun On rappe, pourtant on fait pas d'aviron, bâtard Quand est-ce qu'un avion s'abat sur l'pavillon Baldart ? Nique Magloire, j'ai sorti ma crinière Toi, t'as plus qu'à dégainer les civières d'l'armoire J'rappe avec un bavoir, j'ai la poisse On a construire mon tier-qu's sur un cim'tière d'chats noirs Néochrome, c'est une filière d'barbares Mes armes sont griffés, j'ai une moelle épinière d'jaguar Blaw blaw, on t'retrouve mort dans une rivière d'la Loire Fumé, trou par trou On aime les gros culs comme 2 Live Crew Y a du sang et du sperme, tout partout flaw J'suis de l'U.N.I.T.É 2 F.E.U en 16 mesures Les mecs de rue te pètent le cul, ne teste plus ne teste plus On cherche le luxe, on vend du choco mais pas du Jeff de Bruge Ne fais pas de geste brusque, putain J'force le passage sur une prod de Kara' Ça sort de Paname, on t'offre le taga J'assassine, j'crache des flammes comme Dhalsim Je calcine aight, j'ai c'qu'il faut dans l'calcif pah pah pah Y a rien d'paranormal, Al.K dort pas J'profite de la vie comme Clara Morgane J'pars à l'abordage, j'suis cuit sous les tours Fonce-dé toutes les nuits, et puis tous les jours Bien énervé comme les supporters du PSG Si tu fais l'amour avec le Diable, il faut te préserver C'est l'son des barzouz des barzouz Ceux qui nous aiment pas sont des jaloux, le monde est à nous C'est Al.K-Pote blaw, Seth Gueko bat Karakt'R zblak Xplicit blaw Dok Bundi blah, Néochrome blow On se suit rec tcheck, salope zblex C'est A.L.K-P.O.T.E, Seth Gueko Néochrome, bande de putain, zbleh Sucez</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3740,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Que personne y bouge Au bout de mon flingue y a un nez rouge Je suis venu vous rapper le blues dun clown triste Qua pas raté qulavion comme Mac Cauley Culkin Qui veut que son passé soit remaquillé comme Kiss Nique les lécheurs de croupes Les commissariats de Paris détiennent la coupe des plus grands leveurs de coudes Ex-meneurs de troupes, semeurs de troubles Quand mes potes tombent de bécanes ma mère vient les recoudre Et ouais ma couille cest au c-gre quon va se restaurer On est la jeunesse endiablée On enfarine sans regret la jeunesse dorée La malbouffe nous a laissé avec brio une brioche Jsuis pas de ces mioches quont été voir Bambi au cinoche Une vie violente, tu peux te manger une barre de fer dans le crâne Comme taper des barres de rire au ventre Trop macho pour avoir une femme gouvernante Une chance sur deux d'avoir des billets recouvert d'encre On est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine You might also like Jrigole frère car à défaut de rire, je picole sévère Jveux plus jamais que la haine pilote mes nerfs On nous a lâchés dans le tier-quar comme des ptits rotweillers À renifler l'odeur dla merde, à être vif comme l'éclair Ma mère cest pas une caille mec cest une Al Qaïdette Si tu me poucaves elle te découpe comme Simone Weber Ça criquette à c't'heure-ci plus besoin de revolver Ton ennemi te renverse alors quil y a le petit bonhomme vert Et même si jsuis expressif comme un rideau de fer Les yeux dun môme triste m'affaiblisse comme si jétais atteint des os de verre Je veux pas faire la une du Journal du Hard à la rubrique fait d'ovaire Capiche ?! En gros me fait pas un gosse dans le dos, nan Ou un avortement à coups de pare-choc allemand te sera offert On a tous été pare-choqué psychologiquement Si la faucheuse ma sur sa liste je change de nom chez le faussaire À Noël on décorait pas le conifère Jvoyais ma mère sur son rocking-chair, abrutie au somnifère Mais en somme, jpouvais rien y faire On rit pour masquer nos peines on est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Je rigole frère pour oublier que des trucs me surinent l'âme Que pour des histoires de terrain ya des grosses fusillades Quune ptite balle peut finir à coucher un rugbyman Quon reconnaîtra du meurtrier que son blouson Furigan Papapa ! Bâtard ! Que mon pote et sa mallette reviendront pas du Surinam Que face au mal-être, se taper des barres est notre unique arme Dur de se dire quon reverra plus Hicham À cause dun casque de bécane Il est monté sur sa moto avec la classe de Beckham Aujourdhui le lieu du drame est recouvert de liasses de pétales Allah ya lahmou On rit pour masquer nos peines on est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Le blues dun clown triste qui rit parce quil souffre À bout de souffle Qui veut montrer à personne quil est au bord du gouffre</t>
+          <t>Que personne y bouge Au bout de mon flingue y a un nez rouge Je suis venu vous rapper le blues dun clown triste Qua pas raté qulavion comme Mac Cauley Culkin Qui veut que son passé soit remaquillé comme Kiss Nique les lécheurs de croupes Les commissariats de Paris détiennent la coupe des plus grands leveurs de coudes Ex-meneurs de troupes, semeurs de troubles Quand mes potes tombent de bécanes ma mère vient les recoudre Et ouais ma couille cest au c-gre quon va se restaurer On est la jeunesse endiablée On enfarine sans regret la jeunesse dorée La malbouffe nous a laissé avec brio une brioche Jsuis pas de ces mioches quont été voir Bambi au cinoche Une vie violente, tu peux te manger une barre de fer dans le crâne Comme taper des barres de rire au ventre Trop macho pour avoir une femme gouvernante Une chance sur deux d'avoir des billets recouvert d'encre On est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Jrigole frère car à défaut de rire, je picole sévère Jveux plus jamais que la haine pilote mes nerfs On nous a lâchés dans le tier-quar comme des ptits rotweillers À renifler l'odeur dla merde, à être vif comme l'éclair Ma mère cest pas une caille mec cest une Al Qaïdette Si tu me poucaves elle te découpe comme Simone Weber Ça criquette à c't'heure-ci plus besoin de revolver Ton ennemi te renverse alors quil y a le petit bonhomme vert Et même si jsuis expressif comme un rideau de fer Les yeux dun môme triste m'affaiblisse comme si jétais atteint des os de verre Je veux pas faire la une du Journal du Hard à la rubrique fait d'ovaire Capiche ?! En gros me fait pas un gosse dans le dos, nan Ou un avortement à coups de pare-choc allemand te sera offert On a tous été pare-choqué psychologiquement Si la faucheuse ma sur sa liste je change de nom chez le faussaire À Noël on décorait pas le conifère Jvoyais ma mère sur son rocking-chair, abrutie au somnifère Mais en somme, jpouvais rien y faire On rit pour masquer nos peines on est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Je rigole frère pour oublier que des trucs me surinent l'âme Que pour des histoires de terrain ya des grosses fusillades Quune ptite balle peut finir à coucher un rugbyman Quon reconnaîtra du meurtrier que son blouson Furigan Papapa ! Bâtard ! Que mon pote et sa mallette reviendront pas du Surinam Que face au mal-être, se taper des barres est notre unique arme Dur de se dire quon reverra plus Hicham À cause dun casque de bécane Il est monté sur sa moto avec la classe de Beckham Aujourdhui le lieu du drame est recouvert de liasses de pétales Allah ya lahmou On rit pour masquer nos peines on est marqués par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Rongés par la haine Cest l'asile à ciel ouvert, le poison dans les veines Se faire du mal, à nous-mêmes, cest la nature humaine Le blues dun clown triste qui rit parce quil souffre À bout de souffle Qui veut montrer à personne quil est au bord du gouffre</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>J'voulais un harem avec cinq jeunes vierges Mais j'ai eu mes gars enfermés à sainte genevieve J'voulais d'l'argent mais depuis sous mes aisselles ça sent Y a des crs chassant les coupés SL 500 J'voulais un 206cc Mais j'suis trop mal payé par c'mangeur de saussices séchées Par c'mangeur d'cochon J'voulais un pav mais pas avec la maille du pocheton que nous empochons J'voulais une femme qui m'ouvre le passage Qui prépare le repas, fasse le repassage J'l'ai eu et perdu, à cause d'un adultère Scar-la patibulaire, j'veux des nikes à petites bulles d'air J'veux qu'mes p'tits n'veux soient respectueux Mais si tonton s'fait emmerder par un teur-inspec tuez-le J'veux etre en place moi pas etre un grand pace-ra Ni un scarface dans l'écran plasma Si si, si t'as pas eu d'veine ouvre-les J'voulais un gare-ci aux vre-lès, un chevrolet Etre milionnaire sans Philippe Risoli Sans arpenter avec un buldozer la rue d'Vivoli J'voudrais savoir pourquoi les p'tits causent archi mal J'veux ta go mais surtout pas ses mycoses vaginales J'veux pas l'sida mais c'est dur quand t'es un beau male J'voulais qu'Flynt me fasse un couplet mais il prépare son bum-al You might also like Un jour on atterit, la vie c'est pas c'qu'on s'imaginait Rien avoir comme entre Gandhi ou Jack Mesrine Nos vies n'sont pas telles qu'on les voyait On y comprend plus rien comme si on nous parlait sans les voyelles On traîne les sales jobs comme des boulets On donne du travail à ces cons d'poulets On s'retrouve en décalage avec c'qu'on voulait Mais rien n'est fini tant qu'nos années défilent Nous on n'est pas mort dans une cabine comme Sully Sefil J'voulais être number one J'voulais aussi tailler Mais y a qu'à Barbès que je suis chez oim J'voulais qu'on m'guide, mais ici tout l'monde veut ta perte Prêt à lâcher un bon billet pour avoir ta tête De la goutte, je voulais l'or, j'ai eu le bronze J'voulais être footballer, sur le terrain y avait d'jà 11 joueurs J'voulais être fêtard mais ma gueule fait peur à la porte J'me présente avec mes potes les malfaiteurs Je n'voulais rien savoir, j'voulais arriver vite Mais j'ai perdu mon temps, j'ai j'té un oeil là où y a rien à voir J'voulais ton rire, toutes ces choses que tu demandes J'voulais t'aider mais c'est pas moi qui tient les commandes J'voulais avoir le flair pour cerner les enflures Mais j'ai attrapé un rhume dehors, j'ai pas une santé d'fer J'voulais voir la mer, les bateaux dans le port Mais ici y a juste quelques piscines en plein air, et encore J'voulais être riche, voyons, porter du Pierre Cardin J'voulais un avion qui arrive dans l'jardin de mon pavillon L'argent facile, j'voulais pas y prendre goût Moi j'ai jamais voulu troquer mes dents de lait contre des dents de loup J'voulais être un modèle, mais Mokless dans sa jeunesse De la sagesse ne mérite pas le prix Nobel Moi, j'voulais être clean, avoir la plus grosse des Breitling Qui roule un spliff de haut spleen Un jour on atterit, la vie c'est pas c'qu'on s'imaginait Rien avoir comme entre Gandhi ou Jack Mesrine Nos vies n'sont pas telles qu'on les voyait On y comprend plus rien comme si on nous parlait sans les voyelles On traîne les sales jobs comme des boulets On donne du travail à ces cons d'poulets On s'retrouve en décalage avec c'qu'on voulait Mais rien n'est fini tant qu'nos années défilent Nous on n'est pas mort dans une cabine comme Sully Sefil</t>
+          <t>J'voulais un harem avec cinq jeunes vierges Mais j'ai eu mes gars enfermés à sainte genevieve J'voulais d'l'argent mais depuis sous mes aisselles ça sent Y a des crs chassant les coupés SL 500 J'voulais un 206cc Mais j'suis trop mal payé par c'mangeur de saussices séchées Par c'mangeur d'cochon J'voulais un pav mais pas avec la maille du pocheton que nous empochons J'voulais une femme qui m'ouvre le passage Qui prépare le repas, fasse le repassage J'l'ai eu et perdu, à cause d'un adultère Scar-la patibulaire, j'veux des nikes à petites bulles d'air J'veux qu'mes p'tits n'veux soient respectueux Mais si tonton s'fait emmerder par un teur-inspec tuez-le J'veux etre en place moi pas etre un grand pace-ra Ni un scarface dans l'écran plasma Si si, si t'as pas eu d'veine ouvre-les J'voulais un gare-ci aux vre-lès, un chevrolet Etre milionnaire sans Philippe Risoli Sans arpenter avec un buldozer la rue d'Vivoli J'voudrais savoir pourquoi les p'tits causent archi mal J'veux ta go mais surtout pas ses mycoses vaginales J'veux pas l'sida mais c'est dur quand t'es un beau male J'voulais qu'Flynt me fasse un couplet mais il prépare son bum-al Un jour on atterit, la vie c'est pas c'qu'on s'imaginait Rien avoir comme entre Gandhi ou Jack Mesrine Nos vies n'sont pas telles qu'on les voyait On y comprend plus rien comme si on nous parlait sans les voyelles On traîne les sales jobs comme des boulets On donne du travail à ces cons d'poulets On s'retrouve en décalage avec c'qu'on voulait Mais rien n'est fini tant qu'nos années défilent Nous on n'est pas mort dans une cabine comme Sully Sefil J'voulais être number one J'voulais aussi tailler Mais y a qu'à Barbès que je suis chez oim J'voulais qu'on m'guide, mais ici tout l'monde veut ta perte Prêt à lâcher un bon billet pour avoir ta tête De la goutte, je voulais l'or, j'ai eu le bronze J'voulais être footballer, sur le terrain y avait d'jà 11 joueurs J'voulais être fêtard mais ma gueule fait peur à la porte J'me présente avec mes potes les malfaiteurs Je n'voulais rien savoir, j'voulais arriver vite Mais j'ai perdu mon temps, j'ai j'té un oeil là où y a rien à voir J'voulais ton rire, toutes ces choses que tu demandes J'voulais t'aider mais c'est pas moi qui tient les commandes J'voulais avoir le flair pour cerner les enflures Mais j'ai attrapé un rhume dehors, j'ai pas une santé d'fer J'voulais voir la mer, les bateaux dans le port Mais ici y a juste quelques piscines en plein air, et encore J'voulais être riche, voyons, porter du Pierre Cardin J'voulais un avion qui arrive dans l'jardin de mon pavillon L'argent facile, j'voulais pas y prendre goût Moi j'ai jamais voulu troquer mes dents de lait contre des dents de loup J'voulais être un modèle, mais Mokless dans sa jeunesse De la sagesse ne mérite pas le prix Nobel Moi, j'voulais être clean, avoir la plus grosse des Breitling Qui roule un spliff de haut spleen Un jour on atterit, la vie c'est pas c'qu'on s'imaginait Rien avoir comme entre Gandhi ou Jack Mesrine Nos vies n'sont pas telles qu'on les voyait On y comprend plus rien comme si on nous parlait sans les voyelles On traîne les sales jobs comme des boulets On donne du travail à ces cons d'poulets On s'retrouve en décalage avec c'qu'on voulait Mais rien n'est fini tant qu'nos années défilent Nous on n'est pas mort dans une cabine comme Sully Sefil</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3774,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'arnaque, j'bricole comme une espèce de tange Les procs espèrent que j'mange, Comment veux-tu qu'j'respecte les ens-ge? Quand j'baise j'pense à Estelle Desanges Sous ma couette ça brûle, Vodka, Schweppes agrumes J't'invite à tester l'mélange, j'tire les couettes, sale pute! C'est chouette la rue, ça fouette, ça urge J'crame le beat avec une telle aisance Normal crapule, avant d'rapper j'bois une bouteille d'essence On f'ra affaire qu'si t'es un boug qu'a l'bras long Car si ça foire, c'est tout l'droit ballon Les keufs bavurent pour s'faire coudre un galon Y'a plus d'balèzes d'puis l'invention d'la poudre à canon J'prendrais la maille même dans la bouche d'un dragon Mais l'rap français recrute trop d'poufs à talons On veut tous les bourses d'Arpagon N'touche pas l'patron, c'est les touches-car, pardon! On aime les gros Phillies et les films de barjes Les go qu'ont le physique de Delphyne Delage A chaque fois les flics me lâchent Mais ça ne change rien, ce sont des fils de lâches ! Regarde où la rage nous mène J'ai été obligé d'trouer l'rap à la kalash roumaine Ne me laisse pas une bouteille de whisky sans glaçon Laisse pas Emile Louis sur l'île de la tentation You might also like J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau Un GI brûlé vif traînait comme un trophée dans les rues de Bagdad Wesh renoi, what you know about that ? Maman n'va pas m'pardonner J'serre la main aux offishall distributeurs de drogues mobile Hey m'sieur l'agent posez votre arme et v'nez, un peu d'courage Me fumer peut nuire à votre santé et votre entourage La rue laisse des sequelles, rien d'idyllique J'pense avec mon zguegue, j'marche avec ma clique J'ai la grosse tête pas par accident Ma pe-cou a inspiré Clarence Seedorf Ma marque de fabrique? Des vérités casse-couilles! L'Europe à oil-pé des NRJ Awards Ta gueule! C'est en banlieue nord qu'ca s'passe! Impossible n'est pas Seine Saint-Denis soit! Nanani, nanana, ils sortent de leur Mégane pour nous fé-chau Qu'ils aillent niquer leur mère comme pas possible J'ai trois quatre gars pas vraiment l'possy 1M70 de charge explosive Un frère s'perd? Guide-le! Il sniffe? Kick-le! Le rap français, aime le ou quitte-le! Elles n'ont pas kiffé ma phase sur les protèges-slips Pourtant le baisage de race audio était multi-sexe Dis leur que Rutti est vex' Que les sirènes du charbon... c'est Guy Georges qui sort du hebss! J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église Seth Gueko, Patate de forain ...</t>
+          <t>J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'arnaque, j'bricole comme une espèce de tange Les procs espèrent que j'mange, Comment veux-tu qu'j'respecte les ens-ge? Quand j'baise j'pense à Estelle Desanges Sous ma couette ça brûle, Vodka, Schweppes agrumes J't'invite à tester l'mélange, j'tire les couettes, sale pute! C'est chouette la rue, ça fouette, ça urge J'crame le beat avec une telle aisance Normal crapule, avant d'rapper j'bois une bouteille d'essence On f'ra affaire qu'si t'es un boug qu'a l'bras long Car si ça foire, c'est tout l'droit ballon Les keufs bavurent pour s'faire coudre un galon Y'a plus d'balèzes d'puis l'invention d'la poudre à canon J'prendrais la maille même dans la bouche d'un dragon Mais l'rap français recrute trop d'poufs à talons On veut tous les bourses d'Arpagon N'touche pas l'patron, c'est les touches-car, pardon! On aime les gros Phillies et les films de barjes Les go qu'ont le physique de Delphyne Delage A chaque fois les flics me lâchent Mais ça ne change rien, ce sont des fils de lâches ! Regarde où la rage nous mène J'ai été obligé d'trouer l'rap à la kalash roumaine Ne me laisse pas une bouteille de whisky sans glaçon Laisse pas Emile Louis sur l'île de la tentation J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau Un GI brûlé vif traînait comme un trophée dans les rues de Bagdad Wesh renoi, what you know about that ? Maman n'va pas m'pardonner J'serre la main aux offishall distributeurs de drogues mobile Hey m'sieur l'agent posez votre arme et v'nez, un peu d'courage Me fumer peut nuire à votre santé et votre entourage La rue laisse des sequelles, rien d'idyllique J'pense avec mon zguegue, j'marche avec ma clique J'ai la grosse tête pas par accident Ma pe-cou a inspiré Clarence Seedorf Ma marque de fabrique? Des vérités casse-couilles! L'Europe à oil-pé des NRJ Awards Ta gueule! C'est en banlieue nord qu'ca s'passe! Impossible n'est pas Seine Saint-Denis soit! Nanani, nanana, ils sortent de leur Mégane pour nous fé-chau Qu'ils aillent niquer leur mère comme pas possible J'ai trois quatre gars pas vraiment l'possy 1M70 de charge explosive Un frère s'perd? Guide-le! Il sniffe? Kick-le! Le rap français, aime le ou quitte-le! Elles n'ont pas kiffé ma phase sur les protèges-slips Pourtant le baisage de race audio était multi-sexe Dis leur que Rutti est vex' Que les sirènes du charbon... c'est Guy Georges qui sort du hebss! J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église Seth Gueko, Patate de forain ...</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3791,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'arnaque, j'bricole comme une espèce de tange Les procs espèrent que j'mange, Comment veux-tu qu'j'respecte les ens-ge? Quand j'baise j'pense à Estelle Desanges Sous ma couette ça brûle, Vodka, Schweppes agrumes J't'invite à tester l'mélange, j'tire les couettes, sale pute! C'est chouette la rue, ça fouette, ça urge J'crame le beat avec une telle aisance Normal crapule, avant d'rapper j'bois une bouteille d'essence On f'ra affaire qu'si t'es un boug qu'a l'bras long Car si ça foire, c'est tout l'droit ballon Les keufs bavurent pour s'faire coudre un galon Y'a plus d'balèzes d'puis l'invention d'la poudre à canon J'prendrais la maille même dans la bouche d'un dragon Mais l'rap français recrute trop d'poufs à talons On veut tous les bourses d'Arpagon N'touche pas l'patron, c'est les touches-car, pardon! On aime les gros Phillies et les films de barjes Les go qu'ont le physique de Delphyne Delage A chaque fois les flics me lâchent Mais ça ne change rien, ce sont des fils de lâches ! Regarde où la rage nous mène J'ai été obligé d'trouer l'rap à la kalash roumaine Ne me laisse pas une bouteille de whisky sans glaçon Laisse pas Emile Louis sur l'île de la tentation You might also like J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau Un GI brûlé vif traînait comme un trophée dans les rues de Bagdad Wesh renoi, what you know about that ? Maman n'va pas m'pardonner J'serre la main aux offishall distributeurs de drogues mobile Hey m'sieur l'agent posez votre arme et v'nez, un peu d'courage Me fumer peut nuire à votre santé et votre entourage La rue laisse des sequelles, rien d'idyllique J'pense avec mon zguegue, j'marche avec ma clique J'ai la grosse tête pas par accident Ma pe-cou a inspiré Clarence Seedorf Ma marque de fabrique? Des vérités casse-couilles! L'Europe à oil-pé des NRJ Awards Ta gueule! C'est en banlieue nord qu'ca s'passe! Impossible n'est pas Seine Saint-Denis soit! Nanani, nanana, ils sortent de leur Mégane pour nous fé-chau Qu'ils aillent niquer leur mère comme pas possible J'ai trois quatre gars pas vraiment l'possy 1M70 de charge explosive Un frère s'perd? Guide-le! Il sniffe? Kick-le! Le rap français, aime le ou quitte-le! Elles n'ont pas kiffé ma phase sur les protèges-slips Pourtant le baisage de race audio était multi-sexe Dis leur que Rutti est vex' Que les sirènes du charbon... c'est Guy Georges qui sort du hebss! J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église Seth Gueko, Patate de forain ...</t>
+          <t>J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'arnaque, j'bricole comme une espèce de tange Les procs espèrent que j'mange, Comment veux-tu qu'j'respecte les ens-ge? Quand j'baise j'pense à Estelle Desanges Sous ma couette ça brûle, Vodka, Schweppes agrumes J't'invite à tester l'mélange, j'tire les couettes, sale pute! C'est chouette la rue, ça fouette, ça urge J'crame le beat avec une telle aisance Normal crapule, avant d'rapper j'bois une bouteille d'essence On f'ra affaire qu'si t'es un boug qu'a l'bras long Car si ça foire, c'est tout l'droit ballon Les keufs bavurent pour s'faire coudre un galon Y'a plus d'balèzes d'puis l'invention d'la poudre à canon J'prendrais la maille même dans la bouche d'un dragon Mais l'rap français recrute trop d'poufs à talons On veut tous les bourses d'Arpagon N'touche pas l'patron, c'est les touches-car, pardon! On aime les gros Phillies et les films de barjes Les go qu'ont le physique de Delphyne Delage A chaque fois les flics me lâchent Mais ça ne change rien, ce sont des fils de lâches ! Regarde où la rage nous mène J'ai été obligé d'trouer l'rap à la kalash roumaine Ne me laisse pas une bouteille de whisky sans glaçon Laisse pas Emile Louis sur l'île de la tentation J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau Un GI brûlé vif traînait comme un trophée dans les rues de Bagdad Wesh renoi, what you know about that ? Maman n'va pas m'pardonner J'serre la main aux offishall distributeurs de drogues mobile Hey m'sieur l'agent posez votre arme et v'nez, un peu d'courage Me fumer peut nuire à votre santé et votre entourage La rue laisse des sequelles, rien d'idyllique J'pense avec mon zguegue, j'marche avec ma clique J'ai la grosse tête pas par accident Ma pe-cou a inspiré Clarence Seedorf Ma marque de fabrique? Des vérités casse-couilles! L'Europe à oil-pé des NRJ Awards Ta gueule! C'est en banlieue nord qu'ca s'passe! Impossible n'est pas Seine Saint-Denis soit! Nanani, nanana, ils sortent de leur Mégane pour nous fé-chau Qu'ils aillent niquer leur mère comme pas possible J'ai trois quatre gars pas vraiment l'possy 1M70 de charge explosive Un frère s'perd? Guide-le! Il sniffe? Kick-le! Le rap français, aime le ou quitte-le! Elles n'ont pas kiffé ma phase sur les protèges-slips Pourtant le baisage de race audio était multi-sexe Dis leur que Rutti est vex' Que les sirènes du charbon... c'est Guy Georges qui sort du hebss! J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'marche avec ma clique, j'pense avec ma bite Si j'réincarne un pigeon, j'chie sur la tête d'un flic, frolot! Si l'rap coule, j'fais des films pornos J'plane sur le rap comme un corbeau J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église J'rap 4 my niggaz, le manque de maille m'aiguise Je crois en Dieu mais je vais pas à l'Église Seth Gueko, Patate de forain ...</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3808,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Weediiiim Yo, yo, yo Pah, pah, pah J'roule en Mustang, j'suis toutes les deux heures à la pompe sku sku Il est toujours 13 heures 12 à ma montre 1, 3, 1, 2 Soit t'as les oreilles de Dumbo, soit t'as la trompe soit t'as la trompe J'sors ma queue pour pisser, les jaloux disent que j'la raconte que j'la raconte J'squatte à la d'Jonq', des muscles et des punchlines, j'en ai plus que toi Le sage montre la lune et malheureusement, la tchoin lui suce le doigt L'État, c'est des braconniers, j'serai jamais plus la proie Dieu va t-il me pardonner ? J'ai mis mon cur dans du javel plus Lacroix C'est pas dur à croire, tout l'monde se tait quand Végéta lé-par lé-par On mettra nos gosses à l'école quand Macron mettra Brigitte à l'EHPAD à l'EHPAD J'vais te pencher sur la table, puis me pencher sur ton cas La rue est un ring, le premier coup, c'est déjà la moitié du combat Barlou Libérez Joe, libérez Joe, Joe Exotic Chapeau d'cowboy, Reebok Ex-O-Fit J'imagine déjà la caissière m'faire un show érotique Libérez Joe, libérez Joe, Joe Exotic Carole Baskin dans une bassine d'acide Carole Baskin dans une bassine d'acide Billy Joe Carole Baskin dans une bassine d'acide Billy Joe Carole Baskin dans une bassine d'acide You might also like Tous tes potes dans un seul tas, panthère noire tatouée sur l'cuir Poussez-vous, le placenta, Billy Joe vient s'introduire Seth Gueko dans l'featuring, j'entends déjà les enfants jouir Tous ceux qui pensaient s'enfuir vont bientôt pouvoir se réjouir J'attaque ton territoire, bonjour à l'apothéose La victoire au chant des terroirs, dans ta rue, prends la mega-pause C'est la métropole, c'est la mère de Paul qu'a la ménopause Et le père de Paul il s'en bat les couilles, il est devenu gay Il n'a plus de poils et que du muguet Mon Dieu Toi qui pensais pouvoir compter sur tes parents Mais tes parents sont des ados, fument du bédo, fuient les abdos Jouent au poker entre copines, sortent leurs cockers les plus coquines Demandent du feu, d'la cocaïne, d'la compagnie, des pires des coquelicots Libérez Joe, libérez Joe, Joe Exotic Chapeau d'cowboy, Reebok Ex-O-Fit J'imagine déjà la caissière m'faire un show érotique Libérez Joe, libérez Joe, Joe Exotic Carole Baskin dans une bassinne d'acide Carole Baskin dans une bassinne d'acide Billy Joe Carole Baskin dans une bassinne d'acide Billy Joe Carole Baskin dans une bassinne d'acide Oh Billy Joe Seth Geeko La boulangerie française , ah ah ah ah ah ah</t>
+          <t>Weediiiim Yo, yo, yo Pah, pah, pah J'roule en Mustang, j'suis toutes les deux heures à la pompe sku sku Il est toujours 13 heures 12 à ma montre 1, 3, 1, 2 Soit t'as les oreilles de Dumbo, soit t'as la trompe soit t'as la trompe J'sors ma queue pour pisser, les jaloux disent que j'la raconte que j'la raconte J'squatte à la d'Jonq', des muscles et des punchlines, j'en ai plus que toi Le sage montre la lune et malheureusement, la tchoin lui suce le doigt L'État, c'est des braconniers, j'serai jamais plus la proie Dieu va t-il me pardonner ? J'ai mis mon cur dans du javel plus Lacroix C'est pas dur à croire, tout l'monde se tait quand Végéta lé-par lé-par On mettra nos gosses à l'école quand Macron mettra Brigitte à l'EHPAD à l'EHPAD J'vais te pencher sur la table, puis me pencher sur ton cas La rue est un ring, le premier coup, c'est déjà la moitié du combat Barlou Libérez Joe, libérez Joe, Joe Exotic Chapeau d'cowboy, Reebok Ex-O-Fit J'imagine déjà la caissière m'faire un show érotique Libérez Joe, libérez Joe, Joe Exotic Carole Baskin dans une bassine d'acide Carole Baskin dans une bassine d'acide Billy Joe Carole Baskin dans une bassine d'acide Billy Joe Carole Baskin dans une bassine d'acide Tous tes potes dans un seul tas, panthère noire tatouée sur l'cuir Poussez-vous, le placenta, Billy Joe vient s'introduire Seth Gueko dans l'featuring, j'entends déjà les enfants jouir Tous ceux qui pensaient s'enfuir vont bientôt pouvoir se réjouir J'attaque ton territoire, bonjour à l'apothéose La victoire au chant des terroirs, dans ta rue, prends la mega-pause C'est la métropole, c'est la mère de Paul qu'a la ménopause Et le père de Paul il s'en bat les couilles, il est devenu gay Il n'a plus de poils et que du muguet Mon Dieu Toi qui pensais pouvoir compter sur tes parents Mais tes parents sont des ados, fument du bédo, fuient les abdos Jouent au poker entre copines, sortent leurs cockers les plus coquines Demandent du feu, d'la cocaïne, d'la compagnie, des pires des coquelicots Libérez Joe, libérez Joe, Joe Exotic Chapeau d'cowboy, Reebok Ex-O-Fit J'imagine déjà la caissière m'faire un show érotique Libérez Joe, libérez Joe, Joe Exotic Carole Baskin dans une bassinne d'acide Carole Baskin dans une bassinne d'acide Billy Joe Carole Baskin dans une bassinne d'acide Billy Joe Carole Baskin dans une bassinne d'acide Oh Billy Joe Seth Geeko La boulangerie française , ah ah ah ah ah ah</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>J'oublierai pas c'qu'a fait mon père Même si j'suis sorti d'ses roubignols J'oublierai pas mes nuits blanches avec Yoni Yons J'oublierai pas ma culture Camping fondue bourguinione J'oublierai pas toutes les tchoutches mignonnes Qui m'ont griffé l'dos telles des lionnes Du cirque Bouglione J'oublierai pas si ma mère passe de faire le rossignol J'oublierai pas de faire le pitre si y a la rlouch qui passe J'oublierai pas qu'j'me suis musclé avec des roues d'bagnoles J'oublierai pas qu'le Dass C'est pas la touristas, ni la rubéole J'oublierai pas d'avoir une auréole J'oublierai pas ma rue mes halls ma ville J'oublierai pas mes condom Ou qu'l'euros m'fra vivre J'oublie rien Ouais j'suis rancunier a vie J'oublierai pas Mario, Isham, les bouffes et Larry J'oublierai pas les te-trai et les félons J'oublierai pas Sakio même si neuf ans d'calèche c'est long T'a capté l'manège frelon Ma mémoire c'est du lourd J'oublierai pas les cuites au Aberlour avec Abdelnour J'oublierai pas la vie en plein air du camp des Niglos Les parloirs visio avec mes potes au studio J'oublierai pas de vêtir, nourrir, éduquer mon p'tit gno Oublie pas qu'derrière le rappeur SethGueko Y'a un père de famille Un bon pote qui s'appelle Nico Et qu'au prochain Urban Peace j'vais v'nir en hélico Ma couille j'oublierai pas mes gardav' avec Daoud J'oublierai pas Booska-p , Street Live et N-Da-Hood Rap2k en mode .fr et Rap Impulsif En mode poing mé-fer pendant les contrôles abusifs J'oublierai pas ma jeunesse quand j'galérais au 3F La foire St Martin n'oubliera pas ma patate de forain dans les machines à coup de poing En mode zehef J'oublierai pas qu'mon premier feat fut dans l'album d'Ades J'oublierai pas la gentillesse et l'parfum d'ma daronne Que j'suis rentré chez Néochrome grâce à Khosa d'Abalone J'oublierai pas l'yasa de la famille maronne J'oublie pas mes promesses, j'ai qu'une seule parole J'oublierai pas les fans qu'on acheté le cd au sin-gam Ceux qui m'écoutent depuis Barillet Plein ou Mains Sales J'oublierai jamais de dire haut et fort hamdoulillah Et qu'on fait sourire sa mère rien qu'avec du lilas Ouais Guesh ma le-gueu J'ougoublierai paga, tous mes potogos, jétmitout, jojo, kénaz, gratogo Et tout mes p'tits lapinous Qui au ste-po disent Seth ni le conozco J'oublierai pas j'habite où Chez moi c'est St Ouen L'aumone Chez moi c'est chez toi Chez moi c'est chez nous J'suis chez moi partoutYou might also like</t>
+          <t>J'oublierai pas c'qu'a fait mon père Même si j'suis sorti d'ses roubignols J'oublierai pas mes nuits blanches avec Yoni Yons J'oublierai pas ma culture Camping fondue bourguinione J'oublierai pas toutes les tchoutches mignonnes Qui m'ont griffé l'dos telles des lionnes Du cirque Bouglione J'oublierai pas si ma mère passe de faire le rossignol J'oublierai pas de faire le pitre si y a la rlouch qui passe J'oublierai pas qu'j'me suis musclé avec des roues d'bagnoles J'oublierai pas qu'le Dass C'est pas la touristas, ni la rubéole J'oublierai pas d'avoir une auréole J'oublierai pas ma rue mes halls ma ville J'oublierai pas mes condom Ou qu'l'euros m'fra vivre J'oublie rien Ouais j'suis rancunier a vie J'oublierai pas Mario, Isham, les bouffes et Larry J'oublierai pas les te-trai et les félons J'oublierai pas Sakio même si neuf ans d'calèche c'est long T'a capté l'manège frelon Ma mémoire c'est du lourd J'oublierai pas les cuites au Aberlour avec Abdelnour J'oublierai pas la vie en plein air du camp des Niglos Les parloirs visio avec mes potes au studio J'oublierai pas de vêtir, nourrir, éduquer mon p'tit gno Oublie pas qu'derrière le rappeur SethGueko Y'a un père de famille Un bon pote qui s'appelle Nico Et qu'au prochain Urban Peace j'vais v'nir en hélico Ma couille j'oublierai pas mes gardav' avec Daoud J'oublierai pas Booska-p , Street Live et N-Da-Hood Rap2k en mode .fr et Rap Impulsif En mode poing mé-fer pendant les contrôles abusifs J'oublierai pas ma jeunesse quand j'galérais au 3F La foire St Martin n'oubliera pas ma patate de forain dans les machines à coup de poing En mode zehef J'oublierai pas qu'mon premier feat fut dans l'album d'Ades J'oublierai pas la gentillesse et l'parfum d'ma daronne Que j'suis rentré chez Néochrome grâce à Khosa d'Abalone J'oublierai pas l'yasa de la famille maronne J'oublie pas mes promesses, j'ai qu'une seule parole J'oublierai pas les fans qu'on acheté le cd au sin-gam Ceux qui m'écoutent depuis Barillet Plein ou Mains Sales J'oublierai jamais de dire haut et fort hamdoulillah Et qu'on fait sourire sa mère rien qu'avec du lilas Ouais Guesh ma le-gueu J'ougoublierai paga, tous mes potogos, jétmitout, jojo, kénaz, gratogo Et tout mes p'tits lapinous Qui au ste-po disent Seth ni le conozco J'oublierai pas j'habite où Chez moi c'est St Ouen L'aumone Chez moi c'est chez toi Chez moi c'est chez nous J'suis chez moi partout</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3859,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Faut qu'on détourne les lois Au poste j'ai des trous d'mémoire J'marche avec des toss, des crouilles, des noirs Des bridés, des blancs qu'ont des blèmes-pro familiaux Ils m'reconnaissent dans l'métro J'les zdédédédicasse car ils m'font passer avec leur carte Navigo Faut qu'on s'repentisse avant lApocalypse Now Sers-moi un Calypso ou un Cuba Libre Amigo l'coupable est libre et calibré Faut qu'les feuilles tombent comme en automne sinon c'est monotone Moi et les flics on s'entend pas avec ou sans sonotone Autant d'blues dans la voix qu'les artistes signés chez Motown Dans l'Treizième c'est Chinatown, Saint-Ouen lAumône c'est Cartagena J'te parle pas d'la farine Maïzena La famille, la maille c'est rien, partagez-la J'veux la vie longue, pas la villa d'la famille Rockefeller... J'trouve le temps un peu long, ça meffraie Ils m'disent quoi faire mais ils ne l'ont jamais fait Si j'te dévisage, fais ta prière J'suis un lion, c'est pas un défrisage c'est ma crinière Les p'tits me disent Nakkos, nous on tire et deale C'est inutile de demander c'est qui le king J'suis le caïman c'est des p'tits reptiles Carrément y font la guerre dans des jeans slims S'il-vous-plaît se transforme en cocktail Molotov J'suis un homme, j'me comporte en tant qu'tel, mother fuck ! Bordel dans mon coffre y'a des bras d'MC's qui dépassent Passent leur temps à être postés devant le Costes Pauvre King de la Pop, faut être mort pour être aimé Dites à Dieudo' darrêter d'causer d'Holocauste Dans l'game, être soi-même, ça fait bouffon.. crari Dites à la gloire que j'suis dans les bouchons, j'arrive Eh, ton coup d'hier tout naze, ça pue la merde J'ai plus l'âge de bruler des caisses frère j'ai l'âge qu'on brule la mienne Les récompenses c'est pour les taffeurs On m'a dit Nakk pas d'Planète Rap, c'est la semaine de Tony Parker... You might also like J'n'ai grandi qu'avec des crève-la-dalle, des gosses des pavés Des jeunes dépravés, pas vrai ? Pourtant bien éduqué, Maman j'suis navré J'suis l'genre d'enfoiré Qui peut pas s'contenter d'vous regarder grailler sans rien gratter Ou d's'approprier vos parts de marché Tenu écarté depuis mioche, s'auto-marginalise, squatte le rain-té Brisé par la crise, éreinté par ton système athée À dix contre un ils m'donnaient perdant, prédisaient ma chute mais J'ai vite compris qu'c'était d'la flûte tout c'qu'ils m'avaient inculqué J'suis trop boxé trop frustré, que Dieu m'guide avant qu'j'me crève explosé Dans un lien d'culte ou d'une autre manière musclée J'suis bon qu'à exécuter Laisser les MC dépités, les humilier comme chez Laurent Ruquier Non j'veux pas d'ta pitié, à ton égard j'n'en aurais pas eu, même pas la moitié Fait courir l'bruit dans ta ZUP je n'suis qu'un fruit du quartier Une black machine, un spartiate C'est parce que j'suce pas Qu'à leurs yeux j'parais suspect comme la mort d'Ghislaine Marchal.. Seth Gueko, Nakk Mendosa, et moi même Dosseh La Famine.. J'suis un lion boy, un putain d'lion indomptable... Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
+          <t>Faut qu'on détourne les lois Au poste j'ai des trous d'mémoire J'marche avec des toss, des crouilles, des noirs Des bridés, des blancs qu'ont des blèmes-pro familiaux Ils m'reconnaissent dans l'métro J'les zdédédédicasse car ils m'font passer avec leur carte Navigo Faut qu'on s'repentisse avant lApocalypse Now Sers-moi un Calypso ou un Cuba Libre Amigo l'coupable est libre et calibré Faut qu'les feuilles tombent comme en automne sinon c'est monotone Moi et les flics on s'entend pas avec ou sans sonotone Autant d'blues dans la voix qu'les artistes signés chez Motown Dans l'Treizième c'est Chinatown, Saint-Ouen lAumône c'est Cartagena J'te parle pas d'la farine Maïzena La famille, la maille c'est rien, partagez-la J'veux la vie longue, pas la villa d'la famille Rockefeller... J'trouve le temps un peu long, ça meffraie Ils m'disent quoi faire mais ils ne l'ont jamais fait Si j'te dévisage, fais ta prière J'suis un lion, c'est pas un défrisage c'est ma crinière Les p'tits me disent Nakkos, nous on tire et deale C'est inutile de demander c'est qui le king J'suis le caïman c'est des p'tits reptiles Carrément y font la guerre dans des jeans slims S'il-vous-plaît se transforme en cocktail Molotov J'suis un homme, j'me comporte en tant qu'tel, mother fuck ! Bordel dans mon coffre y'a des bras d'MC's qui dépassent Passent leur temps à être postés devant le Costes Pauvre King de la Pop, faut être mort pour être aimé Dites à Dieudo' darrêter d'causer d'Holocauste Dans l'game, être soi-même, ça fait bouffon.. crari Dites à la gloire que j'suis dans les bouchons, j'arrive Eh, ton coup d'hier tout naze, ça pue la merde J'ai plus l'âge de bruler des caisses frère j'ai l'âge qu'on brule la mienne Les récompenses c'est pour les taffeurs On m'a dit Nakk pas d'Planète Rap, c'est la semaine de Tony Parker... J'n'ai grandi qu'avec des crève-la-dalle, des gosses des pavés Des jeunes dépravés, pas vrai ? Pourtant bien éduqué, Maman j'suis navré J'suis l'genre d'enfoiré Qui peut pas s'contenter d'vous regarder grailler sans rien gratter Ou d's'approprier vos parts de marché Tenu écarté depuis mioche, s'auto-marginalise, squatte le rain-té Brisé par la crise, éreinté par ton système athée À dix contre un ils m'donnaient perdant, prédisaient ma chute mais J'ai vite compris qu'c'était d'la flûte tout c'qu'ils m'avaient inculqué J'suis trop boxé trop frustré, que Dieu m'guide avant qu'j'me crève explosé Dans un lien d'culte ou d'une autre manière musclée J'suis bon qu'à exécuter Laisser les MC dépités, les humilier comme chez Laurent Ruquier Non j'veux pas d'ta pitié, à ton égard j'n'en aurais pas eu, même pas la moitié Fait courir l'bruit dans ta ZUP je n'suis qu'un fruit du quartier Une black machine, un spartiate C'est parce que j'suce pas Qu'à leurs yeux j'parais suspect comme la mort d'Ghislaine Marchal.. Seth Gueko, Nakk Mendosa, et moi même Dosseh La Famine.. J'suis un lion boy, un putain d'lion indomptable... Paroles rédigées et expliquées par la communauté Rap Genius France !1</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3876,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>J'suis à la BNP Branleur Naturellement Pauvre Qui veut crever au volant d'la plus belle Lambo' P'tite sur veut chausser Louboutin, s'parfumer Lancôme P'tit frère veut la ferraille qui permet d'allumer Rambo J'ai grandi avec des enfoirés comme Michel Colucci À côté d'louveteaux en Air Max, de bichettes aux looks chics Juste à côté des pochtards, des plaquettes Tous les jours déchiré comme le costard de Clark Kent Le Diable s'habille en Prada, les cailleras en falche Mais transforment la salade en cash c'est ça l'avantage J'suis à côté d'mon cendard dans un état lamentable Et d'un carnet d'santé à lire avec l'accord parental Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté You might also like Rejoins-moi dans les bois, juste à côté Le Diable m'a chaperonné, j'espère qu'Allah va m'pardonner C'est avec de l'émotion que j'fume chaque do-bé Moi j'encaisse la monnaie, juste à côté J'ai un cur malgré mon allure de sale drogué Ça va pas ce soir, j'vais boire du Chardonnay J'ai les yeux bridés comme un japonais Récidiviste, sur la main j'vais m'tatouer l'Chat Botté Mets-moi un Double Cheese et la sauce juste à té-cô J'penche comme la tour de Pise, fonce-dé mais ultra réglo Soit j'fourre le biz', soit j'vais prendre la thune d'Adecco Néochrome on graille tout, ton équipe sucera les os Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté Juste à té-cô, personne viendra t'aider C'est juste à té-cô que t'obtiendras l'respect Juste à té-cô, j'ai des rimes à noter J'vais bécoter avec les filles d'à côté Juste à côté, j'vois les flics slalomer Et sur leurs claviers Néochrome pianoter C'est dans ma mocheté que réside ma beauté Juste à côté, j'vois l'bonheur s'rapprocher Mets-moi un Double Cheese et la sauce juste à té-cô J'penche comme la tour de Pise, fonce-dé mais ultra réglo Soit j'fourre le biz', soit j'vais prendre la thune d'Adecco Néochrome on graille tout, ton équipe sucera les os Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté</t>
+          <t>J'suis à la BNP Branleur Naturellement Pauvre Qui veut crever au volant d'la plus belle Lambo' P'tite sur veut chausser Louboutin, s'parfumer Lancôme P'tit frère veut la ferraille qui permet d'allumer Rambo J'ai grandi avec des enfoirés comme Michel Colucci À côté d'louveteaux en Air Max, de bichettes aux looks chics Juste à côté des pochtards, des plaquettes Tous les jours déchiré comme le costard de Clark Kent Le Diable s'habille en Prada, les cailleras en falche Mais transforment la salade en cash c'est ça l'avantage J'suis à côté d'mon cendard dans un état lamentable Et d'un carnet d'santé à lire avec l'accord parental Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté Rejoins-moi dans les bois, juste à côté Le Diable m'a chaperonné, j'espère qu'Allah va m'pardonner C'est avec de l'émotion que j'fume chaque do-bé Moi j'encaisse la monnaie, juste à côté J'ai un cur malgré mon allure de sale drogué Ça va pas ce soir, j'vais boire du Chardonnay J'ai les yeux bridés comme un japonais Récidiviste, sur la main j'vais m'tatouer l'Chat Botté Mets-moi un Double Cheese et la sauce juste à té-cô J'penche comme la tour de Pise, fonce-dé mais ultra réglo Soit j'fourre le biz', soit j'vais prendre la thune d'Adecco Néochrome on graille tout, ton équipe sucera les os Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté Juste à té-cô, personne viendra t'aider C'est juste à té-cô que t'obtiendras l'respect Juste à té-cô, j'ai des rimes à noter J'vais bécoter avec les filles d'à côté Juste à côté, j'vois les flics slalomer Et sur leurs claviers Néochrome pianoter C'est dans ma mocheté que réside ma beauté Juste à côté, j'vois l'bonheur s'rapprocher Mets-moi un Double Cheese et la sauce juste à té-cô J'penche comme la tour de Pise, fonce-dé mais ultra réglo Soit j'fourre le biz', soit j'vais prendre la thune d'Adecco Néochrome on graille tout, ton équipe sucera les os Tu m'cherches ? J'suis dans l'hall juste à côté J'connais ton bloc j'suis du bloc juste à côté Tu veux du shit ? Demande au p'tit juste à côté J'reviens les mecs j'ai vu une meuf mimi juste à côté J'connais ta ville j'suis d'la ville juste à côté Range ton Glock, j'suis du bloc juste à côté Chérie j'reviens, j'vais chez un pote juste à côté Les cops m'ont mis sur l'bas-côté, j'suis au poste juste à côté</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3893,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Oh Mousta made this sound, boy Yo, tu m'appelles le sang mais t'as la leucémie J'le sens J'suis à la salle, j'prends des selfies pendant qu'les haltères se r'posent, les pauvres, entre deux séries Ouh Ils y vont pas d'main morte quand ils m'rentrent dans le Scénic Attends un peu Y a du sang sur les vitres, me v'là entre quatre keufs Armé de l'épée à Guts si j'm'en vais combattre mon uvre Slash Et pndant qu'les riches mangent ds cotes de buf Des bouts d'barbac Les pauvres, dans les manif', mangent des bottes de keuf Des coups d'matraque Ils veulent pas t'mettre les menottes si ils veulent te briser l'bras Sur écoute comme Idriss Elba, ça kicke sale comme chez Griselda J'ai toujours cru qu'Link s'appelait Zelda, c'est l'effet Mandela J'suis tellement fonce-dé qu'ce soir, c'est la télé qui m'regardera Et j'veux des sous et j'me dis souvent Ça casse du sucre sur mon dos mais y en a peu pour m'aider Le soir, j'suis saoul Putain d'merde, j'suis toujours fou La D, la D Même loin d'la tour, on reste les mêmes, on a jamais juste scié quelques liens Vrai de vrai Toujours faire le salaire quitte à être un peu plus solo Eyah Ils font tous la té-ci, quand j'ouvre les yeux, tout l'monde déçoit Eyah Mes mots ont d'la valeur, si j'ouvre mon cur, tu vas vomir Tu vas vomir J'dois m'barrer comme dans The Temple You might also like Sevranais comme Le Gros, la zone, c'est Kattegat Pas d'grand écart chez les nhommes-bo, j'suis près d'la mer, j'grailles des lambis J'aimerais bien finir en Lambo', j'mets que des combos J'suis comme Zangief dans Street Fighter, on a jamais sucé personne Ça va pas changer maintenant qu'on a percé Le soir, j'suis mort ou dans l'Merce' et puis, j'fais que des bons morceaux, eh Les balles par terre reviennent pas, les cages d'escalier bloquées par des caddies J'ai grandi où tout s'négocie, DA aux gros halls, les bandits, ils s'croisent en bre-som J'ai croisé Keshi dans l'vingt moins un et puis, mon cur, il est moisi et puis, tu t'fais faire par l'voisin On s'connaît d'puis gamin mais y a plus trop d'ami, j'suis Tommy Shelby sous kamas, vrai de vrai Il t'la dit c'morceau, c'est Légal feat Thomas Shelby Armé comme la Serbie, un homme marié est un homme affaibli J'compte plus les rettes-ba qu'ma paume a servie Mais interdit d'vendre de la terre, j'suis sorti du ventre de ma mère pour finir dans l'ventre de la Terre Et j'veux des sous et j'me dis souvent Ça casse du sucre sur mon dos mais y en a peu pour m'aider Le soir, j'suis saoul Putain d'merde, j'suis toujours fou La D, la D Même loin d'la tour, on reste les mêmes, on a jamais juste scié quelques liens Vrai de vrai Toujours faire le salaire quitte à être un peu plus solo Eyah Ils font tous la té-ci, quand j'ouvre les yeux, tout l'monde déçoit Eyah Mes mots ont d'la valeur, si j'ouvre mon cur, tu vas vomir Tu vas vomir J'dois m'barrer comme dans The Temple DA Uzi, Seth Guekx J'dois m'barrer comme dans The Temple Sevran, Phuket, Saint-Ouen, L'Aumône, tieks J'dois m'barrer comme dans The Temple Zdedededex</t>
+          <t>Oh Mousta made this sound, boy Yo, tu m'appelles le sang mais t'as la leucémie J'le sens J'suis à la salle, j'prends des selfies pendant qu'les haltères se r'posent, les pauvres, entre deux séries Ouh Ils y vont pas d'main morte quand ils m'rentrent dans le Scénic Attends un peu Y a du sang sur les vitres, me v'là entre quatre keufs Armé de l'épée à Guts si j'm'en vais combattre mon uvre Slash Et pndant qu'les riches mangent ds cotes de buf Des bouts d'barbac Les pauvres, dans les manif', mangent des bottes de keuf Des coups d'matraque Ils veulent pas t'mettre les menottes si ils veulent te briser l'bras Sur écoute comme Idriss Elba, ça kicke sale comme chez Griselda J'ai toujours cru qu'Link s'appelait Zelda, c'est l'effet Mandela J'suis tellement fonce-dé qu'ce soir, c'est la télé qui m'regardera Et j'veux des sous et j'me dis souvent Ça casse du sucre sur mon dos mais y en a peu pour m'aider Le soir, j'suis saoul Putain d'merde, j'suis toujours fou La D, la D Même loin d'la tour, on reste les mêmes, on a jamais juste scié quelques liens Vrai de vrai Toujours faire le salaire quitte à être un peu plus solo Eyah Ils font tous la té-ci, quand j'ouvre les yeux, tout l'monde déçoit Eyah Mes mots ont d'la valeur, si j'ouvre mon cur, tu vas vomir Tu vas vomir J'dois m'barrer comme dans The Temple Sevranais comme Le Gros, la zone, c'est Kattegat Pas d'grand écart chez les nhommes-bo, j'suis près d'la mer, j'grailles des lambis J'aimerais bien finir en Lambo', j'mets que des combos J'suis comme Zangief dans Street Fighter, on a jamais sucé personne Ça va pas changer maintenant qu'on a percé Le soir, j'suis mort ou dans l'Merce' et puis, j'fais que des bons morceaux, eh Les balles par terre reviennent pas, les cages d'escalier bloquées par des caddies J'ai grandi où tout s'négocie, DA aux gros halls, les bandits, ils s'croisent en bre-som J'ai croisé Keshi dans l'vingt moins un et puis, mon cur, il est moisi et puis, tu t'fais faire par l'voisin On s'connaît d'puis gamin mais y a plus trop d'ami, j'suis Tommy Shelby sous kamas, vrai de vrai Il t'la dit c'morceau, c'est Légal feat Thomas Shelby Armé comme la Serbie, un homme marié est un homme affaibli J'compte plus les rettes-ba qu'ma paume a servie Mais interdit d'vendre de la terre, j'suis sorti du ventre de ma mère pour finir dans l'ventre de la Terre Et j'veux des sous et j'me dis souvent Ça casse du sucre sur mon dos mais y en a peu pour m'aider Le soir, j'suis saoul Putain d'merde, j'suis toujours fou La D, la D Même loin d'la tour, on reste les mêmes, on a jamais juste scié quelques liens Vrai de vrai Toujours faire le salaire quitte à être un peu plus solo Eyah Ils font tous la té-ci, quand j'ouvre les yeux, tout l'monde déçoit Eyah Mes mots ont d'la valeur, si j'ouvre mon cur, tu vas vomir Tu vas vomir J'dois m'barrer comme dans The Temple DA Uzi, Seth Guekx J'dois m'barrer comme dans The Temple Sevran, Phuket, Saint-Ouen, L'Aumône, tieks J'dois m'barrer comme dans The Temple Zdedededex</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3910,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Même si chaque jour est un dilemme impensable Que le mental sort d'une forgerie Même si j'me retrouve pris les mains dans l'sac J'espère au moins qu'il sera hors de prix Même si j'dois payer un homme pour qu'il prenne ma défense Même si j'fais l'débile devant l'juge pour qu'il plaide la démence Même si la poisse prête allégeance dès à présent Même si tu n'peux qu'agréer mes sincères désagréments Même si j'suis qu'un bâtard apparemment Même si ça fait un bail qu'Papa a dit bye bye à Maman Même si la pute de Pôle Emploi Veut court-circuiter ma carrière comme si j'étais Claude François J'y arriverai Même si j'ai Bac0 Même si j'ai autant d'avenir qu'une capsule d'héro Même si nos visions glacent leur sang à la Sub-Zero Même si leurs taxes et leurs factures nous fracturent les os On y arrivera ! Même si ce globe tourne à l'envers Même si j'n'en connais pas les trois-quarts Même s'ils veulent mettre mon ambition derrière des barres en fer Ne t'en fais surtout pas pour moi car, car, car... J'y arriverai J'y arriverai J'y arriverai J'y arriverai You might also like Même si je vis dans l'hram, je compte mourir dans l'Din Et finir au Paradis Même si les gendarmes vont trouver c'que j'ai dans l'jean Ils n'auront pas ma carabine Sois sûr qu'pour réussir toute mon équipe s'appliquera Cousin tu sais qu'c'est dur de marcher en France Quand bien même j'échoue, mon fils lui il y arrivera J'ai assuré ma descendance Même si mon fiston déconne et choisit d'suivre ma voie Il ne faut pas qu'je sois trop dur Regarde la caravane passe et les chiens aboient On y arrivera même face au mur Même si j'arrête l'alcool et que je n'bois que d'l'eau pure Avec la foi j'me réanimerai Même si j'finis tout seul et dans le noir obscur T'inquiète pas j'y arriverai ! Même si m'voir au gnouf c'était l'espérance des Stups J'ai lâché l'taf et l'terrain pour les séances de stud' Et p'tit à p'tit, c'est ma vie d'couple qui s'ampute J'vais bosser mais elle m'croit encore dans un tel-hô sans fut' Un rap sans phases, c'est comme une coupe de champ' sans flûte Même si l'buzz monte, j'me sens up' et ses sentiments chutent Même si j'rentre tard, qu'mes aisselles sentent le mâle Même si j'tente le Diable, à ses yeux j'reste un gentleman Ouais j'néglige le p'tit, et dans deux mois on m'licencie J'pense qu'aux rimes, j'en oublie son parfum Givenchy Et même si ses bons p'tits plats refroidissent Même si quand j'suis fonce-dé j'sais même plus combien font deux fois dix Même si ces culs ridés m'renvoient Le rap ça reste ma sécurité d'l'emploi Même si ça m'donne de l'inspi' et d'la phase salace Inch'Allah qu'pour oim' ça marche On y arrivera !</t>
+          <t>Même si chaque jour est un dilemme impensable Que le mental sort d'une forgerie Même si j'me retrouve pris les mains dans l'sac J'espère au moins qu'il sera hors de prix Même si j'dois payer un homme pour qu'il prenne ma défense Même si j'fais l'débile devant l'juge pour qu'il plaide la démence Même si la poisse prête allégeance dès à présent Même si tu n'peux qu'agréer mes sincères désagréments Même si j'suis qu'un bâtard apparemment Même si ça fait un bail qu'Papa a dit bye bye à Maman Même si la pute de Pôle Emploi Veut court-circuiter ma carrière comme si j'étais Claude François J'y arriverai Même si j'ai Bac0 Même si j'ai autant d'avenir qu'une capsule d'héro Même si nos visions glacent leur sang à la Sub-Zero Même si leurs taxes et leurs factures nous fracturent les os On y arrivera ! Même si ce globe tourne à l'envers Même si j'n'en connais pas les trois-quarts Même s'ils veulent mettre mon ambition derrière des barres en fer Ne t'en fais surtout pas pour moi car, car, car... J'y arriverai J'y arriverai J'y arriverai J'y arriverai Même si je vis dans l'hram, je compte mourir dans l'Din Et finir au Paradis Même si les gendarmes vont trouver c'que j'ai dans l'jean Ils n'auront pas ma carabine Sois sûr qu'pour réussir toute mon équipe s'appliquera Cousin tu sais qu'c'est dur de marcher en France Quand bien même j'échoue, mon fils lui il y arrivera J'ai assuré ma descendance Même si mon fiston déconne et choisit d'suivre ma voie Il ne faut pas qu'je sois trop dur Regarde la caravane passe et les chiens aboient On y arrivera même face au mur Même si j'arrête l'alcool et que je n'bois que d'l'eau pure Avec la foi j'me réanimerai Même si j'finis tout seul et dans le noir obscur T'inquiète pas j'y arriverai ! Même si m'voir au gnouf c'était l'espérance des Stups J'ai lâché l'taf et l'terrain pour les séances de stud' Et p'tit à p'tit, c'est ma vie d'couple qui s'ampute J'vais bosser mais elle m'croit encore dans un tel-hô sans fut' Un rap sans phases, c'est comme une coupe de champ' sans flûte Même si l'buzz monte, j'me sens up' et ses sentiments chutent Même si j'rentre tard, qu'mes aisselles sentent le mâle Même si j'tente le Diable, à ses yeux j'reste un gentleman Ouais j'néglige le p'tit, et dans deux mois on m'licencie J'pense qu'aux rimes, j'en oublie son parfum Givenchy Et même si ses bons p'tits plats refroidissent Même si quand j'suis fonce-dé j'sais même plus combien font deux fois dix Même si ces culs ridés m'renvoient Le rap ça reste ma sécurité d'l'emploi Même si ça m'donne de l'inspi' et d'la phase salace Inch'Allah qu'pour oim' ça marche On y arrivera !</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3927,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères You might also like Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
+          <t>Soir ce je kicke sur l'album de Seth Bête de scène big big big bonne recette Wesh les mecs faut arrêter de sucer les U.S De porter du XXL ou tailler du S Représente l'espèce mec de tess Pris par la poisse sans pour autant penser que Dieu les déteste 9.4 MC c'est comme ça que l'on me nomme Hardcore comme ton fils qui t'annonce qu'il aime un homme T'as vendu quelques grammes de cocaïne Bah c'est pas chez moi que tu passeras pour un gros caïd Caillera mais sous les casquettes dans le rap y'a trop de tapettes De grandes gueules qui ont vite fini victimes de racket Ah c'est le vent qui parle tu l'as ressenti Gentil mais pas le temps de faire acte de plaisanterie Anti porcs braque ces fils de chien Pour mon groupe de taulards cailles rappeurs d'instinct Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Rien ne peut m'arrêter à part la chaude pisse Ma vie ne tient qu'à un fil comme un parachutiste Caillera caillera rien ne m'arrêtera à part un supplice Ça fait 3 semaines qu'on piste une recette à Saint Sulpice On enchaîne les délits de fuite et ainsi de suite Dans mes yeux c'est mai 1.9.6.8 Depuis que j'ai baisé le rap tu files vite On aime les cartes bancaires qui font ... Caillera caillera on met du cavier dans le mafé et le couscous On fait du rap Ernesto ... Gangster en boubou des pochons dans le survet coton Wesh Le Pen surveille ton nez de cochon Depuis que nous sommes nés on croque ap J'aurais du appeler mon album Néochrome 4 Ça fait ZBLEX ça vient de Saint Ouen l'Aumône parc wesh C'est le son des grosses cojones ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera j'ai le mot discret comme alias Tellement sous marin que tu sauras jamais d'où sort ma liasse Je tente pas le tout pour le rien cousin Ne crois surtout pas que si tu m'enlèves le rap je deviens un vaurien Devant le bloc poto ce qui fait un homme c'est pas la pipe sur les photos ... C'est qui les feuchés ? Les arracheurs de neuchés qui font la veuch et les faux queuchés Qui ont des kilogrammes de coke ... Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères Caillera caillera anti porcs et karcher Caillera caillera c'est le son des gangsters Caillera caillera devant le bloc mon frère Caillera caillera on fait monter les enchères</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3944,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Sur Dailymotion ou bien YouTube Des kilos d'seum, des caillous dpures Bande de putains, la crème d'Île-de-France Pas b'soin dPascal le grand frère Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Crème de l'Île-de-France, celle qu'on présente as-p, qui plaisante as-p, celle qui met les pieds dans lplat Marche droit ou tauras les pieds dans l'plâtre À la Thaïlandaise, on tclaque hmm, serre les dents, cous' On s'ra pas à ton show, on va pas au concert des tantouzes Qu'est-cqui nous pousse à chercher tant l'flouse ? C'est la hass, pour Noël, j'veux un collier d'dent d'CRS En banlieue, les armes, les drogues dures et douces, on manie Si t'as des ous-s', devant toi, les bitchs se couchent comme Aily Bébé, bouge ton body, c'est pour les yous-v' de Paris Qui mange la gamelle, sans même qu'tu l'touches au baby On fournit les piles pour ton pacemaker Pendant qu'on baise ta sur en écoutant la tape à Serge Gainzbeur You might also like Pour l'meilleur et pour le pire, je veux voir les sous venir J'ai le regret d'vous le dire, qu'on efface vos souvenirs J'suis désolé pour l'retard, tu vas m'sucer sous le bar Cous', c'est comme l'aigle ou l'renard, c'est avec tes sous qu'j'repars Marcher dans le boulevard, le Diable fait de doux regards Si l'soir, t'as des coups de barres sacrifie ton bout de lard Tu sniff'ra la schnouff de star, ici-bas, ça grouille de shtars Venez faire un tour le soir, il faut le voir pour le croire C'est la triste réalité, t'as les yeux écarquillés On peut plus t'réanimer, tout est d'jà scénarisé Un échantillon d'l'Enfer, les soldats partent en guerre Nos pères attrapent le cancer, pas b'soin d'Pascal le grand frère Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Boum boum, Nourou-Nourou gangsters Joue-joue, il est toujours-toujours frais l'niggas Fais les Gz, baise les shmitts, 'teille de tise Gère le bus', tous les vrais le disent C'est la merde, j'craque et j'ai pas b'soin d'aide J'me r'plis sur d'la frappe quand j'ai pas d'joint d'herbe Pour Atef d'l'U2F, pour la crème de l'IDF Ramène les billets verts, un pour mes khels vite ait-f' J'fais mal, c'est mieux que d'faire femelle J'veux que faire d'l'oseille, j'éclate le level On sort du stud' les yeux cernés comme un château fort Pas trop dehors, mais tu peux m'serrer au parc Osnord Nos vies d'ouf, on l'a mise à mal Un peu comme le Dîn avec la catin de Miss Amal On use les manières de la Gestapo Te frotte pas à mon tier-qu's car à coup sûr, tu y laisses ta peau Deux mois, j'ai traîné en babouche, téter Même si en cours, j'me suis fait piquer par la mouche tsé-tsé Nos terrains d'jeu, c'est pas Saint-Barthélemy Anti-bourges, on sera attraper l'enn'mi Source à problèmes pour les quadragénaires C'est dans nos gènes, c'est ce que nos casas génèrent On dérive à cause de nos envies d'or pur Pour bronzer, j'reste au quartier, loin de la côte d'ordures Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Yeah, Seth Gueko, Alkpote, Nourou's Ous-D-Ous, Aka, yeah La crème d'Île-de-France En soit, les emcee's féminins à leur paires de blanches Zdededededex, Seth Guex Alkpoto, ouais ouais ouais Saint-Ouen-L'Aumône, Évry-Courcouronne 9-5 9-1, zblex</t>
+          <t>Sur Dailymotion ou bien YouTube Des kilos d'seum, des caillous dpures Bande de putains, la crème d'Île-de-France Pas b'soin dPascal le grand frère Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Crème de l'Île-de-France, celle qu'on présente as-p, qui plaisante as-p, celle qui met les pieds dans lplat Marche droit ou tauras les pieds dans l'plâtre À la Thaïlandaise, on tclaque hmm, serre les dents, cous' On s'ra pas à ton show, on va pas au concert des tantouzes Qu'est-cqui nous pousse à chercher tant l'flouse ? C'est la hass, pour Noël, j'veux un collier d'dent d'CRS En banlieue, les armes, les drogues dures et douces, on manie Si t'as des ous-s', devant toi, les bitchs se couchent comme Aily Bébé, bouge ton body, c'est pour les yous-v' de Paris Qui mange la gamelle, sans même qu'tu l'touches au baby On fournit les piles pour ton pacemaker Pendant qu'on baise ta sur en écoutant la tape à Serge Gainzbeur Pour l'meilleur et pour le pire, je veux voir les sous venir J'ai le regret d'vous le dire, qu'on efface vos souvenirs J'suis désolé pour l'retard, tu vas m'sucer sous le bar Cous', c'est comme l'aigle ou l'renard, c'est avec tes sous qu'j'repars Marcher dans le boulevard, le Diable fait de doux regards Si l'soir, t'as des coups de barres sacrifie ton bout de lard Tu sniff'ra la schnouff de star, ici-bas, ça grouille de shtars Venez faire un tour le soir, il faut le voir pour le croire C'est la triste réalité, t'as les yeux écarquillés On peut plus t'réanimer, tout est d'jà scénarisé Un échantillon d'l'Enfer, les soldats partent en guerre Nos pères attrapent le cancer, pas b'soin d'Pascal le grand frère Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Boum boum, Nourou-Nourou gangsters Joue-joue, il est toujours-toujours frais l'niggas Fais les Gz, baise les shmitts, 'teille de tise Gère le bus', tous les vrais le disent C'est la merde, j'craque et j'ai pas b'soin d'aide J'me r'plis sur d'la frappe quand j'ai pas d'joint d'herbe Pour Atef d'l'U2F, pour la crème de l'IDF Ramène les billets verts, un pour mes khels vite ait-f' J'fais mal, c'est mieux que d'faire femelle J'veux que faire d'l'oseille, j'éclate le level On sort du stud' les yeux cernés comme un château fort Pas trop dehors, mais tu peux m'serrer au parc Osnord Nos vies d'ouf, on l'a mise à mal Un peu comme le Dîn avec la catin de Miss Amal On use les manières de la Gestapo Te frotte pas à mon tier-qu's car à coup sûr, tu y laisses ta peau Deux mois, j'ai traîné en babouche, téter Même si en cours, j'me suis fait piquer par la mouche tsé-tsé Nos terrains d'jeu, c'est pas Saint-Barthélemy Anti-bourges, on sera attraper l'enn'mi Source à problèmes pour les quadragénaires C'est dans nos gènes, c'est ce que nos casas génèrent On dérive à cause de nos envies d'or pur Pour bronzer, j'reste au quartier, loin de la côte d'ordures Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère On a des Kalash', de lance-pierres, des canaches de grand-pères Zdededededex Toutes mes rafales te transpercent On fait du rap sale de gangster Dans ma famille, on a pas eu b'soin d'Pascal le grand frère Yeah, Seth Gueko, Alkpote, Nourou's Ous-D-Ous, Aka, yeah La crème d'Île-de-France En soit, les emcee's féminins à leur paires de blanches Zdededededex, Seth Guex Alkpoto, ouais ouais ouais Saint-Ouen-L'Aumône, Évry-Courcouronne 9-5 9-1, zblex</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Yo, ça commence par un gros mothafuck à la laille-vo Puis par un big up à tous mes bougs et la marvo Tu veux ma peau ? Trop tard, on ma déjà égorgé lphallus Jvais pas te décrocher la lune mais técorcher lanus BAC Arnaque, un startac pour 3-4 puces Les couilles à Spartacus, la gouache du Spartak russe Mon style blesse Dis à la police que jme suis fait séduire par le Sheitan et ses Diablesses Jfais très difficilement des rires-sou Mais quand jen fais un cest que jai la main dans la poche dun riste-tou Petite chienne ya pas damitiés qui tiennent Ça va carabinner sec à la Calamity Jane Ya écrit SPA sur mon Agenda Jsuis en plein dans lâge ingrat, jlèche pas les vagins gras Cest Monsieur Lucifer qui ma dorloté Ptit, jattendais quune seule chose, que les musclés sfarcissent Dorothée Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot You might also like Le MC veut que je mange ces pierres, il na qua faire ses prières Yaura trop dsang et cest ses potes qui vont passer la serpillière Braquage à lAfricaine et non à litalienne Trop dvictimes sautent de haut pour tomber dans mon nid dAlien Avec Seth Gueko, tu connais pas lintegral Semparer dmon rap cest marracher la colonne vertébrale Jtexplique qui peut mralentir ? Jconnais tout les vices Jsuis speed, comme ce roumain qui fait ta caisse au tournevis Fils, fais tourner ldisque, voici le Black des cavernes Je veux du pèse XXX Saoudiens me mattent de travers En smoment jbaisse pas assez, parce que j'écris trop En mangeant du gravier comme si cétait des Pépitos Avec mes 80 kilos jai pris dla place Parce que jkick la basse et les jaloux jles dédicace au pique-à-glace On tdépouille va jouer avec tes billes, ya qudes quilles Achete le squed fournit avec des béquilles Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot Jsuis toujours dans lcréneau, boom tes mort, tes soprano et jsuis ténor Couz, compare pas une Porsche à une luge de chiens dtraineau Je cherche toujours à faire pencher la balance Le cur sec comme le Sahel, la rage chahad, ma haine une avalanche Regarde toujours le vice, moi on mappel le vif Pas de perte tas resserré la vis pour avoir peur du vide Monotoxique Sear, pour un périple durable Le rap est venu pour un péridurale, vivez mon autopsie Et cest la nuit entouré de loups qui veulent la tête de la meute Trop de traîtres dans ma horde qui visent la tête ou la nuque Ya trop de nuls, ici, qui disent avoir des couilles A part certains ya que des clowns, on pleurera pas sur ta dépouille Mais sachez dans la vie rien nspasse sans quon sen rende compte Le messager sera une femme ou la balle d'un pompe Janticipe, jconnais les gens dici Et mec, jai fais des metres, jsuis venu émetre, jfais parti des maîtres sans disciples Jai plastiqué la zone, ça saute XX Je donne naissance au beat XXX Salut môme, retiens et rappelles-toi quon méteint pas Comme on allume un feu dchminée au chalumeau Cest Sear lui-même, qui sy frotte sy pique Qui sy fritte sy pète, et y perd six potes et sa langue de pute 2.0.0.4 demande à Seth Gueko Tu parles trop et XXXX Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot</t>
+          <t>Yo, ça commence par un gros mothafuck à la laille-vo Puis par un big up à tous mes bougs et la marvo Tu veux ma peau ? Trop tard, on ma déjà égorgé lphallus Jvais pas te décrocher la lune mais técorcher lanus BAC Arnaque, un startac pour 3-4 puces Les couilles à Spartacus, la gouache du Spartak russe Mon style blesse Dis à la police que jme suis fait séduire par le Sheitan et ses Diablesses Jfais très difficilement des rires-sou Mais quand jen fais un cest que jai la main dans la poche dun riste-tou Petite chienne ya pas damitiés qui tiennent Ça va carabinner sec à la Calamity Jane Ya écrit SPA sur mon Agenda Jsuis en plein dans lâge ingrat, jlèche pas les vagins gras Cest Monsieur Lucifer qui ma dorloté Ptit, jattendais quune seule chose, que les musclés sfarcissent Dorothée Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot Le MC veut que je mange ces pierres, il na qua faire ses prières Yaura trop dsang et cest ses potes qui vont passer la serpillière Braquage à lAfricaine et non à litalienne Trop dvictimes sautent de haut pour tomber dans mon nid dAlien Avec Seth Gueko, tu connais pas lintegral Semparer dmon rap cest marracher la colonne vertébrale Jtexplique qui peut mralentir ? Jconnais tout les vices Jsuis speed, comme ce roumain qui fait ta caisse au tournevis Fils, fais tourner ldisque, voici le Black des cavernes Je veux du pèse XXX Saoudiens me mattent de travers En smoment jbaisse pas assez, parce que j'écris trop En mangeant du gravier comme si cétait des Pépitos Avec mes 80 kilos jai pris dla place Parce que jkick la basse et les jaloux jles dédicace au pique-à-glace On tdépouille va jouer avec tes billes, ya qudes quilles Achete le squed fournit avec des béquilles Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot Jsuis toujours dans lcréneau, boom tes mort, tes soprano et jsuis ténor Couz, compare pas une Porsche à une luge de chiens dtraineau Je cherche toujours à faire pencher la balance Le cur sec comme le Sahel, la rage chahad, ma haine une avalanche Regarde toujours le vice, moi on mappel le vif Pas de perte tas resserré la vis pour avoir peur du vide Monotoxique Sear, pour un périple durable Le rap est venu pour un péridurale, vivez mon autopsie Et cest la nuit entouré de loups qui veulent la tête de la meute Trop de traîtres dans ma horde qui visent la tête ou la nuque Ya trop de nuls, ici, qui disent avoir des couilles A part certains ya que des clowns, on pleurera pas sur ta dépouille Mais sachez dans la vie rien nspasse sans quon sen rende compte Le messager sera une femme ou la balle d'un pompe Janticipe, jconnais les gens dici Et mec, jai fais des metres, jsuis venu émetre, jfais parti des maîtres sans disciples Jai plastiqué la zone, ça saute XX Je donne naissance au beat XXX Salut môme, retiens et rappelles-toi quon méteint pas Comme on allume un feu dchminée au chalumeau Cest Sear lui-même, qui sy frotte sy pique Qui sy fritte sy pète, et y perd six potes et sa langue de pute 2.0.0.4 demande à Seth Gueko Tu parles trop et XXXX Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple, écartez vos mômes Fallait pas nous prendre au mot Cest Brasco Seth, quest-ce tu veux dplus ? Brasc et Sear, jsais qutu dégustes On reste simple donc écartez vos mômes Fallait pas nous prendre au mot</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3978,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>On va arracher des têtes Quel con a dit que l'rap était dead ? Moi j'sais pas, c'était p'têt toi Bah tu peux rappeler tes têtes d'affiche Qui s'affichent comme un strip-tease de Moi, envers l'rap j'ai des dettes J'vais l'proclamer haut Faut qu'la VF puisse fuck la VO Pour la 'zik j'ai même arrêté la fac' Pour qu'j'arrête faut m'enterrer avec, dans un terrain vague Même en rimant des bêtes de phases à 10 syllabes, on perce pas Même p'têt qu j's'rais papa d'ici là Rien à foutre, faut qu'vous sachiez, qu'ls rappeurs nuls à chier, ça court les rues comme les capotes usagées Si ça pète, v'là c'qu'on pourrait faire, ma tête en clip, sur disque, et sur l'net loko.fr Pareil pour toi Basc' euh Ah ouais J'crois qu'on l'mérite parce que y en a marre des itinéraires casse-gueule On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko You might also like J'ai sacrifié ma vie, mes ness-bui, même mon esprit Mais quand j'm'exprime, ça tranche et transperce ton Des textes, rimes de mercenaire Missionnaire qui finit par aboyer même avec une muselière Maintenant ils veulent me bloquer l'passage comme à la douane Et j'ai pas la voix pour chanter comme Bruel ou Balavoine Loko, le rap est mort, mais on a pas trouvé son corps Ils ont cru l'voir à la morgue, j'vais leur prouver qu'ils ont tort Putain, j'ai donné mon sang et tout c'que j'ai dans l'ventre Et puis merde laissez moi réaliser mes rêves d'enfant n'oublie pas que j'ai la voix qui stimule Pour faire taire tous ces putains d' qui simulent Ils savent pas c'que j'dissimule dans mes syllabes, ici-là Me couper les vivres c'est comme couper les locks à Sizzla Re-noi, j'ai des grosses couilles, une grande bouche Et j'ai mal aux fesses à force de rester sur le banc d'touche On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko s'ouvrait les veines fft fft Le rap est mort qu'pour les sourds et les vielles Le rap s'endort quand j'me couche, se lève quand j'me réveille Le hip-hop est mort qu'au pays des vermeilles Le rap est mort, non, il est au nord en chaînes et en or, en chair et en os J'rappe même en braille et en morse J'préfère séparer deux pit' en train d's'accoupler Qu'entendre une grosse pouffe chanter à la fin d'chaque couplet Laurent Bouneau, dort au boulot, si tu l'croises achève-le On sait tous c'qu'il a fait à ses chèvres Vous pouvez l'appeler monsieur Seguin Le rap j'suis son vaisseau sanguin J'pourrais jamais m'ver-sau sans gains Confondre le rap de tess' et c'lui d'gonzesse est inexcusable Comme sortir d' en jupe fendue Chez nous on r'trouve ceux qui sucent, pendus à des vieux arbres Suspendus avec les balances et les vendus Le rap est mort, non, il s'est échappé d'l'ambulance J'comprends pas ton rap, articule quand t'as des flatulences Grand t'es lessivant, le rap est mort que dans tes rêves Il vend, alors essaie pas d'l'enterrer vivant On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko Brasco, Loko, Gueko Brasco, Loko, Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko</t>
+          <t>On va arracher des têtes Quel con a dit que l'rap était dead ? Moi j'sais pas, c'était p'têt toi Bah tu peux rappeler tes têtes d'affiche Qui s'affichent comme un strip-tease de Moi, envers l'rap j'ai des dettes J'vais l'proclamer haut Faut qu'la VF puisse fuck la VO Pour la 'zik j'ai même arrêté la fac' Pour qu'j'arrête faut m'enterrer avec, dans un terrain vague Même en rimant des bêtes de phases à 10 syllabes, on perce pas Même p'têt qu j's'rais papa d'ici là Rien à foutre, faut qu'vous sachiez, qu'ls rappeurs nuls à chier, ça court les rues comme les capotes usagées Si ça pète, v'là c'qu'on pourrait faire, ma tête en clip, sur disque, et sur l'net loko.fr Pareil pour toi Basc' euh Ah ouais J'crois qu'on l'mérite parce que y en a marre des itinéraires casse-gueule On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko J'ai sacrifié ma vie, mes ness-bui, même mon esprit Mais quand j'm'exprime, ça tranche et transperce ton Des textes, rimes de mercenaire Missionnaire qui finit par aboyer même avec une muselière Maintenant ils veulent me bloquer l'passage comme à la douane Et j'ai pas la voix pour chanter comme Bruel ou Balavoine Loko, le rap est mort, mais on a pas trouvé son corps Ils ont cru l'voir à la morgue, j'vais leur prouver qu'ils ont tort Putain, j'ai donné mon sang et tout c'que j'ai dans l'ventre Et puis merde laissez moi réaliser mes rêves d'enfant n'oublie pas que j'ai la voix qui stimule Pour faire taire tous ces putains d' qui simulent Ils savent pas c'que j'dissimule dans mes syllabes, ici-là Me couper les vivres c'est comme couper les locks à Sizzla Re-noi, j'ai des grosses couilles, une grande bouche Et j'ai mal aux fesses à force de rester sur le banc d'touche On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko s'ouvrait les veines fft fft Le rap est mort qu'pour les sourds et les vielles Le rap s'endort quand j'me couche, se lève quand j'me réveille Le hip-hop est mort qu'au pays des vermeilles Le rap est mort, non, il est au nord en chaînes et en or, en chair et en os J'rappe même en braille et en morse J'préfère séparer deux pit' en train d's'accoupler Qu'entendre une grosse pouffe chanter à la fin d'chaque couplet Laurent Bouneau, dort au boulot, si tu l'croises achève-le On sait tous c'qu'il a fait à ses chèvres Vous pouvez l'appeler monsieur Seguin Le rap j'suis son vaisseau sanguin J'pourrais jamais m'ver-sau sans gains Confondre le rap de tess' et c'lui d'gonzesse est inexcusable Comme sortir d' en jupe fendue Chez nous on r'trouve ceux qui sucent, pendus à des vieux arbres Suspendus avec les balances et les vendus Le rap est mort, non, il s'est échappé d'l'ambulance J'comprends pas ton rap, articule quand t'as des flatulences Grand t'es lessivant, le rap est mort que dans tes rêves Il vend, alors essaie pas d'l'enterrer vivant On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko Brasco, Loko, Gueko Brasco, Loko, Gueko On veut la réussite Brasco Mais on reste lucides Loko Nous freiner s'rait du suicide Gueko On veut la réussite Brasco Mais on reste lucides Loko Si l'rap est mort on l'ressuscite Gueko</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3995,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Yah, Seth Guex Deux trois pétasses dans le penthouse On dit que l'enfer est sur Terre Elle en ? Je suis posé dans la tess là Elon Musk, lunettes Cartier j'ai la must J'ai la romance j'ai la Vendôme Toi ton style est random Je sors du kingdom j'ai le lust Je voulais juste une tarte aux Daims Mais j'ai eu une tarte aux poils car elle s'est mal rasé la teuch Si y'a mon gang en classe éco je m'en fout d voyager en first J'ai le crveau, j'ai le muscle, je vais à la muscu en se-ca Je me sens seul car je suis blanc mais j'aime pas les lusk, yo Gros oinj de peuf, voilà que t'es sur la voie lactée Me-sper dans la gorge et t'as la voix lactée Contrat de Stos on va l'acter Elle va raquer la maison de disque Et sur vos tombes on dansera le C walk comme Didi Trix On va t'niquer ta mère Sans toucher ta génitrice On va t'niquer ta mère Sans toucher ta génitrice Avoir la bouche propre n'est pas affaire de dentifrice Avoir la bouche propre n'est pas affaire de dentifrice Pied au plancher sur Beriz Je vais tamponner un gréviste Pied au plancher sur Beriz Je vais tamponner un cycliste Pied au plancher sur Beriz Je vais tamponner un gréviste Je rock cette merde comme Elvis Je suis mon propre styliste You might also like Je les entends rapper j'ai envie de chier Comme on dit j'ai le bobsleigh dans le dernier virage Si le viol c'est du sexe, un coup de pelle c'est du jardinage Je sais que t'aimes ce genre d'image Une saloperie d'pointeur à qui on tatouerait violeur sur le visage Mais on me trouverait trop radical A mon poignet grosse montre en or à 10k Nique sa mère Dubaï c'est bimbo land comme ? Tenez vos langues dans les chichas bande de petits cons Dans le sud ils ont les dunes de Pilat Garçon chez nous c'est les dunes de pilon On va t'niquer ta mère Sans toucher ta génitrice On va t'niquer ta mère Sans toucher ta génitrice Avoir la bouche propre n'est pas affaire de dentifrice Avoir la bouche propre n'est pas affaire de dentifrice Pied au plancher sur Beriz Je vais tamponner un gréviste Pied au plancher sur Beriz Je vais tamponner un cycliste Pied au plancher sur Beriz Je vais tamponner un gréviste Je rock cette merde comme Elvis Je suis mon propre styliste Appelle moi le king barlou Je danse le C walk comme Didi Trix Sirote la ciroc de P Diddy Je danse le C walk comme Didi Trix Sirote la ciroc de P Diddy Barlou, barlou, barlou</t>
+          <t>Yah, Seth Guex Deux trois pétasses dans le penthouse On dit que l'enfer est sur Terre Elle en ? Je suis posé dans la tess là Elon Musk, lunettes Cartier j'ai la must J'ai la romance j'ai la Vendôme Toi ton style est random Je sors du kingdom j'ai le lust Je voulais juste une tarte aux Daims Mais j'ai eu une tarte aux poils car elle s'est mal rasé la teuch Si y'a mon gang en classe éco je m'en fout d voyager en first J'ai le crveau, j'ai le muscle, je vais à la muscu en se-ca Je me sens seul car je suis blanc mais j'aime pas les lusk, yo Gros oinj de peuf, voilà que t'es sur la voie lactée Me-sper dans la gorge et t'as la voix lactée Contrat de Stos on va l'acter Elle va raquer la maison de disque Et sur vos tombes on dansera le C walk comme Didi Trix On va t'niquer ta mère Sans toucher ta génitrice On va t'niquer ta mère Sans toucher ta génitrice Avoir la bouche propre n'est pas affaire de dentifrice Avoir la bouche propre n'est pas affaire de dentifrice Pied au plancher sur Beriz Je vais tamponner un gréviste Pied au plancher sur Beriz Je vais tamponner un cycliste Pied au plancher sur Beriz Je vais tamponner un gréviste Je rock cette merde comme Elvis Je suis mon propre styliste Je les entends rapper j'ai envie de chier Comme on dit j'ai le bobsleigh dans le dernier virage Si le viol c'est du sexe, un coup de pelle c'est du jardinage Je sais que t'aimes ce genre d'image Une saloperie d'pointeur à qui on tatouerait violeur sur le visage Mais on me trouverait trop radical A mon poignet grosse montre en or à 10k Nique sa mère Dubaï c'est bimbo land comme ? Tenez vos langues dans les chichas bande de petits cons Dans le sud ils ont les dunes de Pilat Garçon chez nous c'est les dunes de pilon On va t'niquer ta mère Sans toucher ta génitrice On va t'niquer ta mère Sans toucher ta génitrice Avoir la bouche propre n'est pas affaire de dentifrice Avoir la bouche propre n'est pas affaire de dentifrice Pied au plancher sur Beriz Je vais tamponner un gréviste Pied au plancher sur Beriz Je vais tamponner un cycliste Pied au plancher sur Beriz Je vais tamponner un gréviste Je rock cette merde comme Elvis Je suis mon propre styliste Appelle moi le king barlou Je danse le C walk comme Didi Trix Sirote la ciroc de P Diddy Je danse le C walk comme Didi Trix Sirote la ciroc de P Diddy Barlou, barlou, barlou</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4012,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Nos curs c'est Décembre Soweto après la descente Dehors fon-cedés à se descendre Les équipes ne pensent qu'à descendre Naître et avoir l'impression de descente On ne se demande même plus qui va nous défendre Sans Pape Diouf l'OM n'a qu'à descendre La France malheureuse sur ce qu'elle tente Et croit que je suis sorti de quel ventre? Devant la cage à attendre qu'elle sente Pour être là on a versé quel sang? Quand je vois les potos qu'elle pend Dégage la rage pour qu'elle sente Dans les rues il fait quel temps? Ma musique je m'en bats les couilles qu'elle vende L'essentiel est qu'elle rentre Je ne la fais pas pour qu'elle rampe Aussi violente qu'elle sente La France il faut qu'elle tremble Ils envoient les flash ball pour quel gang? Ils me traitent comme un animal de quel rang? On ne se demande même plus ce qu'ils branlent Le son le seul crime dans lequel je trempe Tu veux t'imposer avec quel cran? On veut savoir t'es de quel camp? T'inquiète pas pour ta pute On va lui faire consommer ce qu'elle vend Que l'une de vous ose s'attaquer aux miens! Qu'elle tente on va enterrer son nez dans le ciment pour qu'elle sente You might also like Ne laisse aucune chance à tes ennemis Avec un tu fais deux c'est une embellie Même les petits te shoot comme Ginobili Tu te bats contre tes démons mais tu vis la nuit J'ai pas la politesse qu'on apprend à l'hôtellerie C'est plus simple de taper dans la C Que taper dans un ballon comme Mario Balotelli Ca les lers-dea l'ont compris Depuis ils assoient des jeroboams de champagne en boite Ils s'habillent en wood tchigui Je porte le costard comme Fabrice Luchini Même quand j'avais sorti zéro bum-al J'avais déjà la chemise déformée par la crosse en bois du guigui Comme si c'était normal Laisse-moi défaire ma boug Ziggy Montrer ce que j'ai dans le slip dans la rue Et s'il le faut au Moon City La félonie des potes me reste en travers de la gorge Comme un arrière de goût de whisky J'ai l'argot d'un bar à hôtesses Les MCs font caca partout ouvrent leurs fesses Répètent tout ce qu'ils entendent comme des caca de Ouest Side Ca va faire boum Montre-moi ce que tu as ce n'est pas Kingdom Come C'est Lalcko L.A.L King Kong come Je sais qu'il y'a des King Kong Mais je veux être le King Kong One Représenter mes gars de la rue qui ont des King Kong Gun J'espère qu'on se souviendra de moi pour avoir donner du King Kong love Et pas pour avoir envoyer les balles de la police comme au ping-pong J'bosse là où les frères appuient sur la gachette pour se détendre La haine te brûle sniffe tes cendres Et tu te demandes pourquoi les petits veulent descendre T'es pas une légende La cocaïne paie les gens Les gens achètent les jantes Des jambes pour le sexe Paient des gens et perdent leurs jambes Et tu peines à comprendre pourquoi la famille perd des membres On se fait descendre en silence Prise du microphone J'ai un peuple à défendre Je rêvais de monter une affaire avant Jay-Z Trop près des viseurs de fusils Mauvais oeil et saisies Usine j'pête un fusible J'crève pas ici baby Mon petit zinc se suicide M'avait pas parlé de ses soucis</t>
+          <t>Nos curs c'est Décembre Soweto après la descente Dehors fon-cedés à se descendre Les équipes ne pensent qu'à descendre Naître et avoir l'impression de descente On ne se demande même plus qui va nous défendre Sans Pape Diouf l'OM n'a qu'à descendre La France malheureuse sur ce qu'elle tente Et croit que je suis sorti de quel ventre? Devant la cage à attendre qu'elle sente Pour être là on a versé quel sang? Quand je vois les potos qu'elle pend Dégage la rage pour qu'elle sente Dans les rues il fait quel temps? Ma musique je m'en bats les couilles qu'elle vende L'essentiel est qu'elle rentre Je ne la fais pas pour qu'elle rampe Aussi violente qu'elle sente La France il faut qu'elle tremble Ils envoient les flash ball pour quel gang? Ils me traitent comme un animal de quel rang? On ne se demande même plus ce qu'ils branlent Le son le seul crime dans lequel je trempe Tu veux t'imposer avec quel cran? On veut savoir t'es de quel camp? T'inquiète pas pour ta pute On va lui faire consommer ce qu'elle vend Que l'une de vous ose s'attaquer aux miens! Qu'elle tente on va enterrer son nez dans le ciment pour qu'elle sente Ne laisse aucune chance à tes ennemis Avec un tu fais deux c'est une embellie Même les petits te shoot comme Ginobili Tu te bats contre tes démons mais tu vis la nuit J'ai pas la politesse qu'on apprend à l'hôtellerie C'est plus simple de taper dans la C Que taper dans un ballon comme Mario Balotelli Ca les lers-dea l'ont compris Depuis ils assoient des jeroboams de champagne en boite Ils s'habillent en wood tchigui Je porte le costard comme Fabrice Luchini Même quand j'avais sorti zéro bum-al J'avais déjà la chemise déformée par la crosse en bois du guigui Comme si c'était normal Laisse-moi défaire ma boug Ziggy Montrer ce que j'ai dans le slip dans la rue Et s'il le faut au Moon City La félonie des potes me reste en travers de la gorge Comme un arrière de goût de whisky J'ai l'argot d'un bar à hôtesses Les MCs font caca partout ouvrent leurs fesses Répètent tout ce qu'ils entendent comme des caca de Ouest Side Ca va faire boum Montre-moi ce que tu as ce n'est pas Kingdom Come C'est Lalcko L.A.L King Kong come Je sais qu'il y'a des King Kong Mais je veux être le King Kong One Représenter mes gars de la rue qui ont des King Kong Gun J'espère qu'on se souviendra de moi pour avoir donner du King Kong love Et pas pour avoir envoyer les balles de la police comme au ping-pong J'bosse là où les frères appuient sur la gachette pour se détendre La haine te brûle sniffe tes cendres Et tu te demandes pourquoi les petits veulent descendre T'es pas une légende La cocaïne paie les gens Les gens achètent les jantes Des jambes pour le sexe Paient des gens et perdent leurs jambes Et tu peines à comprendre pourquoi la famille perd des membres On se fait descendre en silence Prise du microphone J'ai un peuple à défendre Je rêvais de monter une affaire avant Jay-Z Trop près des viseurs de fusils Mauvais oeil et saisies Usine j'pête un fusible J'crève pas ici baby Mon petit zinc se suicide M'avait pas parlé de ses soucis</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4029,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Psch, psch, psch, psch LMM the King Grr J'ai un bon baveux, j'ai mes relations Pah Ta re-s a la boca pour la fellation J'fidélise les ients-cli comme les canassons Pah Gratos la première dose, bre-som est la donation J'fais des grands signes de franc-maçon sans pression Ouh Les keufs font chuter l'terrain, c'est la révision Rends c'que tu m'dois on est quitte Bloque pas trop là, allez, quitte, quitte J'vais tirer sur toi, j'passe le salam à l'équipe Eh J'veux le million d'euros vite, lassui, il m'parle de street Que mes res-frè qu'ont mes sons, jamais ça parle de fuite Never, jamais T'es pas la mif', y a aucun feat, aucun J'porte pas d'requin, j'suis marocain, j'graille du requin et des frites Yah J'fuck les quatre 3esses du noyau, yeah-yah On hagar pas l'roi dans son royaume, ah bah voyons Ah bah voyons J'vois des bitchs faire les voyous, j'casse la bij', j'prends les joyaux Y a d'la moula, on est joyeux, hein J'fais du le-sa, dites-moi, j'fais du mal à qui ? Mmh J'profite jamais comme bien mal acquis Brr, brr Fais pas l'lover avec elle, nous on la ken Soixante-dix-huit on est gang, nique sa grand-mère, Anakin Allez tous au Diable, quelques années qu'j'suis au Jack Dans ma té-ci comme dans Gomorra, j'suis réel comme O'Black Pétasse m'appelle pour Dior, bouffe mes klawis pour Pâques Dring Allô ? Allô ?, Sheitan m'appelle pour pacte Une grosse menace tah l'au-delà, t'envoies l'PayPal Dégage de là, parle pas bike life si t'as pas d'bécane Connard, c'est l'mektoub, tu canes, les vrais fous, c'est les mecs tout calmes J'peux m'faire rafale sur une terrasse vu qu'j'suis pas dans l'légal J'attends ma paye d'la Sacem, la maison d'disque la seule condition pour qu'j'arrête mon biz Bise, j'encule les haters quoi qu'ils disent Quoi qu'ils disent Le tard-pé sort et jamais quoi qu'il vise, Dala, X, Wix You might also like Barlou, Barlou, Barlou, Barlou, Barlou Yah Le Professeur passe aux confessions Dites aux femmes que l'mariage n'est pas une profession Nan Au tiekson, y a qu'des âmes tourmentées Ouh Grosse érection pour mes amours manqués La vengeance est un plat congelé, demande à la gelée Chez nous, on confond pas l'amitié et le mariage gay Nan, j'laisse ça aux sodomites Sodomites J'sors jamais d'ma grotte comme un troglodyte Trodglodyte Posé sur les chiottes, j'viens d'faire un monolithe J'viens d'arrêter d'boire de l'eau, j'suis devenu écologique Jamais sans la 'teille de Jack Jack Moi, c'est pas si je casse, je paye, c'est si je paye, je casse Casse, casse Je survole ce game comme le Krakoukass Quoi ? La bite n'a pas d'épaule si la tête passe, tout passe Seth Guekx, Dala, c'est l'escalade, c'est l'Est sur l'esplanade du tieks J'arrive de Barlouskovie en grosse plaque diplomatique Grosse teub dans la che-b', t'as plus d'zigomatiques</t>
+          <t>Psch, psch, psch, psch LMM the King Grr J'ai un bon baveux, j'ai mes relations Pah Ta re-s a la boca pour la fellation J'fidélise les ients-cli comme les canassons Pah Gratos la première dose, bre-som est la donation J'fais des grands signes de franc-maçon sans pression Ouh Les keufs font chuter l'terrain, c'est la révision Rends c'que tu m'dois on est quitte Bloque pas trop là, allez, quitte, quitte J'vais tirer sur toi, j'passe le salam à l'équipe Eh J'veux le million d'euros vite, lassui, il m'parle de street Que mes res-frè qu'ont mes sons, jamais ça parle de fuite Never, jamais T'es pas la mif', y a aucun feat, aucun J'porte pas d'requin, j'suis marocain, j'graille du requin et des frites Yah J'fuck les quatre 3esses du noyau, yeah-yah On hagar pas l'roi dans son royaume, ah bah voyons Ah bah voyons J'vois des bitchs faire les voyous, j'casse la bij', j'prends les joyaux Y a d'la moula, on est joyeux, hein J'fais du le-sa, dites-moi, j'fais du mal à qui ? Mmh J'profite jamais comme bien mal acquis Brr, brr Fais pas l'lover avec elle, nous on la ken Soixante-dix-huit on est gang, nique sa grand-mère, Anakin Allez tous au Diable, quelques années qu'j'suis au Jack Dans ma té-ci comme dans Gomorra, j'suis réel comme O'Black Pétasse m'appelle pour Dior, bouffe mes klawis pour Pâques Dring Allô ? Allô ?, Sheitan m'appelle pour pacte Une grosse menace tah l'au-delà, t'envoies l'PayPal Dégage de là, parle pas bike life si t'as pas d'bécane Connard, c'est l'mektoub, tu canes, les vrais fous, c'est les mecs tout calmes J'peux m'faire rafale sur une terrasse vu qu'j'suis pas dans l'légal J'attends ma paye d'la Sacem, la maison d'disque la seule condition pour qu'j'arrête mon biz Bise, j'encule les haters quoi qu'ils disent Quoi qu'ils disent Le tard-pé sort et jamais quoi qu'il vise, Dala, X, Wix Barlou, Barlou, Barlou, Barlou, Barlou Yah Le Professeur passe aux confessions Dites aux femmes que l'mariage n'est pas une profession Nan Au tiekson, y a qu'des âmes tourmentées Ouh Grosse érection pour mes amours manqués La vengeance est un plat congelé, demande à la gelée Chez nous, on confond pas l'amitié et le mariage gay Nan, j'laisse ça aux sodomites Sodomites J'sors jamais d'ma grotte comme un troglodyte Trodglodyte Posé sur les chiottes, j'viens d'faire un monolithe J'viens d'arrêter d'boire de l'eau, j'suis devenu écologique Jamais sans la 'teille de Jack Jack Moi, c'est pas si je casse, je paye, c'est si je paye, je casse Casse, casse Je survole ce game comme le Krakoukass Quoi ? La bite n'a pas d'épaule si la tête passe, tout passe Seth Guekx, Dala, c'est l'escalade, c'est l'Est sur l'esplanade du tieks J'arrive de Barlouskovie en grosse plaque diplomatique Grosse teub dans la che-b', t'as plus d'zigomatiques</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4046,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Kratos, il est fâché, Kratos a la rage Kratos, il est fâché, Kratos a la rage Kratos, il est fâché, Kratos a la rage Kratos, Kratos, Kratos Kratos, il est fâché, gamos, il est garé La Poste, elle est braquée car le Lacoste, il est craqué Là, Stos, c'est mon héritier, les bastos, vous les méritez R.I.P. R.I.P., le parkos, c'est mon quartier Grosse paire de Nike Atmos ou ACG J'opère au mic, le bloquos est assiégé Tu n'sais que rager mais tu n'peux pas niquer ma réput' J'prends pas mon téléphone au sport, pas envie d'niquer ma récup' La vie est une pute, c'est so bad so good J'm'imagine en exil sur les iles de Corfou Me d'mandant si le donut est à l'origine du pornfood Mais j'suis coincé au tieks et autour d'moi, y a trop d'fous Y a des pits qu'attaquent au cou et des types à quatre pattes au trou J'ai pas fait d'école d'ingénieur, nous, on veut que Kendall Jenner Bats les couilles de Agathe Auproux, ah starfou' J'fais des bisous qui piquent, mes filles veulent que j'me rase la stache-mou You might also like Ça f'sait longtemps donc je remets ça On veut pas d'la France de Jean Messiah La Kalash', elle vient de Massilia Regarde l'épaisseur de ma sse-lia Kratos a la rage, y a pas d'vamos à la plage Et si y a l'gamos au garage, on rentre au parkos à la nage Mitraillette camembert, le clacos, c'est la base J'veux plus manger la gamelle à la sauce Alcatraz Te fais pas tatouer l'blaze de ta femme, c'est naze Car souvent le tatouage dure plus longtemps qu'le mariage Pour mourir, y a pas d'âge Y a des cercueils de toutes les tailles, j'suis dans l'cur de toutes les cailles Le boloss revient quand il goûte l'écaille La chaise est pliante et la cess' est payante Elle vient du 16, la cliente, elle r'ssemble à Valérie Lemercier J't'ai fait r'monter la pente et tu galères à remercier J'garde pas tout pour moi, j'crée des emplois et tous les mois J'ai des salaires à reverser, parlez-en pas J'aime les gens droits mais j'suis aussi bien fasciné par les Zampa Par les caïds, par les voyous, ah starfou' J'fais des cunis qui piquent, madame veut que j'me rase la stache-mou J'deviens fou, j'ai envie d'tirer On laissera personne nous victimer Ramène Nicky, j'vais la Meek Mill-er Barlou burger pour cheat mealer Ça f'sait longtemps donc je remets ça On veut pas d'la France de Jean Messiah La Kalash', elle vient de Massilia Regarde l'épaisseur de ma sse-lia</t>
+          <t>Kratos, il est fâché, Kratos a la rage Kratos, il est fâché, Kratos a la rage Kratos, il est fâché, Kratos a la rage Kratos, Kratos, Kratos Kratos, il est fâché, gamos, il est garé La Poste, elle est braquée car le Lacoste, il est craqué Là, Stos, c'est mon héritier, les bastos, vous les méritez R.I.P. R.I.P., le parkos, c'est mon quartier Grosse paire de Nike Atmos ou ACG J'opère au mic, le bloquos est assiégé Tu n'sais que rager mais tu n'peux pas niquer ma réput' J'prends pas mon téléphone au sport, pas envie d'niquer ma récup' La vie est une pute, c'est so bad so good J'm'imagine en exil sur les iles de Corfou Me d'mandant si le donut est à l'origine du pornfood Mais j'suis coincé au tieks et autour d'moi, y a trop d'fous Y a des pits qu'attaquent au cou et des types à quatre pattes au trou J'ai pas fait d'école d'ingénieur, nous, on veut que Kendall Jenner Bats les couilles de Agathe Auproux, ah starfou' J'fais des bisous qui piquent, mes filles veulent que j'me rase la stache-mou Ça f'sait longtemps donc je remets ça On veut pas d'la France de Jean Messiah La Kalash', elle vient de Massilia Regarde l'épaisseur de ma sse-lia Kratos a la rage, y a pas d'vamos à la plage Et si y a l'gamos au garage, on rentre au parkos à la nage Mitraillette camembert, le clacos, c'est la base J'veux plus manger la gamelle à la sauce Alcatraz Te fais pas tatouer l'blaze de ta femme, c'est naze Car souvent le tatouage dure plus longtemps qu'le mariage Pour mourir, y a pas d'âge Y a des cercueils de toutes les tailles, j'suis dans l'cur de toutes les cailles Le boloss revient quand il goûte l'écaille La chaise est pliante et la cess' est payante Elle vient du 16, la cliente, elle r'ssemble à Valérie Lemercier J't'ai fait r'monter la pente et tu galères à remercier J'garde pas tout pour moi, j'crée des emplois et tous les mois J'ai des salaires à reverser, parlez-en pas J'aime les gens droits mais j'suis aussi bien fasciné par les Zampa Par les caïds, par les voyous, ah starfou' J'fais des cunis qui piquent, madame veut que j'me rase la stache-mou J'deviens fou, j'ai envie d'tirer On laissera personne nous victimer Ramène Nicky, j'vais la Meek Mill-er Barlou burger pour cheat mealer Ça f'sait longtemps donc je remets ça On veut pas d'la France de Jean Messiah La Kalash', elle vient de Massilia Regarde l'épaisseur de ma sse-lia</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4063,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Attention la bagarre ! Et ouais Pierrot c'était l'chef d'la bande C'qui le faisait grimper au rideau par dessus tout c'était l'pese d'la banque Tu peux m'croire sur parole c'était un phénomène La main près du flingue et l'flingue encore plus près d'l'oseille Il en a fallu des couilles à travers ce calvaire On aimait la castagne il me surnommait kader le bras d'fer J'étais plutôt du genre à mener à terme l'affaire Sans m'soucier des reproches que la mater allait m'faire D'ailleurs on s'retrouvait toujours devant une de ces chakchouka C'était notre rituel avant une partie de..weapon sound A trop regarder ses armes il a finit avec les yeux kaki J'peux t'dire qu'avec Pierrot on f'sait trembler tout l'vieux Paris T'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises ont t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot Moi c'est Esco, et Pierrot il venait dans mon bar Au passage mon établissement c'est le Esco-bar C'est chez moi qu'on prend les armes et qu'les cerveaux transpirent Braquer la banque sans faire miauler la tirelire Professionnel dans l'boulot, y'a pas d'tulipe dans l'canon Tous du genre a pisser dans la guitare et a chier dans l'violon Avant chaque coup j'mange une baguette à la terrine Personne puait l'urine ma couille En concurrence avec l'équipe de Mesrine Même s'il avait sauté les gitans de Porte de Saint-Ouen et Manu l'pollack Le Midas continue d'chercher l'Pierrot dans son verre d'cognac.. J'suis Tony bamboula je jouait au domino pas l'bambino Soudé comme les Gambino dans la bande à Pierrot You might also like J'suis Midas le pourri, commissaire de paris Au Chivas j'm'étourdis Pierrot c'est l'affaire de ma vie J'ai l'brolique sous la terre Le brushing d'Anne Sinclair Les comiques j'les déterre, j'écoute à fond France Inter T es pas sage on te tabasse avant d'prendre l'apero C'est l'passage à tabac pour la bande à Pierrot Un carrelage, un quage-bra et il t'change la déco J'peux t'dire que j'pense à Pierrot même dans la chambre à Véro Ba voilà, t'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises on t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot C'est l'mélange Belmondo et Depardieu, Pierrot on l'appel encore Belmondieu À chaque quage-bra Jojo d'vait faire d'son mieux On avait des fusils à camembert somptueux Insérable on s'en sortait avec non lieu Dit pas merci si le liquide d'la banque asperge ton pieux La crème onctueuse du crime parisien On est d'venu des rois on avait quasi rien Peu d'concertation dans la bande à Pierrot Les bleus enregistraient nos conversations dans l'magneto Les coffres s'ouvraient à nous comme les rideaux du Lido C'est pour notre dernier coup qu'on c'est retrouvé ce soir dans ce bistrot Si tu nous croise dans un bar c'est qu'on élabore un plan... Si tu nous croise au shtar c'est qu'on est là pour 20 ans... Si tu nous croise au Escobar c'est qu'on élabore un plan... Si tu nous vois plein d'gent-ar c'est qu'on a fait sauté la banque...Jackpot sound J'suis véreux jusqu'au fion, trafic et corruption La carrure d'un bovin, j'ferme les yeux contre un pot d'vin Sans l'pot d'vin, j'suis l'5eme de la bande, oui ma grande, j'peux t'dire qu'à mon pote Pierrot j'lui fais pas qu'sauter ses amendes Ba voilà, t'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises on t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot</t>
+          <t>Attention la bagarre ! Et ouais Pierrot c'était l'chef d'la bande C'qui le faisait grimper au rideau par dessus tout c'était l'pese d'la banque Tu peux m'croire sur parole c'était un phénomène La main près du flingue et l'flingue encore plus près d'l'oseille Il en a fallu des couilles à travers ce calvaire On aimait la castagne il me surnommait kader le bras d'fer J'étais plutôt du genre à mener à terme l'affaire Sans m'soucier des reproches que la mater allait m'faire D'ailleurs on s'retrouvait toujours devant une de ces chakchouka C'était notre rituel avant une partie de..weapon sound A trop regarder ses armes il a finit avec les yeux kaki J'peux t'dire qu'avec Pierrot on f'sait trembler tout l'vieux Paris T'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises ont t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot Moi c'est Esco, et Pierrot il venait dans mon bar Au passage mon établissement c'est le Esco-bar C'est chez moi qu'on prend les armes et qu'les cerveaux transpirent Braquer la banque sans faire miauler la tirelire Professionnel dans l'boulot, y'a pas d'tulipe dans l'canon Tous du genre a pisser dans la guitare et a chier dans l'violon Avant chaque coup j'mange une baguette à la terrine Personne puait l'urine ma couille En concurrence avec l'équipe de Mesrine Même s'il avait sauté les gitans de Porte de Saint-Ouen et Manu l'pollack Le Midas continue d'chercher l'Pierrot dans son verre d'cognac.. J'suis Tony bamboula je jouait au domino pas l'bambino Soudé comme les Gambino dans la bande à Pierrot J'suis Midas le pourri, commissaire de paris Au Chivas j'm'étourdis Pierrot c'est l'affaire de ma vie J'ai l'brolique sous la terre Le brushing d'Anne Sinclair Les comiques j'les déterre, j'écoute à fond France Inter T es pas sage on te tabasse avant d'prendre l'apero C'est l'passage à tabac pour la bande à Pierrot Un carrelage, un quage-bra et il t'change la déco J'peux t'dire que j'pense à Pierrot même dans la chambre à Véro Ba voilà, t'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises on t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot C'est l'mélange Belmondo et Depardieu, Pierrot on l'appel encore Belmondieu À chaque quage-bra Jojo d'vait faire d'son mieux On avait des fusils à camembert somptueux Insérable on s'en sortait avec non lieu Dit pas merci si le liquide d'la banque asperge ton pieux La crème onctueuse du crime parisien On est d'venu des rois on avait quasi rien Peu d'concertation dans la bande à Pierrot Les bleus enregistraient nos conversations dans l'magneto Les coffres s'ouvraient à nous comme les rideaux du Lido C'est pour notre dernier coup qu'on c'est retrouvé ce soir dans ce bistrot Si tu nous croise dans un bar c'est qu'on élabore un plan... Si tu nous croise au shtar c'est qu'on est là pour 20 ans... Si tu nous croise au Escobar c'est qu'on élabore un plan... Si tu nous vois plein d'gent-ar c'est qu'on a fait sauté la banque...Jackpot sound J'suis véreux jusqu'au fion, trafic et corruption La carrure d'un bovin, j'ferme les yeux contre un pot d'vin Sans l'pot d'vin, j'suis l'5eme de la bande, oui ma grande, j'peux t'dire qu'à mon pote Pierrot j'lui fais pas qu'sauter ses amendes Ba voilà, t'es content, t'as gagné l'gros lot c'est moi Pierrot Y'a qu'à mon magot qu'j'aurais pu dire ''Te Quiero'' Les perdro j'leurs en ai fait chié des ronds d'chapeaux Si tu m'cherches des noises on t'met une toise, ça s'règle en deux coups d'cuillères à pot C'est un sacré numéro l'Pierrot, y'a pas d'heure pour prendre l'apéro dans la bande à Pierrot On touche a tout mais on vend pas d'héro dans la bande à Pierrot</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4080,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Jai commencé le rap, javais de la drogue dans ma cuisine Boites de conserve, cassoulet dans ma cuisine Plus les cousins enflammant leur sang avec de la bière allemande renversée sur les coussins Mon rap a lodeur des cuisses des cousines venues nous frire le poulet plus le riz Et les oignons marinés dans le citron, parrainé par le goudron Jai appris dans les vapeurs dafghan, avec mes potos foncedés be-belek Cqui me rappelait presque lodeur du poisson braisé Duffle-coat Cacharel bonnet Lacoste de côté Je voulais peser, juste être le premier à lfaire Etre passé par Yaoundé où les menottes nont pas de clés Entouré de Nico, échappé de la guerre du Congo Nos avions ont du scroiser calibrés pour défendre notre bongo Jai atterri parmi les lions du quartier, W ma dit tes trop monstre pour ne pas savoir rapper Mes potes ont tous eu le Teddy Old River Ils ont tous une tâche sur le front soit par la prière soit par un sniper Les bécanes senflamment comme dans Ghost Rider Jai perdu 2 potes lannée de Da Rockwilder ma gueule Dans quelques années qui mpilotera ? La haine du ptit Nicolas, peut-être la rage dêtre une tête mé-cra comme Niki Lauda On boit, on stue le corps car les go veulent des bottes en boa constrictor Jsors de la cage aux lions, pas de la cage aux folles Jdégobille mes tripes derrière le microphone Pour les taulards qui sastiquent le chibre comme un saxophone Jsuis beau comme une boite à outils Facom Fier de mon sourire en dents de scie, jsuis au taquet comme sous amphés Bombarde décolle pas le pied du champi, jai jamais vu la gueule dun amphi Vous parleriez des mêmes choses si vous chantiez You might also like Pourquoi les zaïrois shabillent en rouge ? Pour sfoutre de la gueule du diable en jouant avec ses cornes en mode toréador Si jai des Pégasus rouges mon pote Cest que Mobutu bicravait des AK-47 aux Bloods Il pleut du sang zincou et même avec mon petit mètre 70 je npasse pas entre les gouttes Les bijoutiers de Monaco me doivent un gros biff Ils ont fait racketter les diamants de mon bled contre un sac de riz BMW na pas de mérite La tôle et le gazole viennent pas de Munich mais dAfrique et dArabie Saoudite Cousin jsuis pas jaloux de ton Ferrari, jsuis pas une bandeuse Mais elle est rouge comme une machette rwandaise Jsuis la version zaïroise de Mick Jagger sans la dope Le dernier survivant de Bolide Stones Critique-moi, jplote ta maman France jsuis venu te mettre à lamende Fallait pas mlaisser regarder Blood Diamond Grandis entre, dose-dose, bolos bastos Macson parmi cas soc Mamadou Karim et Dos Santos Troque le cuir vachette contre un pare-balle la drogue les cachettes Commence le rap avec la dalle Tony Bamboula, dombolo hip hop Faire tourner la roue de force, oublie la tombola La colère depuis embryon puis foetus Enfant adolescent maintenant bonhomme Toujours peu de choses que j'tolère Comme un coup de tonnerre j'évolue Entre le bonheur et son contraire sheitan avec les mêmes confrères Dans l'game on veut m'rentrer l'anguille Que les producteurs aillent s'faire baiser le 100 mètres en talons aiguilles Money cash flow j'encule les couz, pas de nègres et de rabzouzes Ca broute la pelouse dont le son c'est le blues À nous la couronne, dans mon clan sautez vos tours ! Ne confonds jamais entre l'pélican et l'vautour Peut-être qu'on saigne trop Peut-être qu'on s'aime trop gros Pour un biff on explose comme la nitro La police sort les armes et part en impro C'est pas souvent qu'on s'confie Personne ne s'assiéra sur nos profits Esco, Gueko, Despo, Lalcko Diamants De Conflits Pour la street...</t>
+          <t>Jai commencé le rap, javais de la drogue dans ma cuisine Boites de conserve, cassoulet dans ma cuisine Plus les cousins enflammant leur sang avec de la bière allemande renversée sur les coussins Mon rap a lodeur des cuisses des cousines venues nous frire le poulet plus le riz Et les oignons marinés dans le citron, parrainé par le goudron Jai appris dans les vapeurs dafghan, avec mes potos foncedés be-belek Cqui me rappelait presque lodeur du poisson braisé Duffle-coat Cacharel bonnet Lacoste de côté Je voulais peser, juste être le premier à lfaire Etre passé par Yaoundé où les menottes nont pas de clés Entouré de Nico, échappé de la guerre du Congo Nos avions ont du scroiser calibrés pour défendre notre bongo Jai atterri parmi les lions du quartier, W ma dit tes trop monstre pour ne pas savoir rapper Mes potes ont tous eu le Teddy Old River Ils ont tous une tâche sur le front soit par la prière soit par un sniper Les bécanes senflamment comme dans Ghost Rider Jai perdu 2 potes lannée de Da Rockwilder ma gueule Dans quelques années qui mpilotera ? La haine du ptit Nicolas, peut-être la rage dêtre une tête mé-cra comme Niki Lauda On boit, on stue le corps car les go veulent des bottes en boa constrictor Jsors de la cage aux lions, pas de la cage aux folles Jdégobille mes tripes derrière le microphone Pour les taulards qui sastiquent le chibre comme un saxophone Jsuis beau comme une boite à outils Facom Fier de mon sourire en dents de scie, jsuis au taquet comme sous amphés Bombarde décolle pas le pied du champi, jai jamais vu la gueule dun amphi Vous parleriez des mêmes choses si vous chantiez Pourquoi les zaïrois shabillent en rouge ? Pour sfoutre de la gueule du diable en jouant avec ses cornes en mode toréador Si jai des Pégasus rouges mon pote Cest que Mobutu bicravait des AK-47 aux Bloods Il pleut du sang zincou et même avec mon petit mètre 70 je npasse pas entre les gouttes Les bijoutiers de Monaco me doivent un gros biff Ils ont fait racketter les diamants de mon bled contre un sac de riz BMW na pas de mérite La tôle et le gazole viennent pas de Munich mais dAfrique et dArabie Saoudite Cousin jsuis pas jaloux de ton Ferrari, jsuis pas une bandeuse Mais elle est rouge comme une machette rwandaise Jsuis la version zaïroise de Mick Jagger sans la dope Le dernier survivant de Bolide Stones Critique-moi, jplote ta maman France jsuis venu te mettre à lamende Fallait pas mlaisser regarder Blood Diamond Grandis entre, dose-dose, bolos bastos Macson parmi cas soc Mamadou Karim et Dos Santos Troque le cuir vachette contre un pare-balle la drogue les cachettes Commence le rap avec la dalle Tony Bamboula, dombolo hip hop Faire tourner la roue de force, oublie la tombola La colère depuis embryon puis foetus Enfant adolescent maintenant bonhomme Toujours peu de choses que j'tolère Comme un coup de tonnerre j'évolue Entre le bonheur et son contraire sheitan avec les mêmes confrères Dans l'game on veut m'rentrer l'anguille Que les producteurs aillent s'faire baiser le 100 mètres en talons aiguilles Money cash flow j'encule les couz, pas de nègres et de rabzouzes Ca broute la pelouse dont le son c'est le blues À nous la couronne, dans mon clan sautez vos tours ! Ne confonds jamais entre l'pélican et l'vautour Peut-être qu'on saigne trop Peut-être qu'on s'aime trop gros Pour un biff on explose comme la nitro La police sort les armes et part en impro C'est pas souvent qu'on s'confie Personne ne s'assiéra sur nos profits Esco, Gueko, Despo, Lalcko Diamants De Conflits Pour la street...</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Launch at one, three, two, one On ver-squi les dés-kis et leurs feux xénon Surtout qu'ces sales bâtards veulent des noms Quarante-huit heures d'garde-à-v', mon Dieu qu'c'est long Mais ces sales guenons sont en train d'réveiller mon putain d'démon Mais non, y a qu'pour l'Très Haut qu'j'm'incline, eh oh Saute pas à l'élastique avec un string léo' Dur d'garder ses mains clean, mais telle est la street Si tu croises la team Néo', mets la clim' frelon, oh J'dilapide l'euro, j'dynamite les mots Bim bim, c'est l'flow M.O.B.B, Maradona Diego Mon ghetto coup d'cur va au coupeur canne Néochrome c'est Counter-Strike, j'rappe et tes écouteurs crament, bleh J'aime les Croates qui maîtrisent la gâchette Les plats gale-Sén', les zient' qui détruisent les gratte-ciels J'aime voir un gars stock s'fait tordre par un gars sec Et les têtes de poucaves qui finissent dans la glacière J'aime quand on prépare un plan en s'ballant Apparemment, c'est accablant d'quer-bra la banque aux balles à blanc J'aime quand j'vais en boîte avec deux-trois bourrés Tu peux être sûr qu'avant la fermeture, ils jettent les tabourets J'aime les killa buz', ceux qui dealent la nuit, qui tétanisent Et placent les galettes comme les dynamites J'aime les cicatrices, le shit gratuit, les p'tites gâteries Les p'tits grandissent vite et s'retrouvent en psychiatrie You might also like Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh J'entends les p'tits frères qui gueulent, ça parle de fer, de Desert Eagle Vont leurs affaires, quand tu digères l'p'tit déj' Génération, qui met des baffes au psychologue Et des tâches de mafés sur le drapeau tricolore Frère, les p'tits branleurs tirent en l'air ou à blanc Sin-cou attends, c'est fini l'temps où j'faisais ma route sur la roue avant J'ai pété l'sample, Nakk A.K.A l'cancre Sale pédé, tentes pas d'ter-j', j'fais péter l'champ' D'la race inférieure inférieure, nique sa race, ça fait rien Ils sont rincés, frère, ils vont tracer comme Raffarin Tirer à balles réelles balles réelles C'est normal comme un gars du Barça qui gueule À bat l'Real Poto, faut pas qu'tu décolles trop, alors atterris Confonds pas les soldats du bitume avec Tex Avery Une balle dans l'boule, si tu joues les fous C'est mon dix-neuf qui vient t'sauter avant qu'je sorte mon artillerie Et j'viens pour casser du type, brasser du seille-', sauter la kasbah Placer des quilles, casser des ailes en guise de casse-dalle Ni queue ni tête, cousin, ni ppe-f' ni pèt' Moi, j'débarque comme le dirait, faut faire la guerre remplie comme Pasqua Passe-moi la clique magique, ma bite arrive dans les bacs Man, faut pas qu't'agis, Paris c'est pire que G.Unit C'est pleins d'tard-bâ, si ça parle mal Emcee, faut qu'on s'déchire au mi', blah blah Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Comme Fis.L, j'fuck l'Élysée, sa chatte poilue Donc j'rase tout avec la haine, avec la dalle, j'allume J'salue les frères qui sont vrais, qui souffraient Néochrome mon frère, une vision d'la street derrières des 2 frêles Quand il s'agit qu'tu m'payes, j'te rends la monnaie d'ta pièce Il a fallu qu'tu ramènes ta fraises pour que j'garde la pêche Coup d'coude, te-tar, d'mande à mon cous' quetard On reste stone, ter-ma l'appuie que t'as, j'te destroy J'te ramène du gros son, poto, à la Quiet Storm J'écoute M.O.B.B depuis les copies et les 501 stones Flow à la pilier, en mode Alain Billiet On oublie la bille pour faire des billets Nique les envieux, les jaloux Quand j'rappe, ces trous d'balle savourent J'veux être regretté comme Biggie Smalls et Tupac Shakur Une bière, un béd' et j'plaide coupable, j'avoue Y a toujours pas d'amour salope C'est pour les surs qui portent le foulard chaque jour Les frères qui font la prière, ceux qui touchent pas la schnouff Néochrome, mon groupe fracasse tout et évite les catastrophes Tu vas m'piper ma salope, là c'est signé Al K-Pote et tu l'sais Faut j'abrège donc hoche la tête et pose ta fesse Grosse tapette, n'ose pas test' le flow d'la té-c' cauchemardesque J'viens sodomiser ceux qui nous ont colonisé On est armé et on pénètre chez vous sans y être autoriser Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Alkpote, Nakk, Seth Gueko, Fis.L, Adès, N'Dal Néochrome, Yonea, paw paw</t>
+          <t>Launch at one, three, two, one On ver-squi les dés-kis et leurs feux xénon Surtout qu'ces sales bâtards veulent des noms Quarante-huit heures d'garde-à-v', mon Dieu qu'c'est long Mais ces sales guenons sont en train d'réveiller mon putain d'démon Mais non, y a qu'pour l'Très Haut qu'j'm'incline, eh oh Saute pas à l'élastique avec un string léo' Dur d'garder ses mains clean, mais telle est la street Si tu croises la team Néo', mets la clim' frelon, oh J'dilapide l'euro, j'dynamite les mots Bim bim, c'est l'flow M.O.B.B, Maradona Diego Mon ghetto coup d'cur va au coupeur canne Néochrome c'est Counter-Strike, j'rappe et tes écouteurs crament, bleh J'aime les Croates qui maîtrisent la gâchette Les plats gale-Sén', les zient' qui détruisent les gratte-ciels J'aime voir un gars stock s'fait tordre par un gars sec Et les têtes de poucaves qui finissent dans la glacière J'aime quand on prépare un plan en s'ballant Apparemment, c'est accablant d'quer-bra la banque aux balles à blanc J'aime quand j'vais en boîte avec deux-trois bourrés Tu peux être sûr qu'avant la fermeture, ils jettent les tabourets J'aime les killa buz', ceux qui dealent la nuit, qui tétanisent Et placent les galettes comme les dynamites J'aime les cicatrices, le shit gratuit, les p'tites gâteries Les p'tits grandissent vite et s'retrouvent en psychiatrie Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh J'entends les p'tits frères qui gueulent, ça parle de fer, de Desert Eagle Vont leurs affaires, quand tu digères l'p'tit déj' Génération, qui met des baffes au psychologue Et des tâches de mafés sur le drapeau tricolore Frère, les p'tits branleurs tirent en l'air ou à blanc Sin-cou attends, c'est fini l'temps où j'faisais ma route sur la roue avant J'ai pété l'sample, Nakk A.K.A l'cancre Sale pédé, tentes pas d'ter-j', j'fais péter l'champ' D'la race inférieure inférieure, nique sa race, ça fait rien Ils sont rincés, frère, ils vont tracer comme Raffarin Tirer à balles réelles balles réelles C'est normal comme un gars du Barça qui gueule À bat l'Real Poto, faut pas qu'tu décolles trop, alors atterris Confonds pas les soldats du bitume avec Tex Avery Une balle dans l'boule, si tu joues les fous C'est mon dix-neuf qui vient t'sauter avant qu'je sorte mon artillerie Et j'viens pour casser du type, brasser du seille-', sauter la kasbah Placer des quilles, casser des ailes en guise de casse-dalle Ni queue ni tête, cousin, ni ppe-f' ni pèt' Moi, j'débarque comme le dirait, faut faire la guerre remplie comme Pasqua Passe-moi la clique magique, ma bite arrive dans les bacs Man, faut pas qu't'agis, Paris c'est pire que G.Unit C'est pleins d'tard-bâ, si ça parle mal Emcee, faut qu'on s'déchire au mi', blah blah Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Comme Fis.L, j'fuck l'Élysée, sa chatte poilue Donc j'rase tout avec la haine, avec la dalle, j'allume J'salue les frères qui sont vrais, qui souffraient Néochrome mon frère, une vision d'la street derrières des 2 frêles Quand il s'agit qu'tu m'payes, j'te rends la monnaie d'ta pièce Il a fallu qu'tu ramènes ta fraises pour que j'garde la pêche Coup d'coude, te-tar, d'mande à mon cous' quetard On reste stone, ter-ma l'appuie que t'as, j'te destroy J'te ramène du gros son, poto, à la Quiet Storm J'écoute M.O.B.B depuis les copies et les 501 stones Flow à la pilier, en mode Alain Billiet On oublie la bille pour faire des billets Nique les envieux, les jaloux Quand j'rappe, ces trous d'balle savourent J'veux être regretté comme Biggie Smalls et Tupac Shakur Une bière, un béd' et j'plaide coupable, j'avoue Y a toujours pas d'amour salope C'est pour les surs qui portent le foulard chaque jour Les frères qui font la prière, ceux qui touchent pas la schnouff Néochrome, mon groupe fracasse tout et évite les catastrophes Tu vas m'piper ma salope, là c'est signé Al K-Pote et tu l'sais Faut j'abrège donc hoche la tête et pose ta fesse Grosse tapette, n'ose pas test' le flow d'la té-c' cauchemardesque J'viens sodomiser ceux qui nous ont colonisé On est armé et on pénètre chez vous sans y être autoriser Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Yeah, c'est la course à la maille Nous, on lâche des caisses pendant les fouilles anales Wesh, elle est où la maille ? On la cherche toute la night Les keufs jouent les Michael Knight, on a des mitraillettes Nike, bleh Alkpote, Nakk, Seth Gueko, Fis.L, Adès, N'Dal Néochrome, Yonea, paw paw</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4114,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>The Family The Family The Family La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs Cest parce que tes beau quta mère supporte ses vergetures Tes bien lfils à ton père, à 2 ans tas djà la verge dure Marie-toi à une vierge pure ! Pas celle qui squatte les boîtes jusquà la fermeture Car une fille sans hymen, c'est comme du riz sans arôme Maggi Pour les baiser je t'aime est le mot magique J't'apprendrai pas comment on nique garçon Ce son, c'est des conseils pour plus tard si on a une couille de communication Garçon n'essaie pas de monter le ton Sur moi ou sur ta mère, ou j'vais t'démonter l'menton Tu m'entends ? J'veux qu'mon enfant prie Et quitte à pécher, deviens affranchi Plutôt qu'le caissier d'un Franprix Nidolâtre pas le dieu States, ils n'ont rien pu face aux Viets Si t'aimes les mitraillettes, c'est parce que t'as du sang Soviet J'ai pas fait une mauviette, fais honneur à ma paire d'illes-cou Mets toujours l'premier et l'dernier coup ! J'veux un fils posé, qu'on puisse causer La force pas si elle est indisposée Mais parle-lui ! Comme un mec épanoui Fais pas d'cambriolage tant qu'il fait pas nuit ! Mon enfant défends-toi Si on t'offense, plante-le de sang froid ! Plante-le 200 fois dans son foie ! Écoute ton rep's Prends pas les places de parking Cotorep Mais envoie des mandats à tous tes potes au habs You might also like La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs Fais honneur à la famille Salvadori Ta mère va adorer si tu l'embrasses quand elle s'en va dormir Et t'arrêtes pas au BEP ! Ou très vite tu voudras mettre d'la TNT dans une BNP Pour mieux fuir la BRB, inscris-toi à l'endurance Et condamne les balances à lambulance Donne pas ta confiance, au poste pas un mot Fouille pas dans ma chambre pour trouver des pornos, j'suis parano Appelle-moi papa , mais pas par mon prénom, ou maman t'bottera l'cul avec ses mapapas Rapporte-moi des cahiers soignés de bonnes notes Et qu'j'te trouve pas dans l'escalier les poignets serrés de menottes On s'rappelle que d'ceux qui pètent et rotent en cours Mets pas trop d'carottes, regarde où a fini De Rocancourt C'est, bientôt votre tour Marche pas à Paris avec une go en mini-jupe, y'a bien trop d'vautours Bien trop d'requins sur l'terrain Bois pas trop d'coca, veille sur tes reins Car au poste ils voudront pas t'laisser pisser Tu ressortiras du lycée qu'si t'as des récépissés Ils sont tous vicieux, gynécos ou masseurs Commence dès maintenant à dire touche pas à ma sur ! Eh ouais fils d'Adam, résiste si Iblis te tente ! Sur cette terre le vice t'attend La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs</t>
+          <t>The Family The Family The Family La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs Cest parce que tes beau quta mère supporte ses vergetures Tes bien lfils à ton père, à 2 ans tas djà la verge dure Marie-toi à une vierge pure ! Pas celle qui squatte les boîtes jusquà la fermeture Car une fille sans hymen, c'est comme du riz sans arôme Maggi Pour les baiser je t'aime est le mot magique J't'apprendrai pas comment on nique garçon Ce son, c'est des conseils pour plus tard si on a une couille de communication Garçon n'essaie pas de monter le ton Sur moi ou sur ta mère, ou j'vais t'démonter l'menton Tu m'entends ? J'veux qu'mon enfant prie Et quitte à pécher, deviens affranchi Plutôt qu'le caissier d'un Franprix Nidolâtre pas le dieu States, ils n'ont rien pu face aux Viets Si t'aimes les mitraillettes, c'est parce que t'as du sang Soviet J'ai pas fait une mauviette, fais honneur à ma paire d'illes-cou Mets toujours l'premier et l'dernier coup ! J'veux un fils posé, qu'on puisse causer La force pas si elle est indisposée Mais parle-lui ! Comme un mec épanoui Fais pas d'cambriolage tant qu'il fait pas nuit ! Mon enfant défends-toi Si on t'offense, plante-le de sang froid ! Plante-le 200 fois dans son foie ! Écoute ton rep's Prends pas les places de parking Cotorep Mais envoie des mandats à tous tes potes au habs La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs Fais honneur à la famille Salvadori Ta mère va adorer si tu l'embrasses quand elle s'en va dormir Et t'arrêtes pas au BEP ! Ou très vite tu voudras mettre d'la TNT dans une BNP Pour mieux fuir la BRB, inscris-toi à l'endurance Et condamne les balances à lambulance Donne pas ta confiance, au poste pas un mot Fouille pas dans ma chambre pour trouver des pornos, j'suis parano Appelle-moi papa , mais pas par mon prénom, ou maman t'bottera l'cul avec ses mapapas Rapporte-moi des cahiers soignés de bonnes notes Et qu'j'te trouve pas dans l'escalier les poignets serrés de menottes On s'rappelle que d'ceux qui pètent et rotent en cours Mets pas trop d'carottes, regarde où a fini De Rocancourt C'est, bientôt votre tour Marche pas à Paris avec une go en mini-jupe, y'a bien trop d'vautours Bien trop d'requins sur l'terrain Bois pas trop d'coca, veille sur tes reins Car au poste ils voudront pas t'laisser pisser Tu ressortiras du lycée qu'si t'as des récépissés Ils sont tous vicieux, gynécos ou masseurs Commence dès maintenant à dire touche pas à ma sur ! Eh ouais fils d'Adam, résiste si Iblis te tente ! Sur cette terre le vice t'attend La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Faut même pas les cher-cher La famille, la famille, cest des gens chers Cest le sang de mon sang, la chair de ma chair La famille, la famille, cest inestimable aux enchères Pour eux jy laisserais sang et chairs</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4131,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>J'peux vous garantir Q'ça va être pire que la bande à Bonnot dans la rue Ordener! Ok! Blarh, blarh! J'ai l'même Smith et Weston que Babyface Nelson La même traillette-mi qu'Machine gun Kelly D'vant l'radar on fait des stoppis en Benely Interpol veut nous ligoter au Chatterton Même les keufs du tieks n'osent plus gifler personne Un coup d'fil et ils démissionnent J'dors en chien d'faïence avec une Rémington Ouais mes potes on a passé l'alliance Niveau finance on tolère aucune défaillance Pour l'ambiance c'est et brelic Rien à envier aux anciens A mon deuil j'veux un corbillard hydraulique Les kilos d'shits cachés sous l'matelas Mérinos Nous emmènera faire du sky nautique à Torremolinos Tu sais c'qu'il dit l'cassos Qui veut rouler en Classe S alors qu'il a que l'permis d'CACES On a l'faciès du salaud Mais on porte la ch'mise comme des patrons pas comme les serveurs du Buffalo On traîne des fardauds Ils ont mis nos familles dans des boîtes à sardines, demande à Azzedine On a des colonnes vertébrales de chameaux Le dos tordu à cause des boîtes d'intérims C'est toujours mieux qu'd'avoir la cervelle en marshmallo Narvalo J'ai pas b'soin d'l'adrénaline De la coko végétale de Pablo J'nique les potos fédérals de Sarko Zdedededexxx You might also like Y'a eu l'gang des postiches, les frères Guitare, les anciens d'ma tess, et maintenant y'a L'fils caché d'Jacques Mess Y'a eu la bande à Marcus, le parcos, tiex, Néochrome Gangs et maintenant y'a L'fils caché d'Jacques Mess Y'a pas l'adresse du casse du siècle dans les G-P-S Si t'as un plan, tiens moi au jus comme E-D-F Si t'es la nourrice qui cache chez elle le bénef Reste pas perplexe si on t'saucisonne au Serflex Ca fait Zdededex pour tout mes potogos Qui viennent du Monténégro et du Kosovo Qui mettent des pompes en peau d'varan d'Komodo La voix cassée à cause des fumées des Montécristo petit J'ai autant d'remords que Youri Orlov Si on fait des trous dans l'jardin c'est pas pour jouer au golf Tous les chemins mènent au Fort Knox On fait pas gonfler ses couilles et son compte bancaire avec du botox Les lois j'm'en bats les bollocks J'meurs à ptit feu à chaque tic tac de l'horloge J'rappe comme j'braque fingers in the noise Allons blanchir l'gent-ar chez General motors Be-be-be blah! Ouais, le fils caché d'Jacques Mes'! Y'a eu Hellegouarche, Rocancourt, la famille Haussmann Wesh man, Knokelpis, Beaujour Aïeee! Crime rime Le cul entre deux chase Grim Team Têtes carbonisées, têtes brûlées, têtes rodaves, têtes grillées! Seth Gueko Neochrome Gangs</t>
+          <t>J'peux vous garantir Q'ça va être pire que la bande à Bonnot dans la rue Ordener! Ok! Blarh, blarh! J'ai l'même Smith et Weston que Babyface Nelson La même traillette-mi qu'Machine gun Kelly D'vant l'radar on fait des stoppis en Benely Interpol veut nous ligoter au Chatterton Même les keufs du tieks n'osent plus gifler personne Un coup d'fil et ils démissionnent J'dors en chien d'faïence avec une Rémington Ouais mes potes on a passé l'alliance Niveau finance on tolère aucune défaillance Pour l'ambiance c'est et brelic Rien à envier aux anciens A mon deuil j'veux un corbillard hydraulique Les kilos d'shits cachés sous l'matelas Mérinos Nous emmènera faire du sky nautique à Torremolinos Tu sais c'qu'il dit l'cassos Qui veut rouler en Classe S alors qu'il a que l'permis d'CACES On a l'faciès du salaud Mais on porte la ch'mise comme des patrons pas comme les serveurs du Buffalo On traîne des fardauds Ils ont mis nos familles dans des boîtes à sardines, demande à Azzedine On a des colonnes vertébrales de chameaux Le dos tordu à cause des boîtes d'intérims C'est toujours mieux qu'd'avoir la cervelle en marshmallo Narvalo J'ai pas b'soin d'l'adrénaline De la coko végétale de Pablo J'nique les potos fédérals de Sarko Zdedededexxx Y'a eu l'gang des postiches, les frères Guitare, les anciens d'ma tess, et maintenant y'a L'fils caché d'Jacques Mess Y'a eu la bande à Marcus, le parcos, tiex, Néochrome Gangs et maintenant y'a L'fils caché d'Jacques Mess Y'a pas l'adresse du casse du siècle dans les G-P-S Si t'as un plan, tiens moi au jus comme E-D-F Si t'es la nourrice qui cache chez elle le bénef Reste pas perplexe si on t'saucisonne au Serflex Ca fait Zdededex pour tout mes potogos Qui viennent du Monténégro et du Kosovo Qui mettent des pompes en peau d'varan d'Komodo La voix cassée à cause des fumées des Montécristo petit J'ai autant d'remords que Youri Orlov Si on fait des trous dans l'jardin c'est pas pour jouer au golf Tous les chemins mènent au Fort Knox On fait pas gonfler ses couilles et son compte bancaire avec du botox Les lois j'm'en bats les bollocks J'meurs à ptit feu à chaque tic tac de l'horloge J'rappe comme j'braque fingers in the noise Allons blanchir l'gent-ar chez General motors Be-be-be blah! Ouais, le fils caché d'Jacques Mes'! Y'a eu Hellegouarche, Rocancourt, la famille Haussmann Wesh man, Knokelpis, Beaujour Aïeee! Crime rime Le cul entre deux chase Grim Team Têtes carbonisées, têtes brûlées, têtes rodaves, têtes grillées! Seth Gueko Neochrome Gangs</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment Bébé, tes trop fraîche, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Tas les yeux qui scintillent comme deux pépites dor Tu mempêches de mi-dor, tu tvois déjà chez Baby Dior Ten veux encore, tas cru quhier jétais deux Tu me vouvoies et me dis Merci, messieurs Je fais cque je peux, je fais cque je veux Si tu mrends dingue je sors le flingue Quand tu veux, le sèche-cheveux Mes gars la veulent, mes gars lauront Elle est petite sirène, je suis mégalodon Jsuis macho, je sais qucest vilain Mais on nest jamais mieux au chaud que dans un sexe féminin Moi, barbare comme Conan Toi, retirer beujs du collant Toi dépenser thunes pour meuf du moment Moi faire muscu pour être le buf du moment You might also like Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment Sur la tête de ma mère Ses eins, son gros cul les rendent fous Gros, il faut quje gère car tout le monde parle delle tout dun coup Cest une question dtemps, ils vont oublier ton dossier Jte jure, wAllahi, impossible dparler dson boule sans être grossier Ils parlent trop mais ils ont aucune logique 6 mois dtchatche avant dla baiser Après ils svantent entre eux Mais cest pas parce que tu ken qutes une tasse-pé Tinquiète, tinquiète, tinquiète Viens par ici, on va prendre soin dtoi Les écoute pas, les écoutes pas Ils sont sur ton cas x2 Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment</t>
+          <t>Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment Bébé, tes trop fraîche, tes trop clean Pas dpoils, pas dmicrobes, donc jaime les meufs qui sépilent Tas les yeux qui scintillent comme deux pépites dor Tu mempêches de mi-dor, tu tvois déjà chez Baby Dior Ten veux encore, tas cru quhier jétais deux Tu me vouvoies et me dis Merci, messieurs Je fais cque je peux, je fais cque je veux Si tu mrends dingue je sors le flingue Quand tu veux, le sèche-cheveux Mes gars la veulent, mes gars lauront Elle est petite sirène, je suis mégalodon Jsuis macho, je sais qucest vilain Mais on nest jamais mieux au chaud que dans un sexe féminin Moi, barbare comme Conan Toi, retirer beujs du collant Toi dépenser thunes pour meuf du moment Moi faire muscu pour être le buf du moment Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment Sur la tête de ma mère Ses eins, son gros cul les rendent fous Gros, il faut quje gère car tout le monde parle delle tout dun coup Cest une question dtemps, ils vont oublier ton dossier Jte jure, wAllahi, impossible dparler dson boule sans être grossier Ils parlent trop mais ils ont aucune logique 6 mois dtchatche avant dla baiser Après ils svantent entre eux Mais cest pas parce que tu ken qutes une tasse-pé Tinquiète, tinquiète, tinquiète Viens par ici, on va prendre soin dtoi Les écoute pas, les écoutes pas Ils sont sur ton cas x2 Cest la meuf du moment Tous les mecs rêvent de tken Pour trois ou quatre semaines Tes la meuf du moment Cest la meuf du moment Personne navait remarqué Soudainement au quartier Cest la meuf du moment Cest la meuf du moment</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4165,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>On sort dehors dès qu'la lune apparaît C'est beaucoup mieux pour s'accaparer La recette d'un gérant d'cabaret On n'est pas des marchands d'meubles ça tire dans les genoux La nuit on marche en meute comme les jeunes loups La nuit, les gens d'ta rue piquent tes jantes alu Belek ou les darmes-gen t'allument et t'tèj dans l'talus On vit la nuit comme des vampires Willy Willy on empile les cadavres de William Peel La nuit les p'tits attendent le marchand d'sable Pendant qu'on fait d'l'argent sale Mais ça les darmes-gen l'savent La nuit les maris pêchent, emmènent leurs maîtresses à lhôtel Ibis La nuit on s'fait envouter par Iblis La nuit on n'est pas gentil On mettrait bien d'la chantilly sur la chatte d'Ashanti La nuit on louche sur l'casino d'Enghien J'suis quasi-mort frangin J'ai d'la Smirnoff dans les vaisseaux sanguins La nuit les mecs de son-pri enragent De pas avoir compris qu'l'orage est favorable pour les cambriolages La nuit j'suis un arracheur de dents La nuit changes les gos en tass mais comptes pas ma sur dedans La nuit dans les sous-sols on s'isole Et les poucaves on les saucissonne à la Francis Heaulme La nuit on creuse des trous pour cher-ca l'blé Et on rentre chez nous pour regarder les chaînes câblées You might also like C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transac' où personne meurt Cette nuit encore plein d'numéros d'écrous Si j'mets l'fut d'un keuf il sera trop p'tit au niveau des couilles La nuit nous on fout l'wai en boîte Et si on t'droite c'est qu'la nuit dernière on a regardé Ong Bak J'peux pas m'empêcher de commettre le désastre Même si des anges me guettent du haut des comètes et des astres J'fais plus que déraper J'suis à l'aube de la violence au crépuscule de la paix C'est la nuit qu'circule les scal-pa les drogues dures Mes scarlas sont nocturnes et escaladent les clôtures La nuit on remaquille les voitures avec la peinture Ripolin La nuit tu t'fais égorger par Thierry Paulin T'façon la son-pri c'est un remède à rien On devrait faire des IVG sur les res-mè d'aryens J'fourre mon bout d'de-vian dans la bouche des végétariens Bon prince, on fournit les taz avec de l'eau d'Evian Si j'avais des preuves j'vous les fournirait Mais c'est la nuit qu'hurlaient les victimes de Michel Fourniret Fais pas la mignonne devant Émile Louis Dans les rues de l'Yonne surtout quand il est minuit La nuit j'suis mi-homme mi-carnassier Et l'lendemain matin tu retrouves tous les cadenas sciés Et même si je crois l'livre des arabes Starfallah la nuit j'neutralise les alarmes C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt</t>
+          <t>On sort dehors dès qu'la lune apparaît C'est beaucoup mieux pour s'accaparer La recette d'un gérant d'cabaret On n'est pas des marchands d'meubles ça tire dans les genoux La nuit on marche en meute comme les jeunes loups La nuit, les gens d'ta rue piquent tes jantes alu Belek ou les darmes-gen t'allument et t'tèj dans l'talus On vit la nuit comme des vampires Willy Willy on empile les cadavres de William Peel La nuit les p'tits attendent le marchand d'sable Pendant qu'on fait d'l'argent sale Mais ça les darmes-gen l'savent La nuit les maris pêchent, emmènent leurs maîtresses à lhôtel Ibis La nuit on s'fait envouter par Iblis La nuit on n'est pas gentil On mettrait bien d'la chantilly sur la chatte d'Ashanti La nuit on louche sur l'casino d'Enghien J'suis quasi-mort frangin J'ai d'la Smirnoff dans les vaisseaux sanguins La nuit les mecs de son-pri enragent De pas avoir compris qu'l'orage est favorable pour les cambriolages La nuit j'suis un arracheur de dents La nuit changes les gos en tass mais comptes pas ma sur dedans La nuit dans les sous-sols on s'isole Et les poucaves on les saucissonne à la Francis Heaulme La nuit on creuse des trous pour cher-ca l'blé Et on rentre chez nous pour regarder les chaînes câblées C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transac' où personne meurt Cette nuit encore plein d'numéros d'écrous Si j'mets l'fut d'un keuf il sera trop p'tit au niveau des couilles La nuit nous on fout l'wai en boîte Et si on t'droite c'est qu'la nuit dernière on a regardé Ong Bak J'peux pas m'empêcher de commettre le désastre Même si des anges me guettent du haut des comètes et des astres J'fais plus que déraper J'suis à l'aube de la violence au crépuscule de la paix C'est la nuit qu'circule les scal-pa les drogues dures Mes scarlas sont nocturnes et escaladent les clôtures La nuit on remaquille les voitures avec la peinture Ripolin La nuit tu t'fais égorger par Thierry Paulin T'façon la son-pri c'est un remède à rien On devrait faire des IVG sur les res-mè d'aryens J'fourre mon bout d'de-vian dans la bouche des végétariens Bon prince, on fournit les taz avec de l'eau d'Evian Si j'avais des preuves j'vous les fournirait Mais c'est la nuit qu'hurlaient les victimes de Michel Fourniret Fais pas la mignonne devant Émile Louis Dans les rues de l'Yonne surtout quand il est minuit La nuit j'suis mi-homme mi-carnassier Et l'lendemain matin tu retrouves tous les cadenas sciés Et même si je crois l'livre des arabes Starfallah la nuit j'neutralise les alarmes C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4182,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Dernier pochon, distributeur automatique Un bon billet qui tombe à pic Jordan 6, automatique Cette merde est folle, cette merde est folle Les bénévoles, on les traumatise Da Vinci coke, les bourgeois retrouvent le sourire comme Mona Lisa Vincent Van Drogh, Claude Money-Money, tu nous connais OG Kush, Purple Kush, jusqu'à s'époumoner Cowabunga, anaconda dans vos bondas, filho de puta On passe la nuit à Me-da mais pas pour l'gouda Si si, j'arrive à pic Clic clic, l'automatique Vas-y rapplique avec tes potos pour qu'ils me photographient L'heure du souper, l'heure du ragoût bang bang évite les jaloux bang bang pas d'sujets tabous bang bang la nuit est à nous Pousse le volume, fais chier les voisins Profite de la nuit jusqu'au matin Substance illicite dans le larynx J'écris des chansons comme Georges Brassens C'est Néochrome dans tes oreilles Sous la pleine lune, dans la forêt J'vais m'évaporer comme la fumée qui s'échappe de mon méga cornet You might also like Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Dans mon équipe, y'a pas d'loup mais y'a encore moins de tapettes fragiles On conditionne, on détaille dans l'tieks des plaquettes d'argile Mon courage sort de mes couilles, pas d'un putain d'sachet d'farine Faut qu'vous l'sachiez, j'ai la gâchette et la braguette facile Ils sont choqués quand ils m'entendent et quand ils lisent mes rimes Ça sert à rien d'faire l'mec viril, surtout si t'es stérile J'rappe sale, après un couplet, faut que j'bois d'la Listerine Casse-toi tu pues et marche à l'ombre, fais péter les livres sterlings Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Hola, namaste, la nuit m'appartient, tes potos paniquent Oh my Godness, antibiotique automatique La nuit ressortent mes sales manies d'blédard Dolce Katana, Emporio Armani Nejad Le game est rempli d'trous d'balles, j'ai l'rôle du suppositoire J'suis dans l'futur, moi, j'fais des rêves postmonitoires J'suis venu vous gifler sans scrupules comme dans Koh lanta Dans l'rap français y'a trop d'quilles... Bowling for Columbine J'viens t'peter les phalanges, ouais, percer méchamment J'suis l'sagittaire qui baise les vierges et les balances J'ai une faim d'loup, j'viens manger mère-grand Tous ces rappeurs sont en plastique... Bertrand Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang</t>
+          <t>Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Dernier pochon, distributeur automatique Un bon billet qui tombe à pic Jordan 6, automatique Cette merde est folle, cette merde est folle Les bénévoles, on les traumatise Da Vinci coke, les bourgeois retrouvent le sourire comme Mona Lisa Vincent Van Drogh, Claude Money-Money, tu nous connais OG Kush, Purple Kush, jusqu'à s'époumoner Cowabunga, anaconda dans vos bondas, filho de puta On passe la nuit à Me-da mais pas pour l'gouda Si si, j'arrive à pic Clic clic, l'automatique Vas-y rapplique avec tes potos pour qu'ils me photographient L'heure du souper, l'heure du ragoût bang bang évite les jaloux bang bang pas d'sujets tabous bang bang la nuit est à nous Pousse le volume, fais chier les voisins Profite de la nuit jusqu'au matin Substance illicite dans le larynx J'écris des chansons comme Georges Brassens C'est Néochrome dans tes oreilles Sous la pleine lune, dans la forêt J'vais m'évaporer comme la fumée qui s'échappe de mon méga cornet Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Dans mon équipe, y'a pas d'loup mais y'a encore moins de tapettes fragiles On conditionne, on détaille dans l'tieks des plaquettes d'argile Mon courage sort de mes couilles, pas d'un putain d'sachet d'farine Faut qu'vous l'sachiez, j'ai la gâchette et la braguette facile Ils sont choqués quand ils m'entendent et quand ils lisent mes rimes Ça sert à rien d'faire l'mec viril, surtout si t'es stérile J'rappe sale, après un couplet, faut que j'bois d'la Listerine Casse-toi tu pues et marche à l'ombre, fais péter les livres sterlings Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Hola, namaste, la nuit m'appartient, tes potos paniquent Oh my Godness, antibiotique automatique La nuit ressortent mes sales manies d'blédard Dolce Katana, Emporio Armani Nejad Le game est rempli d'trous d'balles, j'ai l'rôle du suppositoire J'suis dans l'futur, moi, j'fais des rêves postmonitoires J'suis venu vous gifler sans scrupules comme dans Koh lanta Dans l'rap français y'a trop d'quilles... Bowling for Columbine J'viens t'peter les phalanges, ouais, percer méchamment J'suis l'sagittaire qui baise les vierges et les balances J'ai une faim d'loup, j'viens manger mère-grand Tous ces rappeurs sont en plastique... Bertrand Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang Pousse le volume ! Ce soir la nuit nous appartient Pousse le volume ! Ça fait bang bang bang bang</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4199,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>On sort dehors dès qu'la lune apparaît C'est beaucoup mieux pour s'accaparer la recette d'un gérant d'cabaret On n'est pas des marchands d'meubles ça tire dans les genoux La nuit on marche en meute comme les jeunes loups La nuit, les gens d'ta rue piquent tes jantes alu Belek ou les darmes-gen t'allument et t'tèj dans l'talus On vit la nuit comme des vampires Willy Willy on empile les cadavres de William Peel La nuit les p'tits attendent le marchand d'sable Pendant qu'on fait d'l'argent sale mais ça les darmes-gen l'savent La nuit les maris pêchent, emmènent leurs maîtresses à lhôtel Ibis La nuit on s'fait envouter par Iblis La nuit on n'est pas gentil On mettrait bien d'la chantilly sur la chatte d'Ashanti La nuit on louche sur l'casino d'Enghien J'suis quasi-mort frangin, j'ai d'la Smirnoff dans les vaisseaux sanguins La nuit les mecs de son-pri enragent De pas avoir compris qu'l'orage est favorable pour les cambriolages La nuit j'suis un arracheur de dents La nuit changes les gos en tass mais comptes pas ma sur dedans La nuit dans les sous-sols on s'isole Et les poucaves on les saucissonne à la Francis Heaulme La nuit on creuse des trous pour cher-ca l'blé Et on rentre chez nous pour regarder les chaînes câblées You might also like C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transac' où personne meurt C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt Cette nuit encore plein d'numéros d'écrous Si j'mets l'fut d'un keuf il sera trop p'tit au niveau des couilles La nuit nous on fout l'wai en boîte Et si on t'droite c'est qu'la nuit dernière on a regardé Ong Bak J'peux pas m'empêcher de commettre le désastre Même si des anges me guettent du haut des comètes et des astres J'fais plus que déraper J'suis à l'aube de la violence au crépuscule de la paix C'est la nuit qu'circule les scal-pa les drogues dures Mes scarlas sont nocturnes et escaladent les clôtures La nuit on remaquille les voitures avec la peinture Ripolin La nuit tu t'fais égorger par Thierry Paulin T'façon la son-pri c'est un remède à rien On devrait faire des IVG sur les res-mè d'aryens J'fourre mon bout d'de-vian dans la bouche des végétariens Bon prince, on fournit les taz avec de l'eau d'Evian Si j'avais des preuves j'vous les fournirait Mais c'est la nuit qu'hurlaient les victimes de Michel Fourniret Fais pas la mignonne devant Émile Louis Dans les rues de l'Yonne surtout quand il est minuit La nuit j'suis mi-homme mi-carnassier Et l'lendemain matin tu retrouves tous les cadenas sciés Et même si je crois l'livre des arabes Starfallah la nuit j'neutralise les alarmes C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt</t>
+          <t>On sort dehors dès qu'la lune apparaît C'est beaucoup mieux pour s'accaparer la recette d'un gérant d'cabaret On n'est pas des marchands d'meubles ça tire dans les genoux La nuit on marche en meute comme les jeunes loups La nuit, les gens d'ta rue piquent tes jantes alu Belek ou les darmes-gen t'allument et t'tèj dans l'talus On vit la nuit comme des vampires Willy Willy on empile les cadavres de William Peel La nuit les p'tits attendent le marchand d'sable Pendant qu'on fait d'l'argent sale mais ça les darmes-gen l'savent La nuit les maris pêchent, emmènent leurs maîtresses à lhôtel Ibis La nuit on s'fait envouter par Iblis La nuit on n'est pas gentil On mettrait bien d'la chantilly sur la chatte d'Ashanti La nuit on louche sur l'casino d'Enghien J'suis quasi-mort frangin, j'ai d'la Smirnoff dans les vaisseaux sanguins La nuit les mecs de son-pri enragent De pas avoir compris qu'l'orage est favorable pour les cambriolages La nuit j'suis un arracheur de dents La nuit changes les gos en tass mais comptes pas ma sur dedans La nuit dans les sous-sols on s'isole Et les poucaves on les saucissonne à la Francis Heaulme La nuit on creuse des trous pour cher-ca l'blé Et on rentre chez nous pour regarder les chaînes câblées C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transac' où personne meurt C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt Cette nuit encore plein d'numéros d'écrous Si j'mets l'fut d'un keuf il sera trop p'tit au niveau des couilles La nuit nous on fout l'wai en boîte Et si on t'droite c'est qu'la nuit dernière on a regardé Ong Bak J'peux pas m'empêcher de commettre le désastre Même si des anges me guettent du haut des comètes et des astres J'fais plus que déraper J'suis à l'aube de la violence au crépuscule de la paix C'est la nuit qu'circule les scal-pa les drogues dures Mes scarlas sont nocturnes et escaladent les clôtures La nuit on remaquille les voitures avec la peinture Ripolin La nuit tu t'fais égorger par Thierry Paulin T'façon la son-pri c'est un remède à rien On devrait faire des IVG sur les res-mè d'aryens J'fourre mon bout d'de-vian dans la bouche des végétariens Bon prince, on fournit les taz avec de l'eau d'Evian Si j'avais des preuves j'vous les fournirait Mais c'est la nuit qu'hurlaient les victimes de Michel Fourniret Fais pas la mignonne devant Émile Louis Dans les rues de l'Yonne surtout quand il est minuit La nuit j'suis mi-homme mi-carnassier Et l'lendemain matin tu retrouves tous les cadenas sciés Et même si je crois l'livre des arabes Starfallah la nuit j'neutralise les alarmes C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt C'est la nuit qu'sortent mes hustlers Mes racketteurs, mes dealers, mes braqueurs, mes disquetteurs, mes receleurs Minuit pour eux c'est l'heure du crime Des quages-bra, dépouillant, des transacs où personne meurt</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4216,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Yeah ! Barillet Plein ! Freko Ding, Seth Gueko, Aimé N'dal Ouais c'est la rage du bitume, ma caille qui froisse l'instru J'donne c'que j'peux pendant que certains donnent leur cul Ouais négro t'as vu, j'en ai vu de toutes les couleurs Ces gueules de trav' qui ressemblent à des grosses tumeurs Ça sent le mollusque au fond du string de ces gadjis Et toi tu t'demandes Mais là Freko, il parle de qui ? Jnachète pas d'skeud car, ça sent la rotte-ca J'le sens en écoutant qu'ya même pas 3 semaines de vail-tra Ton rap, il m'fait penser à une caisse pliée Après l'avoir rodée et brulée, on l'a enculé Ouaiiiis ouais ! C'est Freko la caille L'haleine qui pue l'sky, hey ! Fini l'époque des canailles Les shtars entre nos blocs claquent des fesses Et comme le chien, montrent les dents et puis t'agressent F.R.E.K.O C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto You might also like Ils m'envient pourtant jsuis qu'une future ex-star Évite-moi quand je suis sous sky et ecsta C'est l'extase quand les ptits pètent un Selecta Et vu qu'assez risqué comme quette-plan, fais belek à ta quette-pla ! Yo ! Chaque été on raquette en quettes-cla Masta, j'ai envie d'shneck Carmen Electara Pas dcarte électorale, non, non! J'ai qu' 3 mm sur l'crâne et une paire dCartier, donc t'auras Toutes les rayures du soleil J'ai envie dcrever son il, on fait la maille quand tu sommeilles J'aime personne et jm'en bats si personne m'aime Lignorance, c'est pas avant la violence que mes yeux lancent Mfais pas confiance, jsuis misanthrope Une prison propre sera toujours plus sale qu'une maison de proc' Celle quj'ai mise en cloque n'a rien d'Elvira Hancock Elle mpoucave si pour dla coke je vis à Bangkok Mec, j'm'en bats les couilles si personne m'aime J'lâche des rimes antipersonnel et ton Boeing perd son aile Masta masta ! C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto Génération coupe-gorge aux porcs et à leurs lampes torches J'ai balayé trop fort la juge, j'lui ai fait une entorse Fais l'effort de marcher droit dans la street ! Y'en a qui braquent, d'autres qui crisent, ils s'en battent de ma zik J'rappe sans diplomatie, une arrivée massive... Refous ma leçon que jle calcine J'puise dans mes racines, jpisse sur leur race Oui ! J'ferai ma peine jusqu'à quj'ai signé mes grâces Whisky dans la carafe, histoire de péter la baraque Le son fait rhaff de-spee, comme une putain d'Ferrari Ici c'est Paris, c'est bouillant, c'est aride On veut des barres et du pétrole en baril C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto Yous-voi ! Cailles-ra ! Escrocs ! Malfrats ! Macros ! Queurs-bra ! Rabza ! Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto</t>
+          <t>Yeah ! Barillet Plein ! Freko Ding, Seth Gueko, Aimé N'dal Ouais c'est la rage du bitume, ma caille qui froisse l'instru J'donne c'que j'peux pendant que certains donnent leur cul Ouais négro t'as vu, j'en ai vu de toutes les couleurs Ces gueules de trav' qui ressemblent à des grosses tumeurs Ça sent le mollusque au fond du string de ces gadjis Et toi tu t'demandes Mais là Freko, il parle de qui ? Jnachète pas d'skeud car, ça sent la rotte-ca J'le sens en écoutant qu'ya même pas 3 semaines de vail-tra Ton rap, il m'fait penser à une caisse pliée Après l'avoir rodée et brulée, on l'a enculé Ouaiiiis ouais ! C'est Freko la caille L'haleine qui pue l'sky, hey ! Fini l'époque des canailles Les shtars entre nos blocs claquent des fesses Et comme le chien, montrent les dents et puis t'agressent F.R.E.K.O C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto Ils m'envient pourtant jsuis qu'une future ex-star Évite-moi quand je suis sous sky et ecsta C'est l'extase quand les ptits pètent un Selecta Et vu qu'assez risqué comme quette-plan, fais belek à ta quette-pla ! Yo ! Chaque été on raquette en quettes-cla Masta, j'ai envie d'shneck Carmen Electara Pas dcarte électorale, non, non! J'ai qu' 3 mm sur l'crâne et une paire dCartier, donc t'auras Toutes les rayures du soleil J'ai envie dcrever son il, on fait la maille quand tu sommeilles J'aime personne et jm'en bats si personne m'aime Lignorance, c'est pas avant la violence que mes yeux lancent Mfais pas confiance, jsuis misanthrope Une prison propre sera toujours plus sale qu'une maison de proc' Celle quj'ai mise en cloque n'a rien d'Elvira Hancock Elle mpoucave si pour dla coke je vis à Bangkok Mec, j'm'en bats les couilles si personne m'aime J'lâche des rimes antipersonnel et ton Boeing perd son aile Masta masta ! C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto Génération coupe-gorge aux porcs et à leurs lampes torches J'ai balayé trop fort la juge, j'lui ai fait une entorse Fais l'effort de marcher droit dans la street ! Y'en a qui braquent, d'autres qui crisent, ils s'en battent de ma zik J'rappe sans diplomatie, une arrivée massive... Refous ma leçon que jle calcine J'puise dans mes racines, jpisse sur leur race Oui ! J'ferai ma peine jusqu'à quj'ai signé mes grâces Whisky dans la carafe, histoire de péter la baraque Le son fait rhaff de-spee, comme une putain d'Ferrari Ici c'est Paris, c'est bouillant, c'est aride On veut des barres et du pétrole en baril C'est Freko, Seth Gueko, Ndal pour les rho C'est pour les keusses, pour les gros Pas pour les amateurs, mais pour les pros Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto Yous-voi ! Cailles-ra ! Escrocs ! Malfrats ! Macros ! Queurs-bra ! Rabza ! Négro, que des mecs du ghetto, ghe-ghe-ghe-ghe-ghetto</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Il ny a pas que sur le ring que mes lascars cognent Tes jambes tremblent victime, descendant d'viking mais avec des casques à corne Ouais nique un casque à boulon, crois pas que le FN ne passe quà Toulon Je crois vous avoir pondu mon last album Va dire aux flics, que les kilos de shit s'amassent par tonne Que cest depuis mon stylo BIC que jenvoie la mascarpone Chaque samedi en place publique, ça se cartonne entre GI JOE et Gilet jaune La proc nous laisse peu de choix entre asile et geôle Saches quen cas de coup dur, je nai pas de doublure Jassure moi-même les cascades comme Remy Julienne La France est une mijaurée, la PJ reste lennemi juré, nique une justice luciférienne Wesh les terriens, wesh les terriennes J'me languis de crier mort aux vaches aux fliquettes végétariennes Pour une place au soleil, ça vend la neige éternelle Mais Rimbaud a baisé Verlaine Y'a rien d'beau à voir ici, allez gicle ! Rendez-nous la France black blanc beur, et on rendra Brigitte Macron à lÉgypte Jaime pas les flics, j'vois l'comico comme des toilettes turques Mais bicraves, cest vendre des carrés de sucre à un diabétique Y'a du shit dans le sac à dos à Dora lexploratrice Donc je fais Doha invocatrice contre kahba provocatrice Fais du cash dans la street, on me traite de capitaliste Dit-on dune femme qui avale, qu'cest du cannibalisme ? La be-bar de Médine, on me traite de djihadiste Moi je fais du streetwork out , je suis un gyspychopate Sauf que dans ma caravane, y'a deux styles de guitariste Mikael Kalashnivov et Kenji Girac Cest simple la France fait la guerre aux femmes à voile Elle préfèrerait les voir à poil dans les films, où les femmes avalent On dit merci Chirac, létat nous grattera jusquà la moelle Bientôt on paiera limpôt sur les os Dans le métro, on est entassé les uns sur les autres Et Nadine Morano souhaite la pire mort à nos shabs Y'a un sabre, dans le cartable à Dora lexploratrice Donc je fais Doha invocatrice contre kahba provocatriceYou might also like</t>
+          <t>Il ny a pas que sur le ring que mes lascars cognent Tes jambes tremblent victime, descendant d'viking mais avec des casques à corne Ouais nique un casque à boulon, crois pas que le FN ne passe quà Toulon Je crois vous avoir pondu mon last album Va dire aux flics, que les kilos de shit s'amassent par tonne Que cest depuis mon stylo BIC que jenvoie la mascarpone Chaque samedi en place publique, ça se cartonne entre GI JOE et Gilet jaune La proc nous laisse peu de choix entre asile et geôle Saches quen cas de coup dur, je nai pas de doublure Jassure moi-même les cascades comme Remy Julienne La France est une mijaurée, la PJ reste lennemi juré, nique une justice luciférienne Wesh les terriens, wesh les terriennes J'me languis de crier mort aux vaches aux fliquettes végétariennes Pour une place au soleil, ça vend la neige éternelle Mais Rimbaud a baisé Verlaine Y'a rien d'beau à voir ici, allez gicle ! Rendez-nous la France black blanc beur, et on rendra Brigitte Macron à lÉgypte Jaime pas les flics, j'vois l'comico comme des toilettes turques Mais bicraves, cest vendre des carrés de sucre à un diabétique Y'a du shit dans le sac à dos à Dora lexploratrice Donc je fais Doha invocatrice contre kahba provocatrice Fais du cash dans la street, on me traite de capitaliste Dit-on dune femme qui avale, qu'cest du cannibalisme ? La be-bar de Médine, on me traite de djihadiste Moi je fais du streetwork out , je suis un gyspychopate Sauf que dans ma caravane, y'a deux styles de guitariste Mikael Kalashnivov et Kenji Girac Cest simple la France fait la guerre aux femmes à voile Elle préfèrerait les voir à poil dans les films, où les femmes avalent On dit merci Chirac, létat nous grattera jusquà la moelle Bientôt on paiera limpôt sur les os Dans le métro, on est entassé les uns sur les autres Et Nadine Morano souhaite la pire mort à nos shabs Y'a un sabre, dans le cartable à Dora lexploratrice Donc je fais Doha invocatrice contre kahba provocatrice</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4250,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Eppsito Yo, yo, yo Yeah Seth Guex Benjamin Epps Cartier boys Dis les termes Je viens de me faire palper les couilles par une fliquette sévère R.I.P. George Floyd force à Michel Zecler Je fais des barbeucs de compète en mode briquette Weber Dès que y a les schmits qui rappliquent je m'arrache vitsse éclaire Pas de cagoul j'enfile un collant isothoner J'pète en pissant, y a pas d'pluie sans tonnerre Cartier boys, lunettes rondes, j'porte des méfaire Au sommet je veux apporter mes frères mais la porte est mée-fer Mes souhaits se réalisent Je claque des doigts sans crier atchoum Mimi Mathy veut dunker sur Nicolas Batum Ta salope est légère imagine combien on pèse Tes négros c'est des balances donc ils savent combien on pèse Ils ont tirés sur la police Je m'en bat les couilles je regarde pas les news Je suis un nègre mon négro je ne chasse pas les mouches Le meilleur rappeur de France dans ta belle rondelle Je roule avec le tatoué et ce n'est pas Fernandel You might also like Ya, ma paire de menottes J'ai qu'une envie, c'est la scier Barlou sort de garde à v' il à pas remis ses lacets Tarpé et lames de couteaux, béni soit l'acier Même si dans le fond j'ai la façon de penser d'Haile Selassie Tennis Versace, bonnet Gabbana Je marche libre dans la ville comme un gabonais Impossible pour moi de dialoguer quand je bois de la Beluga Je suis pas homophobe j'ai un fils qui fait de la zumba Je vais baiser le rap game Je vais l'piloter mon négro Tes rappeurs sont pas venus ici pour souffrir ok ? c'est sûr Tes grossistes je vais les dékiloter han Il y a un kilo de C sur le gros cul de ta sur que je viens de déculotter histoire vraie Tueur de MC itinérant, j'suis le tyran La différence entre vous et moi c'est que moi je suis différent t'entends ça ? Fallait pas chercher le gamin Seth Guex Benjamin vont les goumer comme jamais1</t>
+          <t>Eppsito Yo, yo, yo Yeah Seth Guex Benjamin Epps Cartier boys Dis les termes Je viens de me faire palper les couilles par une fliquette sévère R.I.P. George Floyd force à Michel Zecler Je fais des barbeucs de compète en mode briquette Weber Dès que y a les schmits qui rappliquent je m'arrache vitsse éclaire Pas de cagoul j'enfile un collant isothoner J'pète en pissant, y a pas d'pluie sans tonnerre Cartier boys, lunettes rondes, j'porte des méfaire Au sommet je veux apporter mes frères mais la porte est mée-fer Mes souhaits se réalisent Je claque des doigts sans crier atchoum Mimi Mathy veut dunker sur Nicolas Batum Ta salope est légère imagine combien on pèse Tes négros c'est des balances donc ils savent combien on pèse Ils ont tirés sur la police Je m'en bat les couilles je regarde pas les news Je suis un nègre mon négro je ne chasse pas les mouches Le meilleur rappeur de France dans ta belle rondelle Je roule avec le tatoué et ce n'est pas Fernandel Ya, ma paire de menottes J'ai qu'une envie, c'est la scier Barlou sort de garde à v' il à pas remis ses lacets Tarpé et lames de couteaux, béni soit l'acier Même si dans le fond j'ai la façon de penser d'Haile Selassie Tennis Versace, bonnet Gabbana Je marche libre dans la ville comme un gabonais Impossible pour moi de dialoguer quand je bois de la Beluga Je suis pas homophobe j'ai un fils qui fait de la zumba Je vais baiser le rap game Je vais l'piloter mon négro Tes rappeurs sont pas venus ici pour souffrir ok ? c'est sûr Tes grossistes je vais les dékiloter han Il y a un kilo de C sur le gros cul de ta sur que je viens de déculotter histoire vraie Tueur de MC itinérant, j'suis le tyran La différence entre vous et moi c'est que moi je suis différent t'entends ça ? Fallait pas chercher le gamin Seth Guex Benjamin vont les goumer comme jamais1</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4267,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Hein ma couillasse, Seth Gueko, Drive by en caravane, OK GEAH ! j'écrit mes texte aves un stylo shit sur des feuilles OCB Dit aux flics que je suis un psychotique obsédé On écrit nos lyrics avec des stylos-plumes d'aigle Comme L.I.M j'fais de la quadtriple violence urbaine Me laisse pas l'cul de vieille On vide nos chargeurs comme ont vide nos coeurs Rap j'lui mets 24 avec un 8 de coeur J'ai les mains pleines d'huile de moteur J't met le pouce dans cul tu Quand je rap c'est film d'horreur Un peu comme les yeux de colin powell devant les twin towers Ont des bricoleurs mais Paris c'est pas les streets d'Irak Blax !!! Je te casse la guitare sur le crâne comme les Linkin Park Coup d'schlass vocaux, pouce toi potoYou might also like1</t>
+          <t>Hein ma couillasse, Seth Gueko, Drive by en caravane, OK GEAH ! j'écrit mes texte aves un stylo shit sur des feuilles OCB Dit aux flics que je suis un psychotique obsédé On écrit nos lyrics avec des stylos-plumes d'aigle Comme L.I.M j'fais de la quadtriple violence urbaine Me laisse pas l'cul de vieille On vide nos chargeurs comme ont vide nos coeurs Rap j'lui mets 24 avec un 8 de coeur J'ai les mains pleines d'huile de moteur J't met le pouce dans cul tu Quand je rap c'est film d'horreur Un peu comme les yeux de colin powell devant les twin towers Ont des bricoleurs mais Paris c'est pas les streets d'Irak Blax !!! Je te casse la guitare sur le crâne comme les Linkin Park Coup d'schlass vocaux, pouce toi poto1</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4284,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Bienvenue à Évry, les babtous parlent lingala On conjugue au futur avec inch'Allah Toutes les renois veulent se saper comme Rihanna Tchip les blondasses qui écoutent Lady Gaga haha! Elevés à n'pas laisser un seul grain dans l'bol de riz C'était hella les Pépito chez les gosses de riches On te griffe tout comme Gripsou ou Wolverine Pour mes gosses j'veux des taches de caviar sur l'bavoir Burberry Un jour en pleurs, un jour mort de rire Devant les menaces de mort de la porcherie On se fait la bise entre Ben Yahia, Diarra, Da Costa Ensemble on vit la vida loca La nuit ça dort pas Ça fume, on mixe la vodka On veut l'train de vie à Drogba Mais le ballon nous court après Deux, trois biz' à l'occase, investit l'avocat On est dans l'blizzard total Les p'tits jeunes roupillent tout l'aprèm C'est la vida loca x8 Ouais ma caille on est trop frais, même avec du falche On pense qu'à faire du cash On claque ton salaire en dix minutes C'est ridicule mais fallait qu'tu l'saches On baise les plus connes mais on épousera les plus sages You might also like On boit du mojito, on met du Moschino Des caries sur trop d'chicots Souris pas si t'es en manque de molaires Aïe Caramba ! On a mis du piment sur la langue de Molière Nique sa grammaire si j'fais des fautes d'ortho' J'suis pas l'petit fils de Bernard Pivot Tape punchline sur Google y'a ma photo C'est pour mes Boratzer, mes Pink Panther Fais toi la boule a zéro, au fil dentaire Si t'as pas d'seil-o, si t'es interdit bancaire Yeah Seth Guexxx et Zekwe Ramos Passe-moi le quet-bri que j'décapsule la Desperados Les petites kahba chialent On les rappelle que si elles ont le boule, ou le pouvoir d'achat de Kim Kardashian Toujours autant de frères dans leurs prisons usées Et de poukaves qui informent sur le traffic, comme Bison Futé Wesh fréro Seth, j'ai recu ta lettre du 27.07 Dehors toujours la même merde, les memes Benyahia, Diarra, Da Costa Ensemble on vit la Vida Loca</t>
+          <t>Bienvenue à Évry, les babtous parlent lingala On conjugue au futur avec inch'Allah Toutes les renois veulent se saper comme Rihanna Tchip les blondasses qui écoutent Lady Gaga haha! Elevés à n'pas laisser un seul grain dans l'bol de riz C'était hella les Pépito chez les gosses de riches On te griffe tout comme Gripsou ou Wolverine Pour mes gosses j'veux des taches de caviar sur l'bavoir Burberry Un jour en pleurs, un jour mort de rire Devant les menaces de mort de la porcherie On se fait la bise entre Ben Yahia, Diarra, Da Costa Ensemble on vit la vida loca La nuit ça dort pas Ça fume, on mixe la vodka On veut l'train de vie à Drogba Mais le ballon nous court après Deux, trois biz' à l'occase, investit l'avocat On est dans l'blizzard total Les p'tits jeunes roupillent tout l'aprèm C'est la vida loca x8 Ouais ma caille on est trop frais, même avec du falche On pense qu'à faire du cash On claque ton salaire en dix minutes C'est ridicule mais fallait qu'tu l'saches On baise les plus connes mais on épousera les plus sages On boit du mojito, on met du Moschino Des caries sur trop d'chicots Souris pas si t'es en manque de molaires Aïe Caramba ! On a mis du piment sur la langue de Molière Nique sa grammaire si j'fais des fautes d'ortho' J'suis pas l'petit fils de Bernard Pivot Tape punchline sur Google y'a ma photo C'est pour mes Boratzer, mes Pink Panther Fais toi la boule a zéro, au fil dentaire Si t'as pas d'seil-o, si t'es interdit bancaire Yeah Seth Guexxx et Zekwe Ramos Passe-moi le quet-bri que j'décapsule la Desperados Les petites kahba chialent On les rappelle que si elles ont le boule, ou le pouvoir d'achat de Kim Kardashian Toujours autant de frères dans leurs prisons usées Et de poukaves qui informent sur le traffic, comme Bison Futé Wesh fréro Seth, j'ai recu ta lettre du 27.07 Dehors toujours la même merde, les memes Benyahia, Diarra, Da Costa Ensemble on vit la Vida Loca</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4301,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game On te traine par la houpette où on t'arrache ta plaque Foulek comme Ferrara en prime time à la Star Ac' On parle l'argot des rappeurs de Croix de Chavaux Un litron de feu-chnou combien tu crois qu'cha vaut ? On rappe même en manouche gars Quand j'te cause, ah mon cousine ramouche moi les niaka La rue a des trucs à dire donc j'lui prête ma voix Au resto, on s'fait sucer dans les leittes-toiba Appelle ça du rap de jouate malheureux On a rempli de 500e le sac de frappe Ta chatte au ste-po, tu fais caca partout On va t'clouer le bec avec une patate marteau Fais crisser le Gallardo, fais pousser un champ de beuh La Brinks n'est pas assuré contre Le 762, zdedededex! J'confonds l'gyro des bleus et des pompiers Ce qui me procure encore de fois plus de stress You might also like C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game C'est l'braquage du siècle, bouge J'suis prêt à t'ouvrir les veines sur mon pull pour être sur qu'il est rouge Es-c-obar Macson, 100-7, 357 pour un 187 J'mesure la bravoure de mes gars en pesant leurs couilles C'est pas la foire aux salopes, ramasse l'oseille ou les douilles On joue à la roulette russe, si j'perds c'est pour gagner Tu vas connaître la version zaïroise, j'ai rempli le barillet La rage c'est comme le sida, ça se donne Une fois que tu l'as, ça s'chope plus de si bas Un nègre atroce, suce le canon, goûte la crosse Le journal sur la ferraille, j'tourne jamais la talon Ton rap de pédale, j'lui fous les menottes C'est pour ma drive-by firme, toujours toujours piano sans fausse note Bordel, j'ai la dalle comme un chien de fourrière Esco, Seth Gueko remplissent le sac de la civière C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game C'est le son des car jacking des sales bourgeoises tirées par l'chignon Intérieur cuir Emile Louis Vuitton Des litrons cachés dans des planquettes de dingues Y'a des traces de mon vomi sur les banquettes de train Quand on rappe c'est une tempête de flingues J'ai perdu 5 lochies à la circoncision car une blanqeutte de dinde C'est l'braquage du siècle, faut que t'avales pucelle On a racheté la kalash en or de Saddam Hussein La rage depuis que j'suis ftus Negro dit Tartus, j'traîne qu'avec ceux qu'ont plus le prépuce Il paraît que la chaleur d'une main c'est mieux que la froideur d'un tard-pé Ah ouais? Quand j'mets les gants c'est juste pour tarter Alors c'est qui qui rappe hein, toi ou moi, lui ou bien Vas-y putain dis moi c'est qui qui rappe Dis jamais que j'abuse J'suis prêt à tirer au Uzi, Famas 4.5, mousquet ou même à l'arquebuse C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game</t>
+          <t>C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game On te traine par la houpette où on t'arrache ta plaque Foulek comme Ferrara en prime time à la Star Ac' On parle l'argot des rappeurs de Croix de Chavaux Un litron de feu-chnou combien tu crois qu'cha vaut ? On rappe même en manouche gars Quand j'te cause, ah mon cousine ramouche moi les niaka La rue a des trucs à dire donc j'lui prête ma voix Au resto, on s'fait sucer dans les leittes-toiba Appelle ça du rap de jouate malheureux On a rempli de 500e le sac de frappe Ta chatte au ste-po, tu fais caca partout On va t'clouer le bec avec une patate marteau Fais crisser le Gallardo, fais pousser un champ de beuh La Brinks n'est pas assuré contre Le 762, zdedededex! J'confonds l'gyro des bleus et des pompiers Ce qui me procure encore de fois plus de stress C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game C'est l'braquage du siècle, bouge J'suis prêt à t'ouvrir les veines sur mon pull pour être sur qu'il est rouge Es-c-obar Macson, 100-7, 357 pour un 187 J'mesure la bravoure de mes gars en pesant leurs couilles C'est pas la foire aux salopes, ramasse l'oseille ou les douilles On joue à la roulette russe, si j'perds c'est pour gagner Tu vas connaître la version zaïroise, j'ai rempli le barillet La rage c'est comme le sida, ça se donne Une fois que tu l'as, ça s'chope plus de si bas Un nègre atroce, suce le canon, goûte la crosse Le journal sur la ferraille, j'tourne jamais la talon Ton rap de pédale, j'lui fous les menottes C'est pour ma drive-by firme, toujours toujours piano sans fausse note Bordel, j'ai la dalle comme un chien de fourrière Esco, Seth Gueko remplissent le sac de la civière C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game C'est le son des car jacking des sales bourgeoises tirées par l'chignon Intérieur cuir Emile Louis Vuitton Des litrons cachés dans des planquettes de dingues Y'a des traces de mon vomi sur les banquettes de train Quand on rappe c'est une tempête de flingues J'ai perdu 5 lochies à la circoncision car une blanqeutte de dinde C'est l'braquage du siècle, faut que t'avales pucelle On a racheté la kalash en or de Saddam Hussein La rage depuis que j'suis ftus Negro dit Tartus, j'traîne qu'avec ceux qu'ont plus le prépuce Il paraît que la chaleur d'une main c'est mieux que la froideur d'un tard-pé Ah ouais? Quand j'mets les gants c'est juste pour tarter Alors c'est qui qui rappe hein, toi ou moi, lui ou bien Vas-y putain dis moi c'est qui qui rappe Dis jamais que j'abuse J'suis prêt à tirer au Uzi, Famas 4.5, mousquet ou même à l'arquebuse C'est le braquage du siècle bleh C'est l'come back d'Al Pac' à la kalash tchétchène Arrête ton léchage de shnek C'est l'heure du cassage de zen et du brassage d'oseille Ferme ta gueule et signe le chèque C'est l'come back d'Al Pac' à la kalash roumaine Mets tes deux mains sur la tête ou prends une balle dans l'abdomen C'est le carnage qu'on aime bang, bang, I love this game</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>RIM-K Frenesik mon label Pour les jaunes, les khels, les blancs, les beurs La France poubelle On lui fait honneur On prépare un cass-bel' Hé, fais les fils du Range Rover SETH GUEKO J'suis en concert à Rungis Ouais gros, demi-gros Au grec du tier-quar y'a des paninis de niglo Passe moi un kalash, du Martini et un stylo Que j'me redessine le poireau à Robert de Niro Mi-tange, mi-roumain comme Brad Pitt morray je suis snatchien J'suis comme un pit lofté j'lache rien ! Galériens, on parie sur les courses de gorets Chaque matin j'ai la tête dans l'cul mais c'est pas l'mien ! J'arrive sur l'nez à Sarko comme le poing à Jacques Martin Le rap j'le fourre comme la tarte tatin d'American Pie Sale catin ! Tu sauras jamais quand va a-ver-ri l'drive-by ! Ouvre grand tes mirettes et ferme ton clairon ! C'est du rap de çais-fran de cité pas du rap de gweron Mi-tange, mi-démon J'vais au stud' en bleu d'travail Autant de pression dans la voix que dans la main d'un calaille You might also like Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! 25G Mi-tange, mi-démon Y'a l'alcool qui té-mon Tes jantes à bâtons t'les démonte Nique les en-ge qui pé-pom Regardez j'suis le blanc en Cartier J'ai un plan brancardier tes be-jam écartées Pour les gens des cartels Circulaire à Auchan en 4L Nos bling bling c'est des têtes de mort ! Ta racli elle tapine c'est pour t'mettre le mord ! Dans ma tête ça gamberge la pillave quand j'la gerbe tout va mal C'est la merde ! Reste tranquille j'ai les boules sous mon kilt hardcore ! Vas-y crik, ton KX Raptor ! Vas-y crie, t'aime le X, c'est gore ! Ton équipe vend mes disques j'rappe fort ! La portière v'la on t'l'ouvre pour t'traîner sur 10 mètres Nique ta mère p'tite traînée, tu t'fais ken par 10 mecs ! Ferme ta gueule ! Sors ta Gold ! Mets ta gueule sous mes grolles Y'a pas d'lol, une torgnole, branquignol ! Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! HAMZA À Madrid, ça pète London, ça pète New York, ça pète À Paris ça s'répète Quand j'arrive tout l'monde ferme sa gueule d'un trait ! Pourquoi j'ai une gueule de crouille ? Hey rhey ! Abu Hamza Fils des fils d'Ismaël J'ai sûrement d'la famille à Abu Ghraib À Gaza, Ramallah, Bosra, Guantanamo Hagla sur les rho, cas sociaux parano Sur la 305, fais péter les enceintes Combien d'mineurs sur la commune j'ai vu tombé enceinte? Tapes en 5 si tu feintes la h'noush Rode sur l'avenue où la vermine n'est pas l'bienvenue Déballe le tapis rouge Hagriste rien à foutre Explosif comme à Beyrouth Bu-bar en deux roues sur la route Hafrit, ghetto youth sur écoute téléphonique... Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! SETH GUEKO Néochrome c'est l'label ! Bru-bru-brutal comme un coup d'pelle ! En live du local à poubelles ! Seth Gueko, 25G, Hamza, Rim-K Bleeh ! Drive-by en caravane !</t>
+          <t>RIM-K Frenesik mon label Pour les jaunes, les khels, les blancs, les beurs La France poubelle On lui fait honneur On prépare un cass-bel' Hé, fais les fils du Range Rover SETH GUEKO J'suis en concert à Rungis Ouais gros, demi-gros Au grec du tier-quar y'a des paninis de niglo Passe moi un kalash, du Martini et un stylo Que j'me redessine le poireau à Robert de Niro Mi-tange, mi-roumain comme Brad Pitt morray je suis snatchien J'suis comme un pit lofté j'lache rien ! Galériens, on parie sur les courses de gorets Chaque matin j'ai la tête dans l'cul mais c'est pas l'mien ! J'arrive sur l'nez à Sarko comme le poing à Jacques Martin Le rap j'le fourre comme la tarte tatin d'American Pie Sale catin ! Tu sauras jamais quand va a-ver-ri l'drive-by ! Ouvre grand tes mirettes et ferme ton clairon ! C'est du rap de çais-fran de cité pas du rap de gweron Mi-tange, mi-démon J'vais au stud' en bleu d'travail Autant de pression dans la voix que dans la main d'un calaille Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! 25G Mi-tange, mi-démon Y'a l'alcool qui té-mon Tes jantes à bâtons t'les démonte Nique les en-ge qui pé-pom Regardez j'suis le blanc en Cartier J'ai un plan brancardier tes be-jam écartées Pour les gens des cartels Circulaire à Auchan en 4L Nos bling bling c'est des têtes de mort ! Ta racli elle tapine c'est pour t'mettre le mord ! Dans ma tête ça gamberge la pillave quand j'la gerbe tout va mal C'est la merde ! Reste tranquille j'ai les boules sous mon kilt hardcore ! Vas-y crik, ton KX Raptor ! Vas-y crie, t'aime le X, c'est gore ! Ton équipe vend mes disques j'rappe fort ! La portière v'la on t'l'ouvre pour t'traîner sur 10 mètres Nique ta mère p'tite traînée, tu t'fais ken par 10 mecs ! Ferme ta gueule ! Sors ta Gold ! Mets ta gueule sous mes grolles Y'a pas d'lol, une torgnole, branquignol ! Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! HAMZA À Madrid, ça pète London, ça pète New York, ça pète À Paris ça s'répète Quand j'arrive tout l'monde ferme sa gueule d'un trait ! Pourquoi j'ai une gueule de crouille ? Hey rhey ! Abu Hamza Fils des fils d'Ismaël J'ai sûrement d'la famille à Abu Ghraib À Gaza, Ramallah, Bosra, Guantanamo Hagla sur les rho, cas sociaux parano Sur la 305, fais péter les enceintes Combien d'mineurs sur la commune j'ai vu tombé enceinte? Tapes en 5 si tu feintes la h'noush Rode sur l'avenue où la vermine n'est pas l'bienvenue Déballe le tapis rouge Hagriste rien à foutre Explosif comme à Beyrouth Bu-bar en deux roues sur la route Hafrit, ghetto youth sur écoute téléphonique... Clic, paaw ! C'est l'bruit du pe-pom Déchire ton tee-shirt dans une té-teille, mets du coco' Les MC m'appellent tonton Veulent que j'les amène au MacDo Arrête de faire le voyou sous ta cagoule y'a un pompon ! SETH GUEKO Néochrome c'est l'label ! Bru-bru-brutal comme un coup d'pelle ! En live du local à poubelles ! Seth Gueko, 25G, Hamza, Rim-K Bleeh ! Drive-by en caravane !</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4335,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Yeah, si si si Seth Gueko Néochrome, bande de putains U2F, aie, Alk'Atef, Mixtape Alkpote, yeah Katana, Bientôt l'album Alk'Atef, yeah Sucez, sucez, rec tcheck tcheck, sucez, sucez, sucez, bleh bleh J'changerai pas si j'sors un disque, même si j'en vends des milliers J'sors d'la street, et pour pas finir ma vie en épicier J'ai pas b'soin d'trente équipiers J'ai Sergio, Onsi et quelques soldats qui m'disent quand j'fais pitié L'Unité d'feu, Seth, l'Encre Édifiée Ferme les yeux, un peu comme Tong Po, j'fends les piliers Vaut mieux pas qu'j'te sente terrifier Fiston, tu peux finir ta vie sans héritier salope Accord parental exigé, alcool, hasch' en vrac, j'ai kiffé T'en veux alors passe en bas des cités On baise les salopards d'gendarmes et kisdés Avec mon poto l'Iguane et les grandes armes aiguisées putain Gars, mon crâne est occupé À trouver des phrases sales et des couplets, ici c'est crasse et volupté Allez-y, avec moi, ça va aller vite J'ai d'la résine et un rap très vif, c'est démoniaque et maléfique You might also like Ouais, mon katana sorti, j'le secoue Découpe toute salope courant vers la sortie d'secours T'écoutes ou pas, j'en ai rien à foutre, on arrive L'U2F honore de belles manières, la vie d'Anouari Même galère, même colère aux yeux des colons La même couleur, mille manières Mille mollards aux yeux des frolons Témoignent que l'oeuvre expérimentale que sont les HLM La discrimination est rentable La bouche sous l'eau, le nez dehors, une vague et c'est la noyade On ve-esqui donc le contrôle parental Pour trouver des plans qui foirent Est-c'que tu sais de quoi j'te parle ? Le deal, c'est rouage de pinces, la maille est trop khoya j'te place Doc, gourou, baman aussi lorsque Truffaut une boîte de barge T'inquiète, j'ai toujours deux-trois textes en tête Une issue d'secours pour prendre la poudre d'escampette J'vais pas t'faire un dessin C'est l'9.5, le 9.1 et un refrain sorti d'un gue-flin T'inquiète, j'ai toujours deux-trois textes en tête Une issue d'secours pour prendre la poudre d'escampette J'vais pas t'faire un dessin C'est l'9.5, le 9.1 et un refrain sorti d'un gue-flin sorti d'un gue-flin Sorti d'un couteau rouillé, sorti d'un long canon Longue autonomie, c'est des musicales sodomies Bientôt l'album, pour l'instant c'est la mixtape, sucez !</t>
+          <t>Yeah, si si si Seth Gueko Néochrome, bande de putains U2F, aie, Alk'Atef, Mixtape Alkpote, yeah Katana, Bientôt l'album Alk'Atef, yeah Sucez, sucez, rec tcheck tcheck, sucez, sucez, sucez, bleh bleh J'changerai pas si j'sors un disque, même si j'en vends des milliers J'sors d'la street, et pour pas finir ma vie en épicier J'ai pas b'soin d'trente équipiers J'ai Sergio, Onsi et quelques soldats qui m'disent quand j'fais pitié L'Unité d'feu, Seth, l'Encre Édifiée Ferme les yeux, un peu comme Tong Po, j'fends les piliers Vaut mieux pas qu'j'te sente terrifier Fiston, tu peux finir ta vie sans héritier salope Accord parental exigé, alcool, hasch' en vrac, j'ai kiffé T'en veux alors passe en bas des cités On baise les salopards d'gendarmes et kisdés Avec mon poto l'Iguane et les grandes armes aiguisées putain Gars, mon crâne est occupé À trouver des phrases sales et des couplets, ici c'est crasse et volupté Allez-y, avec moi, ça va aller vite J'ai d'la résine et un rap très vif, c'est démoniaque et maléfique Ouais, mon katana sorti, j'le secoue Découpe toute salope courant vers la sortie d'secours T'écoutes ou pas, j'en ai rien à foutre, on arrive L'U2F honore de belles manières, la vie d'Anouari Même galère, même colère aux yeux des colons La même couleur, mille manières Mille mollards aux yeux des frolons Témoignent que l'oeuvre expérimentale que sont les HLM La discrimination est rentable La bouche sous l'eau, le nez dehors, une vague et c'est la noyade On ve-esqui donc le contrôle parental Pour trouver des plans qui foirent Est-c'que tu sais de quoi j'te parle ? Le deal, c'est rouage de pinces, la maille est trop khoya j'te place Doc, gourou, baman aussi lorsque Truffaut une boîte de barge T'inquiète, j'ai toujours deux-trois textes en tête Une issue d'secours pour prendre la poudre d'escampette J'vais pas t'faire un dessin C'est l'9.5, le 9.1 et un refrain sorti d'un gue-flin T'inquiète, j'ai toujours deux-trois textes en tête Une issue d'secours pour prendre la poudre d'escampette J'vais pas t'faire un dessin C'est l'9.5, le 9.1 et un refrain sorti d'un gue-flin sorti d'un gue-flin Sorti d'un couteau rouillé, sorti d'un long canon Longue autonomie, c'est des musicales sodomies Bientôt l'album, pour l'instant c'est la mixtape, sucez !</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4352,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Ils veulent me toucher, veulent me voir Prendre en photo ma tête de poire Comme si j'étais une bête de foire Mais j'ai peur de les décevoir Car j'suis méchant et bête des fois Ceci est un appel de phare Car on a délaissé le verbe être pour le verbe avoir Igo lance le mic check Me doit de lur faire savoir à tous ces faux loubards Ignorant mon mindset Oubliant qu'y a tatoué Bérurir Noir sur la main de Seth Qui veulent nous voir picorant leur pain sec Pendant qu'ils mangent du caviar Qui ça ? Des politicards abjects Qui veulent éradiquer mes bicots de la planète Leur comico m'a target On va éviter de viser à côté Comme le dit l'écriteau dans les toilettes Pas d'crypto dans le wallet Mon tricot sent le bois d'hêtre Quand j'rêve, confesse-toi autour d'un feu de joie Mais j'ai plus trop le sens de la fête Donc fuck les lois que l'État décrète Faudrait d'abord qu'il nettoie les doigts des prêtres Dans ma tête une petite voix répète Écarte-toi des traîtres, la war est prête c'est pire qu'à Ecatepec Mexique Finish, brise le tabou, plus qu'un viriliste babtou J'suis un lyriciste poids lourd qui franchise de partout Burger, entreprise de tattoos, discipline de maboule Comme Francis Nganou, entre nous c'est difficile Je t'avoue quand des journalistes, petits-fils de partouze Minimisent mon parcours, alors que moi ce que je savoure C'est signer le vinyle dix de mes barlous en bas de ma tour Pendant que ceux qui nous dirigent visitent le bois de Bou' En cherchant ce que signifie le mot amour No pasaran Ils veulent me toucher, veulent me voir Comme si j'étais une bête de foire Mais j'vais sûrement les décevoir Car j'suis méchant et bête des foisYou might also like</t>
+          <t>Ils veulent me toucher, veulent me voir Prendre en photo ma tête de poire Comme si j'étais une bête de foire Mais j'ai peur de les décevoir Car j'suis méchant et bête des fois Ceci est un appel de phare Car on a délaissé le verbe être pour le verbe avoir Igo lance le mic check Me doit de lur faire savoir à tous ces faux loubards Ignorant mon mindset Oubliant qu'y a tatoué Bérurir Noir sur la main de Seth Qui veulent nous voir picorant leur pain sec Pendant qu'ils mangent du caviar Qui ça ? Des politicards abjects Qui veulent éradiquer mes bicots de la planète Leur comico m'a target On va éviter de viser à côté Comme le dit l'écriteau dans les toilettes Pas d'crypto dans le wallet Mon tricot sent le bois d'hêtre Quand j'rêve, confesse-toi autour d'un feu de joie Mais j'ai plus trop le sens de la fête Donc fuck les lois que l'État décrète Faudrait d'abord qu'il nettoie les doigts des prêtres Dans ma tête une petite voix répète Écarte-toi des traîtres, la war est prête c'est pire qu'à Ecatepec Mexique Finish, brise le tabou, plus qu'un viriliste babtou J'suis un lyriciste poids lourd qui franchise de partout Burger, entreprise de tattoos, discipline de maboule Comme Francis Nganou, entre nous c'est difficile Je t'avoue quand des journalistes, petits-fils de partouze Minimisent mon parcours, alors que moi ce que je savoure C'est signer le vinyle dix de mes barlous en bas de ma tour Pendant que ceux qui nous dirigent visitent le bois de Bou' En cherchant ce que signifie le mot amour No pasaran Ils veulent me toucher, veulent me voir Comme si j'étais une bête de foire Mais j'vais sûrement les décevoir Car j'suis méchant et bête des fois</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4369,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Tu veux du spectaculaire ? Tu vas en avoir du spectaculaire J'crèverais quand je l'aurais décidé... OK La nuit, dors que d'un il, si t'en a qu'un dors pas J'suis la voix de Mesrine en direct live de l'au-delà Une arme c'est comme une femme, chacun la sienne Y'a pas de héros chez les gangsters mais y'a pleins de gangsters dans la Seine J'laisserai pas à l'usine - non - ma colonne vertébrale J'rentre sur l'beat pépère comme Mesrine dans une Société Générale On a troqué les masque de clowns pour des casques intégrales T'occupes pas d'la marque du vélo, pédale ou accélère J'veux une femme complice comme Jeanne Schneider Un bandit anonyme veut pas d'une chatte célèbre J'suis dans l'rouge mon compte bancaire a ses règles Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million, le million You might also like On veut pas être des nouveaux riches mais des ex-pauvres J'sais pas c'que j'attends pour m'faire tatouer mort aux vaches sur l'épaule On n'a jamais mis de gants pour faire des boules de neige On met des gants pour un coup... Car un coup ça grouille de pièges L'argent m'brûle les doigts comme ce ouf de Serge, on a des couilles de braise C'est dur d'faire son trou c'est pas sorti des lèvres d'une fouf de vierge Allez danse jaloux ! Dans ta lingerie Valege Parles pas sur ma messagerie d'manège, fais tourner l'manège Ça gamberge tes méninges On va t'couper les lianes sous l'pied si tu fais l'singe Soit tu mouilles le maillot soit tu fais sécher l'linge Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million, le million J'veux la mitraillette Thomson de Pretty Boyfloyd Ta-ta-ta-tac, J'passe à l'attaque Nicolas Sarks.. n'est qu'un sale petit cow-boy Comme dirait Koffee ça passe ou ça ca-ca casse Y a ce qui baissent l'arme et ceux qui shla-shla-shla-shlassent J'ai le blues du businessman comme... Patricia Kass Y a qu'perdre un pote qui m'blesse l'âme J'ferai ma retraite criminelle... en Espagne ! Pour mieux voler les riches faut leur ressembler Malheureux comme un poisson dans l'Oise Braque à vitesse grand V Car tu s'ras jamais heureux sans blé Y'a qu'mon dentiste qui peut m'plomber ! Pour mieux voler les riches faut leur ressembler Malheureux comme un poisson dans l'Oise Braque à vitesse grand V Car tu s'ras jamais heureux sans blé Y'a qu'mon dentiste qui peut m'plomber ! Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million À rêver d'être gangster tu mourras en dormant C'est l'premier million qui est dur à faire Le premier gus qui est dur à refroidir Après c'est du gâteau... Seth Gueko,White Spirit, Cercle Rouge, Néochrome</t>
+          <t>Tu veux du spectaculaire ? Tu vas en avoir du spectaculaire J'crèverais quand je l'aurais décidé... OK La nuit, dors que d'un il, si t'en a qu'un dors pas J'suis la voix de Mesrine en direct live de l'au-delà Une arme c'est comme une femme, chacun la sienne Y'a pas de héros chez les gangsters mais y'a pleins de gangsters dans la Seine J'laisserai pas à l'usine - non - ma colonne vertébrale J'rentre sur l'beat pépère comme Mesrine dans une Société Générale On a troqué les masque de clowns pour des casques intégrales T'occupes pas d'la marque du vélo, pédale ou accélère J'veux une femme complice comme Jeanne Schneider Un bandit anonyme veut pas d'une chatte célèbre J'suis dans l'rouge mon compte bancaire a ses règles Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million, le million On veut pas être des nouveaux riches mais des ex-pauvres J'sais pas c'que j'attends pour m'faire tatouer mort aux vaches sur l'épaule On n'a jamais mis de gants pour faire des boules de neige On met des gants pour un coup... Car un coup ça grouille de pièges L'argent m'brûle les doigts comme ce ouf de Serge, on a des couilles de braise C'est dur d'faire son trou c'est pas sorti des lèvres d'une fouf de vierge Allez danse jaloux ! Dans ta lingerie Valege Parles pas sur ma messagerie d'manège, fais tourner l'manège Ça gamberge tes méninges On va t'couper les lianes sous l'pied si tu fais l'singe Soit tu mouilles le maillot soit tu fais sécher l'linge Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million, le million J'veux la mitraillette Thomson de Pretty Boyfloyd Ta-ta-ta-tac, J'passe à l'attaque Nicolas Sarks.. n'est qu'un sale petit cow-boy Comme dirait Koffee ça passe ou ça ca-ca casse Y a ce qui baissent l'arme et ceux qui shla-shla-shla-shlassent J'ai le blues du businessman comme... Patricia Kass Y a qu'perdre un pote qui m'blesse l'âme J'ferai ma retraite criminelle... en Espagne ! Pour mieux voler les riches faut leur ressembler Malheureux comme un poisson dans l'Oise Braque à vitesse grand V Car tu s'ras jamais heureux sans blé Y'a qu'mon dentiste qui peut m'plomber ! Pour mieux voler les riches faut leur ressembler Malheureux comme un poisson dans l'Oise Braque à vitesse grand V Car tu s'ras jamais heureux sans blé Y'a qu'mon dentiste qui peut m'plomber ! Le mili, le mili, le million Plutôt crever que d'finir à l'isolement Le mili, le mili, le million En euros ou en anciens francs seulement Le mili, le mili, le million Faire la même tête, en l'gagnant ou en l'perdant Le mili, le mili, le million À rêver d'être gangster tu mourras en dormant C'est l'premier million qui est dur à faire Le premier gus qui est dur à refroidir Après c'est du gâteau... Seth Gueko,White Spirit, Cercle Rouge, Néochrome</t>
         </is>
       </c>
     </row>
@@ -4390,7 +4386,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Le père le fils enfoiré Gueks, la Stos, ZDX Pour te niquer, on a pas besoin de motif Vu que t'as voulu nous chercher Aujourd'hui y a mes gars qui roulent des gros spliffs J'reste avec eux je finis pété Et si ta copine ressemble à du roastbeef Crois-moi que j'irai pas tester Et si elle est bonne qu'à donner des coups de griffe À la SPA j'dis respect Sous weed on a les yeux rouges Les gars de la ru n'ont pas bougé Toute leurs attaques font mouchs Moins bavard quand l'OPJ veut m'interroger Dans l'auto on est que-cin Dans mes poches, le million si ce n'est que ça Tous les soirs elle me nude sans pe-sa Donc dans la bre-cham, je lui fais du le-sa Je maîtrise la mélodie Avec la prod je suis en harmonie Quand y a le tonnerre qui gronde C'est que j'ai fait du mal à Nami Je voulais manger le gomu gomu no mi Mais j'ai fini avec la jambe à Sanji J'ai vu la vie et la mort sans din Donc j'ai appris à dresser mes djinns You might also like Proche de la lumière mais trop près de l'ombre, tu sais qu'on est des rats Touche à la mif' et t'es sur que j'dégaine et presse la détente Sur la route du succès, dans le virage ma voiture qui dérape On est au tieks, y a les keufs qui débarquent donc nous on décampe Voici mon épopée, devenir le plus fort de mon époque le plus fort de mon époque Elle a une tête de poupée donc je la fais monter dans la loc' monter dans la loc' Toute ma vie, mes couilles, j'ai porté, j'attends seulement de porter mon Glock porter le nine J'attends seulement de porter mon Glock Plus vieux est le boug, plus dur est la corne Je mange des popcorns devant YouPorn Et en parlant de popcorn, tu vas manger des baffes Si tu te comportes comme le premier de la classe Au choix, la paire de TN ou la paire de Huarache Je prends du miel, j'ai le dard aussi gros que l'abeille de Wallace tête de ma race Ils donnent en Juillet la paye du mois de Mars À des pauvres daronnes qui balaient le carrelage Les p'tits du tieks, j'ai toujours chanté pour eux J'ai pas confiance en leur banquier douteux Chicos en or j'ai un dentier couteux Si la rivière est rouge, prends le sentier boueux On a pas signé dans vos labels de merdeux Toi tous tes flows, tu les piques à Migos Mama Depuis la sortie de No Label 2 Joue pas le nerveux, neveu, t'as les jambes aussi grosses qu'un pink flamingos Proche de la lumière mais trop près de l'ombre, tu sais qu'on est des rats Touche à la mif' et t'es sur que j'dégaine et presse la détente Sur la route du succès, dans le virage ma voiture qui dérape On est au tieks, y a les keufs qui débarquent donc nous on décampe Voici mon épopée, devenir le plus fort de mon époque le plus fort de mon époque Elle a une tête de poupée donc je la fais monter dans la loc' monter dans la loc' Toute ma vie, mes couilles, j'ai porté, j'attends seulement de porter mon Glock porter le nine J'attends seulement de porter mon Glock Ecoute-le celui-là porter le Glock, porter le Glock Commence par porter les courses, déjà Allez, vas dans ta chambre</t>
+          <t>Le père le fils enfoiré Gueks, la Stos, ZDX Pour te niquer, on a pas besoin de motif Vu que t'as voulu nous chercher Aujourd'hui y a mes gars qui roulent des gros spliffs J'reste avec eux je finis pété Et si ta copine ressemble à du roastbeef Crois-moi que j'irai pas tester Et si elle est bonne qu'à donner des coups de griffe À la SPA j'dis respect Sous weed on a les yeux rouges Les gars de la ru n'ont pas bougé Toute leurs attaques font mouchs Moins bavard quand l'OPJ veut m'interroger Dans l'auto on est que-cin Dans mes poches, le million si ce n'est que ça Tous les soirs elle me nude sans pe-sa Donc dans la bre-cham, je lui fais du le-sa Je maîtrise la mélodie Avec la prod je suis en harmonie Quand y a le tonnerre qui gronde C'est que j'ai fait du mal à Nami Je voulais manger le gomu gomu no mi Mais j'ai fini avec la jambe à Sanji J'ai vu la vie et la mort sans din Donc j'ai appris à dresser mes djinns Proche de la lumière mais trop près de l'ombre, tu sais qu'on est des rats Touche à la mif' et t'es sur que j'dégaine et presse la détente Sur la route du succès, dans le virage ma voiture qui dérape On est au tieks, y a les keufs qui débarquent donc nous on décampe Voici mon épopée, devenir le plus fort de mon époque le plus fort de mon époque Elle a une tête de poupée donc je la fais monter dans la loc' monter dans la loc' Toute ma vie, mes couilles, j'ai porté, j'attends seulement de porter mon Glock porter le nine J'attends seulement de porter mon Glock Plus vieux est le boug, plus dur est la corne Je mange des popcorns devant YouPorn Et en parlant de popcorn, tu vas manger des baffes Si tu te comportes comme le premier de la classe Au choix, la paire de TN ou la paire de Huarache Je prends du miel, j'ai le dard aussi gros que l'abeille de Wallace tête de ma race Ils donnent en Juillet la paye du mois de Mars À des pauvres daronnes qui balaient le carrelage Les p'tits du tieks, j'ai toujours chanté pour eux J'ai pas confiance en leur banquier douteux Chicos en or j'ai un dentier couteux Si la rivière est rouge, prends le sentier boueux On a pas signé dans vos labels de merdeux Toi tous tes flows, tu les piques à Migos Mama Depuis la sortie de No Label 2 Joue pas le nerveux, neveu, t'as les jambes aussi grosses qu'un pink flamingos Proche de la lumière mais trop près de l'ombre, tu sais qu'on est des rats Touche à la mif' et t'es sur que j'dégaine et presse la détente Sur la route du succès, dans le virage ma voiture qui dérape On est au tieks, y a les keufs qui débarquent donc nous on décampe Voici mon épopée, devenir le plus fort de mon époque le plus fort de mon époque Elle a une tête de poupée donc je la fais monter dans la loc' monter dans la loc' Toute ma vie, mes couilles, j'ai porté, j'attends seulement de porter mon Glock porter le nine J'attends seulement de porter mon Glock Ecoute-le celui-là porter le Glock, porter le Glock Commence par porter les courses, déjà Allez, vas dans ta chambre</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4403,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tu veux entendre du rap qu'à des couilles? Bah ouvres grand tes esgourdes mon mulot Au micro! J'suis l'roi d'la nitroglycérine Et si j'dois brûler les micros Sky, j'irai! Je suis pas sorti d'un utérus de putain J'fais la diff' comme la Juventus de Turin On use des ruses de Roumains Tous les subterfuges sont bons pour que les vitrines se pulvérisent au burin J'envoie le bouzin en direct de Mufflins Ça pue l'déluge ici on gruge les juges de tout coins Pour un regard un coup d'rein ou a l'inverse un coup de poing T'as qu'une mère t'as qu'un père t'as Lille t'as Tourcoing Braque une banque t'es refait braque un rupain t'es repeint Si t'es mon re-frè t'inquiète mon cash c'est le tien Mets tous le monde a plat ventre ton brak brak fait le bien Si t'as un plavan deblavonde c'est bavon Mais néanmoins la haine est la en moi Si je sens que je vais mourir j'vais chez les keufs ça en fera un en moins Mon flingue c'est mon siamois je suis le fils de Jack Mess Car y'a pas un seul proc' est honnête Je me fait des rails d'MSN, des gros spiffs de Myspace Comme tu peux le constater, je suis drogue au net Biberonné aux films de guerre Ratatatax, ma vie ne tient qu'à un fil de fer J'ai l'bagou de Patrick Dewquere, en garde-à-v' c'est la crise de nerf Je me transforme une machine de glaire Zbibibler la chevalière On va tous mourir mais pas tous de la même manière Mon studio c'est une garçonnière On veut de la poitrine généreuse et de la cuisse hospitalière La chevalière, mon petit père, marche avant marche arrière Ici c'est bierre sauciflar et gros Nibards Je veux tunninger ma mort des boomeurs dans le carbillard Si tu veux pour tout savoir, j'suis un gros amateur de pinard Et pour te la jouer franco c'est moi le backeur de Bigard You might also like Aller champagne! Pour tout l'monde C'est la Société Générale qui paye Tu trouves pas que c'est du rap qu'a d'la gueule, tu rap qu'a d'la moustache Du grand Seth Gueko Néochrome</t>
+          <t>Tu veux entendre du rap qu'à des couilles? Bah ouvres grand tes esgourdes mon mulot Au micro! J'suis l'roi d'la nitroglycérine Et si j'dois brûler les micros Sky, j'irai! Je suis pas sorti d'un utérus de putain J'fais la diff' comme la Juventus de Turin On use des ruses de Roumains Tous les subterfuges sont bons pour que les vitrines se pulvérisent au burin J'envoie le bouzin en direct de Mufflins Ça pue l'déluge ici on gruge les juges de tout coins Pour un regard un coup d'rein ou a l'inverse un coup de poing T'as qu'une mère t'as qu'un père t'as Lille t'as Tourcoing Braque une banque t'es refait braque un rupain t'es repeint Si t'es mon re-frè t'inquiète mon cash c'est le tien Mets tous le monde a plat ventre ton brak brak fait le bien Si t'as un plavan deblavonde c'est bavon Mais néanmoins la haine est la en moi Si je sens que je vais mourir j'vais chez les keufs ça en fera un en moins Mon flingue c'est mon siamois je suis le fils de Jack Mess Car y'a pas un seul proc' est honnête Je me fait des rails d'MSN, des gros spiffs de Myspace Comme tu peux le constater, je suis drogue au net Biberonné aux films de guerre Ratatatax, ma vie ne tient qu'à un fil de fer J'ai l'bagou de Patrick Dewquere, en garde-à-v' c'est la crise de nerf Je me transforme une machine de glaire Zbibibler la chevalière On va tous mourir mais pas tous de la même manière Mon studio c'est une garçonnière On veut de la poitrine généreuse et de la cuisse hospitalière La chevalière, mon petit père, marche avant marche arrière Ici c'est bierre sauciflar et gros Nibards Je veux tunninger ma mort des boomeurs dans le carbillard Si tu veux pour tout savoir, j'suis un gros amateur de pinard Et pour te la jouer franco c'est moi le backeur de Bigard Aller champagne! Pour tout l'monde C'est la Société Générale qui paye Tu trouves pas que c'est du rap qu'a d'la gueule, tu rap qu'a d'la moustache Du grand Seth Gueko Néochrome</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4420,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Kool Shen, dis-leur, han On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés C'est les promesses qu'on fait tous quand ça sourit, comme un fantasme qu'on rêve d'assouvir Le quartier créé des liens que la vie dénoue, c'qui était tien était mien moi, j'étais nous Puis, on s'est perdus dans notre propre scénar', y avait pas d'voyou chez nous, pas plus que d'Bob Denard Que des mecs de quartier avec de l'appétit, aimé la vision floutée, ouais, une goutte dans la rétine Nous, on avait pas d'plan, que des couilles et pas l'temps, on voulait croquer l'monde, on trouvait que les autres n'avaient pas d'dents On avait juste oublié que l'Homme pisse dans sa propre gamelle, chie dans l'plat s'il pense que sa barrette devient lamelle On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés Grandir entre amis, au milieu d'gun et d'tapin, quand l'oseille est là, dur de pas succomber La trahison tentera même te t'donner la main, te délier ta langue même face aux condés J'fais la morale aux proches car y a la mort à l'approche, enterrez-moi dans l'silence, j'veux pas d'une chorale atroce La vie est trop courte pour faire la queue à La Poste, j'ai l'esprit tordu comme la gueule d'Alain Prost Un gun dans chaque main comme Lara Croft, on était des putain d'gros c'lards-vi C'est une fois que la mort, elle approche, mon ami, que tu t'accroches à la vie C'est l'histoire du Diable qui débarque au paradis et sans respect, commande une bière J'préfère avoir d'la visite au parloir, mon frère, que d'la visite au cimetière M'en voulez pas si j'vocifère d'être aussi clair, mais personne nous empêch'ra de faire nos deals On était six, unis comme les doigts d'la main d'une victime de Tchernobyl You might also like On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés Grandir entre amis, au milieu d'gun et d'tapin, quand l'oseille est là, dur de pas succomber La trahison tentera même te t'donner la main, te délier ta langue même face aux condés</t>
+          <t>Kool Shen, dis-leur, han On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés C'est les promesses qu'on fait tous quand ça sourit, comme un fantasme qu'on rêve d'assouvir Le quartier créé des liens que la vie dénoue, c'qui était tien était mien moi, j'étais nous Puis, on s'est perdus dans notre propre scénar', y avait pas d'voyou chez nous, pas plus que d'Bob Denard Que des mecs de quartier avec de l'appétit, aimé la vision floutée, ouais, une goutte dans la rétine Nous, on avait pas d'plan, que des couilles et pas l'temps, on voulait croquer l'monde, on trouvait que les autres n'avaient pas d'dents On avait juste oublié que l'Homme pisse dans sa propre gamelle, chie dans l'plat s'il pense que sa barrette devient lamelle On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés Grandir entre amis, au milieu d'gun et d'tapin, quand l'oseille est là, dur de pas succomber La trahison tentera même te t'donner la main, te délier ta langue même face aux condés J'fais la morale aux proches car y a la mort à l'approche, enterrez-moi dans l'silence, j'veux pas d'une chorale atroce La vie est trop courte pour faire la queue à La Poste, j'ai l'esprit tordu comme la gueule d'Alain Prost Un gun dans chaque main comme Lara Croft, on était des putain d'gros c'lards-vi C'est une fois que la mort, elle approche, mon ami, que tu t'accroches à la vie C'est l'histoire du Diable qui débarque au paradis et sans respect, commande une bière J'préfère avoir d'la visite au parloir, mon frère, que d'la visite au cimetière M'en voulez pas si j'vocifère d'être aussi clair, mais personne nous empêch'ra de faire nos deals On était six, unis comme les doigts d'la main d'une victime de Tchernobyl On était unis comme les cinq doigts d'la main, le problème, c'est qu'on a jamais su compter On était six à se jurer qu'jusqu'à la fin, on se tiendrait la main, s'tairait face aux condés Grandir entre amis, au milieu d'gun et d'tapin, quand l'oseille est là, dur de pas succomber La trahison tentera même te t'donner la main, te délier ta langue même face aux condés</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4437,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>À c't'heure-ci faut un p'tit phone-télé Pour vendre un peu d'disque Y faut un clip en télé On est des dealers Cousin ça c'est inscrit dans le CV Un cric dans l'bélé PD on prend du shit sans payer hey hey!! On est les fils de Jack Mess Un polo Lacoste et un Levi's de Barbès On fait les fils de ta caisse On rêve de billets, de money Comme les types de chaque tess Clyde est mort on baise avec les filles de Bonnie Comportement à l'aïd Ni baiser ni racli La pension ça coute cher, l'IVG c'est gratuit Ça parle de bing bang produit par le bizz dek Même les tapettes retrouvent leurs couilles Avec un rail de Cèc' Dans chaque tieks c'est la hass Mais c'est plus fort que nous On ne peut pas quitter la tess C'est l'remix de Jack Mess Avec Rutti Po-Des' Lino Medine, Salif et Seth Guex Zblex zblex Dans chaque tièce c'est la hass Mais c'est plus fort que nous On ne peut pas quitter la tess C'est l'remix de Jack Mess Avec Rutti Po-Des' Lino, Salif, Medine et Seth Guex Zdedededex You might also like Eh!!!! Empresse toi d'vider la caisse D'monter l'volume, basse et grosse caisse La mèche j'la vends pas j'l'allume Héritier d'Jack Mess Tah des coins salubres, le flingue dit la messe Ma main gauche te fais les poches, la droite te salue Comme les promesses, on s'tient mal C'est la lutte entre la bite et la tête Coincé entre le béton et la lune J'aime pas faire kiffer ta nièce Rappe pour les fauves Qu'on b'soin d'mordre Accent roulé dans la lune Pour apaiser l'instinct d'mort Garde le cap vers le nord C'est l'groupe des ennemis publics J'l'a fais danser a poil Ma vérité s'ra jamais pudique 95 depuis balltrap Du sang a coulé sous les ponts J'suis bloqué entre marche ou crève et cours plus vite que les plombs Tu veux r'sembler à Mesrine Nous casse pas les couilles Fais toi la barbe à Seth Gueko Ou fais toi canner à Clignancourt Ressembler à Rutti ? Tu dépasses pas assez les bornes T'es pas aussi beau That's impossible!!! Tout n'est pas bon a shnicav Chez les stars du banditisme Les delcris et les gris gris Qu'on voit en son-pri Les gueules sont black La coke est blanche, oui Daprès ma prof d'arts plastiques Ça donne des cadavres gris T'as beau être le parrain des blackos T'es pas a labri d'te faire carotter Ta go par un bourricot ou un colt Ça découvre le hebs avant le sexe En 2027 y'aura des drive by en poussettes Haut les mains peau d'catins Ca fait zblix zblax zblex J'suis pas v'nu faire un câlin Ou de qui quoi qu'est-ce? Pour les espèces Et les histoires d'sexe J'ai la bouche qui s'ouvre Comme un tiroir caisse On est les fils Capone Les fils de Jack Mess Fais toi un rail avec mes cendres Un cercueil c'est une trop triste adresse Si t'as mis ta cagoule sur ton sexe Ou t'as mis l'latex Mes rimes sont titanesque Voir abracadabrante Trouve ta planque,sois pas branque Braque ta banque Pull up pull up!!!!!! J'veux tout l'monde a plat ventre Zdedededex!!!!!!! C'est un cagoulox J'arrive tête de harlbouch, barbe de manouche Tu peux pas faire plus dangerous Tires moi dans les shoes ou bute moi sous la douche Mon couz,t'éviteras pas le morphing de Mesrine et Massoud Tous traine à l'OAS aux lascars et c'est ti-par On f'ra tête a toutes les typar à dix barres Moi j'ai l'histoire et le savoir dans mon porte-flingue Je suis le baveux des banlieues pour qu'elle porte plainte On arrive à 5, découper le beat à Seth Avec des couplets décuplés pour les piques-assiettes Y'a pas à tortiller du khanza pour marcher droit Je cellophane mes phases et envoies ça sur le marché noir Refrain</t>
+          <t>À c't'heure-ci faut un p'tit phone-télé Pour vendre un peu d'disque Y faut un clip en télé On est des dealers Cousin ça c'est inscrit dans le CV Un cric dans l'bélé PD on prend du shit sans payer hey hey!! On est les fils de Jack Mess Un polo Lacoste et un Levi's de Barbès On fait les fils de ta caisse On rêve de billets, de money Comme les types de chaque tess Clyde est mort on baise avec les filles de Bonnie Comportement à l'aïd Ni baiser ni racli La pension ça coute cher, l'IVG c'est gratuit Ça parle de bing bang produit par le bizz dek Même les tapettes retrouvent leurs couilles Avec un rail de Cèc' Dans chaque tieks c'est la hass Mais c'est plus fort que nous On ne peut pas quitter la tess C'est l'remix de Jack Mess Avec Rutti Po-Des' Lino Medine, Salif et Seth Guex Zblex zblex Dans chaque tièce c'est la hass Mais c'est plus fort que nous On ne peut pas quitter la tess C'est l'remix de Jack Mess Avec Rutti Po-Des' Lino, Salif, Medine et Seth Guex Zdedededex Eh!!!! Empresse toi d'vider la caisse D'monter l'volume, basse et grosse caisse La mèche j'la vends pas j'l'allume Héritier d'Jack Mess Tah des coins salubres, le flingue dit la messe Ma main gauche te fais les poches, la droite te salue Comme les promesses, on s'tient mal C'est la lutte entre la bite et la tête Coincé entre le béton et la lune J'aime pas faire kiffer ta nièce Rappe pour les fauves Qu'on b'soin d'mordre Accent roulé dans la lune Pour apaiser l'instinct d'mort Garde le cap vers le nord C'est l'groupe des ennemis publics J'l'a fais danser a poil Ma vérité s'ra jamais pudique 95 depuis balltrap Du sang a coulé sous les ponts J'suis bloqué entre marche ou crève et cours plus vite que les plombs Tu veux r'sembler à Mesrine Nous casse pas les couilles Fais toi la barbe à Seth Gueko Ou fais toi canner à Clignancourt Ressembler à Rutti ? Tu dépasses pas assez les bornes T'es pas aussi beau That's impossible!!! Tout n'est pas bon a shnicav Chez les stars du banditisme Les delcris et les gris gris Qu'on voit en son-pri Les gueules sont black La coke est blanche, oui Daprès ma prof d'arts plastiques Ça donne des cadavres gris T'as beau être le parrain des blackos T'es pas a labri d'te faire carotter Ta go par un bourricot ou un colt Ça découvre le hebs avant le sexe En 2027 y'aura des drive by en poussettes Haut les mains peau d'catins Ca fait zblix zblax zblex J'suis pas v'nu faire un câlin Ou de qui quoi qu'est-ce? Pour les espèces Et les histoires d'sexe J'ai la bouche qui s'ouvre Comme un tiroir caisse On est les fils Capone Les fils de Jack Mess Fais toi un rail avec mes cendres Un cercueil c'est une trop triste adresse Si t'as mis ta cagoule sur ton sexe Ou t'as mis l'latex Mes rimes sont titanesque Voir abracadabrante Trouve ta planque,sois pas branque Braque ta banque Pull up pull up!!!!!! J'veux tout l'monde a plat ventre Zdedededex!!!!!!! C'est un cagoulox J'arrive tête de harlbouch, barbe de manouche Tu peux pas faire plus dangerous Tires moi dans les shoes ou bute moi sous la douche Mon couz,t'éviteras pas le morphing de Mesrine et Massoud Tous traine à l'OAS aux lascars et c'est ti-par On f'ra tête a toutes les typar à dix barres Moi j'ai l'histoire et le savoir dans mon porte-flingue Je suis le baveux des banlieues pour qu'elle porte plainte On arrive à 5, découper le beat à Seth Avec des couplets décuplés pour les piques-assiettes Y'a pas à tortiller du khanza pour marcher droit Je cellophane mes phases et envoies ça sur le marché noir Refrain</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4454,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>J'viens de la génération Mad Max et y'a pas qu'moi On s'enfonce dans le magma et les keufs jouent les Batman Violence collatérale, banlieue dénaturée Qui ne cesse d'accoucher de gangsters prématurés L'engrenage est mortel, faut pas que tu le sous-estime Dans mon ghetto, j'ai vu des victimes devenir des Mesrine Bien dans mon monde de Gwada à Saint-Ouen lAumône Tu verras que les mômes font des sous sans faire l'aumône Nos mères triment avec la misère en synchro On a pas les plans de Doc Gyneco pour ves-qui les impôts On sait se débrouiller, nous parle pas de travailler Certains oublient ce que c'est car ils sont trop affamés Y'a des braqueurs, des rappeurs, des footballeurs Touches à la famille, on on t'surine comme dans les films d'horreur Y'a du bon et du mauvais des bonhommes et des voyous Sur le même radeau, habitué à manger des cailloux Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien Chez moi les re-noi parlent re-beu, les re-beu parle re-noi Même les babtous mange le tiep avec les doigts Et tout ça c'est vice et Versace Si tu demandes une fourchette c'est toute la mif qui est fâchée Ici tu te fais renifler par des pitt', pas des St Bernard On a l'accent du ter-ter, pas l'accent du terroir L'été c'est dawa et tah la pub Knacki On fait des barbecues avec les grilles de Caddie La cabine du tier-quar c'est notre fixe Lis bien la notice ici tu peux tomber à cause de ton 0.6 Au-dessus de la tèce plane un nuage d'hydropolis Tu me diras ça sent le pastis dans les bureaux de police You might also like Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien Seth Gueko J'porte le drapeau du 9.5 comme une crinière Quoi d'plus beau que de mourir sur un tapis de prière La tèce t'ouvre les portes de son frigidaire Là où les train sont perturbés par les suicidaires J'suis un chien de la casse, mes têtes cramax s'inscrivent à la thaï Pendant que les napis s'défoncent au Xanax Sur mes yeuz les paires d'air max sont goudronneuses J'suis marqué comme le pare-choc d'une auto-tamponneuse Brasco On mange à l'africaine, fume la jamaïquaine On drague à l'antillaise et on s'arme à la tchétchène On rappe à la française, on se sape à l'américaine On fait partie de ce gens que les mairies craignent On compte pas sur eux et y s'étonnent qu'on soit dans le commerce On s'en fout de leur baratin et de leur fausses promesses Malheureusement c'est chez nous où tu veux qu'on aille Avec le peu de maille frelot c'est pour ça qu'on raille x2 Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien</t>
+          <t>J'viens de la génération Mad Max et y'a pas qu'moi On s'enfonce dans le magma et les keufs jouent les Batman Violence collatérale, banlieue dénaturée Qui ne cesse d'accoucher de gangsters prématurés L'engrenage est mortel, faut pas que tu le sous-estime Dans mon ghetto, j'ai vu des victimes devenir des Mesrine Bien dans mon monde de Gwada à Saint-Ouen lAumône Tu verras que les mômes font des sous sans faire l'aumône Nos mères triment avec la misère en synchro On a pas les plans de Doc Gyneco pour ves-qui les impôts On sait se débrouiller, nous parle pas de travailler Certains oublient ce que c'est car ils sont trop affamés Y'a des braqueurs, des rappeurs, des footballeurs Touches à la famille, on on t'surine comme dans les films d'horreur Y'a du bon et du mauvais des bonhommes et des voyous Sur le même radeau, habitué à manger des cailloux Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien Chez moi les re-noi parlent re-beu, les re-beu parle re-noi Même les babtous mange le tiep avec les doigts Et tout ça c'est vice et Versace Si tu demandes une fourchette c'est toute la mif qui est fâchée Ici tu te fais renifler par des pitt', pas des St Bernard On a l'accent du ter-ter, pas l'accent du terroir L'été c'est dawa et tah la pub Knacki On fait des barbecues avec les grilles de Caddie La cabine du tier-quar c'est notre fixe Lis bien la notice ici tu peux tomber à cause de ton 0.6 Au-dessus de la tèce plane un nuage d'hydropolis Tu me diras ça sent le pastis dans les bureaux de police Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien Seth Gueko J'porte le drapeau du 9.5 comme une crinière Quoi d'plus beau que de mourir sur un tapis de prière La tèce t'ouvre les portes de son frigidaire Là où les train sont perturbés par les suicidaires J'suis un chien de la casse, mes têtes cramax s'inscrivent à la thaï Pendant que les napis s'défoncent au Xanax Sur mes yeuz les paires d'air max sont goudronneuses J'suis marqué comme le pare-choc d'une auto-tamponneuse Brasco On mange à l'africaine, fume la jamaïquaine On drague à l'antillaise et on s'arme à la tchétchène On rappe à la française, on se sape à l'américaine On fait partie de ce gens que les mairies craignent On compte pas sur eux et y s'étonnent qu'on soit dans le commerce On s'en fout de leur baratin et de leur fausses promesses Malheureusement c'est chez nous où tu veux qu'on aille Avec le peu de maille frelot c'est pour ça qu'on raille x2 Mais où tu veux que j'aille chez moi c'est ici Ma tèce a son charme, ses codes explicites J'ai les mains sales, je n'y peux rien Je me plains mais j'aime cette vie de chien</t>
         </is>
       </c>
     </row>
@@ -4475,7 +4471,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Capuché, Cagoulé, Moustaché Lunettes de Soleilé, Brushingé Broliqué, blah Blah ! RS4 replaqué avec le Giro On est tous reblazé le co-pilote c'est De Niro Tu chipotes, on t'ligote comme un gigot Tu gigotes, coup de tatane dans les organes génitaux On a tous des capuches sur le Chiro On roule à toute berzingue Rafale de dragés dans ta carlingue Ce soir, on fait la bringue aux frais de la Brinks Poto sort le Guig's, que l'convoyeur y craque son String ouais Même la cagoule elle sort du pressing Reste pas devant la banque avec les warnings Bourlingue ou va te faire Instoppable comme un char de guerre Intordable en affaire comme une barre de fer Cache ton visage, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Casse ta puce, v'la l'arnouche, va y avoir du grabuge Pour pas qu'les voisins t'accusent, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Le son des capuches, Le son des capuches Enfourailler, fou à lier, Zdedededex Quand faut y aller, faut y aller, Zdedededex X2 You might also like Pleins phares, feux anti Brouillard Flingues dans l'accoudoir, tu fais du stop avec un mouchoir Manque de pot, il fait tout noir, t'as la gueule du mouchard On va t'soutirer le code de ta carte, avec le jeu du foulard Wé, alors tout le monde fout sa capuche On s'donne une heure pour ramasser un maximum de billets À vos glocks, prêts, feu, braquez, Zblexx ! Cocktaïl Molotov, incendies criminels Braquos amateurs sapés en haute couture sicilienne On r'fait la déco avec des bastos XXL Vous allez r'trouver la banquière pendue avec son string ficelle Cache ton visage, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Casse ta puce, v'la l'arnouche, va y avoir du grabuge Pour pas qu'les voisins t'accusent, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Le son des capuches, Le son des capuches Enfourailler, fou à lier, Zdedededex Quand faut y aller, faut y aller, Zdedededex X2 Vito touts noirs, vitres teintées On r'trouve à poil dans la forêt de Saint Germain en Laye Les mains en l'air, où est la monnaie On veut tout rafler Tu fais l'fou, oublie pas qu'on t'a photographié Si y a une panne de Senss-é, on t'siphonne le coco Halls d'entrée enfumés, ça pilonne le popo Ça dépouille pendant Devenlay tricote le Croco Commission rogatoire, keufs habillés en clodos 22 v'la les perdreaux, caca monte au cerveau Un képi, une plaque sur l'pectoraux, ça joue les taureaux Les riches créront les ghettos, ma mère créa Seth Gueko Dieu a créé l'homme, Smith Wesson les rendra égaux 1</t>
+          <t>Capuché, Cagoulé, Moustaché Lunettes de Soleilé, Brushingé Broliqué, blah Blah ! RS4 replaqué avec le Giro On est tous reblazé le co-pilote c'est De Niro Tu chipotes, on t'ligote comme un gigot Tu gigotes, coup de tatane dans les organes génitaux On a tous des capuches sur le Chiro On roule à toute berzingue Rafale de dragés dans ta carlingue Ce soir, on fait la bringue aux frais de la Brinks Poto sort le Guig's, que l'convoyeur y craque son String ouais Même la cagoule elle sort du pressing Reste pas devant la banque avec les warnings Bourlingue ou va te faire Instoppable comme un char de guerre Intordable en affaire comme une barre de fer Cache ton visage, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Casse ta puce, v'la l'arnouche, va y avoir du grabuge Pour pas qu'les voisins t'accusent, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Le son des capuches, Le son des capuches Enfourailler, fou à lier, Zdedededex Quand faut y aller, faut y aller, Zdedededex X2 Pleins phares, feux anti Brouillard Flingues dans l'accoudoir, tu fais du stop avec un mouchoir Manque de pot, il fait tout noir, t'as la gueule du mouchard On va t'soutirer le code de ta carte, avec le jeu du foulard Wé, alors tout le monde fout sa capuche On s'donne une heure pour ramasser un maximum de billets À vos glocks, prêts, feu, braquez, Zblexx ! Cocktaïl Molotov, incendies criminels Braquos amateurs sapés en haute couture sicilienne On r'fait la déco avec des bastos XXL Vous allez r'trouver la banquière pendue avec son string ficelle Cache ton visage, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Casse ta puce, v'la l'arnouche, va y avoir du grabuge Pour pas qu'les voisins t'accusent, c'est le son des capuches Mets des gants sur tes paluches, c'est le son des capuches Pousse le son, hoche la tête, c'est le son des capuches Le son des capuches, Le son des capuches Enfourailler, fou à lier, Zdedededex Quand faut y aller, faut y aller, Zdedededex X2 Vito touts noirs, vitres teintées On r'trouve à poil dans la forêt de Saint Germain en Laye Les mains en l'air, où est la monnaie On veut tout rafler Tu fais l'fou, oublie pas qu'on t'a photographié Si y a une panne de Senss-é, on t'siphonne le coco Halls d'entrée enfumés, ça pilonne le popo Ça dépouille pendant Devenlay tricote le Croco Commission rogatoire, keufs habillés en clodos 22 v'la les perdreaux, caca monte au cerveau Un képi, une plaque sur l'pectoraux, ça joue les taureaux Les riches créront les ghettos, ma mère créa Seth Gueko Dieu a créé l'homme, Smith Wesson les rendra égaux 1</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4488,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>On dit qu'on respecte le rappeur selon l'message Moi j'en ai un, c'est va t'faire sucer dans un salon d'massage J'suis au rap c'que le spéculum est au gynécologue Après l'vagin, c'est au tour du pénis de faire son monologue J'ai pas d'abdominaux, non, j'ai l'même ventre que Bouddha J'suis à Phuket ce que Sefyu est à Aulnay-sous-Bois Wesh la délinquance, est-ce que vous êtes là ? Insufflez la fumée du zetla ou soufflez dans l'vuvuzela Faites du bruit comme le pot d'un biker Y a pire qu'un mec qui a pas d'couille, c'est une femme qui a pas d'coeur Ma gueule, on veut du cash, fuck les négoc' J'ai l'swagg d'un proxénète corse, protège les gosses Seth Guex pour NeoBoto.com Blex ! Paroles rédigées et expliquées par la communauté RapGenius FranceYou might also like</t>
+          <t>On dit qu'on respecte le rappeur selon l'message Moi j'en ai un, c'est va t'faire sucer dans un salon d'massage J'suis au rap c'que le spéculum est au gynécologue Après l'vagin, c'est au tour du pénis de faire son monologue J'ai pas d'abdominaux, non, j'ai l'même ventre que Bouddha J'suis à Phuket ce que Sefyu est à Aulnay-sous-Bois Wesh la délinquance, est-ce que vous êtes là ? Insufflez la fumée du zetla ou soufflez dans l'vuvuzela Faites du bruit comme le pot d'un biker Y a pire qu'un mec qui a pas d'couille, c'est une femme qui a pas d'coeur Ma gueule, on veut du cash, fuck les négoc' J'ai l'swagg d'un proxénète corse, protège les gosses Seth Guex pour NeoBoto.com Blex ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4505,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Paye ta rapta, on a plus l'temps, on fera du Rap sale durant l'reste de notre existence entre nègres et rabzas puants Cool tant qu'y'a l'son qui joue Avec Seth Gueko, on tue avec n'importe quel métaux, on s'place en vitesse blaireau On s'lève très tôt, on trouve l'temps de ken des gos, mec c'est sexe bédo tarots, ressert l'étau, nous on s'sert des mots Tu veux pécho l'matos, j'fais plus les choses gratos salaud, reste à droite car c'est aud-ch à gauche Nous aussi on a des grosses bastos, on nique les , alors les djos calmos J'roule avec Dave et Kévin Ramos, que des gens qui coupent, comme mon négro Katana, pas besoin qu'y est du sang qui coule Tranquille couz' y'a l'temps qui court et tant pis pour les pressés, tu veux m'baiser, j'ai mon clan qui m'couvre Le temps tape un sprint, je m'en tape ainsi qu'le reste de ce bas monde, pour l'instant lâche un stick Je crache un style de vampire, mec faut qu'on s'empiffre, qu'on s'en tire, le temps passe trop vite, le luxe j'le sens venir Sans rire le manque d'amour nous fait vieillir, on transpire pour bâtir notre empire gros et s'enfuir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court... Yo J'rappe alors qu'le temps passe, si tu saignes mets un Tampax J'envoie mes tracks avec de l'entraxe Il est temps d'faire du ze-flou vieux fou, devant les Lamborghini j'ai les yeux flous Moi j't'endors Billy, j'veux un lit d'or, j'fais du blé comme Épi d'Or pendant qu'le képi dort J'veux pas foutre ma vie en l'air, j'veux poser ma mif' dans une tess' pavillonnaire yo Masta Je prends d'l'âge au lieu de prendre l'argent, comme un tas d'gens j'm'enrage au milieu des darmes-gen Catastrophique, y'a pas d'beau fixe, le temps passe trop vite quand tu fracasses trop d'flics Les heures tournent sur la lex-Ro, pas d'politesse go, moins doigt dans l'boule à Julie Lescaut Casse-bélier en Lexus, yo check a-ç, mec sale en Versace versus le Texas Sur l'plexus j'ai les clés du box, j'suis à la fois Cassius Clay et Franck Dubosc Le temps court à la vitesse de Merlene Ottey, mais j'suis trop despi pour que les tchoïs puissent me voir menotté You might also like Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court... Calme tes ardeurs, j'suis un tapeur et mes stunts percutent, rappeur et dragueur à mes heures perdues V'là un jeune arabe sale qui est entreprenant, c'est A.T.E.F et Jonathan mon autre prénom J'manie l'argot d'tess', j'ai des cargos d'texte réagit mal qu'on m'teste Explose l'alcootest, le Rap d'la Côte Est, les gos à grosses fesses, accros d'sexe et check ça Faut qu'ma poétique soit prolifique, j'suis un sale beur encore frais Tu connais ma politique, j'veux ma gueule en poster Mon esprit se fortifie, j'suis un master en mode guerre Incorrigible, j'ai un corps rigide et j'ai besoin d'un bol d'air Ness-bizz' à vingt ans, j'finirais par taffer, si tu vas en enfer avant moi prépare le café J'ai l'ventre vide et envie d'pèze, me clasher c'est croiser un chat noir sous une échelle un vendredi treize Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir1</t>
+          <t>Paye ta rapta, on a plus l'temps, on fera du Rap sale durant l'reste de notre existence entre nègres et rabzas puants Cool tant qu'y'a l'son qui joue Avec Seth Gueko, on tue avec n'importe quel métaux, on s'place en vitesse blaireau On s'lève très tôt, on trouve l'temps de ken des gos, mec c'est sexe bédo tarots, ressert l'étau, nous on s'sert des mots Tu veux pécho l'matos, j'fais plus les choses gratos salaud, reste à droite car c'est aud-ch à gauche Nous aussi on a des grosses bastos, on nique les , alors les djos calmos J'roule avec Dave et Kévin Ramos, que des gens qui coupent, comme mon négro Katana, pas besoin qu'y est du sang qui coule Tranquille couz' y'a l'temps qui court et tant pis pour les pressés, tu veux m'baiser, j'ai mon clan qui m'couvre Le temps tape un sprint, je m'en tape ainsi qu'le reste de ce bas monde, pour l'instant lâche un stick Je crache un style de vampire, mec faut qu'on s'empiffre, qu'on s'en tire, le temps passe trop vite, le luxe j'le sens venir Sans rire le manque d'amour nous fait vieillir, on transpire pour bâtir notre empire gros et s'enfuir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court... Yo J'rappe alors qu'le temps passe, si tu saignes mets un Tampax J'envoie mes tracks avec de l'entraxe Il est temps d'faire du ze-flou vieux fou, devant les Lamborghini j'ai les yeux flous Moi j't'endors Billy, j'veux un lit d'or, j'fais du blé comme Épi d'Or pendant qu'le képi dort J'veux pas foutre ma vie en l'air, j'veux poser ma mif' dans une tess' pavillonnaire yo Masta Je prends d'l'âge au lieu de prendre l'argent, comme un tas d'gens j'm'enrage au milieu des darmes-gen Catastrophique, y'a pas d'beau fixe, le temps passe trop vite quand tu fracasses trop d'flics Les heures tournent sur la lex-Ro, pas d'politesse go, moins doigt dans l'boule à Julie Lescaut Casse-bélier en Lexus, yo check a-ç, mec sale en Versace versus le Texas Sur l'plexus j'ai les clés du box, j'suis à la fois Cassius Clay et Franck Dubosc Le temps court à la vitesse de Merlene Ottey, mais j'suis trop despi pour que les tchoïs puissent me voir menotté Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court... Calme tes ardeurs, j'suis un tapeur et mes stunts percutent, rappeur et dragueur à mes heures perdues V'là un jeune arabe sale qui est entreprenant, c'est A.T.E.F et Jonathan mon autre prénom J'manie l'argot d'tess', j'ai des cargos d'texte réagit mal qu'on m'teste Explose l'alcootest, le Rap d'la Côte Est, les gos à grosses fesses, accros d'sexe et check ça Faut qu'ma poétique soit prolifique, j'suis un sale beur encore frais Tu connais ma politique, j'veux ma gueule en poster Mon esprit se fortifie, j'suis un master en mode guerre Incorrigible, j'ai un corps rigide et j'ai besoin d'un bol d'air Ness-bizz' à vingt ans, j'finirais par taffer, si tu vas en enfer avant moi prépare le café J'ai l'ventre vide et envie d'pèze, me clasher c'est croiser un chat noir sous une échelle un vendredi treize Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir Parce que le temps qui court, court, change les plaisirs Et que le manque d'amour nous fait vieillir1</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4522,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Même si je me lève du bon pied Je finis toujours par gueuler comme un père gaulois On reconnaît un homme au père qu'il est Et à la paire qu'il a J'engueule mon fils celui que t'appelle Stosba Même si il fait deux têtes de plus que moi On est à deux doigts de se péta sous la pergola Et tout en le pointant du doigt J'attends qu'il me dise excuse moi papa Et c'est là qu'il me sors Tu parles mal quand tu bois Alors vois tu trou de cul Je parle mal certes mais je ne bois plus On en est là, une relation tuba Faut pas que ce putain de rap nous brise la mi-fa Mais c'est ce qui arrivera si tu joue le Wiz Khalifa Ramène le permis je t'achète la tur-voi C'est comme ça chez les Salva Même si ça va pas Je répond ça va Oui ça m'handicape Ça wadicape ? Non ça wadicape pas Et je vais t'expliquer pourquoi La yeu-ta m'a beaucoup appris Cette saloperie, et j'en ai payé le prix Tout ce qu'elle m'a donné elle l'a repris Pris ce que j'avais de plus sacré Le venin que le serpent sécrète n'est pas sucré Venez je vous raconte nos secrets Je suis triste et j'en bave Car souvent la vie gifle les gens braves On m'arrache le fruit de mes entrailles Et personne ne déchiffre mes entailles Je suis pas du style à crier scandale Mais imagine le délire moi en pleure chez les flics les gendarmes Elles étaient scolarisées J'aurais pas autorisé que mes deux filles elles s'en aillent Et d'être privé de leur smile Arraché de leur confort au pays du roquefort Kidnappées, alors que leur passeport était dans le coffre-fort Qui a fini par céder Je reconnais mes torts J'ai même pas fais l'effort de recoller les morceaux Quand c'est mort c'est mort et ça m'est tombé dessus comme un météore Retrouver mes filles, les serrer fort Fuck le téléphone Votre père est à l'aéroport Mais y'a jamais sonne-per derrière la te-por Quand l'amour fait défaut La vengeance fait des folles et des fous Fait des orphelines de papa barlou Tu me vois debout mais je suis à genoux Ça pleure un barlou Ça à mal un barlou Ça saigne un barlou On est des humains avant toutYou might also like</t>
+          <t>Même si je me lève du bon pied Je finis toujours par gueuler comme un père gaulois On reconnaît un homme au père qu'il est Et à la paire qu'il a J'engueule mon fils celui que t'appelle Stosba Même si il fait deux têtes de plus que moi On est à deux doigts de se péta sous la pergola Et tout en le pointant du doigt J'attends qu'il me dise excuse moi papa Et c'est là qu'il me sors Tu parles mal quand tu bois Alors vois tu trou de cul Je parle mal certes mais je ne bois plus On en est là, une relation tuba Faut pas que ce putain de rap nous brise la mi-fa Mais c'est ce qui arrivera si tu joue le Wiz Khalifa Ramène le permis je t'achète la tur-voi C'est comme ça chez les Salva Même si ça va pas Je répond ça va Oui ça m'handicape Ça wadicape ? Non ça wadicape pas Et je vais t'expliquer pourquoi La yeu-ta m'a beaucoup appris Cette saloperie, et j'en ai payé le prix Tout ce qu'elle m'a donné elle l'a repris Pris ce que j'avais de plus sacré Le venin que le serpent sécrète n'est pas sucré Venez je vous raconte nos secrets Je suis triste et j'en bave Car souvent la vie gifle les gens braves On m'arrache le fruit de mes entrailles Et personne ne déchiffre mes entailles Je suis pas du style à crier scandale Mais imagine le délire moi en pleure chez les flics les gendarmes Elles étaient scolarisées J'aurais pas autorisé que mes deux filles elles s'en aillent Et d'être privé de leur smile Arraché de leur confort au pays du roquefort Kidnappées, alors que leur passeport était dans le coffre-fort Qui a fini par céder Je reconnais mes torts J'ai même pas fais l'effort de recoller les morceaux Quand c'est mort c'est mort et ça m'est tombé dessus comme un météore Retrouver mes filles, les serrer fort Fuck le téléphone Votre père est à l'aéroport Mais y'a jamais sonne-per derrière la te-por Quand l'amour fait défaut La vengeance fait des folles et des fous Fait des orphelines de papa barlou Tu me vois debout mais je suis à genoux Ça pleure un barlou Ça à mal un barlou Ça saigne un barlou On est des humains avant tout</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4539,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Même si je me lève du bon pied Je finis toujours par gueuler comme un père gaulois On reconnaît un homme au père qu'il est Et à la paire qu'il a J'engueule mon fils celui que t'appelle Stosba Même si il fait deux têtes de plus que moi On est à deux doigts de se péta sous la pergola Et tout en le pointant du doigt J'attends qu'il me dise excuse moi papa Et c'est là qu'il me sors Tu parles mal quand tu bois Alors vois tu trou de cul Je parle mal certes mais je ne bois plus On en est là, une relation tuba Faut pas que ce putain de rap nous brise la mi-fa Mais c'est ce qui arrivera si tu joue le Wiz Khalifa Ramène le permis je t'achète la tur-voi C'est comme ça chez les Salva Même si ça va pas Je répond ça va Oui ça m'handicape Ça wadicape ? Non ça wadicape pas Et je vais t'expliquer pourquoi La yeu-ta m'a beaucoup appris Cette saloperie, et j'en ai payé le prix Tout ce qu'elle m'a donné elle l'a repris Pris ce que j'avais de plus sacré Le venin que le serpent sécrète n'est pas sucré Venez je vous raconte nos secrets Je suis triste et j'en bave Car souvent la vie gifle les gens braves On m'arrache le fruit de mes entrailles Et personne ne déchiffre mes entailles Je suis pas du style à crier scandale Mais imagine le délire moi en pleure chez les flics les gendarmes Elles étaient scolarisées J'aurais pas autorisé que mes deux filles elles s'en aillent Et d'être privé de leur smile Arraché de leur confort au pays du roquefort Kidnappées, alors que leur passeport était dans le coffre-fort Qui a fini par céder Je reconnais mes torts J'ai même pas fais l'effort de recoller les morceaux Quand c'est mort c'est mort et ça m'est tombé dessus comme un météore Retrouver mes filles, les serrer fort Fuck le téléphone Votre père est à l'aéroport Mais y'a jamais sonne-per derrière la te-por Quand l'amour fait défaut La vengeance fait des folles et des fous Fait des orphelines de papa barlou Tu me vois debout mais je suis à genoux Ça pleure un barlou Ça à mal un barlou Ça saigne un barlou On est des humains avant toutYou might also like</t>
+          <t>Même si je me lève du bon pied Je finis toujours par gueuler comme un père gaulois On reconnaît un homme au père qu'il est Et à la paire qu'il a J'engueule mon fils celui que t'appelle Stosba Même si il fait deux têtes de plus que moi On est à deux doigts de se péta sous la pergola Et tout en le pointant du doigt J'attends qu'il me dise excuse moi papa Et c'est là qu'il me sors Tu parles mal quand tu bois Alors vois tu trou de cul Je parle mal certes mais je ne bois plus On en est là, une relation tuba Faut pas que ce putain de rap nous brise la mi-fa Mais c'est ce qui arrivera si tu joue le Wiz Khalifa Ramène le permis je t'achète la tur-voi C'est comme ça chez les Salva Même si ça va pas Je répond ça va Oui ça m'handicape Ça wadicape ? Non ça wadicape pas Et je vais t'expliquer pourquoi La yeu-ta m'a beaucoup appris Cette saloperie, et j'en ai payé le prix Tout ce qu'elle m'a donné elle l'a repris Pris ce que j'avais de plus sacré Le venin que le serpent sécrète n'est pas sucré Venez je vous raconte nos secrets Je suis triste et j'en bave Car souvent la vie gifle les gens braves On m'arrache le fruit de mes entrailles Et personne ne déchiffre mes entailles Je suis pas du style à crier scandale Mais imagine le délire moi en pleure chez les flics les gendarmes Elles étaient scolarisées J'aurais pas autorisé que mes deux filles elles s'en aillent Et d'être privé de leur smile Arraché de leur confort au pays du roquefort Kidnappées, alors que leur passeport était dans le coffre-fort Qui a fini par céder Je reconnais mes torts J'ai même pas fais l'effort de recoller les morceaux Quand c'est mort c'est mort et ça m'est tombé dessus comme un météore Retrouver mes filles, les serrer fort Fuck le téléphone Votre père est à l'aéroport Mais y'a jamais sonne-per derrière la te-por Quand l'amour fait défaut La vengeance fait des folles et des fous Fait des orphelines de papa barlou Tu me vois debout mais je suis à genoux Ça pleure un barlou Ça à mal un barlou Ça saigne un barlou On est des humains avant tout</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4556,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Oh my gosh, elle veut une caille-ra dans son lit Elle kiffe les bad boys, elle veut de l'écaille dans son néné Miss, ouvre pas ton piff, on t'a pas sonné Sur la tête du petit qui braille, sur la tête de ma joncaille en or poinçonné Qu'on se déplace enfouraillés jusqu'au point Soleil D'ailleurs ce foutu calibre m'a laissé une trace de bronzage juste au-dessus du zgueg Rien ne vaut une patate avec les poings de Popeye Yeah, caille-ra jusqu'aux orteils, on a des trains de vie à risque Qu'ici les S.S arrivent, tape dans les tuyaux la miff, fou le bordel, que je guerave le penave dans le pain de mie Harrys Laisse s'exprimer l'asphalte, on est venu t'expliquer la ch'lap J'ai pas une dent, j'ai une mâchoire contre les flics et la JAP On est des vaillants, on va les exiler à Sparte Je mets des souris dans ma capote pour mieux t'exciter la chatte Lunettes noires avec reflet miroir Comme ça si tu portes lil, y reviens sur toi bâtard Y'en a marre de rentrer le ventre, ma gueule Si y'a un con j'le relâche et zblerx, tu prends un bouton de jean Versace dans l'oeil Ouais lunettes noires avec reflet miroir Comme ça si tu portes lil, y reviens sur toi bâtard N'ai pas peur, baby brown sugar Si ton mec rentre, je me cache dans le placard Zdédédédex You might also like On est les kings comme les gipsy Je donne l'or aux dauphins avec ma role-le-lex Deepsea Tu me dis que nan, je te dis que si, c'est toutes des lo-lo-lops C'est elle qu'a faim, c'est moi qui paye, bouffe mes bo-lo-lo-lox Ouais, t'es belle gosse mais t'as pas de sous sista Ton larfeuille il a le cancer, ton sac il a le sida Pff, c'est un Gucci-kungunya Wesh khoya t'es sur écoute ou quoi ? Quand tu m'appelle t'as une voix de robot comme les Black Eyed Peas Si Mesrine avait l'iPod, je serais dans sa playlist J'arrive comme une pavasse sur le car des kiss Ma couillasse je leur pisse à la raie comme le Manneken Pis J'ai encore le peignoir de l'Artemis alors écarte les cuisses Je préfère une thaï qui se dépiste qu'une tisse-mé qui taille des pipes Pensant que le dass c'est une marque de chips... non merci Y'a pas de sous dans le rap, y'en a que dans la drogue et le foot Je crois que je vais revendre en pochon l'herbe du Parc Des Princes C'est cochon de keufs me traquent sur Facebook, pour qu'on me passe les pinces Si tu m'a croqué le zboub, ben moi je te pince les eins-s Je veux bien être généreux princesse mais faut pas que tes rêves dépassent le price Même si on brasse des liasses, ici on te shlass d'abord puis on te demande si ça farte comme Brice de Nice A l'heure de la salât, les fronts embrassent le sol Mashallax alors que des fêlés embrassent leurs iens-ch On rêvasse, je me tue la tête au champagne de Reims Le lendemain dans les lettes-toi, je pisse du champagne de reins Je me rappel plus de rien, seul truc je sais que j'ai aim-f Elles s'épilent toutes, c'est plus des chattes qu'elles ont, c'est des sphinx Je laisserais jamais un pinc's en hass pour une starfuckeuze crasseuse Je veux du blé comme une moissonneuse batteuse</t>
+          <t>Oh my gosh, elle veut une caille-ra dans son lit Elle kiffe les bad boys, elle veut de l'écaille dans son néné Miss, ouvre pas ton piff, on t'a pas sonné Sur la tête du petit qui braille, sur la tête de ma joncaille en or poinçonné Qu'on se déplace enfouraillés jusqu'au point Soleil D'ailleurs ce foutu calibre m'a laissé une trace de bronzage juste au-dessus du zgueg Rien ne vaut une patate avec les poings de Popeye Yeah, caille-ra jusqu'aux orteils, on a des trains de vie à risque Qu'ici les S.S arrivent, tape dans les tuyaux la miff, fou le bordel, que je guerave le penave dans le pain de mie Harrys Laisse s'exprimer l'asphalte, on est venu t'expliquer la ch'lap J'ai pas une dent, j'ai une mâchoire contre les flics et la JAP On est des vaillants, on va les exiler à Sparte Je mets des souris dans ma capote pour mieux t'exciter la chatte Lunettes noires avec reflet miroir Comme ça si tu portes lil, y reviens sur toi bâtard Y'en a marre de rentrer le ventre, ma gueule Si y'a un con j'le relâche et zblerx, tu prends un bouton de jean Versace dans l'oeil Ouais lunettes noires avec reflet miroir Comme ça si tu portes lil, y reviens sur toi bâtard N'ai pas peur, baby brown sugar Si ton mec rentre, je me cache dans le placard Zdédédédex On est les kings comme les gipsy Je donne l'or aux dauphins avec ma role-le-lex Deepsea Tu me dis que nan, je te dis que si, c'est toutes des lo-lo-lops C'est elle qu'a faim, c'est moi qui paye, bouffe mes bo-lo-lo-lox Ouais, t'es belle gosse mais t'as pas de sous sista Ton larfeuille il a le cancer, ton sac il a le sida Pff, c'est un Gucci-kungunya Wesh khoya t'es sur écoute ou quoi ? Quand tu m'appelle t'as une voix de robot comme les Black Eyed Peas Si Mesrine avait l'iPod, je serais dans sa playlist J'arrive comme une pavasse sur le car des kiss Ma couillasse je leur pisse à la raie comme le Manneken Pis J'ai encore le peignoir de l'Artemis alors écarte les cuisses Je préfère une thaï qui se dépiste qu'une tisse-mé qui taille des pipes Pensant que le dass c'est une marque de chips... non merci Y'a pas de sous dans le rap, y'en a que dans la drogue et le foot Je crois que je vais revendre en pochon l'herbe du Parc Des Princes C'est cochon de keufs me traquent sur Facebook, pour qu'on me passe les pinces Si tu m'a croqué le zboub, ben moi je te pince les eins-s Je veux bien être généreux princesse mais faut pas que tes rêves dépassent le price Même si on brasse des liasses, ici on te shlass d'abord puis on te demande si ça farte comme Brice de Nice A l'heure de la salât, les fronts embrassent le sol Mashallax alors que des fêlés embrassent leurs iens-ch On rêvasse, je me tue la tête au champagne de Reims Le lendemain dans les lettes-toi, je pisse du champagne de reins Je me rappel plus de rien, seul truc je sais que j'ai aim-f Elles s'épilent toutes, c'est plus des chattes qu'elles ont, c'est des sphinx Je laisserais jamais un pinc's en hass pour une starfuckeuze crasseuse Je veux du blé comme une moissonneuse batteuse</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Les blagues racistes ça amuse que les porcs De la tésto' dans les muscles du corps La mosquée c'est la muscu' du cur Ils disent qu'la musique adoucit les murs La mienne endurcit les meurtres Medusa face sur le T-Shirt, bougs d'la té-c' dans le pick-up Bouge ta fesse comme une pin-up ou ça va chier comme dans la vidéo Two Girls One Cup Ouais sois belle et tais-toi, tes trous aiment avaler mes doigts Enterrez-moi dans la vallée des rois Plus d'une flèche à mon carquois, faut pas rester là, barre-toi J'bois du champagne et re-pisse de la Stella Artois Si tu veux rouler sur l'or, écrase-moi, les keufs font des passe-droits, les reufs font des quages-bra Leurs meufs veulent leur riage-ma, mais une cagole c'est deux neurones La vie n'est pas trop chère, asma3a, une cagoule c'est deux euros Ca me désole, qu'les femmes se rassurent, les plus grosses salopes que j'ai vu c'est des hommes La rue me résonne, j'suis venu décapiter leurs projets, les fister avec le même avant-bras que le Capitaine Crochet J'vais te planter, tu vas plainter, j'pourrai pas éviter l'procès Oh puté, les violeurs doivent être amputés Dépité, en France les voleurs sont députés Amputé, tu fais l'fou derrière ton PC mais tes couilles sont pas plus grosses que des raisins secs Tu faisais quoi avant d'avoir Internet ? T'arrachais les ailes des insectes ? Rassdèpe j'picole pas, j'me désinfecte J'me bat pour qu'le teur-inspec me l'astique et qu'la street me respecte Check, mieux vaut être respecté qu'être craint P'tits on lâchait des gros glaires et pétait des joints Alors la ferroviaire bah nous éjectait des trains J'sors du coiffeur, tu peux checker la netteté des coins J'ai toujours su détecter les tchoins Alors ne joue pas l'harmonieuse pucelle, ta vie n'est pas glorieuse tu sais, tu n'es qu'une charbonneuse du sexe Les larmes aux yeuz, y'a qu'au hebs que je n'souris plus J'pourrais avoir confiance aux keufs mais ces enfoirés tuent Demain j'ai une soirée pute non une soirée étudiante, une soirée débutantes mais elles veulent que la coke soit re-pu C'est une fois que le chat est repu qu'il trouve que le cul d'la souris pue Et vu qu'ton cul se dilate assez à l'air, facile à casser Demain toi et tes potes parleront de mes punchlines autour d'la machine à café J'vais baiser ta mère, lui offrir une machine à laverYou might also like2</t>
+          <t>Les blagues racistes ça amuse que les porcs De la tésto' dans les muscles du corps La mosquée c'est la muscu' du cur Ils disent qu'la musique adoucit les murs La mienne endurcit les meurtres Medusa face sur le T-Shirt, bougs d'la té-c' dans le pick-up Bouge ta fesse comme une pin-up ou ça va chier comme dans la vidéo Two Girls One Cup Ouais sois belle et tais-toi, tes trous aiment avaler mes doigts Enterrez-moi dans la vallée des rois Plus d'une flèche à mon carquois, faut pas rester là, barre-toi J'bois du champagne et re-pisse de la Stella Artois Si tu veux rouler sur l'or, écrase-moi, les keufs font des passe-droits, les reufs font des quages-bra Leurs meufs veulent leur riage-ma, mais une cagole c'est deux neurones La vie n'est pas trop chère, asma3a, une cagoule c'est deux euros Ca me désole, qu'les femmes se rassurent, les plus grosses salopes que j'ai vu c'est des hommes La rue me résonne, j'suis venu décapiter leurs projets, les fister avec le même avant-bras que le Capitaine Crochet J'vais te planter, tu vas plainter, j'pourrai pas éviter l'procès Oh puté, les violeurs doivent être amputés Dépité, en France les voleurs sont députés Amputé, tu fais l'fou derrière ton PC mais tes couilles sont pas plus grosses que des raisins secs Tu faisais quoi avant d'avoir Internet ? T'arrachais les ailes des insectes ? Rassdèpe j'picole pas, j'me désinfecte J'me bat pour qu'le teur-inspec me l'astique et qu'la street me respecte Check, mieux vaut être respecté qu'être craint P'tits on lâchait des gros glaires et pétait des joints Alors la ferroviaire bah nous éjectait des trains J'sors du coiffeur, tu peux checker la netteté des coins J'ai toujours su détecter les tchoins Alors ne joue pas l'harmonieuse pucelle, ta vie n'est pas glorieuse tu sais, tu n'es qu'une charbonneuse du sexe Les larmes aux yeuz, y'a qu'au hebs que je n'souris plus J'pourrais avoir confiance aux keufs mais ces enfoirés tuent Demain j'ai une soirée pute non une soirée étudiante, une soirée débutantes mais elles veulent que la coke soit re-pu C'est une fois que le chat est repu qu'il trouve que le cul d'la souris pue Et vu qu'ton cul se dilate assez à l'air, facile à casser Demain toi et tes potes parleront de mes punchlines autour d'la machine à café J'vais baiser ta mère, lui offrir une machine à laver2</t>
         </is>
       </c>
     </row>
@@ -4594,7 +4590,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>- C'est un campement ? Un campement d'manouches ? - Dans l'mille ! - Qu'est-ce qu'on fout ici ? - On vient acheter une caravane ! - À une bande de putain d'manouches ?! Tu tournes pas rond ! Ça va être un sac d'embrouilles ! One, two, one check, c'est la snatch mixtape ! P'tit frère si les keufs ils arrivent, nachave direct Je te tiens, je te traîne par la barbichette Le premier qui pleure, on l'noie dans la tartiflette On veut des armes discrètes et des Barbies tchèques J'connais mieux les murs d'ma tess que l'architecte Une p'tite shnek c'est comme une serrure d'coffre ça s'travaille Pas de balles à white c'est un drive-by en caravane Ma couillasse c'est pour ma marmaille de cas facial Cadenasse ta jonkaille ou tu r'pars à poil Barbeuk au gasoil pour tous mes vakeso Cocktail molotov sponsorisé par Esso Sois pas qué-cho, c'soir l'commissariat va té-sau Le feu lui n'va pas en prison, nique le garde des sceaux On paranoïe On s'fait filoche par des flash de Polaroïd comme dans un polar horrible You might also like Ma couillasse ! Wesh ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ! Ouais p'tit frère ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Y'a un problème avec les manouches ou les gitans On comprend pas grand chose à ce qu'ils racontent Ils parlent mal C'est pas un bon vent qui m'amène c'est l'cyclone Katrina Si t'as une cane-bé débridée assure tes cartilages On est masqués pour un casse comme pour Mardi Gras C'est un Yamaha Raptor qui tracte l'Adria oh caralho va va va va vat fodel ! J'bloque la route des keufs comme un camtar de poubelle Écoute quand j'te parle J'suis illégal comme un coup d'pelle volé sur un chantier de gueshtoupaw Zteupeuztepawwww Tu veux nous teste, laisse béton On a des avant-bras d'déménageurs bretons Si le p'tit mioche crissav donne lui l'téton Rien qu'on criav du béton Rien qu'on moutrav du béton Ma couillasse ! Wesh ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ! Ouais p'tit frère ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Hé tchopère C'est drive-by en caravane ! Faut guénav perlochet ! Seth Gueko, Louis d'fusil, Patrick Sebastos Néochrome - En définitif, le gentil manouche couvert d'un tatouage était un champion de boxe à mains nues... - Ce qui fait qu'il est plus résistant qu'un clou d'cercueil !</t>
+          <t>- C'est un campement ? Un campement d'manouches ? - Dans l'mille ! - Qu'est-ce qu'on fout ici ? - On vient acheter une caravane ! - À une bande de putain d'manouches ?! Tu tournes pas rond ! Ça va être un sac d'embrouilles ! One, two, one check, c'est la snatch mixtape ! P'tit frère si les keufs ils arrivent, nachave direct Je te tiens, je te traîne par la barbichette Le premier qui pleure, on l'noie dans la tartiflette On veut des armes discrètes et des Barbies tchèques J'connais mieux les murs d'ma tess que l'architecte Une p'tite shnek c'est comme une serrure d'coffre ça s'travaille Pas de balles à white c'est un drive-by en caravane Ma couillasse c'est pour ma marmaille de cas facial Cadenasse ta jonkaille ou tu r'pars à poil Barbeuk au gasoil pour tous mes vakeso Cocktail molotov sponsorisé par Esso Sois pas qué-cho, c'soir l'commissariat va té-sau Le feu lui n'va pas en prison, nique le garde des sceaux On paranoïe On s'fait filoche par des flash de Polaroïd comme dans un polar horrible Ma couillasse ! Wesh ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ! Ouais p'tit frère ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Y'a un problème avec les manouches ou les gitans On comprend pas grand chose à ce qu'ils racontent Ils parlent mal C'est pas un bon vent qui m'amène c'est l'cyclone Katrina Si t'as une cane-bé débridée assure tes cartilages On est masqués pour un casse comme pour Mardi Gras C'est un Yamaha Raptor qui tracte l'Adria oh caralho va va va va vat fodel ! J'bloque la route des keufs comme un camtar de poubelle Écoute quand j'te parle J'suis illégal comme un coup d'pelle volé sur un chantier de gueshtoupaw Zteupeuztepawwww Tu veux nous teste, laisse béton On a des avant-bras d'déménageurs bretons Si le p'tit mioche crissav donne lui l'téton Rien qu'on criav du béton Rien qu'on moutrav du béton Ma couillasse ! Wesh ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ! Ouais p'tit frère ! Ma couillasse ! Bleblebleblexxx ! Fais tourner l'son crawax dans ta carcasse et l'niax Hé tchopère C'est drive-by en caravane ! Faut guénav perlochet ! Seth Gueko, Louis d'fusil, Patrick Sebastos Néochrome - En définitif, le gentil manouche couvert d'un tatouage était un champion de boxe à mains nues... - Ce qui fait qu'il est plus résistant qu'un clou d'cercueil !</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Eh ma couillasse ! Moi c'est Seth Gueko Et j'te préviens, si tu viens m'chercher les noises, ça va être un sac d'embrouille Le Roumaine, balance la purée, zbleh Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax One, two, one check, c'est la snatch mixtape ! P'tit frère si les keufs ils arrivent, nachave direct Je te tiens, je te traîne par la barbichette Le premier qui pleure, on l'noie dans la tartiflette On veut des armes discrètes et des Barbies tchèques J'connais mieux les murs d'ma tess que l'architecte Une p'tite shnek c'est comme une serrure d'coffre ça s'travaille Pas de balles à white c'est un drive-by en caravane Ma couillasse c'est pour ma marmaille de cas facial Cadenasse ta jonkaille ou tu r'pars à poil Barbeuk au gasoil pour tous mes vakeso Cocktail molotov sponsorisé par Esso Sois pas qué-cho, c'soir l'commissariat va té-sau Le feu lui n'va pas en prison, nique le garde des sceaux On paranoïe On s'fait filoche par des flash de Polaroïd comme dans un polar horrible, zblex You might also like Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Eh y a un p'tit problème quand j'parle en gitan ou en manouche ma couille ! Personne ne comprend c'que j'raconte ! Dis-leur morray ! La chevalière, marche avant, marche arrière C'est pas un bon vent qui m'amène c'est l'cyclone Katrina Si t'as une cane-bé débridée assure tes cartilages On est masqués pour un casse comme pour Mardi Gras C'est un Yamaha Raptor qui tracte l'Adria oh caralho va va va va vat fodel ! J'bloque la route des keufs comme un camtar de poubelle Écoute quand j'te parle J'suis illégal comme un coup d'pelle volé sur un chantier de gueshtoupaw Zteupeuztepawwww Tu veux nous teste, laisse béton On a des avant-bras d'déménageurs bretons Si le p'tit mioche crissav donne lui l'téton Rien qu'on criav du béton Rien qu'on moutrav du béton Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Eh ma couillasse, moi c'est Seth Gueko A.K.A Patate de forain Tête de Roumain, zgeg de poulain Néochrome, renvoyez l'bousin</t>
+          <t>Eh ma couillasse ! Moi c'est Seth Gueko Et j'te préviens, si tu viens m'chercher les noises, ça va être un sac d'embrouille Le Roumaine, balance la purée, zbleh Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax One, two, one check, c'est la snatch mixtape ! P'tit frère si les keufs ils arrivent, nachave direct Je te tiens, je te traîne par la barbichette Le premier qui pleure, on l'noie dans la tartiflette On veut des armes discrètes et des Barbies tchèques J'connais mieux les murs d'ma tess que l'architecte Une p'tite shnek c'est comme une serrure d'coffre ça s'travaille Pas de balles à white c'est un drive-by en caravane Ma couillasse c'est pour ma marmaille de cas facial Cadenasse ta jonkaille ou tu r'pars à poil Barbeuk au gasoil pour tous mes vakeso Cocktail molotov sponsorisé par Esso Sois pas qué-cho, c'soir l'commissariat va té-sau Le feu lui n'va pas en prison, nique le garde des sceaux On paranoïe On s'fait filoche par des flash de Polaroïd comme dans un polar horrible, zblex Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Eh y a un p'tit problème quand j'parle en gitan ou en manouche ma couille ! Personne ne comprend c'que j'raconte ! Dis-leur morray ! La chevalière, marche avant, marche arrière C'est pas un bon vent qui m'amène c'est l'cyclone Katrina Si t'as une cane-bé débridée assure tes cartilages On est masqués pour un casse comme pour Mardi Gras C'est un Yamaha Raptor qui tracte l'Adria oh caralho va va va va vat fodel ! J'bloque la route des keufs comme un camtar de poubelle Écoute quand j'te parle J'suis illégal comme un coup d'pelle volé sur un chantier de gueshtoupaw Zteupeuztepawwww Tu veux nous teste, laisse béton On a des avant-bras d'déménageurs bretons Si le p'tit mioche crissav donne lui l'téton Rien qu'on criav du béton Rien qu'on moutrav du béton Ma couillasse wesh Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Ma couillasse ouais, p'tit frère Ma couillasse zbleblebleblex Fais tourner l'son crawax dans ta carcasse et l'niax Eh ma couillasse, moi c'est Seth Gueko A.K.A Patate de forain Tête de Roumain, zgeg de poulain Néochrome, renvoyez l'bousin</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4624,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Refrain Seth Gueko C'est en solo qu'j'pose, explose ta sono Bose Pas d'polo rose, sers un scotch double dose Ecoute quand le parisien cause Il vend du crack le Magicien d'Oz C'est en solo qu'j'pose Ou avec Greengos Mister Seth Guekos Pour la cause je m'explose Couplet 1 Greengo Magicien vend du crack, j'le détaille sur le track Diamant platine ou or, un jour j'aurais ma plaque Ici tout est black même sous verte de Kingston Combien d'MCs s'grattent les veines sur la route de brique jaune Greengo et Zdedededex, sors le latetetetex J'baise le game sans amour comme mes zezezezex Ici l'sang est froid, le coeur y'en a pas Ici l'bruit du savoir c'est ratatatat J'tire et je touche à tous les coups, poussez vous J'fais mon trou, parle mal j'fais sourire ton coup J'viens du sud donc par le bas, surveille ton trône et tes mots Regarde moi j'viens mordre le roi, j'suis ce fou qui a les crocs Pas b'soin d'le dire je l'sais que j'ai du talent La concu' se branle à s'en péter les phalanges La main m'gratte j'veux des billets nique la paperasse Viens voir le magicien poser dans la traphouse You might also likeRefrain Seth Gueko Couplet 2 Tortoz J'ai deux ballchains sous mon hoodie supreme Ils baisent la même pussy j'suis dans un booty superbe Au fond du carré pas b'soin d'feinter pour rentrer en survet Vu que jai la double cup au fond du club et qu'le club est à Seth Guex J'la fais crier, avec deux doigts comme Mick Jager Pink syrup à remplacer le verre de lean Ils veulent une vie meilleure moi j'veux une vie d'trader Ou juste être meilleur que mes ennemis Magicien comme Messmer On m'respecte toujours quand je presse play J'ai jamais l'même thème jamais la même paire Et même pour les paires d'seins j'm'oblige à changer chaque s'maine J'suis sur G-Town comme Beckham au Rittz Fais crisser la roue arrière d'la bécane en I Pas d'galanteries les bougs de chez moi c'est tes gars en pire Magicien d'Oz remplacera son chapeau par la couronne sur G Refrain Seth Gueko</t>
+          <t>Refrain Seth Gueko C'est en solo qu'j'pose, explose ta sono Bose Pas d'polo rose, sers un scotch double dose Ecoute quand le parisien cause Il vend du crack le Magicien d'Oz C'est en solo qu'j'pose Ou avec Greengos Mister Seth Guekos Pour la cause je m'explose Couplet 1 Greengo Magicien vend du crack, j'le détaille sur le track Diamant platine ou or, un jour j'aurais ma plaque Ici tout est black même sous verte de Kingston Combien d'MCs s'grattent les veines sur la route de brique jaune Greengo et Zdedededex, sors le latetetetex J'baise le game sans amour comme mes zezezezex Ici l'sang est froid, le coeur y'en a pas Ici l'bruit du savoir c'est ratatatat J'tire et je touche à tous les coups, poussez vous J'fais mon trou, parle mal j'fais sourire ton coup J'viens du sud donc par le bas, surveille ton trône et tes mots Regarde moi j'viens mordre le roi, j'suis ce fou qui a les crocs Pas b'soin d'le dire je l'sais que j'ai du talent La concu' se branle à s'en péter les phalanges La main m'gratte j'veux des billets nique la paperasse Viens voir le magicien poser dans la traphouse Refrain Seth Gueko Couplet 2 Tortoz J'ai deux ballchains sous mon hoodie supreme Ils baisent la même pussy j'suis dans un booty superbe Au fond du carré pas b'soin d'feinter pour rentrer en survet Vu que jai la double cup au fond du club et qu'le club est à Seth Guex J'la fais crier, avec deux doigts comme Mick Jager Pink syrup à remplacer le verre de lean Ils veulent une vie meilleure moi j'veux une vie d'trader Ou juste être meilleur que mes ennemis Magicien comme Messmer On m'respecte toujours quand je presse play J'ai jamais l'même thème jamais la même paire Et même pour les paires d'seins j'm'oblige à changer chaque s'maine J'suis sur G-Town comme Beckham au Rittz Fais crisser la roue arrière d'la bécane en I Pas d'galanteries les bougs de chez moi c'est tes gars en pire Magicien d'Oz remplacera son chapeau par la couronne sur G Refrain Seth Gueko</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4641,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Tapette essaie pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskin on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues La rue c'est dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues You might also like C'est impec' v'la zonard, j'suis le boss comme Zox' International comme Boston George Moi tout ce que j'sais faire, c'est du chiffre Tapette tu gicles, des spliffs avec du shit psartik t'as réussi De la Smirnoff dans le cockpit, j'met les faux MC dans le coffre J'baise sans cockring, lâche un seize takh les Offspring Chez moi c'est l'hood, vaut mieux pas chercher l'embrouille t'entends Pire couille puis y r'coudent et puis ça douille tonton Pas d'happy end, de la rillette sous l'Avirex Tu m'croises à la tirette, un conseil barre-toi directe Makache eh ouais ma caille t'es pas de ma classe J'transforme le rap en braquage et la drague en makache Salut c'est soit tu m'suces soit tu m'donnes ton phone-tel Pour nous t'es qu'une pute alors on t'traite comme telle Arrete de jouer les pom-poms contente toi de c'qu'on te donne Paris c'est L A et ma banlieue c'est Compton Il nous manque plus que les grosses caisses avec les amortisseurs Si t'as peur des flows de tess chérie rentre avant dix heures Ce style est grave vénéneux, tout le quartier prêt à péter C'est casse bélier deux frérots tu peux pas tester Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues J'rappe moins bien qu'Prodigy sauf que moi j'suis pas drépanocytaire Ce soir c'est ton départ au cimetière M'faire confiance ? Pfff... Demande à Lucifer C'est faire un feu d'camp près d'un camion citerne Personne n'aura ma dame Eh yo masta, si tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Quand y'a dra' n'hésite pas et vrraa it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues</t>
+          <t>Tapette essaie pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskin on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues La rue c'est dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues C'est impec' v'la zonard, j'suis le boss comme Zox' International comme Boston George Moi tout ce que j'sais faire, c'est du chiffre Tapette tu gicles, des spliffs avec du shit psartik t'as réussi De la Smirnoff dans le cockpit, j'met les faux MC dans le coffre J'baise sans cockring, lâche un seize takh les Offspring Chez moi c'est l'hood, vaut mieux pas chercher l'embrouille t'entends Pire couille puis y r'coudent et puis ça douille tonton Pas d'happy end, de la rillette sous l'Avirex Tu m'croises à la tirette, un conseil barre-toi directe Makache eh ouais ma caille t'es pas de ma classe J'transforme le rap en braquage et la drague en makache Salut c'est soit tu m'suces soit tu m'donnes ton phone-tel Pour nous t'es qu'une pute alors on t'traite comme telle Arrete de jouer les pom-poms contente toi de c'qu'on te donne Paris c'est L A et ma banlieue c'est Compton Il nous manque plus que les grosses caisses avec les amortisseurs Si t'as peur des flows de tess chérie rentre avant dix heures Ce style est grave vénéneux, tout le quartier prêt à péter C'est casse bélier deux frérots tu peux pas tester Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues J'rappe moins bien qu'Prodigy sauf que moi j'suis pas drépanocytaire Ce soir c'est ton départ au cimetière M'faire confiance ? Pfff... Demande à Lucifer C'est faire un feu d'camp près d'un camion citerne Personne n'aura ma dame Eh yo masta, si tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Quand y'a dra' n'hésite pas et vrraa it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4658,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Tapette essaie pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskin on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues La rue c'est dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues You might also like C'est impec' v'la zonard, j'suis le boss comme Zox' International comme Boston George Moi tout ce que j'sais faire, c'est du chiffre Tapette tu gicles, des spliffs avec du shit psartik t'as réussi De la Smirnoff dans le cockpit, j'met les faux MC dans le coffre J'baise sans cockring, lâche un seize takh les Offspring Chez moi c'est l'hood, vaut mieux pas chercher l'embrouille t'entends Pire couille puis y r'coudent et puis ça douille tonton Pas d'happy end, de la rillette sous l'Avirex Tu m'croises à la tirette, un conseil barre-toi directe Makache eh ouais ma caille t'es pas de ma classe J'transforme le rap en braquage et la drague en makache Salut c'est soit tu m'suces soit tu m'donnes ton phone-tel Pour nous t'es qu'une pute alors on t'traite comme telle Arrete de jouer les pom-poms contente toi de c'qu'on te donne Paris c'est L A et ma banlieue c'est Compton Il nous manque plus que les grosses caisses avec les amortisseurs Si t'as peur des flows de tess chérie rentre avant dix heures Ce style est grave vénéneux, tout le quartier prêt à péter C'est casse bélier deux frérots tu peux pas tester Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues J'rappe moins bien qu'Prodigy sauf que moi j'suis pas drépanocytaire Ce soir c'est ton départ au cimetière M'faire confiance ? Pfff... Demande à Lucifer C'est faire un feu d'camp près d'un camion citerne Personne n'aura ma dame Eh yo masta, si tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Quand y'a dra' n'hésite pas et vrraa it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues</t>
+          <t>Tapette essaie pas de carotte Seth Ou ton nez sera une piste d'atterrissage pour mon front 747 Belette, j'veux juste une p'tit branlette Meskin on rackette à coup d'Timberland Justin Timberlake J'laisserai pas mon dos dans une manufacture Manu Paie la facture ou on t'fracture les os à mains nues La rue c'est dégueulasse Yeah, j'ai pas d'gros pec hélas Béni soit le fabricant des guns aciers Les grosses cane-bé font trembler l'asphalte Sarko a cauchemardé qu'on étranglait sa femme Y'a du VIH dans le paysage J'ai moins peur d'faire un braquage que le dépistage Sarcastique, on défonce les crêpes à Place Bastille Rêvant d'étouffer le banquier avec un sac plastique On vient des ghettos cosmopolites J'applique la loi du silence donc chut causes à mon brolic Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues C'est impec' v'la zonard, j'suis le boss comme Zox' International comme Boston George Moi tout ce que j'sais faire, c'est du chiffre Tapette tu gicles, des spliffs avec du shit psartik t'as réussi De la Smirnoff dans le cockpit, j'met les faux MC dans le coffre J'baise sans cockring, lâche un seize takh les Offspring Chez moi c'est l'hood, vaut mieux pas chercher l'embrouille t'entends Pire couille puis y r'coudent et puis ça douille tonton Pas d'happy end, de la rillette sous l'Avirex Tu m'croises à la tirette, un conseil barre-toi directe Makache eh ouais ma caille t'es pas de ma classe J'transforme le rap en braquage et la drague en makache Salut c'est soit tu m'suces soit tu m'donnes ton phone-tel Pour nous t'es qu'une pute alors on t'traite comme telle Arrete de jouer les pom-poms contente toi de c'qu'on te donne Paris c'est L A et ma banlieue c'est Compton Il nous manque plus que les grosses caisses avec les amortisseurs Si t'as peur des flows de tess chérie rentre avant dix heures Ce style est grave vénéneux, tout le quartier prêt à péter C'est casse bélier deux frérots tu peux pas tester Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues J'rappe moins bien qu'Prodigy sauf que moi j'suis pas drépanocytaire Ce soir c'est ton départ au cimetière M'faire confiance ? Pfff... Demande à Lucifer C'est faire un feu d'camp près d'un camion citerne Personne n'aura ma dame Eh yo masta, si tu rappes mon texte tu casses ton Ramadan Mon shit est gras ma cité crame Quand y'a dra' n'hésite pas et vrraa it's the crime Ouais, regarde là où la soucoupe volante Et hop en deux secondes tu te manges une zouloute violente Mec t'es pas à l'abri d'une khizou Le rap français a perdu les eaux c'est moi le père du réseau Yeah masta masta Les mains salies par les dièses Les mains salies par le taf Les mains salies par les flingues L'estomac sali par le sky Les poumons noircis par le shit Les mains salies par les flingues</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4675,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Jamais en pénurie de charasse Je gifle Macron avec ma liasse Zin tu connais le topo face à moi si tu joues le Bruce Lee Pour tous ces pds de rappeurs bobo je suis beaucoup trop street Jamais une pétasse ne me tiendra par le bout de mon slip J'te souffle de la coc' dans le cul avec une paille comme le Loup de Wallstreet Toutes les pétasses c'est des bombes si elle suce mal je débande La codéine que c'est bon oui je me prends pour James bond De la magie j'peux t'en vendre mais ça c'est à tes dépend T'es pas accro mais t'es dedans tu passes le doigt sur les dents Elle a le cul à J-Lo Se dresse ma corne de rhino J'ai sauté sapé dans la piscine Donc j'mets billets sur le ventilo' J'repars avec ta copine, t'auras jamais mon code pin Toutes les pétasses me regardent Comme si sur ma tête Y avait une grosse prime You might also like Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Jamais en pénurie de charasse Je gifle Macron avec ma liasse Au pied du mur avec mes liasses je fais des briques Kamagra H24 j'en ai mal à la bite Chantilly sur ma queue, mange mon banana split pêche melba On fait des roues arrières sur la Nanaï 8 Moi aussi je préfère Rama Nine à Rama Dix J'suis mort dans le film mais c'est Paradise Beach Fait tes valises, on part au Mexique T'as rien à faire dans ce game comme anorexique Dans un club de strip Zin si ta vie est un film la mienne est une série Netflix Quel est le fils de pute qui s'est amusé à appeler les flics Gare à la lame sous la douche J'ai dit personne ne bouge Mes zins ont tous les yeux rouges Et ils te braquent au feu rouge Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Je jette ma kichta Jamais en pénurie de charasse Je gifle Macron avec ma liasse La police passe et puis repasse M'en bas les couilles de toutes tes menaces Survole la ville comme un rapace comme un vautour Je gifle Macron avec ma liasse</t>
+          <t>Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Jamais en pénurie de charasse Je gifle Macron avec ma liasse Zin tu connais le topo face à moi si tu joues le Bruce Lee Pour tous ces pds de rappeurs bobo je suis beaucoup trop street Jamais une pétasse ne me tiendra par le bout de mon slip J'te souffle de la coc' dans le cul avec une paille comme le Loup de Wallstreet Toutes les pétasses c'est des bombes si elle suce mal je débande La codéine que c'est bon oui je me prends pour James bond De la magie j'peux t'en vendre mais ça c'est à tes dépend T'es pas accro mais t'es dedans tu passes le doigt sur les dents Elle a le cul à J-Lo Se dresse ma corne de rhino J'ai sauté sapé dans la piscine Donc j'mets billets sur le ventilo' J'repars avec ta copine, t'auras jamais mon code pin Toutes les pétasses me regardent Comme si sur ma tête Y avait une grosse prime Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Jamais en pénurie de charasse Je gifle Macron avec ma liasse Au pied du mur avec mes liasses je fais des briques Kamagra H24 j'en ai mal à la bite Chantilly sur ma queue, mange mon banana split pêche melba On fait des roues arrières sur la Nanaï 8 Moi aussi je préfère Rama Nine à Rama Dix J'suis mort dans le film mais c'est Paradise Beach Fait tes valises, on part au Mexique T'as rien à faire dans ce game comme anorexique Dans un club de strip Zin si ta vie est un film la mienne est une série Netflix Quel est le fils de pute qui s'est amusé à appeler les flics Gare à la lame sous la douche J'ai dit personne ne bouge Mes zins ont tous les yeux rouges Et ils te braquent au feu rouge Dans le club je me mets la race Sur le cul de cette pétase je jette ma liasse Je jette ma kichta Jamais en pénurie de charasse Je gifle Macron avec ma liasse La police passe et puis repasse M'en bas les couilles de toutes tes menaces Survole la ville comme un rapace comme un vautour Je gifle Macron avec ma liasse</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4692,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Ici à midi pétante C'est martini pétanque On fait du bif, on décampe J'habite Wisteria Lane mais ma voisine c'est Virginie Despentes Pas Bree Van De Kamp, le monde s'divise en deux camps y a qui? Y a les Barlou et ceux qui rêvent de l'être Peut-on dire que je remplis le lave vaisselle Si j'prends la femme de ménage en levrett? En le-le Je vais fair du bruit comme quoi?, Comme deux squelettes Qui baisent à tue-tête dans un cercueil en métal Pour être honnête, la drogue circule en détail au DD Et ça sous le nez de la police nationale Et c'est l'État qui donne l'aval Ils nous laissent bicraver pour pas que les cités s'enflamment Et sur 100 femmes sur ma vie, combien sont mariées à des futurs Jonathan Daval beaucoup trop T'as trop fumé, pédo t'as touché coulé Dans ton cerveau, c'est comme dans le jeu bataille navale T'es la terreur de la ville mais ta mère te regarde comme l'erreur de sa vie Elle prie pour qu'ta lumière intérieure se ravive Même si t'as pas faim mange tes morts, mange tes morts Achète du pain et va manger tes morts Avec du vin et du boursin, mange tes morts, mange tes morts On peut pas pas m'arrêter quand j'démarre, quand j'dévore Sur place ou à emporter, tu vas manger tes morts En tarte ou en compoté, tu vas manger tes morts J'ai toujours la rage, j'ai toujours le mort J'ai encore la rage, j'ai encore le mort You might also like J'avance tout droit, droit, droit Comme Némésis dans Resident Evil 3 Ça va faire drah, drah, drah Vies où tu veux mais meurs où tu dois J'sors du hood, hood, j'ai plus froid J'ai mis ma doudoune à plumes d'oies Souvent le boum, boum du pouchka Et suivi du vroum, vroum d'une ture-voi Touche sa foufoune, t'as plus d'doigt On l'coupe, t'as plus de mains on te saigne On te raccourcit, t'es un forceur comme pépé l'putois Avec beaucoup de filles, tu mérites la coursive Que les keufs te poursuivent pointeur, avant de dormir J'récite Ayatoul Koursi, je m'arrête de taper quand je vois mes phalanges s'ouvrirent C'est mon challenge pourri et quand l'chat mange souris Bizarrement, je souris Même si t'as pas faim mange tes morts, mange tes morts Achète du pain et va manger tes morts Avec du vin et du boursin, mange tes morts, mange tes morts On peut pas pas m'arrêter quand j'démarre, quand j'dévore Sur place ou à emporter, tu vas manger tes morts En tarte ou en compotée, tu vas manger tes morts J'ai toujours la rage, j'ai toujours le mort J'ai encore la rage, j'ai encore le mort J'avance tout droit, droit, droit Comme Némésis dans Resident Evil 3 Ça va faire drah, drah, drah Vies où tu veux mais meurs où tu dois</t>
+          <t>Ici à midi pétante C'est martini pétanque On fait du bif, on décampe J'habite Wisteria Lane mais ma voisine c'est Virginie Despentes Pas Bree Van De Kamp, le monde s'divise en deux camps y a qui? Y a les Barlou et ceux qui rêvent de l'être Peut-on dire que je remplis le lave vaisselle Si j'prends la femme de ménage en levrett? En le-le Je vais fair du bruit comme quoi?, Comme deux squelettes Qui baisent à tue-tête dans un cercueil en métal Pour être honnête, la drogue circule en détail au DD Et ça sous le nez de la police nationale Et c'est l'État qui donne l'aval Ils nous laissent bicraver pour pas que les cités s'enflamment Et sur 100 femmes sur ma vie, combien sont mariées à des futurs Jonathan Daval beaucoup trop T'as trop fumé, pédo t'as touché coulé Dans ton cerveau, c'est comme dans le jeu bataille navale T'es la terreur de la ville mais ta mère te regarde comme l'erreur de sa vie Elle prie pour qu'ta lumière intérieure se ravive Même si t'as pas faim mange tes morts, mange tes morts Achète du pain et va manger tes morts Avec du vin et du boursin, mange tes morts, mange tes morts On peut pas pas m'arrêter quand j'démarre, quand j'dévore Sur place ou à emporter, tu vas manger tes morts En tarte ou en compoté, tu vas manger tes morts J'ai toujours la rage, j'ai toujours le mort J'ai encore la rage, j'ai encore le mort J'avance tout droit, droit, droit Comme Némésis dans Resident Evil 3 Ça va faire drah, drah, drah Vies où tu veux mais meurs où tu dois J'sors du hood, hood, j'ai plus froid J'ai mis ma doudoune à plumes d'oies Souvent le boum, boum du pouchka Et suivi du vroum, vroum d'une ture-voi Touche sa foufoune, t'as plus d'doigt On l'coupe, t'as plus de mains on te saigne On te raccourcit, t'es un forceur comme pépé l'putois Avec beaucoup de filles, tu mérites la coursive Que les keufs te poursuivent pointeur, avant de dormir J'récite Ayatoul Koursi, je m'arrête de taper quand je vois mes phalanges s'ouvrirent C'est mon challenge pourri et quand l'chat mange souris Bizarrement, je souris Même si t'as pas faim mange tes morts, mange tes morts Achète du pain et va manger tes morts Avec du vin et du boursin, mange tes morts, mange tes morts On peut pas pas m'arrêter quand j'démarre, quand j'dévore Sur place ou à emporter, tu vas manger tes morts En tarte ou en compotée, tu vas manger tes morts J'ai toujours la rage, j'ai toujours le mort J'ai encore la rage, j'ai encore le mort J'avance tout droit, droit, droit Comme Némésis dans Resident Evil 3 Ça va faire drah, drah, drah Vies où tu veux mais meurs où tu dois</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4709,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Salope de schmitt Tatoué comme le MS C'est Gribs et Seth Guex Il s'parfume au Bois d'Argent Wah, ce mec-là nous doit d'l'argent Wah, wah Il mérite balle dans la jambe Wah, on l'menace il va courir vers l'agent On sort des égouts comme les Tortues Ninja Cowa-Cowabunga On a des armes à feu, des tablettes de chocolat tah Willy Wonka La cliqua au coeur du sort du 38, quand on arrive ta clique s'appelle Trois qui la tiennent et deux qui la niquent, j'suis un démon j'suis un C'est vrai que tu as l'air sympathique, j'ai jamais dit que t'étais une puteMais tu as vu plus de merguez que le barbecue de Patrick Pédophile, tu mérites la mort comme Delphine Lalaurie Une fin horrible A mon poignet tu devines la Rolly La Rolex T'as pas honte tu demandes des selfies à Lorie ? Toute la famille Salvadori tatouée comme l'ethnie Maoris Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God You might also like Petit comme El Chapo Chapo, la cervelle de Thierry en Si j'bois pas la potence, suis-je bon pour le million ? Tout le monde veut gagner son pain, mais tout le monde veut le quignon Langue de vipère dans mâchoire de lion, wouah, ils sont trop mignons Mignons J'suis 6.35 vatos locos je dans la chambre Je les ai grillé c'est pas des phénix ils renaitront pas de leurs cendres Mort ou la barbas, 24 carats sous la carapace Yah, ça fait mal quand les six boulettes passent Ratatata Les dealers repassent, c'est les giboulées d'mars Mars La vie te laisse que deux choix, c'est pile ou c'est face Marche ou crèveÇa roule des joints avec de la ciboulette grasse Que des girouettes double-face, des traitres J'les déteste Et comme Henock Cortes j'mets l'sky sur les Kellogg's Corn Flakes Niveau texte, faut qu'j'arrête avant d'être obsolète J'lève le tee-sh', grosses tablettes de white chocolate White chocolate, white chocolate Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, faut chourave car y a pas trop l'choix Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, faut chourave car y a pas trop l'choix</t>
+          <t>Salope de schmitt Tatoué comme le MS C'est Gribs et Seth Guex Il s'parfume au Bois d'Argent Wah, ce mec-là nous doit d'l'argent Wah, wah Il mérite balle dans la jambe Wah, on l'menace il va courir vers l'agent On sort des égouts comme les Tortues Ninja Cowa-Cowabunga On a des armes à feu, des tablettes de chocolat tah Willy Wonka La cliqua au coeur du sort du 38, quand on arrive ta clique s'appelle Trois qui la tiennent et deux qui la niquent, j'suis un démon j'suis un C'est vrai que tu as l'air sympathique, j'ai jamais dit que t'étais une puteMais tu as vu plus de merguez que le barbecue de Patrick Pédophile, tu mérites la mort comme Delphine Lalaurie Une fin horrible A mon poignet tu devines la Rolly La Rolex T'as pas honte tu demandes des selfies à Lorie ? Toute la famille Salvadori tatouée comme l'ethnie Maoris Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Petit comme El Chapo Chapo, la cervelle de Thierry en Si j'bois pas la potence, suis-je bon pour le million ? Tout le monde veut gagner son pain, mais tout le monde veut le quignon Langue de vipère dans mâchoire de lion, wouah, ils sont trop mignons Mignons J'suis 6.35 vatos locos je dans la chambre Je les ai grillé c'est pas des phénix ils renaitront pas de leurs cendres Mort ou la barbas, 24 carats sous la carapace Yah, ça fait mal quand les six boulettes passent Ratatata Les dealers repassent, c'est les giboulées d'mars Mars La vie te laisse que deux choix, c'est pile ou c'est face Marche ou crèveÇa roule des joints avec de la ciboulette grasse Que des girouettes double-face, des traitres J'les déteste Et comme Henock Cortes j'mets l'sky sur les Kellogg's Corn Flakes Niveau texte, faut qu'j'arrête avant d'être obsolète J'lève le tee-sh', grosses tablettes de white chocolate White chocolate, white chocolate Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, faut chourave car y a pas trop l'choix Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, vatos Mara oh my God Mara Salvatrucha, Mara Salvatrucha Mara Salvatrucha, faut chourave car y a pas trop l'choix</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Ca sent l'homicide fils Faut sodomiser l'fisc avant d'être sans domicile fixe Sois pas intrigué à l'idée que j'préfère lapider un p'tit gay qu'valider un ticket J'vais pas avec ma go en boîte y'a trop d'antécédents Si un gars vient l'inviter ser-dan j'vais lui ôter ses dents On s'enrichit, illégalement ça vaut mieux Car ici le droit chemin est savonneux Pas b'soin d'être scientifique On sait tous que la maille s'quantifie Y'a trop d'gens qui flippent car y'a pas d'gentil flic Pragmatique On t'plonge dans du magma si tu dragues la p'tite d'un gars d'ma clique Dramatique Sarko fournit des armes en Centre Afrique Et s'plaint qu'il n'y a pas d'ghetto sans traffics! Quand il pleut c'est que chante un flic Si t'es une poucave dans ton tiexon, mec viens pas m'gratter un feat! Les plus dangereux, c'est les mecs influençables Donc, fais belek quand un truand s'arme On fait l'mal comme les féemans Extériorise la rage dans les t-foo en salle Impertinent comme un père qui ment ouais! Qui baise sa maîtresse à Perpignan On vit a interdit land Et j'sais pertinemment qu'il faut faire du fric illégalement pour rouler en berling allemande Saint-Ouen l'Aumône, mi bario hombre On regarde les culs cambrés derrière les carreaux ombrés Subliminales, Yo! Paris, Londres, Milano On n'est pas plus criminaux qu'les tribunaux Wesh, como estay? Dans l'escalier on est entassé comme du bétail Tu rigoles comment ils s'taillent Sous l'manteau s'fait la vente au détail Quand au sky tantôt t'es d'taille tantôt t'es die Bercé par funk, soul et raï Et par le cri d'ceux qui s'foutent sous les rails Khey! On tape des matchs de foot en souliers Nike On veut d'la marque donc faut d'la maille Souriez oua-m avec Omar j'nique tous les mics! Trop d'inspi' après une rapta' Des textes beaucoup trop de-spee pour que j'ne rappe pas J'les accable quand j'leur dit que j'mange avec mes oigts-d à table Que l'dernier des portables peut me faire péter un câble Scarla slard-vi Saint-Ouen l'Aumône, ouais c'est ma ville! Pour mes gars j'peux y laisser la vie La tête de ouam wallah Même sous marijuana pour rien j'deviendrais l'mari d'Loana Paris y'a quoi la c'est moi l'roi On s'tue à la Vodka et au Dark Dog jus d'guarana Aïee! You might also likeSeth Gueko La marche funèbre du ghetto... Cortège Néochrome...1</t>
+          <t>Ca sent l'homicide fils Faut sodomiser l'fisc avant d'être sans domicile fixe Sois pas intrigué à l'idée que j'préfère lapider un p'tit gay qu'valider un ticket J'vais pas avec ma go en boîte y'a trop d'antécédents Si un gars vient l'inviter ser-dan j'vais lui ôter ses dents On s'enrichit, illégalement ça vaut mieux Car ici le droit chemin est savonneux Pas b'soin d'être scientifique On sait tous que la maille s'quantifie Y'a trop d'gens qui flippent car y'a pas d'gentil flic Pragmatique On t'plonge dans du magma si tu dragues la p'tite d'un gars d'ma clique Dramatique Sarko fournit des armes en Centre Afrique Et s'plaint qu'il n'y a pas d'ghetto sans traffics! Quand il pleut c'est que chante un flic Si t'es une poucave dans ton tiexon, mec viens pas m'gratter un feat! Les plus dangereux, c'est les mecs influençables Donc, fais belek quand un truand s'arme On fait l'mal comme les féemans Extériorise la rage dans les t-foo en salle Impertinent comme un père qui ment ouais! Qui baise sa maîtresse à Perpignan On vit a interdit land Et j'sais pertinemment qu'il faut faire du fric illégalement pour rouler en berling allemande Saint-Ouen l'Aumône, mi bario hombre On regarde les culs cambrés derrière les carreaux ombrés Subliminales, Yo! Paris, Londres, Milano On n'est pas plus criminaux qu'les tribunaux Wesh, como estay? Dans l'escalier on est entassé comme du bétail Tu rigoles comment ils s'taillent Sous l'manteau s'fait la vente au détail Quand au sky tantôt t'es d'taille tantôt t'es die Bercé par funk, soul et raï Et par le cri d'ceux qui s'foutent sous les rails Khey! On tape des matchs de foot en souliers Nike On veut d'la marque donc faut d'la maille Souriez oua-m avec Omar j'nique tous les mics! Trop d'inspi' après une rapta' Des textes beaucoup trop de-spee pour que j'ne rappe pas J'les accable quand j'leur dit que j'mange avec mes oigts-d à table Que l'dernier des portables peut me faire péter un câble Scarla slard-vi Saint-Ouen l'Aumône, ouais c'est ma ville! Pour mes gars j'peux y laisser la vie La tête de ouam wallah Même sous marijuana pour rien j'deviendrais l'mari d'Loana Paris y'a quoi la c'est moi l'roi On s'tue à la Vodka et au Dark Dog jus d'guarana Aïee! Seth Gueko La marche funèbre du ghetto... Cortège Néochrome...1</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4743,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Laisse nous porter le drapeau, ça devient nécessaire Nos grosses couilles sur un plateau, on t'sert du plomb au dessert Les RG prennent en photo les nouvelles paires de Gucci On appelle pas le mécano quand faut sortir les outils Chez nous ça braque les footeux, coup d'cross Hilton Takhna devant tes yeux, on fout la merde JoeyBarton Prêt a forcer les barrages, si tu garantis l'pactol Les jeunes sachètent une kalash avant d'se prendre un iPhone Y'a pas une pute qui s'taise ça bavarde sous l'oreiller Dit moi laquelle tu baise j'te dirais qui va t'allumer Ça trahis pour le butin Y'a qu'les armes qui parlent clairement On croisera même ton assassin à ton enterrement Bienvenue à Marseille Les grosse couilles à Basile Boli Nous là rue on la vomis Raattaaaaattaaaaa Avant qu'il pleuve sert un verre a nos ennemis Ici tout est permis Raattaaaaattaaaaa Le parapluie est imposé Y'a pas d'heures pour t'arroser Raattaaaaattaaaaa Marseille city Raattaaaaattaaaaa Marseille city Raattaaaaattaaaaa You might also like Si la parole fait l'homme, alors la pipe fait la femme Si dans la street tu fais la folle, le lendemain tu te fais rafale On a la dalle, on pète la forme quand on parle de balle Pas de bol, c'est celle d'Al Capone pas de Rafael Nadal Trop de concurrence comme Blackbé et Iphone Chaque p'tits du tier-quar mérite un album, nique qu'American Idol Les rappeurs n'ont plus d'inspi', ils me pompent comme un aspirateur Dyson Envoie les shirley et les cymbales que j'm'installe J'crois en Dieu pas en leur symbole Ramène moi 2-3 MC's que j'me fasse une fringale Ils parlent trop, faut les égorgés ces tringue-bal Monte au braquo tu vas t'décrocher la timbale J'rappe pour les bronzé et les teint pales Même les condés pètent un câble Ça fait ratata, comme des balles en métal On t'allume puis détale comme en bécane Nhar sheïtan en Mégane J'suis pas dans ces conneries de PSG-OM J'reste debout après le gong, la sonnerie, j'crache mes poèmes La rage accouche de bonnes rimes J'rappe Paname, ses banlieues On s'sert des boulevards comme ring J'lance l'alarme pas de non-lieu Pour nous, on a l'arme prête à cracher La frappe on t'la fourgue On place les chiens sont pressés Les flingues aboient, et le fourgon passe Les équipes ont la dalle, y'a les autres, ceux que la nuit charme Le diable est posé sur le néon, il a fumé une chicha Y'a les flics qui chassent, on clip jusqu'à la prochaine émeute Faut faire du bifton, du chiffre, sur le beat jenchaîne les meurtres La mondaine, les moeurs, dans Paris nocturne Plus de bandits d'honneur, les rafales ont voilé la roue de la fortune Paname City On se fout de ta life, comme j'me fous de l'an 40 Qui voudra nous carotte, gouttera au fruit de mes phalanges Laisse-les faire la night, leur vie est trop marrante On a qu'une seule parole, des bonhommes comme garants Rafales sur leurs mères, pour briser le silence Le remix est légendaire, la jalousie est immense Trop d'albums à la mer, chaque années on refait le bilan Lino, Seth Gueko, N.O.R, c'est trop bouillant ! 1</t>
+          <t>Laisse nous porter le drapeau, ça devient nécessaire Nos grosses couilles sur un plateau, on t'sert du plomb au dessert Les RG prennent en photo les nouvelles paires de Gucci On appelle pas le mécano quand faut sortir les outils Chez nous ça braque les footeux, coup d'cross Hilton Takhna devant tes yeux, on fout la merde JoeyBarton Prêt a forcer les barrages, si tu garantis l'pactol Les jeunes sachètent une kalash avant d'se prendre un iPhone Y'a pas une pute qui s'taise ça bavarde sous l'oreiller Dit moi laquelle tu baise j'te dirais qui va t'allumer Ça trahis pour le butin Y'a qu'les armes qui parlent clairement On croisera même ton assassin à ton enterrement Bienvenue à Marseille Les grosse couilles à Basile Boli Nous là rue on la vomis Raattaaaaattaaaaa Avant qu'il pleuve sert un verre a nos ennemis Ici tout est permis Raattaaaaattaaaaa Le parapluie est imposé Y'a pas d'heures pour t'arroser Raattaaaaattaaaaa Marseille city Raattaaaaattaaaaa Marseille city Raattaaaaattaaaaa Si la parole fait l'homme, alors la pipe fait la femme Si dans la street tu fais la folle, le lendemain tu te fais rafale On a la dalle, on pète la forme quand on parle de balle Pas de bol, c'est celle d'Al Capone pas de Rafael Nadal Trop de concurrence comme Blackbé et Iphone Chaque p'tits du tier-quar mérite un album, nique qu'American Idol Les rappeurs n'ont plus d'inspi', ils me pompent comme un aspirateur Dyson Envoie les shirley et les cymbales que j'm'installe J'crois en Dieu pas en leur symbole Ramène moi 2-3 MC's que j'me fasse une fringale Ils parlent trop, faut les égorgés ces tringue-bal Monte au braquo tu vas t'décrocher la timbale J'rappe pour les bronzé et les teint pales Même les condés pètent un câble Ça fait ratata, comme des balles en métal On t'allume puis détale comme en bécane Nhar sheïtan en Mégane J'suis pas dans ces conneries de PSG-OM J'reste debout après le gong, la sonnerie, j'crache mes poèmes La rage accouche de bonnes rimes J'rappe Paname, ses banlieues On s'sert des boulevards comme ring J'lance l'alarme pas de non-lieu Pour nous, on a l'arme prête à cracher La frappe on t'la fourgue On place les chiens sont pressés Les flingues aboient, et le fourgon passe Les équipes ont la dalle, y'a les autres, ceux que la nuit charme Le diable est posé sur le néon, il a fumé une chicha Y'a les flics qui chassent, on clip jusqu'à la prochaine émeute Faut faire du bifton, du chiffre, sur le beat jenchaîne les meurtres La mondaine, les moeurs, dans Paris nocturne Plus de bandits d'honneur, les rafales ont voilé la roue de la fortune Paname City On se fout de ta life, comme j'me fous de l'an 40 Qui voudra nous carotte, gouttera au fruit de mes phalanges Laisse-les faire la night, leur vie est trop marrante On a qu'une seule parole, des bonhommes comme garants Rafales sur leurs mères, pour briser le silence Le remix est légendaire, la jalousie est immense Trop d'albums à la mer, chaque années on refait le bilan Lino, Seth Gueko, N.O.R, c'est trop bouillant ! 1</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4760,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>On sait d'où viennent les diam's d'Anders Enfilez vos Pampers Et bienv'nue dans les flammes de l'enfer On a la frappe de Mark Landers Fuck ta plaque rangers Révolutionnaires comme les Black Panthers C'est John Abruzzi, balafre de Tounsi En cas d'roussi, kalash te tutsi Je marave à coup de ? Et j'm'arrache comme on arrache un sac Gucci On sait à quoi les petites putes servent C'coup-ci J'vous récite le théorème du Pitbull serbe C'est la rage qui innove, Mister Ulcère Mister Farage Nikov mais un peu plus terne On a pas eu l'sort de Fancesco Totti Là où seule la carrière d'un grand escroc t'motive Cherche pas à rendre les autres fautifs Si l'enfer est sur Terre, quand est-ce qu'on t'rôtit? J'frappe comme les 12 coups d'minuit Le Kung-Fu d'chinoui F.A.R. le couz' coupe-circuit J'péra les nerfs à vif Ca c'est ma thérapie Un peu comme le coup d'boule de Zizou sur Materazzi J'rappe pour ceux qu'ont pas eu l'bac 5 Postés dans l'carreau avec une chicha et un capucin J'te parle de ceux qu'on flairé la thune, zin Y a pas d'cas plus simple pour se serrer la ture-cein You might also like Fais pas la fine bouche Mes équipiers ont souvent plus d'chicots ou un il qui biglouche Les pochons de schnouf sous les bolocks On aime le sexe et les guns comme Sid Vicious Les sweat à capuche Hugo Boss On est bien loin de l'esprit classe Car on mélange le Chivas avec le Pepsi Max On est devenus tellement perspicace Que nos paires de tier-Car ont des verres en plexiglas Mais wesh qu'est-ce qui se passe ? Les chômeurs ont tous des Nike neuves On rentre nos flash dans les night-club, on est des sales crev' J'suis accusé dêtre un gars qu'a grugé les trains Qu'a jugé crétin d'aller voir le musée Grévin Sortez les cathéters, y a d'la patate éclair C'est les tieks de l'Abbé Pierre contre l'Armée de Terre La rue, boy, c'est mon train-train C'est pas d'ma faute si je lisais Playboy pendant qu'tu lisais Tintin Y a des Al Pacino partout, de jeunes marginaux cartouchent On veut les casinos Partouche, amigo ! Pas touche à la pine-co du manouche, ou les animaux d'la brousse te f'ront une farouche remise à niveau Seth Gueko Farage Niko Ok Patate de forain</t>
+          <t>On sait d'où viennent les diam's d'Anders Enfilez vos Pampers Et bienv'nue dans les flammes de l'enfer On a la frappe de Mark Landers Fuck ta plaque rangers Révolutionnaires comme les Black Panthers C'est John Abruzzi, balafre de Tounsi En cas d'roussi, kalash te tutsi Je marave à coup de ? Et j'm'arrache comme on arrache un sac Gucci On sait à quoi les petites putes servent C'coup-ci J'vous récite le théorème du Pitbull serbe C'est la rage qui innove, Mister Ulcère Mister Farage Nikov mais un peu plus terne On a pas eu l'sort de Fancesco Totti Là où seule la carrière d'un grand escroc t'motive Cherche pas à rendre les autres fautifs Si l'enfer est sur Terre, quand est-ce qu'on t'rôtit? J'frappe comme les 12 coups d'minuit Le Kung-Fu d'chinoui F.A.R. le couz' coupe-circuit J'péra les nerfs à vif Ca c'est ma thérapie Un peu comme le coup d'boule de Zizou sur Materazzi J'rappe pour ceux qu'ont pas eu l'bac 5 Postés dans l'carreau avec une chicha et un capucin J'te parle de ceux qu'on flairé la thune, zin Y a pas d'cas plus simple pour se serrer la ture-cein Fais pas la fine bouche Mes équipiers ont souvent plus d'chicots ou un il qui biglouche Les pochons de schnouf sous les bolocks On aime le sexe et les guns comme Sid Vicious Les sweat à capuche Hugo Boss On est bien loin de l'esprit classe Car on mélange le Chivas avec le Pepsi Max On est devenus tellement perspicace Que nos paires de tier-Car ont des verres en plexiglas Mais wesh qu'est-ce qui se passe ? Les chômeurs ont tous des Nike neuves On rentre nos flash dans les night-club, on est des sales crev' J'suis accusé dêtre un gars qu'a grugé les trains Qu'a jugé crétin d'aller voir le musée Grévin Sortez les cathéters, y a d'la patate éclair C'est les tieks de l'Abbé Pierre contre l'Armée de Terre La rue, boy, c'est mon train-train C'est pas d'ma faute si je lisais Playboy pendant qu'tu lisais Tintin Y a des Al Pacino partout, de jeunes marginaux cartouchent On veut les casinos Partouche, amigo ! Pas touche à la pine-co du manouche, ou les animaux d'la brousse te f'ront une farouche remise à niveau Seth Gueko Farage Niko Ok Patate de forain</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4777,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé On va tout mêler, puis te démêler et s'en aller Dis à tes reufs de ne surtout pas s'en mêler J'rappe avec les couilles, j'rappe avec les larmes J'ai le flow qui t'calme, braquage dans le calme Jamais je n'fatigue, j'rappe automatique Dans mes textes, ça pue la sère-mi tout est véridique Banlieue Ouest, qu'ils aillent se faire foutre pour qu'on s'adapte On est trop cryptés, pour ça qu'personne nous capte J'fais rentrer mes potes, et s'il y a des meufs ramène-les Plus on est de fous, plus j'entends sur nous Fumez-les ! Fumez-fumez-les !, fumez-fumez-les ! T'as le flow d'la dame de ménage, alors du balai ! C'est ton stylo, tu n'fais pas semblant d'rapper décalé Ces pédés ne font que pomper mon flow saccadé Trop vulgaire, normal que l'on soit mal aimés On va te mêler et personne ne pourra t'aider Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé You might also like Gucci, Louis, Fendi Canardo I got you Yeah Toutes les nuits je pense à toi Toutes les nuits tu rêves de ma queue Yeah, on vend la white et on taffe au black J'arrive sur scène, et le swag fait mes backs J'fais péter l'rap comme à Bagdad Ma chienne est tactile iPad iPad, mais s'te-plaît vas-y mollo Mes albums sentent bon Marionnaud Rien n'change à part la paki Sur le maquis, slalom entre les keufs comme Inzaghi Coup d'crampons, Ligue des Champions J'suis un vrai beur, et t'laisse en Ligue des Jambons Facebook en cellule, j'sais plus à qui parler J'descends en promenade, j'ai l'BBM au gradé La surveillante me suit sur Twitter Et l'directeur la chatte à sa sur Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Zdedededex C'est Mister Seth Guex Ouais ma couillasse On veut finir à se-l'ai comme Jean-Luc Azoulay Han, j'lâche des caisses horribles Zdededecassoulet Poto mieux vaut m'avoir en photo qu'en llule-cé Les gitans c'est les plus durs à expulser Mélé Mélé Mé, Mélé Mélé Mé, Mélé Mé Un verre c'est trop, une bouteille c'est pas assez On vend du sucre amer, du chocolat salé Nique ta mère, j'suis pas ta poule aux ufs d'or ni ta vache à lait Ça sent l'schmitt, narvalé, nhar Sheitan en Mégane J'ai des visions du futur PacoRayBan Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim'</t>
+          <t>Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé On va tout mêler, puis te démêler et s'en aller Dis à tes reufs de ne surtout pas s'en mêler J'rappe avec les couilles, j'rappe avec les larmes J'ai le flow qui t'calme, braquage dans le calme Jamais je n'fatigue, j'rappe automatique Dans mes textes, ça pue la sère-mi tout est véridique Banlieue Ouest, qu'ils aillent se faire foutre pour qu'on s'adapte On est trop cryptés, pour ça qu'personne nous capte J'fais rentrer mes potes, et s'il y a des meufs ramène-les Plus on est de fous, plus j'entends sur nous Fumez-les ! Fumez-fumez-les !, fumez-fumez-les ! T'as le flow d'la dame de ménage, alors du balai ! C'est ton stylo, tu n'fais pas semblant d'rapper décalé Ces pédés ne font que pomper mon flow saccadé Trop vulgaire, normal que l'on soit mal aimés On va te mêler et personne ne pourra t'aider Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Gucci, Louis, Fendi Canardo I got you Yeah Toutes les nuits je pense à toi Toutes les nuits tu rêves de ma queue Yeah, on vend la white et on taffe au black J'arrive sur scène, et le swag fait mes backs J'fais péter l'rap comme à Bagdad Ma chienne est tactile iPad iPad, mais s'te-plaît vas-y mollo Mes albums sentent bon Marionnaud Rien n'change à part la paki Sur le maquis, slalom entre les keufs comme Inzaghi Coup d'crampons, Ligue des Champions J'suis un vrai beur, et t'laisse en Ligue des Jambons Facebook en cellule, j'sais plus à qui parler J'descends en promenade, j'ai l'BBM au gradé La surveillante me suit sur Twitter Et l'directeur la chatte à sa sur Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Mélé mé, mélé mélé mé, mélé mélé mé Zdedededex C'est Mister Seth Guex Ouais ma couillasse On veut finir à se-l'ai comme Jean-Luc Azoulay Han, j'lâche des caisses horribles Zdededecassoulet Poto mieux vaut m'avoir en photo qu'en llule-cé Les gitans c'est les plus durs à expulser Mélé Mélé Mé, Mélé Mélé Mé, Mélé Mé Un verre c'est trop, une bouteille c'est pas assez On vend du sucre amer, du chocolat salé Nique ta mère, j'suis pas ta poule aux ufs d'or ni ta vache à lait Ça sent l'schmitt, narvalé, nhar Sheitan en Mégane J'ai des visions du futur PacoRayBan Tu viens d'te faire enculer par l'Professeur Punchline Quand tu vas t'asseoir sur un truc dur, tu penseras à oim'</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4794,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>La Famax Seth Guex Yo Mon slogan, c'est kill Nuski, barlou rappe mieux qu'il ne skie J'ai un jet à prendre donc j'kicke deuspi On voit dépasser ton fil de string C'est quoi ça Un barlou vaut mille te-schmi Je veux ni d'cette 'teille, ni d'ce spliff car j'vaux mille te-shit J'assume pas la fume Nan, pour un MC, c'est pas chose commune Dans la rue, je fus un gosse connu Team barlou, j'ai la plus grosse commu' Une bastos de taurus, on t'retrouve à l'hosto nu Guex le Cos Taurus qu'aim pas leur atroce chorus Et leur autotun D'la merde Ta chatte est grosse comme une fosse commune Niveau thunes, y a tous mes potos focus Les keufs en Ford Focus m'veulent en photo dans leur auto Focus Belek C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné You might also like J'suis à deux doigts d'percer comme Michael Jackson Deux doigts d'percer comme Michael Jackson C'est les lyonnais les braqueurs de fourgons Le charme de la tristesse, rien n'va Va respecter comme à la mort d'Luv Resval On porte nos couilles, on vise dans la tte-cha Zdedededex, zdedededex, on n'aime pas les messes basses Han-han, c'est les légendes, on vit pas dans l'passé Dans l'passé J'suis comme grand-père, j'suis un feraga' Chupa Chups, on connait pas sucer T'allais chez la PM pour fermer la massa Trèfle à quatre feuilles, on va les plier C'est pas Canal qui m'a validé C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné</t>
+          <t>La Famax Seth Guex Yo Mon slogan, c'est kill Nuski, barlou rappe mieux qu'il ne skie J'ai un jet à prendre donc j'kicke deuspi On voit dépasser ton fil de string C'est quoi ça Un barlou vaut mille te-schmi Je veux ni d'cette 'teille, ni d'ce spliff car j'vaux mille te-shit J'assume pas la fume Nan, pour un MC, c'est pas chose commune Dans la rue, je fus un gosse connu Team barlou, j'ai la plus grosse commu' Une bastos de taurus, on t'retrouve à l'hosto nu Guex le Cos Taurus qu'aim pas leur atroce chorus Et leur autotun D'la merde Ta chatte est grosse comme une fosse commune Niveau thunes, y a tous mes potos focus Les keufs en Ford Focus m'veulent en photo dans leur auto Focus Belek C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné J'suis à deux doigts d'percer comme Michael Jackson Deux doigts d'percer comme Michael Jackson C'est les lyonnais les braqueurs de fourgons Le charme de la tristesse, rien n'va Va respecter comme à la mort d'Luv Resval On porte nos couilles, on vise dans la tte-cha Zdedededex, zdedededex, on n'aime pas les messes basses Han-han, c'est les légendes, on vit pas dans l'passé Dans l'passé J'suis comme grand-père, j'suis un feraga' Chupa Chups, on connait pas sucer T'allais chez la PM pour fermer la massa Trèfle à quatre feuilles, on va les plier C'est pas Canal qui m'a validé C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné C'est la caillera mentalité Caillera Est-ce que tu sais c'que c'est ? Je crois qu'ils savent pas Rester humble Rester droit, pas s'transformer en ke-schné</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4811,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Si je t'ouvre pas la porte, c'est que j' suis dans la douche Le rap americain, je lui chie dans la bouche Dis aux autorités qu'on fuit dans la brousse Qu'un RMiste, c'est un lycéen qu'a du shit dans sa trousse Faut que t'assure pécore, la ue-r c'est gore Tu te manges une bastos, meme si ta la carure de Fedor T'as plus de ge-gor, pour une parure fait d'or Fais pas le dur dehors, y'a de la cassure de corps Ça fait ouch ouch ouch, menton nez menton pomme d'Adam C'est patate de forain et pas ni-sney-Dis Et ouais boy sois réaliste Va pas cramer ton khaliss, dans les soirées à liste Allez vous sodom', j'suis venu quer-bra le podium Envoyer des MCs au crématorium On a coupé ta C au bicar' de sodium Chez nous sa se tape comme des bonhommes, on te brise ta colonne On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille You might also like Sale bataga Si tu veux jouer à la bagarre baisse pas ta garde Saint-Ouen l'Aumone 24h squatte à la gare Sache que mon dernier mot sera Allahu akbar Blah ! Blah ! Ça continue en mode ragla Wesh Sarko mon ????? au viagra On veut du cash au bout des doigts Mieux vaut un mort sur les bras qu'un travelo sous ses draps Je suis un sale gamin pourri Mais je remercie Dieu dès que chaque matin me souri Ma go aura son sac à main Gucci Pour elle se sera un drap de satin, bougie Je fais partie d'une sale race d'insoumis Les petits du tieks ils ont la dalle Pour un rien ils t'arrachent un jou-bi Je tafferai pas dans un magasin d'outils Fais bellek y'a peut-être ton assassin sous l'lit J'ai dans la gorge la rage d'un Uzi Dénoncer mon meilleur pote chez les f-keu je peux pas Mes potes sont babtous, rebeus, renois On est les rois, on a ramené le teu-teu de Meda On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille Quand ça braque sa fait pak pak pak Tes genoux tes dents font clak clak clak Quand je te doigte ça fait flak flak flak Et fait bellek ou la BAC t'attrape Je sais que t'as senti la patate 2007 je prend le rap à quatre pattes On enchaine les sales arnaques Un keuf sans sa matraque c'est de la viande à barbaque Broliqué comme Larsen et Samat Blah ! Je suis venu larguer les amares Tu veux fumer viens m'acheter de la salade J'essaie de capter la charade Au passage une kas-ded au frères qu'ont pas lâché la salat On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille1</t>
+          <t>Si je t'ouvre pas la porte, c'est que j' suis dans la douche Le rap americain, je lui chie dans la bouche Dis aux autorités qu'on fuit dans la brousse Qu'un RMiste, c'est un lycéen qu'a du shit dans sa trousse Faut que t'assure pécore, la ue-r c'est gore Tu te manges une bastos, meme si ta la carure de Fedor T'as plus de ge-gor, pour une parure fait d'or Fais pas le dur dehors, y'a de la cassure de corps Ça fait ouch ouch ouch, menton nez menton pomme d'Adam C'est patate de forain et pas ni-sney-Dis Et ouais boy sois réaliste Va pas cramer ton khaliss, dans les soirées à liste Allez vous sodom', j'suis venu quer-bra le podium Envoyer des MCs au crématorium On a coupé ta C au bicar' de sodium Chez nous sa se tape comme des bonhommes, on te brise ta colonne On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille Sale bataga Si tu veux jouer à la bagarre baisse pas ta garde Saint-Ouen l'Aumone 24h squatte à la gare Sache que mon dernier mot sera Allahu akbar Blah ! Blah ! Ça continue en mode ragla Wesh Sarko mon ????? au viagra On veut du cash au bout des doigts Mieux vaut un mort sur les bras qu'un travelo sous ses draps Je suis un sale gamin pourri Mais je remercie Dieu dès que chaque matin me souri Ma go aura son sac à main Gucci Pour elle se sera un drap de satin, bougie Je fais partie d'une sale race d'insoumis Les petits du tieks ils ont la dalle Pour un rien ils t'arrachent un jou-bi Je tafferai pas dans un magasin d'outils Fais bellek y'a peut-être ton assassin sous l'lit J'ai dans la gorge la rage d'un Uzi Dénoncer mon meilleur pote chez les f-keu je peux pas Mes potes sont babtous, rebeus, renois On est les rois, on a ramené le teu-teu de Meda On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille Quand ça braque sa fait pak pak pak Tes genoux tes dents font clak clak clak Quand je te doigte ça fait flak flak flak Et fait bellek ou la BAC t'attrape Je sais que t'as senti la patate 2007 je prend le rap à quatre pattes On enchaine les sales arnaques Un keuf sans sa matraque c'est de la viande à barbaque Broliqué comme Larsen et Samat Blah ! Je suis venu larguer les amares Tu veux fumer viens m'acheter de la salade J'essaie de capter la charade Au passage une kas-ded au frères qu'ont pas lâché la salat On mange au fast food, avec l'argent de la poudre Fuck the world, c'est chirac qui paye ma couille Chauffe la gomme, sortez les cagoules, fait fumer les douilles Et ouais boy, c'est la France qui raque ma couille1</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4828,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Meurs tout bas Meurs tout bas Les gens diront d'elle qu'elle a un manteau noir Qu'elle fait fuir les hirondelles et qu'elle t'emmène dans un long couloir Qu'elle était là bien avant les vélociraptors Présente à Auschwitz et à chaque génocide hardcore Celle qui a pris dans ses bras mon frère David Raison pour laquelle ma mère m'a offert la vie Élevé par une mère célib' aux nerfs solids On est des sacs de tmps et l'mien est à moitié vide Ma deuxième mère, à vrai dire, c'est la cité J'ai fait des conneries car interdire, c'est inciter Voir tes enfants grandir, j'espère qu't'auras la chance Vends pas ton âme au Diable mais donne ton corps à la science La banque de France utilise tes euros, neutralise tes neurones Ils veulent que l'on culpabilise d'être heureux Reproche de trop jouir à mes protozoaires Nique une Renault Zoé, moi, j'veux l'FeFe du poto Zouir Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas You might also like Han, yeah, Prim's J'ai infecté ce game fort, j'suis une bactérie grave J'écris sur iPhone car mon Blackberry date J'ai esquivé le ghetto mais j'ai pas d'mérite brave J'ai connecté Seth Gueko, j'suis un Jacques Mesrine black Que Halle Berry m'drague, putain, je paranoye Et me dites pas que j'vais mourir un jour, j'le prendrai comme un spoil J'ai peur de tuer les fans, les excès et les flammes Y a que deux choses qui changent un homme les échecs et les femmes Pas besoin qu'on s'étale, la vie est une ironie J'ai vu des macchabée en position ftale Odeur de rapace, odeur de napalme Ceux dont le destin est de mourir pendus ne se noient pas J'attends le knockout Yeah, violent comme Neckan Hip hop comme neka Ouh, what up my negga? What up? Arrêtez l'carnaval J'ai la rage comme un rap de Furax Barbarossa dans une caravane Eh, eh, eh Entre frères, on s'guide, on n'en vient jamais aux mains Jamais J'ai déjà pensé au suicide mais jamais au mien Et je vis à fond mais à l'envers toujours ambiancé Quand on traverse l'enfer faut continuer d'avancer Putain d'merde Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas Meurs tout bas, jeune loubard Tu peux mentir à qui tu veux mais pas à ton miroir Je suis le cauchemar des menteurs car j'ai très bonne mémoire Je rappe pour les blancs pour les noirs et en hommage à Emmett Till Tous ces gros nazes quel message émettent-ils ? Esquive les reptiles, toute puissant érectile Depuis l'époque de Gorée, j'ai ignoré les directives, blah Pas de flashball pas d'taser Saint Ouen L' Aumône Cergy pour mes Val d'Oiseur La pref, Saint Christophe croix petit Y'a pas l'adresse du paradis sur Mappy Tout dans la discipline Dans la discipline C'est pas pour le mort que c'est dur Mais pour ceux qui restent que c'est difficile Seth Guex, Youssoupha La mort en featuring</t>
+          <t>Meurs tout bas Meurs tout bas Les gens diront d'elle qu'elle a un manteau noir Qu'elle fait fuir les hirondelles et qu'elle t'emmène dans un long couloir Qu'elle était là bien avant les vélociraptors Présente à Auschwitz et à chaque génocide hardcore Celle qui a pris dans ses bras mon frère David Raison pour laquelle ma mère m'a offert la vie Élevé par une mère célib' aux nerfs solids On est des sacs de tmps et l'mien est à moitié vide Ma deuxième mère, à vrai dire, c'est la cité J'ai fait des conneries car interdire, c'est inciter Voir tes enfants grandir, j'espère qu't'auras la chance Vends pas ton âme au Diable mais donne ton corps à la science La banque de France utilise tes euros, neutralise tes neurones Ils veulent que l'on culpabilise d'être heureux Reproche de trop jouir à mes protozoaires Nique une Renault Zoé, moi, j'veux l'FeFe du poto Zouir Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas Han, yeah, Prim's J'ai infecté ce game fort, j'suis une bactérie grave J'écris sur iPhone car mon Blackberry date J'ai esquivé le ghetto mais j'ai pas d'mérite brave J'ai connecté Seth Gueko, j'suis un Jacques Mesrine black Que Halle Berry m'drague, putain, je paranoye Et me dites pas que j'vais mourir un jour, j'le prendrai comme un spoil J'ai peur de tuer les fans, les excès et les flammes Y a que deux choses qui changent un homme les échecs et les femmes Pas besoin qu'on s'étale, la vie est une ironie J'ai vu des macchabée en position ftale Odeur de rapace, odeur de napalme Ceux dont le destin est de mourir pendus ne se noient pas J'attends le knockout Yeah, violent comme Neckan Hip hop comme neka Ouh, what up my negga? What up? Arrêtez l'carnaval J'ai la rage comme un rap de Furax Barbarossa dans une caravane Eh, eh, eh Entre frères, on s'guide, on n'en vient jamais aux mains Jamais J'ai déjà pensé au suicide mais jamais au mien Et je vis à fond mais à l'envers toujours ambiancé Quand on traverse l'enfer faut continuer d'avancer Putain d'merde Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas Meurs tout bas, jeune loubard Tu peux mentir à qui tu veux mais pas à ton miroir Je suis le cauchemar des menteurs car j'ai très bonne mémoire Je rappe pour les blancs pour les noirs et en hommage à Emmett Till Tous ces gros nazes quel message émettent-ils ? Esquive les reptiles, toute puissant érectile Depuis l'époque de Gorée, j'ai ignoré les directives, blah Pas de flashball pas d'taser Saint Ouen L' Aumône Cergy pour mes Val d'Oiseur La pref, Saint Christophe croix petit Y'a pas l'adresse du paradis sur Mappy Tout dans la discipline Dans la discipline C'est pas pour le mort que c'est dur Mais pour ceux qui restent que c'est difficile Seth Guex, Youssoupha La mort en featuring</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4845,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Meurs tout bas Meurs tout bas Les gens diront d'elle qu'elle a un manteau noir Qu'elle fait fuir les hirondelles et qu'elle t'emmène dans un long couloir Qu'elle était là bien avant les vélociraptors Présente à Auschwitz et à chaque génocide hardcore Celle qui a pris dans ses bras mon frère David Raison pour laquelle ma mère m'a offert la vie Élevé par une mère célib' aux nerfs solids On est des sacs de tmps et l'mien est à moitié vide Ma deuxième mère, à vrai dire, c'est la cité J'ai fait des conneries car interdire, c'est inciter Voir tes enfants grandir, j'espère qu't'auras la chance Vends pas ton âme au Diable mais donne ton corps à la science La banque de France utilise tes euros, neutralise tes neurones Ils veulent que l'on culpabilise d'être heureux Reproche de trop jouir à mes protozoaires Nique une Renault Zoé, moi, j'veux l'FeFe du poto Zouir Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas You might also like Han, yeah, Prim's J'ai infecté ce game fort, j'suis une bactérie grave J'écris sur iPhone car mon Blackberry date J'ai esquivé le ghetto mais j'ai pas d'mérite brave J'ai connecté Seth Gueko, j'suis un Jacques Mesrine black Que Albert il m'drague, putain, je paranoye Et me dites pas que j'vais mourir un jour, j'le prendrai comme un spoil J'ai peur de tuer les fans, les excès et les flammes Y a que deux choses qui changent un homme les échecs et les femmes Pas besoin qu'on s'étale, la vie est une ironie J'ai vu des macchabée en position ftale Odeur de rapace, odeur de napalme Ceux dont le destin est de mourir pendus ne se noient pas J'attends le knockout Yeah, violent comme Neckan Uh Hip hop comme neka Ouh, what up my negga? What up? Arrêter l'carnaval Ouais J'ai la rage comme un rap de Furax Barbarossa dans une caravane Ma vie, c'est un Caravage que j'ai ravagé, tableau qu'on parlait de refaire demain Mais le temps nous veut avachi et nous fait cravaché, grave haché puis nous balaie d'un revers de main Tout ça, c'est le mektoub, tu pleures, tou-bab, elle rit me dit mec tout pâle, tu meurs tout bas La mort est injuste, un cri horrible, un fou, ce n'est pas l'propos On sait que c'est a priori un trou que les balles proposent Putain d'merde Ouais Meurs tout bas, jeune loubard Ouais Meurs tout bas, jeune loubard Tu peux mentir à qui tu veux mais pas à ton miroir Je suis le cauchemar des menteurs car j'ai très bonne mémoire Je rappe pour les blancs pour les noirs et en hommage à Emmett Till Tous ces gros nazes quel message émettent-ils ? Esquive les reptiles, toute puissant érectile Depuis l'époque de Gorée, j'ai ignoré les directives, blah Pas de flashball pas d'taser Saint Ouen L' Aumône Cergy pour mes Val d'Oiseur La pref', Saint Christophe croix petit Y'a pas l'adresse du paradis sur Mappy Tout dans la discipline Dans la discipline C'est pas pour le mort que c'est dur Mais pour ceux qui restent que c'est difficile Seth Guex, Youssoupha La mort en featuring1</t>
+          <t>Meurs tout bas Meurs tout bas Les gens diront d'elle qu'elle a un manteau noir Qu'elle fait fuir les hirondelles et qu'elle t'emmène dans un long couloir Qu'elle était là bien avant les vélociraptors Présente à Auschwitz et à chaque génocide hardcore Celle qui a pris dans ses bras mon frère David Raison pour laquelle ma mère m'a offert la vie Élevé par une mère célib' aux nerfs solids On est des sacs de tmps et l'mien est à moitié vide Ma deuxième mère, à vrai dire, c'est la cité J'ai fait des conneries car interdire, c'est inciter Voir tes enfants grandir, j'espère qu't'auras la chance Vends pas ton âme au Diable mais donne ton corps à la science La banque de France utilise tes euros, neutralise tes neurones Ils veulent que l'on culpabilise d'être heureux Reproche de trop jouir à mes protozoaires Nique une Renault Zoé, moi, j'veux l'FeFe du poto Zouir Meurs tout bas Meurs tout bas, jeune loubard Meurs tout bas Han, yeah, Prim's J'ai infecté ce game fort, j'suis une bactérie grave J'écris sur iPhone car mon Blackberry date J'ai esquivé le ghetto mais j'ai pas d'mérite brave J'ai connecté Seth Gueko, j'suis un Jacques Mesrine black Que Albert il m'drague, putain, je paranoye Et me dites pas que j'vais mourir un jour, j'le prendrai comme un spoil J'ai peur de tuer les fans, les excès et les flammes Y a que deux choses qui changent un homme les échecs et les femmes Pas besoin qu'on s'étale, la vie est une ironie J'ai vu des macchabée en position ftale Odeur de rapace, odeur de napalme Ceux dont le destin est de mourir pendus ne se noient pas J'attends le knockout Yeah, violent comme Neckan Uh Hip hop comme neka Ouh, what up my negga? What up? Arrêter l'carnaval Ouais J'ai la rage comme un rap de Furax Barbarossa dans une caravane Ma vie, c'est un Caravage que j'ai ravagé, tableau qu'on parlait de refaire demain Mais le temps nous veut avachi et nous fait cravaché, grave haché puis nous balaie d'un revers de main Tout ça, c'est le mektoub, tu pleures, tou-bab, elle rit me dit mec tout pâle, tu meurs tout bas La mort est injuste, un cri horrible, un fou, ce n'est pas l'propos On sait que c'est a priori un trou que les balles proposent Putain d'merde Ouais Meurs tout bas, jeune loubard Ouais Meurs tout bas, jeune loubard Tu peux mentir à qui tu veux mais pas à ton miroir Je suis le cauchemar des menteurs car j'ai très bonne mémoire Je rappe pour les blancs pour les noirs et en hommage à Emmett Till Tous ces gros nazes quel message émettent-ils ? Esquive les reptiles, toute puissant érectile Depuis l'époque de Gorée, j'ai ignoré les directives, blah Pas de flashball pas d'taser Saint Ouen L' Aumône Cergy pour mes Val d'Oiseur La pref', Saint Christophe croix petit Y'a pas l'adresse du paradis sur Mappy Tout dans la discipline Dans la discipline C'est pas pour le mort que c'est dur Mais pour ceux qui restent que c'est difficile Seth Guex, Youssoupha La mort en featuring1</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4862,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>S'faire de l'argent, essayer toujours d'rester... Tu sais dans cette lumière éblouissante, sous les feux des projecteurs, dans la brune, et dans tous ces autres trucs, qu'on fait On essaie d'se cacher, on essaie, c'est tout... mais c'est la vie Tu comprends, j'veux dire, dans cette façon d'vivre ? Dans ce bus', y'a pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées You might also like J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came yeah J'ai d'la bonne came à des prix abordables Seth Gueko J'ai d'la bonne came, j'ai-j'ai d'la bonne came Ma bonne came danse comme Travolta J'marche qu'avec des gars loyaux Wesh, gardèche, garde la pêche et avale pas l'noyau Une pensée à ceux qui communiquent par yo-yo, à la mavaut Quand j'mange des pavettes à l'auyot Y'a qu'des warriors dans l'royaume et des roues Mario Des Zaïrois qui cachent des joyaux dans leur boyau Le emcee d'l'année, c'est moi, yo Un gros 9.5 sur l'maillot Sarko', la chatte à mama Nayot Pas d'place pour les moineaux, pense qu'à s'vider l'poireau À tiser comme des poivrots, brûler la 15 en gaillardot en Modena Le coffre rempli d'coke de Benalmádena Bat les noix du papa Gayot, sale travelo J'marche sur les traces de Clyde Paro Ne pas ber-tom à cause d'un p'tit con d'boloss Car l'shtar, c'est pas pour moi comme Lincoln J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables Ghetto Fab' J'ai d'la bonne came, j'ai-j'ai d'la bonne came Alpha 5.20 Ma bonne came danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue-moi un bout, sans remord, ni regret J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant P't-être du produit, parle à tord, à travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'tête de Zizou Humilie l'Italie, nique Berlusconi Mes négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, gros, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, Orosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta ok Le gun dans la main, j'ai le respect total Le droit de vie, de mort, le reste c'est que dalle Malgré tout, que je puisse mourir demain reste probable Chacun s'arme comme moins la peste se propage Eh yo, du matin au soir, j'illustre mon arme Je risque mon all', je sais qu'la rue, tout l'monde l'a Guette le moindre mouvement, parano, il a fait assez d'boucan Il part à l'aube, fait plus de bruit qu'en Part dans l'Sud braquer des commerces de riches J'reviens en commère J'ai mots qui changent de dimension, flic, je suis bien un Camer Le gun dans la main, j'reste à Le métal me brûle, mon forme-uni, une Unité d'feu d'chitane, iguane J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Néochrome a d'la bonne came, à des prix abordables</t>
+          <t>S'faire de l'argent, essayer toujours d'rester... Tu sais dans cette lumière éblouissante, sous les feux des projecteurs, dans la brune, et dans tous ces autres trucs, qu'on fait On essaie d'se cacher, on essaie, c'est tout... mais c'est la vie Tu comprends, j'veux dire, dans cette façon d'vivre ? Dans ce bus', y'a pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour Pas d'sentiments, pas d'amour, on a rien en retour J'démarre sur les chapeaux d'roues, mes salauds souffrent, veulent le salaire à Govou J'en place une pour mes gars au trou Sur moi, ça parle beaucoup salope Mais c'est que d'la publicité que me font ces sales grosses poufs si si C'est trop vénéneux mon vieux, y'aura pas d'cessez l'feu quoi ? C'est trop ténébreux, mes haineux vont t'crever tes pneus Y'a ma voix dans ta ture-voi, baise ta ronne-da Si tu m'vois, ne pleure pas, j'suis un lyrical queur-bra pah pah J'ai d'la bonne came à des prix abordables Là où l'Diable danse comme Travolta Aujourd'hui, c'est l'paradis, ça s'ra l'Enfer demain Bois un verre de vin ou alors sniffe un rail entre une paire de sein salope C'est normal pour les morfales, j'ai un trésor rap comme Method Man ou Resord Charles Je déconne pas, j'suis raisonnable 2007, mec, les carabines sont chargées Les tirs sont cadrés et les filles sont charmées J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came yeah J'ai d'la bonne came à des prix abordables Seth Gueko J'ai d'la bonne came, j'ai-j'ai d'la bonne came Ma bonne came danse comme Travolta J'marche qu'avec des gars loyaux Wesh, gardèche, garde la pêche et avale pas l'noyau Une pensée à ceux qui communiquent par yo-yo, à la mavaut Quand j'mange des pavettes à l'auyot Y'a qu'des warriors dans l'royaume et des roues Mario Des Zaïrois qui cachent des joyaux dans leur boyau Le emcee d'l'année, c'est moi, yo Un gros 9.5 sur l'maillot Sarko', la chatte à mama Nayot Pas d'place pour les moineaux, pense qu'à s'vider l'poireau À tiser comme des poivrots, brûler la 15 en gaillardot en Modena Le coffre rempli d'coke de Benalmádena Bat les noix du papa Gayot, sale travelo J'marche sur les traces de Clyde Paro Ne pas ber-tom à cause d'un p'tit con d'boloss Car l'shtar, c'est pas pour moi comme Lincoln J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables Ghetto Fab' J'ai d'la bonne came, j'ai-j'ai d'la bonne came Alpha 5.20 Ma bonne came danse comme Travolta Température Pôle Nord, comme le cur d'une pute À Dakar, nous, on sait comment corrompre les flics Distribue-moi un bout, sans remord, ni regret J'ai une lame sous la gorge, et j'n'ai pas flanché eh J'ai la passion du Christ, parti d'néant Assez d'hormones, comme le corps d'un géant P't-être du produit, parle à tord, à travers J'les ai mis au monde, maintenant, ils veulent tuer leur père La famille avant la France, coup d'tête de Zizou Humilie l'Italie, nique Berlusconi Mes négros pensent que j'vais pas mourir vieux J'ai prié l'Seigneur, gros, demain s'ra mieux On peut s'ouvrir à tout l'monde mais confiance à personne La famille, toujours la même, Holocost, Orosko Négros savent que j'ride, Alpha Roméo Négros veulent ma peau, mitraillette Scorpion blah J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta ok Le gun dans la main, j'ai le respect total Le droit de vie, de mort, le reste c'est que dalle Malgré tout, que je puisse mourir demain reste probable Chacun s'arme comme moins la peste se propage Eh yo, du matin au soir, j'illustre mon arme Je risque mon all', je sais qu'la rue, tout l'monde l'a Guette le moindre mouvement, parano, il a fait assez d'boucan Il part à l'aube, fait plus de bruit qu'en Part dans l'Sud braquer des commerces de riches J'reviens en commère J'ai mots qui changent de dimension, flic, je suis bien un Camer Le gun dans la main, j'reste à Le métal me brûle, mon forme-uni, une Unité d'feu d'chitane, iguane J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came J'ai d'la bonne came à des prix abordables J'ai d'la bonne came, j'ai-j'ai d'la bonne came Va au Diable et danse comme Travolta Néochrome a d'la bonne came, à des prix abordables</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4879,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Parlons peu, parlons lové, c'est michto Une plage, un ballon de volley, ouais c'est michto T'as pas le c-Ba, même pas le Brevet Tu vas au bar pour t'abreuver Y a la c-Ba qui va te lever, c'est pas michto Sono dans la caravane, c'est michto Fais péter du Balavoine, ouais c'est michto T'as pas révisé mon pélo, en plus y'a une interro' T'as qu'à copier sur l'intello, ça c'est michto Y'a plus de ce-pla au tel-hô, c'est pas michto La France qui perd aux péno, c'est pas michto Si les keufs mettent le gyro', ça sent le chtildo T'as plus qu'à appeler maître Giraud il est ... Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto Caleçons troués, t'es écroué, c'est pas michto Quoi, elle veut un sac Chloé, c'est une michto T'as pas de ff-ta, tiens je vais t'aider On va te trouver un C.D.D, on va fêter ça chez Dédé, ça sera michto Tu connais le portier, le physio, c'est michto J'prévois ta place c'est à l'iso, c'est pas michto T'as voulu jouer les gros durs mais tu t'es fais clouer au mur Car t'as fraudé à Réaumur, c'est pas michto T'as oublié le pass Navigo, c'est pas michto Les capotes goût abricot, elles trouvent ça michto Elle veut que tu l'invites chez Hippo, c'est pas une michto Quoi ? Se refaire les seins et une lipo ? C'est une You might also like Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto T'es un de ces mecs qui sait pas se taire, t'as fait foirer leurs affaires Ils veulent te percer la cafetière, c'est pas michto T'as eu un parloir Casper, c'est pas michto Si les Mac Do' seraient casher, ça serait michto Tu roules à fond ma gueule, couz t'as pas vu que le feu était rouge Tu viens de marbrer ton V12, c'est pas michto Se faire une grillade sur la pelouse, ça c'est michto Une fusillade de Perlouse pour une meuf, c'est pas michto Nan c'est zinda Fais pas la minega, met ton string rose il est michto Ouais t'as conduit sa Fiat Abarth, c'est michto Mais elle veut que tu payes son appart' car c'est une... Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto</t>
+          <t>Parlons peu, parlons lové, c'est michto Une plage, un ballon de volley, ouais c'est michto T'as pas le c-Ba, même pas le Brevet Tu vas au bar pour t'abreuver Y a la c-Ba qui va te lever, c'est pas michto Sono dans la caravane, c'est michto Fais péter du Balavoine, ouais c'est michto T'as pas révisé mon pélo, en plus y'a une interro' T'as qu'à copier sur l'intello, ça c'est michto Y'a plus de ce-pla au tel-hô, c'est pas michto La France qui perd aux péno, c'est pas michto Si les keufs mettent le gyro', ça sent le chtildo T'as plus qu'à appeler maître Giraud il est ... Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto Caleçons troués, t'es écroué, c'est pas michto Quoi, elle veut un sac Chloé, c'est une michto T'as pas de ff-ta, tiens je vais t'aider On va te trouver un C.D.D, on va fêter ça chez Dédé, ça sera michto Tu connais le portier, le physio, c'est michto J'prévois ta place c'est à l'iso, c'est pas michto T'as voulu jouer les gros durs mais tu t'es fais clouer au mur Car t'as fraudé à Réaumur, c'est pas michto T'as oublié le pass Navigo, c'est pas michto Les capotes goût abricot, elles trouvent ça michto Elle veut que tu l'invites chez Hippo, c'est pas une michto Quoi ? Se refaire les seins et une lipo ? C'est une Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto T'es un de ces mecs qui sait pas se taire, t'as fait foirer leurs affaires Ils veulent te percer la cafetière, c'est pas michto T'as eu un parloir Casper, c'est pas michto Si les Mac Do' seraient casher, ça serait michto Tu roules à fond ma gueule, couz t'as pas vu que le feu était rouge Tu viens de marbrer ton V12, c'est pas michto Se faire une grillade sur la pelouse, ça c'est michto Une fusillade de Perlouse pour une meuf, c'est pas michto Nan c'est zinda Fais pas la minega, met ton string rose il est michto Ouais t'as conduit sa Fiat Abarth, c'est michto Mais elle veut que tu payes son appart' car c'est une... Michto Faire du biff, c'est michto Mais le biff attire les michtos Mi-mi-mi-mi, ouais mi-mi, c'est michto Michto, ouais michto</t>
         </is>
       </c>
     </row>
@@ -4900,7 +4896,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Si si, Evry-Courcouronnes, Saint-Ouen-l'Aumône Pour mon poto Seth Gueko Néochrome Avec, Sidi O., Fis.L A.L.K.P.O.T.E, U2F Si si ! On veut shabiller bien, manger sans gaspiller lpain Parier plein dbillets 20 E, là cest lBarillet Plein Tu veux mbaiser mais tarrives pas, jmets dlHarissa Sur mon pain, jsuis surement plus violent qules Metallica Nique les perdants, il est pt-être temps dprendre une bectance Dans le rectangle, que des serpents avec des têtes dange Ya pas dmec tendre, ça stue pour un vêtement Flow infecte, il manque plus quje suive un traitement Jmène une vie dmalade, vulgaire style darabe Cest trop speed Paname, nique ta race toi et ton hit parade Rimes salaces sur un beat fatal Viens faire une ptite balade avec AlK et suce ma bite bâtard ! Des putes de rêve me sucent le sexe pendant quje fume le zeb Je bute le chef, ta nuque se pète, cest dur de test, cest lU2F Tas vu cque j'aif salope !? Cest juste les best salopes Ta jupe se baisse salope, ton salaud se lève carotte You might also like Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Entre moi et lEtat, ya aucun contact Cest que du pétasse quon tape, ou la caisse dun comptable Ya plus dun contraint, cest l6.35 contre un combat Tu compares dla crymo gel à du C-4 sur ma compagne Jte mac maintenant et puis jmarque un temps Puisque jvois qutas pas compris que tu braques un tank La rue est sévère, cest vrai que la lutte est rude Aujourdhui jai même vu une verge sortir dun utérus dans ton cur, fais pas ta pom-pom, girl Mon son passe pas en club, car jrappe dans un bunker Le hip-hop, cest Bobonne, on lui arrache son keus On te-squa son teum-teum, et on vate-sa son keum Jfais pas dexpression, jsuis direct, cru Et jtla mets dans lcul dès lingé son dit REC ! Jai pas ltemps, jvis dpeu damour et trop dmisère Et les ients-cli faut vi-ser Et seuls les thos-my serrent face au commissaire Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants C'est Paris-Nord, les maillons d'or sur maillot Dior On fait dla maille, on dort et on taille à Andorre Mais on peut rien faire contre le sort Ou tes ressorts arpentent le sol ou tu roules en compressor C'est Paris-Nord, t'es quasi mort Jte laisse dans lcaniveau avec les carnivores, moi jvais au casino Envoie des bolosses discrets Il me faut des euros, ltier-quar c'est pas Eurodisney Plus jrappe, plus j'ai des neurones qui se créent Garçon, sors les glaçons, mes gars sont prêts, c'est la sion-pre Jme sers ta go si elle m'plait Hasta la victoria siempre ! Mon rap est persuasif Te cache pas derrière ta miss des qu't'aperçois un zif Pleure pas si ton père reçoit une gifle ! J'suis venu doubler le chiffre, pas me poudrer le pif Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Yo yo, Seth Gueko, Alkpote, Néochrome Fis.L, Sidi-di-di-di Omar Monsieur NDal, mon petit monsieur, tinquiète Le Barillet plein, Yo Yo, masta masta</t>
+          <t>Si si, Evry-Courcouronnes, Saint-Ouen-l'Aumône Pour mon poto Seth Gueko Néochrome Avec, Sidi O., Fis.L A.L.K.P.O.T.E, U2F Si si ! On veut shabiller bien, manger sans gaspiller lpain Parier plein dbillets 20 E, là cest lBarillet Plein Tu veux mbaiser mais tarrives pas, jmets dlHarissa Sur mon pain, jsuis surement plus violent qules Metallica Nique les perdants, il est pt-être temps dprendre une bectance Dans le rectangle, que des serpents avec des têtes dange Ya pas dmec tendre, ça stue pour un vêtement Flow infecte, il manque plus quje suive un traitement Jmène une vie dmalade, vulgaire style darabe Cest trop speed Paname, nique ta race toi et ton hit parade Rimes salaces sur un beat fatal Viens faire une ptite balade avec AlK et suce ma bite bâtard ! Des putes de rêve me sucent le sexe pendant quje fume le zeb Je bute le chef, ta nuque se pète, cest dur de test, cest lU2F Tas vu cque j'aif salope !? Cest juste les best salopes Ta jupe se baisse salope, ton salaud se lève carotte Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Entre moi et lEtat, ya aucun contact Cest que du pétasse quon tape, ou la caisse dun comptable Ya plus dun contraint, cest l6.35 contre un combat Tu compares dla crymo gel à du C-4 sur ma compagne Jte mac maintenant et puis jmarque un temps Puisque jvois qutas pas compris que tu braques un tank La rue est sévère, cest vrai que la lutte est rude Aujourdhui jai même vu une verge sortir dun utérus dans ton cur, fais pas ta pom-pom, girl Mon son passe pas en club, car jrappe dans un bunker Le hip-hop, cest Bobonne, on lui arrache son keus On te-squa son teum-teum, et on vate-sa son keum Jfais pas dexpression, jsuis direct, cru Et jtla mets dans lcul dès lingé son dit REC ! Jai pas ltemps, jvis dpeu damour et trop dmisère Et les ients-cli faut vi-ser Et seuls les thos-my serrent face au commissaire Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants C'est Paris-Nord, les maillons d'or sur maillot Dior On fait dla maille, on dort et on taille à Andorre Mais on peut rien faire contre le sort Ou tes ressorts arpentent le sol ou tu roules en compressor C'est Paris-Nord, t'es quasi mort Jte laisse dans lcaniveau avec les carnivores, moi jvais au casino Envoie des bolosses discrets Il me faut des euros, ltier-quar c'est pas Eurodisney Plus jrappe, plus j'ai des neurones qui se créent Garçon, sors les glaçons, mes gars sont prêts, c'est la sion-pre Jme sers ta go si elle m'plait Hasta la victoria siempre ! Mon rap est persuasif Te cache pas derrière ta miss des qu't'aperçois un zif Pleure pas si ton père reçoit une gifle ! J'suis venu doubler le chiffre, pas me poudrer le pif Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Nalbou, la miseria, pas ltemps Squatter les bancs du commissariat tout ltemps Tellement speeeed qujte gobe des calmants Les sourires cariés du ca- du cash les diamants Yo yo, Seth Gueko, Alkpote, Néochrome Fis.L, Sidi-di-di-di Omar Monsieur NDal, mon petit monsieur, tinquiète Le Barillet plein, Yo Yo, masta masta</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4913,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Yeah, Seth Gueko, Ok Que ce soit un bum-al ou une mixtape Pour oim c'est normal que je kick sec Alors dilate ton trou de balle et ta petite schneck Ecoute le bordel d'une tornade en direct Du rap financé par la zipette Il me faut un port d'arme Avant qu'on me dissèque les organes Pour les porcs crades qu'il y a à l'autre bout du 17 C'est sur le poster de Sarko que je joue aux flechettes Quand t'entends Seth t'a ??? qui va derrière J'enterre des cadavres de MC dans la clairière Dans le studio y'a pas de lumière, c'est vampirèsque Blah, Blah Calcule le temps qu'il te reste Avant que je te troue comme un gruyère x2 On est pris de folie meurtrière Belek si t'entends claquer trois portières Blah, Blah Y'a rien d'ordinaire Gonfler les paupières de la police auxiliaire Yeah Ah ma couillasse Comme dirait Ades Ca part en cocktail molotov Prudence c'est à ??? Tu touches ma go Tes parents retrouvent tes 10 oigts-d dans leur boite à lettres One man show d'un macho malhonnête 22 centimètres au baromètre ??? Criminel gentlemen Aime quand mes aisselles sentent le Mennen J'ai trop de haine comme Karim Menhem Casse belier en ML par l'hymen Pas le temps d'être gentil même S'il y a des gens qui m'aiment 18ème c'est l'argent qui règne Requiem pour un acte de barbarie L'estomac qui gargarise Sous la veste Thomas Burberry Alors laisse croquer Si tu me vois avec un bolos sur le boulevard Haussmann C'est pour l'escroquer Pour me voir c'est aud-ch man Faut venir au hall 10 pour du tos-ma Ou faire un cauchemar dangerous You might also likeSeth Gueko La Snatch Mixtape Drive By En Caravane Avant l'album Blah, Blah, Blah Yoni, Loko, Néochrome</t>
+          <t>Yeah, Seth Gueko, Ok Que ce soit un bum-al ou une mixtape Pour oim c'est normal que je kick sec Alors dilate ton trou de balle et ta petite schneck Ecoute le bordel d'une tornade en direct Du rap financé par la zipette Il me faut un port d'arme Avant qu'on me dissèque les organes Pour les porcs crades qu'il y a à l'autre bout du 17 C'est sur le poster de Sarko que je joue aux flechettes Quand t'entends Seth t'a ??? qui va derrière J'enterre des cadavres de MC dans la clairière Dans le studio y'a pas de lumière, c'est vampirèsque Blah, Blah Calcule le temps qu'il te reste Avant que je te troue comme un gruyère x2 On est pris de folie meurtrière Belek si t'entends claquer trois portières Blah, Blah Y'a rien d'ordinaire Gonfler les paupières de la police auxiliaire Yeah Ah ma couillasse Comme dirait Ades Ca part en cocktail molotov Prudence c'est à ??? Tu touches ma go Tes parents retrouvent tes 10 oigts-d dans leur boite à lettres One man show d'un macho malhonnête 22 centimètres au baromètre ??? Criminel gentlemen Aime quand mes aisselles sentent le Mennen J'ai trop de haine comme Karim Menhem Casse belier en ML par l'hymen Pas le temps d'être gentil même S'il y a des gens qui m'aiment 18ème c'est l'argent qui règne Requiem pour un acte de barbarie L'estomac qui gargarise Sous la veste Thomas Burberry Alors laisse croquer Si tu me vois avec un bolos sur le boulevard Haussmann C'est pour l'escroquer Pour me voir c'est aud-ch man Faut venir au hall 10 pour du tos-ma Ou faire un cauchemar dangerous Seth Gueko La Snatch Mixtape Drive By En Caravane Avant l'album Blah, Blah, Blah Yoni, Loko, Néochrome</t>
         </is>
       </c>
     </row>
@@ -4934,7 +4930,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MC détend toi du bulbe T'es mort dans l'film espèce de fils de pub T'as l'swag à Jacquouille la Fripouille ma couille j'suis l'cousin Hub' Nique le GUD, blanc ou noir, y a pas d'race modèle Quoi ? Taffer pour l'État c'est d'l'esclavage moderne La France me déteste grave car je refuse d'être esclave Faut quand même avoir des couilles pour se les couper alors respecte les travs J'connais l'malheur des pauvres, et la douleur des braves C'est l'heure de faire des lovés, des liasses couleur betterave Les lois j'les entrave J'rime comme Desproges, j'rappe sale comme le couloir des caves Le game j'l'ai en travers d'la gorge La drogue a fait d'toi une espèce d'épave Oh my gosh, la pression monte d'une octave, torturé comme au Cambodge Le rap pue la merde faut qu'j'le dégorge Pour couper la bite de son amant, faut lui mettre des lames de rasoir dans la chatte Bra il veut t'lâcher c'est l'hôpital qui s'fout d'la charité J'dirais même plus c'est Nacho Vidal qui s'fout d'la chatte irritée Car, c't'année c'est mon année J'ai qu'une bouche j'pourrais pas toutes les baiser J'ai qu'deux mains j'pourrais pas tous les gifler C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année C't'année c'est mon année J'ai qu'deux pieds j'pourrais pas tous les shooter Qu'deux poumons j'pourrais pas tous les fumer C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année You might also like J'kick le beat, j'nique les flics, j'vide mes trips J'sens qu'mes peines, les mosquées sont gratuites mais vides Les boîtes sont payantes mais pleines Enfer ou paradis dans les deux cas, j'ai des potes là-bas On dit qu'les génies sont feignants, j'ai la flemme de vous dire pourquoi J'suis à Phuket ce que Sefyu est à Aulnay-sous-Bois Même les flics droits, on les soudoie J'ai les mains sales, passe moi l'essuie-doigts Jure pas sur l'Coran, tu l'as jamais lu Les gens bien c'est des culs-d'jatte ils courent pas les rues J'ai du sang sur les chaussures, pompes funèbres Les bolosses achètent du cauchemar les leur-dea vendent du rêve J'fais des gosses car, j'focalise sur ma conservation Bientôt j'dirai plus suce-moi mais délocalise la conversation Car, c't'année c'est mon année J'ai qu'une bouche j'pourrais pas toutes les baiser J'ai qu'deux mains j'pourrais pas tous les gifler C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année C't'année c'est mon année J'ai qu'deux pieds j'pourrais pas tous les shooter Qu'deux poumons j'pourrais pas tous les fumer C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année1</t>
+          <t>MC détend toi du bulbe T'es mort dans l'film espèce de fils de pub T'as l'swag à Jacquouille la Fripouille ma couille j'suis l'cousin Hub' Nique le GUD, blanc ou noir, y a pas d'race modèle Quoi ? Taffer pour l'État c'est d'l'esclavage moderne La France me déteste grave car je refuse d'être esclave Faut quand même avoir des couilles pour se les couper alors respecte les travs J'connais l'malheur des pauvres, et la douleur des braves C'est l'heure de faire des lovés, des liasses couleur betterave Les lois j'les entrave J'rime comme Desproges, j'rappe sale comme le couloir des caves Le game j'l'ai en travers d'la gorge La drogue a fait d'toi une espèce d'épave Oh my gosh, la pression monte d'une octave, torturé comme au Cambodge Le rap pue la merde faut qu'j'le dégorge Pour couper la bite de son amant, faut lui mettre des lames de rasoir dans la chatte Bra il veut t'lâcher c'est l'hôpital qui s'fout d'la charité J'dirais même plus c'est Nacho Vidal qui s'fout d'la chatte irritée Car, c't'année c'est mon année J'ai qu'une bouche j'pourrais pas toutes les baiser J'ai qu'deux mains j'pourrais pas tous les gifler C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année C't'année c'est mon année J'ai qu'deux pieds j'pourrais pas tous les shooter Qu'deux poumons j'pourrais pas tous les fumer C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année J'kick le beat, j'nique les flics, j'vide mes trips J'sens qu'mes peines, les mosquées sont gratuites mais vides Les boîtes sont payantes mais pleines Enfer ou paradis dans les deux cas, j'ai des potes là-bas On dit qu'les génies sont feignants, j'ai la flemme de vous dire pourquoi J'suis à Phuket ce que Sefyu est à Aulnay-sous-Bois Même les flics droits, on les soudoie J'ai les mains sales, passe moi l'essuie-doigts Jure pas sur l'Coran, tu l'as jamais lu Les gens bien c'est des culs-d'jatte ils courent pas les rues J'ai du sang sur les chaussures, pompes funèbres Les bolosses achètent du cauchemar les leur-dea vendent du rêve J'fais des gosses car, j'focalise sur ma conservation Bientôt j'dirai plus suce-moi mais délocalise la conversation Car, c't'année c'est mon année J'ai qu'une bouche j'pourrais pas toutes les baiser J'ai qu'deux mains j'pourrais pas tous les gifler C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année C't'année c'est mon année J'ai qu'deux pieds j'pourrais pas tous les shooter Qu'deux poumons j'pourrais pas tous les fumer C't'année c'est mon année, c't'année c'est mon année J'répète c't'année c'est mon année1</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4947,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou You might also like On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise,</t>
+          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
         </is>
       </c>
     </row>
@@ -4968,7 +4964,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Yeah, Marseille Faut-il croire en Dieu avant de croire en soi ? Ou vice et versa, on n'est pas les fils de Versailles L'argent n'est pas une fin en soit, c'est juste un lit avec des draps en soie Et une centaines de femmes qui accros au champagne s'en pètent le foie J'ai lu les livres saints une trentain de fois en quête d foi Et j'ai choisi l'dîn alors respecte ce choix J'ai transformé l'p'tit Nicolas en bête de foire Masqué comme touareg dans une tempête de sable J'me casse de c'rap game, c'est une compet' de zouaves La seule chose de concrète, c'est qu'on crève de soif Des keufs qui empestent le Sky enquêtent le soir Car des balles perdues transpercent le square Un homme s'est fait tuer par sa trompette de shrab à l'AK-47 de Vlad Il est mort pour une cinquantaine de sav' sans que ses conquêtes le sachent Et ça, c'est tellement sad que j'en pèle de froid Le soleil est noir on a perdu toute lueur d'espoir Perdu le sommeil car des rafales retentissent le soir Hier encore on retrouvait le corps sans vie d'un gosse de 17 ans Criblé de balles qui gisait dans une marre de sang J'n'ose imaginé la douleur que les familles ressentent On a pas mis nos fils au monde pour qu'un jour ils s'descendent Font les durs mais au fond d'eux le sont moins qu'ils prétendent Nous sommes que le produit de l'environnement qu'ils fréquentent C'est la vraie vie qu'je chante Je mets de simples mots sur c'qu'essai de vous dire le sample Au diable les objectifs de vente J'ai fait le choix de me nourrir l'esprit plutôt que me remplir le ventre Jamais je n'm'abaisserais à faire c'que le public demande Plutôt crever qu'écrire un jour des paroles vides de sens Faire de la merde pour les playlists et pour les pistes de danses Les violons jouent pour que j'leur pisse dedans Dis c'que je pense, nique la musique de France You might also like Nique les fascistes de France lorsque l'humain parle de faire le bien Baume sur le fer, cet or qui rêve de faire ciel pousse à faire la guerre Moi j'suis en paix, on risque de me perdre, j'écrivais rimes et pensées décrit la ville de mes pères J'sens le diable parmi les hommes, Dieu dans le désert Moi, né ici, parce que les miens ont fuit la misère Au fond j'avais des rêves pour eux, c'était un crime Alors au lieu de courir j'ai plané sur les ailes des aigles Ça débarquait dans le quartier comme à Falloujah On voulait pas s'battre mais retourner Lollapalooza Lettre ouverte à tous ces salopards Au lieu d'ceux qui prient, pense à ceux qui meurent sur les trottoirs Comme disait Michel Baldit, les gens on c't'attitude La douleur n'aime plus quand doucement on s'y habitue On vieillit, on s'accoutume à porter du noir On voit les nôtres assassinés en sortant du bar Les potes d'enfances en terre, leurs fils prient dans une guerre Qui top la misère au fond ne fait profiter que les riches Ils disent c'est la couleur, moi, j'dis que c'est les prismes Dix secondes de leurs info, j'mesure le mépris J'veux pas finir aigri par la vie et les cons qui votent pour le maton qui va leur enfoncer le bâton C'est pour ce débris de respect que nous nous battons A.M.E.R numéro 5, mon ministère ressort le flacon La rue quadrillée, le pacte de fils de brute Payé par un fils de flûte pour shooter du fils de pute C'est pour museler le fils de lutte Et ne pas le voir s'élever mais se réjouir du putain d'bruit de chute Mortel, Marc rien ne change, 24 ans On aurait pu écrire Nés sous la même étoile maintenant Et ce s'rait pareil C'est triste mais ce s'rait pareil Tu l'sais, IAM le septième artificier</t>
+          <t>Yeah, Marseille Faut-il croire en Dieu avant de croire en soi ? Ou vice et versa, on n'est pas les fils de Versailles L'argent n'est pas une fin en soit, c'est juste un lit avec des draps en soie Et une centaines de femmes qui accros au champagne s'en pètent le foie J'ai lu les livres saints une trentain de fois en quête d foi Et j'ai choisi l'dîn alors respecte ce choix J'ai transformé l'p'tit Nicolas en bête de foire Masqué comme touareg dans une tempête de sable J'me casse de c'rap game, c'est une compet' de zouaves La seule chose de concrète, c'est qu'on crève de soif Des keufs qui empestent le Sky enquêtent le soir Car des balles perdues transpercent le square Un homme s'est fait tuer par sa trompette de shrab à l'AK-47 de Vlad Il est mort pour une cinquantaine de sav' sans que ses conquêtes le sachent Et ça, c'est tellement sad que j'en pèle de froid Le soleil est noir on a perdu toute lueur d'espoir Perdu le sommeil car des rafales retentissent le soir Hier encore on retrouvait le corps sans vie d'un gosse de 17 ans Criblé de balles qui gisait dans une marre de sang J'n'ose imaginé la douleur que les familles ressentent On a pas mis nos fils au monde pour qu'un jour ils s'descendent Font les durs mais au fond d'eux le sont moins qu'ils prétendent Nous sommes que le produit de l'environnement qu'ils fréquentent C'est la vraie vie qu'je chante Je mets de simples mots sur c'qu'essai de vous dire le sample Au diable les objectifs de vente J'ai fait le choix de me nourrir l'esprit plutôt que me remplir le ventre Jamais je n'm'abaisserais à faire c'que le public demande Plutôt crever qu'écrire un jour des paroles vides de sens Faire de la merde pour les playlists et pour les pistes de danses Les violons jouent pour que j'leur pisse dedans Dis c'que je pense, nique la musique de France Nique les fascistes de France lorsque l'humain parle de faire le bien Baume sur le fer, cet or qui rêve de faire ciel pousse à faire la guerre Moi j'suis en paix, on risque de me perdre, j'écrivais rimes et pensées décrit la ville de mes pères J'sens le diable parmi les hommes, Dieu dans le désert Moi, né ici, parce que les miens ont fuit la misère Au fond j'avais des rêves pour eux, c'était un crime Alors au lieu de courir j'ai plané sur les ailes des aigles Ça débarquait dans le quartier comme à Falloujah On voulait pas s'battre mais retourner Lollapalooza Lettre ouverte à tous ces salopards Au lieu d'ceux qui prient, pense à ceux qui meurent sur les trottoirs Comme disait Michel Baldit, les gens on c't'attitude La douleur n'aime plus quand doucement on s'y habitue On vieillit, on s'accoutume à porter du noir On voit les nôtres assassinés en sortant du bar Les potes d'enfances en terre, leurs fils prient dans une guerre Qui top la misère au fond ne fait profiter que les riches Ils disent c'est la couleur, moi, j'dis que c'est les prismes Dix secondes de leurs info, j'mesure le mépris J'veux pas finir aigri par la vie et les cons qui votent pour le maton qui va leur enfoncer le bâton C'est pour ce débris de respect que nous nous battons A.M.E.R numéro 5, mon ministère ressort le flacon La rue quadrillée, le pacte de fils de brute Payé par un fils de flûte pour shooter du fils de pute C'est pour museler le fils de lutte Et ne pas le voir s'élever mais se réjouir du putain d'bruit de chute Mortel, Marc rien ne change, 24 ans On aurait pu écrire Nés sous la même étoile maintenant Et ce s'rait pareil C'est triste mais ce s'rait pareil Tu l'sais, IAM le septième artificier</t>
         </is>
       </c>
     </row>
@@ -4985,7 +4981,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>On n'est pas venus jouer d'la cornemuse Ni s'exhiber l'torse nu, hein Cette fois-ci on force le mur C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Serre l'anus, v'la les supos' d'Satan En sponsor avec Emmaüs Sur l'Coran y'a rien Juste des gosses précoces avec du whisky d'Écosse dans les coronariens Bouillants, brûlants comme les cités Corse Apprécient tes proches avant qu'mon récit t'écorche J'ai la tête rasé au sabot un, une patate de rabouin La police au cul comme les babouins Viens, viens on braque un labo' j'veux des anabo' La coke me rend parano comme Marado' J'écris mes textes avec la main de feu V'la les schmit, 22, soirée vin teuteu Nique le comico Moi et les flics on s'entend pas, vite vite un oto-rhino Comme Toto Riina et Provenzano, on mène des vies dangereuses Ils te perquiz' alors qu't'as du Miel Pop's dans les yeuz You might also like C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Chez nous c'est vatos, locos Y'a qu'des clous rouillés qui refileront l'tétanos On a la hantise de t'loger une bastos Qu'ça finisse en perquiz' à cause d'un p'tit vatos Quiguigri tchek au lance pierre à bientôt 30 berges ? Le diable n'est jamais loin d'celui qui tend l'verre Mourir pour les siens c'est toute une gamberge Qu'est-ce que tu vas fumer à part ta branche d'herbe ? À l'école on plaint celui qui élève ce cancre On y peut rien petit frère lui il rêve de banque Apprenti gangster, futur chef de bande Dégoûté d'ce monde comme ce MC qui cesse de vendre On a pas tous choisis pauvre et honnête Faut des cojones pour voir le ter-ter, régler tes honoraires Certains sont prêts à s'infiltrer dans ta forteresse Saisir l'magot et t'péter l'dos d'vant ta Doloress C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Qu'est-ce qu'ça peut t'faire qu'on deal l'ecsta' ? Si j'meurs tu meurs c'est pas plus compliqué qu'ça On vit d'menu d'l'arcins et d'combines extras Seth Gueko c'est l'roi d'la compil' gangsta Pas b'soin d'avoir été à Saint-Cyr Pour préméditer un assassinat Ma femme aura son manteau en chinchilla Mes potes le savent s'ils ont une galère j'suis là ! Il suffit pas d'mettre une barbe à l'autre On a des propos d'barbares demande à tous ces narvalos Y'a pas d'favoris, on baise Navarro Dans nos têtes c'est Boris Yeltsin featuring Soprano Lâchez pas vos couilles los vatos ! Los vatos On veut qu'chaque titre sonne comme une grosse bastos Grosse bastos On s'fait rares comme une dose gratos Dose gratos Soit tu bosses, soit tu shlagues, soit tu causes matos Causes matos Encaisse les puanteurs Alkpote, Seth Gueko, Farage Nikov On laisse les putes en pleurs Drive-by en caravane Suceuses C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Vleeh, Seth Gueko On fait tout avec les moyens du bord Yonea le patron, Néochrome Zdédédédéxx</t>
+          <t>On n'est pas venus jouer d'la cornemuse Ni s'exhiber l'torse nu, hein Cette fois-ci on force le mur C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Serre l'anus, v'la les supos' d'Satan En sponsor avec Emmaüs Sur l'Coran y'a rien Juste des gosses précoces avec du whisky d'Écosse dans les coronariens Bouillants, brûlants comme les cités Corse Apprécient tes proches avant qu'mon récit t'écorche J'ai la tête rasé au sabot un, une patate de rabouin La police au cul comme les babouins Viens, viens on braque un labo' j'veux des anabo' La coke me rend parano comme Marado' J'écris mes textes avec la main de feu V'la les schmit, 22, soirée vin teuteu Nique le comico Moi et les flics on s'entend pas, vite vite un oto-rhino Comme Toto Riina et Provenzano, on mène des vies dangereuses Ils te perquiz' alors qu't'as du Miel Pop's dans les yeuz C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Chez nous c'est vatos, locos Y'a qu'des clous rouillés qui refileront l'tétanos On a la hantise de t'loger une bastos Qu'ça finisse en perquiz' à cause d'un p'tit vatos Quiguigri tchek au lance pierre à bientôt 30 berges ? Le diable n'est jamais loin d'celui qui tend l'verre Mourir pour les siens c'est toute une gamberge Qu'est-ce que tu vas fumer à part ta branche d'herbe ? À l'école on plaint celui qui élève ce cancre On y peut rien petit frère lui il rêve de banque Apprenti gangster, futur chef de bande Dégoûté d'ce monde comme ce MC qui cesse de vendre On a pas tous choisis pauvre et honnête Faut des cojones pour voir le ter-ter, régler tes honoraires Certains sont prêts à s'infiltrer dans ta forteresse Saisir l'magot et t'péter l'dos d'vant ta Doloress C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Qu'est-ce qu'ça peut t'faire qu'on deal l'ecsta' ? Si j'meurs tu meurs c'est pas plus compliqué qu'ça On vit d'menu d'l'arcins et d'combines extras Seth Gueko c'est l'roi d'la compil' gangsta Pas b'soin d'avoir été à Saint-Cyr Pour préméditer un assassinat Ma femme aura son manteau en chinchilla Mes potes le savent s'ils ont une galère j'suis là ! Il suffit pas d'mettre une barbe à l'autre On a des propos d'barbares demande à tous ces narvalos Y'a pas d'favoris, on baise Navarro Dans nos têtes c'est Boris Yeltsin featuring Soprano Lâchez pas vos couilles los vatos ! Los vatos On veut qu'chaque titre sonne comme une grosse bastos Grosse bastos On s'fait rares comme une dose gratos Dose gratos Soit tu bosses, soit tu shlagues, soit tu causes matos Causes matos Encaisse les puanteurs Alkpote, Seth Gueko, Farage Nikov On laisse les putes en pleurs Drive-by en caravane Suceuses C'est du rap hardcore, puceau ça sent la mort On va t'fister l'cul avec le museau d'un labrador Ça pue les trafics, les arrestations On va t'plumer ta clique, tu vas nous sucer la bite avec passion Vleeh, Seth Gueko On fait tout avec les moyens du bord Yonea le patron, Néochrome Zdédédédéxx</t>
         </is>
       </c>
     </row>
@@ -5002,7 +4998,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Chérie, péta lsac de Juliette pendant qujégorge Roméo Jcroque la vie à pleines dents comme les zombies dGeorges Romero Ouais jai les crocs comme un pitbull qui tronge ta jambe Jsuis lPère Fouettard, MC, va faire tes devoirs et range ta chambre Accroche ta sangle, on a lpied au plancher Balance les gambas sur la plancha Jsoulève mon sexe en acier trempé dune simple pensée Tu veux goûter lbitume, penche-toi, que jtencule avec du gravier Grossier est le langage Vous connaissez le personnage Dans le gosier, du douze ans dâge Jai tes dossiers, jai fait les sondages Monte sur lring au son dla cloche à fromage, rapapa Maintenant, si un gruyère te voit il tappellera Papa Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers You might also like Nique le 6.6.6 Le comble de la Diablesse cest davoir le paradis entre ses cuisses La vie nest pas rose comme un clitoris Quand jrepense aux immondices faites par Dominique Baudis On dit pas Le cow-boy roupille fils, mais lhomme au pistolet dort On nique les skins, on fiste les porcs Ouais j'donne l'heure à leurs intestins Quon mdise que jai tort davoir fuit le triste décor parisien La vie cest des questions du début à la fin Ça commence par la tétine ou ltéton puis lflingue ou lsurin Ça se terminera par du chêne ou du sapin La Terre est ronde pourtant ya des tapins dans les quatre coins Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers Jsuis dans lFaucon Millenium, Han Solo Tes pas un homme, même tes couilles elles tont unfollow Jsuis quun salaud, cest soit jmessuie dans lsopalin Ou soit tu swallow Et ouais mon lapin, cest soit lun ou soit lautre Elles investissent dans leurs nibards excédant la puterie Cest lhôpital qui sfout dla charcuterie Cest pas moi qui ai grossi, non, cest tes yeux qui ont maigri Jsuis resté lmême contrairement à ces abrutis Dans lfond, jme dis quon est plutôt bien loti Quand jpense aux frères au habs en train dnettoyer la cour Javais des frères, la jalousie les a rendues aigris Chérie, cest tes oreilles quon devrait appeler les poignets damour Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers</t>
+          <t>Chérie, péta lsac de Juliette pendant qujégorge Roméo Jcroque la vie à pleines dents comme les zombies dGeorges Romero Ouais jai les crocs comme un pitbull qui tronge ta jambe Jsuis lPère Fouettard, MC, va faire tes devoirs et range ta chambre Accroche ta sangle, on a lpied au plancher Balance les gambas sur la plancha Jsoulève mon sexe en acier trempé dune simple pensée Tu veux goûter lbitume, penche-toi, que jtencule avec du gravier Grossier est le langage Vous connaissez le personnage Dans le gosier, du douze ans dâge Jai tes dossiers, jai fait les sondages Monte sur lring au son dla cloche à fromage, rapapa Maintenant, si un gruyère te voit il tappellera Papa Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers Nique le 6.6.6 Le comble de la Diablesse cest davoir le paradis entre ses cuisses La vie nest pas rose comme un clitoris Quand jrepense aux immondices faites par Dominique Baudis On dit pas Le cow-boy roupille fils, mais lhomme au pistolet dort On nique les skins, on fiste les porcs Ouais j'donne l'heure à leurs intestins Quon mdise que jai tort davoir fuit le triste décor parisien La vie cest des questions du début à la fin Ça commence par la tétine ou ltéton puis lflingue ou lsurin Ça se terminera par du chêne ou du sapin La Terre est ronde pourtant ya des tapins dans les quatre coins Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers Jsuis dans lFaucon Millenium, Han Solo Tes pas un homme, même tes couilles elles tont unfollow Jsuis quun salaud, cest soit jmessuie dans lsopalin Ou soit tu swallow Et ouais mon lapin, cest soit lun ou soit lautre Elles investissent dans leurs nibards excédant la puterie Cest lhôpital qui sfout dla charcuterie Cest pas moi qui ai grossi, non, cest tes yeux qui ont maigri Jsuis resté lmême contrairement à ces abrutis Dans lfond, jme dis quon est plutôt bien loti Quand jpense aux frères au habs en train dnettoyer la cour Javais des frères, la jalousie les a rendues aigris Chérie, cest tes oreilles quon devrait appeler les poignets damour Yeah, Monsieur lAgent veut mes papiers Mais jles ai pas, jles ai oubliés Ses collègues me regardent les yeux écarquillés Passez-moi les menottes, vous faites pas prier Jai dla chatte à fouetter, du pain sur la planche à billets Ils savent pas rapper, pas shabiller, allez vous démaquiller Yeah, détache le chèque selon les pointillés Ce soir, Monsieur lAgent naura pas mes papiers</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5015,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Seth Gueko Seth Gueko, Greengo C'est pour mes ptit rouf, les ptits reuf qui t'rendent ouf J'suis bien dans mon tieks, dans une chatte, dans mes pantoufles Le vent souffle, pour oim, les MC's sont verts de trouille Au lieu dt'acheter une paire de Jordan achète une paire de couille Défiler de punchline, c'est d'la haute coupure Mange pas la gamelle dedans ils mettent du bromure Etincelant, comme un sourire avec deux dents en or pur J'rappe le dos au mur Ouais petit joueur J'vise le top of the world On fait des fausse fiches de payes avec windows word Mec on met pas d'baggy on nique Eisenhower T'es belle comme une fleur j'te fait une golden shower Refrain Greengo On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST You might also likeOn crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST Seth Gueko On boit l'whisky pur car c'est le coca qui a tué Bigpun Arrête d'envier nos vies d'thug Ou vas te faire rallonger ta ptite teub chez nip tuck Greengo J'compte mon cheese dans la cuisine parce que j'suis trop gourmand J'suis en roue libre petasse a quoi bon m'attendre au tournant La tête pleine, les couilles vides et le pantalon bas Un air de lexington, style tu repars total en bad De la coca locale, aux billets verts de couleur Chérie suce moi direct, j'vois qu'tas les dents du bonheur Ma bite a l'air, j'ai pour habit ma seule paire de couilles Chaque rime que j'écris j'suis triste, j'viens de perdre une douille J'sais qu'tes deg, j'pose avec Seth J'me promène en ligue 1, en local tu pue la défaite Bande de suckaz Les poils pubiens de ta go sur ma queue J'frotte le bitume J'attend qu'la street excauce mes voeux Refrain Greengo On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST</t>
+          <t>Seth Gueko Seth Gueko, Greengo C'est pour mes ptit rouf, les ptits reuf qui t'rendent ouf J'suis bien dans mon tieks, dans une chatte, dans mes pantoufles Le vent souffle, pour oim, les MC's sont verts de trouille Au lieu dt'acheter une paire de Jordan achète une paire de couille Défiler de punchline, c'est d'la haute coupure Mange pas la gamelle dedans ils mettent du bromure Etincelant, comme un sourire avec deux dents en or pur J'rappe le dos au mur Ouais petit joueur J'vise le top of the world On fait des fausse fiches de payes avec windows word Mec on met pas d'baggy on nique Eisenhower T'es belle comme une fleur j'te fait une golden shower Refrain Greengo On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST Seth Gueko On boit l'whisky pur car c'est le coca qui a tué Bigpun Arrête d'envier nos vies d'thug Ou vas te faire rallonger ta ptite teub chez nip tuck Greengo J'compte mon cheese dans la cuisine parce que j'suis trop gourmand J'suis en roue libre petasse a quoi bon m'attendre au tournant La tête pleine, les couilles vides et le pantalon bas Un air de lexington, style tu repars total en bad De la coca locale, aux billets verts de couleur Chérie suce moi direct, j'vois qu'tas les dents du bonheur Ma bite a l'air, j'ai pour habit ma seule paire de couilles Chaque rime que j'écris j'suis triste, j'viens de perdre une douille J'sais qu'tes deg, j'pose avec Seth J'me promène en ligue 1, en local tu pue la défaite Bande de suckaz Les poils pubiens de ta go sur ma queue J'frotte le bitume J'attend qu'la street excauce mes voeux Refrain Greengo On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST On crache nos putain d'textes et Dans le biz pour des années Toujours vrai, et j'compte le rester Défonce comme LSD, coke ou crack Mon rap te fait flipper comme une MST</t>
         </is>
       </c>
     </row>
@@ -5036,7 +5032,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Jsuis avec la familia Depuis lépoque du mia Ma mama mia Jencule les frères Diaz Buenos días Ce soir jte prends sur le billard Amorcita Du baratin je te recita Muchacha guapa Tes dans le rap jte vois pas Jte propose un verre elle boit pas Sans permis elle smet la guardia Bordel chérie toi et moi cest bon dél Ton mec est cramé il a une Opel Du coup tu monte dans la gari Monte dans la gari Monte dans la gari Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa You might also like Muchacho guapo, on pose des teilles on boit pas On arrive en 4 pots, pas dsurvet, kappa VIP au crystal, Dom pé, Crystal, au Cristel Ramène-moi toutes tes sista Marrakech ou Marbe, DJ KAYZ au platine Cousine bouge ton tar-pe, jaime pas trop les calines Jvois lhiver à Phuket et lété au De Nanterre à Dubaï, cest les mêmes têtes qui tournent Que des cailles de violet Jai un bon coup de volant Toute lannée au soleil, jai la classe en insolente Sac de luxe italienne sur les plages de Bali Jai des frères tunisiens, du Maroc, du Mali Radisson des roupies Moi des chambres à Dakar Parles pas trop dgroupies La jalousie peut ma-tar Du Chanel du gucci Ça brille comme le Qatar Beaucoup dfemmes avec nous Pas dsalopes à ma table Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa Jai horreur que les anges mentent Jles écoutent pas et jles croient pas Jfume la chicha orange menthe avec une muchacha guapa Hé, tu mveux quoi toi Pourquoi tu mregardes Arrête de regarder Gomorra Les gars dchez moi ils ont dja caché l me-ar Même sous une Allez monte dans la gari Monte dans la gari, comme disent les frères comoriens Tu veux faire des pet-gali Va tépiler entre les cuisses ta un chat angora Le cool-al cest notre stimulant Dès quon est dans la street ils sont virulants Jsuis dans lgame depuis 10 mille ans Jsuis pas un dces rappeurs fragiles qui met du démêlant Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa Monte dans la gari, fait pas le crainri Monte dans la gari, monte dans la gari Monte dans la gari, hummm la gari Monte dans la gari, hummm la gari Appelle-moi le gros Appelle-moi le gros Appelle-moi le gros DJ Kayz Appelle-moi le gros Appelle-moi le gros En famille, DJ Kayz, Tamlis Music Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa</t>
+          <t>Jsuis avec la familia Depuis lépoque du mia Ma mama mia Jencule les frères Diaz Buenos días Ce soir jte prends sur le billard Amorcita Du baratin je te recita Muchacha guapa Tes dans le rap jte vois pas Jte propose un verre elle boit pas Sans permis elle smet la guardia Bordel chérie toi et moi cest bon dél Ton mec est cramé il a une Opel Du coup tu monte dans la gari Monte dans la gari Monte dans la gari Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa Muchacho guapo, on pose des teilles on boit pas On arrive en 4 pots, pas dsurvet, kappa VIP au crystal, Dom pé, Crystal, au Cristel Ramène-moi toutes tes sista Marrakech ou Marbe, DJ KAYZ au platine Cousine bouge ton tar-pe, jaime pas trop les calines Jvois lhiver à Phuket et lété au De Nanterre à Dubaï, cest les mêmes têtes qui tournent Que des cailles de violet Jai un bon coup de volant Toute lannée au soleil, jai la classe en insolente Sac de luxe italienne sur les plages de Bali Jai des frères tunisiens, du Maroc, du Mali Radisson des roupies Moi des chambres à Dakar Parles pas trop dgroupies La jalousie peut ma-tar Du Chanel du gucci Ça brille comme le Qatar Beaucoup dfemmes avec nous Pas dsalopes à ma table Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa Jai horreur que les anges mentent Jles écoutent pas et jles croient pas Jfume la chicha orange menthe avec une muchacha guapa Hé, tu mveux quoi toi Pourquoi tu mregardes Arrête de regarder Gomorra Les gars dchez moi ils ont dja caché l me-ar Même sous une Allez monte dans la gari Monte dans la gari, comme disent les frères comoriens Tu veux faire des pet-gali Va tépiler entre les cuisses ta un chat angora Le cool-al cest notre stimulant Dès quon est dans la street ils sont virulants Jsuis dans lgame depuis 10 mille ans Jsuis pas un dces rappeurs fragiles qui met du démêlant Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa Monte dans la gari, fait pas le crainri Monte dans la gari, monte dans la gari Monte dans la gari, hummm la gari Monte dans la gari, hummm la gari Appelle-moi le gros Appelle-moi le gros Appelle-moi le gros DJ Kayz Appelle-moi le gros Appelle-moi le gros En famille, DJ Kayz, Tamlis Music Les lumières du club et les étoiles scintillent Jrenverse la Belvédère sur mon fendi Ya que des grands gérants et des belles filles Ya que des grands gérants et des belles filles Muchacha guapa Muchacha guapa Muchacha guapa Muchacha guapa</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5049,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Yeah Un truc de scars-la Yeah ZDX Seth Guex Han 9-5 9-2 Kozi Niama Hauts-de-Seine, niama niama Qu'ce soit ou pas d'la trap J'suis tout terrain comme un 4x4 MC t'as qu'deux jambes pourtant on vas t'mettre à quatre pattes Sur ton corps enterré en béton sera la chap' Les p'tites sniffent des Insta-grammes de coke et se mettent des doigts dans la Snap-chatte Mets moi en a cap' Écoute l'accent des crapules de tess Niveau rime j'évacue leur chef Quand j'éjacule j'évacue le stress Les beefs se multiplient alors les calculent ne cessent Nous chie pas un pendule, si j'te fist tu vas nous chier une Rolex Débouchonne la vodka, décapsule le Schweppes Les bouffonnes reviennent de Rep Dom le rectum plein d'capsules de cess' Comment s'appelle le fils de monsieur et madame Dedex ? Didier ! Pourquoi ? Parce que didiededex J'ai toujours dédié mes textes A tous mes frères au bagne Le flow fait mal, comme un fléau Comme un glaive de l'époque féodale C'est dans l'plus grand des calmes qu'on fait nos bails, mon vieux À Paris j'ai d'l'huile sur le feu À Phuket j'ai d'l'huile sur la queue Remercie père et mère, car j'srais pas la sans eux Quand j'suis triste j'm'essuie les yeux avec un putain d'billet d'500E Fait pas l'nerveux, avec mes kheys mafieux Faut surtout pas qu'ton appareil me raille la queue La chatte à Mireille Mathieu han You might also like T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Tu vas t'manger un coups d'zgeg On marche qu'avec des gars droits Irréversibles comme ma veste Un frère qui baise un autre frère Pour moi c'est de l'inceste Bang bang Niama niama T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Salement ça pue la death Un frère qui baise un autre frère Pour moi c'est de l'inceste Trop déterminés, y'a qu'au tard-mi qu'on fait la sieste Désormais avant de penser aux autres faut que je pense à moi-même Personne a mis tous le monde ccord-d'a Même pas le prophète Mohammed Reconnaissant envers Kinder, Hervé, Sarkilla et Magnanès ? Mes adversaires sont vert et vénères comme les habitants d'la terre Namek J'ai du attendre comme un puceau mais aujourd'hui j'vais vous la mettre La balle est dans mon camp Donc comprend pourquoi je fous la merde Si t'as la bouche sucré, la défaite aura un gout amer J'espère ne pas clamser, sur le rrain-té comme ce camer Ri-Rien-Rien à foutre d'la politique aille niquer sa mère Dans la street en 5, 6, 7 secondes, chrono j'fais ton salaire Élément perturbateur, depuis la primaire j'suis ce mauvais garçon Face aux 3.5.7, 11.43 les michtos ? tombent comme des garçons Mon son te donne le seum J'vis-ser que d'la frappe Ex-membre d'l'a Geste Team, j'ai pas commencé avec la trap Fuck Jean-Pierre Foucault C'est pas mon dernier mot donc je m'arrête ap J'suis juste la nouvelle came du ghetto Qui va vous mettre dans les vapes T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Tu vas t'manger un coups d'zgeg On marche qu'avec des gars droits Irréversibles comme ma veste Un frère qui baise un autre frère Pour moi c'est de l'inceste Bang bang Niama niama T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Salement ça pue la death Un frère qui baise un autre frère Pour moi c'est de l'inceste Trop déterminés, y'a qu'au tard-mi qu'on fait la sieste</t>
+          <t>Yeah Un truc de scars-la Yeah ZDX Seth Guex Han 9-5 9-2 Kozi Niama Hauts-de-Seine, niama niama Qu'ce soit ou pas d'la trap J'suis tout terrain comme un 4x4 MC t'as qu'deux jambes pourtant on vas t'mettre à quatre pattes Sur ton corps enterré en béton sera la chap' Les p'tites sniffent des Insta-grammes de coke et se mettent des doigts dans la Snap-chatte Mets moi en a cap' Écoute l'accent des crapules de tess Niveau rime j'évacue leur chef Quand j'éjacule j'évacue le stress Les beefs se multiplient alors les calculent ne cessent Nous chie pas un pendule, si j'te fist tu vas nous chier une Rolex Débouchonne la vodka, décapsule le Schweppes Les bouffonnes reviennent de Rep Dom le rectum plein d'capsules de cess' Comment s'appelle le fils de monsieur et madame Dedex ? Didier ! Pourquoi ? Parce que didiededex J'ai toujours dédié mes textes A tous mes frères au bagne Le flow fait mal, comme un fléau Comme un glaive de l'époque féodale C'est dans l'plus grand des calmes qu'on fait nos bails, mon vieux À Paris j'ai d'l'huile sur le feu À Phuket j'ai d'l'huile sur la queue Remercie père et mère, car j'srais pas la sans eux Quand j'suis triste j'm'essuie les yeux avec un putain d'billet d'500E Fait pas l'nerveux, avec mes kheys mafieux Faut surtout pas qu'ton appareil me raille la queue La chatte à Mireille Mathieu han T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Tu vas t'manger un coups d'zgeg On marche qu'avec des gars droits Irréversibles comme ma veste Un frère qui baise un autre frère Pour moi c'est de l'inceste Bang bang Niama niama T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Salement ça pue la death Un frère qui baise un autre frère Pour moi c'est de l'inceste Trop déterminés, y'a qu'au tard-mi qu'on fait la sieste Désormais avant de penser aux autres faut que je pense à moi-même Personne a mis tous le monde ccord-d'a Même pas le prophète Mohammed Reconnaissant envers Kinder, Hervé, Sarkilla et Magnanès ? Mes adversaires sont vert et vénères comme les habitants d'la terre Namek J'ai du attendre comme un puceau mais aujourd'hui j'vais vous la mettre La balle est dans mon camp Donc comprend pourquoi je fous la merde Si t'as la bouche sucré, la défaite aura un gout amer J'espère ne pas clamser, sur le rrain-té comme ce camer Ri-Rien-Rien à foutre d'la politique aille niquer sa mère Dans la street en 5, 6, 7 secondes, chrono j'fais ton salaire Élément perturbateur, depuis la primaire j'suis ce mauvais garçon Face aux 3.5.7, 11.43 les michtos ? tombent comme des garçons Mon son te donne le seum J'vis-ser que d'la frappe Ex-membre d'l'a Geste Team, j'ai pas commencé avec la trap Fuck Jean-Pierre Foucault C'est pas mon dernier mot donc je m'arrête ap J'suis juste la nouvelle came du ghetto Qui va vous mettre dans les vapes T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Tu vas t'manger un coups d'zgeg On marche qu'avec des gars droits Irréversibles comme ma veste Un frère qui baise un autre frère Pour moi c'est de l'inceste Bang bang Niama niama T'as pas l'niveau Narvalo du caniveau Kozi niama, Seth Guex Salement ça pue la death Un frère qui baise un autre frère Pour moi c'est de l'inceste Trop déterminés, y'a qu'au tard-mi qu'on fait la sieste</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5066,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Bah alors ma couillasse, si t'es pas michto C'est le nouveau gigs de Seth Gueko la carabine dans le dos Narvalo de Cologne va XXXX XXXX Sur la tête des mioches, t'es pas content, on te Materfuck you very mocheYou might also like</t>
+          <t>Bah alors ma couillasse, si t'es pas michto C'est le nouveau gigs de Seth Gueko la carabine dans le dos Narvalo de Cologne va XXXX XXXX Sur la tête des mioches, t'es pas content, on te Materfuck you very moche</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5083,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Macfly Ok Manstrr Neochrome Hall Stars, 06 Yeah J'envoie mes punchlines comme des javelots T'as les seins qui applaudissent, la chatte qui crie bravo J'construis ma villa, j'suis réveillé par les travaux Tu t'es couché avec Nabilla, tu t'es réveillé avec un travelo J'ai les crocs comme un pitbull qui mord les mollets Moray, moray, on veut d'la money, money Ces idiots d'flics nous surveillent derrière les volets, volets Les kilos d'shit on froid aux oreilles, gros bonnet, bonnet La femme de ta vie bosse dans notre bar, comme c'est bête Arracheur de sac, dealer et maintenant proxénète Depuis hier soir pour toi c'est plus comme avant Mes bite dans ta gorge, t'as les pommes d'Adam Ma miss m'accompagne avec du Champagne et crème de cassis Pour Voriz ça sera juste un verre de pastis J'suis sur Phuket avec , Seth et Bardiss Penalty dans ta tête avec une paire de Asics You might also like J'suis comme Turner Afida perdue dans la spirale Chez moi l'mot C.C veut pas dire Claudia Cardinale Tu t'fais des traces de drogues mortelles avec ta carte vitale Fonsdé au pollen, la rapta est radicale Pas d'Moltonel la sodomie est pyramidale Connu dans tous les Novotel d'Vallauris à Pigalle colonel le garde à vous est matinal Écarte tes jambes de sauterelles, ouvre grand tes amygdales Que des fausses vus dans le Rap game, zin, y'a tant d' mytho J'ai la voix grave comme Twin Gambino Tu peux m'appeler quand t'as 46 flows J'pilote des Temax comme Valentino Attention Neochrome ne démarre pas d'un Si y'a un sal magot à gagner, faut qu'on soit premier sur l'drapeau à damier Euro ou dollar In God we trust ouais c'est l'must Charbonne toute la nuit puis le breakfast avec Veust Jack Da-Da c'est mon dada, Jacques Mesrine c'est mon daddy J'bande dur comme les gros dadas, l'Kamagra c'est mon ami pas de vodka fraise Tagada, moi c'est Jack Honey Dolce Gabbana, Balenciaga et Zanotti Viva Zapata comme j'suis mal poli La dernière fois qu'j'ai fait des abdos c'est quand j'ai vomis Pas prêt d'faire d'thérapie à cause d'un tapin à 'das Si tu m'clash pénalty dans ton crâne avec patin à glace Insomniaque même avec des somnifères Ici tu sais qu'le mal prolifère salope Nique sa mère la politesse J'ai trop rappé pour des clopinettes salope Demandez à vos minettes j'leur fais l'même effet que Johnny Depp salope J'ai l'charisme à Roschdy Zem Je fume dans un masque à oxygène J'encule tes gouines autrichiennes Ainsi qu'les skins et la police Libérez la Palestine, meskine, t'as un regard de chiot triste J'suis dans ma bulle comme un autiste J'suis dans ma bulle comme un autiste 9.5, 9.1, 0.6 Y'a des petits vendeurs et des grossistes salope Yeah Alkpote Seth Guex' Brute épaisse Anh ! Jason Voriz Neo 06 Manstrr1</t>
+          <t>Macfly Ok Manstrr Neochrome Hall Stars, 06 Yeah J'envoie mes punchlines comme des javelots T'as les seins qui applaudissent, la chatte qui crie bravo J'construis ma villa, j'suis réveillé par les travaux Tu t'es couché avec Nabilla, tu t'es réveillé avec un travelo J'ai les crocs comme un pitbull qui mord les mollets Moray, moray, on veut d'la money, money Ces idiots d'flics nous surveillent derrière les volets, volets Les kilos d'shit on froid aux oreilles, gros bonnet, bonnet La femme de ta vie bosse dans notre bar, comme c'est bête Arracheur de sac, dealer et maintenant proxénète Depuis hier soir pour toi c'est plus comme avant Mes bite dans ta gorge, t'as les pommes d'Adam Ma miss m'accompagne avec du Champagne et crème de cassis Pour Voriz ça sera juste un verre de pastis J'suis sur Phuket avec , Seth et Bardiss Penalty dans ta tête avec une paire de Asics J'suis comme Turner Afida perdue dans la spirale Chez moi l'mot C.C veut pas dire Claudia Cardinale Tu t'fais des traces de drogues mortelles avec ta carte vitale Fonsdé au pollen, la rapta est radicale Pas d'Moltonel la sodomie est pyramidale Connu dans tous les Novotel d'Vallauris à Pigalle colonel le garde à vous est matinal Écarte tes jambes de sauterelles, ouvre grand tes amygdales Que des fausses vus dans le Rap game, zin, y'a tant d' mytho J'ai la voix grave comme Twin Gambino Tu peux m'appeler quand t'as 46 flows J'pilote des Temax comme Valentino Attention Neochrome ne démarre pas d'un Si y'a un sal magot à gagner, faut qu'on soit premier sur l'drapeau à damier Euro ou dollar In God we trust ouais c'est l'must Charbonne toute la nuit puis le breakfast avec Veust Jack Da-Da c'est mon dada, Jacques Mesrine c'est mon daddy J'bande dur comme les gros dadas, l'Kamagra c'est mon ami pas de vodka fraise Tagada, moi c'est Jack Honey Dolce Gabbana, Balenciaga et Zanotti Viva Zapata comme j'suis mal poli La dernière fois qu'j'ai fait des abdos c'est quand j'ai vomis Pas prêt d'faire d'thérapie à cause d'un tapin à 'das Si tu m'clash pénalty dans ton crâne avec patin à glace Insomniaque même avec des somnifères Ici tu sais qu'le mal prolifère salope Nique sa mère la politesse J'ai trop rappé pour des clopinettes salope Demandez à vos minettes j'leur fais l'même effet que Johnny Depp salope J'ai l'charisme à Roschdy Zem Je fume dans un masque à oxygène J'encule tes gouines autrichiennes Ainsi qu'les skins et la police Libérez la Palestine, meskine, t'as un regard de chiot triste J'suis dans ma bulle comme un autiste J'suis dans ma bulle comme un autiste 9.5, 9.1, 0.6 Y'a des petits vendeurs et des grossistes salope Yeah Alkpote Seth Guex' Brute épaisse Anh ! Jason Voriz Neo 06 Manstrr1</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5100,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Néochrome, j'suis à la tête du cortège J'me mets à nu sur l'instru comme à la visite médicale du collège Ôter ses empreintes digit' c'est vital Ma qué ?! j'ai la gestuelle virile des ritals T'es mon rival c'est véritable, j'fais d'toi d'la pâtée pour chiens Les MC's m'mangent dans la main comme des poussins Pousse-toi, j'prends d'la place comme Carlos dans un Mini Cooper J'suis griffé par les couturiers, pas par Freddy Krueger C'est l'retour des bidouilleurs Qui font dans l'import-export J'préfère brûler mon appart' plutôt qu'un porc l'explore J'ai vu ta came, ton kalash dans ton vidéo clip C'est ton compte YouTube qui va t'livrer aux flics Le CD ils vont s'l'arracher comme une croûte séchée Faut qu'j'me refasse complètement comme la mère à Giuseppe Al-K porte un sweat Chupa Chups Ouvre ta bouche Qu'il puisse s'entraîner au houla hoop Si, si, nique les flics, couz' j'suis hystérique Mettez des couches, des serviettes hygiéniques Remballe, j'te dis qu'y'a la gendarmerie J'm'empare de c'qui brille et j'me fonds dans l'tas de brebis L'empereur, l'aigle royal c'est un genre d'oiseau rare Sans répondeur et sans boîte vocale Envoie l'mot d'passe Dans les endroits chaudards J'vais t'faire connaître l'angoisse totale You might also like J'ai l'art d'rentrer l'ventre, l'art de t'rentrer dans l'lard Jeter des ufs sur le comico c'est fendard La rue pète le standard On m'a payé pour foutre le chambard On n'est pas prêt d'faire FréquenStar Cohiba dans l'cendard J'te fume un gendarme pour cent barres Un t-shirt Néochrome comme étendard C'est Seth Guex, Zekwé Ramos et Atef Gainzbarre J'suis pas un rappeur facile j'feate pas l'premier soir Bon sang d'bonsoir C'est moche, bête et méchant Je tartine des corps maigres et étranges Désormais j'fais qu'ter-chan C'est l'bordel chez les gens Ils consomment des cocktails, des mélanges J'm'efforce d'être élégant Avec des gosses persévérants Mon revolver est géant, mon pistolet va trouer les Frank Dux Néochrome, la tournée des grands ducs Bien accompagné comme Framboisier, avec le pif de Corbier Sers-moi vite à boire marijuana me déchire le gosier Inutile de copier mes putains d'rimes de sorcier Essaye plutôt d'éviter les tirs de mortier Surveille ta sur si elle cherche un Valentin Elle sera au lit avant vingt heures mais pas dans l'sien Monsieur Salvadori, Ramos et Kahlaoui C'est gratos comme la dernière bastos de Kadhafi</t>
+          <t>Néochrome, j'suis à la tête du cortège J'me mets à nu sur l'instru comme à la visite médicale du collège Ôter ses empreintes digit' c'est vital Ma qué ?! j'ai la gestuelle virile des ritals T'es mon rival c'est véritable, j'fais d'toi d'la pâtée pour chiens Les MC's m'mangent dans la main comme des poussins Pousse-toi, j'prends d'la place comme Carlos dans un Mini Cooper J'suis griffé par les couturiers, pas par Freddy Krueger C'est l'retour des bidouilleurs Qui font dans l'import-export J'préfère brûler mon appart' plutôt qu'un porc l'explore J'ai vu ta came, ton kalash dans ton vidéo clip C'est ton compte YouTube qui va t'livrer aux flics Le CD ils vont s'l'arracher comme une croûte séchée Faut qu'j'me refasse complètement comme la mère à Giuseppe Al-K porte un sweat Chupa Chups Ouvre ta bouche Qu'il puisse s'entraîner au houla hoop Si, si, nique les flics, couz' j'suis hystérique Mettez des couches, des serviettes hygiéniques Remballe, j'te dis qu'y'a la gendarmerie J'm'empare de c'qui brille et j'me fonds dans l'tas de brebis L'empereur, l'aigle royal c'est un genre d'oiseau rare Sans répondeur et sans boîte vocale Envoie l'mot d'passe Dans les endroits chaudards J'vais t'faire connaître l'angoisse totale J'ai l'art d'rentrer l'ventre, l'art de t'rentrer dans l'lard Jeter des ufs sur le comico c'est fendard La rue pète le standard On m'a payé pour foutre le chambard On n'est pas prêt d'faire FréquenStar Cohiba dans l'cendard J'te fume un gendarme pour cent barres Un t-shirt Néochrome comme étendard C'est Seth Guex, Zekwé Ramos et Atef Gainzbarre J'suis pas un rappeur facile j'feate pas l'premier soir Bon sang d'bonsoir C'est moche, bête et méchant Je tartine des corps maigres et étranges Désormais j'fais qu'ter-chan C'est l'bordel chez les gens Ils consomment des cocktails, des mélanges J'm'efforce d'être élégant Avec des gosses persévérants Mon revolver est géant, mon pistolet va trouer les Frank Dux Néochrome, la tournée des grands ducs Bien accompagné comme Framboisier, avec le pif de Corbier Sers-moi vite à boire marijuana me déchire le gosier Inutile de copier mes putains d'rimes de sorcier Essaye plutôt d'éviter les tirs de mortier Surveille ta sur si elle cherche un Valentin Elle sera au lit avant vingt heures mais pas dans l'sien Monsieur Salvadori, Ramos et Kahlaoui C'est gratos comme la dernière bastos de Kadhafi</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5117,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Zekwé putain d'Ramos, qu'est-ce qui s'passe ? Mais qu'est-ce qui s'passe ? Mais qu'est-ce qui s'passe ? J'viens titiller la jet set a priori Soit j'tire en l'air, soit j'tire le piercing de Patrick Fiori Technique mafiosi On parle du futur autour d'un plat d'raviolis Avec F16, Granit, Tony Cabrão, on n'a ni l'bras long ni l'nez long J'te pimp ta ride en orange avec dix néons Ton texte pue mais j'te dis qu'il est bon J't'invite à faire un feat à mon dîner d'cons On découpe les têtes, on scie les troncs Les MC enterre-les Jette vite l'éponge face au neveu de Wanderlei Le futur fait cap sur l'Essonne J'calcule personne C'est la symphonie des gagnants CassiusClayD'Sol Ils veulent un feat ? Faut qu'ils filent du cash Ils pètent plus haut qu'leurs culs, par l'orifice buccal Bienvenue dans l'domicile du mal Invite Néochrome click pour un homicide brutal Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, paw ! You might also like Gros tre-ven, barbe en collier RobertHux Gros kalash sous l'trois-quarts, oh Morpheus Allez latchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'uc's Les prospectus remplissent ma corbeille de chiotte J'ai les orteils de Shrek et les oreilles de Spock C'est pour mieux t'entendre jouir mon enfant Viens dans ma caravane t'y verras mon tikno dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versac', le tampon c'est la méduse Planquées dans les panneaux de portes du V12 Maaliche si t'es pas notre pote, y'aura qu'Dieu pour m'ger-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'phases Effacez de notre paysage les tours d'Alcatraz C'est l'professeur Punchline pour un cours d'rattrapage C'est Néochrome click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, bang Click, click, click Néochrome click, click, click Néochrome, click, click, click Néochrome, click, click, paw Si si chacal, lyrics fatales Mystique rap sale Victime avale ! Les vigiles cavalent pendant qu'je visite la salle Ça finira mal y'aura du liquide anal Gentil visage pâle au physique banal T'envoie dix mille rafales de digitales balles Ici bas j'râle Plutôt qu'de voir un strip-tease d'Amal J'préfère me faire un mini casse-dalle Pyramides, Épinettes, Grigny, Canal Sur la route du 402 j'me dirige à cheval Equipé d'missiles pare-balles Pain d'plastic, sabre tranchant On exploite nos mauvais penchants Trop d'contrefaçons, Gucci, Louis Me complimente pas trop, j'ai la bite qui rougit P'tit Tounsi, pris pour cible Essaie d'braquer une bijouterie avec un bistouri Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, click Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, paw .</t>
+          <t>Zekwé putain d'Ramos, qu'est-ce qui s'passe ? Mais qu'est-ce qui s'passe ? Mais qu'est-ce qui s'passe ? J'viens titiller la jet set a priori Soit j'tire en l'air, soit j'tire le piercing de Patrick Fiori Technique mafiosi On parle du futur autour d'un plat d'raviolis Avec F16, Granit, Tony Cabrão, on n'a ni l'bras long ni l'nez long J'te pimp ta ride en orange avec dix néons Ton texte pue mais j'te dis qu'il est bon J't'invite à faire un feat à mon dîner d'cons On découpe les têtes, on scie les troncs Les MC enterre-les Jette vite l'éponge face au neveu de Wanderlei Le futur fait cap sur l'Essonne J'calcule personne C'est la symphonie des gagnants CassiusClayD'Sol Ils veulent un feat ? Faut qu'ils filent du cash Ils pètent plus haut qu'leurs culs, par l'orifice buccal Bienvenue dans l'domicile du mal Invite Néochrome click pour un homicide brutal Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, paw ! Gros tre-ven, barbe en collier RobertHux Gros kalash sous l'trois-quarts, oh Morpheus Allez latchave, grosse pédale, mord-phallus Passe-moi un code pénal pour m'torcher l'uc's Les prospectus remplissent ma corbeille de chiotte J'ai les orteils de Shrek et les oreilles de Spock C'est pour mieux t'entendre jouir mon enfant Viens dans ma caravane t'y verras mon tikno dansant Ma gueultouze, j'arrive dans ton crâne comme une clé d'douze Plaquettes Versac', le tampon c'est la méduse Planquées dans les panneaux de portes du V12 Maaliche si t'es pas notre pote, y'aura qu'Dieu pour m'ger-uj' J'ai la gorge en éruption comme le Vésuve Que des coulées d'phases Effacez de notre paysage les tours d'Alcatraz C'est l'professeur Punchline pour un cours d'rattrapage C'est Néochrome click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, bang Click, click, click Néochrome click, click, click Néochrome, click, click, click Néochrome, click, click, paw Si si chacal, lyrics fatales Mystique rap sale Victime avale ! Les vigiles cavalent pendant qu'je visite la salle Ça finira mal y'aura du liquide anal Gentil visage pâle au physique banal T'envoie dix mille rafales de digitales balles Ici bas j'râle Plutôt qu'de voir un strip-tease d'Amal J'préfère me faire un mini casse-dalle Pyramides, Épinettes, Grigny, Canal Sur la route du 402 j'me dirige à cheval Equipé d'missiles pare-balles Pain d'plastic, sabre tranchant On exploite nos mauvais penchants Trop d'contrefaçons, Gucci, Louis Me complimente pas trop, j'ai la bite qui rougit P'tit Tounsi, pris pour cible Essaie d'braquer une bijouterie avec un bistouri Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, click Click, click, click Néochrome click, click, click Néochrome click, click, click Néochrome click, click, paw .</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5134,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck Si un soir tu sens une odeur pestilentielle C'est qu'y'avait du C4 sous la C6 présidentielle Tais-toi, cabrão ! J'sais poser autre chose que du placo C'est un putain d'braquo au Black Hawk Pendant que les 'tasses maigrissent du cul Depuis que ça exige du sucre, en provenance d'Amérique du Sud On t'zappe du répertoire si y'a qu'la batterie d'nos Blackberry qu'tu suces C'est pas avec ton niveau d'pantin qu'on va vibrer Salle de sport combat libre et mode bachelor Cuba Libre Hé Fianso, que pasó XXX l'importation Mes quarante flow reviennent, abdos, pao, pompe, corde à sauter Poto fait pas l'forçat, pas d'or et ça joue les cadors, ça ? Si, si, si, si monsieur on adore ça J'rappe sur le XXX, le coup d'schlass sera pas marrant Pars faire un rodave, rejoindre Turin sur un catamaran You might also like J'suis presque comme Alf j'veux manger qu'des chattes Et j'veux la même street promo qu'le Front National Vladaboum quand v'là la chnouf Que j'me réincarne pas en Schtroumpf ils ont qu'une pouffe T'es dans l'bain ? Ok, j'te jette le sèche-cheveux ClaudeFrançois Et l'dealer dit Qui prend quoi ? T'sert vite comme Pete Sampras, c'est ça ! Et à la fin d'mon texte, toujours un blanc... Maska On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck J'suis droit, ils ont des drôles d'éthiques On nique pas la police toute sa vie Ice-T et JoeyStarr font des rôles de flics Trahir, c'est trop chaud perso T'es une approximation, t'es une grosso merdo J'te comprends, t'as la barre entre deux procès verbaux Percer, et faire l'faux, rah négro, ça va pas ? Leur cerveau c'est du sans-plomb garanti Dans l'peu-ra, j'suis Georges Foreman champion à 40 piges Mon boss c'est Joe, mon sous-boss Lucazz Profession ex-drogue dealeur, chercheur de problème Poète et tueur de poète Jécoute Lunatic, R.O.H.2.F, FF, X-Men J'débute et depuis beaucoup de corps inertes Daprès la rue et internet, j'arrive plus fort que jamais Jarrête pas de monter comme lextrême droite en Europe Poto j'ai souffert de tout ça J'ai le flow qui pue la banlieue Toujours au Top 1 peu importe l'enjeu si t'en veux Coup de schlass, mare de sang, voilà c'est dégueu Big-up à la société, et la productions Rafaleur de punchlines, poto j'ai v'la les munitions La vérité prend l'escalier, quand le mensonge prend l'ascenseur Ton succès n'est pas précis, j'laisse la place aux On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck J'suis la raison pour laquelle tu dors mal, la tornade qui t'rotte-ca La goutte de sperme qui fait déborder la pote-ca Namasté à toute ma team de prolétaires Dollar, euro, CFA, polyglottes en langage monétaire J'rappe en dépit des débits, des beats, ces débiles débitent des rimes Des fils débiles et trépignent, d'autres effritent le shit et le deal Je tente ma chance dans le son, je sais pas ce qui s'passera J'suis stressé et c'est pas la juge qui m'relaxera Si j'aime pas, j'rigole pas, j'vais pas sourire jaune Ta liberté à quatre pattes, le cul dans une geôle Ien-cli pour 20 balles, j'te sers, c'est pillon jaune Tu m'connais pas mais j'te kill depuis l'eau chaude Le haram tes parents baisent pendant qu'j'me barre en caisse J'suis parodique, lyrical schlass dans la carotide pour survivre on s'moque d'la routine C'est Néochrome fils, les dernières technologies Économise des litres dhémoglobine Attends le déclic pour me sucer le pénis Vampire squelettique qui déguste le délice J'vais tiser comme Jean Poiret puis analyser ton anatomie en 3D Ma bite et ton cul vont semboîter Espèce d'enfoiré tu vas angoisser ! On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck</t>
+          <t>On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck Si un soir tu sens une odeur pestilentielle C'est qu'y'avait du C4 sous la C6 présidentielle Tais-toi, cabrão ! J'sais poser autre chose que du placo C'est un putain d'braquo au Black Hawk Pendant que les 'tasses maigrissent du cul Depuis que ça exige du sucre, en provenance d'Amérique du Sud On t'zappe du répertoire si y'a qu'la batterie d'nos Blackberry qu'tu suces C'est pas avec ton niveau d'pantin qu'on va vibrer Salle de sport combat libre et mode bachelor Cuba Libre Hé Fianso, que pasó XXX l'importation Mes quarante flow reviennent, abdos, pao, pompe, corde à sauter Poto fait pas l'forçat, pas d'or et ça joue les cadors, ça ? Si, si, si, si monsieur on adore ça J'rappe sur le XXX, le coup d'schlass sera pas marrant Pars faire un rodave, rejoindre Turin sur un catamaran J'suis presque comme Alf j'veux manger qu'des chattes Et j'veux la même street promo qu'le Front National Vladaboum quand v'là la chnouf Que j'me réincarne pas en Schtroumpf ils ont qu'une pouffe T'es dans l'bain ? Ok, j'te jette le sèche-cheveux ClaudeFrançois Et l'dealer dit Qui prend quoi ? T'sert vite comme Pete Sampras, c'est ça ! Et à la fin d'mon texte, toujours un blanc... Maska On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck J'suis droit, ils ont des drôles d'éthiques On nique pas la police toute sa vie Ice-T et JoeyStarr font des rôles de flics Trahir, c'est trop chaud perso T'es une approximation, t'es une grosso merdo J'te comprends, t'as la barre entre deux procès verbaux Percer, et faire l'faux, rah négro, ça va pas ? Leur cerveau c'est du sans-plomb garanti Dans l'peu-ra, j'suis Georges Foreman champion à 40 piges Mon boss c'est Joe, mon sous-boss Lucazz Profession ex-drogue dealeur, chercheur de problème Poète et tueur de poète Jécoute Lunatic, R.O.H.2.F, FF, X-Men J'débute et depuis beaucoup de corps inertes Daprès la rue et internet, j'arrive plus fort que jamais Jarrête pas de monter comme lextrême droite en Europe Poto j'ai souffert de tout ça J'ai le flow qui pue la banlieue Toujours au Top 1 peu importe l'enjeu si t'en veux Coup de schlass, mare de sang, voilà c'est dégueu Big-up à la société, et la productions Rafaleur de punchlines, poto j'ai v'la les munitions La vérité prend l'escalier, quand le mensonge prend l'ascenseur Ton succès n'est pas précis, j'laisse la place aux On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck J'suis la raison pour laquelle tu dors mal, la tornade qui t'rotte-ca La goutte de sperme qui fait déborder la pote-ca Namasté à toute ma team de prolétaires Dollar, euro, CFA, polyglottes en langage monétaire J'rappe en dépit des débits, des beats, ces débiles débitent des rimes Des fils débiles et trépignent, d'autres effritent le shit et le deal Je tente ma chance dans le son, je sais pas ce qui s'passera J'suis stressé et c'est pas la juge qui m'relaxera Si j'aime pas, j'rigole pas, j'vais pas sourire jaune Ta liberté à quatre pattes, le cul dans une geôle Ien-cli pour 20 balles, j'te sers, c'est pillon jaune Tu m'connais pas mais j'te kill depuis l'eau chaude Le haram tes parents baisent pendant qu'j'me barre en caisse J'suis parodique, lyrical schlass dans la carotide pour survivre on s'moque d'la routine C'est Néochrome fils, les dernières technologies Économise des litres dhémoglobine Attends le déclic pour me sucer le pénis Vampire squelettique qui déguste le délice J'vais tiser comme Jean Poiret puis analyser ton anatomie en 3D Ma bite et ton cul vont semboîter Espèce d'enfoiré tu vas angoisser ! On pose nos grosses pattes, c'est l'Néo Comeback On s'fait remarquer comme Borat aux States Même la Fée Clochette changera ap' ma gueule de Tchécoslovaque Ni l'odeur d'mes chaussettes Rec, check ! J'arrive sur l'beat avec le rot d'Shrek J'ai trop mangé au DoMac J'suis venu rechier l'zen' rouge à Ronald pour l'Néo Comeback Espèce d'enculé d'ta schneck</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5151,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Nervous, nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Kalash, Famas, Caracas Carton, tonneaux, la caisse Finit direct à la casse Chemisette Versace ,p'tit frère direct t'as la classe Que du habs, on dirait qu't'as la poisse Pardon poto, mais si tu nous testes Rafales de bastos dans la carapace Viens pas nous jouer les maracas Cache-cache, chasse à l'homme, slalom Cache ton auto comme Al Capone Les keufs te suivent à la trace, chauffe la gomme Ou prend un vol pour les plages de Rép.Dom Le prix du bavouz ça éclate le rectum ON BANQUE, ON BANQUE, ON BANQUE, ON BANQUE Récupère ta bécane au retour de vols Si j'ai peur de mourir ? Mystère et balles de gomme-cogne You might also like Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Tu peux même plus faire confiance à ton frère d'armes Tu peux compter que sur toi et ta chevrote-vrote Ou t'inscrire à la salle pour être un Golgoth Ça tire à la courte-paille pour savoir qui f'ra la popote Tire un coup de grenaille, tu verras qu'il f'ra la chochotte Toc toc, v'la les schmits, t'as la frousse mon pote ? Vaut mieux qu'tu la lâches aux chiottes Cas sociaux, cas sociautes Montre-leur qui t'es Cas sociaux, cas sociautes Chouara en scooter kité Cas sociaux, cas sociautes Montre-leur qui t'es Cas sociaux, cas sociautes Cuités, l'cerveau court-circuité Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Bentley GT Continental L'argent, une maladie mentale Baisé du cerveau, dort dans la cocotte sifflotée Élevé au martinet, tu veux déjà ta Audemars Piguet On a Bulgarie-diabolo On a l'diable en nous Surchauffe de la cafetière Crise de nerfs Vivre heureux sans cash Ou mourir millionnaire À des années lumières de la guérison Coke, herbe, pilon sur le guéridon Évitons de tout casser pris d'colère Dior, Guccigui, Vuitton C'est pas dans l'dictionnaire P'tit frère faut rester fier Blaire blaire pas s'laisser faire T'es déter, moi aussi j'suis déter Blaire blaire coup de chevalière Zedzédère nique l'effet de serre Blaire blaire accélère Cet occas' de s'refaire c'est la der des der Dans la tête des jeunes c'est la guerre des nerfs Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune1</t>
+          <t>Nervous, nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Kalash, Famas, Caracas Carton, tonneaux, la caisse Finit direct à la casse Chemisette Versace ,p'tit frère direct t'as la classe Que du habs, on dirait qu't'as la poisse Pardon poto, mais si tu nous testes Rafales de bastos dans la carapace Viens pas nous jouer les maracas Cache-cache, chasse à l'homme, slalom Cache ton auto comme Al Capone Les keufs te suivent à la trace, chauffe la gomme Ou prend un vol pour les plages de Rép.Dom Le prix du bavouz ça éclate le rectum ON BANQUE, ON BANQUE, ON BANQUE, ON BANQUE Récupère ta bécane au retour de vols Si j'ai peur de mourir ? Mystère et balles de gomme-cogne Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Claques, CAC, Kalash ça Liasses, chattes, CanalSAT Tu peux même plus faire confiance à ton frère d'armes Tu peux compter que sur toi et ta chevrote-vrote Ou t'inscrire à la salle pour être un Golgoth Ça tire à la courte-paille pour savoir qui f'ra la popote Tire un coup de grenaille, tu verras qu'il f'ra la chochotte Toc toc, v'la les schmits, t'as la frousse mon pote ? Vaut mieux qu'tu la lâches aux chiottes Cas sociaux, cas sociautes Montre-leur qui t'es Cas sociaux, cas sociautes Chouara en scooter kité Cas sociaux, cas sociautes Montre-leur qui t'es Cas sociaux, cas sociautes Cuités, l'cerveau court-circuité Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune Bentley GT Continental L'argent, une maladie mentale Baisé du cerveau, dort dans la cocotte sifflotée Élevé au martinet, tu veux déjà ta Audemars Piguet On a Bulgarie-diabolo On a l'diable en nous Surchauffe de la cafetière Crise de nerfs Vivre heureux sans cash Ou mourir millionnaire À des années lumières de la guérison Coke, herbe, pilon sur le guéridon Évitons de tout casser pris d'colère Dior, Guccigui, Vuitton C'est pas dans l'dictionnaire P'tit frère faut rester fier Blaire blaire pas s'laisser faire T'es déter, moi aussi j'suis déter Blaire blaire coup de chevalière Zedzédère nique l'effet de serre Blaire blaire accélère Cet occas' de s'refaire c'est la der des der Dans la tête des jeunes c'est la guerre des nerfs Nervous , nervous, breakdown Nervous, nervous, breakdown J'ai des Nervous, nervous, breakdown Dans la tête d'un jeune Tout c'qu'il y a dans la tête d'un jeune1</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5168,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Yah, c'est la souffrance de la France d'en d'ssous Yeah yo Le Guex, L'uZine avec un Z Ici le S, rapide et classe, j'gravis les marches Les lâches, j'les neutralise, ils m'tracent comme le khaliss Trace comme Thalys, ils auront pas la place du calife J'suis vers les casses de Paris mais j'viens des plages de Bali ? c'est tragique, j'fume cette tarte de Cali L'art est magique alors les astres s'alignent Là-ceux ils salivent car le truc est classieux comme la sape d'Italie J'suis pas un mafieux, j'rentre du taf, authentique rap J'ai sorti l'extinc' autant qu'j'les lave Si ça marche pas autant qu'j'bicrave, et qu'j'trouve une planque 93 sur la plaque bro, des BEP, des BAC pro qui claquent gros Old school, new school nique sa toute grand-mère On veut des grands airs pour notre sale grammaire Rapper les pannes et les galères, gravés dans l'crâne On a appris à nager dans l'sable, un HLM comme château Des chaînes dans l'cerveau, d'la Heineken et du bédo Ils ont rien même s'ils s'font soulever en pleine tête Y a pas qu'chez les prêtres qu'y'a des pédo You might also like Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question My guns go poom-poom, and yo' guns go pow-pow Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question Mais qui se fait du pognon en rappant de sales chansons ? Parler d'la nouvelle géné, j'vais pas m'gêner Sans exagérer, quand j'entends l'niveau des textes, je suis gêné J'viens du caniveau des tess, c'est tout c'que j'aimais C'est qu'tout mes rivaux m'détestent quand j'décapitais l'micro en freestyle sur Sky' ou sur Gene' J'suis l'capitaine Igloo car les MC qui font l'poids sont pas nés Et même si le temps transforme les élèves en rivaux Je les énerve car depuis des années, quand j'élève le niveau C'est pas des lol, c'est loin d'être du Marcel Béliveau Elle fait la belle mais après 2-3 verres de vino Elle se révèle, elle écarte ses lèvres qui lui servent de rideaux Comme au célèbre Lido, l'ghetto, a changé mon visage en gueule Encore une bavure qui rend tout l'village en deuil Allah y rahmo J'arrive en drift dans l'virage Auteuil Barlou Burger halal, comme le Quick Argenteuil Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question My guns go poom-poom, and yo' guns go pow-pow Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question Mais qui se fait du pognon en rappant de sales chansons ?</t>
+          <t>Yah, c'est la souffrance de la France d'en d'ssous Yeah yo Le Guex, L'uZine avec un Z Ici le S, rapide et classe, j'gravis les marches Les lâches, j'les neutralise, ils m'tracent comme le khaliss Trace comme Thalys, ils auront pas la place du calife J'suis vers les casses de Paris mais j'viens des plages de Bali ? c'est tragique, j'fume cette tarte de Cali L'art est magique alors les astres s'alignent Là-ceux ils salivent car le truc est classieux comme la sape d'Italie J'suis pas un mafieux, j'rentre du taf, authentique rap J'ai sorti l'extinc' autant qu'j'les lave Si ça marche pas autant qu'j'bicrave, et qu'j'trouve une planque 93 sur la plaque bro, des BEP, des BAC pro qui claquent gros Old school, new school nique sa toute grand-mère On veut des grands airs pour notre sale grammaire Rapper les pannes et les galères, gravés dans l'crâne On a appris à nager dans l'sable, un HLM comme château Des chaînes dans l'cerveau, d'la Heineken et du bédo Ils ont rien même s'ils s'font soulever en pleine tête Y a pas qu'chez les prêtres qu'y'a des pédo Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question My guns go poom-poom, and yo' guns go pow-pow Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question Mais qui se fait du pognon en rappant de sales chansons ? Parler d'la nouvelle géné, j'vais pas m'gêner Sans exagérer, quand j'entends l'niveau des textes, je suis gêné J'viens du caniveau des tess, c'est tout c'que j'aimais C'est qu'tout mes rivaux m'détestent quand j'décapitais l'micro en freestyle sur Sky' ou sur Gene' J'suis l'capitaine Igloo car les MC qui font l'poids sont pas nés Et même si le temps transforme les élèves en rivaux Je les énerve car depuis des années, quand j'élève le niveau C'est pas des lol, c'est loin d'être du Marcel Béliveau Elle fait la belle mais après 2-3 verres de vino Elle se révèle, elle écarte ses lèvres qui lui servent de rideaux Comme au célèbre Lido, l'ghetto, a changé mon visage en gueule Encore une bavure qui rend tout l'village en deuil Allah y rahmo J'arrive en drift dans l'virage Auteuil Barlou Burger halal, comme le Quick Argenteuil Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question My guns go poom-poom, and yo' guns go pow-pow Old school, new school, là n'est pas la question Fake fake records records Old school, new school, là n'est pas la question Mais qui se fait du pognon en rappant de sales chansons ?</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5185,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Appelle l'AG, je m'apprète à envoyer un jet de lyrics Pas m'envoyer un jet dans le pif On fait du biffe, on kif voyager Après la zic, je fais du X à l'inverse de Catherine Ringer On me remarque comme l'odeur d'un grec dans le bus La quête du khalis est une course pleine d'embûches Je veux plus d'anniv' sans bougies Ni noël sans bûches, finish Préviens tes gamins pendant les perquis', ces fils de putes Iront jusqu'à éventrer le traversin et l'ours en peluche 50 Russe, 50 Sicilien Si je vais en Californie, c'est à califourchon sur le dos d'un missile syrien Texte criminel, le calibre roulé dans le torchon Dans une chaussette noire, comme... comme Eddy Mitchell J'ai jamais rempli un caddie de Fauchon Le rap game c'est un ramassis de faux-jetons Ils font du bruit pour rien comme les pipistrelles Dis aux gros porcs et aux gabarits de cochons Qu'il y a plus de trous de balles au F.N que sur 50 Cent Faut qu'on détourne les lois Au poste j'ai des trous de mémoires Je marche qu'avec des tos, des crouilles, des noirs Des bridés, des blancs qu'on des blèmes-pro familiaux Ils me reconnaissent dans le métro Je les dé-dé-dé-dédicace car ils me font passer avec leurs carte Navigo Faut qu'on se repentisse avant l'Apocalypse Now Sert moi un Calypso, un Cuba Libré Amigo, un coupable est libre et calibré Faut que les feuilles tombent comme en automne sinon c'est monotone Moi et les flics, on s'entend pas avec ou sans sonotone Autant de blues que dans la voix des artistes signés chez Motown Dans le treizième c'est Chinatown Saint-Ouen-l'Aumône c'est plutôt Cartagena Je te parle pas de la farine Maïzena La famille, la maille c'est rien, partagez-la Je veux la vie longue, pas la villa de la famille Rockefella Ca fait sblah comme la frappe de Mario Balotelli Y a du gent-ar à se faire dans le 16 avec les gars de l'hôtellerie Ca les potos l'ont compris Depuis ils assoient des jéroboams en boîte et s'habillent en Gucci-gui Je porte le costard comme Fabrice Luchini Mème quand j'avais sorti zéro bum-al J'avais déjà la chemise déformée par la crosse en bois du guigui Comme si c'était norma-gal, blah Laisse moi défaire ma boucle Zilli Montrer ce que j'ai dans le slip dans la rue et s'il le faut au Mooncity Beaucoup d'histoires se règlent après un coup de gueule, un coup de gun ou un coup de zizi J'ai l'argot d'un taulier de bars à hôtesses Les M.C font caca partout, ouvrent leurs fesses Répètent tout ce qu'ils entendent comme des cacatoès Ça va faire boom, tchiki boom, tchiki boom, tchikiYou might also like1</t>
+          <t>Appelle l'AG, je m'apprète à envoyer un jet de lyrics Pas m'envoyer un jet dans le pif On fait du biffe, on kif voyager Après la zic, je fais du X à l'inverse de Catherine Ringer On me remarque comme l'odeur d'un grec dans le bus La quête du khalis est une course pleine d'embûches Je veux plus d'anniv' sans bougies Ni noël sans bûches, finish Préviens tes gamins pendant les perquis', ces fils de putes Iront jusqu'à éventrer le traversin et l'ours en peluche 50 Russe, 50 Sicilien Si je vais en Californie, c'est à califourchon sur le dos d'un missile syrien Texte criminel, le calibre roulé dans le torchon Dans une chaussette noire, comme... comme Eddy Mitchell J'ai jamais rempli un caddie de Fauchon Le rap game c'est un ramassis de faux-jetons Ils font du bruit pour rien comme les pipistrelles Dis aux gros porcs et aux gabarits de cochons Qu'il y a plus de trous de balles au F.N que sur 50 Cent Faut qu'on détourne les lois Au poste j'ai des trous de mémoires Je marche qu'avec des tos, des crouilles, des noirs Des bridés, des blancs qu'on des blèmes-pro familiaux Ils me reconnaissent dans le métro Je les dé-dé-dé-dédicace car ils me font passer avec leurs carte Navigo Faut qu'on se repentisse avant l'Apocalypse Now Sert moi un Calypso, un Cuba Libré Amigo, un coupable est libre et calibré Faut que les feuilles tombent comme en automne sinon c'est monotone Moi et les flics, on s'entend pas avec ou sans sonotone Autant de blues que dans la voix des artistes signés chez Motown Dans le treizième c'est Chinatown Saint-Ouen-l'Aumône c'est plutôt Cartagena Je te parle pas de la farine Maïzena La famille, la maille c'est rien, partagez-la Je veux la vie longue, pas la villa de la famille Rockefella Ca fait sblah comme la frappe de Mario Balotelli Y a du gent-ar à se faire dans le 16 avec les gars de l'hôtellerie Ca les potos l'ont compris Depuis ils assoient des jéroboams en boîte et s'habillent en Gucci-gui Je porte le costard comme Fabrice Luchini Mème quand j'avais sorti zéro bum-al J'avais déjà la chemise déformée par la crosse en bois du guigui Comme si c'était norma-gal, blah Laisse moi défaire ma boucle Zilli Montrer ce que j'ai dans le slip dans la rue et s'il le faut au Mooncity Beaucoup d'histoires se règlent après un coup de gueule, un coup de gun ou un coup de zizi J'ai l'argot d'un taulier de bars à hôtesses Les M.C font caca partout, ouvrent leurs fesses Répètent tout ce qu'ils entendent comme des cacatoès Ça va faire boom, tchiki boom, tchiki boom, tchiki1</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5202,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta J'suis entré dans le pera sans faire toc toc toc Le Glock au top, jsuis venu faire poc poc poc Prends pas Guy Georges en auto-stop On nous a prédit le habs dans l'horoscope Gros, c'est pour les potes au poste Les tres-au en mode beaux gosses Sur des motos de cross CBR gaze, gaz R1 Blin ! Blin ! Si y'a dra on est là ! On est plein plein! On a la poisse et rien ne nous guérira Sauf la salat en direction de Médina Qu'est-ce qu'y a en tout cas ça sent pas Blédina Dis à Kayliah, ici c'est pas la Belly Dance c'est la guérilla On va en boite fêter les sorties de ry-Fleu On ressort avec des taches de sang sur la mise-che On se tue à petit feu au Moët et Chandon C'est pas pire qu'un keuf qui fouette le jambon Nos plaquettes sont tamponnées 11 septembre On sait pas que c'est comme mon buzz, il monte, il fait que s'étendre Hé oui p'tit con ! J'baise le rap en capote Louis Vuitton Pour l'affaire on a tué 8 pythons On veut le butin le magot sur un plateau Donc on cogite à un putain de brako Ouais à un putain de drive-by à la mitraillette C'est le retour du nine five en live and direct You might also like Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta Fais pas tomber ta savonnette dans un hammam C'est réel, je fais des dégâts comme du 9 MM C'est ma queue pas la tienne que les meufs elles aiment Marginal comme le poto Rim-k et Bébel On fait des virées dans Paname avec des ML Brabus, crie Fils de pute On te répond Bang ! Bang ! À plus Poto on braque au kalash ton rap game Avec le stard-co d'Al Pac' et des al dente C'est du Sarko scalpage, il faut que ça paye my man On peut dead demain Allah aalam Avant de sortir, je fais deux bises à ma reine Je reviens du rouges à lèvres sur la chemise hawaïenne Je te mets la puce à l'oreille, la bite à la bouche Si tu pues l'oseille au chtar t'as le mitard à douche En boite ça charbonne, ça bicrave la chnouf Ça tire pas au gros sel chez les maganougouche Blah ! Du son de thugz pour ta Benz Une rose pour ma femme, un gun pour son amant, g-g-g-g-gangsterz Ticket gratis pour l'hosto, c'est ça parle à mon pote costaud Et son Glock d'Oslo, c'est pour nos codes postaux Y a pas de flic honnêtes Je fous le zbeul en discothèque avec mes pickpockets C'est le retour d'Antonio en Emporio Fais péter le champ' j'suis venu mettre la money dans le coffiot Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta Poto ! On nique tout là ! 95 95 95 hijo de puta ! On nique tout là !</t>
+          <t>Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta J'suis entré dans le pera sans faire toc toc toc Le Glock au top, jsuis venu faire poc poc poc Prends pas Guy Georges en auto-stop On nous a prédit le habs dans l'horoscope Gros, c'est pour les potes au poste Les tres-au en mode beaux gosses Sur des motos de cross CBR gaze, gaz R1 Blin ! Blin ! Si y'a dra on est là ! On est plein plein! On a la poisse et rien ne nous guérira Sauf la salat en direction de Médina Qu'est-ce qu'y a en tout cas ça sent pas Blédina Dis à Kayliah, ici c'est pas la Belly Dance c'est la guérilla On va en boite fêter les sorties de ry-Fleu On ressort avec des taches de sang sur la mise-che On se tue à petit feu au Moët et Chandon C'est pas pire qu'un keuf qui fouette le jambon Nos plaquettes sont tamponnées 11 septembre On sait pas que c'est comme mon buzz, il monte, il fait que s'étendre Hé oui p'tit con ! J'baise le rap en capote Louis Vuitton Pour l'affaire on a tué 8 pythons On veut le butin le magot sur un plateau Donc on cogite à un putain de brako Ouais à un putain de drive-by à la mitraillette C'est le retour du nine five en live and direct Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta Fais pas tomber ta savonnette dans un hammam C'est réel, je fais des dégâts comme du 9 MM C'est ma queue pas la tienne que les meufs elles aiment Marginal comme le poto Rim-k et Bébel On fait des virées dans Paname avec des ML Brabus, crie Fils de pute On te répond Bang ! Bang ! À plus Poto on braque au kalash ton rap game Avec le stard-co d'Al Pac' et des al dente C'est du Sarko scalpage, il faut que ça paye my man On peut dead demain Allah aalam Avant de sortir, je fais deux bises à ma reine Je reviens du rouges à lèvres sur la chemise hawaïenne Je te mets la puce à l'oreille, la bite à la bouche Si tu pues l'oseille au chtar t'as le mitard à douche En boite ça charbonne, ça bicrave la chnouf Ça tire pas au gros sel chez les maganougouche Blah ! Du son de thugz pour ta Benz Une rose pour ma femme, un gun pour son amant, g-g-g-g-gangsterz Ticket gratis pour l'hosto, c'est ça parle à mon pote costaud Et son Glock d'Oslo, c'est pour nos codes postaux Y a pas de flic honnêtes Je fous le zbeul en discothèque avec mes pickpockets C'est le retour d'Antonio en Emporio Fais péter le champ' j'suis venu mettre la money dans le coffiot Que ce soit au poste ou en boite, on nique tout là Dans les armes et la cave, on nique tout là Sors les bécanes péta qu'on nique tout là Arrête de ler-par sur moi hijo de puta Poto ! On nique tout là ! 95 95 95 hijo de puta ! On nique tout là !</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5219,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Diguilitef, Seth Gueko, Néochrome, si si Nubi Sale, ouais, Al K U2F, et tu l'sais Sidi Omar, ho ho ho, Yonea Yodz, équipe légendaire, yo J'viens du ghetto chaud, Amen Amine, Yonea c'est my men, on n'est jamais mieux branler que par soi-même L'odeur du cash nous met l'eau à la bouche Un kidnapping de Loana et nous voilà bourges J'estime, t'as pas idée, ceux qui louent Allah Même si j'me voue à la criminalité Nique la mairie d'point, crame la mairie pour un Bif, frôle le crime, fous l'sang à coup d'Amélie Poulain Égorge des porcs sur Trace TV, tu croises Steevy, gifle-le L'tier-qu's est de-spee, s't'y vis, ouais J'deus-deus, j'nourris ma famille et j'protège ma mère J'aime les gros bzazl, pas les prothèses mammaires P'tit vagin, les poitrines censées À quoi bon be-flam avec un BM', si t'as pas d'quoi acheter du 100C Un rap de haineux Un rap de rapace, quand j'fais un dérapage, c'est dans ton caleçon qu'y a des traces de pneu Un dealer à chaque quartier, du Canal à Jacques Cartier à Dat Lord À tous ceux qui ont le cur et le visage marqués J'rappe saleté, ça m'empêche pas d'vouloir palper C'est mon domaine, c'est mon truc, ma chase gardée Un rimeur pathologique, Nubi Sale, il est bizarre, un boug pas trop logique Salut man, t'as du mal ? Stoppe la cacophonie arrête Lâche le mic, sache que moi, j'suis un rimeur, assassin, meurtrier microphonique hein Alors emballe tes trucs, en rap, j't'éduque Aujourd'hui, j'ai gratté trente pages et plus plus Et on m'a dit seize mesures, ça suffit ça suffit Et j'ai répondu Deph, j'te jure, j'hallucine Mon stylo, il veut pas s'stop, il veut ma choppe, coûte que coûte blah blah Tourne le , juste deux tafs pour le juice blah blah J'ai la vibe et la vaille, mets-toi hay' J'me sens bien, j'ai la niaque, j'ai la niaque, c'est la hype You might also like On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison J'ai cramé une trentaine de gramme, tant qu't'es dans la planète du haram Poète dans l'âme, poulette, j'te fourre dans les toilettes des femmes J'embête les fans, j'suis une putain de tempête de flamme T'en perds tes phrases ou tu risques de faire une trempette dans l'lac Finis les restes ou on t'punit avec des pures lyrics C'est pittoresque, ici on s'camoufle en de faux touristes J'ai l'flow terrestre ainsi qu'les featuring futuristes On s'fout des rust à face à l'Unité d'feu, tu risques De perdre des plumes, au clair de Lune, les frères s'allument, trop d'herbes se fument Cette merde m'a plu, j'te persécute, on s'permet plus de perdre des tunes J'taffe pas dans l'humanitaire, j'parle le langage monétaire Pas d'Hélène Ségara, mais plutôt Noregea dans l'moniteur si si Compare-moi à Antonio Nogueira le minotaure Mes cailles-ra pètent le minuteur, on court et y a pleins de mines à terre et tu l'sais J'aime mon prochain comme l'Abbé Pierre ou Mère Thérésa J'suis bouffé pour moult raison, me martyrisaient Des bombes pétent aux quatre coins du monde, aux quatre coins d'mon crâne On capte, tu sniffes de la merde, tu bouffes des flammes C'est fou, c'te femme fascine, d'aussi Qui te refile le da-s' en un battement d'cil À l'école, on nous disait vous ne valez rien Hein, j'ai grandi dans le vacarme du tro-m' aérien Combien d'anciens où tous s'shootent ou inhalent des cracks ? Tapent des salicornes, j'en ai marre, dans les parcs Combien de chiens reniflent le même but que oi-t' Dix-huit, dix-neuf, qui crèvent à un stade, que dalle À table, j'crois qu'moi non plus, je serre les bask' comme les trajets du noctambus, ouais La trame du drame nous rend bouche bée Seul dans ma tête, même avec une boule D C'est Sidi Omar, l'arbalète Du haut d'la butte Montmartre, ma planète avec mon pote Malek On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison si si On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street si si On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison Diguilitef, Dave Daivery, Special Delivery U2F, Rap de malfrats, rap de vampires Seth Gueko, Néochrome d'or Sidi-di-di Omar, Nubi Sale, Ghetto malfrat Rec tcheck tcheck1</t>
+          <t>Diguilitef, Seth Gueko, Néochrome, si si Nubi Sale, ouais, Al K U2F, et tu l'sais Sidi Omar, ho ho ho, Yonea Yodz, équipe légendaire, yo J'viens du ghetto chaud, Amen Amine, Yonea c'est my men, on n'est jamais mieux branler que par soi-même L'odeur du cash nous met l'eau à la bouche Un kidnapping de Loana et nous voilà bourges J'estime, t'as pas idée, ceux qui louent Allah Même si j'me voue à la criminalité Nique la mairie d'point, crame la mairie pour un Bif, frôle le crime, fous l'sang à coup d'Amélie Poulain Égorge des porcs sur Trace TV, tu croises Steevy, gifle-le L'tier-qu's est de-spee, s't'y vis, ouais J'deus-deus, j'nourris ma famille et j'protège ma mère J'aime les gros bzazl, pas les prothèses mammaires P'tit vagin, les poitrines censées À quoi bon be-flam avec un BM', si t'as pas d'quoi acheter du 100C Un rap de haineux Un rap de rapace, quand j'fais un dérapage, c'est dans ton caleçon qu'y a des traces de pneu Un dealer à chaque quartier, du Canal à Jacques Cartier à Dat Lord À tous ceux qui ont le cur et le visage marqués J'rappe saleté, ça m'empêche pas d'vouloir palper C'est mon domaine, c'est mon truc, ma chase gardée Un rimeur pathologique, Nubi Sale, il est bizarre, un boug pas trop logique Salut man, t'as du mal ? Stoppe la cacophonie arrête Lâche le mic, sache que moi, j'suis un rimeur, assassin, meurtrier microphonique hein Alors emballe tes trucs, en rap, j't'éduque Aujourd'hui, j'ai gratté trente pages et plus plus Et on m'a dit seize mesures, ça suffit ça suffit Et j'ai répondu Deph, j'te jure, j'hallucine Mon stylo, il veut pas s'stop, il veut ma choppe, coûte que coûte blah blah Tourne le , juste deux tafs pour le juice blah blah J'ai la vibe et la vaille, mets-toi hay' J'me sens bien, j'ai la niaque, j'ai la niaque, c'est la hype On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison J'ai cramé une trentaine de gramme, tant qu't'es dans la planète du haram Poète dans l'âme, poulette, j'te fourre dans les toilettes des femmes J'embête les fans, j'suis une putain de tempête de flamme T'en perds tes phrases ou tu risques de faire une trempette dans l'lac Finis les restes ou on t'punit avec des pures lyrics C'est pittoresque, ici on s'camoufle en de faux touristes J'ai l'flow terrestre ainsi qu'les featuring futuristes On s'fout des rust à face à l'Unité d'feu, tu risques De perdre des plumes, au clair de Lune, les frères s'allument, trop d'herbes se fument Cette merde m'a plu, j'te persécute, on s'permet plus de perdre des tunes J'taffe pas dans l'humanitaire, j'parle le langage monétaire Pas d'Hélène Ségara, mais plutôt Noregea dans l'moniteur si si Compare-moi à Antonio Nogueira le minotaure Mes cailles-ra pètent le minuteur, on court et y a pleins de mines à terre et tu l'sais J'aime mon prochain comme l'Abbé Pierre ou Mère Thérésa J'suis bouffé pour moult raison, me martyrisaient Des bombes pétent aux quatre coins du monde, aux quatre coins d'mon crâne On capte, tu sniffes de la merde, tu bouffes des flammes C'est fou, c'te femme fascine, d'aussi Qui te refile le da-s' en un battement d'cil À l'école, on nous disait vous ne valez rien Hein, j'ai grandi dans le vacarme du tro-m' aérien Combien d'anciens où tous s'shootent ou inhalent des cracks ? Tapent des salicornes, j'en ai marre, dans les parcs Combien de chiens reniflent le même but que oi-t' Dix-huit, dix-neuf, qui crèvent à un stade, que dalle À table, j'crois qu'moi non plus, je serre les bask' comme les trajets du noctambus, ouais La trame du drame nous rend bouche bée Seul dans ma tête, même avec une boule D C'est Sidi Omar, l'arbalète Du haut d'la butte Montmartre, ma planète avec mon pote Malek On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison si si On part au casse-pipe, tête baissée, sans pensée Plus de fric, c'est la devise de la street si si On part au charbon, tête baissée, sans pensée Faut bien faire du fric sale pour la maison Diguilitef, Dave Daivery, Special Delivery U2F, Rap de malfrats, rap de vampires Seth Gueko, Néochrome d'or Sidi-di-di Omar, Nubi Sale, Ghetto malfrat Rec tcheck tcheck1</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5236,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Yeah, Seth Gueko, Nubi Saleté Alkpote, Unité 2 Feu, Sergi Katan'yes Nous teste tu n'peux pas, y a qu'des chiens d'la sse-ca Des gue-shla, tu blagues, on t'shlass avec un rasoir jetable Pétasse tu mérites pas d'toucher mon épiderme Les p'tits rêvent et s'réveillent avec le chant des sirènes Augmente les décibels man, spécimen rare Comme Eminem j'rappe, j'serai toujours là pour mes fidèles gars Cent pour cent pur beur, camouflé en tueur, sans pudeur, grand fumeur de niaks j'suis un enculeur En une heure j'peux te faire un morceau et t'le poser J'veux ton gent-ar, ta shneck et le trophée Poser sur le béton ou dans une maison, j'bute les cons avec l'imagination de Luc Besson Écoute mes sons, si tu bouges ta nuque c'est bon Sur les ondes ou pas j'rapperai jusqu'à c'que les murs s'effondrent On est là, pour toujours et à jamais Nubi Sale, Seth Gueko et l'U2F bande d'enfoirés Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' You might also like Check, Mic Check OK J'sors le grand jeu, lEssonne c'est dangereux, c'est pour ça que j'reste opé' Les gens racontent leur vie, ils s'la racontent ler-dea, habillé façon reur-ti, c'est du cinéma Tous les jours dans le tiekar, Nubi est là Et sois sur qu'à c't'heure-ci, Nubi est high ou di-aï L'état d'esprit, ennemi d'état, défie les lois, des tas de p'tits sont attirés par l'illégal Parce que la France nous étouffe, quand t'avances tout sécroule, brise nos chances, veulent nous couper le souffle Ici les torses restent bombés, et si jamais l'un des tiens se vend aux porcs laisse le tomber On veut des mecs fiables, des mecs durs comme la pierre, durs en affaire pour pas se faire qui-ave Des négros comme Krono, Eto'o et Grizzli Mes soldats des XXX, mes frelos du ghetto de Grigny Le biff on fait tout pour ça, 2006 toujours là, objectif tout pour graille Nubi, Seth, U2F c'est rien que des gens authentiques Encaisser dans vos gencives, l'Essonne lance l'offensive Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Ça va faire mal, c'est mathématique C'est l'unité, ma thématique Au flow infernal toujours àl comme la putain de rubrique nécro du journal Nubi, Seth Gueko, Alk' et Kat' Technique impeccable, pour la XXX en quelques écoutes Pour la famille, nos armoires sans glace, nos marchands d'niaks Traversant , ne trouveront pas tous le champs de liasses Prêt à s'emparer devant tant de XXX La haine rien qu'd'en parler, c'qu'il kicke en Santiags, sans tiè-p' Mes frères tisent, spliffent et dealent sur les lieux d'l'investigation Claqueraient en un jour ce qu'en un an t'investis garçon Baise les fils de garces, c'est un peu pour espérer qu'on respire Pire qu'on reste dur, que les curs restent purs, qu'on reste libres dans cet état Les cris de tasse-pé avec un piercing vaginal Chacun récupère son dû comme Rigobert Song Machinalement, donc souvent salement, quand les personnes n'a son le-st' Katan' ne décrit que la merdasse où ses compères zonent Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart'</t>
+          <t>Yeah, Seth Gueko, Nubi Saleté Alkpote, Unité 2 Feu, Sergi Katan'yes Nous teste tu n'peux pas, y a qu'des chiens d'la sse-ca Des gue-shla, tu blagues, on t'shlass avec un rasoir jetable Pétasse tu mérites pas d'toucher mon épiderme Les p'tits rêvent et s'réveillent avec le chant des sirènes Augmente les décibels man, spécimen rare Comme Eminem j'rappe, j'serai toujours là pour mes fidèles gars Cent pour cent pur beur, camouflé en tueur, sans pudeur, grand fumeur de niaks j'suis un enculeur En une heure j'peux te faire un morceau et t'le poser J'veux ton gent-ar, ta shneck et le trophée Poser sur le béton ou dans une maison, j'bute les cons avec l'imagination de Luc Besson Écoute mes sons, si tu bouges ta nuque c'est bon Sur les ondes ou pas j'rapperai jusqu'à c'que les murs s'effondrent On est là, pour toujours et à jamais Nubi Sale, Seth Gueko et l'U2F bande d'enfoirés Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Check, Mic Check OK J'sors le grand jeu, lEssonne c'est dangereux, c'est pour ça que j'reste opé' Les gens racontent leur vie, ils s'la racontent ler-dea, habillé façon reur-ti, c'est du cinéma Tous les jours dans le tiekar, Nubi est là Et sois sur qu'à c't'heure-ci, Nubi est high ou di-aï L'état d'esprit, ennemi d'état, défie les lois, des tas de p'tits sont attirés par l'illégal Parce que la France nous étouffe, quand t'avances tout sécroule, brise nos chances, veulent nous couper le souffle Ici les torses restent bombés, et si jamais l'un des tiens se vend aux porcs laisse le tomber On veut des mecs fiables, des mecs durs comme la pierre, durs en affaire pour pas se faire qui-ave Des négros comme Krono, Eto'o et Grizzli Mes soldats des XXX, mes frelos du ghetto de Grigny Le biff on fait tout pour ça, 2006 toujours là, objectif tout pour graille Nubi, Seth, U2F c'est rien que des gens authentiques Encaisser dans vos gencives, l'Essonne lance l'offensive Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Ça va faire mal, c'est mathématique C'est l'unité, ma thématique Au flow infernal toujours àl comme la putain de rubrique nécro du journal Nubi, Seth Gueko, Alk' et Kat' Technique impeccable, pour la XXX en quelques écoutes Pour la famille, nos armoires sans glace, nos marchands d'niaks Traversant , ne trouveront pas tous le champs de liasses Prêt à s'emparer devant tant de XXX La haine rien qu'd'en parler, c'qu'il kicke en Santiags, sans tiè-p' Mes frères tisent, spliffent et dealent sur les lieux d'l'investigation Claqueraient en un jour ce qu'en un an t'investis garçon Baise les fils de garces, c'est un peu pour espérer qu'on respire Pire qu'on reste dur, que les curs restent purs, qu'on reste libres dans cet état Les cris de tasse-pé avec un piercing vaginal Chacun récupère son dû comme Rigobert Song Machinalement, donc souvent salement, quand les personnes n'a son le-st' Katan' ne décrit que la merdasse où ses compères zonent Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart' Si y a drah, nique sa race on rentre dans le tas On a kidnappé le rap, wAllah on vous l'rend pas Tu parles mais t'attaques pas, viens manger ta tate-pa Ça fait pah-pah-pah, on veut des tasses à l'appart'</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5253,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>47Ter, j'écoute Ok, hey, hey On vient tes classiques sur Konbini, un pad et un piano souffleur et cest parti, mon kiki Frenchmen, y a eu des gorilles, on arrive en ouistiti, franchement, c'est la folie, on s'habille en Louis Vui, hey En vrai, c'est faux, on vit toujours chez nos daronnes, on prend toujours l'métro, on s'fait voler nos téléphones J'viens d'arrêter l'McDo, il viennent d'arrêter lécole, la journée, jjoue au tarot avec ma grand-mère et ses potes On vient d'la région parisienne, un peu campagne, un peu pommée On est potos dpuis la sixième quand j'avais la coupe au bol et Enchanté le rap game, nous, c'est l'47Ter, à partir de cette année, on arrive dans lsecteur Qu'est c'qu'on s'emmerde fort quand on habite à la campagne Je f'rai jamais d'effort, j'aime que la Cro', j'bois pas d'champagne Un rappeur sait faire le dur sinon, c'est qu'il fait le mort Mais est-c'que dans son disque dur, il sait faire un disque d'or ? Eh Nos grands darons s'rencontraient sur un slow, on est d'la génération qui se rencontre sur un twerk J'en ai rien à branler d'la pyramide de Maslow, j'ai juste besoin d'me retourner la gueule en Y Réveil un peu compliqué, ça m'inspire pour mes morceaux, j'ai jamais autant vécu depuis qu'j'ai stoppé la vraie vie Tous les jours, on fait le boum, un peu comme Sophie Marceau, j'tourne autour de ta racli sans la toucher comme un satellite, hey Tu parles et dis des conneries, moi, je parle pour le cash Jamais partant pour aller courir mais plus pour une Vodka Kas Je fais ça pour l'argent, c'est vrai que je me dégoûte mais j'redoute pas les gens qui vont finir vendeur chez La Redoute Comme tous les matins, j'arrive et j'viens tremper mon biscuit Comme si j'étais plombier j'viens réparer ta tuyauterie J'ai cramé ce freestyle comme un doobie dans ton tieks J'suis Professeur Punchline, j'viens détrôner Seth Guek's You might also like - Tu vas rien détrôner du tout, tu vas fermer ta grande gueule - Nan mais c'est - Tu vas t'casser d'ici mon pote - Yes, ok, pardon - Yah, yah Grosse be-bar, tennis propres, grosse boule à z comme Alfred Hitchcock J'ouvre la bouche et les rimes sortent, toi, t'ouvres la bouche pour les cum shots Petite sotte, fais pas la belle, t'es éclatée contre le sol comme Travis Scott Rendez-vous dans dix minutes, j'sors ma bite en direct sur Pénis-scope Pas l'temps d'faire l'philosophe comme Aristote, c'est dans l'Eristoff que j'trempe mes biscottes Snap-moi ta chatte, j'ferai pas d'screenshot, j'sors de la salle de muscu' very stock Ils m'disent t'as trop pris, pourquoi quand j'chuchote une punchline, tu t'les appropries ? Elle touche ma queue, elle fait d'la poterie, elle vend son corps, c'est de la puterie Yeah Seth Guek's 47Ter</t>
+          <t>47Ter, j'écoute Ok, hey, hey On vient tes classiques sur Konbini, un pad et un piano souffleur et cest parti, mon kiki Frenchmen, y a eu des gorilles, on arrive en ouistiti, franchement, c'est la folie, on s'habille en Louis Vui, hey En vrai, c'est faux, on vit toujours chez nos daronnes, on prend toujours l'métro, on s'fait voler nos téléphones J'viens d'arrêter l'McDo, il viennent d'arrêter lécole, la journée, jjoue au tarot avec ma grand-mère et ses potes On vient d'la région parisienne, un peu campagne, un peu pommée On est potos dpuis la sixième quand j'avais la coupe au bol et Enchanté le rap game, nous, c'est l'47Ter, à partir de cette année, on arrive dans lsecteur Qu'est c'qu'on s'emmerde fort quand on habite à la campagne Je f'rai jamais d'effort, j'aime que la Cro', j'bois pas d'champagne Un rappeur sait faire le dur sinon, c'est qu'il fait le mort Mais est-c'que dans son disque dur, il sait faire un disque d'or ? Eh Nos grands darons s'rencontraient sur un slow, on est d'la génération qui se rencontre sur un twerk J'en ai rien à branler d'la pyramide de Maslow, j'ai juste besoin d'me retourner la gueule en Y Réveil un peu compliqué, ça m'inspire pour mes morceaux, j'ai jamais autant vécu depuis qu'j'ai stoppé la vraie vie Tous les jours, on fait le boum, un peu comme Sophie Marceau, j'tourne autour de ta racli sans la toucher comme un satellite, hey Tu parles et dis des conneries, moi, je parle pour le cash Jamais partant pour aller courir mais plus pour une Vodka Kas Je fais ça pour l'argent, c'est vrai que je me dégoûte mais j'redoute pas les gens qui vont finir vendeur chez La Redoute Comme tous les matins, j'arrive et j'viens tremper mon biscuit Comme si j'étais plombier j'viens réparer ta tuyauterie J'ai cramé ce freestyle comme un doobie dans ton tieks J'suis Professeur Punchline, j'viens détrôner Seth Guek's - Tu vas rien détrôner du tout, tu vas fermer ta grande gueule - Nan mais c'est - Tu vas t'casser d'ici mon pote - Yes, ok, pardon - Yah, yah Grosse be-bar, tennis propres, grosse boule à z comme Alfred Hitchcock J'ouvre la bouche et les rimes sortent, toi, t'ouvres la bouche pour les cum shots Petite sotte, fais pas la belle, t'es éclatée contre le sol comme Travis Scott Rendez-vous dans dix minutes, j'sors ma bite en direct sur Pénis-scope Pas l'temps d'faire l'philosophe comme Aristote, c'est dans l'Eristoff que j'trempe mes biscottes Snap-moi ta chatte, j'ferai pas d'screenshot, j'sors de la salle de muscu' very stock Ils m'disent t'as trop pris, pourquoi quand j'chuchote une punchline, tu t'les appropries ? Elle touche ma queue, elle fait d'la poterie, elle vend son corps, c'est de la puterie Yeah Seth Guek's 47Ter</t>
         </is>
       </c>
     </row>
@@ -5274,7 +5270,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Koutéy... Encore c' putain d'rap à la con qui m'reste collé aux pompes Je l'avais laissé pour mort mais revenu d'outre tombe Un clebs des enfers trop fidèle, recraché d'un cratère bro indem Une bête déter, qu'on libère après dix ans fermes La quarantaine, ex jeune tueur, un peu alzheimer J'ai quelques flashs où des Mc's meurent la gueule ouverte Je suis tombé du paradis comme un ange déchu Dorénavant Dieu me relèvera de n'importe quelle chute Céfran d'Amérique chiffre-moi en euros-dollars Entends la Finder à Hendrix qui rugi depuis l'audelà Libido d'taulard j'ai le'barreau, la prod a un gros cul Prêt à tout défourailler sur Eye of tiger de Rocky C'est tout simple, je les perturbe pourtant on est tous un J'perce la foule comme Toussaint l'ouverture Avant l'tunel final, j'profite du voyage Pour ma p'tite femelle, mes timals je suis le roi Maj J'ai jamais lu trois pages de leurs livres scolaires Et dans leurs putains discothèques, j'ai jamais fait trois pas C'qui fait qu'aujourd'hui encore mes neurones s'connectent Tcheck les grosses colères, de l'ours polaire yeah ! bis You might also like Et j'reviens comme la foudre sors les Paratonnerres J'arrive avec le sourire et j'repars en colère La rage qui colle aux molaires Comme un vieux Gum-chewing, ouais j'shuis comme j'shuis Veste Polo polaire, rien d'protocolaire Et y'a pas d'Feng shui dans ma garçonnière Tu connais l'personnage, j'ai l'art et la manière Baise sauvage sur l'lave linge en mode essorage, pour la faire jouir Pour capter la rime, il faut la finesse de l'ouïe Un Glock à dix-sept piges oui il me fallait ça phh phh! Il te faut l'humour à Louis de Funes, un peu d'cash et un business de weed Si tu veux la chatte à Vanessa Demouy Apelle le medecin de nuit Ça va être dramatique, avec Maj Trafyk j'fais du rap classique Mes punchlines se dessinent, c'est de l'art plastique Skyrock devrait s'appeler Sky Tropique J'ai jamais lu trois pages de leurs livres scolaires Et dans leurs putains discothèques, j'ai jamais fait trois pas C'qui fait qu'aujourd'hui encore mes neurones s'connectent Tcheck les grosses colères, de l'ours polaire yeah ! bis</t>
+          <t>Koutéy... Encore c' putain d'rap à la con qui m'reste collé aux pompes Je l'avais laissé pour mort mais revenu d'outre tombe Un clebs des enfers trop fidèle, recraché d'un cratère bro indem Une bête déter, qu'on libère après dix ans fermes La quarantaine, ex jeune tueur, un peu alzheimer J'ai quelques flashs où des Mc's meurent la gueule ouverte Je suis tombé du paradis comme un ange déchu Dorénavant Dieu me relèvera de n'importe quelle chute Céfran d'Amérique chiffre-moi en euros-dollars Entends la Finder à Hendrix qui rugi depuis l'audelà Libido d'taulard j'ai le'barreau, la prod a un gros cul Prêt à tout défourailler sur Eye of tiger de Rocky C'est tout simple, je les perturbe pourtant on est tous un J'perce la foule comme Toussaint l'ouverture Avant l'tunel final, j'profite du voyage Pour ma p'tite femelle, mes timals je suis le roi Maj J'ai jamais lu trois pages de leurs livres scolaires Et dans leurs putains discothèques, j'ai jamais fait trois pas C'qui fait qu'aujourd'hui encore mes neurones s'connectent Tcheck les grosses colères, de l'ours polaire yeah ! bis Et j'reviens comme la foudre sors les Paratonnerres J'arrive avec le sourire et j'repars en colère La rage qui colle aux molaires Comme un vieux Gum-chewing, ouais j'shuis comme j'shuis Veste Polo polaire, rien d'protocolaire Et y'a pas d'Feng shui dans ma garçonnière Tu connais l'personnage, j'ai l'art et la manière Baise sauvage sur l'lave linge en mode essorage, pour la faire jouir Pour capter la rime, il faut la finesse de l'ouïe Un Glock à dix-sept piges oui il me fallait ça phh phh! Il te faut l'humour à Louis de Funes, un peu d'cash et un business de weed Si tu veux la chatte à Vanessa Demouy Apelle le medecin de nuit Ça va être dramatique, avec Maj Trafyk j'fais du rap classique Mes punchlines se dessinent, c'est de l'art plastique Skyrock devrait s'appeler Sky Tropique J'ai jamais lu trois pages de leurs livres scolaires Et dans leurs putains discothèques, j'ai jamais fait trois pas C'qui fait qu'aujourd'hui encore mes neurones s'connectent Tcheck les grosses colères, de l'ours polaire yeah ! bis</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5287,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Le Big est le Big yeah Le Big est le Big yeah yeah Le Big est le Big est le Big est le Big Ces putes, moi j'men fiche moi j'm'en fiche, moi jm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas bsoin dta perche, j'suis trop fier, fuck la lèche Jemmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin dta perche, j'suis trop fier, fuck la lèche Mets pas d'pare-balles, j'vais t'viser la tête Au prochain feat, j'vais exiger un chèque J'bouffe les MC à la sauce vinaigrette Niquer des mères c'est pas une devinette c'est gratos Biffler les têtes et gifler les traîtres J'suis une tête depuis des chiffres et des lettres Mon pauvre, il te faudrait un siècle pour déchiffrer mes textes J'suis pas venu pour unifier tes pertes ni enfiler des perles On fait défiler les teilles, teilles, teilles, teilles Viens pas défier le gang, gang, gang, gang Casquette Gucci avec l'abeille-beille-beille-beille Gueule cramée sur l'avenue Montaigne Elle nous suit car elle a vu qu'on paye You might also like Ces putes, moi j'm'en fiche moi j'm'en fiche, moi j'm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche Les traîtres faut les uer-t Trop fier, fuck la lèche Avec les mêmes, jamais j'vendrais la mèche Fuck la hess, vive la neige Des liasses au p'tit déj Elle, faut qu'tu la tèj, elle se l'ait prise dans le derche Baby, I love you Allons-loin d'ici, j'vais devenir fou J'hésite entre le rap et r'prendre le four Est-ce que la gloire sera au rendez-vous ? Vos histoires de rap m'font mal au crâne Pour tenir le coup, il faut qu'j'sois saoul Milieu de bâtard, je suis dans l'mal j'm'en bats les couilles, j'suis là pour prendre les sous L'Homme devient mauvais quand y a des lovés Fais rentrer du mauve, ils voudront te lever Ces négros n'ont pas de biff, ils s'inventent des vies Vivre comme ces tho-my, non j'ai pas envie Ces putes, moi j'm'en fiche moi j'm'en fiche, moi j'm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche Le Big est le Big yeah Le Big est le Big est le Big yeah</t>
+          <t>Le Big est le Big yeah Le Big est le Big yeah yeah Le Big est le Big est le Big est le Big Ces putes, moi j'men fiche moi j'm'en fiche, moi jm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas bsoin dta perche, j'suis trop fier, fuck la lèche Jemmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin dta perche, j'suis trop fier, fuck la lèche Mets pas d'pare-balles, j'vais t'viser la tête Au prochain feat, j'vais exiger un chèque J'bouffe les MC à la sauce vinaigrette Niquer des mères c'est pas une devinette c'est gratos Biffler les têtes et gifler les traîtres J'suis une tête depuis des chiffres et des lettres Mon pauvre, il te faudrait un siècle pour déchiffrer mes textes J'suis pas venu pour unifier tes pertes ni enfiler des perles On fait défiler les teilles, teilles, teilles, teilles Viens pas défier le gang, gang, gang, gang Casquette Gucci avec l'abeille-beille-beille-beille Gueule cramée sur l'avenue Montaigne Elle nous suit car elle a vu qu'on paye Ces putes, moi j'm'en fiche moi j'm'en fiche, moi j'm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche Les traîtres faut les uer-t Trop fier, fuck la lèche Avec les mêmes, jamais j'vendrais la mèche Fuck la hess, vive la neige Des liasses au p'tit déj Elle, faut qu'tu la tèj, elle se l'ait prise dans le derche Baby, I love you Allons-loin d'ici, j'vais devenir fou J'hésite entre le rap et r'prendre le four Est-ce que la gloire sera au rendez-vous ? Vos histoires de rap m'font mal au crâne Pour tenir le coup, il faut qu'j'sois saoul Milieu de bâtard, je suis dans l'mal j'm'en bats les couilles, j'suis là pour prendre les sous L'Homme devient mauvais quand y a des lovés Fais rentrer du mauve, ils voudront te lever Ces négros n'ont pas de biff, ils s'inventent des vies Vivre comme ces tho-my, non j'ai pas envie Ces putes, moi j'm'en fiche moi j'm'en fiche, moi j'm'en fiche J'veux deux grands palaces et devenir riche devenir riche, devenir riche Nessbi, on triche on triche J'veux tout et tout de suite, j'ai perdu trop de piges le Big J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche J'emmerde la dèche, j'veux qu'les diez montent en flèche le Big Pas b'soin d'ta perche, j'suis trop fier, fuck la lèche Le Big est le Big yeah Le Big est le Big est le Big yeah</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5304,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Yeah Seth Guex Professeur Punchline Ninet five Mon va et vient te brûle les muqueuses Putain dtorture moyenâgeuse Tas écarté tes beujs pour du buzz À moitié pute, à moitié rappeuse Il te reste sur les lèvres, dla matière aqueuse Jbaise les vendeuses, jai la fièvre acheteuse Tatoué pour donner de la lecture aux masseuses Si jcompte ma beuteu, jai trois beujs Petite bosseuse ou grosse paresseuse Ni la preums, ni la deuz, moi cest grosse bosseuse Capuché comme la Faucheuse La punchline est odieuse, la greffe est osseuse Petit rappeur devient danseuse Quand il entend la sulfateuse Ma meilleure amie cest la mitrailleuse Jvois tout, jai trois yeuz Si je nte tue pas, cest qujnen ai pas le droit Je rentre par la cave, je sors par le toit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Pas le droit, pas le droit Si je nte tue pas, cest qujnen ai pas le droit You might also like Jai qule Prophète pour idole On met des baffes aux mecs fans de Baphomet Tu suces des kilomètres de bite mole Alors, joue pas la majorette Jte plante ma baïonnette dans la guibole Jaurai ma marionnette aux Guignols Jai jamais eu dtaff honnête Jaime Phuket et son roi Bhumibol Jdécolle, jsuis sur ma comète Envoie les mignonettes, que jpicole Jbricole, jsuis malhonnête Csoir jvais faire un tour dans la camionnette de Nicole Ya du sang sur les murs et sur la moquette Si les experts passent du luminol Rien nse compare à cet album Les punchlines éclatent le crâne, prends Paracétamol Ou pars ramasser ta morve Si je nte tue pas, cest qujnen ai pas le droit Je rentre par la cave, je sors par le toit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Pas le droit, pas le droit Si je nte tue pas, cest qujnen ai pas le droit1</t>
+          <t>Yeah Seth Guex Professeur Punchline Ninet five Mon va et vient te brûle les muqueuses Putain dtorture moyenâgeuse Tas écarté tes beujs pour du buzz À moitié pute, à moitié rappeuse Il te reste sur les lèvres, dla matière aqueuse Jbaise les vendeuses, jai la fièvre acheteuse Tatoué pour donner de la lecture aux masseuses Si jcompte ma beuteu, jai trois beujs Petite bosseuse ou grosse paresseuse Ni la preums, ni la deuz, moi cest grosse bosseuse Capuché comme la Faucheuse La punchline est odieuse, la greffe est osseuse Petit rappeur devient danseuse Quand il entend la sulfateuse Ma meilleure amie cest la mitrailleuse Jvois tout, jai trois yeuz Si je nte tue pas, cest qujnen ai pas le droit Je rentre par la cave, je sors par le toit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Pas le droit, pas le droit Si je nte tue pas, cest qujnen ai pas le droit Jai qule Prophète pour idole On met des baffes aux mecs fans de Baphomet Tu suces des kilomètres de bite mole Alors, joue pas la majorette Jte plante ma baïonnette dans la guibole Jaurai ma marionnette aux Guignols Jai jamais eu dtaff honnête Jaime Phuket et son roi Bhumibol Jdécolle, jsuis sur ma comète Envoie les mignonettes, que jpicole Jbricole, jsuis malhonnête Csoir jvais faire un tour dans la camionnette de Nicole Ya du sang sur les murs et sur la moquette Si les experts passent du luminol Rien nse compare à cet album Les punchlines éclatent le crâne, prends Paracétamol Ou pars ramasser ta morve Si je nte tue pas, cest qujnen ai pas le droit Je rentre par la cave, je sors par le toit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Et ouais mon raclo, je parle de toi Si je nte tue pas, cest qujnen ai pas le droit Pas le droit, pas le droit Si je nte tue pas, cest qujnen ai pas le droit1</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5321,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Mister Seth Gueks, le fils caché de Jaques mess. J'ai pas un train d'avance, j'ai un thalys Pour ton arrière train miss j'ai un cialis On n'est pas sur ta liste mais on s'invite quand même On t'fait un cocard en débouchant l'Mathusalem J'vais mettre mes jordans qu'elle m'a acheté cette aprèm Si tu m'cherche bebaaaah, j'arrive comme une tarte à la crème Les trois quarts des MC fonts d'la peine Ils parlent plus de coke que les dealers même ne parlent du rap game J'claque du gent-ar, j'me gare à la fourrière T'as un cul à gagner des millions, une gueule à tout perdre On a rien de mignon non, on est des joukers J'suis dans l'club cartouche de pote-ca en bandoulière Ce soir on fout l'zbeul avec les potos Les meufs c'est comme les big mac c'est jamais comme sur la photo Obligé j'repars aux bras d'une beauté rare Zdededegirl monte sur la table ouais c'est open bar Met nous la musique de Star Wars Elle veut une caillera dans sa vie, elle est boche elle est fashion, elle veut une caille dans son lit Elle veut une caillera dans sa vie, elle est boche elle est fashion, elle veut une caille dans son litYou might also like</t>
+          <t>Mister Seth Gueks, le fils caché de Jaques mess. J'ai pas un train d'avance, j'ai un thalys Pour ton arrière train miss j'ai un cialis On n'est pas sur ta liste mais on s'invite quand même On t'fait un cocard en débouchant l'Mathusalem J'vais mettre mes jordans qu'elle m'a acheté cette aprèm Si tu m'cherche bebaaaah, j'arrive comme une tarte à la crème Les trois quarts des MC fonts d'la peine Ils parlent plus de coke que les dealers même ne parlent du rap game J'claque du gent-ar, j'me gare à la fourrière T'as un cul à gagner des millions, une gueule à tout perdre On a rien de mignon non, on est des joukers J'suis dans l'club cartouche de pote-ca en bandoulière Ce soir on fout l'zbeul avec les potos Les meufs c'est comme les big mac c'est jamais comme sur la photo Obligé j'repars aux bras d'une beauté rare Zdededegirl monte sur la table ouais c'est open bar Met nous la musique de Star Wars Elle veut une caillera dans sa vie, elle est boche elle est fashion, elle veut une caille dans son lit Elle veut une caillera dans sa vie, elle est boche elle est fashion, elle veut une caille dans son lit</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5338,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna ! Paw ! Sors pas le gun chargé, faut pas qu'une balle parte, balle, balle, balle parte J'arrive avec ma go en boîte, alors bas les pattes, bas les, bas les, bas les pattes Le poto sort du shtar, lui fais pas des pâtes, pas des, pas des, pas des pâtes On fait du cash money, formule adéquate, adé-adé-adéquate Si t'es un vrai bonhomme, on roule avec oit', ave-ave-avec oit' Regarde comment j'kick aç, avoue qu'ça t'épate, ça t'é, ça t'é, ça t'épate On fait du fric, ça déboîte mais cache le avant qu'la que-ba débarque J'veux lire dans ton jeu alors abats les cartes, t'as deux jambes mais on va t'prendre à 4 pattes Fuck ! T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna ! Suce mon Mister Freeze, j'suis une armoire à glace, 'moire à, 'moire à, 'moire à glace Suce, suce, suce ! C'est pour mes OG's du 06 au placard à Grasse, au placard à Grasse Ici on parle que d'biz', à chaque paragraphe, para', para', paragraphe Tu pars à la pêche, on part à la chasse, y'a plus d'chicha à Pattaya, reste à Marrakech On les appelle la relève car ils sont, tous à la ramasse, j'assume tous mes tatouages, pas comme Tabatha Cash Même si j'lui mettrais bien le p'tit Jésus dans la crèche, j'vais pas d'jouer des maracas, mara-maracas Fais pas la 'tasse, laisse-moi check tes seins durs, tes fesses, tes hanches et tes bes-jam, poufiasse ! Si j'te fouette avec ma ceinture Hermès, tu t'manges un méchant coup de hache T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna !You might also like1</t>
+          <t>T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna ! Paw ! Sors pas le gun chargé, faut pas qu'une balle parte, balle, balle, balle parte J'arrive avec ma go en boîte, alors bas les pattes, bas les, bas les, bas les pattes Le poto sort du shtar, lui fais pas des pâtes, pas des, pas des, pas des pâtes On fait du cash money, formule adéquate, adé-adé-adéquate Si t'es un vrai bonhomme, on roule avec oit', ave-ave-avec oit' Regarde comment j'kick aç, avoue qu'ça t'épate, ça t'é, ça t'é, ça t'épate On fait du fric, ça déboîte mais cache le avant qu'la que-ba débarque J'veux lire dans ton jeu alors abats les cartes, t'as deux jambes mais on va t'prendre à 4 pattes Fuck ! T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna ! Suce mon Mister Freeze, j'suis une armoire à glace, 'moire à, 'moire à, 'moire à glace Suce, suce, suce ! C'est pour mes OG's du 06 au placard à Grasse, au placard à Grasse Ici on parle que d'biz', à chaque paragraphe, para', para', paragraphe Tu pars à la pêche, on part à la chasse, y'a plus d'chicha à Pattaya, reste à Marrakech On les appelle la relève car ils sont, tous à la ramasse, j'assume tous mes tatouages, pas comme Tabatha Cash Même si j'lui mettrais bien le p'tit Jésus dans la crèche, j'vais pas d'jouer des maracas, mara-maracas Fais pas la 'tasse, laisse-moi check tes seins durs, tes fesses, tes hanches et tes bes-jam, poufiasse ! Si j'te fouette avec ma ceinture Hermès, tu t'manges un méchant coup de hache T'as plus d'oseille, pour tiser, Somnamna ! Somnamna ! T'as plus d'oseille, pour baiser, Somnamna ! Somnamna ! City Gang Pattaya, City Gang Pattaya City Gang Pattaya, t'as plus d'oseille, Somnamna !1</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5355,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mac Fly Gear ! Jason Voriz, Seth Guex Han ! Me tire pas d'sus ça va me faire des tchakati J'aime les thailandaises car c'est les africaines de l'asie T'sais c'que m'disent les femmes ? - T'est qu'un butterfly J'réponds Dorothée va mourir en sucant le Capitaine Flam Generation X-OR, Sankukai, Salam Aleykoum, Aleykoum ça baille Ouais, c'est au Crazy Horse qui y'a les plus beaux culs en tout cas Oh My Bouddha ! On s'emboucane sur Sambuca Tu veux un tatoo qui défonce, fonce à Patong et fait-toi piquer par Alphonse Ouais, enfonce l'aiguille, ressuscite Mesrine sur mon avant-bras que les magistrats se suicident meskine J'aime ni les stups, les skins, le bonheur des uns fait le malheur des autres Fucked up, il s'met à fon tok Patong City Gang tatoué sur l'épiderme Il faut que j'rentre j'suis maoléw j'ai les yeux sideng Un khao pad kong avec un oeuf dessus c'est le kiffe En gastronomie, Voriz il reste très sélectif J'aime quand les métisses thai se tressent les tifs Même khabat, tu m'parles en bath, je reste très réceptif Clippé en mai en Thai, j'sais que c'est ta passion T'en as plus l'occasion. Pourquoi ? Parce que le terrain est sous occupation Les fellations, Marianne c'est sa vocation J'gratte les allocations, fais des tours de Phuket en T-Max location J'roule une pelle à cette demoiselle de Mae Hong Son C'comme ça que j'apprends la langue, 37 voyelles et 42 consonnes Tu sais comment ça fonctionne, tu fais la pute dans tout le pays Et dans l'Isan tes parents te ponctionnent Patong City Gang le train de vie hors-norme Et quand je pastèque un australien c'est pour me maintenir en forme La vie est pas chère, mais faut que vous sachiez le price Tu peux te faire sucer gratis avec un p'tit sachet de Ice J'ai le galbe et la taille de David Douillet J'ai la mentale , je suis une racaille douée L'hiver je mets jamais d'K-Way, je prends la Thai Airways Tout ce qui pompent nos styles en thai, c'est des haitais eh ouais ! Ma bite me démange quand je vais en Thailande, j'ai des trips différents, je Frédéric Mittérand et j'crée des rimes qui dérangent J'bois, fume, nique et mange et si j'crève bah j'baiserai les putes que dessine Michel-AngeYou might also like1</t>
+          <t>Mac Fly Gear ! Jason Voriz, Seth Guex Han ! Me tire pas d'sus ça va me faire des tchakati J'aime les thailandaises car c'est les africaines de l'asie T'sais c'que m'disent les femmes ? - T'est qu'un butterfly J'réponds Dorothée va mourir en sucant le Capitaine Flam Generation X-OR, Sankukai, Salam Aleykoum, Aleykoum ça baille Ouais, c'est au Crazy Horse qui y'a les plus beaux culs en tout cas Oh My Bouddha ! On s'emboucane sur Sambuca Tu veux un tatoo qui défonce, fonce à Patong et fait-toi piquer par Alphonse Ouais, enfonce l'aiguille, ressuscite Mesrine sur mon avant-bras que les magistrats se suicident meskine J'aime ni les stups, les skins, le bonheur des uns fait le malheur des autres Fucked up, il s'met à fon tok Patong City Gang tatoué sur l'épiderme Il faut que j'rentre j'suis maoléw j'ai les yeux sideng Un khao pad kong avec un oeuf dessus c'est le kiffe En gastronomie, Voriz il reste très sélectif J'aime quand les métisses thai se tressent les tifs Même khabat, tu m'parles en bath, je reste très réceptif Clippé en mai en Thai, j'sais que c'est ta passion T'en as plus l'occasion. Pourquoi ? Parce que le terrain est sous occupation Les fellations, Marianne c'est sa vocation J'gratte les allocations, fais des tours de Phuket en T-Max location J'roule une pelle à cette demoiselle de Mae Hong Son C'comme ça que j'apprends la langue, 37 voyelles et 42 consonnes Tu sais comment ça fonctionne, tu fais la pute dans tout le pays Et dans l'Isan tes parents te ponctionnent Patong City Gang le train de vie hors-norme Et quand je pastèque un australien c'est pour me maintenir en forme La vie est pas chère, mais faut que vous sachiez le price Tu peux te faire sucer gratis avec un p'tit sachet de Ice J'ai le galbe et la taille de David Douillet J'ai la mentale , je suis une racaille douée L'hiver je mets jamais d'K-Way, je prends la Thai Airways Tout ce qui pompent nos styles en thai, c'est des haitais eh ouais ! Ma bite me démange quand je vais en Thailande, j'ai des trips différents, je Frédéric Mittérand et j'crée des rimes qui dérangent J'bois, fume, nique et mange et si j'crève bah j'baiserai les putes que dessine Michel-Ange1</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5372,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Yeah, le rap biz la chatte à son père Aura un feat celui qui m'partagera sa bière Néochrome lache un glaire sur Natacha Saint Pierre La poucave on la tej dans la mer on l'attache à 5 pierres C'est clair, si t'as des plans pour faire du fric fais les Mais attends toi d'voir ton shit scellé par un flic zélé 2005 t'as gravé mon street CD Marlish 2007 tu vas renifler mon slip PD J'ai l'même brolic qu'Yves Rénier Elle ressort du stud le string baissé Ecoute les petits te traiter Entends les vitres péter Petite trainée, j'ai envie de baiser J'ai la bite dressée, tout ce qu'il faut shit cc Ici c'est une naissance pour 1000 décés L'animosité habite nos cités, mais elle anime votre JT, à qui de cogiter ? Joue le Marlon Brando, tu repars en lambeaux Si tu me suce dans l'heure c'est que l'argent rend beau On a jamais aimé Tarzan, Rambo Nos idoles sont ceux qui tirent sur les darm-gens dans le dos On a perquise mon landeau Hé ouais petit je volais les biberons Toi vas parler de L'eldorado à d'autres La prison attend ceux qui imiteront Esco Pablo Mais on privera pas Diego Marado de sa coke Aiiie mauvais garçons On se couche à l'heure des dealeurs on se léve à celle des maçons On tutoie le malheur pendant qu'Sarko té-doi le bonheur À Monaco et pointe du doigt le voleur On aime les bracos, c'est la course au biff Ca parle de shit light à la bourse au splif Génération Zbinaille? Qu'on perdu la notice qu'on laissé la mitraille pour le free fight Ca vient des roulottes, ca va se vider les roupettes à Phuket Sa goulotte, ca vole à la tirette Oulot? ! C'est à celui qu'aura la plus grosse zigounette Mon hall sent la pisse comme le slip d'une petite zoulette Même un geush je te zigouille sec pour de la ciboulette Inch'Allah 2007 je fais du zodiac à La Goulette On aime le Cognac, les gourmettes, les armes bosniaques Insomniac pue l'incarcération d'boulettes Je suis en manque de sommeil, en manque de soleil Boy c'est today que je veux prendre mon oseille C'est pour les chlasseurs les potos qui surveillent ta soeur Qui te lancent les orteils dans les valseuses à la Claude Brasseur Ambiance 66, dégaine de grossistes On péte les coccyx, on met des saucisses MC M16, MC incendiaire Je suis venu pleurer le sang de demain pas le sang d'hierYou might also like</t>
+          <t>Yeah, le rap biz la chatte à son père Aura un feat celui qui m'partagera sa bière Néochrome lache un glaire sur Natacha Saint Pierre La poucave on la tej dans la mer on l'attache à 5 pierres C'est clair, si t'as des plans pour faire du fric fais les Mais attends toi d'voir ton shit scellé par un flic zélé 2005 t'as gravé mon street CD Marlish 2007 tu vas renifler mon slip PD J'ai l'même brolic qu'Yves Rénier Elle ressort du stud le string baissé Ecoute les petits te traiter Entends les vitres péter Petite trainée, j'ai envie de baiser J'ai la bite dressée, tout ce qu'il faut shit cc Ici c'est une naissance pour 1000 décés L'animosité habite nos cités, mais elle anime votre JT, à qui de cogiter ? Joue le Marlon Brando, tu repars en lambeaux Si tu me suce dans l'heure c'est que l'argent rend beau On a jamais aimé Tarzan, Rambo Nos idoles sont ceux qui tirent sur les darm-gens dans le dos On a perquise mon landeau Hé ouais petit je volais les biberons Toi vas parler de L'eldorado à d'autres La prison attend ceux qui imiteront Esco Pablo Mais on privera pas Diego Marado de sa coke Aiiie mauvais garçons On se couche à l'heure des dealeurs on se léve à celle des maçons On tutoie le malheur pendant qu'Sarko té-doi le bonheur À Monaco et pointe du doigt le voleur On aime les bracos, c'est la course au biff Ca parle de shit light à la bourse au splif Génération Zbinaille? Qu'on perdu la notice qu'on laissé la mitraille pour le free fight Ca vient des roulottes, ca va se vider les roupettes à Phuket Sa goulotte, ca vole à la tirette Oulot? ! C'est à celui qu'aura la plus grosse zigounette Mon hall sent la pisse comme le slip d'une petite zoulette Même un geush je te zigouille sec pour de la ciboulette Inch'Allah 2007 je fais du zodiac à La Goulette On aime le Cognac, les gourmettes, les armes bosniaques Insomniac pue l'incarcération d'boulettes Je suis en manque de sommeil, en manque de soleil Boy c'est today que je veux prendre mon oseille C'est pour les chlasseurs les potos qui surveillent ta soeur Qui te lancent les orteils dans les valseuses à la Claude Brasseur Ambiance 66, dégaine de grossistes On péte les coccyx, on met des saucisses MC M16, MC incendiaire Je suis venu pleurer le sang de demain pas le sang d'hier</t>
         </is>
       </c>
     </row>
@@ -5393,7 +5389,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette You might also like Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
+          <t>Ok Seth Gueko, Alpha 5.20, Mista Flo Blablaw blablaw! Ma couillasse, on a des ganaches de diablotins J'arrive comme une bavasse ramassée sur des rails de train A la piscaille on a le famas qui sort du maillot de bain Cherche pas à savoir ce qui se pagasse chez les mangeurs de ragondins On te laisse même pas la place du strapontin Je suis en tête de wagon, prends tes couilles shootes les comme au drimobin Je crache les flammes comme un zgeg de dragon On baisera un par un ceux qui ont pris mon pain Hein mon copain, on a des gueules de gangsters On va te renvoyer chez ta mater tes couilles dans un lance-pierre Ma bouche faisait BLAW BLAW, mon cul joue du saxo Si mon grand père serai vivant, il te mettrait un coup de sabot On se fait la manucure sous le capot Je tise la vignasse, j'tire ta tignasse J'allais chez mes potes reubeus manger le couscous Ils venaient chez moi manger des coquillettes Autour du cou j'ai pas de bling-bling j'ai une chaîne de mobylette Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd J'crache 16 bastos, crois-moi tu vas les sentir P'tit pd, tu cours vite mais tu sais pas d'où ça tire Tu peux me pointer du doigt parce que j'ai fait du placard Dans le cul des pointeurs, je passais un gros coup de pointard Fi dar, je repense aux potos au mitard Le maton que je croise dehors j'le hagar C'est Street Lourd bâtard, on va tout baiser Mitraillette en levrette, ton gros cul va saigner Tu veux te protéger des MST, qui peut tester M.I.S.T.A Autant taper du LSD ou du MDMA J'déconne hahaha, j'dégomme XXX, viens bonhomme hahaha, viens bonhomme Qui veut m'empêcher de prendre mon argent dans l'industrie du disque? J'le prendrai dans la rue, je connais les risques Et nique sa mère le fisc Fils de pute, t'attends qu'on chute T'ouvres ton cul par derrière, quand tu nous vois tu nous suces Salope, tu te reconnais? Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd C'est pas du rap négro, mais des menaces de mort Enculé de ta race, je sais maintenant où tu dors 9.3 poto sur la came a Tony Puis refourge ces chèques à la Star Academy Tu parles trop à mon goût, dans le fond t'agis peu Ghetto Fabulous Gang, un aller simple dans le feu Il se croit imperméable puis dégaine les fusils Mes embrouilles c'est des shlass, pics à glace et grigris Qui a peur de mourir? Certainement pas nous A l'état ftal, ma mère se plaignait des coups J'suis venu bicrave, j'suis venu chourave Les joyaux de la couronne, les suceurs et leurs apôtres Je suis nocif aux novices, négro t'es qu'une catin La cité pour moi, boy, c'est qu'un jardin Tout le monde est calibré mais tout le monde ne tire pas Je suis au bord de la falaise frère on me pousse pas Eh Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Avant que les keufs nous arrêtent Ça c'est pour les youves de la planète, relâche la gâchette boom La rue nous allaite, nous khey on s'en bat les couilles A tous les youves on passe le salam aleykoum Street Lourd</t>
         </is>
       </c>
     </row>
@@ -5410,7 +5406,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Sakio, Bandit Nelly, mon pur Masta Ca va être dur d'envoyer des mandats quand les amendes arrivent J'espère qu'tu sortiras avant d'être contraint de t'branler sur Amanda Lear Masta ! Commande un livre, demande à lire ! Dur d's'amuser en boîte sachant qu'tu fêtes Noël avec 2 mandarines Là où l'XXX soleil est rayé, gars ! Tes photos préférées sous loreiller J't'aurais envoyé des millions si jétais d'venu un comptable Mort au flic qua enfermé Sakio, le lion indomptable Encore un flic bourré, avec une rose tatouée sur lépaule Qui s'défoule sur les pauvres et les prostituées Quel juge pense te tuer en temprisonnant ? Les bandits d'ton espèce, on les tue, quen les empoisonnant Bandit Nelly, à ta sortie passe à la casbah, pour mes Masta yaura toujours des pastas Du poulet braisé et des plantains La police, nous sommes nés pour les baiser Cest des pantins, faut qu'jen plante un Jprends l'train, espérant t'voir au Nord Tas les mains dans la merde alors quelles étaient destinées à lor Quest-ce tu fous en mandat d'dépôt ? Dehors ya trop dblondes à ter-pelo Jte garderai un bon XXX Jaurais bien prémédité ton évasion Mais daprès les visions des druides jdevrais éviter la télévision Ya un tas dsurs qui veulent ton numéro karlouche Ta sortie nous met leau à la bouche You might also like Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui passent lété à bronzer rayer Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui cachent leurs livres pornos sous loreiller Sakio, jsuis impardonnable, jaurais dû técrire au pas avant Ils ont tout enfermé, à part ton âme Tentendras c'morceau qu'si mon pe-ra vend Jinviterai ton procureur à sasseoir sur un paravent Chaque soir, jparle de toi à mon cocon familial Jsuis vraiment con dcroire quexiste la femme idéale Au lieu d'faire la vaisselle et dregarder Sunset Beach Masta, elle va à Paris seule cette Bitch Mon fils grandit, mespionne par l'trou dla serrure Pendant qu'tu purges ta peine dans une minuscule cellule Mille excuses Sakio, si jai pas dseille-o pour les mandats cash Jen n'ai pas pour macheter des sapes, yo ! Tas tenté lbracage, pour des barres en cash Jaurais jamais imaginé te revoir en cage En attendant de préparer ton paquetage Epargne leur, le racketage à chaque étage Belleck ! Qu'ils mettent pas dmorphine dans tes steaks hachés Jai appris qule juge qui ta fait tomber sétait caché Faites pas chier à c'quil tire un trait sur son passé ! Tu sors du hebs encore plus vicieux qu'tes rentré Casse-dédi à mon crew Jpréfère envoyer des dats-man aux gars au trou quavoir des diamants au cou Saint-Ouen-l'Aumône, quelle ville étrange, trop ddécès et trop dprisonniers Jtenverrai lCoran dans un filet doranges Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui passent lété à bronzer rayer Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui cachent leurs livres pornos sous loreiller Yo yo ! Notre mandat dpensée, à tous les mecs enfermés Message de lextérieur pour tous les mecs à lintérieur, tenez bon ! Masta masta ! Tigilitey, Seth Gueko Néochrome</t>
+          <t>Sakio, Bandit Nelly, mon pur Masta Ca va être dur d'envoyer des mandats quand les amendes arrivent J'espère qu'tu sortiras avant d'être contraint de t'branler sur Amanda Lear Masta ! Commande un livre, demande à lire ! Dur d's'amuser en boîte sachant qu'tu fêtes Noël avec 2 mandarines Là où l'XXX soleil est rayé, gars ! Tes photos préférées sous loreiller J't'aurais envoyé des millions si jétais d'venu un comptable Mort au flic qua enfermé Sakio, le lion indomptable Encore un flic bourré, avec une rose tatouée sur lépaule Qui s'défoule sur les pauvres et les prostituées Quel juge pense te tuer en temprisonnant ? Les bandits d'ton espèce, on les tue, quen les empoisonnant Bandit Nelly, à ta sortie passe à la casbah, pour mes Masta yaura toujours des pastas Du poulet braisé et des plantains La police, nous sommes nés pour les baiser Cest des pantins, faut qu'jen plante un Jprends l'train, espérant t'voir au Nord Tas les mains dans la merde alors quelles étaient destinées à lor Quest-ce tu fous en mandat d'dépôt ? Dehors ya trop dblondes à ter-pelo Jte garderai un bon XXX Jaurais bien prémédité ton évasion Mais daprès les visions des druides jdevrais éviter la télévision Ya un tas dsurs qui veulent ton numéro karlouche Ta sortie nous met leau à la bouche Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui passent lété à bronzer rayer Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui cachent leurs livres pornos sous loreiller Sakio, jsuis impardonnable, jaurais dû técrire au pas avant Ils ont tout enfermé, à part ton âme Tentendras c'morceau qu'si mon pe-ra vend Jinviterai ton procureur à sasseoir sur un paravent Chaque soir, jparle de toi à mon cocon familial Jsuis vraiment con dcroire quexiste la femme idéale Au lieu d'faire la vaisselle et dregarder Sunset Beach Masta, elle va à Paris seule cette Bitch Mon fils grandit, mespionne par l'trou dla serrure Pendant qu'tu purges ta peine dans une minuscule cellule Mille excuses Sakio, si jai pas dseille-o pour les mandats cash Jen n'ai pas pour macheter des sapes, yo ! Tas tenté lbracage, pour des barres en cash Jaurais jamais imaginé te revoir en cage En attendant de préparer ton paquetage Epargne leur, le racketage à chaque étage Belleck ! Qu'ils mettent pas dmorphine dans tes steaks hachés Jai appris qule juge qui ta fait tomber sétait caché Faites pas chier à c'quil tire un trait sur son passé ! Tu sors du hebs encore plus vicieux qu'tes rentré Casse-dédi à mon crew Jpréfère envoyer des dats-man aux gars au trou quavoir des diamants au cou Saint-Ouen-l'Aumône, quelle ville étrange, trop ddécès et trop dprisonniers Jtenverrai lCoran dans un filet doranges Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui passent lété à bronzer rayer Aux mecs enfermés qu'la son-pri naura jamais Aux mecs enfermés qui cachent leurs livres pornos sous loreiller Yo yo ! Notre mandat dpensée, à tous les mecs enfermés Message de lextérieur pour tous les mecs à lintérieur, tenez bon ! Masta masta ! Tigilitey, Seth Gueko Néochrome</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5423,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Mais tentends pas ou quoi? Cest Marseille-Paname connexion Et cest qui la? S.I.NI.K, R.E.D.K, SETH GUEKO, RELO, Rouuulleeezzzzz Le Ying, le yang par chez moi cest des noirs Dans des marches blanches des blancs dans le marché noir Des heflit comme Vinz qui menacent un miroir Fascinés par les Don Gambino Borsalino, chino, Tod's gommino Le parcours de gueule dange au dur passé Cest la mélodie du pianiste aux phalanges cassées Poésie suicidaire à en croire leurs défis Voir les Feux de la mort grâc à de leau de vi Un cur un cerveau tu connais notre devise Cest nos principes face aux montant de leurs devis Plus rien ne métonne Relo je tavertis Jsuis tellement souvent tombé de haut Je sais plus cest quoi avoir le vertige Syndrome de Stockholm ou raisons économiques Enfant des colonies envoyés en colonie Tu cherches les faux les clashs gros cest pas ici Jcrache le feu comme enfant de la khaleesi R.E.L.O je devrais être ce MC Produit par Tefa managé par Kenzy Vu la maigreur de texte gros je les vois Comme Des anorexiques qui pensent faire le poids Jlaisse du bleu du blanc Sur lantipop Jemmerde ton D.A qui veut des sons pour Tiktok You might also like Jaurais pu men aller arrêter la musique Mois jai fumé le rap les MC en barrette Je les prends un par un même à 40 balais Je représente Paris je fais jamais dans le paraître Nik-si GBR FAMILY Je suis parti de rien mais je vise la mairie Mauvais garçon comme Samy Naceri Validé par la cité pas par la série À lâge de rêver je voulais péter la porte le numéro décrou le Survêt Adidas Pour tout ce quon a fait il faudra payer la note Ne crois pas que les fautes se réparent à MIDAS Je ne peux rien y faire Je tiens ça de ma mère un putain de grand cur et une telle gentillesse Mais noublie jamais que je peux tirer sur toi et partir vite en couille comme une fête antillaise Jai pris des millions mais jai trop galéré ne confonds pas à ma vodka et leur coca zéro Rappeur légendaire tu ne peux Quadhérer je dois faire plus de photos que le Trocadéro Des années de rap sans jamais faire une seule pause jai kické, jai kické, jai kické Je me lève le matin je ne pense quà une seule chose les niquer, les niquer, les Niquer On voit le soleil venir chasser la lune Cest la vie en plein air on a tellement de vices En écoutant Sky jai reconnu ma plume À baiser tant de mères jai eu tellement de fils Je faisais du sale tu nétais même pas né 9.1 zone que des destins cramés Je nai pas ton âge allez baise ta grand-mère Et révise ta grammaire au lieu dInstagramer Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le salam VRAIES PLUMES RECONNAÎT PLUMES Tu sais jai fait mes classes dans les sous-sols de Mon QG jai bossé mon illégal Flow Oui jai bossé mes phases je maîtrise mon sujet poto je sais de quoi je cause Je me suis fait ma place il me fallait casser la cage et puis creuser lécart gros La plume est toujours à la page et malgré les dérapages Je suis pas de ceux qui Parlent trop Et puis jen suis devenu accro, Jen suis devenu fou, oui jai pris goût à la rime Au tout début tu ny croyait pas trop, jai fait sauter tous tes doutes à lécoute quand Jarrive Mon rap tient la route mon ami Une instru quand je roule dans la ville On est là coûte que coûte La Prod on la découpe mon ami Pas beaucoup de paradigmes mais à coups de barre à mine Après les coups de carabine Ça prend le goût du risque et met le pare-balle Deconné Gros jécoute pas lavis de tous les puristes qui croient tout savoir tu connais Légitime, depuis longtemps, quand je clique trop de styles éloquents Ils régressent, magressent et détestent ma vitesse tu me testes tu me presses Jprends mon temps Frérot jai les preuves à l'appui je crois que je suis une sorte de bipolaire Je suis calme comme le chant de la pluie, brutal comme mélodie du tonnerre Je me suis trompé jassume mais Je vois dans mes erreurs un charme immonde Jaime tremper ma plume dans le sang de la rue dans les larmes du monde Ils veulent tous vivre aux Champs-Élysées les gars ouvrez les livres changez, lisez Jporte le re-cui comme FANZARELLI Quand jvois les te-schmi jpense a ré-ti Je me suis fait déscolariser, je rentrerai pas dans leurs orgies Matte le polo Burberrisé, Rolex, Breitling chez moi cest une horlogerie Barlou rusé au laser la barbe est rasée Ton pubis cest un chou-fleur bouclé Jai les bras dun chauffeur routier Jsuis à la salle jme fais reluquer Par des vieilles ge-bour Je connais des gars dans lombre qui veulent se faire Ruquier... qui veulent se faire Zemmour Les petits se font sé-cour par des Beaucerons je veux pas ? Jsquatte en bas des tours avec ma paire de Timberland bucheron A chaque apparition vous disparaissez nous nous capuchons vous vous paluchez Je veux des nichons fleuris pas de Fleury-Michon dans mon assiette arrêtez de pleurnicher Seth Gueko !!! Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le Salam VRAIES PLUMES RECONNAÎT PLUMES Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le Salam VRAIES PLUMES RECONNAÎT PLUMES Ouais cest vraies plumes reconnaît plumes A la prod cest LIDO et Ladjoint La connexion cest R.E.D.K, S.I.N.I.K, Seth Gueko, Mr.RELO Moi-même Mr Jacky BROWN en appui non pas pour animer mais pour vous Réanimer</t>
+          <t>Mais tentends pas ou quoi? Cest Marseille-Paname connexion Et cest qui la? S.I.NI.K, R.E.D.K, SETH GUEKO, RELO, Rouuulleeezzzzz Le Ying, le yang par chez moi cest des noirs Dans des marches blanches des blancs dans le marché noir Des heflit comme Vinz qui menacent un miroir Fascinés par les Don Gambino Borsalino, chino, Tod's gommino Le parcours de gueule dange au dur passé Cest la mélodie du pianiste aux phalanges cassées Poésie suicidaire à en croire leurs défis Voir les Feux de la mort grâc à de leau de vi Un cur un cerveau tu connais notre devise Cest nos principes face aux montant de leurs devis Plus rien ne métonne Relo je tavertis Jsuis tellement souvent tombé de haut Je sais plus cest quoi avoir le vertige Syndrome de Stockholm ou raisons économiques Enfant des colonies envoyés en colonie Tu cherches les faux les clashs gros cest pas ici Jcrache le feu comme enfant de la khaleesi R.E.L.O je devrais être ce MC Produit par Tefa managé par Kenzy Vu la maigreur de texte gros je les vois Comme Des anorexiques qui pensent faire le poids Jlaisse du bleu du blanc Sur lantipop Jemmerde ton D.A qui veut des sons pour Tiktok Jaurais pu men aller arrêter la musique Mois jai fumé le rap les MC en barrette Je les prends un par un même à 40 balais Je représente Paris je fais jamais dans le paraître Nik-si GBR FAMILY Je suis parti de rien mais je vise la mairie Mauvais garçon comme Samy Naceri Validé par la cité pas par la série À lâge de rêver je voulais péter la porte le numéro décrou le Survêt Adidas Pour tout ce quon a fait il faudra payer la note Ne crois pas que les fautes se réparent à MIDAS Je ne peux rien y faire Je tiens ça de ma mère un putain de grand cur et une telle gentillesse Mais noublie jamais que je peux tirer sur toi et partir vite en couille comme une fête antillaise Jai pris des millions mais jai trop galéré ne confonds pas à ma vodka et leur coca zéro Rappeur légendaire tu ne peux Quadhérer je dois faire plus de photos que le Trocadéro Des années de rap sans jamais faire une seule pause jai kické, jai kické, jai kické Je me lève le matin je ne pense quà une seule chose les niquer, les niquer, les Niquer On voit le soleil venir chasser la lune Cest la vie en plein air on a tellement de vices En écoutant Sky jai reconnu ma plume À baiser tant de mères jai eu tellement de fils Je faisais du sale tu nétais même pas né 9.1 zone que des destins cramés Je nai pas ton âge allez baise ta grand-mère Et révise ta grammaire au lieu dInstagramer Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le salam VRAIES PLUMES RECONNAÎT PLUMES Tu sais jai fait mes classes dans les sous-sols de Mon QG jai bossé mon illégal Flow Oui jai bossé mes phases je maîtrise mon sujet poto je sais de quoi je cause Je me suis fait ma place il me fallait casser la cage et puis creuser lécart gros La plume est toujours à la page et malgré les dérapages Je suis pas de ceux qui Parlent trop Et puis jen suis devenu accro, Jen suis devenu fou, oui jai pris goût à la rime Au tout début tu ny croyait pas trop, jai fait sauter tous tes doutes à lécoute quand Jarrive Mon rap tient la route mon ami Une instru quand je roule dans la ville On est là coûte que coûte La Prod on la découpe mon ami Pas beaucoup de paradigmes mais à coups de barre à mine Après les coups de carabine Ça prend le goût du risque et met le pare-balle Deconné Gros jécoute pas lavis de tous les puristes qui croient tout savoir tu connais Légitime, depuis longtemps, quand je clique trop de styles éloquents Ils régressent, magressent et détestent ma vitesse tu me testes tu me presses Jprends mon temps Frérot jai les preuves à l'appui je crois que je suis une sorte de bipolaire Je suis calme comme le chant de la pluie, brutal comme mélodie du tonnerre Je me suis trompé jassume mais Je vois dans mes erreurs un charme immonde Jaime tremper ma plume dans le sang de la rue dans les larmes du monde Ils veulent tous vivre aux Champs-Élysées les gars ouvrez les livres changez, lisez Jporte le re-cui comme FANZARELLI Quand jvois les te-schmi jpense a ré-ti Je me suis fait déscolariser, je rentrerai pas dans leurs orgies Matte le polo Burberrisé, Rolex, Breitling chez moi cest une horlogerie Barlou rusé au laser la barbe est rasée Ton pubis cest un chou-fleur bouclé Jai les bras dun chauffeur routier Jsuis à la salle jme fais reluquer Par des vieilles ge-bour Je connais des gars dans lombre qui veulent se faire Ruquier... qui veulent se faire Zemmour Les petits se font sé-cour par des Beaucerons je veux pas ? Jsquatte en bas des tours avec ma paire de Timberland bucheron A chaque apparition vous disparaissez nous nous capuchons vous vous paluchez Je veux des nichons fleuris pas de Fleury-Michon dans mon assiette arrêtez de pleurnicher Seth Gueko !!! Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le Salam VRAIES PLUMES RECONNAÎT PLUMES Tu veux un feat fat jai des gars sûrs Ça kick sale et casse des nuques Tu kiffes pas mais tu fais la pub VRAIES PLUMES RECONNAÎT PLUMES Marseille-Paname Marseille-Paname On porte le maillot comme Lorik Cana La meilleure école vous passe le Salam VRAIES PLUMES RECONNAÎT PLUMES Ouais cest vraies plumes reconnaît plumes A la prod cest LIDO et Ladjoint La connexion cest R.E.D.K, S.I.N.I.K, Seth Gueko, Mr.RELO Moi-même Mr Jacky BROWN en appui non pas pour animer mais pour vous Réanimer</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5440,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Putain de Glock x2 Ce fils de pute veut m'carotte où est mon putain de Glock ? Putain de Glock x2 J'reviens cagoulé avec mon putain d'Glock Et j'te fume pour de l'oseille x4 Pas de sentiments c'est que de business x4 Pour être à l'heure du rap Francais J'ai reculé les aiguilles de ma montre Pas de discrimination J'baise ta beurette, j'baise ta blonde Discret dans les transactions Y'a peut-être une poucave au balcon Et si le compte n'est pas rond On t'nique ta mère devant ton daron Des violets, des verts, des marrons J'aime trop les billets pour être honnête Criminel depuis le collège J'appelle les poulets, j'ferais des brochettes Dans l'game j'me fait chier On m'dit de me barrer au States J'ai des putes à mes pieds, j'met mes liasses dans mes chaussettes Au quartier, tout le monde veut tuer quelqu'un Ca pue l'homicide J'me fait livrer mes pizzas et mes putains à domicile Star du rap jeu, mon flop à fait un buzz Ta meuf me suce et t'en saura rien Elle avale toutes les preuves On peut pas se mélanger Comme de l'huile et de l'eau J'ai une grosse équipe à mes côtés T'as une grosse équipe sur les côtes En 2012 j'ai du m'asseoir sur 200.000 2014 libérable mon Glock te dit HELLO You might also like Prend des potes-ca Chez l'apothicaire Vaut mieux un verre à deux, qu'un vers solitaire Rase ton ticket de métro, on dirait que j'galoche Hitler Tu cries comme Anna Polina J'rimes comme Apollinaire J'suis malpoli gars J'fais du pe-ra grossier J'suis un mâle polygame J'ai un crâne d'hooligan Des sociétés secrètes veulent m'approcher Mais nique le Sheitan et tout son organigramme J'ai du mal à aimer, j'ai l'coeur atrophié J'suis une bombe humaine que seul une femme peut désamorcer J'peux pas aller en enfer, sur Terre j'ai déjà morflé Les p'tits préfèrent dormir dans les draps d'Dorcel que dans les bras d'Morphée Torché, armé, comme au Texas Tête de MC comme trophée de chasse, le game à trop fait d'chiasse Punchline bombardée, béret bombardier Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder 4</t>
+          <t>Putain de Glock x2 Ce fils de pute veut m'carotte où est mon putain de Glock ? Putain de Glock x2 J'reviens cagoulé avec mon putain d'Glock Et j'te fume pour de l'oseille x4 Pas de sentiments c'est que de business x4 Pour être à l'heure du rap Francais J'ai reculé les aiguilles de ma montre Pas de discrimination J'baise ta beurette, j'baise ta blonde Discret dans les transactions Y'a peut-être une poucave au balcon Et si le compte n'est pas rond On t'nique ta mère devant ton daron Des violets, des verts, des marrons J'aime trop les billets pour être honnête Criminel depuis le collège J'appelle les poulets, j'ferais des brochettes Dans l'game j'me fait chier On m'dit de me barrer au States J'ai des putes à mes pieds, j'met mes liasses dans mes chaussettes Au quartier, tout le monde veut tuer quelqu'un Ca pue l'homicide J'me fait livrer mes pizzas et mes putains à domicile Star du rap jeu, mon flop à fait un buzz Ta meuf me suce et t'en saura rien Elle avale toutes les preuves On peut pas se mélanger Comme de l'huile et de l'eau J'ai une grosse équipe à mes côtés T'as une grosse équipe sur les côtes En 2012 j'ai du m'asseoir sur 200.000 2014 libérable mon Glock te dit HELLO Prend des potes-ca Chez l'apothicaire Vaut mieux un verre à deux, qu'un vers solitaire Rase ton ticket de métro, on dirait que j'galoche Hitler Tu cries comme Anna Polina J'rimes comme Apollinaire J'suis malpoli gars J'fais du pe-ra grossier J'suis un mâle polygame J'ai un crâne d'hooligan Des sociétés secrètes veulent m'approcher Mais nique le Sheitan et tout son organigramme J'ai du mal à aimer, j'ai l'coeur atrophié J'suis une bombe humaine que seul une femme peut désamorcer J'peux pas aller en enfer, sur Terre j'ai déjà morflé Les p'tits préfèrent dormir dans les draps d'Dorcel que dans les bras d'Morphée Torché, armé, comme au Texas Tête de MC comme trophée de chasse, le game à trop fait d'chiasse Punchline bombardée, béret bombardier Le buzz c'est comme le permis, l'tout c'est pas de l'avoir c'est d'le garder 4</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Yo yo yo, Seth Gueko, S.I.N.I.K, Malsain Lassassin cest lghetto, Néochrome Croise les doigts, pour quyait pas dpolicier au Ciel Tu mérites des coups dgazeuse au gel, comme Marc-Olivier Fogiel Fous lzbeul, sil lfaut sors les ciseaux Que les keufs et les physio arrêtent de jouer les schizo Jrépète ! Dès qujfais cmorceau, ça part en hess Jinvite les mecs de tess à faire cavaler les keufs Mec, jte conseille de serrer les seufs Trop dMCs dans lrap français ssont pavés la te-ch On a la fougue des pit argentins Les flics te voient mais pas toi, cest comme des miroirs sans tain Masta ! Lodeur du cash ma pris au nez Paris cest plein dboîtes de thons, comme la cellule dun prisonnier Jsuis poursuivi par le dass des garces Noyé dans lChivas Regal, hanté par Las Vegas Jmarche avec une ste-ve réversible car Sarko ma dit Jtenverrai mes skins et jtenlèverai tes sticks On veut la place Vendôme et Karen Lancaume On deale sachant quya pas de carrière en taule et qula haine rend pauvre Déterminés comme un Red Noise, tu verras jamais un terroriste jouer les playboys Ça fait , une première balle pour Le Pen Cest lrap des 2 gweres qui tmettent des baffes dans ta mère Une deuxième balle pour Georges Bush Cest pour mes crouilles et mes karlouch qui mettent des baffes dans ta bouche You might also like Dans mon tier-quar ça devient dur, tous les esprits sont éteints Tous armés de sacrés flingues, en danger de mort, sale crétin Le regard évasif, entre les grilles et les barbelés Ya plus de prisonniers que de bacheliers Je rappe les mots des rues, sans interprète Chienne de vie sans intérêt puisqu'Interpole interpelle Ohhh Bientôt 25 ans, sourire c'est inutile de m'y forcer, avec la vie j'ai divorcé Les gens se parlent par SMS, ça me dégoûte Plus de dialogue mais que des Wesh t'es où ? Mes vieux démons veulent me dorloter Hémorragie avec un blunt, la nostalgie du club Dorothée J'écoute personne à part mon mp3 Que le monde entier se mette des doigts Que le banquier lève les bras Rejeté du monde tel un sans-papiers On laisse nos poumons s'encrasser Super haineux tel Vincent Cassel Ma progression constante, comme le taux de suicide Connard, me raconte pas ta vie parce que j'ai d'autres soucis La confiance ne tient plus, les gradins hurlent Je mets des frappes inarrêtables, gardien de la paix ou gardien de but Silencieux dans la vie, muet à l'audition Je n'aperçois que nos prisons à l'horizon Malgré le matraquage et les traquenards Je voulais trinquer à la mémoire de mes déboires et mes tracas De nos arrestations à la déprime, la rumeur dit que j'ai maigri Que ceux qui m'aiment m'écrivent ! Sans généraliser, les miens ne sont pas tous voleurs Mais plus de chances d'être dealeur que footballeur Cest dans la té-ci qurésident, les rois dla garre-ba Abracadabra ils te braquent dun bras On a grandi avec la rage des bleus Les passes de bagages de beuh et les mariages reubeu Masta ! Une pensée aux potes déjà jugés Aux autres désabusés, dans le box des accusés On scharclent comme au Rwanda au lieu dpenser aux gros mandats Pendant qules daronnes cachent du bédo dans leur Wonderbra Ça fait , une première balle pour Le Pen Cest lrap des 2 gweres qui tmettent des baffes dans ta mère Une deuxième balle pour Georges Bush Cest pour mes crouilles et mes karlouch qui mettent des baffes dans ta bouche Yo yo yo ! Seth Gueko, S.I.N.I.K, Yeah ! Yoyoyo ! Néochrome ! Vous vous prenez pour qui ? Des bons ? Vous êtes des pas bons ! Vous savez juste vous cacher, et mentir ! Moi je dis toujours la vérité, et même quand je mens cest vrai. Ca cest un mauvais mensonge ! Ca cest un mauvais mensonge !</t>
+          <t>Yo yo yo, Seth Gueko, S.I.N.I.K, Malsain Lassassin cest lghetto, Néochrome Croise les doigts, pour quyait pas dpolicier au Ciel Tu mérites des coups dgazeuse au gel, comme Marc-Olivier Fogiel Fous lzbeul, sil lfaut sors les ciseaux Que les keufs et les physio arrêtent de jouer les schizo Jrépète ! Dès qujfais cmorceau, ça part en hess Jinvite les mecs de tess à faire cavaler les keufs Mec, jte conseille de serrer les seufs Trop dMCs dans lrap français ssont pavés la te-ch On a la fougue des pit argentins Les flics te voient mais pas toi, cest comme des miroirs sans tain Masta ! Lodeur du cash ma pris au nez Paris cest plein dboîtes de thons, comme la cellule dun prisonnier Jsuis poursuivi par le dass des garces Noyé dans lChivas Regal, hanté par Las Vegas Jmarche avec une ste-ve réversible car Sarko ma dit Jtenverrai mes skins et jtenlèverai tes sticks On veut la place Vendôme et Karen Lancaume On deale sachant quya pas de carrière en taule et qula haine rend pauvre Déterminés comme un Red Noise, tu verras jamais un terroriste jouer les playboys Ça fait , une première balle pour Le Pen Cest lrap des 2 gweres qui tmettent des baffes dans ta mère Une deuxième balle pour Georges Bush Cest pour mes crouilles et mes karlouch qui mettent des baffes dans ta bouche Dans mon tier-quar ça devient dur, tous les esprits sont éteints Tous armés de sacrés flingues, en danger de mort, sale crétin Le regard évasif, entre les grilles et les barbelés Ya plus de prisonniers que de bacheliers Je rappe les mots des rues, sans interprète Chienne de vie sans intérêt puisqu'Interpole interpelle Ohhh Bientôt 25 ans, sourire c'est inutile de m'y forcer, avec la vie j'ai divorcé Les gens se parlent par SMS, ça me dégoûte Plus de dialogue mais que des Wesh t'es où ? Mes vieux démons veulent me dorloter Hémorragie avec un blunt, la nostalgie du club Dorothée J'écoute personne à part mon mp3 Que le monde entier se mette des doigts Que le banquier lève les bras Rejeté du monde tel un sans-papiers On laisse nos poumons s'encrasser Super haineux tel Vincent Cassel Ma progression constante, comme le taux de suicide Connard, me raconte pas ta vie parce que j'ai d'autres soucis La confiance ne tient plus, les gradins hurlent Je mets des frappes inarrêtables, gardien de la paix ou gardien de but Silencieux dans la vie, muet à l'audition Je n'aperçois que nos prisons à l'horizon Malgré le matraquage et les traquenards Je voulais trinquer à la mémoire de mes déboires et mes tracas De nos arrestations à la déprime, la rumeur dit que j'ai maigri Que ceux qui m'aiment m'écrivent ! Sans généraliser, les miens ne sont pas tous voleurs Mais plus de chances d'être dealeur que footballeur Cest dans la té-ci qurésident, les rois dla garre-ba Abracadabra ils te braquent dun bras On a grandi avec la rage des bleus Les passes de bagages de beuh et les mariages reubeu Masta ! Une pensée aux potes déjà jugés Aux autres désabusés, dans le box des accusés On scharclent comme au Rwanda au lieu dpenser aux gros mandats Pendant qules daronnes cachent du bédo dans leur Wonderbra Ça fait , une première balle pour Le Pen Cest lrap des 2 gweres qui tmettent des baffes dans ta mère Une deuxième balle pour Georges Bush Cest pour mes crouilles et mes karlouch qui mettent des baffes dans ta bouche Yo yo yo ! Seth Gueko, S.I.N.I.K, Yeah ! Yoyoyo ! Néochrome ! Vous vous prenez pour qui ? Des bons ? Vous êtes des pas bons ! Vous savez juste vous cacher, et mentir ! Moi je dis toujours la vérité, et même quand je mens cest vrai. Ca cest un mauvais mensonge ! Ca cest un mauvais mensonge !</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5474,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>J'ai toujours une balle dans le chargeur, une rime dans le cervelet Lâcher pas vos boloss pour le rap, servez-les ! Tout droit du terter, on verse un peu de bière par terre Pour ceux qu'ont pris perpète ça fait bléh ! Bléh ! Dare-dare on se bagarre sous des reverbères Confonds pas les rats d'égout et les souris de clairière On mord même la main nourricière Rap barbare qui t'ouvre l'arcade sourcilière La rime est sicilienne, le projet c'est le sixième Pour la capote la taille c'est XXL Ce qu'on redoute surtout c'est le bruit des sirènes Augmente les décibels ça c'est pour nos tés-ci Mâchouille les strings ficelle comme chewing-gum Une secrétaire à genoux comme celle de Bill Clinton Bande de p'tite catin vous ferait rien avec vos capuches La météo annonce une pluie de parpaings Des missions j'en ai trop tapé, j'vais au taff en vélo cassé Les bédos sont assez tassés, pas d'négro aspect tasse-pé Et une bombonne d'amour épuisé J'ai gouté l'calme mais là sa date est expirée J'ai les pieds bloquer dans du ciment Sur ma langue y a un piment, c'est la vie sur l'endurcissement Mec on fait les choses on vide l'esprit à la vie deuspi Dis c'que j'vis dis, dis c'que j'dis, mon père c'est pas Bill Cosby On essaie de trouver l'or avant de se faire trouer l'corps C'but les sous y sortent faut qu'il rentre jusqu'à nouvel ordre Y a trop d'rapaces man ! Ils veulent ta llaisse-ca, les cailles braillent et taillent quand ça s'passe mal On sort et on galère le ventre vide, y a pas d'air, pas d'Ventoline Le salaire il rentre vite mais j'le rends trop vite Du temps j'en perds en courant derrière la nnaie-mo Dis à Jean-Pierre que j'veux l'million c'est mon dernier mot You might also like Pour aller là où je vais t'as pas l'age Au Paradise il nous reste trois teille-bou au garage C'est le rap tah Alcatraz On sort tous la nuit demande à Moussaoui Zakaria L'important est de connaitre mes textes pas l'odeur de ma chiasse Ta race d'Abdallah t'appelle pas Enrico Macias C'est le retour de Serpico Famas zdezdezdezdlash Écartez les fesses j'envoie d'l'antrhax par Fedex Au tieks on s'entraine à la Rocky Beuh seum comme au low-kick cagoulé Sony Nourou Kiki Moha Bush et Chaouki On fera pas le million à la loterie</t>
+          <t>J'ai toujours une balle dans le chargeur, une rime dans le cervelet Lâcher pas vos boloss pour le rap, servez-les ! Tout droit du terter, on verse un peu de bière par terre Pour ceux qu'ont pris perpète ça fait bléh ! Bléh ! Dare-dare on se bagarre sous des reverbères Confonds pas les rats d'égout et les souris de clairière On mord même la main nourricière Rap barbare qui t'ouvre l'arcade sourcilière La rime est sicilienne, le projet c'est le sixième Pour la capote la taille c'est XXL Ce qu'on redoute surtout c'est le bruit des sirènes Augmente les décibels ça c'est pour nos tés-ci Mâchouille les strings ficelle comme chewing-gum Une secrétaire à genoux comme celle de Bill Clinton Bande de p'tite catin vous ferait rien avec vos capuches La météo annonce une pluie de parpaings Des missions j'en ai trop tapé, j'vais au taff en vélo cassé Les bédos sont assez tassés, pas d'négro aspect tasse-pé Et une bombonne d'amour épuisé J'ai gouté l'calme mais là sa date est expirée J'ai les pieds bloquer dans du ciment Sur ma langue y a un piment, c'est la vie sur l'endurcissement Mec on fait les choses on vide l'esprit à la vie deuspi Dis c'que j'vis dis, dis c'que j'dis, mon père c'est pas Bill Cosby On essaie de trouver l'or avant de se faire trouer l'corps C'but les sous y sortent faut qu'il rentre jusqu'à nouvel ordre Y a trop d'rapaces man ! Ils veulent ta llaisse-ca, les cailles braillent et taillent quand ça s'passe mal On sort et on galère le ventre vide, y a pas d'air, pas d'Ventoline Le salaire il rentre vite mais j'le rends trop vite Du temps j'en perds en courant derrière la nnaie-mo Dis à Jean-Pierre que j'veux l'million c'est mon dernier mot Pour aller là où je vais t'as pas l'age Au Paradise il nous reste trois teille-bou au garage C'est le rap tah Alcatraz On sort tous la nuit demande à Moussaoui Zakaria L'important est de connaitre mes textes pas l'odeur de ma chiasse Ta race d'Abdallah t'appelle pas Enrico Macias C'est le retour de Serpico Famas zdezdezdezdlash Écartez les fesses j'envoie d'l'antrhax par Fedex Au tieks on s'entraine à la Rocky Beuh seum comme au low-kick cagoulé Sony Nourou Kiki Moha Bush et Chaouki On fera pas le million à la loterie</t>
         </is>
       </c>
     </row>
@@ -5495,7 +5491,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Alibi Montana, Nubi, Gueko Opération commando, Néochrome, Barillet Plein Pour mon ghetto, les têtes brûlées, tous ceux qu'ont faim Yo yo ! Tu mverras jamais à Dammarie-les-Lys Si tu mvois sur lcoin dla BNP, fais démarrer l'hélice ! La vie n'est qu'un, vulgaire quiz, suce ou biz Confonds pas les mecs du Queens et les queers ! J'arrive, comme un poil pubien sur ta soupe Mon mic a plus l'air d'un Glock quà une sucette Chupa Chups J'ai dquoi faire le carnage adéquate Comme si t'avais laissé un kalash à des Croates Tu sais cqui sdit ? J'veux lgrisbi, jsuis dur à trise-mai J'donne grise mine aux kisdés, jdescends du grizzli Jdescends pas du singe comme Darwin Enlève tes ballerines, jsuis vnu faire le remake d'Halloween J'ai, le cul entre deux 16 Et si chez toi ya une coupure EDF, c'est quj'ai mis un keuf sur la chaise Piment dans le ptit déj, éjacule de la braise Rentre en vitesse, c'est Vendredi 13 ! Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre You might also like Quand tu croises mon regard, tu sens qujsuis en stress Manque de tendresse, angoisse, flots de larmes, gouttes de rage Vie amère, arrière-goût de drame On veut être grand jusqu'à porter la Terre à bout de bras Beaucoup des miens, sans travail, s'encanaillent en cavale ou cabane Quand tas mal, mais quand ça foire, hein ! Là, on reconnaît les nhommes-bo Que faire quand il est trop tard pour recoller les morceaux ? Négro, assume quand ça bascule ! Point de non-retour, quand ça fume, quand les rafales fusent Cest pas ceux qui parlent le plus qui palpent le plus Quand les vrais partent, les faux ne parlent plus Négro, cest ça le truc ! Perdre, cest pas le but merde ! Un tas de putes percent Frère, moi jveux juste faire un max de thunes La peur de mourir pauvre, me glace le sang Moi jveux rouler sur lor et mcoucher sur des liasses de 100 Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre Ya pas djolie tess Et seule moto divresse Pas dpolitesse quand la police teste Car pour quun flic tépargne faut ressembler à son fils Un ptit dép hargneux, sans blé, sans vice Tas un vagin au lieu dla bouche man Alors viens pas mparler mal ! Chez nous, les carottes ne rendent pas aimable Bientôt, tu msupplieras pour foutre ta fille enceinte Zinc, fais pas du bouche-à-bouche à un 6.35 Fais pas du hula hoop avec un barbelé Si tu croises des touristes en ville, barbe-les ! Jai, un pouchka dans lsophage Me touche pas, laisse pas tes mains sur le chauffage ! Yo thuuuuugs ! Papa, furent les premiers mots de mon fils et mon guuuuuns Mec ! Ya plus dtête-à-tête XXX, dès quça part en Ready XXX Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre Yo yo ! Masta Masta ! Tes dans la cour des grands, on rougit pas, on transpire pas ! Yonea, le Barillet Plein, Seth Gueko Néochrome</t>
+          <t>Alibi Montana, Nubi, Gueko Opération commando, Néochrome, Barillet Plein Pour mon ghetto, les têtes brûlées, tous ceux qu'ont faim Yo yo ! Tu mverras jamais à Dammarie-les-Lys Si tu mvois sur lcoin dla BNP, fais démarrer l'hélice ! La vie n'est qu'un, vulgaire quiz, suce ou biz Confonds pas les mecs du Queens et les queers ! J'arrive, comme un poil pubien sur ta soupe Mon mic a plus l'air d'un Glock quà une sucette Chupa Chups J'ai dquoi faire le carnage adéquate Comme si t'avais laissé un kalash à des Croates Tu sais cqui sdit ? J'veux lgrisbi, jsuis dur à trise-mai J'donne grise mine aux kisdés, jdescends du grizzli Jdescends pas du singe comme Darwin Enlève tes ballerines, jsuis vnu faire le remake d'Halloween J'ai, le cul entre deux 16 Et si chez toi ya une coupure EDF, c'est quj'ai mis un keuf sur la chaise Piment dans le ptit déj, éjacule de la braise Rentre en vitesse, c'est Vendredi 13 ! Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre Quand tu croises mon regard, tu sens qujsuis en stress Manque de tendresse, angoisse, flots de larmes, gouttes de rage Vie amère, arrière-goût de drame On veut être grand jusqu'à porter la Terre à bout de bras Beaucoup des miens, sans travail, s'encanaillent en cavale ou cabane Quand tas mal, mais quand ça foire, hein ! Là, on reconnaît les nhommes-bo Que faire quand il est trop tard pour recoller les morceaux ? Négro, assume quand ça bascule ! Point de non-retour, quand ça fume, quand les rafales fusent Cest pas ceux qui parlent le plus qui palpent le plus Quand les vrais partent, les faux ne parlent plus Négro, cest ça le truc ! Perdre, cest pas le but merde ! Un tas de putes percent Frère, moi jveux juste faire un max de thunes La peur de mourir pauvre, me glace le sang Moi jveux rouler sur lor et mcoucher sur des liasses de 100 Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre Ya pas djolie tess Et seule moto divresse Pas dpolitesse quand la police teste Car pour quun flic tépargne faut ressembler à son fils Un ptit dép hargneux, sans blé, sans vice Tas un vagin au lieu dla bouche man Alors viens pas mparler mal ! Chez nous, les carottes ne rendent pas aimable Bientôt, tu msupplieras pour foutre ta fille enceinte Zinc, fais pas du bouche-à-bouche à un 6.35 Fais pas du hula hoop avec un barbelé Si tu croises des touristes en ville, barbe-les ! Jai, un pouchka dans lsophage Me touche pas, laisse pas tes mains sur le chauffage ! Yo thuuuuugs ! Papa, furent les premiers mots de mon fils et mon guuuuuns Mec ! Ya plus dtête-à-tête XXX, dès quça part en Ready XXX Toujours plus dingue, dangereux, flingues, grand jeu Ça cest dla rime bétonnée, vas-y mange ! Eh ! Alibi, Gueko et Nubi Sortez les outils on veut un Cherokee et du cher outil Toujours plus dingue, dangereux, flingues, grand jeu Ça cest du rap calibré, vas-y mange ! Eh ! Alibi, Gueko et Nubi Crament le beat pour sortir du ghetto et survivre Yo yo ! Masta Masta ! Tes dans la cour des grands, on rougit pas, on transpire pas ! Yonea, le Barillet Plein, Seth Gueko Néochrome</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5508,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Moi c'est très simple J'fais pas du rap à l'ancienne Rap à l'ancienne ça voudrait dire qu'il est mort Qu'il n'est plus pratiqué Alors comment j'appellerais ça? J'appelle ça du rap orthodoxe, du rap classique À part de Dieu on a peur de rien Un rappeur de plus c'est peut-être un braqueur de moins Faut pas mettre de bombes entre toutes les mains Confond pas kamikaze nan et tagueur de train J'ai les crocs, regarde ma sale gueule de chien Je me fais auditionner par un keuf qui émane des vapeurs de vin Je refuse jamais des faveurs de tchoin Je suis un casseur de groin, pas un gratteur de joint Ils pensent qu'à jouer les chauds, laisse les aboyer les autres Je vais leur broyer les os comme des crackers Belin Smith, Wesson, je n'ai besoin ni de l'autre ni de l'un Si tu me trahis je t'arrache le cur avec les mains Et puis je t'arrache les yeux sans anesthésie Et j'irai faire dodo comme après clée-gi intelligibles c'est tout les jours le jour J Fallait pas pousser le Gueko dans les orgies You might also like Rap classique, on fait du rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic J'ai fendu la mer rouge avec un stylo, vingt chicots et un micro Les rappeurs se sentent forts dès qu'ils baladent avec deux nigauds Comme Trump vingt mots, trois pipots Subliminal ces innocents ne sont que quatre négros Je viens de c'trou d'bonhomme avec l'esprit de cinq minots Godzilla dans le monde de la musique si mytho Tu jurerai voir ma vie en tas de coups quand je peins le son de Seth Gueko Connu pour shooter les couplets longs de huit mégots Résolution, je fais dans le neuf mé-chro Entourage plutôt que cent tordus, je préfère avoir dix réglos Je foutrais quoi de vingt bagnoles et de onze motos Je vais te dire on fait les bouffes comme Jésus avec douze potos Des millions jadis y'a qu'treize coco Quatre-cent cités sur la commune et quoi quatorze locos ? Deux mois passés, déjà quinze nécros Narcos saison quatre alors c'était pas mieux quand on déchirait seize métros ? Rap classique, on fait du rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic Y a pas de resta ici, barrez-vous Ouais je suis un casseur de molaires Joue pas le rasta, tu sais pas ler-rou Je crache le tonnerre, je clash leur Molière J'aime pas vos rappeurs de merde Autant que les chasseurs de sorcières n'aiment pas les roux Ils ont tagué barlou sur leurs classeurs scolaires On fait du rap classique pour les petits gars de chez nous Ouais y a pas de pop ici barrez-vous Hein, on prend l'argent que du micro scolaire On marche ni au pas ni dans les clous En famille on opère, on chute pour nos pères On crame le mic' de L.A. au Caire c'est clair Tes idoles je crois qu'on va les tirer par les joues Parcours imprévisible, on agit au flair On passe vite au plan B lorsque le A nous parait flou Rap, Rap, cla', cla', sique, sique, rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic</t>
+          <t>Moi c'est très simple J'fais pas du rap à l'ancienne Rap à l'ancienne ça voudrait dire qu'il est mort Qu'il n'est plus pratiqué Alors comment j'appellerais ça? J'appelle ça du rap orthodoxe, du rap classique À part de Dieu on a peur de rien Un rappeur de plus c'est peut-être un braqueur de moins Faut pas mettre de bombes entre toutes les mains Confond pas kamikaze nan et tagueur de train J'ai les crocs, regarde ma sale gueule de chien Je me fais auditionner par un keuf qui émane des vapeurs de vin Je refuse jamais des faveurs de tchoin Je suis un casseur de groin, pas un gratteur de joint Ils pensent qu'à jouer les chauds, laisse les aboyer les autres Je vais leur broyer les os comme des crackers Belin Smith, Wesson, je n'ai besoin ni de l'autre ni de l'un Si tu me trahis je t'arrache le cur avec les mains Et puis je t'arrache les yeux sans anesthésie Et j'irai faire dodo comme après clée-gi intelligibles c'est tout les jours le jour J Fallait pas pousser le Gueko dans les orgies Rap classique, on fait du rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic J'ai fendu la mer rouge avec un stylo, vingt chicots et un micro Les rappeurs se sentent forts dès qu'ils baladent avec deux nigauds Comme Trump vingt mots, trois pipots Subliminal ces innocents ne sont que quatre négros Je viens de c'trou d'bonhomme avec l'esprit de cinq minots Godzilla dans le monde de la musique si mytho Tu jurerai voir ma vie en tas de coups quand je peins le son de Seth Gueko Connu pour shooter les couplets longs de huit mégots Résolution, je fais dans le neuf mé-chro Entourage plutôt que cent tordus, je préfère avoir dix réglos Je foutrais quoi de vingt bagnoles et de onze motos Je vais te dire on fait les bouffes comme Jésus avec douze potos Des millions jadis y'a qu'treize coco Quatre-cent cités sur la commune et quoi quatorze locos ? Deux mois passés, déjà quinze nécros Narcos saison quatre alors c'était pas mieux quand on déchirait seize métros ? Rap classique, on fait du rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic Y a pas de resta ici, barrez-vous Ouais je suis un casseur de molaires Joue pas le rasta, tu sais pas ler-rou Je crache le tonnerre, je clash leur Molière J'aime pas vos rappeurs de merde Autant que les chasseurs de sorcières n'aiment pas les roux Ils ont tagué barlou sur leurs classeurs scolaires On fait du rap classique pour les petits gars de chez nous Ouais y a pas de pop ici barrez-vous Hein, on prend l'argent que du micro scolaire On marche ni au pas ni dans les clous En famille on opère, on chute pour nos pères On crame le mic' de L.A. au Caire c'est clair Tes idoles je crois qu'on va les tirer par les joues Parcours imprévisible, on agit au flair On passe vite au plan B lorsque le A nous parait flou Rap, Rap, cla', cla', sique, sique, rap classic Au micro on fait du rap classic On a grandi sur du rap classic C'est du, c'est du rap classic</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5525,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Yeah Seth Gueko Blah! 9-5 J' arrive la queue dure tarl les que-tur 0.8 de levure que 0.2 de pure Les plus petits regardent par la serrure Les potos tombent de moto se pètent le femur Nos pare-brises ont des fêlures Les lèvres des jaloux ont des gerçures On partouze leurs salopes à l'hotel Mercure On n'a jamais respiré d'air pur Nuages de verdure Y'a 1 millions entre une caille et un youv de grande envergures Que les tchoins lapent nos glands, on est arrogant Que la mairie lave nos bancs, on n'a pas votre temps On fete nos mariages avec des limos Des chapeaux grands, des canes en or et des stard-co blancs Rap de mafioso entre les loups et les hyènes J'ai passé trois quarts de ma vie au zoo Ca vient du 9-5-3-1-0 Voyons si ta du mal à redescendre Prends un traillon d'héro Seth Gueko Blah blah blah blah blah... You might also like x2 Rap de mafioso 9-5 Tu te mets le oigt-d dans l'oeil Si tu crois que l'argent se cueille Ma gueule les villes c'est Saint-Ouen-l'Aumône, Argenteuil Les darms-gen me veulent Qu'ils nagent dans le deuil Nous sommes les rois du cassement de gueules De l'éclatement paupières Belek! si à 6h du mat t'entends des claquements de portières J'ai la langue grossière En mode rideau de fer Comme au poker, Zdé zdé zdédédédex Plutôt que de rouler en Subaru Je préfère rouler en 2CV Avec un cadavre de flic sous la roue On veut voir leur sang tout partout Si t'es une cave-pou on va te fumer trou par trou No vies, blesse les keufs, baise les meufs Aux poucaves on pète les seufs Respecte les reufs Cousin, sinon c'est des dents qui sautent On fait pas du son de chochotte Ma gueule c'est du son qui te choque No vies, blesse les keufs, baise les meufs Aux poucaves on pète les seufs Respect les reufs Ou on joue au flipper avec ton dentier C'est pour nos tieks s'il te plait Pas les traines savates du monde entier Gros!</t>
+          <t>Yeah Seth Gueko Blah! 9-5 J' arrive la queue dure tarl les que-tur 0.8 de levure que 0.2 de pure Les plus petits regardent par la serrure Les potos tombent de moto se pètent le femur Nos pare-brises ont des fêlures Les lèvres des jaloux ont des gerçures On partouze leurs salopes à l'hotel Mercure On n'a jamais respiré d'air pur Nuages de verdure Y'a 1 millions entre une caille et un youv de grande envergures Que les tchoins lapent nos glands, on est arrogant Que la mairie lave nos bancs, on n'a pas votre temps On fete nos mariages avec des limos Des chapeaux grands, des canes en or et des stard-co blancs Rap de mafioso entre les loups et les hyènes J'ai passé trois quarts de ma vie au zoo Ca vient du 9-5-3-1-0 Voyons si ta du mal à redescendre Prends un traillon d'héro Seth Gueko Blah blah blah blah blah... x2 Rap de mafioso 9-5 Tu te mets le oigt-d dans l'oeil Si tu crois que l'argent se cueille Ma gueule les villes c'est Saint-Ouen-l'Aumône, Argenteuil Les darms-gen me veulent Qu'ils nagent dans le deuil Nous sommes les rois du cassement de gueules De l'éclatement paupières Belek! si à 6h du mat t'entends des claquements de portières J'ai la langue grossière En mode rideau de fer Comme au poker, Zdé zdé zdédédédex Plutôt que de rouler en Subaru Je préfère rouler en 2CV Avec un cadavre de flic sous la roue On veut voir leur sang tout partout Si t'es une cave-pou on va te fumer trou par trou No vies, blesse les keufs, baise les meufs Aux poucaves on pète les seufs Respecte les reufs Cousin, sinon c'est des dents qui sautent On fait pas du son de chochotte Ma gueule c'est du son qui te choque No vies, blesse les keufs, baise les meufs Aux poucaves on pète les seufs Respect les reufs Ou on joue au flipper avec ton dentier C'est pour nos tieks s'il te plait Pas les traines savates du monde entier Gros!</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5542,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Swift Guad, Al-K Paco, Seth Gueko Plein est d'carlo, La Croix d'Chavaux, eh ma couillasse Aie, un litron d'ffe-chnou, french Croix d'chavaux hein Guebé si si, Aketo-mic Swift Guad, Seth Gueko, Ok, Al-K Poto On honore nos morts u-èt à tout âge Par des graffs, des ceaux-mor et des tatouages poh poh Des textes de barges trop virulents M'invite pas en feat si t'es un cro-mi puant, rap tonitruant On est trop dans la caisse, elle penche au virage Quand mes panchos vivent la bicrave, ils pensent au village Ouais, mais ils pensent aussi à la plage et aux bandits-manchots Un vrai bandit arrive à t'vendre des moufles à un manchot On défraie la chronique comme Sarko et Carla On vous rend le drapeau écarlate, le braquo c'est par là L'comparse, c'est Swift Guad et Al-K Il pleut des te-tars comme Plata, on est pas v'nu faire Placa Tu t'y attendais pas hein, connard Pac Placa Ça sert à rien d'être bon bande de kehba, c'est toujours les pourris qui gagnent, c'est comme ça Qu'est-ce qui y ? Tu chies déjà dans ton froc ? You might also like Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Eh pélo je sais qu'c'est faux, ici on manque de mecs réglos Et pour la course au trône une chose est sûre y aura pas d'ex aequo On serre les crocs, la devise tu sais qu'c'est d'faire des loves Partout les mêmes Ghetto, ouais c'est la hass demande à Seth Gueko J'veux qu'on m'regarde et rattraper mon retard Mon pe-ra une oeuvre d'art pour que les fans me pompent le dard Sombre voix, mais crevard, méfie-toi si on t'recroise L'équipe de forains prépare un braquage à la montreuilloise 93100, Croix d'Chavaux, un pur produit du terroir Du kamas de narvalo qui sort direct du Tupperware Eh vas-y chine à Paco mais là y a vraiment plus d'espoir On attend les funérailles avec alcool et fumée noire Comme Al-K, sucez-moi, arrêtez les timiniks Tu veux qu'ça change mais tu fais quoi à part être celui qui critique Parce qu'on est mal barré on fait du son comme un taff illicite On va faire ça carré pour arrondir les fins d'mois difficiles Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Stressé, anxieux, blessé, j'marche seul Vexé, j'prends l'seum, le respect s'transforme en crainte La gentillesse en faiblesse, j'laisse une empreinte Éphémère dans ce business, baise les contraintes Les choses se passent, ouais j'me comporte en bon prince Chemises, godasses, j'suis trop au max dans mon binze Petite chaudasse, t'es trop au max dans ton linge Mon son s'propage, j'mets dans de flotte dans mon inv' l'ami Le rap est humble, tu veux mon humble avis ? Fais vite le plein, ça va pas durer toute la vie J'ai un album à faire, une vie à faire, des sous à faire À 27 berges, il est temps d'voir plus loin qu'le bout d'sa verge Le rap dégoûte sa mère, y est rempli d'mouches à merde De moove Casper, je remplis toutes les bouches à sperme Hein, certains mecs tuent, sinon le reste pue Laissez-moi loin d'tout ça, ça m'intéresse plus Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande</t>
+          <t>Swift Guad, Al-K Paco, Seth Gueko Plein est d'carlo, La Croix d'Chavaux, eh ma couillasse Aie, un litron d'ffe-chnou, french Croix d'chavaux hein Guebé si si, Aketo-mic Swift Guad, Seth Gueko, Ok, Al-K Poto On honore nos morts u-èt à tout âge Par des graffs, des ceaux-mor et des tatouages poh poh Des textes de barges trop virulents M'invite pas en feat si t'es un cro-mi puant, rap tonitruant On est trop dans la caisse, elle penche au virage Quand mes panchos vivent la bicrave, ils pensent au village Ouais, mais ils pensent aussi à la plage et aux bandits-manchots Un vrai bandit arrive à t'vendre des moufles à un manchot On défraie la chronique comme Sarko et Carla On vous rend le drapeau écarlate, le braquo c'est par là L'comparse, c'est Swift Guad et Al-K Il pleut des te-tars comme Plata, on est pas v'nu faire Placa Tu t'y attendais pas hein, connard Pac Placa Ça sert à rien d'être bon bande de kehba, c'est toujours les pourris qui gagnent, c'est comme ça Qu'est-ce qui y ? Tu chies déjà dans ton froc ? Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Eh pélo je sais qu'c'est faux, ici on manque de mecs réglos Et pour la course au trône une chose est sûre y aura pas d'ex aequo On serre les crocs, la devise tu sais qu'c'est d'faire des loves Partout les mêmes Ghetto, ouais c'est la hass demande à Seth Gueko J'veux qu'on m'regarde et rattraper mon retard Mon pe-ra une oeuvre d'art pour que les fans me pompent le dard Sombre voix, mais crevard, méfie-toi si on t'recroise L'équipe de forains prépare un braquage à la montreuilloise 93100, Croix d'Chavaux, un pur produit du terroir Du kamas de narvalo qui sort direct du Tupperware Eh vas-y chine à Paco mais là y a vraiment plus d'espoir On attend les funérailles avec alcool et fumée noire Comme Al-K, sucez-moi, arrêtez les timiniks Tu veux qu'ça change mais tu fais quoi à part être celui qui critique Parce qu'on est mal barré on fait du son comme un taff illicite On va faire ça carré pour arrondir les fins d'mois difficiles Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Stressé, anxieux, blessé, j'marche seul Vexé, j'prends l'seum, le respect s'transforme en crainte La gentillesse en faiblesse, j'laisse une empreinte Éphémère dans ce business, baise les contraintes Les choses se passent, ouais j'me comporte en bon prince Chemises, godasses, j'suis trop au max dans mon binze Petite chaudasse, t'es trop au max dans ton linge Mon son s'propage, j'mets dans de flotte dans mon inv' l'ami Le rap est humble, tu veux mon humble avis ? Fais vite le plein, ça va pas durer toute la vie J'ai un album à faire, une vie à faire, des sous à faire À 27 berges, il est temps d'voir plus loin qu'le bout d'sa verge Le rap dégoûte sa mère, y est rempli d'mouches à merde De moove Casper, je remplis toutes les bouches à sperme Hein, certains mecs tuent, sinon le reste pue Laissez-moi loin d'tout ça, ça m'intéresse plus Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande Le regard perçant, on écrit des textes vexants Boit du whisky tous les jours comme un texan On s'faufile sous les g'noux comme des serpents On profite, on fourre des poufs tant qu'notre sexe bande</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5559,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Jme réveille avec la force frère, avec la force dObiwan, on entend trop dmyhtos qui parlent, on a vu trop dlits dhopital . Toutes les semaines cest rempli dmic mac, vas y mets tes bâtons mets tout cque tas, moi jaurais pas la même vie quoit. Joga bonito que des bêtes dactions, ya des rappeurs ils ont pas lniveau cest mieux ils font des vidéos réactions. Jécris, jécris tellement jfais des rédactions jsuis serein dans mes paroles mes actions, vont rien nterrer à part leur vi dgarçon. Jaffine ma méthode, validé par les anciens dlépoque, si jveux demain jvais faire un son de Kpop, et jfais des tricks avec mes clopes sur TikTok. Vas y crache ton venin, jdécoupe ça comme ? , arrache ta gueule avec ton air hautain, tu veux graille ma gamelle coquin? Personne va menlever le pain dla bouche, tout cqui est album jai plein dcartouches, la beuh maintant jsais combien ça coûte, jsors de la cabine comme jsors dla douche, jamais tu mparles comme à ton ptit couz, tes costaud tes gonflé tes plein dpiquouze, derrière leur écran zont les couilles qui poussent. Dans la tchop avec 4 manouches tas la langue bien pendue mais pas dparcours, jbraque avec le sourire qui passe partout , khapta jfais des grands tours moi jai voulu être sympa zéro en rtour, et jporte pas dmarques, même si jfais des ventes pour, jai des contacts dans la grande cour . - Eh! Contact dans la grande tour - Cest ça - Mon gars 7 Jaws - Merci - Il ten reste encore? - Il men reste un ptit peu - Il ten reste encore! - Un ptit peu - Jten prie mon loup Jaurais dû macheter à graille, jcommence à crever la dalle jai des visions en balle, jme vois sur lit dhôpital, avant davoir marié ma femme jai des symptômes de baisé tous les jours jmarche sur la braise sans me blesser, ma haine sest déversée jattends rien du monde car lhumain la délaissé jlis pas la presse mais des versets. Jentends des échos cest le MontBlanc ça parle de sauter Lily en grosse team, toujours pas dnotifs ils ont pas dcrédit sur leur iPhone 10? Jai toujours pas trouvé de thème, jme suis pas trouvé moi même, jremets du rhum et du miel, poumons bresom comme le système, ça fait peur aux labels. 7h le matin jme lève comme un soixantenaire, 3ans qujai plus fermé les yeux on dirait qujai pas dpaupières. Les veines éclatées dans lblanc de mon oeil font des motifs de cartes routières, ils font les Pablo, ils font les Chapo leurs fusils sont chargés aux cartouches dair. Jpleure que dun oeil comme si jfais un AVC chacun sa merde en vrai chacun sa vaisselle bref, tu vois bien jsuis pas pressé, ya des rappeurs cest des ? Ça y est maintenant jcrois jsuis prêt à encaisser jespère dans 5 ans jme serais engraissé bref, en vrai jsuis meilleur quand jme mets à stresser frère, regarde dans nos yeux dis moi cquon pense, il a fait le beau jusquà quon lplante, jreçois un DM plein darrogance, la go nest pas bonne comme ma conscience, zéro crise dadolescence jai un quetru dans lventre qui mbouffe les nerfs, tes mains sont mointes et ton regard est fade gros jai cramé ton ce-vi au premier checkYou might also like</t>
+          <t>Jme réveille avec la force frère, avec la force dObiwan, on entend trop dmyhtos qui parlent, on a vu trop dlits dhopital . Toutes les semaines cest rempli dmic mac, vas y mets tes bâtons mets tout cque tas, moi jaurais pas la même vie quoit. Joga bonito que des bêtes dactions, ya des rappeurs ils ont pas lniveau cest mieux ils font des vidéos réactions. Jécris, jécris tellement jfais des rédactions jsuis serein dans mes paroles mes actions, vont rien nterrer à part leur vi dgarçon. Jaffine ma méthode, validé par les anciens dlépoque, si jveux demain jvais faire un son de Kpop, et jfais des tricks avec mes clopes sur TikTok. Vas y crache ton venin, jdécoupe ça comme ? , arrache ta gueule avec ton air hautain, tu veux graille ma gamelle coquin? Personne va menlever le pain dla bouche, tout cqui est album jai plein dcartouches, la beuh maintant jsais combien ça coûte, jsors de la cabine comme jsors dla douche, jamais tu mparles comme à ton ptit couz, tes costaud tes gonflé tes plein dpiquouze, derrière leur écran zont les couilles qui poussent. Dans la tchop avec 4 manouches tas la langue bien pendue mais pas dparcours, jbraque avec le sourire qui passe partout , khapta jfais des grands tours moi jai voulu être sympa zéro en rtour, et jporte pas dmarques, même si jfais des ventes pour, jai des contacts dans la grande cour . - Eh! Contact dans la grande tour - Cest ça - Mon gars 7 Jaws - Merci - Il ten reste encore? - Il men reste un ptit peu - Il ten reste encore! - Un ptit peu - Jten prie mon loup Jaurais dû macheter à graille, jcommence à crever la dalle jai des visions en balle, jme vois sur lit dhôpital, avant davoir marié ma femme jai des symptômes de baisé tous les jours jmarche sur la braise sans me blesser, ma haine sest déversée jattends rien du monde car lhumain la délaissé jlis pas la presse mais des versets. Jentends des échos cest le MontBlanc ça parle de sauter Lily en grosse team, toujours pas dnotifs ils ont pas dcrédit sur leur iPhone 10? Jai toujours pas trouvé de thème, jme suis pas trouvé moi même, jremets du rhum et du miel, poumons bresom comme le système, ça fait peur aux labels. 7h le matin jme lève comme un soixantenaire, 3ans qujai plus fermé les yeux on dirait qujai pas dpaupières. Les veines éclatées dans lblanc de mon oeil font des motifs de cartes routières, ils font les Pablo, ils font les Chapo leurs fusils sont chargés aux cartouches dair. Jpleure que dun oeil comme si jfais un AVC chacun sa merde en vrai chacun sa vaisselle bref, tu vois bien jsuis pas pressé, ya des rappeurs cest des ? Ça y est maintenant jcrois jsuis prêt à encaisser jespère dans 5 ans jme serais engraissé bref, en vrai jsuis meilleur quand jme mets à stresser frère, regarde dans nos yeux dis moi cquon pense, il a fait le beau jusquà quon lplante, jreçois un DM plein darrogance, la go nest pas bonne comme ma conscience, zéro crise dadolescence jai un quetru dans lventre qui mbouffe les nerfs, tes mains sont mointes et ton regard est fade gros jai cramé ton ce-vi au premier check</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5576,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Launch at one, three, two, one On ver-squi les dés-kis et leurs feux xénon Surtout qu'ces sales bâtards veulent des noms Quarante-huit heures d'garde-à-v', mon Dieu qu'c'est long Mais ces sales guenons sont en train d'réveiller mon putain d'démon Mais non, y a qu'pour l'Très Haut qu'j'm'incline, eh oh Saute pas à l'élastique avec un string léo' Dur d'garder ses mains clean, mais telle est la street Si tu croises la team Néo', mets la clim' frelon, oh J'dilapide l'euro, j'dynamite les mots Bim bim, c'est l'flow M.O.B.B, Maradona Diego Mon ghetto coup d'cur va au coupeur canne Néochrome c'est Counter-Strike, j'rappe et tes écouteurs crament, bleh Et j'viens pour casser du type, brasser du seille-', sauter la kasbah Placer des quilles, casser des ailes en guise de casse-dalle Ni queue ni tête, cousin, ni ppe-f' ni pèt' Moi, j'débarque comme le dirait, faut faire la guerre remplie comme Passe-moi la clique magique, ma bite arrive dans les bacs Man, faut pas qu't'agis, Paris c'est pire que G.Unit C'est pleins d'tard-bâ, si ça parle mal Emcee, faut qu'on s'déchire au mi', blah blah Poto, faut pas qu'tu décolles trop, alors atterris Confonds pas les soldats du bitume avec Tex Avery Une balle dans l'boul, si tu joues les fous C'est mon dix-neuf qui vient t'sauter avant qu'je sorte mon artillerie You might also like Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale J'entends les p'tits frères qui gueulent, ça parle de fer, de Desert Eagle Vont leurs affaires, quand tu digères l'p'tit déj' Génération, qui met des baffes au psychologue Et des tâches de mafés sur le drapeau tricolore Frère, les p'tits branleurs tirent en l'air ou à blanc Sin-cou attends, c'est fini l'temps où j'faisais ma route sur la roue avant J'ai pété l'sample, Nakk A.K.A l'cancre Sale pédé, tentes pas d'ter-j', j'fais péter l'champ' D'la race inférieure inférieure, nique sa race, ça fait rien Ils sont rincés, frère, ils vont tracer comme Raffarin Tirer à balles réelles balles réelles C'est normal comme un gars du Barça qui gueule À bat l'Real J'aime les Croates qui maîtrisent la gâchette Les plats gale-Sén', les zient' qui détruisent les gratte-ciels J'aime voir un gars stock s'fait tordre par un gars sec Et les têtes de poucaves qui finissent dans la glacière J'aime quand on prépare un plan en s'ballant Apparemment, c'est accablant d'quer-bra la banque aux balles à blanc J'aime quand j'vais en boîte avec deux-trois bourrés Tu peux être sûr qu'avant la fermeture, ils jettent les tabourets J'aime les killa buz', ceux qui dealent la nuit, qui tétanisent Et placent les galettes comme les dynamites J'aime les cicatrices, le shit gratuit, les p'tites gâteries Les p'tits grandissent vite et s'retrouvent en psychiatrie Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Comme Fis.L, j'fuck l'Élysée, sa chatte poilue Donc j'rase tout avec la haine, avec la dalle, j'allume J'salue les frères qui sont vrais, qui souffraient Néochrome mon frère, une vision d'la street derrières des 2 frêles Quand il s'agit qu'tu m'payes, j'te rends la monnaie d'ta pièce Il a fallu qu'tu ramènes ta fraises pour que j'garde la pêche Coup d'coude, te-tar, d'mande à mon cous' quetard On reste stone, ter-ma l'appuie que t'as, j'te destroy J'te ramène du gros son, poto, à la J'écoute M.O.B.B depuis les copies et les 501 stones Flow à la pilier, en mode Alain Billiet On oublie la pour faire des billets Nique les envieux, les jaloux Quand j'rappe, ces trous d'balle savourent J'veux être regretté comme Biggie Smalls et Tupac Shakur Une bière à et j'plaide coupable, j'avoue Y a toujours pas d'amour salope C'est pour les surs qui portent le foulard chaque jour Les frères qui font la prière, ceux qui touchent pas la schnouff Néochrome, mon groupe fracasse tout et évite les catastrophes Tu vas m'piper ma salope, là c'est signé Al K-Pote et tu l'sais Faut j'abrège donc hoche la tête et pose ta fesse Grosse tapette, n'ose pas test' le flow d'la té-c' cauchemardesque J'viens sodomiser ceux qui nous ont colonisé On est armé et on pénètre chez vous sans y être autoriser Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Al K-Pote, Nubi, Nakk, Seth Gueko, Fis.L, Adès, N'Dal Néochrome, Yonea, paw paw</t>
+          <t>Launch at one, three, two, one On ver-squi les dés-kis et leurs feux xénon Surtout qu'ces sales bâtards veulent des noms Quarante-huit heures d'garde-à-v', mon Dieu qu'c'est long Mais ces sales guenons sont en train d'réveiller mon putain d'démon Mais non, y a qu'pour l'Très Haut qu'j'm'incline, eh oh Saute pas à l'élastique avec un string léo' Dur d'garder ses mains clean, mais telle est la street Si tu croises la team Néo', mets la clim' frelon, oh J'dilapide l'euro, j'dynamite les mots Bim bim, c'est l'flow M.O.B.B, Maradona Diego Mon ghetto coup d'cur va au coupeur canne Néochrome c'est Counter-Strike, j'rappe et tes écouteurs crament, bleh Et j'viens pour casser du type, brasser du seille-', sauter la kasbah Placer des quilles, casser des ailes en guise de casse-dalle Ni queue ni tête, cousin, ni ppe-f' ni pèt' Moi, j'débarque comme le dirait, faut faire la guerre remplie comme Passe-moi la clique magique, ma bite arrive dans les bacs Man, faut pas qu't'agis, Paris c'est pire que G.Unit C'est pleins d'tard-bâ, si ça parle mal Emcee, faut qu'on s'déchire au mi', blah blah Poto, faut pas qu'tu décolles trop, alors atterris Confonds pas les soldats du bitume avec Tex Avery Une balle dans l'boul, si tu joues les fous C'est mon dix-neuf qui vient t'sauter avant qu'je sorte mon artillerie Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale J'entends les p'tits frères qui gueulent, ça parle de fer, de Desert Eagle Vont leurs affaires, quand tu digères l'p'tit déj' Génération, qui met des baffes au psychologue Et des tâches de mafés sur le drapeau tricolore Frère, les p'tits branleurs tirent en l'air ou à blanc Sin-cou attends, c'est fini l'temps où j'faisais ma route sur la roue avant J'ai pété l'sample, Nakk A.K.A l'cancre Sale pédé, tentes pas d'ter-j', j'fais péter l'champ' D'la race inférieure inférieure, nique sa race, ça fait rien Ils sont rincés, frère, ils vont tracer comme Raffarin Tirer à balles réelles balles réelles C'est normal comme un gars du Barça qui gueule À bat l'Real J'aime les Croates qui maîtrisent la gâchette Les plats gale-Sén', les zient' qui détruisent les gratte-ciels J'aime voir un gars stock s'fait tordre par un gars sec Et les têtes de poucaves qui finissent dans la glacière J'aime quand on prépare un plan en s'ballant Apparemment, c'est accablant d'quer-bra la banque aux balles à blanc J'aime quand j'vais en boîte avec deux-trois bourrés Tu peux être sûr qu'avant la fermeture, ils jettent les tabourets J'aime les killa buz', ceux qui dealent la nuit, qui tétanisent Et placent les galettes comme les dynamites J'aime les cicatrices, le shit gratuit, les p'tites gâteries Les p'tits grandissent vite et s'retrouvent en psychiatrie Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Comme Fis.L, j'fuck l'Élysée, sa chatte poilue Donc j'rase tout avec la haine, avec la dalle, j'allume J'salue les frères qui sont vrais, qui souffraient Néochrome mon frère, une vision d'la street derrières des 2 frêles Quand il s'agit qu'tu m'payes, j'te rends la monnaie d'ta pièce Il a fallu qu'tu ramènes ta fraises pour que j'garde la pêche Coup d'coude, te-tar, d'mande à mon cous' quetard On reste stone, ter-ma l'appuie que t'as, j'te destroy J'te ramène du gros son, poto, à la J'écoute M.O.B.B depuis les copies et les 501 stones Flow à la pilier, en mode Alain Billiet On oublie la pour faire des billets Nique les envieux, les jaloux Quand j'rappe, ces trous d'balle savourent J'veux être regretté comme Biggie Smalls et Tupac Shakur Une bière à et j'plaide coupable, j'avoue Y a toujours pas d'amour salope C'est pour les surs qui portent le foulard chaque jour Les frères qui font la prière, ceux qui touchent pas la schnouff Néochrome, mon groupe fracasse tout et évite les catastrophes Tu vas m'piper ma salope, là c'est signé Al K-Pote et tu l'sais Faut j'abrège donc hoche la tête et pose ta fesse Grosse tapette, n'ose pas test' le flow d'la té-c' cauchemardesque J'viens sodomiser ceux qui nous ont colonisé On est armé et on pénètre chez vous sans y être autoriser Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi Ça c'est pour les saï-saïs, sa-saï, sa-saï-saïs Nous, on a le style, et dans le string, on veut pas d'ça Méchant, méchant, blessant, blessant, représente les lascars Dur à cuire, là t'as plus qu'à fuir, alors casse-toi C'est pour ceux qui aiment le rap sale, sa-sale-sa-sale Al K-Pote, Nubi, Nakk, Seth Gueko, Fis.L, Adès, N'Dal Néochrome, Yonea, paw paw</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5593,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Sample x 3 No XXX Ce que je suis moi, un terrien Un grain dpoussière dans cbas-monde car ici tes rien Un dplus ou un dmoins Pt-être plus à demain Juste un témoin Mon rap manque de finesse Ya pas assez kisdés qui sdéfenestrent Jsuis juste un humain quévite de sfaire ress Destin funeste, moi cest Nico Futur festin pour asticots Envie dtout plastiquer Envie dlapider les chbebs, et dexciser les lesbiennes Veuillez excuser ces idées malsaines Car, car Satan mattire et mharcèle On veut les sapes qui valent chères, on joue les mecs tout fiers Mais mektoub veut quun tas dchair devienne un tas de poussière Un atroce tas d'os Jtautorise le meurtre si on approche ta gosse Jprémédite, de dynamiter l'Loft Jai pas envie drouler en Golf quand jpense à Adolf Ho-mo-pho-bie Yo ! Cas dfolie Mon rap cest trop dmots forts et motha fuck Imagine les choses zarbies Qujpeux faire à une pauvre Barbie Klaus Barbie Jpréfère quon meuthanasie que dêtre un nazi Jpréfère quon mmute à lasile que téteignes ma zik You might also like Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact ! Imagine, les IVG scomptent en trillions Prions pour Cendrillon du ghetto tueuse dembryons Cest ceux qui sont préservés qui vont triompher Mais comment renoncer dpioncer avec Beyoncé Jaime ma fiancé mais, si cette go immature me trompe Jlui ligature les trompes Honte, à cette pute qui part au pieu Jcrois pas en Dieu alors quelle a des parents pieux Y a rien dtalentueux, dans lchouara dportables Et dcritiquer ceux qui ont du porc à table Heureux, tant qujai dleau potable La vie est brutale mais faut bien tuer les souris, pour les crotales On a tous été condamnés à la peine capitale Et ce, depuis lhôpital ! Y a de quoi justifier le petit Marc quest devenu psychopathe Moi in extremis jétais extrémiste Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact ! Même si jtue un flic Même si jfais 100 braquages Jmérite pas la chambre à gaz Prix Nobel de lesprit rebelle A part Paris, ya pas dparadis pour les bandits Médite quand tu vois lzénith, les 7 couleurs dlarc-en-ciel Avant quDark Angel te fasse connaître les douleurs dun cancer Ou dune balle devant un Mc Donald Les mecs de-spee nont pas peur quand tu braques ton arme Rappeur en Burberrys, vénère à ive, les nerfs à vif On va tous partir et jcrois pas qujgénéralise Jbalise car on na jamais ltemps ddire bislama Parce que dans cbled y a des dep qui se ier-mar Jassure en ces-vi Tu mtues, Fatah te tue, cest cquon appelle lassurance-vie Et oui aujourdhui tes là et redwa walou On va tous rir-mou elle, lui, toi, moi, nous Qui suis-je ? Un terrien ! Un grain dpoussière dans cbas monde car ici tes rien ! Quun tas dchaire humaine La vie est amère comme le cérumen Qui suis-je ? Une bombe humaine Imagine-moi un pompe en lair à la Banque Populaire ! Imagine-moi plein d'TNT dans une BNP ! Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact !</t>
+          <t>Sample x 3 No XXX Ce que je suis moi, un terrien Un grain dpoussière dans cbas-monde car ici tes rien Un dplus ou un dmoins Pt-être plus à demain Juste un témoin Mon rap manque de finesse Ya pas assez kisdés qui sdéfenestrent Jsuis juste un humain quévite de sfaire ress Destin funeste, moi cest Nico Futur festin pour asticots Envie dtout plastiquer Envie dlapider les chbebs, et dexciser les lesbiennes Veuillez excuser ces idées malsaines Car, car Satan mattire et mharcèle On veut les sapes qui valent chères, on joue les mecs tout fiers Mais mektoub veut quun tas dchair devienne un tas de poussière Un atroce tas d'os Jtautorise le meurtre si on approche ta gosse Jprémédite, de dynamiter l'Loft Jai pas envie drouler en Golf quand jpense à Adolf Ho-mo-pho-bie Yo ! Cas dfolie Mon rap cest trop dmots forts et motha fuck Imagine les choses zarbies Qujpeux faire à une pauvre Barbie Klaus Barbie Jpréfère quon meuthanasie que dêtre un nazi Jpréfère quon mmute à lasile que téteignes ma zik Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact ! Imagine, les IVG scomptent en trillions Prions pour Cendrillon du ghetto tueuse dembryons Cest ceux qui sont préservés qui vont triompher Mais comment renoncer dpioncer avec Beyoncé Jaime ma fiancé mais, si cette go immature me trompe Jlui ligature les trompes Honte, à cette pute qui part au pieu Jcrois pas en Dieu alors quelle a des parents pieux Y a rien dtalentueux, dans lchouara dportables Et dcritiquer ceux qui ont du porc à table Heureux, tant qujai dleau potable La vie est brutale mais faut bien tuer les souris, pour les crotales On a tous été condamnés à la peine capitale Et ce, depuis lhôpital ! Y a de quoi justifier le petit Marc quest devenu psychopathe Moi in extremis jétais extrémiste Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact ! Même si jtue un flic Même si jfais 100 braquages Jmérite pas la chambre à gaz Prix Nobel de lesprit rebelle A part Paris, ya pas dparadis pour les bandits Médite quand tu vois lzénith, les 7 couleurs dlarc-en-ciel Avant quDark Angel te fasse connaître les douleurs dun cancer Ou dune balle devant un Mc Donald Les mecs de-spee nont pas peur quand tu braques ton arme Rappeur en Burberrys, vénère à ive, les nerfs à vif On va tous partir et jcrois pas qujgénéralise Jbalise car on na jamais ltemps ddire bislama Parce que dans cbled y a des dep qui se ier-mar Jassure en ces-vi Tu mtues, Fatah te tue, cest cquon appelle lassurance-vie Et oui aujourdhui tes là et redwa walou On va tous rir-mou elle, lui, toi, moi, nous Qui suis-je ? Un terrien ! Un grain dpoussière dans cbas monde car ici tes rien ! Quun tas dchaire humaine La vie est amère comme le cérumen Qui suis-je ? Une bombe humaine Imagine-moi un pompe en lair à la Banque Populaire ! Imagine-moi plein d'TNT dans une BNP ! Jsuis prêt à mourir pour le bif Jsuis prêt à mourir pour ma mif Jsuis prêt à mourir pour mon fils Prêt à mourir pour ma miss Prêt à mourir pour être riche, hey tas compris Jsuis prêt à pour mes srabs Prêt à pour lcash Prêt à pour le rap Prêt à pour ma femme Ouais cest exact !</t>
         </is>
       </c>
     </row>
@@ -5614,7 +5610,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Gyeah Gourmets, Seth Gueko Yeah J'porte mon blase comme une crinière Le roi d'la jungle Lion LY, Paris Ouais, ouais Gourmets, Grain d'Caf, et gourmette Ok Yeah J'suis animal de luxe face à la finesse des femmes J'atteins mon but, puis me casse à la vitesse des balles Mon crâne brûle, dans ma chute capillaire j'm'égare Combats mes démons la nuit comme Sarah Michelle Gellar Qui veut la paix, prépare la guerre, y a plus de blanches colombes On sort de l'ombre, trésor englouti par une gorge profonde J'veux pas d'une vie faite de rage, de corvées J'ai caché mes rêves et mes plans dans la chatte de Morphée J'suis pas là d'puis la nuit des temps Mais quand j'm'exprime, on m'comprend vite J'm'adresse aux petits et grands Pousser vite ça forge le caractère Justement, me dit pas c'que j'ai à faire Faux frères et traites, j'fais pas d'différence J'ai pas l'temps d'attendre, d'agir en dilettante Y a un trou, vous êtes tous au fond Contre moi tu perdras si tu joues au con You might also like Encore une nuit d'calvaire, en manque d'amour et d'euros J'inhale les vapeurs de l'Enfer à la recherche du repos J'ai même croisé Lucifer, seul contre tous, en gilet pare-balle Cupidon galère, les ailes empétrées dans du gazole Mec, donc pose-toi les bonnes questions Les chiens te baiseront, puis retourneront leur veston Plein au début, peu à l'arrivée C'est l'instinct animal qui nous fait saliver La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis Seth Gueko ! J'suis trop bon pour être condé ou condamné aux radios locales Trop lucide pour pas devenir une star qui a mal au crâne Après un passage de one dans la cloison nasale À l'occas', on s'nique la gueule aux claques quand belle est la cage thoracique Ah, la marie-jeanne, une éloge qu'on égorge, ça cache des racines Tu l'aspires, elle t'inspire Les filles faciles et raffinées s'font rares comme un spliff sans paraffine J'm'autobiographe, ma vie c'est pas un film On s'habille en Ralph, crocodile, on a tous une paire d'Air Max aux chevilles Normal qu'ils croient qu'on deale et qu'on vit d'combines J'ai l'vice qui coule dans l'hémoglobine Les mots crédibles comme le prophète Mohamed Ali à toi Salam, moi-même j'slalome entre l'panier à salade Et c'scarla qui sort sa lame durant l'daram J'sais pas, moi, j'suis stylodactyle Pour ces story qui s'terminent souvent en salle de réanimation C'est l'zoo, et dès qu'c'est chaud on s'réunis façon animal féroce Félin tel un léopard, j'suis l'Émile Zola du béton, l'De Vinci Léonard Tu cherches Seth Gueko ? Il est au nord En chair et en os, et en Barbery Paf ! La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis</t>
+          <t>Gyeah Gourmets, Seth Gueko Yeah J'porte mon blase comme une crinière Le roi d'la jungle Lion LY, Paris Ouais, ouais Gourmets, Grain d'Caf, et gourmette Ok Yeah J'suis animal de luxe face à la finesse des femmes J'atteins mon but, puis me casse à la vitesse des balles Mon crâne brûle, dans ma chute capillaire j'm'égare Combats mes démons la nuit comme Sarah Michelle Gellar Qui veut la paix, prépare la guerre, y a plus de blanches colombes On sort de l'ombre, trésor englouti par une gorge profonde J'veux pas d'une vie faite de rage, de corvées J'ai caché mes rêves et mes plans dans la chatte de Morphée J'suis pas là d'puis la nuit des temps Mais quand j'm'exprime, on m'comprend vite J'm'adresse aux petits et grands Pousser vite ça forge le caractère Justement, me dit pas c'que j'ai à faire Faux frères et traites, j'fais pas d'différence J'ai pas l'temps d'attendre, d'agir en dilettante Y a un trou, vous êtes tous au fond Contre moi tu perdras si tu joues au con Encore une nuit d'calvaire, en manque d'amour et d'euros J'inhale les vapeurs de l'Enfer à la recherche du repos J'ai même croisé Lucifer, seul contre tous, en gilet pare-balle Cupidon galère, les ailes empétrées dans du gazole Mec, donc pose-toi les bonnes questions Les chiens te baiseront, puis retourneront leur veston Plein au début, peu à l'arrivée C'est l'instinct animal qui nous fait saliver La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis Seth Gueko ! J'suis trop bon pour être condé ou condamné aux radios locales Trop lucide pour pas devenir une star qui a mal au crâne Après un passage de one dans la cloison nasale À l'occas', on s'nique la gueule aux claques quand belle est la cage thoracique Ah, la marie-jeanne, une éloge qu'on égorge, ça cache des racines Tu l'aspires, elle t'inspire Les filles faciles et raffinées s'font rares comme un spliff sans paraffine J'm'autobiographe, ma vie c'est pas un film On s'habille en Ralph, crocodile, on a tous une paire d'Air Max aux chevilles Normal qu'ils croient qu'on deale et qu'on vit d'combines J'ai l'vice qui coule dans l'hémoglobine Les mots crédibles comme le prophète Mohamed Ali à toi Salam, moi-même j'slalome entre l'panier à salade Et c'scarla qui sort sa lame durant l'daram J'sais pas, moi, j'suis stylodactyle Pour ces story qui s'terminent souvent en salle de réanimation C'est l'zoo, et dès qu'c'est chaud on s'réunis façon animal féroce Félin tel un léopard, j'suis l'Émile Zola du béton, l'De Vinci Léonard Tu cherches Seth Gueko ? Il est au nord En chair et en os, et en Barbery Paf ! La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis La réunion pour le festin, ne pointe pas ton museau Les inconscients ont ouvert les cages, et l'échappé dans l'zoo Une tarte et une patate en guise de check, on reste quand même polis Tu veux revoir ton pote ? T'inquiète, on t'le renverra par colis</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5627,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Ça roulotte, ça roulotte c'est c'que disent les Roumaines Mendier pour survivre c'est la misère humaine My man, quand un Rom veut une sucette au miel La France lui tend un p'tit doigt plein d'cérumen Drôle de phénomène, castés au plus bas d'l'échelle Sache que tous les chemins mènent aux Romanichels Tu veux aller chez les Roms ? Viens, j't'emmène Ils ont pas tous les dents en or, mais elles sont jaunes quand même Infos récitée par des comédiens Ça parle, mais, la plupart du temps, personne n'y connaît rien Les causes, les effets, on ne voit pas trop les liens Mais on a bien vu les limites des bourgeois-bohémiens Sniff Y'a comme une odeur de poudre Comme si la crise était la faute de voleurs de poules Les malheurs de certains font le bonheur de tous Et l'opinion désigne les fauteurs de trouble x2 Les journalistes aboient quand passe la caravane Roms, Gitans, Tziganes faut stopper l'amalgame Sur la liste, juste après l'islam Mieux vaut être un pigeon qu'un Rom à Paname You might also like La France et l'Europe Crient sur le Rom comme des chanteuses de rock Ni carte bleue, ni carte verte, ni carte grise Zig-zag entre les agents comme la raclette sur l'pare-brise Et tout l'monde s'active, propos diffamatoires ou discriminatoires Même pour un Rom aveugle, c'est pas difficile à voir Mets la marmitte sur le feu dans les ambiances nocturnes Avant qu'les schmits ne détruisent les campement d'fortune Propos putassiers sur leur réputation Ça doit pas être drôle d'exhiber ses amputations Ils sont si moignons, montrons leur un peu d'pitié Chez eux, même les manchots font la manche avec leurs pieds Mais ça, tout l'monde s'en tamponne Si un Roumain sort un album, ça fait un CD-Rom Personne les aime, tout l'monde les balade C'est comme si l'Europe jouait au tennis avec une grenade x2 Les journalistes aboient quand passe la caravane Roms, Gitans, Tziganes faut stopper l'amalgame Sur la liste, juste après l'islam Mieux vaut être un pigeon qu'un Rom à Paname</t>
+          <t>Ça roulotte, ça roulotte c'est c'que disent les Roumaines Mendier pour survivre c'est la misère humaine My man, quand un Rom veut une sucette au miel La France lui tend un p'tit doigt plein d'cérumen Drôle de phénomène, castés au plus bas d'l'échelle Sache que tous les chemins mènent aux Romanichels Tu veux aller chez les Roms ? Viens, j't'emmène Ils ont pas tous les dents en or, mais elles sont jaunes quand même Infos récitée par des comédiens Ça parle, mais, la plupart du temps, personne n'y connaît rien Les causes, les effets, on ne voit pas trop les liens Mais on a bien vu les limites des bourgeois-bohémiens Sniff Y'a comme une odeur de poudre Comme si la crise était la faute de voleurs de poules Les malheurs de certains font le bonheur de tous Et l'opinion désigne les fauteurs de trouble x2 Les journalistes aboient quand passe la caravane Roms, Gitans, Tziganes faut stopper l'amalgame Sur la liste, juste après l'islam Mieux vaut être un pigeon qu'un Rom à Paname La France et l'Europe Crient sur le Rom comme des chanteuses de rock Ni carte bleue, ni carte verte, ni carte grise Zig-zag entre les agents comme la raclette sur l'pare-brise Et tout l'monde s'active, propos diffamatoires ou discriminatoires Même pour un Rom aveugle, c'est pas difficile à voir Mets la marmitte sur le feu dans les ambiances nocturnes Avant qu'les schmits ne détruisent les campement d'fortune Propos putassiers sur leur réputation Ça doit pas être drôle d'exhiber ses amputations Ils sont si moignons, montrons leur un peu d'pitié Chez eux, même les manchots font la manche avec leurs pieds Mais ça, tout l'monde s'en tamponne Si un Roumain sort un album, ça fait un CD-Rom Personne les aime, tout l'monde les balade C'est comme si l'Europe jouait au tennis avec une grenade x2 Les journalistes aboient quand passe la caravane Roms, Gitans, Tziganes faut stopper l'amalgame Sur la liste, juste après l'islam Mieux vaut être un pigeon qu'un Rom à Paname</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5644,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Farfadet Beat, Farfadet Beat J'mélange boom-bap et trap sale, attrape ça J'mélange boom-bap et trap sale, attrape ça Hey ya yo Uh, j'mélange boom-bap et trap sale, attrape ça De mes rappeurs préférés, je suis le patchwork Celui qui m'trahit, j'le vate-sa, cela va d'soi Sers-moi un Lavazza, on dirait que j'suis mort quatre fois Autant d'souvenirs de cette vie-là que si j'avais mille ans Ou qu'ce rital vilain en Fila dans sa villa à Milan J'renverse la table basse pour tirer par-dessus Un pistolet saillant pointé sur mes assaillants Connais-tu l'histoire d'la sale pétasse qui respirait par le cul ? Bilan elle est morte en s'asseyant Le temps est mon seul adversaire, les MCs jouent d'la flûte traversière, la rue est un désert que j'ai su traverser L'argent, lui, est un dessert que j'ai su partager, j'respire l'intelligence, mais vous êtes tous en apnée Sachez que j'me torche le cul avec vos diplômes, pour qu'le vent tourne pour moi, j'vous porte l'il du cyclone It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Uh-uh, ouais Time and time again You might also like Uh, quelques minutes de silence, entre Paris et Milan On repense à nos tristes enfances, on s'endort en souriant Souvenirs inoubliables, ce soir je fais le bilan Je recomptais les liasses et je resservais les clients Le sang-froid comme le climat, dans mon pays c'est l'hiver Désolé pour demain, mais surtout désolé pour hier T'as fini six pieds sous terre, t'as fait des moves de biatch C'est si facile de tout perdre, ici y a pas de miracle Vitres teintées, quelques barlous dans un 4x4 noir J'ai juste envie d'leur faire du mal, s'il-te-plaît, attache-moi On entre, on sort de prison, c'est la même chose, à chaque fois Sur le chemin du quartier, je marche vers l'abattoir Je suis le Québec et le cauchemar nord-américain Je suis un monstre caché dans le corps d'un musicien Faut la moula, l'argent n'est jamais tombé du ciel Malheureusement, ton fils n'est pas devenu astrophysicien Non! It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Time and time again Uh, j'aurai jamais la force d'une daronne, je n'suis qu'un homme J'écris des rimes pour m'échapper, j'espère être libéré sur parole Tatouage aux pecs, une paire de couilles, une paire de Nike Toujours le même, pilon dans l'bec, j'remplis des salles sans faire de like Parfois, je boude, aucune promo, j'fais pas d'effort J'ai l'impression d'offrir du caviar à des porcs Être ambitieux ne veut pas dire voler une place Petit bandit, baiser l'école ne veut pas dire sauter une classe Dernier rappeur, c'est difficile, j'suis téméraire Mais si je pars, j'aurais marqué ma discipline, j'suis Federer Au-dessus des autres, en concurrence avec des nains J'ai que des frères sourds et muets, chez nous, ça parle avec les mains Beaucoup repartent avec le corps dans une attelle La rue mon pote, c'est du hardcore, pas du Adele Le regard froid sur la pochette, la rime hostile Tous vos rappeurs sont des chaussettes, m'arrivent aux ch'villes This life, hard as it gets, so I wanna Get high, then I regret, but I Won't do anything for free Get my money right This life is hard as it gets, so I wanna Get high, then I regret, but I Won't do anything for free It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Time and time again</t>
+          <t>Farfadet Beat, Farfadet Beat J'mélange boom-bap et trap sale, attrape ça J'mélange boom-bap et trap sale, attrape ça Hey ya yo Uh, j'mélange boom-bap et trap sale, attrape ça De mes rappeurs préférés, je suis le patchwork Celui qui m'trahit, j'le vate-sa, cela va d'soi Sers-moi un Lavazza, on dirait que j'suis mort quatre fois Autant d'souvenirs de cette vie-là que si j'avais mille ans Ou qu'ce rital vilain en Fila dans sa villa à Milan J'renverse la table basse pour tirer par-dessus Un pistolet saillant pointé sur mes assaillants Connais-tu l'histoire d'la sale pétasse qui respirait par le cul ? Bilan elle est morte en s'asseyant Le temps est mon seul adversaire, les MCs jouent d'la flûte traversière, la rue est un désert que j'ai su traverser L'argent, lui, est un dessert que j'ai su partager, j'respire l'intelligence, mais vous êtes tous en apnée Sachez que j'me torche le cul avec vos diplômes, pour qu'le vent tourne pour moi, j'vous porte l'il du cyclone It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Uh-uh, ouais Time and time again Uh, quelques minutes de silence, entre Paris et Milan On repense à nos tristes enfances, on s'endort en souriant Souvenirs inoubliables, ce soir je fais le bilan Je recomptais les liasses et je resservais les clients Le sang-froid comme le climat, dans mon pays c'est l'hiver Désolé pour demain, mais surtout désolé pour hier T'as fini six pieds sous terre, t'as fait des moves de biatch C'est si facile de tout perdre, ici y a pas de miracle Vitres teintées, quelques barlous dans un 4x4 noir J'ai juste envie d'leur faire du mal, s'il-te-plaît, attache-moi On entre, on sort de prison, c'est la même chose, à chaque fois Sur le chemin du quartier, je marche vers l'abattoir Je suis le Québec et le cauchemar nord-américain Je suis un monstre caché dans le corps d'un musicien Faut la moula, l'argent n'est jamais tombé du ciel Malheureusement, ton fils n'est pas devenu astrophysicien Non! It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Time and time again Uh, j'aurai jamais la force d'une daronne, je n'suis qu'un homme J'écris des rimes pour m'échapper, j'espère être libéré sur parole Tatouage aux pecs, une paire de couilles, une paire de Nike Toujours le même, pilon dans l'bec, j'remplis des salles sans faire de like Parfois, je boude, aucune promo, j'fais pas d'effort J'ai l'impression d'offrir du caviar à des porcs Être ambitieux ne veut pas dire voler une place Petit bandit, baiser l'école ne veut pas dire sauter une classe Dernier rappeur, c'est difficile, j'suis téméraire Mais si je pars, j'aurais marqué ma discipline, j'suis Federer Au-dessus des autres, en concurrence avec des nains J'ai que des frères sourds et muets, chez nous, ça parle avec les mains Beaucoup repartent avec le corps dans une attelle La rue mon pote, c'est du hardcore, pas du Adele Le regard froid sur la pochette, la rime hostile Tous vos rappeurs sont des chaussettes, m'arrivent aux ch'villes This life, hard as it gets, so I wanna Get high, then I regret, but I Won't do anything for free Get my money right This life is hard as it gets, so I wanna Get high, then I regret, but I Won't do anything for free It's enough I will not stand for, life gets tough Time and time again Time and time again Work it on This life I stand for kill his own Time and time again Time and time again</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Ma vie j'voulais qu'elle soit halal, j'l'ai égorgée OK d'accord j'ai vu qu'ils m'ont mis hors-jeu Et dehors j'attends c'putain d'jour J Dans mon cur j'ai trop d'cicatrices qui m'forgent Un jour la mort certes, mais y a trop d'morceaux Y a plus rien dans l'assiette, faut que j'me resserve J'veux m'en sortir, rien à foutre d'avoir du style Et j'prends du recul pour l'disque et l'industrie Faut qu'j'sois partout, c'est sombre et qu'j'éclaire tout Pour que j'vive bien, vaut pas qu'j'déclare tout Y a plus l'choix, faut qu'on s'lève tôt et s'couche tard De l'Ouest à l'Est, du Québec jusqu'à Oujda Faites tourner l'son, faut qu'on s'rassemble J'reste moi-même, à personne j'veux ressembler Ouvrez les portes, c'est à notre tour, on a trop vale-ca Solo l'Mythe, Seth Gueko Yazou Al-K Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue, c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir You might also like Sourire d'escroc avec de l'or sur les quenottes Cagoule, ter-scoo comme sur l'terrain d'Sevran Beaudottes On fait l'tour d'l'Europe, sous la calandre d'la loc' Y a deux locks sur la tête de la nouvelle porte des grottes Les douaniers j'les fuck, belote rebelote J'veux des diamants sur mes menottes On t'revend même quand ça grelotte pendant les tempêtes de vent Le Glock c'est comme le ciné, mieux vaut être derrière qu'être devant Mon pote, ça braque des semi-remorques pour des palettes de Play Ça arrache en T-max des mallettes de zeille sous l'nez d'ta sale tête de vieille Bienvenue dans la planète de Sheitan, qu'est-ce tu m'parles de star Même Beckham peut pas amortir d'la poitrine une balle de chtar Quand les keufs me contrôlent, j'ai l'stress des exams J'suis venu tout manger, j'te laisse les graines de sésame Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue, c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir C'est Évry Courcouronnes, Saint-Ouen-l'Aumône et les Beaudottes On attrape le diable par ses deux cornes Bande de putains, j'vais en épater plus d'un Les clones, arrêtez d'm'imiter comme Didier Gustin C'est pour mes frères de la rue qu'ont pas d'issue Attitude de gangster, j'nettoie chaque particule On devient fou, demande à Yazou on gnax tous La drogue douce, la dure on la laisse aux fiasses-pou Fils qu'en dis-tu, c'est sans issue On vient tout ravager comme des grands virus J'ai envie d'plus d'armes, de fric et de gentilles putes Kiffe l'amplitude, minus l'enfer sera ta dernière issue Tu vas saigner des sinus, on dépouille tes beaux tissus On s'fissure le crâne au JB Vite fait te griffer le cul, la dernière issue j'vais la niquer Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir Solo l'Mythe, L Défonce ADN Nocif, Yazou Al K, Unité, Unité d'Feu Et Seth Gueko Néochrome On est tous nés au crom' Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran</t>
+          <t>Ma vie j'voulais qu'elle soit halal, j'l'ai égorgée OK d'accord j'ai vu qu'ils m'ont mis hors-jeu Et dehors j'attends c'putain d'jour J Dans mon cur j'ai trop d'cicatrices qui m'forgent Un jour la mort certes, mais y a trop d'morceaux Y a plus rien dans l'assiette, faut que j'me resserve J'veux m'en sortir, rien à foutre d'avoir du style Et j'prends du recul pour l'disque et l'industrie Faut qu'j'sois partout, c'est sombre et qu'j'éclaire tout Pour que j'vive bien, vaut pas qu'j'déclare tout Y a plus l'choix, faut qu'on s'lève tôt et s'couche tard De l'Ouest à l'Est, du Québec jusqu'à Oujda Faites tourner l'son, faut qu'on s'rassemble J'reste moi-même, à personne j'veux ressembler Ouvrez les portes, c'est à notre tour, on a trop vale-ca Solo l'Mythe, Seth Gueko Yazou Al-K Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue, c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir Sourire d'escroc avec de l'or sur les quenottes Cagoule, ter-scoo comme sur l'terrain d'Sevran Beaudottes On fait l'tour d'l'Europe, sous la calandre d'la loc' Y a deux locks sur la tête de la nouvelle porte des grottes Les douaniers j'les fuck, belote rebelote J'veux des diamants sur mes menottes On t'revend même quand ça grelotte pendant les tempêtes de vent Le Glock c'est comme le ciné, mieux vaut être derrière qu'être devant Mon pote, ça braque des semi-remorques pour des palettes de Play Ça arrache en T-max des mallettes de zeille sous l'nez d'ta sale tête de vieille Bienvenue dans la planète de Sheitan, qu'est-ce tu m'parles de star Même Beckham peut pas amortir d'la poitrine une balle de chtar Quand les keufs me contrôlent, j'ai l'stress des exams J'suis venu tout manger, j'te laisse les graines de sésame Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue, c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir C'est Évry Courcouronnes, Saint-Ouen-l'Aumône et les Beaudottes On attrape le diable par ses deux cornes Bande de putains, j'vais en épater plus d'un Les clones, arrêtez d'm'imiter comme Didier Gustin C'est pour mes frères de la rue qu'ont pas d'issue Attitude de gangster, j'nettoie chaque particule On devient fou, demande à Yazou on gnax tous La drogue douce, la dure on la laisse aux fiasses-pou Fils qu'en dis-tu, c'est sans issue On vient tout ravager comme des grands virus J'ai envie d'plus d'armes, de fric et de gentilles putes Kiffe l'amplitude, minus l'enfer sera ta dernière issue Tu vas saigner des sinus, on dépouille tes beaux tissus On s'fissure le crâne au JB Vite fait te griffer le cul, la dernière issue j'vais la niquer Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Galère, tard dans nos cours se passent des choses bizarres Bicrave star, aller sans retour, c'est l'bazar Même parler d'toi, t'as beau chercher y a pas d'échappatoire J'parle à toi qu'es bloqué, qui mènes une vie aléatoire Tu peux m'croire, c'est sans issue c'est pas des histoires Noir c'est noir, dans nos rues passe plus l'espoir Solo l'Mythe, L Défonce ADN Nocif, Yazou Al K, Unité, Unité d'Feu Et Seth Gueko Néochrome On est tous nés au crom' Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran Sevran, Sevran, ça vient d'Ce-Fran</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5678,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR On sort des gardav en les narguant On sort du shtar grace à Cohen-Saban On ouvre les pagne-cham en le sabrant On lève les bécanes en les cabrant Des punchline, à tous les quart-temps Lunettes sur le gland je lis sur tes lèvres, qu'en les écartant Brraquo studio partouze, on est partant La chatte-la chatte-la chatte, à Sylvie Vartan Moi et Bardiss on s'comprend, rien qu'en se regardant Autour du cou j'ai pas de carquant que, des bijoux clinquants On ferme les portes en les claquant Patulacci Riche ou pauvres quand on chie on a tous des yeuz de noi-chi Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR You might also like Des couilles mytho t'en as pas Je coupe un kilo dans l'appart Ecoute du Fredo Santana Et roule un bedo sans tabac Zin ca fait BAM Comme Al Pacino dans l'Impasse Il y a quelqu'un qui veut prendre ta place Prends toi ce pruneau dans ta face Zin ça fait BAM A la table des negoces il y a Jason Voriz allez faites vos mises Ne faites pas les belles gosses ma bite dans vos gorges j'vais vous faire vomir Tu fais le caïd tu te prends 2-3 gifles puis t'appelle la police? Ils vont me faire pisser puis savoir que j'ai de la drogue dans mon métabolisme Crois pas ce que je vais te dire zin c'est éxageré Au quotidien dans le bar à Seth Guex j'ai plus de 20 pétasses à gérer Hey On plante le videur On s'en branle de votre plan de rigueur Devant le store liquor plein d'arabes de culs de blanc et de niggah Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR Ke fa zin? Ke dit zin? Aloura zin Seth Jason dans tous les vagins Ke dit zin? KE fa zin? Aloura zin Seth Jason enculent les voisins</t>
+          <t>Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR On sort des gardav en les narguant On sort du shtar grace à Cohen-Saban On ouvre les pagne-cham en le sabrant On lève les bécanes en les cabrant Des punchline, à tous les quart-temps Lunettes sur le gland je lis sur tes lèvres, qu'en les écartant Brraquo studio partouze, on est partant La chatte-la chatte-la chatte, à Sylvie Vartan Moi et Bardiss on s'comprend, rien qu'en se regardant Autour du cou j'ai pas de carquant que, des bijoux clinquants On ferme les portes en les claquant Patulacci Riche ou pauvres quand on chie on a tous des yeuz de noi-chi Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR Des couilles mytho t'en as pas Je coupe un kilo dans l'appart Ecoute du Fredo Santana Et roule un bedo sans tabac Zin ca fait BAM Comme Al Pacino dans l'Impasse Il y a quelqu'un qui veut prendre ta place Prends toi ce pruneau dans ta face Zin ça fait BAM A la table des negoces il y a Jason Voriz allez faites vos mises Ne faites pas les belles gosses ma bite dans vos gorges j'vais vous faire vomir Tu fais le caïd tu te prends 2-3 gifles puis t'appelle la police? Ils vont me faire pisser puis savoir que j'ai de la drogue dans mon métabolisme Crois pas ce que je vais te dire zin c'est éxageré Au quotidien dans le bar à Seth Guex j'ai plus de 20 pétasses à gérer Hey On plante le videur On s'en branle de votre plan de rigueur Devant le store liquor plein d'arabes de culs de blanc et de niggah Ca c'est pour mes jeunes anciens mes mauvais garnements Qui foutent l'ariate en bas de leurs batiments en état de délabrement Les putes sont en mode écartement, tu connais notre département Si t'es un zin que t'as grandi dans l'coin tu sera sauvé par le gang Ce qui nous interesse c'est pas ton tirroir caisse mais le coffre de la que-ban Question drogue tu le sastres dans le Sud-Est, on a l'offre et la demande Les putes sont en mode écartement, tu connais notre département Si t'as un malheur on arrive pile à l'heure tu seras sauvé par le gang MANSTRR Ke fa zin? Ke dit zin? Aloura zin Seth Jason dans tous les vagins Ke dit zin? KE fa zin? Aloura zin Seth Jason enculent les voisins</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5695,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Yes ! Masta, Seth Gueko, Neochrome ! Non Sens, Fis-L, LIM Double Violences urbaines Masta masta Yo, yo Entre moi et les ke-fli ya un conflit dchoc Dans mon bloc cest pas un hall, mais un coffee shop, cours avant qules keufs, ils tchopent ! Pour faire dla maille on na pas dâge nous Chaque schmit mérite quon labatte à genoux Dis à la patrouille qujleur porte un il gros comme une citrouille Quand un flic seul voit 6 crouilles, son slip rouille Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Leur flingue est tellement lourd, quand ils tvisent la tête ils ttirent aux pieds Gloire à Dieu ! Jsuis pas un fils dîlotier Ça fait trop longtemps qules conflits durent Ccon dflic mérite que jtransforme leurs boîtes crâniennes en confiture Que Pasa !? Les keufs font la loi dans les tieks seulement quand ya pas un chat Sinon cest crachat Jets dufs sur lJ9, cest lG9, sous les ordres des Pachas On fait les achats avec les faux chéquiers Avec un fou, jprends 2 tours sur ton échiquier Faut buter lroi, pour qula reine te lèche les pieds Jsuis plus proche des Groseille que des Du Quesnoy You might also like La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare</t>
+          <t>Yes ! Masta, Seth Gueko, Neochrome ! Non Sens, Fis-L, LIM Double Violences urbaines Masta masta Yo, yo Entre moi et les ke-fli ya un conflit dchoc Dans mon bloc cest pas un hall, mais un coffee shop, cours avant qules keufs, ils tchopent ! Pour faire dla maille on na pas dâge nous Chaque schmit mérite quon labatte à genoux Dis à la patrouille qujleur porte un il gros comme une citrouille Quand un flic seul voit 6 crouilles, son slip rouille Plutôt qude rouler en Subaru Jpréfère rouler en Deux Chevaux avec un cadavre de flic sous la roue Leur flingue est tellement lourd, quand ils tvisent la tête ils ttirent aux pieds Gloire à Dieu ! Jsuis pas un fils dîlotier Ça fait trop longtemps qules conflits durent Ccon dflic mérite que jtransforme leurs boîtes crâniennes en confiture Que Pasa !? Les keufs font la loi dans les tieks seulement quand ya pas un chat Sinon cest crachat Jets dufs sur lJ9, cest lG9, sous les ordres des Pachas On fait les achats avec les faux chéquiers Avec un fou, jprends 2 tours sur ton échiquier Faut buter lroi, pour qula reine te lèche les pieds Jsuis plus proche des Groseille que des Du Quesnoy La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine, de ma piaule à ma gare La grisaille cest le climat K - Au tieks - Il pleut la mort et lesprit macabre Cest relou, ici il ny a qule porc qui magace Violence urbaine de ma piaule à ma gare</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5712,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>- Allô Seth Gueko ? - Oui, oui, oui - Ouais c'est Sébastien Patoche à l'appareil, le numéro 1 Itunes. Dis-moi euh... là j'suis au studio, on t'attend pour poser une feat là, tout de suite - Mais, mais, mais va te garer toi. T'es complètement Barjavel ma parole. J'vais t'la faire bouffer ta perruque et ton slip plein d'merde moi. Tu vas voir si tu vas faire l'mariole. Hé moi c'est Seth Gueko et quand j'pète ça fait Zdedededex x8 Et quand il, et quand il, et quand, et quand il, et quand il pète Sébastien Patoche prend le mic', pour, pour trouer ton slibard C'est pas du Tarama, c'est, c'est, c'est du caviar J'bois de Dompé frèrot j'préfère le fifty one C'est, c'est, c'est ma tournée, j'ai mon chéquier dans ma banane Collé au barbeuk, j'ai mis du zip' sous les chipos J'ai niqué les Daft Punk, j'suis pas venu pour jouer aux Légos J'suis sur la béquille, je suis parqué comme un Booster Ouais Maman j'enquille, tu peux faire changer tes boomer x4 Et quand il, et quand il, et quand, et quand il, et quand il pète x2 Tu voulais me clasher, tu voulais me clasher Tu voulais me clasher mais c'est moi que j't'ai clashé You might also like x8 Et quand il, et quand il, et quand, et quand il, et quand il pète J'me sens comme un gitan au salon d'la caravane Comme un camembert dans son poilane Veste à paillettes, brush toujours impeccable Super starlette au rayon inclassable J'suis sur l'rocher, remet, remet-moi la p'tite sur Fais, fais péter le jambon-beurre J'suis là depuis Jésus Christ, artiste au feu d'bois Qu'-qu'est-ce que t'as cru ? Qu-qu'est-ce que tu crois ? x4 Et quand il, et quand il, et quand, et quand il, et quand il pète Moi j'ai avalé une kalachnikov moi Alors tu m'étonnes qu'il soit troué l'slibard</t>
+          <t>- Allô Seth Gueko ? - Oui, oui, oui - Ouais c'est Sébastien Patoche à l'appareil, le numéro 1 Itunes. Dis-moi euh... là j'suis au studio, on t'attend pour poser une feat là, tout de suite - Mais, mais, mais va te garer toi. T'es complètement Barjavel ma parole. J'vais t'la faire bouffer ta perruque et ton slip plein d'merde moi. Tu vas voir si tu vas faire l'mariole. Hé moi c'est Seth Gueko et quand j'pète ça fait Zdedededex x8 Et quand il, et quand il, et quand, et quand il, et quand il pète Sébastien Patoche prend le mic', pour, pour trouer ton slibard C'est pas du Tarama, c'est, c'est, c'est du caviar J'bois de Dompé frèrot j'préfère le fifty one C'est, c'est, c'est ma tournée, j'ai mon chéquier dans ma banane Collé au barbeuk, j'ai mis du zip' sous les chipos J'ai niqué les Daft Punk, j'suis pas venu pour jouer aux Légos J'suis sur la béquille, je suis parqué comme un Booster Ouais Maman j'enquille, tu peux faire changer tes boomer x4 Et quand il, et quand il, et quand, et quand il, et quand il pète x2 Tu voulais me clasher, tu voulais me clasher Tu voulais me clasher mais c'est moi que j't'ai clashé x8 Et quand il, et quand il, et quand, et quand il, et quand il pète J'me sens comme un gitan au salon d'la caravane Comme un camembert dans son poilane Veste à paillettes, brush toujours impeccable Super starlette au rayon inclassable J'suis sur l'rocher, remet, remet-moi la p'tite sur Fais, fais péter le jambon-beurre J'suis là depuis Jésus Christ, artiste au feu d'bois Qu'-qu'est-ce que t'as cru ? Qu-qu'est-ce que tu crois ? x4 Et quand il, et quand il, et quand, et quand il, et quand il pète Moi j'ai avalé une kalachnikov moi Alors tu m'étonnes qu'il soit troué l'slibard</t>
         </is>
       </c>
     </row>
@@ -5733,7 +5729,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>J'écoute personne J'crois qu'mes gars Nous c'est croix de Chavaux Nique la croix mé-ga Ca va te faire mal comme la batte de Negan On dit pas gode, on dit courgette en langage vegan Accro à court, mes gars Et au rap de New-York Prodigy, Kadhafi et Havoc Ils nous matraquent, nous maltraitent comme des mal-propres Madame la proc, j'vous ai jamais insulté d'pute ni encore moins de salope J'ai juste dit que vos cuisses s'ouvraient plus vite que ma porte Un hérisson en guise de mascotte Ma vie un film gore sur cinémascope J'attends pas le carnaval pour m'déguiser en Ian Scott Aiguiser les machettes, effriter le machtoque, esquiver les hendeks, éviter ces sales fiottes Fais pas l'fou, nan, surtout si t'es pas stock Puis nique sa mère la muscu, personne n'a de pecs en Téflon Vos rappeurs bidons avec leurs chaines en laiton Elle me casse les couilles, elle a pas d'schnek en béton Un an de prison égale dix ans d'connexion Bagatelles, Malmaison, j'ai toute la collection Et elle me braque avec ses deux tétons Ou le mic ou le glock, la vie est faite de questions Ou le bien ou le mal, la vie est faite de questions La blonde ou la brune, moi je veux les deux J'veux pas l'Iphone 10, je veux R2D2 Regarde pas ma femme avec cet aire de dégueu Mes filles c'est la prunelle de mes yeux J'sors tout droit d'une ruelle ténébreuse J'ai jamais fait de pe-ra pour vos pucelles de mes deux Qui portent leur jupes ras la salle de jeu J'vais crapoter mon cigare et papoter de milliards Que l'on aura jamais J'fais des punchlines depuis quinze années Dans c'game j'suis casanier Dis à Bobonne de m'apporter mon Ricard J'm'entraîne à Go Fitness juste à côté du Picard Après l'amour j'dors lourd comme un cheval mort Les deux couilles bien accrochées au slibard Un peu de bave de crapaud et de mandragore Abracadabra, j'suis le king de la métagore Demande à Pythagore Ta chatte n'est qu'un triangle de chair Pour d'autres le berceau de l'humanité Mon shlass est un triangle de fer Ma bouche un cerceau de vulgarité On s'prête ni des putes ni des tunes, entre potes, l'argent et les femmes sont le fléau de l'amitiéYou might also like</t>
+          <t>J'écoute personne J'crois qu'mes gars Nous c'est croix de Chavaux Nique la croix mé-ga Ca va te faire mal comme la batte de Negan On dit pas gode, on dit courgette en langage vegan Accro à court, mes gars Et au rap de New-York Prodigy, Kadhafi et Havoc Ils nous matraquent, nous maltraitent comme des mal-propres Madame la proc, j'vous ai jamais insulté d'pute ni encore moins de salope J'ai juste dit que vos cuisses s'ouvraient plus vite que ma porte Un hérisson en guise de mascotte Ma vie un film gore sur cinémascope J'attends pas le carnaval pour m'déguiser en Ian Scott Aiguiser les machettes, effriter le machtoque, esquiver les hendeks, éviter ces sales fiottes Fais pas l'fou, nan, surtout si t'es pas stock Puis nique sa mère la muscu, personne n'a de pecs en Téflon Vos rappeurs bidons avec leurs chaines en laiton Elle me casse les couilles, elle a pas d'schnek en béton Un an de prison égale dix ans d'connexion Bagatelles, Malmaison, j'ai toute la collection Et elle me braque avec ses deux tétons Ou le mic ou le glock, la vie est faite de questions Ou le bien ou le mal, la vie est faite de questions La blonde ou la brune, moi je veux les deux J'veux pas l'Iphone 10, je veux R2D2 Regarde pas ma femme avec cet aire de dégueu Mes filles c'est la prunelle de mes yeux J'sors tout droit d'une ruelle ténébreuse J'ai jamais fait de pe-ra pour vos pucelles de mes deux Qui portent leur jupes ras la salle de jeu J'vais crapoter mon cigare et papoter de milliards Que l'on aura jamais J'fais des punchlines depuis quinze années Dans c'game j'suis casanier Dis à Bobonne de m'apporter mon Ricard J'm'entraîne à Go Fitness juste à côté du Picard Après l'amour j'dors lourd comme un cheval mort Les deux couilles bien accrochées au slibard Un peu de bave de crapaud et de mandragore Abracadabra, j'suis le king de la métagore Demande à Pythagore Ta chatte n'est qu'un triangle de chair Pour d'autres le berceau de l'humanité Mon shlass est un triangle de fer Ma bouche un cerceau de vulgarité On s'prête ni des putes ni des tunes, entre potes, l'argent et les femmes sont le fléau de l'amitié</t>
         </is>
       </c>
     </row>
@@ -5750,7 +5746,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Ouais, j'peux passer d'l'ombre à la lumière en moins d'une demi-heure Si les XXX veulent mon téléphone, donne-leur J'suis grave yes s'il faut écraser deux trois faciès XXX parti faire la sieste Prolongée, on l'a trouvé sur le sol allongé Parfois la mort te frappe sans que cette bitch soit annoncée Genre Allô c'est Moi la mort, j'suis venue vous chercher Avancez afin que la balle puisse vous transpercr Rest in peace Toi rviens là, il t'reste une prise Gauche droite uppercut, tiens c'est la surprise, acculé dans les cordes Mets ta famille à l'écart si j'dois les tordre T'inquiète pas, c'sera avec mes poings pas avec arme J'suis trop marvelous comme Marvin Hagler Sur ton costard d'velours, j'vais t'faire vomir tes sales glaires Gloire, amour et boxe, j'n'ai que d'la haine Soit, si quelqu'un voit Zox' en clash, c'est que d'la peine Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi You might also like Primo, plutôt qu'd'emmener mon p'tit au zoo J'préfère qu'il regarde un combat d'Tiozzo Deuzio, sache qu'on peut pas tuer un mort mec Et qu'mieux vaut porter un pare-balles qu'avoir des gros pecs Faut qu't'assures pécore, la ue-r c'est gore Tu t'manges une bastos même si t'as la carrure d'Fédor T'as plus d'ge-gor pour une parure fait d'or Fais pas l'dur, c'est mort, dehors y a d'la cassure de corps Deux trois phases de Zox', t'as la tête en sang Confonds pas la salle de boxe et les thés dansants MC, t'es dans l'champ du faisceau lumineux J'ai qu'des DVD d'Pride ou avec des fesses volumineuses Blanche, black, j'veux une chatte de chaque J'prends soin du micro comme d'un sac de frappe Poum tchac, personne n'échappera au brasier Aucun naufragé du phrasé d'Joe Frazier Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi J'pourrais passer du rap au ring, de Zox' à Cassius Clay Mais j'suis trop fort, si l'adversaire te mord, casse-lui l'pied Cas suspect, j'fais peur au sparring partner XXX deux rounds debout l'troisième, tu risques de l'finir par terre J'sens pas les coups blah! À tous les coups j'suis dans les mauvais coups Bats les yeu-cou zin-cou, la vie c'est cool écoute Le son de ceux qui font péter le gong avant le dernier round Reste les kings, pas les kongs Fais pas l'con Mickey, jette l'éponge Ton poulain gueule sous prétexte que j'lui ai serré l'poing Il s'était pris pour un keum regarde sa face Maintenant même sa mère a peur de lui, j'l'ai mis au chômage T'as plus qu'à faire la manche pour XXX dommage XXX des intérêts, en gros j'suis né pour nuire Sauvage j'écarte les chattes de celles qui veulent un négro pour une nuit Et pour un hymne en mon honneur ils devraient prendre le son d'Rocky XXX j'suis ce cogneur façon rookie Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi</t>
+          <t>Ouais, j'peux passer d'l'ombre à la lumière en moins d'une demi-heure Si les XXX veulent mon téléphone, donne-leur J'suis grave yes s'il faut écraser deux trois faciès XXX parti faire la sieste Prolongée, on l'a trouvé sur le sol allongé Parfois la mort te frappe sans que cette bitch soit annoncée Genre Allô c'est Moi la mort, j'suis venue vous chercher Avancez afin que la balle puisse vous transpercr Rest in peace Toi rviens là, il t'reste une prise Gauche droite uppercut, tiens c'est la surprise, acculé dans les cordes Mets ta famille à l'écart si j'dois les tordre T'inquiète pas, c'sera avec mes poings pas avec arme J'suis trop marvelous comme Marvin Hagler Sur ton costard d'velours, j'vais t'faire vomir tes sales glaires Gloire, amour et boxe, j'n'ai que d'la haine Soit, si quelqu'un voit Zox' en clash, c'est que d'la peine Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi Primo, plutôt qu'd'emmener mon p'tit au zoo J'préfère qu'il regarde un combat d'Tiozzo Deuzio, sache qu'on peut pas tuer un mort mec Et qu'mieux vaut porter un pare-balles qu'avoir des gros pecs Faut qu't'assures pécore, la ue-r c'est gore Tu t'manges une bastos même si t'as la carrure d'Fédor T'as plus d'ge-gor pour une parure fait d'or Fais pas l'dur, c'est mort, dehors y a d'la cassure de corps Deux trois phases de Zox', t'as la tête en sang Confonds pas la salle de boxe et les thés dansants MC, t'es dans l'champ du faisceau lumineux J'ai qu'des DVD d'Pride ou avec des fesses volumineuses Blanche, black, j'veux une chatte de chaque J'prends soin du micro comme d'un sac de frappe Poum tchac, personne n'échappera au brasier Aucun naufragé du phrasé d'Joe Frazier Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi J'pourrais passer du rap au ring, de Zox' à Cassius Clay Mais j'suis trop fort, si l'adversaire te mord, casse-lui l'pied Cas suspect, j'fais peur au sparring partner XXX deux rounds debout l'troisième, tu risques de l'finir par terre J'sens pas les coups blah! À tous les coups j'suis dans les mauvais coups Bats les yeu-cou zin-cou, la vie c'est cool écoute Le son de ceux qui font péter le gong avant le dernier round Reste les kings, pas les kongs Fais pas l'con Mickey, jette l'éponge Ton poulain gueule sous prétexte que j'lui ai serré l'poing Il s'était pris pour un keum regarde sa face Maintenant même sa mère a peur de lui, j'l'ai mis au chômage T'as plus qu'à faire la manche pour XXX dommage XXX des intérêts, en gros j'suis né pour nuire Sauvage j'écarte les chattes de celles qui veulent un négro pour une nuit Et pour un hymne en mon honneur ils devraient prendre le son d'Rocky XXX j'suis ce cogneur façon rookie Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Sois sûr de toi Sur le ring Comme Tiozzo Sur le ring Dans l'arène Sur le ring Que d'la haine Sois sûr de toi Y a quoi, man? Sur le ring Sur le ring Mec sois sûr de toi Sur le ring Comme Zo' Sur le ring Comme Mohamed Sur le ring Et moi-même Mec sois sûr de toi</t>
         </is>
       </c>
     </row>
@@ -5767,7 +5763,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Des bras de compet, tu crois me connaitre Rap à lancienne comme Judy's Comet Petit bonheur la chance, russe roulette Russe roumaine, je pousse chaises romaines Dédicaces à mes négros, barlou tattoo tune et co Jarrive dans le rap comme un octogone En tuk-tuk avec Gueko dans loctogone Regarde, zoulette, jarrive comme une comète Sirote pur bénèf, vodka squelette Je rap depuis lépoque du prince de Bel-Air Respecte sinon grosse querelle Lisse est le crâne, pas de BaByliss Baby pendant le son crade je suis dans tes abysses Groupie si tes végane mange mon aubergine La bite ne fait pas le mal, je ne suis pas androgyne Bête de foire, bref tête de voie Tes un crado, moi cest Kratos donc au revoir Aristochat de gouttière, jamais clochard Allez au revoir, signé cabochard Hey, hey, tous mes bar-lous mains en lair Hey, on fait des grimaces à ta grand-mère Hey, hey, tous mes bar-lous mains en lair Hey, la vignard cest le camembert Hey, hey, tous mes bar-lous mains en lair Hey, go auront le cul à lair Hey, hey, tous mes bar-lous mains en lair Hey, il y a des pogos et des roues arrière You might also likeLaisse passer les deux chars de guerre 25g cest mon poto, cest mon partenaire Sur ton album il y a le logo marque repaire Un doigt dans chaque trou je te lève comme un pack de bière Frère, je men bats les nuts de la fraicheur de tes meufs Ce soir je vais bien dormir vu lépaisseur de te sseu-fe De prod tes passé à pute, cest pas une erreur de T9 Jai fait des beaux enfants malgré la laideur de mes yeux Jencules les keufs à chaque paragraphe Tes sappé en Versace mais tas même pas la classe Tu veux à tout prix cette escorte mais tas même pas la liasse Et toutes les dix minutes aux chiottes mais tas même pas la chiasse Tu peux me voir ranger mes liasses comm'as Je pense quà manger des chattes comme Alf Jai toujours voulu venger mes srappe connasse Keufs me contrôlaient, laissez-moi ranger mes phases rolas Cur de glace comme en Ukraine Montre-moi comment tembrasse je te dirai comment tu ken Week-end je roule en ricaine, la semaine je suis dans le taxi Jarrive dans ta face comme la pêche du gitan d'Massy Hey, hey, tous mes bar-lous mains en lair Hey, on fait des grimaces à ta grand-mère Hey, hey, tous mes bar-lous mains en lair Hey, la vignasse et le camembert Hey, hey, tous mes bar-lous mains en lair Hey, go auront le cul à lair Hey, hey, tous mes bar-lous mains en lair Hey, il y a des pogos et des roues arrière Tous mes bar-lous bras en lair On fait des grimaces à grand-mère Hey, on porte les courses à ta mère Mes guerriers roulent en Dragster On sort de notre terrier comme Baxter Ils forcent les mômes à se taire dans les monastères Fuck les curés, je suis écuré Ta chatte mérite un huit sur léchelle de Munster</t>
+          <t>Des bras de compet, tu crois me connaitre Rap à lancienne comme Judy's Comet Petit bonheur la chance, russe roulette Russe roumaine, je pousse chaises romaines Dédicaces à mes négros, barlou tattoo tune et co Jarrive dans le rap comme un octogone En tuk-tuk avec Gueko dans loctogone Regarde, zoulette, jarrive comme une comète Sirote pur bénèf, vodka squelette Je rap depuis lépoque du prince de Bel-Air Respecte sinon grosse querelle Lisse est le crâne, pas de BaByliss Baby pendant le son crade je suis dans tes abysses Groupie si tes végane mange mon aubergine La bite ne fait pas le mal, je ne suis pas androgyne Bête de foire, bref tête de voie Tes un crado, moi cest Kratos donc au revoir Aristochat de gouttière, jamais clochard Allez au revoir, signé cabochard Hey, hey, tous mes bar-lous mains en lair Hey, on fait des grimaces à ta grand-mère Hey, hey, tous mes bar-lous mains en lair Hey, la vignard cest le camembert Hey, hey, tous mes bar-lous mains en lair Hey, go auront le cul à lair Hey, hey, tous mes bar-lous mains en lair Hey, il y a des pogos et des roues arrière Laisse passer les deux chars de guerre 25g cest mon poto, cest mon partenaire Sur ton album il y a le logo marque repaire Un doigt dans chaque trou je te lève comme un pack de bière Frère, je men bats les nuts de la fraicheur de tes meufs Ce soir je vais bien dormir vu lépaisseur de te sseu-fe De prod tes passé à pute, cest pas une erreur de T9 Jai fait des beaux enfants malgré la laideur de mes yeux Jencules les keufs à chaque paragraphe Tes sappé en Versace mais tas même pas la classe Tu veux à tout prix cette escorte mais tas même pas la liasse Et toutes les dix minutes aux chiottes mais tas même pas la chiasse Tu peux me voir ranger mes liasses comm'as Je pense quà manger des chattes comme Alf Jai toujours voulu venger mes srappe connasse Keufs me contrôlaient, laissez-moi ranger mes phases rolas Cur de glace comme en Ukraine Montre-moi comment tembrasse je te dirai comment tu ken Week-end je roule en ricaine, la semaine je suis dans le taxi Jarrive dans ta face comme la pêche du gitan d'Massy Hey, hey, tous mes bar-lous mains en lair Hey, on fait des grimaces à ta grand-mère Hey, hey, tous mes bar-lous mains en lair Hey, la vignasse et le camembert Hey, hey, tous mes bar-lous mains en lair Hey, go auront le cul à lair Hey, hey, tous mes bar-lous mains en lair Hey, il y a des pogos et des roues arrière Tous mes bar-lous bras en lair On fait des grimaces à grand-mère Hey, on porte les courses à ta mère Mes guerriers roulent en Dragster On sort de notre terrier comme Baxter Ils forcent les mômes à se taire dans les monastères Fuck les curés, je suis écuré Ta chatte mérite un huit sur léchelle de Munster</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5780,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Ohohohohohoh Gang, gang, gang, gang Moust J'ai le soutien gorge à ta go mais le soutien d'aucun média aucun, aucun J'ai ramené des recettes de Thaïlande, t'as ramené des Chlamydia Petit Phuket T'étais parti à Me-Da pourquoi ? pour du te-shi pour du bedo Mais à l'appel d'une te-cha t'es parti en Belgique v'la la gonococcie ke-shne, ghetto Louis Vui , polo Gucci polo Gucci Tatoué de la tête au tibia t'auras de la lecture à mon autopsie gang Relation toxique, les keufs me collent au coccyx En binôm avec mon fils avec la Stos comme Golo t Ritchie Golozer J'ai d'la calvitie comme si j'étais le p'tit frère de Zizou Qu'les choses se clarifient, c'est pas ici qu't'auras des rivières de bijoux jamais Mon fils s'appelle Djibril Salvadori mais je l'appelle Djibrilou et j'lui pince ses p'tites joues On peut embrasser l'islam barlou sans lui faire de bisous Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone You might also like Quand j'suis dans la pièce, ressens-tu cet aura de baron boss de fin d'jeu Elle a du monde au balcon donc, on est plein sous son balcon comme des dalleux J'vois la grosse tête à Macron où ça ? en plein dans mon salon mais qu'est-ce qu'il fout là ? Sur l'écran géant que j'ai acheté à le patron Si j'offre un hélicoptère à ma mère elle en fait une tondeuse à gazon Fils, si tu perce dans la drill on peut dire que tu dois ton buzz à Gazo slide Le papa est blanc boy, le fils couleur acajou café au lait J'lis encore un comm raciste, baffe de cow-boy, douleur à ta joue Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone Comme dans le clan Corleone Corleone Un chien de garde te mord les mollets Rrrrrrr Un babtou, un café au lait café au lait Envoie la monnaie-monnaie monnaie-monnaie Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone</t>
+          <t>Ohohohohohoh Gang, gang, gang, gang Moust J'ai le soutien gorge à ta go mais le soutien d'aucun média aucun, aucun J'ai ramené des recettes de Thaïlande, t'as ramené des Chlamydia Petit Phuket T'étais parti à Me-Da pourquoi ? pour du te-shi pour du bedo Mais à l'appel d'une te-cha t'es parti en Belgique v'la la gonococcie ke-shne, ghetto Louis Vui , polo Gucci polo Gucci Tatoué de la tête au tibia t'auras de la lecture à mon autopsie gang Relation toxique, les keufs me collent au coccyx En binôm avec mon fils avec la Stos comme Golo t Ritchie Golozer J'ai d'la calvitie comme si j'étais le p'tit frère de Zizou Qu'les choses se clarifient, c'est pas ici qu't'auras des rivières de bijoux jamais Mon fils s'appelle Djibril Salvadori mais je l'appelle Djibrilou et j'lui pince ses p'tites joues On peut embrasser l'islam barlou sans lui faire de bisous Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone Quand j'suis dans la pièce, ressens-tu cet aura de baron boss de fin d'jeu Elle a du monde au balcon donc, on est plein sous son balcon comme des dalleux J'vois la grosse tête à Macron où ça ? en plein dans mon salon mais qu'est-ce qu'il fout là ? Sur l'écran géant que j'ai acheté à le patron Si j'offre un hélicoptère à ma mère elle en fait une tondeuse à gazon Fils, si tu perce dans la drill on peut dire que tu dois ton buzz à Gazo slide Le papa est blanc boy, le fils couleur acajou café au lait J'lis encore un comm raciste, baffe de cow-boy, douleur à ta joue Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone Comme dans le clan Corleone Corleone Un chien de garde te mord les mollets Rrrrrrr Un babtou, un café au lait café au lait Envoie la monnaie-monnaie monnaie-monnaie Mon daron c'est mon re-fre On trinque avec nos verres Nous quand on s'appelle Le sang c'est pour de vrai La paire de Toujours collé au nez Le sang c'est sacré comme dans le clan Corleone</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5797,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Yo Tu peux baisser un peu la prod ? Voilà, monte un peu la voix Han, Ok Et j'en place une pour mes potos du Maghreb Et pour les petites victimes sur les photos du Darkweb Nique un ogre des Ardennes A mon poignet ça brille, donc les douaniers s'indignent Comme quand les cops se ramènent Dans des boites de sardines, la coke depuis le port de Sardaigne Notre avenir, est cauchmardesque, gang On a des thuns a tout niquer Et rien a glander de Tina Kunakey Et d'Ariana Grande Tu veux le paradis ? Tu n'as qu'une clef Elle est sous le pied de la madre A l'aise, dans mon peignoir de pimp Comme un belge dans une baignoire de frites Désobéissance civique, mais obéissance divine J'serai pas leur dinde de Thanksgiving J'veux le minimum, une mignonne vie, vous Voulez seulement des millions views Prêt a tout pour la fame Même a chanter dans une chorale a chbeb Normal après que l'public ait le moral a Z Monte pas dans l'auto ou t'aura la gerbe Les mecs au PMU connaissent tout sur les chevaux de âne à zèbre, BANG Mes mots perforent les skinheads J'balance pas j'dénonce comme Gérard Fauré Au risque d'être enterré dans une rare forêt d'pinèdes J'dénonce les trucs de ouf qu'ils ont fait à Régina Louf halouf T'as maigri à cause du régime à la shnouf J'suis à Marseille ça fume la résine à Luc' Toi pour clipper à Font Vert il te faut un fond vert Si on te demande quel homme a régné sur les toits de la ville, Répond le bouffon vert Non c'est pas Spiderman , y'a pas de super héros Lavez vous les mains la télé se charge déjà de vous laver le cerveau You might also likeSeth Gueko</t>
+          <t>Yo Tu peux baisser un peu la prod ? Voilà, monte un peu la voix Han, Ok Et j'en place une pour mes potos du Maghreb Et pour les petites victimes sur les photos du Darkweb Nique un ogre des Ardennes A mon poignet ça brille, donc les douaniers s'indignent Comme quand les cops se ramènent Dans des boites de sardines, la coke depuis le port de Sardaigne Notre avenir, est cauchmardesque, gang On a des thuns a tout niquer Et rien a glander de Tina Kunakey Et d'Ariana Grande Tu veux le paradis ? Tu n'as qu'une clef Elle est sous le pied de la madre A l'aise, dans mon peignoir de pimp Comme un belge dans une baignoire de frites Désobéissance civique, mais obéissance divine J'serai pas leur dinde de Thanksgiving J'veux le minimum, une mignonne vie, vous Voulez seulement des millions views Prêt a tout pour la fame Même a chanter dans une chorale a chbeb Normal après que l'public ait le moral a Z Monte pas dans l'auto ou t'aura la gerbe Les mecs au PMU connaissent tout sur les chevaux de âne à zèbre, BANG Mes mots perforent les skinheads J'balance pas j'dénonce comme Gérard Fauré Au risque d'être enterré dans une rare forêt d'pinèdes J'dénonce les trucs de ouf qu'ils ont fait à Régina Louf halouf T'as maigri à cause du régime à la shnouf J'suis à Marseille ça fume la résine à Luc' Toi pour clipper à Font Vert il te faut un fond vert Si on te demande quel homme a régné sur les toits de la ville, Répond le bouffon vert Non c'est pas Spiderman , y'a pas de super héros Lavez vous les mains la télé se charge déjà de vous laver le cerveau Seth Gueko</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5814,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Neochrome Blah blablablablablah ! Blex ! Seth Gueko, Text Scanner, Al Kpote, Farage Yeah Blex ! Kaira On sort du stud on monte sur un Brinks Blex ! Même les aveugles te portent lil J'ai la gueule amochée comme les karts du karting de Cormeille T'inscris pas au Pride si t'es un cou de chevreuil J'ai vu des armoires à glace se faire coucher par des clous de cercueil Je ramène en stud les petits bicravent en chocolat Je traite avec les tontons zaÏrois Ouais on fait les chèques wallah On a des têtes de brique mais ça nous empêche pas de faire des chèques en bois Si tu crois pas ce que je dis, fréquente moi Ou t'iras faire du bilboquet avec mon plus grand doigt Les bolos nous aguichent On est venus faire la maille comme un dealer de coke à la crémaillère de Thierry Ardisson Mes gars hardis sont On a un 6.35 petit et noir Facile à cacher dans les buissons Aight, laisse pas mon pit' s'accoupler avec ton bichon Blah !You might also like</t>
+          <t>Neochrome Blah blablablablablah ! Blex ! Seth Gueko, Text Scanner, Al Kpote, Farage Yeah Blex ! Kaira On sort du stud on monte sur un Brinks Blex ! Même les aveugles te portent lil J'ai la gueule amochée comme les karts du karting de Cormeille T'inscris pas au Pride si t'es un cou de chevreuil J'ai vu des armoires à glace se faire coucher par des clous de cercueil Je ramène en stud les petits bicravent en chocolat Je traite avec les tontons zaÏrois Ouais on fait les chèques wallah On a des têtes de brique mais ça nous empêche pas de faire des chèques en bois Si tu crois pas ce que je dis, fréquente moi Ou t'iras faire du bilboquet avec mon plus grand doigt Les bolos nous aguichent On est venus faire la maille comme un dealer de coke à la crémaillère de Thierry Ardisson Mes gars hardis sont On a un 6.35 petit et noir Facile à cacher dans les buissons Aight, laisse pas mon pit' s'accoupler avec ton bichon Blah !</t>
         </is>
       </c>
     </row>
@@ -5835,7 +5831,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses You might also like Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
+          <t>Yeah ! Seth Gueko, Alpha, M.O.D.I.T Mets la tête dans un étau, si tu paies pas très tôt les modalités Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Primo ! Je ferai du cash avant dêtre vieux-jeu Deuzio ! On fait pas dcocard sans casser des yeux Trois ! Pour une facture impayée on tfracture les ossements Quatre ! Si tu crois quModit mon soss ment, tu te trompes faussement Cinq ! Jai lchien dla caissière à la beuj Car depuis gamin dans les sins-ga-ma Jai la main balladeuse Ttrouveras pt-être la loi n 6 odieuse Car, Seth opère à la scie sauteuse Ya pas ddifférence entre un ke-fli et un âne Entre un porc et Koffi Annan Khalass ! Il mfaut du ke-fri un max yo ! Masta, tes vraiment trop stupide stu tconfies à oim Rap maudit, on tfait les poches pendant qutapplaudis On ssert dans lreservoir dla pape-mobile pour faire nos cocktails Molotov On trinque à la Smirnoff, pour la mort aux profs Jaime pas recevoir dordres Que Dieu mpréserve dla drogue et des poucaves, comme dans Reservoir Dogs Ne jamais décevoir le boss - yo Masta ! Ou tu vas recevoir des bosses Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Première lettre Alpha, paré pour le combat Lui il garde lil du tigre à la Rocky Balboa À quoi sert petit con de clasher un boa Tu vas mourir étouffé juste en bas dchez toi Fais flipper ldocteur, ligne droite à lécran Plus une veuve qui pleure, battements de cur, néant Un géant qui spavane au milieu des nabots Moi jsuis un ancien, le rap cest pour les ados Mais bande de bâtards ! Envers vous jétais tolérant Arrête de mentir, jurer sur lCoran ! Plein dchiens errants, frère, se mettent à rêver Croient trouver une femelle, mais en fait se branlaient Tourne pas à droite, tu vas tfaire violer À Clichy-sous-Bois, mes renois vont tétaler À lancienne, Arsenik, viens manger lgoudron On balance les poucaves, boy, du haut des avions La vérité absolue, rap de France caneurs Jai la rime K-1 à la Jérôme Le Banner Ils disent qulargent ne change pas un vrai renoi Moi je porte mon flingue, jsuis encore un vrai renoi Fait que tu piges déjà, comme le temps quil mreste Comme mon pote O'rosko, jai quune vie à vivre Jvais baiser des 'tasses, jvais tirer mon flingue Si un renoi parle mal, jensanglante ses fringues De plus, aucune tess ne peut niquer Dakar Des mes-ar et des bolides cachés sous lhangar Renoi renoi renoi renoi renoi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur Jsuis vnu pour lcash Papi Yo Thugz ! On fout lzbeul dans les soirées players Thugz, Thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Devant les schmits aucune frayeur On porte les flingues les meilleurs, les fringues les meilleures Yo thugz ! Fout lzbeul dans les soirées players Thugz, thugz ! Casse la bouche des mauvais payeurs Yo Thugz ! Sur lter-ter à nimporte quelle heure Si tu crois que les keufs ont du cur, tu fais erreur</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5848,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Gros, c'est Néochrome, Street Lourd Hall Stars J'vesqui pas les contrôles, même quand j'traîne en costard J'ai d'la chimique et d'la locale J'ai pas la coke à Sosa, fuck la vida loca J'veux l'boule à Rosa Costa Dans mon zoo, y'a pas d'Crips, pas d'Bloods Ça partouze des chiennes de guerre avec des gros bzouz Même quand y'a pas d'sous Rabzouz, j'vais t'rouler dessus si t'es sur mon parcours Si t'es une cave-pou' coup du lapin, même si t'as pas d'cou Hé cabrón, ça fait zblerx ! quand j'reçois mon bulletin Bande de putains ! Poussez-vous avant qu'j'en shoote un Viens pas faire la starlette si ta schneck sent l'khoute, hein Rap tout terrain, dans l'game j'suis un barbu dans la soute C'est Tiger In The Hood, khey, on évite le trou T'es tellement derrière, si on s'retourne, gros, on s'brise le cou Frise la folie, rap insolite, on maîtrise de fou Crise de nerfs, c'est la crise de sous, fais pas tes vices de fou Contrairement à Tiger Woods, nous on évite le trou Car nous c'est Tiger In The Hood J'attendrai pas trois heures à l'hosto pour qu'il m'recoud La coke se répand comme une traînée d'poudre Ma couille, nous, nous on évite le trou Car nous c'est Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood You might also like Pas l'temps pour la fiesta, fiesta On s'méfie des décapotables depuis JFK Non transférable comme Iniesta Néochrome, on aime les vieilles garces qui refusent rien comme la YesCard Vai te foder le magistrat On revient d'Maastricht avec du haschich gras Des prospectus de putes comme des sales diques-sa On t'ramène Draghixa pour ta Bar Mitzvah, cabrão ! C'est la course à la maille Ça trouve pas d'travail J'fais d'la musique illégale savoure, sale hataï Plus d'trente balais, j'reste un technicien J'me renseigne sur les reptiliens égyptiens Arrêtez d'pomper, j'vais aller démonter Le R.A.P, et n'plus passer près d'mon blé Plus rien n'me paraît très concret Imagine Néochrome au Palais des Congrès Contrairement à Tiger Woods, nous on évite le trou Car nous c'est Tiger In The Hood J'attendrai pas trois heures à l'hosto pour qu'il m'recoud La coke se répand comme une traînée d'poudre Ma couille, nous, nous on évite le trou Car nous c'est Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
+          <t>Gros, c'est Néochrome, Street Lourd Hall Stars J'vesqui pas les contrôles, même quand j'traîne en costard J'ai d'la chimique et d'la locale J'ai pas la coke à Sosa, fuck la vida loca J'veux l'boule à Rosa Costa Dans mon zoo, y'a pas d'Crips, pas d'Bloods Ça partouze des chiennes de guerre avec des gros bzouz Même quand y'a pas d'sous Rabzouz, j'vais t'rouler dessus si t'es sur mon parcours Si t'es une cave-pou' coup du lapin, même si t'as pas d'cou Hé cabrón, ça fait zblerx ! quand j'reçois mon bulletin Bande de putains ! Poussez-vous avant qu'j'en shoote un Viens pas faire la starlette si ta schneck sent l'khoute, hein Rap tout terrain, dans l'game j'suis un barbu dans la soute C'est Tiger In The Hood, khey, on évite le trou T'es tellement derrière, si on s'retourne, gros, on s'brise le cou Frise la folie, rap insolite, on maîtrise de fou Crise de nerfs, c'est la crise de sous, fais pas tes vices de fou Contrairement à Tiger Woods, nous on évite le trou Car nous c'est Tiger In The Hood J'attendrai pas trois heures à l'hosto pour qu'il m'recoud La coke se répand comme une traînée d'poudre Ma couille, nous, nous on évite le trou Car nous c'est Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Pas l'temps pour la fiesta, fiesta On s'méfie des décapotables depuis JFK Non transférable comme Iniesta Néochrome, on aime les vieilles garces qui refusent rien comme la YesCard Vai te foder le magistrat On revient d'Maastricht avec du haschich gras Des prospectus de putes comme des sales diques-sa On t'ramène Draghixa pour ta Bar Mitzvah, cabrão ! C'est la course à la maille Ça trouve pas d'travail J'fais d'la musique illégale savoure, sale hataï Plus d'trente balais, j'reste un technicien J'me renseigne sur les reptiliens égyptiens Arrêtez d'pomper, j'vais aller démonter Le R.A.P, et n'plus passer près d'mon blé Plus rien n'me paraît très concret Imagine Néochrome au Palais des Congrès Contrairement à Tiger Woods, nous on évite le trou Car nous c'est Tiger In The Hood J'attendrai pas trois heures à l'hosto pour qu'il m'recoud La coke se répand comme une traînée d'poudre Ma couille, nous, nous on évite le trou Car nous c'est Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Tiger In The Hood Tiger, Tiger In The Hood Paroles rédigées et expliquées par la communauté Rap Genius France !</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5865,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Approche, approche-toi Je vais te raconter l'histoire de Tonino Totino, c'est la voix-off des cassos Des McGyver, du habs qui s'font la sauce Qui fabriquent seuls la chauffe Avant lui aussi engraissaient les rats du patio Aujourd'hui son chauffeur l'attend dans sa Murcielago Il donne toujours à ceux qu'ont pas Et sache qu'une Pellegrino Ne fera pas digérer la délation d'un comparse Et que c'est ton crane qu'il faut qu'on casse Si t'as un compas dans lil quand il sagit de faire sa compta wow Il bombarde, il déboule sur les boulevards d'Paris Armé, bourré comme les ptits fils de Kadhafi Il est friand d'évasions à la scie Quand il sort avec sa cavalerie C'est un défilé d'chez Cavalli Il s'entraine à cavaler car en ce moment chez les keufs Ils sont en train de serrer un max les lasc' et les keups Mais y'a que Ya Rabbi qui lui fait reu-p Il s'entraine à rer-ti sur les cannettes de 7'Up Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia You might also like Il a les chargeurs garnis comme les bouquets d'fleurs d'Interflora Fini la fête foraine À c't'heure-là il défouraille pour des bons au porteur Il t'fera la bouche en cur Quand il s'offrira des nuits à l'hôtel Astoria Sur la tête des chiots Il aime trop les pes-sa Il jettera tout dans les ttes-chio Si ça pue les re-shta Ouais pépère le chat Il déambule la noche Déforme la haute-couture avec son corps amoché Jusqu'au resto il est filoché Ses femmes cachent ses pistolets Elles s'parfument pas chez Yves Rocher T'es fou chez Van Cleef Arpels Il est à zeul' ma gueule Il a les feuilles d'la Brinks dans le larfeuille La Rolex d'Augusto Pinochet Ça fait sbwax dès qu'ses plombs font des ricochets Il pètte l'éthylotest y'a aucun keuf qui le teste Dans son coffre y'a des kilos d'C Mais ça qui le sait Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia C'est un homme, un vrai Avec son quota d'poils sur l'torse Tu seras son pote Si tu sautes la salle du coffre Totino a un rêve depuis tout mioche Voir le banquier ligoté avec du scotch Faut lui couper l'doigt pour prendre son Louis d'or Il est fagoté comme un milord Son deuxième blaze c'est Igor Personne sait où il dort, c'est un taulier Il tringle toujours en criant Na zdrowie ! Petite barbe au collier Il laisse toujours des gouttes sur la cuvette Si tu veux lui parler sors la calculette Ça fait belle lurette qu'il fait des bracos d'bonhomme Il paranoïe il voit partout des chapeaux d'cowboy Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia Totino n'existe pas Qui n'aimerait pas être un parrain d'la mafia Totino aurait pu s'appeler Mamadou ou Derka En chacun de nous sommeille un mafieux Le réveille pas en manipulant ton arme à feu Tu feras pas de vieux os Crois-en le vieux Gueko</t>
+          <t>Approche, approche-toi Je vais te raconter l'histoire de Tonino Totino, c'est la voix-off des cassos Des McGyver, du habs qui s'font la sauce Qui fabriquent seuls la chauffe Avant lui aussi engraissaient les rats du patio Aujourd'hui son chauffeur l'attend dans sa Murcielago Il donne toujours à ceux qu'ont pas Et sache qu'une Pellegrino Ne fera pas digérer la délation d'un comparse Et que c'est ton crane qu'il faut qu'on casse Si t'as un compas dans lil quand il sagit de faire sa compta wow Il bombarde, il déboule sur les boulevards d'Paris Armé, bourré comme les ptits fils de Kadhafi Il est friand d'évasions à la scie Quand il sort avec sa cavalerie C'est un défilé d'chez Cavalli Il s'entraine à cavaler car en ce moment chez les keufs Ils sont en train de serrer un max les lasc' et les keups Mais y'a que Ya Rabbi qui lui fait reu-p Il s'entraine à rer-ti sur les cannettes de 7'Up Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia Il a les chargeurs garnis comme les bouquets d'fleurs d'Interflora Fini la fête foraine À c't'heure-là il défouraille pour des bons au porteur Il t'fera la bouche en cur Quand il s'offrira des nuits à l'hôtel Astoria Sur la tête des chiots Il aime trop les pes-sa Il jettera tout dans les ttes-chio Si ça pue les re-shta Ouais pépère le chat Il déambule la noche Déforme la haute-couture avec son corps amoché Jusqu'au resto il est filoché Ses femmes cachent ses pistolets Elles s'parfument pas chez Yves Rocher T'es fou chez Van Cleef Arpels Il est à zeul' ma gueule Il a les feuilles d'la Brinks dans le larfeuille La Rolex d'Augusto Pinochet Ça fait sbwax dès qu'ses plombs font des ricochets Il pètte l'éthylotest y'a aucun keuf qui le teste Dans son coffre y'a des kilos d'C Mais ça qui le sait Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia C'est un homme, un vrai Avec son quota d'poils sur l'torse Tu seras son pote Si tu sautes la salle du coffre Totino a un rêve depuis tout mioche Voir le banquier ligoté avec du scotch Faut lui couper l'doigt pour prendre son Louis d'or Il est fagoté comme un milord Son deuxième blaze c'est Igor Personne sait où il dort, c'est un taulier Il tringle toujours en criant Na zdrowie ! Petite barbe au collier Il laisse toujours des gouttes sur la cuvette Si tu veux lui parler sors la calculette Ça fait belle lurette qu'il fait des bracos d'bonhomme Il paranoïe il voit partout des chapeaux d'cowboy Il a un gros Beretta, Totino la mafia Il fume des Cohibas, Totino la mafia Il boit que d'la vodka, Totino la mafia Il mange que des pizzas, Totino la mafia Il a l'cul entre deux mafias, Totino Russia, Italia, Totino Margarita, Zubrowska, Totino Allez joue avec Totino la mafia Totino n'existe pas Qui n'aimerait pas être un parrain d'la mafia Totino aurait pu s'appeler Mamadou ou Derka En chacun de nous sommeille un mafieux Le réveille pas en manipulant ton arme à feu Tu feras pas de vieux os Crois-en le vieux Gueko</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5882,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Je suis de ces gweres qui se laissent pas faire, qui te laissent parterre De ceux qui prennent des coups de Soleil à cause de la graisse à traire Je veux écrire dans la souffrance, rapper dans l'aisance Autrement dit écrire dans les caves, rapper les pieds dans la merde Pourri depuis la naissance, je suis comme une pomme qui cache son vers Si je vois une petite du tieks en boîte, direct j'casse son verre Puis dit tout à son frère On reconnait un homme à son flaire, à ses pompes, à sa montre, à son fer Devant Haïti j'peux pas dire qu'on a souffert J'ai beaucoup d'ennemis mais trop peu d'adversaires On prend une dent comme trophée de guerre à la Ramon Dekkers On a des gueules de travers comme si on était nés près d'une usine nucléaire Je compte plus les fois où j'ai gravé mon blaze en G.A.V avec ma fermeture éclaire J'arrive en fourgon cellulaire, je repars en V.10 La haine sa ronge car quand les peines s'allongent, les parents vieillissent Là-bas, toucher le fond on a failli en rêvant de toucher le ciel Jamais loger à la même enseigne, mes frérots un jour tout se paye Ehehehehe! mes frérots un jour tout se paye Ehehehehe! on rêvait de toucher le ciel Pour pas changer je reprends le beat acharné Ma trachée aura toujours de la rime à cracher Tant qu'ils y aura des bouchka y aura des brinks à braquer J'aurai toujours des potes-ca pour chaque années Le sida fait plus de 10 000 macabés Tant qu'ils y aura des bavures, y aura des villes saccagés Y aura toujours une voiture, une cabine ou une vitre à casser Les petits sont comme des tigres affamés Y aura toujours du biff à brasser Y aura toujours des filles mal poilés Car pour eux même dans le quartier sont petits, basanés On touchera le ciel avec un petit bout de skunk Avec ou sans Leri Purple You might also like On rêvait de toucher l'ciel, les sourires des petits nous donnaient des ailes Après la chute on s'remet en scelle, on sciera les barreaux avec nos séquelles Touche le fond, on a failli pour un jour s'arracher d'ici Frère on fera ce qu'il faut Laouni, Seth Gueko</t>
+          <t>Je suis de ces gweres qui se laissent pas faire, qui te laissent parterre De ceux qui prennent des coups de Soleil à cause de la graisse à traire Je veux écrire dans la souffrance, rapper dans l'aisance Autrement dit écrire dans les caves, rapper les pieds dans la merde Pourri depuis la naissance, je suis comme une pomme qui cache son vers Si je vois une petite du tieks en boîte, direct j'casse son verre Puis dit tout à son frère On reconnait un homme à son flaire, à ses pompes, à sa montre, à son fer Devant Haïti j'peux pas dire qu'on a souffert J'ai beaucoup d'ennemis mais trop peu d'adversaires On prend une dent comme trophée de guerre à la Ramon Dekkers On a des gueules de travers comme si on était nés près d'une usine nucléaire Je compte plus les fois où j'ai gravé mon blaze en G.A.V avec ma fermeture éclaire J'arrive en fourgon cellulaire, je repars en V.10 La haine sa ronge car quand les peines s'allongent, les parents vieillissent Là-bas, toucher le fond on a failli en rêvant de toucher le ciel Jamais loger à la même enseigne, mes frérots un jour tout se paye Ehehehehe! mes frérots un jour tout se paye Ehehehehe! on rêvait de toucher le ciel Pour pas changer je reprends le beat acharné Ma trachée aura toujours de la rime à cracher Tant qu'ils y aura des bouchka y aura des brinks à braquer J'aurai toujours des potes-ca pour chaque années Le sida fait plus de 10 000 macabés Tant qu'ils y aura des bavures, y aura des villes saccagés Y aura toujours une voiture, une cabine ou une vitre à casser Les petits sont comme des tigres affamés Y aura toujours du biff à brasser Y aura toujours des filles mal poilés Car pour eux même dans le quartier sont petits, basanés On touchera le ciel avec un petit bout de skunk Avec ou sans Leri Purple On rêvait de toucher l'ciel, les sourires des petits nous donnaient des ailes Après la chute on s'remet en scelle, on sciera les barreaux avec nos séquelles Touche le fond, on a failli pour un jour s'arracher d'ici Frère on fera ce qu'il faut Laouni, Seth Gueko</t>
         </is>
       </c>
     </row>
@@ -5903,7 +5899,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Sinik C'est 2009, le choc est frontal Je m'en bats les couilles, je ne compte plus les fils de pute qui dans mes roues mettaient des trons d'arbres Je reviens de loin, mais je voulais juste te dire en passant Que tout n'est pas facile, quand tu fais 700 milles en trois ans Je ne mens pas, la réussite et la ya-ska Attirent la haine, dans le regard de mes lascars, c'est l'Alaska Dans nos délires, faut savoir lire entre les lignes comme au radar Ici, j'ai kiffé ton album, ça veut dire, crève, gros bâtard Ambiance Paparazzi, les hommes ont des vagins A mon goût, tu parles beaucoup comme Olivier Cachin Tous les jours j'entends des bruits, qu'est-ce que tu vas faire, pétasse Rien du tout, à part te taire, évite de faire bédave Han, tous ceux qui disent que je m'engraisse à faire le pacha Méritent que je les niques, que je leur servent un verre de crachats Frelo, n'oublie jamais que mes paroles sont nées dehors Tous les revers de la médaille me font rappeler que c'est de l'or, bah ouais Refrain Six coups MC Certains nous souhaitent la vie longue, d'autres la vie laide Passer d'un 1100 cm cube à une mobylette Finir avec la plus crade, la plus vilaine Ou de se faire schlasser dans une impasse, par dix mecs X2 You might also likeSix coups MC T'aurais préférer qu'on bloque à la case départ Apporter de mauvaises nouvelles, pendant qu'on casse des barres T'aurais peut être voulu qu'on se bute pour un bout de pure Impulsif, pour un but chic, pour un bout de shit T'aurais préféré qu'on reste en chiens Au lieu qu'on s'entraide comme des vrais frangins Tu veux qu'on s'en prenne plein la gueule par la vie Rien à foutre de notre existence, on est bon qu'à trainer tard la nuit Gros, si tu parles à moi, c'est comme si tu parles à lui,gros Assume, si t'as des couilles, on en reparle à huit clos T'aurais préféré qu'on finisse clodos Qu'on se couche dans des bouches de métro Qu'on se douche avec des sauts d'eau, poto Vois à quel point, l'être humain n'est pas sympa Refuse que son prochain avance pas-à-pas T'aurais préféré être footballeur que voleur La morale, rares sont ceux qui veulent ton bonheur Refrain Seth Gueko Je marche qu'avec des centurions, zblaaaahhhhhh!!!! Vole dans les plumes des péruchons, qui souhaitent juste voir couler le sang du lion J'ai fais le tris dans mes amis à grand coups de ceinturon Même si les keufs volent dans l'écu Et nous souhaitent des années de placard, nous les purgeront On cantinera du caviar et des oeufs d'esturgeon,wech ducon Tu crache sur ton idole dés que t'est en réunion Alors devant nous tu fais des bonds comme Zébulon, jamais nous ne t'excuserons Entre moi et les cocaïnes, non, pas de traits d'union T'entends, pas de secrets, car je sais déjà que ton seul souhait, c'est d'ébruiter Il y a que ma mère et mon fils qui souhaitent ma célébrité Quand à mes voisins, qui m'ont souhaité le bac moins un Dis-leur que je l'ai eu Mes frangins me souhaitent un canasson à trois pattes pour ma course au PMU Je te souhaiterais rien si t'éternues Va te faire en-lé-cul Refrain</t>
+          <t>Sinik C'est 2009, le choc est frontal Je m'en bats les couilles, je ne compte plus les fils de pute qui dans mes roues mettaient des trons d'arbres Je reviens de loin, mais je voulais juste te dire en passant Que tout n'est pas facile, quand tu fais 700 milles en trois ans Je ne mens pas, la réussite et la ya-ska Attirent la haine, dans le regard de mes lascars, c'est l'Alaska Dans nos délires, faut savoir lire entre les lignes comme au radar Ici, j'ai kiffé ton album, ça veut dire, crève, gros bâtard Ambiance Paparazzi, les hommes ont des vagins A mon goût, tu parles beaucoup comme Olivier Cachin Tous les jours j'entends des bruits, qu'est-ce que tu vas faire, pétasse Rien du tout, à part te taire, évite de faire bédave Han, tous ceux qui disent que je m'engraisse à faire le pacha Méritent que je les niques, que je leur servent un verre de crachats Frelo, n'oublie jamais que mes paroles sont nées dehors Tous les revers de la médaille me font rappeler que c'est de l'or, bah ouais Refrain Six coups MC Certains nous souhaitent la vie longue, d'autres la vie laide Passer d'un 1100 cm cube à une mobylette Finir avec la plus crade, la plus vilaine Ou de se faire schlasser dans une impasse, par dix mecs X2 Six coups MC T'aurais préférer qu'on bloque à la case départ Apporter de mauvaises nouvelles, pendant qu'on casse des barres T'aurais peut être voulu qu'on se bute pour un bout de pure Impulsif, pour un but chic, pour un bout de shit T'aurais préféré qu'on reste en chiens Au lieu qu'on s'entraide comme des vrais frangins Tu veux qu'on s'en prenne plein la gueule par la vie Rien à foutre de notre existence, on est bon qu'à trainer tard la nuit Gros, si tu parles à moi, c'est comme si tu parles à lui,gros Assume, si t'as des couilles, on en reparle à huit clos T'aurais préféré qu'on finisse clodos Qu'on se couche dans des bouches de métro Qu'on se douche avec des sauts d'eau, poto Vois à quel point, l'être humain n'est pas sympa Refuse que son prochain avance pas-à-pas T'aurais préféré être footballeur que voleur La morale, rares sont ceux qui veulent ton bonheur Refrain Seth Gueko Je marche qu'avec des centurions, zblaaaahhhhhh!!!! Vole dans les plumes des péruchons, qui souhaitent juste voir couler le sang du lion J'ai fais le tris dans mes amis à grand coups de ceinturon Même si les keufs volent dans l'écu Et nous souhaitent des années de placard, nous les purgeront On cantinera du caviar et des oeufs d'esturgeon,wech ducon Tu crache sur ton idole dés que t'est en réunion Alors devant nous tu fais des bonds comme Zébulon, jamais nous ne t'excuserons Entre moi et les cocaïnes, non, pas de traits d'union T'entends, pas de secrets, car je sais déjà que ton seul souhait, c'est d'ébruiter Il y a que ma mère et mon fils qui souhaitent ma célébrité Quand à mes voisins, qui m'ont souhaité le bac moins un Dis-leur que je l'ai eu Mes frangins me souhaitent un canasson à trois pattes pour ma course au PMU Je te souhaiterais rien si t'éternues Va te faire en-lé-cul Refrain</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5916,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>C'est un malaaade Yo, barlou Gang, gang, gang Le regard en dit long Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la On sort la Kala-la, t'as vu comme on débarque Non ils n'étaient pas là-là-là, quand il fallait jouer les cartes Non, il y a pas de blablabla, il y a le Beretta-ta-ta Attention au Kima, et ça tire dans le tas-tas-tas Ils savent pas dans quoi j'opère la C ou bien la beuh, moi j'visser' et tous mes frères, tous les jours j'pense à eux Elle voit le cash et les concerts, maintenant elle veut sucer ma queue Vrai gangster, j've-squi la galère comme si c'était les baqueux Trala-trala-tralala pas là-là Ahlala, elle s'dit blablabla pas là-là Ahlala, elle s'dit blablabla You might also like Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la Han, la Stos Si on braque, on , armés comme à la Volga J'mélange goyave et la vodka, un mec armé en vaut 4 On range dans la ve-ca, les bécanes de cross J'voudrais revenir au lycée baffer cette pétasse de prof Ça t'explose le crâne avec un gros club de golf On veut les clés du paradis, et d'la salle de coffre Han fait l'agent, han, ve-squi m'sieur l'agent Han, j'suis un peu différent j'ai une tête deux bras et trois jambes, han Yo, on est venus doigter, des gardes côtiers J'ouvre grand mon gosier, pour boire le Ce son va tout niquer, ya de fortes chances J'suis pas martiniquais mais j'suis le plus fort de France Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la</t>
+          <t>C'est un malaaade Yo, barlou Gang, gang, gang Le regard en dit long Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la On sort la Kala-la, t'as vu comme on débarque Non ils n'étaient pas là-là-là, quand il fallait jouer les cartes Non, il y a pas de blablabla, il y a le Beretta-ta-ta Attention au Kima, et ça tire dans le tas-tas-tas Ils savent pas dans quoi j'opère la C ou bien la beuh, moi j'visser' et tous mes frères, tous les jours j'pense à eux Elle voit le cash et les concerts, maintenant elle veut sucer ma queue Vrai gangster, j've-squi la galère comme si c'était les baqueux Trala-trala-tralala pas là-là Ahlala, elle s'dit blablabla pas là-là Ahlala, elle s'dit blablabla Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la Han, la Stos Si on braque, on , armés comme à la Volga J'mélange goyave et la vodka, un mec armé en vaut 4 On range dans la ve-ca, les bécanes de cross J'voudrais revenir au lycée baffer cette pétasse de prof Ça t'explose le crâne avec un gros club de golf On veut les clés du paradis, et d'la salle de coffre Han fait l'agent, han, ve-squi m'sieur l'agent Han, j'suis un peu différent j'ai une tête deux bras et trois jambes, han Yo, on est venus doigter, des gardes côtiers J'ouvre grand mon gosier, pour boire le Ce son va tout niquer, ya de fortes chances J'suis pas martiniquais mais j'suis le plus fort de France Arrête tes timiniks, nous fait pas ton tralala Chez eux ça tise le Hennessy chez nous du Jack Da-Da Ici ya le bois bandé, chez nous c'est le kama gras C'est la seule différence entre Paname et Mada J'suis avec mon gang, j'suis avec l'armada Fais pas d'timiniks, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la La Kala-la, ou on sort la Kala-la</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5933,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Yeah, Manstrr Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Si tu veux du khalis Va te-gra la CAF Quand ca qué-bra la Brinks Intégral est le casque Impérial est mon lyrics Vade Retro Satanas On attend l'antéchrist, eau bénite dans la kalash Trahir ses propres potos, c'est comme les planter avec un shlass Liker ses propres photos c'est comme se branler devant la glace Phuket Bahamas Bar à tapins, bar à tapas Un chat ça retombe toujours sur ses pates Sauf si on lui attache Au hebs, on retombe toujours sur ses potes ma couillasse Si tu tombes sur une pute qui a la chatte qui up c'est surement un nid à dass 100 liasses j'ai le blues du businessman la chatte à Patricia Kaas Premier sur le tieks, et sur XXX j'vous laisse apprécier la casse You might also like Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Ma weed, déménage, car j'sais bien ajuster le P.H Quand il y en a plus faut faire un go-fast Donc ça craint pas, il y a juste les péages zin Pas le temps d'être casanier L'argent n'attend pas le manque à gagner Quand je dois chercher de l'amnésia A Meuda J'ai un mandat d'amné Je les fait fumer puis elles font les folles Ca me saoule Paranoye La nuit elles fouillent Dans mon téléphone Samsung J'ai cru régler le problème avec cette pute en l'avortant La vie c'est important On va tous mourir un jour le tout C'est de savoir quand Rien à foutre de mourir riche ou pauvre Sur mon compte, d'avoir tant La vie peut s'arreter à tout moment D'un accident, d'un tir à bout portant T'es en perte de vitesse T'es faible en business Si t'atteri au hebs elle feront pas long feu tes petites fesses Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Je préfère être un local à Phuket Qu'une poukave dans un local à poubelle On se casse le bocal On boit le sky sans glaçons cul-sec On se casse en Q7 toi on te laisse le wagon couchette Rouge est le carton car kabyle est le coup de tête On vise des sommes astronomiques Plaisirs sexuels plaisirs gastronomiques Scorpion mon arme favorite Car scorpion de signe astrologique J'ai trop- j'ai trop sérré la ceinture Je ressemble à un 8 Je préfère avoir du sang sur les mains Que de la merde sur la bite Ma weed, déménage, car j'sais bien ajuster le P.H Quand il y en a plus faut faire un go-fast Donc ça craint pas, il y a juste les péages zin Pas le temps d'être casanier L'argent n'attend pas le manque à gagner Quand je dois chercher de l'amnésia A Meuda J'ai un mandat d'amné Patong City Guex Oh</t>
+          <t>Yeah, Manstrr Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Si tu veux du khalis Va te-gra la CAF Quand ca qué-bra la Brinks Intégral est le casque Impérial est mon lyrics Vade Retro Satanas On attend l'antéchrist, eau bénite dans la kalash Trahir ses propres potos, c'est comme les planter avec un shlass Liker ses propres photos c'est comme se branler devant la glace Phuket Bahamas Bar à tapins, bar à tapas Un chat ça retombe toujours sur ses pates Sauf si on lui attache Au hebs, on retombe toujours sur ses potes ma couillasse Si tu tombes sur une pute qui a la chatte qui up c'est surement un nid à dass 100 liasses j'ai le blues du businessman la chatte à Patricia Kaas Premier sur le tieks, et sur XXX j'vous laisse apprécier la casse Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Ma weed, déménage, car j'sais bien ajuster le P.H Quand il y en a plus faut faire un go-fast Donc ça craint pas, il y a juste les péages zin Pas le temps d'être casanier L'argent n'attend pas le manque à gagner Quand je dois chercher de l'amnésia A Meuda J'ai un mandat d'amné Je les fait fumer puis elles font les folles Ca me saoule Paranoye La nuit elles fouillent Dans mon téléphone Samsung J'ai cru régler le problème avec cette pute en l'avortant La vie c'est important On va tous mourir un jour le tout C'est de savoir quand Rien à foutre de mourir riche ou pauvre Sur mon compte, d'avoir tant La vie peut s'arreter à tout moment D'un accident, d'un tir à bout portant T'es en perte de vitesse T'es faible en business Si t'atteri au hebs elle feront pas long feu tes petites fesses Je prend vite, contact, on est rapides dans la transac Transite, du zat, ouais tranquille sur un tranzat Plan zat Grand sac Transac ouais tranquille sur un tranzat Je préfère être un local à Phuket Qu'une poukave dans un local à poubelle On se casse le bocal On boit le sky sans glaçons cul-sec On se casse en Q7 toi on te laisse le wagon couchette Rouge est le carton car kabyle est le coup de tête On vise des sommes astronomiques Plaisirs sexuels plaisirs gastronomiques Scorpion mon arme favorite Car scorpion de signe astrologique J'ai trop- j'ai trop sérré la ceinture Je ressemble à un 8 Je préfère avoir du sang sur les mains Que de la merde sur la bite Ma weed, déménage, car j'sais bien ajuster le P.H Quand il y en a plus faut faire un go-fast Donc ça craint pas, il y a juste les péages zin Pas le temps d'être casanier L'argent n'attend pas le manque à gagner Quand je dois chercher de l'amnésia A Meuda J'ai un mandat d'amné Patong City Guex Oh</t>
         </is>
       </c>
     </row>
@@ -5954,7 +5950,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !You might also like</t>
+          <t>Cent mille euross Pour mes Los Bastardos Seth Guekoss Saint-Ouen-l'Aumôn'ss Chrome-Néoss Fait péter les euross Pour mes Los Racaillos C'est un tremblement d'ter-toss Amène ta clique on les couche tous On arrive dans l'rap tout schuss, lourd comme la patate à Mouss Diouf Drive-by en pouce-pouce, ajoute du caviar dans l'couscous Nous on porte nos couilles sans coup d'pouce On a l'vent en poupe quand toi tu pompes dans l'vent Rassasie les poucaves à coups d'pompe dans l'ventre On vend pas l'chocolat d'Genève, mais de Ouarzazate Le rap game dis-lui que ma zézète veut voir sa chatte La concurrence, on la baise, la rabaisse, mec Passe, passe le pèze, c'est tout c'qui nous apaise, mec Pousse le volume du son qui t'agresse dans ta caisse, mec Tu trouveras pas plus lourd, pas plus vrai, pas plus tess, mec Encaisse le clap comme une claque sur ta fesse, mec Personne nous teste wesh, tout l'monde nous respecte, mec Simuler des coups d'tête c'est ton premier réflexe, mec We're so hood, so bad, so ruffneck, yeah ! Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter La gloire suce pour un kif, dans un J9 dégueulasse Température absolue quand le quartier se glace Ouais M.C ton rap ne casse pas des briques Donc laisse pas traîner ta serviette hygiénique dans les chiottes du Quick Reste reur-ti, meurtri par les échecs Coquards et grosses lèvres lendemain d'un jour de fête Dans chaque tiex', c'est la hass Jure pas sur la Mecque, tu veux m'la mettre je te baise Neuf-Cinq, S.O.A., Banlieue d'Paris c'est là qu'on est Ma ville tu la connais, par ici la monnaie J'veux la daronne assise a la son-mai L'khalis il doit tomber, l'raciste on va plomber Pas d'cinéma, pas d'carte UGC Barbare oui je sais, j'ai ma capuche baissée J'arrive zgègue de Galsène, j'baise de la chienne J'reste moi-même Nourou, say my name Un truc spécial pour mes cailles que j'étale sur mes cahiers J'envoie des mots comme des balles en métal vaut mieux tailler Zes' mec de tess, nous on fait trembler ton palier J'débarque, Vitry, Neuf-Quatre, on a l'talent pour t'braquer ou freestyler J'suis dans un hall, gros j'suis calé, avec l'équipe, dans une allée Mange du bitume toute l'année, veulent voir nos rôles ici caner On a choisi, on s'est cramés Par les soucis, gros j'suis gavé, viens pas m'check si t'as trop parlé T'as trop parlé, bâtard ? Nique ta mère, la chatte à ta grand-mère, bâtard On va t'niquer ta mère On va t'jeter dans une cave dans l'Neuf-Cinq Hé, Tonton Seth, j'ai huit mesures en or si tu m'l'autorises J'arrive plus lourd qu'une orgie d'sumotoris À mon mariage c'est moi qu'j'aurai l'plus beau jogging Le plus gros bolide une R19 avec un turbo d'Boeing Les MC encaissent mieux les pruneaux qu'Tony Zekwé chie des rafales d'obus, le F.C. Porto va droit au but Ouh caralhou, teste pas les cailleras d'nos rues Ou l'addition sera salée comme un accra d'morue J'arrive en balle, mon excursion sera expéditive Écoute je ne mens pas, c'est bien pour ça qu'j'obtiens l'respect des p'tits Toujours au top moi, j'ai la bonne recette On prend les mêmes et on recommence, j'te mets en transe sur l'album de Seth En une phase, le ter-ter subit un tremblement J't'ai vu dans l'angle mort, tu kiffais pas, au final t'en redemandes J'suis une bombe à retardement Ça fait brrraaah, zdedededex, ouvre pas tes fesses, j'te la mets tendrement On a des têtes comme dans l' Dernier Gang Oufs à la Spaggiari, on est des barbares, que des 7 sur le code-barre Ambiance Audiard ou Tarantino, touche pas à nos bambinos On t'aura, comme dans Gomorra cache pas l'butin sous l'Dunlopillo Demande à Al Poelvoordino wanted pour murder Nique ta mère la Police, nique ta race Fox Mulder On y croit tous comme Ribéry, fout l'dawa comme au Bayern J'baiserai la France jusqu'à c'qu'elle m'aime comme Mac Tyer C'est pour les malfrats, les ghetto youths Entre la mosquée et la muscul', ou sur Neptune via d'la ppe-fra Absolut Insolents, on sait vi-sèr' des sons lourds Prêts a salir, coûte que coûte on veut les salaires Coups d'couteau dans sa mère, l'rap crève, arme, guerre Micros en l'air, tout l'monde à terre temblement d'ter-ter C'est Aulnay, 2SK'Prod, tes potos connaissent 93.6, pé-cou tes cojones Tremblement d'ter-ter C'est un tremblement d'ter-ter Rebeus, Renois, Caraïs, Berbères C'est un tremblement d'ter-ter, check c'est la terre-mère Tremblement d'ter-ter C'est un tremblement d'ter-ter Kalos, Cainfris, nouches-Ma et Gwères C'est un tremblement d'ter-ter On roule dans des caisses d'occase, la marijuana vient d'Tijuana Les balles qu'on tire, wallah, viennent du Caucase La fumée s'propage comme des phéromones Starfoullah l'héritage qu'on a offert aux mômes Avec classe, on s'échappe par l'vasistas Face au fisc on balise pas, vu qu'à la douane les valises passent T'façon on a jamais aimé Rambo, Tarzan Nos idoles sont ceux qui vendent des kilos d'pavot afghan J'suis le côté diabolique de Serge Gainsbourg J'connais le diagnostic mais j'espère que les médecins s'gourent J'festoie fils serre-moi un verre d'vin rouge J'm'esquinte, j'souffre, j'suis quelqu'un d'louche Je fatigue Satan, crois pas qu'la Police arrive à temps Ou qu'ça tire à blanc dans la galerie marchande Je fabrique l'argent, la famille attend Qu'j'ramène entre les dents le string de Fanny Ardant Envoie les clefs du TT, j'me transforme en virtuose J'mets des grosses fessées sur des p'tits culs roses Vote pour moi sur chien-d'la-casse.fr J'te regarde de travers si tu cherches moi les vers J'pue l'Jack Daniel, j'suis l'fils caché d'Gargamel J'm'en vais danser l'disco avec deux-trois chattes d'Asnières On s'entraîne au tir au bois d'Achères, ambiance murder Pas d'voice au vocoder, c'est Giorgio Moroder Sur moi, ne lé-par pas Car chez nous la trahison ne se répare pas On prend les sens interdits T'rentre dedans comme la vachette d'Intervilles Crois pas qu'chez nous c'est fantastique À mettre la cagoule, les gants en plastique Les 'tasses de tess', c'est pas ma tasse de thé Pour les p'tis gars du Seize fais des traces de C Quand on était p'tits, les anciens nous envoyaient acheter des canettes Aujourd'hui ils nous sucent la bite pour qu'on leur avance une galette C'est la galère ouais, mais nique sa mère, on a l'feeling Investir dans un calibre c'est mieux que d'faire d'l'haltérophilie À la mairie, on leur a demandé un terrain d'foot Ils ont refusé, on s'est mis à bicrave et on a ouvert un terrain d'chnouf Bouffe pas la galette des rois, tu trouveras pas la fève J'ai vendu la galette darwa, j'ai fini au Quai des Orfèvres Laissez passer les têtes de cabochards Enfouraillés au 79, rue Quentin Bauchart Donne toujours une pièce quand tu rencontres un clochard Wesh, éteins ton char, échange pas des années d'liberté contre un bon-char En bon couche-tard, j'ai la gueule du Capitaine Caverne Va niquer ta mère si t'es un kouffar On a la même beu-bar qu'Jacques-Oussama Mess'Laden Au tier-quar on baise la mère de Papy Broussard Tremblement d'ter-ter Morsay, Seth Gueko Eh, ça vient tout droit du Neuf-Cinq, cousin Néochrome, Truands 2 La Galère On bicrave sec à Clignancourt Tu peux pas test c'est les vrais voyous, mon pote Eh l'Neuf-Cinq les vrais sauvages !</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5967,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>J'reviens d'loin, j'parle pas d'un long trajet J'parle pas d'mariage quand j'parle de rafale de dragées J'ai des bouteilles au garage mais j'parle pas d'Speedy Quand un mec parle trop, j'écoute pas c'qui dit moucave Quand j'parle de blanche, j'parle pas d'Gwyneth Paltrow Tu rase les murs, j'parle pas d'Gillette Quattro poucave Ch'misette Ralph Lau', bob Tacchini J'mène les MC à la baguette, j'parle pas d'sashimi J'ai fait du placard, j'parle pas d'cagibi Walter White est un géni, ne parlons même pas d'sa chimie Ma fmme est au bout du rouleau, je ne te parle pas du rouleau à pâtisserie non J'te parle pas de décoration quand ils m'emmènent au poste pour de la tapisserie 1312 Dieu soit loué, j'parle pas d'une location J'parle pas du perso', d'Uderzo mais dans la bouteille, j'ai la potion J'éteins la télévision, j'veux pas m'faire manger la cervelle vroom J'veux une grosse allemande, j'parle pas d'Angela Merkel sbatch On t'parle pas car Trop parler peut tuer, trop parler peut tuer yo yo Trop parler peut tuer, trop parler peut tuer zdedededex Trop parler peut tuer, trop parler peut tuer ya ya Trop parler peut tuer, trop parler peut tuer TPTF, TPTF, TPTF, ouais, TPTF TPTF, TPTF, TPTF, ouais, TPTF Tel père, tel fils Trop parler peut tuer, trop parler peut tuer On t'parle pas car trop parler peut tuer, trop parler peut tuer You might also like Quand j'dis que j'prends une cuite, j'parle pas de la cuisson J'ai plus l'âge d'aller en mission, y a qu'mon père qui m'appelle fiston eh, ouais J'ai bien appris la leçon, j'suis pas mécano, me parle pas d'révision Donc, quand je m'trouve au comico, ma bouche n'émet aucun son J'vais tout fumer, j'te parle pas d'une chicha céleste Que du Tacchini, pas d'Fila, Ellesse, y a que le biff qui m'intéresse J'suis sur l'terrain, j'te parle pas d'la triple F J'collectionne les sneakers, j'parle pas d'barre chocolatée J'prends mon biff et je pars comater Tu parles trop, tu m'endors, t'es comme ARTE ta gueule J'aime quand elle casse la démarche avec ses talons, je te parle pas d'Achille Quand j'te dis qu'en c'moment, j'ai l'bras long, je te parle pas d'Dhalsim Quand j'dis que j'lis entre les lignes, j'parle même pas d'la chnouf Y a les bleus mais j'parle pas des Schtroumpfs Sur la chaise pliante, j'suis posé comme un chouf On s'partage la recette du cash, j'te parle pas du chef cuisto Nique tous les aristos, le triple 6 et Méphisto On vend des balistos et j'te parle pas du quatre heures de ton p'tit frère Parle bien ou ça va sentir l'sapin, j'te parle pas du conifère Faut si faire car Trop parler peut tuer, trop parler peut tuer yo yo Trop parler peut tuer, trop parler peut tuer zdedededex Trop parler peut tuer, trop parler peut tuer ya ya Trop parler peut tuer, trop parler peut tuer TPTF, TPTF, TPTF, ouais, TPTF TPTF, TPTF, TPTF, ouais, TPTF Tel père, tel fils Trop parler peut tuer, trop parler peut tuer On t'parle pas car trop parler peut tuer, trop parler peut tuer T'as bien retenu la leçon, fiston ? Au comico, on moucave La langue, c'est comme le briquet, ça s'met dans la poche La langue est un muscle qui conduit entre quatre murs ou entre quatre planches J'ai capté Yeah</t>
+          <t>J'reviens d'loin, j'parle pas d'un long trajet J'parle pas d'mariage quand j'parle de rafale de dragées J'ai des bouteilles au garage mais j'parle pas d'Speedy Quand un mec parle trop, j'écoute pas c'qui dit moucave Quand j'parle de blanche, j'parle pas d'Gwyneth Paltrow Tu rase les murs, j'parle pas d'Gillette Quattro poucave Ch'misette Ralph Lau', bob Tacchini J'mène les MC à la baguette, j'parle pas d'sashimi J'ai fait du placard, j'parle pas d'cagibi Walter White est un géni, ne parlons même pas d'sa chimie Ma fmme est au bout du rouleau, je ne te parle pas du rouleau à pâtisserie non J'te parle pas de décoration quand ils m'emmènent au poste pour de la tapisserie 1312 Dieu soit loué, j'parle pas d'une location J'parle pas du perso', d'Uderzo mais dans la bouteille, j'ai la potion J'éteins la télévision, j'veux pas m'faire manger la cervelle vroom J'veux une grosse allemande, j'parle pas d'Angela Merkel sbatch On t'parle pas car Trop parler peut tuer, trop parler peut tuer yo yo Trop parler peut tuer, trop parler peut tuer zdedededex Trop parler peut tuer, trop parler peut tuer ya ya Trop parler peut tuer, trop parler peut tuer TPTF, TPTF, TPTF, ouais, TPTF TPTF, TPTF, TPTF, ouais, TPTF Tel père, tel fils Trop parler peut tuer, trop parler peut tuer On t'parle pas car trop parler peut tuer, trop parler peut tuer Quand j'dis que j'prends une cuite, j'parle pas de la cuisson J'ai plus l'âge d'aller en mission, y a qu'mon père qui m'appelle fiston eh, ouais J'ai bien appris la leçon, j'suis pas mécano, me parle pas d'révision Donc, quand je m'trouve au comico, ma bouche n'émet aucun son J'vais tout fumer, j'te parle pas d'une chicha céleste Que du Tacchini, pas d'Fila, Ellesse, y a que le biff qui m'intéresse J'suis sur l'terrain, j'te parle pas d'la triple F J'collectionne les sneakers, j'parle pas d'barre chocolatée J'prends mon biff et je pars comater Tu parles trop, tu m'endors, t'es comme ARTE ta gueule J'aime quand elle casse la démarche avec ses talons, je te parle pas d'Achille Quand j'te dis qu'en c'moment, j'ai l'bras long, je te parle pas d'Dhalsim Quand j'dis que j'lis entre les lignes, j'parle même pas d'la chnouf Y a les bleus mais j'parle pas des Schtroumpfs Sur la chaise pliante, j'suis posé comme un chouf On s'partage la recette du cash, j'te parle pas du chef cuisto Nique tous les aristos, le triple 6 et Méphisto On vend des balistos et j'te parle pas du quatre heures de ton p'tit frère Parle bien ou ça va sentir l'sapin, j'te parle pas du conifère Faut si faire car Trop parler peut tuer, trop parler peut tuer yo yo Trop parler peut tuer, trop parler peut tuer zdedededex Trop parler peut tuer, trop parler peut tuer ya ya Trop parler peut tuer, trop parler peut tuer TPTF, TPTF, TPTF, ouais, TPTF TPTF, TPTF, TPTF, ouais, TPTF Tel père, tel fils Trop parler peut tuer, trop parler peut tuer On t'parle pas car trop parler peut tuer, trop parler peut tuer T'as bien retenu la leçon, fiston ? Au comico, on moucave La langue, c'est comme le briquet, ça s'met dans la poche La langue est un muscle qui conduit entre quatre murs ou entre quatre planches J'ai capté Yeah</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5984,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Yeah, on s'est réunis ici pour faire un truc entre légendes Pas besoin d'rouler en T-Max pour avoir un gros truc entre les jambes On baroude sur les Champs, pour ramasser d'la chienne Un mec qui traîne dans toutes les cités c'est un mec qui s'est fait chasser d'la sienne La drogue est malsaine, elle est chère mais très savoureuse Elle est dévastatrice comme une maîtresse amoureuse Arrête de m'chauffer, j'vais bander, j'vais m'faire un coquard Arrête de crier massage, massage j'vais m'retourner, j'vais t'ton-car Je me prépare pour la compète de Colmar Dans l'game, les trois-quart c'est des trompettes, c'est des tocards C'est des ingrats, l'Viagra c'est le bonbec du queutard J'ai grandi quelque part entre le Clos du Roi et le queu-par Saint Ouen l'Aumône tieks, tu le sais, tu le sais On veut de la biatch câline, tu le sais, tu le sais Y'a pas d'chargeur au hebs, tu le sais, tu le sais L'chargeur c'est deux piles Alcaline ou des Duracel, Duracel On a pas le droit de vendre de la blanche Pourtant les colons ils vendaient des noirs Me demande pas si je vais bien Je compte mes soucis pour dormir le soir J'connais pas le prénom de cette pétasse Elle se demande quand est-ce qu'on va se revoir Les amis se comptent sur les doigts d'la main Ça fait longtemps que moi j'me suis coupé les doigts Putain, ouais ouais, sale bâtard On a cramé ton but, on a cramé tes vices Et ceux qui ne m'aiment pas m'appelleront la famille Parce que leurs nouveaux petits frères seront mes fils On nique l'Antéchrist, on est qu'dans tes bitchs, on est censé rire Quand on prend des risques Si les hypocrites puent de la gueule, sur ma bite j'mets du dentifrice Hey yeah, j'me sens trop bien comment le décrire Hey yeah, comme un pédophile chez les choristes Hey yeah, un peu de biffe ça les titille Elles mouillent tellement dans leurs chattes j'peux faire du jet ski You might also like Hey, si j'te tends la main, j'attends pas les intérêts T'es choqué de me voir comme Tupac Shakur déterré J'suis ton cauchemar, pas ton rappeur préféré Il va pleuvoir des bastos quand les injures seront proférées Armé comme dans l'Arkansas Bibi j'suis bon qu'à a-ç Tout l'monde t'la mis dans l'S Nous fais pas l'avion d'chasse Un tel a pouki, parlons d'ça Gucci, Louis V, parlons sapes Y'a qu'le butin que l'on sépare On sépare pas quand ça s'tape Les crocs quand j'passe à table OU Dala OU, EH C'est le manque de biff pas la pillave qui me rend instable C'est vrai, personne présente ses hommages à un homme au chômage J'ai rien contre les babtous mais pour moi Seth c'est pas un fromage Manigance dans l'dos, des cartes dans l'bendo, t'as rodave dans l'dos Ça va bien radmou', si ça pue mamdou, t'as raison rentre tôt Pronto, pronto, direction Quinté sur le R prend tout tout tout tout tout Tout tout tout tout tout tout tout tout L'argent, le pouvoir, on veut l'acquérir Une balle dans l'cavu, très peu en guérissent Très loin du droit chemin, tu nous vois périr Eux ils sont perchés, peuvent plus atterrir T'as raison gros l'enfer c'est les autres Ça fait mal ce qui craque c'est les os T'as du biffe c'est la hess on te saute C'est ta llasse-ca qu'on dérobe Merde, bre-som comme Khadirov J'fais du sale bat les couilles de la gonz' On nique tout on paye pas pour la casse Si ces putes veulent te prendre pour une miss y'a pas l'choix mon nin-nin faut faire tomber les masques C'est leurs surs et leurs mamans comme Mouss, on leur fait pas la bise à ses khers c'est la base J'étais dans l'game avant toi, tu le sais, tu le sais J'le serai après toi, tu le sais, tu le sais On donne pas d'blaze aux prétoires, tu le sais, tu le sais Un mec te doit des tunes, tu le serres, tu le saignes Tu suces comme c'est pas permis T'aimerais qu'on t'demande ton aval Par l'cul on t'fait la sère-mi T'resteras pas dans les annales J'suis comme Tony quand j'ai la dalle J'crois que j'avalerais un cheval Pas un cheveux sur le crâne Mais je porte la queue de cheval Ils font tous les squales dans la rue Devant les meufs c'est poisson-chat Elle veut que j'lui mette dans la ruche J'sais même pas c'est quoi son blaze Elle veut que je squatte dans son anus Comme le a dans C'qui nous excite c'est les thunes Le reste c'est mort comme Pataugas, hey hey hey Bientôt j'demande l'heure à Audemars, hey hey hey Fuck leur The Wire, leur Sodemat, hey J'viens les foutre à poil comme Chewbacca, hey Canon sous la table La queue est longue comme à la CAF, hey Seth Gueks Tu le sais, tu le sais Tu le sais, tu le sais Tu le sais, tu le sais Tu sais déjà1</t>
+          <t>Yeah, on s'est réunis ici pour faire un truc entre légendes Pas besoin d'rouler en T-Max pour avoir un gros truc entre les jambes On baroude sur les Champs, pour ramasser d'la chienne Un mec qui traîne dans toutes les cités c'est un mec qui s'est fait chasser d'la sienne La drogue est malsaine, elle est chère mais très savoureuse Elle est dévastatrice comme une maîtresse amoureuse Arrête de m'chauffer, j'vais bander, j'vais m'faire un coquard Arrête de crier massage, massage j'vais m'retourner, j'vais t'ton-car Je me prépare pour la compète de Colmar Dans l'game, les trois-quart c'est des trompettes, c'est des tocards C'est des ingrats, l'Viagra c'est le bonbec du queutard J'ai grandi quelque part entre le Clos du Roi et le queu-par Saint Ouen l'Aumône tieks, tu le sais, tu le sais On veut de la biatch câline, tu le sais, tu le sais Y'a pas d'chargeur au hebs, tu le sais, tu le sais L'chargeur c'est deux piles Alcaline ou des Duracel, Duracel On a pas le droit de vendre de la blanche Pourtant les colons ils vendaient des noirs Me demande pas si je vais bien Je compte mes soucis pour dormir le soir J'connais pas le prénom de cette pétasse Elle se demande quand est-ce qu'on va se revoir Les amis se comptent sur les doigts d'la main Ça fait longtemps que moi j'me suis coupé les doigts Putain, ouais ouais, sale bâtard On a cramé ton but, on a cramé tes vices Et ceux qui ne m'aiment pas m'appelleront la famille Parce que leurs nouveaux petits frères seront mes fils On nique l'Antéchrist, on est qu'dans tes bitchs, on est censé rire Quand on prend des risques Si les hypocrites puent de la gueule, sur ma bite j'mets du dentifrice Hey yeah, j'me sens trop bien comment le décrire Hey yeah, comme un pédophile chez les choristes Hey yeah, un peu de biffe ça les titille Elles mouillent tellement dans leurs chattes j'peux faire du jet ski Hey, si j'te tends la main, j'attends pas les intérêts T'es choqué de me voir comme Tupac Shakur déterré J'suis ton cauchemar, pas ton rappeur préféré Il va pleuvoir des bastos quand les injures seront proférées Armé comme dans l'Arkansas Bibi j'suis bon qu'à a-ç Tout l'monde t'la mis dans l'S Nous fais pas l'avion d'chasse Un tel a pouki, parlons d'ça Gucci, Louis V, parlons sapes Y'a qu'le butin que l'on sépare On sépare pas quand ça s'tape Les crocs quand j'passe à table OU Dala OU, EH C'est le manque de biff pas la pillave qui me rend instable C'est vrai, personne présente ses hommages à un homme au chômage J'ai rien contre les babtous mais pour moi Seth c'est pas un fromage Manigance dans l'dos, des cartes dans l'bendo, t'as rodave dans l'dos Ça va bien radmou', si ça pue mamdou, t'as raison rentre tôt Pronto, pronto, direction Quinté sur le R prend tout tout tout tout tout Tout tout tout tout tout tout tout tout L'argent, le pouvoir, on veut l'acquérir Une balle dans l'cavu, très peu en guérissent Très loin du droit chemin, tu nous vois périr Eux ils sont perchés, peuvent plus atterrir T'as raison gros l'enfer c'est les autres Ça fait mal ce qui craque c'est les os T'as du biffe c'est la hess on te saute C'est ta llasse-ca qu'on dérobe Merde, bre-som comme Khadirov J'fais du sale bat les couilles de la gonz' On nique tout on paye pas pour la casse Si ces putes veulent te prendre pour une miss y'a pas l'choix mon nin-nin faut faire tomber les masques C'est leurs surs et leurs mamans comme Mouss, on leur fait pas la bise à ses khers c'est la base J'étais dans l'game avant toi, tu le sais, tu le sais J'le serai après toi, tu le sais, tu le sais On donne pas d'blaze aux prétoires, tu le sais, tu le sais Un mec te doit des tunes, tu le serres, tu le saignes Tu suces comme c'est pas permis T'aimerais qu'on t'demande ton aval Par l'cul on t'fait la sère-mi T'resteras pas dans les annales J'suis comme Tony quand j'ai la dalle J'crois que j'avalerais un cheval Pas un cheveux sur le crâne Mais je porte la queue de cheval Ils font tous les squales dans la rue Devant les meufs c'est poisson-chat Elle veut que j'lui mette dans la ruche J'sais même pas c'est quoi son blaze Elle veut que je squatte dans son anus Comme le a dans C'qui nous excite c'est les thunes Le reste c'est mort comme Pataugas, hey hey hey Bientôt j'demande l'heure à Audemars, hey hey hey Fuck leur The Wire, leur Sodemat, hey J'viens les foutre à poil comme Chewbacca, hey Canon sous la table La queue est longue comme à la CAF, hey Seth Gueks Tu le sais, tu le sais Tu le sais, tu le sais Tu le sais, tu le sais Tu sais déjà1</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6001,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Où-suis je ? On voit rien là-dedans J'ai pas d'cheveux, j'ai pas d'dents Et quand je crie personne m'entend J'mets des coups de poing dans le vent Et c'est crevant La pauvre maman J'crois que j'suis dans son tre-ven Eux ils se balancent des cendriers et des mapapa Et celui qui parle pas sans crier ça doit être papa Papa est un grand mot j'opterais pour mon géniteur Ma chérie pleure J'ai hérité de ces gènes de niqueur Son absence fut mon cadeau de naissance Mais aujourd'hui il gémit de peur car il sait que j'adore l'essence Car un enfant comprend tout et veut souvent, à ma connaissance Se venger lors de son adolescence Mais qu'est-ce que t'aurais voulu que je dise avec mon gabarit d'crevette ? À part souhaiter qu'un gars de Paris l'crève net, ouais ! Quun héros intergalactique pose une bombe dans le slip d'un père qu'a la trique quand il croise une blonde J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud You might also like T'as pris ma mère pour une pauvre brune pute et soumise T'aurais mérité que j'brûle toutes tes chemises Que j'crève les pneus de ta BX hydraulique Mais le plus ironique C'est que t'aurais ramené ton propre fils aux flics La rage est sorti d'un pénis moisi, nase Qui a fait le tour des orifices vaginaux du voisinage Bon voyage papa y a tes affaires dans le sac poubelle Il y aura personne pour te dire pars pas T'façon ma mère c'est la plus belle ! Va, va voir ta vide-couille, ta grosse truie, celle qu'a détruit la vie d'couple que t'as construit T'façon j'bannis mon père Pour survivre j'ai jamais eu besoin de compter sur ta pension alimentaire On t'cède tout quand t'as qu'un rent-pa V'la les caries dentaires À cause des Carambar, si ta mère pleure part en bas C'batard il payera chaque larme aux gouttes de sang Car à cette heure-ci il est trop tard pour qu'ils se refoutent ensemble J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud Plus de père donc ma maman manqua d'autorité Momentanément j'ai voulu casser l'nez de Dorothée Cramer les photos ridées d'un père indigne Pas là pour m'interdire d'avoir dealé Sans passer par le terrain de billes D'avoir braqué des personnes âgées Et de ne pas voir son père s'enrager Que Dieu me pardonne D'avoir parlé mal à la daronne J'recommencerais pas elle a ma parole J'ai rien d'un fils exemplaire J'suis juste un mec sans père Et si j'en ai un que ce texte l'enterre J'espère que ta femme te trompe et qu'tu lui demandes de rester Et que ton nouveau fils te manque de respect De toute manière ce petit c'est mon demi-frère Pas de galère Toi et moi on se reverra en enfer Vois-tu j't'aimais presque Mais comme ça t'as rien fait d'être grand-père Va au diable rejoindre tes maîtresses J'te déteste T'entends ? J'te déteste ! À cause de toi j'ai reproduit le même schéma Chez moi En espérant que mon fils chante pas cette chanson contre moi Seth Gueko Neochrome J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud3</t>
+          <t>Où-suis je ? On voit rien là-dedans J'ai pas d'cheveux, j'ai pas d'dents Et quand je crie personne m'entend J'mets des coups de poing dans le vent Et c'est crevant La pauvre maman J'crois que j'suis dans son tre-ven Eux ils se balancent des cendriers et des mapapa Et celui qui parle pas sans crier ça doit être papa Papa est un grand mot j'opterais pour mon géniteur Ma chérie pleure J'ai hérité de ces gènes de niqueur Son absence fut mon cadeau de naissance Mais aujourd'hui il gémit de peur car il sait que j'adore l'essence Car un enfant comprend tout et veut souvent, à ma connaissance Se venger lors de son adolescence Mais qu'est-ce que t'aurais voulu que je dise avec mon gabarit d'crevette ? À part souhaiter qu'un gars de Paris l'crève net, ouais ! Quun héros intergalactique pose une bombe dans le slip d'un père qu'a la trique quand il croise une blonde J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud T'as pris ma mère pour une pauvre brune pute et soumise T'aurais mérité que j'brûle toutes tes chemises Que j'crève les pneus de ta BX hydraulique Mais le plus ironique C'est que t'aurais ramené ton propre fils aux flics La rage est sorti d'un pénis moisi, nase Qui a fait le tour des orifices vaginaux du voisinage Bon voyage papa y a tes affaires dans le sac poubelle Il y aura personne pour te dire pars pas T'façon ma mère c'est la plus belle ! Va, va voir ta vide-couille, ta grosse truie, celle qu'a détruit la vie d'couple que t'as construit T'façon j'bannis mon père Pour survivre j'ai jamais eu besoin de compter sur ta pension alimentaire On t'cède tout quand t'as qu'un rent-pa V'la les caries dentaires À cause des Carambar, si ta mère pleure part en bas C'batard il payera chaque larme aux gouttes de sang Car à cette heure-ci il est trop tard pour qu'ils se refoutent ensemble J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud Plus de père donc ma maman manqua d'autorité Momentanément j'ai voulu casser l'nez de Dorothée Cramer les photos ridées d'un père indigne Pas là pour m'interdire d'avoir dealé Sans passer par le terrain de billes D'avoir braqué des personnes âgées Et de ne pas voir son père s'enrager Que Dieu me pardonne D'avoir parlé mal à la daronne J'recommencerais pas elle a ma parole J'ai rien d'un fils exemplaire J'suis juste un mec sans père Et si j'en ai un que ce texte l'enterre J'espère que ta femme te trompe et qu'tu lui demandes de rester Et que ton nouveau fils te manque de respect De toute manière ce petit c'est mon demi-frère Pas de galère Toi et moi on se reverra en enfer Vois-tu j't'aimais presque Mais comme ça t'as rien fait d'être grand-père Va au diable rejoindre tes maîtresses J'te déteste T'entends ? J'te déteste ! À cause de toi j'ai reproduit le même schéma Chez moi En espérant que mon fils chante pas cette chanson contre moi Seth Gueko Neochrome J'voulais un père, une mère Un couple en CDI J'ai eu un père intérimaire Un père qui ment Un mari infidèle trop impertinent pour une maman si belle J'voulais un père une mère Un couple en CDI J'ai eu un père intérimaire Qu'on bannisse l'anneau Les gosses vont naître sans repères Sans connaitre leur père qui n'est qu'un mari salaud3</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6018,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Parce que le temps dans les cités est bien nuageux Le temps de vivre, aux temps morts cousin je dis adieu Va pécho ta carte, fais pas semblant Car c'est dans les urnes qu'on gagnera ce combat sanglant Car citoyen t'es, n'aie pas peur de l'afficher Car quand ils photographient la France, il n'en ressort que des clichés J'ai le cur qui bat, le pied sous le tibia Avant qu'il soit posé sur terre, cousin ici-bas Y a des esclaves et des putains de tyrans N'oublie pas que la vie ça se vit de son vivant Arrête, leurs promesses arrivent à l'allure d'une charrette Oubliant que la violence débute où le dialogue s'arrête Tiens pas ta force sur le fait de tomber Mais sur le fait de te relever à chaque fois que t'es tombé Fuck, pour faire valoir tes droits Inscris-toi sur les listes pour ceux qui n'en ont pas le droit Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote You might also like Soit tu votes ou soit tu fous le camp Choquant, en Ce-Fran, délinquant, vote avec tes gants Sarko, hass! Trop piquant Ça pue trop le camembert Président On va ranger les Molotov comme des grands Zehef, ka-push de Pologne et de pointe comme un attaquant Immigration choisie, Hitler c'est Mein Kampf Mets une gauche à la droite crouille, choisis ton camp Personnellement je n'attends rien d'eux Je n'ai qu'une seule devise Je n'ai que ma détermination pour obtenir ce que je vise Mon seul mot d'ordre c'est le courage Je mendie pas, même si mes chances sont prises en otage Sachez-le, je ne marche pas dans leur jeu Je sais qu'un Noir en prison c'est un Noir hors-jeu Or je veux tromper leur jeu En utilisant les armes conformes à l'enjeu OK Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote Va prendre ta carte si tu veux qu'on les écarte Ces gens faut qu'on les marque, qu'on les plaque, qu'on les maque Mon ami député fais tout ce que tu veux faut pas qu'on te laisse faire Aucun homme politique ne peut insulter mon frère C'est la rue qui te parle, la France doit servir le peuple Ne votez pas pour ceux qui se prennent pour des papes Inscris-toi sur les listes électorales Tu gueules, ils en ont rien à foutre que tu râles C'est dans le métissage qu'on croit Je verrais bien mon poing dans un petit visage de Hongrois Tu ressembles à un pingouin J'insulte ta mère c'est mon droit On devrait te greffer un groin Encore un son de délinquants pour les T500 C'est dans ton slip que ça sent, c'est pas à Cachan Tu comprendras quand tu verras le sang La hchouma pour toi je suis blanc mais j'ai tous les accents Levons le majeur, sachons dire non Sors la carte électorale et cache ton pilon Blex! Dégainons les cartes d'électeur Avant que Sarko nous éclate le rectum, c'est pas lui le directeur Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote</t>
+          <t>Parce que le temps dans les cités est bien nuageux Le temps de vivre, aux temps morts cousin je dis adieu Va pécho ta carte, fais pas semblant Car c'est dans les urnes qu'on gagnera ce combat sanglant Car citoyen t'es, n'aie pas peur de l'afficher Car quand ils photographient la France, il n'en ressort que des clichés J'ai le cur qui bat, le pied sous le tibia Avant qu'il soit posé sur terre, cousin ici-bas Y a des esclaves et des putains de tyrans N'oublie pas que la vie ça se vit de son vivant Arrête, leurs promesses arrivent à l'allure d'une charrette Oubliant que la violence débute où le dialogue s'arrête Tiens pas ta force sur le fait de tomber Mais sur le fait de te relever à chaque fois que t'es tombé Fuck, pour faire valoir tes droits Inscris-toi sur les listes pour ceux qui n'en ont pas le droit Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote Soit tu votes ou soit tu fous le camp Choquant, en Ce-Fran, délinquant, vote avec tes gants Sarko, hass! Trop piquant Ça pue trop le camembert Président On va ranger les Molotov comme des grands Zehef, ka-push de Pologne et de pointe comme un attaquant Immigration choisie, Hitler c'est Mein Kampf Mets une gauche à la droite crouille, choisis ton camp Personnellement je n'attends rien d'eux Je n'ai qu'une seule devise Je n'ai que ma détermination pour obtenir ce que je vise Mon seul mot d'ordre c'est le courage Je mendie pas, même si mes chances sont prises en otage Sachez-le, je ne marche pas dans leur jeu Je sais qu'un Noir en prison c'est un Noir hors-jeu Or je veux tromper leur jeu En utilisant les armes conformes à l'enjeu OK Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote Va prendre ta carte si tu veux qu'on les écarte Ces gens faut qu'on les marque, qu'on les plaque, qu'on les maque Mon ami député fais tout ce que tu veux faut pas qu'on te laisse faire Aucun homme politique ne peut insulter mon frère C'est la rue qui te parle, la France doit servir le peuple Ne votez pas pour ceux qui se prennent pour des papes Inscris-toi sur les listes électorales Tu gueules, ils en ont rien à foutre que tu râles C'est dans le métissage qu'on croit Je verrais bien mon poing dans un petit visage de Hongrois Tu ressembles à un pingouin J'insulte ta mère c'est mon droit On devrait te greffer un groin Encore un son de délinquants pour les T500 C'est dans ton slip que ça sent, c'est pas à Cachan Tu comprendras quand tu verras le sang La hchouma pour toi je suis blanc mais j'ai tous les accents Levons le majeur, sachons dire non Sors la carte électorale et cache ton pilon Blex! Dégainons les cartes d'électeur Avant que Sarko nous éclate le rectum, c'est pas lui le directeur Vote, car ils s'arrangent pour pouvoir nous étrangler Vote pour tes parents qui sont encore étrangers Vote, car c'est notre bataille, notre occasion Vote, ils nous traitent de racailles, de sauvageons Vote pour éviter de voir grimper les nazis Vote pour éviter un autre 21 avril Vote, parce qu'ils veulent nous blesser, je te le résume Vote car on peut aussi les baiser dans les urnes Vote</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6035,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 Brap, brap Zin t'es mort avant l' écho Shit dans le cello, chatte dans le merco Rien d'pire qu'un vallaurien avec un mic Chez nous on fuck les clash cousin on veut que des fights Fais toi monter en l'air par la tornade J'rentre chez toi, ta pauvre mère me passe la pommade Elle aimerait bien qu'son fils soit comme VeuVeu Hajja si tu le veux j'le prends comme mon neveu Ils friment dans leur couplets moi j'ferme ma gueule j'actionne Pour blanchir mon cash j'ai besoin du mec qui a blanchi Michael Jackson Et j'ai un .44 le meme que Nicky Larson Mais j'vais le rendre car j'risque de niquer le premier type qui m' klaxonne Et on s'fait peter par ces porcs à l'aube J'fume l' Amnésia pour oublier que c'est des grosses salopes MC t'es comme un eins plein de sillicone mytho J'suis le prince de la city comme Miklo Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 You might also like T'es ni dans l' biz ni dans l' dîn, qu'est ce tu m' parles de rue Pourquoi ta meuf s' dandine? Mets lui une écharpe sur l' boule si tu veux pas qu' j' lui refile la grippe par le cul Nouvel album MC, tu seras pas dessus Nouvelles punchlines nouveau swag, tu seras pas déçu Ton gode te diras jamais je t'aime à quoi bon l'sé-çu Sois pas choqué si j'sors ma fusée, que tu m' demandes la lune Si tu fais l'fou tu t'feras fumer par un pote qui m'en doit une J'suis fertile, la main sur l'ventre, j'parle de landeau Pendant qu'des mythomanes dans l'rap parlent de Lambos Est ce que t'as déja vu Jean Claude Van Damme qui parle de Rambo? Ou alors Al Pacino de Marlon Brando? Narvalho parle à mon dos, ma tête est mao A la perquiz' les para-commandos n'ont pas le col Mao La vie m'a pas fait d' cadeaux, j'suis pas l'petit fils a Drummond J'ai que deux mains j'pourrais pas mettre des gifles à tout l' monde Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 Zin c'est le surfeur d' argent sur une vague en diamants Ou le contraire de tous ces fils de pute qui rappent en chialant Quand tu pars en couilles, mes zins partent en thailande Moi j'ai rendez-vous avec ta garce j'roule un gros niaks en y allant Et j'suis au max quand j'rentre dans l' arène L'un après l'autre j'exécute ces nazes sans faire de temps d'arret La justice m' a pas décapité mais elle me prend la tête Si j'file un tuyau à un keuf, c'est pour qu'il s'pende avec J'compte tout baiser c'est pour ça que j'ai l' flow en latex Même cette grosse pute de Marine bouge la tête quand elle se prend ma tape Elle dit C'est khattar, c'est wa3el, c'est michto Les biches font des deep throats, la weed pleine de cristaux Enfoiré de ta race la pute qui dénigres tu? En rhum j'bois des litres purs, quand j'fuck j'ai le chibre dur Bébé la vérité c'est tout c'que je t'ai pas dis avant de gicler Moi j'ai que deux couilles mais je peux te faire des triplés OK! Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4</t>
+          <t>Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 Brap, brap Zin t'es mort avant l' écho Shit dans le cello, chatte dans le merco Rien d'pire qu'un vallaurien avec un mic Chez nous on fuck les clash cousin on veut que des fights Fais toi monter en l'air par la tornade J'rentre chez toi, ta pauvre mère me passe la pommade Elle aimerait bien qu'son fils soit comme VeuVeu Hajja si tu le veux j'le prends comme mon neveu Ils friment dans leur couplets moi j'ferme ma gueule j'actionne Pour blanchir mon cash j'ai besoin du mec qui a blanchi Michael Jackson Et j'ai un .44 le meme que Nicky Larson Mais j'vais le rendre car j'risque de niquer le premier type qui m' klaxonne Et on s'fait peter par ces porcs à l'aube J'fume l' Amnésia pour oublier que c'est des grosses salopes MC t'es comme un eins plein de sillicone mytho J'suis le prince de la city comme Miklo Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 T'es ni dans l' biz ni dans l' dîn, qu'est ce tu m' parles de rue Pourquoi ta meuf s' dandine? Mets lui une écharpe sur l' boule si tu veux pas qu' j' lui refile la grippe par le cul Nouvel album MC, tu seras pas dessus Nouvelles punchlines nouveau swag, tu seras pas déçu Ton gode te diras jamais je t'aime à quoi bon l'sé-çu Sois pas choqué si j'sors ma fusée, que tu m' demandes la lune Si tu fais l'fou tu t'feras fumer par un pote qui m'en doit une J'suis fertile, la main sur l'ventre, j'parle de landeau Pendant qu'des mythomanes dans l'rap parlent de Lambos Est ce que t'as déja vu Jean Claude Van Damme qui parle de Rambo? Ou alors Al Pacino de Marlon Brando? Narvalho parle à mon dos, ma tête est mao A la perquiz' les para-commandos n'ont pas le col Mao La vie m'a pas fait d' cadeaux, j'suis pas l'petit fils a Drummond J'ai que deux mains j'pourrais pas mettre des gifles à tout l' monde Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4 Zin c'est le surfeur d' argent sur une vague en diamants Ou le contraire de tous ces fils de pute qui rappent en chialant Quand tu pars en couilles, mes zins partent en thailande Moi j'ai rendez-vous avec ta garce j'roule un gros niaks en y allant Et j'suis au max quand j'rentre dans l' arène L'un après l'autre j'exécute ces nazes sans faire de temps d'arret La justice m' a pas décapité mais elle me prend la tête Si j'file un tuyau à un keuf, c'est pour qu'il s'pende avec J'compte tout baiser c'est pour ça que j'ai l' flow en latex Même cette grosse pute de Marine bouge la tête quand elle se prend ma tape Elle dit C'est khattar, c'est wa3el, c'est michto Les biches font des deep throats, la weed pleine de cristaux Enfoiré de ta race la pute qui dénigres tu? En rhum j'bois des litres purs, quand j'fuck j'ai le chibre dur Bébé la vérité c'est tout c'que je t'ai pas dis avant de gicler Moi j'ai que deux couilles mais je peux te faire des triplés OK! Un autre jour Zin , un autre billet D'en Bas Un autre jour Zin , un autre billet Charbonne X4</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6052,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Welcome to the Hood, Bad Boy ! Là où les balles entaillent, pas ltime On sréchauffe le corps avec du Ballantine Muets sur les secrets qunous confient nos gars Nous crois pas si jte dis qujtravaille à Cofinoga Jmanie largot dtess, jai des cargos dtextes Réagis mal quand on mteste, explose lalcootest Kiffe le rap dla côte Est, les gos à grosses fesses Accroc dsexe, au tieks Sarko stresse Cest lson qui tfait mal comme une méchante patate Rime à lEssonne bâtard, Mirage sur lchamp dbataille OCBR fume ton CDR De-spee comme Oussama en R1 et lMollah Omar en CBR Cest viscérale, tise et rap viserage j'brise les rattes les huissiers ralent Oui c'est hard d'rester en vie cest rare Là où jhabite reste peace, tue le beat, respire Viol verbal comme Guy George face à Britney Spears La faiblesse, tu lévites pas quand elle est partout Tu commences par les poings, tu finis par compter les cartouches La vie dans lquartier cest dur, pense à celle des gos ! Cest lghetto quon rprésente pour lalbum à Seth Gueko Regarde tu saignes des côtes, va nettoyer ta carcasse Les gars sbagarrent plus, ça tire comme à Jakarta Entre la garde-à-v, les peines et les amendes Quand tévolues sans rien, forcément ça laisse un manque You might also like Peu enclin à la discute, tu mverras peu bavard Ouais cest lennemi du Gud et du Betar Ouais lennemi du monde, dans le JT de Pujadas Plus jrappe, plus jagace, jcrache ce texte à la face Dun auditoire, pollué par M. Pokora On taura, jdébloque lascenseur pour les sales ces-ra Dans lpe-ra, ce traité jle maltraite sans merci Qui est qui, dquoi, jsors dlinertie Rimeur à gages engagé pour la bataille Hataï, cest Scar Logan, reste pas sous ma patate ! Fatal, faux type, donc belek au style ! Juste un lo-sty si tes hostile Et jtenvoie à lhospice Oh ouiii ! Jviens dla rue, pas des pavs Cest la quon ressent plus l'ghetto Blah, v'là ldépart Tu kiffes, mon flow, ma voix, ma vibes Tasse-pé, t